--- a/data/noticias_historico.xlsx
+++ b/data/noticias_historico.xlsx
@@ -458,8 +458,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaNoticias" displayName="TablaNoticias" ref="A1:H46" headerRowCount="1">
-  <autoFilter ref="A1:H46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaNoticias" displayName="TablaNoticias" ref="A1:H68" headerRowCount="1">
+  <autoFilter ref="A1:H68"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Nombre del periódico"/>
     <tableColumn id="2" name="Procedencia"/>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -840,17 +840,17 @@
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Política social</t>
+          <t>Economia</t>
         </is>
       </c>
       <c r="C24" s="4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -860,27 +860,27 @@
         </is>
       </c>
       <c r="C25" s="4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Economia</t>
+          <t>Tecnología industrial</t>
         </is>
       </c>
       <c r="C26" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Tecnología industrial</t>
+          <t>Política social</t>
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -925,41 +925,41 @@
     <row r="38">
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="C38" s="4" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negativa</t>
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Muy positiva</t>
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Muy positiva</t>
+          <t>Positiva</t>
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -969,7 +969,7 @@
         </is>
       </c>
       <c r="C42" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3496,6 +3496,1117 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>Las exportaciones de Castilla-La Mancha de enero a octubre de 2025 sube un 6% respecto al mismo periodo del año anterior</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025-12-22T19:04:36+01:00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Las exportaciones de Castilla-La Mancha alcanzaron en el mes de octubre de 2025 la cifra de 9.359,3 millones de euros , lo que supone un aumento del 6,0% respecto a octubre de 2024 , mientras que en España subieron un 0,8% respecto al mismo periodo año anterior, situándose en 324.772,7 millones de euros, según el último informe elaborado por la Dirección Territorial de Comercio-ICEX en Castilla-La Mancha . Por provincias, Toledo ocupó la primera posición con 2.843,9 millones de euros (+12,4%). Guadalajara se sitúa en segundo lugar con 2.505,2 millones (+11,7%). Ciudad Real es la tercera provincia exportadora, con 2.015,2 millones (-2,4%), y le siguen las provincias de Albacete con 1.323,6 millones (+0,8%), y Cuenca con 671,3 millones de euros, que registra un descenso en la exportación del 1,4%. En cuanto a los sectores exportadores , de enero a octubre de 2025, los productos Agroalimentarios ocuparon la primera posición con 3.253 millones de euros, representando el 34,8% del total exportado por Castilla-La Mancha y registrando un aumento del 5,7% respecto al mismo periodo anterior. Las exportaciones de aceites y grasas bajaron un 9,6% (293,1 millones de euros). Respecto a los países de destino, la Unión Europea acaparó el grueso de las exportaciones de la región con el 75,7% del total, liderada por Portugal con 2.212,3 millones de euros (+9,2%), seguida de Francia con 1.414,1 millones (-2,9%) y Alemania con 945,1 millones de euros (-0,8%). Fuera de ella, Reino Unido se sitúa en 324,8 millones (-6,5%), Estados Unidos con 263,3 millones (-8,4%) o China con 257,8 millones de euros (+124,1%), entre otros. Por su parte, las importaciones de la región alcanzaron los 14.714,9 millones de euros , subiendo un 5,4%, mientras que en España subieron un 4,9% hasta los 370.572,1 millones de euros. Por provincias importadoras, Guadalajara se sitúa en primer lugar , con un aumento del 4,3%, seguida de Toledo (+12,3%), Albacete (+3,9%), Ciudad Real (-4,2%) y Cuenca (-24,1%). Dentro de los sectores importadores, los Bienes de Equipo destacan sobre el resto con 4.197,7 millones de euros (-4,4%), seguido de los Productos Químicos con 2.894,9 millones (+16,0%), y Alimentación, bebidas y tabaco con un valor de 2.533,2 millones de euros (+8,3%). En cuanto a los países de procedencia, el 70,7 % tienen origen comunitario (Alemania y Francia, principalmente). Fuera de la UE, cabe destacar el 11,2% de nuestro principal proveedor no comunitario que es China, con 1.644,4 millones, que subió un 36,2% respecto al periodo enero - octubre de 2024. El saldo comercial de la región hasta octubre de 2025 se situó en -5.355,6 millones de euros, mientras que la tasa de cobertura (Xs/Ms) se situó en el 63,6%, aun claramente inferior a la media nacional (87,6%).</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Fran Malara
+Toledo
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+Las exportaciones de Castilla-La Mancha alcanzaron en el mes de octubre de 2025 la cifra de9.359,3 millones de euros, lo que supone unaumento del 6,0% respecto a octubre de 2024, mientras que en España subieron un 0,...8% respecto al mismo periodo año anterior, situándose en 324.772,7 millones de euros, según el último informe elaborado por laDirección Territorial de Comercio-ICEX en Castilla-La Mancha.
+Por provincias,Toledo ocupó la primera posicióncon 2.843,9 millones de euros (+12,4%). Guadalajara se sitúa en segundo lugar con 2.505,2 millones (+11,7%). Ciudad Real es la tercera provincia exportadora, con 2.015,2 millones (-2,4%), y le siguen las provincias de Albacete con 1.323,6 millones (+0,8%), y Cuenca con 671,3 millones de euros, que registra un descenso en la exportación del 1,4%.
+En cuanto a lossectores exportadores, de enero a octubre de 2025,los productos Agroalimentarios ocuparon la primera posicióncon 3.253 millones de euros, representando el 34,8% del total exportado por Castilla-La Mancha y registrando un aumento del 5,7% respecto al mismo periodo anterior. Las exportaciones de aceites y grasas bajaron un 9,6% (293,1 millones de euros).
+Respecto a los países de destino,la Unión Europea acaparó el grueso de las exportaciones de la regióncon el 75,7% del total, liderada por Portugal con 2.212,3 millones de euros (+9,2%), seguida de Francia con 1.414,1 millones (-2,9%) y Alemania con 945,1 millones de euros (-0,8%). Fuera de ella,Reino Unido se sitúa en 324,8 millones(-6,5%), Estados Unidos con 263,3 millones (-8,4%) o China con 257,8 millones de euros (+124,1%), entre otros.
+Por su parte, las importaciones de la regiónalcanzaron los14.714,9 millones de euros, subiendo un 5,4%, mientras que en España subieron un 4,9% hasta los 370.572,1 millones de euros.
+Por provincias importadoras,Guadalajara se sitúa en primer lugar, con un aumento del 4,3%, seguida de Toledo (+12,3%), Albacete (+3,9%), Ciudad Real (-4,2%) y Cuenca (-24,1%).
+Dentro de los sectores importadores,los Bienes de Equipo destacan sobre el resto  con 4.197,7 millones de euros(-4,4%), seguido de los Productos Químicos con 2.894,9 millones (+16,0%), y Alimentación, bebidas y tabaco con un valor de 2.533,2 millones de euros (+8,3%).
+En cuanto a los países de procedencia,el 70,7 % tienen origen comunitario(Alemania y Francia, principalmente). Fuera de la UE, cabe destacar el 11,2% de nuestro principal proveedor no comunitario que es China, con 1.644,4 millones, que subió un 36,2% respecto al periodo enero - octubre de 2024.
+Elsaldo comercial de la regiónhasta octubre de 2025 se situó en -5.355,6 millones de euros, mientras que latasa de cobertura(Xs/Ms) se situó en el 63,6%, aunclaramente inferior a la media nacional(87,6%).</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>Regalar Dockers es de guapos: los 10 pantalones chinos más cómodos, refinados y al mejor precio para causar sensación en 2026</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025-12-22T19:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Póntelos para ir al trabajo, para una cita o simplemente para hacer recados por la ciudad. Los chinos de Dockers están a precio de derribo y te serán útiles en cualquier momento de este otoño-invierno</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Carlos Domínguez
+El año termina, toca dejarse de tonterías y apostar por lo que realmente vale la pena. No sé tú, pero de cara a este 2026 yo me quedo con Dockers. Porque no se trata de comprar por comprar, sino de elegir lo mejor. Son cómodos de verdad, de los que puedes llevar todo el día sin acordarte de que los llevas puestos, tienen precios ajustados y encajan con cualquier plan que tengas en la cabeza, desde ir a trabajar hasta una cena con amigos. Cuando una prenda funciona en tantos contextos, sabes que estás invirtiendo bien... Y aún más si está rebajada.
+Para mí, remodelar el armario en Año Nuevo pasa por quitar lo que no uso normalmente y quedarme con básicos que lo hacen todo más fácil. Los pantalones de Dockers tienen justo eso: calidad-precio difícil de igualar, tejidos que aguantan el trote y cortes que no pasan de moda. Te los pones con zapatillas, con botas o con zapatos y siempre quedan bien, la verdad. Y esa sensación de abrir el armario y saber que cualquier elección va a funcionar es, sinceramente, uno de esos pequeños placeres que te llevan a empezar el año con buen pie. ¡No te lo pienses!
+Dockers Smart 360 Flex Chino Tapered
+Si hablamos de versatilidad pura, el Dockers Smart 360 Flex Chino Tapered te salvarán la vida en más de una ocasión. Tienen corte tapered (más estrecho hacia el tobillo), que queda bien tanto con sneakers como con zapatos más formales, y el tejido Smart 360 Flex se estira lo justo para moverte sin restricciones, ya sea caminando, sentado todo el día en la oficina o improvisando planes después del trabajo.
+Encajan con prácticamente cualquier look que tengas en mente, lo que los convierte en un básico todoterreno para cualquier armario. Con ellos puedes hacer ese propósito de renovar con sentido sin gastar de más: son cómodos, elegantes sin pasarse y tienen ese equilibrio calidad-precio por el que Dockers lleva años siendo referencia en chinos. Si quieres empezar 2026 con prendas que funcionan de verdad, este modelo es un clásico.
+Dockers Go Active Flex
+El tejido Go Active Flex de estos Dockers se estira con naturalidad y vuelve a su sitio sin perder forma, así que tienen una gran ventaja: puedes agacharte, subir escaleras o pasar horas sentado sin sentirte atado. El azul marino es un color que no falla con nada: va con camisetas sencillas, camisas, jerséis o incluso alguna chaqueta más formal, lo que los vuelve extremadamente versátiles.
+Para mí, estos pantalones son de los que terminas usando más de lo que pensabas: cómodos para todos los días, lo bastante pulidos para salir a cenar y lo bastante tranquilos para el plan más casual del finde. Si tu propósito para 2026 incluye armario más práctico y menos caos cada mañana, este modelo Go Active Flex es una pieza clave que cumple en todos los frentes posibles.
+Dockers Slim Tapered Fit Easy Khaki
+Con los Dockers Easy Khaki Slim Fit en beige me pasa algo curioso: son de esos pantalones que te pones “sin pensar” y, aun así, siempre funcionan. Me gusta porque el corte slim estiliza sin apretar y el color beige tiene ese punto luminoso que levanta cualquier look, incluso los más básicos. Los llevo igual con una camiseta blanca y zapatillas que con camisa y zapatos, y siempre tengo la sensación de ir bien vestido sin haberme complicado lo más mínimo.
+Por si fuera poco son comodísimos, y eso para mí ya es media batalla ganada. En un momento en el que intento comprar menos pero mejor, estos Easy Khaki encajan a la perfección: versátiles, atemporales y fáciles de combinar con todo lo que ya tengo en el armario. Vamos, un pantalón que no hace ruido y acaba siendo protagonista más veces de las que esperaba.
+Dockers Signature Khaki Slim Fit
+En cuanto a los Dockers Signature Khaki Slim Fit Pants en gris (magnet), tengo una relación de confianza absoluta: son chinos que nunca te fallan cuando quieres ir bien vestido. El gris es un color comodín (no roba protagonismo, pero eleva el conjunto) y el corte slim fit te da una línea moderna sin apretar, lo justo para sentirte cómodo sin parecer informal. Cuando los necesito para una reunión, una cena o un plan que puede torcerse entre casual y arreglado, siempre acaban siendo mi elección.
+Lo que más me flipa de este modelo es ese equilibrio entre comodidad y presencia: no son pantalones que se arruguen a la primera, se comportan bien todo el día y combinan con casi cualquier cosa que tengas en el armario. En mi propósito de construir un guardarropa que funcione sin pensar demasiado, estos chinos Signature Khaki hacen honor a su nombre: clásicos, fiables y listos para acompañarte adonde sea.
+Dockers Straight Fit Signature 2.0 Khaki
+Tengo la sensación de que los Dockers Straight Fit Signature 2.0 Khaki Pants en color beige (New British Khaki) significan volver a lo esencial con estilo moderno. El corte straight fit es perfecto si no quieres ir ni muy ajustado ni muy ancho: simplemente cae bien, se siente cómodo y respira con cada movimiento. Y ese tono New British Khaki tiene una vibra clásica que levanta cualquier outfit, algo que para mí es clave cuando no quiero pensar demasiado por las mañanas.
+Lo mejor de este modelo es que son creaseless de verdad: los sacas del armario, te los pones y mantienen la forma incluso después de un largo día de trabajo o de un plan improvisado después de cenar. No tengo que estar arreglándolos cada dos por tres, y eso para mí vale oro cuando quiero ropa que trabaje conmigo, no al revés. En mi misión de tener un armario práctico y elegante para 2026, estos chinos straight fit se han convertido en una de esas piezas que funcionan solas.
+Dockers Alpha Original Khaki
+Cuando me pongo los Dockers Alpha Original Khaki en azul (Pembroke Blue), siento que tengo un comodín extra en el armario: no es el típico beige que todo el mundo espera, pero tampoco es un color que choque con nada. Ese azul Pembroke Blue tiene un punto sofisticado sin pasarse, y eso hace que los chinos funcionen igual de bien con una sudadera relajada que con una camisa si la ocasión lo pide. Son de esos pantalones que te salvan el look sin que te enteres.
+Además, con el corte clásico de la línea Alpha Original, hay espacio para moverse con naturalidad sin perder un aspecto pulido, lo que los convierte en mi elección favorita cuando quiero sentirme cómodo pero con estilo definido. En mi plan de darle sentido al armario este 2026, estos chinos azules no solo aportan variedad, sino que también amplían mis opciones.
+Dockers Ultimate 360 Chino Slim
+Basta con ver estos Dockers y saber que tienen personalidad propia. Cuando te los pones, te das cuenta de que se adaptan a todo. Ese color Dark Ginger no es el típico beige o azul que ves en cada esquina, tiene un punto cálido y diferente que hace que cualquier combinación (desde una sudadera relajada hasta la camisa más formal) se vea bien. Y con el corte slim, la silueta queda definida sin apretar, justo lo que busco.
+Lo que más me mola es la sensación de elasticidad real: el tejido se mueve contigo, no contra ti, lo que resulta perfecto para días largos en los que vas de aquí para allá sin parar. Para mí, estos chinos te acompañan tanto en un plan casual como cuando necesitas ir un pelín más arreglado sin parecer disfrazado. Si este 2026 quiero un armario que funcione en cualquier escena, los Ultimate 360 en Dark Ginger merecen un hueco.
+Dockers Go Airweave Chino Slim
+El color Sahara Khaki de los Dockers Go Airweave Chino Slim tiene un tono tierra que funciona con casi todo (camisetas claras, jerseys oscuros o incluso camisas estampadas) y no sé, es como si animara cada conjunto casi sin querer. El corte slim te da una línea moderna sin apretar, así que te ves bien sin sentirte encorsetado, lo que a mí me viene de maravilla cuando quiero ir bien sin pensar demasiado.
+Si algo me mola realmente de estos Dockers es el tejido Airweave: se siente ligero, fresco y muy agradable sobre la piel, incluso cuando el día se alarga o sube un poco la temperatura. Son pantalones que puedes usar de lunes a domingo, ya sea para currar, salir con amigos o para escapadas improvisadas. En mi idea de tener un armario funcional para 2026, los Go Airweave en Sahara Khaki son de esos básicos que siempre caen bien: confortables de verdad y listos para cualquier plan.
+Dockers Alpha Original Skinny
+Los Dockers Alpha Original Skinny son la versión más pulida de un chino clásico, aunque con una silueta más actual y definida. No es el típico slim que te aprieta por todos lados; es un corte skinny bien trabajado que sigue tu forma sin parecer restrictivo, lo que los hace perfectos tanto para looks casuales como para ocasiones en las que quieres ir un poco más arreglado.
+Su diseño pega con prácticamente cualquier cosa que tenga: desde una camiseta básica y zapatillas hasta una camisa ligera y botas si hace un poco más de fresco. En mi lista de propósitos para 2026, uno de ellos es tener prendas que simplifiquen mis elecciones diarias, y estos chinos Alpha Original Skinny encajan como anillo al dedo: cómodos, con un corte actual y un look que no falla, sean cuales sean mis planes.
+Dockers Classic Fit Easy Khaki
+Acabamos con los Dockers Classic Fit Easy Khaki Pants, con los que tengo una relación de puro confort desde que los descubrí: te los pones y te olvidas de que los llevas, con un acabado que siempre queda bien. El corte clásico no te aprieta ni se te va de formas raras, simplemente cae natural y te deja moverte sin ninguna molestia, cosa que valoro un montón cuando tengo días largos o planes improvisados. Para mí, que busco comodidad y estilo, estos Easy Khaki son un comodín valioso.
+Y lo mejor es que encajan con cualquier rollo que me apetezca: desde camiseta y zapatillas para un paseo tranquilo hasta una camisa más formal si surge una cena de última hora. En mi propósito de tener un armario eficiente, cómodo y sin dramas en 2026, estos Classic Fit se han ganado un sitio fijo: porque van con todo, se sienten bien todo el día y, honestamente, hacen que vestirse sea mucho menos conflictivo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>Vicente Vallés: "El libro sobre este PSOE se titularía 'Caos'. Leire Díez, Koldo... Personajes que se supone vienen de la nada. Son situaciones ridículas y absurdas"</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025-12-23T00:11:46+01:00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Es la estrella de los Informativos de Antena 3, con todo lo que eso conlleva. Ha publicado 'La caza del ejecutor', una novela sobre geopolítica con China y Rusia como protagonistas Leer</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Pregunta.- ¿Cuál es la pregunta más impertinente que le han hecho?
+Respuesta.- '¿De qué equipo eres?'. Es una impertinencia intolerable que alguien me pregunte eso. Solo la duda es inadmisible y me ofende".</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>Golden Goose, las zapatillas desgastadas de 2.000 dólares cada par, son un raro triunfo para el capital riesgo</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025-12-26T05:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>La peor recesión del lujo desde la pandemia ha sido beneficiosa para la marca italiana y ha favorecido el precio de su venta al fondo chino HSG</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>La peor recesión del lujo desde la pandemia ha sido beneficiosa para la marca italiana y ha favorecido el precio de su venta al fondo chino HSG
+Golden Goose es un fabricante italiano dezapatillas deportivas de aspecto sucio y desgastadoque pueden llegar a costar 2.000 dólares un par. El precio de más de 2.500 millones de euros (2.900 millones de dólares) que su accionista de capital privado acaba de conseguir por la empresa de moda es también un monto más extravagante que desaliñado.
+La venta de la marca por parte de Permira al fondo chino HSG, anteriormente conocida como Sequoia Capital China, con Temasek de Singapur como inversor minoritario, es una de las pocas salidas exitosas del capital riesgo. Antes, se han dado una serie de problemas en ciertos acuerdos de adquisición alcanzados por el capital riesgo mientras el mundo salía de la pandemia, justo antes de que se dispararan los tipos de interés.
+La transacción de Golden Goose, que duplicala compra de Versace por parte de Pradade principios de este año, también se produce en un momento de baja demanda de artículos de lujo. La valoración puede ser menos chocante de la que se planteó en su plan de oferta pública inicial, un proyecto abandonado hace 18 meses, pero la firma de capital riesgo prácticamente ha duplicado el valor de la compañía en cinco años.
+Permira adquirió en 2020 la mayor parte de Golden Goose a Carlyle por 1.300 millones de euros. El año pasado, el mercado se resistió a considerar un valor empresarial de 3.000 millones de euros en su salida a la bolsa en Milán, y el plan fracasó. Los inversores señalaban los problemas de Dr. Martens, otra empresa de calzado anteriormente propiedad de Permira. La desaceleración del mercado de productos de alta gama no ayudó tras tres años de crecimiento vertiginoso.
+Y, sin embargo, la peor recesión del lujo desde la crisis financiera (excluyendo la pandemia) ha sido beneficiosa para Golden Goose.
+Mientras los consumidores acomodados, pero no superricos, controlaban su gasto, megamarcas como Louis Vuitton y Gucci subieron de categoría para seguir el ritmo del dinero. Al concentrarse en el 1% más rico, algunas marcas abandonaron productos básicos como las zapatillas de diseño, dejando ese mercado en manos de Golden Goose. También subieron los precios de zapatos, bolsos y otros productos básicos. El coste medio de una cesta de artículos de lujo icónicos en Europa aumentó un 54% entre 2019 y finales de 2024, según analistas de HSBC Holdings.
+A modo de comparación, Golden Goose ha subido los precios tan solo un 4% en los últimos cinco años. Esto hace que sus zapatillas, con un precio medio de 550 euros, incluyendo la personalización, tengan una mejor relación calidad-precio.
+La compañía aumentó las ventas de 266 millones de euros en 2020 a 655 millones de euros en 2024. El crecimiento ha continuado este año, con un aumento del 13% en las ventas en los primeros nueve meses y un 7% en el beneficio. Asumiendo un crecimiento similar para todo el año y un margen de Ebitda estable, Golden Goose podría generar alrededor de 740 millones de euros en ventas en 2025 y cerca de 250 millones de euros de Ebitda.
+El precio pagado por HSG equivale a aproximadamente 10 veces el Ebitda, un descuento respecto a las 13 veces de otra marca como Moncler y las 11 veces de Birkenstock, pero aún así duplica al menos el valor patrimonial. Permira se mantendrá como inversor minoritario.
+HSG anteriormente respaldó al fabricante de Labubu, Pop Mart, al propietario de TikTok, ByteDance, y a la plataforma china de redes sociales Red Note, por lo que la expansión de Golden Goose probablemente se centrará en Asia. Las zapatillas italianas únicamente generan el 12% de sus ventas en la región, y solo el 7% en China, una cifra muy inferior a la de la mayoría de las marcas de lujo. Aproximadamente la mitad de sus ventas se concentran en América; el resto, en Europa y Oriente Medio.
+Claramente, hay más opciones en China. Dado que los bolsos de Gucci y los zapatos de salón de Chanel ya no son tan apreciados, existe un gran interés por artículos originales que conecten emocionalmente con los jóvenes compradores.
+Un ejemplo son los zuecos de Crocs, que se pueden personalizar y se han convertido en un éxito entre los consumidores de la Generación Z del país. Esto es un buen augurio para Golden Goose. Las zapatillas deportivas representan el 90% de las ventas de la compañía, por lo que hay margen para diversificarse. Los bolsos y la ropa, que también se pueden personalizar, son otras oportunidades tanto en EE UU como en China. La experiencia de Temasek como inversor en Stone Island, Ermenegildo Zegna y el holding del presidente de Moncler, Remo Ruffini, debería ser de ayuda. El exdirector de Gucci, Marco Bizzarri, asumirá la presidencia.
+Pero alcanzar el objetivo a largo plazo de Golden Goose de elevar las ventas anuales a 1.000 millones de euros no será fácil. Aunque se espera que el mercado de lujo chino haya pasado lo peor, cualquier recuperación llevará tiempo. Y los consumidores locales se centran más en las zapatillas deportivas que les ayudan a correr más rápido o afrontar rutas más exigentes. Nike declaró recientemente que se la consideraba más una marca de calzado de moda informal que de alto rendimiento, lo que frenó las ventas y la obligó a rebajar los precios.
+Mientras tanto, las grandes marcas de lujo han decidido recuperar a sus clientes de clase media. Las zapatillas deportivas y productos similares serán clave, generando mayor competencia. Si Golden Goose logra expandirse con éxito en China y convertirse en una marca de estilo de vida más amplia como Ralph Lauren, su futuro se aleja de lo desaliñado. Pero dadas las dificultades de los propietarios de capital riesgo en los últimos dos años, no es mal momento para retirar dinero.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>El automóvil busca ‘democratizar’ el eléctrico con coches por debajo de 25.000 euros para competir con China</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025-12-25T05:15:00+01:00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Cerrado ya el frente con la UE por los objetivos de emisiones, el sector apunta en 2026 a una ofensiva de producto con la que extender la movilidad eléctrica en el Viejo Continente</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Cerrado ya el frente con la UE por los objetivos de emisiones, el sector apunta en 2026 a una ofensiva de producto con la que extender la movilidad eléctrica en el Viejo Continente
+El año que está a punto de acabar ha estado marcado por dos victorias de calado para los fabricantes de coches en el ámbito de la regulación europea.La primera, que tuvo lugar en marzo, fue la suspensión para 2025 y 2026 de las multas para aquellas marcas que incumplan los objetivos de emisiones de CO2 de los coches nuevos que establece la normativa CAFE, que entró en vigor en enero. Tras presionar a la Comisión Europea, esta estableció que las emisiones del periodo 2025-2027 se contarán de forma conjunta, por lo que las sanciones se posponen, dando más tiempo a los fabricantes para incrementar sus matriculaciones de eléctricos. La segunda, se produjo este diciembre, con el anuncio de la Comisión Europea deflexibilizar los objetivos de emisiones para 2035: ese año, finalmente no se prohibirá la venta de vehículos de combustión.
+Cerrados ya esos frentes, sobre todo gracias a la presión de los grandes fabricantes de automóviles alemanes, ahora el sector apunta a un 2026 en el que tendrá que saltar al campo de juego y disputar el partido con las marcas chinas. El sector necesita volver a aumentar ganancias traslos pronunciados descensos de este año—algo en lo que han influido, y mucho, los aranceles aprobados por la administración estadounidense de Donald Trump—. Para ello, el motor lanzará al mercado una batería de coches eléctricos deen torno o por debajo de la barrera de los 25.000 euros sin contabilizar ayudas. Y ahí, España jugará un papel importante: buena parte de estos modelos se harán en el país, concretamente en las plantas del grupo Volkswagen en Navarra y Barcelona. La primera ensamblará el Volkswagen ID. Cross y el Skoda Epiq; mientras que la segunda hará el Cupra Raval y el Volkswagen ID. Polo.
+Volkswagen ha asegurado en varias ocasiones que estos modelos sonsu apuesta para “democratizar” la movilidad eléctrica, aunque de cara a 2027 apuesta por lanzar un modelo por debajo de los 20.000 euros, que se hará en Portugal. La Península Ibérica será su centro de producción de vehículos eléctricos asequibles, algo indispensable si quiere cumplir con los objetivos de emisiones de los próximos años. Renault, por su parte, comenzará a entregar a principios de año las primeras unidades de sunuevo Twingo, un modelo eléctrico por debajo de los 20.000 euros sin ayudas.
+Estos modelos serán aún más baratos en España al sumarlas ayudas públicas a la compra del Plan Auto+en el que trabajan el Ministerio de Industria y la patronal de fabricantes de coches, Anfac, que servirá para subvencionar las compras que se hagan a partir del 1 de enero. Hasta entonces seguirá operando el Moves y la deducción de un máximo de 3.000 euros en el IRPF por la compra de un electrificado.
+Las nuevas ayudas, sin embargo, también servirán para subvencionar la compra de eléctricos de los competidores chinos, que han encontrado en España su punto de entrada preferido a Europa. Ganvam, patronal que representa a los concesionarios y a los talleres, destacóen su encuentro de prensa navideñoque las marcas chinas tienen el doble de penetración en España que en el resto de la UE, con una cuota de mercado del 10%.
+A las ya conocidas por el público español como BYD, MG u Omoda, se sumarán el año que viene otras como Great Wall Motor (GWM) —que en un principio había desistido del mercado europeo, pero en octubre anunció el lanzamiento de siete modelos para el Viejo Continente—, Changano Lepas. Esta última pertenece al grupo Chery, que ya cuenta en Europa con otras marcas como Jaecoo y Ebro. Ello supone más competencia para fabricantes como Volkswagen, Renault o el grupo Stellantis, que en el ámbito del coche eléctrico acaban de presenciar la llegada al mercado dela versión más barata del Tesla Model 3. Con él, la compañía de Musk busca recuperar algo del inmenso terreno perdido este año, en el queha cedido mucha cuota de mercado.
+El Kia EV2, el modelo eléctrico más asequible hasta la fecha de la marca surcorena, que se hará en Europa, asoma también como un fuerte contendiente para las firmas tradicionales. Su hermano mayorEV3 fue el segundo eléctrico más vendido en España entre enero y noviembre, solo por detrás del Tesla Model 3.
+Más allá de la batalla entre los fabricantes de coches, España buscará atraer más inversiones industriales para afianzar su posición como unhubeuropeo de electromovilidad. Para ello se ha lanzado el Plan España Auto 2030, en el que se contempla aumentar entre 300.000 y 400.000 unidades la producción anual de coches, lo que equivale a la actividad de una planta estándar. El plan irá acompañado, además de ayudas a la compra y a la instalación de puntos de recarga en carretera, deun nuevo Perte del Vehículo Eléctrico y Conectado (Perte VEC) dotado con 580 millones de euros.
+A ese programa es posible que apunten algunos fabricantes chinos que ven a España como candidata a albergar una nueva planta, como son los casos de GWM, BYD o MG. Otro fabricante al que se busca seducir es a Renault, compañía que cuenta con dos plantas en Palencia y Valladolid, que a día de hoy están orientadas exclusivamente a la producción de híbridos. La compañía está centrada en llenar sus fábricas francesas de eléctricos, donde tiene una capacidad máxima de producción de 600.000 al año, algo que parecemás encaminado tras el acuerdo firmado con Ford para hacer dos modelos de la estadounidense en Francia. El objetivo del grupo galo es hacer un millón de eléctricos anuales en 2031 y para ello necesitará producir en otros países como España. Si bien la automovilística aún no ha confirmado la fabricación de sus primeros eléctricos en el país, seráun tema que se tratará en la negociación del nuevo convenio colectivoque entrará en vigor en 2026.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>La telenovela navideña con capítulos más cortos que TikToks</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-12-25T05:30:01+01:00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Se estrena el primer microdrama nacional, un género con episodios de entre uno y tres minutos que ha arrasado en China y América</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Se estrena el primer microdrama nacional, un género con episodios de entre uno y tres minutos que ha arrasado en China y América
+Con la cremallera del plumas de estampado más veraniego imaginable hasta arriba y un suéter cuello cisne, baila frente al espejo del baño. La voz corpórea de un narrador nos la presenta: es Sofía, treintañera o casi; las navidades las va a pasar esquiando con su novio. Porque lo quiere —nos explica ese timbre cálido y resonante— y porque —asumimos nosotros— cualquier plan le apetece más que la regresión que supone cada vuelta a casa, con papá y mamá empeñados en infundirle el júbilo de las fiestas por la fuerza. Se cruzan unos mensajes, su hermano avisa en el grupo familiar de que llevará a su nueva novia, “¡qué bien, al fin la conoceremos”. Va a librarse, sí, hay alivio en su rostro reflejado en el cristal. Hasta que encuentra unpost-itque lo trastoca todo: ni Baqueira ni novio. Fin del capítulo. Un minuto escaso de metraje.
+Ya han llegado a España.Una novia por navidad,recién estrenada,es la primera producción nacional de este género;microdramas, los llaman. Series rodadas en formato vertical en las que cada episodio no dura más de un par de minutos, ficciones pensadas para consumirse como vídeos de TikTok o Reels de Instagram, el algoritmo haciendo equipo con el viejo poder de la narrativa de giros de guion ycliffhangers(odio los anglicismos, pero qué visual es este) para tenernos a todos así: abismados frente a la pantalla del móvil.
+Un reportaje de El País Semanalde comienzos de año ya daba muestras del músculo en China de esta industria tan bisoña: sus ingresos en 2024, unos 6.685 millones de euros, habían superado a la taquilla de cine, según la Asociación de Servicios de Difusión por Red de China. Casi 600 millones de espectadores. A lo largo de este 2025, las microseries fueron conquistando fronteras nuevas, India, Estados Unidos y Latinoamérica, sobre todo, tierras fértiles en materia folletinesca.
+Ahora, me consta, también en Europa las productoras se han sumado a la fiebre de perseguir y cazar antes que la competencia a quien sea capaz de escribir y rodar estos argumentos tan esquemáticos como adictivos. Espadachín solitario salva el mundo, chica conoce a un buen mozo que no es lo que parece, romance erótico, repleto de frases para ligar que jamás pronunciaría alguien sensato en una discoteca; vampiros que parecen (y tal vez sean) la enésima reencarnación de Edward Cullen. Atresmedia, en su ficción de 60 capítulos, ha apostado por otra trama clásica: un triángulo amoroso, con parientes afectados.
+Sofía, a la que da vida la violinista y actriz Marina Baeza, con el mismo abrigo y botas rojas bajo un sol radiante, está sentada en un talud, junto a un camino. Comiendo polvorones. “¿Sabes que cada año mueren 23 personas atragantadas con los polvorones? Lo leí en un artículo. En Vogue”. La corredora que se le acerca preocupada por su salud es la creadora de contenido Carla Flila (casi un millón de seguidores en su cuenta de Instagram, entre ellos famosas como Rosalía o Carolina Yuste). Sofía, borde primero con la desconocida, no tarda en derrumbarse y en confesarle su desgracia: ¿qué clase de novio te abandona con una mera frase manuscrita en un papelito adherido a un azulejo antes de navidad? Entre las dos surge algo, complicidad, quizá un atisbo de atracción. Pero, por si la sugerencia no resultara meridiana, vuelve a actuar el narrador, que nos explica otro (maldito) anglicismo: “Acaba de suceder unmeet cute,expresión anglosajona que se refiere a la escena en la que dos personas que formarán una futura pareja romántica se encuentran por primera vez”.
+¿Y dónde descubre Sofía que el personaje que interpreta Flila es la novia de su hermano? En la ducha, por supuesto.
+Son tiempos de atención dividida, de vida a doble pantalla. La parte buena es que, si como yo aborrecen la navidad, en lo que tardan en escabullirse entre el gentío de las calles del centro, en lo que escapan de los cuartetos de cuerda callejeros que tocan el canon de Pachelbel, pueden haberse tragado 10 o 12 capítulos de las andanzas de Sofía. Hay navidades peores que las nuestras.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>Taiwán aprueba una ley que busca equilibrar el desarrollo de la IA con el bienestar social</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025-12-24T02:52:52+01:00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>El texto legislativo estipula que la implementación de la IA debe adherirse a siete principios fundamentales: sostenibilidad y bienestar, autonomía humana, privacidad y gobernanza de datos, ciberseguridad y protección, transparencia, equidad y no discriminación, y responsabilidad Leer</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>El Yuan Legislativo (Parlamento) de Taiwán aprobó este martes la Ley Básica de Inteligencia Artificial (IA), una normativa que insta al Ejecutivo a promover la investigación y el desarrollo de aplicaciones de IA al tiempo que prioriza el bienestar social, la equidad digital, la innovación y la competitividad.
+Según la agencia de noticias CNA, el texto legislativo estipula que la implementación de la IA debe adherirse asiete principios fundamentales: sostenibilidad y bienestar, autonomía humana, privacidad y gobernanza de datos,ciberseguridad y protección, transparencia, equidad y no discriminación, y responsabilidad.
+La Ley Básica, adoptada con el apoyo de los dos principales partidos de la oposición, el Kuomintang (KMT) y el Partido Popular de Taiwán (PPT), que cuentan con mayoría parlamentaria, también designa al Consejo Nacional de Ciencia y Tecnología (NSTC) como la autoridad rectora en materia de IA.
+El gobernante Partido Democrático Progresista (PDP), por su parte,expresó sus objeciones respecto al texto, puesto que las leyes básicas tradicionalmente no especifican una autoridad competente.
+La normativa contempla la creación, por parte del Yuan Legislativo, de un comité nacional de estrategia de IA, encabezado por el primer ministro e integrado por académicos, representantes de la industria, jefes de agencias gubernamentales y autoridades locales, con el mandato de formular directrices para el desarrollo de esta tecnología y reunirse al menos una vez al año.
+Asimismo,la nueva ley exhorta al Ejecutivo a asignar fondos para la investigación en torno a la IAy a proporcionar asistencia y subsidios para el desarrollo, la capacitación, las pruebas y la validación de la IA, según CNA.
+Hogar del principal fabricante de semiconductores (TSMC) y del mayor ensamblador de productos electrónicos del mundo (Foxconn), Taiwán se ha visto fuertemente beneficiado por el auge de la IA y de la computación de alto rendimiento: el PIB local anotó un avance del 8,21 % en el tercer trimestre de este año gracias al tirón de las exportaciones.
+El Gobiernoprevé que la fotónica de silicio, la computación cuántica y la robótica generen cientos de miles de empleosy billones de dólares taiwaneses en producción en las próximas décadas, mientras aspira a situar a la isla entre los cinco principales desarrolladores de inteligencia artificial en el mundo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>El plan de Maduro para hacer frente a la Casa Blanca: ofensiva internacional, resistencia y desgaste de Trump, con apoyo de Rusia y China, sus aliados</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025-12-23T19:30:19+01:00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>El Consejo de Seguridad de la ONU celebra este martes una reunión extraordinaria a petición de Caracas para abordar la crisis en el Caribe Leer</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Es una carta de seis páginas, firmada porNicolás Maduro, pero que pareciera un publirreportaje pagado de la Venezuela que no existe. "Hoynuestra nación vive en paz, con estabilidad institucional, crecimiento económico sostenido y una firme vocación de diálogo y entendimiento entre los pueblos, pese a haber sido sometida durante años a medidas coercitivas unilaterales y presiones externas", asegura el "presidente pueblo" en la misiva dirigida a los mandatarios de América Latina y del Caribe, en la que mezcla sufalso victimismocon las claves principales de suestrategia internacional para atornillarse en el poderpese aldespliegue naval estadounidensey jaque petrolero diseñado por Washington.
+Como parte de la misma ofensiva contra la "piratería internacional" de EEUU se llevó a cabo ayerun consejo extraordinario, a petición de Maduro, del Consejo de Seguridad de Naciones Unidas, precedido del paso adelante de los tres grandes aliados globales del chavismo:Rusia, Irán y China. Serguéi Riabkov, viceministro ruso de Exteriores, insistió ayer que su gobierno ha mostrado a Washington supreocupación ante la escalada del conflicto, tras negar que estén evacuando a su personal diplomático de Caracas.
+"El mundo debe saber que la amenaza no es Venezuela, es EEUU. Venezuela sólo es el primer objetivo de un plan mayor para dividir y dominar a América Latina", predicó el embajador chavista, Samuel Moncada, en el Consejo de Seguridad. Rusia aprovechó el debate y respaldó a Caracas, su gran aliado en las Américas.
+EEUU, en cambio, no se achantó y aprovechó para adelantar que llegarán más sanciones y más fuertes"para privar a Maduro de los recursos que utiliza para financiar el Cártel (narco) de los Soles", precisó el embajador Mike Waltz, quien además aseguró que los petroleros de la flota fantasma que EEUU persigue en el Caribe "son el principal salvavidas de Maduro y su régimen totalitario".
+Varios de los participantes en esta reunión extraordinaria atacaron duramente a Caracas, como Argentina, que volvió a mostrar su apoyo ala máxima presión para sacar el ilegítimo Maduro del poder. Varios países europeos, como Francia, Reino Unido, Eslovenia y Dinamarca, criticaron las violaciones chavistas de los derechos humanos y reclamaron una vía de diálogo para salir del conflicto.
+No sólo Rusia, también China e Irán han irrumpido con fuerza en la crisis del Caribe tras la incautación de dos petroleros, uno con destino a Cuba y otro al propio país asiático.China es el principal cliente del petróleo venezolano, aunque parte de los pagos se realizan para condonar la deuda entre los dos países, que se acercaba a los 60.000 millones de dólares.
+"EEUU viola flagrantemente el Derecho Internacional en el Caribe, con el aumento de presión contra un gobierno independiente, con el objetivo de intervenir y cambiar la soberanía de ese país.La República Islámica responderá de manera adecuada ante cualquier agresióno ataque contra sus intereses", advirtió Esmail Baghai, portavoz del Ministerio de Asuntos Exteriores de Irán.
+De esta forma,Maduro ha regresado a la ONU cuando hace semanas se quejó de que no servía para nada. Además, en 2024, a raíz del encarcelamiento de la hispanovenezolana Rocío San Miguel, figura emblemática de la sociedad civil venezolana, el chavismo expulsó a la oficina de Derechos Humanos de Naciones Unidas, a la que más tarde permitió volver y a la que más tarde amenazó de nuevo.
+La ong Transparencia Venezuela, uno de los bastiones en la investigación de la corrupción revolucionaria, identificó en las últimas horas a 10 buques que están cargando o esperando cargar en puertos venezolanos."El negocio del petróleo es tan atractivo económicamente que mucha gente está dispuesta a correr riesgos", afirmó Mercedes de Freitas, al frente de Transparencia Venezuela.
+"Otra cosa que identificamos es que esos barcos entran y salen con petróleo y algunos van a China. Nosotros hacemos seguimiento a la aduana de China y no aparece que hayan recibido petróleo venezolano", desveló Freitas.
+En cambio, quien no ha dejado de fletar sus barcos entre Venezuela y EEUU es la multinacional Chevron, que según Reuters ha exportado siete cargamentos de petróleo, cada uno con entre 300.000 y 500.000 barriles, en lo que va de mes.El último buque cisterna, enviado el pasado domingo con destino al Golfo de México,contó con la supervisión de la vicepresidenta Delcy Rodríguez. Chevron puede operar en el país criollo gracias a las licencias concedidas primero por Joe Biden y después por el propio Trump.
+"La estrategia internacional de Maduro es resistir porque está consciente de las limitaciones que enfrenta. Con el bloqueo y confiscación de buques petroleros,vuelven a escena países como China y en menor medida Rusia porque sí tienen las herramientas para ayudar a Maduroa sortear el bloqueo selectivo, por ejemplo facilitando tanqueros que no estén sancionados o que tengan bandera de algún país como China que suba los costos para que EEUU confisque el barco. Creo que ahora mismo el régimen de Maduro trata justamente de convencer a países como China y Rusia que le otorguen esa ayuda, donde el riesgo de un enfrentamiento militar con EEUU es menor. En las próximas semanas quedará claro si hubo esa voluntad de tenderle una mano a Maduro, dada las estrechas alianzas que han formalizado con esos países", profundiza el internacionalista Mariano de Alba para EL MUNDO.
+Resistencia y jugar al desgaste de la administración Trump II, pese a la última andanada llegada desde Washington.El mandatario estadounidense empleó nuevas palabras ("Si se pone rudo, será la última vez que lo haga"), para mantener la presión contra el dictador bolivariano, a quien señalan como cabecilla del narco Cártel de los Soles.
+La respuesta se la dio ayer Diosdado Cabello, número dos de la revolución y ministro de Interior, rodeado de policías y militares en un acto mañanero de prietas las filas: "El Imperio (EEUU), más temprano que tarde, va a desaparecer por el bien de la Humanidad".
+Previamente, Maduro había aconsejado a Trump que se dedicara a los temas económicos y sociales en su país."Le iría mejor con el mundo si él atendiera los temas de su país. Cada presidente en lo suyo. Imagínate que yo perdiera mi tiempo metiéndome con otros países. Lo estaría haciendo muy mal", planteó el mandamás bolivariano, que cierra el año con la mayor inflación del planeta, triturada hace días la barrera del 500% de subida de los precios.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>Una misa del gallo global en 1592</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2025-12-25T20:11:51+01:00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Amediados de 1590, don García de Mendoza, marqués de Cañete y octavo virrey del Perú, despachó un navío a la China saltándose las prohibiciones reales, so pretexto de recaudar impuestos con los gravámenes que pensaba aplicar a las mercaderías orientales. Sin embargo, de los 300 mil ducados de plata embarcados en aquella nave, 100 mil habían salido del bolsillo del mismo virrey, lo que nos insta a poner en duda su repentino entusiasmo fiscal. Con todo, el barco fue interceptado por las autoridades portuguesas y aquellos duros antiguos que tanto en Macao dieron que hablar, nunca volvieron a manos ni del virrey ni de los mercaderes limeños que instigaron aquella operación de contrabando. ¿Quién se quedó con esos 300 mil... Ver Más</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>comentarios reales
+Fernando Iwasaki
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+Amediados de 1590, don García de Mendoza, marqués de Cañete y octavo virrey del Perú, despachó un navío a la China saltándose las prohibiciones reales, so pretexto de recaudar impuestos con los gravámenes que pensaba aplicar a las mercaderías orientales. Sin embargo, de los 300...mil ducados de plata embarcados en aquella nave, 100 mil habían salido del bolsillo del mismo virrey, lo que nos insta a poner en duda su repentino entusiasmo fiscal. Con todo, el barco fue interceptado por las autoridades portuguesas y aquellos duros antiguos que tanto en Macao dieron que hablar, nunca volvieron a manos ni del virrey ni de los mercaderes limeños que instigaron aquella operación de contrabando. ¿Quién se quedó con esos 300 mil ducados, equivalentes a 20 millones de nuestros euros actuales?
+Al fallido negocio chino del marqués de Cañete dediqué uno de los capítulos de mi vieja tesis de maestría, donde descubrí que el testaferro del virrey y sus cómplices fue un jesuita sevillano: el padre Leandro Felipe, admirado por «haberlo sacado Dios del tumulto de los negocios». El marqués no dudo en meter de nuevo a Leandro Felipe en aquel berenjenal, porque nadie podía cuidar mejor la pasta gansa del señor virrey, que un jesuita versado en negocios. No obstante, quizá Dios no sacó del todo al sevillano del tumulto de los negocios, porque cuando Leandro Felipe comprendió que la Hacienda portuguesa se disponía a trincar los 300 mil ducados, del tirón los depositó en la caja jesuita de Nagasaki para socorrer las misiones de la Compañía de Jesús en el Japón. Si el dinero hubiera llegado a Portugal, sin duda el marqués de Cañete habría recuperado una parte, pero de la hucha de las misiones ya no lo sacaba ni Dios.
+El padre Leandro Felipe regresó a Lima diez años más tarde, porque su aventura nunca dejó de ser un episodio delictivo que supuso arrestos domiciliarios por colegios y conventos de Macao, Yemen, Goa, Malaca y México. Así, según la 'Monumenta Indica', Leandro Felipe pasó la Navidad de 1592 en el colegio de Goa (India), donde participó en una misa del gallo multicultural, pues «uvo sermón en diversas lenguas, scilicet, latín, ytaliano, portugués, castellano, inglés, vizcaíno, flamenco, francés, malavar, china, japón, griego, hebreo, canarín, del Pyrú y otras tres o quatro». Doctrinero en los Andes, el sevillano Leandro Felipe se arrancó a predicar en quechua en una misa del gallo celebrada en la India, cuando expiraba el siglo XVI.
+Ahora que ponderamos el legado civilizador de España durante la primera globalización, reparemos en cómo toda aquella diversidad se integró a través de una fiesta como la Navidad. Oro, incienso, mirra y un puñaíto de lenguas. Feliz Pascua de Navidad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>“El gran ganador de este año es China”</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2025-12-26T06:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Plàcid García-Planas dibuja un mundo volátil con Oriente Próximo estancado, Europa “zombi” ante el abandono de Trump y Pekín llenando los vacíos, en un año donde la IA ya está en “vuestra nevera” y predice proteínas para curar enfermedades</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Departamento Audiovisual
+Barcelona
+“Tenemos paz estable, no. Lo que tenemos es una guerra estable”, resume Plàcid García-Planas, periodista de Internacional de La Vanguardia, sobre el conflicto en Gaza, donde “el sufrimiento continúa” con entre 16.000 y 18.000 heridos esperando tratamiento exterior. Lo que definirá el futuro, advierte, “no es tanto la derrota militar de Hamás o de los palestinos, sino el abandono que todos los países árabes han tenido de la causa palestina”, ya que ningún gobierno rompió con Israel pese a las críticas.
+Para 2026, “lo único seguro es que los palestinos continuarán sufriendo”, pronostica García-Planas, que rechaza análisis en “un mundo tan volátil” pero destaca el “pulso interno” en Israel entre “los duros, Netanyahu y los duros” y un “Israel liberal que aunque parezca que no exista, existe”. Sobre el plan de paz de Donald Trump, es pesimista: “¿Qué es plan y qué es paz para Trump? Para él, paz es negocio, para él, paz es el Nobel”, lo que hace “muy difícil” un acuerdo generoso con los palestinos.
+Ucrania redefine una Europa “zombi”
+La invasión rusa de Ucrania está en “una situación como de empate”, donde “ninguno es capaz de acabar de imponerse”, pero “acabará definiendo Europa”, insiste García-Planas. Europa vive “en plan zombi, todavía no sabe cómo salir” ante la “irrupción de Trump, que ha cambiado no solo la política. Los cambios son tan profundos que todavía no somos conscientes. Esto los libros de historia hablarán de este año como de un año esencial”.
+Estados Unidos “abandona Europa, la deja aparte” en su nueva estrategia de seguridad, “insulta Europa” y obliga al continente a “espabilarse” tras décadas de depender de su protección, lo que tendrá “consecuencias en todos los niveles”.
+En Latinoamérica, el giro a la derecha refleja que “la democracia funciona” y un “hartazgo de los gobernantes que habían llevado el país hasta ahora”, aunque Trump revive la doctrina Monroe con interferencias directas, como amenazas a Venezuela que nadie sabe si cumplirá.
+China, el gran ganador de la volatilidad
+“Lo que definirá el futuro es la volatilidad. Y el gran ganador de momento es China, porque China llena todos los huecos que abandona Estados Unidos”, sentencia García-Planas sobre un 2025 marcado por tuits imprevisibles de Trump que “lo tambalean todo”. El mundo avanza hacia “menos democracia” y “sistemas totalitarios”, con negociaciones agarradas “con pinzas” por la inestabilidad.
+IA predictiva revoluciona la ciencia
+Francesc Bracero, periodista de tecnología de La Vanguardia, distingue la IA predictiva, que predice “la estructura de proteínas” para elaborar medicamentos contra enfermedades incurables, de la generativa como ChatGPT. “La tenéis en vuestros televisores, en vuestra nevera... y ahora mismo está en la aspiradora”, asegura, destacando su rol en rutas de tráfico o chatbots administrativos como el nuevo de la Generalitat.
+La IA no ha restado tantos empleos como se temía –un 12% según el MIT–, porque “una máquina no puede empatizar” ni mantener contactos humanos innatos tras millones de años de evolución. Sobre la inteligencia artificial general, los expertos divergen: algunos ven agotados los grandes modelos de lenguaje y apuestan por enfoques nuevos que superen la humana en cálculo, mientras su impacto en industria y salud mental apenas empieza a vislumbrarse.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>Una “Flota Dorada” para Trump</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2025-12-24T06:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>El presidente estadounidense promete ampliar la fuerza naval de su país en plena carrera con China</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Daniel R. Caruncho
+Barcelona
+En el mundo de Donald Trump, todo es dorado.
+Desde la decoración de la Casa Blanca –molduras áureas en cada rincón– a su nuevo visado para extranjeros multimillonarios –la llamadaGold Card–, pasando por el ambicioso proyecto de escudo antimisiles destinado a proteger a EE.UU. de ataques aéreos –la ya célebre Cúpula Dorada–.
+Oro por tierra, aire y también por mar: el magnate hace tiempo que fantasea con construir una “Flota Dorada” para insuflar una nueva vida a la Armada estadounidense, y el lunes dio un primer paso para materializar su sueño.
+En un acto ante la prensa en su residencia privada en Mar-a-Lago, Trump anunció el lanzamiento de una nueva clase de barcos de guerra –“acorazados”, según él, aunque en realidad se trata más bien de destructores– que llevarán su nombre.
+Estos buques, dijo el presidente estadounidense, serán “los mejores del mundo”, “cien veces más potentes” que cualquiera de los que se hayan construido hasta ahora. “Inspirarán miedo en nuestros enemigos”, aseguró el mandatario en su habitual tono grandilocuente.
+Imagen de uno de los buques “clase Trump”
+De acuerdo con las explicaciones de Trump, las nuevas embarcaciones pesarán entre 30.000 y 40.000 toneladas y estarán equipadas con la última tecnología, como inteligencia artificial y láseres de alta potencia. Además, podrán transportar misiles de crucero nucleares, un tipo de armamento del que los buques estadounidenses prescindieron al finalizar la guerra fría, cuando ya no era necesario marcar terreno ante la amenaza soviética.
+El magnate –que compareció junto a sus secretarios de Estado, de Defensa y de la Armada, en un atril flanqueado por plafones que mostraban recreaciones virtuales de los barcos decoradas con su efigie– aseguró que el programa comenzaría “casi de inmediato” con la construcción de dos buques, y que la idea era llegar a las 25 embarcaciones de este tipo.
+Para Trump, esta renovación de la flota militar es un asunto de máxima prioridad. “Necesitamos barcos con urgencia”, dijo. “Algunos de nuestros barcos se han quedado viejos y obsoletos, y vamos a ir en la dirección opuesta”, agregó el mandatario, que espera que su nuevo proyecto sirva para reanimar la industria naval de su país, creando “miles” de puestos de trabajo.
+De hecho, hoy EE.UU. va a la zaga de China en lo que respecta a poderío marítimo. Según datos del Departamento de Defensa estadounidense, el gigante asiático disponía en el 2023 de 332 embarcaciones de guerra, frente a las 291 de la superpotencia norteamericana.
+Los astilleros chinos echan humo: de ahí han salido cerca del 60% de las embarcaciones construidas en todo el mundo este año (incluyendo las de uso civil). Y no parece que vayan a aflojar el ritmo. Pekín está regando de dinero el sector, consciente de que el futuro de la hegemonía globalpasa por el control de los océanos.
+Eso sí, este predominio tiene sus sombras: los buques y submarinos chinos no han sido testeados en situación de combate, a diferencia de los estadounidenses, por lo que su fiabilidad está en duda.
+Pero esto es un consuelo menor para EE.UU., que se ve incapaz de igualar la hiperproducción de su rival.
+El Centro de Estudios Estratégicos e Internacionales, con sede en Washington, alertaba en un informe reciente de que la industria naval estadounidense arrastra serios problemas que le impiden cumplir con las demandas de modernización de la flota de guerra: falta mano de obra especializada, las infraestructuras no están a la altura y la cadena de suministro es muy frágil.
+Estos obstáculos, imposibles de eliminar de un día para otro, pueden echar por tierra las aspiraciones de Trump, que en los últimos meses ha visto cómo la Armada tenía que cancelar iniciativas como el programa de fragatas Constellation, que acumulaba tres años de retraso y que debía producir buques bastante más sencillos que los de la “Flota Dorada”.
+El presidente estadounidense dijo el lunes que esperaba tener listo su primer barco en dos años y medio, pero ese calendario parece poco realista. No solo no existe todavía un diseño detallado de los buques, sino que todos los astilleros están saturados, por lo que es difícil que puedan hacer hueco a un encargo de estas características. Los precedentes más inmediatos tampoco invitan al optimismo: la última vez que EE.UU. se propuso crear un nuevo tipo de barco de guerra –eldestructor Zumwalt– se necesitaron cinco años para completar el proceso, que además terminó en fiasco, con sobrecostes multimillonarios.
+Y más allá de que el proyecto de Trump sea poco viable, están las dudas sobre su idoneidad. Numerosos analistas militares consideran que el armamento de los nuevos buques de guerra es poco práctico, y que no se adapta a las necesidades reales de la Armada.
+El contralmirante retirado Mark Montgomery era tajante ayer en la cadena ABC: si EE.UU. construye los buques de la “clase Trump” cometerá un gran error. Son barcos demasiado grandes y caros (cada uno puedo llegar a costar unos 10.000 millones de dólares), y poco adecuados para enfrentarse a China.
+Pero esas críticas no parecen hacer mella en el ánimo de Trump, el presidente cegado por el color dorado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>China se proyecta como potencia en la Antártida</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2025-12-23T17:00:59+01:00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Una nueva “ley de asuntos antárticos” regula aspectos “turísticos, navieros y pesqueros” en el continente</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Jordi Joan Baños
+Bangkok. Corresponsal
+Puesta a elegir entre la Luna y la Antártida, China ha decidido que se queda con las dos. Esta semana ha presentado un proyecto de ley que codifica su creciente presencia en el continente helado, con vistas a jugar un papel mayor en su gobernanza.
+La denominada “ley de asuntos antárticos” busca proteger sus intereses como estado, pero también regular las actividades de sus propios ciudadanos, en armonía con el medio ambiente. Los chinos son la segunda nacionalidad entre los turistas que, en grupos organizados, se acercan a la Antártida durante el verano austral, a partir de Punta Arenas (Chile) o Ushuaia (Argentina).
+Es cierto que los estadounidenses todavía son cuatro veces más.  Pero con la puesta en funcionamiento de la tercera base permanente en la Antártida, hace un año, China ha alcanzado la paridad con otros potencias antárticas, como EE.UU.. Siguen por delante Rusia y las dos república del  Cono Sur. China cuenta además con dos bases temporales (España tiene una), lo que eleva el total a cinco.
+Cabe recordar que la Antártida es territorio desmilitarizado y no sujeto a explotación económica. Junto a los pingüinos, solo viven allí comunidades de científicos (un millar en invierno y cinco veces más en verano). No está en el centro del huracán geopolítico, como  el Ártico, pero está dejando de estar en el limbo.
+El comité permanente del Congreso Nacional del Pueblo revisa desde el lunes el proyecto de ley antártica. Un movimiento coherente con la intención de China de jugar un papel más relevante en ambos polos, aunque no se cuente entre los países del Consejo Ártico. China se describe como “país casi ártico”, pero lo cierto es que es un mero observador, como España.
+Una de las bases chinas en la Antártida, donde Pekín cuenta con tres estaciones permanentes y dos temporales.
+La diferencia es que China es también la gran fábrica del mundo y potencia exportadora, por lo que observa con interés las rutas árticas -antaño heladas casi todo el año- que se van despejando con el aumento de las temperaturas. Habla ya de las Rutas Polares de la Seda, que le permitirían durante parte del año recortar en más de un 50% la singladura hasta el Atlántico Norte, en comparación con la ruta del canal de Suez. Evitando, además, el estrecho de Malaca.
+La China de Xi Jinping pide más voz, de acuerdo con su actual peso económico. Una vez más, podría chocar con EE.UU., cuyo presidente Donald Trump pretende todo lo contrario: impugnar el orden comercial, manteniendo el status quo político.
+Está por ver cuál es el propósito último de China en la Antártida. El precinto que la rodea podría no ser eterno. Su actual condición de paraíso natural limita la utilidad de sus 18.000 kilómetros de costa. Aunque la ruta austral recortaría de forma modesta el trayecto entre Shanghái y Buenos Aires, todavía acarrea más riesgos que beneficios.
+En cualquier caso, la legislación antártica en estudio -para ciudadanos chinos o embarcados en expediciones chinas- ya no presupone que solo científicos con las espaldas cubiertas se desplacen allí. En 57 artículos, trata de turismo, pesca o navegación, con exigencia de itinerarios detallados, seguros y planes de impacto ambiental, con previsión de multas en caso de incumplimiento, así como vetos de uno a tres años.
+Rompehielos de investigación polar Xuelong y Xuelong 2 en la 42 expedición antártica china, el pasado día 5
+Tan Xianchun, investigador  de la Academia de Ciencias, dijo que, tras más de cuarenta años en la Antártida, China ha pasado del estadio de acumular capacidades al de definir las reglas, primando “el uso pacífico, la protección ambiental, la conservación de recursos, la cooperación internacional o el apoyo científico”.
+La legislación china observa por tanto la prohibición de actividades militares o la extracción de recursos minerales, “excepto para fines científicos”. Esta “exploración verde” propuesta para la Antártida tiene poco que ver, en fondo y forma, con los planes de Donald Trump para Groenlandia, pero eso no elimina las suspicacias.
+Por ejemplo, un documento presentado este mismo mes, por encargo del presidente de Francia, reconoce que la Antártida está en las antípodas del Ártico en todos los sentidos, pero alerta que “podría convertirse en el decenio que viene en el próximo objetivo estratégico de las tres grandes potencias”. “Estados Unidos, China y Rusia”, señala, “mantienen un tercio de las bases científicas permanentes en la Antártida y parecen proyectarse hacia una revisión del Protocolo de Madrid en lo relativo a la protección del medio ambiente antártico, cuando eso sea posible en 2048”.
+“Para entonces la explotación de los considerables recursos del Continente Blanco se impondrá a su protección”, concluye el enviado especial de Emmanuel Macron para los Polos y el Océano, Olivier Poivre d'Arvor, que recomienda que la protección del Tratado Antártico no prescriba.
+Mientras China señala al Polo Sur, tiene un ojo puesto en la Luna, donde quiere enviar una misión tripulada a partir de 2030. Tras haberse convertido en el primer país en alunizar una nave no tripulada en la cara oculta -trayendo de regreso a la Tierra muestras del terreno- su próximo objetivo es encontrar hielo en el polo sur del satélite terrestre. También ensaya con impresoras 3D capaces de convertir el suelo de la Luna en ladrillos. En consonancia con su objetivo de establecer una base lunar permanentemente habitada, la década que viene, en colaboración con Rusia. EE.UU. agiliza sus propios planes de retorno a la Luna. La competición entre potencias desborda el espacio y alcanza los polos, de la Tierra y la Luna.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>Mensajes virales difunden desinformación sobre “oro falso” de China para vender criptomonedas</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2025-12-26T06:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Un supuesto lingote de oro falso se utiliza para generar alarma y captar inversores principiantes</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Verificat
+Que está proliferando la comercialización de oro falsificado proveniente de China.
+Que, sobre la base de informaciones publicadas y evidencias recogidas por la policía, no hay ningún indicio de que se esté produciendo una circulación masiva de oro falsificado.
+Múltiples cuentas de redes sociales y en varios idiomas han viralizado en las últimas semanas mensajes sobre la supuesta proliferación de oro falsificado proveniente de China. Estos mensajes lanzan advertencias sobre el riesgo de invertir en oro para, seguidamente, mostrar las supuestas bondades de las inversiones en criptomonedas obviando el riesgo, o directamente enlazar a plataformas de inversión en línea de alto riesgo.
+Todos los mensajes detectados por Verificat llevan un mismo vídeo que muestra, aparentemente, un lingote de oro de China. No obstante, desde Verificat no hemos encontrado ninguna información fidedigna reciente de medios de comunicación ni instituciones oficiales que adviertan de un riesgo reciente de oro falsificado masivo en el mercado. La Policía Nacional tampoco tiene ninguna evidencia que demuestre la circulación de oro falsificado a gran escala. La mayoría de los mensajes virales masivos van en una misma línea: divulgar los supuestos beneficios de invertir en criptomonedas y, en algunos casos, atraer clientes inexpertos a inversiones en línea de alto riesgo. ¡Te lo explicamos!
+Los mensajes se han hecho virales sobre todo en la red social X (antiguo Twitter). Todos, independientemente de la red en la que circulen, llevan adjunto el mismo vídeo, que muestra un lingote con la inscripción “中国黄金” (“Oro de China”, en chino) y un logo en la parte superior identificativo de laChina National Gold Group Corporation, la empresa estatal dedicada a la gestión del oro en China.
+Imagen del vídeo viral
+Haciendo una búsqueda inversa de imágenes, desde Verificat no hemos encontrado ninguna publicación con información fidedigna que advierta sobre el contenido de los mensajes virales.
+Las evidencias más antiguas son del pasado septiembre. Uno de los primeros espacios masivos en que ha circulado el vídeo, según las evidencias encontradas, es un canal de Telegram con más de 89.000 suscriptores y editado en chino, que difundió una publicación en X que por sí sola no se ha hecho viral. Este canal de Telegram publica contenido crítico sobre el funcionamiento de las instituciones chinas y se hace eco también de hechos de países cercanos, como las revueltasdel pasado septiembre en Nepal.
+Algunos de los mensajes indican que varias empresas “han ganado casi 3.000 millones de dólares vendiendo oro falsificado a compradores particulares internacionales”, una cifra que difícilmente habrían pasado por alto los medios de comunicación generalistas. Sin embargo, ni en agencias de noticias internacionales ni en medios de comunicación de referencia se ha encontrado ninguna noticia que haga referencia a un fraude masivo reciente de oro falsificado proveniente de China.
+Además, el departamento de prensa de la Policía Nacional, preguntado por Verificat, ha explicado que el cuerpo policial no tiene ningún indicio sobre una supuesta circulación masiva de oro falso.
+Desde hace años, son habituales las estafas en línea que intentan vender inversiones de alto riesgo, por ejemplo criptomonedas, como si fueran movimientos seguros. Se dirigen a personas inexpertas con promesas de grandes ganancias en poco tiempo, según advierte el Instituto Nacional de Ciberseguridad (Incibe). Por ejemplo,en Verificatya hemos encontrado anteriormente casos de vídeos hechos con inteligencia artificial que suplantan la identidad de personas conocidas para dar apariencia de veracidad a los contenidos fraudulentos y así dirigir a las víctimas a dudosas plataformas de inversiones.
+Sobre las criptomonedas, la Agencia de Ciberseguridad de Catalunyarecuerdaque su valor puede experimentar “variaciones significativas” y que, por lo tanto, es una “inversión de alto riesgo y se puede llegar a perder todo lo que se ha invertido”. Además, avisa de que “las facilidades de anonimato hacen que sea un objetivo para los delincuentes”.
+La entidad CaixaBank, enun artículoen su blog, recomienda que, si alguien compra oro asumiendo el riesgo inherente que tiene esta operación, lo haga en un lugar que sea de máxima confianza. Una referencia para asegurar el valor de la compra, dice el artículo, es la misma Fábrica Nacional de Moneda y Timbre, una entidad pública empresarial de España adscrita al Ministerio de Hacienda.
+Con todo, el oro falsificado es una realidad. En 2022, por ejemplo, la Policía Nacional detuvo a dos personas por un delito de estafa por, presuntamente, vender lingotes de oro falsos en Valencia y Alicante, según explicó la Agencia EFE enuna noticia. En ambos casos, las cantidades eran de pocos miles de euros. Este tipo de estafas afectan sobre todo a quien compra el oro falso, que puede perder el valor de su inversión, pero es una cantidad insignificante para modificar el precio del oro en el mercado global.
+Asimismo, en un reportaje de 2019, la agencia de noticiasReuters explicóque existe un tráfico de lingotes de oro falsificado desde China que acaba en el mercado global. La agencia detalla que los lingotes que usan metal barato recubierto en oro son “fáciles de detectar” y que el problema está en lingotes de oro de verdad que tienen sellos falsificados de refinerías de prestigio. Estos lingotes sirven para burlar medidas globales de bloqueo de minerales de conflictos o de prevención de blanqueo de capitales.
+El medio financiero estadounidense CNBC tambiéninformó el año pasadosobre el problema del oro falsificado en China que, según añade, afecta a compradores de oro chinos dentro del país.
+Verificat es una plataforma catalana de fact-checking sin ánimo de lucro. Se dedica a verificar el discurso político y el contenido que circula en las redes y a la educación para el consumo crítico de la información. Forma parte de la International Fact-Checking Network (IFCN) y la European Fact-Checking Standards Network (EFCSN)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>China acusa a EE UU  de "acelerar un escenario bélico" por vender armas a Taiwán</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2025-12-25T11:47:46+01:00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Las declaraciones se producen en un contexto de fricción creciente entre Pekín y Washington, en un momento en el que Estados Unidos ha reforzado su apoyo político y militar a Taipéi</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Las declaraciones se producen en un contexto de fricción creciente entre Pekín y Washington, en un momento en el que Estados Unidos ha reforzado su apoyo político y militar a Taipéi</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>Empresa textil china invierte 130 millones de euros en una nueva fábrica en Fez</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2025-12-25T13:10:33+01:00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Incluye el suministro de hilados y telas, teñido, la estampación textil y la fabricación de prendas de vestir prêt-à-porter.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Incluye el suministro de hilados y telas, teñido, la estampación textil y la fabricación de prendas de vestir prêt-à-porter.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>El dominio chino del juguete en la UE: dos décadas acaparando casi el 80% del mercado</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2025-12-25T10:53:24+01:00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>En 2024, la UE importó casi 7.072 millones de euros en juguetes procedentes del resto del mundo, de los que 5.649 millones correspondieron a China</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>En 2024, la UE importó casi 7.072 millones de euros en juguetes procedentes del resto del mundo, de los que 5.649 millones correspondieron a China</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>“十四五”时期信息化发展成就及电子政务发展报告发布活动在京举行</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2025-12-26T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>12月25日，“十四五”时期信息化发展成就及电子政务发展报告发布活动在京举行。中央网信办信息化发展局负责同志介绍了“十四五”时期我国信息化发展成就和《国家电子政务发展报告（2014—2024年）》主要内容。 “十四五”时期，在习近平新时代中国特色社会主义思想特别是习近平总书记关于网络强国的重要思想的科学指引下，中央网信办会同各地区、各有关部门认真贯彻落实党中央、国务院决策部署，扎实推进《“十四五”国家信息化规划》实施，主要目标任务顺利完成，信息化发展取得显著成就，加快从重点领域突破迈向全面赋能发展。主要体现在：信息技术创新能力显著增强，高水平自立自强步伐更加坚实；网信产业生态加快建设，以信息化培育新动能更加强劲；信息基础设施跨越式发展，经济社会信息“大动脉”更加通畅；数据资源开发利用提质增效，数据要素价值释放更加充分；信息化应用水平大幅提升，人民群众获得感、幸福感、安全感更加充足；互联网国际交流合作深入拓展，网络空间命运共同体理念更加深入人心；信息化制度机制持续健全，协同推进工作格局更加完善。 现代化建设，信息化先行。党的二十届四中全会提出信息化取得重大进展的战略目标。“十五五”时期是我国信息化发展夯实基础、全面发力的关键时期，要深入贯彻落实党中央决策部署，聚焦高质量发展主题，坚持规划引领，统筹推动国家信息化发展；坚持自立自强，大力推进网络信息技术创新；坚持融合发展，培育壮大网信产业生态；坚持夯基固本，建设完善信息基础设施；坚持普惠共享，持续提升信息化应用水平；坚持规范有序，健全完善信息化法规标准，推动我国信息化发展水平再上新台阶。 活动发布了《国家电子政务发展报告（2014—2024年）》，系统总结2014年至2024年我国电子政务发展成效和经验，分析面临形势与挑战，提出下一步重点任务，为“十五五”时期推进国家电子政务高质量发展凝聚共识、提供指引。 中央网信办网络安全协调局负责同志介绍了筑牢网络安全屏障、以高水平安全保障高质量发展有关情况。工业和信息化部信息技术发展司、国家市场监督管理总局标准技术管理司、国家数据局数据资源司以及重庆市委网信办负责同志，围绕部门和地区推动信息化发展工作介绍了有关情况。相关研究机构专家学者、媒体单位代表和网信企业代表参加了发布活动。 【责任编辑：高琳琳】</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>12月25日，“十四五”时期信息化发展成就及电子政务发展报告发布活动在京举行。中央网信办信息化发展局负责同志介绍了“十四五”时期我国信息化发展成就和《国家电子政务发展报告（2014—2024年）》主要内容。 “十四五”时期，在习近平新时代中国特色社会主义思想特别是习近平总书记关于网络强国的重要思想的科学指引下，中央网信办会同各地区、各有关部门认真贯彻落实党中央、国务院决策部署，扎实推进《“十四五”国家信息化规划》实施，主要目标任务顺利完成，信息化发展取得显著成就，加快从重点领域突破迈向全面赋能发展。主要体现在：信息技术创新能力显著增强，高水平自立自强步伐更加坚实；网信产业生态加快建设，以信息化培育新动能更加强劲；信息基础设施跨越式发展，经济社会信息“大动脉”更加通畅；数据资源开发利用提质增效，数据要素价值释放更加充分；信息化应用水平大幅提升，人民群众获得感、幸福感、安全感更加充足；互联网国际交流合作深入拓展，网络空间命运共同体理念更加深入人心；信息化制度机制持续健全，协同推进工作格局更加完善。 现代化建设，信息化先行。党的二十届四中全会提出信息化取得重大进展的战略目标。“十五五”时期是我国信息化发展夯实基础、全面发力的关键时期，要深入贯彻落实党中央决策部署，聚焦高质量发展主题，坚持规划引领，统筹推动国家信息化发展；坚持自立自强，大力推进网络信息技术创新；坚持融合发展，培育壮大网信产业生态；坚持夯基固本，建设完善信息基础设施；坚持普惠共享，持续提升信息化应用水平；坚持规范有序，健全完善信息化法规标准，推动我国信息化发展水平再上新台阶。 活动发布了《国家电子政务发展报告（2014—2024年）》，系统总结2014年至2024年我国电子政务发展成效和经验，分析面临形势与挑战，提出下一步重点任务，为“十五五”时期推进国家电子政务高质量发展凝聚共识、提供指引。 中央网信办网络安全协调局负责同志介绍了筑牢网络安全屏障、以高水平安全保障高质量发展有关情况。工业和信息化部信息技术发展司、国家市场监督管理总局标准技术管理司、国家数据局数据资源司以及重庆市委网信办负责同志，围绕部门和地区推动信息化发展工作介绍了有关情况。相关研究机构专家学者、媒体单位代表和网信企业代表参加了发布活动。 【责任编辑：高琳琳】</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>一图速览丨“十四五”我国信息化发展成就</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2025-12-26T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>【责任编辑：高琳琳】</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>【责任编辑：高琳琳】</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
+        <is>
+          <t>“智能经济”势如破竹  为经济注入“智慧芯”</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2025-12-25T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>编者按： 韧性，是读懂2025年中国经济的关键词。宏观承压之下，一系列“新消费”现象展现出澎湃的内需活力。赛事经济、旅游经济点燃线下“烟火气”，智能经济扎实构筑产业根基；陪伴经济与情绪经济的兴起，则回应着时代的心灵需求。它们不仅是经济增长亮点，更共同勾勒出一个有温度、有弹性、面向未来的中国经济生态。 2025年9月6日，在重庆举行的2025世界智能产业博览会上，生活家居机器人与观众握手。新华社记者 陈诚 摄 ——2025新经济新现象年度盘点之三 □吕金艺 年初，穿着小花袄、挥着红手绢、扭着大秧歌的人形机器人惊艳亮相龙年春晚舞台，这不仅是中国科创力量的一次亮眼展示，更是智能经济浪潮奔涌而来的生动注脚。当机器人从实验室走向生产生活，当智能技术从单点突破迈向全域赋能，中国智能制造正以破竹之势重构产业格局，智能经济已成为驱动中国经济高质量发展的核心引擎，让奋进中国的发展春潮愈发澎湃。 智能经济的核心底气，在于国家战略引领下智能制造的深度扎根。不同于传统制造的规模化复制，智能制造以“数据+算力+算法”为核心，实现从自动化到智能化的质变，这是中国制造业由大变强的必由之路。从政策层面锚定发展方向，到企业层面深耕技术应用，我国已构建起“顶层设计+基层实践”的双轮驱动模式，让智能技术真正融入产业肌理。智能制造不是简单的机器换人，而是通过人机协同重塑生产逻辑，让生产要素实现最优配置，让产业链供应链更具韧性，这正是中国经济在变局中站稳脚跟的关键支撑。 智能经济的蓬勃生机，藏在千行百业的场景革新里。低空经济从概念走向现实，不再是单一的无人机飞行，而是智能技术赋能下的立体经济新形态，从应急救援的精准驰援到城市物流的高效配送，从低空旅游的沉浸体验到生态巡检的科技守护，低空经济以“天空赋能地面”的模式，打开了经济增长的新空间，成为新质生产力的典型代表。智能汽车超越交通工具的属性，化身移动智能终端，以自动驾驶、车路协同让出行更安全高效，更带动芯片、软件、通信等全产业链升级，构建起万亿级智能出行生态。无人酒店以无感服务重构消费体验，从入住到退房全程智能响应，背后是智能感知、大数据分析的深度应用，彰显服务业智能化转型的无限可能。智能高铁更是中国智造的标杆，智能调度让运行更精准，智能运维让安全更有保障，智能服务让旅途更舒心，铁路12306平台将铁路网与互联网相连，实现客票电子化，旅客刷脸、刷身份证即可进站乘车，智能服务让智能化出行轻松便捷，同时也为沿线的人们打开了财富密码，以“智能+交通”的融合，书写大国重器的新传奇。这些场景的迭代，本质是智能经济对生产生活方式的重构，让效率与体验实现双重提升。 智能经济的独特优势，在于中国优越的发展土壤与内生动力。我国拥有超大规模市场，为智能技术提供了天然试验场，需求牵引技术迭代，技术反哺需求升级，形成良性循环；完备的产业体系让智能技术从研发到落地无缝衔接，避免“卡脖子”困境；海量的数据资源更是智能经济的核心生产要素，为算法优化、模型训练提供充足养分。不同于西方部分国家的技术垄断思维，中国智能经济走的是开放融合之路，既深耕核心技术自主创新，又推动跨界协同发展，“智能+制造”“智能+服务”“智能+农业”的多元融合，让智能经济的辐射力持续增强，带动全产业链提质增效。 从智能经济看中国经济未来，光明前景清晰可见。智能经济让中国经济增长更具内生动力，摆脱传统路径依赖，以技术创新驱动高质量发展，破解“规模红利消退”的难题；让中国经济结构更趋优化，传统产业焕新升级，新兴产业蓬勃生长，形成多点支撑、多极发力的产业格局；让中国经济更具全球竞争力，在人工智能、智能制造等关键领域抢占先机，为参与全球经济治理注入中国力量。智能经济不是简单的技术叠加，而是发展理念的革新，是发展模式的升级，它让中国经济在时代浪潮中找准航向，在攻坚克难中积蓄力量。 春潮涌动处，扬帆奋进时。人形机器人的灵动身影，低空经济的广阔天地，智能汽车的驰骋向前，智能高铁的追风逐梦，都是智能经济赋能中国发展的生动缩影。智能经济势如破竹，不仅重塑着当下的产业图景，更擘画着中国经济的未来模样。只要锚定创新方向，深耕智能赛道，以实干笃定前行，以创新破局开路，奋进中国必将在智能经济的浪潮中乘风破浪，书写更加璀璨的发展篇章，让中国经济的春潮奔涌不息，奔向更加光明的远方。 （中国互联网发展基金会中国正能量网络传播专项基金支持项目） 【责任编辑：曹静】</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>编者按： 韧性，是读懂2025年中国经济的关键词。宏观承压之下，一系列“新消费”现象展现出澎湃的内需活力。赛事经济、旅游经济点燃线下“烟火气”，智能经济扎实构筑产业根基；陪伴经济与情绪经济的兴起，则回应着时代的心灵需求。它们不仅是经济增长亮点，更共同勾勒出一个有温度、有弹性、面向未来的中国经济生态。 2025年9月6日，在重庆举行的2025世界智能产业博览会上，生活家居机器人与观众握手。新华社记者 陈诚 摄 ——2025新经济新现象年度盘点之三 □吕金艺 年初，穿着小花袄、挥着红手绢、扭着大秧歌的人形机器人惊艳亮相龙年春晚舞台，这不仅是中国科创力量的一次亮眼展示，更是智能经济浪潮奔涌而来的生动注脚。当机器人从实验室走向生产生活，当智能技术从单点突破迈向全域赋能，中国智能制造正以破竹之势重构产业格局，智能经济已成为驱动中国经济高质量发展的核心引擎，让奋进中国的发展春潮愈发澎湃。 智能经济的核心底气，在于国家战略引领下智能制造的深度扎根。不同于传统制造的规模化复制，智能制造以“数据+算力+算法”为核心，实现从自动化到智能化的质变，这是中国制造业由大变强的必由之路。从政策层面锚定发展方向，到企业层面深耕技术应用，我国已构建起“顶层设计+基层实践”的双轮驱动模式，让智能技术真正融入产业肌理。智能制造不是简单的机器换人，而是通过人机协同重塑生产逻辑，让生产要素实现最优配置，让产业链供应链更具韧性，这正是中国经济在变局中站稳脚跟的关键支撑。 智能经济的蓬勃生机，藏在千行百业的场景革新里。低空经济从概念走向现实，不再是单一的无人机飞行，而是智能技术赋能下的立体经济新形态，从应急救援的精准驰援到城市物流的高效配送，从低空旅游的沉浸体验到生态巡检的科技守护，低空经济以“天空赋能地面”的模式，打开了经济增长的新空间，成为新质生产力的典型代表。智能汽车超越交通工具的属性，化身移动智能终端，以自动驾驶、车路协同让出行更安全高效，更带动芯片、软件、通信等全产业链升级，构建起万亿级智能出行生态。无人酒店以无感服务重构消费体验，从入住到退房全程智能响应，背后是智能感知、大数据分析的深度应用，彰显服务业智能化转型的无限可能。智能高铁更是中国智造的标杆，智能调度让运行更精准，智能运维让安全更有保障，智能服务让旅途更舒心，铁路12306平台将铁路网与互联网相连，实现客票电子化，旅客刷脸、刷身份证即可进站乘车，智能服务让智能化出行轻松便捷，同时也为沿线的人们打开了财富密码，以“智能+交通”的融合，书写大国重器的新传奇。这些场景的迭代，本质是智能经济对生产生活方式的重构，让效率与体验实现双重提升。 智能经济的独特优势，在于中国优越的发展土壤与内生动力。我国拥有超大规模市场，为智能技术提供了天然试验场，需求牵引技术迭代，技术反哺需求升级，形成良性循环；完备的产业体系让智能技术从研发到落地无缝衔接，避免“卡脖子”困境；海量的数据资源更是智能经济的核心生产要素，为算法优化、模型训练提供充足养分。不同于西方部分国家的技术垄断思维，中国智能经济走的是开放融合之路，既深耕核心技术自主创新，又推动跨界协同发展，“智能+制造”“智能+服务”“智能+农业”的多元融合，让智能经济的辐射力持续增强，带动全产业链提质增效。 从智能经济看中国经济未来，光明前景清晰可见。智能经济让中国经济增长更具内生动力，摆脱传统路径依赖，以技术创新驱动高质量发展，破解“规模红利消退”的难题；让中国经济结构更趋优化，传统产业焕新升级，新兴产业蓬勃生长，形成多点支撑、多极发力的产业格局；让中国经济更具全球竞争力，在人工智能、智能制造等关键领域抢占先机，为参与全球经济治理注入中国力量。智能经济不是简单的技术叠加，而是发展理念的革新，是发展模式的升级，它让中国经济在时代浪潮中找准航向，在攻坚克难中积蓄力量。 春潮涌动处，扬帆奋进时。人形机器人的灵动身影，低空经济的广阔天地，智能汽车的驰骋向前，智能高铁的追风逐梦，都是智能经济赋能中国发展的生动缩影。智能经济势如破竹，不仅重塑着当下的产业图景，更擘画着中国经济的未来模样。只要锚定创新方向，深耕智能赛道，以实干笃定前行，以创新破局开路，奋进中国必将在智能经济的浪潮中乘风破浪，书写更加璀璨的发展篇章，让中国经济的春潮奔涌不息，奔向更加光明的远方。 （中国互联网发展基金会中国正能量网络传播专项基金支持项目） 【责任编辑：曹静】</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>“十四五”时期我国信息化成果显著</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2025-12-25T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>今天（25日），中央网信办、工业和信息化部、国家市场监督管理总局、国家数据局等部门联合召开发布会，中央网信办相关负责人介绍，“十四五”期间，我国网络信息技术创新取得新突破，信息基础设施实现新跨越，信息化应用水平实现新提升，加快从重点领域突破迈向全面赋能发展。 据中央网信办相关负责人介绍，“十四五”期间，我国信息技术创新能力显著增强，高水平自立自强步伐更加坚实。五年来，我国坚持把创新作为信息化发展的第一动力，形成一批标志性、原创性、颠覆性科技创新成果。 中央网信办信息化发展局局长 温锐松：集成电路、人工智能、基础软件等领域取得新成果，搭载开源鸿蒙操作系统的产品总量超11.9亿台，通义千问、DeepSeek等多款产品性能位于全球前列，超700款生成式人工智能大模型产品完成备案，具身智能逐步走向产业应用，智能体加速创新发展。 温锐松介绍，“十四五”期间我国信息化领域除了关键核心技术加速突破，前沿信息技术也在加快布局。6G技术研发和标准研制扎实推进，已完成第一阶段技术试验，形成超过300项关键技术储备。 网信产业生态加快建设 以信息化培育新动能更加强劲 五年来，我国信息化发展坚持补短板、拉长板、锻新板，构建网信产业体系，推进数智技术赋能实体经济。网信产业生态加快建设，以信息化培育新动能更加强劲。 “十四五”期间，我国数字经济核心产业增加值占GDP比重从7.8%增至10.4%，数字经济规模稳居世界第二。2024年规模以上电子信息制造业营业收入达16.19万亿元，软件业务收入达13.73万亿元，分别较“十三五”末提升33.8%和68.2%。 赋能传统产业转型升级成效明显，制造业数字化转型提速扩面，重点工业企业数字化研发设计工具普及率从73%提升至85.4%，关键工序数控化率从52.1%提升至68.5%，全国网上零售额从11.76万亿元提升至15.23万亿元，稳居全球最大网络零售市场。 中央网信办信息化发展局局长 温锐松：数字化绿色化协同转型发展提速增效，钢铁行业数字化能碳管理已覆盖全国40%产能，绿色低碳数字生产生活方式更加普及。网信企业活力不断增强，我国高新技术企业突破50万家，网信企业创新能力不断提升。 我国数据资源开发利用提质增效 5年来，我国数据资源开发利用提质增效，年度数据生产量从2022年的26.83ZB增长至2024年的41.06ZB，占全球数据总量26.67%。另外，我国信息化应用水平大幅提升，建成全国政务服务“一张网”，92.5%的省级行政许可事项实现网上受理和“最多跑一次”。 数据基础制度初步建立，《中共中央 国务院关于构建数据基础制度更好发挥数据要素作用的意见》印发实施，配套政策措施陆续出台。我国年度数据生产量从2022年的26.83ZB增长至2024年的41.06ZB，占全球数据总量26.67%。建成国家公共数据资源登记平台，深入实施“数据要素×”行动，涌现一批典型应用场景和案例。 中央网信办信息化发展局局长 温锐松：电子政务发展稳步前行，建成全国政务服务“一张网”，92.5%的省级行政许可事项实现网上受理和“最多跑一次”，推动更多事项从“能办”“好办”转为“高效办成”。“十四五”时期，我国网民规模从9.89亿人增长至11.23亿人，互联网普及率从70.4%提升至79.7%，六成以上公民具备初级及以上数字素养与技能，信息化促进教育、医疗、文化等优质资源普及下沉。 5年来，我国数字乡村发展成效明显，部署开展两批国家数字乡村试点，实施数字乡村强农惠农富农专项行动，“十四五”期间我国城乡互联网普及率差距较“十三五”末缩小8.2个百分点，农业生产信息化率从22.5%增至30%以上，全国农村网络零售额超2.5万亿元，较“十三五”末增长43%，远程医疗服务网络覆盖全国所有市县，城乡数字鸿沟加快弥合。 （总台央视记者 李本扬 张岗 范月鸣 张喆） 【责任编辑：曹静】</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>今天（25日），中央网信办、工业和信息化部、国家市场监督管理总局、国家数据局等部门联合召开发布会，中央网信办相关负责人介绍，“十四五”期间，我国网络信息技术创新取得新突破，信息基础设施实现新跨越，信息化应用水平实现新提升，加快从重点领域突破迈向全面赋能发展。 据中央网信办相关负责人介绍，“十四五”期间，我国信息技术创新能力显著增强，高水平自立自强步伐更加坚实。五年来，我国坚持把创新作为信息化发展的第一动力，形成一批标志性、原创性、颠覆性科技创新成果。 中央网信办信息化发展局局长 温锐松：集成电路、人工智能、基础软件等领域取得新成果，搭载开源鸿蒙操作系统的产品总量超11.9亿台，通义千问、DeepSeek等多款产品性能位于全球前列，超700款生成式人工智能大模型产品完成备案，具身智能逐步走向产业应用，智能体加速创新发展。 温锐松介绍，“十四五”期间我国信息化领域除了关键核心技术加速突破，前沿信息技术也在加快布局。6G技术研发和标准研制扎实推进，已完成第一阶段技术试验，形成超过300项关键技术储备。 网信产业生态加快建设 以信息化培育新动能更加强劲 五年来，我国信息化发展坚持补短板、拉长板、锻新板，构建网信产业体系，推进数智技术赋能实体经济。网信产业生态加快建设，以信息化培育新动能更加强劲。 “十四五”期间，我国数字经济核心产业增加值占GDP比重从7.8%增至10.4%，数字经济规模稳居世界第二。2024年规模以上电子信息制造业营业收入达16.19万亿元，软件业务收入达13.73万亿元，分别较“十三五”末提升33.8%和68.2%。 赋能传统产业转型升级成效明显，制造业数字化转型提速扩面，重点工业企业数字化研发设计工具普及率从73%提升至85.4%，关键工序数控化率从52.1%提升至68.5%，全国网上零售额从11.76万亿元提升至15.23万亿元，稳居全球最大网络零售市场。 中央网信办信息化发展局局长 温锐松：数字化绿色化协同转型发展提速增效，钢铁行业数字化能碳管理已覆盖全国40%产能，绿色低碳数字生产生活方式更加普及。网信企业活力不断增强，我国高新技术企业突破50万家，网信企业创新能力不断提升。 我国数据资源开发利用提质增效 5年来，我国数据资源开发利用提质增效，年度数据生产量从2022年的26.83ZB增长至2024年的41.06ZB，占全球数据总量26.67%。另外，我国信息化应用水平大幅提升，建成全国政务服务“一张网”，92.5%的省级行政许可事项实现网上受理和“最多跑一次”。 数据基础制度初步建立，《中共中央 国务院关于构建数据基础制度更好发挥数据要素作用的意见》印发实施，配套政策措施陆续出台。我国年度数据生产量从2022年的26.83ZB增长至2024年的41.06ZB，占全球数据总量26.67%。建成国家公共数据资源登记平台，深入实施“数据要素×”行动，涌现一批典型应用场景和案例。 中央网信办信息化发展局局长 温锐松：电子政务发展稳步前行，建成全国政务服务“一张网”，92.5%的省级行政许可事项实现网上受理和“最多跑一次”，推动更多事项从“能办”“好办”转为“高效办成”。“十四五”时期，我国网民规模从9.89亿人增长至11.23亿人，互联网普及率从70.4%提升至79.7%，六成以上公民具备初级及以上数字素养与技能，信息化促进教育、医疗、文化等优质资源普及下沉。 5年来，我国数字乡村发展成效明显，部署开展两批国家数字乡村试点，实施数字乡村强农惠农富农专项行动，“十四五”期间我国城乡互联网普及率差距较“十三五”末缩小8.2个百分点，农业生产信息化率从22.5%增至30%以上，全国农村网络零售额超2.5万亿元，较“十三五”末增长43%，远程医疗服务网络覆盖全国所有市县，城乡数字鸿沟加快弥合。 （总台央视记者 李本扬 张岗 范月鸣 张喆） 【责任编辑：曹静】</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
+        <is>
+          <t>体育育出消费新引擎</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2025-12-25T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>新华社北京12月24日电题：体育育出消费新引擎——“体育深化改革新气象”组稿之二 新华社记者王恒志、王春燕、岳冉冉 “苏超”带动民间足球热潮，冰雪产业规模将突破万亿元，粤港澳全运会精彩纷呈……2025年，中国体育经济呈现加速发展态势。这得益于过去几年里，促进体育经济发展的政策文件密集出台，体育赛事“三进”活动广泛开展，“跟着赛事去旅行”深入人心，产业发展平台建设初见成效。与此同时，各地持续探索创新举措，推动有效市场与有为政府深度融合，让中国体育经济迸发出巨大能量，为扩大内需、提振消费提供了更加丰富的优质商品和服务供给。 12月6日，滑雪爱好者在黑龙江省亚布力滑雪旅游度假区雪场体验滑雪（无人机照片）。新华社发（原勇摄） 政策研制铺就发展快车道 2025新疆热雪节、第29届长春冰雪节、河北承德冰雪温泉旅游季、第21届内蒙古自治区冰雪那达慕、第22届中国·满洲里中俄蒙国际冰雪节、重庆冰雪运动季……又是一年冰雪季，不仅东北、内蒙古、新疆等地因地制宜打造特色品牌，南方一些具备条件的地方也积极布局冰雪产业。 《中国冰雪产业发展研究报告（2025）》显示，2025年我国冰雪产业规模将突破万亿元。从北方到全国、从冬季到四季，冰雪经济正创建消费新场景、打造产业新生态、带来区域发展新机遇。 冰雪经济蓬勃发展，离不开政策加力支持。2024年11月，国务院办公厅印发《关于以冰雪运动高质量发展激发冰雪经济活力的若干意见》，推动冰雪运动、冰雪文化、冰雪装备、冰雪旅游全产业链发展。中共中央办公厅、国务院办公厅印发的《提振消费专项行动方案》提出要推动冰雪消费，启动实施冰雪旅游提升计划，组织开展冰雪消费季等促消费活动，鼓励各地因时因地丰富冰雪场地和消费产品供给。今年政府工作报告也提出，要积极发展冰雪运动和冰雪经济。一系列政策举措为冰雪经济发展提供了重要指引。 12月18日，参观者在第九届吉林冰雪产业国际博览会现场参观展出的国产碳纤维滑雪板。新华社记者 许畅 摄 冰雪经济的迅猛发展，是近年来中国体育产业借助政策支持加快发展的生动缩影。2025年9月，国务院办公厅印发的《关于释放体育消费潜力进一步推进体育产业高质量发展的意见》明确提出，到2030年，培育一批具有世界影响力的体育企业和体育赛事，体育产业发展水平大幅跃升，总规模超过7万亿元，在构建新发展格局中发挥重要作用。 近两年中国户外运动发展迅猛，同样得益于政策引导。2025年1月，国务院办公厅转发国家发展改革委、体育总局《关于建设高质量户外运动目的地的指导意见》，各地纷纷因地制宜，探索适合自身禀赋的户外运动目的地建设路径。 此外，国家体育总局还大力推动体育标准化建设，加强体育标准化顶层设计，逐渐构建起宏观引领、专项支撑、部门协同的政策矩阵，有力促进体育产业健康快速发展。 5月17日，参赛者在2025黄浦江源第二届全国山地户外运动挑战赛中。新华社记者 黄宗治 摄 体育赛事经济亮点频现 “苏超”如火如荼、中超上座人次创新高、全运会“大湾鸡”走红网络……2025年虽然没有奥运会、世界杯这样的国际顶级赛事，却堪称中国体育赛事经济“大年”。国家体育总局坚持以赛事体系建设为核心，“赛事+”“+赛事”深度融合，形成“一体两翼”发展思路，着力推动赛事经济发展，不断丰富大型体育赛事、职业赛事、群众赛事活动供给。 从全运盛会到民间赛事，从职业体育到业余足球，国家体育总局会同商务部、文化和旅游部开展的“体育赛事进景区、进街区、进商圈”“跟着赛事去旅行”“乐享精彩赛事 寻味中华美食”等活动，激发全民参与热情，提振消费效应持续显现。 国家体育总局还创新开展促进体育消费和赛事经济试点，在全国选取30个城市，鼓励试点单位创新政策措施。江苏省无锡市作为首批试点城市，举办了无锡马拉松、世界跆拳道大满贯系列赛事、亚洲体育舞蹈节、阳羡100越野挑战赛等自有IP赛事，并承办各类高水平国际国内赛事。其中，仅2025无锡马拉松就吸引39.1万人现场观赛，拉动餐饮、住宿、交通、旅游、展会等经济效益5.05亿元、同比增长78.2%。目前，国家体育总局正在进一步规范马拉松赛事组织工作，让赛事更好地服务于地方经济社会发展。 图为10月30日在江苏无锡举行的一场2025年世界跆拳道锦标赛比赛。新华社发（刘臻睿摄） 如今，“跟着赛事去旅行”在各地广泛开展。“体育赛事进景区、进街区、进商圈”让不少以往受众有限的赛事走到百姓身边。2025赛季中国男子三人篮球超级联赛（简称“超三联赛”）常规赛设置25站大区赛、4站争霸赛，其中11站赛事走进城市核心商圈，成为激活城市空间、促进体育消费的新引擎。在北京西城区，“超三联赛”的一张赛事票根可享40多个品牌优惠，推出“亲子游”“休闲派”两条特色打卡路线，串联起20余个文商旅体重点点位。在江苏省张家港市，金茂览秀城商圈赛事期间客流量达15.36万人次，同比提升6%，销售额提升10%，达1252万元。 国家体育总局在河北、江苏、浙江等地开展赛事活动带动消费的监测试点。监测结果显示，2025年上半年，7个试点省份监测的511场重点赛事活动，带动体育及相关消费超160亿元，场均带动超3000万元。 创新搭建产业发展平台 2023年首届中国户外运动产业大会在大理举办时，云南省就明确了“全域布局、特色发展”的路径。云南省体育局局长杨中华说：“大会落户云南三年来，我们以户外运动破局体育产业发展，推动体育及相关产业规模三年实现翻番，年均增长23%，2025年将突破千亿元大关。户外运动正成为云南经济增长新引擎。” 图为10月24日拍摄的2025中国户外运动产业大会开幕式现场。新华社记者 胡超 摄 户外运动正成为中国体育经济新的增长点。国家体育总局体育经济司发布的《中国户外运动产业发展报告（2024-2025）》显示，截至2025年6月底，我国户外运动相关企业已达33.5万家，其中，2025年上半年新增注册相关企业2.4万余家。与此同时，截至2025年4月初，我国户外运动参与人数已突破4亿人。 近年来，国家体育总局持续加强产业发展平台建设，中国户外运动产业大会正是着力打造的重要平台之一，其目标就是整合户外运动资源，聚焦行业发展趋势，持续培育新产品、新服务、新业态。此外，还连续多年举办中国国际体育用品博览会、中国体育旅游博览会等展会，搭建产需对接平台，并在服贸会连续多年设置体育服务专题，在进博会设置体育用品及赛事专区。 【责任编辑：曹静】</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>新华社北京12月24日电题：体育育出消费新引擎——“体育深化改革新气象”组稿之二 新华社记者王恒志、王春燕、岳冉冉 “苏超”带动民间足球热潮，冰雪产业规模将突破万亿元，粤港澳全运会精彩纷呈……2025年，中国体育经济呈现加速发展态势。这得益于过去几年里，促进体育经济发展的政策文件密集出台，体育赛事“三进”活动广泛开展，“跟着赛事去旅行”深入人心，产业发展平台建设初见成效。与此同时，各地持续探索创新举措，推动有效市场与有为政府深度融合，让中国体育经济迸发出巨大能量，为扩大内需、提振消费提供了更加丰富的优质商品和服务供给。 12月6日，滑雪爱好者在黑龙江省亚布力滑雪旅游度假区雪场体验滑雪（无人机照片）。新华社发（原勇摄） 政策研制铺就发展快车道 2025新疆热雪节、第29届长春冰雪节、河北承德冰雪温泉旅游季、第21届内蒙古自治区冰雪那达慕、第22届中国·满洲里中俄蒙国际冰雪节、重庆冰雪运动季……又是一年冰雪季，不仅东北、内蒙古、新疆等地因地制宜打造特色品牌，南方一些具备条件的地方也积极布局冰雪产业。 《中国冰雪产业发展研究报告（2025）》显示，2025年我国冰雪产业规模将突破万亿元。从北方到全国、从冬季到四季，冰雪经济正创建消费新场景、打造产业新生态、带来区域发展新机遇。 冰雪经济蓬勃发展，离不开政策加力支持。2024年11月，国务院办公厅印发《关于以冰雪运动高质量发展激发冰雪经济活力的若干意见》，推动冰雪运动、冰雪文化、冰雪装备、冰雪旅游全产业链发展。中共中央办公厅、国务院办公厅印发的《提振消费专项行动方案》提出要推动冰雪消费，启动实施冰雪旅游提升计划，组织开展冰雪消费季等促消费活动，鼓励各地因时因地丰富冰雪场地和消费产品供给。今年政府工作报告也提出，要积极发展冰雪运动和冰雪经济。一系列政策举措为冰雪经济发展提供了重要指引。 12月18日，参观者在第九届吉林冰雪产业国际博览会现场参观展出的国产碳纤维滑雪板。新华社记者 许畅 摄 冰雪经济的迅猛发展，是近年来中国体育产业借助政策支持加快发展的生动缩影。2025年9月，国务院办公厅印发的《关于释放体育消费潜力进一步推进体育产业高质量发展的意见》明确提出，到2030年，培育一批具有世界影响力的体育企业和体育赛事，体育产业发展水平大幅跃升，总规模超过7万亿元，在构建新发展格局中发挥重要作用。 近两年中国户外运动发展迅猛，同样得益于政策引导。2025年1月，国务院办公厅转发国家发展改革委、体育总局《关于建设高质量户外运动目的地的指导意见》，各地纷纷因地制宜，探索适合自身禀赋的户外运动目的地建设路径。 此外，国家体育总局还大力推动体育标准化建设，加强体育标准化顶层设计，逐渐构建起宏观引领、专项支撑、部门协同的政策矩阵，有力促进体育产业健康快速发展。 5月17日，参赛者在2025黄浦江源第二届全国山地户外运动挑战赛中。新华社记者 黄宗治 摄 体育赛事经济亮点频现 “苏超”如火如荼、中超上座人次创新高、全运会“大湾鸡”走红网络……2025年虽然没有奥运会、世界杯这样的国际顶级赛事，却堪称中国体育赛事经济“大年”。国家体育总局坚持以赛事体系建设为核心，“赛事+”“+赛事”深度融合，形成“一体两翼”发展思路，着力推动赛事经济发展，不断丰富大型体育赛事、职业赛事、群众赛事活动供给。 从全运盛会到民间赛事，从职业体育到业余足球，国家体育总局会同商务部、文化和旅游部开展的“体育赛事进景区、进街区、进商圈”“跟着赛事去旅行”“乐享精彩赛事 寻味中华美食”等活动，激发全民参与热情，提振消费效应持续显现。 国家体育总局还创新开展促进体育消费和赛事经济试点，在全国选取30个城市，鼓励试点单位创新政策措施。江苏省无锡市作为首批试点城市，举办了无锡马拉松、世界跆拳道大满贯系列赛事、亚洲体育舞蹈节、阳羡100越野挑战赛等自有IP赛事，并承办各类高水平国际国内赛事。其中，仅2025无锡马拉松就吸引39.1万人现场观赛，拉动餐饮、住宿、交通、旅游、展会等经济效益5.05亿元、同比增长78.2%。目前，国家体育总局正在进一步规范马拉松赛事组织工作，让赛事更好地服务于地方经济社会发展。 图为10月30日在江苏无锡举行的一场2025年世界跆拳道锦标赛比赛。新华社发（刘臻睿摄） 如今，“跟着赛事去旅行”在各地广泛开展。“体育赛事进景区、进街区、进商圈”让不少以往受众有限的赛事走到百姓身边。2025赛季中国男子三人篮球超级联赛（简称“超三联赛”）常规赛设置25站大区赛、4站争霸赛，其中11站赛事走进城市核心商圈，成为激活城市空间、促进体育消费的新引擎。在北京西城区，“超三联赛”的一张赛事票根可享40多个品牌优惠，推出“亲子游”“休闲派”两条特色打卡路线，串联起20余个文商旅体重点点位。在江苏省张家港市，金茂览秀城商圈赛事期间客流量达15.36万人次，同比提升6%，销售额提升10%，达1252万元。 国家体育总局在河北、江苏、浙江等地开展赛事活动带动消费的监测试点。监测结果显示，2025年上半年，7个试点省份监测的511场重点赛事活动，带动体育及相关消费超160亿元，场均带动超3000万元。 创新搭建产业发展平台 2023年首届中国户外运动产业大会在大理举办时，云南省就明确了“全域布局、特色发展”的路径。云南省体育局局长杨中华说：“大会落户云南三年来，我们以户外运动破局体育产业发展，推动体育及相关产业规模三年实现翻番，年均增长23%，2025年将突破千亿元大关。户外运动正成为云南经济增长新引擎。” 图为10月24日拍摄的2025中国户外运动产业大会开幕式现场。新华社记者 胡超 摄 户外运动正成为中国体育经济新的增长点。国家体育总局体育经济司发布的《中国户外运动产业发展报告（2024-2025）》显示，截至2025年6月底，我国户外运动相关企业已达33.5万家，其中，2025年上半年新增注册相关企业2.4万余家。与此同时，截至2025年4月初，我国户外运动参与人数已突破4亿人。 近年来，国家体育总局持续加强产业发展平台建设，中国户外运动产业大会正是着力打造的重要平台之一，其目标就是整合户外运动资源，聚焦行业发展趋势，持续培育新产品、新服务、新业态。此外，还连续多年举办中国国际体育用品博览会、中国体育旅游博览会等展会，搭建产需对接平台，并在服贸会连续多年设置体育服务专题，在进博会设置体育用品及赛事专区。 【责任编辑：曹静】</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>北京：调减非京籍家庭购房社保或个税缴纳年限</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2025-12-24T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>北京市贯彻落实中央经济工作会议精神，着力稳定房地产市场。12月24日，市住房城乡建设委、市发展改革委、人民银行北京市分行、北京住房公积金管理中心等4部门联合印发《关于进一步优化调整本市房地产相关政策的通知》(以下简称《通知》)，自2025年12月24日起施行。 《通知》明确，为更好满足居民刚性住房需求和多样化改善性住房需求，进一步优化调整住房限购政策。一是放宽非京籍家庭购房条件。将非京籍家庭购买五环内商品住房的社保或个税缴纳年限，由现行的“3年”调减为“2年”；购买五环外商品住房的，由现行的“2年”调减为“1年”。二是支持多子女家庭住房需求。二孩及以上的多子女家庭，可在五环内多购买一套商品住房，即：京籍多子女家庭，可在五环内购买3套商品住房；在京连续2年缴纳社保或个税的非京籍多子女家庭，可在五环内购买2套商品住房。 《通知》明确，进一步优化个人住房信贷政策，银行业金融机构根据北京地区市场利率定价自律机制要求和本机构经营状况、客户风险状况等因素，在利率定价机制安排方面不再区分首套住房和二套住房，合理确定每笔商业性个人住房贷款的具体利率水平。关于住房贷款相关业务，可向经办银行具体咨询。 《通知》明确，加大公积金支持住房消费力度，调整二套住房公积金贷款最低首付比例，对借款申请人(含共同申请人)使用公积金个人住房贷款购买二套住房的，最低首付款比例由不低于30%调整为不低于25%。 《通知》还提出，为进一步优化营商环境，提升房地产投资效率，调整招拍挂拿地的房地产开发项目立项方式，由市区分级核准调整为区级备案。 【责任编辑：吴艳鹏】</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>北京市贯彻落实中央经济工作会议精神,着力稳定房地产市场。12月24日,市住房城乡建设委、市发展改革委、人民银行北京市分行、北京住房公积金管理中心等4部门联合印发《关于进一步优化调整本市房地产相关政策的通知》(以下简称《通知》),自2025年12月24日起施行。
+《通知》明确,为更好满足居民刚性住房需求和多样化改善性住房需求,进一步优化调整住房限购政策。一是放宽非京籍家庭购房条件。将非京籍家庭购买五环内商品住房的社保或个税缴纳年限,由现行的“3年”调减为“2年”;购买五环外商品住房的,由现行的“2年”调减为“1年”。二是支持多子女家庭住房需求。二孩及以上的多子女家庭,可在五环内多购买一套商品住房,即:京籍多子女家庭,可在五环内购买3套商品住房;在京连续2年缴纳社保或个税的非京籍多子女家庭,可在五环内购买2套商品住房。
+《通知》明确,进一步优化个人住房信贷政策,银行业金融机构根据北京地区市场利率定价自律机制要求和本机构经营状况、客户风险状况等因素,在利率定价机制安排方面不再区分首套住房和二套住房,合理确定每笔商业性个人住房贷款的具体利率水平。关于住房贷款相关业务,可向经办银行具体咨询。
+《通知》明确,加大公积金支持住房消费力度,调整二套住房公积金贷款最低首付比例,对借款申请人(含共同申请人)使用公积金个人住房贷款购买二套住房的,最低首付款比例由不低于30%调整为不低于25%。
+《通知》还提出,为进一步优化营商环境,提升房地产投资效率,调整招拍挂拿地的房地产开发项目立项方式,由市区分级核准调整为区级备案。</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
@@ -3543,10 +4654,32 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C44" r:id="rId43"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C45" r:id="rId44"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C46" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C47" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C48" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C49" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C50" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C51" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C52" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C53" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C54" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C55" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C56" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C57" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C58" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C59" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C60" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C61" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C62" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C63" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C64" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C65" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C66" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C67" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C68" r:id="rId67"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId68"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3584,7 +4717,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22-12-2025 18:22:21</t>
+          <t>26-12-2025 11:43:58</t>
         </is>
       </c>
     </row>

--- a/data/noticias_historico.xlsx
+++ b/data/noticias_historico.xlsx
@@ -269,12 +269,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Resumen'!$B$23:$B$29</f>
+              <f>'Resumen'!$B$23:$B$30</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Resumen'!$C$23:$C$29</f>
+              <f>'Resumen'!$C$23:$C$30</f>
             </numRef>
           </val>
         </ser>
@@ -355,7 +355,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Resumen'!C37</f>
+              <f>'Resumen'!C38</f>
             </strRef>
           </tx>
           <spPr>
@@ -365,12 +365,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Resumen'!$B$38:$B$42</f>
+              <f>'Resumen'!$B$39:$B$44</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Resumen'!$C$38:$C$42</f>
+              <f>'Resumen'!$C$39:$C$44</f>
             </numRef>
           </val>
         </ser>
@@ -436,7 +436,7 @@
     <from>
       <col>4</col>
       <colOff>0</colOff>
-      <row>34</row>
+      <row>35</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -458,8 +458,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaNoticias" displayName="TablaNoticias" ref="A1:H68" headerRowCount="1">
-  <autoFilter ref="A1:H68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaNoticias" displayName="TablaNoticias" ref="A1:H249" headerRowCount="1">
+  <autoFilter ref="A1:H249"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Nombre del periódico"/>
     <tableColumn id="2" name="Procedencia"/>
@@ -763,7 +763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:C42"/>
+  <dimension ref="B2:C44"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>51</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>23</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="C24" s="4" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="C25" s="4" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -870,106 +870,126 @@
         </is>
       </c>
       <c r="C26" s="4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Política social</t>
+          <t>Política interior China</t>
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Tecnología de consumo</t>
+          <t>Política social</t>
         </is>
       </c>
       <c r="C28" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Política interior China</t>
+          <t>Tecnología de consumo</t>
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="1" t="inlineStr">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Territorio geografía y medio ambiente</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>Percepción (Imagen de China)</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" s="2" t="inlineStr">
+    <row r="38">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>Clasificación</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>Neutral</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Positiva</t>
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Muy positiva</t>
+          <t>Neutral</t>
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Amenaza</t>
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Amenaza</t>
+          <t>Negativa</t>
         </is>
       </c>
       <c r="C42" s="4" t="n">
-        <v>3</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +1004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4607,6 +4627,9443 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>China inicia maniobras militares en torno a Taiwán como “seria advertencia” a “las fuerzas separatistas”</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2025-12-29T09:26:07+01:00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Los ejercicios bélicos, de dos días, incluirán ensayos con fuego real y se producen en un contexto de creciente tensión entre China, Estados Unidos y Japón</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Los ejercicios bélicos, de dos días, incluirán ensayos con fuego real y se producen en un contexto de creciente tensión entre China, Estados Unidos y Japón
+El Ejército Popular de Liberación (EPL, el ejército chino) ha iniciado este lunes dos días de maniobras militares a gran escala en torno a Taiwán, que implican un despliegue coordinado de las fuerzas terrestres, navales, aéreas y de misiles. Los nuevosjuegos de guerra, que incluirán ensayos con fuego real, se producen en un contexto de creciente tensión entre China y Estados Unidos, después de que Washington avanzara en los trámites para vender elmayor paquete de armas de la historia a la isla, pero también en medio de uninterminable rifirrafe con Japónpor las declaraciones de la primera ministra, Sanae Takaichi, en las que sugirió que un hipotético ataque chino contra territorio taiwanés podría obligar a su país a intervenir militarmente.
+Pekín ha presentado la operación bautizadaMisión Justicia 2025como “legítima y necesaria” para salvaguardar “la soberanía y unidad nacional de China”, y la ha enmarcado de forma explícita como una “seria advertencia” a las “fuerzas separatistas que buscan la independencia de la isla y a las fuerzas de interferencia externas”.
+El portavoz del Mando del Teatro Oriental del EPL, el coronel Shi Yi, informó a primera hora de que buques y aeronaves chinas se aproximaban a Taiwán “desde múltiples direcciones”. Shi añadió que los ensayos incluirían patrullas de “preparación para el combate” en aire y mar, el “bloqueo de puertos y áreas consideradas estratégicas” y “operaciones de disuasión” más allá del perímetro inmediato del objetivo, lo que en la jerga militar china se refiere a la primera cadena de islas, un arco geográfico que va desde el archipiélago japonés hasta Filipinas, pasando por Taiwán.
+Pekín considera ese cinturón insular como la primera línea de contención del despliegue militar de Estados Unidos y sus aliados en el Pacífico. Incluir por primera vez una referencia a la “disuasión” sugiere que estos ejercicios contemplan escenarios de proyección militar más amplios, orientados a dificultar o impedir una eventual intervención externa en caso de que se produzca un conflicto real en el estrecho de Formosa.
+Los ensayos bélicos se están desarrollando en aguas del estrecho y en cinco espacios marítimos y aéreos situados al norte, suroeste, sureste y este de la isla principal y mañana incluirán fuego real. El coronel Shi subrayó que distintas ramas militares realizarán acciones coordinadas para poner a prueba la “capacidad real de combate combinado” de las tropas. A lo largo de la jornada se han simulado ataques contra objetivos terrestres móviles y en el agua y la caza de submarinos. Para ello se han empleado cazas, bombarderos, drones, artillería de largo alcance, destructores, fragatas, buques y aeronaves de guerra.
+El Ministerio de Defensa taiwanés ha condenado las “provocaciones irracionales” de Pekín y ha informado de que ha desplegado fuerzas “apropiadas” conforme a los protocolos de defensa existentes para proteger “la libertad, democracia y soberanía” taiwanesas.
+Taiwánes el lugar donde se exiliaron las fuerzas nacionalistas tras perder la guerra civil china en 1949. Aunque el Partido Comunista nunca ha ejercido autoridad efectiva sobre la isla, la República Popular la considera una parte inalienable de su territorio y afirma quela reunificación es “inevitable”. “El retorno de Taiwán a China es parte integral del orden internacional de posguerra”, remarcó en noviembre el presidente chino, Xi Jinping, a su homólogo estadounidense, Donald Trump.“Es importante que salvaguardemos juntos la victoria de la II Guerra Mundial”, apostilló entonces.
+Aunque la antigua isla de Formosa funciona como un Estadode facto—tiene un Gobierno elegido democráticamente desde 1996, una Constitución y un Ejército—, la mayoría de la comunidad internacional (incluido Estados Unidos) no lo reconoce como un país soberano. No obstante, Washington le suministra armas, y rechaza cualquier cambio delstatu quoen el Estrecho mediante la fuerza o la coerción.
+“Defender la democracia y la libertad no es una provocación”, ha enfatizado el Ministerio de Defensa taiwanés en una nota de prensa. Taipéi ha descrito las maniobras chinas como acciones que confirman “la naturaleza agresiva” de Pekín y su papel como “el mayor desestabilizador de la paz regional”. Y ha insistido en que reafirman la necesidad de fortalecer la capacidad defensiva de la isla.
+Los ejercicios castrenses se producen 11 días después de que la Administración de Donald Trump aprobara medidas para reforzar la cooperación en materia de seguridad con Taipéi y avanzara en nuevos trámites para la venta de armamento, valorado en 11.100 millones de dólares (unos 9.428 millones de euros). Esa operación, que aún debe completar su tramitación en el Congreso estadounidense, constituiría el mayor acuerdo de suministro militar a Taiwán hasta la fecha. El viernes, Pekín respondió con sanciones contra 20 empresas estadounidenses del sector de la defensa y diez de sus directivos.
+Las maniobras militares chinas alrededor de Taiwán son cada vez más frecuentes. Son lassegundas de gran envergadura en 2025y lasexta gran ronda desde agosto de 2022,tras la visita a Taipéi de la entonces presidenta de la Cámara de Representantes estadounidense, la demócrata Nancy Pelosi. Pekín ha intensificado su presión militar desde latoma de posesión del presidente Lai Ching-te(a quien China tacha de “secesionista”), en mayo de 2024. Diversos analistas y militares estadounidenses llevan tiempo alertando de que los ensayos chinosse han vuelto tan recurrentesque podrían servir de pretexto para encubrir una invasión.
+En declaraciones publicadas por China Military Bugle, una cuenta en la Red vinculada al centro de prensa del Ejército chino, el general Meng Xiangqing afirma que las Fuerzas Armadas chinas disponen de “múltiples opciones estratégicas” para “castigar a las fuerzas independentistas” y “disuadir”. “[El EPL]puede convertir las maniobras en una guerra en cualquier momento”, aseguró el general.
+El director de la Oficina de Seguridad Nacional de Taiwán, Tsai Ming-yen, advirtió a principios de diciembre de que el EPL podría intensificar su actividad militar alrededor de la isla antes de que terminara el año. Aquel aviso se produjo en paralelo a un aumento de la tensión entre China y Japón, después de que lapremiernipona dijera en noviembre que uneventual ataque militar de China contra Taiwánpodría suponer “una amenaza existencial” para su país, que justificaría el despliegue de las Fuerzas de Autodefensa japonesas.
+El comentario deTakaichi, una política de corte nacionalistay fiel defensora de un Japón más militarizado, suponía un distanciamiento de la estrategia de ambigüedad que Tokio ha mantenido durante años y ha provocado que la relación bilateral se encuentre en caída libre. Pekínlanzó represalias económicas, congeló varios canales de diálogo oficiales, pidió a sus ciudadanos que eviten viajar o estudiar en el país vecino ycanceló conciertos y estrenos de películas niponas en su suelo.
+El EPL también ha difundido hoy dos carteles de fuerte carga simbólica. El primero, tituladoEscudo de justicia: desmontando ilusiones, muestra dos grandes escudos (grabados con la Gran Muralla china) “clavados” en el mar y “bloqueando” rutas clave de acceso a la isla. En la ilustración se aprecian buques de mercancías que transportan armas y aviones estadounidenses siendo interceptados y obligados a retroceder. El segundo,Flechas de justicia: control y negación, muestra a Taiwán como objetivo, sobre el que caen flechas en llamas. Algunas atraviesan insectos verdes, en referencia al presidente taiwanés, a quien la propaganda china se refiere con frecuencia como “parásito”.
+“¡Cualquier interferencia extranjera que toque el escudo perecerá! ¡Cualquier canalla separatista que se encuentre con el escudo será destruido!“, clama la información que acompaña a los carteles.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>La larga sombra del hijo único: China paga con una crisis demográfica su mayor experimento social</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Política social</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2025-12-28T05:30:01+01:00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>La falta de nacimientos es uno de los mayores quebraderos de cabeza para el Gobierno del país, que ha pasado en solo 10 años de restringir a incentivar la natalidad</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>La falta de nacimientos es uno de los mayores quebraderos de cabeza para el Gobierno del país, que ha pasado en solo 10 años de restringir a incentivar la natalidad
+La política del hijo único ha sido, quizá, el mayor experimento social de la humanidad. Con el objetivo de frenar a toda costa el crecimiento de población, durante algo más de 35 años China sólo permitió a las familias tener un solo vástago. Los dirigentes comunistas esbozaron las medidas con un eslogan en 1978: “Uno es mejor, dos como mucho, dejando un espacio de tres años”. En 1980 se convirtió en política estatal. Para 1982, el 96% de las familias urbanas estaban teniendo un solo retoño, según la Encuesta de Hogares Urbanos.
+Mediante un sistema de multas y penalizacionespara quien no cumpliera, se frenó en seco la natalidad del entonces país más poblado. Hasta que la política se convirtió en un problema. Con la pirámide poblacional en proceso de inversión,Pekín le puso el punto final en 2016,permitiendo a las parejas tener dos hijos para “equilibrar el desarrollo demográfico y abordar el desafío de una población que envejece”. No lo ha logrado. Diez años después, el descenso de la natalidad es uno de los mayores quebraderos de cabeza para el Gobierno chino.
+Su sombra es alargada. Durante su aplicación, la política del hijo único dio lugar a historias terroríficas de abortos, abandonos y pequeños que crecieron sin ser registrados. Se cebó especialmente con las niñas, a las que muchas familias desdeñaron. A la vez, se moldeó un nuevo tipo de sociedad de hijos únicos, conocidos como “pequeños emperadores”, críos hiperformados y plagados de atenciones, que se han hecho adultos mientras el PIB de China crecía a una media del 10% y el país ascendía al Olimpo de las superpotencias.
+Ma Li, de 53 años, crio a su única hija (hoy de 24) con la esperanza de que tuviera “los mismos derechos y oportunidades que un varón”. “La eduqué para que fuera valiente y supiera defenderse”, declara por teléfono. Tras dar a luz, se colocó un dispositivo intrauterino, como hicieron millones de mujeres durante los años en los que el control de la natalidad estuvo vigente. Asegura que en su caso fue una decisión voluntaria, aunque organizaciones de derechos humanos han documentado que se trató de una práctica médica extendida y, en muchas ocasiones, sujeta a presión administrativa.
+Reconoce que, de haber tenido margen, habría querido más hijos. Pero sostiene que la política “liberó a las mujeres de tener una función reproductiva permanente”. “Cada época tiene su propia lógica”, reflexiona. “Ahora muchas no quieren tenerlos. Algunas ni siquiera quieren casarse”.
+En las zonas rurales, la norma no siempre se siguió con la misma rigidez. La distancia con los centros de poder, la necesidad de mano de obra y la propia realidad demográfica hicieron que su aplicación fuera desigual y, en ocasiones, más laxa. En muchas aldeas se toleraron excepciones informales, retrasos en los registros o nacimientos que quedaron fuera del radar burocrático.
+Algunas familias tomaron decisiones al margen del sistema, como la de la señora Mei, oriunda de Sichuan, de 49 años. “La gente del campo no entendíamos el porqué de los controles”, explica en un mensaje. Describe que en casi todas las casas de su entorno había varios niños. Por eso, cuando nació su segundo hijo (la primogénita era niña) lo inscribió en el registro familiar de su hermana. Regularizó la situación en 2015 ―año en que se anunció el fin de la política― y pagó la multa correspondiente, la cual, dice, “ya no era comparable” a lo que habría tenido que abonar en 2003. Durante 12 años, a ojos de las autoridades, el niño fue el hijo de su tía.
+En opinión de la señora Mei, la crianza antes “era sencilla”. “Con tener algo para comer bastaba”. Atribuye la baja natalidad a las “enormes exigencias actuales” y a una combinación de factores:salarios estancados, altos niveles de estrés,y falta de corresponsabilidad doméstica.
+En China, la tasa de fertilidad continúa en caída libre, a pesar de que en 2021se permitió a las parejas casadas incluso tener tres hijos. Nace un niño por cada mujer, según el Banco Mundial, una de las menores tasas de reposición del planeta (para que la población no disminuya, han de nacer 2,1 hijos por mujer). En 2022, el paísperdió población por primera vez desde la década de los sesenta. En 2023, fue superado porla India como el país más habitado. Chinaenvejece rápidamentey la sociedad se sustenta por un número cada vez menor de ciudadanos en edad de trabajar. La tasa de natalidad y el número de recién nacidos disminuyeron durante siete años consecutivos antes de experimentar un ligero repunte en 2024. La ONU prevé que China pase de los 1.400 millones de habitantes actuales a 633 millones para el año 2100, un cambio que podría ser un obstáculo para el crecimiento.
+De modo que estos asuntos se han convertidoen una prioridad de “seguridad nacional”.“El auge y la caída de las grandes naciones suelen estar profundamente influenciados por las condiciones demográficas”, dijo en un discurso en 2023 el presidente chino, Xi Jinping. “Por lo tanto, la seguridad demográfica debe incorporarse al marco más amplio de la seguridad nacional y planificarse cuidadosamente”. El líder abogó por “pasar de regular principalmente la cantidad a centrarse en mejorar la calidad, estabilizar la población total, optimizar la estructura demográfica y mejorar la movilidad de la población”. Los analistas lo interpretaron como un giro en el enfoque: del control a los incentivos.
+Las autoridades promocionan hoy lo que llaman una“nueva cultura de matrimonio y maternidad”. Las políticas se despliegan en numerosos frentes, de permisos parentales más largos a desgravaciones fiscales. Los Gobiernos locales celebran bodas colectivas para animar los enlaces. Desde mayo, las parejas pueden casarse en todo el país, sin necesidad de registrar el enlace en el lugar de su empadronamiento natal (el llamadohukou). Hay funcionarios dispuestos a inscribir uniones enresortsturísticos, discotecas y festivales de música.
+Este año, por primera vez, el Informe de Trabajo del Gobierno, un documento anual que revisa políticas y fija objetivos, mencionaba la necesidad de “proporcionar subsidios para el cuidado infantil” y desarrollar servicios de guardería. En julio, se aprobó un programa nacional de ayudas de 3.600 yuanes (435 euros) por cada hijo menor de tres años. Y la semana pasada, la Administración Nacional de Seguridad Sanitaria se comprometió a “lograr básicamente” que para 2026 los ciudadanos no tengan que realizar ningún desembolso por los gastos hospitalarios del parto, que ascienden a unos 5.000 yuanes por uno vaginal y 10.000 por cesárea (605 euros y 1.209 euros, respectivamente), segúnShanghai Observer. Actualmente, en la mayoría de provincias rige el sistema de copago por los gastos médicos, incluidos los destinados al nacimiento.
+En otro signo de los nuevos tiempos, a partir del 2026, los condones serán más caros: se aplicará un 13% de IVA a los preservativos y otros anticonceptivos, que habían estado exentos desde 1993 como parte de la política de hijo único.
+“El descenso de la tasa de fertilidad es inevitable, como una roca gigante que rueda cuesta abajo”, afirma sin embargo Yi Fuxian, investigador de la Universidad Wisconsin-Madison. Es una consecuencia de las sociedades desarrolladas, y Asia es un buen reflejo, con tasas por los suelos en Japón o Corea del Sur. “La política del hijo único de China aceleró el proceso”, añade el también autor deBig country with an empty nest(Un gran país con un nido vacío, 2007). Cree que, a pesar de los esfuerzos del Gobierno chino, será muy difícil subir esa roca de nuevo ladera arriba.
+Yi considera que la política del hijo único ha cambiado las actitudes hacia la maternidad y la paternidad y “ha distorsionado los valores morales sobre la vida”, escribe por correo electrónico. “Tener un solo hijo o no tener hijos se ha convertido en la norma social”. Pronostica quelos matrimonios seguirán cayendo(a pesar del breve repunte en 2023 y en 2025) y las parejas, posponiendo la hora de procrear. No cree que las políticas introducidas vayan a lograr demasiado. “Lo que China pretende hacer, Japón ya lo ha hecho”. Y sin éxito. El país “está envejeciendo antes de enriquecerse”, concluye. Y “no cuenta con los recursos financieros necesarios para seguir completamente el camino de Japón”.
+La economista Keyu Jin, nacida en 1982, e hija única como la inmensa mayoría de los de su generación, cree que la implementación de la política del hijo único condujo a “numerosas historias de terror”, y ha marcado profundamente al país. Pero no solo para mal: “Puede ayudar a explicar la elevada tasa de ahorro de los hogares urbanos chinos [y] el extraordinario aumento del nivel de estudios superiores”, señala esta profesora de la Hong Kong University of Science and Technology enThe New China Playbook(El nuevo manual de China, 2023). “En un giro sorprendente, tener menos hijos elevó drásticamente el estatus de las mujeres”, añade.
+Las estadísticas reflejan que en China hay unos 30 millones más de hombres que de mujeres, una anomalía que bebe de la preferencia por el varón durante los años del hijo único. Pero las que nacieron, como la propia Jin, no han tenido que competir con hermanos varones por los recursos, particularmente en educación. Numerosas investigaciones prueban que las mujeres han recibido de media más años de estudios que los hombres, escribe Jin. Y esto ha contribuido a conferirle a sus congéneres una mayor relevancia social y laboral.
+También ha dado lugar a unageneración de mujeres más independientes, tanto en lo económico como en lo personal, y más seguras de sí mismas. “Ahora hay máshermanasque alzan la voz y muestran a otras que hay que luchar por tener más derechos y autonomía”, valora en un intercambio de mensajes Winnie Tang, de 27 años, fundadora de Spring Reel, una productora de series. Para ella, la “liberación” de la mujer es “tener derecho a negarse y a no asumir exigencias impuestas”. En la época de su madre, “formar una familia era el mejor destino al que una mujer podía aspirar”. Su generación, sin embargo,prioriza otras metas, como desarrollar “una carrera que nos apasione” o disfrutar “del placer de hacer las cosas que nos gustan”.
+Zimeng Yanha contribuido en la elaboración de este reportaje.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>Daron Acemoglu: "Europa se ha quedado muy, muy atrás respecto a China y EEUU y no es consciente de ello"</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2025-12-29T11:11:52+01:00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>El catedrático del MIT repasa los retos que plantea el futuro de la inteligencia artificial y los riesgos a los que nos enfrentamos en el nuevo año: desde la amenazas de Trump hasta la guerra global de los chips Leer</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>¿Cuántas veces ha visto en la ficción un futuro hiperautomatizado en el que unhumanoide sustituye a un trabajador de carne y huesomientras alguien, en algún despacho, se enriquece con la eficiencia? Más allá de la distopía exagerada, hace apenas dos años anadie se le habría ocurrido pedir a una máquina sabelotodoque le detallara sus finanzas, le ayudara a arreglar un coche o le resolviera una duda médica.
+Hoy, cada consulta gratuita, cada tarea automatizada y cada decisión delegada en un algoritmo produce eficiencia.Y la eficiencia se traduce en beneficios. La cuestión es quién los captura y cómo se reparten, pero, sobre todo, si este salto tecnológico será capaz, en los próximos años, de transformar el empleo, la distribución de la riqueza y el equilibrio de poder entre empresas, trabajadores e instituciones.
+Son preguntas en las que economistas comoDaron Acemoglullevan tiempo poniendo el foco. Lejos del entusiasmo tecnoutópico y del alarmismo fácil, el catedrático del Instituto Tecnológico de Massachusetts (MIT) y Nobel de Economía en 2024 ha dedicado su carrera aestudiar por qué unos países prosperan y otros no, y qué papel juegan las instituciones a la hora de repartir (o concentrar) los frutos del crecimiento.
+En los últimos años ha trasladado ese análisis a uno de los grandes motores del cambio contemporáneo para desentrañar si el enorme desarrollo tecnológico que hemos alcanzadoestá mejorando de verdad la vida de la mayoría o si, por el contrario, está enriqueciendo de forma desproporcionada a una cúspide de empresarios. De eso trata precisamentePoder y progreso(Deusto), su último libro junto a Simon Johnson. Aunque, cuando entregó el manuscrito,ChatGPTaún andaba en pañales y la inteligencia artificial no ocupaba portadas diarias.
+La supuesta todóloga ha acelerado procesos, transformado tareas y disparado expectativas sobre productividad y crecimiento. Pero también ha reabierto dilemas: automatización frente a empleo, concentración frente a competencia, innovación frente a control democrático. "La dirección actual va claramente hacia la automatización", advierte Acemoglu."Y tengo claro que esa no es la dirección en la que deberíamos ir".
+A esa alternativa al camino actual la llamapro-worker AI, aunque está lejos de ser la dirección dominante. Acemoglu insiste en que la tecnología, por sí sola,no es ni buena ni mala: todo depende de los incentivos que guían su uso. Y, por ahora, esos incentivos no están pensados para repartir beneficios. Por decirlo gráficamente: unos se están empachando con tarta y los otros se tienen que contentar con las migajillas.
+¿Y quién se queda el pastel? Acemoglu prefiere no meter el dedo en la llaga. Ni dar nombres ni apellidos. "Basta con buscar a los principales directivos de las empresas de inteligencia artificial y ya tienes la lista", responde. Traducido a nombres propios: Sam Altman, al frente de OpenAI; Satya Nadella, consejero delegado de Microsoft y principal socio de la compañía; Sundar Pichai, máximo responsable de Google; Demis Hassabis, cerebro de DeepMind dentro de Alphabet; o Mark Zuckerberg, desde Meta.
+En un momento en el que la economía global avanza con paso inseguro, no solo la inteligencia artificial actúa como factor de incertidumbre. También la política. Y pocos nombres generan hoy más ruido que el deDonald Trump. Su regreso a la Casa Blanca, con amenazas de aranceles, decisiones unilaterales y un desprecio explícito por las reglas del comercio internacional, añade tensión aun sistema ya al límite.
+A Acemoglu no le preocupa tanto el golpe inmediato de esas medidas como lo que vendrá. Más que los aranceles,le inquieta el desgaste institucionalque, a su juicio, Trump ha acelerado en Estados Unidos. "Ha roto todo tipo de normas que mantenían lacooperación políticay lacivilidad en la política", advierte.
+Esa fragilidad de las cadenas globalesse ve con especial claridad en una industria clave: la de los semiconductores. Los microchips son el corazón de los miles de millones de dispositivos conectados que hay en el planeta y una pieza esencial para la inteligencia artificial, las telecomunicaciones o los sistemas militares. Precisamente por eso se han convertido en el epicentro de la llamada guerra de los chips.
+"¿Qué guerra?", se preguntará. Una ya en marcha, aunque todavía sin disparos, en la que Estados Unidos y China compiten por controlar la infraestructura tecnológica.¿Y Europa?"Muy, muy atrás", admite Acemoglu. "Creo que los europeos todavía no son plenamente conscientes de lo lejos que se han quedado".
+"China avanza a gran velocidad en manufactura, robótica, IA aplicada a la producción, energía y vehículos eléctricos. Europa, en cambio, se ha quedado rezagada", admite. En parte, como detalla, por una regulación improvisada, falta de financiación parastartupsyuna fuga constante de talento hacia Estados Unidos.
+Entre Washington y Pekín, el economista no se atreve a dar un ganador claro. China cuenta con talento, datos y una enorme base industrial, pero la excesiva intervención política genera ineficiencias. "Es difícil saber quién acabará imponiéndose, pero el mundo sería un lugar mejor si Europa lograra ser también un competidor real", censura.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
+        <is>
+          <t>China anuncia maniobras militares esta semana alrededor de Taiwán</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2025-12-29T02:16:33+01:00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Se recomienda que cualquier barco o avión no relacionado evite ingresar a las aguas y espacio aéreo antes mencionados Leer</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>China anunció el lunes que realizaría "grandes" ejercicios militares el martes alrededor de Taiwán, que incluirán actividades con fuego real en cinco zonas marítimas y aéreas cerca de la isla de gobierno autónomo que Pekín reclama como propia.
+"A partir del 29 de diciembre, el Mando del Teatro Oriental del EPL (Ejército Popular de Liberación)desplegará soldados de su ejército, marina, fuerza aérea y fuerza de cohetespara efectuar maniobras militares conjuntas denominadas 'Misión Justicia 2025'", indicó en un comunicado el portavoz militar coronel Shi Yi.
+En un comunicado separado, el EPL mostró un mapa con cinco grandes zonas alrededor de Taiwán, donde "serán organizadas actividades de fuego real" desde las 08H00 hasta las 18H00 del martes (00H00 a 10H00 GMT).
+"En aras de la seguridad,se recomienda que cualquier barco o avión no relacionado evite ingresar a las aguas y espacio aéreoantes mencionados", agrega el comunicado.
+El despliegue a gran escala se da después de semanas de tensiones entre China y Japón, iniciadas por comentarios que sugieren un potencial apoyo japonés a Taiwán en el caso de un futuro conflicto armado.
+También ocurredespués de la más reciente venta de armas estadounidense a Taiwán, la cual provocó una respuesta airada de parte de Pekín, que la semana pasada impuso sanciones contra 20 empresas bélicas de Estados Unidos.
+Las maniobras de esta semana son "una firme advertencia contra las fuerzas separatistas por la independencia de Taiwán", y son "una acción legítima y necesaria para salvaguardar la soberanía y unidad nacional de China", agregó Shi en el comunicado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>La larga marcha de Xi Jinping: cómo la violencia del maoísmo moldeó al hombre más poderoso del mundo</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2025-12-27T02:03:30+01:00</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Su padre, el famoso revolucionario Xi Zhongxun, cayó en desgracia por deslealtad hacia Mao Zedong. La rehabilitación social de la familia llegó en los primeros años de aperturismo Leer</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>En la primavera de1967, la Revolución Cultural había entrado en una de sus fases más oscuras. En un centro de reeducación en Pekín para las familias burguesas de altos funcionarios del Partido Comunista Chino (PCCh), seis personas fueron arrastradas al escarnio público: cinco adultos yun adolescente de 13 años. Este último era el hijo del famoso revolucionarioXi Zhongxun, antiguo jefe de propaganda y viceprimer ministro,caído en desgraciapor deslealtad hacia el líder Mao Zedong.
+Aquel adolescente se llamabaXi Jinping. Comocastigo por la supuesta traición de su padre, fue obligado a llevar unpesado gorro metálicocon forma decabeza de burrofrente una multitud enfurecida que lo insultaba. Entre quienes gritaban se encontraba su propia madre, Qi Xin, forzada a participar en la humillación a su hijo para demostrar su lealtad al régimen y no acabar en la cárcel como su marido.
+El joven Xi fue encerrado en otrocentro de reeducación juvenil. Más adelante, al igual que otros muchos chavales de familias adineradas de las grandes ciudades, fueenviado al campoen el marco de la campaña de Mao para templar a la juventud urbanita a través del trabajo rural. Xi pasó siete años cavando pozos en una aldea al norte de China, viviendo aislado en casas excavadas en la roca. Fue allí donde recibió una carta que marcaría su vida:una de sus dos hermanas mayores, también repudiada por el régimen, se habíasuicidado.
+Hubo un momento en el que Xi huyó del campo y buscó refugio en Pekín. Pero no contó con que su propia madre, en vez de abrirle las puertas de casa, lo denunciaría a las autoridades. No quería que su hijo se convirtiera en un desertor de por vida.
+Larehabilitación socialde la familia llegó en los primeros años de aperturismo bajo la batuta del reformistaDeng Xiaoping. La reinserción del padre se materializó con un puesto como subdirector de una fábrica de tractores. Después, de vuelta en la política, Xi Zhongxun fue uno de los impulsores de las zonas económicas especiales que hicieron que la región de Cantón se convirtiera en la fábrica del mundo.
+Estos episodios se recogen en la primera biografía en inglés dedicada a Xi Zhongxun, el padre del actual líder chino, escrita por el historiador Joseph Torigian, profesor en la Universidad de Stanford. EnLos intereses del Partido son lo primero: la vida de Xi Zhongxun, Torigian plantea una interesante pregunta: ¿cómo pudieron padre e hijo mantener una fe inquebrantable en el sistema de partido único después de haber sufrido en carne propia su brutalidad?
+Según el propio autor, padre e hijo fueronformados en una cultura política de raíz bolcheviqueque glorificaba la disciplina, el sacrificio y la idea de forjarse a uno mismo a través del sufrimiento. Lejos de quebrar su lealtad, la persecución habría reforzado su adhesión a la causa del PCCh, concebido como un proyecto histórico al que el individuo debía subordinarse por completo. Todo ello, destaca Torigian, ayudó a moldear al dirigente que emergería décadas después como el líder más poderoso de China desde la época de Mao.
+La narrativa oficial comparte esa línea en las edulcoradas biografías que se han publicado sobre Xi: los años de humillación y penurias fueron una suerte de rito iniciático que lo convirtieron en un presidente fuerte, austero, incorruptible y profundamente conectado con las masas rurales.
+Xi Zhongxun murió en 2002. Su viuda (era su segunda esposa), Qi Xin, tiene ahora 99 años. Sobre la anciana madre del presidente chino, la propaganda estatal la ha presentado como una "guerrera" que lideró un batallón de mujeres durante la invasión japonesa a finales de la década de 1930. Xi Jinping tiene una hermana mayor, Qi Qiaoqiao, que abrió un fondo con inversiones en el sector minero e inmobiliario, y un hermano pequeño, Xi Yuanping, quien dirige una organización medioambiental en Pekín.
+El líder de la superpotencia asiática estácasado con Peng Liyuan,una famosa soprano. La pareja tiene una hija, Xi Mingze, quien ha mantenido un perfil muy bajo y apenas se sabe nada sobre ella más que algunas notas publicadas por medios estadounidenses: estudió en Harvard bajo seudónimo y después de graduarse regresó a China. La vida privada de Xi Jinping y la de su familia se mantiene siempre fuera del foco mediático nacional. La gran mayoría de los chinos incluso desconoce que la pareja tiene una hija.
+Xi, que tiene 72 años,lleva desde 2012 en el poder. Además de presidente de China, también es secretario general del Partido -el cargo de quien realmente manda- y presidente de la Comisión Militar Central, órgano que dirige los asuntos del ejército. En 2018 enmendó la Constitución para abolir los límites de mandato y, un año antes, incluyó su ideología homónima (el Pensamiento de Xi Jinping sobre el Socialismo con Características Chinas) en los planes de estudio obligatorio en escuelas y universidades.
+Xi comenzó en 2022 un tercer mandato sin precedentescon una reorganización en la élite política del Partido Comunista, rompiendo además una norma no oficial respecto a que los líderes se tenían que jubilar a los 68 años. Rodeado de un equipo de leales, el culto extremo a su figura se ha consolidado. Ha reforzado el control del PCCh sobre el Estado y la sociedad por igual. Todo ello sin ser cuestionado dentro de casa a pesar de los extremos cierres de la pandemia y las turbulencias económicas. Y su sobriedad nunca deja nada de espacio la improvisación: lleva más de una década sin dar una entrevista, no participa en ruedas de prensa ni tiene gabinete de comunicación.
+Xi ha liderado personalmente una campaña contra la corrupción que se hallevado por delante a millones de funcionariosde todos los niveles (y también a rivales políticos); ha reforzado el control sobre el ejército y consolidado el papel de los medios como herramientas que sirven a los intereses del Partido, limitando cada vez más la libertad de prensa. En la práctica no hay ningún otro líder en el mundo, ni siquiera el estadounidense Donald Trump, que concentretanto poder en sus manos. Este año, los medios estatales han puesto en especial valor la estabilidad en el liderazgo de Xi en medio de una política de encanto global que ha lanzado Pekín en su pulso con Estados Unidos.
+Las encuestas que publican de vez en cuando los medios estatales aseguran que más del 80% de los chinos apoyan a su Gobierno. Es cierto que, si la popularidad de Xi y el PCCh se hubiera desplomado, los censurados medios locales no lo contarían. Pero también lo es que, a pie de calle, se siente ese incuestionable respaldo hacia el poder.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>Cosmopolita por fuera, intolerante por dentro: entre los rascacielos y la censura de Shanghai</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Política social</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2025-12-27T00:09:08+01:00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>No hay espacio para la disidencia ni un debate público que salga de la línea marcada por el Gobierno en la gran ciudad cosmopolita de China Leer</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>El ascenso de labailarina transgénero Jin Xinga las altas esferas del mundo del espectáculo chino fue visto como algo extraordinario: una activista que agotaba las entradas en sus espectáculos y presentaba exitosos programas de televisión en las cadenas estatales. Una revolucionaria que hace casitres décadas rompió muchas barrerasal convertirse en la primera persona abiertamentetransen el país asiático. Enfrentó el estigma social y la discriminación institucional, logrando incluso el respaldo público de funcionarios del Gobierno. De repente, ella encarnó la esperanza de que China podía estar avanzando hacia una mayor apertura, tolerancia e inclusión.
+En Shanghai, dentro de una antigua fábrica textil reconvertida en un centro cultural a orillas del río Hangpu, Jin (57 años) dirige ahora una prestigiosa academia de danza. Su grupo actúa en grandes teatros de la ciudad y de otras urbes de primer nivel. Este año, en cambio, su espectáculo ha sido cancelado repentinamente en varias ocasiones, siempre sin ninguna explicación por parte de las autoridades locales.
+La bailarina está convencida de que está siendovíctima de una amplia campañaestatal contra lacomunidad LGBTQde la queni siquiera se ha librado Shanghai, la gran ciudad abierta, moderna y cosmopolita del país. El único lugar donde se permitía, hasta hace unos pocos años, celebrar un desfile del Orgullo. Esto fue cancelado. Lo mismo que obras de teatro, novelas, comics y documentales que trataban las relaciones entre personas del mismo sexo.
+Shanghai encarna como ninguna otra gran urbe la dualidad del proyecto chino contemporáneo: una apertura económica y tecnológica sin fricciones que convive con un férreo control político y cultural. Un espacio que se presenta como globalizado y que exhibe un abrumador desarrollo que rivaliza -y supera en su mayoría- a cualquier gran metrópolis occidental. Pero esa apertura tiene también unos límites muy trazados:no hay espacio para la disidenciani un debate público que salga de la línea marcada por el Gobierno.
+Al doblar la esquina de la céntrica calle Shimen Second Road, se levanta sobre una plaza un barco gigante inspirado en la época dorada de las travesías transatlánticas. Desde la proa hasta el suelo desciende un ancla plateada esculpida con el famoso logotipo de Louis Vuitton. Ha sido una de las atracciones del año para los turistas, que después de fotografiar el barco caminan unos metros hacia una avenida muy transitada para también retratar a un robot policía que dirige el tráfico. Muy cerca de allí hay unalibreríaque era famosa por los coloquios deautoras feministas. Pero eso se acabó cuando una escritora criticó que el país estaba gobernado por un"club selecto de hombres mayores"que no entienden a las mujeres chinas de hoy en día.
+Uno de los presentes grabó las declaraciones y las subió a redes sociales. La autora y la dueña de la librería recibieron unasanción administrativa por alteración del orden público. Otras escritoras de la ciudad fueron detenidas hace unos meses, pero en su caso por publicar en redes sociales relatos eróticos de mujeres lesbianas. Las acusaron de infringir la ley china sobre pornografía por "producir y distribuir material obsceno". Se enfrentan a penas de hasta 10 años de prisión.
+Shanghai tiene muchas caras, y no todas se muestran en los folletos turísticos. Bajo la superficie de los imponentes rascacielos, los neones, robots, cámaras, boutiques de lujo y cafés de diseño, se extiendeuna red de silencios impuestos y autocensuras aprendidas. Artistas, escritoras, periodistas y activistas describen un clima de incertidumbre constante, en el que nunca se sabe qué obra, qué artículo o qué gesto cruzará una línea roja.
+Pero esta ciudad, hogar de casi 30 millones de personas, también despliega una faceta profundamente humana. Hay personajes como laseñora Hui, voluntaria en un hospital infantil que ha conseguido que un fabricante de robots dotados con IA donara al centro uno de sushumanoidesparajugar con los niños. O Nang, una joven que recorrió los lugares más emblemáticos de Shanghai vestida con un traje tradicional de la etnia miao porque quería hacer un homenaje a su abuela, miembro de ese grupo étnico, fallecida poco tiempo antes.
+Una de las escenas más pintorescas se vive cada domingo por la mañana en People's Square, un antiguo hipódromo de la época colonial reconvertido en un extenso parque que acoge elfamoso "mercado del matrimonio". A un lado, cientos de padres y abuelos despliegan en el suelo carteles presentando las virtudes de sus hijos y nietos; al otro, agencias matrimoniales subastan simbólicamente a los solteros de Shanghai. La mayoría de los anuncios promocionan a hombres con buenos empleos y propietarios de una o más viviendas en una de las ciudades más caras del mundo.
+Por las tardes, el parque vuelve a transformarse. En un rincón, un karaoke improvisado reúne a hombres jubilados y oficinistas recién salidos del trabajo. En otro, la joven militarLu Yunyunmonta unapeluquería gratuitaal aire libre paraancianosque sobreviven con pensiones mínimas. No muy lejos, la artista Chen Pin organiza talleres terapéuticos de pintura y debate dirigidos a personas atrapadas en la epidemia de soledad que también se ha instalado en esta megalópolis.
+Shanghai es, al mismo tiempo, una ciudad enérgica que mantiene el arraigo con la cultura tradicional china mientras va lanzada hacia una permanente innovación tecnológica que avanza mucho más rápido que las libertades civiles. Un lugar con muchas capas donde la diversidad cultural se acoge y celebra solo mientras no cuestione el orden político establecido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t>Shanghai, la ciudad del año: donde nació el Partido Comunista y que hoy es la vitrina perfecta del ascenso chino</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2025-12-26T22:57:27+01:00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Shanghai se presenta como capital del poder chino. No es el centro político, sino su vitrina más refinada, que fusiona su historia colonial y su memoria revolucionaria con el desarrollismo desenfrenado Leer</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Xintiandifunciona como una burbuja dentro de la propia burbuja que Shanghai representa dentro de China. No hay tráfico caótico, vendedores ambulantes ni desorden visual. Este animado barrio encajado en el corazón del motor económico del gigante asiático juega con elequilibrio entre memoria, poder y modernidad. Hasta hace cuatro años también daba nombre a una parada de metro rodeada de restaurantes occidentales de lujo, boutiques y coctelerías minimalistas. La estación fue rebautizada como Sede del Primer Congreso Nacional del Partido Comunista Chino.
+El epicentro visual de Xintiandi son las casasshikumen, tipología residencial tradicional con fachadas de piedra gris, patios estrechos y marcos de madera. En una de estas viviendas, un grupo de13 hombresque se describían como intelectuales revolucionarios autodidactas, celebraronuna reunión clandestina en 1921para darle forma a unnuevo partido que adoptara el marxismo-leninismo como base ideológica. Aspiraban a expandirse dentro de una joven república muy débil y fragmentada, con las potencias extranjeras controlando concesiones enteras en muchas ciudades, entre ellas en Shanghai.
+Aquel primer congreso en unshikumenno pudo concluir porquela Policía francesa irrumpióy sacó a la fuerza a los revolucionarios, entre los que se encontraba un desconocidoMao Zedong. También había profesores, bibliotecarios y periodistas. Incluso dos representantes de la Internacional Comunista enviados desde Moscú. El grupo decidió entonces viajar hasta una pequeña ciudad famosa por sus canales,Jiaxing, a unos 100 kilómetros de Shanghai. Se subieron auna barca turística, donde votaron algunas resoluciones finales yeligieron a la primera dirección del Partido. Aquel fue el punto de partida de un proceso que culminaría en 1949 con la fundación de la República Popular China.
+Lo que en 1921 fue una reunión clandestina, se ha transformado hoy en uno de los nodos centrales del llamado turismo rojo, una peregrinación patriótica a un lugar muy alejado de la épica rural de la guerra revolucionaria que llevó al poder a Mao. La potencia simbólica de Xintiandi se multiplica por su contradicción: el PCCh, el actual partido político más poderoso del mundo, nació en uno de los actuales rincones más caros y consumistas de China.
+Cada día, grupos de escolares, funcionarios de todo el país y turistas asoman por la antigua vivienda reconvertida enun museo pedagógico ampliamente vigilado. La propaganda oficial defiende que este lugar, lejos de resultar incómodo dentro de la narrativa, desnuda que el Partido no surgió del atraso del campesinado, sino de la modernidad de la gran ciudad y que, por ello, es el garante máximo del desarrollo.
+Shanghai se presenta al mundo desde hace tiempo como capital del poder chino actual. No es el centro político -ese sigue estando en Pekín-, sino su vitrina más refinada, una que ha fusionado su historia colonial y su memoria revolucionaria con el desarrollismo desenfrenado. Sus rascacielos, a diferencia de otras gigantescas urbes del país, no compiten por excentricidad, sino por altura disciplinada; su infraestructura, además de seducir a la vista, también funciona, incluyendo la integración de la tecnología en el día a día. Todo esto en un lugar donde viven casi 30 millones de personas.
+El corresponsal que escribe estas líneas, residente en Shanghai desde hace más de dos años,paga la compraen algunos supermercados con lacara(una máquina escanea el rostro que está vinculado a la plataforma de pago de Alipay). Se mueve en ocasiones entaxis autónomosy desde el aeropuerto a su casa coge untren de levitaciónmagnética que alcanza los430 km/h. Desde hace unos meses, en su urbanización asoma de vez en cuando un nuevo vigilante de seguridad de cuatro patas: un robot cuadrúpedo dotado con un sistema de reconocimiento facial. Y tiene una una vecina octogenaria con problemas de movilidad que da largos paseos todas las mañanas con un exoesqueleto robótico que incorpora GPS.
+"Shanghai ha sido siempre la punta de lanza de China, el máximo exponente de la expansión económica del país. Ha funcionado como uno de los mayores experimentos del mundo: una sociedad enorme que en tiempo récord pasó de la pobreza a ir adquiriendo gustos y hábitos de clase media. Muchas de las cosas que suceden aquí van a moldear el futuro porque el Gobierno chinosiempre aplica primero en Shanghai las políticasque luego relanza por todo el país, las cuales tienen impacto global", explica Lucila Carzoglio, escritora argentina que lleva ocho años residiendo en la capital financiera y que publicó hace unos meses de la mano del Instituto Cervantes laGuía de Shanghai, una buena introducción en español por la cultura local de la ciudad.
+"Aunque esta urbe siempre ha mirado hacia el futuro, sigue siendo muy visible el choque entre la modernidad y las costumbres más tradicionales. Todo se paga escaneando un QR, incluso para dar limosna al mendigo. Pero vas por la calle y ves una tienda de Gucci al lado de un puesto donde te venden una tortuga viva", cuenta Carzoglio.
+"Shanghai enseña al mundo toda la prosperidad y modernidad que China ha logrado bajo la guía del PCCh y de sus líderes", pregonaba un funcionario local en un encuentro reciente coninfluencersextranjeros invitados a conocer la megaurbe. Había dos latinoamericanos, un estadounidense, un británico, un egipcio y un australiano. La charla sobre el "exitoso modelo económico y de gobernanza de China" fue en el Bund, la famosa pasarela a orillas del río Huangpu, desde donde se contempla la imponente panorámica del skyline que aparece en las postales.
+El Gobierno de Xi Jinping, enplena campaña de influencia global, pasea con frecuencia por Shanghai y por otras imponentes ciudades chinas a creadores de contenido con millones de seguidores. El propósito, señalan muchos analistas, es lograr quela "Marca China" sea cada día más atractiva, algo que está funcionando especialmente este año gracias en parte a las turbulencias provocadas por laapabullante irrupción de Donald Trumpen la Casa Blanca. La política de encanto china se ha disparado por muchos rincones del planeta y losinfluencersson clave para vender una imagen de modernidad y estabilidad.
+"China cada vez es más atractiva", declaró Lin Jian, portavoz del Ministerio de Exteriores, mencionando dos pelotazos chinos en este 2025: el fenómeno de inteligencia artificialDeepSeeky los muñecos viralesLabubu. "Los amigos extranjeros están rompiendo sus barreras cognitivas", añadió el vocero.
+The Economist, en colaboración con la consultora GlobeScan, realizó entre julio y septiembre de este 2025 una encuesta preguntando a 32.000 personas de 32 países su opinión sobre China y Estados Unidos. "Desde la última vez que hicimos la pregunta hace un año, China ha avanzado considerablemente, alcanzando un promedio del 33% en cuanto a la preferencia, mientras que EEUU bajó al 46%", resumía el diario.
+En la encuesta, la preferencia por China había aumentado sobre todo entre los más jóvenes (de 18 a 24 años), cuya mayoría ve la influencia del país asiático en el mundo "principalmente positiva", mientras que para los mayores de 65 años EEUU sigue teniendo mucha ventaja. En cuanto a la elección de China como potencia líder, los países donde más aumentó el apoyo fueron Brasil, Canadá, México, Sudáfrica y España.
+El Consejo Europeo de Relaciones Exteriores (ECFR), unthink tankcon sede en Berlín, lanzó a mediados de año otraencuestaque analizaba la opinión pública europea sobre el estado de la alianza con Washington y las relaciones con Pekín. La conclusión a la que llegaba el informe era que los europeos pensaban que EEUU es más un "socio necesario" que un "aliado". Respecto a China, en elsur de Europa, muchos ciudadanos de países como España, Italia o Portugal veían aPekín incluso como un "aliado", mientras que en Alemania, Reino Unido o Francia la mayoría tenía la opinión contraria.
+"Los ciudadanos europeos consideran estratégico reforzar la relación con China y reclaman una actitud más firme ante EEUU", concluye otro informe publicado este mes por el instituto Center for the Governance of Change, de la IE University. Tras analizar la opinión pública en 10 países europeos, reflejan un incremento de 15 puntos desde 2023 en el interés de los europeos por estrechar los lazos con China.
+Laactual estrategia delpoder blandochino -la que seduce sobre todo a los más jóvenes que están pegados todo el día a TikTok- pasa por contar conun ejército deinfluencersextranjerosque queden impresionados por, por ejemplo, los hitos delambicioso programa de inversiones en infraestructurasen los países en desarrollo bajo el paraguas de lanueva Ruta de la Seda.
+Y que lo hagan sin abordar la otra cara que sí recoge la prensa internacional crítica: la impagable deuda que esto ha dejado en algunas naciones muy pobres de África. O que muestren el fascinante desarrollo de regiones políticamente sensibles para Pekín, como el Tíbet o Xinjiang, sin hacer ninguna mención al historial de represión contra la población local, tibetanos y musulmanes uigures.
+Estos viajes son sufragados por grupos de influencia dirigidos desde el Departamento de Trabajo del Frente Unido, una agencia del PCCh que durante años ha tejido una extensa red de asociaciones por todo el mundoque se han usado tanto para impulsar elpoder blandode Pekín como para intimidar a la disidencia. Esta organización también cubre frecuentemente viajes para la participación de académicos, políticos y ex mandatarios extranjeros en foros prochinos, muchos de ellos en Shanghai.
+A nivel geopolítico, en esta ciudad se fundó en 2001 la Organización de Cooperación de Shanghai (OCS), un grupo regional creado originalmente para resolver las disputas fronterizas que dejó en Asia Central la disolución de la Unión Soviética. Luego, evolucionó en un foro económico regional y ahora, bajo la dirección de China y Rusia, se presenta como un creciente grupo internacional que aspira a contrarrestar el impulso de otras asociaciones de seguridad que han forjado las democracias más fuertes de Occidente y de Asia-Pacífico.
+En la cumbre de la OCS de este año, Xi Jinping fue el anfitrión. Arropado por su homólogo ruso, Vladimir Putin, y delante de importantes líderes mundiales como el indio Narendra Modi y el turco Recep Tayyip Erdogan, el presidente chino presentó su"Iniciativa de Gobernanza Global", una visión para la reestructuración de las instituciones internacionales con una participación mayor de los países en desarrollo (y de China).
+La citada capital financiera suele seruna parada comercial habitual en las visitasdelíderes mundiales, que viajan acompañados por una amplia delegación de altos ejecutivos de sus países. Parte de la culpa del éxito de Shanghai es su ubicación estratégica, situado en la desembocadura del río Yangtsé y con acceso directo al mar de China Oriental. Tiene el puerto de contenedores más grande del mundo, siendo un centro logístico clave para el músculo exportador del país asiático, que este año ha roto el techo del comercio mundial inundando más que nunca el mundo con sus productos.
+Durante todo este año, China ha mostrado sus dos cartas ganadoras en la guerra comercial desatada por Donald Trump. Por un lado, está elcontrolsobre prácticamente todo elprocesamiento y suministro mundial de minerales críticosy las tan demandadastierras raras, indispensables para la industria tecnológica. Por el otro, el músculo manufacturero y exportador, clave en mantener el crecimiento de la segunda economía mundial.
+El superávit comercial anual de Pekín superó en noviembre por primera vez el billón de dólares, un umbral simbólico que confirma la extraordinaria capacidad del aparato industrial del gigante asiático para colocar sus bienes en los mercados internacionales a pesar de la estrategia arancelaria de Washington.
+Lejos de frenar el empuje exportador chino, los elevadosgravámenesimpuestos por Trump parecen haberacelerado una reconfiguración en las fábricas chinas, que ahora inundan mucho más otros mercados con sus clásicos bienes de bajo valor añadido, pero también con muchos másautomóviles,productos electrónicosymaquinaria pesada. Esto último inquieta especialmente en la Unión Europea, donde ven cada vez con más inquietud la entrada de productos y compañías chinas en sectores estratégicos.
+"En una industria tras otra, producto tras producto, los fabricantes chinos están creando tecnología de vanguardia a precios que los competidores occidentales no pueden igualar. Una ola de ansiedad recorre las salas de juntas de empresas occidentales a medida que los ejecutivos se enfrentan a la pérdida de su liderazgo tecnológico ante competidores chinos de rápido crecimiento", sostiene James Kynge, investigador del Programa Asia-Pacífico en Chatham House, unthink tankcon sede en Londres.
+Según un informe reciente del Instituto Australiano de Política Estratégica (ASPI), mientras que Europa se queda rezagada en la carrera tecnológica, China hasuperado a EEUU en investigación de vanguardiaen 57 de 64 áreas tecnológicas. Desde hace un par de años, Pekín ocupa el primer lugar en cuanto al total de patentes emitidas y en artículos en las principales revistas científicas del mundo.
+Shanghai ha sido uno de los laboratorios más importantes de innovación tecnológica gracias a las continuas políticas de apoyo del Gobierno central, que han permitido que la ciudad sea tradicionalmente uno de los principales focos de inversión extranjera e incubadora de cada vez másstartupscentradas en la inteligencia artificial y la robótica.
+A las afueras de la ciudad se encuentra la bautizada por los medios locales como la"escuela de robots más grande de China", una instalación de 4.000 metros cuadrados donde más de un centenar de robots humanoides de una decena de empresas son entrenados por los programadores para realizar tareas mundanas como saludar, caminar, hacer la cama, lavar platos o soldar. De aquí saldrán prontouna veintena de "monjes robots", vestidos con la tradicional túnica naranja, que serán enviados a la India para lanzar sermones en un templo hindú.
+En la escuela de robots también se probó un humanoide policía que ya desfila algunos días por las calles peatonales del barrio de Xintiandi para deleite de los muchos turistas nacionales que se acercan para visitar la cuna del Partido Comunista.
+En esa tensión -entre memoria revolucionaria, patriotismo y ambición tecnológica en un entorno elitista- reside una de las claves de Shanghai: un símbolo de cómo China quiere ser vista y, sobre todo, de cómo quiere ser entendida en el mundo que viene.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>Las relaciones estrechas e "ingenuas" de España con China impulsadas por Zapatero que incomodan en la UE</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2025-12-26T22:56:27+01:00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>"En China, quien ejerce en las sombras de ministro de Exteriores de España no es Albares, sino José Luis Rodríguez Zapatero. Es una anomalía consentida por Moncloa", cuenta una fuente diplomática Leer</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>En Europa existe una inequívoca preocupación por la relación de España con China. Desde la Comisión Europea se ha rebajado un poco el tono, y las críticas ya no son tan duras y abiertas como hace un año cuando, por ejemplo, el presidente del Gobierno, Pedro Sánchez, pedía que no se aplicasen aranceles al coche eléctrico chino en plenas negociaciones entre Bruselas y Pekín. Pero incluso así, la inquietud es evidente, y si se pregunta a las capitales la preocupación se dispara.
+Muy duras son las afirmaciones que a este periódico hacen fuentes diplomáticas alemanas. Afirman que en el principal país de laUEestán"muy preocupados", que laposición de España respecto a Chinaesmuy "ingenua"y así lo afirman, añaden, "por experiencia propia".
+Y, muy importante, sostienen que su malestar se debe a que la posición española"pone en riesgo a más Estados de la UE". Esto encaja con las advertencias que hace unos días hacía, por ejemplo, el ex jefe militar de la OTAN Rob Bauer, cuando apuntaba que España "soñaba" al creer que no hay una puerta de atrás en los contratos queHuaweitiene con la Guardia Civil. Que el país, añadía, conocía y utilizaba esos datos sensibles.
+Países Bajos, por su parte, ha tenido enfrentamientos claros con el país asiático al nacionalizar Nexperia, compañía de microchips cuya matriz es la china Wingtech. Y Francia ha hecho lo propio con la plataforma Shein. De hecho, esta última compañía, así como Temu son el objetivo directo de la decisión de la Comisión de imponer un arancel de tres euros a los paquetes pequeños enviado por las plataformasonline. Es decir, que la UE mantiene ese nivel más bajo apuntado, pero, al mismo tiempo, toma medidas que sin duda molestan en Pekín. Nada que ver con la cercanía de Madrid.
+Desde tierras orientales, Li Shui, analista habitual de política internacional en los diarios controlados por el gobernante Partido Comunista, explica que la ubicación estratégica de España y su "filosofía diplomática cercana a China", convierten a nuestro país en un puente natural que conecta al gigante asiático con Europa. "España no solo es un firme defensor del multilateralismo y del libre comercio dentro de la UE, sino que también desempeña un papel activo en la promoción del desarrollo estable de las relaciones chino-europeas", señala.
+En un artículo reciente publicado en uno de los portales digitales del Grupo Internacional de Publicación de China, uno de los grandes brazos editoriales del PCCh, Li subrayaba que hay pocos países en Occidente que en el último año hayan apostado tanto como España por estrechar las relaciones con Pekín. "La visita en noviembre del Rey Felipe VI culminó un ritmo inédito de la diplomacia española en China: el presidente del Pedro Sánchez estuvo en abril y el ministro de Exteriores, José Manuel Albares, ha venido un par de veces", recordaba.
+"En China, quien ejerce realmenteen las sombrasdeministro de Exteriores de Españano es Albares, sino José Luis RodríguezZapatero. Es una anomalía consentida por Moncloa. Todo el mundo aquí sabe que, en caso de cualquier choque diplomático o comercial, o que algún residente español en China tenga algún problema gordo, Zapatero es la vía más efectiva para solucionarlo", asegura una fuente diplomática española que conoce muy bien el país asiático.
+Laprensa chinasuele ser la primera en recoger lasfrecuentes apariciones de Zapateroen foros políticos conectados con el PCCh durante sus viajes al país. Así como lasreuniones con altos funcionarios y gobernantes locales. En algunos de estos encuentros, que no figuran en ninguna agenda oficial, el ex presidente ha aparecido en las fotos acompañado por la embajadora en Pekín o por alguno de los cónsules españoles. En el equipo del ministro Albares, ante las reiteradas consultas de este periódico, hay total hermetismo sobre el cometido de los viajes de Zapatero.
+El socialista figura como presidente del Europe-China Economic Cooperation and Development Council, una organización financiada por entidades estatales chinas que promueve los intercambios comerciales entre China y la UE. También es la cara visible de dosthink tankprochinos en los que ejerce como presidente del consejo asesor, Gate Center y la Fundación Onuart, ambos ligados a empresarios chinos cercanos a Pekín.
+A esto hay que añadir su pertenencia al"claustro de honor" de Cátedra China, otrothink tankmuy próximo al PCCh, que ha llevado de excursión al país asiático este año a grupos de diputados y alcaldes españoles, todos del PSOE o de sus socios de Gobierno. Los viajes del ex dirigente normalmente son sufragados por la Asociación de Amistad del Pueblo Chino con el Extranjero, uno de las principales agencias de influencia del Ministerio de Exteriores chino.
+Diversas fuentes diplomáticas contactadas durante todo este año, tanto españolas como chinas, reiteran que las conexiones de Zapatero en China han sido claves para que el Gobierno español haya abierto las puertas en sectores críticos a las empresas chinas, desde la gestión de Huawei de las escuchas telefónicas judiciales a los sistemas de videovigilancia del gigante tecnológico Hikvision en las vallas de Ceuta y Melilla. Sin olvidar los escáneres de un fabricante chino en aeropuertos y puertos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>El milagro, en diez claves</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2025-12-26T22:55:44+01:00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Shanghai es una potencia multidimensional, que sitúa a China como la segunda en el mundo, y que integra manufactura, innovación, comercio y finanzas en un nexo global Leer</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Las diez claves del milagro de Shanghai, también conocida como la Reina de Oriente, el París chino y el Eldorado del Lejano Oriente, son el turismo, la biotecnología, el sector inmobiliario, el automovilístico, el transporte, las finanzas, la informática, las manufacturas, el comercio y los servicios, sobre todo este último, que produce más de dos billones de dólares anuales, casi tres veces más que los otros nueve sectores juntos.
+El turismo aporta a la economía local cada año unos 18.000 millones de dólares,gracias, sobre todo, a los millones de chinos y de extranjerosque visitan el Bund o gran paseo de rascacielos futuristas, corazón financiero de la ciudad y sede de más de mil multinacionales.
+La biotecnología y la medicina proporcionan a Shanghai, con 24 millones de habitantes la ciudad más poblada de China, ingresos anuales de unos 23.000 millones de dólares, el sector inmobiliario unos 40.000 millones y el automovilístico más de 50.000 millones. La megafábrica de Tesla en la ciudad produce ya más de un millón de vehículos por año y SAIC Motor es el primer fabricante de vehículos de China, donde se produce uno de cada tres coches del mundo.
+El transporte y la logística aportan cada año a Shanghai,con el puerto con más movimiento de contenedores marítimos del planeta, unos 60.000 millones de dólares y la convierten en centro decisivo de las cadenas de suministro global de mercancías.
+Unos 80.000 millones de dólares, aproximadamente, aporta el sector financiero de Shanghai, cuya bolsa compite con las principales de Japón y de Occidente, y sigue creciendo casi un 9 % a pesar de la ralentización del PIB chino, que se ha ido reduciendo de dos dígitos al 5 % en 2025 según cifras oficiales. Un 5 % es la previsión de crecimiento del PIB de Shanghai en 2025.
+Los ordenadores, elsoftware,la Inteligencia Artificial, los circuitos integrados de gran escala, la microelectrónica y el desarrollo digital aportan anualmente unos 120.000 millones de dólares al PIB de la ciudad.
+Los parques tecnológicos de Caohejing, Zhangjiang y Neobay, y el Centro Internacional de Innovación en Ciencia y Tecnología han convertido el clúster Shanghai-Suzhou, según la Organización Mundial de la Propiedad Intelectual, en uno de "los cinco mejores nodos tecnológicos del mundo".
+Según su ayuntamiento, cada mes se abren en Shanghai sedes regionales de cinco multinacionales y entre dos y tres centros de investigación y desarrollo financiados por extranjeros. Cada día nacen en la ciudad más de 370 nuevas empresas científico-tecnológicas.
+La industria -la pesada y la más avanzada, como la aeroespacial y la biomedicina-ya aportan unos 180.000 millones de dólares por año, difícil de explicar sin el plan "Made in Shanghai 2025", que ha hecho de la ciudad uno de los principales centros internacionales de producción de inteligencia artificial y semiconductores.
+Con ingresos de 195.000 millones de dólares anuales, el comercio es el segundo sector más pujante. Más del 60 % de las exportaciones de Shanghai son maquinaria y electrónica. Su comercio con los países que se han sumado al gran proyecto global de Xi Jinping - el Cinturón y la Ruta- sigue creciendo alrededor del 12 % por año y más del 20 % de ese comercio procede del sector privado.
+Con más de dos billones de dólares anuales, los servicios -financieros, de tecnologías de la información, real estate, transporte y sanidad-representan más del 60% del PIB de Shanghai y es el sector que más crece: 15% los servicios de comunicaciones y software, y 9% el financiero.
+La singularidad económica de Shanghai es una mezcla con raíces históricas de comercio, una enorme infraestructura portuaria, clústeres industriales diversificados y una apuesta firme e inteligente por la alta tecnología y los servicios.
+Sin los cambios impulsados por Jiang Zemin a partir de 1990, declarando Pudong, el Shanghai miserable al este del río Huangpu y olvidado enel gran salto adelante que conoció la ciudad a comienzos del siglo XX, una de las seis "zonas económicas especiales" de la nueva China, habría sido imposible este milagro.
+Ahí sitúa Georgina Higueras enChina, La venganza del dragón, el origen de la "meteórica carrera que todavía sigue y que ha hecho de Pudong el Manhattan de Oriente" y de Shanghai, por fin, una ciudad de dos orillas, sin abismo alguno de separación como el que existió durante siglos.
+No es solo una ciudad industrial o un centro financiero.Es una potencia multidimensional que integra manufactura, innovación, comercio y finanzas en un nexo global.
+Mirando hacia el futuro, si las tendencias actuales persisten, seguirá fortaleciendo su posición y la de China como la segunda potencia mundial.
+Shanghaicomparte con el resto de China los principales desafíos y riesgos. Entre los principales, Rafael Dezcallar, embajador español en China de 2018 a 2024, destacaba el 18 de diciembre en un seminario de la revista Política Exterior en Madrid "la crisis del gran pacto entre dictadura y seguridad/prosperidad" que ha mantenido la estabilidad del sistema en las últimas décadas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C78" s="5" t="inlineStr">
+        <is>
+          <t>Una Navidad amarga para los pequeños inversores chinos tras el colapso de plataformas financieras con sello estatal</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2025-12-29T00:16:10+01:00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>La crisis inmobiliaria china y la laxa regulación, detrás de la caída de estas empresas Leer</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>"Me han estafado y he perdido todo mi dinero", gritaba el señor Zhong en una protesta masiva en Hangzhou frente a la sede deZhejiang Jin Center, una conocida plataforma china de intercambio de activos financieros respaldada por el Estado que había anunciado sucolapso tras ser arrastrada por las deudas, algunas vinculadas a proyectos inmobiliarios paralizados. Miles de inversores como el señor Zhong apostaron casi todos sus ahorros a lo que consideraban una carta ganadora: una empresa promovida por entidades asociadas con el Gobierno que prometía rendimientos elevados y garantías de seguridad.
+"No era una inversión especulativa. Nos dijeron que era segura, que estaba vinculada a proyectos públicos. ¿Cómo íbamos a desconfiar?", lamenta el señor Zhong, jubilado de 72 años, que asegura haber invertido más de dos millones de yuanes (alrededor de 250.000 euros).
+El origen de la crisis se remonta a finales de noviembre, cuandovarios productos financieros comercializados por Zhejiang Jin Center dejaron de pagar interesesy vencimientos de capital. En un primer momento, la empresa atribuyó los retrasos a "ajustes técnicos temporales". Días después,la aplicación móvil dejó de funcionar y las oficinas cerraron.
+En menos de dos semanas, la indignación se trasladó a la calle. Miles de personas comenzaron a reunirse frente a la sede de la plataforma y en edificios gubernamentales de Hangzhou, exigiendo una intervención por parte de las autoridades.La respuesta fue un amplio dispositivo policial. Según múltiples testimonios, los agentes dispersaron a la fuerza a los manifestantes y hubo varias detenciones.
+En aquella protesta, entre la multitud, destacaba una señora muy mayor apoyada en un bastón que llevaba un cartel pegado al pecho: "Tengo cáncer terminal. La mayor parte de mi dinero está inmovilizado y no puedo retirarlo. Quiero vivir, pero necesito recibir el tratamiento adecuado y no me queda mucho tiempo. ¿Es un crimen querer vivir?".
+Lo que ha ocurrido en Hangzhou no es un incidente aislado. "Son muchas las plataformas de inversión que están teniendo problemas en China en estos momentos, pero las autoridades reprimen rápido las protestas y censuran noticias en los medios porque temen que haya una especie deefecto contagio, tanto en el sector financiero como en el descontento a pie de calle", explica el abogado del señor Zhong, quien prefiere que no salga su nombre porque teme represalias por hablar con prensa internacional.
+"Muchas de estas plataformas operan con poca transparencia, sin dar a sus inversores información clara sobre los riesgos de los productos en los que están invirtiendo.La mayoría de los inversores son personas mayores sin formación, quienes confían sin hacer muchas preguntas porque tienen la percepción de que su dinero se inyecta en productos promovidos por entidades públicas, y que eso es seguro. Muchos se sienten ahora abandonados por el Gobierno", sentencia el abogado.
+En China, las protestas que cuestionan la estabilidad financiera del país o las políticas gubernamentales suelen ser percibidas como una amenaza a la cohesión social y a la legitimidad del gobernante Partido Comunista Chino (PCC). Las autoridades tratan de justificar las detenciones de manifestantes como una medida para mantener el orden social y evitar disturbios. Además de la represión de las protestas físicas, la censura apunta hacia muchas discusiones o publicaciones en redes sociales, incluso con detenciones de usuarios acusados de "alterar el orden público" o "propagar rumores".
+La crisis financiera que ha dado lugar a la última gran protesta en Hangzhou afecta amás de 20.000 millones de yuanes (unos 2.300 millones de euros) y a más de 12.000 inversores, en su mayoría pequeños ahorradores y jubilados que habían confiado su dinero a la plataforma.
+Zhejiang Jin Center fuecreada en 2013 con el respaldo de entidades estatales, lo que hizo que se ganara la confianza de decenas de miles de inversores que buscaban productos de bajo riesgo y rendimientos estables, típicamente entre el 4% y el 5% anual. Su propuesta era atractiva: ofrecía productos financieros relacionados con proyectos gubernamentales y empresas de fondos públicos.
+Pero lo que los inversores no sabían era que la plataforma, en los últimos años, fue pasando gradualmente por un proceso de privatización mientras varios de los productos más populares en su portafolio iban incurriendo en impagos. Los denunciantes se quejan de que este tipo de transformación silenciosa es común en el sector financiero chino, donde las plataformas pueden cambiar radicalmente de estructura sin informar a los inversores.
+En el último lustro han sido muy sonados en China otros casos como el del gigante inmobiliarioEvergrande, fuertemente respaldado por el Estado, que se desplomó en 2021 arrastrando consigo una enorme deuda. La empresatambién contaba con productos de inversión que prometían rendimientos atractivos, pero que finalmente no pudieron ser pagados.
+Los casos como el de Zhejiang Jin Center ponen de relieve un problema recurrente en el sistema financiero chino:la falta de una regulación claray la tendencia a confiar en el respaldo gubernamental sin investigar a fondo las implicaciones detrás de los productos ofrecidos.
+Informes de analistas internacionales han señalado que, durante muchos años, el Gobierno chino permitió que plataformas de inversiónoperaran con una regulación bastante laxay que estas, al estar asociadas de alguna forma con actores públicos, ganaron la confianza de los inversores. Pero ahora, en un momento en el que laeconomía china atraviesa por varias turbulencias, el Gobierno ha comenzado a retirar el apoyo a muchas plataformas que antes eran vistas como un vehículo seguro para la inversión popular, como ocurrió con Zhejiang Jin Center.
+Funcionarios chinos sostienen en privado que dejar caer a este tipo de plataformas de inversión forma parte de una estrategia más amplia para regular y controlar más estrictamente el sector financiero, previniendo el riesgo de una crisis sistémica.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C79" s="5" t="inlineStr">
+        <is>
+          <t>De la retórica de Trump a las hebillas del cinturón del cobre africano por el que pelean EEUU y China a golpe de talonario</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2025-12-28T07:55:23+01:00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Análisis de las tendencias mundiales que, tarde o temprano, afectarán a su bolsillo Leer</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Como todo populista de derechas, Trump juega con dos ideologías malamente conciliables: por un lado, el obrerismo ("los olvidados") y, por otro, las grandes empresas. Ahora, la IA le ha obligado a poner las cartas boca arriba y, previsiblemente, ha ganado el segundo grupo. Tras seis meses viendo cómo los propios republicanos impedían sus planes de arrebatar a los estados la regulación de IA para centralizarla en Washington, Trump ha optado por las malas y ha emitido una Orden Ejecutiva en la que declara que el Estado federal (o sea, Washington) será quien controle esa tecnología y que, si algún estado se atreve a meterse, le cortará las transferencias en otras áreas. La decisión ha sentado como un tiro a las basestrumpistas, que temen la pérdida de empleos con la IA y, además, son conscientes de que los reguladores de Washington (David Sacks, Sriram Krishnan y Michael Katsios) tienen intereses o han trabajado en empresas del sector.
+Cuando Trump derroque al régimen de Nicolás Maduro en Venezuela (tal y como están las cosas, parece cuestión de tiempo) es probable el de Cuba vaya detrás. Sin Maduro, Cuba perdería el 30% de sus suministro de petróleo, lo que colapsaría su economía salvo que Rusia y México taparan el agujero (entre ambos aportan el 40% del consumo cubano, con otro 30% producido por la propia Cuba). El país, está, además, en una situación desesperada, su PIB ha caído un 15% desde 2018, el peso ha dejado prácticamente de tener valor, y la preocupación principal del 70% de la población es comer. Y encima La Habana se niega a expandir el diminuto sector privado, que es lo único que podría traer crecimiento, así que la catástrofe humanitaria sigue agravándose... incluso con petróleo venezolano. Otro régimenrevolucionariode la región, Nicaragua, podría resistir mejor a la caída de Maduro ya que recibe menos ayuda de Caracas y es en parte unanarcoeconomía.
+Si hay una vía de tren que merezca una película de Hollywood es la que sale del puerto angoleño de Lobito y que cruza Angola. Durante 30 años, fue destruida hasta los cimientos y reconstruida desde cero innumerables veces, con todas las grandes potencias del mundo turnándose en ambos procesos. Ahora, elcorredor de Lobitoes el frente en la lucha entre EEUU y China por el control mundial del cobre, el mineral clave para la electrificación de la economía. Washington, el Gobierno de Angola, y el gigante deltradingde las materias primas Trafigura van a invertir entre 1.300 y 2.500 millones de dólares (de 1.100 a 2.100 millones de euros) para modernizar la línea y, tal vez, expandirla hasta el corazón delcinturón del cobrede la República Democrática del Congo y Zambia. China, por su parte, ha respondido con 1.400 millones de dólares (1.200 millones de euros) para la rehabilitación de TAZARA, la vía férrea que lleva el cobre desde elcinturóna Tanzania, en el Índico.
+La inestable tregua en la guerra de Gaza ha tenido un efecto positivo en el comercio mundial... y ha generado una nueva carrera -esta vez, entre Arabia Saudí y los Emiratos- por el control del mar Rojo. La razón es que, con la tregua en Gaza, las milicias proiraníes hutíes de Yemen han anunciado que ellas también dejan de atacar -al menos, por ahora- a los mercantes en los mares Rojo y de Arabia. Eso está permitiendo que los barcos vuelvan a la zona, lo que recorta en 5.000 kilómetros -o sea, de siete a diez días- su viaje de China a Europa, con lo que los fletes de Asia a Europa han caído en un 50% en relación a hace un año, aunque no notaremos eso en los precios en las tiendas hasta dentro de un año. Ahora bien, la tregua también ha desatado la entrada en la región de los Emiratos Árabes Unidos, que le disputan a Arabia Saudí e Irán el control de las costas del mar Rojo (solo las costas, porque las aguas son área exclusivo de la Armada de EEUU).
+Oculta por la caótica cumbre de Bruselas que acabó con la decisión de no usar como colateral los fondos del Banco Central de Rusia para un crédito a Ucrania, la entrada de Rusia en la lista de países a los que la UE considera sospechosos de blanqueo de capitales o de financiación de actividades terroristas ha pasado casi desapercibida. Pero sus consecuencias están siendo profundas. Los bancos de países cercanos a Moscú o neutrales en la guerra entre Rusia y Ucrania, como Serbia, Omán, Armenia, Kazajistán y Tayikistán ya han empezado a limitar, o directamente a rechazar, las transacciones con entidades rusas para evitar así el riesgo de perder su acceso a las entidades europeas. La decisión puede suponer un nuevo problema para las exportaciones rusas, justo en un momento en el que los ingresos fiscales de Moscú por la venta de petróleo han caído en un 55% debido a los ataques ucranianos y a la caída del precio del barril.
+Laarancelmaníade Donald Trump empuja la integración regional... del resto del mundo. El último país en sumarse a esa tendencia es Camboya, que la semana pasada presentó su solicitud de entrada en el Tratado General Progresivo de Asociación Transpacífica (CPTPP, por sus siglas en inglés). El Tratado no es más que el Acuerdo de Asociación Transpacífica, negociado a lo largo de casi una década a instancias de EEUU y del que Donald Trump retiró a su país en 2017. Desde su nacimiento, un año más tarde, el CTTPP ha beneficiado más a las economías de pequeñas dimensiones -como la de Camboya- y, aunque solo ha cambiado en algunos sectores las relaciones comerciales de los signatarios, sí ha tenido efectos positivos. Para Camboya es una necesidad, especialmente porque su sector turístico, clave en la economía del país, está siendo golpeado por sus permanentes choques fronterizos con Tailandia, mientras que los aranceles de Trump han dañado sus exportaciones.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C80" s="5" t="inlineStr">
+        <is>
+          <t>El año en el que España se quedó fuera del centro de decisiones de la UE: la inmigración, la defensa de la transición 'verde' y el gasto militar arrinconan a Sánchez</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2025-12-27T22:59:55+01:00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>La cercanía con China tampoco ha ayudado, y esa pérdida de influencia quedó totalmente patente durante el último Consejo Europeo: la reunión la lideraron Macron, Meloni, Von der Leyen, Merz y Costa. Del presidente del Gobierno, ni rastro Leer</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>España se ha quedado definitivamentefuera de la mesa de las decisioneseste año. Ya en 2024 el giro que comenzó a dar Europa puso de manifiesto que las prioridades del presidente del Gobierno, Pedro Sánchez, no eran precisamente las que estaba empezando a abrazar la Unión Europea. Pero en este 2025 el arrinconamiento ha sido muy notorio.
+El país ya no está en la mesa de las grandes decisiones, y una muestra muy evidente de ello es que llega siempre tarde a los comunicados y reuniones sobre Ucrania. Este arrinconamiento comenzó al tiempo que Sánchez ponía cada vez más reparos para elevar el gasto militar, y tuvo su escenificación enla cumbre de la OTANde La Haya: el presidente del Gobierno figura totalmente apartado en la fotografía de familia.
+Lo siguiente fue quedarse apartado también de lo que en el ámbito diplomático se comenzó a denominar como "el grupo de Washington", esto es, los países que acompañaron a Volodímir Zelenski cuando en agosto se reunió con el presidente de Estados Unidos, Donald Trump. Allí estuvieron Friedrich Merz, Emmanuel Macron, Giorgia Meloni o Keir Starmer, además de Ursula von der Leyen, Antonio Costa o la primera ministra de Dinamarca, Mette Frederiksen, entre otros.Sánchez, no.
+Y en las últimas reuniones importantes, el presidente tampoco ha estado presente. En esto, además de que su rechazo a aumentar el gasto no ha gustado a muchos socios, también pesa la situación interna: en el último encuentro para decidir el futuro de la paz y de Europa, Sánchez no se desplazó a Berlín y prefirióquedarse en España presentando el abono transporte.
+El profundo cambio que la UE ha dado en materia de inmigración también ha colaborado activamente en el arrinconamiento de España. Sánchez se ha quedadoprácticamente solo en su rechazo a los centros de deportaciónfuera de la UE, y mientras Europa aprueba elmodelo Meloniel Ejecutivo español sigue mostrando sus "serias dudas jurídicas, políticas y económicas" y subraya que podrían provocar un "impacto negativo" en las relaciones bilaterales con socios clave en la prevención de la migración irregular en origen. Nadie parece hacerle caso y, también aquí, se queda fuera de las reuniones clave que de forma paralela llevan a cabo buena parte de las capitales. Aunque, en este caso, el Gobierno lo hace por voluntad propia.
+Está además la defensa de la transiciónverdey el fin de los motores de combustión que, una vez más, no es el camino que ha decidido seguir la UE. "Rechazamos que los vehículos de combustiónu otras tecnologías sin eficacia demostrada puedan seguir comercializándose más allá de 2035", decía Sánchez por carta hace apenas unos días. Pero Alemania e Italia han presionado mucho para deshacer parte de las medidas adoptadas en la legislatura pasada, cuando España sí estaba en el centro de decisiones, y permitir que los coches de gasolina y diésel se puedan seguir produciendo y vendiendo en Europa.
+La industria automovilística europea se encuentra en un momento muy complicado, y la economía en su conjunto está perdiendo competitividad a pasos agigantados. Si a ello se le sumaba el fin de estos vehículos, el obstáculo podría haber sido insalvable. Y eso es lo que ha querido evitar la Comisión Von der Leyen II, la misma quetiene a Teresa Ribera como vicepresidentaprimera para la Transición Limpia, Justa y Competitiva. La incomodidad que mostró la pasada semana en Estrasburgo, cuando fue preguntada por esta decisión, evidencia el malestar que todo esto le provoca.
+Tampoco el acercamiento de España a China ayuda a que Sánchez lidere la UE. Desde el Ejecutivo se vende esta situación como una forma de Europa de abrir camino y mejorar las relaciones con el país asiático, pero en muchas grandes capitales esta situación no acaba de gustar. Por ejemplo, el ministro deExteriores de Alemania, Johann Wadephul, ha sido muy críticocon las políticas comerciales del Ejecutivo de Xi Jinping, y las relaciones son tan complicadas que está previsto que el canciller Merz se desplace en viaje oficial a Pekín para tratar de reconducir las relaciones.
+Francia, por su parte, se ha enfrentado a Shein y Países Bajos llegó a nacionalizar Nexperia, compañía de microchips cuya matriz es la china Wingtech. El Gobierno español, en cambio, ha dejado en manos de Huawei contratos sensibles con Interior que incluso la Comisión Europea ha criticado. "Tiene el potencial de generar una dependencia deun proveedor de alto riesgoen un sector crítico y sensible", y que esto aumenta "el riesgo de injerencia extranjera", tal como ha señalado en más de una ocasión la vicepresidenta para la Soberanía Tecnológica, la Seguridad y la Democracia, Henna Virkkunen.
+Y por si quedaba alguna duda de la notable pérdida de relevancia de España, el último Consejo Europeo del año fue muy ilustrativo. En esa reunión de presidentes y primeros ministros se tomaron dos decisiones muy importantes: no sellar el acuerdo UE-Mercosur y emitir deuda conjunta en lugar de emplear los activos rusos para dar apoyo financiero a Ucrania. Los nombres que lideraron esa noche aciaga para la UE fueron Meloni y Macron impidiendo el acuerdo comercial y apoyando los eurobonos, y Merz y Von der Leyen como grandes perdedores. El presidente del Consejo, Antonio Costa, también tuvo un peso muy importante desbloqueando el crédito aunque sea a costa de emitir deuda, e incluso el primer ministro de Hungría, Viktor Orban, jugó un papel destacado al inhibirse y permitir que se suscribiese la emisión por interés propio, claro. Pero de Sánchez, según las fuentes consultadas,no hubo ninguna noticia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C81" s="5" t="inlineStr">
+        <is>
+          <t>La Europa más vulnerable desde 1939</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2025-12-28T19:16:44+01:00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>La Estrategia de Seguridad Nacional del presidente Donald Trump tiene 33 páginas. Teniendo en cuenta las frívolas alabanzas que contiene, dirigidas al propio presidente, se publicó de una manera inusualmente discreta. Gran parte de ella es el llamado 'corolario de Trump' a la doctrina Monroe de 1823. También contiene un eco de Franklin D. Roosevelt. Aunque Roosevelt afirmaba que Estados Unidos sería un «buen vecino» de América Latina, se delató cuando admitió en privado que Anastasio Somoza, el dictador de Nicaragua, era «un hijo de puta, pero es nuestro hijo de puta». Esta es una forma de pensar muy trumpiana, pero también es una fantasía. Trump cree que puede tener a los dictadores en el bolsillo y, sin embargo, parece no tener ni idea de cuándo le están engañando. Ha juzgado erróneamente a Vladímir Putin , que claramente lo desprecia. Putin hizo esperar tres horas a sus negociadores, Steve Witkoff y Jared Kuchner, y luego dejó muy claro que no tenía intención de ceder en ninguno de los 28 puntos que él mismo parece haber dictado a la Casa Blanca como base para el debate. En opinión de Putin, Trump no es más que un «idiota útil», en palabras de Lenin. Vale la pena volver a destacar cómo en la cumbre del G20 de 2019, en Osaka, Putin, para complacerlo, llegó a decir en un momento dado lo mucho que había estado haciendo en secreto para ayudar a Israel. Al parecer, Trump se jactó diciendo: «Nadie ha hecho tanto como yo para ayudar a Israel». Putin, con cara seria, respondió: «Quizá deberían ponerle tu nombre a Israel, Donald». Trump, tras considerar esta sugerencia muy seriamente, respondió: «Oh, no, eso sería demasiado». Las negociaciones Witkoff-Kuchner, si es que merecen tal nombre, son demasiado extraordinarias y carecen por completo de precedentes. No las llevan a cabo diplomáticos ni estadistas, sino dos empresarios neoyorquinos –Witkoff, un magnate inmobiliario, y Kuchner, yerno del presidente– junto con Kirill Dimitriev, director del Fondo Soberano de Rusia. Esto sugiere que el proceso no tiene como objetivo encontrar una paz justa, sino repartir el botín de la guerra y lo que podría denominarse 'diplomacia de matones'. Las propuestas habrían legitimado la guerra de agresión totalmente ilegal de Putin y, por lo tanto, habrían contribuido aún más al colapso del orden mundial basado en normas. Eran una imposición descarada de injusticia basada en la idea de que el poder es lo que da la razón. Esta Estrategia de Seguridad Nacional afirma que los «intereses nacionales fundamentales» son el «único objetivo de esta estrategia», lo cual resulta un poco exagerado cuando Trump y su séquito parecen estar llevando a cabo una presidencia basada en el chantaje. «Nadie juzga al vencedor» es un dicho ruso muy popular, pero encaja perfectamente con la filosofía del propio Trump. Ayudar a Putin a aumentar su poder obligando a Ucrania a rendirse no beneficia en absoluto a los intereses de seguridad de Estados Unidos, por lo que no es de extrañar que politólogos como Eliot A. Cohen describan la Estrategia de Seguridad Nacional de Trump como un «balbuceo incoherente». El documento de la NSS expresa una profunda preocupación por la inmigración y el multiculturalismo en Europa, que conducen a la «desaparición de la civilización», pero ignora la amenaza cada vez mayor de los Estados hostiles –Rusia, China, Irán y Corea del Norte– que cooperan contra Occidente. Su odio hacia la Unión Europea y su deseo de apoyar a los partidos populistas de extrema derecha en los países europeos equivale a un llamamiento al cambio de régimen entre sus aliados más fiables. Sin embargo, el mismo documento expresa un respeto hipócrita por las culturas políticas y las creencias de otros países. Si Trump realmente tiene una 'estrategia', es una de imprevisibilidad y oportunismo, una combinación que, en realidad, no es más que una táctica a corto plazo. Se podría argumentar que se trata de una respuesta a la falta de fiabilidad de los presidentes Putin y Xi. Durante la Guerra Fría puede que no nos gustaran los líderes comunistas soviéticos o chinos, pero al menos teníamos una idea aproximada de cuál era su postura y sabíamos que, en esencia, cumplían los acuerdos. Eso ya no es así con Putin y Xi. Sin embargo, Trump, enamorado de su propia capacidad para cerrar acuerdos, cree que puede dividir y gobernar mientras fragmenta la alianza occidental e ignora la creciente cooperación de sus enemigos. Hay que reconocer que Trump no ha sido el único en cometer errores de cálculo. Occidente también ha sido culpable de apaciguar a Rusia porque está cegado por el sesgo de confirmación democrático y no comprende la mentalidad de los dictadores. Al igual que los británicos y los franceses en el periodo de entreguerras creían que nadie podría ser tan estúpido como para querer otro conflicto como la Primera Guerra Mundial, Angela Merkel y Gerhard Schroeder no eran los únicos que pensaban que la dependencia comercial de Rusia impediría otra crisis bélica. El gasoducto Nord Stream se convirtió en un símbolo de la sumisión estratégica de Europa, mientras que Gran Bretaña despertó demasiado tarde de su complaciente letargo, durante el cual la City de Londres blanqueó descaradamente dinero ruso. Todos los recursos que deberían haberse dedicado a la defensa en el Reino Unido se desviaron hacia el pozo sin fondo de la dependencia del bienestar social. Basta con ver el último presupuesto británico y su incapacidad para mirar más allá del canal de la Mancha. Se acaban de destinar miles de millones adicionales al bienestar social en un momento en que las fuerzas británicas no tienen municiones para más de unos pocos días de combate. No es de extrañar que Putin nos desprecie. El primer deber de cualquier gobierno siempre ha sido la 'defensa del reino', pero todavía no hay señales de ello en este momento, cuando toda Europa podría estar al borde de la guerra. Es muy posible que nos encontremos en una posición más vulnerable que en 1939.</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>LA TERCERA
+Antony Beevor
+Esta funcionalidad es sólo para registrados
+La Estrategia de Seguridad Nacional del presidente Donald Trump tiene 33 páginas. Teniendo en cuenta las frívolas alabanzas que contiene, dirigidas al propio presidente, se publicó de una manera inusualmente discreta. Gran parte de ella es el llamado 'corolario de Trump' a la doctrina Monroe...de 1823. También contiene un eco de Franklin D. Roosevelt. Aunque Roosevelt afirmaba que Estados Unidos sería un «buen vecino» de América Latina, se delató cuando admitió en privado que Anastasio Somoza, el dictador de Nicaragua, era «un hijo de puta, pero es nuestro hijo de puta». Esta es una forma de pensar muy trumpiana, pero también es una fantasía. Trump cree que puede tener a los dictadores en el bolsillo y, sin embargo, parece no tener ni idea de cuándo le están engañando. Hajuzgado erróneamente a Vladímir Putin, que claramente lo desprecia. Putin hizo esperar tres horas a sus negociadores, Steve Witkoff y Jared Kuchner, y luego dejó muy claro que no tenía intención de ceder en ninguno de los 28 puntos que él mismo parece haber dictado a la Casa Blanca como base para el debate.
+En opinión de Putin, Trump no es más que un «idiota útil», en palabras de Lenin. Vale la pena volver a destacar cómo en la cumbre del G20 de 2019, en Osaka, Putin, para complacerlo, llegó a decir en un momento dado lo mucho que había estado haciendo en secreto para ayudar a Israel. Al parecer, Trump se jactó diciendo: «Nadie ha hecho tanto como yo para ayudar a Israel». Putin, con cara seria, respondió: «Quizá deberían ponerle tu nombre a Israel, Donald». Trump, tras considerar esta sugerencia muy seriamente, respondió: «Oh, no, eso sería demasiado».
+Las negociaciones Witkoff-Kuchner, si es que merecen tal nombre, son demasiado extraordinarias y carecen por completo de precedentes. No las llevan a cabo diplomáticos ni estadistas, sino dos empresarios neoyorquinos –Witkoff, un magnate inmobiliario, y Kuchner, yerno del presidente– junto con Kirill Dimitriev, director del Fondo Soberano de Rusia. Esto sugiere que el proceso no tiene como objetivo encontrar una paz justa, sino repartir el botín de la guerra y lo que podría denominarse 'diplomacia de matones'. Las propuestas habrían legitimado la guerra de agresión totalmente ilegal de Putin y, por lo tanto, habrían contribuido aún más al colapso del orden mundial basado en normas. Eran una imposición descarada de injusticia basada en la idea de que el poder es lo que da la razón.
+EstaEstrategia de Seguridad Nacionalafirma que los «intereses nacionales fundamentales» son el «único objetivo de esta estrategia», lo cual resulta un poco exagerado cuando Trump y su séquito parecen estar llevando a cabo una presidencia basada en el chantaje. «Nadie juzga al vencedor» es un dicho ruso muy popular, pero encaja perfectamente con la filosofía del propio Trump.
+Ayudar a Putin a aumentar su poder obligando a Ucrania a rendirse no beneficia en absoluto a los intereses de seguridad de Estados Unidos, por lo que no es de extrañar que politólogos como Eliot A. Cohen describan la Estrategia de Seguridad Nacional de Trump como un «balbuceo incoherente». El documento de la NSS expresa una profunda preocupación por la inmigración y el multiculturalismo en Europa, que conducen a la «desaparición de la civilización», pero ignora la amenaza cada vez mayor de los Estados hostiles –Rusia, China, Irán y Corea del Norte– que cooperan contra Occidente. Su odio hacia la Unión Europea y su deseo de apoyar a los partidos populistas de extrema derecha en los países europeos equivale a un llamamiento al cambio de régimen entre sus aliados más fiables. Sin embargo, el mismo documento expresa un respeto hipócrita por las culturas políticas y las creencias de otros países.
+Si Trump realmente tiene una 'estrategia', es una de imprevisibilidad y oportunismo, una combinación que, en realidad, no es más que una táctica a corto plazo. Se podría argumentar que se trata de una respuesta a la falta de fiabilidad de los presidentes Putin y Xi. Durante la Guerra Fría puede que no nos gustaran los líderes comunistas soviéticos o chinos, pero al menos teníamos una idea aproximada de cuál era su postura y sabíamos que, en esencia, cumplían los acuerdos. Eso ya no es así con Putin y Xi. Sin embargo, Trump, enamorado de su propia capacidad para cerrar acuerdos, cree que puede dividir y gobernar mientras fragmenta la alianza occidental e ignora la creciente cooperación de sus enemigos.
+Hay que reconocer queTrump no ha sido el únicoen cometer errores de cálculo. Occidente también ha sido culpable de apaciguar a Rusia porque está cegado por el sesgo de confirmación democrático y no comprende la mentalidad de los dictadores. Al igual que los británicos y los franceses en el periodo de entreguerras creían que nadie podría ser tan estúpido como para querer otro conflicto como la Primera Guerra Mundial, Angela Merkel y Gerhard Schroeder no eran los únicos que pensaban que la dependencia comercial de Rusia impediría otra crisis bélica. El gasoducto Nord Stream se convirtió en un símbolo de la sumisión estratégica de Europa, mientras que Gran Bretaña despertó demasiado tarde de su complaciente letargo, durante el cual la City de Londres blanqueó descaradamente dinero ruso.
+Todos los recursos que deberían haberse dedicado a la defensa en el Reino Unido se desviaron hacia el pozo sin fondo de la dependencia del bienestar social. Basta con ver el último presupuesto británico y su incapacidad para mirar más allá del canal de la Mancha. Se acaban de destinar miles de millones adicionales al bienestar social en un momento en que las fuerzas británicas no tienen municiones para más de unos pocos días de combate. No es de extrañar que Putin nos desprecie. El primer deber de cualquier gobierno siempre ha sido la 'defensa del reino', pero todavía no hay señales de ello en este momento, cuando toda Europa podría estar al borde de la guerra. Es muy posible que nos encontremos en una posición más vulnerable que en 1939.
+Es historiador. Artículo publicado originalmente en engelsbergideas.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C82" s="5" t="inlineStr">
+        <is>
+          <t>El cine de 2025: El año en el que las nuevas voces del cine español se hicieron adultas</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2025-12-26T14:25:57+01:00</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>El tiempo en una pantalla es eterno y maleable. Es tan dúctil que hay cineastas que han metido en el celuloide y en las retinas de los espectadores el universo entero y más allá, y por eso hay historias que sobrevivirán en la memoria hasta que esta se extinga. Y, sin embargo, aquí tratamos de encajar ese tiempo etéreo en un resumen imposible, porque aunque el año 2025 agote sus últimas horas, algunas de sus películas se recordarán siempre, tanto como las leyendas del séptimo arte que nos dejaron este curso y que no podían faltar en el repaso de 2025, de Verónica Echegui a Robert Redford , Diane Keaton , Gene Hackman , Udo Kier, Val Kilmer, David Lynch, Rob Reiner … Pero si hay que hacer una retrospectiva de lo que fue el año que ahora se agota, hay que empezar por el principio, aunque eso suponga hablar de las películas de 2024. Porque sí, en el cine los años no se miden del 1 de enero al 31 de diciembre, sino de gala de Oscar en gala de Oscar , con permiso de los Goya si se quiere calibrar el año español. Así, viajamos a febrero de 2025, donde ocurrió algo inédito en la historia de nuestro cine: e l Goya a mejor película fue ex aequo por primera vez en 39 ediciones. 'La infiltrada' y 'El 47' compartieron 'cabezón' y un escenario por el que también desfiló Richard Gere , que recogió el Goya internacional. Noticia Relacionada Crítica de 'Los domingos' (****) estandar Si 'Los domingos' y el cine sabiamente laborable de Alauda Ruiz de Azúa Oti Rodríguez Marchante «Están magníficamente edificados los personajes de su mejor amiga, de la priora del convento, de la familia, especialmente el padre y la tía, y por supuesto el de Ainara, una chiquilla serenísima frente a sus influencias, desde las mundanas a las espirituales»Quien estuvo ausente en los Goya fue Karla Sofía Gascón , que fue el nombre que marcó los primeros meses no solo en España, también en el mundo. Los ofensivos tuits que escribió hace una década privaron a la de Móstoles de ganar su Oscar a mejor actriz por su papel en 'Emilia Pérez'. Un ruido mediático que ahora se recuerda desde el absurdo pero recorrió la prensa internacional, con una entrevista exclusiva en la CNN que recogieron todos los periódicos. La confirmación de que Gascón iba a ir a los Oscar generó un revuelo tremendo en los americanos y un divertimento entre el público español que vio cómo la televisión trataba de evitar cualquier plano de ella… Hasta que el presentador se atrevió a hacer un chiste y se rompió el telón de acero. Finalmente «su» Oscar fue para la genial Mikey Madison , protagonista de 'Anora', la película de Sean Baker que arrasó en la gala del 3 de marzo desde el Dolby Theatre de Hollywood. El neoyorquino se llevó el premio a mejor director, mejor película, mejor guion y mejor montaje. Un hito. 'Anora' batió a la otra película de la temporada, 'The Brutalist', que como se estrenó en España en 2025 «califica» para ser mejor película de este año, aunque ya suene a antigua. Superó también a 'A Complete Unknown', que se vio aquí en febrero y que no estará en ninguna de las listas de lo mejor del año… La memoria, a veces, también es corta. Tanto como para que muchos –sobre todo en la Academia de Cine– hayan olvidado a 'Tardes de soledad', la película de Albert Serra que ganó la Concha de oro de 2024 y que se estrenó en cines en marzo de 2025. ¿Tendrá alguna nominación en los Goya, además de la de mejor documental?Despedidas de 2025 Robert Redford, David Lynch y Verónica Echegui, tres de los nombres que fallecieron en 2025 AFP / EP/ ABCLos Oscar y los Goya 2025 pusieron fin al año cinematográfico, y la Berlinale, en febrero, lo inició. Allí comenzó su exitosa carrera 'Sorda', la película de Eva Libertad que se llevó el premio del público de la sección panorama. Después pasó por Málaga para cubrirse de gloria: Mejor película, mejor actriz, actor y Premio del Público. Y, lo más impresionante: no se ha desinflado durante los meses, ya que logró estar nominada en los Forqué y los Feroz y ser una de las preseleccionadas por la Academia de Cine para los Oscar. Estará los Goya. La cumbre del año para el cine español llegó en mayo, en Cannes. Dos películas consiguieron estar en la Sección Oficial compitiendo por la Palma de Oro, algo que sitúa a la cinematografía española y a sus creadores en cotas no vistas. Por La Croisette desfilaron Carla Simón y su 'Romería', con la que cierra su trilogía familiar, y Oliver Laxe con 'Sirat', que salió de allí con Premio del Jurado y disparada a convertirse en el fenómeno cultural de la temporada, impulsada también por el magnetismo de su creador, que como buen imán atrae y repele a partes iguales.'Sirat' se estrenó en verano, algo que muchos no entendían, pero sus distribuidores acertaron y empezó a triunfar por el boca a oreja. Recaudó 2.888.779 de euros en taquilla y después, en su estreno en Movistar Plus+, alcanzó el número uno en 'streaming'. Hasta que llegó el Festival de San Sebastián parecía que 'Sirat' no iba a tener rival en el año español... Pero llegó Alauda Ruiz de Azúa con 'Los domingos'. Fue una sorpresa, claro. El tercer proyecto de la de Bilbao tras 'Cinco lobitos' y 'Querer' se impuso a otros títulos españoles muy esperados como 'Los Tigres', del siempre bendecido Alberto Rodríguez, o 'Maspalomas', de los Moriarti. Ambas quedaron eclipsadas por el destello de Blanca Soroa , la debutante actriz que interpreta a esa niña que quiere ser monja.Los cineastas españoles en ABC noticia Si Óliver Laxe: «Hoy en día no hay nada más contracultural y punki que hablar de fe» noticia Si Carla Simón: «Un psicólogo es más barato, pero el cine me ayudó a entender la vida» noticia No Eva Libertad dirige 'Sorda': «En el cine hemos visto más asesinatos que historias que nos tocan más de cerca, como la maternidad» noticia Si Alauda Ruiz de Azúa: «En las chicas que quieren ser monjas he visto historias de quien había encontrado un amor incomparable» noticia Si Aitor Arregi y Jose Mari Goenaga: «Maspalomas es un lugar donde o te liberas o es un armario gigantesco»Ruiz de Azúa y Simón han estrenado este año su tercer proyecto importante; Laxe, su cuarto (aunque su primer filme, 'Todos vosotros sois capitanes', era más experimental que industrial). El 2025 ha sido el año de su consolidación en el primer nivel del cine patrio, logrando que sus apellidos ya no sean solo conocidos entre los cinéfilos, también entre el gran público, a la altura de Amenábar, Sorogoyen, Coixet, Trueba... Queda por ver quién de los tres triunfa en los Goya, con permiso de la debutante Eva Libertad y su 'Sorda'. De momento, parece que los premios serán de 'Los domingos' y que 'Sirat', como ha pasado más veces en el cine español, no sea profeta en su tierra; pero es que a Oliver Laxe eso ya no le debe preocupar porque su camino está en Hollywood. Ha cerrado 2025 con doble nominación en los Globos de Oro (mejor película extranjera y mejor música) y con cinco candidaturas en la 'shortlist' de los Oscar (mejor película internacional, sonido, música original, fotografía y casting), que pueden llegar a convertirse, si hay suerte, en cinco o más nominaciones, incluyendo mejor película.En acción Fotogramas de 'Sirat', 'Sorda' y Los domingos', tres de las películas españolas de la temporadaAhí, en esa carrera internacional, el principal rival de Laxe es el danés Joachim Trier , que después de 'La peor persona del mundo' ha emocionado al personal cinéfilo con la intensa ' Valor sentimental' . Por esas cinematografías del mundo que ahora miran a Hollywood se cuelan este curso la brasileña 'El agente secreto', de Kleber Mendonça Filho , la franco-iraní ' Un simple accidente ', de Jafar Panahi, la iraquí 'La tarta del presidente', de Hasan Hadi, la surcoreana 'No Other Choice', de Park Chan-wook o la tunecina 'La voz de Hind', de Kaouther Ben Hania. Todas sueñan con estar en la alfombra roja de los Oscar, donde quien marcará el paso paso este curso será un veterano, Paul Thomas Anderson, que con ' Una batalla tras otra ' ha filmado el mejor retrato de la locura que ahora mueve el mundo. No es mala tampoco la caricatura del racismo que hace Ryan Coogler en 'Los pecadores', una cinta de terror metafórico y musical. El 'Frankenstein' de Guillermo del Toro y Netflix también ha dado que hablar, aunque quizá más por el cuerpo de Jacob Elordi que por la profundidad de la adaptación. Igual que ' Bugonia ', de Yorgos Lanthimos, ha hecho más ruido por el trasfondo que por el resultado. Y otra adaptación, más lograda, es ' Hamnet ', de Chloé Zhao, aunque en España no se verá en cartel hasta 2026. Para entonces veremos también 'Marty Supreme' , de Joshua Safdie y 'Nouvelle Vague', la segunda película que esta temporada ha estrenado Richard Linklater, un cineasta que es también experto en domar el tiempo en el cine. Balance cultural de 2025 Los mejores libros de 2025: estas son las novelas en español más destacadas del año Los mejores libros de 2025: estas son las novelas extranjeras más destacadas del año Sin noticias del fin: ensayos, memorias y periodismo en el rugido de un tiempo oscuro Una gran cosecha para unas artes escénicas en creciente recuperación El año del gran debut de Klaus Mäkelä en Madrid No conviene olvidar... Los críticos de ABC Cultural elijen lo mejor y lo peor en arte en 2025 El clásico año 2025 (o 2025 como un año clásico) Los diez mejores discos nacionales de 2025, según los críticos de ABC Los diez mejores discos internacionales de 2025, según los críticos de ABC Las mejores series de 2025 Los mejores cómics de 2025A nivel de taquilla el curso ha vuelto a estar dominado por la animación (y el anime, con la china 'Ne Zha 2 ' dominando la taquilla global), aunque entre el público «adulto» lo musical de 'Wicked: Parte II' y la tercera entrega de 'Avatar' han llevado a millones de personas a los cines, aunque con unas cifras, al menos en España, mucho más bajas que antes de la pandemia. Las críticas de las películas del año, en ABC noticia Si Crítica de 'Avatar: Fuego y ceniza' (***): Sin novedades en Pandora y su fusión de cine y alucine noticia No Crítica de 'Jay Kelly': George Clooney se divierte con los traumas de una estrella de Hollywood noticia Si Crítica de 'Valor sentimental' (****): Un drama enérgico y bergmaniano en la casa de muñecas de Ibsen noticia Si Crítica | 'Núremberg' (***): Russell Crowe se come a Göring, al psiquiatra y al fiscal noticia Si Crítica de 'Blue Moon' (****): el fogonazo del genio cuando huele el ocaso noticia Si Crítica de 'La voz de Hind' (***): Una película hecha para el oído noticia Si Crítica de 'Wicked: Parte II' (***): Duelo de princesas: el mundo rosa contra la furia verde noticia Si Crítica de 'Bugonia' (***): Emma Stone contra dos tontos muy listos noticia Si 'Frankenstein', de Guillermo del Toro (***): deslumbrante pirotecnia visual y sentimental noticia Si Crítica de 'Un simple accidente' (***): Ruido de pasos de la dictadura iraníPero no nos quedemos con las cifras; mejor poner el broche a este resumen imposible del año celebrando la madurez de nuestro cine.</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>BALANCE DE 2025
+CINE
+Fernando Muñoz
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+El tiempo en una pantalla es eterno y maleable. Es tan dúctil que hay cineastas que han metido en el celuloide y en las retinas de los espectadores el universo entero y más allá, y por eso hay historias que sobrevivirán en la memoria hasta...que esta se extinga. Y, sin embargo, aquí tratamos de encajar ese tiempo etéreo en un resumen imposible, porque aunque el año 2025 agote sus últimas horas, algunas de sus películas se recordarán siempre, tanto como las leyendas del séptimo arte que nos dejaron este curso y que no podían faltar en el repaso de 2025, deVerónica EcheguiaRobert Redford,Diane Keaton,Gene Hackman,Udo Kier, Val Kilmer, David Lynch, Rob Reiner...
+Pero si hay que hacer una retrospectiva de lo que fue el año que ahora se agota, hay que empezar por el principio, aunque eso suponga hablar de las películas de 2024. Porque sí, en el cine los años no se miden del 1 de enero al 31 de diciembre, sino degala de Oscar en gala de Oscar, con permiso de los Goya si se quiere calibrar el año español. Así, viajamos a febrero de 2025, donde ocurrió algo inédito en la historia de nuestro cine: el Goya a mejor película fue ex aequopor primera vez en 39 ediciones. 'La infiltrada' y 'El 47' compartieron 'cabezón' y un escenario por el que también desfilóRichard Gere, que recogió el Goya internacional.
+Quien estuvo ausente en los Goya fueKarla Sofía Gascón, que fue el nombre que marcó los primeros meses no solo en España, también en el mundo. Los ofensivos tuits que escribió hace una década privaron a la de Móstoles de ganar su Oscar a mejor actriz por su papel en 'Emilia Pérez'.Un ruido mediático que ahora se recuerda desde el absurdopero recorrió la prensa internacional, con una entrevista exclusiva en la CNN que recogieron todos los periódicos. La confirmación de que Gascón iba a ir a los Oscar generó un revuelo tremendo en los americanos y un divertimento entre el público español que vio cómo la televisión trataba de evitar cualquier plano de ella... Hasta que el presentador se atrevió a hacer un chiste y se rompió el telón de acero.
+Finalmente «su» Oscar fue para la genialMikey Madison, protagonista de 'Anora', la película deSean Baker que arrasó en la gala del 3 de marzodesde el Dolby Theatre de Hollywood. El neoyorquino se llevó el premio a mejor director, mejor película, mejor guion y mejor montaje. Un hito. 'Anora' batió a la otra película de la temporada, 'The Brutalist', que como se estrenó en España en 2025 «califica» para ser mejor película de este año, aunque ya suene a antigua. Superó también a 'A Complete Unknown', que se vio aquí en febrero y que no estará en ninguna de las listas de lo mejor del año... La memoria, a veces, también es corta. Tanto como para que muchos –sobre todo en la Academia de Cine– hayan olvidado a 'Tardes de soledad', la película de Albert Serra que ganó la Concha de oro de 2024 y que se estrenó en cines en marzo de 2025. ¿Tendrá alguna nominación en los Goya, además de la de mejor documental?
+Los Oscar y los Goya 2025 pusieron fin al año cinematográfico, y la Berlinale, en febrero, lo inició. Allí comenzó su exitosa carrera'Sorda', la película de Eva Libertadque se llevó el premio del público de la sección panorama. Después pasó por Málaga para cubrirse de gloria: Mejor película, mejor actriz, actor y Premio del Público. Y, lo más impresionante: no se ha desinflado durante los meses, ya que logró estar nominada en los Forqué y los Feroz y ser una de las preseleccionadas por la Academia de Cine para los Oscar. Estará los Goya.
+La cumbre del año para el cine español llegó en mayo, en Cannes. Dos películas consiguieron estar en la Sección Oficial compitiendo por la Palma de Oro, algo que sitúa a la cinematografía española y a sus creadores en cotas no vistas. Por La Croisette desfilaron Carla Simón y su 'Romería', con la que cierra su trilogía familiar, y Oliver Laxe con 'Sirat', que salió de allí con Premio del Jurado y disparada a convertirse en el fenómeno cultural de la temporada, impulsada también por el magnetismo de su creador, que como buen imán atrae y repele a partes iguales.
+'Sirat' se estrenó en verano, algo que muchos no entendían, pero sus distribuidores acertaron y empezó a triunfar por el boca a oreja. Recaudó 2.888.779 de euros en taquilla y después, en su estreno en Movistar Plus+, alcanzó el número uno en 'streaming'. Hasta que llegó el Festival de San Sebastián parecía que 'Sirat' no iba a tener rival en el año español... Pero llegó Alauda Ruiz de Azúa con 'Los domingos'.
+Fue una sorpresa, claro. El tercer proyecto de la de Bilbao tras 'Cinco lobitos' y 'Querer' se impuso a otros títulos españoles muy esperados como 'Los Tigres', del siempre bendecido Alberto Rodríguez, o 'Maspalomas', de los Moriarti. Ambas quedaron eclipsadas porel destello de Blanca Soroa, la debutante actriz que interpreta a esa niña que quiere ser monja.
+Ruiz de Azúa y Simón han estrenado este año su tercer proyecto importante; Laxe, su cuarto (aunque su primer filme, 'Todos vosotros sois capitanes', era más experimental que industrial). El2025 ha sido el año de su consolidación en el primer nivel del cine patrio,logrando que sus apellidos ya no sean solo conocidos entre los cinéfilos, también entre el gran público, a la altura de Amenábar, Sorogoyen, Coixet, Trueba...
+Queda por ver quién de los tres triunfa en los Goya, con permiso de la debutanteEva Libertad y su 'Sorda'.De momento, parece que los premios serán de'Los domingos' y que 'Sirat',como ha pasado más veces en el cine español, no sea profeta en su tierra; pero es que a Oliver Laxe eso ya no le debe preocupar porque su camino está en Hollywood. Ha cerrado 2025 con doble nominación en los Globos de Oro (mejor película extranjera y mejor música) y con cinco candidaturas en la 'shortlist' de los Oscar (mejor película internacional, sonido, música original, fotografía y casting), que pueden llegar a convertirse, si hay suerte, en cinco o más nominaciones, incluyendo mejor película.
+Ahí, en esa carrera internacional, el principal rival de Laxe es el danésJoachim Trier, que después de 'La peor persona del mundo' ha emocionado al personal cinéfilo con la intensa 'Valor sentimental'. Por esas cinematografías del mundo que ahora miran a Hollywood se cuelan este curso la brasileña 'El agente secreto', deKleber Mendonça Filho, la franco-iraní 'Un simple accidente', de Jafar Panahi, la iraquí 'La tarta del presidente', de Hasan Hadi, la surcoreana 'No Other Choice', dePark Chan-wooko la tunecina'La voz de Hind',de Kaouther Ben Hania. Todas sueñan con estar en la alfombra roja de los Oscar, donde quien marcará el paso paso este curso será un veterano,Paul Thomas Anderson,que con 'Una batalla tras otra' ha filmado el mejor retrato de la locura que ahora mueve el mundo. No es mala tampoco la caricatura del racismo que haceRyan Coogler en 'Los pecadores',una cinta de terror metafórico y musical. El 'Frankenstein' de Guillermo del Toro y Netflix también ha dado que hablar, aunque quizá más por el cuerpo de Jacob Elordi que por la profundidad de la adaptación. Igual que 'Bugonia', deYorgos Lanthimos,ha hecho más ruido por el trasfondo que por el resultado. Y otra adaptación, más lograda, es 'Hamnet', de Chloé Zhao, aunque en España no se verá en cartel hasta 2026. Para entonces veremos también'Marty Supreme', de Joshua Safdie y 'Nouvelle Vague', la segunda película que esta temporada ha estrenado Richard Linklater, un cineasta que es también experto en domar el tiempo en el cine.
+Los mejores libros de 2025: estas son las novelas en español más destacadas del año
+Los mejores libros de 2025: estas son las novelas extranjeras más destacadas del año
+Sin noticias del fin: ensayos, memorias y periodismo en el rugido de un tiempo oscuro
+Una gran cosecha para unas artes escénicas en creciente recuperación
+El año del gran debut de Klaus Mäkelä en Madrid
+No conviene olvidar... Los críticos de ABC Cultural elijen lo mejor y lo peor en arte en 2025
+El clásico año 2025 (o 2025 como un año clásico)
+Los diez mejores discos nacionales de 2025, según los críticos de ABC
+Los diez mejores discos internacionales de 2025, según los críticos de ABC
+Las mejores series de 2025
+Los mejores cómics de 2025
+A nivel de taquilla el curso ha vuelto a estar dominado por la animación (y el anime, con la china'Ne Zha 2' dominando la taquilla global), aunque entre el público «adulto» lo musical de'Wicked: Parte II'y la tercera entrega de 'Avatar' han llevado a millones de personas a los cines, aunque con unas cifras, al menos en España, mucho más bajas que antes de la pandemia.
+Pero no nos quedemos con las cifras; mejor poner el broche a este resumen imposible del año celebrando la madurez de nuestro cine.
+Periodista. Jefe de sección de Cultura. Coordinador de ABC Play (Cine, series, TV). Máster ABC 2013
+Esta funcionalidad es sólo para registrados</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C83" s="5" t="inlineStr">
+        <is>
+          <t>Los mejores libros de 2025: estas son las novelas extranjeras más destacadas del año</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2025-12-26T14:11:45+01:00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>1 Samantha Harvey OrbitalEl año empezó con ' Orbital ' (Anagrama), una novela en la que Samantha Harvey nos encerraba en la Estación Espacial Internacional con seis astronautas: dentro no ocurre nada, solo la vida, una mujer que mira por la ventana y piensa y se sumerge en sus trascendencias, en un estado de ingravidez permanente: «Quizá la civilización humana pueda compararse a la vida de un individuo. Al crecer abandonamos la realeza de la infancia para alcanzar una suprema normalidad; descubrimos que no tenemos nada de especial y en un arrebato de inocencia nos asalta una alegría absoluta: si no somos especiales, tal vez no estemos solos». Tal vez esta sea la gran novela del confinamiento. 2 Andrew O'Hagan Caledonian RoadEn ' Caledonian Road ' (Libros del Asteroide), Andrew O' Hagan nos dejó caer en el Londres de 2021, pero en medio de una novela decimonónica, muy a lo Dickens, su referente. «Era el momento de hacer una novela contemporánea que explorara los diferentes estratos sociales y económicos. Esa era la ambición. Han sido diez años de trabajo», nos contaba a su paso por Madrid. La han vendido como la gran novela de la Inglaterra postbrexit, pero es más bien una historia de gente que tiene dinero, gente que tiene miedo a perderlo y gente que desearía tenerlo.3 Chimamanda Ngozi Adichie Unos cuantos sueñosOtra novela escrita como un fresco de otro tiempo fue ' Unos cuantos sueños ' (Random House), el regreso a la ficción de Chimamanda Ngozie Adichie después de una década. La escritora narra la vida de cuatro mujeres conectadas por lazos familiares o amistosos o laborales, y nos cuenta dramas de amor o maternidad o sociales con un humor y una levedad que están muy por encima de las reseñas que le dedican.4 Gueorgui Gospodínov El jardinero y la muertePor supuesto, la literatura del yo no ha desaparecido este 2025. Gueorgui Gospodínov nos regaló en ' El jardinero y la muerte ' (Impedimenta) el relato poético de la muerte de su padre. Es un libro con un comienzo que ya es historia de la literatura: «Mi padre era jardinero. Ahora es jardín».5 Richard Flanagan La pregunta 7Otro que escribió sobre su padre fue Richard Flanagan (Libros del Asteroide). En ' La pregunta 7 ', el tasmano mezclaba sus historias con las del mundo, y acaba ligando su existencia con la bomba atómica de Hiroshima: fue por esa bomba que su padre se salvó del campo de concentración japonés de Ohama. Tampoco existiría sin que Rebeca West besara hace 114 años a un escritor en un salón londinense: se llamaba H. G. Wells. Es un libro fascinante.6 Olga Tokarczuk Tierra de empusasEn ' Tierra de empusas ', Olga Tokarczuk (Anagrama) resucitó la tuberculosis como tono y tema. «La cultura de los sanatorios es en sí misma fascinante: los sanatorios creaban una realidad alternativa que daba origen a relaciones humanas particulares y a una cultura específica de personas condenadas a la enfermedad y, finalmente, a morir», nos decía, al hilo de la novela, que de alguna manera es una paráfrasis de 'La montaña mágica'. «La ausencia de mujeres en la novela me resulta oscura, hostil».7 George Saunders Cuentos escogidosLos 'Cuentos escogidos' (Seix Barral), de George Saunders , viene a ser un muestrario perfecto de uno de los grandes cuentistas contemporáneos en lengua inglesa: un escritor que concibe el relato como un laboratorio o un campo de juegos o una fiesta a la que llegas sin querer porque has visto una puerta abierta. O un sueño. O un delirio.8 Matei Visniec El hombre que vendía comienzos de novela' El hombre que vendía comienzos de novela ' (Galaxia Gutenberg), de Matei Visniec, conocemos a un hombre que pertenece a una estirpe secreta dedicada a suministrar primeras frases a escritores atascados en sus comienzos: Kafka, Wells, Canetti, Melville, Camus… 9 Lionel Shriver ManíaEs juego divertidísimo que reescribe la historia reciente, igual que ' Manía ' (Anagrama), donde Lionel Shriver nos ofrece una versión alternativa del mundo desde 2011: la inteligencia está mal vista, Obama pierde las elecciones por ser locuaz, Benedict Cumberbatch se queda en paro porque todos odian 'Sherlock'... En fin, una risa. 10 Tessa Hulls Alimentar a los fantasmasEl año terminó con 'Alimentar a los fantasmas' (Reservoir Books), de Tessa Hulls , el segundo cómic en la historia en ganar el Pulitzer de memorias y autobiografías: el otro fue 'Maus', de Art Spiegelman. Es una historia de fantasmas, es decir, de culpa y reconciliación. De fondo, la dictadura china, la represión, la extranjería, el desarraigo… Y hasta el wéstern.</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>BALANCE de 2025
+NOVELA extranjera
+Bruno Pardo Porto
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+El año empezó con 'Orbital' (Anagrama), una novela en la queSamantha Harveynos encerraba en la Estación Espacial Internacional con seis astronautas: dentro no ocurre nada, solo la vida, una mujer que mira por la ventana y piensa y se sumerge en...sus trascendencias, en un estado de ingravidez permanente: «Quizá la civilización humana pueda compararse a la vida de un individuo. Al crecer abandonamos la realeza de la infancia para alcanzar una suprema normalidad; descubrimos que no tenemos nada de especial y en un arrebato de inocencia nos asalta una alegría absoluta: si no somos especiales, tal vez no estemos solos». Tal vez esta sea la gran novela del confinamiento.
+En 'Caledonian Road' (Libros del Asteroide),Andrew O' Hagannos dejó caer en el Londres de 2021, pero en medio de una novela decimonónica, muy a lo Dickens, su referente. «Era el momento de hacer una novela contemporánea que explorara los diferentes estratos sociales y económicos. Esa era la ambición. Han sido diez años de trabajo», nos contaba a su paso por Madrid. La han vendido como la gran novela de la Inglaterra postbrexit, pero es más bien una historia de gente que tiene dinero, gente que tiene miedo a perderlo y gente que desearía tenerlo.
+Otra novela escrita como un fresco de otro tiempo fue 'Unos cuantos sueños' (Random House), el regreso a la ficción deChimamanda Ngozie Adichiedespués de una década. La escritora narra la vida de cuatro mujeres conectadas por lazos familiares o amistosos o laborales, y nos cuenta dramas de amor o maternidad o sociales con un humor y una levedad que están muy por encima de las reseñas que le dedican.
+Por supuesto, la literatura del yo no ha desaparecido este 2025.Gueorgui Gospodínovnos regaló en 'El jardinero y la muerte' (Impedimenta) el relato poético de la muerte de su padre. Es un libro con un comienzo que ya es historia de la literatura: «Mi padre era jardinero. Ahora es jardín».
+Otro que escribió sobre su padre fueRichard Flanagan(Libros del Asteroide). En 'La pregunta 7', el tasmano mezclaba sus historias con las del mundo, y acaba ligando su existencia con la bomba atómica de Hiroshima: fue por esa bomba que su padre se salvó del campo de concentración japonés de Ohama. Tampoco existiría sin que Rebeca West besara hace 114 años a un escritor en un salón londinense: se llamaba H. G. Wells. Es un libro fascinante.
+En 'Tierra de empusas',Olga Tokarczuk(Anagrama) resucitó la tuberculosis como tono y tema. «La cultura de los sanatorios es en sí misma fascinante: los sanatorios creaban una realidad alternativa que daba origen a relaciones humanas particulares y a una cultura específica de personas condenadas a la enfermedad y, finalmente, a morir», nos decía, al hilo de la novela, que de alguna manera es una paráfrasis de 'La montaña mágica'. «La ausencia de mujeres en la novela me resulta oscura, hostil».
+Los 'Cuentos escogidos' (Seix Barral), deGeorge Saunders, viene a ser un muestrario perfecto de uno de los grandes cuentistas contemporáneos en lengua inglesa: un escritor que concibe el relato como un laboratorio o un campo de juegos o una fiesta a la que llegas sin querer porque has visto una puerta abierta. O un sueño. O un delirio.
+'El hombre que vendía comienzos de novela' (Galaxia Gutenberg), de Matei Visniec, conocemos a un hombre que pertenece a una estirpe secreta dedicada a suministrar primeras frases a escritores atascados en sus comienzos: Kafka, Wells, Canetti, Melville, Camus...
+Es juego divertidísimo que reescribe la historia reciente, igual que 'Manía' (Anagrama), dondeLionel Shrivernos ofrece una versión alternativa del mundo desde 2011: la inteligencia está mal vista, Obama pierde las elecciones por ser locuaz, Benedict Cumberbatch se queda en paro porque todos odian 'Sherlock'... En fin, una risa.
+El año terminó con 'Alimentar a los fantasmas' (Reservoir Books), deTessa Hulls, el segundo cómic en la historia en ganar el Pulitzer de memorias y autobiografías: el otro fue 'Maus', de Art Spiegelman. Es una historia de fantasmas, es decir, de culpa y reconciliación. De fondo, la dictadura china, la represión, la extranjería, el desarraigo... Y hasta el wéstern.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C84" s="5" t="inlineStr">
+        <is>
+          <t>China lanza un intimidante despliegue militar alrededor de Taiw√°n en respuesta a EE. UU.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2025-12-29T13:49:17+01:00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>La simulaci√≥n de un bloqueo de la isla y los ejercicios con fuego real se producen tras la venta del mayor paquete de armamento estadounidense a Taip√©i</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Miquel Ferrer Rueda
+Barcelona
+La respuesta de China al acercamiento entre Taiwán y Estados Unidos no se ha hecho esperar, y Xi Jinping parece dispuesto a desafiar a todo aquel que amenace con interferir en sus planes respecto a la isla.
+En el Mar de la China Oriental, la tensión crece en un contexto marcado tanto por declaraciones, como las de la primera ministra japonesa, Sanae Takaichi—quien insinuó que un ataque chino a Taipéi podría provocar una respuesta militar de Tokio—, como por acciones, como la venta del mayor paquete de armamento jamás destinado a Taiwán por parte de EE. UU.
+La operación de venta ya tuvo consecuencias inmediatas para los estadounidenses, después de que Pekín anunciara sanciones contra 10 particulares y 20 empresas de defensa estadounidenses, entre ellas la sucursal de Boeing en St. Louis. Ahora, China ha dado un paso más en lo que respecta a las repercusiones para Taiwán.
+A modo de represalia, China ha dado comienzo este lunes a la “Misión Justicia 2025”, una serie de ejercicios con fuego real que se alargarán hasta el martes, y que ha contado con el despliegue de tropas, buques de guerra, aviones de combate y artillería. Por si fuera poco, el gigante asiático anunció que el Ejército había efectuado disparos reales y ataques simulados contra objetivos terrestres y marítimos, además de incluir ejercicios para bloquear los principales puertos de la isla y rodearla.
+Si bien se trata de un simulacro, este enorme despliegue difumina cada vez más la línea entre lo que podría ser una simple puesta en escena y un ataque real, y tiene un objetivo claro: intimidar a Taiwán y enviar un mensaje a sus aliados sobre su capacidad de invadir la isla autónoma en el futuro.
+Ante la amenazante actuación, el Gobierno taiwanés se ha visto obligado a movilizar tropas y cancelar y redirigir los vuelos de las zonas peligrosas, lo cual afectará a más de 100.000 pasajeros de vuelos internacionales programados y a unos 6000 pasajeros de vuelos nacionales. En un intento de minimizar  el impacto en las rutas marítimas y las zonas de pesca, la guardia costera de Taiwán envió grandes barcos como reacción a la actividad de los guardacostas chinos. No obstante, los barcos comerciales deberán evitar las rutas afectadas por los ensayos en un aumento generalizado del nivel de alerta.
+Un caza Mirage 2000 de la Fuerza Aérea de Taiwán despega tras el anuncio de ejercicios militares chinos alrededor de la isla
+Con esta, son seis las ocasiones en tres años en las que China ha amenazado la estabilidad de Taiwán mediante el despliegue de su arsenal bélico, bajo la justificación de ejercicios militares. La primera de ellas sucedió en 2022, cuando la entonces presidenta de la Cámara de Representantes de EE. UU., Nancy Pelosi, visitó Taipéi en una muestra de acercamiento de las relaciones diplomáticas entre la isla y Estados Unidos. Los días después de la visita estuvieron marcados por simulacros alrededor de Taiwán, incluyendo lanzamientos de misiles balísticos, algunos de los cuales sobrevolaron Taipéi, y ataques simulados en el aire y el mar en los alrededores.
+En abril de 2023, China volvió a llevar a cabo tres días de maniobras alrededor de la isla, afirmando que habían probado capacidades militares integradas en condiciones de combate, practicando ataques de precisión y el bloqueo de Taiwán.
+En esta ocasión se produjo después de que la entonces presidenta taiwanesa, Tsai Ing-wen, regresara a Taipéi después de una reunión enLos Ángelescon Kevin McCarthy, el entonces presidente de la Cámara de Representantes de EE. UU. Cuatro meses después se repitieron las prácticas alrededor de Taiwán como una “advertencia seria” a los “separatistas”, ante la esperada visita del entonces vicepresidente Lai a Estados Unidos.
+Un barco dispara un arma durante ejercicios al este de Taiwán, en imágenes difundidas por China
+Tan solo un año después, China realizó el ejercicio “Espada Conjunta - 2024B” alrededor de Taiwán en respuesta a un discurso del Día Nacional, que fue especialmente relevante al utilizarse un número récord de aeronaves como prueba del músculo militar del gigante asiático. En diciembre del mismo año la isla denunció un gran aumento de la actividad de la Fuerza Aérea y la Marina chinas, que China no justificó ni confirmó oficialmente si se trataba o no de ejercicios militares.
+El último de los antecedentes de la amenaza China sobre Taiwán fue la operación “Trueno del Estrecho - 2025”, el pasado abril. Entonces las pruebas se centraron en probar las capacidades de las tropas de bloqueo y control y de ataques contra objetivos clave. Para Taipéi, las operaciones de China no tienen otro objetivo que poner a prueba su capacidad de tomar el poder por la vía militar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C85" s="5" t="inlineStr">
+        <is>
+          <t>Rusia anuncia que se pondría al lado de China en caso de conflicto con Taiwan</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2025-12-28T09:01:21+01:00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>El ministro de Exteriores ruso, Serguéi Lavrov también acusó a Occidente de provocar tensiones en la región por beneficio propio</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Agencias
+Pekín
+El ministro de Exteriores ruso, Serguéi Lavrov, señaló este domingo que Rusia reconoce la integridad territorial de China y que la defenderá en caso de conflicto en relación con Taiwán.
+“En cuanto a una posible escalada de tensiones en el estrecho de Taiwán, el procedimiento de actuación en tales situaciones se describe en el Tratado de Buena Vecindad, Amistad y Cooperación con China del 16 de julio de 2001 (...), donde uno de los principios fundamentales consagrados en este documento es el apoyo mutuo en la protección de la unidad nacional y la integridad territorial”, dijo Lavrov en una entrevista para TASS.
+De este modo, el jefe de la diplomacia rusa recordó que su país se opone a la independencia de la isla y la ve como parte de China. Al mismo tiempo, acusó a Occidente de provocar tensiones en la región por beneficio propio.
+“Hoy en día, Taiwán se está utilizando como un instrumento de contención militar-estratégica contra China. También existe un interés mercantil: algunos en Occidente no están en contra de lucrarse con el dinero y la tecnología taiwaneses”, aseguró.
+Además, acusó a Estados Unidos de armar a Taiwán. “Las costosas armas estadounidenses se venden a Taiwán a precios de mercado”, añadió.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C86" s="5" t="inlineStr">
+        <is>
+          <t>Todos contra Israel: la UE también pide que se respete la unidad de Somalia</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2025-12-28T07:50:34+01:00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>El reconocimiento israelí ha provocado una amplia condena internacional, especialmente de África, el mundo islámico y China</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>AGENCIAS
+Ciudad
+La Unión Europea (UE) ha pedido que se respete la unidad de Somalia, tras reconocer Israel como Estado independiente a la región separatista somalí de Somalilandia y convertirse en el primer país que da ese paso en el mundo. El reconocimiento israelí ha provocado una amplia condena internacional, especialmente de África, el mundo islámico y China.
+“El 26 de diciembre, Israel reconoció a Somalilandia como Estado independiente”, afirmó el portavoz de Asuntos Exteriores de la Comisión Europea, Anouar El Anouni, en un comunicado publicado la pasada noche por la delegación de la UE en Somalia.
+“La Unión Europea reafirma la importancia de respetar la unidad, la soberanía y la integridad territorial de la República Federal de Somalia, de conformidad con su Constitución, las Cartas de la Unión Africana y las Naciones Unidas. Esto es fundamental para la paz y la estabilidad en toda la región del Cuerno de África”, subrayó.
+La UE -añadió- “fomenta un diálogo constructivo entre Somalilandia y el Gobierno Federal de Somalia para resolver las diferencias de larga data”.
+Por su parte, el presidente de Somalia, Hassan Sheikh Mohamud, condenó la “agresión ilegal” del primer ministro de Israel, Benjamin Netanyahu, al reconocer a la región separatista somalí de Somalilandia como Estado Independiente. “Inmiscuirse en los asuntos internos de Somalia contraviene las normas jurídicas y diplomáticas establecidas. Somalia y su pueblo son uno: inseparables por la división a distancia”, agregó el presidente.
+“La agresión ilegal del primer ministro Netanyahu al reconocer una parte de la región norte de Somalia contraviene el derecho internacional”, afirmó Mohamud la pasada noche en la red social X.
+Por su parte, la Liga Árabe, compuesta por 22 Estados, incluido Somalia, celebra este domingo una reunión de emergencia para debatir una respuesta al reconocimiento por parte de Israel de Somalilandia como Estado independiente, después de que una veintena de países árabes e islámicos calificaran ese paso como “un precedente peligroso” y una “amenaza para la paz”.
+La reunión, a nivel de representantes permanentes de los miembros del organismo panárabe, se espera que rechace también un reconocimiento israelí que, a juicio de políticos y comentaristas árabes, se enmarca dentro de los intentos de Israel de buscar un territorio para desplazar a los palestinos de la Franja de Gaza.
+Israel reconoció oficialmente este viernes a Somalilandia como un “Estado independiente y soberano”, según indicó el primer ministro israelí, Benjamín Netanyahu, en una nota. “Esta declaración se inscribe en el espíritu de los Acuerdos de Abraham firmados por iniciativa del presidente Trump”, explicó la oficina de Netanyahu en el texto.
+Taiwán también celebró el reconocimiento de Somalilandia como Estado independiente por parte de Israel, una decisión que contrasta con la postura mayoritaria de Europa, Estados Unidos, la Unión Africana y otros países, que han reiterado su apoyo a la soberanía de Somalia.
+Los Acuerdos de Abraham son pactos de normalización de relaciones diplomáticas firmados en 2020 entre Israel, Emiratos Árabes Unidos (EAU) y Bahréin, por mediación de EE.UU. bajo la primera presidencia de Donald Trump, a los que luego se unieron Sudán y Marruecos.
+El presidente de Somalilandia, Abdirahman Mohamed Abdullahi, señaló que este “momento histórico” marca el inicio de una “alianza estratégica”, y remarcó su disposición a “adherirse a los Acuerdos de Abraham”.
+Somalilandia, protectorado británico hasta 1960, no está reconocida internacionalmente, aunque tiene constitución, moneda y gobierno propios, e incluso un mejor desarrollo económico y mayor estabilidad política que Somalia hasta ahora.
+La región declaró su separación de Somalia, excolonia italiana, en 1991, cuando fue derrocado el dictador Mohamed Siad Barre. En las últimas décadas, Somalia y Somalilandia han impulsado sin éxito varios intentos de diálogo sobre la independencia de la región.
+Somalia vive en un estado de conflicto y caos desde el derrocamiento de Barre, lo que dejó al país sin gobierno efectivo y en manos de milicias islamistas, como Al Shabab, y señores de la guerra.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C87" s="5" t="inlineStr">
+        <is>
+          <t>China, enemigo de Europa</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2025-12-28T06:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>El apoyo a Rusia y el desequilibrio comercial someten a la UE al ‘diktat’ de Pekín</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Xavier Mas de Xaxàs
+Barcelona
+China siempre gana en el gran casino de las relaciones internacionales. Sin más ley que la de la selva, China se impone en casi todas las áreas que determinarán la hegemonía mundial en los próximos años: la militar, la económica y la tecnológica. Estados Unidos, de la mano de su presidente, Donald Trump, apuesta con todo lo que tiene para doblegar al gigante asiático, pero la suerte no le sonríe. China es como la banca en cualquier casino, siempre gana, y Europa, mucho más que Estados Unidos, paga las consecuencias, sobre todo, en Ucrania y en su balanza comercial.
+El presidente chino, Xi Jinping, apoya al líder ruso, Vladímir Putin, en Ucrania porque así debilita a Estados Unidos. No le importa que la Unión Europea, uno de sus mejores clientes, afronte un peligro existencial. No dejará caer a Putin porque la guerra consume los recursos y la atención que Estados Unidos preferiría poner en el Pacífico. Por eso mismo, desearía que Putin no pactara con Trump una solución para Ucrania. Este acuerdo daría pie a una relación estrecha entre Rusia y EE.UU. que China no desea. Ahora, Rusia está completamente sometida a China, y Xi quiere que así continúe.
+“China insiste en que es un socio de la Unión Europea, pero en realidad es un enemigo”, asegura una fuente diplomática de la UE en Pekín. En el argot diplomático de Bruselas se habla derival sistémico, pero es lo mismo. “China es mucho más enemigo que socio o competidor”, afirma la misma fuente. “Solo cooperamos en biodiversidad y crisis climática. Además, es un competidor desleal, que utiliza el peso del Estado para llenar nuestro mercado de productos y frenar la entrada de los nuestros en el suyo. Entre el 2017 y el 2024, su PIB ha aumentado un 40%, pero las exportaciones europeas a China han bajado un 30%”.
+Ucrania complica la relación mucho más. China no solo compra a Rusia el gas y el petróleo que alimentan la maquinaria bélica, sino que además le vende la tecnología necesaria para que construya drones avanzados y mejore las comunicaciones. “Gracias a China, Rusia elude el 80% de las sanciones que le ha impuesto la UE”, asegura la fuente diplomática europea en Pekín.
+China juega con un as en la manga. “Tiene la mitad de las reservas mundiales de tierras raras”, recuerda Alicia García-Herrero, economista jefe para Asia-Pacífico del banco de inversión Natixis en Hong Kong y analista delthink tankeconómico Bruegel. “De esta manera, Xi pudo controlar a Trump cuando se vieron hace un mes en Busan. Le amenazó con cortarle el grifo de las tierras raras, y Trump reculó porque no tenía alternativa. Necesita esos minerales para la industria militar estadounidense”.
+El superávit comercial de China ha alcanzado el billón de dólares, un récord que refleja un modelo económico que García-Herrero opina que “continuará, a pesar de que no es sostenible”.
+Continuará porque le beneficia y, además, porque una de las premisas de China desde los tiempos de Mao es conseguir la dependencia estratégica de tantos países como sea posible. No es sostenible, sin embargo, porque, según García-Herrero, este modelo se parece demasiado al colonialista: la metrópolis gana, mientras el resto del mundo se empobrece. Estos desequilibrios comerciales, históricamente, producen guerras.
+China crece al 5% y fabrica un tercio de las manufacturas del mundo. Estos productos buscan mercados porque el consumo interior es insuficiente y los consiguen porque el Gobierno mantiene el yuan por debajo de su valor real y, a veces, vende a pérdidas para aplastar la competencia. Desde que EE.UU. grava los productos chinos con un arancel del 47%, China ha aumentado un 11% las exportaciones a otros países.
+Ayer aprobó una ley para frenar el envío de tierras raras a cualquier país que restrinja la entrada de sus productos. García-Herrero pronostica que estas prácticas agresivas seguirán durante el próximo año, lo que provocará más desequilibrios comerciales y más tensiones diplomáticas.
+La tensión, por ejemplo, aumen­ta en el Pacífico, y no solo con Taiwán, sino también con Japón y Filipinas. Al analista financiero Max de Bruyn, sin embargo, no le preocupa demasiado. Desde Hong Kong reconoce que “seguirán las escaramuzas” entre el Ejército Popular de Liberación y sus rivales regionales, pero está convencido de que Pekín “suavizará las disputas territoriales para priorizar las relaciones económicas”.
+“China –insiste Max de Bruyn– se ve a sí misma como un país no occidental que ha prosperado dentro de un sistema creado por Occidente y que ahora ofrece al Sur Global un modelo de crecimiento alternativo” en el que se habla menos de valores y más de seguridad.
+A los países africanos, asiáticos y latinoamericanos les ofrece inversiones, infraestructuras y comercio sin interferencias políticas ni militares. “Se presenta como un socio más fiable que EE.UU. porque su único objetivo es el desarrollo económico”, asegura De Bruyn.
+Europa, en todo caso, no lo ve de esa manera. “China no es un socio fiable –insiste la fuente diplomática en Pekín–. Lo ha demostrado con los controles que impone a la exportación de tierras raras. Las empresas europeas no pueden depender de un proveedor que puede cortar los suministros por razones políticas”.
+La UE no encuentra la forma de equilibrar la relación comercial. En su reciente visita a Pekín, el presidente francés, Emmanuel Macron, amenazó con “medidas fuertes”, pero China sabe, como apunta García-Herrero, que “tiene pillada” a Europa.
+Cuando la Unión Europea ha elevado las tarifas a los coches eléctricos, por ejemplo, China ha optado por fabricarlos en Europa. Compró las marcas Ebro y Santana para ensamblar vehículos en Barcelona y Linares. “Son inversiones modestas, que le permiten sortear las barreras comerciales que levanta la UE”, explica una fuente diplomática europea.
+“Lo peor –añade– es que no tenemos una estrategia para revertir la situación. No la tenemos para reducir el desequilibrio comercial porque tampoco la tenemos para reducir la dependencia”.
+La inversión más importante de China en España, por ejemplo, es una fábrica de baterías eléctricas en Zaragoza. Son 4.100 millones de euros. La fábrica, sin embargo, la están construyendo 2.000 trabajadores llegados de China, una exigencia que el Gobierno no ha tenido más remedio que aceptar si quería amarrar la inversión.
+Cuando esté operativa proveerá, sobre todo, a las empresas de automóviles chinos en Europa, lo que aumentará todavía más la competencia con los fabricantes europeos. La industria automovilística es un pilar estratégico fundamental de la economía europea, que lo tendrá más difícil para crecer por sus propios medios.
+China siempre gana y también a futuro. Max de Bruyn, por ejemplo, cree que los jóvenes europeos ven a China de una manera diferente a como lo hacen sus padres y abuelos. “Tienen un interés creciente por las marcas chinas –explica– y también viajan más a China. Pekín es consciente de que los gobernantes europeos de mañana verán a China de una manera muy positiva porque habrán superado la barrera psicológica que la relación transatlántica supone para sus mayores”.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C88" s="5" t="inlineStr">
+        <is>
+          <t>Las automovilísticas cambian de piloto para enfrentarse a los retos del 2026</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2025-12-28T06:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Los nuevos gerentes tendrán que abordar la electrificación y la competencia china</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Noemi Navas
+Madrid
+El 2025 ha sido un año turbulento para los consejos de administración de las automovilísticas. En un sector marcado por los dirigentes estrella, mediáticos y carismáticos como lo fueron Carlos Goshn, Dieter Zetsche o Sergio Marchionne en su día o lo eran Carlos Tavares y Luca de Meo, las salidas de estos líderes han forzado a a las empresas a optar por perfiles menos visionarios y más centrados en la recuperación de las cuentas, el estrechamiento de los márgenes, los retos tecnológicos y económicos de la electrificación, los aranceles y la competencia china. Según un cálculo reciente delFinancial Times, uno de cada cinco consejeros delegados de las automovilísticas del mundo han dimitido en los últimos 18 meses. Pocas se salvan del movimiento de sillas.
+François Provost, el CEO de Renault, durante la presentación mundial del nuevo Renault Twingo eléctrico.
+El primer terremoto que sacudió el sector ocurrió en diciembre de 2024, cuando el carismático consejero delegado de Stellantis, Carlos Tavares, dimitió de todos sus cargos por los malos resultados económicos (sus beneficios cayeron un 70%en el 2024) y las desavenencias internas con el consejo de administración.
+Aunque esta salida no se diera en el 2025, su impacto se hizo notar en el año en curso puesto que la compañía tardó seis meses en encontrar un sustituto. El designado fue Antonio Filosa, un hombre de la casa, con más de 25 años de vinculación en el grupo, de perfil discreto, pragmático y técnico. De este proceso, los expertos en el sector señalan dos cosas: la ausencia de líderes fuertes y carismáticos para esta industria o la confirmación de que su tiempo pasó y que los nuevos retos necesitan más gerentes orientados a traer a la realidad las tecnologías del futuro y hacerlas rentables en un entorno muy complicado.
+Iván Espinosa, el nuevo hombre fuerte y CEO de Nissan, apuesta por alianzas estratégicas con socios tecnológicos para salir de la crisis.
+De las lecciones de Stellantis tomó buena nota Renault cuando su director general, Luca de Meo, decidió abandonar la empresa (y la industria) en el mes de junio. Su sucesor, François Provost, es de nuevo un perfil de confianza y de continuidad, con más de 20 años de trabajo en el grupo y que había sido director de compras y estrategia industrial antes que director general. Su apuesta es la continuidad de la visión y estrategia de De Meo empujando los beneficios, muy maltrechos por el impacto de la alianza con Nissan.
+La debacle económica de la japonesa, que hundió sus beneficios un 98% en el 2024, y su fallida fusión con Honda motivó la salida de Makoto Uchida y el nombramiento del mexicano Iván Espinosa como presidente y consejero delegado. El primer directivo no japonés al mando de Nissan tiene la responsabilidad de pilotar un plan de reestructuración que incluye reducir la producción un 20% y recortar 9.000 empleos.
+El presidente de Hyundai, Jose Muñoz
+El español José Muñoz es el primer directivo no coreano que pilota Hyundai desde el 1 de enero del 2025. La compañía valoró su trayectoria global y diversa en la empresa desde 2019 para reforzar el peso de la coreana fuera de Asia.
+Las dos grandes automovilísticas mundiales, Toyota y Volkswagen, no han movido a sus directivos principales en el último año. Sin embargo, la alemana si que ha hecho cambios importantes. Su consejero delegado, Oliver Blume, deja a final de año de mantener a la vez su cargo en el grupo y la dirección de Porsche, que pasará a Michael Leiters el 1 de enero. Muy sorprendente por inesperada fue la salida de Wayne Griffiths, presidente de Seat, a finales de marzo. Fue sustituido por Markus Haupt, un perfil industrial de nuevo para sustituir a un líder más visionario.
+Otras empresas que han cambiado a sus principales espadas han sido Volvo Cars, que recuperó a su histórico presidente Hakan Samuelsson o Jaguar Land Rover, que ha nombrado a su primer consejero indio, PB Balaji en el momento más duro de la enseña.
+La que sigue al pie del cañón es la incombustible Mary Barra, presidenta de General Motors desde 2014.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C89" s="5" t="inlineStr">
+        <is>
+          <t>China lanza unas maniobras militares cerca de Taiwán como "disuasión" contra "fuerzas externas"</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2025-12-29T14:00:18+01:00</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Los ejercicios bélicos se producen en un contexto de creciente tensión entre China, Estados Unidos y Japón</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Los ejercicios bélicos se producen en un contexto de creciente tensión entre China, Estados Unidos y Japón</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C90" s="5" t="inlineStr">
+        <is>
+          <t>Taiwán acusa a China de "intimidación" por las maniobras militares anunciadas esta semana alrededor de la isla</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2025-12-29T03:04:04+01:00</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>El Ejército chino comenzó este lunes ejercicios con fuego real en varias zonas alrededor de la isla</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>El Ejército chino comenzó este lunes ejercicios con fuego real en varias zonas alrededor de la isla</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C91" s="5" t="inlineStr">
+        <is>
+          <t>Cae en Vigo un grupo criminal colombiano dedicado a asaltar a empresarios chinos por toda España</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Política social</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2025-12-29T14:12:09+01:00</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Aprovechaba su actividad comercial para entrar en sus viviendas particulares</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Aprovechaba su actividad comercial para entrar en sus viviendas particulares</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C92" s="5" t="inlineStr">
+        <is>
+          <t>2025，各国青年眼中的中国是这样的……</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2025-12-29T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>当中国变身“巨型盲盒”，各国青年纷纷赶来“开箱”！回顾2025年，他们开出了这些隐藏款盲盒！从麻辣烫到铁锅炖大鹅，逐渐养成的“中国胃”，让他们惊叹中国美食的魅力；穿汉服、练针灸、学舞狮……华裔青年直呼自己对中华文化的喜爱是“血脉觉醒”；从无处不在的移动支付到四通八达的高铁网络，他们深切感受着“中国速度”。而在此之外，一句“你吃了吗”的问候、一个“好兄弟”的握手，也成了让他们难忘的“中国温度”……2025年中国限定盲盒，一起来看各国青年开出了哪些隐藏的惊喜？ 【责任编辑：王晗】</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>当中国变身“巨型盲盒”，各国青年纷纷赶来“开箱”！回顾2025年，他们开出了这些隐藏款盲盒！从麻辣烫到铁锅炖大鹅，逐渐养成的“中国胃”，让他们惊叹中国美食的魅力；穿汉服、练针灸、学舞狮……华裔青年直呼自己对中华文化的喜爱是“血脉觉醒”；从无处不在的移动支付到四通八达的高铁网络，他们深切感受着“中国速度”。而在此之外，一句“你吃了吗”的问候、一个“好兄弟”的握手，也成了让他们难忘的“中国温度”……2025年中国限定盲盒，一起来看各国青年开出了哪些隐藏的惊喜？ 【责任编辑：王晗】</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C93" s="5" t="inlineStr">
+        <is>
+          <t>高质量发展大市场丨洋山港拓宽新航路</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2025-12-29T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>洋山港作为上海国际航运中心建设的关键支点、全球航运市场的重要坐标，已经成为航运综合物流枢纽、港航技术跃升平台和高水平对外开放窗口。 从长江到东海，港航运输能级提升，带动了产业带、港口圈、城市群发展，更形成了港航业与贸易、投资、金融、科技的交叉互动。作为链接国内、国际双循环的重要枢纽航点，上海港加速了资源要素流动、便利了跨境贸易运输，更提升了城市经济运行功能。 在遥远的大洋彼岸，秘鲁钱凯港近日迎来开港一周年，已结出累累硕果。一年来，“钱凯—上海”海运航线进出口货值已达53.5亿元，进出口货物达19.7万吨。受这条航线带动，2025年前10个月，上海对秘鲁的外贸进出口值大幅增长47.1%。 未来，洋山北侧开发将成为新的增长极。小洋北工程作为国家重点项目，对于提升长三角世界级港口群整体竞争力具有重大战略意义，该项目如今正在紧锣密鼓建设中，洋北一期预计将于2026年投产。 记者：贾远琨、狄春 新华社音视频部制作 【责任编辑：王晗】</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>洋山港作为上海国际航运中心建设的关键支点、全球航运市场的重要坐标，已经成为航运综合物流枢纽、港航技术跃升平台和高水平对外开放窗口。 从长江到东海，港航运输能级提升，带动了产业带、港口圈、城市群发展，更形成了港航业与贸易、投资、金融、科技的交叉互动。作为链接国内、国际双循环的重要枢纽航点，上海港加速了资源要素流动、便利了跨境贸易运输，更提升了城市经济运行功能。 在遥远的大洋彼岸，秘鲁钱凯港近日迎来开港一周年，已结出累累硕果。一年来，“钱凯—上海”海运航线进出口货值已达53.5亿元，进出口货物达19.7万吨。受这条航线带动，2025年前10个月，上海对秘鲁的外贸进出口值大幅增长47.1%。 未来，洋山北侧开发将成为新的增长极。小洋北工程作为国家重点项目，对于提升长三角世界级港口群整体竞争力具有重大战略意义，该项目如今正在紧锣密鼓建设中，洋北一期预计将于2026年投产。 记者：贾远琨、狄春 新华社音视频部制作 【责任编辑：王晗】</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C94" s="5" t="inlineStr">
+        <is>
+          <t>一片藤竹一个新村 西藏墨脱县巴登村“致富记”</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Territorio geografía y medio ambiente</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2025-12-29T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>一把篾刀放在脚边，多根泡软的竹篾随着手指上下翻飞，不时用嘴咬合固定……51岁的新向东坐在自家小院内，正在编织着竹筐。 新向东所在的墨脱县背崩乡巴登村，是门巴族聚居的村落。村子以竹为名，门巴语“巴登”意为“直直的藤竹”。“村里几乎人人都掌握竹编技能，藤竹赋予了我们的村名，也给了我们生活的保障。”新向东说。 巴登村村民新向东在家编织竹筐（2022年4月15日摄）。新华社记者 晋美多吉 摄 连绵险峻的山脉和汹涌奔腾的江河，让曾经的墨脱成为“高原孤岛”，巴登村亦如是。 16岁那年，新向东第一次背着自己制作的竹编制品走出大山。从村里到现在米林市的派镇，来回用了八天。“我们‘靠山吃山’，但把产品背出大山太难了。” 今年55岁的巴登村党支部书记新生，在25岁那年背着换回的药品返村时，被陡崖上的落石砸中背篓坠下山谷。他回忆说：“幸亏抓住了崖壁上的藤条才保住了命。我们把不好走的路叫做‘咋然拉’（门巴语，意为猴子路），需要手脚并用，或者拉着马尾巴才能通过。但那时的盐巴、粮食、药品、课本，都是村民们通过这样的路，一趟趟背回来的。” 图为墨脱县巴登村全景。（受访者供图） 修路，成为村民们的期盼。 2013年10月31日，林芝市波密县扎木镇至墨脱县城的扎墨公路，历经前后5次的艰苦修建后正式通车。随后，墨脱县8个乡镇下辖的所有行政村全部通车。 道路的通达让墨脱从“孤岛”变成了热门旅游目的地，巴登村的竹编制品成为旅游纪念品，在家门口就能销售出去。曾经需要从山外背回的生活必需品，如今在村里的小卖部就可以买到。 2021年，巴登村整村搬迁到基础设施完善、出行更加便利的半山腰后，来当地旅游的人更多了。新向东说，村民们有的在家里建起了民宿，有的开办了当地风味的餐厅。“大家不仅收入来源多了，生活质量也提高了。” 一名村民在编织竹筐（2023年10月11日摄）。新华社记者 孙非 摄 数据显示，2025年巴登村总收入达到800余万元，其中竹编等农特产品销售，以及餐饮、住宿相关旅游收入达到200余万元。 路的变化，也让新向东对山有了新认识：“曾经‘靠山吃山’，吃的是苦力饭。现在‘靠山吃山’，吃的是绿水青山的生态旅游饭。”（记者党黎、格桑朗杰） 【责任编辑：王晗】</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>一把篾刀放在脚边，多根泡软的竹篾随着手指上下翻飞，不时用嘴咬合固定……51岁的新向东坐在自家小院内，正在编织着竹筐。 新向东所在的墨脱县背崩乡巴登村，是门巴族聚居的村落。村子以竹为名，门巴语“巴登”意为“直直的藤竹”。“村里几乎人人都掌握竹编技能，藤竹赋予了我们的村名，也给了我们生活的保障。”新向东说。 巴登村村民新向东在家编织竹筐（2022年4月15日摄）。新华社记者 晋美多吉 摄 连绵险峻的山脉和汹涌奔腾的江河，让曾经的墨脱成为“高原孤岛”，巴登村亦如是。 16岁那年，新向东第一次背着自己制作的竹编制品走出大山。从村里到现在米林市的派镇，来回用了八天。“我们‘靠山吃山’，但把产品背出大山太难了。” 今年55岁的巴登村党支部书记新生，在25岁那年背着换回的药品返村时，被陡崖上的落石砸中背篓坠下山谷。他回忆说：“幸亏抓住了崖壁上的藤条才保住了命。我们把不好走的路叫做‘咋然拉’（门巴语，意为猴子路），需要手脚并用，或者拉着马尾巴才能通过。但那时的盐巴、粮食、药品、课本，都是村民们通过这样的路，一趟趟背回来的。” 图为墨脱县巴登村全景。（受访者供图） 修路，成为村民们的期盼。 2013年10月31日，林芝市波密县扎木镇至墨脱县城的扎墨公路，历经前后5次的艰苦修建后正式通车。随后，墨脱县8个乡镇下辖的所有行政村全部通车。 道路的通达让墨脱从“孤岛”变成了热门旅游目的地，巴登村的竹编制品成为旅游纪念品，在家门口就能销售出去。曾经需要从山外背回的生活必需品，如今在村里的小卖部就可以买到。 2021年，巴登村整村搬迁到基础设施完善、出行更加便利的半山腰后，来当地旅游的人更多了。新向东说，村民们有的在家里建起了民宿，有的开办了当地风味的餐厅。“大家不仅收入来源多了，生活质量也提高了。” 一名村民在编织竹筐（2023年10月11日摄）。新华社记者 孙非 摄 数据显示，2025年巴登村总收入达到800余万元，其中竹编等农特产品销售，以及餐饮、住宿相关旅游收入达到200余万元。 路的变化，也让新向东对山有了新认识：“曾经‘靠山吃山’，吃的是苦力饭。现在‘靠山吃山’，吃的是绿水青山的生态旅游饭。”（记者党黎、格桑朗杰） 【责任编辑：王晗】</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C95" s="5" t="inlineStr">
+        <is>
+          <t>领航2025｜文化之力</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2025-12-29T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>文运同国运相牵，文脉同国脉相连。2025年，习近平总书记的文化足迹遍布大江南北，用脚步丈量文明，用思想贯通古今。 彩云之南，雪山为屏，花木长盛。珍藏于丽江古城木府的东巴文古籍，以“活着的象形文字”铭刻岁月，是纳西族记忆与智慧的结晶。2025年3月，总书记在云南考察期间，察看木府主要建筑，并参观了纳西族东巴文化研究成果展示。 民族地区的发展，总书记始终牵挂心头。历史长河里，多元文明在中华大地遇见、对话、互鉴、融合，汇成博大精深的中华文明。知其所来、识其所在、明其将往，中华文明始终弦歌不辍、薪火相传。 精舍绕层阿，千龛邻峭壁。已有1500多年历史的龙门石窟，现存大小编号窟龛2345个、各类造像近11万尊，被誉为“中国石刻艺术的最高峰”。2025年5月，习近平总书记来到龙门石窟，沿着伊河步行，凝望镌刻在崖壁上的文明瑰宝。 向着历史深处回望，是为了贯通过去、现在、未来，坚定走自己的路。总书记一次次追溯文明源流，探寻何以中国的文化密码，“中华文明源远流长，从未中断，塑造了我们伟大的民族，这个民族还会伟大下去的”。 八百里太行，壁立千仞，挺起华北之脊，也屹立起民族精神的坐标。1940年8月，为粉碎侵华日军的“囚笼政策”，中国共产党领导的八路军在华北发动了百团大战。地处太行山的阳泉，是百团大战第一阶段主战场。2025年7月7日，正在山西考察的习近平总书记来到位于阳泉市狮脑山顶的百团大战纪念馆，回顾中国抗战史上的光辉一页。 文化繁荣兴盛是中国式现代化的重要标志。在“十四五”收官年，以习近平同志为核心的党中央作出一系列重大部署，激活中华文化“一池春水”，孕育出神州大地“郁郁乎文哉”的蓬勃气象。“十五五”规划建议提出，激发全民族文化创新创造活力，繁荣发展社会主义文化，扎实推进文化强国建设。新征程上，在守正创新中铺展的文化建设蓝图，必将展现更加璀璨的时代篇章。 统筹：韩珅、王志斌 编导：彭卓 记者：姜亮、杨金鑫、徐伟、王安浩维 摄像：张健、王文龙、戴汝杰 包装：郭雪南、黄靖聪 配音：王帅龙 新华社音视频部制作 【责任编辑：王晗】</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>文运同国运相牵，文脉同国脉相连。2025年，习近平总书记的文化足迹遍布大江南北，用脚步丈量文明，用思想贯通古今。 彩云之南，雪山为屏，花木长盛。珍藏于丽江古城木府的东巴文古籍，以“活着的象形文字”铭刻岁月，是纳西族记忆与智慧的结晶。2025年3月，总书记在云南考察期间，察看木府主要建筑，并参观了纳西族东巴文化研究成果展示。 民族地区的发展，总书记始终牵挂心头。历史长河里，多元文明在中华大地遇见、对话、互鉴、融合，汇成博大精深的中华文明。知其所来、识其所在、明其将往，中华文明始终弦歌不辍、薪火相传。 精舍绕层阿，千龛邻峭壁。已有1500多年历史的龙门石窟，现存大小编号窟龛2345个、各类造像近11万尊，被誉为“中国石刻艺术的最高峰”。2025年5月，习近平总书记来到龙门石窟，沿着伊河步行，凝望镌刻在崖壁上的文明瑰宝。 向着历史深处回望，是为了贯通过去、现在、未来，坚定走自己的路。总书记一次次追溯文明源流，探寻何以中国的文化密码，“中华文明源远流长，从未中断，塑造了我们伟大的民族，这个民族还会伟大下去的”。 八百里太行，壁立千仞，挺起华北之脊，也屹立起民族精神的坐标。1940年8月，为粉碎侵华日军的“囚笼政策”，中国共产党领导的八路军在华北发动了百团大战。地处太行山的阳泉，是百团大战第一阶段主战场。2025年7月7日，正在山西考察的习近平总书记来到位于阳泉市狮脑山顶的百团大战纪念馆，回顾中国抗战史上的光辉一页。 文化繁荣兴盛是中国式现代化的重要标志。在“十四五”收官年，以习近平同志为核心的党中央作出一系列重大部署，激活中华文化“一池春水”，孕育出神州大地“郁郁乎文哉”的蓬勃气象。“十五五”规划建议提出，激发全民族文化创新创造活力，繁荣发展社会主义文化，扎实推进文化强国建设。新征程上，在守正创新中铺展的文化建设蓝图，必将展现更加璀璨的时代篇章。 统筹：韩珅、王志斌 编导：彭卓 记者：姜亮、杨金鑫、徐伟、王安浩维 摄像：张健、王文龙、戴汝杰 包装：郭雪南、黄靖聪 配音：王帅龙 新华社音视频部制作 【责任编辑：王晗】</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C96" s="5" t="inlineStr">
+        <is>
+          <t>此行间·大道之行！回眸2025年大国外交</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2025-12-29T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>大道之行，“以人民之心为心、以天下之利为利”。2025年，习近平主席四次出访、一系列主场外交，引领新时代中国特色大国外交乘风破浪、勇毅前行。 【责任编辑：王晗】</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>大道之行，“以人民之心为心、以天下之利为利”。2025年，习近平主席四次出访、一系列主场外交，引领新时代中国特色大国外交乘风破浪、勇毅前行。 【责任编辑：王晗】</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C97" s="5" t="inlineStr">
+        <is>
+          <t>Estos son los planes del rey chino de las baterías, con una fortuna de casi 50.000 millones de euros, para conquistar el mundo</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2026-01-03T05:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Tras dominar el mercado nacional, Yuqun Robin Zeng, fundador de CATL, busca expandirse a Europa y América, enfrentándose a zancadillas regulatorias, sobre todo de EE UU</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Tras dominar el mercado nacional, Yuqun Robin Zeng, fundador de CATL, busca expandirse a Europa y América, enfrentándose a zancadillas regulatorias, sobre todo de EE UU
+Dentro de la planta de baterías más grande del mundo, delicados brazos robóticos recubren láminas de aluminio y cobre —cada una de tan solo cinco micrómetros de grosor, aproximadamente una vigésima parte del diámetro de un cabello humano— con una pasta de electrodos, un proceso que se asemeja a untar mermelada en el pan. Posteriormente, otros brazos robóticos inyectan una solución electrolítica, convirtiendo el conjunto de metal y productos químicos en unabatería de iones de litio de alta eficiencia. El proceso está en gran parte automatizado, pero hay un equipo de inspectores entrenados para detectar la más mínima imperfección. Una sola burbuja de aire o una soldadura desalineada podrían provocar un cortocircuito. Días después, son enviados a fábricas de vehículos eléctricos de todo el mundo.
+Esta instalación, que cubre más de cinco kilómetros cuadrados en Ningde, en el sureste de China, está diseñada para producir 60 gigavatios hora de baterías para vehículos eléctricos al año, suficiente para alimentar un millón de Model Y de Tesla. Es el centro de fabricación insignia de una de las empresas automotrices más importantes del mundo, Contemporary Amperex Technology (CATL). Más de uno de cada tres vehículos eléctricos fabricados este año tenían una batería CATL en su interior, según datos de la empresa surcoreana SNE Research, incluidos automóviles de BMW, Ford, Honda, Mercedes y Tesla, así como marcas chinas como Xiaomi. En mayo, la compañía recaudó 5.300 millones de dólarescon la venta de acciones en Hong Kong, y su fundador de 57 años, YuqunRobinZeng, es ahora una de las 30 personas más ricas del planeta, con una fortuna de 58.300 millones de dólares (49.829 millones de euros).
+Pero, un éxito único crea desafíos únicos. El crecimiento se está desacelerando en el mercado chino de vehículos eléctricos, el más grande del mundo, donde más del 50% de los nuevos turismos vendidos son totalmente eléctricos o híbridos enchufables. BloombergNEF pronostica que el país pronto tendrá un excedente en la fabricación de baterías.
+CATL está abriendo fábricas en Europa y el Sudeste asiático y tiene la vista puesta en Norteamérica. Sin embargo, diversas políticas gubernamentales han disuadido a la empresa de fabricar en EE UU. El presidente Donald Trump mantiene una prohibición que le impide licitar en contratos gubernamentales, al mismo tiempo que elimina medidas diseñadas para incentivar la adopción de vehículos eléctricos. Mientras tanto, incluso en Europa, más propensa a los vehículos eléctricos, los gobiernos se muestran cada vez más recelosos de depender de empresas chinas para baterías y otras tecnologías críticas.
+En una entrevista conBloomberg Businessweek,Zeng afirma que tiene la intención de seguir adelantea pesar de todo, fabricando más y mejores baterías. “Perseguir ciegamente los cambios geopolíticos paralizarían nuestras operaciones”, dice. “Por eso, tener un plan b es fundamental en nuestra estrategia”. En otras palabras, tras haber construido un motor de escala sin precedentes para electrificar el transporte global, Zeng no tiene más remedio que hacerlo funcionar cada vez más rápido y a mayor distancia.
+La historia empresarial de Zeng resulta familiar en China. Nació en 1968, en pleno apogeo de la Revolución Cultural, y alcanzó la madurez en la década de 1980, cuando la economía comenzó a abrirse a la empresa privada. Estudió ingeniería en la universidad y luego pasó unos meses en una empresa estatal en su provincia natal, Fujian. En 1989 se mudó a Guangdong, donde las reformas promercado avanzaban mucho más rápido. Zeng encontró trabajo en una planta de TDK, fabricante japonés de componentes electrónicos, y diez años después, se marchó para cofundar unastart-up, Amperex Technology, dedicada al desarrollo de baterías para dispositivos pequeños. Consiguió un contrato con Apple para suministrar baterías para el iPod y en 2005 vendió su empresa de nuevo a TDK por 100 millones de dólares.
+Años después, creó una empresa centrada en la naciente industria de los coches eléctricos. Para el nombre en inglés añadió Contemporary al de su primerastart-up. En chino, la llamó Ningde Era, en honor a su ciudad natal, donde se establecería. El primer gran avance llegó con un acuerdo de suministro con BMW. “Tuvimos mucha suerte de trabajar con BMW desde nuestros inicios”, afirma Matt Shen, director general de CATL para Europa. Después, firmó para lasjoint ventureque General Motors, Mercedes-Benz y Volkswagen tenían en China.
+La firma primero debutó en la Bolsa de Shenzhen en 2018, para luego vender también acciones en el parqué de Hong Kong en 2025. Posteriormente a su estreno bursátil,consiguió negocios con Elon Musk, que buscaba equipar modelos Teslafabricados en una nueva planta en Shanghái. En 2020, CATL comenzó a suministrar paquetes de baterías para los Model 3 fabricados en Shanghái; el acuerdo se extendió posteriormente a los Model Y e incluyó vehículos exportados desde China a otros países. En el creciente mercado nacional de vehículos eléctricos, CATL había alcanzado tal éxito que algunos fabricantes de automóviles se quejaron. “Ahora todos trabajamos para CATL”, dijo Zeng Qinghong, entonces presidente de GAC, cuando la compañía subió los precios en 2022, en medio del aumento del coste de los materiales.
+Los críticos señalan que la empresa se ha beneficiado de generosos subsidios y políticas proteccionistas que le permitieron consolidarse con poca competencia extranjera. Y sus baterías no son muy distintas a las de homólogos japoneses y coreanos. Lo que le distingue, en cambio, es la eficiencia en la línea de producción. “Lo que es diferente es lo barato que puede fabricar”, afirma GillPratt, científico jefe de Toyota. “En realidad, se trata mucho más de fabricación y producción que de un gran avance científico”.
+La capacidad industrial de CATL le ha permitido inundar el mercado chino, obligándole a buscar nuevas aplicaciones para absorber su creciente producción. Pero ni siquiera la expansión exitosa en China será suficiente para mantener a la compañía al ritmo vertiginoso que Zeng prevé. Para ello, necesitará nuevos mercados.
+La primera fábrica de CATL en el extranjero, inaugurada hace tres años, se encuentra en el corazón de Alemania, cerca de la ciudad medieval de Erfurt. Ha resultado ser un experimento costoso. El complejo fue diseñado para producir unos 14 gigavatios hora de baterías al año, suficiente para alimentar hasta 350.000 vehículos. Si bien CATL se niega a cuantificar su volumen de producción actual, la cifra es claramente mucho menor.
+Los directivos de la empresa señalan varias razones, entre ellas las barreras lingüísticas, ya que muchos de los solicitantes de empleo provenían de Europa del Este, no de Alemania, y al principio, la empresa no contaba con intérpretes. Otro problema: la brecha entre la cultura laboral china, con su énfasis en las largas jornadas, y las expectativas más laxas del personal europeo. El resultado es que los gastos en las operaciones alemanas son mucho más altos que en China y las baterías producidas allí también. Según fuentes que pidieron no ser identificadas, algunos fabricantes de coches han solicitado que CATL complete sus pedidos con una combinación de unidades importadas y de producción europea para mantener los costes estables. Como resultado, la mayoría de las baterías de CATL utilizadas en vehículos de fabricación europea todavía provienen de China.
+Para Zeng, esto plantea un dilema. Aunque el crecimiento de la adopción de vehículos eléctricos en Europa se ha desacelerado,la región ha adoptado la electrificación más rápido que la mayoría, con la Unión Europea legalmente obligada a alcanzar cero emisiones netas de gases de efecto invernadero a mediados de siglo. Los gobiernos nacionales, cada vez más reacios a lo que consideran un volumen abrumador de productos chinos baratos, han presionado a Bruselas para que reconsidere aspectos de esta estrategia, y a mediados de diciembre los responsables políticos dieron marcha atrás en los planes de prohibir de facto los nuevos coches de gasolina y diésel para 2035.
+Como resultado, CATL podría no tener otra alternativa que seguir expandiéndose en Europa y buscar maneras de contener los costes a medida que lo hace. Las baterías fabricadas en la UE podrían seguir siendo más caras, pero no correrán el riesgo de provocar una respuesta proteccionista.
+CATL pronto comenzará la producción en su segundo emplazamiento europeo. En Debrecen, Hungría, se está construyendo un proyecto de 7.000 millones de euros (8.200 millones de dólares) que abastecerá a BMW, Mercedes-Benz, Group y otros fabricantes. Ni Jun, director de fabricación de CATL, afirma que incorporará las lecciones aprendidas en Alemania.Otra planta está en construcción en Zaragoza, España.Esta es una empresa conjunta con Stellantis, lo que otorga a una importante empresa industrial europea una participación directa en el éxito de CATL
+Poco después de tocar la campana en la Bolsa de Hong Kong en mayo de 2025, y tras una breve siesta, Zeng se sienta en la sala de conferencias de un hotel y enciende un cigarrillo fino. Está visiblemente cansado, con ojeras, pero se anima al contarle a un periodista de Businessweek sus planes para la siguiente etapa de crecimiento de CATL. Con las limitaciones de su modelo de negocio actual haciéndose visibles, al menos en China, Zeng se esfuerza por enfatizar que las aplicaciones de sus productos podrían ser mucho más amplias con los incentivos regulatorios adecuados. “La revolución energética durará mucho tiempo, mucho más allá del objetivo de neutralidad de carbono”, afirma en mandarín con acento de Fujian. “El verdadero y enorme futuro está en las tecnologías de cero emisiones de carbono”.
+A corto plazo, Zeng se centra en objetivos más alcanzables, como intentar convencer a los compradores chinos reticentes ofreciendo tecnología de intercambio de baterías, mediante la cual las baterías agotadas simplemente se reemplazan en lugar de recargarse. CATL llama a su solución Choco-Swap, porque las baterías se asemejan a barras de chocolate gigantes. En lugar de pagar la batería como parte del coste inicial del vehículo, los conductores pagarán una suscripción mensual que les permitirá usar los quioscos Choco-Swap, de los cuales pronto abrirán mil en varias ciudades chinas. Hasta ahora la mayor parte del interés ha sido para taxis y vehículos de transporte. También se ha asociado con el gigante del comercio electrónico JD y con el fabricante GAC para construir un coche que se venderá por solo 49.900 yuanes (7.086 dólares), siempre que el cliente contrate un plan de baterías.
+Sin embargo, a corto plazo, el negocio principal de CATL se mantendrá sin cambios. El éxito requiere grandes inversiones iniciales en capacidad para generar economías de escala. Se supone que la recompensa llegará con el tiempo, con una disminución de los costes marginales por cada batería producida. Pero con el tiempo, la oferta crece hasta superar la demanda, lo que obliga a los fabricantes a reducir los precios y potencialmente los lleva al borde del abismo financiero. La única salida, especialmente para una empresa del tamaño de CATL, es encontrar maneras de vender más y diferentes productos de baterías en cada vez más mercados.
+La compañía cuenta con el apoyo del Gobierno chino, que considera a la exportación de baterías como clave de su estrategia económica. Zeng es miembro del Comité Nacional de la Conferencia Consultiva Política del Pueblo, un órgano cuasi parlamentario bajo la égida del Partido Comunista. Esta afiliación es un arma de doble filo, sobre todo ahora que la expansión internacional se vuelve más crucial. Algunos críticos extranjeros temen que lo que es bueno para CATL también sea bueno para China y, por lo tanto, malo para rivales estratégicos como EE UU y sus multinacionales.
+Sin embargo, CATL ha negado durante mucho tiempo que sus productos representen un riesgo para la seguridad en EE UU o en cualquier otro lugar, o que tenga alguna relación con el ejército chino. Zeng suele bromear diciendo que, si bien las baterías son difíciles de formular, son “tontas como ladrillos”, sin utilidad para el espionaje. Pero convencer a los halcones de Washington de eso podría ser imposible. Como resultado, Zeng dice que está contento de dejar la mayor economía del mundo en un segundo plano en su lista de prioridades por ahora. Dando una calada a uno de sus cigarrillos, cita una idea de El arte de la guerra, de Sun Tzu: “Sé invencible tú mismo, y luego espera a que el rival sea conquistable”.
+En las economías emergentes, que representan un porcentaje cada vez mayor de la demanda automotriz, estas preocupaciones de seguridad no son relevantes. Los gobiernos de Brasil, Indonesia, Sudáfrica y otros países están más interesados en el acceso a autos económicos que en elegir entre EE UU y China. La compañía está apostando fuerte por Indonesia, tanto por el potencial de demanda a largo plazo de vehículos eléctricos de sus casi 300 millones de habitantes, como por la riqueza mineral que yace bajo su suelo. Producir en Indonesia podría permitir a la empresa ampliar su ventaja en costes a medida que aumentan los salarios en China. Sin embargo, también podría generar pasivos, especialmente al vender en mercados con una mentalidad sostenible como Europa. Pero con el tiempo, los fabricantes de automóviles europeos e incluso estadounidenses podrían decidir que simplemente no hay forma de evitar importar baterías de CATL o asociarse de otro modo con ella, sobre todo si planean ofrecer vehículos eléctricos a un precio competitivo con los coches tradicionales.
+EE UU también podría estar encaminándose hacia un exceso de baterías de producción nacional. En agosto, General Motors sorprendió a la industria automotriz al anunciar sus planes de comprar baterías fabricadas en China a CATL para los vehículos eléctricos más económicos que vende en EE UU. GM afirmó que la finalización de un crédito fiscal federal de 7.500 dólares —que solo podía utilizarse para vehículos con baterías no chinas— hacía rentable recurrir a las importaciones, a pesar de estar sujetas a aranceles. Sus competidores afirman que podrían verse obligados a hacer lo mismo para ser competitivos. Si eso sucede, para CATL, el mercado estadounidense podría finalmente ser conquistable.
+Este texto es una versión editada del de Bloomberg.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C98" s="5" t="inlineStr">
+        <is>
+          <t>Tesla cede el trono del coche eléctrico mundial a BYD en otro año marcado por el retroceso de ventas</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2026-01-02T17:54:57+01:00</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>La empresa de Elon Musk vende un 8,5% menos y sufre por su deriva política y por la competencia y expansión de otras marcas</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>La empresa de Elon Musk vende un 8,5% menos y sufre por su deriva política y por la competencia y expansión de otras marcas
+La hasta ahora todopoderosaTesla,que desde el inicio del bum de los coches eléctricos se había erigido como el rival a batir en el sector automovilístico, ha perdido el cetro de la primera potencia mundial en vehículos eléctricos, superada por el fabricante chino BYD. La compañía del magnate Elon Musk cae del primer puesto tras los malos resultados registrados en 2025: las ventas descendieron un 8,5% en los últimos doce meses, hasta 1.636.129 unidades, mientras que la producción también retrocedió un 6,7%.
+En el cuarto trimestre de 2025, Tesla entregó 418.227 vehículos, un descenso interanual de aproximadamente el 16%, y produjo 434.358 unidades, un 5,4% menos. Los resultados quedaron por debajo de las estimaciones de los analistas, que preveían unas entregas de alrededor de 422.850 vehículos entre octubre y diciembre, según datos recopilados por Bloomberg. También supusieron el segundo año seguido con caídas en ventas.
+En contraste,BYDfue la otra cara de la moneda en el mercado del vehículo eléctrico, al incrementar sus ventas hasta el punto de comercializar en diciembre casi la misma cifra de automóviles que Tesla en todo el último trimestre de 2025. Con las ventas globales de vehículos eléctricos creciendo un 28% el año pasado, BYD superó a la compañía de Musk al vender 2,26 millones de unidades, impulsada por su rápido avance en Europa, donde el fabricante chino ha ido ampliando su ventaja sobre su rival estadounidense.
+La cifra de entregas anuales plantea dudas sobre la capacidad de Tesla para estabilizar su negocio principal tras dos años consecutivos de descensos en las ventas. A ello se suma el viraje de la compañía hacia proyectos futuristas como la robótica y los coches autónomos, con los que trata de justificar su elevada valoración bursátil, un terreno donde aún resiste como integrante de los denominados como siete magníficos del parqué, es decir, las siete empresas con mayor peso en la Bolsa.
+Las cifras del cuarto trimestre llegan después de que las entregas durante los meses de julio a septiembre se vieran respaldadas por una avalancha de compras destinadas a asegurar los créditos fiscales a los vehículos eléctricos en Estados Unidos antes de que expiraran a finales de septiembre, seguida de una desaceleración más acusada una vez retirados los incentivos de 7.500 dólares por unidad. Desde entonces, la demanda de vehículos eléctricos se ha debilitado y ha arrastrado a un nuevo descenso anual de Tesla.
+Los analistas señalan que Tesla sufrió una presión considerable en 2025 en Estados Unidos y Europa, donde la competencia se intensificó y la empresa también tuvo que afrontar un rechazo de marca vinculado a la retórica política de su consejero delegado, Elon Musk, quien se alineó junto al presidente Donald Trump en su vuelta a la Casa Blanca como asesor de recortes e incluso animó a votar a la ultraderecha en Alemania. La creciente competencia de fabricantes chinos y de grupos europeos como Volkswagen y BMW ha pesado en paralelo sobre el impulso comercial de la compañía.
+Este entorno se hadejado sentir con especial fuerza en el Viejo Continente,donde Tesla cerró un año especialmente adverso. La compañía estadounidense matriculó apenas 1.942 vehículos en Francia el mes pasado, un 66% menos que un año antes, según la asociación automovilística del país. Las ventas también se desplomaron un 71% en Suecia y un 4% en España.
+Noruega fue la excepción a esta tendencia, con 5.679 vehículos registrados en diciembre, casi un 90% más que un año antes. La popularidad de Tesla se ha mantenido en ese mercado, donde el 96% de los coches nuevos vendidos el año pasado fueron totalmente eléctricos.
+En octubre, Tesla lanzó versiones básicasStandarddel Model Y y el Model 3, con precios unos 5.000 dólares inferiores a los modelos base anteriores, en un intento de defender los volúmenes de ventas tras la pérdida de los incentivos fiscales y atraer a clientes europeos en busca de opciones más asequibles.
+La medida decepcionó a algunos inversores, que esperaban una rebaja de precios mayor o un nuevo producto de masas realmente significativo. A pesar del debilitamiento de las entregas, las acciones de Tesla subieron alrededor de un 11,4% en 2025, lo que impulsó la fortuna de Musk, que ha recuperado en las últimas semanas la vitola de hombre más rico del mundo e incluso aspira a serel primer billonario de la historia, si bien más a otros de sus negocios como el de SpaceX.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C99" s="5" t="inlineStr">
+        <is>
+          <t>México concreta su viraje comercial con la entrada en vigor de aranceles a China y a países sin tratados</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2026-01-01T05:40:00+01:00</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>A partir de este jueves inician las alzas tarifarias de hasta un 50% sobre 1.463 fracciones arancelarias</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>A partir de este jueves inician las alzas tarifarias de hasta un 50% sobre 1.463 fracciones arancelarias
+El 2026 arranca en México con una nueva visión comercial. A partir de la primera hora de este año entró en vigor el alza tarifaria a 1.463 fracciones arancelarias de países con los que el país latinoamericano no tiene tratado comercial, entre ellos,China, Rusia, Corea del Sur, India, Vietnam, Tailandia y Brasil. Aunque el ajuste de aranceles avalado por el Poder Legislativo fue menor al propuesto originalmente por el Ejecutivo, afectará a más de un millar de mercancías. Las tasas a pagar a partir de este jueves van desde un 5% a un 50%. Entre los productos gravados se encuentran automóviles eléctricos, autopartes, maquillajes, plásticos, aceros, cartón, acetatos, tejidos, calzado, juguetes, muebles, electrodomésticos, vidrio, jabones y otras mercancías. De acuerdo con el Gobierno federal, el incremento de tarifas supondrá una recaudación de 30.000 millones de pesos al año, mientras que el impacto inflacionario será de 0,2% de acuerdo a las estimaciones de Hacienda. A través del Diario Oficial, la Administración de Claudia Sheinbaum aseguró el miércoles que todos los productos de la canasta básica que provengan de esto países estarán exentos de aranceles a lo largo de todo 2026.
+La concreción de esta medida, tras un intenso debate en el Poder Legislativo, supone para los expertos un punto de inflexión en el papel que jugará México en el comercio internacional. En el decreto oficial se indica que la Secretaría de Economía podrá implementar mecanismos para garantizar el abasto de insumos en condiciones competitivas. Sin embargo, el alza a más de un millar de importaciones supondrá un reto tanto para los importadores mexicanos como para las relaciones comerciales con los países involucrados, en específico con China, el segundo socio comercial de México, detrás de Estados Unidos.
+México compra anualmente a China más de 129.000 millones de dólares y exporta al gigante asiático unos 9.000 millones de dólares, provocando un déficit para el país latinoamericano de más de 120.000 millones de dólares. Este desbalance, que crece año con año, se explica en parte por el alto nivel de producción y precios bajos y la escasa oferta local o regional. Este desequilibrio entre México y China adquiere un matiz especial en medio de la guerra comercial que sostiene Estados Unidos con el gigante asiático. Con las políticas proteccionistas del presidente Donald Trump de fondo, el alza tarifaria de México supone un gesto a favor de la visión arancelaria de su vecino del norte y un intento de una mayor integración de Norteamérica, a meses de que comiencela revisión del TMEC,en julio próximo.
+El Gobierno mexicano ha repetido en numerosas ocasiones que el alza tarifaria no es una medida en contra de ningún país y solo pretende beneficiar a las empresas mexicanas y proteger 350.000 empleos locales. La Secretaría de Economíaesgrimió que esta medida se alinea con el Plan México—la estrategia de inversión sexenal— y contribuirá a la reindustrialización en sectores estratégicos de la economía mexicana, corrigiendo distorsiones comerciales y la alta dependencia de importaciones. El plan de sustitución de importaciones de Sheinbaum apunta a que las empresas mexicanas puedan cubrir el 50% de la proveeduría y del consumo nacional.
+Pese a la férrea defensa desde Palacio Nacional, el muro arancelario mexicano ha encendido las alertas dentro y fuera de las fronteras. Chinafue uno de los primeros en criticar la mediday pidió corregirla al Gobierno mexicano, al tiempo que inició una propia investigación para evaluar posibles retaliaciones. Corea del Sur y las empresas exportadoras de India expresaron hace un par de semanas su preocupación ante la decisión de México. Puertas adentro, las reacciones del empresariado mexicano van desde el rechazo y la preocupación por el impacto en costos y proveeduría al respaldo a la nueva estrategia de sustitución de importaciones de Sheinbaum, con enfoque en la producción local.
+Ignacio Martínez Cortés, coordinador del Laboratorio de Análisis en Comercio, Economía y Negocios de la UNAM, indica que el cambio en la política arancelaria de México supone un punto de inflexión en línea con los cambios geopolíticos que Trump ha llevado a cabo en su primer año en la Casa Blanca. “Desde el 25 de septiembre de 1986, cuando México ingresa al GATT (Acuerdo General sobre Aranceles Aduaneros y Comercio) hasta el 31 de diciembre de 2025, nuestro país tuvo una etapa de 40 años de apertura comercial unilateral que lo convirtió en una potencia exportadora y en un atractivo para la inversión, principalmente la manufacturera, sin embargo, este periodo termina este 1 de enero cuando entre en vigor la modificación a la Ley de los Impuestos Generales de Importación y Exportación”, indica.
+El experto asegura que aunque en el discurso el Gobierno de México precisa que esta medida es para proteger la industria nacional, el alza tarifaria aterriza en el país sin una política nacional de exportación y de seguridad comercial estratégica. “Es relevante rediseñar la estrategia acorde con el interés nacional, ya que en asuntos de gran trascendencia como es el narcotráfico, comercio, seguridad, migración, cambio climático y ciberseguridad, México ha reaccionado a la agenda de la Oficina Oval sin tener un hilo conductor en torno a un proyecto de nación de largo plazo”, comenta.
+Más allá de los discursos y la retórica, a partir de este 1 de enero se verá sobre el terreno cuáles empresas resultarán beneficiadas y cuáles tendrán que sortear el alza de costos o el cambio de proveedores derivado de esta nueva política comercial. En juego está la recomposición de las cadenas de producción en México y la supervivencia del TMEC, un acuerdo comercial con Estados Unidos y Canadá que ampara más del 80% de las exportaciones mexicanas y supone ingresos anuales para el país latinoamericano por más de 500.000 millones de dólares.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C100" s="5" t="inlineStr">
+        <is>
+          <t>El año del mundo sin rumbo</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2026-01-03T00:05:03+01:00</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Lo que deja el año 2025 es un mercado de poder; el mundo percibe que Xi Jinping ha sido el principal beneficiario Leer</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Describir el año transcurrido como transición resulta tan tentador como engañoso. Las transiciones presuponen dirección y 2025 se ha caracterizado por la permanente disrupción sin brújula: el desmantelamiento acelerado de las -durante décadas- bases estructuradoras de la política internacional, sin que aparezca una opción sustitutiva para la interacción entre estados y regiones.
+Donald Trump ha sido el catalizador visible de esa fractura. 2025 pasará a la historia por su regreso a la Casa Blanca; por la magnitud y la naturaleza del vuelco desencadenado. La verdadera novedad ha sido, sin embargo, la respuesta de distintos actores: los que agacharon la cabeza; los que se acomodaron y, con mayor o menor éxito, le buscaron las vueltas; y los que sacaron partido al vacío creado. La conclusión de cara a 2026 es un mundo crecientemente confuso, regido por percepciones de poder y no por reglas compartidas.
+El giro decisivo es, sin duda, el abandono explícito por parte de Estados Unidos de cualquier pretensión de tutela global. El lenguaje de liderazgo, valores y mantenimiento del montaje -ya erosionado- ha sido reemplazado por una afirmación directa del provecho inmediato, utilizando el poder como instrumento de presión y elevando la negociación a panacea. Los aranceles han dejado de ser herramientas técnicas de corrección económica para alzarse en mensaje político de primera magnitud. Las alianzas ya no se conciben como comunidades de destino, sino como relaciones susceptibles de trágala permanente desde una extraña lógica revanchista.
+Washington se desliga así del sistema liberal basado en reglas, del que fue impulsor y garante, sin ofrecer una alternativa de organización internacional. Lo que promueve no es un marco distinto, sino un método -transaccional, bilateral y guiado sin sutileza por el interés inminente-. Estados Unidos se aparta de las convenciones diplomáticas heredadas, sin preocuparse por arbitrar un nuevo referente. Ese repliegue ha generado un vacío que otros se han apresurado a llenar.
+El mundo percibe que China ha sido la principal beneficiaria de esta situación. En septiembre de 2025, en Tianjin, Xi Jinping presentó la denominada Iniciativa de Gobernanza Global, culminando una secuencia integrada por las iniciativas de Desarrollo Global (2021), Seguridad Global (2022) y Civilización Global (2023). En conjunto, articulan un planteamiento oficial cuyo objetivo declarado es estabilizar, reformar y perfeccionar el andamiaje multilateral sin cisma, a diferencia del afán explícitamente destructivo que encarna Vladimir Putin.
+No se trata de un proyecto liberalizador, ni lo pretende. Pero sí está cuidadosamente formulado para no ser percibido como reto al orden vigente, sino como su evolución natural. China no se enuncia como potencia rupturista, sino como factor de continuidad, previsibilidad y coexistencia gestionada, respetuoso de la soberanía y ajeno a jerarquías ideológicas. Frente a la postura estadounidense conducida por el interés romo y cortoplacista, Pekín se erige en garante de la estabilidad general. La propuesta apela menos a la diplomacia que a la psicología colectiva: ante la inquietud por un mundo en descomposición, promete una transformación sin sobresaltos.
+En geopolítica, la percepción importa. A finales de 2025, China se distinguía por haber transitado el año con el mayor aplomo. El encuentro entre Trump y Xi en Busan en octubre reforzó esa impresión. Más allá de su contenido concreto, la escenificación transmitió la imagen de un EEUU ansioso por cerrar acuerdos y una China lo bastante confiada para esperar, conceder selectivamente y autodefinirse como líder -con matices propios- «responsable» en materia de gobernanza global.
+Europa, por su parte, afronta 2026 sumida en la desorientación. Lo que tradicionalmente se manifestó como tensión de cariz técnico -reparto de competencias, procedimientos, equilibrios varios- ha adquirido carácter existencial. La Unión Europea sigue pensando el mundo desde el derecho, las normas y la cooperación institucionalizada, mientras su realidad circundante se reconfigura en torno al poder, la coerción y las esferas de influencia. La tensión ya no afecta a cómo actúa Europa, sino propiamente a su ser.
+En Ucrania esta disonancia se amplifica al límite. La guerra ha desvelado no solo carencias militares e industriales, también una persistente vacilación. Los compromisos han sido sustanciales -sí-; nunca decisivos; la unidad se ha preservado, a menudo a costa de la claridad. Con la prolongación del conflicto, la pregunta pendiente ya no es cuánto tiempo puede la UE sostener el apoyo, sino qué tipo de orden europeo está dispuesta a defender -y a qué precio-. La respuesta condicionará su envergadura internacional.
+La inmigración constituye un desafío distinto pero no menos corrosivo. Se ha aupado a máximo factor perturbador de la política interna europea, al cruzarse con la legitimidad democrática, la cohesión social, la gestión de fronteras y la confianza entre Estados miembro. La ausencia de una réplica común creíble ha alimentado dinámicas centrífugas, justo cuando la solidaridad es muestra más necesaria.
+África sigue ocupando un lugar secundario en las prioridades europeas, aunque paradójicamente sea uno de los espacios más trascendentes de futuro. No es solo origen de caos migratorio, sino el principal terreno donde confluyen ambiciones contrapuestas: las andaduras china, rusa, del Golfo, turca y occidentales varias, se superponen sin coordinación y, en general, sin protagonismo africano. Para Europa, esa doble circunstancia -vecindad próxima y tablero geopolítico- acentúa tanto la exposición como el embrollo estratégico.
+Otros actores relevantes se mueven con pragmatismo en este contexto. Brasil ha resistido los intentos de alineamiento, reivindicando su autonomía estratégica mientras explota el margen que brinda la rivalidad entre grandes potencias. India mantiene su complejo entramado: profundizando vínculos con Estados Unidos y conservando relaciones funcionales con China y Rusia. Ni Delhi ni Brasilia aspiran a rediseñar el sistema; se han convertido en referente de quienes buscan operar dentro de su fragmentación.
+Lo que deja 2025, en suma, no es un nuevo orden emergente, sino un mercado de poder. Las normas se invocan de forma selectiva, las instituciones se instrumentalizan a conveniencia, y la cooperación se subordina al retorno inmediato. La creencia de que la interdependencia disciplinaría los comportamientos se ha erosionado, mientras avanza la sustitución de las reglas por un ejercicio del poder sin cortapisas.
+El peligro, según transcurra 2026, no es la inestabilidad en abstracto, sino el error de cálculo: confundir el éxito narrativo con la solución de fondo, las ventajas tácticas con el equilibrio duradero, o pensar que el orden desmantelado puede reconstruirse a voluntad. La historia invita a la prudencia.
+El nuevo año proyectará, así, menos disputas por fijar agenda que una pugna por establecer límites al desparrame global. En un mundo progresivamente alejado de supuestos compartidos, la contención, la claridad y la paciencia estratégica pueden resultar más decisivas que el ruido y el despliegue comunicativo. La cuestión es quién está dispuesto a ejercerlas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C101" s="5" t="inlineStr">
+        <is>
+          <t>China impondrá cuotas y aranceles adicionales del 55% al vacuno importado desde 2026</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2025-12-31T09:32:31+01:00</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Las medidas estarán en vigor durante tres años, hasta el 31 de diciembre de 2028, y se aplicarán mediante cuotas anuales por país, que se irán ampliando de forma gradual Leer</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Chinaimpondrá a partir del 1 de enero de 2026 medidas de salvaguardia sobre la carne de vacuno importada, que incluirán cuotas específicas por país y un arancel adicional del 55% para las importaciones que superen esos límites, tras concluir una investigación que determinó un"daño grave" a la industria ganadera nacional, informó este miércoles el Ministerio de Comercio.
+Según el comunicado hecho público por la cartera comercial, las importaciones de carne de vacuno aumentaron de forma significativa en los últimos años y existe una relación causal entre ese incremento y las dificultades que atraviesa el sector doméstico, lo que justifica la adopción demedidas de protección temporalconforme a la normativa china y a las reglas de la Organización Mundial del Comercio (OMC).
+Las medidas estarán en vigor durante tres años,hasta el 31 de diciembre de 2028, y se aplicarán mediante cuotas anuales por país, que se irán ampliando de forma gradual, señalo el organismo.
+Una vez agotado el volumen asignado, las importaciones quedarán sujetas a un arancel adicional del 55%, que se sumará a los derechos ya vigentes.
+El Ministerio precisó que las importaciones dentro de los cupos mantendrán los aranceles actuales y quelas cuotas no utilizadas no podrán trasladarse al año siguiente.
+Además, durante el periodo de aplicación quedarán suspendidos los mecanismos de salvaguardia específicos previstos en el acuerdo de libre comercio entre China yAustralia.
+Quedarán excluidos de estas medidas los países en desarrollo cuya cuota individual no supere el 3% del total de importaciones y cuyo peso agregado se mantenga por debajo del 9%, aunque esa exención podrá revisarse si se superan dichos umbrales.
+El Ministerio subrayó que el objetivo de las salvaguardias es"ayudar temporalmente a la industria nacional a superar sus dificultades"y no restringir el comercio normal, y aseguró que China seguirá manteniendo su mercado abierto y la cooperación con sus socios comerciales.
+La decisión pone fin a una investigación iniciada el 27 de diciembre de 2024, a petición de asociaciones ganaderas chinas, para evaluar el impacto del fuerte aumento de las importaciones de carne de vacuno sobre la industria local.
+Según los datos oficiales difundidos al abrir el expediente, las compras exteriores crecieron casi un 65% entre 2019 y 2023 y más de un 100% en la primera mitad de 2024 en comparación con 2019, elevando la cuota de mercado de la carne importada por encima del 30%.
+Durante el proceso elMinisterio de Comerciorecopiló información mediante cuestionarios, audiencias públicas y verificaciones sobre el terreno, con la participación de gobiernos y empresas exportadoras de países comoBrasil, Argentina, Uruguay, Australia, Nueva Zelanda y Estados Unidos, principales proveedores del mercado chino.
+En marzo de 2025 más de 180 representantes de 75 partes interesadas tomaron parte en una audiencia pública convocada por las autoridades.
+El anuncio se produce en un contexto de crecientes tensiones comerciales internacionales, en el quePekínha activado o ampliado investigaciones similares sobre productos como el cerdo, determinados lácteos o el brandy procedente de la Unión Europea, en paralelo a las fricciones con Bruselas por los aranceles europeos a los vehículos eléctricos chinos.
+No obstante, el Ministerio de Comercio subrayó que las medidas sobre la carne de vacuno no están dirigidas contra países concretos, sino que buscan proporcionar un alivio temporal al sector doméstico para facilitar su ajuste.
+China es el mayor importador mundial de carne de vacuno y adquirió un récord de2,87 millones de toneladas en 2024, según datos de aduanas.
+En la primera mitad de 2025 las importaciones cayeron un 9,5 % interanual, en un momento en el que el sector ganadero local denuncia presiones prolongadas sobre la rentabilidad y una reducción de la capacidad reproductiva.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C102" s="5" t="inlineStr">
+        <is>
+          <t>Hungría pierde  17.000 millones de fondos europeos que Orbán sustituye por negocios con Rusia, China y EE.UU.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2026-01-02T12:43:10+01:00</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Tras negarse a cumplir los requisitos exigidos por la Comisión Europea antes de final de 2025, Hungría ha perdido su derecho a miles de millones de euros en ayudas de la UE. Los fondos, originalmente adjudicados para 2023, habían sido congelados porque Bruselas concluyó que Hungría estaba ignorando varios estándares y valores fundamentales de la UE, como déficits en la adjudicación de contratos públicos y en la lucha contra la corrupción, conflictos de interés y acciones dudosas de la Fiscalía. Según las normas del mecanismo de Estado de derecho de la UE, en vigor desde 2021, los fondos congelados expiran al final del segundo año natural posterior al año para el que estaban previstos, salvo que el Consejo de Ministros... Ver Más</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Rosalía Sánchez
+Corresponsal en Berlín
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+Tras negarse a cumplir los requisitos exigidos porla Comisión Europeaantes de final de 2025,Hungría ha perdido su derecho a miles de millonesde euros en ayudas de la UE. Los fondos, originalmente adjudicados para 2023, habían sido congelados porque Bruselas...concluyó que Hungría estabaignorando varios estándaresy valores fundamentales de la UE, como déficits en la adjudicación de contratos públicos y en la lucha contra la corrupción, conflictos de interés y acciones dudosas de la Fiscalía.
+Según las normas del mecanismo de Estado de derecho de la UE, en vigor desde 2021, los fondos congelados expiran al final del segundo año natural posterior al año para el que estaban previstos, salvo que el Consejo de Ministros de la UE levante el bloqueo. A finales de 2022, a través del mecanismo del presupuesto común plurianual de la UE de 2021 a 2027, fueron congelados6.300 millones de euros. Un primer tramo expiró a finales de 2024, porque Budapest no implementó los requisitos de reforma necesarios, y la cifra total suma aproximadamente17.000 millones de euros.
+De puertas adentro, el primer ministro húngaro,Viktor Orbán, sostiene que la Comisión Europea actúa por motivos ideológicos y políticos, no técnicos y se presenta como el defensor del país frente a una UE que «retiene» fondos que «pertenecen» a los húngaros. Aunque la Comisión Europea ha documentado deficiencias en independencia judicial, corrupción y transparencia, Orbán insiste en que Hungría sí cumple y que Bruselas aplica criterios «políticos» o «dobles raseros». Convierte además la pérdida de fondos en un arma negociadora, usandosu poder de veto presupuestario, y presenta acuerdos económicos con Estados Unidos y con Rusia cuyos beneficios superan la cantidad perdida en Bruselas.
+Gracias a su relación estratégica conTrump y Putin, por ejemplo, Orbán ha logrado que la refinería estatal serbia NIS, situada en Pancevo, pase a manos de MOL, la mayor compañía de petróleo y gas de Hungría y una de las empresas energéticas más importantes de Europa Central. MOL opera en exploración, producción, refinado, distribución, petroquímica y movilidad, con presencia en más de 30 países y con operaciones clave en Hungría, Croacia, Eslovaquia y otros países de la región.
+NIS, con una facturación de 3.500 millones de euros anuales, tiene una participación rusa significativa: el gigante gasístico ruso Gazprom posee directamente el 11,3%; Gazprom Neft, que también figura en la lista de sanciones, posee el 44,9%; mientras que el Estado serbio posee el 29,9%. Al entrar en su accionariado, Hungría se garantiza el suministro energético desde Rusia y un negocio poco despreciable, para una economía que en 2024 fue de alrededor de205.000 millones de euros.
+DeDonald Trump, Orbán ha obtenido por otra parte una exención a las sanciones petroleras, que permite a Hungría continuar importando petróleo ruso barato. Se trata de una victoria política interna para Orbán y de unaburla a las sanciones europeasque proporcionará a la economía húngara, según Orbán, una «era dorada». Hungría sigue siendo así dependiente de los suministros energéticos rusos: un 65% del crudo que consume y el 85% del gas que necesita continúan llegando de Rusia.
+La contrapartida a estas concesiones es decarácter geoestratégico. En su último viaje a Moscú para entrevistarse con Putin y negociar el suministro de hidrocarburos baratos y la compra de acciones en las petroleras rusas sancionadas por EE.UU., Orbán comprometió el apoyo de Budapest contra Ucrania. «Conocemos su postura equilibrada sobre el problema ucraniano», dijo Putin al comienzo de la reunión en el Palacio del Kremlin. En la medida en la que los intereses de Trump y Putin se distancian, sin embargo, esta posición resulta más difícil de mantener.
+«Y ahora, en el 2026, en las elecciones parlamentarias húngaras, también debemos decidir si Hungría continuará con su política de no participar o se unirá a Bruselas. Esta es una pregunta crucial que debemos responder. 2026 será el año de la decisión de guerra, sí o no, nos dejarán fuera o no», ha advertido Orbán en uno de sus últimos vídeos del año.
+Otra de las patas en las que se apoya es china. Cuando la UE congeló el paquete de1.040 millones de eurospor incumplimientos del Estado de derecho, Hungría recurrió a crédito chino para reemplazar ese dinero, aunque no fue destinado a programas con objetivos en regiones pobres, como habrían sido utilizados los fondos europeos. Europa, en todo caso, no parece estar en sus planes.
+«La estrategia a largo plazo del Gobierno de Orbán incluye la salida de Hungría de la Unión Europea», ha insistido el ex primer ministroGordon Bajnaien una entrevista con HVG. Aunque reconoce que el partido gobernante actualmente no tiene ni el apoyo social ni el escenario económico para ello, asegura que la dirección política apunta claramente a ese objetivo. Según Bajnai, Orbán primero aprovechará «un momento oportuno» y, mientras tanto, «intentará debilitar el marco institucional europeo».</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C103" s="5" t="inlineStr">
+        <is>
+          <t>Esther Ferrer: acción y pensamiento</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2025-12-30T11:25:43+01:00</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>El premio Tomás Francisco Prieto es una distinción creada en 1990 que promociona la medalla como formato artístico contemporáneo y que ha sido concedida a importantes figuras, entre otras, Tàpies, Chillida, Susana Solano o Liliana Porter. Comporta asimismo el diseño de una medalla que, una vez acuñada, pasará a formar parte de la colección del Museo de la Real Casa de la Moneda. En su edición de 2024 este premio recayó en Esther Ferrer (San Sebastián, 1937). La Fábrica Nacional de Moneda y Timbre-Real Casa de la Moneda (FNMTRCM) acoge ahora 'Pliegue y proceso', una exposición dedicada a su figura.Noticias relacionadas estandar Si CRÍTICA DE: 'El pico al aire': Un claro en la mirada de Javier Garcerá Carlos Delgado Mayordomo estandar Si ARTE Antoni Muntadas: «En China, Japón y Corea, los unos son inmunes a los otros» Javier Díaz-GuardiolaLa muestra ha sido concebida, no desde un punto de vista meramente cronológico, sino más bien como una amplia y abierta panorámica de su universo creativo, tendiendo nexos y pliegues entre sus diferentes obras, formatos, medios expresivos y momentos de creación. Esther Ferrer es sin duda una de las artistas más importantes e influyentes del arte contemporáneo español y también europeo. Poseedora de una brillante trayectoria, construida sobre la base de un acertado empleo de la experimentación, el arte performativo y un profundo desprecio de todo lo que pudiera ser mero convencionalismo, se ha erigido por sus méritos en una voz propia, personal e inteligente.Corriente de aire frescoLos primeros hitos destacados de su carrera corresponden a su pertenencia al grupo ZAJ , al que aportó una visión feminista y personal, y que junto a Juan Hidalgo, Ramón Barce y Walter Marchetti en los 60 dieron vida a un importante colectivo de vanguardia, relacionado con el movimiento Fluxus que, entre otras cosas, supuso una saludable corriente de aire fresco, irónico y experimental, dentro del mayoritariamente anquilosado panorama del arte nacional de ese momento. Las señas de identidad creativa más referenciales y personales de Ferrer han sido y son su continua dedicación al arte de acción, y dentro de este, el especial concurso de las 'performances', el empleo del cuerpo como un vehículo expresivo que superaba los meros límites de la representación para convertirse en protagonista esencial, la activa presencia e interacción del público, y una serie de constantes como la investigación y reflexión sobre el paso del tiempo, los procesos lógicos o matemáticos, la idea de azar, la repetición y –muy vinculada a ésta– la serialidad.Guardar las formas. En las imágenes, de arriba abajo, 'Pi' (2009-2010). Detalle de la instalación homónima; maqueta de 'Recorrer un cuadro de todas las formas posibles' (1984); y maqueta de 'Instalación con sillas' (1973) Esther FerrerPara llevar a buen fin sus proyectos ha empleado una amplia y diversa batería de recursos como las instalaciones, la foto, la pintura, la escultura, el arte sonoro, las 'performances', el 'collage' y los objetos. A lo largo de su carrera ha recibido numerosos premios como el Nacional de Artes Plásticas (2008) o el Velázquez (2024), y asimismo representó a España en la Bienal de Venecia de 1999.Esta propuesta expositiva supone una buena oportunidad de contemplar algunos de sus principales proyectos a lo largo del tiempo, en un interesante diálogo entre piezas históricas, como 'Poema de los números primos', 'Pi', 'Autorretrato en el tiempo' y 'Proyectos espaciales', junto a creaciones más recientes, mostrando siempre una notable coherencia y una marcada evolución de su ideología y de su sintaxis que continúan bien vigentes en la actualidad.arte_abc_0724Una importante característica a señalar es el destacado papel que juega el propio proceso creativo, con la presencia de propuestas que no llegaron a ver la luz o que quedaron inacabadas, lo que viene a subrayar el valor de los procedimientos más allá del objeto artístico ya terminado. Esther Ferrer: 'Pliegue y proceso' Museo Real Casa de la Moneda. Madrid. C/ Doctor Esquerdo, 36. Comisaria: Beatriz Martínez. Hasta el 12 de abril. Cuatro estrellas.Así, en la exposición pueden verse piezas espaciales, 'performances' documentadas, vídeos, instalaciones, maquetas, bocetos, partituras, trabajos inéditos y diverso material documental, que ponen en cuestión las fronteras entre el arte y la vida, lo público y lo privado, lo efímero y lo permanente, y dibujan un amplio fresco de obras en las que e l azar, las estrategias corporales, los procesos de acción, la experimentación, el espacio y el tiempo, van marcando el itinerario.</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>CRÍTICA
+MADRID
+Francisco Carpio
+Madrid
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+Elpremio Tomás Francisco Prietoes una distinción creada en 1990 que promociona la medalla como formato artístico contemporáneo y que ha sido concedida a importantes figuras, entre otras, Tàpies, Chillida, Susana Solano oLiliana Porter.Comporta asimismo el diseño de una medalla...que, una vez acuñada, pasará a formar parte de la colección delMuseo de la Real Casa de la Moneda.
+En su edición de 2024 este premio recayó enEsther Ferrer(San Sebastián, 1937). La Fábrica Nacional de Moneda y Timbre-Real Casa de la Moneda (FNMTRCM) acoge ahora 'Pliegue y proceso', una exposición dedicada a su figura.
+La muestra ha sido concebida, no desde un punto de vista meramente cronológico, sino más bien como una amplia y abierta panorámica de su universo creativo, tendiendo nexos y pliegues entre sus diferentes obras, formatos, medios expresivos y momentos de creación. Esther Ferrer es sin dudauna de las artistas más importantes e influyentes del arte contemporáneoespañol y también europeo.
+Poseedora de una brillante trayectoria, construida sobre la base de un acertado empleo de la experimentación, el arte performativo y un profundo desprecio de todo lo que pudiera ser mero convencionalismo, se ha erigido por sus méritos en una voz propia, personal e inteligente.
+Los primeros hitos destacados de su carrera corresponden a su pertenencia algrupo ZAJ, al que aportó una visión feminista y personal, y que junto aJuan Hidalgo,Ramón Barce y Walter Marchetti en los 60 dieron vida a un importante colectivo de vanguardia, relacionado con el movimiento Fluxus que, entre otras cosas, supuso una saludable corriente de aire fresco, irónico y experimental, dentro del mayoritariamente anquilosado panorama del arte nacional de ese momento.
+Las señas de identidad creativa más referenciales y personales de Ferrer han sido y son su continua dedicación al arte de acción, y dentro de este, el especial concurso de las 'performances', el empleo del cuerpo como un vehículo expresivo que superaba los meros límites de la representación paraconvertirse en protagonista esencial,la activa presencia e interacción del público, y una serie de constantes como la investigación y reflexión sobre el paso del tiempo, los procesos lógicos o matemáticos, la idea de azar, la repetición y –muy vinculada a ésta– la serialidad.
+Para llevar a buen fin sus proyectos ha empleado una amplia y diversa batería de recursos como las instalaciones, la foto, la pintura, la escultura, el arte sonoro, las 'performances', el 'collage' y los objetos. A lo largo de su carrera ha recibido numerosos premios como elNacional de Artes Plásticas(2008) oel Velázquez(2024), y asimismorepresentó a España en la Bienal de Venecia de 1999.
+Esta propuesta expositiva supone una buena oportunidad de contemplar algunos de sus principales proyectos a lo largo del tiempo, en un interesante diálogo entre piezas históricas, como 'Poema de los números primos', 'Pi', 'Autorretrato en el tiempo' y 'Proyectos espaciales', junto a creaciones más recientes, mostrando siempre unanotable coherencia y una marcada evolución de su ideologíay de su sintaxis que continúan bien vigentes en la actualidad.
+Una importante característica a señalar es el destacado papel que juega el propio proceso creativo, con la presencia de propuestas que no llegaron a ver la luz o que quedaron inacabadas, lo que viene a subrayar el valor de los procedimientos más allá del objeto artístico ya terminado.
+Museo Real Casa de la Moneda. Madrid. C/ Doctor Esquerdo, 36. Comisaria: Beatriz Martínez. Hasta el 12 de abril. Cuatro estrellas.
+Así, en la exposición pueden verse piezas espaciales, 'performances' documentadas, vídeos, instalaciones, maquetas, bocetos, partituras, trabajos inéditos y diverso material documental, que ponen en cuestión las fronteras entre el arte y la vida, lo público y lo privado, lo efímero y lo permanente, y dibujan un amplio fresco de obras en las que el azar, las estrategias corporales, los procesos de acción,la experimentación, el espacio y el tiempo, van marcando el itinerario.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C104" s="5" t="inlineStr">
+        <is>
+          <t>La hija y posible heredera de Kim Jong Un realiza su primera visita pública al mausoleo estatal</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2026-01-02T11:58:57+01:00</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Kim Ju Ae, que viajó a Pekín junto a su padre en septiembre, refuerza su estatus como próxima sucesora de la dinastía</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Agencias
+Seúl
+La hija adolescente del líder supremo norcoreano, Kim Jong Un, visitó por primera vez el viernes el Palacio del Sol de Kumsusan, en Pionyang, coincidiendo con la celebración del Año Nuevo.
+La visita a este edificio —que funciona como mausoleo de la dinastía Kim y alberga los restos de Kim Il Sung y Kim Jong Il, los predecesores del actual líder— es interpretada como un paso más en la proyección pública de Ju Ae, quien continúa reforzando su estatus como posible heredera de su padre.
+La aparición pública de la hija del dirigente norcoreano en el mausoleo ha dado lugar a la especulación, y se rumorea que la joven —de unos 13 años de edad— podría ser incluso nombrada para un alto cargo en el próximo congreso del Partido de los Trabajadores.
+Kim Jong Un, de 41 años, es la tercera generación de la familia en gobernar Corea del Norte desde la fundación del país en 1948. La visita al mausoleo familiar es un acto habitual para conmemorar aniversarios clave del Estado, como forma de rendir homenaje a su padre y su abuelo, predecesores en el cargo de jefe de Estado.
+El líder norcoreano Kim Jong Un y su hija Kim Ju Ae asisten a un acto de celebración del Año Nuevo en Pionyang, Corea del Norte
+Esta no es la primera aparición pública de Ju Ae, quien acompañó a su padre en septiembre pasado durante una visita oficial a Pekín. En total, la posible heredera de Kim Jong Un ha sido vista en más de 40 ocasiones en menos de tres años, participando en todo tipo de actos oficiales.
+Su presencia reiterada refuerza la idea de que Ju Ae ocupa el primer lugar en la línea de sucesión familiar, por delante de figuras como Yo Jong, la hermana del líder supremo, y de otros posibles hijos de Kim Jong Un. Además, podría formar parte de una estrategia para consolidar el respaldo público al dominio de la familia en Corea del Norte.
+No obstante, algunos expertos discrepan de esta evaluación, citando la relativa juventud de Kim Jong Un y el carácter predominantemente masculino de la jerarquía de poder norcoreana. Aun así, el caso de su hija resulta excepcional, dado que los anteriores líderes norcoreanos no habían sido mencionados en los medios estatales antes de alcanzar la edad adulta, mientras que Ju Ae recibe el apodo dequerida hijapor la propaganda oficial.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C105" s="5" t="inlineStr">
+        <is>
+          <t>BYD desbanca a Tesla como el mayor fabricante de coches eléctricos del mundo</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2026-01-02T16:44:13+01:00</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>La compañía de Elon Musk sufre su segunda caída anual consecutiva de ventas pese a la expansión del mercado</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>La Vanguardia
+Madrid
+Tesla ha perdido su corona como primer fabricante del mundo de coches eléctricos en el 2025 después de cerrar un año peor de lo previsto y de que otros competidores ganaran cuota en algunos de los principales mercados gracias al lanzamiento de modelos más baratos. Mientras la estrategia de Elon Musk queda cada vez más cuestionada, el nuevo líder es ahora el fabricante chino BYD.
+La compañía dirigida por el magnate sudafricano vendió 1,64 millones de coches eléctricos el año pasado, lo que supone un descenso del 9% con respecto a los 1,79 millones del 2024 y el segundo año consecutivo de retrocesos. Entre el 2011 y el 2023, no había dejado de incrementar las entregas y se presentaba como el fabricante llamado a hacerse con el prometedor segmento de la movilidad eléctrica.
+La cifra recién publicada contrasta con los 2,26 millones de unidades de eléctricos puros comercializadas por BYD el año pasado, un 28% más gracias a su fuerte expansión por Europa y otros mercados. Si ya había logrado superar al rival estadounidenses en algún trimestre, el grupo chino lo hace ahora por primera vez en un año completo. Su fuerte está en los precios, en un diseño aceptable para los consumidores occidentales y en unas cadenas de aprovisionamiento que la competencia europea y estadounidenses no logra batir.
+En el cuarto trimestre del año, la caída de las ventas de Tesla fue mayor si cabe, del 16%, y quedó por debajo de las expectativas del mercado, que ha castigado a la empresa en bolsa. En los últimos cinco días su cotización ha caído un 7%, lo que deja la revalorización de las acciones en el 18% en el últimos año.
+Uno de los motivos del menor ímpetu comercial de Tesla es la cancelación de los créditos fiscales a la compra de coches eléctricos en Estados Unidos. Sin las ayudas públicas, la empresa se desinfla, pese a la defensa del propio Musk de mercados sin ningún tipo de intervención.
+Este año Musk también ha perdido el acceso privilegiado a la Casa Blanca con el que inició el mandato de Donald Trump. Tras su paso por la Administración estadounidenses al frente de un agresivo plan de recorte de empleo público, protagonizó un encontronazo con el propio Trump en las redes sociales al oponerse al plan económico estrella de la Administración, la Big Beautiful Bill, al considerar que no hace sino elevar el déficit.
+El empresario anunció que se dedicaría por completo a su empresa de coches eléctricos, lo que despertó la esperanza de que Tesla pudiera corregir una trayectoria en descenso. Unos meses después, logró que los accionistas de la compañía aceptaran pagarle un bonus histórico de un billón de dólares.
+Las aventuras políticas de Musk han contribuido a que las ventas de Tesla se hayan desplomado este año en Europa mientras el mercado de eléctricos crece a un ritmo de doble dígito. En Alemania han caído a cerca de la mitad, mientras que en países como Dinamarca el retroceso ha superado el 80%.
+Tesla ha intentado animar las ventas con nuevos modelos de su vehículo Model Y y una versión más barata. También ha adoptado esta semana la decisión de anticipar su caída de las ventas para amortiguar el previsible retroceso en bolsa. Los analistas consideran que la valoración de Tesla se encuentra ahora sostenida no tanto por el negocio de la electrificación del automóvil como por el posicionamiento de la empresa en innovaciones relacionadas con la robótica y los vehículos autónomos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C106" s="5" t="inlineStr">
+        <is>
+          <t>China califica de “imparable” la “reunificación” nacional tras los ejercicios militares en Taiwán</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2025-12-31T12:46:41+01:00</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>El Gobierno de Xi Jinping busca enviar un mensaje contra la “injerencia externa” respecto a la cuestión territorial</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Miquel Ferrer Rueda
+Barcelona
+Tras varios días de ejercicios militares del Ejército chino —los más extensos hasta la fecha por su área de cobertura—, los destructores, fragatas y otros barcos de guerra finalizaron el miércoles su retirada de los alrededores de la isla de Taiwán, pero persisten tanto la tensión como el discurso cada vez más contundente del Partido Comunista Chino hacia las autoridades taiwanesas.
+“La tendencia histórica hacia la 'reunificación' nacional es imparable, y nadie debería subestimar la firme determinación, la voluntad inquebrantable ni la sólida capacidad de China para salvaguardar su soberanía nacional y su integridad territorial”, declaró la portavoz de la Oficina de Asuntos de Taiwán del Ejecutivo chino, Zhang Han, al concluir las operaciones.
+Sus palabras fueron respaldadas por el presidente Xi Jinping, quien afirmó durante su discurso de Año Nuevo que “los chinos a ambos lados del estrecho de Taiwán compartimos un vínculo de sangre y parentesco”. Bajo un tono familiar, el líder del Partido Comunista sostuvo además que “la reunificación de nuestra patria es imparable”.
+Según la funcionaria, los ejercicios sirvieron como “severa advertencia” a las “fuerzas separatistas que promueven la independencia de Taiwán” y a la “injerencia externa”, en referencia a aquellas potencias que han mostrado su apoyo a la isla frente a la amenaza de la armada china.
+Pekín señala especialmente a Japón y Estados Unidos, tanto por las palabras de la primera ministra Sanae Takaichi respecto al papel de Tokio bajo una intervención militar china en Taiwán, como por la enorme venta de armas que Washington cerró con Taipéi a mediados de este mes. Ante estos actores y otros países que han criticado los movimientos de China en su mar oriental, el Ministerio de Exteriores chino ha amenazado con responder de manera firme “cualquier acto provocador atroz que cruce los límites en la cuestión de Taiwán”.
+Si la simulación de un bloqueo total de la isla —con casi un centenar de aeronaves, cerca de treinta barcos y fuego real que obligó a modificar rutas comerciales marítimas y aéreas— no fuera suficiente, las declaraciones posteriores a los ejercicios militares reflejan un cambio en la postura de Pekín respecto a una posible invasión de Taiwán.
+“Si bien parece improbable que Pekín inicie un conflicto importante [en el marco del regreso de Donald Trump a la Casa Blanca], el nacionalismo bajo el gobierno de Xi y sus consecuencias aún tienen implicaciones negativas para la paz y la estabilidad en el estrecho de Taiwán”, según investigadores del Instituto de Investigación de Defensa y Seguridad Nacional., un think tank taiwanés. Los ejercicios son cada vez más frecuentes y realistas, pero los expertos señalan que los costes para su reputación internacional descartarían una guerra a corto plazo.
+Una vez se dieron por finalizados los simulacros, la agencia estatal Xinhua dio a conocer las “tres conclusiones clave” de las maniobras. El medio destacó la simulación del “cerco” creado por el despliegue militar y la capacidad del Ejército chino para “presionar y contener a las fuerzas separatistas mientras niega el acceso a la interferencia externa”, un enfoque resumido como “sellar internamente y bloquear externamente” el acceso a la isla.
+La segunda característica fue que “la acción comenzó de inmediato”, lo que según la agencia china demuestra “la capacidad del Ejército para integrar el adiestramiento en tiempos de paz con las operaciones en tiempos de guerra”. Además, recordó que “Todas las instalaciones energéticas, los principales puertos y las bases militares de las que dependen las fuerzas separatistas de la 'independencia de Taiwán' se encuentran dentro del alcance de la potencia de fuego de China”, según las declaraciones de Zhang Chi, profesor de la Universidad Nacional de Defensa de China, recogidas por Reuters.
+El analista recalcó que las maniobras, en las que se delimitaron siete zonas aéreas y marítimas en torno a Taiwán, —un número sin precedentes hasta ahora— evidencian que el “cerco alrededor de la isla se está estrechando aún más”, y que el Ejército de China ha demostrado sus capacidades para “llevar a cabo ataques de largo alcance y alta precisión contra objetivos importantes”.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C107" s="5" t="inlineStr">
+        <is>
+          <t>Tesla se desinfla: las entregas cayeron un 8,5% en 2025</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Tecnología de consumo</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2026-01-02T16:23:05+01:00</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>La marca eléctrica de Elon Musk se quedó en 1,6 millones de unidades por los 4,6 millones de la china BYD</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>La marca eléctrica de Elon Musk se quedó en 1,6 millones de unidades por los 4,6 millones de la china BYD</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C108" s="5" t="inlineStr">
+        <is>
+          <t>Un robot humanoide Unitree G1 le da una patada en los testículos a su operador (vídeo)</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Tecnología de consumo</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2026-01-02T13:20:13+01:00</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>El robot de la compañía china se comercializa desde 2024 y puede adquirirse por 13.500 dólares</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>El robot de la compañía china se comercializa desde 2024 y puede adquirirse por 13.500 dólares</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C109" s="5" t="inlineStr">
+        <is>
+          <t>China desarrolla un lanzador móvil eléctrico de misiles balísticos intercontinentales con desplazamiento de cangrejo</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2025-12-31T17:50:15+01:00</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>La plataforma puede moverse por terrenos inaccesibles para los lanzadores convencionales</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>La plataforma puede moverse por terrenos inaccesibles para los lanzadores convencionales</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C110" s="5" t="inlineStr">
+        <is>
+          <t>¿Y si Venezuela es solo el principio?</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2026-01-05T05:40:00+01:00</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>El ataque de Trump puede extenderse a otros países para consolidar la hegemonía de EE UU en Occidente frente a la expansión de China</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>El ataque de Trump puede extenderse a otros países para consolidar la hegemonía de EE UU en Occidente frente a la expansión de China
+Esta barbarie de Venezuela no tiene visos de detenerse en el territorio venezolano. Trump llevaba meses amenazando hasta que ha logrado sacar a Maduro de su fortaleza. La primera víctima, vejada y pisoteada, es el derecho internacional. El resto de los países occidentales se encoge, paralizado, como los viajeros del metro cuando un matón golpea a alguien. O como cuando el pistolero empieza a armarla en el salón del Oeste. Si la operación prosigue con derramamiento de sangre, malo. Pero si cuajase en una transición medio pacífica, las consecuencias podrían ser aún peores.
+Porque entonces Trump podría ver más que justificadala famosa doctrina que el presidente James Monroe anunció en 1823. El objetivo de Washington en el siglo XIX era que las potencias europeas no intervinieran en los asuntos de América. Y eso justificaría después el intervencionismo de Estados Unidos en lo que consideraba su patio trasero, su cheque en blanco para implantar al Pinochet de turno. Trump lleva esa doctrina como estandarte enel documento de 33 páginas, publicado en noviembre, donde se detallala nueva Estrategia de Seguridad Nacional de Estados Unidos. El sábado, mientras difundía una foto de Maduro esposado y con los ojos vendados, le preguntaron en la conferencia de prensa:
+—Señor presidente, los críticos dicen que esto es un regreso al imperialismo del siglo XIX. ¿Está usted reviviendo la doctrina Monroe?
+Y respondió:
+—Estamos haciendo algo mucho mejor. Yo lo llamo la doctrina Don-Roe. Lleva mi nombre y el de Monroe, pero es mucho más fuerte. Significa que Estados Unidos es el jefe de este hemisferio. No vamos a permitir que China, Rusia o Irán tengan presencia en nuestro patio trasero. Durante demasiado tiempo dejamos que nos pisotearan. Eso termina hoy. Este es nuestro vecindario, y lo vamos a mantener limpio y seguro. La Doctrina Monroe fue algo grandioso, pero no tenía los dientes que yo le estoy dando. Tenemos el ejército más poderoso y vamos a usarlo para proteger nuestros intereses y nuestras fronteras.
+Si el atropello no termina en Venezuela, puede que tampoco se detenga en Cuba. Trump advirtió en la misma comparecencia:
+—Creo que Cuba será algo de lo que acabaremos hablando muy pronto, porque Cuba es una nación fallida ahora mismo. Su sistema no ha sido bueno para ellos. El pueblo ha estado sufriendo durante muchos, muchos años.
+Y que tampoco se frene en Colombia. Otro periodista preguntó:
+—¿Y qué hay de Colombia? El presidente Petro ha condenado la operación como una violación del derecho internacional.
+—Él [Petro] está fabricando cocaína. Tienen al menos tres grandes fábricas de cocaína funcionando ahora mismo y la están enviando a los Estados Unidos. Así que él tiene que cuidar su trasero.
+Puede que no se sacie ni conGroenlandia, para donde ha nombrado un enviado especial dos semanas antes de invadir Venezuela. Y quién sabe si no volverá a bromear sobre anexionarse Canadá. Aunque todo esto pueda parecer una locura, hay mucha lógica en ella. Y todo ello podría desembocar en una palabra: China.
+El gran duelo del siglo XXI se está librando entre Estados Unidos y China. Pekín no se conforma conlas obras de su Nueva Ruta de la Sedao sus constantes ejercicios militares sobre Taiwán, sino que avanza sus peones sobre Latinoamérica. El líder chino,Xi Jinping, tendió la mano en mayo a los países de la región, presentándose como alternativa al “unilateralismo y el proteccionismo” de Trump. China se ha convertido en el segundo socio comercial de Latinoamérica, por detrás de EE UU. Y para varios países, como Brasil, Chile y Perú, ya es el primero.
+El pasado abril,la Embajada china en Buenos Aires publicó un mensajeen el quereivindicó su influencia en América Latina frente a Washington. Pidió a EE UU que se abstenga de “obstruir o sabotear deliberadamente” la asistencia china en el continente. “Esa actitud deja al descubierto el carácter hegemónico e intimidatorio de un proceder inmoral”, advirtió.
+Es posible que tarde o temprano Pekín desenfunde y dispare contra Taiwán. Para entonces, contará con Rusia de su lado y sus coreanos del norte. La lógica de Trump dicta que Washington ha de estar preparado para cuando llegue el momento. Y esa preparación no consiste en reforzar la relación con Europa, a la que humilla diciéndole que sus partidos neonazis y de ultraderecha son mejores pianistas, tocan mucho mejor la partitura antieuropea que a él le gusta escuchar… sino por tener bajo pleno control su rancho occidental.
+Todo esto cabe en el saco de la lógica trumpista para medirse con China: el petróleo de Venezuela,el triángulo del Litio (un área del tamaño de California que abarca territorios de Chile, Argentina y Bolivia), donde se encuentra el 50% de las reservas mundiales de litio, losminerales críticos de Ucrania, de Sudamérica o Groenlandia, elestrecho de Panamá al que insiste en “recuperar”… Y, también, forzar a los países aliados a comprar armas a Estados Unidos bajo el pretexto de que hay que aumentar el gasto en la OTAN.
+El secuestro de Nicolás Maduro es, en última instancia, un mensaje cifrado para Xi Jinping: el “siglo americano” no ha muerto, simplemente ha cambiado de modales. Al pisotear el derecho internacional para “limpiar su vecindario”, Trump marca una línea de fuego sobre el mapa. En el nuevo orden, los recursos estratégicos de otros países se convierten en botines de una Guerra Fría que ya ha empezado a calentarse. Solo los países que cuentan con el arma atómica pueden permitirse ese lujo llamado soberanía nacional.
+Si sale mal el ataque a Venezuela, malo. Si sale medio bien —sin más derramamiento de sangre—, peor. Pero hay una tercera opción: que salga mal y a pesar de ello, Trump continúe con su doctrina Don-Roe, hundiendo lanchas en cualquier costa, pisoteando el derecho internacional en Cuba, Colombia y en el resto del rancho, incluida Europa.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C111" s="5" t="inlineStr">
+        <is>
+          <t>Xi Jinping se pronuncia de forma velada sobre Venezuela: “Las prácticas de intimidación hegemónica afectan gravemente al orden internacional”</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2026-01-05T08:51:04+01:00</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>El mandatario, uno de los principales aliados de Maduro, reclama que todos los países respeten “el derecho de otros pueblos a elegir de manera independiente su propio camino de desarrollo”</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>El mandatario, uno de los principales aliados de Maduro, reclama que todos los países respeten “el derecho de otros pueblos a elegir de manera independiente su propio camino de desarrollo”
+En su primera intervención pública después del ataque de Estados Unidos a Venezuela, el presidente chino, Xi Jinping, ha lanzado este lunes una crítica velada al presidente estadounidense, Donald Trump: “Lasprácticas de unilateralismo y de intimidación hegemónicaestán afectando gravemente al orden internacional”, ha afirmado el mandatario comunista durante una reunión con el primer ministro de Irlanda, Micheál Martin, celebrada en Pekín.
+Xi, que rara vez señala de forma expresa a ningún Estado o mandatario en sus alocuciones, no se ha referido ni a Estados Unidos ni a su presidente, pero sus palabras han dejado entrever la postura china ante lo que el dirigente asiático denomina un mundo que vive “unasuperposición de cambios y turbulencias”.
+“Todos los países deben respetar el derecho de otros pueblos a elegir de manera independiente su propio camino de desarrollo, y acatar el derecho internacional y los propósitos y principios de la Carta de las Naciones Unidas”, ha expresado Xi, según la lectura oficial del encuentro con Martin ofrecida por la agencia china Xinhua. “Las grandes potencias, en particular, deben dar ejemplo”.
+El líder chino ha recordado que tanto su país como Irlanda “apoyan el multilateralismo y abogan por la equidad y la justicia internacionales”. Ambos han reclamado “reforzar la coordinación y la cooperación en los asuntos internacionales, salvaguardar conjuntamente la autoridad de las Naciones Unidas y promover que el sistema de gobernanza global avance hacia una dirección más justa y razonable”, siempre según la lectura de Pekín.
+Las palabras de Xi dejan ver tambiénla delicada posición de China tras el golpeorquestado por Trump en Latinoamérica: hay una censura, pero ningún anuncio de medidas o represalias. La crítica se mueve en el plano retórico.
+Pekín ha sido uno de lossostenes y aliados económicosfundamentales del régimen que dirigía —hasta su captura por soldados de élite estadounidenses en la madrugada del sábado— Nicolás Maduro: primer acreedor de su deuda, socio comercial de preferencia, y principal comprador del petróleo que tanto ansía ahora la Administración del magnate republicano.
+No hay mejor ejemplo de la cercanía entre China y Venezuela que la última actividad pública del venezolano, antes de irse a dormir el viernes y ser sorprendido en la noche por las fuerzas estadounidenses: fue la recepción oficial en Caracas de Qiu Xiaqi, enviado especial del mandatario Xi Jinping para Asuntos Latinoamericanos.
+“La unión perfecta, a toda prueba y a todo momento. Siempre victoriosos”, se le escuchó decir a Maduro mientras estrechaba la mano de Xiaqi al final de la reunión de más de tres horas en el palacio presidencial de Miraflores, según recogió EFE. “A toda prueba y a todo momento” es el pomposo nombre de la asociación estratégica que Xi y Maduro sellaron en 2024 durante un encuentro en Pekín.
+La República Popular ha mantenido en los últimos meses un apoyo constante a Venezuela y Maduro en los últimos meses a medida que se estrechaba el cerco estadounidense. Ha emitido diversos mensajes y comunicados de respaldo, y solicitado la reunión del Consejo de Seguridad de Naciones Unidas para tratar el asunto.
+Desde la intervención militar directa el sábado y la captura de Maduro, el Ministerio de Exteriores chino ha mostrado un rechazo frontal al“comportamiento hegemónico”de Washington y ha exigido la “liberación inmediata” del mandatario venezolano y de su esposa, Cilia Flores. “China expresa su profunda conmoción y condena enérgicamente eluso temerario de la fuerza por parte de Estados Unidoscontra un Estado soberano y las acciones dirigidas contra el presidente de otro país”, expresó la Cancillería china el sábado. El domingo, reclamó “garantizar la seguridad personal del presidente Maduro y de su esposa”, su liberación inmediata y que Estados Unidos detenga “las acciones destinadas a subvertir el régimen venezolano”.
+Pekín considera la intervención estadounidense una “grave transgresión” de las leyes internacionales, una “vulneración de la soberanía venezolana” y una “amenaza a la paz y la seguridad de América Latina y el Caribe”, según los citados comunicados.
+El Ministerio de Exteriores chino ha reiterado este lunes la postura de Pekín sobre el ataque a Venezuela y ha pedido de nuevo la liberación inmediata del mandatario latinoamericano. “China está profundamente preocupada por la captura de Maduro y su esposa por parte de Estados Unidos y sigue de cerca la situación de seguridad”, ha dicho el portavoz del ministerio, Lin Jian, en una comparecencia rutinaria ante las preguntas de la prensa. “La cooperación entre China y Venezuela es una cooperación entre Estados soberanos, amparada por el derecho internacional y las leyes de ambos países”, ha añadido. “Independientemente de cómo evolucione la situación política en Venezuela no cambiará la voluntad de la parte china de profundizar la cooperación pragmática en todos los ámbitos entre ambos países”.
+El portavoz ha extendido su mensaje de apoyo a toda la región: “China apoya firmemente el estatus de América Latina y el Caribe como zona de paz [...] se opone al uso o a la amenaza del uso de la fuerza en las relaciones internacionales, y rechaza que fuerzas externas interfieran en los asuntos internos de los países latinoamericanos bajo cualquier pretexto”, ha indicado.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C112" s="5" t="inlineStr">
+        <is>
+          <t>Sheriff de las Américas, modelo para Putin y Xi Jinping</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2026-01-04T05:30:01+01:00</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Detener a un jefe de Estado es una novedad latinoamericana que puede repetirse con otros regímenes</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Detener a un jefe de Estado es una novedad latinoamericana que puede repetirse con otros regímenes
+La caída de un dictador siempre es una excelente noticia. No lo es tanto que sea a través de una intervención militar, sin cobertura alguna de la legalidad, es decir, al margen del derecho internacional y de la Constitución estadounidense, sin Naciones Unidas ni el Congreso de los Estados Unidos. Y menos todavía que responda alCorolario Trump de la Doctrina Monroe, formulado en la nueva Estrategia Nacional de Seguridad, que autoriza al actual presidente a actuar en el entero continente americano como si fuera un territorio bajo su soberanía.
+La fulgurante y eficaz operación nocturna del ejército estadounidense y de sus fuerzas especiales es un salto cualitativo en el intervencionismo formulado por el presidente Monroe en 1823, apenas medio siglo después de la independencia, cuando la joven y lejana república pretendía mantener a raya a los imperios europeos. Reformulada en 1904 por el presidente Theodore Roosevelt, legitimó su recién inaugurado impulso imperialista, la injerencia en los países latinoamericanos y las intervenciones militares durante el siglo XX en República Dominicana, Cuba, Nicaragua, Haití e incluso el apoyo a los militares golpistas de Chile y Argentina.
+La auténtica novedad de la Doctrina Trump viene determinada por el contexto global. Una acción tan drástica y a la vez tan fácil de cambio de régimen en el vecindario próximo de Estados Unidos es una seria advertencia de valor universal. Neutralizar en pocas horas a unas fuerzas armadas sin capacidad de disuasión ni de respuesta, acompañada de la detención del jefe del Estado, es una novedad latinoamericana que puede repetirse con otros regímenes del continente situados en similar inferioridad militar, debilidad económica y deterioro o inexistencia de la base social que los sostiene.
+Conociendo el papel jugado en la crisis venezolanapor el secretario de Estado y consejero nacional de Seguridad Marco Rubio, de familia cubana exilada,y la fragilidad extrema de la dictadura cubana, hay pocas dudas que el derrocamiento del régimen comunista de La Habana y quizás a continuación la dictadura de Ortega en Nicaragua, estarán en el orden del día de la Casa Blanca. Es dudoso, en cambio, que afecte a Irán, lejos de las Américas, donde no sería posible la repetición de una operación del mismo tenor sin caer en los desastres de Irak o en Afganistán. La indudable alegría que pueda proporcionar la caída en serie de varios dictadores llega empañada por la fuerza autocrática que la impulsa, en este caso la de Trump, el presidente que concentra todos los poderes en sus manos, está deteriorando la democracia en su país y promoviendo una internacional iliberal para llevar a la extrema derecha al gobierno de los principales países europeos.
+Si la aplicación en Venezuela del Corolario Trump contiene una amenaza para cualquier gobierno americano adversario de Trump, constituye a la vez un ejemplo y una implícita bendición para las ambiciones de Rusia y de China, superpotenciasa las que la Casa Blanca trumpista reconoce sus respectivos ámbitos regionales de hegemonía. También es una simultánea advertencia para que no se inmiscuyan en los asuntos latinoamericanos, ya no en la política, sino en las inversiones o los intercambios comerciales. Taiwán y Ucrania tienen, en cambio, motivos de preocupación ante el agresivo imperialismo regionalizado que resulta de la división del mundo en áreas de influencia exhibido por el trumpismo.
+Idéntica preocupación sugiere la regionalización imperialista entre los antiguos aliados de Washington en Asia —Japón, Corea del Sur, Filipinas, Australia y Nueva Zelanda— y en Europa —los socios de la OTAN y de la UE—, condenados a contener en solitario las ambiciones de unos vecinos expansionistas a los que anima el activismo militar trumpista. El derrocamiento de Maduro es también un duro golpe para la Carta de Naciones Unidas, para la propia organización internacional y su Consejo de Seguridad y para el derecho penal internacional, burlado e incluso perseguido por Trump a través dela represión sobre varios de sus magistrados y funcionarios. Su jurisdicción multilateral universal será sustituida así por el alcance global de una justicia trumpista guiada desde la Casa Blanca por un decisionismo unilateralista.
+El momento culminante será la ya anunciada comparecencia de Maduro ante algún tribunal de Estados Unidospara responder por delitos vinculados al terrorismo, al tráfico de armas y al narcotráfico. Será un grotesco sarcasmo que sea undelincuente exonerado por sus artimañas ante los tribunalesquien entregue a los mismos tribunales a quien es, finalmente, uno de sus iguales. Con mayor razón cuando son explícitos sus propósitos depredadores respecto a los recursos de los países objeto de sus ambiciones y su nula apreciación por los derechos humanos y las libertades de los ciudadanos de cualquier país, incluido el suyo. El lobo es el caudillo y el juez de este rebaño. Que a nadie le extrañe cuando devore a las ovejas que le apetezcan.
+Para leer más:
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C113" s="5" t="inlineStr">
+        <is>
+          <t>Michael Shifter: "La operación de Estados Unidos en Venezuela da alas a Rusia y a China, hoy el mundo es más peligroso"</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2026-01-05T00:02:23+01:00</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>El ex presidente del foro Diálogo Interamericano y antiguo profesor de la Universidad de Georgetown opina que la intervención militar en Caracas "sienta un precedente preocupante y peligroso" Leer</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Michael Shifteres uno de los analistas de LATAM más atentamente escuchados en Estados Unidos. Durante dos décadas y media propició el debate desde la presidencia deDiálogo Interamericano,el principalthink tankpara la región con sede en Washington.
+Al mismo tiempo, comoprofesor adjunto de la Universidad de Georgetown, siguió y analizó los oscilaciones políticas, los brotes populistas, las oleadas migratorias y la posición cambiante de su país en lo que durante años consideró su patio trasero.Consultor en el ámbito de la geopolítica para organismos como la OEA, Human Rights Watch o USAID y colaborador en medios comoThe New York Times,The Washington PostoForeign Affairs, atiende por correo electrónico en inglés -aunque habla uncastellano impecable pulido en Perú y Chile- apenas unas horas después de la cinematográfica operaciónResolución absolutaen Caracas.
+"Es tentador decir que la situación en Venezuela no puede empeorar, pero la realidad es que podría hacerlo"</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C114" s="5" t="inlineStr">
+        <is>
+          <t>Qué ocurrió en Caracas y por qué cambia el orden global</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2026-01-04T20:32:20+01:00</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Traición interna, complacencia externa, fallos de inteligencia chinos y una resistencia organizada mínima convergieron para crear un escenario ideal Leer</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>A las 2:00 de la madrugada del sábado, misiles estadounidenses alcanzaron bases aéreas venezolanas. El Enviado Especial de China para América Latina, que se había reunido conNicolás Maduroel día anterior, dormía en Caracas. Al amanecer, la Delta Force había capturado a Maduro. 400 millones de dólares en sistemas rusos de defensa aérea permanecieron inactivos durante toda la operación. El resultado fue un éxito táctico total. Todo lo que viene después depende de si este modelo se sostiene.
+La relevancia va mucho más allá deVenezuela. La operación reveló cómo concibe ahora el poder el presidente Trump y qué instrumentos está dispuesto a emplear. Todo apunta a una penetración de la CIA en el círculo más íntimo de Maduro. Con información operativa en tiempo real. El aparato de seguridad cubano, durante años columna vertebral de la supervivencia del régimen, colapsó en el momento decisivo. Cuando despegó el primer avión, las defensas venezolanas ya estaban ciegas y los decisores, aislados.
+Trump interpreta este resultado como la validación de una doctrina estratégica más amplia. Considera que la penetración de Inteligencia, combinada con fuerzas especiales de élite y ataques de precisión, permiten neutralizar a líderes hostiles sin recurrir a un conflicto militar convencional. La captura de un mandatario basada en Inteligencia de precisión se convierte así en un instrumento escalable de política exterior, potencialmente aplicable a cualquier adversario identificado como amenaza para los intereses estadounidenses. Esto consolida una diplomacia basada en el uso directo de la fuerza.
+El modelo de Caracas funcionó porque las condiciones fueron excepcionalmente favorables. Traición interna, complacencia externa, fallos de Inteligencia chinos y una resistencia organizada mínima convergieron para crear un escenario ideal. Algunos sostendrán que este enfoque siempre ha existido en la práctica estadounidense y que la diferencia reside solo en la eficiencia. Pero la eficiencia en la decapitación del liderazgo es cualitativamente distinta de las intervenciones del pasado. Frente a un adversario disciplinado, con capacidades tecnológicas reales y voluntad militar demostrada, este enfoque podría fracasar con consecuencias graves para el personal estadounidense y para su credibilidad estratégica. La historia ofrece advertencias claras.
+En Caracas, las consecuencias inmediatas ya muestran una contradicción central. Con Maduro fuera, la presidenta en funciones,Delcy Rodríguez, apareció en la televisión estatal declarando a Maduro como el único líder legítimo. El aparato institucional del régimen permanece intacto. Estados Unidos ha eliminado al liderazgo sin desmantelar el régimen. Las fuerzas estadounidenses se han retirado, dejando un vacío de poder que la superioridad aérea no puede resolver, pero también una estructura estatal operativa que resiste el colapso. Estabilizar Venezuela exigiría una presencia militar sostenida o el apoyo a facciones armadas capaces de desafiar al Estado residual. Ambas opciones resultan políticamente inviables y operativamente frágiles.
+Precisamente por eso Caracas importa para el orden internacional. Washington acaba de demostrar que los gobiernos pueden ser privados de su liderazgo mediante operaciones cibernéticas integradas, penetración de espionaje y fuerzas especiales ejecutadas en horas, no en meses.
+El peligro estratégico más profundo reside, sin embargo, en el propio éxito. Si este modelo produce resultados consistentes, desestabilizará la arquitectura de alianzas que ha sustentado la influencia global estadounidense desde 1945. Los gobiernos aliados operarán ahora bajo la suposición de que Estados Unidos y sus servicios de Inteligencia representan una amenaza potencial para la supervivencia de sus propios liderazgos. El precedente existe. La capacidad está demostrada.La diplomacia cinética, fusionada con la penetración de Inteligencia y la guerra cibernética, queda normalizada.
+Trump ha logrado una victoria táctica en Caracas al precio de erosionar las alianzas que hicieron posible la proyección de poder estadounidense. Pekín estudia cómo la diplomacia cinética triunfa donde falla la disuasión tradicional, aprendiendo que la penetración de Inteligencia combinada con ataques de precisión puede neutralizar el poder estatal en horas. La cuestión central para el orden internacional es si Washington comprende que ganar así en el exterior implica debilitar el sistema que sostiene una influencia duradera.
+*Bjorn Beames analista geopolítico senior, Arcano Research. Ex oficial de la CIA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C115" s="5" t="inlineStr">
+        <is>
+          <t>Xi Jinping rompe su silencio sobre Venezuela y denuncia el "unilateralismo hegemónico" de Washington</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2026-01-05T08:18:37+01:00</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>China es el principal comprador de petróleo de Venezuela y uno de sus aliados políticos más firmes. El gigante asiático compró a Caracas en 2024 bienes por valor de unos 1.600 millones de dólares Leer</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>La primera reacción pública deXi Jinpingtras la ofensiva estadounidense enVenezuelano incluyó menciones explícitas ni nombres propios, pero sí un mensaje cuidadosamente calibrado, dirigido tanto aWashingtoncomo al resto del sistema internacional. En un momento de creciente fricción geopolítica, el presidente chino recurrió este lunes a su habitual retórica sobre el multilateralismo para criticar la operación militar estadounidense que culminó con la detención del presidente venezolano,Nicolás Maduro, quien comparecerá este lunes ante un tribunal de Nueva York.
+"Las grandes potencias deben tomar la iniciativa en respetar el camino de desarrollo elegido por otros países", afirmó el presidente chino, añadiendo que el mundo atraviesa "cambios y turbulencias no vistos en un siglo". Xi ha denunciado el "unilateralismo hegemónico que socava severamente el orden internacional", una formulación habitual en el léxico diplomático dePekíncuando busca señalar a Estados Unidos sin nombrarlo.
+Xi realizó estas declaraciones en Pekín durante su encuentro con el primer ministro irlandés,Michael Martin. Los medios estatales chinos han destacado que Irlanda, al igual que Pekín, es "una defensora del multilateralismo y del sistema de Naciones Unidas".
+Durante la reunión, Xi subrayó que China e Irlanda deben "reforzar la coordinación y la cooperación en los asuntos globales", así como "defender conjuntamente la autoridad de la ONU y promover una gobernanza global más justa y razonable".
+Unas palabras pronunciadas habitualmente por el líder chino, quien presenta a su país como garante de un orden internacional alternativo al liderazgo estadounidense, especialmente en los países en desarrollo del Sur Global.
+Las primeras declaraciones de Xi sobre la operación militar estadounidense en Venezuela se suman a las críticas más contundentes que soltaron el fin de semana los portavoces chinos. Horas después de la captura de Maduro, elMinisterio de Asuntos Exteriores de Chinase declaró "profundamente conmocionado" y denunció "el flagrante uso de la fuerza por parte de EEUU contra un Estado soberano". En otro comunicado, Pekín pidió la liberación inmediata de Maduro y acusó a Washington de poner en peligro la paz y la seguridad de América Latina y el Caribe.
+También se ha manifestado el jefe de la diplomacia china,Wang Yi, quien señaló que Pekín no puede aceptar que ningún país actúe como "juez del mundo" tras la captura de Maduro. "La soberanía y la seguridad de todos los países deben estar plenamente protegidas por el derecho internacional", añadió durante una reunión en la capital china con su homólogo paquistaní,Ishaq Dar.
+China es el principal comprador de petróleo de Venezuela y uno de sus aliados políticos más firmes. Según los últimos datos anuales disponibles, el gigante asiático compró a Caracas en 2024 bienes por valor de aproximadamente 1.600 millones de dólares -casi la mitad de las compras fueron petróleo crudo-, un salvavidas económico frente a las sanciones estadounidenses.
+El pasado noviembre, en un mensaje enviado con motivo del cumpleaños de Maduro, el presidente Xi describió a ambos países como"amigos íntimos, queridos hermanos y buenos socios", y prometió seguir apoyando a Venezuela en la defensa de su "soberanía, seguridad nacional, dignidad y estabilidad social".
+Algunos analistas internacionales han señalado que la ofensiva de Washington, la más directa en América Latina en décadas, amenaza el avance de la influencia china en la región, la cual se ha ido consolidando a través de inversiones, comercio e infraestructura. EEUU ha considerado desde hace tiempo la presencia de China como una amenaza para sus intereses y seguridad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C116" s="5" t="inlineStr">
+        <is>
+          <t>El 'Corolario Trump': petróleo, esferas de influencia y una válvula de escape para los halcones de la Administración</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2026-01-04T00:02:48+01:00</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>La arriesgada apuesta del presidente estadounidense, que ya ha bombardeado siete países, da alas a Rusia y China, deja herido el derecho internacional y expuesta a la Unión Europea Leer</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>La arriesgada apuesta del presidente estadounidense, que ya ha bombardeado siete países, da alas a Rusia y China, deja herido el derecho internacional y expuesta a la Unión Europea
+SegúnMarco Rubio, el secretario de Estado de EEUU,el ataque aéreo en Caracasfue por legitimidad y democracia. "Nicolás Madurono es el presidente de Venezuela y su régimen no es el Gobierno legítimo. Maduro es el jefe del Cártel de los Soles, una organización narcoterrorista que ha tomado posesión de un país. Y está imputado por meter drogas enEstados Unidos". Según el vicepresidente, JD Vance, es una cuestión de drogas y recursos naturales. "El presidente Trump ofreció múltiples salidas, pero fue muy claro durante todo el proceso: el narcotráfico debe cesar y el petróleo robado debe ser devuelto a Estados Unidos.Maduro es la persona más reciente en descubrir que el presidente Trump habla en serio". Y según Pete Hegseth, secretario de Guerra, es porque con demostraciones como el ataque a las instalaciones nucleares de Irán o la captura de Maduro, el mundo entero capta el mensaje. "Se llama PAZ A TRAVÉS DE LA FUERZA. Después de los desastrosos años de Joe Biden -cuando Estados Unidos erawoke, débil y en retirada- el presidente Trump y el departamento de Guerra están RESTABLECIENDO LA DISUASIÓN".
+Pero la opinión -y la motivación- importante, la única, es la del presidente. Y el presidente, este sábado, dijo muchas otras cosas, inclinándose por segunda vez, tras Irán, con el ala más belicista e intervencionista de su Administración. Que Maduro era un criminal y deberá enfrentarse a la Justicia, curiosamente por cargos similares a los que sirvieron para condenar al hondureño Juan Orlando Hernández, inexplicablemente perdonado y liberado por Trump hace unos días. Pero también queMaría Corina Machado, "una señora muy amable", no puede encargarse de Venezuela"porque no tiene el respeto ni el apoyo de la gente". Y que, por lo tanto, su Administración trabajará de cerca, al menos por ahora, con los herederos, cómplices y subalternos de Maduro para "hacer queVenezuelasea grande de nuevo".
+El mundo contuvo la respiración cuando el presidente dijo que Estados Unidos se encargaría de gobernar el país hasta poder garantizar "una transición segura", o que no tenía "miedo a desplegar tropa sobre el terreno", o se ufanó de un "ataque a la soberanía" venezolana, despertando los recuerdos y fantasmas de Irak, Afganistán y elnation building. Pero abrió muy rápido la boca, con sorprendente sorpresa e indignación, cuando fue perfilando sus intenciones y aclarando sus palabras,cerrando la puerta a las aspiraciones de la oposición que ganó las últimas elecciones y tendiendo la mano al régimen de siempre, siempre y cuando entreguen la gestión de su petróleo a las empresas estadounidenses.
+Lo dijo decenas y decenas de veces en su intervención.Petróleo, petróleo, petróleo y estabilidad."Vamos a hacer que nuestras enormes compañías petroleras de Estados Unidos, las más grandes del mundo, gasten miles de millones de dólares, arreglen la infraestructura gravemente dañada, la infraestructura petrolera, y comiencen a generar dinero para el país. Vamos a reemplazarlas y sacar mucho dinero para poder encargarnos del país". Los hermanos Rodríguez, dispuestos a lo que haga falta para sobrevivir, pueden vender un escenario de estabilidad y transición frente al caos de un cambio de régimen. Y la Casa Blanca tiende la mano, al menos por ahora."No vamos a permitir que otros se encarguen", zanjó Trump ante la posibilidad de que terceros países quieren llenar un vacío de poder.
+La relación y obsesión deDonald TrumpconVenezuelay Maduro se ha vertebrado sobre numerosos y muy diferentes ejes: el mediático, el personal, el ideológico, el geopolítico, el económico, el migratorio o el petrolero. Por no hablar del factor del espectáculo. "Lo vi literalmente como si estuviera viendo un programa de televisión... la velocidad, la violencia... la velocidad, la violencia... fue algo asombroso (...)No hay otro país en la Tierra que pueda realizar semejante maniobra", dijo este sábado con orgullo sobre la operación de las fuerzas especiales, repitiendo casi palabra por palabra su excitación cuando dio detalles del despliegue aéreo con el que atacó Irán.
+Trump ha disfrutado del protagonismo, de poder hacer algo que no está al alcance de nadie más, como Putin ha comprobado con desesperación con Zelenski. Pero sus movimientos poco tienen que ver con el anhelo democrático de los venezolanos."Trump habla de atacar países y apoderarse de sus líderes como símbolo de estatus, una señal de la grandeza estadounidense", apunta Stephen Wertheim, investigador del Carnegie Endowment y profesor en la Universidad de Yale. Y puede explicarle al movimiento MAGA que no es una política exterior expansiva, sino defensiva. En su hemisferio, su patio trasero, para evitar la llegada de drogas y poner las condiciones para que cientos de miles de venezolanos se vayan de vuelta a su país. Así lo explicó anoche.
+De fondo en realidad hay mucho más. Como apuntaba ayer Ryan Evans, fundador deWar on the Rocks, un medio especializado en estrategia, Defensa y asuntos exteriores, Trump funciona por instintos más que por ideologías o pensamiento sofisticado.Si ve una oportunidad, la aprovecha. Si tiene una mano mejor, lanza el órdago.Y aquí ha visto una ocasión geopolítica, económica, de recursos naturales y para ahuyentar a sus rivales. "Muchos asumen que Trump tiene una doctrina equiparable a las doctrinas del pasado. Amigos que respeto siguen diciendo que sigue una gran estrategia de 'realismo defensivo', una 'jacksoniana' o que es 'aislacionista'. Trump puede estar rodeado de personas con doctrinas, pero no las tiene. En segundo lugar, la gente interpreta sus declaraciones públicas como un farol o un compromiso, cuando pueden ser ambas cosas. Y en tercer lugar, subestiman el conflicto existente dentro de la Administración y cómo este altera los resultados.Venezuela es una especie de válvula de escape para los halcones, especialmente Rubio, pero también otros. No hay en la Administración nadie que sostenga una verdadera postura agresiva hacia Rusia o China, así que estos e Irán han sido sus únicas opciones", explicaba.
+Trump ataca (y desde que asumió el cargo el 20 de enero de 2025 ha autorizado al menos 626 ataques aéreos en siete países diferentes, 70 más que Joe Biden en todo su mandato de cuatro años) porque puede, y así complace al Ejército y lo mantiene en forma, imponiendo respeto pero también sentido de urgencia en Pekín.Cerróel espacio aéreo venezolano y sus costas porque puede y aleja a los barcos chinos.Atacó decenas de lanchas, presuntamente en aguas internacionales, porque puede.Abordó petróleos e incautó su carga porque puede.Dijo que el petróleo le pertenece porque puede.Y ha capturado y sacado del país a Maduro, propiciando quizás un cambio de régimen, para dejar claro que puede y que el derecho internacional le resulta del todo ajeno. Trump ve la vida como un juego de suma cero, y se apoya en la idea que el poder no sirve de nada si no se usa. Ser la nación más poderosa del planeta y no sacar provecho le parece ridículo, de perdedores.
+Además, para su regocijo, tiene el consentimiento tácito de buen parte del planeta. UnaUnión Europeaque permanece muda yRusiayChina, oTurquía, que aspiran a un rol similar en sus respectivas esferas de influencia. Es sonrojante que los mensajes críticos más contundentes los lanzaran ayer aliados ideológicos de Trump, de Nigel Farage a Marine Le Pen,mientras en Bruselas se hacían contorsiones y ejercicios virtuosos de acrobacia diplomática vacía. Sobre todo cuando Trump hablaba a gritos. Cuando impone esferas de influencia y reitera que la de Ucrania no es su guerra. Estados Unidos dice que no tiene más fondos ni material gratuito para Kiev mientras gasta ingentes cantidades y despliega 150 aviones para capturar a Maduro y seguir trabajando, por ahora, con el régimen. Lleva meses anticipando sus pasos, revelando fobias y filias, y si alguien debería estar especialmente inquieto esta noche son los habitantes de Groenlandia o Panamá, piezas clave en su tablero. Lo ha dicho una y otra vez.
+El concepto de esferas de influencia es esencial para vertebrar las motivaciones de Washington. A finales de octubre, antes de verse con Xi Jinping en Corea del Sur, Trump escribió en sus redes sociales:"El G2 se reunirá en breve". Y tras el encuentro dijo: "Mi reunión del G2 con el presidente Xi de China fue muy importante para ambos países. Esta reunión nos conducirá a una paz duradera y al éxito". El término "G2" es una vieja idea que se planteó en los primeros años 2000, una aproximación según la cual Estados Unidos y China podrían convertirse en las dos únicas potencias dominantes y de alguna manera encontrarían una forma de gestionar de forma conjunta los asuntos globales. Y de repartirse el globo, con Rusia de socio junior, un G2+1. Igual que Trump calificó de "genialidad" la invasión rusa del Donbás y el apropiarse territorio en pocas horas, indirectamente le marca el camino a China en Taiwan. Mientras sea rápido, no altere la estabilidad de la zona y los intereses comerciales o electrónicos de Washington estén a salvo...
+"Bajo el Trump 2.0, Estados Unidos ha abandonado su política estratégica de hegemonía liberal global en favor de una doctrina de esferas de influencia.Washington ahora aplica un enfoque coercitivo, rapaz y basado en el poder hacia el hemisferio occidental en general, amenazando e intimidando a vecinos y aliados, al tiempo que deja a Rusia y China el espacio y la libertad necesarios para actuar a su antojo en sus propios patios traseros geopolíticos. La drástica transformación de la política exterior estadounidense está marcando rápidamente el comienzo de un nuevo orden global basado en una estructura tripolar [EEUU, Rusia y China] que privilegia los intereses y la agresión de las grandes potencias en detrimento de las antiguas reglas, normas e instituciones de la posguerra", resume Bradley N. Nelson, profesor de Ciencia Política en Universidad de San Xavier (Chicago).
+Hace un mes, el Gobierno de Donald Trump publicó su Estrategia de Seguridad Nacional, un documento que explica los objetivos de la Política Exterior estadounidense, sus prioridades y su cosmovisión. "Queremos garantizar que el Hemisferio Occidental se mantenga razonablemente estable y suficientemente bien gobernado para prevenir y desalentar la migración masiva a Estados Unidos; queremos un Hemisferio cuyos gobiernos cooperen con nosotros contra narcoterroristas, cárteles y otras organizaciones criminales transnacionales; queremos un Hemisferio libre de incursiones extranjeras hostiles o de la propiedad de activos clave, y que apoye cadenas de suministro cruciales; y queremos asegurar nuestro acceso continuo a ubicaciones estratégicas clave. En otras palabras, afirmaremos y haremos cumplir un'Corolario Trump'de la Doctrina Monroe", decía el texto.
+En Estados Unidos se habla desde la vuelta de Trump de laDoctrina Donroe, y él mismo lo recalcó el sábado. Una mezcla del nombre del presidente actual y del ex presidente James Monroe, quien en 1823 en un mensaje a las potencias europeas, y en especial a la España que perdía territorios, dijo que Washington consideraría "cualquier intento de su parte por extender su sistema a cualquier porción de este hemisferio como una amenaza para nuestra paz y seguridad (...)".
+Trump quiere el control absoluto de su patio trasero. Quiere el hemisferio para Estados Unidos, sin presencia rusa y, sobre todo, china. No sólo desde el punto de vista militar, sino también político, económico, comercial, de infraestructuras y de recursos. De puertos y del Canal de Panamá.Quiere que los países rompan relaciones con sus rivales estratégicos y ayuda a sus aliados, de Argentina a El Salvador, de Brasil a Honduras. Venezuela, como Colombia, era el eslabón más débil. Ya no. La apuesta es muy arriesgada, moral, ética y estratégicamente. El escenario está lleno de trampas, el régimen es cualquier cosa menos un aliado de fiar, la decepción puede ser enorme en la oposición y la división es enorme en Estados Unidos, especialmente si implica el uso de tropas. Trump llevó al límite a los suyos con elcaso Epsteiny no puede permitirse un fracaso exterior o llevar al país a otro pantano lejano.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C117" s="5" t="inlineStr">
+        <is>
+          <t>La lenta reacción de China a la captura de Maduro: Pekín cerró el grifo a Caracas mientras expande su influencia por la región</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2026-01-04T17:39:18+01:00</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>En las últimas horas ha habido muchas especulaciones sobre la casualidad -o no- de que la operación militar estadounidense coincidiera con una visita importante de emisarios chinos en Caracas Leer</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Apenas siete horas antes de que aviones estadounidenses irrumpieran en el cielo de Caracas y una operación relámpago pusiera fin al largo ciclo político de Nicolás Maduro, elPalacio de Mirafloresacogía una escena que ahora adquiere un valor casi crepuscular. En uno de los salones del poder bolivariano,Maduro recibía a una delegación china encabezada por Qiu Xiaoqi, enviado especial de Pekín para América Latina, acompañado altos funcionarios del Ministerio de Exteriores de la superpotencia asiática. Del lado venezolano, además de Maduro,estaba la vicepresidenta Delcy Rodríguez. El comunicado oficial hablaba de "hermandad inquebrantable", de resistencia frente a las "medidas coercitivas unilaterales" y de un Sur Global decidido a defender su soberanía.
+La reacción de Pekín tras la captura de Maduro tardó en llegar. No fue hasta el sábado por la noche (hora local) cuando el Ministerio de Exteriores chino se declaró "profundamente conmocionado" y condenó "enérgicamente el flagrante uso de la fuerza" por parte de Estados Unidos contra un Estado soberano.
+El comunicado seguía el manual básico de condena diplomática del Gobierno de Xi Jinping: acusar a Washington de violar el derecho internacional y amenazar la paz regional, sin ningún anuncio de represalias o de una respuesta coordinada con otros aliados (Rusia e Irán) en apoyo al régimen chavista.
+El domingo, después de que Maduro pasara su primera noche recluido en el centro federal Metropolitan Detention Center de Brooklyn, desde Pekín sacaron otro comunicadopidiendo la "liberación inmediata" del líder venezolanoy de su esposa, Cilia Flores. "Las acciones de EEUU violan claramente las normas básicas que rigen las relaciones internacionales y contravienen los propósitos y principios de la Carta de las Naciones Unidas", reiteraron.
+En las últimas horas ha habido muchas especulaciones sobre la casualidad -o no- de que la operación militar estadounidense coincidiera con una visita importante de emisarios chinos en Caracas. Desde Pekín, respondiendo a la consulta de este periódico, un funcionario de Exteriores señala queel viaje estaba programado como una gira regionalpor varias capitales latinoamericanas para presentar a los países la hoja de ruta política sobre América Latina y el Caribe que China ha publicado recientemente. En los últimos años, el gigante asiático haexpandido su influenciapor la región,desplazando a EEUU como el principal socio comercialde muchos países latinoamericanos.
+La relación entre China y Venezuela se ha mantenido como una alianza sólida en el plano sobre todo político. En el terreno comercial, Caracas sigue siendo un proveedor relevante de petróleo para la segunda economía mundial. En los últimos meses de 2025, los chinos habrían absorbido cerca del 80% de las exportaciones petroleras venezolanas. AunqueChina es con diferencia el mayor comprador de petróleo de Venezuela, esta nación representa solo el 4% de sus importaciones totales. Al igual que ocurre con otros socios sancionados como Rusia e Irán, el país asiático compra crudo con grandes descuentos cuando le conviene y utiliza intermediarios diseñados para esquivar las sanciones internacionales.
+Pero Pekín hace tiempo quecerró el grifo al régimen de Maduroen cuanto apréstamos multimillonarios, rescates financieros o ambiciososproyectos energéticosque sí fluyeron durante la década pasada, cuando China se convirtió en el principal acreedor de Venezuela.
+Ahora, laprioridadeconómica para el Gobierno de Xi en la región pasa por mantener vínculos comerciales profundos y rentables con otros países comoBrasil, México, Chile o Perú, donde se pueden hacer negocios sin el lastre de las sanciones. Días antes de la operación militar estadounidense, la Administración de Donald Trump sancionó a empresas de Hong Kong y China continental por evadir las restricciones a la compra de petróleo venezolano.
+Aunque los medios estatales chinos estuvieron cargando en sus editoriales y columnas del domingo contra la acción militar estadounidense en Venezuela, también hay voces dentro del país asiático que creen que Pekín tirará de su habitual pragmatismo y se adaptará rápidamente al nuevo escenario que se abre en Caracas, tratando de proteger sus intereses energéticos y negociando con quien controle Venezuela.
+"Cuando la ley de la selva reemplaza a las normas internacionales, ninguna nación soberana está a salvo", señalaba el último editorial de la agencia estatalXinhua. "Las acciones de EEUU arrancaron por completo la máscara hipócrita de la lucha de Washington contra el narcotráfico, exponiendo el verdadero rostro del imperialismo. Primero, inventa acusaciones para destruir por la fuerza a un gobierno soberano, derroca su régimen y luego permite que su propio capital entre y saquee sus recursos naturales".</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C118" s="5" t="inlineStr">
+        <is>
+          <t>Corea del Norte denuncia la captura de Maduro por EEUU como una "grave violación de la soberanía"</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2026-01-04T11:36:36+01:00</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>La declaración se produjo después de que Corea del Norte lanzara misiles balísticos el domingo por la mañana, el mismo día en que el líder de Corea del Sur inicia una visita de Estado a China Leer</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Corea del Nortedenunció el domingo la captura del presidente venezolano,Nicolás Maduro, por parte de su acérrimo enemigo Estados Unidos como una "grave violación de la soberanía", informó la prensa estatal.
+El Ministerio de Relaciones Exteriores norcoreano "denuncia enérgicamente el acto hegemónico cometido por Estados Unidos en Venezuela como la más grave violación de la soberanía", afirmó un portavoz de esa cartera en un comunicado difundido por la agencia oficialKCNA.
+"El incidente es otro ejemplo que confirma una vez más la naturaleza deshonesta y brutal deEstados Unidos", añadió.
+La declaración se produjo después de que Corea del Norte lanzara misiles balísticosen sus primeras pruebas de armas de 2026 el domingo por la mañana, el mismo día en que el líder de Corea del Sur inicia una visita de Estado a China, principal aliado de Pyongyang.
+Pyongyangafirmó que la situación actual en Venezuela "ha tenido consecuencias catastróficas para asegurar la identidad de la estructura de relaciones regionales e internacionales".
+El Ministerio de Defensa de Japón indicó que "Corea del Norte disparó al menos dos misiles balísticos", los cuales habrían caído "fuera de la zona de exclusión económica japonesa". Se trata del primer lanzamiento norcoreano de misiles desde noviembre, cuando efectuó una prueba luego de que el presidente estadounidense,Donald Trump, aprobara el plan de Corea del Sur de construir un submarino de propulsión nuclear.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C119" s="5" t="inlineStr">
+        <is>
+          <t>Las dudas bombardean Venezuela</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2026-01-05T19:00:13+01:00</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>La primera reacción fue de euforia y de celebración espontánea. Los venezolanos por fin veían al tirano que los había encarcelado, reprimido, empobrecido y expatriado en manos de la fuerza Delta de Estados Unidos, vendado, esposado, rumbo a un tribunal donde se vería obligado a rendir cuentas por su carrera delictiva. No sólo era una sorpresa, era la recompensa postergada a tanto sufrimiento y a tanto derroche de energía. Porque los venezolanos no se quedaron nunca cruzados de brazos. En los pasados veinticinco años lo intentaron todo, desde la movilización ciudadana y la protesta, hasta las elecciones y las mesas de negociación (incluso una torpísima intentona golpista), y el resultado siempre fue el mismo: el atropello, la trampa, el cinismo y la vulgar celebración pública de la viveza de sus opresores. Ver la debilidad del régimen, la impostura de sus bravuconadas, el pasmo con el que las autoridades observaban cómo salía volando su mandamás para no volver nunca a Venezuela, fue catártico. Quien no se alegrara con esa noticia no había entendido nada o veía con buenos ojos el infierno que tuvieron que soportar los venezolanos. La legalidad internacional que se violó con la intervención no había evitado que Maduro cometiera ejecuciones extrajudiciales, torturas y persecución política, crímenes de lesa humanidad y escupitajos que lanzaba el tirano sobre cualquier norma impresa en el Estatuto de Roma, la Carta de la ONU o la Convención Interamericana de Derechos Humanos. Ya habíamos entendido cómo los populistas desmoronaban las democracias, pero lo que seguíamos sin saber, porque lo que solía funcionar ya no servía de nada, era qué debían hacer los demócratas para acabar con una dictadura. La falta de respuestas acabó invocando los misiles de Trump. Hubo euforia, pues, pero tras la celebración hemos tenido que apretar los dientes, rebajar el entusiasmo y enfrentar lo que se viene, que tampoco se ajusta a lo deseado. La mayor preocupación que se percibe es la ausencia de una palabra que todo el mundo quería escuchar, democracia, obliterada por completo y a conciencia del discurso público de Trump. No ha aparecido en su Estrategia de Seguridad Nacional ni en las justificaciones de la intervención en Caracas, y parece ya no figurar en el acervo lingüístico de los funcionarios de la Casa Blanca. Nadie habla de transición ni de normalización de la vida institucional, ni siquiera de los presos políticos, porque esa no es la prioridad del Gobierno estadounidense. Si algo cambió en estos años es que Estados Unidos dejó de defender sus valores democráticos dentro de sus fronteras y de exportarlos fuera de ellas. Con Trump llegó el ocaso del idealismo estadounidense y el comienzo de un siglo XXI marcado por el ejercicio rudo del poder y la búsqueda de beneficios comerciales. 'America First', esas dos palabras que sí hemos oído repetir hasta la náusea, significan eso: el hemisferio occidental va a tener que alinearse con los intereses de Estados Unidos. Quien lo haga saldrá beneficiado, o al menos no le irá tan mal, y quien se resista pagará las consecuencias. En Venezuela, esto significa lo que ya se ha hecho explícito. El interés inmediato de Trump es beneficiar a Estados Unidos. Esto supone controlar los recursos petroleros, y no tanto para suplir su demanda interna como para impedir que China y Rusia se beneficien e intervengan en los asuntos regionales. Este objetivo, al menos de manera inmediata, no demanda una transición democrática. A Trump le basta con someter a la cúpula madurista que se queda en el poder, y forzarla a que sean ellos mismos quienes controlen al Ejército, desmantelen los colectivos armados, cesen toda colaboración con las bandas narcoterroristas colombianas (que ya regresan a su país de origen, según parece), gestionen la vida cotidiana del Gobierno y, en resumidas cuentas, eviten experiencias caóticas como las de Irak o Siria. Trump y Marco Rubio, sobre todo este último, se juegan mucho con esta operación, y lo que menos les interesa es que haya brotes de anarquía que obliguen a una ocupación de largo aliento. Digámoslo de una vez: con el descabezamiento del régimen y la sumisión de Delcy Rodriguez, Diosdado Cabello y Vladimir Padrino se abre una verdadera opción para que Venezuela recupere su democracia, pero no fue para eso que Trump secuestró a Maduro . Seamos aún más realistas, incluso malpensados: puede que finalmente haya democracia en Venezuela, pero sólo si a Trump le conviene que la haya. Y acabemos siendo del todo crudos: es más fácil negociar con delincuentes arrepentidos y asustados, sin ninguna legitimidad ni otra opción que obedecer para seguir los pasos de Maduro, que con una mujer que tiene el apoyo de los venezolanos y un premio Nobel. Eso puede explicar que ni Edmundo González ni María Corina Machado hayan aparecido aún en la ecuación que maneja Trump para Venezuela. Mientras no haya garantía de estabilidad que permita a las compañías estadounidenses controlar el petróleo y asegurar la millonaria inversión que tendrán que hacer para reactivar un sector en bancarrota, los vencedores en las pasadas elecciones permanecerán en un segundo plano. Pero esto no significa que el escenario sea del todo apocalíptico o que se ajuste a la caricatura distópica que se dibuja en la mente de los más pesimistas. Hay que tener en cuenta una variable que ha pasado desapercibida. Por ahora todo el mundo está en sus casas, a la espera de cómo se desarrollan los acontecimientos, pero los venezolanos ya han sentido el cambio de aire, la imagen de la libertad ha quedado sembrada en sus cabezas y muchos fantasean con volver a su país. Es poco probable que se vayan a resignar a vivir bajo un 'madurismo 2.0' de baja intensidad. Puede que ahora Delcy Rodriguez garantice la calma y el equilibrio, pero a largo plazo su liderazgo es inviable. Si el pueblo se vuelve a levantar y protesta masivamente como en 2017, ¿un gobierno tutelado por Estados Unidos se va a atrever a usar la violencia para reprimirlo? No logro imaginarlo. Lejos de beneficiar a Estados Unidos, la perpetuación de una dictadura descafeinada puede ser la causa de desestabilización que intenta conjurar. En definitiva, todo irá más lento, habrá mucho escollos, una cuenta muy cara que pagar y muchos condicionantes que van a socavar, y no solo en Venezuela, en toda la región, la soberanía nacional. Pero al final, no por ética democrática sino por simple pragmatismo, lo sensato para Trump, y sobre todo para Rubio, que se juega una posible nominación presidencial, es que quienes ganaron las elecciones del 28 de julio de 2024 entren en escena para encauzar una transición o participar en unas nuevas elecciones. Ya no hay finales felices en este nuevo orden mundial, pero dentro de lo que cabe, rebajado todo idealismo y sumidos en el realismo sucio del trumpismo, este no estaría del todo mal.</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>LA TERCERA
+Carlos Granés
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+La primera reacción fue de euforia y de celebración espontánea. Los venezolanos por fin veían al tirano que los había encarcelado, reprimido, empobrecido y expatriado en manos de la fuerza Delta de Estados Unidos, vendado, esposado, rumbo a un tribunal donde se vería obligado a...rendir cuentas por su carrera delictiva. No sólo era una sorpresa, era la recompensa postergada a tanto sufrimiento y a tanto derroche de energía. Porque los venezolanos no se quedaron nunca cruzados de brazos. En los pasados veinticinco años lo intentaron todo, desdela movilización ciudadanay la protesta, hasta las elecciones y las mesas de negociación (incluso una torpísima intentona golpista), y el resultado siempre fue el mismo: el atropello, la trampa, el cinismo y la vulgar celebración pública de la viveza de sus opresores.
+Ver la debilidad del régimen, la impostura de sus bravuconadas, el pasmo con el que las autoridades observaban cómo salía volando su mandamás para no volver nunca a Venezuela, fue catártico. Quien no se alegrara con esa noticia no había entendido nada o veía con buenos ojos el infierno que tuvieron que soportar los venezolanos. La legalidad internacional que se violó con la intervención no había evitado que Maduro cometiera ejecuciones extrajudiciales, torturas y persecución política, crímenes de lesa humanidad y escupitajos que lanzaba el tirano sobre cualquier norma impresa en el Estatuto de Roma, la Carta de la ONU o la Convención Interamericana de Derechos Humanos. Ya habíamos entendido cómo los populistas desmoronaban las democracias, pero lo que seguíamos sin saber, porque lo que solía funcionar ya no servía de nada, era qué debían hacer los demócratas para acabar con una dictadura. La falta de respuestas acabó invocando los misiles de Trump.
+Hubo euforia, pues, pero tras la celebración hemos tenido que apretar los dientes, rebajar el entusiasmo y enfrentar lo que se viene, que tampoco se ajusta a lo deseado. La mayor preocupación que se percibe es la ausencia de una palabra que todo el mundo quería escuchar, democracia, obliterada por completo y a conciencia del discurso público de Trump. No ha aparecido en su Estrategia de Seguridad Nacional ni en las justificaciones de la intervención en Caracas, y parece ya no figurar en el acervo lingüístico de los funcionarios de la Casa Blanca. Nadie habla de transición ni de normalización de la vida institucional, ni siquiera de los presos políticos, porque esa no es la prioridad del Gobierno estadounidense. Si algo cambió en estos años es que Estados Unidos dejó de defender sus valores democráticos dentro de sus fronteras y de exportarlos fuera de ellas. Con Trump llegó el ocaso del idealismo estadounidense y el comienzo de un siglo XXI marcado por el ejercicio rudo del poder y la búsqueda de beneficios comerciales. 'America First', esas dos palabras que sí hemos oído repetir hasta la náusea, significan eso: el hemisferio occidental va a tener que alinearse con los intereses de Estados Unidos. Quien lo haga saldrá beneficiado, o al menos no le irá tan mal, y quien se resista pagará las consecuencias.
+En Venezuela, esto significa lo que ya se ha hecho explícito. El interés inmediato de Trump es beneficiar a Estados Unidos. Esto supone controlar los recursos petroleros, y no tanto para suplir su demanda interna como para impedir que China y Rusia se beneficien e intervengan en los asuntos regionales. Este objetivo, al menos de manera inmediata, no demanda una transición democrática. A Trump le basta con someter a la cúpula madurista que se queda en el poder, y forzarla a que sean ellos mismos quienes controlen al Ejército, desmantelen los colectivos armados, cesen toda colaboración con las bandas narcoterroristas colombianas (que ya regresan a su país de origen, según parece), gestionen la vida cotidiana del Gobierno y, en resumidas cuentas, eviten experiencias caóticas como las de Irak o Siria. Trump y Marco Rubio, sobre todo este último, se juegan mucho con esta operación, y lo que menos les interesa es que haya brotes de anarquía que obliguen a una ocupación de largo aliento.
+Digámoslo de una vez: con el descabezamiento del régimen y la sumisión de Delcy Rodriguez, Diosdado Cabello y Vladimir Padrino se abre una verdadera opción para que Venezuela recupere su democracia, pero no fue para eso queTrump secuestró a Maduro. Seamos aún más realistas, incluso malpensados: puede que finalmente haya democracia en Venezuela, pero sólo si a Trump le conviene que la haya. Y acabemos siendo del todo crudos: es más fácil negociar con delincuentes arrepentidos y asustados, sin ninguna legitimidad ni otra opción que obedecer para seguir los pasos de Maduro, que con una mujer que tiene el apoyo de los venezolanos y un premio Nobel. Eso puede explicar que ni Edmundo González ni María Corina Machado hayan aparecido aún en la ecuación que maneja Trump para Venezuela. Mientras no haya garantía de estabilidad que permita a las compañías estadounidenses controlar el petróleo y asegurar la millonaria inversión que tendrán que hacer para reactivar un sector en bancarrota, los vencedores en las pasadas elecciones permanecerán en un segundo plano.
+Pero esto no significa que el escenario sea del todo apocalíptico o que se ajuste a la caricatura distópica que se dibuja en la mente de los más pesimistas. Hay que tener en cuenta una variable que ha pasado desapercibida. Por ahora todo el mundo está en sus casas, a la espera de cómo se desarrollan los acontecimientos, pero los venezolanos ya han sentido el cambio de aire, la imagen de la libertad ha quedado sembrada en sus cabezas y muchos fantasean con volver a su país. Es poco probable que se vayan a resignar a vivir bajo un 'madurismo 2.0' de baja intensidad. Puede que ahoraDelcy Rodriguez garantice la calmay el equilibrio, pero a largo plazo su liderazgo es inviable. Si el pueblo se vuelve a levantar y protesta masivamente como en 2017, ¿un gobierno tutelado por Estados Unidos se va a atrever a usar la violencia para reprimirlo? No logro imaginarlo. Lejos de beneficiar a Estados Unidos, la perpetuación de una dictadura descafeinada puede ser la causa de desestabilización que intenta conjurar.
+En definitiva, todo irá más lento, habrá mucho escollos, una cuenta muy cara que pagar y muchos condicionantes que van a socavar, y no solo en Venezuela, en toda la región, la soberanía nacional. Pero al final, no por ética democrática sino por simple pragmatismo, lo sensato para Trump, y sobre todo para Rubio, que se juega una posible nominación presidencial, es que quienes ganaron las elecciones del 28 de julio de 2024 entren en escena para encauzar una transición o participar en unas nuevas elecciones. Ya no hay finales felices en este nuevo orden mundial, pero dentro de lo que cabe, rebajado todo idealismo y sumidos en el realismo sucio del trumpismo, este no estaría del todo mal.
+Es escritor</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C120" s="5" t="inlineStr">
+        <is>
+          <t>Venezuela para mí, Ucrania para ti</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2026-01-05T18:55:34+01:00</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Trump es un halcón de los negocios, un pragmático escaso de escrúpulos, al frente de una democracia provista de un sólido sistema de controles y contrapesos que garantiza la separación de poderes. Putin es un exagente del KGB criado a los pechos del comunismo soviético. Ambos desprecian profundamente los principios y se mueven por intereses; los de su país en el caso del norteamericano, los suyos propios si hablamos del ruso. Bajo esa premisa han acordado repartirse el mundo en áreas de influencia, dejando al margen a China, que reclama su propia porción: Taiwán. Si lo que barrunto es cierto, tal como apuntan los hechos, bajo la órbita de los Estados Unidos quedarían el continente americano y el área englobada... Ver Más</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>el contrapunto
+Isabel San Sebastián
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+Trump es un halcón de los negocios, un pragmático escaso de escrúpulos, al frente de una democracia provista de un sólido sistema de controles y contrapesos que garantiza la separación de poderes.Putin es un exagentedel KGB criado a los pechos del comunismo...soviético. Ambos desprecian profundamente los principios y se mueven por intereses; los de su país en el caso del norteamericano, los suyos propios si hablamos del ruso. Bajo esa premisa han acordado repartirse el mundo en áreas de influencia, dejando al margen a China, que reclama su propia porción: Taiwán.
+Si lo que barrunto es cierto, tal como apuntan los hechos, bajo la órbita de los Estados Unidos quedarían el continente americano y el área englobada en la OTAN, siempre que quienes disfrutan de ese paraguas defensivo cumplan con sus compromisos y no supongan para la nación líder un lastre demasiado pesado o un choque frontal insalvable con la otra parte, Rusia, que se adjudica el control de todo cuanto estuvo al este del Telón de Acero y no ha tenido la oportunidad de sumarse a la Alianza Atlántica. En ese contexto hay que entender la captura de Maduro, el anuncio de una transición pilotada desde Washington, con Delcy Rodríguez como peón del Gran Hermano y elecciones aparcadas hasta que él las considere oportunas, así como la advertencia de que las siguientes serán Cuba y Colombia, con un llamamiento explícito a que «la voz de Marco Rubio sea escuchada en todo el hemisferio». A esa lógica responden igualmentelas críticas de Trumpa las administraciones que se implicaron con hombres y armas en conflictos distantes miles de kilómetros (Irak, Afganistán, etcétera), mientras descuidaban lo que acontecía en su patio trasero. Y la misma razón explica que el valeroso Zelenski haya sido abandonado por la Casa Blanca, que lo presiona para que se rinda a Moscú o se enfrente a la ferocidad rusa sin más ayuda que la de Europa, cuyo papel en el nuevo orden internacional es insignificante, aunque no tanto como el de esta pobre España convertida por el tándem Zapatero-Sánchez en monaguillo del Grupo de Puebla. Ucrania es la cara oscura de la esperanza renacida con lo sucedido en Caracas.
+La era de los ideales quedó atrás, en el supuesto dudoso de que alguna vez estuviera vigente. Dicho lo cual, existen diferencias sustanciales entre caer a un lado de la línea divisoria o al otro. Si yo me hubiese visto obligada a escoger bando en esta tesitura endiablada, si solo hubiera podido elegir entre la ciudadanía venezolana y la ucraniana, mi carta a los Reyes Magos habría contenido una petición clara:quedarme cerca de Trump, confiada en un futuro democrático regido por María Corina Machado, y lejos de sátrapas que asesinan a cuantos intentan plantarles cara. Lejos de Putin, de Maduro y de toda su ralea.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C121" s="5" t="inlineStr">
+        <is>
+          <t>Al menos 17 muertos en las protestas en Irán, ¿cumplirá Trump su amenaza de atacar?</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2026-01-05T14:35:43+01:00</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Las protestas de comerciantes y estudiantes contra el régimen integrista iraní no cesan, una semana después de su irrupción en Teherán y en las principales ciudades de Irán, aparentemente por causas económicas. Al clamor inicial por el desplome de la moneda frente al dólar -el rial se ha depreciado la mitad desde marzo, impulsando una subida galopante de precios- se han añadido las consignas políticas contra el régimen jomeinista , y en muchos casos directamente contra el Líder Supremo, el ayatolá Jamenei , de 86 años. En estas fechas en que se observa que, en Venezuela, el chavismo pervivió 26 años en el poder, es oportuno recordar que en Irán la dictadura creada por el estamento clerical chií lleva 45 años imponiendo su lectura radical de la ley islámica en un país de 92 millones de habitantes y con una cultura milenaria. Según la oenegé kurda Hengaw , que tiene su base en Noruega, al menos 17 manifestantes han muerto ya a manos de la Policía antidisturbios. La cadena más importante del mundo árabe, Al Yasira, cifra en 14 las víctimas mortales , además de centenares de detenidos. Las manifestaciones y choques se centran en Teherán, en zonas del oeste y en la provincia sureña de Baluchistán. En su discurso del pasado sábado, Jamenei dijo que la protesta no tiene dimensiones nacionales, pero redujo su habitual tono apocalíptico y anunció que ha dado instrucciones al gobierno para que negocie con los representantes del comercio medidas de alivio. A estas alturas, las protestas son las mayores registradas en Irán desde las que se produjeron tras la muerte en comisaría de Mahsa Amini en 2022. La joven iraní de origen kurdo fue detenida un 16 de septiembre en Teherán por negarse a portar el velo. En el pasado Irán ha registrado protestas y represión, normalmente breves y rápidamente reprimidas por las fuerzas de seguridad. Pero en esta ocasión los analistas señalan que, en términos de asfixia económica, se está desbordando el vaso de la paciencia de la población . Y además se ha introducido el 'factor Trump'. El presidente norteamericano escribió en su red social la semana pasada -días antes de su intervención en Venezuela- que «si Irán dispara y mata a manifestantes pacíficos, lo que es su costumbre, EE.UU. acudirá en su rescate ». «Estamos armados, cargados y listos para ir allá», añadió el líder estadounidense. Hay un precedente reciente: los doce días de ataques contra las instalaciones nucleares iraníes del pasado mes de junio. El ataque norteamericano, combinado con otro israelí, no alcanzó sus objetivos, pero ha retrasado el programa persa de obtención del arma nuclear; y, lo que es peor para la población iraní, lo ha encarecido mucho. Esta vez, si Trump decide pasar a la acción en caso de que no cesen las protestas en Irán y la represión violenta, los objetivos son mucho más complejos. Podrían ser bases militares , instalaciones oficiales , o personajes concretos del cuadro jerárquico del régimen integrista, área en el que Israel puede ser clave por su pericia , ya que en el pasado asesinó a una lista de mandos militares y científicos nucleares iraníes con gran precisión. Hay un cierto tantán en la prensa sensacionalista de que el 'núcleo duro' del régimen iraní estaría estudiando un 'plan B' para el caso de tener que huir del país. Como lo han hecho en el pasado dictadores del corte de Ben Alí , en Túnez, o Bashar al Assad –más cercano por ser chií– en Siria. En ese sentido, una información del londinense 'The Times' cita fuentes anónimas de Inteligencia para afirmar que el líder Supremo Alí Jamenei estaría preparando su huida también a Moscú como Bashar al Assad. El Líder Supremo huiría junto a su familia y fieles más cercanos, en caso de que las protestas en Irán vayan a más, o de que las fuerzas de seguridad en algún momento cambien de bando. Después de medio siglo en el poder, es difícil imaginar que las estructuras del régimen tiránico iraní puedan desplomarse con tanta facilidad. Es verdad que Irán está tan aislado como otros regímenes árabes que han caído en el pasado reciente, pero a veces se olvida que –aunque musulmanes fanáticos– los líderes jomeinistas no son árabes sino persas. Y cuentan con la ayuda y la cercanía de China , su vecino y cliente principal de sus recursos energéticos.</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Francisco de Andrés
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+Las protestas de comerciantes y estudiantes contra elrégimen integrista iraníno cesan, una semana después de suirrupción en Teherány en las principales ciudades de Irán, aparentemente por causas económicas. Al clamor inicial por el desplome de la moneda frente al...dólar -el rial se ha depreciado la mitad desde marzo, impulsando una subida galopante de precios- se han añadido las consignas políticascontra el régimen jomeinista, y en muchos casos directamente contra el Líder Supremo, el ayatoláJamenei, de 86 años.
+En estas fechas en que se observa que, en Venezuela,el chavismopervivió 26 años en el poder, es oportuno recordar que en Irán la dictadura creada por el estamento clerical chií lleva 45 años imponiendo sulectura radical de la ley islámicaen un país de 92 millones de habitantes y con una cultura milenaria.
+Según la oenegé kurdaHengaw, que tiene su base en Noruega,al menos 17 manifestanteshan muerto ya a manos de la Policía antidisturbios. La cadena más importante del mundo árabe, Al Yasira, cifra en14 las víctimas mortales, además de centenares de detenidos. Las manifestaciones y choques se centran en Teherán, en zonas del oeste y en la provincia sureña de Baluchistán.
+En su discurso del pasado sábado, Jamenei dijo que la protesta no tiene dimensiones nacionales, pero redujo su habitual tono apocalíptico y anunció que ha dado instrucciones al gobierno para quenegocie con los representantesdel comercio medidas de alivio. A estas alturas, las protestas son las mayores registradas en Irán desde las que se produjeron tras la muerte en comisaría deMahsa Aminien 2022. La joven iraní de origen kurdo fue detenida un 16 de septiembre en Teherán por negarse a portar el velo.
+En el pasado Irán ha registrado protestas y represión, normalmente breves y rápidamente reprimidas por las fuerzas de seguridad. Pero en esta ocasión los analistas señalan que, en términos de asfixia económica, se estádesbordando el vaso de la paciencia de la población. Y además se ha introducido el 'factor Trump'.
+El presidente norteamericano escribió en su red social la semana pasada -días antes de su intervención en Venezuela- que «si Irán dispara y mata a manifestantes pacíficos, lo que es su costumbre,EE.UU. acudirá en su rescate». «Estamos armados, cargados y listos para ir allá», añadió el líder estadounidense.
+Hay un precedente reciente: losdoce días de ataques contra las instalaciones nucleares iraníesdel pasado mes de junio. El ataque norteamericano, combinado con otro israelí, no alcanzó sus objetivos, pero ha retrasado el programa persa de obtención del arma nuclear; y, lo que es peor para la población iraní, lo ha encarecido mucho.
+Esta vez, si Trump decide pasar a la acción en caso de que no cesen las protestas en Irán y la represión violenta, los objetivos son mucho más complejos. Podrían serbases militares,instalaciones oficiales, o personajes concretos del cuadro jerárquico del régimen integrista, área en el queIsrael puede ser clave por su pericia, ya que en el pasado asesinó a una lista de mandos militares y científicos nucleares iraníes con gran precisión.
+Hay un cierto tantán en la prensa sensacionalista de que el 'núcleo duro' del régimen iraní estaría estudiandoun 'plan B'para el caso de tener que huir del país. Como lo han hecho en el pasado dictadores del corte deBen Alí, en Túnez, oBashar al Assad–más cercano por ser chií– en Siria.
+En ese sentido, una información del londinense 'The Times' cita fuentes anónimas de Inteligencia para afirmar que el líder Supremo Alí Jamenei estaría preparando suhuida también a Moscúcomo Bashar al Assad. El Líder Supremo huiría junto a su familia y fieles más cercanos, en caso de que las protestas en Irán vayan a más, o de que las fuerzas de seguridad en algún momento cambien de bando.
+Después de medio siglo en el poder, es difícil imaginar que las estructuras del régimen tiránico iraní puedan desplomarse con tanta facilidad. Es verdad que Irán está tan aislado como otros regímenes árabes que han caído en el pasado reciente, pero a veces se olvida que –aunque musulmanes fanáticos– los líderes jomeinistas no son árabes sino persas. Ycuentan con la ayuda y la cercanía de China, su vecino y cliente principal de sus recursos energéticos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C122" s="5" t="inlineStr">
+        <is>
+          <t>Xi Jinping recurre a la ONU para defender a Maduro</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2026-01-05T10:15:02+01:00</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Para Venezuela China solo tiene palabras, y ni siquiera muchas. Poco importa que, horas antes de su captura este sábado a manos de tropas estadounidenses, Nicolás Maduro recibiera en el palacio de Miraflores a un emisario de Xi Jinping , el enviado para Asuntos Latinoamericanos Qiu Xiaoqi , para «ratificar el carácter inquebrantable de la hermandad entre Caracas y Pekín». El dictador venezolano duerme hoy en un calabozo neoyorkino y su «íntimo amigo, querido hermano y buen socio», según su última felicitación de cumpleaños, mantiene una actitud apenas distinguible de la indolencia . «El mundo experimenta cambios y turbulencias no vistos en un siglo, con actos unilaterales de hegemonía que socavan gravemente el orden internacional». La muletilla que el líder... Ver Más</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Jaime Santirso
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+Para Venezuela China solo tiene palabras, y ni siquiera muchas. Poco importa que, horas antes de su captura este sábado a manos de tropas estadounidenses,Nicolás Madurorecibiera en el palacio de Miraflores a unemisario de Xi Jinping, el enviado para Asuntos...LatinoamericanosQiu Xiaoqi, para «ratificar el carácter inquebrantable de la hermandad entre Caracas y Pekín». El dictador venezolano duerme hoy en uncalabozo neoyorkinoy su «íntimo amigo, querido hermano y buen socio», según su última felicitación de cumpleaños, mantiene una actitud apenas distinguible de laindolencia.
+«El mundo experimenta cambios y turbulencias no vistos en un siglo, con actos unilaterales de hegemonía que socavan gravemente el orden internacional». La muletilla que el líder chino coloca en cada aparición pública nunca ha sonado más evidente, sin necesidad de tener en cuenta la apostilla de reciente incorporación. Hoy la ha pronunciado durante su cumbre bilateral con el primer ministro irlandésMicheál Martin, pero el destinatario real aguardaba en Washington.
+Ahora bien: tampoco es quesus comentariostuvieran mucho filo. «Todos los países deben respetar las vías de desarrollo elegidas de forma independiente por los pueblos de otras naciones, acatar elderecho internacionaly los propósitos y principios de la Carta de Naciones Unidas; y las grandes potencias, en particular, deberían dar ejemplo en ese sentido», ha apuntado Xi, según declaraciones recogidas por la agencia oficial de noticias Xinhua.
+Antes se había manifestado el ministro de Exteriores,Wang Yi, en su caso durante un encuentro con su homólogo pakistaní,Ishaq Dar. «China nunca ha creído que algún país pueda desempeñar el papel de policía internacional, ni estamos de acuerdo en que algún país pueda erigirse enjuez internacional», afirmó el jefe de la diplomacia del gigante asiático. Este llamó a «respetar completamente la soberanía y la seguridad de todos los países» y aseguró que China rechaza «el uso de la fuerza en relaciones internacionales».
+Ahí empiezan y acaban las declaraciones de los mandatarios chinos sobre el episodio que ha agitado el orden internacional ydescabezado a su principal aliadoen Latinoamérica y un proveedor energético clave. Una cautela escenificada en el largo minuto que el portavoz del ministerio de Exteriores,Lin Jian, ha dedicado a hojear sus folios en busca de la respuesta preparada durante la rueda de prensa diaria del organismo.
+A pregunta de ABC, el representante gubernamental ha rehusado aclarar si el Gobierno chino ha mantenido ya algún tipo de interacción con la presidenta venezolana en funciones,Delcy Rodríguez; si Estados Unidos proporcionó algún tipo de información preventiva; o si su comitiva diplomática ha podido abandonar Caracas o permanece todavía en la capital venezolana.
+Durante su intervención Lin se ha aferrado a la retórica oficial, exigiendo la «liberación inmediata» de Maduro, con dos relevantes aportes. El primero, relativo al petróleo, la divisa con la que el chavismo ha pagado el apoyo del régimen chino desde la llegada al poder deHugo Chávez, hasta convertir al gigante asiático en su primer comprador de crudo, destino del 38% de los barriles producidos en 2024, un 4% de las importaciones chinas a nivel global.
+La voluntad expresa de EE.UU. deincrementar la productividadde la industria petrolífera permitiría, por tanto, aplacar posibles preocupaciones chinas en materia de suministro energético a corto plazo. En ese sentido, el portavoz de Exteriores ha dado a entender queChina mantendrá sus importacionespese a la situación.
+«La cooperación entre China y Venezuela se lleva a cabo entre dos Estados soberanos, está protegida por el derecho internacional y por las leyes de ambos países, independientemente de cómo pueda evolucionar la situación política en Venezuela. China está firmemente comprometida aprofundizar la cooperación prácticaentre ambos países en diversos ámbitos, y los derechos e intereses legítimos de la parte china en Venezuela estarán protegidos de conformidad con la ley», ha puntualizado Lin.
+En segundo lugar, el representante gubernamental ha asegurado que «China apoya que el Consejo de Seguridad de la ONU convoque unasesión de emergenciasobre el ataque aéreo de Estados Unidos contra Venezuela». «China está dispuesta a trabajar con la comunidad internacional paradefender firmemente la Carta de Naciones Unidasy mantener la justicia internacional», ha añadido, unas últimas declaraciones en ausencia no ya de hechos, sino de respuestas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C123" s="5" t="inlineStr">
+        <is>
+          <t>La hora de unir negocio y disrupción: así evolucionará la nueva economía en 2026</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2026-01-05T17:11:18+01:00</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Acabamos de cerrar un 2025 profundamente intenso y que, en el universo tech, pasará a la historia por noticias como el fenómeno DeepSeek , el modelo chino de inteligencia artificial que rompió el mercado al demostrar una eficiencia altísima con un coste de entrenamiento inferior al de sus competidores occidentales, el esperado lanzamiento de GPT-5, la versión más inteligente de la famosa herramienta de OpenAI, la presentación por parte de Microsoft de Majorana 1 , el primer chip cuántico del mundo impulsado por una nueva arquitectura de núcleo topológico con la que se esperan ordenadores cuánticos comerciales que resuelvan problemas complejos en años en lugar de décadas… La velocidad del cambio supera cualquier previsión, por lo que la capacidad de adaptación ya no es una ventaja competitiva, sino un requisito de supervivencia. A pesar de las incertidumbres geopolíticas que azotan el mundo y que no parece que vayan a solucionarse a corto plazo, el año que acabamos de estrenar supone una oportunidad para mirar hacia delante, para dar el impulso definitivo a revoluciones como la del hidrógeno verde, esencial para avanzar en la descarbonización, o la de la IA agéntica , diseñada para tomar decisiones con mínima (o ninguna) intervención humana. Las empresas apostarán por estrategias de digitalización que se traduzcan en eficiencias tangibles y experiencias personalizadas, huyendo de la tecnología como un fin en sí mismo para buscar el retorno de inversión directo. También será el curso en el que la sostenibilidad revalide su condición de imperativo transversal sin el cual los proyectos empresariales, por muy ambiciosos que sean, carecerán de crédito ante la sociedad. Asistiremos a un entorno de alta exigencia, en el que los avances técnicos habrán de acompasarse con un compromiso ético, un binomio indisoluble para abordar los grandes retos de nuestra sociedad. El 2026 se perfila como un año de continuación de las inercias tecnológicas recientes, de convergencia entre diversas corrientes de innovación para forjar una economía más resiliente y responsable. Especialistas de primer nivel abordan para ABC las tendencias que definirán el rumbo de este nuevo año. El momento de la cultura FinOps En un tiempo récord, esta tecnología se ha consolidado como una herramienta con capacidad de transformar la actividad de empresas, administraciones públicas y ciudadanos. El frenesí por la inteligencia artificial continuará en 2026, aunque algunas de las empresas detrás de su desarrollo se replantearán la forma de proceder. Antonio Pita, profesor de los Estudios de Informática, Multimedia y Telecomunicación de la Universitat Oberta de Catalunya (UOC), vaticina que coexistirán dos rutas de investigación: la de los gigantes que siguen escalando modelos de lenguaje de gran tamaño (LLM) y la de quienes creen que ese camino no basta para alcanzar la ansiada inteligencia artificial general (AGI). Yann LeCun, hasta hace poco jefe de IA en Meta, trabaja, por ejemplo, en modelos alternativos conocidos como 'world models', arquitecturas que intentan razonar, recordar y planificar como lo haría un ser vivo. El docente cree que si 2025 fue el año de las demos, los errores y los aprendizajes, los próximos meses estarán marcados por la implementación real, pero en pequeñas dosis: «Los agentes de IA empiezan a infiltrarse en tareas muy concretas, como redactar informes, vigilar bases de datos, monitorizar a la competencia y generar documentación». Las compañías que los integren de forma sensata, dice, ganarán velocidad, mientras que las que los aíslen como juguetes de laboratorio perderán la carrera silenciosa de la eficiencia. José Monteiro, CEO de The Game Changers Lab, explica a este periódico que más que por la tecnología en sí, que evolucionará hasta límites impensables, este año habrá una preocupación creciente por los costes asociados a la inteligencia artificial generativa , por lo que las compañías actuarán en consecuencia. «Cada consulta se traduce en un flujo bidireccional de datos, un token de entrada (input) y otro de salida (output). Imaginemos un banco que en su app gestiona millones de interacciones diarias a través de modelos de terceros… el volumen de procesamiento puede derivar en costes operativos de gran magnitud», advierte. Es por ello que una tendencia de este año y sucesivos será la adopción de FinOps, prácticas para optimizar los costes de la nube. El experto recuerda que según previsiones de la consultora IDC, para el año 2027, el 75% de las empresas a nivel global combinarán IA generativa con procesos de FinOps. Otra tendencia del nuevo año será una mayor implicación del CEO en las iniciativas en torno a esta tecnología, con una aproximación 'top-down'. «Más que una herramienta tecnológica, la inteligencia artificial es puro negocio», señala como causa de la pujanza de este enfoque. También serán habituales en las empresas las asociaciones entre el departamento IT y el de Recursos Humanos porque la democratización de la inteligencia artificial exigirá un plan de transformación cultural general. Foco en la cadena de suministro Más que un simple escudo técnico, la ciberseguridad pasará a concebirse como el sistema inmunológico vital de cualquier organización ante el perfeccionamiento de los ataques. Francisco Valencia, director general de Secure&amp;IT, compañía española de TI referente en el ámbito de la ciberseguridad, asegura que este campo afronta en 2026 un escenario cada vez más complejo, «marcado por el avance de la inteligencia artificial, el aumento sostenido de los ciberataques y una presión creciente sobre la cadena de suministro». A su juicio, sectores críticos como pueden ser el financiero, sanitario, industrial, energético y las administraciones públicas seguirán siendo los principales objetivos, «con ataques más frecuentes, sofisticados y con mayor impacto operativo y reputacional». La inteligencia artificial, augura el experto, se consolidará como un arma de doble filo: clave para mejorar la detección y respuesta ante incidentes, pero también utilizada por los ciberdelincuentes para automatizar ataques, crear campañas más creíbles y desarrollar malware adaptable. «A todo esto se suma el riesgo creciente en la cadena de suministro, donde un fallo en un proveedor puede desencadenar efectos negativos en cascada». Es este un aspecto en el que también ahonda Excelia, multinacional española de consultoría, tecnología y servicios profesionales, que señala que a lo largo de este curso la monitorización de terceros y la implementación de mecanismos de ciberseguridad integrados serán esenciales para garantizar la continuidad y resiliencia del negocio, dado que los riesgos externos y los incidentes en proveedores seguirán creciendo en complejidad e impacto. Francisco Valencia recuerda que el cumplimiento normativo, impulsado por reglamentos como NIS2 o DORA , ganará protagonismo como factor de confianza y competitividad: «Mientras tanto, el ransomware seguirá siendo la amenaza dominante. En este contexto, la tecnología es esencial, pero debemos tener en cuenta que la formación y la cultura de seguridad seguirán siendo decisivas». En definitiva, la resiliencia de las organizaciones dependerá, sobre todo, de su capacidad para hacer de la seguridad un valor compartido por todo el equipo. Un nuevo KPI para el CIO La sostenibilidad ha dejado de ser una declaración de buenas intenciones para convertirse en un indicador clave para medir el éxito del CIO (Chief Information Officer o Director de Sistemas de Información), un cambio propiciado por dos factores, según la consultora tecnológica Seidor. Por un lado, regulaciones estrictas como la normativa europea CSRD , que obliga a las compañías a reportar de forma detallada en sostenibilidad, y, por otro, la propia 'paradoja de la IA'. «La tecnología que optimiza la eficiencia operativa es, a su vez, intensiva en consumo de recursos », explican los expertos de la firma. Para resolver esta contradicción, prevén un auge de las prácticas de 'GreenOps', es decir, gestión de la nube pensando en costes económicos y también en impacto ambiental. «Las empresas deberán equilibrar la innovación con la huella de carbono, haciendo de la eficiencia del hardware (uso de LPUs/NPUs, chips especializados en acelerar la IA con menos consumo que los procesadores tradicionales, y optimización de modelos) una decisión tanto financiera como de responsabilidad corporativa», concluyen. Operativa de precisión total La consultora McKinsey &amp; Company ha publicado recientemente un informe que aborda el futuro del sector bancario y concluye que el tamaño no es un factor determinante porque la ventaja competitiva se desplazará hacia la denominada 'banca de precisión', un concepto que se sustenta en cuatro pilares. El primero es la inversión selectiva en inteligencia artificial para elevar la productividad y optimizar el retorno sobre el capital. El segundo gira en torno al cliente. «Las entidades financieras tendrán que emigrar de la segmentación tradicional a la personalización total, adaptando productos y servicios a cada persona», expone. En un mercado saturado de ofertas genéricas, la capacidad de tratar a cada cliente como un individuo único será el mayor activo de fidelización. El tercer elemento que cobrará importancia en 2026 son las fusiones y adquisiciones, aunque la consultora aclara: «Operaciones enfocadas en capacidades estratégicas y presencia local, no en la escala por sí misma». Por último, incide en que hará falta que los bancos gestionen el capital con una visión granular –por producto y por cliente– para liberar recursos y reasignarlos con precisión. La IA agéntica podría transformar áreas críticas como depósitos, pagos, riesgo, productividad comercial y automatización del servicio al cliente. El informe señala que la capacidad del sector para generar valor sostenible dependerá de su habilidad para escalar la inteligencia artificial más allá de los proyectos piloto e impulsar transformaciones profundas. En un plazo de tres a cinco años, estima, podrían emergen incluso bancos nativos en IA capaces de ganar cuota de mercado con rapidez frente a las entidades tradicionales. Un universo de oportunidades que, sin duda, empezará a acelerarse este 2026. Orquestación inteligente Pagar se ha convertido en un acto invisible, pero detrás de cada transacción se libra una batalla de algoritmos. Con una Europa asimétrica donde cada país dicta sus propias reglas de juego, los comercios se enfrentan al reto de satisfacer a usuarios cada vez más exigentes sin disparar sus costes operativos. La respuesta está en la orquestación inteligente. «El sector de pagos digitales y fintech opera en un entorno de creciente complejidad, con más métodos, más esquemas locales y mayores expectativas por parte de comercios y usuarios. A ello se suma una Europa claramente asimétrica, donde cada país ha desarrollado soluciones y hábitos de pago propios. En este contexto, la orquestación inteligente de pagos se ha consolidado como la gran tendencia, al permitir decidir en tiempo real cómo ejecutar cada transacción, eligiendo método y ruta según coste, riesgo y experiencia», subraya José Luis Nevado, CEO de Sipay. Sobre esa base, el 'agentic commerce' empieza a materializarse. Se trata de agentes de IA capaces de actuar en nombre del usuario, entendiendo su contexto y preferencias, y tomando decisiones de compra y pago de manera autónoma, sin intervención constante. «En paralelo, los pagos 'account-to-account' ganarán peso en usos comerciales gracias a los pagos inmediatos. En España, Bizum ha impulsado una adopción masiva, y el siguiente paso es progresar hacia esquemas interoperables a escala europea», vaticina. Al mismo tiempo, avanza la convergencia entre pagos, software y servicios. «Los ISVs, proveedores de software sectorial como TPVs o plataformas de gestión –dice– integran el pago de forma nativa en sus soluciones, haciendo que el cobro forme parte del flujo operativo del negocio y se convierta en una palanca directa de eficiencia y crecimiento». Búsqueda de hipereficiencia Los operadores de telecomunicaciones deberán elegir entre ser meros proveedores de conectividad o actores digitales relevantes. Luis Manuel Díaz de Terán, vicepresidente y director de telecomunicaciones de Capgemini Engineering en España, explica a ABC que para lograr esto último es clave que aprovechen una serie de tendencias tecnológicas. La IA, por ejemplo, será esencial para tener redes de telecomunicaciones «hipereficientes que se autoconfiguran y autoreparan, garantizando siempre una experiencia de usuario perfecta». Va más allá: «No es solo eso, sino que gracias a la IA los operadores pueden desarrollar nuevos servicios personalizados, seguros y fiables tanto para los usuarios de residencial como para las empresas». Otra tecnología que no habrá que perder de vista será el cómputo cercano ( edge computing ) porque gracias a él «los operadores pueden desarrollar servicios punteros para empresas y clientes con una latencia imperceptible para el ser humano», algo decisivo para la utilización eficiente de robots o para la conducción autónoma. En lo que respecta al cloud, resultará de utilidad tanto para ofrecer servicios de una manera más eficiente y rápida a sus clientes como para garantizar la soberanía y fiabilidad de los mismos, según el experto. Por otro lado, cree que el dominio de la computación cuántica para garantizar la seguridad de las comunicaciones será otra de las áreas tecnológicas emergentes que los operadores habrán de vigilar. Las comunicaciones no terrestres también ocuparán un lugar destacado. «Europa y sus operadores deben aprovechar y garantizar la cobertura y las comunicaciones en cualquier lugar y ante cualquier eventualidad. Garantizar esta soberanía tecnológica es especialmente importante en un mundo con una situación geopolítica más inestable», dice. Y naturalmente el 6G dará que hablar. «No solo aumentará el ancho de banda en un factor de x1000, reducirá la latencia al orden de microsegundos o aumentará exponencialmente el número de dispositivos conectados, sino que llevará la IA de manera nativa en la red, que pasará a ser capaz de sentir y dar cobertura y servicio de una manera hiperflexible e hipereficiente». Señales de recuperación Constituyen uno de los motores de la nueva economía y en 2026 las perspectivas son buenas. «En España, el ciclo de inversión que venimos viviendo es bastante claro: sobrecalentamiento (2020–2021), corrección (2022–2023) y normalización selectiva (2024–2025). Para 2026, mi lectura es sencilla: habrá capital (hay mucho fondo con pólvora en la recámara), pero irá a compañías con fundamentos sólidos, foco y capacidad de ejecución», asegura Nacho Ormeño, cofundador y CEO de StartupXplore. En su opinión, España llega a 2026 con un ecosistema más maduro y señales de recuperación de la actividad, en especial en el último semestre de 2025. «Mi apuesta es que los ganadores de 2026–2027 serán equipos con un producto global, una estrategia de llegada a mercado eficiente y una ventaja competitiva clara», apunta. Y, en concreto, los sectores que identifica con mayor potencial son: agentes de IA 'end-to-end', control del coste de la IA (AI FinOps/AI ROI), energía + data centers, ciberseguridad para la era IA; dual-use (civil + defensa), climatech , IA industrial, vertical SaaS con servicios integrados y fintech B2B 'por detrás' (infraestructura para cobros, pagos y conciliación). Marco regulatorio vibrante La biotecnología ya ha demostrado su potencial para generar conocimiento y convertirlo en soluciones innovadoras que mejoren la vida de las personas. De cara a 2026, se consolidará como un sector estratégico para la competitividad, la autonomía industrial y la sostenibilidad del Viejo Continente. Este año no será uno más, sino que estará condicionado por la evolución del marco regulatorio europeo, indica a este periódico la patronal española Asebio, que habla de «iniciativas clave» como la reciente Biotech Act I, la Critical Medicines Act, la ERA Act o la Estrategia Europea de Ciencias de la vida, que «buscan acelerar la innovación, reforzar la biofabricación y facilitar el acceso a financiación, datos e infraestructuras». En este escenario, «la adaptación regulatoria a tecnologías disruptivas como las NGTs (Nuevas Técnicas Genómicas), la inteligencia artificial o el uso avanzado de datos sanitarios será determinante, junto a la armonización normativa y la integración real del mercado único», completan desde Asebio. En paralelo, ganarán peso enfoques como One Health (concepto referido a una aproximación integral a la salud humana, animal y ambiental), la bioeconomía circular y la preparación frente a amenazas sanitarias. En nuestro país, el despliegue de la futura Estrategia de Tecnologías Profundas , así como otras industriales, de salud digital y de prevención, reforzará el papel de la biotecnología como motor de innovación, resiliencia y crecimiento sostenible. Anticipación de necesidades En un entorno donde la incertidumbre es la única constante, el sector ya no se conforma con ajustes puntuales, sino que busca una metamorfosis de calado. «Las tendencias en gran consumo están llevando a las compañías a replantear su negocio con cambios de fondo, orientados a competir mejor en un entorno más exigente. Desde BCG observamos que el crecimiento sostenible exige decisiones estratégicas claras y una mayor capacidad de adaptación», valora para ABC Joan Sol, Managing Director &amp; Partner de Boston Consulting Group, Responsable de Gran Consumo en Iberia. La transformación comienza con una reconfiguración activa del portfolio: «En contextos inciertos, priorizar resulta clave para concentrar recursos en categorías, marcas y capacidades con mayor potencial. A esto se suma una gestión más precisa del binomio precio-valor, porque con consumidores más atentos al valor recibido, acertar con el precio, el mix y la promoción se convierte en un factor determinante para proteger márgenes y sostener volumen». Otro elemento que gana relevancia como palanca de crecimiento es la personalización, «permitiendo construir relaciones más sólidas y maximizar el valor de cada interacción». Comprender mejor al consumidor y anticipar sus necesidades, dice Joan Sol, impulsa el crecimiento incluso en mercados maduros: «Todo ello se ve acelerado por la inteligencia artificial generativa y analítica avanzada, que mejora productividad, calidad de decisión e innovación». Automatización de procesos 2026 supondrá un año de profunda transformación, donde cristalizarán las grandes apuestas en innovación y tecnología de estos últimos años. Así lo cree Carlos Díez de la Lastra, CEO de Les Roches. «Los nuevos avances en digitalización y tecnología dejarán de ser algo experimental y adicional para convertirse en infraestructuras competitivas e imprescindibles para la cadena estratégica de la industria», dice. La verdadera diferenciación, a su juicio, estará en aquellos que ya no usen los datos y las nuevas aplicaciones de forma aislada, sino que las integren en su labor diaria de manera estratégica. «La adopción de modelos disruptivos, el uso masivo de datos para la hiperpersonalización de las ofertas y la automatización de procesos como palanca para redefinir el trabajo humano hacia un servicio más empático y de alto valor tomarán un protagonismo relevante», indica. Álvaro Carrillo de Albornoz, director general del Instituto Tecnológico Hotelero (ITH), apunta a una IA cada vez más integrada en el sector , con decisiones rápidas y basadas en datos. «Mejorará la previsión de demanda y el pricing, impulsará asistentes multicanal para atender durante todo el viaje y automatizará tareas operativas. Ese salto irá ligado a una gestión del dato más madura, base de la hiperpersonalización y de integraciones más fluidas entre plataformas de gestión, CRM y pagos, en tiempo casi real», señala. La automatización también se consolidará en robótica para apoyar limpieza y room service, reduciendo la carga física y liberando tiempo del equipo. «La experiencia del cliente será más digital con procesos móviles, llave digital y pagos integrados», completa. Este ecosistema exigirá ciberseguridad reforzada y una cultura preventiva. Por último, el IoT y la domótica impulsarán la sostenibilidad al monitorizar consumos y calcular la huella de carbono.</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>tendencias del nuevo curso
+Laura Montero Carretero
+Madrid
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+Acabamos de cerrar un 2025 profundamente intenso y que, en el universo tech, pasará a la historia por noticias como elfenómeno DeepSeek, el modelo chino de inteligencia artificial que rompió el mercado al demostrar una eficiencia altísima con un coste de entrenamiento inferior...al de sus competidores occidentales, el esperado lanzamiento de GPT-5, la versión más inteligente de la famosa herramienta de OpenAI, la presentación por parte de Microsoft deMajorana 1, el primer chip cuántico del mundo impulsado por una nueva arquitectura de núcleo topológico con la que se esperan ordenadores cuánticos comerciales que resuelvan problemas complejos en años en lugar de décadas... La velocidad del cambio supera cualquier previsión, por lo que la capacidad de adaptación ya no es una ventaja competitiva, sino un requisito de supervivencia.
+A pesar de las incertidumbres geopolíticas que azotan el mundo y que no parece que vayan a solucionarse a corto plazo, el año que acabamos de estrenar supone una oportunidad para mirar hacia delante, para dar el impulso definitivo a revoluciones como la del hidrógeno verde, esencial para avanzar en la descarbonización, o la de laIA agéntica, diseñada para tomar decisiones con mínima (o ninguna) intervención humana. Las empresas apostarán por estrategias de digitalización que se traduzcan en eficiencias tangibles y experiencias personalizadas, huyendo de la tecnología como un fin en sí mismo para buscar el retorno de inversión directo. También será el curso en el que la sostenibilidad revalide su condición de imperativo transversal sin el cual los proyectos empresariales, por muy ambiciosos que sean, carecerán de crédito ante la sociedad.
+Asistiremos a un entorno de alta exigencia, en el que los avances técnicos habrán de acompasarse con un compromiso ético, un binomio indisoluble para abordar los grandes retos de nuestra sociedad. El 2026 se perfila como un año de continuación de las inercias tecnológicas recientes, deconvergencia entre diversas corrientes de innovaciónpara forjar una economía más resiliente y responsable. Especialistas de primer nivel abordan para ABC las tendencias que definirán el rumbo de este nuevo año.
+El momento de la cultura FinOps
+En un tiempo récord, esta tecnología se ha consolidado como una herramienta con capacidad de transformar la actividad de empresas, administraciones públicas y ciudadanos. El frenesí por lainteligencia artificialcontinuará en 2026, aunque algunas de las empresas detrás de su desarrollo se replantearán la forma de proceder. Antonio Pita, profesor de los Estudios de Informática, Multimedia y Telecomunicación de la Universitat Oberta de Catalunya (UOC), vaticina que coexistirán dos rutas de investigación: la de los gigantes que siguen escalando modelos de lenguaje de gran tamaño (LLM) y la de quienes creen que ese camino no basta para alcanzar la ansiada inteligencia artificial general (AGI). Yann LeCun, hasta hace poco jefe de IA en Meta, trabaja, por ejemplo, en modelos alternativos conocidos como 'world models', arquitecturas que intentan razonar, recordar y planificar como lo haría un ser vivo.
+El docente cree que si 2025 fue el año de las demos, los errores y los aprendizajes, los próximos meses estarán marcados por la implementación real, pero en pequeñas dosis: «Los agentes de IA empiezan a infiltrarse en tareas muy concretas, como redactar informes, vigilar bases de datos, monitorizar a la competencia y generar documentación». Las compañías que los integren de forma sensata, dice, ganarán velocidad, mientras que las que los aíslen como juguetes de laboratorio perderán la carrera silenciosa de la eficiencia.
+José Monteiro, CEO de The Game Changers Lab, explica a este periódico que más que por la tecnología en sí, que evolucionará hasta límites impensables, este año habrá una preocupación creciente por los costes asociados a lainteligencia artificial generativa, por lo que las compañías actuarán en consecuencia. «Cada consulta se traduce en un flujo bidireccional de datos, un token de entrada (input) y otro de salida (output). Imaginemos un banco que en su app gestiona millones de interacciones diarias a través de modelos de terceros... el volumen de procesamiento puede derivar en costes operativos de gran magnitud», advierte. Es por ello que una tendencia de este año y sucesivos será la adopción de FinOps, prácticas para optimizar los costes de la nube. El experto recuerda que según previsiones de la consultora IDC, para el año 2027, el 75% de las empresas a nivel global combinarán IA generativa con procesos de FinOps.
+Otra tendencia del nuevo año será una mayor implicación del CEO en las iniciativas en torno a esta tecnología, con una aproximación 'top-down'. «Más que una herramienta tecnológica, la inteligencia artificial es puro negocio», señala como causa de la pujanza de este enfoque. También serán habituales en las empresas las asociaciones entre el departamento IT y el de Recursos Humanos porque la democratización de la inteligencia artificial exigirá un plan de transformación cultural general.
+Foco en la cadena de suministro
+Más que un simple escudo técnico, la ciberseguridad pasará a concebirse como el sistema inmunológico vital de cualquier organización ante el perfeccionamiento de los ataques. Francisco Valencia, director general de Secure&amp;IT, compañía española de TI referente en el ámbito de la ciberseguridad, asegura que este campo afronta en 2026 un escenario cada vez más complejo, «marcado por el avance de la inteligencia artificial, elaumento sostenido de los ciberataquesy una presión creciente sobre la cadena de suministro». A su juicio, sectores críticos como pueden ser el financiero, sanitario, industrial, energético y las administraciones públicas seguirán siendo los principales objetivos, «con ataques más frecuentes, sofisticados y con mayor impacto operativo y reputacional».
+La inteligencia artificial, augura el experto, se consolidará como un arma de doble filo: clave para mejorar la detección y respuesta ante incidentes, pero también utilizada por los ciberdelincuentes para automatizar ataques, crear campañas más creíbles y desarrollar malware adaptable. «A todo esto se suma el riesgo creciente en la cadena de suministro, donde un fallo en un proveedor puede desencadenar efectos negativos en cascada». Es este un aspecto en el que también ahonda Excelia, multinacional española de consultoría, tecnología y servicios profesionales, que señala que a lo largo de este curso la monitorización de terceros y la implementación de mecanismos de ciberseguridad integrados serán esenciales para garantizar la continuidad y resiliencia del negocio, dado que los riesgos externos y los incidentes en proveedores seguirán creciendo en complejidad e impacto.
+Francisco Valencia recuerda que el cumplimiento normativo, impulsado porreglamentos como NIS2 o DORA, ganará protagonismo como factor de confianza y competitividad: «Mientras tanto, el ransomware seguirá siendo la amenaza dominante. En este contexto, la tecnología es esencial, pero debemos tener en cuenta que la formación y la cultura de seguridad seguirán siendo decisivas». En definitiva, la resiliencia de las organizaciones dependerá, sobre todo, de su capacidad para hacer de la seguridad un valor compartido por todo el equipo.
+Un nuevo KPI para el CIO
+La sostenibilidad ha dejado de ser una declaración de buenas intenciones para convertirse en un indicador clave para medir el éxito del CIO (Chief Information Officer o Director de Sistemas de Información), un cambio propiciado por dos factores, según la consultora tecnológica Seidor. Por un lado, regulaciones estrictas como lanormativa europea CSRD, que obliga a las compañías a reportar de forma detallada en sostenibilidad, y, por otro, la propia 'paradoja de la IA'. «La tecnología que optimiza la eficiencia operativa es, a su vez,intensiva en consumo de recursos», explican los expertos de la firma. Para resolver esta contradicción, prevén un auge de las prácticas de 'GreenOps', es decir, gestión de la nube pensando en costes económicos y también en impacto ambiental. «Las empresas deberán equilibrar la innovación con la huella de carbono, haciendo de la eficiencia del hardware (uso de LPUs/NPUs, chips especializados en acelerar la IA con menos consumo que los procesadores tradicionales, y optimización de modelos) una decisión tanto financiera como de responsabilidad corporativa», concluyen.
+Operativa de precisión total
+La consultora McKinsey &amp; Company ha publicado recientemente un informe que aborda el futuro del sector bancario y concluye que el tamaño no es un factor determinante porque la ventaja competitiva se desplazará hacia la denominada 'banca de precisión', un concepto que se sustenta en cuatro pilares. El primero es la inversión selectiva en inteligencia artificial para elevar la productividad y optimizar el retorno sobre el capital. El segundo gira en torno al cliente. «Las entidades financieras tendrán que emigrar de la segmentación tradicional a la personalización total, adaptando productos y servicios a cada persona», expone. En un mercado saturado de ofertas genéricas, la capacidad de tratar a cada cliente como un individuo único será el mayor activo de fidelización.
+El tercer elemento que cobrará importancia en 2026 son las fusiones y adquisiciones, aunque la consultora aclara: «Operaciones enfocadas en capacidades estratégicas y presencia local, no en la escala por sí misma». Por último, incide en que hará falta que los bancos gestionen el capital con una visión granular –por producto y por cliente– para liberar recursos y reasignarlos con precisión. La IA agéntica podría transformar áreas críticas como depósitos, pagos, riesgo, productividad comercial y automatización del servicio al cliente.
+El informe señala que la capacidad del sector para generar valor sostenible dependerá de su habilidad para escalar lainteligencia artificialmás allá de los proyectos piloto e impulsar transformaciones profundas. En un plazo de tres a cinco años, estima, podrían emergen incluso bancos nativos en IA capaces de ganar cuota de mercado con rapidez frente a las entidades tradicionales. Un universo de oportunidades que, sin duda, empezará a acelerarse este 2026.
+Orquestación inteligente
+Pagar se ha convertido en un acto invisible, pero detrás de cada transacción se libra una batalla de algoritmos. Con una Europa asimétrica donde cada país dicta sus propias reglas de juego, los comercios se enfrentan al reto de satisfacer a usuarios cada vez más exigentes sin disparar sus costes operativos. La respuesta está en la orquestación inteligente. «Elsector de pagos digitales y fintechopera en un entorno de creciente complejidad, con más métodos, más esquemas locales y mayores expectativas por parte de comercios y usuarios. A ello se suma una Europa claramente asimétrica, donde cada país ha desarrollado soluciones y hábitos de pago propios. En este contexto, la orquestación inteligente de pagos se ha consolidado como la gran tendencia, al permitir decidir en tiempo real cómo ejecutar cada transacción, eligiendo método y ruta según coste, riesgo y experiencia», subraya José Luis Nevado, CEO de Sipay. Sobre esa base, el 'agentic commerce' empieza a materializarse. Se trata de agentes de IA capaces de actuar en nombre del usuario, entendiendo su contexto y preferencias, y tomando decisiones de compra y pago de manera autónoma, sin intervención constante.
+«En paralelo, los pagos 'account-to-account' ganarán peso en usos comerciales gracias a los pagos inmediatos. En España, Bizum ha impulsado una adopción masiva, y el siguiente paso es progresar hacia esquemas interoperables a escala europea», vaticina. Al mismo tiempo, avanza la convergencia entre pagos, software y servicios. «Los ISVs, proveedores de software sectorial como TPVs o plataformas de gestión –dice– integran el pago de forma nativa en sus soluciones, haciendo que el cobro forme parte del flujo operativo del negocio y se convierta en una palanca directa de eficiencia y crecimiento».
+Búsqueda de hipereficiencia
+Los operadores de telecomunicaciones deberán elegir entre ser meros proveedores de conectividad o actores digitales relevantes. Luis Manuel Díaz de Terán, vicepresidente y director de telecomunicaciones de Capgemini Engineering en España, explica a ABC que para lograr esto último es clave que aprovechen una serie de tendencias tecnológicas. La IA, por ejemplo, será esencial para tener redes de telecomunicaciones «hipereficientes que se autoconfiguran y autoreparan, garantizando siempre una experiencia de usuario perfecta». Va más allá: «No es solo eso, sino que gracias a la IA los operadores pueden desarrollar nuevos servicios personalizados, seguros y fiables tanto para los usuarios de residencial como para las empresas». Otra tecnología que no habrá que perder de vista será el cómputo cercano (edge computing) porque gracias a él «los operadores pueden desarrollar servicios punteros para empresas y clientes con una latencia imperceptible para el ser humano», algo decisivo para la utilización eficiente de robots o para la conducción autónoma.
+En lo que respecta al cloud, resultará de utilidad tanto para ofrecer servicios de una manera más eficiente y rápida a sus clientes como para garantizar la soberanía y fiabilidad de los mismos, según el experto. Por otro lado, cree que el dominio de lacomputación cuánticapara garantizar la seguridad de las comunicaciones será otra de las áreas tecnológicas emergentes que los operadores habrán de vigilar. Las comunicaciones no terrestres también ocuparán un lugar destacado. «Europa y sus operadores deben aprovechar y garantizar la cobertura y las comunicaciones en cualquier lugar y ante cualquier eventualidad. Garantizar esta soberanía tecnológica es especialmente importante en un mundo con una situación geopolítica más inestable», dice. Y naturalmente el 6G dará que hablar. «No solo aumentará el ancho de banda en un factor de x1000, reducirá la latencia al orden de microsegundos o aumentará exponencialmente el número de dispositivos conectados, sino que llevará la IA de manera nativa en la red, que pasará a ser capaz de sentir y dar cobertura y servicio de una manera hiperflexible e hipereficiente».
+Señales de recuperación
+Constituyen uno de los motores de la nueva economía y en 2026 las perspectivas son buenas. «En España, el ciclo de inversión que venimos viviendo es bastante claro: sobrecalentamiento (2020–2021), corrección (2022–2023) y normalización selectiva (2024–2025). Para 2026, mi lectura es sencilla: habrá capital (hay mucho fondo con pólvora en la recámara), pero irá a compañías con fundamentos sólidos, foco y capacidad de ejecución», asegura Nacho Ormeño, cofundador y CEO de StartupXplore.
+En su opinión, España llega a 2026 con un ecosistema más maduro y señales de recuperación de la actividad, en especial en el último semestre de 2025. «Mi apuesta es que los ganadores de 2026–2027 serán equipos con un producto global, una estrategia de llegada a mercado eficiente y una ventaja competitiva clara», apunta. Y, en concreto, los sectores que identifica con mayor potencial son: agentes de IA 'end-to-end', control del coste de la IA (AI FinOps/AI ROI), energía + data centers, ciberseguridad para la era IA; dual-use (civil + defensa),climatech, IA industrial, vertical SaaS con servicios integrados y fintech B2B 'por detrás' (infraestructura para cobros, pagos y conciliación).
+Marco regulatorio vibrante
+La biotecnología ya ha demostrado su potencial para generar conocimiento y convertirlo en soluciones innovadoras que mejoren la vida de las personas. De cara a 2026, se consolidará como un sector estratégico para la competitividad, la autonomía industrial y la sostenibilidad del Viejo Continente. Este año no será uno más, sino que estará condicionado por la evolución del marco regulatorio europeo, indica a este periódico la patronal española Asebio, que habla de «iniciativas clave» como la reciente Biotech Act I, la Critical Medicines Act, la ERA Act o la Estrategia Europea de Ciencias de la vida, que «buscan acelerar la innovación, reforzar la biofabricación y facilitar el acceso a financiación, datos e infraestructuras». En este escenario, «laadaptación regulatoriaa tecnologías disruptivas como las NGTs (Nuevas Técnicas Genómicas), la inteligencia artificial o el uso avanzado de datos sanitarios será determinante, junto a la armonización normativa y la integración real del mercado único», completan desde Asebio.
+En paralelo, ganarán peso enfoques como One Health (concepto referido a una aproximación integral a la salud humana, animal y ambiental), la bioeconomía circular y la preparación frente a amenazas sanitarias. En nuestro país, el despliegue de la futuraEstrategia de Tecnologías Profundas, así como otras industriales, de salud digital y de prevención, reforzará el papel de la biotecnología como motor de innovación, resiliencia y crecimiento sostenible.
+Anticipación de necesidades
+En un entorno donde la incertidumbre es la única constante, el sector ya no se conforma con ajustes puntuales, sino que busca una metamorfosis de calado. «Las tendencias en gran consumo están llevando a las compañías a replantear su negocio con cambios de fondo, orientados a competir mejor en un entorno más exigente. Desde BCG observamos que el crecimiento sostenible exige decisiones estratégicas claras y una mayor capacidad de adaptación», valora para ABC Joan Sol, Managing Director &amp; Partner de Boston Consulting Group, Responsable de Gran Consumo en Iberia.
+La transformación comienza con una reconfiguración activa del portfolio: «En contextos inciertos, priorizar resulta clave para concentrar recursos en categorías, marcas y capacidades con mayor potencial. A esto se suma una gestión más precisa del binomio precio-valor, porque con consumidores más atentos al valor recibido, acertar con el precio, el mix y la promoción se convierte en un factor determinante para proteger márgenes y sostener volumen». Otro elemento que gana relevancia como palanca de crecimiento es la personalización, «permitiendo construir relaciones más sólidas y maximizar el valor de cada interacción». Comprender mejor al consumidor y anticipar sus necesidades, dice Joan Sol, impulsa el crecimiento incluso en mercados maduros: «Todo ello se ve acelerado por la inteligencia artificial generativa y analítica avanzada, que mejora productividad, calidad de decisión e innovación».
+Automatización de procesos
+2026 supondrá un año de profunda transformación, donde cristalizarán las grandes apuestas en innovación y tecnología de estos últimos años. Así lo cree Carlos Díez de la Lastra, CEO de Les Roches. «Los nuevos avances en digitalización y tecnología dejarán de ser algo experimental y adicional para convertirse en infraestructuras competitivas e imprescindibles para la cadena estratégica de la industria», dice. La verdadera diferenciación, a su juicio, estará en aquellos que ya no usen los datos y las nuevas aplicaciones de forma aislada, sino que las integren en su labor diaria de manera estratégica. «La adopción de modelos disruptivos, el uso masivo de datos para la hiperpersonalización de las ofertas y la automatización de procesos como palanca para redefinir el trabajo humano hacia un servicio más empático y de alto valor tomarán un protagonismo relevante», indica.
+Álvaro Carrillo de Albornoz, director general del Instituto Tecnológico Hotelero (ITH), apunta a unaIA cada vez más integrada en el sector, con decisiones rápidas y basadas en datos. «Mejorará la previsión de demanda y el pricing, impulsará asistentes multicanal para atender durante todo el viaje y automatizará tareas operativas. Ese salto irá ligado a una gestión del dato más madura, base de la hiperpersonalización y de integraciones más fluidas entre plataformas de gestión, CRM y pagos, en tiempo casi real», señala.La automatización también se consolidará en robóticapara apoyar limpieza y room service, reduciendo la carga física y liberando tiempo del equipo. «La experiencia del cliente será más digital con procesos móviles, llave digital y pagos integrados», completa. Este ecosistema exigirá ciberseguridad reforzada y una cultura preventiva. Por último, el IoT y la domótica impulsarán la sostenibilidad al monitorizar consumos y calcular la huella de carbono.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C124" s="5" t="inlineStr">
+        <is>
+          <t>Entornos emprendedores: Asia toma la delantera</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2026-01-05T15:29:12+01:00</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>En el imaginario empresarial europeo, Silicon Valley ha sido durante años el modelo a seguir. Sin embargo, en la última década, los ecosistemas emprendedores de Asia han emergido como actores de primer nivel, capaces de combinar escala, capital y orientación al mercado con una agresiva agenda tecnológica. Bangalore, Shenzhen, Singapur o Yakarta ya no son periferias industriales: son centros neurálgicos de innovación. Según datos de CB Insights, en 2023 el 43% de los unicornios mundiales (empresas tecnológicas valoradas en más de 1.000 millones de dólares) se concentraban en Asia, frente al 28% en Europa. Más revelador aún: el volumen de capital riesgo invertido en startups asiáticas supera ya al europeo, con China e India a la cabeza, seguidos por el... Ver Más</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>John Müller
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+En el imaginario empresarial europeo, Silicon Valley ha sido durante años el modelo a seguir. Sin embargo, en la última década, los ecosistemasemprendedores de Asiahan emergido como actores de primer nivel, capaces de combinar escala, capital y orientación al mercado con una...agresiva agenda tecnológica. Bangalore, Shenzhen, Singapur o Yakarta ya no son periferias industriales: son centros neurálgicos de innovación.
+Según datos de CB Insights, en 2023 el 43% de los unicornios mundiales (empresas tecnológicas valoradas en más de 1.000 millones de dólares) se concentraban en Asia, frente al 28% en Europa. Más revelador aún: el volumen de capital riesgo invertido enstartups asiáticas supera ya al europeo,con China e India a la cabeza, seguidos por el sudeste asiático. Este dinamismo no es casual. Responde a políticas públicas ambiciosas, mercados internos vastos y una cultura de la competencia que se consolida entre nuevas generaciones. Mientras en Europa evitamos las calificaciones, cuestionamos la meritocracia o eliminamos los marcadores de los partidos de fútbol infantil para no humillar a los perdedores, en Asia compiten con crudeza darwiniana.
+Shenzhen, por ejemplo, se transformó en menos de tres décadas de un taller manufacturero a una ciudad laboratorio donde se incuban gigantes como Huawei, DJI o Tencent. La combinación de zonas especiales, inversión en I+D, protección relativa frente a competidores internacionales y una administración local proactiva explica parte del fenómeno. India, por su parte, ha cultivado un ecosistema denso en Bangalore e Hyderabad, con startups como Flipkart, Ola o Byju's, gracias a una diáspora técnica bien conectada y una infraestructura de formación STEM robusta.
+En el sudeste asiático, Singapur y Yakarta destacan por su dinamismo regional. El primero actúa como hub financiero y regulatorio con fuerte atracción de capital; el segundo como mercado de consumo digital con gran potencial demográfico. Empresas como Grab, Gojek o Tokopedia han aprovechado estos entornos para escalar rápidamente.
+Europa, en contraste, sigue enfrentando fragmentación regulatoria, rigidez laboral y menor disponibilidad de capital riesgo. A pesar de iniciativas como la European Innovation Council o los fondos del BEI, el ecosistema europeo carece de ambición. Startups prometedoras, como BlaBlaCar, TransferWise o N26, a menudo deben migrar su sede o captar inversión fuera del continente para crecer. La falta de un mercado digital único real y la dispersión normativa agravan la situación.
+No obstante, hay excepciones. Berlín, Estocolmo o Lisboa han logrado articular polos de innovación pujantes, gracias a una mezcla de talento, costes contenidos y apertura internacional. Pero incluso estos hubs enfrentan limitaciones estructurales para competir con la escala asiática. Además, el conservadurismo financiero europeo contrasta con la agresividad del venture capital asiático, donde fondos soberanos y conglomerados familiares no dudan en apostar fuerte por tecnológicas en fase temprana. Lalección de Asiano es replicar mecánicamente sus modelos, sino entender que el emprendimiento requiere «entornos habilitantes»: regulación flexible, acceso a capital, educación técnica, protección del fracaso y una narrativa de ambición. El exceso de cautela regulatoria en Europa, unido a una cultura de aversión al riesgo, penaliza la disrupción.
+A esto se suma la dimensión estratégica. China e India no consideran el emprendimiento tech como mero dinamismo económico, sino como palanca de soberanía digital y competitividad global. En Europa, salvo Francia y parcialmente Alemania, este enfoque es aún marginal. Laagenda digital de Bruselasestá más centrada en restringir que en incentivar, más en proteger que en escalar. En un contexto donde el poder se redefine por la capacidad de generar y escalar innovación, Europa necesita una visión más audaz. No bastan fondos públicos: se requiere un cambio cultural e institucional.
+Una pieza clave del ecosistema asiático ha sido la articulación entre sector público y privado. A diferencia de la separación tajante que a menudo impera en Europa, en países como Corea del Sur o China existen mecanismos de coordinación estratégica que permiten a las startups beneficiarse de grandes contratos estatales, integrarse en cadenas industriales o acceder a datos públicos para entrenar algoritmos. Esta sinergia, facilitada por la baja exigencia democrática de la población, les permite acelerar la escalabilidad de soluciones tecnológicas.
+Otro factor es la velocidad. En Asia, el ciclo de vida de una startup exitosa puede ser de apenas cinco a siete años desde su fundación hasta su salida a bolsa o adquisición, mientras que en Europa ese mismo proceso tiende a duplicarse. Esto no solo refleja la mayor agresividad inversora en Asia, sino también un entorno cultural que premia el crecimiento rápido y tolera el fracaso. El resultado es una renovación constante del tejido empresarial, algo que a Europa, con sus mercados más maduros y regulaciones más estrictas, le cuesta fomentar. Si Europa aspira a no quedar relegada en la carrera tecnológica global, debe revisar con urgencia sus prioridades.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C125" s="5" t="inlineStr">
+        <is>
+          <t>Terenci, la alegría del exceso</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2026-01-05T08:29:51+01:00</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Escribía Terenci Moix como fumaba, bajo la alegría del exceso. El tabaco, en él, era el eje del ritual, del gesto, de esa pose, tan suya, entre dandi al sol y faraón cansado. Incluso en la enfermedad última supo teatralizar la vida, montando en la clínica un ceñido altar fetichista. Mientras el cuerpo se debilitaba, el personaje resistía. Terenci nunca fue discreto, ni siquiera cuando la muerte supo acorralarle. Hoy, de no haberse ido, cumpliría 84 años. De modo que procede que vuelva. El barrio Chino de Barcelona fue su primer decorado, pero nunca su frontera. Desde muy pronto entendió que la realidad era solo una versión mal iluminada de lo que podía llegar a ser la vida si se... Ver Más</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Ladrón de fuego
+Ángel Antonio Herrera
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+Escribía Terenci Moix como fumaba, bajo la alegría del exceso. El tabaco, en él, era elejedel ritual, del gesto, de esa pose, tan suya, entre dandi al sol y faraón cansado. Incluso en la enfermedad última supo teatralizar la vida, montando en...la clínica un ceñido altar fetichista. Mientras el cuerpo se debilitaba, elpersonajeresistía. Terenci nunca fue discreto, ni siquiera cuando la muerte supo acorralarle. Hoy, de no haberse ido, cumpliría 84 años. De modo que procede que vuelva.
+El barrio Chino de Barcelona fue su primer decorado, pero nunca su frontera. Desde muy pronto entendió que la realidad era solo una versión mal iluminada de lo que podía llegar a ser la vida si se vivía con imaginación, deseo y desmesura. Por eso quiso ser rey de Egipto o centurión romano. Nunca por urgente extravagancia, sino por coherencia interior. Le adornaron de frívolo, y lo fue, pero con profundidad. Porque solo los superficiales creen que la frivolidad no piensa. Terenci pensaba desde el placer, desde el mito, desde la cultura popular, aupada a firmamentos de literatura.
+Fue un escritor promiscuo en géneros y referencias, un adúltero de enredar cómic, cine, prensa rosa y memoria personal hasta crear una resuelta voz inconfundible. Hoy igual está algo olvidado Terenci, pero estamos ante un autor importante que se negó a parecerlo. Mitómano desvelado, cultivó en el cine una patria emocional. Hubo un tiempo, allá en la adolescencia, en que sólo la pantalla le pareció habitable, y acaso desde entonces nunca salió del todo de ella. Sus libros están llenos de primeros planos, de música incidental, de heroínas trágicas y divas imposibles. Cuando hablaba de Sara Montiel lo hacía como quien recuerda a una madre imaginaria, a una diosa que lo salvó del tedio y de la tristeza. Algo tuvo de Truman Capote a la española, y con pasión ejercida por Egipto. A mí me gustan sus memorias: 'El cine de los sábados', 'El beso de Peter Pan' y 'Extraño en el paraíso'. En su funeral se cumplió la última escena de esa película que fue su vida libre, entusiasta y de fantasía. Sonaron las músicas de Sinuhé el egipcio y Blancanieves. No sólo ha dejado libros sino una manera de estar en el mundo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C126" s="5" t="inlineStr">
+        <is>
+          <t>La historia y el duro entrenamiento de la Delta Force: la unidad especial que ha capturado a Maduro</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2026-01-05T13:29:26+01:00</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Duró poco más que un suspiro; lo que un relámpago que cae, abrumador, para desaparecer en las sombras. Según ha explicado estos días Dan Caine, jefe del Estado Mayor Conjunto de las Fuerzas Armadas, la operación orquestada por el Ejército de los Estados Unidos para capturar a Nicolás Maduro se extendió apenas media hora. Treinta minutos en los que los integrantes de la Delta Force, una bregada unidad de operaciones especiales, asaltaron a golpe de helicóptero el complejo presidencial del dictador venezolano en Caracas . «Contaba con una sala que tenía puertas de acero, lo que llaman un espacio de seguridad, con acero sólido por todas partes», explicó Donald Trump. Dijo el orgulloso presidente norteamericano que Estados Unidos es el único país del mundo que cuenta con material y hombres lo bastante preparados para acometer una operación de estas características sin bajas. Y, aunque sus palabras sean exageradas, que vaya si lo son, la realidad es que los miembros de la Delta Force –los operadores, como se les denomina en jerga militar– se cuentan entre las unidades más preparadas y mejor entrenadas del mundo. «En la brillante operación que se saldó con la captura de Maduro, los Delta, que adquirieron fama tras la operación 'Restaurar la esperanza' en Mogadiscio, también han contado en esta ocasión con la ayuda inestimable del 160 SOAR, sus hermanos de armas en este tipo de operaciones de asalto, encargados de la infiltración y extracción de los operadores», explica a ABC el analista militar José Luis Hernández Garvi a ABC, En palabras del español, la Delta Force es «similar a los SEAL, pero, mientras que estos últimos pertenecen a la Marina, ellos son del Ejército de Tierra y son mucho menos conocidos». En la práctica, y a nivel oficial, los Estados Unidos mantienen sus operaciones bajo estricto secreto. O eso intentan, ya que su participación en misiones especiales está documentada desde que el grupo nació en 1977. «Tienen su base en Fort Bragg. No llevan identificativo y pueden ir vestidos como quieran. No hay una uniformidad concreta en la Delta Force, aunque el gobierno les da todo el equipo que puedan necesitar. Tampoco se les obliga a ir afeitados, por eso es posible verles en las fotografías con el pelo y la barba muy largos», completa el divulgador.Noticia Relacionada estandar Si China exige a Estados Unidos la liberación inmediata de Nicolás Maduro Jaime Santirso El gigante asiático, principal aliado internacional del régimen chavista, emite un segundo comunicado tras la confirmación del arresto del dictadorHoy se sabe que la Delta Force se divide en cuatro escuadrones (A, B, C y D) formados, a su vez, por tres secciones. Una de asalto, una de tiradores de precisión y una última de reconocimiento. «Estos últimos presumen de ser capaces de infiltrarse prácticamente en cualquier lugar y en cualquier condición en meteorológica para llevar a cabo sus funciones», añade Garvi. El español también confirma que el grupo está encuadrado en el Mando de Operaciones Especiales de las Fuerzas Armadas de los Estados Unidos, de la que también forman parte los SEAL , el 75º Regimiento Ranger, el 160.º Regimiento de Aviación de Operaciones Especiales (SOAR), los Boinas Verdes y el Regimiento Raider de los Marines.Duro entrenamiento de los DeltaUno de los pocos ensayos que ha puesto algo de luz sobre el entrenamiento ha sido ' Inside the Delta Force' , de Eric Haney. En la obra se especifica que el proceso de selección de reclutas se lleva a cabo dos veces al año –de marzo a abril y de septiembre a octubre– en Camp Dawson, que se extiende durante cuatro agotadoras semanas y que aborda varios aspectos diferentes: aptitud física –carrera y natación–; orientación terrestre –con un recorrido nocturno de 29 kilómetros cargado con 20 kilos–; habilidades de combate y evaluación psicológica. La primera premisa para acceder es poseer varios años de servicio en el ejército, haber superado el curso de paracaidismo militar y contar con un historial de servicio inmaculado. Según Garvi, esto hace que la mayor parte de los reclutas provengan del 75º Regimiento Ranger y de los Boinas Verdes.Aquellos que superan las pruebas acceden 'Delta Force OTC training ', el curso que permite convertirse en uno de sus miembros. En palabras de Haney, el proceso se extiende durante medio año y se divide en seis bloques de formación; cada uno de ellos, con un enfoque específico: puntería, demolición, habilidades combinadas, técnicas de inteligencia y protección de autoridades. El último mes se destina a evaluar a los operadores mediante un complejo ejercicio de varios días en el que se simula una misión real. En el mismo, los superiores analizan la capacidad de los soldados de trabajar en equipo, su adaptabilidad y su capacidad de tomar decisiones bajo presión. Es la guinda definitiva que les hace llegar a su límite mental y físico.Simulacro de asalto de los Delta Force, las tropas de élite de EE.UU. que capturaron a Maduro USAFEl OTC pone especial énfasis en la puntería de los reclutas en situaciones de estrés como la liberación de rehenes. Para ello, simulan rescates de civiles en grandes edificios, aviones y buques de guerra. Pero no es lo único. Los aspirantes, por ejemplo, deben convertirse en auténticos especialistas en el uso y fabricación de explosivos. No faltan tampoco los cursos en conducción táctica agresiva, a pesar de que parezca algo más propio de las películas de acción que de la vida real. A todo ello se suman unas pruebas físicas que fomentan la resistencia y la adaptación mental a un ambiente hostil.Superar este entrenamiento no es sencillo. Así lo dejó claro Eric Haney al explicar cómo era una de sus habituales marchas por el bosque con una mochila de 25 kilos a la espalda: «Ya había cubierto algo más de 30 millas, pero todavía me quedaban 20. Cada vez me era más difícil hacer cálculos sobre la velocidad que debía mantener. Las correas de la mochila me cortaban la circulación y generaban un hormigueo en mis manos. Me pellizcaban los nervios y las arterias e impedían el flujo de sangre. La mochila pesaba como un tren y me dolían los pies hasta la altura de las rodillas. Parecía que me los habían golpeado con un bate».Los aspirantes también están obligados a aprender técnicas más sibilinas para las misiones más delicadas. Así, la CIA les entrena en técnicas de espionaje que incluyen desde el perfilado de terroristas, hasta la transmisión de información sin ser descubiertos. Al final, apenas un 10% de los aspirantes supera el curso. Completado con éxito el OTC, los nuevos operadores Delta son asignados a uno de los escuadrones de la unidad. Nace la unidad que cazó a MaduroEl origen de estos soldados de élite hay que buscarlo en los años setenta. Por entonces Occidente se veía sacudida por una ola terrorista iniciada en septiembre de 1972 durante los Juegos Olímpicos de Múnich. Una fecha amarga en la que ocho terroristas palestinos del grupo 'Septiembre Negro', el mismo que ya había acabado con la vida del Primer Ministro de Jordania Wasfi Tall hacía menos de un año, se infiltraron en las estancias de los atletas y, tras presionar al gobierno, acabaron con la vida de nueve deportistas. La falta de experiencia de la policía hizo que, como se afirmó después, fuera imposible rescatar a los jóvenes.Esta violenta acción dejó conmocionado al mundo: se había iniciado una nueva era de delincuencia, la de aquellos que exigían ventajas políticas mediante el asesinato selectivo de civiles. Fueron muchos los países que se replantearon entonces la necesidad de crear un cuerpo capaz de acabar mediante un golpe seco con situaciones en las que estuvieran involucrados rehenes. Así nacieron, inspirados en antiguas unidades especiales de los ejércitos durante la Segunda Guerra Mundial , una infinidad de grupos policiales y militares dedicados a combatir el terrorismo.«Los Delta presumen de ser capaces de infiltrarse prácticamente en cualquier lugar y en cualquier condición en meteorológica para llevar a cabo sus funciones» José Luis Hernández Garvi«El objetivo de una unidad antiterrorista es hacer frente a situaciones extremas que otras unidades convencionales no pueden resolver. Para ello, cuentan con un equipamiento –tanto en lo referente a armamento como a vehículos, así como con su entrenamiento– específico para poder solventar las dificultades que puedan hallar. Su labor es actuar cuando la situación ya se ha sucedido y con el objetivo de evitar que se produzcan victimas. Por ello, hay que tener claro que no están destinadas a prevenir la delincuencia –para eso ya están los agentes al uso– sino a conseguir que no se produzcan muertes de civiles en una situación de extrema violencia fomentada por un grupo terrorista», explica a ABC José Luis Hernández Garvi, autor de libros como 'Héroes, villanos y genios' y analista militar.En aquellos años los decanos de los comandos eran los hombres del SAS, un cuerpo que ya había demostrado sus habilidades internándose tras las líneas nazis en la Segunda Guerra Mundial y que habían entrenado a los también populares Rangers estadounidenses. Enarbolando esta colaboración previa, y según explica Garvi a este diario, el coronel de los Boinas Verdes Charles Beckwith, que había luchado en los sesenta con los ingleses en una operación de contrainsurgencia en Malasia, entendió de inmediato que los Estados Unidos necesitaban un grupo de intervención antiterrorista militarizado. Es decir, «que dependiera del ejército norteamericano», como añade el autor español.Un operador de la Fuerza Delta empuña un CAR-15 mientras servía en el destacamento de protección del general Norman Schwarzkopf durante la Guerra del Golfo Pérsico UEMSteve Stone, autor de 'Fuerzas Especiales: Historias de Heroísmo Alrededor del Mundo', confirma en dicha obra que la Fuerza Delta, una de las unidades especiales de más reciente creación de Occidente, nació en 1977 con la ayuda de varios de los instructores del SAS. La premisa de Beckwith era establecer a un grupo de hombres que pudieran operar de forma independiente en el campo de batalla y que, ante todo, tuvieran una fortaleza mental y física fuera de lo común.Beckwith, un hombre rudo que había sobrevivido a un cartucho de ametralladora del gran calibre y había superado todo tipo de penurias en la jungla de Malasia, diseñó, con ayuda del SAS , las duras pruebas que debían superar los candidatos para formar parte de la nueva unidad. Mil misionesLos comandos de la Delta Force han combatido en una buena parte de las acciones militares orquestadas por los Estados Unidos. A principios de 1980 participaron en su primera misión de gran envergadura, la 'Operación Garra de Águila'. Su objetivo era rescatar a 52 rehenes retenidos en la embajada norteamericana de Teherán tras aterrizar en mitad del desierto. El resultado fue un desastre total. Los problemas de coordinación y una molesta tormenta de arena provocaron que un helicóptero CH-53 SEA Stallion se estrellase contra un avión Hércules y explotara. Nuestros protagonistas tuvieron que retirarse después de que fallecieran ocho de sus miembros.A partir de entonces sus actuaciones fueron mucho más exitosas. Así, hubo miembros de la Delta Force en la invasión de la isla de Granada, donde participaron en el rescate de varios rehenes; en Panamá, región en la que capturaron al dictador Manuel Noriega; en la Guerra del Golfo; en la Guerra de Afganistán o en la caza de Osama Bin Laden. Con todo, si por algo son recordados es por colaborar con los Rangers en la batalla de Mogadiscio de 1993. En aquella operación, en la que dos helicópteros fueron derribados durante una misión contraterrorista, dos de sus miembros obtuvieron la Medalla de Honor del Congreso por el valor demostrado.</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Manuel P. Villatoro
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+Duró poco más que un suspiro; lo que un relámpago que cae, abrumador, para desaparecer en las sombras. Según ha explicado estos días Dan Caine, jefe del Estado Mayor Conjunto de las Fuerzas Armadas, la operación orquestada por el Ejército de los Estados Unidos para...capturar a Nicolás Maduro se extendió apenas media hora. Treinta minutos en los que los integrantes de la Delta Force, una bregada unidad de operaciones especiales, asaltaron a golpe de helicóptero el complejopresidencial del dictador venezolano en Caracas. «Contaba con una sala que tenía puertas de acero, lo que llaman un espacio de seguridad, con acero sólido por todas partes», explicó Donald Trump.
+Dijo el orgulloso presidente norteamericano que Estados Unidos es el único país del mundo que cuenta con material y hombres lo bastante preparados para acometer una operación de estas características sin bajas. Y, aunque sus palabras sean exageradas, que vaya si lo son, la realidad es que los miembros de la Delta Force –los operadores, como se les denomina en jerga militar– se cuentan entre las unidades más preparadas y mejor entrenadas del mundo.
+«En la brillante operación que se saldó con la captura de Maduro, los Delta, que adquirieron fama tras la operación 'Restaurar la esperanza' en Mogadiscio, también han contado en esta ocasión con la ayuda inestimable del 160 SOAR, sus hermanos de armas en este tipo de operaciones de asalto, encargados de la infiltración y extracción de los operadores», explica a ABC el analista militarJosé Luis Hernández Garvia ABC,
+En palabras del español, la Delta Force es «similar a los SEAL, pero, mientras que estos últimos pertenecen a la Marina, ellos son del Ejército de Tierra y son mucho menos conocidos». En la práctica, y a nivel oficial, los Estados Unidos mantienen sus operaciones bajo estricto secreto. O eso intentan, ya que su participación en misiones especiales está documentada desde que el grupo nació en 1977. «Tienen su base en Fort Bragg. No llevan identificativo y pueden ir vestidos como quieran. No hay una uniformidad concreta en la Delta Force, aunque el gobierno les da todo el equipo que puedan necesitar. Tampoco se les obliga a ir afeitados, por eso es posible verles en las fotografías con el pelo y la barba muy largos», completa el divulgador.
+Hoy se sabe que la Delta Force se divide en cuatro escuadrones (A, B, C y D) formados, a su vez, por tres secciones. Una de asalto, una de tiradores de precisión y una última de reconocimiento. «Estos últimos presumen de ser capaces de infiltrarse prácticamente en cualquier lugar y en cualquier condición en meteorológica para llevar a cabo sus funciones», añade Garvi. El español también confirma que el grupo está encuadrado en el Mando de Operaciones Especiales de las Fuerzas Armadas de los Estados Unidos, de la que también forman parte losSEAL, el 75o Regimiento Ranger, el 160.o Regimiento de Aviación de Operaciones Especiales (SOAR), los Boinas Verdes y el Regimiento Raider de los Marines.
+Uno de los pocos ensayos que ha puesto algo de luz sobre el entrenamiento ha sido 'Inside the Delta Force', de Eric Haney. En la obra se especifica que el proceso de selección de reclutas se lleva a cabo dos veces al año –de marzo a abril y de septiembre a octubre– en Camp Dawson, que se extiende durante cuatro agotadoras semanas y que aborda varios aspectos diferentes: aptitud física –carrera y natación–; orientación terrestre –con un recorrido nocturno de 29 kilómetros cargado con 20 kilos–; habilidades de combate y evaluación psicológica. La primera premisa para acceder es poseer varios años de servicio en el ejército, haber superado el curso de paracaidismo militar y contar con un historial de servicio inmaculado. Según Garvi, esto hace que la mayor parte de los reclutas provengan del75o Regimiento Rangery de los Boinas Verdes.
+Aquellos que superan las pruebas acceden'Delta Force OTC training', el curso que permite convertirse en uno de sus miembros. En palabras de Haney, el proceso se extiende durante medio año y se divide en seis bloques de formación; cada uno de ellos, con un enfoque específico: puntería, demolición, habilidades combinadas, técnicas de inteligencia y protección de autoridades. El último mes se destina a evaluar a los operadores mediante un complejo ejercicio de varios días en el que se simula una misión real. En el mismo, los superiores analizan la capacidad de los soldados de trabajar en equipo, su adaptabilidad y su capacidad de tomar decisiones bajo presión. Es la guinda definitiva que les hace llegar a su límite mental y físico.
+El OTC pone especial énfasis en la puntería de los reclutas en situaciones de estrés como la liberación de rehenes. Para ello, simulan rescates de civiles en grandes edificios, aviones y buques de guerra. Pero no es lo único. Los aspirantes, por ejemplo, deben convertirse en auténticos especialistas en el uso y fabricación de explosivos. No faltan tampoco los cursos en conducción táctica agresiva, a pesar de que parezca algo más propio de las películas de acción que de la vida real. A todo ello se suman unas pruebas físicas que fomentan la resistencia y la adaptación mental a un ambiente hostil.
+Superar este entrenamiento no es sencillo. Así lo dejó claro Eric Haney al explicar cómo era una de sus habituales marchas por el bosque con una mochila de 25 kilos a la espalda: «Ya había cubierto algo más de 30 millas, pero todavía me quedaban 20. Cada vez me era más difícil hacer cálculos sobre la velocidad que debía mantener. Las correas de la mochila me cortaban la circulación y generaban un hormigueo en mis manos. Me pellizcaban los nervios y las arterias e impedían el flujo de sangre. La mochila pesaba como un tren y me dolían los pies hasta la altura de las rodillas. Parecía que me los habían golpeado con un bate».
+Los aspirantes también están obligados a aprender técnicas más sibilinas para las misiones más delicadas. Así, laCIAles entrena en técnicas de espionaje que incluyen desde el perfilado de terroristas, hasta la transmisión de información sin ser descubiertos. Al final, apenas un 10% de los aspirantes supera el curso. Completado con éxito el OTC, los nuevos operadores Delta son asignados a uno de los escuadrones de la unidad.
+El origen de estos soldados de élite hay que buscarlo en los años setenta. Por entonces Occidente se veía sacudida por una ola terrorista iniciada en septiembre de 1972 durante losJuegos Olímpicos de Múnich.Una fecha amarga en la que ocho terroristas palestinos del grupo 'Septiembre Negro', el mismo que ya había acabado con la vida del Primer Ministro de Jordania Wasfi Tall hacía menos de un año, se infiltraron en las estancias de los atletas y, tras presionar al gobierno, acabaron con la vida de nueve deportistas. La falta de experiencia de la policía hizo que, como se afirmó después, fuera imposible rescatar a los jóvenes.
+Esta violenta acción dejó conmocionado al mundo: se había iniciado una nueva era de delincuencia, la de aquellos que exigían ventajas políticas mediante el asesinato selectivo de civiles. Fueron muchos los países que se replantearon entonces la necesidad de crear un cuerpo capaz de acabar mediante un golpe seco con situaciones en las que estuvieran involucrados rehenes. Así nacieron, inspirados en antiguas unidades especiales de los ejércitos durante laSegunda Guerra Mundial, una infinidad de grupos policiales y militares dedicados a combatir el terrorismo.
+«Los Delta presumen de ser capaces de infiltrarse prácticamente en cualquier lugar y en cualquier condición en meteorológica para llevar a cabo sus funciones»
+José Luis Hernández Garvi
+«El objetivo de una unidad antiterrorista es hacer frente a situaciones extremas que otras unidades convencionales no pueden resolver. Para ello, cuentan con un equipamiento –tanto en lo referente a armamento como a vehículos, así como con su entrenamiento– específico para poder solventar las dificultades que puedan hallar. Su labor es actuar cuando la situación ya se ha sucedido y con el objetivo de evitar que se produzcan victimas. Por ello, hay que tener claro que no están destinadas a prevenir la delincuencia –para eso ya están los agentes al uso– sino a conseguir que no se produzcan muertes de civiles en una situación de extrema violencia fomentada por un grupo terrorista», explica a ABC José Luis Hernández Garvi, autor de libros como 'Héroes, villanos y genios' y analista militar.
+En aquellos años los decanos de los comandos eran los hombres del SAS, un cuerpo que ya había demostrado sus habilidades internándose tras las líneas nazis en la Segunda Guerra Mundial y que habían entrenado a los también populares Rangers estadounidenses. Enarbolando esta colaboración previa, y según explica Garvi a este diario, el coronel de los Boinas Verdes Charles Beckwith, que había luchado en los sesenta con los ingleses en una operación de contrainsurgencia en Malasia, entendió de inmediato que los Estados Unidos necesitaban un grupo de intervención antiterrorista militarizado. Es decir, «que dependiera del ejército norteamericano», como añade el autor español.
+Steve Stone, autor de 'Fuerzas Especiales: Historias de Heroísmo Alrededor del Mundo', confirma en dicha obra que la Fuerza Delta, una de las unidades especiales de más reciente creación de Occidente, nació en 1977 con la ayuda de varios de los instructores del SAS. La premisa de Beckwith era establecer a un grupo de hombres que pudieran operar de forma independiente en el campo de batalla y que, ante todo, tuvieran una fortaleza mental y física fuera de lo común.
+Beckwith, un hombre rudo que había sobrevivido a un cartucho de ametralladora del gran calibre y había superado todo tipo de penurias en la jungla de Malasia, diseñó, con ayuda delSAS, las duras pruebas que debían superar los candidatos para formar parte de la nueva unidad.
+Los comandos de la Delta Force han combatido en una buena parte de las acciones militares orquestadas por los Estados Unidos. A principios de 1980 participaron en su primera misión de gran envergadura, la 'Operación Garra de Águila'. Su objetivo era rescatar a 52 rehenes retenidos en la embajada norteamericana de Teherán tras aterrizar en mitad del desierto. El resultado fue un desastre total. Los problemas de coordinación y una molesta tormenta de arena provocaron que un helicóptero CH-53 SEA Stallion se estrellase contra un avión Hércules y explotara. Nuestros protagonistas tuvieron que retirarse después de que fallecieran ocho de sus miembros.
+A partir de entonces sus actuaciones fueron mucho más exitosas. Así, hubo miembros de la Delta Force en la invasión de la isla de Granada, donde participaron en el rescate de varios rehenes; en Panamá, región en la que capturaron al dictador Manuel Noriega; en la Guerra del Golfo; en la Guerra de Afganistán o en la caza de Osama Bin Laden. Con todo, si por algo son recordados es por colaborar con los Rangers en la batalla de Mogadiscio de 1993. En aquella operación, en la que dos helicópteros fueron derribados durante una misión contraterrorista, dos de sus miembros obtuvieron la Medalla de Honor del Congreso por el valor demostrado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C127" s="5" t="inlineStr">
+        <is>
+          <t>Transiberiano: el tren más largo del mundo</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Territorio geografía y medio ambiente</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2026-01-05T03:03:35+01:00</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>No deja de resultar una paradoja que el primero que pensó en un ferrocarril transiberiano fuera el empresario americano Perry Collins en 1857. La única forma de viajar más allá de los Urales era mediante trineos tirados por caballos que tenían que cruzar lagos y ríos helados. Hubo que esperar a 1890 para que el zar Alejandro III aprobara el proyecto de una vía para unir Moscú con Vladivostok en la costa del Pacífico. El ferrocarril entró en servicio en 1904. Más de 90.000 obreros trabajaron en su construcción a lo largo de 13 años . El coste ascendió a 35 millones de libras esterlinas, financiados mediante la compra de bonos rusos por parte de la banca francesa. Las obras fueron acometidas bajo la dirección del Gobierno y del propio zar , que era consciente de la necesidad de la infraestructura para integrar a Siberia en el Imperio ruso .El Transiberiano, el tren más largo del mundo , recorre 9.288 kilómetros. Atraviesa siete husos horarios tras cruzar las estepas, superar los Urales, adentrarse en la taiga siberiana y dejar atrás el lago Baikal , una de las mayores reservas del mundo de agua dulce . Sus paisajes subyugan a sus viajeros, que pueden hacer el viaje con paradas en las ciudades por las que pasa a lo largo de una semana que dura el trayecto sin interrupciones. Todos quienes han subido a sus vagones subrayan la belleza de los paisajes siberianos, de la inmensidad de sus bosques y el caudal de sus ríos . Hoy el tren incorpora una primera clase que incluye un lujoso restaurante y un esmerado servicio . Pero no era así en la época soviética. Según escribe Paul Theroux , el emblemático tren Rossiya parecía en 1973 «un armatoste antediluviano» con «distinciones de clase tan sutiles que hay que ser un marxista bien entrenado para poder apreciarlas». «El vagón restaurante estaba vacío y muy frío. Había escarcha en las ventanillas. El aliento de los empleados se había visible en forme de nubecillas de vapor cuando hablaban», relata Theroux. En aquella época, casa vagón contaba con una supervisora llamada 'provodnik', vigilantas que, al igual que en los hoteles rusos, eran las encargadas de mantener el orden e informaban a las autoridades de cualquier anomalía. Los camareros servían el té de unos samovares mientras circulaba el vodka a última hora de la tarde, en la que los viajeros intercambiaban confidencias.El Transiberiano sigue atravesando los Urales y se detiene en Ekaterimburgo, a 1.800 kilómetros de Moscú, la ciudad en la que fueron asesinados los zares. Luego cruza los ríos Obi y Yenisei antes de llegar a Irkutsk. En Ulán-Udé se coge el enlace con el Transmongoliano, que pasa por Ulán Bator y acaba en Pekín. En Chitá, se puede tomar el Transmanchuriano, que recorre varias regiones de China antes de llegar a Pekín.Hoy el tren incorpora una primera clase que incluye un lujoso restaurante y un esmerado servicio, aunque no siempre fue asíUno de los atractivos del recorrido son las estaciones de las pequeñas ciudades que jalonan la vía, pintadas de vivos colores y con grandes ventanas, con un estilo que evoca la 'belle époque'. La estación de Novosibirsk y su enorme vestíbulo recuerdan la estética estalinista con un gran patio que permite acceder a su interior.Este ferrocarril ha inspirado centenares de ensayos, novelas y filmes. En mi memoria, queda asociado a 'Pánico en el Transiberiano' , película de terror dirigida por Eugenio Martín, estrenada en 1972. En ella, un antropólogo regresa a Europa con los restos de un humanoide en una caja, que resucita al calor de una vieja profecía. Christopher Lee y Peter Cushing nos hacen estremecernos de miedo. El Transiberiano sigue siendo una leyenda y una fuente de inspiración a quienes se suben hoy a sus vagones por un precio de unos 2.500 dólares .</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>PASO a Vivel
+Pedro García Cuartango
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+No deja de resultar una paradoja que el primero que pensó en un ferrocarril transiberiano fuera el empresario americanoPerry Collinsen 1857. La única forma de viajar más allá de losUralesera mediante trineos tirados por caballos que tenían que cruzar...lagos y ríos helados. Hubo que esperar a 1890 para que el zar Alejandro III aprobara el proyecto de una vía para unir Moscú con Vladivostok en la costa del Pacífico.
+El ferrocarril entró en servicio en 1904. Más de90.000 obrerostrabajaron en suconstrucción a lo largo de 13 años. El coste ascendió a 35 millones de libras esterlinas, financiados mediante la compra de bonos rusos por parte de la banca francesa. Las obras fueron acometidas bajo la dirección del Gobierno y del propiozar, que era consciente de la necesidad de la infraestructura paraintegrar a Siberia en el Imperio ruso.
+El Transiberiano, el tren más largo del mundo, recorre 9.288 kilómetros. Atraviesa siete husos horarios tras cruzar las estepas, superar los Urales, adentrarse en la taiga siberiana y dejar atrás ellago Baikal, una de las mayoresreservasdel mundo deagua dulce. Sus paisajes subyugan a sus viajeros, que pueden hacer el viaje con paradas en las ciudades por las que pasa a lo largo de una semana que dura el trayecto sin interrupciones.
+Todos quienes han subido a sus vagones subrayan la belleza de los paisajes siberianos, de la inmensidad de susbosques y el caudal de sus ríos. Hoy el tren incorpora una primera clase que incluye un lujoso restaurante y unesmerado servicio. Pero no era así en la época soviética. Según escribePaul Theroux, el emblemáticotren Rossiyaparecía en 1973 «un armatoste antediluviano» con «distinciones de clase tan sutiles que hay que ser un marxista bien entrenado para poder apreciarlas».
+«El vagón restaurante estaba vacío y muy frío. Había escarcha en las ventanillas. El aliento de los empleados se había visible en forme de nubecillas de vapor cuando hablaban», relata Theroux. En aquella época, casa vagón contaba con una supervisora llamada 'provodnik', vigilantas que, al igual que en los hoteles rusos, eran las encargadas de mantener el orden e informaban a las autoridades de cualquier anomalía. Los camarerosservían el téde unos samovares mientras circulaba el vodka a última hora de la tarde, en la que los viajeros intercambiaban confidencias.
+El Transiberiano sigue atravesando los Urales y se detiene en Ekaterimburgo, a 1.800 kilómetros de Moscú, la ciudad en la que fueron asesinados los zares. Luego cruza losríos Obiy Yeniseiantes de llegar a Irkutsk. En Ulán-Udé se coge el enlace con el Transmongoliano, que pasa por Ulán Bator y acaba en Pekín. En Chitá, se puede tomar el Transmanchuriano, que recorre varias regiones de China antes de llegar a Pekín.
+Hoy el tren incorpora una primera clase que incluye un lujoso restaurante y un esmerado servicio, aunque no siempre fue así
+Uno de los atractivos del recorrido son lasestacionesde laspequeñas ciudadesque jalonan la vía, pintadas de vivos colores y con grandes ventanas, con un estilo que evoca la 'belle époque'. La estación de Novosibirsk y su enorme vestíbulo recuerdan la estética estalinista con un gran patio que permite acceder a su interior.
+Este ferrocarril ha inspirado centenares de ensayos, novelas y filmes. En mi memoria, queda asociado a'Pánico en el Transiberiano', película de terror dirigida por Eugenio Martín, estrenada en 1972. En ella, un antropólogo regresa a Europa con los restos de un humanoide en una caja, que resucita al calor de una vieja profecía.Christopher LeeyPeter Cushingnos hacen estremecernos de miedo. El Transiberiano sigue siendo una leyenda y una fuente de inspiración a quienes se suben hoy a sus vagones por un precio de unos2.500 dólares.</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C128" s="5" t="inlineStr">
+        <is>
+          <t>La guerra se normaliza</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2026-01-05T06:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Estados Unidos, Rusia y China imponen la fuerza militar para alcanzar sus objetivos estratégicos</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Xavier Mas de Xaxàs
+Barcelona
+Estados Unidos, China y Rusia tienen los ejércitos más importantes del mundo, fuerzas armadas muy agresivas que se despliegan más allá de sus fronteras para ampliar sus respectivas zonas de influencia. Si el principal papel de la carrera de armamentos durante la guerra fría fue la contención y la disuasión del enemigo, ahora es el ataque contra países que se consideran enemigos porque entorpecen la expansión estratégica de los más grandes. La captura del presidente venezolano Nicolás Maduro en Caracas es el último ejemplo de cómo el mundo ya no se basa en un sistema de leyes, sino de fuerza.
+La guerra como norma es el gran reto que afronta la humanidad en el 2026 porque EE.UU., China y Rusia se consideran grandes potencias con derecho a tratar al resto de estados con abierta hostilidad si no se someten a su diktat y con una falsa indulgencia si lo hacen. El Consejo de Seguridad de Naciones Unidas, el único organismo que podría imponer la diplomacia, hace tiempo que perdió su utilidad.
+La guerra vuelve a ser el poder supremo, así que los desheredados de la tierra seguirán muriendo en Ucrania, Palestina, Sudán, Yemen, Congo y en tantos otros conflictos armados.
+Uno de los helicópteros que Estados Unidos utilizó para llevar al presidente de Venezuela Nicolás Maduro aterriza en Nueva York
+ESTADOS UNIDOS
+El gendarme desatado
+Durante el 2025, Estados Unidos ha bombardeado Venezuela, Irán, Yemen, Siria, Somalia y Nigeria, además de supuestas narcolanchas en el Caribe y el Pacífico. También ha amenazado con atacar México y Colombia con el pretexto de que los carteles de la droga son organizaciones terroristas y el fentanilo un “arma de destrucción masiva”.
+Al secuestrar a Maduro en Caracas el pasado día 3, demuestra que también usará la fuerza para forzar un cambio de régimen de Cuba. Quiere que todo el hemisferio occidental esté a su merced.
+EE.UU., por lo tanto, es hoy un país más agresivo y está más alejado de sus aliados tradicionales, sobre todo en Europa.
+Trump ha roto el sistema estratégico que le llevó a la victoria sobre la URSS durante la guerra fría. Quiere una Europa rota y sometida hasta el extremo de que Dinamarca le entregue Groenlandia.
+La fuerza militar también se despliega e el interior del país. La guardia nacional sirve a sus intereses políticos y lo mismo hace el ICE, el cuerpo parapolicial que capturar a las personas indocumentadas y provoca graves tensiones sociales.
+Cuanto peor le vayan las encuestas, y más se acerquen las elecciones legislativas de noviembre, más recurrirá  la fuerza para fortalecer su imagen.
+MAGA, el movimiento ultraconservador que le respalda, ya no es el bloque homogéneo de hace un año. Aparecen grietas por el apoyo incondicional a Israel y la supuesta participación de Trump en las aventuras sexuales de su amigo Epstein. El presidente cada vez está más alejado del “conservadurismo compasivo” de George W. Bush, que defendía los valores familiares y la piedad religiosa.
+Trump se escuda en la buena marcha de la economía, pero el reparto de la riqueza es más y más desigual. Las empresas tecnológicas, por su parte, parecen inflar una burbuja especulativa. Si estalla, la crisis será inevitable. Entonces, las ranas –mascota de los americanos anti Trump– no lo dejarán dormir
+Soldados rusos montan guardia junto a la torre Spasskaya del Kremlin, la semana pasada
+UCRANIA
+Rusia no cederá
+Treinta y seis años después de la caída del muro de Berlín y 34 desde el colapso de la URSS, Europa todavía no ha encontrado su equilibrio. Rusia se siente amenazada por la OTAN y la UE, cuyos miembros consideran, a su vez, que Rusia supone una amenaza existencial, no solo por la agresión a Ucrania, sino por las campañas de desinformación y sabotaje (corte de cables submarinos y sobrevuelo de drones junto a los aeropuertos), la injerencia en procesos electorales, los ciberataques y el asesinato selectivo de disidentes rusos en su territorio.
+En este contexto, Rusia y Ucrania entran en su quinto año de guerra sin una ventaja estratégica en el campo de batalla. Ucrania resiste gracias al apoyo financiero de la UE y a la inteligencia militar de Estados Unidos. Rusia sigue luchando con el apoyo económico y tecnológico de China. El frente, en todo caso, apenas se mueve. El ejército ruso ha sacrificado cientos de miles de vidas, pero apenas avanza.
+A pesar de que la victoria militar es muy difícil, ni Kyiv ni Moscú están preparados para asumir los sacrificios que exige una tregua y que, básicamente, son territoriales. Zelenski no piensa renunciar a sus fronteras y Putin no parará hasta conseguir el Donbass. Ni si quiera se aviene a un alto el fuego mientras se negocien los términos de un acuerdo de paz. Las ventajas económicas que Trump esgrime como una zanahoria no seducen a ningún bando.
+La guerra continuará en el 2026 porque  Zelenski y Putin creen que el tiempo está de su parte. Zelenski por el apoyo de Europa y el declive económico de Rusia, y Putin porque tiene a China y, además, la simpatía de Trump. Ahora que la nueva Estrategia de Seguridad Nacional de EE.UU. no califica a Rusia de enemigo, es lógico que Putin no ceda. Confía en que Trump abandone a Ucrania y a sus aliados europeos. China, por su parte, quiere que la guerra se alargue para debilitar a EE.UU. y también a la UE.
+Soldados polacos, durante unas maniobras de la OTAN en el río Vístula a la altura de Gniew, primera línea de defensa ante una eventual ofensiva rusa
+EUROPA
+No está preparada
+Europa no está preparada para resistir la amenaza existencial de Rusia sin el apoyo militar y tecnológico de Estados Unidos. El presidente Trump lo sabe y enciende la retórica para socavar la confianza de los europeos en sus instituciones, y lo mismo hacen China y el Kremlin. No hay duda de que Trump preferiría pactar con Putin en Ucrania a expensas de sus aliados de la OTAN. Por eso necesita más gobiernos patrióticos, es decir, de ultra derecha, afines al autoritarismo, a la mano dura con los inmigrantes y al fortalecimiento del estado nación.
+Alemania resume muy bien el reto al que se enfrenta Europa. La economía está estancada y no hay una estrategia para pasar de una producción industrial a una más tecnológica y de mayor valor añadido. La falta de crecimiento condiciona gastar más en defensa. Todos los países europeos de la OTAN aumentan el gasto, pero a costa de un mayor endeudamiento. Trump exige estas inversiones, pero hacerlas no garantizan que todo seguirá igual en el eje transatlántico. Dentro de diez años, Alemania tiene previsto gastar el 5% del PIB en armas, pero ni así logra que la Casa Blanca deje de apoyar a Alternativa por Alemania (AfD), derecha radical, nostálgica del nazismo, que en el 2026 tendrá oportunidad de demostrar su fortaleza en cinco länder que irán a elecciones.
+La permanente crisis política francesa lastra al otro motor de Europa. Francia, igual que el Reino Unido, España y otros países tienen a la ultraderecha a las puertas del poder.
+En el 2026 veremos como se consolida la Coalición de Voluntarios, los países que apoyan a Ucrania y entre los que destaca el Reino Unido. De su mano, también de la de Londres, Europa puede avanzar hacia una mayor integración. El Reino Unido, con la economía en la UCI desde el Brexit, está más cerca del volver al mercado único.
+A Europa, en todo caso, le falta tiempo para  alcanzar la autonomía estratégica, tanto en el plano militar como en el tecnológico. Conseguirla no le será fácil porque EE.UU. pondrá muchas trabas. No le gusta la regulación que la UE hace de la inteligencia artificial. Cree que perjudica a Silicon Valley.
+Si la UE resiste la presión, mantendrá el prestigio de su mercado interior, pero a riesgo de perder transferencias tecnológicas de Estados Unidos.
+Este año la UE debería cerrar varios acuerdos comerciales, al menos, con India y Mercosur, porque para ser dueña de su destino necesita exportar más. Si lo consigue,  no solo mejorará el crecimiento, sino que ganará autoconfianza. La necesita para desmarcarse de EE.UU., reequilibrar la relación comercial con China y frenar a Rusia. Ahí está su destino.
+Lanzacohetes del Ejército Popular de Liberación, nombre oficial de las fuerzas armadas chinas,abren fuego frente a las costas de Taiwán durante unas maniobras el pasado día 30
+CHINA
+Taiwán es el objetivo
+Los gobiernos que no han sido elegidos son muy inseguros y sus líderes, paranoicos. China aplasta a la disidencia, ya sean los demócratas de Hong Kong, los cristianos independientes, los seguidores del movimiento espiritual Falun Gong o, simplemente, los críticos con el presidente Xi Jinping. De cara a la reunión de la Asamblea Popular Nacional en marzo, nadie olvida que su gran rival Bo Xilai cumple cadena perpetua desde el 2013, condenado por unos delitos espurios.
+La asamblea aprobará el plan de crecimiento para los próximos cinco años. El eje será llevar la inteligencia artificial a todos los móviles, con aplicaciones centradas en la vida cotidiana y, evidentemente, en el control del estado sobre la ciudadanía.
+Xi necesita este control mientras busca mercados más allá de Estados Unidos y la UE donde colocar su excedente productivo. Las balanzas comerciales muy desiguales que mantiene con muchos clientes, especialmente la UE, generan tensiones que, históricamente, han provocado guerras.
+La asamblea reafirmará el objetivo de que Taiwán regrese a la madre patria en el 2027. Ante la ausencia de un acuerdo pacífico, el Ejército Popular tiene la orden de estar preparado para una invasión. Esta semana, la armada china, la que más buques tiene del mundo, ha realizado unos ejercicios con fuego real en torno a la isla.
+China se presenta como un socio más fiable que EE.UU. porque asegura que solo busca el crecimiento económico. También quiere un nuevo sistema de gobernanza global donde la democracia y los derechos humanos no interfieran con los intereses nacionales. A Trump le parece bien arrinconar los valores siempre que haya un buen negocio por medio. Para ello necesita las tierras raras que Xi tiene casi en exclusiva.
+Trump visitará China en abril y le veremos desplegar su sonrisa ante un impasible Xi. Le gustaría estrecharle la mano para sellar un acuerdo estratégico, como ha hecho con las monarquías del golfo Pérsico, y como le gustaría hacer con Putin. Xi le exigirá que no defienda Taiwán si quiere tener acceso a las tierras raras, minerales imprescindibles para el salto tecnológico. Trump es posible que acepte. Entiende que es tan suyo como Venezuela es de EE.UU.
+Lo que queda del norte del Gaza, en una imagen tomada el pasado día 2
+PALESTINA
+Gaza, en el infierno
+La paz en Gaza es imposible porque Hamas no se desarma y el ejército israelí afianza sus posiciones dentro de la franja. Los dos bandos están muy lejos de alcanzar la confianza necesaria para acometer la reconstrucción bajo el liderazgo de la Autoridad Palestina y la supervisión internacional.
+Desde la tregua del 10 de octubre, el ejército israelí ha matado a más de 400 palestinos en Gaza. La cifra de muertos desde el inicio de la guerra supera los 71.000.
+Israel no cumple los términos del acuerdo porque mantiene unalibertad operativaque le permite atacar cualquier objetivo que desee y, además, porque sigue bloqueando la entrada de ayuda humanitaria.
+En consecuencia, Hamas no se desarma y mientras no lo haga de forma voluntaria no habrá forma de desplegar una fuerza internacional de interposición. Esteejército, básicamente árabe, no piensa desarmar a Hamas, como desearía Israel.
+Mientras siga la violencia, la reconstrucción es imposible. La Junta de Paz, organismo imparcial que debe supervisarla, no podrá llevar adelante ningún proyecto.
+Al primer ministro israelí, Beniamin Netanyahu, le interesa que Gaza no se reconstruya. Cree que todo lo que sea avanzar hacia la paz debilita sus opciones de conseguir un séptimo mandato en las elecciones previstas, como muy tarde, en octubre.
+Así, a pesar de lo que Trump y Netanyahu digan de cara a la galería, Israel mantendrá una presencia militar en Gaza. Hoy ocupa más de la mitad del territorio y cuenta con 61 puestos militares, según un recuento de Forensic Architecture.
+Dentro de la administración israelí se suceden las llamadas a anexionar, al menos, la mitad de Gaza y dejar a los dos millones de gazatíes en la otra mitad, cerca del mar, sin posibilidad de supervivencia sin ayuda exterior. Netanyahu alienta el exilio a Egipto y Jordania.
+La anexión de amplias zonas de Cisjordania también se plantea con regularidad. Aumenta la construcción de asentamientos y hoy cerca del 10% de la población israelí -700.000 personas- viven en estas colonias, que son ilegales según el derecho internacional.
+En el 2026 veremos un Netanyahu más agresivo porque estará más a merced de la ultraderecha mesiánica que lo mantiene en el poder. Los palestinos sufrirán las consecuencias, tanto en Gaza como en Cisjordania, donde los colonos atacan sus propiedades con total impunidad. Más de mil han muerto asesinados desde la masacre de Hamas del 7 de octubre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C129" s="5" t="inlineStr">
+        <is>
+          <t>Sigue la ofensiva automovilística china en 2026: estas son las nuevas marcas y modelos que llegan a España</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Tecnología de consumo</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2026-01-05T07:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>El cambio de estrategia de Bruselas, al permitir motores de combustión más allá de 2035, dará aire a los productores europeos frente a los chinos</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Varios autores
+A punto de finalizar 2025, la Unión Europea sorprendió con la noticia de que se podrán vender coches de combustión más allá de 2035. Es un cambio importante en la estrategia marcada hasta ahora desde Bruselas. Un giro de guion que llega en un momento delicado para la industria europea, pero que puede suponer aire fresco para recuperar competitividad frente a la ofensiva china.
+No en vano, la presencia de marcas chinas en nuestro mercado atraviesa una fase de transformación. Después de irrumpir con modelos generalistas orientados principalmente al precio y al volumen, los fabricantes asiáticos están dando un paso hacia segmentos de mayor valor añadido, en los que el diseño y la tecnología se convierten en ejes centrales de su propuesta.
+Un cambio que refleja tanto la madurez alcanzada por algunas de estas marcas como la evolución del consumidor español, cada vez más familiarizado con el automóvil chino y más dispuesto a valorar argumentos como la calidad, el confort o la innovación. De este modo, fabricantes comoDenza, Zeekr,Voyah,XpengoLEPASestán introduciendo modelos que buscan competir en franjas tradicionalmente asociadas al automóvil de calidad o premium.
+La llegada de Geely es probablemente la noticia más relevante. Aunque muchos usuarios no la identifiquen aún, se trata de uno de los gigantes mundiales del automóvil y matriz de marcas tan conocidas como Volvo, Polestar, Lynk &amp; Co o Lotus. En 2026 también aterrizan en el mercado español GWM, Changan y Exlantix.
+BYD continúa fortaleciendo su papel protagonista en el mercado español en 2025 tras cerrar el año como líder absoluto en matriculaciones de vehículos enchufables (EV + PHEV). De este modo, la comercialización del BYD Atto 2 DM-i animará el segmento de los PHEV (híbridos enchufables). La tecnología Dual Mode Intelligent de la marca china permitirá disponer de hasta 90 km de autonomía eléctrica y más de 1.000 km de autonomía total. Estará disponible con distintas capacidades de batería y su diseño tendrá sutiles diferencias con las versiones 100% eléctricas. Las primeras entregas están previstas para el primer trimestre.
+Denza, la marca premium de BYD, iniciará su actividad en el mercado español en 2026. Los modelos protagonistas en su primera etapa podrían ser el monovolumen ejecutivo de siete plazas Denza D9 y el Denza Z9GT, un espectacular “shooting brake” deportivo y 100% eléctrico, destinado a competir en el segmento E.
+Ebro es una marca española, felizmente recuperada y que vuelve a producir automóviles en la Zona Franca de Barcelona. Eso sí, con tecnología del grupo chino Chery. El nuevo Ebro s900 PHEV 4x4 es el cuarto modelo del catálogo de la marca en España, tras losEbro s400,Ebro s700 y Ebro s800. Este modelo representa el punto de encuentro entre tradición y vanguardia: combina la robustez y espíritu aventurero que han definido históricamente a la marca, con una propuesta de lujo, espacio y sostenibilidad que lo coloca en la primera línea de los grandes SUV premium.
+Un debut con importante incidencia en el mercado podría ser Lepas, la marca china del grupo Chery y que cuenta con modelos SUV como el L4, L6 y L8, que deben destacar por su buena relación entre precio y calidad. Lepas dispone de una plataforma para producir coches 100% eléctricos y el Lepas L8 equipa tecnología PHEV y supera los 1.300 km de autonomía.
+Bajo el paraguas de Stellantis, otra marca que amplía su gama en 2026 es Leapmotor. Será el turno de dos novedades, como son el Leapmotor B05 y el Leapmotor B03X. El primero es un hathback eléctrico y, en el caso del B03X, se trata de una apuesta por la configuración SUV compacta, de 4,2 metros de largo y autonomía de hasta 500 km. En cualquier caso, ambos están centrados en ofrecer soluciones de movilidad eléctricas asequibles.
+Falta la confirmación de su llegada al mercado español, pero el MG IM5 es una berlina de 4,93 metros de largo y planteamiento premium con tecnología de 800 voltios y una autonomía eléctrica de 655 km. MG anuncia carga rápida en solo en 17 minutos y tecnología y acabados para competir con Audi o BMW.
+El éxito de Omoda &amp; Jaecoo en el mercado español se reforzará en 2026 con la llegada del Omoda 4, un SUV vanguardista y de estética rompedora, pensado para seducir a clientes jóvenes que aprecian la personalización y la tecnología.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C130" s="5" t="inlineStr">
+        <is>
+          <t>La guerra se normaliza</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2026-01-05T06:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>EE.UU., Rusia y China imponen la fuerza para alcanzar sus objetivos estratégicos</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Xavier Mas de Xaxàs
+Barcelona
+Estados Unidos, China y Rusia tienen los ejércitos más importantes del mundo, fuerzas armadas muy agresivas que se despliegan más allá de sus fronteras para ampliar sus respectivas zonas de influencia. Si el principal papel de la carrera de armamentos durante la guerra fría fue la contención y la disuasión del enemigo, ahora es el ataque contra países que se consideran enemigos porque entorpecen la expansión estratégica de los más grandes. La captura del presidente venezolano, Nicolás Maduro, en Caracas es el último ejemplo de cómo el mundo ya no se basa en un sistema de leyes, sino de fuerza.
+La guerra como norma es el gran reto que afronta la humanidad en el 2026 porque EE.UU., China y Rusia se consideran grandes potencias con derecho a tratar al resto de estados con abierta hostilidad si no se someten a sudiktaty con una falsa indulgencia si lo hacen. El Consejo de Seguridad de las Naciones Unidas, el único organismo que podría imponer la diplomacia, hace tiempo que perdió su utilidad.
+La guerra vuelve a ser el poder supremo, así que los desheredados de la tierra seguirán muriendo en Ucrania, Palestina, Sudán, Yemen, Congo y en tantos otros conflictos armados.
+ESTADOS UNIDOS
+El gendarme desatado
+Durante el 2025, Estados Unidos ha bombardeado Venezuela, Irán, Yemen, Siria, Somalia y Nigeria, además de supuestasnarcolanchasen el Caribe y el Pacífico. También ha amenazado con atacar México y Colombia con el pretexto de que los cárteles de la droga son organizaciones terroristas, y el fentanilo, un “arma de destrucción masiva”.
+Al secuestrar a Maduro en Caracas el pasado día 3, demuestra que también usará la fuerza para forzar un cambio de régimen de Cuba. Quiere que todo el hemisferio occidental esté a su merced.
+EE.UU., por lo tanto, es hoy un país más agresivo y está más alejado de sus aliados tradicionales, sobre todo en Europa.
+Trump ha roto el sistema estratégico que le llevó a la victoria sobre la URSS durante la guerra fría. Quiere una Europa rota y sometida hasta el extremo de que Dinamarca le entregue Groenlandia.
+La fuerza militar también se despliega en el interior del país. La Guardia Nacional sirve a sus intereses políticos, y lo mismo hace el ICE, el cuerpo parapolicial que captura a las personas indocumentadas y provoca graves tensiones sociales.
+Cuanto peor le vayan las encuestas, y más se acerquen las elecciones legislativas de noviembre, más recurrirá a la fuerza para fortalecer su imagen.
+MAGA, el movimiento ultraconservador que le respalda, ya no es el bloque homogéneo de hace un año. Aparecen grietas por el apoyo incondicional a ­Israel y la supuesta participación de Trump en las aventuras sexuales de su amigo Epstein. El presidente cada vez está más alejado del “conservadurismo compasivo” de George W. Bush, que defendía los valores familiares y la piedad religiosa.
+Trump se escuda en la buena marcha de la economía, pero el reparto de la riqueza es más y más desigual. Las empresas tecnológicas, por su parte, parecen inflar una burbuja especulativa. Si estalla, la crisis será inevitable. Entonces, las ranas –mascota de los americanos anti-Trump– no lo dejarán dormir.
+UCRANIA
+Rusia no cederá
+Treinta y seis años después de la caída del muro de Berlín y 34 desde el colapso de la URSS, Europa todavía no ha encontrado su equilibrio. Rusia se siente amenazada por la OTAN y la UE, cuyos miembros consideran, a su vez, que Rusia supone una amenaza existencial, no solo por la agresión a Ucrania, sino también por las campañas de desinformación y sabotaje (corte de cables submarinos y sobrevuelo de drones junto a los aeropuertos), la injerencia en procesos electorales, los ciberataques y el asesinato selectivo de disidentes rusos en su territorio.
+En este contexto, Rusia y Ucrania entran en su quinto año de guerra sin una ventaja estratégica en el campo de batalla. Ucrania resiste gracias al apoyo financiero de la UE y a la inteligencia militar de EE.UU. Rusia lucha con el apoyo económico y tecnológico de China. El frente, en todo caso, apenas se mueve. El ejército ruso ha sacrificado cientos de miles de vidas, pero apenas avanza.
+A pesar de que la victoria militar es muy difícil, ni Kyiv ni Moscú están preparados para asumir los sacrificios que exige una tregua y que, básicamente, son territoriales. Zelenski no piensa renunciar a sus fronteras y Putin no parará hasta conseguir Donbass. Ni siquiera se aviene a un alto el fuego mientras se negocien los términos de un acuerdo de paz. Las ventajas económicas que Trump esgrime como una zanahoria no seducen a ningún bando.
+La guerra continuará en el 2026 porque Zelenski y Putin creen que el tiempo está de su parte. Zelenski, por el apoyo de Europa y el declive económico de Rusia, y Putin, porque tiene a China y, además, la simpatía de Trump. Ahora que la nueva ­Estrategia de Seguridad Nacional de EE.UU. no califica a Rusia de enemigo, es lógico que Putin no ceda. Confía en que Trump abandone a Ucrania y a sus aliados europeos. China, por su parte, quiere que la guerra se alargue para debilitar a EE.UU. y también a la UE.
+EUROPA
+Todavía no está preparada
+Europa no está preparada para resistir la amenaza existencial de Rusia sin el apoyo militar y tecnológico de Estados Unidos. El presidente Trump lo sabe y enciende la retórica para socavar la confianza de los europeos en sus instituciones, y lo mismo hacen China y el Kremlin. No hay duda de que Trump preferiría pactar con Putin en Ucrania a expensas de sus aliados de la OTAN. Por eso necesita más gobiernos patrióticos, es decir, de ultraderecha, afines al autoritarismo, a la mano dura con los inmigrantes y al fortalecimiento del Estado nación.
+Alemania resume muy bien el reto al que se enfrenta Europa. La economía está estancada y no hay una estrategia para pasar de una producción industrial a una más tecnológica y de mayor valor añadido. La falta de crecimiento condiciona gastar más en defensa. Todos los países europeos de la OTAN aumentan el gasto, pero a costa de un mayor endeudamiento. Trump exige estas inversiones, pero hacerlas no garantiza que todo seguirá igual en el eje transatlántico. Dentro de diez años, Alemania tiene previsto gastar el 5% del PIB en armas, pero ni así logra que la Casa Blanca deje de apoyar a Alternativa para Alemania (AfD), derecha radical, nostálgica del nazismo, que en el 2026 tendrá oportunidad de demostrar su fortaleza en cincoländerque irán a elecciones.
+La permanente crisis política francesa lastra al otro motor de Europa. Francia, igual que el Reino Unido, España y otros países, tiene a la ultraderecha a las puertas del poder.
+En el 2026 veremos como se consolida la Coalición de Voluntarios, los países que apoyan a Ucrania, y entre los que destaca el Reino Unido. De su mano, también de la de Londres, Europa puede avanzar hacia una mayor integración. El Reino Unido, con la economía en la uci desde el Brexit, está más cerca de volver al mercado único.
+A Europa, en todo caso, le falta tiempo para alcanzar la autonomía estratégica, tanto en el plano militar como en el tecnológico. Conseguirla no le será fácil porque EE.UU. pondrá muchas trabas. No le gusta la regulación que la UE hace de la inteligencia artificial. Cree que perjudica a Silicon Valley.
+Si la UE resiste la presión, mantendrá el prestigio de su mercado interior, pero a riesgo de perder transferencias tecnológicas de Estados Unidos.
+Este año la UE debería cerrar varios acuerdos comerciales, al menos, con India y el Mercosur, porque para ser dueña de su destino necesita exportar más. Si lo consigue, no solo mejorará el crecimiento, sino que también ganará autoconfianza. La necesita para desmarcarse de EE.UU., reequilibrar la relación comercial con China y frenar a Rusia. Ahí está su destino.
+CHINA
+Taiwán es el objetivo
+Los gobiernos que no han sido elegidos son muy inseguros, y sus líderes, paranoicos. China aplasta a la disidencia, ya sean los demócratas de Hong Kong, los cristianos independientes, los seguidores del movimiento espiritual Falun Gong o, simplemente, los críticos con el presidente Xi Jinping. De cara a la reunión de la Asamblea Popular Nacional en marzo, nadie olvida que su gran rival Bo Xilai cumple cadena perpetua desde el 2013, condenado por unos delitos espurios.
+La asamblea aprobará el plan de crecimiento para los próximos cinco años. El eje será llevar la inteligencia artificial a todos los móviles, con aplicaciones centradas en la vida cotidiana y, evidentemente, en el control del Estado sobre la ciudadanía.
+Xi necesita este control mientras busca mercados más allá de Estados Unidos y la UE donde colocar su excedente productivo. Las balanzas comerciales muy desiguales que mantiene con muchos clientes, especialmente la UE, generan tensiones que, históricamente, han provocado guerras.
+La asamblea reafirmará el objetivo de que Taiwán regrese a la madre patria en el 2027. Ante la ausencia de un acuerdo pacífico, el Ejército Popular tiene la orden de estar preparado para una invasión. Mientras tanto, los ejercicios militares en torno a la isla se intensifican.
+China se presenta como un socio más fiable que EE.UU. porque asegura que solo busca el crecimiento económico. También quiere un nuevo sistema de gobernanza global donde la democracia y los derechos humanos no interfieran con los intereses nacionales. A Trump le parece bien arrinconar los valores siempre que haya un buen negocio por medio. Para ello necesita las tierras raras que Xi tiene casi en exclusiva.
+Trump visitará China en abril y le veremos desplegar su sonrisa ante un Xi impasible. Le gustaría estrecharle la mano para sellar un acuerdo estratégico, como ha hecho con las monarquías del golfo Pérsico, y como le gustaría hacer con ­Putin. Xi le exigirá que no defienda Taiwán, si quiere tener acceso a las tierras raras, minerales imprescindibles para el salto tecnológico. Trump es posible que acepte. Entiende que es tan suyo como Venezuela es de EE.UU.
+PALESTINA
+Gaza, en el infierno
+La paz en Gaza es imposible porque Hamas no se desarma y el ejército israelí afianza sus posiciones dentro de la franja. Los dos bandos están muy lejos de alcanzar la confianza necesaria para acometer la reconstrucción bajo el liderazgo de la ­Autoridad Palestina y la supervisión internacional.
+Desde la tregua del 10 de octubre, el ejército israelí ha matado a más de 400 palestinos en Gaza. La cifra de muertos desde el inicio de la guerra supera los 71.000.
+Israel no cumple los términos del acuerdo porque mantiene una libertad operativa que le permite atacar cualquier objetivo que desee y, además, porque sigue bloqueando la entrada de ayuda humanitaria.
+En consecuencia, Hamas no se desarma, y mientras no lo haga de forma voluntaria, no habrá forma de desplegar una fuerza internacional de interposición. Este ejército, básicamente árabe, no piensa desarmar a Hamas, como desearía Israel.
+Mientras siga la violencia, la reconstrucción es imposible. La Junta de Paz, organismo imparcial que debe supervisarla, no podrá llevar adelante ningún proyecto.
+Al primer ministro israelí, ­Beniamin Netanyahu, le interesa que Gaza no se reconstruya. Cree que todo lo que sea avanzar hacia la paz debilita sus opciones de conseguir un séptimo mandato en las elecciones previstas, como muy tarde, en octubre.
+Así, a pesar de lo que Trump y Netanyahu digan de cara a la galería, Israel mantendrá una presencia militar en Gaza. Hoy ocupa más de la mitad del territorio y cuenta con 61 puestos militares, según un recuento de Forensic Architecture.
+Dentro de la Administración israelí se suceden las llamadas a anexionar, al menos, la mitad de Gaza y dejar a los dos millones de gazatíes en la otra mitad, cerca del mar, sin posibilidad de supervivencia sin ayuda exterior. Netanyahu alienta el exilio a Egipto y Jordania.
+La anexión de amplias zonas de Cisjordania también se plantea con regularidad. Aumenta la construcción de asentamientos y hoy cerca del 10% de la población israelí –700.000 personas– vive en estas colonias, que son ilegales, según el derecho internacional.
+En el 2026 veremos un ­Netanyahu más agresivo porque estará más a merced de la ultraderecha mesiánica que lo mantiene en el poder.
+Los palestinos sufrirán las consecuencias, tanto en Gaza como en Cisjordania, donde los colonos atacan sus propiedades con total impunidad. Más de mil han muerto asesinados desde la masacre de Hamas del 7 de octubre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C131" s="5" t="inlineStr">
+        <is>
+          <t>China dice que EE.UU. debe liberar inmediatamente a Maduro</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2026-01-04T08:20:33+01:00</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Asegura que su deportación viola el derecho y las normas internacionales</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>La Vanguardia
+Barcelona
+El Ministerio ⁠de Asuntos Exteriores ⁠de China dijo hoy que Estados Unidos ⁠debería liberar inmediatamente ⁠al líder venezolano Nicolás Maduro y a su esposa y resolver la situación en Venezuela a través del diálogo y la negociación.
+El ministerio dijo en un comunicado en su sitio ⁠web que Estados Unidos también debe garantizar la seguridad personal de Maduro y su esposa, diciendo ⁠que su deportación viola el derecho y las normas internacionales.
+Por otra parte, el presidente de Corea del Sur, Lee Jae-myung, inició este domingo una visita de Estado de cuatro días a China a invitación del presidente del país vecino, Xi Jiping, un viaje en el que espera restaurar vínculos e impulsar el diálogo en la península coreana, un viaje que arrancó marcado por los disparos de misiles hoy por Pionyang.
+Lee tiene previsto mantener reuniones y conversaciones oficiales con los principales dirigentes chinos en el marco de un viaje que se prolongará hasta el 7 de enero, en el primer desplazamiento a China de un jefe de Estado surcoreano en seis años.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C132" s="5" t="inlineStr">
+        <is>
+          <t>Michael Leiters: ida y vuelta en Porsche</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2026-01-04T06:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>El ingeniero vuelve a la firma con la misión de devolver la esencia a una Porsche que sufre por las dudas eléctricas, el desplome chino y los aranceles</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Luis Federico Florio
+Barcelona
+“Siempre veo los retos como una oportunidad”, dice. Desde el 1 de enero Michael Leiters está al frente de Porsche. A sus 54 años, a este ingeniero mecánico alemán le llega uno de los mayores retos de su carrera. El de sacar a la marca de la depresión que arrastra. Tras pasar por Ferrari y McLaren, vuelve a la casa donde ya había estado por más de una década, pero con una situación muy distinta a la actual.
+A Leiters siempre le ha interesado la parte técnica de los coches. La potencia. Relata que de pequeño, cuando iba en el coche con su padre en el asiento de atrás, se tiraba hacia adelante para ver qué hacía, qué tocaba, si se podía ir más rápido... Nada mejor que Porsche para dar rienda suelta a esa sed. Reemplaza a Oliver Blume, quien a la vez estaba al frente del Grupo Volkswagen, la matriz. Una doble faceta criticada entre propios y ajenos por la falta de dedicación total.
+Michael Leiters Gusi Bejer
+Porsche está en medio de una tormenta perfecta. Los puristas critican que las ansias de electrificación, luego abortadas, han mareado e impactado en su esencia, la de sentir el rugido del motor al tomar el volante. En el negocio acumula turbulencias. En China, que hasta hace poco era su gran mercado y maná, el lujo lo protagonizan hoy marcas locales como Yangwang y Denza, de BYD, o Maextro, de Huawei y JAC. En el gigante asiático Porsche vende un 25% menos este año, con 32.195 coches. Es menos de la mitad que en el 2022. En otro frente, en EE.UU. los aranceles también la golpean con unos 700 millones de euros al no producir allí.
+Pese a unos primeros objetivos ambiciosos, como otras marcas Porsche ha enfriado su plan de electrificación, ahora apostando por hibridaciones y la combustión. El giro ha provocado un impacto de más de 2.000 millones. Leiters puede ser muy útil: en Ferrari, donde fue director de tecnología ocho años, rompió moldes con las primeras hibridaciones y siempre ha defendido pasos intermedios más que una apuesta total por lo eléctrico. Y que venga sin presiones de los reguladores. Coger el volante “no va solo de rendimiento, también de emociones. De cómo percibes el sonido, la aceleración o el cambio de marchas. Si te vuelves eléctrico, mucho de eso se pierde”, defendió en su día. Su fórmula combina técnica, velocidad y sentimiento.
+Con un cliente aún desorientado, la situación de Porsche se plasma en recortes de ventas (-11% general), de previsiones, de miles de empleos y en unos márgenes que pasan de referencia del sector a casi nulos. Hasta el tercer trimestre, las cuentas más recientes, el beneficio operativo asciende a 40 millones. Hace un año eran 4.000 millones... Si se mira solo de julio a septiembre, pierde 966 millones por los ajustes contables de la electrificación. Con estas cifras sufre un prolongado castigo bursátil: la acción de la compañía se ha dejado más del 20% en el 2025, y la mitad del valor desde su salto a bolsa en el 2022.
+Porsche ya había sido la casa de Leiters: aterrizado en el 2000, estuvo más de 13 años en puestos diversos de la alemana. Lo hizo dejando huella: participó en la concepción del Cayenne, modelo clave para la marca, y acabó dirigiendo su gama y la del Macan. Apasionado de la velocidad, al anunciarse el nombramiento, Blume destacaba de Leiters su experiencia en los vehículos deportivos. Viene de ser el consejero delegado de McLaren, cargo que dejó hace unos meses. Gestionar crisis no le resulta nuevo. En la británica, en tres años dio la vuelta a un negocio golpeado por la covid, con una transición medida en lo eléctrico. Antes se había dado su etapa en Ferrari. De los alemanes ha aprendido a ser organizado, a prepararse para evitar problemas. De los italianos, a resolver líos que van surgiendo. Gracias a estas etapas combina bien la visión internacional con la de conocer la casa que requiere Porsche.
+Definido como analítico y de mente fría, para Leiters el jefe tiene que dar tanto como exige a los empleados. Ha señalado que el liderazgo pasa por la credibilidad y lo predecible, algo que falta en Porsche. Entre el trabajo y la vida, su familia –casado, con dos hijos– es lo más importante, confiesa. Para relajarse hace deporte, desde el tenis al senderismo. Y duerme. Que en la marca viva un sueño o una pesadilla dependerá de su conducción.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C133" s="5" t="inlineStr">
+        <is>
+          <t>China llevaba un año comprando petróleo a Venezuela sin usar el dólar como moneda de pago</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2026-01-04T06:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Washington veía en peligro el ciruito de los petrodólares, otros países podían imitar a China</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Enric Juliana
+Madrid
+Elblitzde Estados Unidos en Venezuela ha impresionado a todo el mundo. Acción relámpago. Fulminante captura deNicolás Maduro.Apertura de una transición guiada por Washington, con una sorpresa:la vicepresidenta venezolanaDelcy Rodríguez, ahora al frente del gobierno de Caracas, podría ser la interlocutora. “Bienvenidos al 2026”, declaró ayer el secretario de Defensa,Pete Hegseth.
+Ojo al dato: China había comenzado a comprar petróleo de Venezuela eludiendo el pago en dólares, utilizando para ello el renminbi (divisa exterior china basada en el yuan) y criptomonedas referenciadas con el dólar. Los pagos se depositaban en cuenta abiertas en China para evitar controles occidentales. Esa práctica se inició en el 2024. El pasado año, China llegó a comprar el 84% del petróleo venezolano sometido a exportación, según fuentes conocedoras del sector.Venezuela se había convertido, por tanto, en unlaboratoriofinancieroque amenazaba con debilitar el circuito de los petrodólares, surgido en 1973 después de la gran crisis energética que rompió las piernas de la industria occidental más vulnerable. (Los precios se multiplicaron por cuatro en pocos meses. La crisis de 1973 tuvo un fuerte impacto en España y se convirtió en un acelerador del final del franquismo). Petrodólares: ingente masa de dólares en manos de los países exportadores de petróleo. Irán y Rusia querían ir por la senda venezolana. Brasil y Arabia Saudita la estaban estudiando. Alarma en Washington desde hace meses. La perdida de fuerza del dólar como moneda de referencia en el mercado internacional de hidrocarburos podría traer consigo un encarecimiento del precio de la vida en Estados Unidos, con la consiguiente división del movimiento populista MAGA y una derrota de los republicanos en las elecciones de medio mandato, previstas para noviembre del 2026.
+Aviso disciplinante a todo el mundo. La nueva doctrina de Seguridad Nacional de Estados Unidos no es retórica. Hay un plan, tomar el control de todo el continente americano, y lo están ejecutando. Después puede venir Cuba. Los siguientes hitos, según la nueva doctrina de seguridad nacional, serán la neutralización política de la Unión Europea y el “equilibrio estratégico” con Rusia, para concentrar todo el foco en China. “Ningún otro país del planeta está cerca de poder llevar a cabo una acción como esta”, subrayó el exhultante secretario de Defensa Hegseth. Acción disciplinante a escala mundial.
+Caracas siempre resuena en Madrid. Retumba.La primera gran movilización contra el presidentePedro Sáncheztuvo como mascarón de proa aJuan Guaidó, elevado por Estados Unidos a la categoría de presidente interino de Venezuela hace siete años, personaje del que nunca más se supo. Excitadas por el episodio caraqueño, las tres derechas españolas de aquel momento (Partido Popular, Ciudadanos y Vox) convocaron una gran manifestación unitaria en la plaza de Colón de Madrid para denunciar la “traición” de Sánchez con los independentistas catalanes. Sánchez aprovechó la “foto de Colón” para adelantar las elecciones generales y las ganó en abril del 2019. Quiso mejorar el resultado forzando una repetición en noviembre, se equivocó, se quedó donde estaba, Ciudadanos se hundió, el PP empezó a salir del atolladero, y el PSOE se vio obligado a pactar el gobierno de coalición con Podemos que no deseaba. La ambición rompe el saco.
+La caída de Maduro acompañará a Sánchez en el semestre más difícil de su mandato, el que ahora empieza. PP y Vox colocaron ayer el foco sobre el expresidenteJosé Luis Rodríguez Zapatero, un hombre que conoce bien Caracas, mediador con el Gobierno de Venezuela desde el 2016, con buenas relaciones en China, también. Según el runrún del Madrid DF, Zapatero puede ser llamado a declarar en sede judicial sobre el rescate de la compañía área Plus Ultra durante la epidemia. “El expresidente tendrá que explicar si medió para el rescate de una compañía aérea, tendrá que explicar por qué se reunía dos veces al mes con el dictador Maduro y si es lobbista o no de empresas asiáticas”, comentóAlberto Núñez Feijóohace unos días, antes del asalto militar norteamericano. La caída de Maduro elevará la presión sobre Zapatero, pero aún faltan por ver cuáles serán los siguientes movimientos en Washington y Caracas.Trump descartó ayer aMaría Corina Machadocomo pieza de recambio. “No puede ser la nueva líder, no tiene el respeto de su país”, dijo el presidente en una trepidante conferencia de prensa.  Trump habló del petróleo venezolano, el lenguaje que sus electores mejor entienden. Puro espectáculo: Corina, premio Nobel de la Paz, desechada en directo. Algunos quedaron boquiabiertos ayer por la tarde en el DF al escuchar eso.Cayetana Álvarez de Toledo, la exponente del PP más comprometida con la oposición venezolana, no ocultaba su desolación. “Esto que ha dicho el presidente Trump es falso, María Corina es la líder indiscutible del pueblo venezolano”, escribió en las redes sociales. Estamos ante un serial difícil de escrutar.
+¿Quién abrió el pestillo para quelos soldados de la Delta Forcepudiesen acceder rápidamente a la habitación de los Maduro? ¿Alguna facción del poder venezolano ha colaborado secretamente con los norteamericanos para facilitar su audaz operación? El secuestro de Maduro evita a Estados Unidos una invasión terrestre muy difícil de llevar a cabo.  Habrá que seguir esa pista. Delcy Rodríguez se perfilaba anoche como interlocutora para una transición. Caracas-Madrid, pasión de gavilanes.
+El Gobierno español apeló ayer a la legalidad internacional, en línea con la Comisión Europea, y se ofreció como mediador para una transición pacífica en Venezuela. Núñez Feijóo quiso poner el foco en Rodríguez Zapatero, sin ninguna mención al derecho internacional en su primera comunicación pública sobre lo ocurrido, texto en el que introdujo la palabra “prudencia”.  “La prudencia es compatible con la esperanza”, dijo respecto a los cambios que se avecinan en Venezuela. Vox dio por seguro que la “mafia sanchista” caerá arrastrada por Maduro.Santiago Abascalaprovechó la jornadapara comer en su domicilio de Madrid con la primera ministra italiana,Giorgia Meloni. Visita amical, fotos de familia,  con un mensaje bastante explícito al Partido Popular: Meloni está con Vox. Vox es el verdadero interlocutor con el bloque de poder norteameri­cano que acaba de pegar un puñetazo en el tablero internacional.
+Empieza el semestre de la verdad con una trenza de tres agendas: los planes de Estados Unidos, elecciones en Aragón, Castilla y León y Andalucía, y trepidante calendario judicial.El semestre concluirá con la visita del papaLeón XIVa España, sobre el 10 de junio. Madrid, Barcelona y Santiago.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C134" s="5" t="inlineStr">
+        <is>
+          <t>China y Rusia también ganan en el río revuelto de Venezuela</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2026-01-05T02:24:08+01:00</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Durante décadas, el régimen bolivariano ha sido un eje de interés estratégico para las superpotencias que compiten con EE UU por la supremacía mundial</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Durante décadas, el régimen bolivariano ha sido un eje de interés estratégico para las superpotencias que compiten con EE UU por la supremacía mundial</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C135" s="5" t="inlineStr">
+        <is>
+          <t>Se inaugura el puente más alto del mundo construido en el mar y reduce tres horas los tiempos de viaje</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Territorio geografía y medio ambiente</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2026-01-05T13:10:18+01:00</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>China vuelve a sorprender al mundo con una megaconstrucción sobre el agua que equivale a la altura de un rascacielos de 100 pisos</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>China vuelve a sorprender al mundo con una megaconstrucción sobre el agua que equivale a la altura de un rascacielos de 100 pisos</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C136" s="5" t="inlineStr">
+        <is>
+          <t>Japón pierde la delantera: los vehículos eléctricos chinos desafían a Toyota, Honda y Nissan</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2026-01-04T16:56:27+01:00</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Mientras Japón parece seguir apostando por los híbridos, los fabricantes chinos avanzan a gran velocidad en la consolidación del coche eléctrico como alternativa sostenible</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Mientras Japón parece seguir apostando por los híbridos, los fabricantes chinos avanzan a gran velocidad en la consolidación del coche eléctrico como alternativa sostenible</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C137" s="5" t="inlineStr">
+        <is>
+          <t>China, la OTAN, Gaza y ahora Venezuela: un año de Sánchez saliéndose del guion de Trump</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2026-01-06T05:30:01+01:00</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>La posición comparativamente dura de España contra la operación en Venezuela se suma a una lista de gestos, medidas y declaraciones que han puesto al Gobierno en el punto de mira del presidente de EE UU</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>La posición comparativamente dura de España contra la operación en Venezuela se suma a una lista de gestos, medidas y declaraciones que han puesto al Gobierno en el punto de mira del presidente de EE UU
+En lacrisis venezolana, España vuelve a sobresalir dentro de Europa por su posición crítica con Estados Unidos. No es la primera vez que pasa con Pedro Sánchez en La Moncloa y Donald Trump en la Casa Blanca.Desde la llegada del líder republicano al poder hace algo menos de un año, una serie de decisiones del Gobierno en materias sensibles para el país norteamericano —como China, Israel o la OTAN— y de reacciones contra medidas de la Administración de EE UU —como los aranceles— han sacado a España del guion de Trump y han puesto a Sánchez en el punto de mira del presidente estadounidense, un líder de inclinación autoritaria que ya ha demostrado que es capaz de actuar contra quien se aparta del camino que él señala.
+Contra la “tecnocasta”.En enero de 2025, dos días después de la toma de posesión de Trump, Sánchez convirtió su participación en el Foro de Davos en un alegato por una regulación más estricta de las redes sociales que lesionaría los intereses de Elon Musk, entonces estrecho y sobresaliente aliado de Trump. Su propuesta fue rematada con la frase “hagamos las redes sociales grandes de nuevo”, remedo del eslogan del líder republicano, “hagamos a América grande nuevo”, el que llevan impreso las gorras rojas del movimiento MAGA.
+Además de ir contra Musk, el discurso de Sánchez también iba contra Peter Thiel, cofundador de PayPal y Palantir,impulsor de la carrera política del vicepresidente JD Vance, a quien citó como miembro del grupo de “tecnomillonarios” que —dijo— están “socavando” la democracia. Unos días después retomó un término que ha usado varias veces, “tecnocasta”, que alude a una élite a la que acusó de estar “fomentando el autoritarismo y el odio”, poniendo como ejemplo —sin citarlo expresamente— el apoyo de Musk a Alternativa para Alemania. Otra andanada de Sánchez contra quien aparecía entonces como el socio estelar de Trump.
+Aranceles y China.Sánchez reaccionó con dureza a losaranceles impuestos por EE UU en abril. En una declaración que desbordó el rechazo protocolario, acusó a Trump de iniciar una “guerra comercial” y de aplicar la medida para “castigar países” y “mitigar el déficit” causado por una “política fiscal” que juzgaba “cuestionable”. “Le pedimos al presidente Trump que recapacite. No nos quedaremos de brazos cruzados”, advirtió.
+Aunque estaba prevista desde antes, lavisita de Sánchez a Chinaen pleno vendaval por los aranceles causó malestar en la Administración Trump. El secretario del Tesoro de EE UU, Scott Bessent, afirmó en un acto de banqueros en Nueva York que un acercamiento a China “sería como cortarse la propia garganta”. Pero, en vez de posponer el viaje,como pedía el PP, o de rebajar su alcance, Sánchez dejó un mensaje con vuelo político al valorar su reunión con el presidente Xi Jinping, que se alargó de las dos horas previstas a tres: “España ve a China como socio de la UE”.
+Choque en la OTAN.En la antesala de la cumbre de la OTAN de junio en La Haya, Sánchez y el secretario general de la organización, Mark Rutte, llegaron aun acuerdo que exime a España de la obligación de alcanzar el 5% del PIB en gasto militar en 2035. Aunque España firmó también el mismo acuerdo que el resto, el haber pactado aparte una mayor flexibilidad encendió a Trump, que afirmó desde La Haya que haría que “el único que se niega a pagar” tuviera que aportar “el doble”, por ejemplo a través de aranceles. Desde entonces, Trump ha mostrado varias veces su descontento con España por este tema. La más sonora fue en octubre, cuando en la Casa Blanca, junto al presidente finlandés, Alexander Stubb, afirmó que “quizás” la OTAN “debería expulsar” a España.
+Tras la reprimenda de Trump en La Haya, Sánchez no solo se reafirmó en su posición, sino que dijo que los aranceles ya impuestos por EE UU eran “injustos”. Y no ha dejado de presentar la flexibilidad acordada con Rutte como un éxito.En su vídeo de balance de fin de año, la incluyó entre sus logros de 2025: “Nos plantamos ante la exigencia de la OTAN de aumentar el gasto en defensa de hasta el 5% del PIB. España no recortará en sanidad, educación o acción climática”.
+Carlota García Encina, investigadora principal sobre EE UU y Relaciones Transatlánticas delReal Instituto Elcano, afirma que la “fricción” más importante entre la Administración de Trump y el Gobierno de España es la derivada de este rechazo a las exigencias de la OTAN.
+El “genocidio” israelí.Tras el verano pasado, con Sánchez intentando retomar la iniciativa después delagravamiento delcaso Cerdán, España se colocó a la cabeza de la presión internacional contra Israel, socio estratégico de EE UU en Oriente Medio, por lo que el presidente español ya llamaba con todas las letras “genocidio”. El paquete de medidas adoptadas contra Israel, entre ellas la denegación de entrada al espacio aéreo español a las aeronaves de Estado que transporten material de defensa para el Estado hebreo, movió a la Administración Trump a emitir un comunicado que calificaba de “preocupante” que España “haya optado por restringir las operaciones de Estados Unidos y dar la espalda a Israel”. El Departamento de Estado, liderado por Marco Rubio, acusó a España de “envalentonar a los terroristas”. Lejos de echar el freno, el Consejo de Ministros aprobómenos de dos semanas despuésun embargo de armas a Israel, si bien recogía la posibilidad de excepciones,opción que ya ha sido utilizada.
+El contraste multilateral.Sin llegar al ataque o al desafío explícito, han sido varias las ocasiones en que Sánchez ha buscado presentarse como el antagonista de Trump dentro de los líderes occidentales. Lo hace, sin mencionarlo desde que Trump es presidente, cuando destaca que España es un referente progresista frente a la “internacional reaccionaria”. Y lo hace también cuando cultiva el perfil de adalid del multilateralismo, otro enemigo a batir del inquilino de la Casa Blanca.
+En los foros internacionales en los que participa, Sánchez suele insistir en la necesidad de mantener vivos los mecanismos de cooperación internacional, justo mientras Trump promueve un repliegue a las esferas nacionales. En septiembre, el contraste fue evidente. Solo tres días después de que Trump aprovechase la tribuna de la ONU en Nueva York para lanzar una carga de profundidad contra las instituciones globales, Sánchez acudía a laCumbre Global para el Progresode Londres para instar a los gobiernos de izquierdas de todo el mundo a “abrazar el multilateralismo”.
+Junto a Brasil y Colombia.La reacción del Gobierno tras la operación en Venezuela ha ido ganando en dureza, pese a lo cual sigue siendo insuficiente para el socio menor del Ejecutivo, Sumar, y para fuerzas de izquierdas como Podemos. Tras un primer comunicado de Exteriores el sábado por la mañana llamando a la “desescalada” y al “respeto” al derecho internacional, por la tarde Sánchez elevó el tono en X al asegurar que igual que España no había reconocido la victoria electoral de Nicolás Maduro, “tampoco reconocerá una intervención que viola el derecho internacional y empuja a la región a un horizonte de incertidumbre y belicismo”. Al día siguiente, escribió a la militancia del PSOE una carta condenando “con rotundidad” las acciones de EE UU.
+El Gobierno de España firmó el domingo un comunicado junto a los de Brasil, México, Colombia, Chile y Uruguay, todos progresistas ya queel derechista José Antonio Kasttodavía no ha tomado posesión en Chile. El texto no solo expresaba rechazo por la vulneración legal de EE UU, sino que la presentaba como “un precedente sumamente peligroso” y mostraba “preocupación” ante una posible “apropiación externa de recursos naturales o estratégicos” de Venezuela. Sánchez se unía así adestacados opositores a EE UU en Latinoamérica, como Gustavo Petro en Colombia, acusado por Trump —sin pruebas— de ser un narcotraficante ysobre el que pesa la amenaza de una operación similar a la venezolana.
+Este lunes, el ministro de Exteriores, José Manuel Albares, ratificó lo evidente: el Gobierno quiere distinguirse por su contundencia. Aunque aseguró que España habíaliderado la respuesta europea, en la que26 de los 27 miembros de la UE―todos menos Hungría― pidieron este domingo “evitar una escalada”, Albares aclaró que le hubiera gustado un comunicado “más duro”. Y él mismo puso la dureza en sus declaraciones a lacadena SER, donde afirmó que la acción de EE UU “sienta un precedente muy peligroso”. “No nos vamos a resignar a que se imponga la ley de la selva”, dijo. Una fuente de La Moncloa señala que “ha habido uncrescendoen la reacción del Gobierno”, pero que ha sido más debido al conocimiento progresivo de cada vez más elementos de la situación y de las reacciones de los socios que a un endurecimiento premeditado. “A veces se nos pide una reacción terminante de algo que acaba de pasar”, señala.
+Carlota García Encina, del Real Instituto Elcano, cree que el “énfasis” del Gobierno en la “ilegalidad” de la operación en Venezuela, mayor que el dedicado a la “ilegitimidad” de Maduro, refuerza el acento crítico de la respuesta española. La analista no considera que este caso tenga importancia suficiente como para deteriorar por sí solo larelación de EE UU con España, pero sí señala que se suma a una “acumulación” de desencuentros con la Administración Trump, el más grave de ellos —a su juicio— por el gasto en defensa.
+Aunque para Jordi Sarrión-Carbonell los antecedentes de Trump dejan “claro” que existe riesgo de que tome medidas contra España —“Trump no va de broma”—, este consultor político y máster en Estudios Latinoamericanos afirma que hay una lógica que influye en la forma de actuar de Sánchez, que ve en la escasez de “líderes progresistas” una “oportunidad” de presentarse como un referente de izquierdas en contraste con el presidente de EE UU. “Trump como villano es caricaturizable.Polarizar con él es unwin-win[ganancia segura] para Sánchez”, concluye.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C138" s="5" t="inlineStr">
+        <is>
+          <t>Todo bajo el cielo en el mandato de Trump</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2026-01-06T05:30:01+01:00</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>La Estrategia de Seguridad Nacional de EE UU evoca una cosmovisión del mundo que recuerda al imperialismo chino</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>La Estrategia de Seguridad Nacional de EE UU evoca una cosmovisión del mundo que recuerda al imperialismo chino
+En la nuevaEstrategia de Seguridad Nacional norteamericana,la impronta china atraviesa el texto como una presencia ubicua que moldea fondo y forma. Para empezar, conviene señalar que se trata de un documento plagado de contradicciones, donde se afirma, sin rubor ni matiz, una cosa y su contraria. Proclama la predisposición hacia el no intervencionismo, salvo cuando los intereses nacionales dicten lo contrario, como acaba de ocurrir en Venezuela. Afirma no haber “nada incoherente ni hipócrita” en mantener relaciones estrechas con regímenes autoritarios,mientras acusa a los europeos de dañar la democracia.A ratos, el escrito parece una colección de fragmentos desconectados, un conjunto de retazosde declaraciones, ideas sueltas y generalidades sin continuidad. En la sección de América Latina, se intuye la mano del secretario de Estado, Marco Rubio; en los pasajes sobre Europa, la inquina del vicepresidente Vance. Pero bajo esas contradicciones internas, a modo de forro envolvente, late elprincipio rector del América Primero, en una visión que recuerda por momentos a la concepción clásica del poder imperial chino, fundamentada en ideas como el Mandato del Cielo yTianxia(“todo bajo el cielo”), que concebían al emperador como centro legítimo de un orden jerárquico mundial. Una cosmovisión que se manifiesta en un sistema de círculos concéntricos de influencia, definidos por la proximidad geográfica y la afinidad cultural con el núcleo civilizatorio, donde el Imperio del Centro ocupaba la posición dominante, y en la lejana periferia habitaban los pueblos bárbaros. Las relaciones exteriores respondían a la lógica del vasallaje simbólico, bajo el principio de no injerencia, salvo cuando la periferia representaba una amenaza directa a la estabilidad del centro. El emperador era la fuente última de autoridad, por encima de cualquier principio de legalidad o Estado de derecho, y ejercía el poder a través de una ley emanada de su persona, dando lugar al Leviatán despótico sobre el que han escrito los premios Nobel Acemoglu y Robinson.
+La Estrategia de Seguridad Nacional articula las capacidades norteamericanas en un lenguaje que evoca la representación del Imperio del Centro en términos de civilización. Estados Unidos es el país “más fuerte, más rico, y más poderoso… La nación más grande y exitosa de la historia de la humanidad” (sic).Desde esa posición, el texto despliega una jerarquía espacial de intereses en círculos concéntricos.En el primero, por proximidad geográfica, se sitúa América Latina. Le sigue el Indo-Pacífico, en tanto que proyección directa del flanco occidental norteamericano. En un tercer nivel aparece Europa, incorporada por afinidad cultural e histórica. Y finalmente, China aparece por alusión, en “la otra punta del mundo”.
+Aun cuando la estrategia sitúa al Hemisferio occidental en primer plano, el Indo-Pacífico concentra mayor protagonismo, con un apartado casi el doble de extenso (2.002 palabras frente a 1.233). En línea con la Administración de Biden, se define como región de interés vital —“campo de batalla económico y geopolítico clave”—, cuya estabilidad se garantizará mediante una mayor presencia militar orientada a restablecer un equilibrio favorable a Estados Unidos y sus aliados.La paz en el estrecho de Taiwán y el Mar del Sur de Chinadescansará sobre este poder disuasorio.
+En las relaciones con la India, no se observa un cambio sustancial y destaca una valoración favorable hacia el país. La huella de China en el documento es omnipresente y refleja su principal objetivo: impedir que Pekín alcance un predominio global incontestado. Aunque se evita la retórica hostil que caracterizó el primer mandato, las referencias son redundantes. No podría ser de otro modo trasel jaque mate que Xi Jinping asestó a Trump en noviembre, al amenazar con restringir las exportaciones de tierras raras. La potencia asiática aparece una y otra vez en una ristra de eufemismos: “competidores no hemisféricos”, “adversario externo” y “propietario de activos clave”. De América Latina a Oriente Próximo, pasando por Europa, no hay región del mundo donde no se proyecte la silueta amenazante del gigante asiático.
+Para la Unión Europea, resulta de interés especial el papel asignado a socios y aliados, considerados el medio fundamental para lograr el propósito final. Citados de forma recurrente, son definidos como “la base sobre la que se construirá la seguridad y la prosperidad en las décadas venideras”. Su reconocimiento se cuantifica en dólares: los aliados contribuyen con 35 billones de dólares a los 30 aportados por Estados Unidos, conformando así un núcleo que representa más de la mitad del producto económico global. Al respecto, el mensaje es inequívoco: la magnitud de sus aportes debe corresponder con una mayor responsabilidad estratégica, por lo que tendrán que contribuir de forma significativa a la defensa colectiva, de igual forma serán los principales garantes de su seguridad nacional, y se desprende que Washington jugará un papel menos directo.
+La estrategia funde la dimensión comercial con la militar en un solo entramado: “Se trata de consolidar nuestro sistema de alianzas en un grupo económico”.Los aranceles aplicados a países amigos dejan de ser meras medidas proteccionistas,y emergen como instrumentos orientados a contener la ascendencia de Pekín. Aquellos que reduzcan su dependencia de China y alineen sus controles de exportación con los de Washington, recibirán, a cambio, un trato preferencial en el ámbito comercial. Serán, además, recompensados con un mayor margen de maniobra en la Gran América acotada por Trump.
+En esta nueva arquitectura, tanto los aliados confluyen en un marco de influencia más amplio, el de los llamados “países de ingresos medios”, una categoría que algunos resumen como el Sur Global, pero que en realidad rebasa esta etiqueta. Es en esta vasta periferia estratégica donde Washington y Pekín compiten por liderar la tecnología y los estándares —en particular en inteligencia artificial, biotecnología y computación cuántica— que impulsan el avance del mundo.
+Desde China, la lectura de la nueva Estrategia de Seguridad difiere sensiblemente de la europea. Mientras que aquí se interpretan los recientes movimientos como una repliegue o viraje hacia el hemisferio occidental, diversos analistas chinos perciben algo distinto: no habría una retirada, sino una reconfiguración, una recalibración estratégica. Lo que realmente se observa —afirman— es un reajuste de prioridades, un movimiento calculado para ganar tiempo y recomponer fuerzas. Como señalaDiao Daming enThe Paper,“no hay un cambio en la dirección de la hegemonía, sino un cambio en el método de esta”, con una distribución de los costes de mantenimiento entre los aliados. La aparente distensión con China no sería más que una pausa táctica, un camuflaje, una maniobra retórica que busca suavizar tensiones mientras se racionalizan los recursos. Trump —escribeMei Yang, de la Universidad China de Hong Kong—, como empresario convertido en político está llevando a cabo, frente a las crisis internas, una reestructuración contable que sienta las bases para la próxima expansión.
+Pero, a pesar de su ambición, la estrategia revela una falla estructural importante, la valoración de unos aliados, europeos y asiáticos, que son vitales para su objetivo. Lejos de una relación entre pares, lo que se dibuja es una rígida jerarquía, más cercana al vasallaje que a la cooperación. Una visión marcadamente instrumental que subraya lo que estos socios aportan a la suma de fuerzas norteamericana, pero omite cualquier apreciación sustantiva de sus necesidades o prioridades estratégicas. En el caso particular de la UE, el desdén es tan evidente, que cabe preguntarse si no se tratará de otra táctica de camuflaje e intimidación. En cualquier caso, está por ver si Donald Trump podrá cuadrar tanto círculo.
+Eva Borregueroes profesora de Ciencia Política en la UCM, especializada en Asia Meridional.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C139" s="5" t="inlineStr">
+        <is>
+          <t>Condones más caros y partos gratis: las nuevas políticas de China en 2026 ante el pánico demográfico</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Política social</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2026-01-06T00:09:23+01:00</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>El país introduce nuevas medidas para revertir las consecuencias de la política del hijo único Leer</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Durante casi cuatro décadas, China probó un experimento: domesticar la demografía a golpe de limitar el número de hijos por familia. No más de uno. El poder político intervino de forma directa en la esfera más íntima, vigilando la reproducción por vía administrativa. La política del hijo único, vigente entre 1980 y 2015, fue presentada como una cirugía necesaria para evitar la asfixia del país; que un crecimiento excesivo de la población no frenara el desarrollo económico. Cuando Pekín levantó el bisturí y permitió dos hijos, primero, y tres, después, descubrió quela natalidad no responde a decretos de un Gobiernoempeñado en meterse en la cama de los ciudadanos.
+En el país que alberga a una sexta parte de la población mundial, el silencio de las cunas se ha convertido en un gran problema para un Estado que se ha pasado tanto tiempo restringiendo los nacimientos que ahorano da con la tecla para revertir las desastrosas tasas de natalidadque amenazan con erosionar el crecimiento económico.
+El Gobierno de Xi Jinping está continuamente reformando sus políticas familiares con todo tipo de incentivos. Uno de los últimos anuncios fue que todos los gastos médicos relacionados con el parto serán gratuitos a partir de este 2026 y se reembolsarán todos los gastos prenatales. A lo que se añade un programa nacional de subsidios para el cuidado infantil:3.600 yuanes(alrededor de 450 euros) anuales por cada niño menor de tres años.
+Pero la medida viral de las últimas semanas va por otro lado: por primera vez desde 1993,los condones y anticonceptivos estarán sujetos a un IVA del 13%. La decisión, enterrada discretamente en una reforma fiscal destinada a modernizar este año el sistema tributario, tiene un evidente aroma demográfico. Tras décadas regalando preservativos, ahora hay que pagar más por ellos porque así lo ha decidido el mismo poder que se dedicó a multar a las familias que no daban uso de ellos en el pasado.
+La población china disminuyó por primera vez en 2022 y ha seguido menguando desde entonces. La tasa de natalidad, situada en6,77 nacimientos por cada 1.000 habitantes, repuntó mínimamente en el último recuento, pero sigue muy lejos de los niveles históricos. Al mismo tiempo, la población activa -entre 16 y 59 años- se redujo en casi siete millones de personas, mientras los mayores de 60 ya representan el 22% del total. Las proyecciones no son optimistas: en 2035, alrededor del 30% de los chinos tendrá más de 60 años, y antes de 2080 los mayores de 65 superarán numéricamente a la población en edad laboral.
+La subida del precio de los anticonceptivos se incluye ahora en una nueva ley que alcanza desde reducciones fiscales para el cuidado infantil hasta para los "servicios de introducción al matrimonio", lo que viene a ser potenciar con subvenciones a las tradicionales casamenteras que hoy trabajan en agencias matrimoniales más formales.
+Junto a las políticas nacionales, proliferan los experimentos locales. En la ciudad de Shenzhen, las parejas con un tercer hijo pueden recibir hasta 19.000 yuanes (2.300 euros) en ayudas; en Jinan, las madres de un segundo o tercer hijo obtienen subsidios mensuales y licencias de maternidad ampliadas hasta 158 días. Otras ciudades ofrecen horarios laborales flexibles, teletrabajo, descuentos en tratamientos de fertilidad o bonificaciones en vivienda.
+Para impulsar los matrimonios, paso previo tradicional a la paternidad, en provincias como Hebei, las autoridades declararon hace tiempo la guerra a las "costumbres matrimoniales poco saludables", en particular alcaili, como se conoce a la dote que el novio entrega a la familia de la novia. Convertidaen una pesada carga financiera, esta tradición es un freno para que muchas parejas decidan casarse.
+Algunas administraciones locales han dado algunos pasos bastante más inquietantes. Los medios chinos informaron a finales del año pasado que en algunos condados de la provincia sureña de Yunnan los funcionarios estaban llamando a mujeres jóvenespreguntándose por sus ciclos menstruales y planes reproductivos, bajo el pretexto de realizar informes sobre el número de mujeres en edad fértil.
+Por muchas presiones e incentivos económicos, China enfrenta el mismo problema que otras muchas grandes economías del mundo, especialmente dos vecinos asiáticos,Japón y Corea del Sur. Estas últimas líneas podrían servir para cualquiera de los tres países citados: los costes educativos se han disparado, la vivienda es inaccesible para muchos jóvenes, la inseguridad laboral ha aumentado desde la pandemia y se mantiene el cerrojo a la inmigración. Las nuevas generaciones priorizan la carrera profesional y las mujeres -más independientes que nunca- posponen o descartan la maternidad.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C140" s="5" t="inlineStr">
+        <is>
+          <t>Pitillos: "Ni chino ni italiano, aquí se hace el mejor calzado y tenemos que creérnoslo"</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Tecnología de consumo</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2026-01-06T00:09:34+01:00</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Silvia Hernández dirige en Arnedo (La Rioja) Pitillos, la marca de calzado que prospera en una industria artesana y competitiva en la que cuenta tener las ideas claras, saber tomar decisiones y conocer a los clientes Leer</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>ASilvia Hernández, CEO deCalzados Pitillos, le apasiona todo lo que tiene que ver con el proceso de producción, diseño y venta de los zapatos. Prepara el muestrario para un viaje a Milán mientras negocia con unos proveedores próximas colecciones, piensa en una campaña de marketing coninfluencersmientras mete baza en el diseño de producto o sigue de cerca la marcha de la Fundación Francisca Bretón, la iniciativa puesta en marcha por la propia Hernández para ayudar a mayores y niños con problemas cognitivos y que tiene su sede enArnedo(La Rioja), como la propia fábrica de calzado.
+Pitillos produce800.000 pares de zapatos al añocon una planta en la que trabajan 150 personas y que también termina preproducción que llega de proveedores ajenos a la marca. Se centra en el calzado femenino con la comodidad como un valor reconocido. Pero no es fácil ser fabricante en La Rioja y prosperar en el mercado nacional e internacional compitiendo con productores e importadores de calzado chino, imposible de igualar en precio. Sin embargo, en Arnedo, donde el calzado es una tradición que alimentan varias marcas reconocidas, las industrias se baten con ingenio, con trabajo y adaptación, defendiendo el valor de la artesanía y elmade in Spain."Yo he nacido con la crisis del calzado", afirma Hernández para explicar que la industria es muy exigente con quien quiere participar en el mercado, sea por la competencia, sea por eventos que lo cambiaron todo, como el Covid en 2020. "Siempre ha existido esa percepción en el sector, pero también en años muy buenos en los que no había crisis; responde a un cierto inconformismo, a una manera de pensar que las cosas aún podrían hacerse mejor ¿no? Pero yo creo que en realidad la industria en Arnedo ha vivido a lo largo del tiempo una evolución buenísima".
+Calzados Pitillos nació hace 45 años fundada en Arnedo por el padre de Silvia Hernández, muchos de cuyos primeros recuerdos son precisamente en la fábrica. Tras estudiar enMadrid, pasó por diferentes departamentos. "Mi padre quería también que aprendiese todo desde abajo, pero sí que es cierto que nada más incorporarme a la empresa hice unrebranding, cambié la marca porque el logotipo era muy antiguo y lo cambié hacia algo más serio y más... normal".
+La normalidad es precisamente uno de los valores de Pitillos porque así lo entienden Silvia y su padre,Antonio, de quien además de la fábrica ha heredado un profundo conocimiento del mercado, de tener las ideas claras para transmitirlo así a clientes y proveedores, de la necesidad de adaptarse y de tomar decisiones con las que anticiparse para obtener ventaja, aunque suponga asumir riesgos. La dirección es cosa de Silvia, pero Antonio acostumbra a pasar todas las mañanas por la fábrica y su hija consulta con él asuntos de relevancia para el negocio, sean relacionados con la producción o la marca. Silvia tiene como una referencia cómo, en los años 90, su padre se convenció de las ventajas delyutecomo materia prima y se adelantó al mercado llenando tres naves con el producto, de manera que se aseguró la fabricación que otros no podían realizar y la demanda de clientes enFranciaeItalia. O cuando desarrolló una estrategia de producción rápida de estocajes que permitió a la marca ser la más ágil en responder las peticiones de las tiendas. O, también, en el rechazo a las ofertas para convertirse en marca blanca de otros a costa de perjudicar la propia, que es la antesala de la "desaparición" de la industria, opina. "Hemos llegado a vender cantidades increíbles gracias a esas decisiones, es algo que he heredado de él y lo que me enseña, aunque los dos somos muy pasionales con la empresa y él da su opinión y yo la mía y al final llegamos a un buen entendido".
+Para adaptarse a los cambios en el mercado, Pitillos ha tenido que innovar haciendo frente a eventos como el Covid, que han recortado el volumen de venta de zapatos de todo el sector. Silvia Hernández pasa de las oficinas con muestrarios a los talleres y líneas de producción, donde la última tecnología llega de complejas máquinas que aprovechan al máximo los cortes de las piezas de piel que después cosen las costureras, un oficio para el que cuesta encontrar relevo. Esta circunstancia es la que lleva a la directiva a adoptar un tono más reivindicativo al recordar, por un lado, que la carga fiscal para un fabricante que se enfrenta a la competencia asiática es excesiva. "Nos están matando a impuestos", dice, mientras demanda una mayor autoestima a la hora de vender el producto español. "Tenemos que aprender porque creo que lo hacemos muy bien como para dar la cara. Tenemos que creérnoslo, de verdad, que somos buenos".
+Al salir de la pandemia, el patrón de consumo de los clientes había sufrido un cambio que, cinco años después,aún perdura en la industria del calzado. Las personas apostaron por las experiencias en lugar de por la propiedad o el uso de un producto y eso es algo que han notado, para bien, en negocios que venden servicios como el turismo o la restauración y, peor, quienes venden manufacturas.
+En el caso concreto del calzado, la tendencia a vestir más informal ha creado la moda de usar calzado deportivo para todo, dejando a un lado los zapatos. "En la pandemia, mucha gente se pasó alcalzado deportivohasta el punto que ahora ves a una chica joven o una señora con un traje y unos deportivos, yo eso no lo entiendo", admite Hernández, asumiendo que la realidad es la que es, pero que la moda no puede cambiar lo que es el sentido común a la hora de vestir los pies, especialmente de las mujeres, que componen el 90% de su clientela. "Yo creo que tiene que haber un zapato, uno tipo salón con un tacón y con cierto diseño. Es cierto que esos años posteriores a la pandemia han sido dominados por lo deportivo, pero ahora la gente otra vez está volviendo a arreglarse, a comprarse tacones, a tener eventos... Claro, estuvimos mucho tiempo parados en los que la gente ahí ni consumía ni compraba y lo poco que compraban era deportivo y zapatilla, zapatilla de estar en casa; los que hacían zapatilla vendieron muchísimo. Pero ahora se está volviendo a salir", cuenta la responsable de la marca, que incluso ha notado que el cambio de calzado durante la pandemia produjo en sus clientas un cambio físico, que ha sido un pequeño ensanchamiento del empeine, suficiente para notarlo al probarse unos zapatos.
+Cómo no, en la fábrica de una marca que tiene la sensación de comodidad al pisar como un factor que les distingue, han tomado nota, adaptando ciertas tallas. No solo eso. Silvia Hernández se ha adaptado rejuveneciendo una marca que tiene una clientela fiel en mujeres a partir de mediana edad y ampliando la colección, que ahora abarca un gran número de modelos en series más cortas o con diferentes alturas de tacón. Si en la próxima temporada los modelos que incorporan las manchas de una piel de vaca serán la tendencia, Pitillos ya trabaja para tenerlos en el escaparate de las tiendas, aunque sabe que existen20 modelos ya en la colecciónque venderán más que el que sea tendencia en esa temporada.
+Para llegar a esas mujeres más jóvenes, Hernández se ha volcado en hacer conocer la marca a traves de influencers que invita a Arnedo para que conozcan el valor de la artesanía y promocionen el calzado entre sus audiencias. Al mismo tiempo, Pitillos tiene claro quiénes son sus clientes de siempre para cuidar de ellas, sabiendo qué es lo que quieren.
+"Fue mi hermano, Ricardo, el que una vez dijo: '¿Por qué no usamos en nuestros anuncios una imagen real de mujeres reales, que no sean modelos?'. Y es verdad, es lo que valoran nuestras clientes que son mujeres reales muy fieles a la marca", cuenta. Esas mujeres reales incluyen, por supuesto actrices y presentadoras, caras muy conocidas que aprecian no tener que cambiarse de calzado para dejar descansar a los pies. Pero Hernández sueña con que llegará el momento de que la Reina Leticia calce Pitillos algún día. "Con lo que es ella de defender la moda española y la mujer real, creo que lo conseguiremos".</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C141" s="5" t="inlineStr">
+        <is>
+          <t>Jacobo, centrado en el Córdoba CF pese a los cantos de sirena del mercado</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2026-01-06T11:19:57+01:00</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Aunque no se esperaban grandes sobresaltos en el mercado invernal del Córdoba CF, ya son varios los cantos de sirena que han rodeado a varios jugadores blanquiverdes. El caso más destacado es el de Adrián Fuentes . Su irrupción en Segunda División como uno de los delanteros de moda habría llamado la atención del futbol chipriota, una vía que ha sido desestimada por el propio Antonio Monterrubio, CEO blanquiverde. Además de esta oferta, ahora Jacobo también habría levantado interés en el fútbol internacional. Tal y como avanzó el medio digital Cordobadeporte, la Primera División de China se ha interesado por la situación del mediapunta madrileño tras sus buenas actuaciones. Un interés que cobra aún más fuerza si se tiene en cuenta su situación contractual, ya que finaliza contrato el próximo 30 de junio , lo que convierte su perfil en especialmente atractivo en el mercado. En este sentido, y según ha podido confirmar ABC Córdoba, el entorno del jugador blanquiverde ha recibido dicho sondeo . No obstante, este interés todavía no ha sido valorado por el propio futbolista y, además, es muy posible que quede descartada su salida al continente asiático. Sin duda, estos rumores podrían intensificarse en torno a un Jacobo que, a día de hoy, ya puede considerarse 'agente libre', dado que la normativa FIFA permite negociar directamente con un jugador cuando le restan seis meses o menos de contrato; como ocurre en el caso del madrileño. Además, al contrario como puede ocurrir con Xavi Sintes, Albarrán o Pedro Ortiz, dentro de su contrato no está contemplada una extensión por una campaña en caso de lograr ciertos objetivos deportivos . Paralelamente, según ha podido saber también este medio, el Córdoba CF estaría interesado en prolongar su vinculación con el club blanquiverde. Así, la decisión queda ahora en manos de un Jacobo que permanece plenamente centrado en el presente y que se encuentra al margen de valorar opciones futuras , pese a la incertidumbre que supone no tener contrato a partir del próximo mes de julio. Sobre su situación actual, el madrileño sigue siendo fundamental para Iván Ania . Ya sea desde la mediapunta, o desde los extremos, Jacobo ha logrado otorgar gol cuando los blanquiverdes más lo han necesitado. Con cinco tantos en su casillero, mejora en una diana sus registros respecto al año pasado en este mismo punto de la temporada. Además, solo Fuentes -ocho goles- le supera respecto a su desempeño goleador dentro del Córdoba. Precisamente, si se suman los goles de ambos, el tándem madrileño ha logrado trece dianas en toda la temporada . Este registro no es moco de pavo, puesto que si se compara con los veinticinco goles que ha logrado el equipo, este dúo ha acaparado el 52% de los tantos materializados . Este tipo de estadísticas, aunque puedan pasar desapercibidas, demuestran de la alta cotización que tienen para los ojos de otros clubes y lo sensible que resultaría un adiós de alguno de los dos. Aunque ha sido cuestionado recientemente por su desempeño sobre el verde, Jacobo ha sido muy importante en los últimos dos encuentros al lograr dos goles, todos ellos abriendo la lata en el marcador. Y es que, si se miran los guarismos, su capacidad de crear peligro en la portería rival es innegable. Con 47 remates en toda la temporada, el blanquiverde es el jugador más destacado de toda la competición en este apartado. Eso sí, este dato se ve algo deslucido al ir únicamente 22 de ellos entre los tres palos, pero poco a poco se acercan a un destacado 50%. Ahora, tal y como precisó Iván Ania en la rueda posterior al encuentro ante el Burgos, sus pupilos han demostrado un alto grado de profesionalidad ante los rumores y han comenzado el año dejando un buen sabor de boca. Precisamente, este buen nivel en jugadores como Jacobo ha hecho que muchos equipos observen de cerca a efectivos cordobesistas por lo que, lejos de ser tranquilo, se prevé un invierno de alto voltaje en El Arcángel.</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>mercado de invierno
+Daniel Aragón
+Córdoba
+Esta funcionalidad es sólo para registrados
+Aunque no se esperaban grandes sobresaltos en el mercado invernal del Córdoba CF, ya son varios loscantos de sirenaque han rodeado a varios jugadores blanquiverdes. El caso más destacado es el deAdrián Fuentes. Su irrupción en Segunda División como uno...de los delanteros de moda habría llamado la atención del futbol chipriota, una vía que ha sido desestimada por el propio Antonio Monterrubio, CEO blanquiverde. Además de esta oferta, ahoraJacobotambién habría levantado interés en el fútbol internacional.
+Tal y como avanzó el medio digital Cordobadeporte, laPrimera División de Chinase ha interesado por la situación del mediapunta madrileño tras sus buenas actuaciones. Un interés que cobra aún más fuerza si se tiene en cuenta su situación contractual, ya que finaliza contrato elpróximo 30 de junio, lo que convierte su perfil en especialmente atractivo en el mercado.
+En este sentido, y según ha podido confirmar ABC Córdoba, el entorno del jugador blanquiverdeha recibido dicho sondeo. No obstante, este interés todavía no ha sido valorado por el propio futbolista y, además, es muy posible que quede descartada su salida al continente asiático.
+Sin duda, estos rumores podrían intensificarse en torno a un Jacobo que, a día de hoy, ya puede considerarse 'agente libre', dado que la normativa FIFA permitenegociar directamente con un jugadorcuando le restan seis meses o menos de contrato; como ocurre en el caso del madrileño. Además, al contrario como puede ocurrir con Xavi Sintes, Albarrán o Pedro Ortiz, dentro de su contrato no está contemplada una extensión por una campaña en caso de lograrciertos objetivos deportivos.
+Paralelamente, según ha podido saber también este medio, el Córdoba CFestaría interesado en prolongar su vinculacióncon el club blanquiverde. Así, la decisión queda ahora en manos de un Jacobo que permanece plenamente centrado en el presente y que se encuentra almargen de valorar opciones futuras, pese a la incertidumbre que supone no tener contrato a partir del próximo mes de julio.
+Sobre su situación actual, el madrileño sigue siendofundamental para Iván Ania. Ya sea desde la mediapunta, o desde los extremos, Jacobo ha logrado otorgar gol cuando los blanquiverdes más lo han necesitado. Con cinco tantos en su casillero, mejora en una diana sus registrosrespecto al año pasadoen este mismo punto de la temporada.
+Además, solo Fuentes -ocho goles- le supera respecto a su desempeño goleador dentro del Córdoba. Precisamente, si se suman los goles de ambos, el tándem madrileño ha logradotrece dianas en toda la temporada. Este registro no es moco de pavo, puesto que si se compara con los veinticinco goles que ha logrado el equipo, este dúo ha acaparado el52% de los tantos materializados. Este tipo de estadísticas, aunque puedan pasar desapercibidas, demuestran de la alta cotización que tienen para los ojos de otros clubes y lo sensible que resultaría un adiós de alguno de los dos.
+Aunque ha sido cuestionado recientemente por su desempeño sobre el verde, Jacobo ha sido muy importante en losúltimos dos encuentrosal lograr dos goles, todos ellos abriendo la lata en el marcador. Y es que, si se miran los guarismos, su capacidad de crear peligro en la portería rival es innegable. Con47 rematesen toda la temporada, el blanquiverde es el jugador más destacado de toda la competición en este apartado. Eso sí, este dato se ve algo deslucido al ir únicamente 22 de ellos entre los tres palos, pero poco a poco se acercan a un destacado 50%.
+Ahora, tal y como precisó Iván Ania en la rueda posterior al encuentro ante el Burgos, sus pupilos han demostradoun alto grado de profesionalidad ante los rumoresy han comenzado el año dejando un buen sabor de boca. Precisamente, este buen nivel en jugadores como Jacobo ha hecho quemuchos equipos observen de cerca a efectivos cordobesistaspor lo que, lejos de ser tranquilo, se prevé un invierno de alto voltaje en El Arcángel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C142" s="5" t="inlineStr">
+        <is>
+          <t>China acusa a EE.UU. de anteponer su ley interna al derecho internacional por Venezuela</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2026-01-06T09:39:42+01:00</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>China ha acusado este martes a Estados Unidos de anteponer su legislación interna al derecho internacional en el caso de Venezuela, y ha sostenido que ningún país puede situar sus normas domésticas por encima de las reglas internacionales ni erigirse en árbitro del orden jurídico global. La portavoz del Ministerio de Exteriores chino, Mao Ning ha afirmado hoy en rueda de prensa que «la actuación de Washington en Venezuela viola gravemente el derecho internacional y las normas básicas que rigen las relaciones internacionales», al referirse a la captura del presidente venezolano, Nicolás Maduro . «Ningún país puede colocar sus reglas internas por encima del derecho internacional», ha subrayado Mao, quien ha añadido que EE.UU., como miembro permanente del Consejo de Seguridad de la ONU, «ha ignorado las serias preocupaciones de la comunidad internacional y ha pisoteado de forma arbitraria la soberanía, la seguridad y los derechos e intereses legítimos de Venezuela». Del mismo modo, la portavoz ha reiterado que Pekín «se opone firmemente» a estas acciones y ha defendido que «las cuestiones internacionales no deben resolverse mediante el uso de la fuerza», ya que, según ha indicado, «el abuso de medios militares solo conduce a crisis mayores» . En ese contexto, Mao ha sostenido que «los grandes países, en particular, no deben actuar como si pudieran ser la policía del mundo» tras recalcar que «ningún Estado tiene derecho a autoproclamarse árbitro del derecho internacional». «China respeta la soberanía y la independencia de Venezuela, y respeta las disposiciones adoptadas por el Gobierno venezolano de acuerdo con su Constitución y sus leyes», ha agregado la portavoz, al ser preguntada sobre la situación política interna del país después del nombramiento de Delcy Rodríguez como presidenta encargada tras la captura de Maduro. En relación con el proceso judicial abierto en EE.UU. contra el mandatario venezolano, Mao ha señalado que Washington «ha ignorado el estatus de jefe de Estado del presidente Maduro» y que someterlo a procedimientos judiciales internos estadounidenses «infringe gravemente la soberanía nacional de Venezuela y socava seriamente las normas fundamentales de las relaciones internacionales». «China insta a EE.UU. a liberar de inmediato al presidente Maduro y a su esposa, y a garantizar su seguridad personal», ha añadido. Mao ha concluido que China seguirá defendiendo «el respeto a la soberanía y la integridad territorial de todos los países» y ha abogado por «resolver las diferencias y disputas entre Estados mediante el diálogo y la consulta por medios pacíficos».</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>EFE
+Esta funcionalidad es sólo para registrados
+China ha acusado este martes a Estados Unidos de anteponer su legislación interna al derecho internacional en el caso de Venezuela, y ha sostenido que ningún país puede situar sus normas domésticas por encima de las reglas internacionales ni erigirse en árbitro del orden jurídico...global.
+La portavoz del Ministerio de Exteriores chino,Mao Ningha afirmado hoy en rueda de prensa que «la actuación de Washington en Venezuela viola gravemente el derecho internacional y las normas básicas que rigen las relaciones internacionales», al referirse a la captura del presidente venezolano,Nicolás Maduro.
+«Ningún país puede colocar sus reglas internas por encima del derecho internacional», ha subrayado Mao, quien ha añadido que EE.UU., como miembro permanente del Consejo de Seguridad de la ONU, «ha ignorado las serias preocupaciones de la comunidad internacional y ha pisoteado de forma arbitraria la soberanía, la seguridad y los derechos e intereses legítimos de Venezuela».
+Del mismo modo, la portavoz ha reiterado que Pekín «se opone firmemente» a estas acciones y ha defendido que «las cuestiones internacionales no deben resolverse mediante el uso de la fuerza», ya que, según ha indicado,«el abuso de medios militares solo conduce a crisis mayores».
+En ese contexto, Mao ha sostenido que «los grandes países, en particular, no deben actuar como si pudieran ser la policía del mundo» tras recalcar que «ningún Estado tiene derecho a autoproclamarse árbitro del derecho internacional».
+«China respeta la soberanía y la independencia de Venezuela, y respeta las disposiciones adoptadas por el Gobierno venezolano de acuerdo con su Constitución y sus leyes», ha agregado la portavoz, al ser preguntada sobre la situación política interna del país después del nombramiento deDelcy Rodríguezcomo presidenta encargada tras la captura de Maduro.
+En relación con el proceso judicial abierto en EE.UU. contra el mandatario venezolano, Mao ha señalado que Washington «ha ignorado el estatus de jefe de Estado del presidente Maduro» y que someterlo a procedimientos judiciales internos estadounidenses «infringe gravemente la soberanía nacional de Venezuela y socava seriamente las normas fundamentales de las relaciones internacionales».
+«China insta a EE.UU. a liberar de inmediato al presidente Maduro y a su esposa, y a garantizar su seguridad personal», ha añadido.
+Mao ha concluido que China seguirá defendiendo «el respeto a la soberanía y la integridad territorial de todos los países» y ha abogado por «resolver las diferencias y disputas entre Estados mediante el diálogo y la consulta por medios pacíficos».</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C143" s="5" t="inlineStr">
+        <is>
+          <t>Maldición del petróleo</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2026-01-06T06:55:11+01:00</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Antes de que Donald Trump reclamara el petróleo de Venezuela , los que de verdad se lo han llevado a precio de ganga eran chinos y cubanos. El petróleo, no conviene olvidarlo, siempre ha sido el gran factor de poder -y de distorsión- de la política venezolana. De hecho, el primero que intentó seducir a Trump con el petróleo fue Nicolás Maduro el pasado verano. Activó una estrategia explícita para excitar su conocida mentalidad transaccional: ofreció negocios petroleros, prometió facilidades regulatorias y dio la bienvenida a la inversión de empresas estadounidenses. No fue un gesto ideológico ni una apertura democrática. Fue una maniobra de supervivencia. Maduro entendió -mejor que los políticos europeos- que Trump no se mueve por afinidades morales,... Ver Más</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>ajuste de cuentas
+John Müller
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+Antes de queDonald Trumpreclamara el petróleo deVenezuela, los que de verdad se lo han llevado a precio de ganga eran chinos y cubanos. El petróleo, no conviene olvidarlo, siempre ha sido el gran factor de poder -y de distorsión- de...la política venezolana. De hecho, el primero que intentó seducir a Trump con el petróleo fueNicolás Maduroel pasado verano. Activó una estrategia explícita para excitar su conocida mentalidad transaccional: ofreció negocios petroleros, prometió facilidades regulatorias y dio la bienvenida a la inversión de empresas estadounidenses. No fue un gesto ideológico ni una apertura democrática. Fue una maniobra de supervivencia. Maduro entendió -mejor que los políticos europeos- que Trump no se mueve por afinidades morales, sino por intereses concretos. Y le puso el petróleo sobre la mesa.
+En segundo lugar, Trump no necesita el petróleo venezolano.EE.UU.es hoy el mayor productor mundial de crudo y gas. Tiene petróleo de sobra, reservas estratégicas y acceso preferente a proveedores mucho más cercanos y fiables comoCanadáyMéxico. Entonces, ¿qué busca Trump? Pues, control, no expolio. Control estratégico de un recurso que el chavismo ha malvendido durante años, sobre todo aChina, en condiciones opacas y a precios de saldo, a cambio de financiación y oxígeno financiero. Desde la óptica estadounidense, permitir quePekínconsolide posiciones sobre las mayores reservas probadas de petróleo del mundo no es una anécdota comercial, sino una anomalía geopolítica de primer orden.
+Muchos intelectuales venezolanos han señalado que el petróleo ha sido una maldición para su país. Durante décadas,Venezuelafue el ejemplo clásico de Estado rentista. El crudo financiaba el presupuesto, sostenía el tipo de cambio, amortiguaba crisis sociales y permitía posponer reformas. Mientras el petróleo fluía, la política evitaba decisiones difíciles: diversificar la economía, fortalecer las instituciones, limitar el clientelismo. El sistema funcionaba... hasta que dejó de hacerlo. Tecnócratas de prestigio, comoMoisés NaímoRicardo Hausmann, intentaron reconducir la situación, pero toparon con la incomprensión social. El Caracazo de 1989 no fue un accidente: fue la expresión violenta de un contrato social roto.
+En lugar de reformar elEstado rentista, el chavismo lo hipertrofió. La Venezuela prechavista era disfuncional, pero corregible. El chavismo cruzó una línea: destruyó los incentivos básicos de la economía y eliminó los contrapesos políticos.
+Hay además un objetivo adicional en la estrategia de Trump, menos mencionado pero clave: cortar el subsidio petrolero a Cuba, patria de la guardia de corps de Maduro. El petróleo venezolano ha sido durante años el salvavidas del régimen cubano. La ironía final es evidente: quienes acusan a Trump de querer 'robar' el petróleo venezolano guardan un silencio clamoroso sobre quién lo ha dilapidado, hipotecado y entregado durante años. El saqueo real no vino de fuera. Fue interno. Y sigue siéndolo.jmuller@abc.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C144" s="5" t="inlineStr">
+        <is>
+          <t>Juan Soto Ivars:  «Leer ABC de estudiante me producía una sensación punki de verdad»</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2026-01-06T04:34:27+01:00</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>El periodista, ensayista y gran polemista Juan Soto Ivars (Águilas, Murcia, 1985) es hoy noticia porque se incorpora como firma de opinión en ABC. Después de una carrera brillante en 'El Confidencial', donde ha escrito durante los últimos años, abre una nueva etapa, que coincide además con el gran éxito de su libro sobre las denuncias falsas en violencia de género , 'Esto no existe' (Debate), que sigue en los primeros puestos de ventas y ha logrado abrir una conversación pública inédita. El nuevo columnista escribirá en ABC los martes y los domingos, de manera fija, en las páginas de Opinión y hará productos audiovisuales para la edición digital. Soto Ivars es un pensador acostumbrado a opinar contra corriente, y ha publicado, además, algunos libros que señalaron la guerra cultural, como 'La trinchera de letras', y la cultura de la cancelación, sobre todo 'Nadie se va a reír', en el que denunciaba lo ocurrido con Anónimo García, que acabó en prisión por una performance irónica sobre la sobrerreacción en torno al caso de violación de 'La manada'. Antes de leer sus columnas, conversamos sobre el periodismo y la situación de esa batalla cultural. -¿Para qué periodistas en estos tiempos? -En estos tiempos los periodistas tenemos algunas funciones menos que antes. Hay mucha gente que transmite, retransmite, algunos informan incluso. Pero los periodistas siguen haciendo falta porque son los únicos que tienen la obligación ética de comprobar si lo que están diciendo es verdad o mentira. Y ya solo por eso creo que sigue teniendo valor. -¿Y cuál sería el peor error de un periodista hoy en día? -Está muy disputado. Cuando vas a una rueda de prensa de un político y ves que muchos periodistas simplemente transmiten sin el más mínimo cuestionamiento la sopa que sueltan los políticos, ves a gente que está haciendo solo el principio del trabajo. Los políticos están intentando quitarse de en medio a los periodistas y expresarse solo a través de las redes sociales directamente con su votante. Y cuando el periodista le hace un favor a eso que quiere hacer el político está haciendo un mal trabajo. -¿Corren malos tiempos para la crítica? -Corren malos tiempos para la gente interesada en que se critiquen sus puntos de vista. Estamos en un proceso, en el que los periodistas participamos, que consiste en hablar para nuestra trinchera, para los que tenemos convencidos. Como si hubiéramos renunciado a convencer al que piensa de manera distinta o no está convencido del todo. Hay un desafío muy interesante que es convencer a una sola persona de que estaba equivocada antes de leer nuestra información. -Un hombre bueno. -Con un hombre bueno valdría. -¿Estamos en una guerra cultural? -Sí. Estamos en una guerra cultural en la que la derecha ha renunciado durante muchos años a presentarse y ha utilizado las armas que generosamente le ponía en las manos la izquierda cultural. -Que tienen el cañón hacia atrás. -Sí, como esa pistola de agua que si le das te dispara a ti en la cara. Yo creo que la derecha se está poniendo las pilas mal porque está entrando a la batalla cultural a intentar disputar un territorio en lugar de a ofrecer alternativas a las narrativas clásicas. Pero como ya llevamos suficientes años de batalla cultural y la gente está bastante hastiada de los fenómenos de censura y de persecución yo creo que hay un muy buen momento para simplemente plantear alternativas que no tienen ni siquiera por qué ceñirse a una de las dos ideologías típicas. -¿Por qué? -Porque hay mucha hambre y mucha sed en el público de encontrar mensajes alternativos a la cultura dominante hegemónica, que en España ha sido, desde la Transición, la progre, por así decir. Y no necesariamente lo que hay que darle es cultura antiprogre. -Algún ejemplo. -La película 'Los Domingos', por ejemplo, explora alternativas al atrincheramiento cultural y dice: mira lo que hay aquí. Estamos en un momento muy bueno para eso. -El éxito de esta película o del disco 'Lux', de Rosalía, desorienta a los políticos. -Y al público también. La polarización nos ha esclerotizado y nos ha abocado a la pregunta falsa: ¿esto que estoy viendo va conmigo o contra mí? Y parece que hay que responder a eso cuando es una pregunta absurda. Tengo la impresión de que eso se está rompiendo porque los productos culturales panfletarios en los últimos quince años son muy malos. -Y repetitivos. ¿Qué hace diferentes a los que cita? -El mercado es sabio y está premiando productos imprevistos, que sobrevuelan esa bipolaridad. Pienso que 'Lux' y 'Los Domingos' serían dos casos, o las novelas 'Los Escorpiones' y 'Panza de Burro'; de vez en cuando llega algo que atraviesa las líneas porque está hecho desde la honestidad de un artista o de un grupo de artistas que simplemente tienen esto que decir y lo echan ahí. Y son los críticos los que intentan condenarlo o barrer para casa. Se vio con la muerte de Robe. -¿Qué ocurrió? -Yo escribí un artículo necrológico porque a mí Extremoduro me gustaba mucho de joven. Bustos escribió también. Ambos fueron polémicos porque generaron una reacción de: «¿pero quién sois vosotros, fachas, para hablar de nuestro Robe?» Y es como que ¿no os dais cuenta de que lo bueno de Robe es que también le gusta a cuatro fachas? En periodismo pasa también. -Pasó lo mismo con el 'Bella ciao' de 'La Casa de Papel'. -Y pasa con el periodismo: hay un premio por ser de trinchera, pero hay otro por romper esa limitación y a tus lectores plantearles ciertas preguntas que a lo mejor ellos por comodidad no se habían hecho. -¿Cómo reaccionan sus lectores cuando les lleva a un terreno incómodo? -Yo he hecho toda esta carrera de columnismo bajo la premisa de que los lectores son los amigos que tengo, no los conozco, pero yo escribo como si hablase con amigos. Me suelen permitir bastante, pero cuando no están de acuerdo con el artículo, me dicen: «hoy la has cagao». Si tú escribes con honestidad, la gente acepta que a veces lo que tú piensas choque contra su forma de ver el mundo. Igual que pasa con los grupos de amigos. -Hoy muchos amigos ya no hablan de política… -Yo he vivido doce años en Cataluña. Allí vi cómo el proceso de polarización en torno a la independencia empezaba a romper grupos de amigos y en la España de Sánchez lo he vuelto a ver que, por la política, había amigos que dejaban de quedar. ¿Por qué digo lo de que a mí me gusta escribir como si hablase con mis amigos? Porque la amistad es lo contrario de la polarización. -Pero el paisaje político es de un poder desatado. -Aquí lo que pasa es que tenemos tantos poderes para elegir... Hay una palabra que está rota ya, que es contrapoder. Porque en un ambiente polarizado es fácil que siendo contrapoder de algo seas propoder de otra cosa. Un contrapoder de verdad es el que no tiene éxito, es el de quien termina en la cárcel sin amigos. Una vez que ya rompes esa cúpula de censura y tienes éxito con el mensaje y la gente lo escucha y rompes la espiral del silencio, ya no hay contrapoder. Con mi último libro ha pasado, ha abierto un campo nuevo. -Ha cartografiado un problema que existía, que estaba invisible. -Ha habido abogados y víctimas de esto contándolo desde tiempo atrás en blogs. Eso sí ha sido el contrapoder. La gente que lo ha estado contando en internet durante muchos años antes de que saliera el libro, eso sí era un contrapoder. Porque se enfrentaban a una unanimidad que era falsa. Esa unanimidad ya no está. -Antes de 'Esto no existe' escribió un ensayo sobre el caso de Anónimo García. Eso era un contrapoder, porque acabó en la cárcel... -Exacto. Y el libro lo sacó de la cárcel. Porque tuvo mucho eco, en la sentencia del Constitucional venían los mismos argumentos. Y lo bonito de ese libro es que te demuestra cómo a veces se produce una injusticia porque no se ha contado bien una historia. Y eso es lo importante del periodismo. El periodismo tiene la obligación de contar bien las historias para intentar que no ocurran ciertas injusticias. -Su cancelación fue brutal. -Su vida se fue al garete, lo echaron del trabajo, Greenpeace, él fue condenado, todo por una ironía. -Hemos creado el ritual público del señalamiento. -Es lo que más éxito ha tenido en la sociedad moderna. Claro. Y fíjate que el señalamiento también ha actuado como un contrapoder. ¿Qué fue el MeToo sino un contrapoder? ¿Cómo te cargas a Harvey Weinstein? Pues con un contrapoder. ¿Y luego qué pasa? Que el mismo movimiento, como pasa con todas las revoluciones, empieza a fabricar víctimas injustas y empieza a usar la misma dinamita que usa con Harvey Weinstein contra gente que no ha hecho nada. Y a partir de 2017 se convierte ya en... En un tribunal alternativo. En la noticia del otro día, noticia entre comillas, de por qué hay que quitarle el nombre al aeropuerto de Madrid. -¿Cómo es la cancelación desde dentro? -Es lo más cercano que tenemos, en el siglo XXI y en el Occidente laico, al proceso de herejía. El cancelado recibe el Sambenito, pero hemos sacado a la luz esta impureza que lo convierte en intocable para todos los demás. Quien toque a este impuro será considerado también suspecto de herejía. Lo que hace la cancelación es dejar solo a un tipo que o no ha hecho nada o no ha hecho algo tan grave, y no se ha podido defender de aquello de lo que se le acusa. -Con aspecto de linchamiento. -Porque es sumarísimo. Este ha sido el mayor retroceso en términos de justicia que hemos tenido la ocasión de experimentar en nuestra sociedad. Es alucinante lo que hemos vivido, y lo hemos vivido entre vítores de que se estaba haciendo justicia, por fin. Esto ha sido una bestialidad, y ha empezado como un contrapoder, o sea que cuidado con los contrapoderes, que muerden. -Cambiemos de tercio. ¿De dónde le viene la veta periodística? -Tener una columna de opinión no era algo a lo que yo aspiraba. Tuve la suerte también de que el en 'El Confidencial' me animaron a hacer lo que ya estaba escribiendo en redes, y me dejaron jugar. No sé si leían lo que escribía, la norma era: allá tú. -Algo que nunca falta en sus textos es el humor. -Yo con mis amigos hago bromas, y las hago escribiendo. Pero no es humor, es ironía. No me parece que la ironía sea una cosa para hacer gracia. La ironía es buena para pensar, porque te obliga a pensar desde el otro punto de vista. Me ha ayudado mucho, por ejemplo, a descubrir errores míos. Yo a veces he aplicado un discurso irónico desde una certeza mía para atacar la otra certeza, la certeza contraria, y he descubierto que en la certeza contraria había cosas más que rescatables para mí. -¿Y cómo ha vivido el trabajo de columnista cuando desde el Gobierno empezó a insultarse a los medios? -Pues muy contento. Tener al poder en contra, esto en ABC lo habéis visto perfectamente, es la mejor manera de trabajar. Lo que te tiene que preocupar es que el gobierno te guste, claro. Ahora que el gobierno te considere basura y lo digan, esto ha sido inédito. Ahí está Oscar Puente. Todo esto será recordado como un momento periodísticamente glorioso. Todos los medios, 'El Confidencial', el ABC, el 'Objective', el Vozpópuli', 'El Mundo', han desmontado toda la ficción alrededor del gobierno de progreso y de limpieza contra la corrupción, todo ese trabajo que luego se ha convertido en procesos judiciales, y que ya veremos cómo termina la cosa. -¿Que le sugiere su nueva etapa en ABC? -A mi yayo Juan le gustaba el ABC por las grapas. Cuando compraba otro periódico, lo cosía con una máquina de coser. Yo veía el ABC, antes de leer el ABC, en casa de mi abuelo Juan, que hacía pantalones. Hay periódicos que están en el paisaje familiar, al final. Me hacía unos barcos muy bien hechos de papel con las páginas del ABC. -¿Y ya de lector? -Cuando empecé a interesarme por las noticias, que fue a partir de la universidad, yo leía muchas veces el ABC. Alguien de mi raza, 18 años, con greñas, con camisetas de heavy metal, que estudia periodismo y que le toca ser progre, al leer el ABC en el vagón del metro me producía una especie de sensación de punky de verdad, ¿sabes? Tenía algún compañero de clase, entonces, todavía en la carrera, que tenía vergüenza de leer medios de derechas. Y a mí me molaba, me parecía desafiante. -Tras los atentados del 11M, vino la teoría de la conspiración, y yo recuerdo muy bien cuando el ABC tomó la decisión editorial: nosotros aquí nos plantamos. Yo creo que esa es la primera cosa que recuerdo de ABC, que fue precisamente en un momento en el que la oposición de derecha era dura y de mucha -entonces se llamaba así- crispación. Aquel ABC tomó la decisión más difícil, que era decir: en vez de echarnos al barro, vamos a intentar tener un perfil propio y criticar a estos tíos del gobierno por lo que nosotros decidamos. Recuerdo haberlo hablado también en clase, recuerdo que fue algo que se comentaba en las universidades. -Así que, ¿qué espera de esta etapa? -Acabar aquí yo lo uno con eso, que luego he visto en otras ocasiones en ABC, que es ese arrojo para decidir, para decir: la derecha tiene que ir por aquí, pero nosotros somos el ABC, vamos a hacer lo que debemos, lo que nos dé la gana, lo nuestro, ¿no? Y también me hace mucha gracia estar aquí porque tengo muchos amigos. -¿Además de los amigos lectores? -Ha pesado mucho en mi decisión que aquí escribe gente como Karina, Juan Manuel de Prada, Rebeca Argudo, Margarito [José F. Peláez]. Tengo la impresión de que voy a un lugar de amigos, y el hecho de que sean tan diferentes, tú dime que tiene que ver Juan Manuel de Prada con Rebeca Argudo, hace que piense que aquí voy a estar muy a gusto. -Ese ambiente de amistades diversas contrasta con la política polarizada… -¿Tú sabes que yo voté a Pedro Sánchez? Yo siempre he sido un socialdemócrata desangelado, no sé, he votado un poco así, esta mierda, esta mierda. Y yo recuerdo haber votado a Pedro Sánchez, que era un tipo, como yo vivía en Cataluña, que era un tipo que decía que él iba a traer a Puigdemont. Esposado, prácticamente. El sheriff de España iba a ser. Y que Bildu, sí, había matado a miembros de su partido. Yo recuerdo haber votado a ese tipo. Por que iba a luchar contra la corrupción, hizo una moción de censura, la hizo con un tal Ábalos, el nuevo PSOE, contra la corrupción. -Una gran desilusión, o que nos han colado una gran ficción. -Desde los indultos, he visto cómo gente que votó igual que yo, al recibir la constatación de que, con perdón, les estaban meando en la cara, le defendían. No ha sido un ejercicio de ficción, lo que hemos visto con el sanchismo ha sido un ejercicio de ensoñación colectiva, en el que mucha gente razonable, que esto era lo peor de todo, que no eran gilipollas, mucha gente razonable, comulgaba con unas ruedas de molino nunca vistas. «Por lo menos no está la extrema derecha». -¿Y la conclusión? -Por lo menos no nos gobierna la extrema derecha [sonríe], y lo más bonito de todo es que vamos a acabar siete años en un país más desigual, en un país con más pobreza infantil que antes, con más pobreza energética que antes, con los precios de la vivienda desbocados, en un país donde se vive peor, y a este proceso le vamos a llamar de siete, ocho, van a ser nueve años al final, parece, el gobierno de progreso. - Pero hay una sensación de hundimiento -Ahora nos empezamos a enterar de por qué Huawei tiene en España el papel que tiene, a ver por qué un zapatero volaba con PDVSA... Yo quiero saber por qué José Bono hace vídeos con sus hijos en una casa tan bonita, por ejemplo. Quiero saber por qué las hijas de Zapatero borraron la web, las redes sociales de su empresa justo cuando los informes de la UDF. Quiero saber por qué Plus Ultra ponía su avión a disposición de Venezuela y de Díaz-Canel en Cuba. Lo más misterioso ha sido nuestra política exterior. -¿Han cambiado muchos ejes, sin pasar por el Parlamento? -Quiero que se sepa, como mínimo, un 10% de por qué el Sáhara está con Marruecos, qué pasa con la trama de los hidrocarburos, qué está pasando ahí, por qué tantos socialistas tienen doble nacionalidad dominicana. Yo hay cosas que quiero saber. Habrá que leer los periódicos, a ver si... Habrá que leer.</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Jesús García Calero
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+El periodista, ensayista y gran polemistaJuan Soto Ivars(Águilas, Murcia, 1985) es hoy noticia porque se incorpora como firma de opinión en ABC. Después de una carrera brillante en 'El Confidencial', donde ha escrito durante los últimos años, abre una nueva etapa,...que coincide además con el gran éxito de su libro sobre lasdenuncias falsas en violencia de género,'Esto no existe' (Debate),que sigue en los primeros puestos de ventas y ha logrado abrir una conversación pública inédita. El nuevo columnista escribirá en ABC los martes y los domingos, de manera fija, en las páginas de Opinión y hará productos audiovisuales para la edición digital.
+Soto Ivarses un pensador acostumbrado a opinar contra corriente, y ha publicado, además, algunos libros que señalaron la guerra cultural, como'La trinchera de letras',y la cultura de la cancelación, sobre todo'Nadie se va a reír',en el que denunciaba lo ocurrido con Anónimo García, que acabó en prisión por una performance irónica sobre la sobrerreacción en torno al caso de violación de 'La manada'. Antes de leer sus columnas, conversamos sobre el periodismo y la situación de esa batalla cultural.
+-¿Para qué periodistas en estos tiempos?
+-En estos tiempos los periodistas tenemos algunas funciones menos que antes. Hay mucha gente que transmite, retransmite, algunos informan incluso. Pero los periodistas siguen haciendo falta porque son los únicos que tienen la obligación ética de comprobar si lo que están diciendo es verdad o mentira. Y ya solo por eso creo que sigue teniendo valor.
+-¿Y cuál sería el peor error de un periodista hoy en día?
+-Está muy disputado. Cuando vas a una rueda de prensa de un político y ves que muchos periodistas simplemente transmiten sin el más mínimo cuestionamiento la sopa que sueltan los políticos, ves a gente que está haciendo solo el principio del trabajo. Los políticos están intentando quitarse de en medio a los periodistas y expresarse solo a través de las redes sociales directamente con su votante. Y cuando el periodista le hace un favor a eso que quiere hacer el político está haciendo un mal trabajo.
+«Estamos en una guerra cultural en la que la derecha ha renunciado durante muchos años a presentarse y ha utilizado las armas que generosamente le ofrece la izquierda cultural»
+Juan Soto Ivars
+Columnista de ABC
+-¿Corren malos tiempos para la crítica?
+-Corren malos tiempos para la gente interesada en que se critiquen sus puntos de vista. Estamos en un proceso, en el que los periodistas participamos, que consiste en hablar para nuestra trinchera, para los que tenemos convencidos. Como si hubiéramos renunciado a convencer al que piensa de manera distinta o no está convencido del todo. Hay un desafío muy interesante que es convencer a una sola persona de que estaba equivocada antes de leer nuestra información.
+-Un hombre bueno.
+-Con un hombre bueno valdría.
+-¿Estamos en una guerra cultural?
+-Sí. Estamos en una guerra cultural en la que la derecha ha renunciado durante muchos años a presentarse y ha utilizado las armas que generosamente le ponía en las manos la izquierda cultural.
+-Que tienen el cañón hacia atrás.
+-Sí, como esa pistola de agua que si le das te dispara a ti en la cara. Yo creo que la derecha se está poniendo las pilas mal porque está entrando a la batalla cultural a intentar disputar un territorio en lugar de a ofrecer alternativas a las narrativas clásicas. Pero como ya llevamos suficientes años de batalla cultural y la gente está bastante hastiada de los fenómenos de censura y de persecución yo creo que hay un muy buen momento para simplemente plantear alternativas que no tienen ni siquiera por qué ceñirse a una de las dos ideologías típicas.
+-¿Por qué?
+-Porque hay mucha hambre y mucha sed en el público de encontrar mensajes alternativos a la cultura dominante hegemónica, que en España ha sido, desde la Transición, la progre, por así decir. Y no necesariamente lo que hay que darle es cultura antiprogre.
+-Algún ejemplo.
+-La película 'Los Domingos', por ejemplo, explora alternativas al atrincheramiento cultural y dice: mira lo que hay aquí. Estamos en un momento muy bueno para eso.
+-El éxito de esta película o del disco 'Lux', de Rosalía, desorienta a los políticos.
+-Y al público también. La polarización nos ha esclerotizado y nos ha abocado a la pregunta falsa: ¿esto que estoy viendo va conmigo o contra mí? Y parece que hay que responder a eso cuando es una pregunta absurda. Tengo la impresión de que eso se está rompiendo porque los productos culturales panfletarios en los últimos quince años son muy malos.
+«Pasó con la Muerte de Robe. Publiqué un artículo que generó una reacción de: '¿pero quiénes sois vosotros, fachas, para hablar de nuestro Robe?' No os dais cuenta de lo bueno es que también le guste a cuatro fachas»
+Juan Soto Ivars
+Columnista de ABC
+-Y repetitivos. ¿Qué hace diferentes a los que cita?
+-El mercado es sabio y está premiando productos imprevistos, que sobrevuelan esa bipolaridad. Pienso que 'Lux' y 'Los Domingos' serían dos casos, o las novelas 'Los Escorpiones' y 'Panza de Burro'; de vez en cuando llega algo que atraviesa las líneas porque está hecho desde la honestidad de un artista o de un grupo de artistas que simplemente tienen esto que decir y lo echan ahí. Y son los críticos los que intentan condenarlo o barrer para casa. Se vio con la muerte de Robe.
+-¿Qué ocurrió?
+-Yo escribí un artículo necrológico porque a mí Extremoduro me gustaba mucho de joven. Bustos escribió también. Ambos fueron polémicos porque generaron una reacción de: «¿pero quién sois vosotros, fachas, para hablar de nuestro Robe?» Y es como que ¿no os dais cuenta de que lo bueno de Robe es que también le gusta a cuatro fachas? En periodismo pasa también.
+-Pasó lo mismo con el 'Bella ciao' de 'La Casa de Papel'.
+-Y pasa con el periodismo: hay un premio por ser de trinchera, pero hay otro por romper esa limitación y a tus lectores plantearles ciertas preguntas que a lo mejor ellos por comodidad no se habían hecho.
+-¿Cómo reaccionan sus lectores cuando les lleva a un terreno incómodo?
+-Yo he hecho toda esta carrera de columnismo bajo la premisa de que los lectores son los amigos que tengo, no los conozco, pero yo escribo como si hablase con amigos. Me suelen permitir bastante, pero cuando no están de acuerdo con el artículo, me dicen: «hoy la has cagao». Si tú escribes con honestidad, la gente acepta que a veces lo que tú piensas choque contra su forma de ver el mundo. Igual que pasa con los grupos de amigos.
+-Hoy muchos amigos ya no hablan de política...
+-Yo he vivido doce años en Cataluña. Allí vi cómo el proceso de polarización en torno a la independencia empezaba a romper grupos de amigos y en la España de Sánchez lo he vuelto a ver que, por la política, había amigos que dejaban de quedar. ¿Por qué digo lo de que a mí me gusta escribir como si hablase con mis amigos? Porque la amistad es lo contrario de la polarización.
+-Pero el paisaje político es de un poder desatado.
+-Aquí lo que pasa es que tenemos tantos poderes para elegir... Hay una palabra que está rota ya, que es contrapoder. Porque en un ambiente polarizado es fácil que siendo contrapoder de algo seas propoder de otra cosa. Un contrapoder de verdad es el que no tiene éxito, es el de quien termina en la cárcel sin amigos. Una vez que ya rompes esa cúpula de censura y tienes éxito con el mensaje y la gente lo escucha y rompes la espiral del silencio, ya no hay contrapoder. Con mi último libro ha pasado, ha abierto un campo nuevo.
+-Ha cartografiado un problema que existía, que estaba invisible.
+-Ha habido abogados y víctimas de esto contándolo desde tiempo atrás en blogs. Eso sí ha sido el contrapoder. La gente que lo ha estado contando en internet durante muchos años antes de que saliera el libro, eso sí era un contrapoder. Porque se enfrentaban a una unanimidad que era falsa. Esa unanimidad ya no está.
+-Antes de 'Esto no existe' escribió un ensayo sobre el caso de Anónimo García. Eso era un contrapoder, porque acabó en la cárcel...
+-Exacto. Y el libro lo sacó de la cárcel. Porque tuvo mucho eco, en la sentencia del Constitucional venían los mismos argumentos. Y lo bonito de ese libro es que te demuestra cómo a veces se produce una injusticia porque no se ha contado bien una historia. Y eso es lo importante del periodismo. El periodismo tiene la obligación de contar bien las historias para intentar que no ocurran ciertas injusticias.
+-Su cancelación fue brutal.
+-Su vida se fue al garete, lo echaron del trabajo, Greenpeace, él fue condenado, todo por una ironía.
+-Hemos creado el ritual público del señalamiento.
+-Es lo que más éxito ha tenido en la sociedad moderna. Claro. Y fíjate que el señalamiento también ha actuado como un contrapoder. ¿Qué fue el MeToo sino un contrapoder? ¿Cómo te cargas a Harvey Weinstein? Pues con un contrapoder. ¿Y luego qué pasa? Que el mismo movimiento, como pasa con todas las revoluciones, empieza a fabricar víctimas injustas y empieza a usar la misma dinamita que usa con Harvey Weinstein contra gente que no ha hecho nada. Y a partir de 2017 se convierte ya en... En un tribunal alternativo. En la noticia del otro día, noticia entre comillas, de por qué hay que quitarle el nombre al aeropuerto de Madrid.
+«La cancelación es lo más cercano que tenemos en el siglo XXI y en el Occidente laico al proceso de herejía. Hemos sacado a la luz esta impureza que te convierte en intocable para todos los demás»
+Juan Soto Ivars
+Columnista de ABC
+-¿Cómo es la cancelación desde dentro?
+-Es lo más cercano que tenemos, en el siglo XXI y en el Occidente laico, al proceso de herejía. El cancelado recibe el Sambenito, pero hemos sacado a la luz esta impureza que lo convierte en intocable para todos los demás. Quien toque a este impuro será considerado también suspecto de herejía. Lo que hace la cancelación es dejar solo a un tipo que o no ha hecho nada o no ha hecho algo tan grave, y no se ha podido defender de aquello de lo que se le acusa.
+-Con aspecto de linchamiento.
+-Porque es sumarísimo. Este ha sido el mayor retroceso en términos de justicia que hemos tenido la ocasión de experimentar en nuestra sociedad. Es alucinante lo que hemos vivido, y lo hemos vivido entre vítores de que se estaba haciendo justicia, por fin. Esto ha sido una bestialidad, y ha empezado como un contrapoder, o sea que cuidado con los contrapoderes, que muerden.
+-Cambiemos de tercio. ¿De dónde le viene la veta periodística?
+-Tener una columna de opinión no era algo a lo que yo aspiraba. Tuve la suerte también de que el en 'El Confidencial' me animaron a hacer lo que ya estaba escribiendo en redes, y me dejaron jugar. No sé si leían lo que escribía, la norma era: allá tú.
+-Algo que nunca falta en sus textos es el humor.
+-Yo con mis amigos hago bromas, y las hago escribiendo. Pero no es humor, es ironía. No me parece que la ironía sea una cosa para hacer gracia. La ironía es buena para pensar, porque te obliga a pensar desde el otro punto de vista. Me ha ayudado mucho, por ejemplo, a descubrir errores míos. Yo a veces he aplicado un discurso irónico desde una certeza mía para atacar la otra certeza, la certeza contraria, y he descubierto que en la certeza contraria había cosas más que rescatables para mí.
+-¿Y cómo ha vivido el trabajo de columnista cuando desde el Gobierno empezó a insultarse a los medios?
+-Pues muy contento. Tener al poder en contra, esto en ABC lo habéis visto perfectamente, es la mejor manera de trabajar. Lo que te tiene que preocupar es que el gobierno te guste, claro. Ahora que el gobierno te considere basura y lo digan, esto ha sido inédito. Ahí está Oscar Puente. Todo esto será recordado como un momento periodísticamente glorioso. Todos los medios, 'El Confidencial', el ABC, el 'Objective', el Vozpópuli', 'El Mundo', han desmontado toda la ficción alrededor del gobierno de progreso y de limpieza contra la corrupción, todo ese trabajo que luego se ha convertido en procesos judiciales, y que ya veremos cómo termina la cosa.
+«Admiro en ABC ese arrojo para decidir línea editorial, para decir: la derecha tiene que ir por aquí, pero nosotros somos el ABC, vamos a hacer lo que debemos, lo que nos dé la gana, lo nuestro»
+Juan Soto Ivars
+Columnista de ABC
+-¿Que le sugiere su nueva etapa en ABC?
+-A mi yayo Juan le gustaba el ABC por las grapas. Cuando compraba otro periódico, lo cosía con una máquina de coser. Yo veía el ABC, antes de leer el ABC, en casa de mi abuelo Juan, que hacía pantalones. Hay periódicos que están en el paisaje familiar, al final. Me hacía unos barcos muy bien hechos de papel con las páginas del ABC.
+-¿Y ya de lector?
+-Cuando empecé a interesarme por las noticias, que fue a partir de la universidad, yo leía muchas veces el ABC. Alguien de mi raza, 18 años, con greñas, con camisetas de heavy metal, que estudia periodismo y que le toca ser progre, al leer el ABC en el vagón del metro me producía una especie de sensación de punky de verdad, ¿sabes? Tenía algún compañero de clase, entonces, todavía en la carrera, que tenía vergüenza de leer medios de derechas. Y a mí me molaba, me parecía desafiante.
+-¿Por qué?
+-Tras los atentados del 11M, vino la teoría de la conspiración, y yo recuerdo muy bien cuando el ABC tomó la decisión editorial: nosotros aquí nos plantamos. Yo creo que esa es la primera cosa que recuerdo de ABC, que fue precisamente en un momento en el que la oposición de derecha era dura y de mucha -entonces se llamaba así- crispación. Aquel ABC tomó la decisión más difícil, que era decir: en vez de echarnos al barro, vamos a intentar tener un perfil propio y criticar a estos tíos del gobierno por lo que nosotros decidamos. Recuerdo haberlo hablado también en clase, recuerdo que fue algo que se comentaba en las universidades.
+-Así que, ¿qué espera de esta etapa?
+-Acabar aquí yo lo uno con eso, que luego he visto en otras ocasiones en ABC, que es ese arrojo para decidir, para decir: la derecha tiene que ir por aquí, pero nosotros somos el ABC, vamos a hacer lo que debemos, lo que nos dé la gana, lo nuestro, ¿no? Y también me hace mucha gracia estar aquí porque tengo muchos amigos.
+-¿Además de los amigos lectores?
+-Ha pesado mucho en mi decisión que aquí escribe gente como Karina, Juan Manuel de Prada, Rebeca Argudo, Margarito [José F. Peláez]. Tengo la impresión de que voy a un lugar de amigos, y el hecho de que sean tan diferentes, tú dime que tiene que ver Juan Manuel de Prada con Rebeca Argudo, hace que piense que aquí voy a estar muy a gusto.
+«Yo he votado a Pedro Sánchez, que era un tipo que decía -yo vivía en Cataluña- que iba a traer a Puigdemont. Esposado, prácticamente. El sheriff de España iba a ser»
+Juan Soto Ivars
+Columnista de ABC
+-Ese ambiente de amistades diversas contrasta con la política polarizada...
+-¿Tú sabes que yo voté a Pedro Sánchez? Yo siempre he sido un socialdemócrata desangelado, no sé, he votado un poco así, esta mierda, esta mierda. Y yo recuerdo haber votado a Pedro Sánchez, que era un tipo, como yo vivía en Cataluña, que era un tipo que decía que él iba a traer a Puigdemont. Esposado, prácticamente. El sheriff de España iba a ser. Y que Bildu, sí, había matado a miembros de su partido. Yo recuerdo haber votado a ese tipo. Por que iba a luchar contra la corrupción, hizo una moción de censura, la hizo con un tal Ábalos, el nuevo PSOE, contra la corrupción.
+-Una gran desilusión, o que nos han colado una gran ficción.
+-Desde los indultos, he visto cómo gente que votó igual que yo, al recibir la constatación de que, con perdón, les estaban meando en la cara, le defendían. No ha sido un ejercicio de ficción, lo que hemos visto con el sanchismo ha sido un ejercicio de ensoñación colectiva, en el que mucha gente razonable, que esto era lo peor de todo, que no eran gilipollas, mucha gente razonable, comulgaba con unas ruedas de molino nunca vistas. «Por lo menos no está la extrema derecha».
+-¿Y la conclusión?
+-Por lo menos no nos gobierna la extrema derecha [sonríe], y lo más bonito de todo es que vamos a acabar siete años en un país más desigual, en un país con más pobreza infantil que antes, con más pobreza energética que antes, con los precios de la vivienda desbocados, en un país donde se vive peor, y a este proceso le vamos a llamar de siete, ocho, van a ser nueve años al final, parece, el gobierno de progreso.
+-Pero hay una sensación de hundimiento
+-Ahora nos empezamos a enterar de por qué Huawei tiene en España el papel que tiene, a ver por qué un zapatero volaba con PDVSA... Yo quiero saber por qué José Bono hace vídeos con sus hijos en una casa tan bonita, por ejemplo. Quiero saber por qué las hijas de Zapatero borraron la web, las redes sociales de su empresa justo cuando los informes de la UDF. Quiero saber por qué Plus Ultra ponía su avión a disposición de Venezuela y de Díaz-Canel en Cuba. Lo más misterioso ha sido nuestra política exterior.
+-¿Han cambiado muchos ejes, sin pasar por el Parlamento?
+-Quiero que se sepa, como mínimo, un 10% de por qué el Sáhara está con Marruecos, qué pasa con la trama de los hidrocarburos, qué está pasando ahí, por qué tantos socialistas tienen doble nacionalidad dominicana. Yo hay cosas que quiero saber. Habrá que leer los periódicos, a ver si... Habrá que leer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C145" s="5" t="inlineStr">
+        <is>
+          <t>El "escudo chino" dejó colgado a Maduro el día de su captura</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2026-01-06T01:57:27+01:00</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>El sistema defensivo de radares y misiles que afirmaba poder detectar cazas invisibles a cientos de kilómetros ha demostrado ser de adorno</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>El sistema defensivo de radares y misiles que afirmaba poder detectar cazas invisibles a cientos de kilómetros ha demostrado ser de adorno</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C146" s="5" t="inlineStr">
+        <is>
+          <t>时习之丨2025年中央政治局集体学习学了什么? 一图看懂</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2026-01-06T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>责编：徐 硕 审核：刘立纲 【责任编辑：齐磊】</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>责编：徐 硕 审核：刘立纲 【责任编辑：齐磊】</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C147" s="5" t="inlineStr">
+        <is>
+          <t>从习近平主席新年贺词中体悟“坚定”</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2026-01-06T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>党的十八大以来，习近平主席的历年新年贺词始终贯穿着“坚定”的精神内核。面对外部压力与内部挑战，以习近平同志为核心的党中央团结带领全党全国各族人民迎难而上、勇毅拼搏，坚定不移贯彻新发展理念、锚定高质量发展首要任务，推动中国经济顶压前行、向新向优，展现出强大韧性和活力。这些饱含力量的话语，既是对过往成就的坚定回望，更是对未来征程的坚定昭示。让我们仔细聆听，体悟“坚定”的深意与力量。 点击观看视频 责编：徐 硕 审核：刘立纲 【责任编辑：齐磊】</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>党的十八大以来，习近平主席的历年新年贺词始终贯穿着“坚定”的精神内核。面对外部压力与内部挑战，以习近平同志为核心的党中央团结带领全党全国各族人民迎难而上、勇毅拼搏，坚定不移贯彻新发展理念、锚定高质量发展首要任务，推动中国经济顶压前行、向新向优，展现出强大韧性和活力。这些饱含力量的话语，既是对过往成就的坚定回望，更是对未来征程的坚定昭示。让我们仔细聆听，体悟“坚定”的深意与力量。 点击观看视频 责编：徐 硕 审核：刘立纲 【责任编辑：齐磊】</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C148" s="5" t="inlineStr">
+        <is>
+          <t>拾光纪·2026元首外交开局！习近平接待今年首位访华的外国元首</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2026-01-06T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>点击观看视频 1月5日下午，国家主席习近平同来华进行国事访问的韩国总统李在明举行会谈。今年工作日第二天，元首外交再开新局。 责编：徐 硕 审核：刘立纲 【责任编辑：齐磊】</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>点击观看视频 1月5日下午，国家主席习近平同来华进行国事访问的韩国总统李在明举行会谈。今年工作日第二天，元首外交再开新局。 责编：徐 硕 审核：刘立纲 【责任编辑：齐磊】</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C149" s="5" t="inlineStr">
+        <is>
+          <t>中韩元首都提到了抗战</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2026-01-06T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>1月5日，国家主席习近平同韩国总统李在明举行会谈。习近平指出，中韩应当坚定站在历史正确一边，作出正确战略选择。会谈中，两国元首都提到了80多年前的抗战。 【责任编辑：万月英】</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>1月5日，国家主席习近平同韩国总统李在明举行会谈。习近平指出，中韩应当坚定站在历史正确一边，作出正确战略选择。会谈中，两国元首都提到了80多年前的抗战。 【责任编辑：万月英】</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C150" s="5" t="inlineStr">
+        <is>
+          <t>习近平：秉持互利共赢宗旨 推动中韩战略合作伙伴关系沿着健康轨道迈进</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2026-01-06T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>1月5日下午，国家主席习近平在北京人民大会堂同来华进行国事访问的韩国总统李在明举行会谈。 习近平向韩国人民致以诚挚新年祝福。习近平指出，作为朋友和邻居，中韩应该多走动、常来往、勤沟通。中方愿同韩方一道，牢牢把握友好合作方向，秉持互利共赢宗旨，推动中韩战略合作伙伴关系沿着健康轨道迈进，切实增进两国人民福祉，为地区乃至世界和平与发展正向赋能。 李在明说：“尊敬的习近平主席，值此新年之际，恭祝全体中国人民幸福安康。两个月前我们在韩国庆州会晤，就韩中关系的未来进行了深入交流。才过去短短两个月，却仿佛与久别重逢的老朋友再次相见，倍感亲切。过去数千年以来，韩中两国作为友邻，结下了友好关系。我愿顺应时代发展潮流，同习主席一道，开创韩中关系发展的全新局面。” 【责任编辑：万月英】</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>1月5日下午，国家主席习近平在北京人民大会堂同来华进行国事访问的韩国总统李在明举行会谈。 习近平向韩国人民致以诚挚新年祝福。习近平指出，作为朋友和邻居，中韩应该多走动、常来往、勤沟通。中方愿同韩方一道，牢牢把握友好合作方向，秉持互利共赢宗旨，推动中韩战略合作伙伴关系沿着健康轨道迈进，切实增进两国人民福祉，为地区乃至世界和平与发展正向赋能。 李在明说：“尊敬的习近平主席，值此新年之际，恭祝全体中国人民幸福安康。两个月前我们在韩国庆州会晤，就韩中关系的未来进行了深入交流。才过去短短两个月，却仿佛与久别重逢的老朋友再次相见，倍感亲切。过去数千年以来，韩中两国作为友邻，结下了友好关系。我愿顺应时代发展潮流，同习主席一道，开创韩中关系发展的全新局面。” 【责任编辑：万月英】</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C151" s="5" t="inlineStr">
+        <is>
+          <t>收盘丨A股放量大涨，沪指涨1.5%刷新10年新高</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2026-01-06T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>1月6日，A股主要指数午后持续走强，截至收盘，沪指涨1.5%，创逾10年新高；深成指涨1.4%，创业板指涨0.75%，科创综指涨1.45%。 盘面上，券商、保险、有色金属、化工涨幅靠前，炒股软件、商业航天、脑机接口、智能驾驶、半导体、光伏概念股表现活跃。 具体来看，脑机接口概念延续涨势，三博脑科、创新医疗、伟思医疗等多股涨停。 券商、保险等金融股拉升，华安证券、华林证券涨停。 沪深两市成交额2.81万亿，较上一个交易日放量2602亿，创逾三个月新高。市场逾4100股上涨。 【资金流向】 主力资金全天净流入证券、有色金属、半导体等板块，净流出通信、消费电子、文化传媒等板块。 具体到个股来看，东方财富、山子高科、TCL科技获净流入26.36亿元、14.28亿元、12.65亿元。 净流出方面，中际旭创、新易盛、天际股份遭抛售26.10亿元、22.25亿元、12.72亿元。 【机构观点】 国泰海通： 春季攻势如火如荼，强势调整布局仍是良策。 光大证券： 在市场持续回暖的背景下，场外资金有望继续回流市场，推动沪指再创新高。 德邦证券： A股市场春季行情有望逐步展开，预期未来或仍将延续震荡慢牛走势。 【责任编辑：吴艳鹏】</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>1月6日,A股主要指数午后持续走强,截至收盘,沪指涨1.5%,创逾10年新高;深成指涨1.4%,创业板指涨0.75%,科创综指涨1.45%。
+盘面上,券商、保险、有色金属、化工涨幅靠前,炒股软件、商业航天、脑机接口、智能驾驶、半导体、光伏概念股表现活跃。
+具体来看,脑机接口概念延续涨势,三博脑科、创新医疗、伟思医疗等多股涨停。
+券商、保险等金融股拉升,华安证券、华林证券涨停。
+沪深两市成交额2.81万亿,较上一个交易日放量2602亿,创逾三个月新高。市场逾4100股上涨。
+【资金流向】
+主力资金全天净流入证券、有色金属、半导体等板块,净流出通信、消费电子、文化传媒等板块。
+具体到个股来看,东方财富、山子高科、TCL科技获净流入26.36亿元、14.28亿元、12.65亿元。
+净流出方面,中际旭创、新易盛、天际股份遭抛售26.10亿元、22.25亿元、12.72亿元。
+【机构观点】
+国泰海通: 春季攻势如火如荼,强势调整布局仍是良策。
+光大证券: 在市场持续回暖的背景下,场外资金有望继续回流市场,推动沪指再创新高。
+德邦证券: A股市场春季行情有望逐步展开,预期未来或仍将延续震荡慢牛走势。</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C152" s="5" t="inlineStr">
+        <is>
+          <t>国际油价上涨超1% 委内瑞拉局势扰动市场</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2026-01-06T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>△委内瑞拉国家石油公司 截至1月5日收盘，纽约商品交易所2月交货的轻质原油期货价格上涨1.00美元，收于每桶58.32美元，涨幅为1.74%；3月交货的伦敦布伦特原油期货价格上涨1.01美元，收于每桶61.76美元，涨幅为1.66%。 市场正在评估美国在委内瑞拉采取军事行动后是否会影响该国原油供应。委内瑞拉拥有全球最大的已探明石油储量，也是石油输出国组织（OPEC）成员国之一，其原油出口变化被视为影响国际油价的重要因素。目前，美国对委内瑞拉油轮制裁仍然有效，相关不确定性仍在影响市场走势。（总台记者 耿之倩 报道员 谢丹） 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>△委内瑞拉国家石油公司 截至1月5日收盘，纽约商品交易所2月交货的轻质原油期货价格上涨1.00美元，收于每桶58.32美元，涨幅为1.74%；3月交货的伦敦布伦特原油期货价格上涨1.01美元，收于每桶61.76美元，涨幅为1.66%。 市场正在评估美国在委内瑞拉采取军事行动后是否会影响该国原油供应。委内瑞拉拥有全球最大的已探明石油储量，也是石油输出国组织（OPEC）成员国之一，其原油出口变化被视为影响国际油价的重要因素。目前，美国对委内瑞拉油轮制裁仍然有效，相关不确定性仍在影响市场走势。（总台记者 耿之倩 报道员 谢丹） 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C153" s="5" t="inlineStr">
+        <is>
+          <t>创历史新高 2025年A股上市公司分红超2.6万亿元</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2026-01-06T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>记者从上交所、深交所和北交所三大证券交易所了解到，截至2025年12月31日，A股上市公司2025年分红超2.6万亿元，创历史新高。 截至2025年12月31日 A股上市公司2025年分红超2.6万亿元 2025年A股上市公司常态化分红，以真金白银提高投资者回报水平。 具体来看： 上交所有1640家公司实施分红，分红总金额2.06万亿元，同比增长11%。多频次分红成为常态，中期分红超500家，金额超6800亿元，同比增长17%。 深交所共1910家公司实施分红，含季报分红、半年报分红和特殊分红，累计分红5475.59亿元。其中，533家公司实施中期分红，金额达1329.28亿元，同比增长25.98%。 北交所上市公司累计向投资者派发现金分红63.93亿元，较2024年增长2.62%。 科技类上市公司积极分红 行业成熟度提升 从分红规模来看，银行、石油石化、大消费等行业是分红大户。此外，科技类上市公司积极分红，显示出企业盈利能力稳步提升。 数据显示：上交所上市公司中有六个行业分红超千亿元。其中， 银行业上市公司分红8032亿元， 石油石化行业分红1863亿元， 食品饮料行业分红1098亿元。 科技类上市公司积极分红。数据显示：深交所创业板945家公司累计实施现金分红1374.52亿元，分红金额同比增长8.41%，分红增速较快。 上交所科创板383家公司实施现金分红，板块覆盖率超六成，分红落地实施金额合计382亿元。99家科创板公司披露中期分红方案，金额合计72亿元。 （总台央视记者 赵曙光 蒋勇 杨煜 孙文啸 白廷俊） 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>记者从上交所、深交所和北交所三大证券交易所了解到，截至2025年12月31日，A股上市公司2025年分红超2.6万亿元，创历史新高。 截至2025年12月31日 A股上市公司2025年分红超2.6万亿元 2025年A股上市公司常态化分红，以真金白银提高投资者回报水平。 具体来看： 上交所有1640家公司实施分红，分红总金额2.06万亿元，同比增长11%。多频次分红成为常态，中期分红超500家，金额超6800亿元，同比增长17%。 深交所共1910家公司实施分红，含季报分红、半年报分红和特殊分红，累计分红5475.59亿元。其中，533家公司实施中期分红，金额达1329.28亿元，同比增长25.98%。 北交所上市公司累计向投资者派发现金分红63.93亿元，较2024年增长2.62%。 科技类上市公司积极分红 行业成熟度提升 从分红规模来看，银行、石油石化、大消费等行业是分红大户。此外，科技类上市公司积极分红，显示出企业盈利能力稳步提升。 数据显示：上交所上市公司中有六个行业分红超千亿元。其中， 银行业上市公司分红8032亿元， 石油石化行业分红1863亿元， 食品饮料行业分红1098亿元。 科技类上市公司积极分红。数据显示：深交所创业板945家公司累计实施现金分红1374.52亿元，分红金额同比增长8.41%，分红增速较快。 上交所科创板383家公司实施现金分红，板块覆盖率超六成，分红落地实施金额合计382亿元。99家科创板公司披露中期分红方案，金额合计72亿元。 （总台央视记者 赵曙光 蒋勇 杨煜 孙文啸 白廷俊） 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C154" s="5" t="inlineStr">
+        <is>
+          <t>新年首个工作日 多地经济民生开新局</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2026-01-05T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>2026年第一个工作日，各地各领域的新成果、新举措，为新一年的经济民生发展开好头。 开通外贸新航线 青岛港直航澳大利亚 1月4日，青岛港直航澳大利亚航线开通，这也是青岛港2026年开通的首条外贸新航线。该航线全程挂港顺序为青岛、上海、宁波、布里斯班、悉尼、青岛，实现了国内核心港口与澳大利亚枢纽港的直连互通。其中，青岛直达布里斯班航程约20天、直达悉尼约25天，相较传统中转航线大幅压缩时效。截至目前，青岛港外贸航线总数近240条，联通全球180多个国家和地区的700多个港口。 上海：优化营商环境 再推出26条新举措 新政策施行，让营商环境更便利。1月4日，上海召开全市营商环境大会，发布《上海市加快打造国际一流营商环境行动方案（2026年）》，即上海优化营商环境9.0行动方案，推出四方面26条任务举措。 上海市发展和改革委员会副主任 陈彦峰：今年的这个方案重点聚焦企业关注的政务服务、市场竞争、产业生态、社会共治四大环境，让每一项优化的举措更加普惠、公平、可感可及。我们希望以优化营商环境的确定性，来应对外部环境的不确定性。 截至2025年12月底世界银行共发布119个经济体企业调查数据，上海保持22项营商环境测评点达到全球最优水平，超过新加坡、纽约、伦敦、香港。成绩背后是政策扶持，也离不开新技术应用带来的红利。 上海海关卫生检疫处副处长 张奕：推出全国首个“低风险特殊物品智能辅助审批模型”。在把控生物安全风险的前提下，将平均审批时长压缩了70%。 南京：新举措新方案 助力人工智能产业发展 新年伊始，江苏南京的人工智能产业已是一片繁忙景象。假期刚过，南京就出台了深入推进人工智能+产业发展系列新举措新方案。明确将支持组建跨学科创新平台，并通过“揭榜挂帅”等机制，重点攻克核心算法、大规模应用落地等关键问题，推动人工智能技术与千行百业实现更深度、更广泛的融合赋能。 南京市人工智能（软件）产业攻坚办主任 唐永实：新的一年，我们将建设生态街区，打造产业平台。落实“算力券”等支持政策，做实基础支撑，让企业放心干。 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>2026年第一个工作日，各地各领域的新成果、新举措，为新一年的经济民生发展开好头。 开通外贸新航线 青岛港直航澳大利亚 1月4日，青岛港直航澳大利亚航线开通，这也是青岛港2026年开通的首条外贸新航线。该航线全程挂港顺序为青岛、上海、宁波、布里斯班、悉尼、青岛，实现了国内核心港口与澳大利亚枢纽港的直连互通。其中，青岛直达布里斯班航程约20天、直达悉尼约25天，相较传统中转航线大幅压缩时效。截至目前，青岛港外贸航线总数近240条，联通全球180多个国家和地区的700多个港口。 上海：优化营商环境 再推出26条新举措 新政策施行，让营商环境更便利。1月4日，上海召开全市营商环境大会，发布《上海市加快打造国际一流营商环境行动方案（2026年）》，即上海优化营商环境9.0行动方案，推出四方面26条任务举措。 上海市发展和改革委员会副主任 陈彦峰：今年的这个方案重点聚焦企业关注的政务服务、市场竞争、产业生态、社会共治四大环境，让每一项优化的举措更加普惠、公平、可感可及。我们希望以优化营商环境的确定性，来应对外部环境的不确定性。 截至2025年12月底世界银行共发布119个经济体企业调查数据，上海保持22项营商环境测评点达到全球最优水平，超过新加坡、纽约、伦敦、香港。成绩背后是政策扶持，也离不开新技术应用带来的红利。 上海海关卫生检疫处副处长 张奕：推出全国首个“低风险特殊物品智能辅助审批模型”。在把控生物安全风险的前提下，将平均审批时长压缩了70%。 南京：新举措新方案 助力人工智能产业发展 新年伊始，江苏南京的人工智能产业已是一片繁忙景象。假期刚过，南京就出台了深入推进人工智能+产业发展系列新举措新方案。明确将支持组建跨学科创新平台，并通过“揭榜挂帅”等机制，重点攻克核心算法、大规模应用落地等关键问题，推动人工智能技术与千行百业实现更深度、更广泛的融合赋能。 南京市人工智能（软件）产业攻坚办主任 唐永实：新的一年，我们将建设生态街区，打造产业平台。落实“算力券”等支持政策，做实基础支撑，让企业放心干。 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C155" s="5" t="inlineStr">
+        <is>
+          <t>我国首次航天员洞穴训练圆满完成</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2026-01-05T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>我国首次组织的航天员洞穴训练近日在重庆市武隆区圆满结束，共有28名航天员参加了这次训练。 为期一个月的训练由中国航天员科研训练中心牵头组织实施。受训航天员分为4组，轮流在平均温度8℃、湿度高达99%的洞穴中连续驻留6天5夜。洞穴环境与太空极端条件有相似之处，如隔离、幽闭、高风险等。训练期间航天员完成洞穴探索、科学研究、物资管理、生活保障等既定任务，还需经历极窄通道穿行、断崖攀爬垂降、长期湿冷刺激和极限体能考验，并克服黑暗恐惧、感知剥夺等诸多挑战。 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>我国首次组织的航天员洞穴训练近日在重庆市武隆区圆满结束，共有28名航天员参加了这次训练。 为期一个月的训练由中国航天员科研训练中心牵头组织实施。受训航天员分为4组，轮流在平均温度8℃、湿度高达99%的洞穴中连续驻留6天5夜。洞穴环境与太空极端条件有相似之处，如隔离、幽闭、高风险等。训练期间航天员完成洞穴探索、科学研究、物资管理、生活保障等既定任务，还需经历极窄通道穿行、断崖攀爬垂降、长期湿冷刺激和极限体能考验，并克服黑暗恐惧、感知剥夺等诸多挑战。 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C156" s="5" t="inlineStr">
+        <is>
+          <t>¿Y si la regla fuera cada tres meses? Hongmei Wang, la bióloga china que investiga cómo ampliar la vida fértil ante el colapso demográfico</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2026-01-07T05:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>La científica explora cómo atajar el envejecimiento imparable de la población en experimentos punteros con células madre y embriones humanos</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>La científica explora cómo atajar el envejecimiento imparable de la población en experimentos punteros con células madre y embriones humanos
+La bióloga Hongmei Wang, nacida hace 52 años en la región autónoma china de Mongolia Interior, se enfrenta a un gigante con las humildes armas de la investigación científica. Esta investigadora del Laboratorio Nacional de Células Madre y Biología Reproductiva de Pekín trabaja en la comprensión de las primeras etapas del desarrollo de un ser humano, un tema que se ha vuelto estratégico para un país que afronta la peorcrisis demográficadel planeta.
+Muchas democracias occidentales se enfrentan al mismo problema, y por ahora no han encontrado una solución. El envejecimiento de la población y la baja natalidad amenazan con tumbar el Estado de bienestar por la reducción de la población activa y los crecientes costes de cuidar de una ciudadanía cada vez más envejecida y enferma. En China,este problema alcanza dimensiones monstruosas. De ser el país con más habitantes del mundo, el gigante chino lleva varios años perdiendo población. A pesar de las nuevas políticas del Gobierno para aumentar la natalidad, los ciudadanos se resisten a tener más hijos. Y si todo continúa así, la población del país podría reducirse a la mitad a finales de este siglo, un colapso demográfico sin precedentes, segúnNaciones Unidas.
+Wang nació en 1973 y tiene dos hermanos, algo impensable para cualquier chino nacido apenas seis años después. En 1979, el dictador comunista Deng Xiaoping impuso lapolítica del hijo únicoante la entonces preocupante sobrepoblación del país, que aún estaba saliendo de la pobreza. Esta estrategia fue diseñada por Song Jian, un especialista en la creación de cohetes y misiles que aplicó a la sociedad de su país la fría lógica de las matemáticas y la ingeniería, sin ningún prejuicio moral.
+Ahora el problema es diametralmente opuesto. Aunque el Gobierno chino permitió tener primero dos hijos (2015) y luego tres (2021),la población no está respondiendo. El laboratorio donde trabaja Hongmei Wang, que durante los años de restricción se llamaba Laboratorio de Planificación Familiar, está ahora volcado en investigar la reproducción humana y el desarrollo embrionario para encontrar nuevas formas de aumentar la edad reproductiva de las mujeres.
+Una de las opciones que se está explorando es retrasar lamenopausia. Es algo posible, según ha demostrado Wang en estudios con ratones, pero la propia científica advierte de que puede ser un arma de doble filo. “Si inhibimos la ovulación conseguimos preservar los óvulos disponibles, pero al mismo tiempo se inhibe la generación de estrógeno, que es una molécula muy importante para la salud”, destaca Wang en una entrevista con EL PAÍS ofrecida días después de haber visitado España para participar en una conferencia científica organizada por la Universidad Pompeu Fabra de Barcelona.
+Wang pone de relieve un reto de difícil solución. En una sola eyaculación puede haber unos 70 millones de espermatozoides. Una mujer, en cambio, tiene desde que nace unnúmero contado de óvulosdisponibles, unos 400, que solo estarán funcionales en la ventana vital que va de la pubertad a la menopausia. Retrasar la llegada de la menopausia tan siquiera un año “tendría una enorme importancia social”, resalta esta bióloga y embrióloga.
+Su equipo está consiguiendo importantes avances en la extensión de la vida fértil. En uno de sus estudios fundamentales,publicado el año pasado, los científicos injertaron células madre humanas en los ovarios de monas estériles. La intervención permitió el nacimiento de una cría, que sigue viva y saludable, celebra Wang.
+El equipo ha llevado a cabo un pequeño ensayo clínico con 63 mujeres que sufrían insuficiencia ovárica prematura, una enfermedad que deja estériles a las mujeres justo en la mitad de su edad reproductiva. Los trasplantes de células madre permitieron que cuatro de ellas tuviesen hijos sanos, asegura Wang. Los científicos han patentado sus métodos y han cedido su explotación a una empresa, explica la investigadora.
+Wang también se pregunta si es posible conseguir que las mujeres tengan la regla cada tres meses, lo que preservaría parte de sus óvulos sanos y disponibles para generar embarazos. Es una incógnita que por ahora está explorando en experimentos con ratones.
+La científica china reconoce que aún hay un enorme desconocimiento sobre las primeras etapas del desarrollo embrionario debido a problemas técnicos y legales. Unas dos semanas después de que un espermatozoide fecunda un óvulo, el embrión comienza un enigmático proceso en el que los pocos cientos de células que lo conforman, todas prácticamente idénticas, comienzan una coreografía perfecta para crear el plano tridimensional del cuerpo y las semillas de todos los órganos. La partitura de esta danza está escrita en el ADN, pero aún se desconoce qué hace que cada una de estas células sepa en qué tiene que convertirse exactamente. Tiene que haber algo más.
+Este proceso, llamadogastrulación, es uno de los más importantes y desconocidos de la biología. En parte se debe a lo difícil que es conseguir embriones humanos descartados de esa edad para investigar, pues a las dos semanas la inmensa mayoría de mujeres no saben que están embarazadas y muchos embriones se pierden.
+La otra gran barrera es legal. La mayor parte de países impide cultivar embriones humanos en el laboratorio más allá de los14 días, lo que hace inalcanzable la gastrulación. Pero las cosas van a cambiar pronto, vaticina Wang. China y otros países están preparando ya una ampliación de estas normas para poder cultivar embriones humanos hasta los 20 o 28 días, lo que abriría al completo la ventana de la gastrulación. Y esto es importante porque nadie sabe aún por qué en torno a la mitad de fecundaciones se frustran. Es posible que la explicación esté precisamente en esa semana crucial en la que surge el plano corporal y los futuros órganos.
+Wang colabora con el profesor de la Pompeu FabraAlfonso Martínez Ariasen la creación de modelos de embrión a partir de células madre humanas. Estosorganoidespermiten simular los embriones naturales y estudiar el desarrollo sin trabas legales. Uno de los objetivos de Wang es recrear tres órganos esenciales en el desarrollo de un nuevo ser humano: el ovario femenino, el embrión y la placenta. A este último órgano no se le presta la atención debida, reconoce Wang. “Justo antes del nacimiento, la placenta contiene unos 58.000 núcleos celulares y mide 16 metros cuadrados, no hay ninguna otra estructura del cuerpo que sea tan grande y forme parte de un órgano”, destaca.
+La científica es consciente de que sus investigaciones están aún en una fase preliminar, y que los resultados no llegarán a tiempo para frenar el descalabro demográfico de su país. Además, algunas de estas intervenciones trascienden los límites de la ciencia. “Una cosa es que algo sea posible desde el punto de vista técnico, como retrasar la regla o ampliar la vida reproductiva, y otra es si la gente realmente quiere que se lleve a cabo”, concluye.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C157" s="5" t="inlineStr">
+        <is>
+          <t>Béla Tarr, todo por su público</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2026-01-06T15:53:50+01:00</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>El historiador Esteve Riambau recuerda el paso del cineasta húngaro fallecido por la Filmoteca de Catalunya y su rodaje con alumnos en un restaurante chino</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>El historiador Esteve Riambau recuerda el paso del cineasta húngaro fallecido por la Filmoteca de Catalunya y su rodaje con alumnos en un restaurante chino
+Cuando Béla Tarrse enteró de que las entradas para verSátántangóestaban agotadas, me propuso que le cambiara el billete de regreso a Budapest, porque quería quedarse a presentarla. Eso sucedió hace un par de años,con motivo de la retrospectiva que le dedicamos en Filmoteca de Catalunya.La sala, efectivamente, estaba a rebosar y a la una de la madrugada di por finalizado el coloquio con los más de 200 supervivientes de aquella maratoniana sesión que había comenzado a las cuatro de la tarde de un domingo en el que, como recordó el cineasta húngaro, jugaba el Barça contra el Madrid y muchos de los espectadores no habían nacido cuando él rodó en 1994 su obra magna. Se trataba de una adaptación de la novela homónima deLászló Karsznahorkai,último premio Nobel de Literatura y uno de los puntales de su cine, junto con el compositor Mihaly Vig.
+Unos días antes también había presentado, con la sala llena,Las armonías de Werckmeister(2000) yEl caballo de Turín(2011), la que él había decidido que sería su última película. Consideraba que, con esa historia del animal que habría despertado la compasión de Nietzsche tras ver cómo su cochero lo golpeaba salvajemente, podía dejar de filmar. “Después de eso, ¿qué más puedo decir?”, afirmó tras la proyección de un filme que termina con el padre y la hija que, a la luz de una vela, conviven con un caballo maltratado en un paisaje rural desolado y sacudido por el viento. Desde sus orígenes profesionales bajo el régimen comunista hasta su rechazo del gobierno ultraderechista de Orban, Béla Tarr había depurado un muy personal estilo basado en la mirada distante, el plano secuencia y una fotografía gris y fría que le habían hecho merecedor del premio honorífico de la Academia del Cine Europeo.
+La semana que estuvo en Barcelona fue intensa, repleta de experiencias como las que hacen vivir sus películas. Además de las sesiones en Filmoteca, presentó otra en el cine Zumzeig e impartió unamaster classen una escuela de cine que se desarrolló en un improvisado rodaje en el restaurante chino de la esquina. Gracias a la escuela privada que él dirigía en Sarajevo, de la que salieron alumnos como Pilar Palomero o Manel Raga, Tarr sentía un especial apego por los jóvenes. De ahí que, recíprocamente, estos se interesasen por un cine que no discurre precisamente por senderos habituales.
+Tras la maratoniana sesión deSátántango, todavía rematada con una botella de vino en el desierto vestíbulo de un hotel, el cineasta me escribió: “Estoy de regreso en Budapest, gris y fría. Te encuentro a faltar, a ti y a Barcelona. ¡Gracias por todo! Te quiero a ti y a la gente. Me lo he pasado muy bien contigo y allí me he sentido realmente feliz. No es habitual. Espero que podamos volver a vernos muy pronto”.
+Poco más de un año más tarde, cumplió su promesa, de nuevo en Barcelona. Yo ya no dirigía la Filmoteca y, una vez liquidados los compromisos por los que había sido invitado, me llamó para que nos viésemos. Pedía mi colaboración para levantar una instalación que no había podido desarrollar con el gobierno municipal de Ada Colau. Se trataba de poner de relieve la dignidad de loshomelessdentro de uncontainer.Le encontré una ubicación ideal, pero ya no hubo tiempo para que retomase el proyecto. Acusaba muchos más años de los que realmente tenía, aunque él sabía que ya lo había dado todo. Y fue mucho.
+Esteve Riambau i Mölleres historiador cinematográfico y exdirector de la Filmoteca de Catalunya, donde realizó una retrospectiva de Béla Tarr.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C158" s="5" t="inlineStr">
+        <is>
+          <t>Trump quiere Groenlandia: Dinamarca desmiente que haya barcos rusos y chinos</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2026-01-07T12:38:38+01:00</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Sus Gobiernos piden una reunión a Marco Rubio, secretario de Estado de EEUU, para refutar la "interpretación equivocada" del presidente republicano respecto a la situación en la isla ártica Leer</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Groenlandiaes un colonia danesa con apenas 30.000 habitantes, rodeada de buques rusos y chinos, que Dinamarca pretende defender con un puñado de trineos de perros, por lo que EEUU, en aras de su seguridad nacional y en virtud de su rol como superpotencia mundial, tiene perfecto derecho a anexionarse el territorio en beneficio propio y del mundo occidental.Incluso mediante el uso de la fuerza si fuese necesario.
+En esencia, ese es el mensaje que lanza la Casa Blanca estos días, en pleno subidón tras lacaptura de Nicolás Maduro, presidente de Venezuela. Los Gobiernos de Dinamarca y Groenlandia consideran que las afirmaciones deDonald Trumpy sus colaboradores son exageraciones o, directamente, falsedades. De ahí que su estategia inmediata será "desmontar los argumentos" de Trump en un intento de aliviar la intensa presión que Washington ejerce en estos momentos.
+Así lo ha manifestado el ministro de Asuntos Exteriores danés, el moderadoLars Løkke Rasmussen, tras una reunión de urgencia celebrada en la noche del martes en Copenhague junto a miembros del Gobierno groenlandés y líderes de los principales partidos políticos daneses y de la isla ártica.
+La reunión se convocó como reacción a las últimas declaraciones de Trump y a la agresiva intervención en la cadena CNN deStephen Miller, su vicesecretario de Gabinete, cuya esposa, Katie, antigua empleada de la Casa Blanca, fue quien difundió en redes una imagen de Groenlandia cubierta por la bandera estadounidense.
+En un tono beligerante, Miller defendió el derecho de EEUU como superpotencia a anexionarse la isla ártica, asegurando que es una colonia con 30.000 habitantessobre la que Dinamarca no debería tener ningún derecho. Groenlandia, que tiene una población de 57.000 habitantes, es un territorio autónomo bajo administración danesa con su propio Gobierno y Parlamento, y con capacidad legislativa para declarar su independencia si así lo desease.
+"Desde EEUU se está dando una imagen errónea de lo que sucede", afirmó Løkke en Copenhague. "Entre otras cosas, se dice que hay muchos barcos rusos y chinos alrededor de la isla y que China ejerce una gran influencia a través de sus inversiones.No compartimos para nada esta imagende que Groenlandia esté rodeada de buques extranjeros o plagada de inversiones chinas".
+Trump ha asegurado que "en este momento hay barcos chinos y rusos por todas partes". Sin embargo, medios daneses sostienen que su afirmación carece de fundamento. Según los datos del tráfico marítimo alrededor de la isla, en las últimas semanasno ha habido ningún barco grande de Rusia o Chinaen la zona. El único dato que podría confundirse con presencia china es una única señal GPS errónea de un pequeño buque de carga el 4 de enero.
+Los navíos de guerra de China y Rusia no suelen revelar su posición, por lo que no se puede descartar que haya habido alguno, pero por su tamaño tampoco pasan desapercibidos yno existen observaciones públicas conocidaspor parte de los pescadores que se encuentran a diario en la zona. El único barco de guerra en aguas groenlandesas en estos momentos parece ser el buque de inspección danés Thetis, que ha navegado de forma rutinaria a lo largo de la costa occidental en los últimos días.
+En cuanto a las inversiones chinas en Groenlandia, actualmente tienen, pese a las afirmaciones estadounidenses, una presencia física muy limitada. La gran mayoría de los proyectos concretos, relacionados principalmente con laminería, aeropuertos y telecomunicaciones, han sido rechazados o suspendidos por las autoridades groenlandesas y danesas, o bien adquiridos por otros países como Australia, Canadá, la UE o incluso EEUU.
+"También se han sembrado dudas sobre nuestra capacidad para proteger Groenlandia", añadió Løkke. "Esta situación se debe a una interpretación equivocada de lo que está pasando. Exagerar las cosas no es beneficioso yno sirve a los interesas de nadie".
+"Por supuesto, que EEUU se apropie sin más de Groenlandia no es algo que podamos aceptar, y Groenlandia tampoco tiene intención de hacerlo", continuó. "Es una postura firme. Exigimos que se respete. Aun así, estamosdispuestos a debatirtodas las cuestiones con los estadounidenses".
+En este sentido, la ministra de Asuntos Exteriores groenlandesa, la socialdemócrataVivian Motzfeldt, anunció que Dinamarca y Groenlandia han solicitado una reunión con el secretario de Estado norteamericano, Marco Rubio, a quien se considera como uno de los elementos más moderados y dialogantes de la Administración Trump.
+El objetivo es que la reunión sirva para desmontar los argumentos que utiliza Trump cuando afirma que EEUU debe controlar Groenlandia. "Es grave que tengamos un presidente estadounidense con esa ambición", explicó Løkke, que fue primer ministro danés durante parte del primer mandato de Trump. "Nuestra tarea es asegurarnos de que no se cumpla. La mejor manera de hacerlo esdesmontar sus argumentos".
+El ministro de Defensa danés, el liberalTroels Lund Poulsen, también refutó las declaraciones estadounidenses de que Dinamarca no hace lo suficiente en materia de seguridad. "Hemos invertido cerca de 100.000 millones de coronas (unos 13.400 millones de euros) en capacidades de seguridad", aseguró tras la reunión. "Además, la seguridad en el Ártico no es una tarea que Dinamarca deba asumir por sí sola. También debe hacerlo la OTAN, incluido EEUU".
+Si bien es cierto que los daneses han aumentado su dotación de trineos de perros, también han comprado más equipos de vigilancia, entre otros,aviones estadounidenses P8, han aumentado la frecuencia de sus ejercicios militares y han invertido en un plan naval. Entre las nuevas adquisiciones figuran dos buques árticos de última generación, aviones de patrulla marítima, un nuevo cuartel general para el Mando Ártico, drones de larga distancia y un cable submarino entre Groenlandia y Dinamarca.
+Pese a ello,Mikkel Vedby Rasmussen, catedrático de la Universidad de Copenhague especializado en política de defensa, considera que el Gobierno danés nunca podrá ganar la discusión contra Trump. "Cuando difunde la historia de que Dinamarca ha reforzado la defensa de Groenlandia con un trineo tirado por perros, hay una agenda clara por su parte", ha explicado en la cadena TV2. "El objetivo es dejar claro que Dinamarca es, por definición, un país pequeño y que EEUU es una superpotencia que ya no puede utilizarnos como conserjes en la isla. Ahora deben intervenir los adultos, por así decirlo".</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C159" s="5" t="inlineStr">
+        <is>
+          <t>China denuncia el «abuso» de Estados Unidos por exigir a Venezuela la ruptura de relaciones con el gigante asiático</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2026-01-07T11:28:09+01:00</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>En la crisis geopolítica desatada por la incursión militar de Estados Unidos en Venezuela y la captura del dictador Nicolás Maduro , China sigue defendiéndose a sí misma y a sus aspiraciones globales a través de los escombros del régimen chavista. En esta ocasión, tratando de que no le den la espalda. China ha denunciado este miércoles el «abuso» de EE.UU., cuyo Gobierno habría exigido a Venezuela la ruptura de relaciones diplomáticas con el gigante asiático y otros países aliados como prerrequisito para explotar y comercializar su petróleo. Según esta información, difundida por la cadena de televisión estadounidense ABC, la Casa Blanca habría ordenado a la presidenta en funciones, Delcy Rodríguez , el cese de todo intercambio con China, Rusia,... Ver Más</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Jaime Santirso
+Corresponsal en Pekín
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+En la crisis geopolítica desatada porla incursión militar de Estados Unidosen Venezuela y la captura del dictadorNicolás Maduro, China sigue defendiéndose a sí misma y a sus aspiraciones globales a través de los escombros del régimen chavista. En esta ocasión,...tratando de que no le den la espalda.
+China ha denunciado este miércoles el «abuso» de EE.UU., cuyo Gobierno habría exigido a Venezuela la ruptura de relaciones diplomáticas con el gigante asiático y otros países aliados como prerrequisito para explotar y comercializar su petróleo.
+Según esta información, difundida por la cadena de televisión estadounidense ABC, la Casa Blanca habría ordenado a la presidenta en funciones,Delcy Rodríguez, el cese de todo intercambio con China, Rusia, Irán y Cuba para pasar a conformar una asociación exclusiva con EE.UU. en lo referente a esta industria crítica.
+«Venezuela es un país soberano y goza de plena y permanente soberanía sobre sus recursos naturales y todas las actividades económicas dentro de su territorio», ha protestado esta tardeMao Ning, portavoz del ministerio de Exteriores chino, durante la rueda de prensa diaria del organismo.
+En ese sentido, «la pretensión de que Venezuela disponga de sus recursos energéticos conforme a un enfoque de 'Estados Unidos primero'» supone «un uso flagrante de la fuerza». Las exigencias de la Administración Trump representan, en suma, «un caso típico de abuso que viola seriamente el derecho internacional, infringe la soberanía de Venezuela y perjudica los derechos del pueblo venezolano».
+«China condena firmemente este comportamiento», ha zanjado Mao, enfatizando que «los derechos e intereses legítimos de China y de otros países en Venezuela deben ser protegidos». Estas declaraciones se suman a las vertidas ayer durante la primera comparecencia de Exteriores tras el derrocamiento de Maduro este sábado. A preguntas de ABC, el portavoz encargado,Lin Jian, dio a entender que Chinamantendrá sus importacionespese a la agitada situación.
+«La cooperación entre China y Venezuela se lleva a cabo entre dos Estados soberanos y está protegida por el derecho internacional y por las leyes de ambos países, independientemente de cómo pueda evolucionar la situación política en Venezuela. China está firmemente comprometida a profundizar la cooperación práctica entre ambos países en diversos ámbitos, y los derechos e intereses legítimos de la parte china en Venezuela estarán protegidos de conformidad con la ley», puntualizó el representante.
+El petróleo constituye un elemento clave del entendimiento entre ambos países, pues supone la divisa con la que el régimen venezolano ha venido sufragando el apoyo del chino desde la llegada al poder deHugo Chávez. Tanto es así que el gigante asiático se ha convertido en suprimer comprador de crudoydestino del 38% de los barriles producidos en 2024, un 4% de las importaciones chinas a nivel global.
+La presión de EE.UU., por tanto, amenaza con adentellar el suministro energético. También la interacción con un socio clave en Latinoamérica, de ahí que Lin añadiera que China «apoya la convocatoria de una sesión de emergencia del Consejo de Seguridad de la ONU sobre el ataque aéreo de Estados Unidos contra Venezuela». «China está dispuesta a trabajar con la comunidad internacional para defender firmemente la Carta de Naciones Unidas y mantener la justicia internacional», apostilló.
+China solo ha ofrecido por ahora reacciones tan retóricas como simbólicas, beneficiada tanto por la oportunidad de posicionarse como garante del multilateralismo como por el retorno de «esferas de influencia» que en público asegura rechazar.
+«El mundo experimenta cambios y turbulencias no vistos en un siglo, con actos unilaterales de hegemonía quesocavan gravemente el orden internacional», apuntó el líderXi Jinpingeste lunes durante su cumbre bilateral con el primer ministro irlandésMicheál Martin. «Todos los países deben respetar las vías de desarrollo elegidas de forma independiente por los pueblos de otras naciones, acatar el derecho internacional y los propósitos y principios de la Carta de Naciones Unidas; y las grandes potencias, en particular, deberían dar ejemplo en ese sentido».</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C160" s="5" t="inlineStr">
+        <is>
+          <t>Trump exige a Venezuela que ponga fin a las relaciones con China, Rusia, Irán y Cuba</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2026-01-07T09:45:56+01:00</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>La Administración del presidente estadounidense, Donald Trump , ha comunicado a la presidenta interina de Venezuela, Delcy Rodríguez , que el país deberá cumplir con finalizar relaciones con China, Rusia, Irán y Cuba como parte de una serie de exigencias antes de extraer y comercializar su petróleo, según funcionarios citados por la cadena estadounidense ABC. De acuerdo con los funcionarios citados por la cadena, Venezuela debe expulsar a China, Rusia, Irán y Cuba como parte de las exigencias de Estados Unidos que busca ser la única relación petrolera y favorecer a EE.UU. en la venta de crudo pesado. De acuerdo con uno de ellos, el secretario de Estado, Marco Rubio , ha afirmado en una sesión informativa privada con legisladores que EE.UU. «cree poder presionar a Caracas porque sus petroleros están llenos» y ha advertido que Venezuela tendría «solo un par de semanas» antes de caer en insolvencia financiera si no logra vender sus reservas. En una entrevista con ABC News, el senador Roger Wicker ha confirmado que el plan se basa en el control del petróleo venezolano y no contempla el despliegue de tropas estadounidenses . Hasta el momento Venezuela, dirigido de forma provisional por Rodríguez no emite comunicación oficial sobre la exigencia adelantada por Trump. Por su parte, China lo ha calificado de «intimidación». La portavoz del Ministerio de Exteriores chino, Mao Ning , ha afirmado hoy en rueda de prensa que Venezuela «es un país soberano y goza de plena y permanente soberanía sobre sus recursos naturales y todas las actividades económicas dentro de su territorio», al ser preguntada por las informaciones publicadas por ABC sobre supuestas exigencias de Washington a Caracas. Mao ha calificado esa supuesta presión como un «uso descarado de la fuerza» y ha sostenido que la pretensión de que Venezuela disponga de sus recursos energéticos conforme a un enfoque de «EE.UU. primero» constituye «un caso típico de intimidación», que «viola gravemente el derecho internacional», «infringe de manera seria la soberanía de Venezuela» y «perjudica los derechos del pueblo venezolano». «China condena firmemente este comportamiento», ha subrayado la portavoz, quien ha añadido que «debe enfatizarse que los derechos e intereses legítimos de China y de otros países en Venezuela deben ser protegidos». Asimismo, la portavoz ha reiterado la posición de Pekín en defensa de la cooperación económica entre Estados soberanos, tras recalcar que China «siempre ha llevado a cabo intercambios y cooperación con otros países sobre la base del respeto mutuo, la igualdad y el beneficio recíproco». Por otro lado, durante una sesión extraordinaria de la Organización de Estados Americanos (OEA) de este martes, países como Colombia, Chile, México y Brasil también han condenado el actuar estadounidense en Caracas y han advertido que una injerencia de este tipo pone en riesgo la soberanía de la región.</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Según la cadena ABC
+ABC
+Esta funcionalidad es sólo para registrados
+La Administración del presidente estadounidense,Donald Trump, ha comunicado a la presidenta interina de Venezuela,Delcy Rodríguez, que el país deberá cumplir con finalizar relaciones con China, Rusia, Irán y Cuba como parte de una serie de exigencias antes de extraer y comercializar...su petróleo, según funcionarios citados por la cadena estadounidense ABC.
+De acuerdo con los funcionarios citados por la cadena, Venezuela debe expulsar a China, Rusia, Irán y Cuba como parte de las exigencias de Estados Unidos que busca serla única relación petroleray favorecer a EE.UU. en la venta de crudo pesado.
+De acuerdo con uno de ellos, el secretario de Estado,Marco Rubio, ha afirmado en una sesión informativa privada con legisladores que EE.UU. «cree poder presionar a Caracas porque sus petroleros están llenos» y ha advertido que Venezuela tendría «solo un par de semanas» antes de caer en insolvencia financiera si no logra vender sus reservas.
+En una entrevista con ABC News, el senadorRoger Wickerha confirmado que el plan se basa en el control del petróleo venezolano yno contempla el despliegue de tropas estadounidenses.
+Hasta el momento Venezuela, dirigido de forma provisional por Rodríguez no emite comunicación oficial sobre la exigencia adelantada por Trump.
+Por su parte, China lo ha calificado de«intimidación».La portavoz del Ministerio de Exteriores chino,Mao Ning, ha afirmado hoy en rueda de prensa que Venezuela «es un país soberano y goza de plena y permanente soberanía sobre sus recursos naturales y todas las actividades económicas dentro de su territorio», al ser preguntada por las informaciones publicadas por ABC sobre supuestas exigencias de Washington a Caracas.
+Mao ha calificado esa supuesta presión como un«uso descarado de la fuerza»y ha sostenido que la pretensión de que Venezuela disponga de sus recursos energéticos conforme a un enfoque de «EE.UU. primero» constituye «un caso típico de intimidación», que «viola gravemente el derecho internacional», «infringe de manera seria la soberanía de Venezuela» y «perjudica los derechos del pueblo venezolano».
+«China condena firmemente este comportamiento», ha subrayado la portavoz, quien ha añadido que «debe enfatizarse que los derechos e intereses legítimos de China y de otros países en Venezuela deben ser protegidos».
+Asimismo, la portavoz ha reiterado la posición de Pekín en defensa de la cooperación económica entre Estados soberanos, tras recalcar que China «siempre ha llevado a cabo intercambios y cooperación con otros países sobre la base del respeto mutuo, la igualdad y el beneficio recíproco».
+Por otro lado, durante una sesión extraordinaria de la Organización de Estados Americanos (OEA) de este martes, países como Colombia, Chile, México y Brasil también han condenado el actuar estadounidense en Caracas y han advertido que una injerencia de este tipo pone en riesgo la soberanía de la región.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C161" s="5" t="inlineStr">
+        <is>
+          <t>Yu Hua : «La época más libre de China fue a finales de los años 90»</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2026-01-07T04:57:32+01:00</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Con su novela 'Vivir' , publicada en 1993 y adaptada al cine por Zhang Yimou , Yu Hua hizo la mejor disección del alma china y de la trágica historia del país desde el triunfo comunista hasta la Revolución Cultural (1966-76) . Nacido en 1960 en Hangzhou (provincia de Zhejiang), es uno de los autores chinos más reconocidos junto a su amigo Mo Yan , premio Nobel en 2012, y Yan Lianke . Con obras cumbre a sus espaldas como 'Crónica de un vendedor de sangre' (1995) y 'Brothers' (2005-06), Yu Hua acaba de pasar por España para presentar su último libro: 'La ciudad escondida' (2021), una novela de aventuras ambientada a principios del siglo XX. —¿Por qué ha retrocedido... Ver Más</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>ESCRITOR CHINO AUTOR DE 'VIVIR'
+Pablo M. Díez
+Madrid
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+Con su novela'Vivir', publicada en 1993 y adaptada al cine porZhang Yimou, Yu Hua hizo la mejor disección del alma china y de la trágica historia del país desde el triunfo comunista hasta laRevolución Cultural (1966-76). Nacido...en 1960 en Hangzhou (provincia de Zhejiang), es uno de los autores chinos más reconocidos junto a su amigoMo Yan, premio Nobel en 2012, yYan Lianke. Con obras cumbre a sus espaldas como'Crónica de un vendedor de sangre'(1995) y'Brothers'(2005-06), Yu Hua acaba depasar por Españapara presentar su último libro:'La ciudad escondida'(2021), una novela de aventuras ambientada a principios del siglo XX.
+—¿Por qué ha retrocedido tanto en el tiempo?
+—Hay dos razones: la primera, quería retratar ese importante momento del siglo XX. En el conjunto de mi obra, yo deseo cubrir todo el siglo XX. 'Vivir' está ambientada desde los años 30 hasta los 60-70. Por eso, en 'La ciudad escondida' quería describir la época después de la revolución de Xinhai en 1911 (que derrocó a la dinastía Qing y llevó a la abdicación delúltimo emperador de China, Pu Yi, con solo seis años en 1912). 'La ciudad escondida' transcurre de 1900 a 1920, una época de anarquía. El segundo motivo es que quería escribir una leyenda, algo parecido a las novelas de Shakespeare, que no escribía de su época, como forma de homenaje.
+—¿Es 'La ciudad escondida' su obra más contenida? ¿Es que se está haciendo mayor y perdiendo la furia juvenil?
+—Desde 'Vivir', he escrito obras mucho más cálidas. Es cierto que en mis obras hay violencia y muchas escenas sangrientas. Pero también quería pasajes cálidos para equilibrar la historia. Quería describir los dos extremos. No he perdido esa pasión juvenil.
+—Con usted, el mundo ganó a un gran escritor, pero perdió a un dentista...
+—En 1978 empecé a trabajar como dentista y estuve haciéndolo hasta 1983. Trabajaba todo el día y pasé a un centro cultural del Gobierno, donde no tenía que estar tantas horas y podía salir más a la calle. Para pertenecer a dicho departamento, debía tener dotes artísticas, como la música, pero eso estaba fuera de mi alcance. Lo que sí podía hacer era escribir. Cuando debuté en la literatura, me dijeron que tenía un estilo muy directo y muy sencillo, pero eso se debía a que solo conocía unos 2.000 caracteres en chino porque la Revolución Cultural me pilló en el bachillerato.
+«El propósito de la literatura es despertar a los seres humanos en sus emociones y sentimientos»
+—He leído que a usted le pareció su trabajo en el departamento cultural ideal porque... ¡no tenía nada qué hacer! ¿Existen hoy trabajos así, para ir buscando yo uno?
+—Ahora es imposible. En ese empleo, primero llegaba con retraso, luego iba solo por la tarde y, al final, acabé yendo solo el día en que nos pagaban el sueldo. Eso es imposible hoy porque hay que fichar. En esa época, tras la Revolución Cultural, mimaban a los artistas, sobre todo los que estaban llegando al final de su vida. En 1983, yo coleccionaba cuentos y canciones de artistas ancianos. Tenía que ir a los pueblos para hablar con los artistas, pero yo quería escribir mi propia novela. Compraba el billete de un barco para visitar algún pueblo, pero no iba; me quedaba en casa durante una semana y escribía todo el tiempo. Luego iba al embarcadero y cogía del suelo un billete de vuelta tirado, para demostrar así que había viajado y pedir el reembolso. Todos aquellos relatos que recopilaba se convirtieron en material para mis novelas.
+—¿Cuáles son sus influencias literarias?
+—Yasunari Kawabata (primer Nobel de Literaturajaponés) me enseñó los detalles, Kafka la libertad y Faulkner las descripciones psicológicas a través de sus acciones y visiones. Para mí, la mayor dificultad era describir el estado psicológico de los personajes. Cuando escribía sobre las emociones, lo empujaba hasta un extremo que no se podía describir con mil caracteres. No era suficiente. Faulkner tiene cuentos en los que no hay descripciones psicológicas, sino de las miradas. 'Crimen y castigo' es un gran libro de descripciones y acciones. Así se refleja el estado psicológico de los personajes.
+—Usted es buen amigo de Mo Yan. ¿Le ha dado algún consejo para ganar el Nobel?
+—(Riéndose) No, no me ha dado ningún consejo ni yo se lo he dado a él. Vivimos dos años juntos en el mismo dormitorio en la universidad, en la academia de literatura de Lu Xun, entre 1988 y 1991. Éramos jóvenes y hablábamos de literatura, pero más de mahjong (dominó chino). ¡Nos peleábamos por diez céntimos de yuan!
+—¿Qué propósito tiene la literatura? ¿Curación? ¿Testigo? ¿Motor de cambio social?
+—La literatura tiene todas esas funciones. Pero el propósito de la literatura es despertar a los seres humanos en sus emociones y sentimientos. A veces, las emociones están dormidas y deben ser despertadas. La mejor literatura es la que puede despertar a gentes de diferentes épocas y sociedades.
+«Mientras esté vivo, un escritor tiene que escribir sobre el presente»
+—¿A qué calamidades se enfrentarían los personajes de 'Vivir' en la China del siglo XXI?
+—Estoy escribiendo un 'Vivir' del siglo XXI y es una serie sobre malvados de cinco a siete entregas. El 7 de septiembre entregué el manuscrito de la primera parte, que se titula 'Lu Keming. Tou tou yi xiao' ('Lu Keming. La sonrisa escondida'). El segundo volumen será 'Hundan lie zhuan' ('Biografía de los cabrones') y se ambientará en el inicio de la política de reforma y apertura en China (1978). Mientras esté vivo, un escritor tiene que escribir sobre el presente. A veces, puedes sentir que has perdido esa pasión. Pero luego lo recuperas.
+—¿Sigue la película 'Vivir' prohibida en los cines y las televisiones de China?
+—El libro se vendió mucho, pero la película está prohibida.
+—¿Qué líneas rojas tiene usted como escritor en China?
+—El 4 de junio (la masacre de Tiananmen) es una línea roja que no puede aparecer en ninguna novela. De la Revolución Cultural y del Gran Salto Adelante sí se puede escribir...
+—¿Y del presidente Xi Jinping?
+—(Mutándole el rostro con mucha seriedad) No, de él no se puede escribir. Pero ahora soy más libre que en los años 70. La época más libre de China fue a finales de los años 90. De 'Brothers' no se corrigió nada. No estoy muy seguro de qué ha pasado. Cuando publico mis propias obras, no me cambian nada. En la última novela que acabo de entregar, yo pensaba que me iban a censurar y estaba preparado para publicarla enTaiwán. Pero al final no me han corregido nada porque está ambientada en los últimos diez años y trata sobre cómo ha caído la economía china. Estamos en una época de extremos. En los medios oficiales, se nota que no somos tan abiertos como antes y hay una opinión unánime. Pero en las redes sociales reina la pura anarquía.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C162" s="5" t="inlineStr">
+        <is>
+          <t>La carrera de la IA: las diferencias entre EE.UU. y China</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2026-01-07T06:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Las prioridades de los modelos pueden marcar el futuro de la aplicación de la inteligencia artificial</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Pablo Foncillas
+En este vídeo, el profesor Pablo Foncillas explica cómo ahora mismo la IA estadounidense está construida sobre un modelo de publicidad, mientras que la IA china está basada sobre un modelo industrial.
+”El modelo digital dominante de EE.UU. está orientado a capturar atención, segmentar usuarios y monetizar datos para publicidad. La IA estadounidense nace del modelo publicitario y del procesamiento masivo de datos de usuarios”, incide.
+“El próximo gran salto se producirá cuando la IA se combine de forma masiva con el mundo físico: robots, manufactura avanzada, dispositivos médicos, ciencia aplicada, nuevos materiales. Es en eso donde ve un potencial de transformación enorme en los próximos cinco a diez años”, sigue. Aquí es donde China pondrá su impronta. La IA del gigante asiático está asociada a producción, logística, manufactura y resolución de problemas materiales. “China, construye IA y digitalización orientadas a hacer cosas”, detalla.
+¿Qué diferencia a unos y otros en los ritmos y aplicaciones? La respuesta, en el vídeo...</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C163" s="5" t="inlineStr">
+        <is>
+          <t>Trump ordena a Venezuela expulsar a los agentes de China, Rusia, Irán y Cuba que operan en Caracas</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2026-01-07T10:21:19+01:00</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Washington sostiene que estos países han mantenido una presencia profunda en Venezuela a través de personal de inteligencia, militar y económico</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Estados Unidosha intensificado su presión sobre el gobierno interino de Venezuela, encabezado porDelcy Rodríguez, para queexpulse a asesores oficiales y personal de seguridad vinculadosaCuba, Rusia, China e Irán, según confirmaron funcionarios estadounidenses alNew York Times. Este paso implicaría un cambio radical en las alianzas estratégicas y de seguridad del país sudamericano. Washington sostiene que estos países han mantenido una presenciaprofunda en Venezuela a través de personal de inteligencia, militar y económico,y busca que el nuevo gobierno de Rodríguez termine con esas relaciones antes de permitir la reapertura o expansión de las exportaciones petroleras hacia Estados Unidos.
+Al parecer, estas demandas fueron realizadas por el secretario de Estado,Marco Rubio, durante una reunión clasificada con líderes del Congreso. Washington permitiría la permanencia de algunos diplomáticos, pero exige la salida de espías y personal militar extranjero como condición para estabilizar la relación bilateral.
+Delcy Rodríguez ya ha respondido diciendo queningún "agente externo" gobierna Venezuela."Estamos acá gobernando junto al pueblo, el Gobierno de Venezuela rige nuestro país, más nadie, no hay agente externo que gobierne a Venezuela", dijo la nueva presidenta.
+La presión se produce tras la captura del expresidenteNicolás Maduro, quien confiaba en laprotección cubanapor considerarla más leal que sectores de las fuerzas armadas venezolanas. Minutos después de su captura y traslado a un buque de guerra estadounidense, Rubio contactó directamente a Rodríguez para iniciar conversaciones. La Administración Trump ha reconocido a Rodríguez como su interlocutora principal, dejando al margen a la oposición venezolana y sin comprometerse, por ahora, con un calendario de elecciones o una transición democrática.
+En paralelo, el presidenteDonald Trumpanunció que Venezuela entregaráentre 30 y 50 millones de barriles de petróleo sancionadoa Estados Unidos. "Me complace anunciar que las autoridades provisionales de Venezuela entregarán entre 30 y 50 millones de barriles de petróleo de alta calidad, sancionado, a Estados Unidos", ha señalado en su plataforma Truth Social. El inquilino de la Casa Blanca ha indicado que este crudo "se venderá a su precio de mercado, y ese dinero será controlado por mí, como presidente de Estados Unidos, para garantizar que se utilice en beneficio de los pueblos de Venezuela y Estados Unidos".
+Además, ha señalado que ha solicitado al secretario de Energía,Chris Wright, que "ejecute este plan de inmediato". El petróleo, ha agregado, "se transportará en buques de almacenamiento y se llevará directamente a los muelles de descarga de Estados Unidos". Wright, por su parte, se ha limitado a responder en su cuenta de la red social X que Trump "tiene toda (su) atención en este asunto".
+Analistas citados por medios estadounidenses señalan que Venezuela enfrenta una grave urgencia financiera, con apenas semanas antes de caer en insolvencia si no logra vender sus reservas de crudo. Aunque el volumen anunciado equivale a entre 30 y 50 días de producción venezolana, una cantidad modesta frente a los 13,8 millones de barriles diarios que produce EEUU, el acuerdo tendría un fuerte impacto político.
+Al respecto, el presidente del Comité de las Fuerzas Armadas del Senado,Roger Wicker, ha asegurado en una entrevista concedida al mencionado canal que "Venezuela no puede extraer más crudo porque no hay dónde depositarlo ni dónde enviarlo.Los petroleros están llenos y a la espera de ser trasladados a un lugar apropiado, con la esperanza de venderlos en el mercado abierto en lugar de entregárselos gratuitamente a China".
+La demanda de Washington de que Caracas “expulse” a estos actores extranjeros no se limita únicamente a personal de inteligencia, sino que también incluye la exigencia de cortar lazos económicos y comerciales que, según funcionarios estadounidenses, han sostenido al antiguo régimen y fortalecido influencias exteriores en sectores clave como la energía y la defensa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C164" s="5" t="inlineStr">
+        <is>
+          <t>China anuncia la entrega a sus autoridades de Chen Zhi, capo de un “imperio del ciberfraude” en Asia</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2026-01-08T14:35:29+01:00</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>El sospechoso, también perseguido por Estados Unidos, fue extraditado desde Camboya, donde presuntamente operaba una red dedicada al fraude electrónico y el lavado de dinero</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>El sospechoso, también perseguido por Estados Unidos, fue extraditado desde Camboya, donde presuntamente operaba una red dedicada al fraude electrónico y el lavado de dinero
+China ha anunciado este jueves la extradición desde Camboya de Chen Zhi, presunto capo de una de las mayores redes criminales de Asia. El magnate, de nacionalidad china, había sido también acusado en octubre por Estados Unidos defraude electrónicoy lavado de dinero. Chen, de 38 años, es fundador y presidente de Prince Group, un conglomerado empresarial multinacional con sede en Camboya, que supuestamente actuaba como pantalla para cometer estafas de inversión en criptomonedas mediante las cuales robó miles de millones de euros a víctimas de todo el mundo.
+Su imperio fue levantado, según las investigaciones, gracias a un cruel sistema de centros de trabajo forzados repartidos por Camboya. En ellos,personas retenidas contra su voluntad, en condiciones de esclavitud,eran obligadas a contactar con usuarios de redes sociales de todo el planeta con el fin de convencerles de que realizaran inversiones inexistentes en bitcoins y productos similares.
+Estas redes de fraude,con enorme presencia en Camboya y en Myanmar, han estado en el punto de mira de las autoridades chinas en los últimos meses. Para Pekín no solo eran preocupantes las millonarias cuantías estafadas, sino los miles de ciudadanos atraídos con engaños hasta los centros de trabajos forzados, donde eran secuestrados y obligados a meterse en los engranajes del timo electrónico para comprar su libertad.
+En estos centros, donde sufren palizas y extorsiones, son obligados a abrir decenas de perfiles falsos en redes sociales que usan para contactar con usuarios desprevenidos de todo el mundo, establecer una relación de confianza y tratar de timarlos. La oficina de Derechos Humanos de la ONU calculaba en 2023 que solo en Myanmar podría haber hasta 120.000 personas retenidas, y otras 100.000 en Camboya. Son esas personas que hay detrás de los típicos mensajes que a veces llegan por WhatsApp o Instagram: “Hola”; “Hi”; “Hello”.
+La repatriación de Chen se llevó a cabo con éxito el miércoles desde Phnom Penh —la capital camboyana—, después del envío de un equipo de trabajo del Ministerio de Seguridad Pública chino. Las investigaciones preliminares indican que el grupo criminal está implicado en la apertura de casinos ilegales, fraude, operaciones comerciales ilícitas, encubrimiento y ocultación de ganancias procedentes de actividades delictivas, entre otros delitos, según detalla el canal estatal chino CCTV.
+Las autoridades de Pekín han asegurado que, en los próximos días, harán pública la primera lista de búsqueda y captura de otros miembros clave de la banda, y se han comprometido a llevar ante la justicia a todos los fugitivos. También ha lanzado un mensaje para quienes estén involucrados en actividades delictivas: que “reconozcan la situación, rectifiquen a tiempo y se entreguen de inmediato, a fin de obtener un trato más benévolo conforme a la ley”, añade CCTV. Por su parte, las autoridades camboyanas han anunciado este jueves la liquidación de la entidad bancaria Prince Bank, propiedad del magnate, recoge EFE.
+Chen Zhi nació en el distrito de Lianjiang, en la provincia china de Fujian, de acuerdo con unreportaje de la revistaChina News Weekly, propiedad del Servicio de Noticias de China. En el sitio web de DW Capital Group, una empresa de gestión de fondos registrada en Singapur en la que realizó inversiones personales, Chen es descrito como “un joven prodigio empresarial”. Su primera iniciativa emprendedora fue la inversión en un pequeño cibercafé en Fujian. En 2011, inició su incursión en el mercado inmobiliario de Camboya, adentrándose en lo que él mismo calificó como “aguas desconocidas”.
+En 2014, obtuvo la ciudadanía camboyana y fundó el Grupo Prince al año siguiente. Desde entonces, ha operado decenas de entidades comerciales en más de 30 países. Aparentemente centrado en el desarrollo inmobiliario, los servicios financieros y al consumidor, mediante operaciones secretas, Chen y sus ejecutivos transformaron el conglomerado empresarial en una de las organizaciones criminales transnacionales más grandes de Asia, integrando el fraude en las telecomunicaciones, las apuestas en línea y el blanqueo de capitales.
+En octubre del año pasado, las fuerzas del orden de Estados Unidos destaparon un caso de fraude a gran escala con origen en Camboya y confiscaron 127.271 bitcoins. Estaban almacenados en carteras de criptomonedas no custodiadas (aquellas donde el usuario tiene control total sobre sus claves privadas y activos, no a través de entidades intermediarias) y Chen tenía en su poder todas las contraseñas. Con un valor total estimado en unos 15.000 millones de dólares (unos 12.843 millones de euros), fue anunciada como la mayor incautación de criptoactivos en la historia de Estados Unidos.
+El ahora detenido era “el cerebro detrás de un extenso imperio del ciberfraude que operaba bajo el paraguas del Grupo Prince, una organización criminal basada en el sufrimiento humano”, según declaró el fiscal general adjunto de Seguridad Nacional, John A. Eisenberg. “Trabajadores víctimas de trata eran confinados en recintos similares a prisiones y obligados a realizar estafas en línea a escala industrial, aprovechándose de miles de personas en todo el mundo, incluyendo muchas aquí en Estados Unidos”.
+Chen operaba presuntamente “una vasta red criminal en múltiples continentes, involucrando trabajo forzoso, lavado de dinero, esquemas de inversión y robo de activos, atacando a millones de víctimas inocentes en el proceso”, añadió el director del FBI Kash Patel.
+En respuesta a las acusaciones de Estados Unidos, el equipo de Chen rompió el silencio por primera vez en noviembre. Su equipo legal presentó una moción ante el tribunal estadounidense para extender el plazo de la demanda y argumentó que las acusaciones del Departamento de Justicia de Estados Unidos eran “gravemente erróneas” y que el Gobierno estadounidense no había aportado pruebas de que los bitcoins incautados estuvieran “directamente vinculados” a las actividades fraudulentas, según el citado reportaje deChina News Weekly.
+El Departamento del Tesoro de Estados Unidos ha clasificado al grupo como organización criminal transnacional y ha impuesto sanciones a más de un centenar de personas y entidades vinculadas. De acuerdo con estas fuentes, Chen posee las nacionalidades británica y camboyana. Él y sus cómplices han blanqueado, supuestamente, grandes sumas de dinero para financiar un estilo de vida extremadamente lujoso, que incluía relojes de alta gama y aviones privados. El Gobierno británico también congeló sus activos, entre ellos 19 propiedades situadas en Londres.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C165" s="5" t="inlineStr">
+        <is>
+          <t>Michael Ignatieff: "Hemos entrado en un mundo en el que ya no podemos confiar ni en nuestros vecinos y ese es un gran problema"</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2026-01-08T00:03:14+01:00</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>El profesor canadiense y premio Princesa de Asturias de Ciencias Sociales analiza las intenciones de Trump tras la caída de Maduro y el escenario geopolítico que deja la operación: "Rusia y China son hoy más peligrosas que la semana pasada" Leer</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Hace justo un año, cuando Donald Trump estrenaba su segundo mandato en la Casa Blanca y medio planeta empezaba a estremecerse ante el jeroglífico geopolítico que se avecinaba,Michael Ignatieff(Toronto, 1947) trazó dos posibles salidas al laberinto. Una, quizás la más optimista/ingenua, pasaba por el mantenimiento del orden internacional y el respeto de Estados Unidos a las reglas e instituciones -ONU incluida-. El otro camino -advertía entonces el ensayista, profesor de Historia ypremio Princesa de Asturias de Ciencias Sociales- conducía al rediseño del mapamundi en tres esferas de influencia. "Los chinos tienen una en el este de Asia. Los rusos tienen la suya en Eurasia y Europa del Este. Y Estados Unidos tiene otra que abarca desde Groenlandia a Chile", analizaba. "No creo que Trump haya decidido aún por qué camino avanzará, pero...".
+Y en ese gigantescoperonos encontramos justo un año después. Cuando han pasado apenas unos días desdeel asalto de Trump a Caracas para derrocar a Nicolás Maduroy mientras el todavía presidente venezolanodeclara en un tribunal del distrito sur de Nueva York, Ignatieff radiografía desde Londres un escenario imprevisible, sometido como nunca a los impulsos del mayor "depredador" de un planeta que parece regirse de nuevo bajo la "ley de la jungla".
+"Estados Unidos planificó meticulosamente la captura de Maduro, pero no tiene ningún plan para el posconflicto, para gobernar Venezuela"</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C166" s="5" t="inlineStr">
+        <is>
+          <t>Europa se engancha a los fármacos chinos: viaje al punto de partida de la nueva ruta de la seda de los medicamentos</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2026-01-08T00:01:39+01:00</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Crece la dependencia de Asia para abastecer su industria farmacéutica y garantizar el suministro de medicamentos esenciales Leer</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Entre los milenarios canales que serpentean por Suzhou, donde el agua reproduce destellos que evocan a una Venecia oriental, se oculta el núcleo palpitante de la industria farmacéutica china. En este laberinto acuático, que durante siglos fue un símbolo cultural, se gestan ahora los principios activos y medicamentos genéricos que abastecen cada vez a más mercados de todo el mundo. Esta ciudad del este del gigante asiático, con ocho millones de habitantes y vecina de Shanghai, ha logrado soldar una alianza singular entre la tradición y la vanguardia biomédica. Una parte notable de los fármacos que se consumen a diario en España contiene algún componente originado en Suzhou.
+Cuando, hace casi una década, farmacéuticas españolas comoGrifolscomenzaron a anunciar sus primeras colaboraciones estratégicas con empresas chinas, pocos sospechaban que aquel gesto era solo el preludio de una transformación global de mayor calado. Europa dominaba entonces la innovación del sector, mientras China permanecía relegada a la producción de genéricos. Hoy, el escenario ha dado un vuelco: la superpotencia asiática se ha erigido en un nodo esencial de la biotecnología mundial, y las grandes farmacéuticas occidentales -desde Estados Unidos a España- dependen cada vez más de sus descubrimientos y nuevas moléculas.
+Construido sobre un extenso pantano a orillas del lago Jinji, el Parque Industrial de Suzhou concentra la columna vertebral de la industria farmacéutica del país:laboratorios de alta seguridad, plantas de producción, centros de ensayo y complejos logísticospara la distribución nacional e internacional. "Como se ha hecho en tantas otras ciudades para impulsar sectores estratégicos, en Suzhou se decidió concentrar todo un ecosistema dedicado al medicamento, articulado en diversas áreas de especialización", explica Zhou Ming, funcionario designado por el gobierno local para atender a los medios.
+"Existen mega centros con capacidad para ensayos clínicos masivos, empresas químicas, instalaciones de producción industrial, fabricantes de embalajes farmacéuticos, redes logísticas, universidades que forman talento altamente cualificado y un entorno regulatorio que facilita la investigación", detalla.
+Las autoridades de Suzhou, al igual que en otros polos industriales de China -como los vinculados al coche eléctrico-, han regado al sector con generosas subvenciones e incentivos fiscales para mejorar su competitividad global. En el parque industrial que está sobre el pantano, la biotecnológica más destacada esInnovent Biologics, que desarrolla medicamentos y APIs (principios activos farmacéuticos) para varias empresas europeas, sobre todo deAlemaniayFrancia.
+En 2024, China superó por primera vez a Europa como generador de nuevos principios activos. El mercado farmacéutico chino, que ha pasado de copiar fármacos a ser el principal motor innovador global de APIs,alcanzó los 252.000 millones de dólares. Las previsiones oficiales auguran un crecimiento anual sostenido superior al 10%.
+Este auge está reconfigurando el mapa sanitario global y alimentando una dependencia creciente de Occidente respecto a la biotecnología china, un fenómeno que, para muchos expertos, combina oportunidades y riesgos. La Unión Europea ha comenzado a tomar conciencia: en marzo de 2025 presentó unaLey de Medicamentos Esencialespara reforzar la producción de más de 200 fármacos críticos y, en junio, prohibió que empresas chinas participen en licitaciones públicas de dispositivos médicos valoradas en más de cinco millones de euros, una medida que tensó las relaciones comerciales entre Bruselas y Pekín.
+La realidad a la que se enfrenta el viejo continente es delicada. Proveedores clave de APIs han anunciado el cierre de varias plantas incapaces de competir con los precios chinos.Xellia Pharmaceuticals,especializada en antibióticos y con sede en Dinamarca, comunicó hace unos meses que trasladará la mayor parte de sus operaciones a su planta en China. Su director ejecutivo,Michael Kocher, advirtió que alrededor del 80% de los APIs utilizados en la UE proceden de China e India, y que la cifra podría rozar el 100% si los gobiernos europeos no adoptan medidas proteccionistas para frenar la dependencia.
+En Alemania, tres cuartas partes de los principios activos empleados en antibióticos importados provienen de China. "Incluso cuando los medicamentos se fabrican en India o Estados Unidos, los principales actores del mercado farmacéutico mundial suelen utilizar ingredientes chinos", señala un informe de la asociación Pro Generika. En 2024, Alemania exportó más de 15 millones de toneladas de productos farmacéuticos a China, mientras que China envió más de 33 millones de toneladas a Alemania. "Ya se trate de analgésicos, antibióticos o fármacos para la diabetes, las farmacias alemanas no pueden prescindir de los medicamentos fabricados en China".
+El escenario es similar en España, donde hace tres años un informe del Real Instituto Elcano advirtió que las cadenas de suministro españolas cada vez dependen más de China en sectores estratégicos como el farmacéutico. Desde hace años, varias farmacéuticas chinas han establecido presencia y operaciones en España, ya sea a través de filiales o mediante la adquisición de empresas locales. Está el caso de Techdow Pharma, filial de Shenzhen Techdow Pharmaceutical, que fue la primera (en 2018) en vender sus propios fármacos directamente en el mercado español. O Qilu
+Pharma Spain, centrada en medicamentos para la diabetes, que llegó en 2023 tras la adquisición de la compañía biotecnológica española Diater.
+En Pekín, los medios estatales llevan tiempo promoviendo la ambiciosa idea de una "ruta de la seda de los medicamentos", concebida para proyectar la influencia farmacéutica china por todo el planeta, especialmente en las regiones del Sur Global y en los países en vías de desarrollo integrados en el vasto programa de infraestructuras y comercio impulsado por el presidente Xi Jinping.
+África ocupa un lugar prioritario en esta estrategia: un continente que alberga al 18% de la población mundial, carga con una cuarta parte de las enfermedades globales y depende en gran medida de la importación de medicamentos esenciales. Para cubrir ese vacío, empresas chinas están estableciendo plantas de producción en países como Nigeria, Costa de Marfil o Senegal, donde fabrican fármacos básicos, desde insulina hasta antirretrovirales, con el objetivo de reducir la vulnerabilidad sanitaria de la región.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C167" s="5" t="inlineStr">
+        <is>
+          <t>Trump avanza que la supervisión de EE.UU. sobre Venezuela podría durar años: «Solo el tiempo dirá»</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2026-01-08T09:42:43+01:00</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>El presidente de Estados Unidos, Donald Trump, ha señalado que su Administración mantendrá el control sobre Venezuela durante un periodo «largo» de tiempo , probablemente mayor a un año, hasta que se avance en una transición democrática, apuntando que las autoridades interinas lideradas por Delcy Rodríguez están dando «todo» lo que Washington «considera necesario». «Solo el tiempo dirá. Vamos a usar el petróleo y vamos a tomarlo. Estamos bajando los precios del petróleo y vamos a dar dinero a Venezuela, que lo necesita desesperadamente», ha asegurado el presidente norteamericano en una extensa entrevista con el diario estadounidense 'The New York Times' sobre la intervención militar que desalojó del poder el pasado 3 de enero al presidente venezolano Nicolás Maduro. Sobre los siguientes pasos en la transición democrática en Venezuela y los plazos que maneja Washington para unas elecciones en el país, Trump ha evitado fijar un calendario, limitándose a apuntar que «será mucho más largo» que seis meses o un año. El presidente estadounidense ha centrado sus mensajes en la necesidad de «reconstruir» Venezuela de una forma que sea «muy rentable» para Washington , después de que la Casa Blanca se haya puesto como objetivo prioritario controlar el petróleo venezolano y asegurarse de que estos recursos naturales no van a parar a manos de China o Rusia, aliados estrechos de Caracas hasta ahora. Washington ha confirmado su intención de tomar el control sobre las exportaciones de crudo venezolano durante un periodo indefinido como parte de un plan para la reconstrucción de la economía del país. En este contexto, Trump apuntó a un plan para hacerse con «entre 30 y 50 millones de barriles de petróleo sancionado», en medio de su iniciativa para cambiar las alianzas en el sector energético mundial. En todo caso, el propio Trump reconoce en el marco de la entrevista que recomponer la industria petrolera venezolana «llevará tiempo», toda vez Estados Unidos tendrá que realizar inversiones en repuestos, equipos y servicios para lograr su objetivo de estabilizar e impulsar la producción de crudo de Venezuela. A este respecto, ha señalado que las autoridades interinas, con Delcy Rodríguez, hasta ahora número 'dos' de Maduro y figura clave del chavismo, a la cabeza, están resultando instrumentales para este efecto. «Nos está dando todo lo que consideramos necesario», ha indicado, apuntando a la buena cooperación con los nuevos dirigentes en Caracas tras la caída de Maduro. Respecto al papel que jugarán las figuras opositoras María Corina Machado, reciente premio Nobel de la Paz, y el candidato presidencial en los últimos comicios, Edmundo González, el dirigente estadounidense no ha ahondado en su decisión de mantener como jefa interina a una figura clave del chavismo y aparcar por el momento a dirigentes de la oposición democrática. Trump asegurado eso sí que su Administración mantiene contactos «constantes» con Machado y que es el secretario de Estado, Marco Rubio, quien mantiene línea directa con la opositora venezolana, quien permanece fuera del país tras acudir a Oslo para recoger el premio Nobel de la Paz. Tampoco ha valorado que papel puede jugar González en el futuro de Venezuela. El que fuera candidato opositor de consenso frente a Maduro en las elecciones de julio de 2024 se encuentra en España donde ha defendido su investidura como presidente, después de que el Consejo Nacional Electoral de Venezuela (CNE) proclamara el triunfo de Maduro sin publicar las actas electorales.</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>EP
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+El presidente de Estados Unidos, Donald Trump, ha señalado que su Administración mantendrá el control sobre Venezuela duranteun periodo «largo» de tiempo, probablemente mayor a un año, hasta que se avance en una transición democrática, apuntando que las autoridades interinas lideradas por Delcy...Rodríguez están dando «todo» lo que Washington «considera necesario».
+«Solo el tiempo dirá. Vamos a usar el petróleo y vamos a tomarlo.Estamos bajando los precios del petróleo y vamos a dar dinero a Venezuela,que lo necesita desesperadamente», ha asegurado el presidente norteamericano en una extensa entrevista con el diario estadounidense 'The New York Times' sobre la intervención militar que desalojó del poder el pasado 3 de enero al presidente venezolano Nicolás Maduro.
+Sobre los siguientes pasos en la transición democrática en Venezuela y los plazos que maneja Washington para unas elecciones en el país,Trump ha evitado fijar un calendario,limitándose a apuntar que «será mucho más largo» que seis meses o un año.
+El presidente estadounidense ha centrado sus mensajes en la necesidad de «reconstruir» Venezuela de una forma que sea «muy rentable» para Washington, después de que la Casa Blanca se haya puesto como objetivo prioritario controlar el petróleo venezolanoy asegurarse de que estos recursos naturales no van a parar a manos de China o Rusia, aliados estrechos de Caracas hasta ahora.
+Washington ha confirmado su intención de tomar el control sobre las exportaciones de crudo venezolano durante un periodo indefinido como parte de un plan para la reconstrucción de la economía del país. En este contexto, Trump apuntó a un plan para hacerse con«entre 30 y 50 millones de barriles de petróleo sancionado»,en medio de su iniciativa para cambiar las alianzas en el sector energético mundial.
+En todo caso, el propio Trump reconoce en el marco de la entrevista que recomponer la industria petrolera venezolana «llevará tiempo», toda vez Estados Unidos tendrá que realizar inversiones en repuestos, equipos y servicios para lograr su objetivo de estabilizar e impulsar la producción de crudo de Venezuela. A este respecto, ha señalado que las autoridades interinas, con Delcy Rodríguez, hasta ahora número 'dos' de Maduro y figura clave del chavismo, a la cabeza, están resultando instrumentales para este efecto. «Nos está dando todo lo que consideramos necesario», ha indicado, apuntando a la buena cooperación con los nuevos dirigentes en Caracas tras la caída de Maduro.
+Respecto al papel que jugarán las figuras opositoras María Corina Machado, reciente premio Nobel de la Paz, y el candidato presidencial en los últimos comicios, Edmundo González, el dirigente estadounidense no ha ahondado en su decisión de mantener como jefa interina a una figura clave del chavismo y aparcar por el momento a dirigentes de la oposición democrática.
+Trump asegurado eso sí que su Administración mantiene contactos «constantes» con Machado y que es el secretario de Estado, Marco Rubio, quien mantiene línea directa con la opositora venezolana, quien permanece fuera del país tras acudir a Oslo para recoger el premio Nobel de la Paz.
+Tampoco ha valorado que papel puede jugar González en el futuro de Venezuela. El que fuera candidato opositor de consenso frente a Maduro en las elecciones de julio de 2024 se encuentra en España donde ha defendido su investidura como presidente, después de que el Consejo Nacional Electoral de Venezuela (CNE) proclamara el triunfo de Maduro sin publicar las actas electorales.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C168" s="5" t="inlineStr">
+        <is>
+          <t>Zalando despedirá a 2.700 personas para reestructurar su red de logística</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2026-01-08T12:14:51+01:00</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>El distribuidor de moda online alemán Zalando anunció este jueves que cerrará un centro de distribución en la ciudad oriental de Erfurt y despedirá a 2.700 empleados para reestructurar su red logística europea. El centro, que concentra casi una sexta parte de los empleados de Zalando, cesará sus operaciones a finales de septiembre , según informó la empresa en un comunicado. «Hemos tomado la difícil pero necesaria decisión de cerrar nuestro centro logístico en Erfurt», declaró Zalando, utilizando un término que hace referencia a un centro donde se procesan, empaquetan y envían los pedidos online. Zalando afirmó que «iniciaría inmediatamente las negociaciones» con los sindicatos sobre las opciones para los empleados afectados. El sindicato de servicios Ver.di, que representa al personal de la empresa, no respondió de inmediato a una solicitud de comentarios de la AFP. La empresa también afirmó que «suspendería las operaciones» en tres almacenes fuera del país gestionados por socios corporativos. El año pasado, Zalando adquirió su rival local About You por 1.100 millones de euros para construir una plataforma paneuropea en medio de la creciente competencia de gigantes chinos en línea como Temu y Shein. «Tras la exitosa alianza entre Zalando y About You, nos estamos centrando en crear una plataforma integrada y escalable que respalde nuestra ambición de crecimiento», afirmó Zalando. «Esto permitirá un almacenamiento más flexible y un cumplimiento universal de los pedidos, lo que impulsará operaciones fluidas, reducirá las complejidades, aumentará la eficiencia y mejorará la velocidad». Zalando es el mayor empleador privado de Erfurt y el alcalde de la ciudad, Andreas Horn, ha declarado que «lamenta profundamente» la decisión de la empresa.</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>ABC
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+El distribuidor demoda onlinealemán Zalando anunció este jueves que cerrará un centro de distribución en la ciudad oriental de Erfurt y despedirá a 2.700 empleados para reestructurar su red logística europea.
+El centro, que concentra casi una sexta parte de los empleados...de Zalando,cesará sus operaciones a finales de septiembre, según informó la empresa en un comunicado.
+«Hemos tomado la difícil pero necesaria decisión de cerrar nuestro centro logístico en Erfurt», declaró Zalando, utilizando un término que hace referencia a un centro donde se procesan, empaquetan y envían los pedidos online.
+Zalando afirmó que «iniciaría inmediatamente las negociaciones» con los sindicatos sobre las opciones para los empleados afectados. El sindicato de servicios Ver.di, que representa al personal de la empresa, no respondió de inmediato a una solicitud de comentarios de la AFP.
+La empresa también afirmó que «suspendería las operaciones» en tres almacenes fuera del país gestionados por socios corporativos.
+El año pasado, Zalandoadquirió su rival local About You por 1.100 millones de eurospara construir una plataforma paneuropea en medio de la creciente competencia de gigantes chinos en línea como Temu y Shein.
+«Tras la exitosa alianza entre Zalando y About You, nos estamos centrando en crear una plataforma integrada y escalable que respalde nuestra ambición de crecimiento», afirmó Zalando.
+«Esto permitirá un almacenamiento más flexible y un cumplimiento universal de los pedidos, lo que impulsará operaciones fluidas, reducirá las complejidades, aumentará la eficiencia y mejorará la velocidad».
+Zalando es el mayor empleador privado de Erfurt y el alcalde de la ciudad, Andreas Horn, ha declarado que «lamenta profundamente» la decisión de la empresa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C169" s="5" t="inlineStr">
+        <is>
+          <t>'La ciudad escondida', de Yu Hua: del sufrimiento y su literatura</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2026-01-08T16:36:51+01:00</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>La literatura china del siglo XX no se lee: se duele. Las estrecheces materiales e ideológicas —a las primeras por las segundas— han inspirado a los más prestigiosos autores, desde Mo Yan hasta Gao Xingjian. Todos han dedicado algún libro a la temática —como sucede con nuestra Guerra Civil—, y hay quien no ha salido de ahí —ídem—. Sin embargo, la corriente no se limita a las calamidades provocadas por el Partido Comunista, como las hambrunas del Gran Salto Adelante o la enajenación de la Revolución Cultural. El dolor chino, ay, es gran reserva, dada la convulsa historia contemporánea del país , que tiene a su pueblo por víctima. Un sufrimiento más contenido que lacrimógeno, más colectivo que personal y,... Ver Más</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Crítica
+Narrativa
+Jaime Santirso
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+Laliteratura china del siglo XXno se lee: se duele. Las estrecheces materiales e ideológicas —a las primeras por las segundas— han inspirado a los más prestigiosos autores, desdeMo Yanhasta Gao Xingjian. Todos han dedicado algún libro a la temática —...como sucede con nuestra Guerra Civil—, y hay quien no ha salido de ahí —ídem—.
+Sin embargo, la corriente no se limita a las calamidades provocadas por el Partido Comunista, como las hambrunas del Gran Salto Adelante o la enajenación de laRevolución Cultural.El dolor chino, ay, es gran reserva, dadala convulsa historia contemporánea del país, que tiene a su pueblo por víctima.
+NOVELA
+Un sufrimiento más contenido que lacrimógeno, más colectivo que personal y, por encima de todo, no tan destructivo como constitutivo. Un hecho natural, en definitiva, que adereza desde la poesía clásica hasta las obras fundacionales desu modernidad literaria, véase ‘La verdadera historia de Ah Q’ deLu Xun.
+Sigue explorando el género Yu Hua, como ya hiciera en múltiples títulos anteriores, con ‘La ciudad escondida’, su última novela traducida al español. Se posiciona esta bajo el colapso inminente no ya de un régimen político, sino de toda una cosmovisión: la China imperial de los Qing que en 1912 daría paso a la era republicana y sus violentas repercusiones para una sociedad desamparada, a merced de la historia.
+Facilita la aproximación el estilo del escritor, quien emplea esa peculiar evolución del realismo mágico latinoamericano, revuelto con una parte de tradición específica y otrade materialismo dialécticosegún la fórmula deYan Lianke, en una mezcolanza menos lírica pero más accesible, reducida en sus hallazgos y en sus excesos.
+La elección del título en español, variante del original ‘Wencheng’, puede que acerque el elixir a manos extranjeras,pero a costa de arrebatar el conjuroa una suerte de 'Rosebud' oriental.
+Emplea esa peculiar evolución del realismo mágico latinoamericano, revuelto con una parte de tradición específica
+El engaño nos hace vecinos de una ciudad inexistente —«Nadie sabe dónde está Wencheng»—. Hay quien, pese a todo, se empeña enla heroica tarea de buscar, de resistir.Esa es la mitad del libro.
+‘La ciudad escondida’ no es melodramática, pues los sentimientos están donde corresponde —en el arte—: implícitos. Aun así, conmueve hasta el desgarro final, y quizá poco más pueda pedirse. La tinta de Yu Hua trazauna moralidad de blanco y negro, y al hacerlo ensalza la trama central de gris en forma de mujer, tan damnificada como culpable. He ahí la otra mitad, abstracción de tanto dolor individual; las incontables historias de la historia que no se pierden en el colectivo sino que, por infinitesimales que resulten, lo conforman.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C170" s="5" t="inlineStr">
+        <is>
+          <t>Repensar la OTAN para salvarla</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2026-01-07T18:35:51+01:00</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>La OTAN vive una de sus crisis más profundas desde su fundación en 1949. A diferencia de su diseño original, contra el poder soviético, la amenaza hoy no viene del este, sino de dentro. Tras décadas de seguridad garantizada por Washington, Europa se enfrenta a la pregunta que nunca creyó tener que hacerse: ¿qué ocurre si la alianza que nos protege deja de ser confiable? La reciente ofensiva de Donald Trump sobre Groenlandia –un territorio autónomo del Reino de Dinamarca, miembro de la OTAN– plantea esa cuestión en términos dramáticos. Trump ha afirmado que «EE.UU. necesita Groenlandia por motivos de seguridad nacional» y ha dejado claro que la opción militar «siempre está sobre la mesa» para el control de la isla estratégica. Los líderes europeos, incluidos Francia, Reino Unido y Alemania, han rechazado de plano cualquier intento de anexión y han recordado que solo Dinamarca y Groenlandia pueden decidir sobre su futuro, reafirmando la soberanía territorial en el Ártico. La evaluación de seguridad danesa ha incluido por primera vez a EE.UU. entre las posibles amenazas a la integridad territorial de la isla. Tras su éxito militar en Venezuela y la captura de Nicolás Maduro, Trump ha proyectado su política exterior bajo el paradigma de 'America First'. Esto no es un eslogan: se ha convertido en doctrina estratégica de una Administración republicana dispuesta a sustituir la comunidad de valores por intereses de mercado, minerales estratégicos y control territorial. Europa, que todavía cree que EE.UU. volvería a las playas de Normandía si hiciera falta, debe asumir que ese contrato tácito ya no existe. La crisis de Groenlandia es un test de estrés impuesto al vínculo atlántico. Por vez primera desde 1949, los aliados debaten qué sucedería si uno de ellos decide invadir a otro o si el más fuerte impone sus intereses. La declaración de la primera ministra danesa, Mette Frederiksen, es clara: «Si un miembro de la OTAN ataca a otro, todo se acaba: la OTAN, el orden internacional, la legalidad». En este sentido, Europa enfrenta tres retos fundamentales. El primero es político: debemos comprender que las reglas de la relación con EE.UU. han cambiado. Ya no se puede asumir que la asistencia estadounidense es un bien garantizado si los intereses de Washington divergen de los nuestros. El segundo reto es estratégico: necesitamos construir una autonomía de defensa creíble que complemente a EE.UU. y no dependa de él. El tercero es doctrinal: Europa debe definir qué entiende por alianza en un mundo multipolar donde grandes potencias como China y Rusia observan atentamente cada quiebra occidental. Si Europa logra redefinir la OTAN sobre la base de la reciprocidad, el respeto mutuo y las obligaciones compartidas –no subordinación estratégica–, la alianza podría sobrevivir y adaptarse. Esto exigiría una mayor inversión conjunta en defensa, estructuras de mando más equilibradas y claras garantías de respeto a la soberanía de todos los miembros. Pero si el atlantismo muere, Europa deberá enfrentarse al mundo únicamente con sus capacidades , que no son pocas. Es cierto que la historia de la seguridad europea está marcada por la influencia de potencias externas. Hoy, sin embargo, el continente debe aprender que la protección no puede comprarse por defecto, ni puede depositarse en la buena voluntad de otros. El momento histórico exige reflexionar si la OTAN se salva, se rehace o simplemente se transforma en otra cosa. Europa no puede permitirse ignorar esta discusión.</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Editorial
+Editorial
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+La OTAN vive una de sus crisis más profundas desde su fundación en 1949. A diferencia de su diseño original, contra el poder soviético, la amenaza hoy no viene del este, sino de dentro. Tras décadas de seguridad garantizada por Washington, Europa se enfrenta a...la pregunta que nunca creyó tener que hacerse: ¿qué ocurre si la alianza que nos protege deja de ser confiable? La reciente ofensiva de Donald Trump sobre Groenlandia –un territorio autónomo del Reino de Dinamarca, miembro de la OTAN– plantea esa cuestión en términos dramáticos. Trump ha afirmado que «EE.UU. necesita Groenlandia por motivos de seguridad nacional» y ha dejado claro que la opción militar«siempre está sobre la mesa»para el control de la isla estratégica. Los líderes europeos, incluidos Francia, Reino Unido y Alemania, han rechazado de plano cualquier intento de anexión y han recordado que solo Dinamarca y Groenlandia pueden decidir sobre su futuro, reafirmando la soberanía territorial en el Ártico. La evaluación de seguridad danesa ha incluido por primera vez a EE.UU. entre las posibles amenazas a la integridad territorial de la isla.
+Tras su éxito militar en Venezuela y la captura de Nicolás Maduro, Trump ha proyectado su política exterior bajo el paradigma de 'America First'. Esto no es un eslogan: se ha convertido en doctrina estratégica de una Administración republicana dispuesta a sustituir la comunidad de valores por intereses de mercado, minerales estratégicos y control territorial. Europa, que todavía cree que EE.UU. volvería a las playas de Normandía si hiciera falta, debe asumir que ese contrato tácito ya no existe.
+La crisis de Groenlandia es un test de estrés impuesto al vínculo atlántico. Por vez primera desde 1949, los aliados debaten qué sucedería si uno de ellos decide invadir a otro o si el más fuerte impone sus intereses. La declaración de la primera ministra danesa, Mette Frederiksen, es clara: «Si un miembro de la OTAN ataca a otro, todo se acaba: la OTAN, el orden internacional, la legalidad».
+En este sentido, Europa enfrenta tres retos fundamentales. El primero es político: debemos comprender que las reglas de la relación con EE.UU. han cambiado. Ya no se puede asumir que la asistencia estadounidense es un bien garantizado si los intereses de Washington divergen de los nuestros. El segundo reto es estratégico: necesitamos construir una autonomía de defensa creíble que complemente a EE.UU. y no dependa de él. El tercero es doctrinal: Europa debe definir qué entiende por alianza en un mundo multipolar donde grandes potencias como China y Rusia observan atentamente cada quiebra occidental.
+Si Europa logra redefinir la OTAN sobre la base de la reciprocidad, el respeto mutuo y las obligaciones compartidas –no subordinación estratégica–, la alianza podría sobrevivir y adaptarse. Esto exigiría una mayor inversión conjunta en defensa, estructuras de mando más equilibradas y claras garantías de respeto a la soberanía de todos los miembros. Pero si el atlantismo muere, Europa deberáenfrentarse al mundo únicamente con sus capacidades, que no son pocas. Es cierto que la historia de la seguridad europea está marcada por la influencia de potencias externas. Hoy, sin embargo, el continente debe aprender que la protección no puede comprarse por defecto, ni puede depositarse en la buena voluntad de otros. El momento histórico exige reflexionar si la OTAN se salva, se rehace o simplemente se transforma en otra cosa. Europa no puede permitirse ignorar esta discusión.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C171" s="5" t="inlineStr">
+        <is>
+          <t>Traición, ambición y burocracia: la amarga verdad tras el mito de los samuráis</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2026-01-08T17:33:47+01:00</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Danny Chaplin no es un historiador al uso: este británico luce un traje entallado y una camisa abierta a la altura del pecho. Su porte es el de un 'broker' de banca; un hombre de negocios presto para seducir accionistas. Aunque él, sin embargo, prefiere deslumbrar lectores adentrándose en el Japón de los siglos XV, XVI y XVII. En su nuevo ensayo, 'Sengoku Jidai' (Ático de los libros) , este medievalista analiza un período que sentó las bases del Japón moderno y en el que los samuráis vivieron su última era dorada. Y es que, a partir de entonces, la popularización del ejército les alejó de los campos de batalla y les convirtió en administradores centrados en la burocracia local. Así, hasta su desaparición definitiva, ya como élite caduca, en el siglo XIX.–¿Quiénes eran en realidad los samuráis?Los samuráis eran la élite guerrera del Japón premoderno. Comenzaron como luchadores provinciales a sueldo y evolucionaron hasta convertirse en la columna vertebral política, militar y cultural del estado japonés. En mi libro, muestro cómo surgieron de las milicias ' bushi ' del período Heian (siglos VIII al XII) y se convirtieron en el estrato gobernante de los shogunatos de Kamakura, Muromachi y Tokugawa. Los samuráis llegaron a encarnar una ética distintiva de lealtad, autodisciplina y habilidad marcial, pero para la era Sengoku (siglos XV al XVII) ya no eran solo guerreros, sino también administradores, burócratas de ciudades-castillo y guardianes de la ley y el orden. Para el período Edo Tokugawa (siglos XVII al XIX) eran la élite moral de un Japón pacífico, ligados tanto por el código y el deber como por la espada.Noticia Relacionada estandar Si 'Shogun', arcabuces y samuráis en un 'Juego de tronos' a la japonesa Lucía Cabanelas–¿Eran tan nobles y leales como se nos ha contado?Los samuráis combinaban ferocidad y refinamiento, violencia y poesía, esgrima y estatismo. Dejaron tras de sí una leyenda de lealtad absoluta, pero su verdadera historia es mucho más compleja. Impregnada de ambición, traición y maniobras políticas, esta tensión entre ideal y realidad los hace muy cautivadores. Vivían según ideales que no lograban mantener, y es precisamente esa brecha tan humana entre código y conducta lo que provoca fascinación.–¿Por qué nos fascinan tanto en la actualidad?Porque encarnan un anhelo universal tan relevante hoy como lo fue hace quinientos años: el deseo de encontrarle sentido al deber. Ofrecen honor en las dificultades e identidad moral en un mundo caótico. La modernidad valora la expresión individual, pero nos sentimos atraídos por figuras que representan algo más grande: disciplina, coraje, sacrificio, maestría... Los samuráis , tanto en la historia como en la imaginación, representan una forma idealizada de esos valores. Nos recuerdan un mundo donde la identidad y la posición social eran sacrosantas. Para los samuráis, la vida misma dependía de un momento de claridad y determinación.«Los samuráis dejaron una leyenda de lealtad absoluta, pero su verdadera historia está impregnada de ambición, traición y maniobras políticas. Esta tensión entre ideal y realidad los hace muy cautivadores» Danny Chaplin–¿Cómo se entrenaban?, ¿en qué ámbitos se formaban?Se buscaba que fuesen mucho más que asesinos. Se les formaba en las élites gobernantes y se les educaba en la habilidad militar y en el refinamiento cultural. Su entrenamiento comenzaba en la infancia, en la casa de su señor o de un vasallo de alto rango. Allí, los niños aprendían tiro con arco a caballo, esgrima y autodisciplina. El entrenamiento físico no se limitaba al combate, se trataba de aprender a obedecer, a soportar las dificultades y a controlar el miedo. Pero su educación siempre fue dual: marcial por un lado, literaria por el otro. Se esperaba que leyeran textos clásicos chinos, estudiaran la ética confuciana, compusieran poesía y dominaran la caligrafía, habilidades esenciales para gobernar en una época donde la administración se basaba en órdenes escritas, registros y diplomacia.Danny Chaplin Ático de los Libros–Afirma que daban mucha importancia a la literatura y a la caligrafía...Sí. Su pincelada se consideraba una extensión del carácter: los trazos firmes reflejaban firmeza interior, mientras que la caligrafía descuidada era un defecto moral y estético. Incluso señores de la guerra curtidos como Takeda Shingen y Uesugi Kenshin escribían cartas elegantes. Y, para la época Edo, los samuráis enseñaban en escuelas y atendían oficinas burocráticas. Esta fusión de espada y pincel creó un ideal distintivo: el guerrero culto, tan cómodo en el dojo como en el escritorio. Su figura contribuyó a domar a una clase violenta para convertirla en una capaz de gobernar una sociedad en paz durante dos siglos y medio.Segoku Jidai Editorial Ático de los libros Páginas 792 Precio 34,95 Tapa Dura con sobrecubierta–¿Cuándo y por qué decayó el samurái?El samurái, como clase social, persistió hasta finales del siglo XIX, cuando Japón se abrió al resto del mundo y comenzó la modernización. Pero la 'clase samurái', por así decirlo, estuvo en una suerte de declive espiritual durante un siglo. Tenemos numerosas historias de administradores samuráis que empeñaron sus preciadas katanas heredadas de sus ancestros porque no podían llegar a fin de mes con sus salarios de burócrata. El acto que quizás asestó el golpe de gracia a los samuráis fue la apertura del ejército japonés al reclutamiento masivo, incluyendo a las clases artesanas y campesinas. Esto, más que cualquier otra cosa, anuló por completo el monopolio samurái del combate. Por un lado, Oda Nobunaga hizo que el campo de batalla pasara a estar dominado por lanceros humildes. Por otro, las reformas Meiji proporcionaron a los campesinos modernos fusiles de retrocarga, ametralladoras Gatling y artillería. ¡Todas las armas eficaces y letales de la guerra moderna! El énfasis samurái en las artes militares no pudo sobrevivir a eso.</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Manuel P. Villatoro
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+Danny Chaplin no es un historiador al uso: este británico luce un traje entallado y una camisa abierta a la altura del pecho. Su porte es el de un 'broker' de banca; un hombre de negocios presto para seducir accionistas. Aunque él, sin embargo, prefiere...deslumbrar lectores adentrándose en el Japón de los siglos XV, XVI y XVII. En su nuevo ensayo,'Sengoku Jidai' (Ático de los libros), este medievalista analiza un período que sentó las bases del Japón moderno y en el que lossamuráisvivieron su última era dorada. Y es que, a partir de entonces, la popularización del ejército les alejó de los campos de batalla y les convirtió en administradores centrados en la burocracia local. Así, hasta su desaparición definitiva, ya como élite caduca, en el siglo XIX.
+–¿Quiénes eran en realidad los samuráis?
+Los samuráis eran la élite guerrera del Japón premoderno. Comenzaron como luchadores provinciales a sueldo y evolucionaron hasta convertirse en la columna vertebral política, militar y cultural del estado japonés. En mi libro, muestro cómo surgieron de las milicias 'bushi' del período Heian (siglos VIII al XII) y se convirtieron en el estrato gobernante de los shogunatos de Kamakura, Muromachi y Tokugawa. Los samuráis llegaron a encarnar una ética distintiva de lealtad, autodisciplina y habilidad marcial, pero para la era Sengoku (siglos XV al XVII) ya no eran solo guerreros, sino también administradores, burócratas de ciudades-castillo y guardianes de la ley y el orden. Para el período Edo Tokugawa (siglos XVII al XIX) eran la élite moral de un Japón pacífico, ligados tanto por el código y el deber como por la espada.
+–¿Eran tan nobles y leales como se nos ha contado?
+Los samuráis combinaban ferocidad y refinamiento, violencia y poesía, esgrima y estatismo. Dejaron tras de sí una leyenda de lealtad absoluta, pero su verdadera historia es mucho más compleja. Impregnada de ambición, traición y maniobras políticas, esta tensión entre ideal y realidad los hace muy cautivadores. Vivían según ideales que no lograban mantener, y es precisamente esa brecha tan humana entre código y conducta lo que provoca fascinación.
+–¿Por qué nos fascinan tanto en la actualidad?
+Porque encarnan un anhelo universal tan relevante hoy como lo fue hace quinientos años: el deseo de encontrarle sentido al deber. Ofrecen honor en las dificultades e identidad moral en un mundo caótico. La modernidad valora la expresión individual, pero nos sentimos atraídos por figuras que representan algo más grande: disciplina, coraje, sacrificio, maestría... Lossamuráis, tanto en la historia como en la imaginación, representan una forma idealizada de esos valores. Nos recuerdan un mundo donde la identidad y la posición social eran sacrosantas. Para los samuráis, la vida misma dependía de un momento de claridad y determinación.
+«Los samuráis dejaron una leyenda de lealtad absoluta, pero su verdadera historia está impregnada de ambición, traición y maniobras políticas. Esta tensión entre ideal y realidad los hace muy cautivadores»
+Danny Chaplin
+–¿Cómo se entrenaban?, ¿en qué ámbitos se formaban?
+Se buscaba que fuesen mucho más que asesinos. Se les formaba en las élites gobernantes y se les educaba en la habilidad militar y en el refinamiento cultural. Su entrenamiento comenzaba en la infancia, en la casa de su señor o de un vasallo de alto rango. Allí, los niños aprendían tiro con arco a caballo, esgrima y autodisciplina. El entrenamiento físico no se limitaba al combate, se trataba de aprender a obedecer, a soportar las dificultades y a controlar el miedo. Pero su educación siempre fue dual: marcial por un lado, literaria por el otro. Se esperaba que leyeran textos clásicos chinos, estudiaran la ética confuciana, compusieran poesía y dominaran la caligrafía, habilidades esenciales para gobernar en una época donde la administración se basaba en órdenes escritas, registros y diplomacia.
+–Afirma que daban mucha importancia a la literatura y a la caligrafía...
+Sí. Su pincelada se consideraba una extensión del carácter: los trazos firmes reflejaban firmeza interior, mientras que la caligrafía descuidada era un defecto moral y estético. Incluso señores de la guerra curtidos como Takeda Shingen y Uesugi Kenshin escribían cartas elegantes. Y, para la época Edo, los samuráis enseñaban en escuelas y atendían oficinas burocráticas. Esta fusión de espada y pincel creó un ideal distintivo: el guerrero culto, tan cómodo en el dojo como en el escritorio. Su figura contribuyó a domar a una clase violenta para convertirla en una capaz de gobernar una sociedad en paz durante dos siglos y medio.
+–¿Cuándo y por qué decayó el samurái?
+El samurái, como clase social, persistió hasta finales del siglo XIX, cuandoJapónse abrió al resto del mundo y comenzó la modernización. Pero la 'clase samurái', por así decirlo, estuvo en una suerte de declive espiritual durante un siglo. Tenemos numerosas historias de administradores samuráis que empeñaron sus preciadas katanas heredadas de sus ancestros porque no podían llegar a fin de mes con sus salarios de burócrata. El acto que quizás asestó el golpe de gracia a los samuráis fue la apertura del ejército japonés al reclutamiento masivo, incluyendo a las clases artesanas y campesinas. Esto, más que cualquier otra cosa, anuló por completo el monopolio samurái del combate. Por un lado, Oda Nobunaga hizo que el campo de batalla pasara a estar dominado por lanceros humildes. Por otro, las reformas Meiji proporcionaron a los campesinos modernos fusiles de retrocarga, ametralladoras Gatling y artillería. ¡Todas las armas eficaces y letales de la guerra moderna! El énfasis samurái en las artes militares no pudo sobrevivir a eso.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C172" s="5" t="inlineStr">
+        <is>
+          <t>La caída del monumento a China en Panamá</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2026-01-08T05:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>La obra destruida se ubicada a la entrada del Canal de Panamá por el Pacifico y representaba 170 años de historia y contribución de la comunidad de ese país iniciada con la construcción del ferrocarril interoceánico</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Carmen Carrasco
+Ciudad de Panamá (Panamá)
+* La autora forma parte de la comunidad de lectores de La Vanguardia
+Historiadores y especialistas sostienen que la destrucción de un monumento no “borra el pasado”. Al contrario, estas acciones impulsan a los ciudadanos a escrutar en el legado de quién o quiénes honraba el memorial, lo que permite que la historia se vuelva a contar, con mayor profundidad, y se reinterprete.
+Un ejemplo de esta furia iconoclasta es la orden de la alcaldesa de Arraiján, Stefany Peñalba,  de destruir el monumentoPresencia China en Panamá, en la noche del 27 de diciembre de 2025.
+Esta estructura se ubicada a la entrada del Canal de Panamá por el Pacifico, representaba 170 años de historia y contribución de la comunidad de ese país que se inicia con la construcción del ferrocarril interoceánico.
+La acción corrió como pólvora en las redes sociales, las cuales se inundaron de indignación ciudadana. El presidente José Raúl Mulino, en su cuenta de Instagram calificó el acto de ”barbaridad” y un “de irracionalidad imperdonable”.
+Turistas chinos visitan el monumento Mirador de las Américas, en conmemoración de los 150 años de presencia china en Panamá desde la primera migración para la construcción del ferrocarril, cerca del Canal de Panamá, en Arraiján, en las afueras de la Ciudad de Panamá, Panamá, el 16 de febrero de 2025.
+Esta condena se dio a pesar de la justificación de la edil, quien afirmó en un comunicado que la demolición fue medida de “seguridad y prevención” necesaria para proteger la vida humana, descartando cualquier motivación política o cultural. No le creyeron.
+Una placa del monumento Mirador de las Américas, que conmemora los 150 años de presencia china en Panamá desde la primera migración para la construcción del ferrocarril.
+Por su parte, el 29 de diciembre de 2025, Lin Jian, portavoz del Ministerio de Relaciones Exteriores de China, manifestó en conferencia de prensa la indignación oficial de su país, declarándose “seriamente insatisfecho” con la demolición forzada del monumento.
+El funcionario señaló que este acto “daña profundamente los sentimientos de la comunidad china en Panamá y va en contra de la amistad entre ambos países”, por lo cual instó a las autoridades panameñas a realizar una investigación exhaustiva y a “corregir rápidamente los actos erróneos” de Peñalba.
+Con este pronunciamiento de la potencia asiática, la noticia ha trascendido el ámbito nacional para convertirse en una nota internacional.
+Un hombre toca los restos del monumento en honor a las contribuciones chinas al Canal de Panamá.
+La alcaldesa es abogada de profesión y ganó la Alcaldía de Arraiján como candidata independiente y con el apoyo del Partido Popular. Obtuvo la victoria y se convirtió en la primera mujer en ser elegida vía independiente para ocupar esa posición.
+Pero, el apoyo que recibió en las elecciones del 5 de mayo de 2024 se ha visto enfrentado el proceso de revocatoria de mandato pedido por los arraijaneños y se tramita en la actualidad en el Tribunal Electoral de Panamá. Y, ahora se suma la poderosa comunidad china y su descendencia que habita en el país. No la tiene fácil.
+Un hombre camina entre los restos del monumento en honor a las contribuciones chinas al Canal de Panamá.
+Aún peor. Un medio local destacó que a Stefany Peñalba no le perdonaron ni siquiera las faltas ortográficas en un mensaje que colgó en sus redes sociales. En dicha publicación, realizada en medio del escándalo por el monumento a la presencia china, la edil escribió “desición” en lugar de “decisión”. ¡Válgame Dios, un error imperdonable!
+En conclusión, la desacertada orden de Peñalba ha colocado a Panamá en una posición desfavorable, provocando un conflicto diplomático innecesario con el gobierno de Xi Jinping.
+Una vista aérea muestra el Mirador de las Américas cerca del Canal de Panamá, donde se encontraba un monumento en honor a las contribuciones chinas al Canal de Panamá, luego de que las autoridades locales lo demolieran por motivos de seguridad y por el vencimiento de una concesión de tierras, en Arraiján, Panamá.
+Mientras tanto, reconocidos analistas y políticos aseguran que este escenario representa una oportunidad sin precedentes para la comunidad china; ante la evidente falta de liderazgo local, este grupo podría impulsar la conformación de una nueva fuerza política con miras a las próximas elecciones del 7 de mayo de 2029, con la posibilidad de postular a la presidencia de la República a uno de los suyos, su descendencia.
+Por otro lado, la carrera política de Peñalba parece estar liquidada. Su futuro, en el que ella se proyectaba como una posible candidata a la vicepresidencia, se ha descarrilado.
+Los futuros aspirantes presidenciales evitarán incluirla en sus fórmulas para no enfrentar la poderosa influencia de la comunidad china, cuyas raíces en Panamá son profundas y se ramifican directamente hasta Pekín.
+Al final, para la carrera de Peñalba, se aplicó la máxima paracaidista militar: “Buen salto”.  Su decisión de demoler el monumento la ha dejado en una caída libre política de la que difícilmente podrá aterrizar favorablemente.
+Restos del monumento demolido.
+Los interesados en participar en Lectores Corresponsales pueden escribir un email a la dirección de correo de nuestra sección de Participación (participacion@lavanguardia.es) adjuntando sus datos biográficos y el texto que proponen para su publicación.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C173" s="5" t="inlineStr">
+        <is>
+          <t>China protesta por el “matonismo” de EE.UU. y pide que sus intereses sean respetados</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2026-01-07T18:10:52+01:00</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Caracas devuelve en forma de petróleo los préstamos de China, que deplora cualquier plan de incautación</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Jordi Joan Baños
+Bangkok. Corresponsal
+Donald Trump ha pasado a la acción y China calibra su respuesta. Barrerla del continente americano es el objetivo más explícito de la nueva Estrategia de Seguridad Nacional de Washington, publicada hace un mes. No es que el presidente estadounidense disimulara sus objetivos -léase en Honduras, Argentina o el canal de Panamá- pero el golpe de mano en Venezuela ha superado todas las expectativas, aun después de varios meses de bloqueo naval.
+El mundo entero se ha visto sacudido por el secuestro de un jefe de estado y de gobierno -cuestionado, pero en ejercicio- en flagrante violación de todas las convenciones. Apenas unas horas antes, Nicolás Maduro recibía a un enviado especial de Pekín, encomendando sus mejores deseos para su homólogo Xi Jinping, al que tildaba de “hermano mayor”.
+El gobierno chino también está conmocionado por este “matonismo” desacomplejado en las relaciones internacionales. Aunque seguramente menos que Groenlandia, Cuba y otros territorios en la Carta de Reyes de Donald Trump y Marco Rubio. Al bombardeo efectivo de territorio venezolano  -y mucho antes de lanchas “sospechosas” de narcotráfico- el presidente estadounidense ha añadido nuevas amenazas a terceros países, en su corolario al Plan Monroe.
+“China cuenta con intereses legítimos y tiene derecho a defenderlos”, ha advertido la portavoz del Ministerio de Exteriores chino, Mao Ning. Esta ha añadido que “Venezuela es un país soberano y goza de plena y permanente soberanía sobre sus recursos naturales y sobre todas las actividades económicas en su territorio”. Mientras que su jefe, el ministro Wang Yi, ha aseverado que “la China no acepta a EE.UU. como policía del mundo, ni como juez del mundo”.
+En cualquier caso, ni China ni sus empresas se han pillados los dedos, porque llevaban una década preparándose para cualquier eventualidad. Es cierto que, entre 2005 y 2015, la mitad de los préstamos chinos a América Latina fueron para Venezuela. Unos 60.000 millones de dólares. Pero ahí se frenaron, ante la caída en picado de la economía venezolana, por la combinación de sanciones e incompetencia. Desde entonces, el objetivo de la banca pública china es recuperar en especie -en barriles de petróleo- lo que Caracas todavía les adeuda después de varias reestructuraciones. Probablemente más de 10.000 millones.
+Reunión del lunes del Consejo de Seguridad de la ONU sobre el secuestro del presidente de Venezuela, Nicolás Maduro, cautivo en la misma ciudad de Nueva York. China ha pedido su liberación inmediata.
+La Venezuela de Nicolás Maduro y Delcy Rodríguez ha sido hasta ahora una aliada incómoda, pero aliada al fin y al cabo, de China. Solo esta podría atreverse a absorber más de dos tercios de su crudo, haciendo caso omiso de las sanciones estadounidenses. Otro tanto sucede con el petróleo de Irán, todavía más importante para la seguridad energética china.
+Pekín, que ya le abrió las puertas del grupo de los BRICS a Teherán, querría hacer los mismo con Caracas. En cambio, las Nuevas Rutas de la Seda apenas han rozado al país de Bolívar. Xi Jinping nunca se hizo muchas ilusiones sobre las habilidades de Maduro y, bajo su mandato, las inversiones chinas han quedado reducidas a las envejecidas instalaciones de extracción de petróleo. Como resultado, se ha doblado la producción respecto a los mínimos de 2020, hasta 1,1 millones de barriles diarios. Aun así, lejos de sus máximos históricos, por encima de los 3 millones.
+China es el primer mercado para las exportaciones de Brasil, Chile, Perú o Uruguay y el segundo socio comercial de prácticamente todos sus vecinos. Sin embargo, sus inversiones están muy por detrás de las de EE.UU. o España, quedando fuera del pelotón de los diez primeros inversores en América Latina. Una regla de prudencia con pocas excepciones, como su apuesta por la automoción en México.
+En cambio, su inmenso mercado ha sido agua de mayo para la ternera argentina, la soja brasileña o el cobre chileno. De modo que los intercambios comerciales entre América Latina y China superaron la barrera de los 500.000 millones de dólares por primera vez en 2024. No hay vuelta atrás.
+En cambio, un proyecto comoel puerto de aguas profundas de Chancay, inaugurado hace poco más de un año por constructoras chinas en Perú, estaría hoy bajo la lupa de Washington. Eso no significa que EE.UU. tenga un plan alternativo para vertebrar América Latina. Pero ya ha dejado claro que tampoco permitirá que lo hagan países “hostiles” y “ajenos al hemisferio”.
+Washington se arroga el nihil obstat. Puertos, canales y ferrocarriles pasan a ser palabras sensibles en un continente en el que nada menos que 24 estados con hambre de infraestructuras se asociaron a las Nuevas Rutas de la Seda. Donde Panamá se vio forzado a retirarse; donde la Argentina en quiebra de Milei tuvo que dar marcha atrás a la colaboración espacial con China para ser rescatada en dólares; donde el nuevo gobierno de Bolivia renegocia los contratos del litio con empresas chinas y donde el candidato de Trump a la presidencia deHonduras volverá a reconocer a Taiwánen detrimento de la República Popular de China.
+Asimismo, Pekín acababa de actualizar, tras nueve años, su “Documento sobre la política de China hacia América Latina y el Caribe”. Mientras se dilucida lo que ha pasado en Caracas -y lo que pueda pasar- parece ya papel mojado.
+Dos cifras finales para la reflexión. Solo el 2% de las inversiones en América Latina proceden de China. Y solo el 4% de las importaciones chinas de petróleo proceden de Venezuela. China lleva años diversificando proveedores y también mercados, como Donald Trump descubrió el año pasado, cuando Xi Jinping le aguantó el pulso arancelario.
+Hay 400.000 venezolanos de origen chino, que nada tienen que ver con el Partido Comunista de China. El primer inmigrante llegó de Enping, en Cantón, hace 160 años y hoy en día el 70% procede del mismo municipio. Aunque la mitad de ellos hizo las maletas de vuelta en lo más duro de la crisis de hiperinflación, hace menos de una década, en los últimos dos años varios se habían aventurado a regresar. Ahora intentan leer los posos del té.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C174" s="5" t="inlineStr">
+        <is>
+          <t>Cambio de estrategia: la razón por la que Ikea ha empezado a cerrar tiendas en China</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2026-01-08T17:28:32+01:00</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>China sigue siendo un mercado clave para Ikea y la empresa no abandona el país: lo reconfigura. El plan incluye cierres selectivos, formatos urbanos y un refuerzo del comercio online</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>China sigue siendo un mercado clave para Ikea y la empresa no abandona el país: lo reconfigura. El plan incluye cierres selectivos, formatos urbanos y un refuerzo del comercio online</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C175" s="5" t="inlineStr">
+        <is>
+          <t>China desarrolla un software capaz de encontrar fallos en cazas furtivos: ¿una revolución en el diseño aeroespacial?</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2026-01-08T10:09:17+01:00</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>El nuevo programa informático analizó cerca de 300 parámetros del B-21 Raider para descubrir los problemas en el diseño. También se aplicó a otras aeronaves militares.</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>El nuevo programa informático analizó cerca de 300 parámetros del B-21 Raider para descubrir los problemas en el diseño. También se aplicó a otras aeronaves militares.</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C176" s="5" t="inlineStr">
+        <is>
+          <t>新型工业化持续走深走实</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2026-01-07T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>在广西柳州汽车城，上汽通用五菱“岛式”精益智造工厂忙碌的自动化生产线。 郑昌昊摄（新华社发） 现代化工业是现代化产业体系最重要的基础和核心。“十五五”规划建议提出，建设现代化产业体系，巩固壮大实体经济根基。目前，全国各地正加速技术创新、推动产业集聚发展和数智化转型，持续完善创新体系和产业生态，加强上下游协同配套，推动新型工业化走深走实。 工业和信息化部相关负责人表示，“十四五”以来，工信部深入推进新型工业化，加快建设制造强国，统筹推进传统产业改造升级、新兴产业培育壮大、未来产业前瞻布局，产业整体实力、质量效益以及创新力、竞争力、抗风险能力显著增强，建设以先进制造业为骨干的现代化产业体系取得明显成效。 创新成果持续涌现 在上海，集成电路迈向全产业链突围，生物医药取得创新突破，未来制造、未来材料等六大领域实现前瞻布局；在重庆，“AI+制造”加快建设，智能网联汽车实现飞跃，低空经济创新发展；在广东，基础电信企业、互联网企业、通信终端和装备企业上下游联动不断加快，形成良性生态……各地着力构建以先进制造业为骨干的现代化产业体系，新型工业化迈出坚实步伐。 当前，我国产业科技创新能力稳步提升，重点领域创新成果不断涌现，取得一批标志性成果。从舞台装备、摄影镜头到高铁列车、先进制造装备，一批批关键产品持续刷新国产化水平，构成我国制造业向高端化、智能化跃升的生动注脚。 走进山河星航实业股份有限公司现代化厂房，只见各式各样的载人轻型飞机、无人机整齐排列，附近的机场不时传来飞机试航的呼啸声。 这里诞生了我国首款取得民航适航认证、设计制造全自主的碳纤维复合材料轻型运动飞机——“阿若拉”，该机型具备高高原起降能力、自动驾驶能力，成为我国通用航空领域的明星机型。 “2025年上半年，‘阿若拉’轻型运动飞机销售订单突破100架，9月份更是刷新了单月发货纪录，累计销量即将突破400架，累计飞行时长超过20万个小时。”山河星航实业股份有限公司董事、运营总监黄鑫告诉记者。 新一轮科技革命和产业变革加速演进，对科技创新能力与产业转型升级提出了更高要求。越来越多的企业围绕关键材料、核心零部件、智能装备、工业软件等领域持续攻坚，推动更多原创性、引领性成果从实验室走向生产线。 工信部相关负责人介绍，随着企业主体数量大幅增加、龙头企业加快壮大、专精特新企业加速涌现，我国企业的综合竞争力明显增强。“十四五”期间，专精特新中小企业从不足4万家增至14万家以上，“小巨人”企业从5000余家突破至1.76万家。 产业集群聚力成势 产业集群是推动制造业企业高质量发展和制造业转型升级的关键抓手。各地正推进产业集群化发展，围绕细分赛道打造特色园区和产业链生态，不断提升资源配置效率和创新协同能力。 专家表示，发展特色产业集群，有助于提升中小企业专业化、特色化、集群化发展水平，增强产业链供应链韧性和关键环节配套能力，推动制造业高质量发展。 坐落于湖南湘潭的湖南省医疗器械产业园，正成为推动医疗器械产业集群化发展的一个生动样本。仅仅用了4年时间，这里的医疗器械产业从零起步，实现爆发式增长。 步入园区，导览地图上可见各类医疗器械生产企业，以及灭菌中心、产业学院、集中经营平台等配套服务机构。立足当地内窥镜、超声刀、吻合器等细分产业企业集聚优势，园区吸引了医用模具、注塑、吸塑、硅胶、灭菌等上下游企业在此建设产线。 “园区通过部门联动、信息共享、容缺受理、‘极简+智能’审批，项目审批环节缩减40%，用时提速72%，力求建立精准、专业、特色的产业服务体系。”湖南省医疗器械产业园党支部书记朱达说。 产业园区在推进新型工业化、发展新质生产力中扮演了关键角色，但业内人士表示，不少园区还存在主导产业模糊、同质化竞争、土地集约利用不足、数字化转型滞后以及绿色低碳设施缺位等问题，与新时代高质量、高效率、可持续的新型工业化要求存在差距。 国家发展改革委宏观经济研究院研究员张林山认为，解决产业园区“多而不精”难题，需聚焦特色化、集约化发展核心，立足区域资源禀赋与产业基础，避免同质化竞争，通过链式招商、产学研协同等方式推动产业链上下游集聚，依托“链长制”强化协同创新。同时，搭建高水平创新载体，强化人才引育与数智化基础设施建设，以绿色化改造与规范化管理为支撑，推动园区从规模扩张向质量效益转型，为制造业高质量发展筑牢载体支撑。 数智转型不断加快 当前，钢铁、机械等传统产业正加快数智化转型，深化人工智能赋能应用，释放传统行业新动能。 以化工行业为例，为破解传统化工领域设备维护、巡检等环节的难题，山东海化集团有限公司确立以AI小切口场景撬动行业智能化转型的战略路径，携手浪潮数字企业，基于浪潮海岳大模型构建盐化工智控大模型，重点破解制约化工生产的核心难题。 依托设备预测性维护、工艺优化、智能巡检三大智能体，山东海化实现关键设备状态的实时评估与早期风险识别，从源头防范隐患升级，故障识别准确率超过95%，巡检效率提升50%，风险分析与隐患排查完成率提升20%，有效推动了化工安全从“人工值守”向“人机协同”升级。 通过引入智能装备、工业互联网和绿色工艺，传统产业实现生产流程优化、成本结构重塑和效能提升，加速向高端化、绿色化、智能化方向迈进，为产业升级拓展新的增长空间。 但也要看到，企业在落地转型时仍会遇到动力不足的问题。 “企业对数智化转型重要性和必要性的认识，是转型的开始。”株洲千金药业股份有限公司董事长蹇顺认为，传统企业数智化转型，首先要解决认知问题，从观念上接受转型，主动拥抱新趋势。 作为一家创建于1966年的老牌综合性医药企业，千金药业是如何适应数字时代发展趋势，实现数智化转型的？ “我们主动去数智化转型的同行企业学习，每月组织集中培训。”蹇顺告诉记者，通过数智化转型，千金药业实现提质降本增效，仅用了两年时间，月排产时间由3天以上缩减到30分钟内，产量增长33%，工业营收与盈利能力持续保持增长。 张林山认为，破解传统企业数智化转型难题，需精准施策破解核心痛点。应通过政策激励降低转型成本，搭建供需对接平台，展示转型成功案例，让企业直观看到效率提升、成本下降的实际效益，同时建立转型成效评估机制，强化正向引导。此外，还可通过政府购买服务、第三方机构赋能等方式，为企业提供全流程指导，让转型过程更可控、风险更可控，激发企业转型内生动力。 据了解，工信部实施制造业数字化转型行动，“点线面”协同推进数字化改造，推动规上工业企业数字化转型“建档立卡”，建设首批62个制造业数字化转型促进中心，推动制造业数字化转型从“标杆引领”向“规模推广”转变；实施智能制造工程，建成230余家卓越级智能工厂；推进“人工智能+制造”行动，新一代智能终端、智能体加速应用推广；推动工业互联网规模化应用，工业互联网应用已融入49个国民经济大类，实现41个工业大类全覆盖。 工信部相关负责人表示，下一步，将继续加快构建以先进制造业为骨干的现代化产业体系，深入推进工业技术改造和设备更新，坚持高水平开放，推动产业升级向新布局、稳健发展。 【责任编辑：于涵】</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>在广西柳州汽车城，上汽通用五菱“岛式”精益智造工厂忙碌的自动化生产线。 郑昌昊摄（新华社发） 现代化工业是现代化产业体系最重要的基础和核心。“十五五”规划建议提出，建设现代化产业体系，巩固壮大实体经济根基。目前，全国各地正加速技术创新、推动产业集聚发展和数智化转型，持续完善创新体系和产业生态，加强上下游协同配套，推动新型工业化走深走实。 工业和信息化部相关负责人表示，“十四五”以来，工信部深入推进新型工业化，加快建设制造强国，统筹推进传统产业改造升级、新兴产业培育壮大、未来产业前瞻布局，产业整体实力、质量效益以及创新力、竞争力、抗风险能力显著增强，建设以先进制造业为骨干的现代化产业体系取得明显成效。 创新成果持续涌现 在上海，集成电路迈向全产业链突围，生物医药取得创新突破，未来制造、未来材料等六大领域实现前瞻布局；在重庆，“AI+制造”加快建设，智能网联汽车实现飞跃，低空经济创新发展；在广东，基础电信企业、互联网企业、通信终端和装备企业上下游联动不断加快，形成良性生态……各地着力构建以先进制造业为骨干的现代化产业体系，新型工业化迈出坚实步伐。 当前，我国产业科技创新能力稳步提升，重点领域创新成果不断涌现，取得一批标志性成果。从舞台装备、摄影镜头到高铁列车、先进制造装备，一批批关键产品持续刷新国产化水平，构成我国制造业向高端化、智能化跃升的生动注脚。 走进山河星航实业股份有限公司现代化厂房，只见各式各样的载人轻型飞机、无人机整齐排列，附近的机场不时传来飞机试航的呼啸声。 这里诞生了我国首款取得民航适航认证、设计制造全自主的碳纤维复合材料轻型运动飞机——“阿若拉”，该机型具备高高原起降能力、自动驾驶能力，成为我国通用航空领域的明星机型。 “2025年上半年，‘阿若拉’轻型运动飞机销售订单突破100架，9月份更是刷新了单月发货纪录，累计销量即将突破400架，累计飞行时长超过20万个小时。”山河星航实业股份有限公司董事、运营总监黄鑫告诉记者。 新一轮科技革命和产业变革加速演进，对科技创新能力与产业转型升级提出了更高要求。越来越多的企业围绕关键材料、核心零部件、智能装备、工业软件等领域持续攻坚，推动更多原创性、引领性成果从实验室走向生产线。 工信部相关负责人介绍，随着企业主体数量大幅增加、龙头企业加快壮大、专精特新企业加速涌现，我国企业的综合竞争力明显增强。“十四五”期间，专精特新中小企业从不足4万家增至14万家以上，“小巨人”企业从5000余家突破至1.76万家。 产业集群聚力成势 产业集群是推动制造业企业高质量发展和制造业转型升级的关键抓手。各地正推进产业集群化发展，围绕细分赛道打造特色园区和产业链生态，不断提升资源配置效率和创新协同能力。 专家表示，发展特色产业集群，有助于提升中小企业专业化、特色化、集群化发展水平，增强产业链供应链韧性和关键环节配套能力，推动制造业高质量发展。 坐落于湖南湘潭的湖南省医疗器械产业园，正成为推动医疗器械产业集群化发展的一个生动样本。仅仅用了4年时间，这里的医疗器械产业从零起步，实现爆发式增长。 步入园区，导览地图上可见各类医疗器械生产企业，以及灭菌中心、产业学院、集中经营平台等配套服务机构。立足当地内窥镜、超声刀、吻合器等细分产业企业集聚优势，园区吸引了医用模具、注塑、吸塑、硅胶、灭菌等上下游企业在此建设产线。 “园区通过部门联动、信息共享、容缺受理、‘极简+智能’审批，项目审批环节缩减40%，用时提速72%，力求建立精准、专业、特色的产业服务体系。”湖南省医疗器械产业园党支部书记朱达说。 产业园区在推进新型工业化、发展新质生产力中扮演了关键角色，但业内人士表示，不少园区还存在主导产业模糊、同质化竞争、土地集约利用不足、数字化转型滞后以及绿色低碳设施缺位等问题，与新时代高质量、高效率、可持续的新型工业化要求存在差距。 国家发展改革委宏观经济研究院研究员张林山认为，解决产业园区“多而不精”难题，需聚焦特色化、集约化发展核心，立足区域资源禀赋与产业基础，避免同质化竞争，通过链式招商、产学研协同等方式推动产业链上下游集聚，依托“链长制”强化协同创新。同时，搭建高水平创新载体，强化人才引育与数智化基础设施建设，以绿色化改造与规范化管理为支撑，推动园区从规模扩张向质量效益转型，为制造业高质量发展筑牢载体支撑。 数智转型不断加快 当前，钢铁、机械等传统产业正加快数智化转型，深化人工智能赋能应用，释放传统行业新动能。 以化工行业为例，为破解传统化工领域设备维护、巡检等环节的难题，山东海化集团有限公司确立以AI小切口场景撬动行业智能化转型的战略路径，携手浪潮数字企业，基于浪潮海岳大模型构建盐化工智控大模型，重点破解制约化工生产的核心难题。 依托设备预测性维护、工艺优化、智能巡检三大智能体，山东海化实现关键设备状态的实时评估与早期风险识别，从源头防范隐患升级，故障识别准确率超过95%，巡检效率提升50%，风险分析与隐患排查完成率提升20%，有效推动了化工安全从“人工值守”向“人机协同”升级。 通过引入智能装备、工业互联网和绿色工艺，传统产业实现生产流程优化、成本结构重塑和效能提升，加速向高端化、绿色化、智能化方向迈进，为产业升级拓展新的增长空间。 但也要看到，企业在落地转型时仍会遇到动力不足的问题。 “企业对数智化转型重要性和必要性的认识，是转型的开始。”株洲千金药业股份有限公司董事长蹇顺认为，传统企业数智化转型，首先要解决认知问题，从观念上接受转型，主动拥抱新趋势。 作为一家创建于1966年的老牌综合性医药企业，千金药业是如何适应数字时代发展趋势，实现数智化转型的？ “我们主动去数智化转型的同行企业学习，每月组织集中培训。”蹇顺告诉记者，通过数智化转型，千金药业实现提质降本增效，仅用了两年时间，月排产时间由3天以上缩减到30分钟内，产量增长33%，工业营收与盈利能力持续保持增长。 张林山认为，破解传统企业数智化转型难题，需精准施策破解核心痛点。应通过政策激励降低转型成本，搭建供需对接平台，展示转型成功案例，让企业直观看到效率提升、成本下降的实际效益，同时建立转型成效评估机制，强化正向引导。此外，还可通过政府购买服务、第三方机构赋能等方式，为企业提供全流程指导，让转型过程更可控、风险更可控，激发企业转型内生动力。 据了解，工信部实施制造业数字化转型行动，“点线面”协同推进数字化改造，推动规上工业企业数字化转型“建档立卡”，建设首批62个制造业数字化转型促进中心，推动制造业数字化转型从“标杆引领”向“规模推广”转变；实施智能制造工程，建成230余家卓越级智能工厂；推进“人工智能+制造”行动，新一代智能终端、智能体加速应用推广；推动工业互联网规模化应用，工业互联网应用已融入49个国民经济大类，实现41个工业大类全覆盖。 工信部相关负责人表示，下一步，将继续加快构建以先进制造业为骨干的现代化产业体系，深入推进工业技术改造和设备更新，坚持高水平开放，推动产业升级向新布局、稳健发展。 【责任编辑：于涵】</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C177" s="5" t="inlineStr">
+        <is>
+          <t>“绿色消费20条”来了！与你我生活密切相关</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Política social</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2026-01-07T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>商务部等九部门近日发布《关于实施绿色消费推进行动的通知》，围绕绿色消费全链条明确了7个方面、20项举措，对“十五五”时期绿色消费作出系统安排。推进行动涉及群众吃、穿、住、行、用、游等各领域，包含生产、流通、消费、回收、再利用各环节，与你我生活密切相关。跟随海报。一起了解下。 策划：令伟家 统筹：曹建礼 制作：刘雅萱、佟璐、陶叶 【责任编辑：于涵】</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>商务部等九部门近日发布《关于实施绿色消费推进行动的通知》，围绕绿色消费全链条明确了7个方面、20项举措，对“十五五”时期绿色消费作出系统安排。推进行动涉及群众吃、穿、住、行、用、游等各领域，包含生产、流通、消费、回收、再利用各环节，与你我生活密切相关。跟随海报。一起了解下。 策划：令伟家 统筹：曹建礼 制作：刘雅萱、佟璐、陶叶 【责任编辑：于涵】</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C178" s="5" t="inlineStr">
+        <is>
+          <t>学习手记｜始终绷紧粮食安全这根弦</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2026-01-07T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>2026年是“十五五”开局之年，做好“三农”工作至关重要。近日中央农村工作会议召开，习近平总书记作出重要指示，强调要毫不放松抓好粮食生产。 此前召开的中央经济工作会议也明确要求，严守耕地红线，毫不放松抓好粮食生产，促进粮食等重要农产品价格保持在合理水平。 千叮咛万嘱咐，就是要求全国上下始终绷紧粮食安全这根弦。 “五谷者，万民之命，国之重宝。”越是连年丰收，越要居安思危。 习近平总书记强调，粮食多一点少一点是战术问题，粮食安全是战略问题。 今后一个时期粮食需求还会持续增加，供求紧平衡将越来越紧，再加上国际形势复杂严峻，确保粮食安全的弦要始终绷得很紧很紧，宁可多生产、多储备一些，多了的压力和少了的压力不可同日而语。粮食生产年年要抓紧，面积、产量不能掉下来，供给、市场不能出问题。 “手中有粮，心中不慌”“中国人的饭碗任何时候都要牢牢端在自己手中，我们的饭碗应该主要装中国粮”“中国要靠自力更生，自己养活自己”……粮食安全始终是习近平总书记治国理政的头等大事。 耕地是粮食安全的命根子，始终绷紧粮食安全这根弦，必须牢牢守住耕地红线。 习近平总书记指出：“我国人多地少的基本国情，决定了我们必须把关系十几亿人吃饭大事的耕地保护好，绝不能有闪失。”“耕地是粮食生产的命根子。”“农田就是农田，而且必须是良田。” 如果说耕地面积是常数，科技就是一个关键变量。面对耕地“天花板”，科技是破局关键。 在耕地资源硬约束不可改变的前提下，必须依靠科技创新突破资源瓶颈，实现粮食产能的可持续提升。不能走依赖资源消耗的老路，根本出路在于向科技要产量、要效益、要可持续性。 习近平总书记强调：“解决吃饭问题，根本出路在科技”“农业现代化，关键是农业科技现代化。要加强农业与科技融合，加强农业科技创新”。 “藏粮于地、藏粮于技”，一体两面、互为支撑。 要靠种子，种源安全关系到国家安全，必须下决心把我国种业搞上去；要靠装备，推进农机农艺融合，提升全程机械化水平；要靠数字技术，发展智慧农业，实现精准施肥、节水灌溉、智能管理；要靠绿色技术，以科技手段减少化肥农药使用，保护耕地质量，保障食品安全。 要吃饱，还要吃好，保障粮食安全，需要树立大食物观。 “中国是一个有着14亿多人口的大国，解决好吃饭问题、保障粮食安全，要树立大食物观，既向陆地要食物，也向海洋要食物，耕海牧渔，建设海上牧场、‘蓝色粮仓’”； “要向森林要食物，向江河湖海要食物，向设施农业要食物，同时要从传统农作物和畜禽资源向更丰富的生物资源拓展，发展生物科技、生物产业，向植物动物微生物要热量、要蛋白”； ………… 习近平总书记的重要论述深刻体现了新时期国家粮食安全战略的拓展——不再局限于传统“耕地—粮食”单一路径，而是从多元化食物供给体系出发，利用多种资源、多种渠道、多种技术手段构建更有韧性、可持续的食物安全保障体系。 新粮食安全观，蕴含着马克思主义政治经济学的真理力量。 在耕地、劳动工具之外，还有劳动者这一生产力中最活跃的因素。藏粮于地、藏粮于技，归根到底要靠种粮的亿万农民。让种粮农民有钱挣、得实惠，才能真正稳住“米袋子”。 习近平总书记在2013年12月召开的中央农村工作会议上指出：“一定要让农民种粮有利可图、让主产区抓粮有积极性。” 从这个意义上讲，保护好农民种粮积极性，就是守护国家粮食安全的根基。 策划：张晓松 主编：朱基钗、齐中熙 主笔：王立彬、韩佳诺 视觉：贾伊宁、黄炯芮 新华社国内部出品 【责任编辑：于涵】</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>2026年是“十五五”开局之年，做好“三农”工作至关重要。近日中央农村工作会议召开，习近平总书记作出重要指示，强调要毫不放松抓好粮食生产。 此前召开的中央经济工作会议也明确要求，严守耕地红线，毫不放松抓好粮食生产，促进粮食等重要农产品价格保持在合理水平。 千叮咛万嘱咐，就是要求全国上下始终绷紧粮食安全这根弦。 “五谷者，万民之命，国之重宝。”越是连年丰收，越要居安思危。 习近平总书记强调，粮食多一点少一点是战术问题，粮食安全是战略问题。 今后一个时期粮食需求还会持续增加，供求紧平衡将越来越紧，再加上国际形势复杂严峻，确保粮食安全的弦要始终绷得很紧很紧，宁可多生产、多储备一些，多了的压力和少了的压力不可同日而语。粮食生产年年要抓紧，面积、产量不能掉下来，供给、市场不能出问题。 “手中有粮，心中不慌”“中国人的饭碗任何时候都要牢牢端在自己手中，我们的饭碗应该主要装中国粮”“中国要靠自力更生，自己养活自己”……粮食安全始终是习近平总书记治国理政的头等大事。 耕地是粮食安全的命根子，始终绷紧粮食安全这根弦，必须牢牢守住耕地红线。 习近平总书记指出：“我国人多地少的基本国情，决定了我们必须把关系十几亿人吃饭大事的耕地保护好，绝不能有闪失。”“耕地是粮食生产的命根子。”“农田就是农田，而且必须是良田。” 如果说耕地面积是常数，科技就是一个关键变量。面对耕地“天花板”，科技是破局关键。 在耕地资源硬约束不可改变的前提下，必须依靠科技创新突破资源瓶颈，实现粮食产能的可持续提升。不能走依赖资源消耗的老路，根本出路在于向科技要产量、要效益、要可持续性。 习近平总书记强调：“解决吃饭问题，根本出路在科技”“农业现代化，关键是农业科技现代化。要加强农业与科技融合，加强农业科技创新”。 “藏粮于地、藏粮于技”，一体两面、互为支撑。 要靠种子，种源安全关系到国家安全，必须下决心把我国种业搞上去；要靠装备，推进农机农艺融合，提升全程机械化水平；要靠数字技术，发展智慧农业，实现精准施肥、节水灌溉、智能管理；要靠绿色技术，以科技手段减少化肥农药使用，保护耕地质量，保障食品安全。 要吃饱，还要吃好，保障粮食安全，需要树立大食物观。 “中国是一个有着14亿多人口的大国，解决好吃饭问题、保障粮食安全，要树立大食物观，既向陆地要食物，也向海洋要食物，耕海牧渔，建设海上牧场、‘蓝色粮仓’”； “要向森林要食物，向江河湖海要食物，向设施农业要食物，同时要从传统农作物和畜禽资源向更丰富的生物资源拓展，发展生物科技、生物产业，向植物动物微生物要热量、要蛋白”； ………… 习近平总书记的重要论述深刻体现了新时期国家粮食安全战略的拓展——不再局限于传统“耕地—粮食”单一路径，而是从多元化食物供给体系出发，利用多种资源、多种渠道、多种技术手段构建更有韧性、可持续的食物安全保障体系。 新粮食安全观，蕴含着马克思主义政治经济学的真理力量。 在耕地、劳动工具之外，还有劳动者这一生产力中最活跃的因素。藏粮于地、藏粮于技，归根到底要靠种粮的亿万农民。让种粮农民有钱挣、得实惠，才能真正稳住“米袋子”。 习近平总书记在2013年12月召开的中央农村工作会议上指出：“一定要让农民种粮有利可图、让主产区抓粮有积极性。” 从这个意义上讲，保护好农民种粮积极性，就是守护国家粮食安全的根基。 策划：张晓松 主编：朱基钗、齐中熙 主笔：王立彬、韩佳诺 视觉：贾伊宁、黄炯芮 新华社国内部出品 【责任编辑：于涵】</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C179" s="5" t="inlineStr">
+        <is>
+          <t>天天学习丨中南海月刊（2025.12）</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2026-01-07T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>天天学习 岁末回首千帆劲，潮头奋楫启新程。 12月31日晚，习近平主席通过中央广播电视总台和互联网发表二〇二六年新年贺词。习近平主席回顾这一年的难忘历程，细数沉甸甸的收获，向十四亿多人民发出奋进再出发的号召。 2025年，很不平凡。习近平总书记以卓越的政治智慧与历史主动精神，在关键之年为中国式现代化新征程定向领航：这一年，我们隆重纪念中国人民抗日战争暨世界反法西斯战争胜利80周年，以一场庄严的国之盛典“铭记历史、缅怀先烈、珍爱和平、开创未来”；这一年，我们以务实行动拓展高水平对外开放新空间，继续敞开胸怀拥抱世界，与世界各国分享中国机遇；这一年，我们步履不停，以奋斗之姿阔步迈向新征程。 岁序交替，是一年的落笔终章，亦是新岁的启程开端。央视网《中南海月刊》运用智能大数据，与您一起回顾承载收获，更孕育希望的12月。 锐始者必图其终，成功者先计于始。 在以中国式现代化全面推进强国建设、民族复兴伟业的关键时期，实现良好开局至关重要。本月从内政到外交，习近平总书记为“十五五”开好局、起好步精心谋划部署。 强信心——从“稳中求进、提质增效”的政策取向，到“五个必须”“八个坚持”的具体路径，一系列举措构筑起中国经济破浪前行的坚实底气。 促开放——从倡导开放合作带来机遇发展，到坚持对外开放，推动多领域合作共赢，中国以行动诠释“开放的大门只会越开越大”。 鼓干劲——从要求中央企业“勇担社会责任，为中国式现代化建设贡献更大力量”，到叮嘱领导干部“在其位、谋其政、尽其责”“主动担重、担难”，总书记鼓励以实干担当为高质量发展蓄势赋能。 聚民心——从“努力为人民群众多办实事”，到“让农民生活更加富裕美好”，“始终把人民放在心上”是党和国家不变的初心。 12月19日，2025“年度字词”揭晓，“韧”字当选年度国内字。刚柔并济、坚韧不拔，是为韧。“韧”字恰是这“很不平凡的一年”中国经济最为凝练有力的注脚。 中央经济工作会议上，习近平总书记以“我国经济顶压前行、向新向优发展，展现强大韧性和活力”总结2025年经济工作。 这份“成绩单”成色满满：预计2025年全年经济增长5%左右，经济总量有望达到140万亿元左右；2025年前11个月，我国货物贸易保持增长，进出口总值41.21万亿元，全国规模以上工业企业实现利润总额66268.6亿元……亮眼成绩为“十五五”开好局奠定了坚实基础。 会议以“稳中求进、提质增效”定调2026年经济工作，这是中央经济工作会议首次将“提质增效”纳入经济工作政策取向。 有评论称，这将推动中国经济从偏重规模扩张转向追求产业升级、新质生产力培育等质量变革，契合经济阶段转型需求。 △ 2025年12月10日至11日，中央经济工作会议在北京举行。中共中央总书记、国家主席、中央军委主席习近平出席会议并发表重要讲话。 凡事有其要，执其要者事成。 会议部署了八项2026年经济工作重点任务：坚持内需主导、坚持创新驱动、坚持改革攻坚、坚持对外开放、坚持协调发展、坚持“双碳”引领、坚持民生为大、坚持守牢底线。这“八个坚持”突出短期经济工作与中长期高质量发展目标相结合，体现出鲜明的系统观念、目标导向与民生温度，为2026年经济工作规划出清晰的路线图。 中央企业在国民经济发展中作用重大，被誉为“顶梁柱”和“压舱石”。数据显示，“十四五”时期，中央企业资产总额连续跃上70万亿元、80万亿元、90万亿元三个台阶；在战略性新兴产业领域累计投资8.6万亿元；累计上交税费超10万亿元；承担了约80%的原油、70%的天然气、60%的电力供应。 12月22日至23日，中央企业负责人会议在北京召开，会议传达了习近平总书记对中央企业的重要指示。 新征程上，央企怎么干？在总书记的指示中有一个重要关键词——核心竞争力。“创新”“改革”是锻造央企硬实力的重要抓手，要“强化关键核心技术攻关，推动科技创新和产业创新深度融合”，要“进一步深化改革”，“着力解决制约企业发展的深层次问题，努力建设世界一流企业”。这正是央企在新征程中增强核心竞争力的必由之路。 “2026年是‘十五五’开局之年，做好‘三农’工作至关重要。”12月29日至30日，中央农村工作会议在北京召开。习近平总书记对做好“三农”工作作出重要指示。 从“毫不放松抓好粮食生产”到“提高强农惠农富农政策效能”“促进农民稳定增收”，再到“因地制宜推进宜居宜业和美乡村建设”，总书记为下一阶段“三农”工作定向指路。 推进农业农村现代化，出发点和落脚点归根到底都是让亿万农民生活越来越好。“努力把农业建成现代化大产业、使农村基本具备现代生活条件、让农民生活更加富裕美好”的要求让人们对未来农村充满期待。 央视网“I学习”数据库分析总书记2025年12月重要讲话显示，“经济”“内需”“党风廉政建设”等词高频出现。 大国经济的重要特征是内部可循环。 中央经济工作会议部署的2026年八项重点任务中，“坚持内需主导”居于首位。有专家指出，在外部环境变化影响加深、外需不稳定的背景下，要保持经济持续稳定发展，就必须坚持内需主导、重视扩大内需工作。 “深入实施提振消费专项行动，制定实施城乡居民增收计划”“清理消费领域不合理限制措施，释放服务消费潜力”“推动投资止跌回稳”“继续发挥新型政策性金融工具作用，有效激发民间投资活力”……聚焦投资消费“双引擎”，一项项具体措施为畅通国民经济循环、加快构建完整内需体系夯实基础。 行至关键一程，复杂性、艰巨性前所未有，更需要我们不断校准思想之标，把好行动之舵，绷紧作风之弦。 12月25日至26日，中共中央政治局召开的两个重要会议都事关党风廉政建设——12月25日，中共中央政治局召开会议，听取中央纪委国家监委工作汇报，研究部署2026年党风廉政建设和反腐败工作；12月25日至26日，中共中央政治局召开民主生活会，强调锲而不舍落实中央八项规定精神。 两次会议都提到要“推进作风建设常态化长效化”。 抓好作风建设关键就在“常”“长”二字。习近平总书记曾深刻指出：“在改进作风问题上，我们不能退，也退不得，必须保持常抓的韧劲、长抓的耐心，在坚持中见常态，向制度建设要长效。” 历史和现实一再印证，管党治党越有效，经济社会发展的保障就越有力。此次民主生活会，习近平总书记强调：“要坚持把中央八项规定作为铁规矩、硬杠杠，毫不松懈整治‘四风’顽瘴痼疾，不断推进作风建设常态化长效化。” “开放”也是本月高频词之一。 12月18日，海南迎来高光时刻——海南自由贸易港正式启动全岛封关。这片3.39万平方公里的土地，将如何创造机遇、释放红利，引领未来？全国乃至全球都高度关注。 一个多月前，在即将启动全岛封关的关键节点，习近平总书记来到海南。在这片开放热土上，总书记强调：“建设海南自由贸易港的战略目标，就是要把海南自由贸易港打造成为引领我国新时代对外开放的重要门户。” △ 2025年12月18日，一艘装载着17.9万吨石化原辅料的船舶泊入位于海南省儋州市的国投洋浦油储码头30万吨级原油泊位（无人机照片）。 建设海南自由贸易港是习近平总书记亲自谋划、亲自部署、亲自推动的改革开放重大战略举措。自2020年6月，《海南自由贸易港建设总体方案》发布至今已有五年。 5年来，海南实际使用外资1025亿元，年均增长14.6%；货物贸易、服务贸易年均分别增长31.3%和32.3%，经济外向度提高到35%。 全岛封关正式启动，是海南自贸港迈向世界最高水平开放形态的“关键一跃”，也是这片开放热土向世界提供的发展机遇。 2025年，习近平主席在诸多重要场合阐释中国机遇。 本月在同马克龙总统会谈时，习近平主席向马克龙总统介绍“十五五”规划建议，并将其喻为中国向世界提供的一份“机遇清单”。习主席指出，中法两国要抓住机遇，拓展合作空间，巩固航空、航天、核能等传统领域合作，挖掘绿色经济、数字经济、生物医药、人工智能、新能源等领域合作潜力。 推进高水平对外开放，更多机遇蕴藏于中国波澜壮阔的现代化建设进程中，也蕴藏于中国与各方开放互动、合作共赢的未来图景里。 观察央视网“I学习”数据库生成的12月关联图谱，关联地点中的四川成都都江堰，北京（京津冀）、上海（长三角）、粤港澳大湾区国际科技创新中心令人印象深刻。 12月4日至5日，习近平主席先后在北京和成都同第四次来华访问的法国总统马克龙举行会谈，进行友好交流。 近年来，在首都之外开展“不打领带”的友好交流，已成为习近平主席同马克龙总统交流互动的特色安排。此次会面地点选在四川成都都江堰。 都江堰是全世界迄今唯一仍在使用的古代水利工程，其治水之要，在于依托地形地势、水沙运动与河道演变规律，最终化害为利。 漫步都江堰，习主席对马克龙总统说，每次来到都江堰都能感受到先人因地制宜、顺势而为、天人合一、治水利民的伟大，从中汲取到治国理政的智慧。 百年变局之下，中法元首在都江堰抚今追昔，以千年智慧照鉴当下。 正如习主席在致土库曼斯坦“国际和平与信任年论坛”的贺信中所强调，“国际形势越是变乱交织，国际社会越要同舟共济、守望相助”。 “建设北京（京津冀）、上海（长三角）、粤港澳大湾区国际科技创新中心”是中央经济工作会议部署的八项重点任务之一“坚持创新驱动，加紧培育壮大新动能”的重要内容。 在中央经济工作会议上，总书记阐明其中的深远考量：“党中央决定，将北京国际科创中心扩围至京津冀，上海国际科创中心扩围至长三角，目的是加快形成我国原始创新的主要策源地，共同打造科技强国建设的战略指引，树立以科技支撑引领中国式现代化的标杆。” 回望2025年，一系列创新突破，绘就创新中国壮阔图景：在全球创新指数排名中，中国首次跻身前十；DeepSeek横空出世、惊艳全球；首个深水高压气田——“深海一号”二期项目全面投产；天问二号开启“追星”之旅；首艘电磁弹射型航母正式入列…… “十五五”时期，中国经济社会发展迎来前所未有的机遇，也面临诸多挑战。唯有持续推动改革创新，才能破解发展难题、厚植发展优势。 回首来时路，已越万水千山；前瞻新征程，豪情壮志满怀。 【责任编辑：于涵】</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>天天学习 岁末回首千帆劲，潮头奋楫启新程。 12月31日晚，习近平主席通过中央广播电视总台和互联网发表二〇二六年新年贺词。习近平主席回顾这一年的难忘历程，细数沉甸甸的收获，向十四亿多人民发出奋进再出发的号召。 2025年，很不平凡。习近平总书记以卓越的政治智慧与历史主动精神，在关键之年为中国式现代化新征程定向领航：这一年，我们隆重纪念中国人民抗日战争暨世界反法西斯战争胜利80周年，以一场庄严的国之盛典“铭记历史、缅怀先烈、珍爱和平、开创未来”；这一年，我们以务实行动拓展高水平对外开放新空间，继续敞开胸怀拥抱世界，与世界各国分享中国机遇；这一年，我们步履不停，以奋斗之姿阔步迈向新征程。 岁序交替，是一年的落笔终章，亦是新岁的启程开端。央视网《中南海月刊》运用智能大数据，与您一起回顾承载收获，更孕育希望的12月。 锐始者必图其终，成功者先计于始。 在以中国式现代化全面推进强国建设、民族复兴伟业的关键时期，实现良好开局至关重要。本月从内政到外交，习近平总书记为“十五五”开好局、起好步精心谋划部署。 强信心——从“稳中求进、提质增效”的政策取向，到“五个必须”“八个坚持”的具体路径，一系列举措构筑起中国经济破浪前行的坚实底气。 促开放——从倡导开放合作带来机遇发展，到坚持对外开放，推动多领域合作共赢，中国以行动诠释“开放的大门只会越开越大”。 鼓干劲——从要求中央企业“勇担社会责任，为中国式现代化建设贡献更大力量”，到叮嘱领导干部“在其位、谋其政、尽其责”“主动担重、担难”，总书记鼓励以实干担当为高质量发展蓄势赋能。 聚民心——从“努力为人民群众多办实事”，到“让农民生活更加富裕美好”，“始终把人民放在心上”是党和国家不变的初心。 12月19日，2025“年度字词”揭晓，“韧”字当选年度国内字。刚柔并济、坚韧不拔，是为韧。“韧”字恰是这“很不平凡的一年”中国经济最为凝练有力的注脚。 中央经济工作会议上，习近平总书记以“我国经济顶压前行、向新向优发展，展现强大韧性和活力”总结2025年经济工作。 这份“成绩单”成色满满：预计2025年全年经济增长5%左右，经济总量有望达到140万亿元左右；2025年前11个月，我国货物贸易保持增长，进出口总值41.21万亿元，全国规模以上工业企业实现利润总额66268.6亿元……亮眼成绩为“十五五”开好局奠定了坚实基础。 会议以“稳中求进、提质增效”定调2026年经济工作，这是中央经济工作会议首次将“提质增效”纳入经济工作政策取向。 有评论称，这将推动中国经济从偏重规模扩张转向追求产业升级、新质生产力培育等质量变革，契合经济阶段转型需求。 △ 2025年12月10日至11日，中央经济工作会议在北京举行。中共中央总书记、国家主席、中央军委主席习近平出席会议并发表重要讲话。 凡事有其要，执其要者事成。 会议部署了八项2026年经济工作重点任务：坚持内需主导、坚持创新驱动、坚持改革攻坚、坚持对外开放、坚持协调发展、坚持“双碳”引领、坚持民生为大、坚持守牢底线。这“八个坚持”突出短期经济工作与中长期高质量发展目标相结合，体现出鲜明的系统观念、目标导向与民生温度，为2026年经济工作规划出清晰的路线图。 中央企业在国民经济发展中作用重大，被誉为“顶梁柱”和“压舱石”。数据显示，“十四五”时期，中央企业资产总额连续跃上70万亿元、80万亿元、90万亿元三个台阶；在战略性新兴产业领域累计投资8.6万亿元；累计上交税费超10万亿元；承担了约80%的原油、70%的天然气、60%的电力供应。 12月22日至23日，中央企业负责人会议在北京召开，会议传达了习近平总书记对中央企业的重要指示。 新征程上，央企怎么干？在总书记的指示中有一个重要关键词——核心竞争力。“创新”“改革”是锻造央企硬实力的重要抓手，要“强化关键核心技术攻关，推动科技创新和产业创新深度融合”，要“进一步深化改革”，“着力解决制约企业发展的深层次问题，努力建设世界一流企业”。这正是央企在新征程中增强核心竞争力的必由之路。 “2026年是‘十五五’开局之年，做好‘三农’工作至关重要。”12月29日至30日，中央农村工作会议在北京召开。习近平总书记对做好“三农”工作作出重要指示。 从“毫不放松抓好粮食生产”到“提高强农惠农富农政策效能”“促进农民稳定增收”，再到“因地制宜推进宜居宜业和美乡村建设”，总书记为下一阶段“三农”工作定向指路。 推进农业农村现代化，出发点和落脚点归根到底都是让亿万农民生活越来越好。“努力把农业建成现代化大产业、使农村基本具备现代生活条件、让农民生活更加富裕美好”的要求让人们对未来农村充满期待。 央视网“I学习”数据库分析总书记2025年12月重要讲话显示，“经济”“内需”“党风廉政建设”等词高频出现。 大国经济的重要特征是内部可循环。 中央经济工作会议部署的2026年八项重点任务中，“坚持内需主导”居于首位。有专家指出，在外部环境变化影响加深、外需不稳定的背景下，要保持经济持续稳定发展，就必须坚持内需主导、重视扩大内需工作。 “深入实施提振消费专项行动，制定实施城乡居民增收计划”“清理消费领域不合理限制措施，释放服务消费潜力”“推动投资止跌回稳”“继续发挥新型政策性金融工具作用，有效激发民间投资活力”……聚焦投资消费“双引擎”，一项项具体措施为畅通国民经济循环、加快构建完整内需体系夯实基础。 行至关键一程，复杂性、艰巨性前所未有，更需要我们不断校准思想之标，把好行动之舵，绷紧作风之弦。 12月25日至26日，中共中央政治局召开的两个重要会议都事关党风廉政建设——12月25日，中共中央政治局召开会议，听取中央纪委国家监委工作汇报，研究部署2026年党风廉政建设和反腐败工作；12月25日至26日，中共中央政治局召开民主生活会，强调锲而不舍落实中央八项规定精神。 两次会议都提到要“推进作风建设常态化长效化”。 抓好作风建设关键就在“常”“长”二字。习近平总书记曾深刻指出：“在改进作风问题上，我们不能退，也退不得，必须保持常抓的韧劲、长抓的耐心，在坚持中见常态，向制度建设要长效。” 历史和现实一再印证，管党治党越有效，经济社会发展的保障就越有力。此次民主生活会，习近平总书记强调：“要坚持把中央八项规定作为铁规矩、硬杠杠，毫不松懈整治‘四风’顽瘴痼疾，不断推进作风建设常态化长效化。” “开放”也是本月高频词之一。 12月18日，海南迎来高光时刻——海南自由贸易港正式启动全岛封关。这片3.39万平方公里的土地，将如何创造机遇、释放红利，引领未来？全国乃至全球都高度关注。 一个多月前，在即将启动全岛封关的关键节点，习近平总书记来到海南。在这片开放热土上，总书记强调：“建设海南自由贸易港的战略目标，就是要把海南自由贸易港打造成为引领我国新时代对外开放的重要门户。” △ 2025年12月18日，一艘装载着17.9万吨石化原辅料的船舶泊入位于海南省儋州市的国投洋浦油储码头30万吨级原油泊位（无人机照片）。 建设海南自由贸易港是习近平总书记亲自谋划、亲自部署、亲自推动的改革开放重大战略举措。自2020年6月，《海南自由贸易港建设总体方案》发布至今已有五年。 5年来，海南实际使用外资1025亿元，年均增长14.6%；货物贸易、服务贸易年均分别增长31.3%和32.3%，经济外向度提高到35%。 全岛封关正式启动，是海南自贸港迈向世界最高水平开放形态的“关键一跃”，也是这片开放热土向世界提供的发展机遇。 2025年，习近平主席在诸多重要场合阐释中国机遇。 本月在同马克龙总统会谈时，习近平主席向马克龙总统介绍“十五五”规划建议，并将其喻为中国向世界提供的一份“机遇清单”。习主席指出，中法两国要抓住机遇，拓展合作空间，巩固航空、航天、核能等传统领域合作，挖掘绿色经济、数字经济、生物医药、人工智能、新能源等领域合作潜力。 推进高水平对外开放，更多机遇蕴藏于中国波澜壮阔的现代化建设进程中，也蕴藏于中国与各方开放互动、合作共赢的未来图景里。 观察央视网“I学习”数据库生成的12月关联图谱，关联地点中的四川成都都江堰，北京（京津冀）、上海（长三角）、粤港澳大湾区国际科技创新中心令人印象深刻。 12月4日至5日，习近平主席先后在北京和成都同第四次来华访问的法国总统马克龙举行会谈，进行友好交流。 近年来，在首都之外开展“不打领带”的友好交流，已成为习近平主席同马克龙总统交流互动的特色安排。此次会面地点选在四川成都都江堰。 都江堰是全世界迄今唯一仍在使用的古代水利工程，其治水之要，在于依托地形地势、水沙运动与河道演变规律，最终化害为利。 漫步都江堰，习主席对马克龙总统说，每次来到都江堰都能感受到先人因地制宜、顺势而为、天人合一、治水利民的伟大，从中汲取到治国理政的智慧。 百年变局之下，中法元首在都江堰抚今追昔，以千年智慧照鉴当下。 正如习主席在致土库曼斯坦“国际和平与信任年论坛”的贺信中所强调，“国际形势越是变乱交织，国际社会越要同舟共济、守望相助”。 “建设北京（京津冀）、上海（长三角）、粤港澳大湾区国际科技创新中心”是中央经济工作会议部署的八项重点任务之一“坚持创新驱动，加紧培育壮大新动能”的重要内容。 在中央经济工作会议上，总书记阐明其中的深远考量：“党中央决定，将北京国际科创中心扩围至京津冀，上海国际科创中心扩围至长三角，目的是加快形成我国原始创新的主要策源地，共同打造科技强国建设的战略指引，树立以科技支撑引领中国式现代化的标杆。” 回望2025年，一系列创新突破，绘就创新中国壮阔图景：在全球创新指数排名中，中国首次跻身前十；DeepSeek横空出世、惊艳全球；首个深水高压气田——“深海一号”二期项目全面投产；天问二号开启“追星”之旅；首艘电磁弹射型航母正式入列…… “十五五”时期，中国经济社会发展迎来前所未有的机遇，也面临诸多挑战。唯有持续推动改革创新，才能破解发展难题、厚植发展优势。 回首来时路，已越万水千山；前瞻新征程，豪情壮志满怀。 【责任编辑：于涵】</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C180" s="5" t="inlineStr">
+        <is>
+          <t>中韩元首时隔两个月实现互访意义深远</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2026-01-07T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>1月5日下午，国家主席习近平在北京同来华进行国事访问的韩国总统李在明举行会谈。 习近平主席指出：“我和李在明总统已两次见面并实现互访，体现了双方对中韩关系的重视。” 就在去年10月底至11月初，应李在明总统邀请，习近平主席赴韩国出席亚太经合组织第三十二次领导人非正式会议并对韩国进行国事访问。 从秋日庆州到冬日北京，时隔短短两个多月，两国元首再度面对面深入交流。短时间内的密切互动，向两国、地区和国际社会释放清晰信号。 巩固增进互信的外交行动—— 习近平主席两个多月前的韩国之行，实现了中韩战略合作伙伴关系再确认，有力夯实了双方互信根基，使过去几年经历困难和挑战的两国关系呈现出改善发展的良好势头。 这次北京会谈中，习近平主席用“以和为贵”“和而不同”的东方智慧，指引两国“不断增进互信”，“坚持通过对话协商妥善解决分歧”，鼓励中韩之间“多走动、常来往、勤沟通”。 朋友越走越近，邻居越走越亲。作为“朋友和邻居”，中国和韩国牢牢把握友好合作方向，秉持互利共赢宗旨，持续推动相互成就，两国战略合作伙伴关系就能向前发展。 推进务实合作的顶层设计—— 习近平主席在这次会谈中强调，中韩双方要“在人工智能、绿色产业、银发经济等新兴领域打造更多合作成果”。 两个多月前在庆州，中韩签署了10余项合作文件。此次北京会谈后，两国元首共同见证签署科技创新、生态环境、交通运输、经贸合作等领域15份合作文件。 中韩经济联系紧密，产业链供应链深度互嵌，两国务实合作内涵丰富、活力充沛、前景广阔。中韩也相互实施了相关免签政策，促进了两国人民特别是青年的往来了解。 今年是中国“十五五”开局之年。未来5年，中方将继续推动高质量发展，扩大高水平对外开放，这将为包括亚洲邻国在内的世界各国提供广阔机遇。 这次随李在明总统一同访华的还有200多名韩国企业家组成的经济代表团。这几天来，韩国工商界同中方广泛会晤对接，以期打开“机遇之门”。 着眼国际大局的沟通协调—— 近期世界形势更加变乱交织。作为亚洲乃至世界上有分量、有影响的重要国家，中韩在加速演进的百年变局面前有广泛利益交集。 回顾80多年前的并肩作战，习近平主席呼吁两国“携手捍卫二战胜利成果，守护东北亚和平稳定”。 着眼未来的全球治理，习近平主席指出，“中韩要共同反对保护主义，践行真正的多边主义”“为地区乃至世界和平与发展正向赋能”。 坚定站在历史正确一边，作出正确战略选择。中韩两国在维护地区和平、促进全球发展方面肩负重要责任。 两个多月实现元首互访，体现了对双边关系行稳致远的引领、对区域和平稳定繁荣的推动，不仅着眼于当下，也着眼于长远。 “中方始终将中韩关系置于周边外交重要位置，对韩政策保持连续性、稳定性。”习近平主席说。李在明总统表示，愿以新的一年首次元首外交为契机，深化韩中战略合作伙伴关系，共同开辟两国关系发展新局面。 新年伊始，万象更新。两国人民和国际社会都期待，中韩关系沿着健康轨道持续向前迈进。 策划：张晓松 主编：杨依军 主笔：曹嘉玥、冯歆然 视觉：朱思明、郝晓静 新华社国内部制作 新华社第一工作室出品 【责任编辑：于涵】</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>1月5日下午，国家主席习近平在北京同来华进行国事访问的韩国总统李在明举行会谈。 习近平主席指出：“我和李在明总统已两次见面并实现互访，体现了双方对中韩关系的重视。” 就在去年10月底至11月初，应李在明总统邀请，习近平主席赴韩国出席亚太经合组织第三十二次领导人非正式会议并对韩国进行国事访问。 从秋日庆州到冬日北京，时隔短短两个多月，两国元首再度面对面深入交流。短时间内的密切互动，向两国、地区和国际社会释放清晰信号。 巩固增进互信的外交行动—— 习近平主席两个多月前的韩国之行，实现了中韩战略合作伙伴关系再确认，有力夯实了双方互信根基，使过去几年经历困难和挑战的两国关系呈现出改善发展的良好势头。 这次北京会谈中，习近平主席用“以和为贵”“和而不同”的东方智慧，指引两国“不断增进互信”，“坚持通过对话协商妥善解决分歧”，鼓励中韩之间“多走动、常来往、勤沟通”。 朋友越走越近，邻居越走越亲。作为“朋友和邻居”，中国和韩国牢牢把握友好合作方向，秉持互利共赢宗旨，持续推动相互成就，两国战略合作伙伴关系就能向前发展。 推进务实合作的顶层设计—— 习近平主席在这次会谈中强调，中韩双方要“在人工智能、绿色产业、银发经济等新兴领域打造更多合作成果”。 两个多月前在庆州，中韩签署了10余项合作文件。此次北京会谈后，两国元首共同见证签署科技创新、生态环境、交通运输、经贸合作等领域15份合作文件。 中韩经济联系紧密，产业链供应链深度互嵌，两国务实合作内涵丰富、活力充沛、前景广阔。中韩也相互实施了相关免签政策，促进了两国人民特别是青年的往来了解。 今年是中国“十五五”开局之年。未来5年，中方将继续推动高质量发展，扩大高水平对外开放，这将为包括亚洲邻国在内的世界各国提供广阔机遇。 这次随李在明总统一同访华的还有200多名韩国企业家组成的经济代表团。这几天来，韩国工商界同中方广泛会晤对接，以期打开“机遇之门”。 着眼国际大局的沟通协调—— 近期世界形势更加变乱交织。作为亚洲乃至世界上有分量、有影响的重要国家，中韩在加速演进的百年变局面前有广泛利益交集。 回顾80多年前的并肩作战，习近平主席呼吁两国“携手捍卫二战胜利成果，守护东北亚和平稳定”。 着眼未来的全球治理，习近平主席指出，“中韩要共同反对保护主义，践行真正的多边主义”“为地区乃至世界和平与发展正向赋能”。 坚定站在历史正确一边，作出正确战略选择。中韩两国在维护地区和平、促进全球发展方面肩负重要责任。 两个多月实现元首互访，体现了对双边关系行稳致远的引领、对区域和平稳定繁荣的推动，不仅着眼于当下，也着眼于长远。 “中方始终将中韩关系置于周边外交重要位置，对韩政策保持连续性、稳定性。”习近平主席说。李在明总统表示，愿以新的一年首次元首外交为契机，深化韩中战略合作伙伴关系，共同开辟两国关系发展新局面。 新年伊始，万象更新。两国人民和国际社会都期待，中韩关系沿着健康轨道持续向前迈进。 策划：张晓松 主编：杨依军 主笔：曹嘉玥、冯歆然 视觉：朱思明、郝晓静 新华社国内部制作 新华社第一工作室出品 【责任编辑：于涵】</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C181" s="5" t="inlineStr">
+        <is>
+          <t>冰雪产业跻身万亿赛道 “冷资源”蕴藏经济升温“小火苗”</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2026-01-07T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>过去一提到冰雪消费，大家想到的可能是滑雪、溜冰，享受速度与激情。2025年，冰雪产业已经跻身万亿赛道。如今的冰雪产业，已延伸出吃、住、行、游、购、娱，场地建设、装备制造等一条链条长、业态丰富的产业链。冰天雪地里的“冷资源”，蕴藏着哪些让经济升温的“小火苗”？ 2025年12月底，长春粉雪嘉年华如约而至。积雪覆盖下，原木质感的小木屋上贴着春联，挂着玉米。一旁还有巨型糖葫芦、天然大冰缸等东北特色元素。 一场精心筹备的东北民俗婚礼体验，让大棚内五湖四海的游客体验东北乡土风情，大棚外，锅包肉、雪衣豆沙等小吃的袅袅热气氤氲升腾。 在冰雪季来到长春，冰雪全息光影秀、400米长的大滑梯、六层楼的巨型蛋仔，还有雪地足球、冰上龙舟，成为吸引游客的冬日限定惊喜和潮流新玩法。 据统计，2026年元旦当日，长春市接待国内游客123.75万人次，同比增长24.33%。 300公里外，吉林长白山的雾凇漂流点也排起了长队。在雾凇美景中，游客们搭乘橡皮艇顺流而下，一路上沉浸式领略沿岸的“玉树琼花”。 游客们在冰天雪地里漂上一程，一上岸，就奔向特色雪屋。在这里享用热气腾腾的火锅，体验“冰火两重天”的乐趣。 数九寒天，查干湖上一年一度的冬捕拉开序幕。马拉绞盘，冰下走网，胖头鱼、鲤鱼、大白鱼跃出水面，瞬间就被低温锁住鲜美。 曲丽洁是土生土长的查干湖渔家姑娘，大学毕业后返乡创业，开起了农家乐。冬捕时节，398元的湖鱼套餐，曲丽洁每天都能接到50套订单，通过快递发往全国各地。当地不少农家乐纷纷搭上“冬捕经济”快车，有的鱼庄需要提前半个多月预订餐位，年收入能达四五十万元。 为了吸引游客，查干湖还推出捕鱼、冰下盲盒等新项目。100米长的挂网，游客组队拉拽，亲手捕鱼后，可以直接送进后厨做成铁锅炖。 从一顿饭，到一条鱼，再到一间房。这个老渔村里有许多年轻人回到家乡，做民宿、开直播，捧上了生态旅游的“金饭碗”。 不久前，深圳一个室内滑雪中心正式营业。冰雪运动在南方大受欢迎，然而在高温高湿的深圳，如何才能维持这样一个“低温孤岛”呢？ 滑雪场工程师带记者来到滑雪场地下，如同蜘蛛网般的设备管道映入眼帘，这里便是整个雪场的核心机房。 工作人员介绍，雪场四周和楼顶分布着1万多块冷库板，牢牢将雪场冷量锁住，隔绝内外之间温差。 冰雪运动不断打破季节、地域的限制，上游装备制造产业也迎来发展新机遇。滑雪爱好者、专业运动员们的冰雪装备更是不断升级。 在哈尔滨冰雪运动装备制造产业园里，一家工厂正开足马力赶订单，老板曾经是一位滑冰运动员，退役后做起了冰雪装备生意。 雪板要兼具轻巧和坚韧耐用，关键在于材料和设计。这位老板找到了老同行共同研发新雪板，他们自主研发的新雪板叠加了碳纤维复合材料，不仅韧性增强了，重量也比以前轻了20%。 目前，这款国产滑雪板已经通过中国自由式滑雪空中技巧国家队测试，售价不到国际同类产品的一半，2026年将在米兰冬奥会上亮相。 2025年—2026年新雪季开启，冰雪运动爱好者的参与热情已经燃了起来，冰雪装备企业的干劲也更足了。冰雪装备产业在创新驱动下，不断焕发新动能。 冰雪经济正打破季节与地域界限，呈现“南北呼应、全域开花”的格局。2026新冰雪季大幕已经拉开，随着冰雪与旅游、体育、文化、场地建设、装备制造等产业的融合不断深入，越来越多新产品、新场景、新业态将持续涌现，为拉动消费扩容升级、促进经济高质量发展，注入源源不断的冰雪动能。 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>过去一提到冰雪消费，大家想到的可能是滑雪、溜冰，享受速度与激情。2025年，冰雪产业已经跻身万亿赛道。如今的冰雪产业，已延伸出吃、住、行、游、购、娱，场地建设、装备制造等一条链条长、业态丰富的产业链。冰天雪地里的“冷资源”，蕴藏着哪些让经济升温的“小火苗”？ 2025年12月底，长春粉雪嘉年华如约而至。积雪覆盖下，原木质感的小木屋上贴着春联，挂着玉米。一旁还有巨型糖葫芦、天然大冰缸等东北特色元素。 一场精心筹备的东北民俗婚礼体验，让大棚内五湖四海的游客体验东北乡土风情，大棚外，锅包肉、雪衣豆沙等小吃的袅袅热气氤氲升腾。 在冰雪季来到长春，冰雪全息光影秀、400米长的大滑梯、六层楼的巨型蛋仔，还有雪地足球、冰上龙舟，成为吸引游客的冬日限定惊喜和潮流新玩法。 据统计，2026年元旦当日，长春市接待国内游客123.75万人次，同比增长24.33%。 300公里外，吉林长白山的雾凇漂流点也排起了长队。在雾凇美景中，游客们搭乘橡皮艇顺流而下，一路上沉浸式领略沿岸的“玉树琼花”。 游客们在冰天雪地里漂上一程，一上岸，就奔向特色雪屋。在这里享用热气腾腾的火锅，体验“冰火两重天”的乐趣。 数九寒天，查干湖上一年一度的冬捕拉开序幕。马拉绞盘，冰下走网，胖头鱼、鲤鱼、大白鱼跃出水面，瞬间就被低温锁住鲜美。 曲丽洁是土生土长的查干湖渔家姑娘，大学毕业后返乡创业，开起了农家乐。冬捕时节，398元的湖鱼套餐，曲丽洁每天都能接到50套订单，通过快递发往全国各地。当地不少农家乐纷纷搭上“冬捕经济”快车，有的鱼庄需要提前半个多月预订餐位，年收入能达四五十万元。 为了吸引游客，查干湖还推出捕鱼、冰下盲盒等新项目。100米长的挂网，游客组队拉拽，亲手捕鱼后，可以直接送进后厨做成铁锅炖。 从一顿饭，到一条鱼，再到一间房。这个老渔村里有许多年轻人回到家乡，做民宿、开直播，捧上了生态旅游的“金饭碗”。 不久前，深圳一个室内滑雪中心正式营业。冰雪运动在南方大受欢迎，然而在高温高湿的深圳，如何才能维持这样一个“低温孤岛”呢？ 滑雪场工程师带记者来到滑雪场地下，如同蜘蛛网般的设备管道映入眼帘，这里便是整个雪场的核心机房。 工作人员介绍，雪场四周和楼顶分布着1万多块冷库板，牢牢将雪场冷量锁住，隔绝内外之间温差。 冰雪运动不断打破季节、地域的限制，上游装备制造产业也迎来发展新机遇。滑雪爱好者、专业运动员们的冰雪装备更是不断升级。 在哈尔滨冰雪运动装备制造产业园里，一家工厂正开足马力赶订单，老板曾经是一位滑冰运动员，退役后做起了冰雪装备生意。 雪板要兼具轻巧和坚韧耐用，关键在于材料和设计。这位老板找到了老同行共同研发新雪板，他们自主研发的新雪板叠加了碳纤维复合材料，不仅韧性增强了，重量也比以前轻了20%。 目前，这款国产滑雪板已经通过中国自由式滑雪空中技巧国家队测试，售价不到国际同类产品的一半，2026年将在米兰冬奥会上亮相。 2025年—2026年新雪季开启，冰雪运动爱好者的参与热情已经燃了起来，冰雪装备企业的干劲也更足了。冰雪装备产业在创新驱动下，不断焕发新动能。 冰雪经济正打破季节与地域界限，呈现“南北呼应、全域开花”的格局。2026新冰雪季大幕已经拉开，随着冰雪与旅游、体育、文化、场地建设、装备制造等产业的融合不断深入，越来越多新产品、新场景、新业态将持续涌现，为拉动消费扩容升级、促进经济高质量发展，注入源源不断的冰雪动能。 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C182" s="5" t="inlineStr">
+        <is>
+          <t>新增31个科学与应用项目 2025年中国空间站成果“上新”</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2026-01-07T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>记者从中国科学院空间应用中心获悉，2025年中国空间站空间科学、应用实验与技术试验项目进展顺利，已形成覆盖生命科学、微重力物理、空间新技术与应用等多领域的科学设施，为核心科学任务的实施提供了关键保障。 2025年空间应用系统在轨实施科学与应用项目新增31个，上行实验模块、单元及样品等科学物资约867.5公斤，下行空间科学实验样品83.92公斤，获取科学数据超过150TB，各领域科学团队产出系列原创性、前沿性、创新性的进展与成果，授权专利超过50项。 在空间生命科学领域，我国成功实现了中国空间站首次小鼠空间科学实验，初步建立了科学实验和工程实施深度耦合的“地面筛选-活体上行-在轨饲养-活体下行”的空间小型哺乳动物实验全流程生命支持保障和实验技术体系，为未来系统开展空间环境对哺乳动物影响研究奠定了重要基础。 △空间亚磁-微重力复合环境果蝇培养及生物学效应研究体系 国际上首次开展了空间站亚磁-微重力复合太空环境生物学研究，揭示了亚磁-微重力复合空间环境下动物的行为与基因变化规律，为深空探索的生命健康保障奠定了科学实验基础。 另外，中国空间站内还开展了面向空间应用的锂离子电池电化学光学原位研究项目。该研究有望推动电化学基础理论的进一步发展，为优化目前在轨电池系统、设计下一代高比能、高安全太空电池提供依据。 中国科学院空间应用工程与技术中心高级工程师巴金介绍，未来空间应用系统还要发射两个旗舰级的天文设施。 一个是空间站巡天空间望远镜，它能够对宇宙学、近邻星系、银河系等方面获得重大的科学发现。 另一个是高能宇宙辐射探测设施，它能够以极高的灵敏度去探测宇宙线，去进一步理解暗物质，以及宇宙线加速起源等相关的极端宇宙的本质，对于伽马巡天方向也会有新的、更多的认识。 （总台央视记者 帅俊全 褚尔嘉） 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>记者从中国科学院空间应用中心获悉，2025年中国空间站空间科学、应用实验与技术试验项目进展顺利，已形成覆盖生命科学、微重力物理、空间新技术与应用等多领域的科学设施，为核心科学任务的实施提供了关键保障。 2025年空间应用系统在轨实施科学与应用项目新增31个，上行实验模块、单元及样品等科学物资约867.5公斤，下行空间科学实验样品83.92公斤，获取科学数据超过150TB，各领域科学团队产出系列原创性、前沿性、创新性的进展与成果，授权专利超过50项。 在空间生命科学领域，我国成功实现了中国空间站首次小鼠空间科学实验，初步建立了科学实验和工程实施深度耦合的“地面筛选-活体上行-在轨饲养-活体下行”的空间小型哺乳动物实验全流程生命支持保障和实验技术体系，为未来系统开展空间环境对哺乳动物影响研究奠定了重要基础。 △空间亚磁-微重力复合环境果蝇培养及生物学效应研究体系 国际上首次开展了空间站亚磁-微重力复合太空环境生物学研究，揭示了亚磁-微重力复合空间环境下动物的行为与基因变化规律，为深空探索的生命健康保障奠定了科学实验基础。 另外，中国空间站内还开展了面向空间应用的锂离子电池电化学光学原位研究项目。该研究有望推动电化学基础理论的进一步发展，为优化目前在轨电池系统、设计下一代高比能、高安全太空电池提供依据。 中国科学院空间应用工程与技术中心高级工程师巴金介绍，未来空间应用系统还要发射两个旗舰级的天文设施。 一个是空间站巡天空间望远镜，它能够对宇宙学、近邻星系、银河系等方面获得重大的科学发现。 另一个是高能宇宙辐射探测设施，它能够以极高的灵敏度去探测宇宙线，去进一步理解暗物质，以及宇宙线加速起源等相关的极端宇宙的本质，对于伽马巡天方向也会有新的、更多的认识。 （总台央视记者 帅俊全 褚尔嘉） 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C183" s="5" t="inlineStr">
+        <is>
+          <t>EE UU, China y Rusia quieren repartirse el mundo: nuevos imperios para el siglo XXI</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2026-01-11T05:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>El ataque de Estados Unidos a Venezuela confirma el gran cambio que se está produciendo en el orden internacional: nos adentramos en un mundo caracterizado por la emergencia de grandes espacios imperiales. Y esto afecta directamente al continente americano, a Groenlandia, a Europa, a Taiwán e incluso al futuro de internet</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>El ataque de Estados Unidos a Venezuela confirma el gran cambio que se está produciendo en el orden internacional: nos adentramos en un mundo caracterizado por la emergencia de grandes espacios imperiales. Y esto afecta directamente al continente americano, a Groenlandia, a Europa, a Taiwán e incluso al futuro de internet
+No es que el mundo haya caído en el caos, sino que ha entrado en una nueva era, de imperios que imponen su orden, o sus órdenes, normalmente extractivas, aunque no nos gusten. El filósofo Alexandre Kojève y el politólogo Francis Fukuyama consideraron, siguiendo a Hegel, que la universalización del Estado nación (liberal) marcaríael “fin de la historia”y el fin de las batallas ideológicas. Pero el análisis que a mediados del siglo pasado hizoCarl Schmittanticipó el surgimiento de grandes espacios imperiales, como los que empiezan a componer el nuevo orden mundial en el que entramos.
+Entonces el pensador alemán —que había apoyado al nazismo— se basó en la dicotomía tierra-mar. Estos espacios siguen siendo básicos —ahí están las acciones en Ucrania o Venezuela, entre otras—. Pero Schmitt no previó, no pudo prever, que estos imperios tendrían, con el desarrollo de nuevos dominios, además de la aérea, otras nuevas dimensiones, como la espacial, la subacuática, el ciberespacio e incluso la extraterrestre. Estos imperios, y las empresas en las que se apoyan (¿o es al revés?),quieren dominar en estos espacios, reconociendo algunos de los intereses de las otras potencias imperiales, si bien cambiando algunas reglas.
+Para Carl Schmitt, en su libroEl Nomos de la Tierra,de 1950, un imperio no es simplemente un Estado grande. Es una forma de orden político-jurídico que estructura un gran espacio, decide quién manda en él y lo regula. Se basa en la apropiación, reparto y ordenación de territorio, tres elementos esenciales presentes en los objetivos buscados con la intervención en Venezuela —veremos si, por extensión, en América Latina—, o en Gaza y Oriente Próximo.
+En estos tiempos resaltan dos grandes imperios: el de Estados Unidosy el de China. Este último, en parte, gracias a la apertura que iniciaron Nixon y Kissinger, quienes nada ingenuamente previeron hacia dónde iba el mundo. También hay visión imperial —o intento de recuperarla— desde la Rusia de Putin, que no cogió a tiempo la revolución digital, cuyo alcance China sí entendió. O en la caótica India de Modi, y en terceros, o imperios secundarios, como Arabia Saudí —enfrentada a Irán, incluso ante un futuro posayatolás—, Turquía o incluso Israel.
+Con Trump, o incluso antes, Estados Unidos está dejando que se deshaga el orden internacional que tanto contribuyó a poner en pie tras la Segunda Guerra Mundial. ¿Síntoma de declive imperial y de declive occidental, como se percibe desde Pekín la recienteEstrategia de Seguridad Nacional de la Casa Blanca, en un mundo que ha dejado de ser bipolar, luego (durante poco tiempo) unipolar para pasar a ser multipolar, multiimperio?
+Schmitt es más conocido por su visión, a menudo simplificada, de la política como una relación de amigo-enemigo y de la preponderancia en algunos momentos del poder ejecutivo sobre el legislativo, cuestiones que vuelven a estar de actualidad. Pasada su turbulenta relación con el nazismo, en su citado libro, y en una interesante correspondencia con Kojève, consideró obsoleta la forma del Estado nación, y pronosticó el surgimiento de grandes espacios imperiales, con esferas de influencia, algo que tanto gusta a Trump, a Putin y a Xi Jinping, cuya visión sobre Taiwán y todo el mar de China se puede ver facilitada por la acción estadounidense en Venezuela. Schmitt realzó el citado concepto de la apropiación de otros territorios, ya sea por conquista o por otros métodos, que, según el pensador alemán, no es que se base en el derecho existente, sino que genera su propio derecho y orden imperiales. Como indica el filósofo Jean-François Kervegan enuna entrevista sobre la actualidad del pensador enLe Grand Continent,“la realidad le ha dado la razón en este punto” de los imperios. En esta línea, Trump insiste en resucitar la Doctrina Monroe —la cita siempre que puede— y en que el Hemisferio Occidental —como llaman a las Américas— esté únicamente controlado por Estados Unidos. Cuba, que se había convertido en pieza indisociable de la Venezuela chavista, puede ser la siguiente pieza a cobrar. Trump la ha nombrado, junto a Colombia. ¿Y el gran Brasil?
+Aunque EE UU fuera desde hace tiempo una “república imperial” (como la calificó Raymond Aron), las intenciones de Trump de apropiarsedel canal de Panamá, Groenlandia y Canadá, o de provocar un cambio de régimen en diversos países, a comenzar por Venezuela, resultan muy schmittianas. Hay que entenderlas en la competencia con otros imperios. La acción en Venezuela no se comprende del todo si se ignora la competencia con China, crecientemente presente en América Latina, al menos en términos económicos, tecnológicos, petroleros —Pekín es el primer comprador de crudo venezolano—, y de otros elementos estratégicos como las llamadas tierras raras, abundantes en Venezuela. Trump intenta hacerse con el control de las Américas, del Ártico al Antártico. Es un detalle, pero la decisión derebautizar el golfo de México como Golfo de Américaresulta muy imperial. Nombrar un espacio es participar en su apropiación. Schmitt, recuerda Kervegan, ya consideraba que la “toma de territorio” y la “toma del lenguaje” son indisociables. Es parte delo queLe Mondellama el “software imperial”.
+Además de unas capacidades militares sin parangón, para un alcance global Estados Unidos cuenta con 128 a 750 bases militares de 50 a 80 países (el cálculo depende del tamaño) en el mundo, algo inigualado por ninguna otra potencia. China está desarrollando un potencial naval y unas bases en el extranjero que nunca tuvo en los últimos siglos. A la vez India, multialineada, está desplegando la suya para contrarrestar a China. Ambos cuentan con una diáspora en todo el mundo, y muy especialmente en países asiáticos donde controlan buena parte de sus economías.
+Hay otros espacios en los que los imperios pueden chocar, más allá de Taiwán, los territorios en disputa entre China e India, o el Ártico. Algunos no pertenecen a nadie. Los analistas chinos los llaman “las nuevas fronteras del poder” global: los polos, la profundidad de los mares, el espacio exterior (y la Luna), el ciberespacio, el sistema financiero internacional, e incluso, cada vez más, la ideología. China ha incrementado sus donaciones y préstamos al Sur Global, entre otros, con laIniciativa de la Franja y la Ruta, mientras Trump, incomprensiblemente,ha desmantelado USAID,la Agencia estadounidense para el Desarrollo Internacional.
+El deshielo está haciendo del Ártico un mar cada vez más estratégico. Por él recientemente han pasado barcos con cargamento procedente de China hacia Europa, abriendo la Ruta del Norte. En esto, Groenlandia tiene importancia para la visión imperial desde Washington o Pekín. O el subsuelo marítimo, con sus riquezas minerales, o los esenciales cables submarinos. La mayor red de cables submarinos del mundo pertenece a las grandes tecnológicas, especialmente Google, Meta, Microsoft y Amazon. China impulsa cables propios. En esto Rusia es marginal, aunque no sus supuestos ataques a estas líneas.
+El dominio espacial es cada vez más central. Por ejemplo, para los GPS (esenciales incluso para las finanzas), o, como se ha demostrado en la guerra de Ucrania, para las comunicaciones por internet satelital y los ataques de drones. ¿Quién domina el espacio de telecomunicaciones vía satélite? Empresas de EEUU. En menor medida China a través de compañías como China Satellite Communications y otras agencias estatales y mixtas en expansión global. El CEO de Google, Sundar Pichai, anunció recientemente que su empresa va a empezar a construir centros de cálculo en el espacio, alimentados por energía solar, el proyecto Suncatcher. Necesita que los proteja el Gobierno de EE UU.
+Sí. La nueva era de los nuevos imperios también va acompañada de nuevas compañías imperiales. Es un imperialismo público-privado, plutócrata. No es algo nuevo. La Compañía Británica de las Indias Orientales estaba instalada en India, con inmensos poderes, antes de que ésta se convirtiera en la “joya de la corona” del Imperio Británico. Hoy los imperios se miden por su capacidad económica y militar, pero también por el alcance de algunas de sus empresas. Se vio a muchos de sus consejeros delegados un año atrás en la segunda inauguración de Trump como presidente, o emperador.
+En la era digital y de la inteligencia artificial, las mayores empresas, aparte de las energéticas, son americanas o chinas. Los “señores del aire”, las llamó hace tiempo el filósofo Javier Echeverría, mientras Yanis Varoufakisha hablado de “tecnofeudalismo”. En todo caso, estasbig techrompen el concepto de soberanía. Pueden considerarse imperios en sí.Así califica a OpenAI (propietaria de ChatGPT) Karen Hao,que disecciona esta empresa enEl imperio de la IA.Elon Musk se creyó emperador un tiempo. También en China Jack Ma, fundador de Alibaba. Sus verdaderos emperadores los apartaron, aunque luego los recuperaron. Porque los necesitan. Son señores de la tecnología, del dinero, y también de importantes medios de comunicación.
+Pero estos señores necesitan a sus Estados. Viven en una parte importante de contratos con el Estado. Consideran que necesitan la protección de sus gobiernos para garantizar sus líneas de comunicación e impulsar normas globales que les favorezcan. Efectivamente, en estos afanes imperiales hay grandes batallas por las normas. Ya lo decía Schmitt: el poder imperial genera sus leyes. En nuestros días, Anu Bradford, que hace unos años hablaba del “efecto Bruselas” (cómo las normas internas de la Unión Europea tienen efectos globales), en Imperios digitales, ha examinado la batalla global para regular la tecnología. China está haciendo grandes esfuerzos, por razones comerciales y de seguridad, para diseñar e imponer sus propias normas, diferentes de las estadounidenses. Para sí y para el Sur Global, donde hay una competencia por la influencia y el control.
+Esta batalla puede llevar a ciberespacios y tecnologías separadas, no sólo entre China y EE UU, sino en África, Asia o América Latina. Un ejemplo importante: hasta ahora, aunque con diversos cortafuegos nacionales (el mayor, el de China), había un único internet mundial (controlado desde una fundación en EE UU y todo un complejo sistema). Para China, el protocolo
+TCP/IP (Protocolo de Control de Transmisión/Protocolo de Internet) originado en los setenta no podrá satisfacer las futuras demandas para la Red, como las que necesitan los vehículos autónomos, ni responde a sus intereses. Según el Financial Times, China —Gobierno y empresas como Huawei, China Mobile, China Unicom— está proponiendo una nueva arquitectura de internet, denominada New IP, que permitirá, además, un mayor control estatal. Rusia quiere seguir este camino.
+¿Y Europa?Los imperios y sus guerras han sido consustanciales a su historia. Hoy la Unión Europea no es, no puede y no necesita ser imperio. Ha inventado una nueva forma política, no imperial, en la que el Estado nación, sin desaparecer, ni mucho menos, se relativiza en un orden superior. Schmitt no sirve aquí. Pero en su origen es, en parte, producto de la política imperial de EE UU. ¿Escapará al vasallaje? ¿Sobreviviría a una ruptura con Washington? En Europa la doctrina Monroe puede resultar confusa. De ahí la necesidad de territorios neutrales, que separen imperios. ¿Como Ucrania?
+Los europeos se habían vuelto herbívoros o, como apunta el historiador francés Gabriel Martínez-Gros, “sedentarios”, protegidos por unos Estados Unidos que los “desarma e infantiliza”. ¿Les está despertando el fin de la confianza en Estados Unidos, la guerra de Ucrania y el nuevo temor a una Rusia imperial?Como señala un conocido diputado francés(Jean-Louis Bourlanges, centrista), “Europa se enfrenta al resurgimiento de los imperios y ahora debe lidiar con tres adversarios imperiales: Moscú, Washington y Pekín. Preocupa que ni siquiera sea capaz de derrotar al más débil de los tres”.
+Incluso en otro ámbito de competencia imperial, la moneda, el dólar aún reina, aunque menos, pues el uso internacional de la moneda china va progresando. China va en cabeza en cuanto al renminbi digital, EE UU está implantado su dólar digital —y es el centro de los llamadosstablecoins—, y la Eurozona va rezagada por la presión de sus bancos a avanzar excesivamente por ese camino.
+Algunos imperios en la historia han chocado. Otros se han dado la espalda. Esta vez están entretejidos en muchas dimensiones e intereses, son interdependientes y con ambiciones, de un tipo u otro, universales. La llamada “trampa de Tucídides”, la irresistible guerra entre los que ascienden y los que no quieren descender, llevaría a los actuales a chocar. Sin embargo, China solo ha reaccionado con lenguaje diplomático a la captura de Maduro, pese a sus intereses en juego. Kissinger llegó a pedir que el multipolarismo se conjugue con un equilibrio de poderes, más que con un multilateralismo poco efectivo, al que se aferran los europeos. Se están definiendo lasrules of engagement,las reglas del juego entre imperios. Venezuela así lo refleja.
+Andrés Ortega(Madrid, 1954) es periodista y escritor, con experiencia en dos administraciones. En 2025 ha publicadoSoledad sin solitud(Premio Internacional de Ensayo Jovellanos) y la novela de anticipaciónSé agua.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C184" s="5" t="inlineStr">
+        <is>
+          <t>LVMH suma puntos para liderar la recuperación del sector del lujo</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2026-01-11T05:25:00+01:00</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Los analistas esperan que las iniciativas de la empresa junto con la diversificación de marca y la mejora de la demanda china impulsen su negocio. Tiene el 58% de las recomendaciones en compra</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Los analistas esperan que las iniciativas de la empresa junto con la diversificación de marca y la mejora de la demanda china impulsen su negocio. Tiene el 58% de las recomendaciones en compra
+El sector del lujo vuelve a estar en el foco de los inversores. UBS resume las expectativas para el nuevo año: “Tras unapostura cautelosa desde finales de 2023, durante la cual los beneficios se redujeron en torno al 20%, entramos en 2026 con la esperanza de que lo peor ya haya pasado. Prevemos un crecimiento orgánico de las ventas del 5% y del 12% del beneficio por acción en todos los valores del sector que tenemos bajo cobertura”. Los analistas del banco suizo comentan que aunque la recuperación aún se encuentra en una fase temprana, hay motivos para ser más optimistas ante la mejoría de la demanda china y un mayor nivel de creatividad, lo que podría atraer a los consumidores de vuelta a las tiendas.
+En esteescenario de regreso al optimismo, UBS ha seleccionado a LVMH entre sus valores preferidos tras elevar la recomendación a comprar y fijar su precio objetivo en 725 euros, lo que implica una subida potencial del 14%. “Las iniciativas específicas de la marca” son un motivo de peso para la decisión tomada por el banco.
+El grupo francés ha arrancado el ejercicio sin grandes cambios después de un 2025 de sobresaltos: cerró con un alza del 5,6%, tras llegar a perder el 28%. Sigue siendo la segunda compañía de mayor capitalización del Euro Stoxx 50 con más de 310.000 millones de euros (solo la supera ASML) y parte como favorita para un gran número de inversores. De hecho, tiene el 58% de las recomendaciones en compra; el 39%, en mantener, y únicamente el 3%, en venta, según recoge Bloomberg. Además, algunas firmas como UBS están subiendo su precio objetivo en un momento en que la cotización (652 euros) ha minimizado su posible recorrido. Divacons Alphavalue, HSBC y Deutsche Bank, por ejemplo, lo colocan más allá de los 700 euros.
+Divacons Alphavalue detecta una “mejora desde principios de 2025” del negocio de LVMH que es “alentadora”. “El grupo ha puesto en marcha múltiples decisiones, incluyendo una renovada dirección creativa en Dior, Céline y Fendi. Esta nueva ambición en el área de la moda debería impulsar la marca en 2026. Seguimos considerando que LVMH está en la mejor posición para beneficiarse de una recuperación completa del sector, pero reconocemos que se necesitará paciencia”, añade.
+En la reactivación y el interés del lujo tendrá mucho peso el gigante asiático. “Seguimos esperando una recuperación gradual y progresiva en China [país que supone el 30% de las ventas de LVMH]. Los consumidores siguen dispuestos a pagar por el lujo, pero solo ofrecerán una prima por una calidad excepcional, un diseño distintivo y una resonancia emocional. Esto está impulsando al mercado hacia una fase más madura y exigente”, explican los analistas de Divacons Alphavalue.
+Losúltimos resultados presentados por LVMH, con un incremento de las ventas orgánicas del 1% en el tercer trimestre, fueron motivo de peso para el avance de la acción en el último tramo del ejercicio pasado. Bankinter señala que “sin ser estelares, confirman lo esperado: que el año irá gradualmente a mejor con una recuperación más evidente ya en 2026. Máximos en Bolsas, criptos, oro y, en algunos casos, precios inmobiliarios benefician los patrimonios y el efecto riqueza. La clarificación en el frente comercial debería mejorar la confianza de los consumidores y reducir la prima de riesgo sobre el valor. Detectamos algunos motivos de optimismo: una mejora tangible en China y esfuerzo de control de costes y mejoras de eficiencia estructurales”. La empresa presentará el balance de 2025 a finales de este mes.
+Igualmente, Flavien del Pino, responsable en España de BDL Capital Management, confía en que “el mercado haya tocado suelo”, una vez comprobado el desarrollo de las cuentas a septiembre. “Los fundamentales del lujo, como el crecimiento de la base de clientes y el enorme poder de fijación de precios de las grandes marcas, siguen intactos”. Los cuatro catalizadores favorables que detecta el experto son “una reaceleración sostenible del consumo en China y una mayor visibilidad sobre la solidez del consumidor americano”, que en conjunto representan el 50% del mercado mundial; “el inicio de nuevos ciclos creativos en marcas líderes como Gucci o Dior, que reactiva el tráfico en tiendas”; “la resiliencia al ciclo por una mayor expansión del lujo”, y “un entorno de tipos de interés más estables que tendería a favorecer el consumo premium”.
+No obstante, BDL Capital Management mantiene “una postura selectiva” y afirma que LVMH “es la mejor” ante un escenario de recuperación, “por su estabilidad, enorme generación de caja y alta rentabilidad”.
+Berenberg, sin embargo, avisa de que el sector experimentará una “serie de falsos amaneceres en 2026, ya que la caída sostenida de los precios de la vivienda en China desalienta el gasto de los consumidores más importantes del país”.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C185" s="5" t="inlineStr">
+        <is>
+          <t>El ataque de Estados Unidos a Venezuela pone a prueba la influencia de China en Latinoamérica</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2026-01-10T05:40:00+01:00</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Pekín, convertido en el mayor socio comercial de América del Sur, se enfrenta al realineamiento de intereses que exige Trump en la región</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Pekín, convertido en el mayor socio comercial de América del Sur, se enfrenta al realineamiento de intereses que exige Trump en la región
+En 1999, al poco de desatar su revolución bolivariana, el entonces presidente de Venezuela, Hugo Chávez,inició su primera gira internacional con un viaje a China. Buscaba estrechar lazos; fue un viaje fructífero: sellaron acuerdos para incrementar el flujo de petróleo desde la Faja del Orinoco, iniciativas en el sector energético y la promoción de inversiones del país asiático en Venezuela. “Pedimos a China que continúe con su esfuerzo para que el mundo no sea regido por un policía universal que lo imponga todo”, reclamó Chávez. Le seguirían años de idilio. La sed de recursos del gigante manufacturero engrasaría a partir de entonces la sintonía entre Caracas y Pekín.
+China convirtió entre 2009 y 2015 Venezuela en un destino predilecto de su desembarco en América Latina. Apostó por el sector energético y las infraestructuras, de ferrocarriles a centrales eléctricas, concediendo casi 60.000 millones de dólares en préstamos, según cifras deInter-American DialogueyBoston University Global Development Policy Center.
+A medida que la relación del país bolivariano con Estados Unidos se iba agriando, China incrementaba su presencia: hoy es su principal acreedor, su primer socio comercial, el suministrador prioritario de su armamento, uno de sus grandes aliados diplomáticos y, por supuesto, el destino número uno de sus hidrocarburos, con los que Caracas trata de saldar la deuda de entre 10.000 y 15.000 millones de dólares (según las fuentes) que aún mantiene con Pekín.
+El ataque de Donald Trump contra Venezuela, justificado por la Casa Blanca como una fórmula para mantener a los “adversarios” lejos “hemisferio occidental”, ha supuesto una seria advertencia a los intereses de China en el país y en el resto de la región, donde lleva años expandiendo sus tentáculos. La operación ha dejado claro que, si el mundo es un tablero de ajedrez, América Latina es una de las zonas donde observar quién va ganando la partida: el lugar donde cobra vida el choque entre superpotencias.
+Washington ha afirmado que tomará el control del país caribeño, que posee las mayores reservas del planeta, el tiempo que estime necesario, y se ha asegurado una primera entrega de hasta 50 millones de barriles, según Trump.
+Pekínha condenado con contundenciala agresión militar y la detención de su presidente, Nicolás Maduro, quien solo unas horas antes había recibido en Caracas a Qiu Xiaqi, enviado especial del presidente chino, Xi Jinping, para Asuntos Latinoamericanos. “Estados Unidos ha utilizado de manera descarada la fuerza contra Venezuela y ha pedido al país que favorezca a Estados Unidos en lo que respecta a sus reservas de petróleo”, denunciaba esta semana Mao Ning, portavoz china de Exteriores. “Tal intimidación constituye una grave violación del derecho internacional [e] infringe la soberanía de Venezuela”, añadió. “Permítanme subrayar que deben protegerse los derechos e intereses legítimos de China y otros países en Venezuela”.
+“Aún hay mucha incertidumbre. Pero creo que China desea defender sus intereses y derechos. Y tomará las medidas pertinentes”, explica Zhang Jianping, investigador de la Academia China de Comercio Internacional y Cooperación Económica del Ministerio de Comercio, en respuesta a EL PAÍS durante una conferencia en Pekín. En su opinión, el Gobierno concede gran importancia al vínculo económico con Caracas, que incluye “una gran cantidad de inversiones y préstamos”, y un caudal considerable de petróleo.
+China, principal destinatario delcrudo venezolano, recibió en 2025 unos 470.000 barriles diarios, el 78% de las exportaciones, calcula la consultora energética Vortexa. Este flujo no figura en las cifras oficiales chinas: llega al país asiático a través de intermediarios para sortear las sanciones estadounidenses, y queda registrado bajo “otros orígenes”, principalmente Malasia e Indonesia, explica Emma Li, analista especializada en China de esta firma. Los volúmenes, en cualquier caso, no son tan altos como para comprometer el abastecimiento: rondan entre el 3% y el 4% de las importaciones chinas. Li cree que aún es pronto para evaluar el impacto: “Sigue sin estar claro si Washington permitirá que los barriles venezolanos lleguen a compradores no estadounidenses”.
+“Lo que estamos presenciando es una nueva fase del imperialismo estadounidense, que ahora exige a los países de la región alinearse política y económicamente como estados subordinados”, valora Rubén González-Vicente, profesor de Economía Política de la Universidad de Birmingham, especializado en las relaciones entre China y América Latina. La intervención ha sido “un mensaje a Venezuela y al conjunto de los países del continente para recordarles que sus intereses están siempre supeditados a los de Estados Unidos”.
+González-Vicente opina que el golpe no tiene tanto que ver con el crudo. El hecho de que China se convirtiese en el principal importador, superando a Estados Unidos (tradicionalmente el primer comprador), ha sido “coyuntural”: se explica por la drástica reducción del envío a Estados Unidos desde 2019, cuando las sanciones se endurecen, pero sin que haya aumentado el consumo chino. Además, el gigante asiático ha ido perdiendo interés inversor en el país en los últimos años, por las dudas sobre la capacidad de reembolso y el desempeño de proyectos anteriores. Ahora, concluye, se abre un escenario con “múltiples interrogantes” para Pekín en América Latina.
+China lleva años avanzando sus peones en la región,de la que se ha convertido en el segundo socio comercial, por detrás de EE UU. En América del Sur, es el primero, con Brasil, Chile y Perú en cabeza. Los intercambios superaron en 2024 los 500.000 millones de dólares (unos 429.000 millones de euros), 40 veces el volumen de principios de este siglo, según cifras oficiales chinas.
+En Zhongnanhai, las dependencias del Gobierno comunista, son conscientes de la importancia del vínculo. El año pasado,durante un encuentro de alto nivel con líderes latinoamericanos en la capital china,Xi Jinping tendió una mano a la región “ante las turbulencias geopolíticas” y “la contracorriente recrudecida del unilateralismo y el proteccionismo” de Trump, y ofreció una nueva línea de crédito. Pekín ve en la región una pieza central en su mapa de abastecimiento de recursos, y un destino de inversiones en numerosos sectores —de la extracción de litio en Argentina aun puerto de aguas profundas en Perú—, además de un potencial granero de aliados en el camino a la “multipolaridad”, palabra que los líderes chinos usan como sinónimo de un mundo en el que EE UU va perdiendo peso.
+Desde mediados de los 2000, las cifras de inversiones y créditos en la región han sido mareantes. En su punto álgido, en 2010, Pekínconcedió préstamos por valor de 37.000 millones de dólares,superando a los del Banco Mundial, el Banco Interamericano de Desarrollo y el Banco de Exportación e Importación de Estados Unidos juntos, según Inter-American Dialogue. Aunque han caído en los últimos años hasta los 1.300 millones anuales entre 2019 y 2023.
+Entre tanto, ha logrado atraer a numerosos países hacia su órbita: 20 Estados latinoamericanos pertenecen ala Nueva Ruta de la Seda, el megaprograma de infraestructurascon el que China busca expandir su influencia global.El último en sumarse fue Colombiaen 2025. Su presidente, Gustavo Petro ―otro amenazado por Trump―, selló el acuerdo en Pekín, durante una visita en la que defendió la necesidad de que Latinoamérica establezcaun “diálogo horizontal” con otras regiones, “libre de autoritarismos y de imperialismos”.
+La Administración Trump busca recolocar las piezas del tablero: “Tras años de abandono, Estados Unidos reafirmará y aplicará la Doctrina Monroe para restaurar la preeminencia estadounidense en el hemisferio occidental”, señala la nueva Estrategia de Seguridad Nacional, publicada en diciembre. La obsesión con la presencia de China en su patio trasero ha quedado patente desdeel primer viaje de Marco Rubiocomo secretario de Estado, 10 días después de tomar posesión: visitó Panamá, donde EE UU quiere retomar el control del Canal, una infraestructura estratégica de las rutas marítimas de comercio.
+“La actual posición de influencia y control del Partido Comunista Chino sobre la zona del Canal de Panamá supone una amenaza”,presionó Rubio a las autoridades panameñas.Pidió “cambios inmediatos” si no querían que Washington tomara “las medidas necesarias para proteger sus derechos”. El país centroamericano, hasta entonces uno de los grandes socios de Pekín, anunció tras la visita que abandonaba el club de la Ruta de la Seda china. Poco después, la empresa hongkonesa CK Hutchison, que controlaba dos puertos del Canal, comunicaba su venta a un consorcio dirigido por el fondo estadounidense BlackRock. El acuerdo, bajo la lupa de Washington y Pekín, aún está siendo revisado: otra pieza más en la gran partida entre superpotencias.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C186" s="5" t="inlineStr">
+        <is>
+          <t>Trump: “Vamos a hacer algo con Groenlandia, por las buenas o por las malas”</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2026-01-10T00:32:11+01:00</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>“Que un barco suyo llegara hace 500 años no quiere decir que sea de Dinamarca”, ha asegurado el presidente de Estados Unidos. Según él, Rusia y China “acabarán controlando la isla si no actuamos”</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>“Que un barco suyo llegara hace 500 años no quiere decir que sea de Dinamarca”, ha asegurado el presidente de Estados Unidos. Según él, Rusia y China “acabarán controlando la isla si no actuamos”
+El presidente de Estados Unidos, Donald Trump, ha vuelto a amenazar con hacerse con el control de Groenlandia, la isla ártica semiautónoma bajo soberanía del Reino de Dinamarca, “por las buenas o por las malas”. En declaraciones este viernes en la Casa Blanca,durante una reunión con empresarios petroleros, ha puesto en duda que Copenhague tenga derecho sobre el territorio “solo porque uno de sus barcos atracara allí hace 500 años”. Según él, si Washington no mueve ficha de un modo u otro para anexionarse el territorio geoestratégico, Rusia y China “la acabarán controlando”.
+Desde la operación militar estadounidense el pasado sábado en Caracas contra Nicolás Maduro, las declaraciones de Trump o algún miembro de su equipo en torno asu voluntad de hacerse con la islahan llegado casi a diario, y siempre con la advertencia de que el presidente estadounidenseno descarta el uso de la fuerzasi lo considera necesario.
+En la reunión de este viernes con empresarios petroleros para tratar sobre la reconstrucción del sector energético en Venezuela tras la intervención estadounidense, Trump ha sido especialmente explícito sobre su determinación a usar la fuerza. Y sobre su escepticismo acerca de que Dinamarca tenga ninguna base para ejercer la soberanía sobre el territorio de 56.000 habitantes.
+“Me gustaría llegar a un acuerdo, ya saben, por las buenas” y comprar la isla a Copenhague. “Pero si no lo hacemos por las buenas, lo haremos por las malas”, ha insistido. “Soy un fan de Dinamarca, han sido muy amables conmigo. Soy un gran admirador. Pero el hecho de que un barco suyo desembarcara allí hace 500 años no significa que sean dueños de la tierra” (la colonización danesa data de 300 años atrás).
+Desde antes de su investidura hace un año, Trump había expresado su voluntad de que Estados Unidos se haga con la isla ártica. Aunque había dejado de aludir a ello en los últimos meses, ha vuelto a insistir desde lo que él califica como una “brillante” operación militar en Caracas. Su consejero de política interior y jefe adjunto de Gabinete, Stephen Miller, ha sostenido que Estados Unidos debe controlar Groenlandia porque “somos una superpotencia”. Su vicepresidente, J.D. Vance, ha instado a los europeos a “escuchar lo que dice el presidente” y reforzar la seguridad del territorio estratégico, que el Gobierno de Trump considera fundamental para garantizar la seguridad nacional estadounidense, en especial en lo relativo a la defensa antimisiles.
+Pero Estados Unidos ya cuenta con una base militar en la isla, la base espacial de Pituffik, en el norte del territorio. También puede levantar y operar otras bases en Groenlandia, desplegar personal y mantener un gran tipo de operaciones si lo desea, gracias a un acuerdo firmado con Copenhague en 1951. Desde que Trump comenzó a lanzar sus reclamaciones, Dinamarca, miembro de la OTAN, se ha mostrado dispuesta en todo momento a cooperar con el socio principal de la Alianza para reforzar la seguridad groenlandesa.
+Según Trump, ese tipo de acuerdos no son suficientes. “No se defiende igual algo que alquilas que algo que es tuyo”, ha afirmado. “Los países tienen que ser propietarios. Se defiende la propiedad, no un arrendamiento, y nosotros tenemos que defender Groenlandia”. E insistía: “Si no lo hacemos, China o Rusia lo harán, y eso no va a suceder. No vamos a permitirlo”.
+El asunto ha generado una enorme preocupación entre las capitales europeas. Los principales países del continente han emitido esta semana una declaración de apoyo a Dinamarca. La primera ministra del país nórdico ha advertido que una acción militar de Estados Unidos contra su país, aliado dentro de la OTAN,supondría el fin de la Alianza.
+En sus declaraciones de este viernes, Trump parecía querer calmar ese temor, y aseguraba: “Estoy totalmente a favor de la OTAN. Yo salvé a la OTAN. Si no fuera por mí, no tendrían OTAN ahora mismo”. Aunque volvía a insistir: “Pero no vamos a permitir que Rusia ni China ocupen Groenlandia, y eso es lo que va a pasar si no actuamos”.
+El secretario de Estado, Marco Rubio, ha conversado este viernes sobre el asunto con el secretario general de la Alianza, Mark Rutte, y tiene previsto reunirse la semana próxima en Washington con representantes europeos para abordar la cuestión. El lunes se verá con el ministro de Exteriores alemán, Johann Wadephul, quien el domingo visitará Nuuk, la capital groenlandesa. El miércoles el jefe de la diplomacia estadounidense recibirá al ministro de Exteriores danés, Lars Lokke Rasmussen, en el Departamento de Estado.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C187" s="5" t="inlineStr">
+        <is>
+          <t>La nueva China ya no compra el sueño americano: por qué sufren tanto Starbucks y Burger King en el gigante asiático</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2026-01-10T05:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Ambas multinacionales americanas ceden el control de su negocio a socios locales para mantener su presencia en un mercado cada vez más adverso</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Ambas multinacionales americanas ceden el control de su negocio a socios locales para mantener su presencia en un mercado cada vez más adverso
+Durante las décadas de 1980 y 1990,cuando China se encontraba inmersa en su proceso de reforma económica, las cadenas de restauración extranjeras se convirtieron en uno de los símbolos más visibles de esa apertura. Comer una hamburguesa con patatas o una pizza era sinónimo de modernidad y acceso a un mundo exterior todavía lejano para la mayoría de la población. Eran experiencias, además, reservadas en exclusiva a las grandes ciudades, que iban incorporando poco a poco ese tipo de establecimientos como escaparate de una nueva China urbana.
+Cuando en 1999 se inauguróel primer Starbucks del país, en el centro financiero de Pekín, el titán de Seattle no solo vendía un brebaje prácticamente desconocido para una sociedad de arraigada tradición de té. Ofrecía, sobre todo, un espacio para socializar, trabajar o dejarse ver; un punto de encuentro aspiracional para una clase media incipiente que empezaba a identificarse con hábitos de consumo globales. Ahora, el panorama es muy distinto. Starbucks se ha quedado rezagada frente a la irrupción de fuertes competidores locales, que han sabido adaptar su oferta a un consumidor extremadamente dependiente de las entregas a domicilio y cada vez más sensible al precio y a la novedad.
+El claro vencedor de esa batalla cafetera ha sido Luckin, la empresa china que nació en 2017 y que apostó desde el inicio por un modelo digital y orientado al consumo rápido, con locales pequeños y una fuerte dependencia de los pedidos a través del móvil, en contraste con Starbucks, basada en la experiencia en tienda. El resultado ha sido un deterioro visible de la posición del grupo estadounidense: su cuota de mercado ha caído del 34% al 14% en apenas cinco años, según Euromonitor International, y sus ingresos se han reducido en un 19% entre 2021 y 2024, según publicóFinancial Times.
+En medio de esos nubarrones, Starbucks ha optado por un giro estratégico: la venta del 60% de su negocio en China al fondo hongkonés Boyu Capital, en una operación valorada en 3.470 millones de euros. La decisión va mucho más allá de una operación financiera y refleja un cambio de diagnóstico: el modelo que durante décadas le permitió crecer casi sin rival en China (su segundo mercado más importante) ha dejado de ser competitivo. Ceder el control se convierte ahora en el precio a pagar para ganar flexibilidad y capacidad de reacción en un entorno cada vez más hostil, y la asociación con socios chinos se perfila como una vía para repartir riesgos.
+La presión no es menor. La creciente competencia de empresas chinas se ha convertido en el segundo mayor desafío para las compañías estadounidenses con operaciones en el gigante asiático, por delante incluso de la desaceleración económica, según refleja el informe de otoño publicado por la Cámara de Comercio de Estados Unidos en Shanghái. El empuje de actores locales cada vez más sólidos ha pasado a ocupar un lugar central en las preocupaciones empresariales, solo superado por el impacto de las tensiones geopolíticas entre Pekín y Washington.
+En un movimiento similar al de Starbucks,Burger King también cede el timón. El rey de las hamburguesas ha anunciado la transferencia del 83% de su negocio en China al fondo pequinés CPE, a través de una joint venture valorada en unos 304 millones de euros. La operación busca relanzar la marca fuera de los grandes núcleos urbanos, donde el mercado está menos saturado, y establece el objetivo de duplicar el número de restaurantes en cinco años y llegar a más de 4.000 locales para 2035, frente a los cerca de 1.250 actuales.
+“El problema de las marcas europeas y estadounidenses es estructural”, resumen los analistas del instituto WEGO, un grupo de investigación con sede en Pekín. “Mientras las marcas locales han crecido a toda velocidad en la última década, las occidentales, con estructuras organizativas más pesadas y modelos de costes elevados, reaccionan con mayor lentitud”. Ante ese escenario, concluyen, las opciones se estrechan: “Transformarse, desprenderse de activos o incluso venderlos para sobrevivir”.
+Puede consultar otras cartas de esta secciónaquí.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C188" s="5" t="inlineStr">
+        <is>
+          <t>Trump puede costarle a EE UU una generación entera (si lo permitimos)</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2026-01-10T05:30:01+01:00</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Mientras Estados Unidos aleja a sus mentes más brillantes, China redobla su inversión en investigación, posicionándose a la vanguardia de una transformación industrial</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Mientras Estados Unidos aleja a sus mentes más brillantes, China redobla su inversión en investigación, posicionándose a la vanguardia de una transformación industrial
+El año 2025 comenzó con Donald Trumpretirando a los Estados Unidos del Acuerdo de París, el primer paso de lo que se convertiría en una campaña concertada para desmantelar la capacidad del país para combatir el cambio climático. A partir de ahí, la Administración actuó agresivamente para eliminar estándares de emisiones para centrales eléctricas y vehículos; suspender proyectos de energía eólica marina; abrir millones de acres de áreas protegidas para la extracción de combustibles fósiles; prolongar la vida útil de centrales de carbón altamente contaminantes; y revertir iniciativas clave de la Ley de Reducción de la Inflación. En noviembre, el valor de los proyectos de energía limpia cancelados ascendía a 32.000 millones de dólares, y el número de empleos perdidos en el sector de energía limpia a 40.000.
+Los cambios de política pública de esta Administración retrasarán la transición hacia la energía limpia y perpetuarán el uso de combustibles fósiles durante años, pero el daño más duradero será la destrucción de la infraestructura científica que nos ha permitido estudiar el cambio climático y desarrollar políticas para combatirlo. Al interrumpir programas de investigación, cerrar agencias gubernamentales e instituciones, despedir miles de expertos, y destruir carreras profesionales, la Administración Trump está socavando la ciencia climática de tal forma queperjudicará la competitividad estadounidense durante generaciones.
+En efecto, Estados Unidos está desmantelando su propia capacidad para abordar el cambio climático, cediendo el liderazgo de la economía de energía limpia a competidores como China.
+Más de 3.800 subvenciones de investigación fueroncanceladas abruptamenteen 2025, lo que supuso la retirada de 3.000 millones de dólares en financiación para la investigación científica en Estados Unidos. Cada subvención cancelada representa años de trabajo meticuloso desperdiciado, equipos de investigadores sin salarios y descubrimientos que quizás nunca lleguen a producirse. Las universidades de todo el país también se han visto afectadas por la influencia política en la ciencia, corrompiendo lo que antes se determinaba mediante la revisión por pares e inyectando ideología política en las decisiones de financiación científica.
+Impulsado porla influencia de los combustibles fósiles, este ataque ha sido especialmente dirigido a la ciencia climática. La Administración Trump ya ha despedido a expertos en clima de diversas agencias federales, ha cancelado la Evaluación Nacional del Clima, y ha borrado datos climáticos de los sitios web del Gobierno. Lo más alarmante es el cierre anunciado del Centro Nacional de Investigación Atmosférica, una institución fundamental que desarrolla los modelos atmosféricos y climáticos más utilizados en el mundo, a la que ahora califican como fuente de “alarmismo climático”. La Administración también ha amenazado con cerrar oficinas federales de investigación atmosférica y centros regionales de adaptación al cambio climático, de los que dependen las comunidades para prepararse ante los impactos.
+El daño intencional va más allá de la investigación; también perjudica gravemente la formación de futuros científicos quienes normalmente impulsarían la innovación climática estadounidense. Las universidades han reducido las admisiones a doctorados, suspendido las ofertas a posibles estudiantes, y limitado las becas. Los investigadores que están comenzando sus carreras se enfrentan a la incertidumbre del panorama de subvenciones y a la posibilidad de verse obligados a abandonar el campo de estudio climático del todo. Esta inestabilidad e interferencia política está provocando que los jóvenes comprometidos con la ciencia climática reconsideren por completo sus trayectorias profesionales, al darse cuenta de que un sistema donde la financiación de la investigación depende de los vaivenes políticos en lugar del mérito no les ofrece un futuro seguro. Abundan las anécdotas de investigadores que están considerando abandonar Estados Unidos en busca de entornos más favorables. Y mientras Estados Unidos aleja a sus mentes más brillantes de seguir carreras científicas o las empuja al extranjero, China redobla su inversión en investigación, posicionándose a la vanguardia de una transformación industrial que domina los mercados globales de vehículos eléctricos y la manufactura de tecnologías limpias.
+Sin embargo, a pesar de que la Administración Trump está debilitando la capacidad de Estados Unidos para abordar el cambio climático, las universidades y los Gobiernos subnacionales del país se niegan a renunciar a los avances logrados. Algunas universidades han recurrido ante los tribunales para revertir los recortes de financiación y han invertido parte de sus dotaciones en programas de investigación cruciales. Las coaliciones climáticas de Gobiernos estatales e instituciones académicas han anunciado reducciones en las emisiones netas de gases de efecto invernadero de aproximadamente un 24% por debajo de los niveles de 2005, a la vez que continúan impulsando las economías locales. Los Estados comprometidos con la acción climática han logrado reducciones de alrededor del 45% en las emisiones del sector eléctrico mediante la generación de energía más limpia, y muchos han promulgado normas vinculantes de energía limpia que garantizan la continuidad de sus avances.
+El daño que Trump está infligiendo a la ciencia climática estadounidense tendrá repercusiones durante décadas. Los descubrimientos perdidos, el talento humano desaprovechado y el liderazgo global cedido no se recuperarán fácilmente. Sin embargo, la resistencia de los Estados, las ciudades, y las universidades demuestra que el progreso estadounidense en materia climática es real. Dependerá de nosotros mantener este impulso hasta que la política federal se ajuste a la realidad.
+Frances Colónes investigadora principal de política climática internacional en el Center for American Progress.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C189" s="5" t="inlineStr">
+        <is>
+          <t>La maniobra petrolera de Trump en Venezuela: China acaparó con el régimen cuatro veces más reservas que Chevron y Repsol juntos</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2026-01-11T02:48:41+01:00</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>El presidente de EEUU busca una carambola en la que arrebata a China y Rusia el país con más yacimimientos del mundo y abarata de paso la gasolina a sus votantes. Leer</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Un informe del banco estadounidenseMorgan Stanleyenviado a clientes y al que ha tenido acceso este diario retrata en diez datos la verdadera dimensión del crudo en Venezuela que explican la jugada petrolera del presidente (y empresario) de Estados Unidos,Donald Trump.
+El capturadoNicolás Maduroestaba nutriendo el régimen con las ventas de petróleo a China y cediendo a sus empresas las mayores reservas para explotación no controladas por la petrolera estatalPDVSA.Los derechos concedidos a la chinaSinopecllegan a los 2.800 millones de barriles y es la más privilegiada después de PDVSA. Le sigue la estatal rusa conocida con su antiguo nombre deRosneft,con 2.300 millones y, la tercera, la también chinaCNPCcon 1.600 millones.
+En contraste, la primera estadounidense,Chevron,no llega a los mil millones y la españolaRepsolaparece en la lista con apenas 200 millones de barriles. Es decir, que chinos y rusos han llegado a copar seis veces más crudo venezolano que Chevron y Repsol juntos. Y si se deja fuera a la muy sancionada petrolera rusa, las dos empresas chinas acumulan cuatro veces más derechos sobre petróleo venezolano que Chevron - que se perfila como mayor beneficiaria de la maniobra de Trump- y la compañía española.
+Hay otro dato significativo que aporta Morgan Stanley de la mano de la consultoraWood Mackenziey es que Venezuela posee las mayores reservas de petróleo del mundo sin explotar.Se le atribuyen 241.000 millones de barriles aún por producir. Es decir, casi tanto como Arabia Saudí (171.000) y EEUU (94.000) juntos.Su problema es que, al mismo tiempo, Venezuela es el productor más incompetente de todos los grandes productores. «Entre los diez principales poseedores de reservas, Venezuela es, con diferencia, el menor productor. La falta de inversión y el impacto de las sanciones le han afectado gravemente: desde un máximo de 3,5 millones de barriles diarios a finales de la década de 1990, la producción de crudo ha descendido hasta solo a 900.000», señala el informe. Y lo poco que exporta va mayoritariamente hacia China, segúnVortexay Morgan Stanley.
+Otro dato apunta a cómo Maduro estaba sustituyendo dependencia de EEUU por la de Rusia en otro elemento capital. «Un factor crítico que a menudo ha limitado la producción de Venezuela es la importación de nafta. Gran parte del petróleo venezolano es muy pesado, lo que dificulta su procesamiento y transporte. La solución es importar petróleo muy liviano (principalmente nafta) para mezclarlo con el crudo pesado y así permitir que fluya», recalca el documento. «Históricamente, esas importaciones de diluyentes han provenido de EEUU, pero el largo freno [sanciones] a estas importaciones entre 2019 y 2022 ha sido uno de los factores que han condicionado la producción». ¿Y de dónde sale ahora la nafta?«Sigue llegando a Venezuela, pero en los últimos seis meses ha procedido casi en su totalidad de Rusia».
+Tanto el equipo de Trump como el anterior deJoe Bidenhan justificado durante años conceder permisos excepcionales de importación de crudo venezolano a petroleras estadounidenses y a otras como Repsol precisamente para limitar la deriva hacia el monopolio ruso o chino, pero el actual presidente de EEUU ha decidido cortar de raíz e intentar apropiarse él, de facto, de los yacimientos.
+A esta jugada geopolítica se une el intento de Trump de cumplir una de sus promesas de campaña a los estadounidenses y es conseguir bajar de los dos dólares por galón de gasolina en las estaciones de servicio de su país. Tanto Morgan Stanley comoGoldman Sachs prevén un precio del crudo mundial más barato a corto plazotras la captura de Maduro, por debajo de los 60 dólares. Eso, unido a que las refineras estadounidenses están particularmente bien colocadas para gestionar el pesado crudo venezolano, contribuye a que Trump se presente en mejores condiciones en las elecciones intermedias del próximo año. Al colocar aDelcy Rodríguezparece intentar evitar caídas de producción como en dos caóticos precedentes de intento de control petrolero en que se derrocaba sin transición: Irak en 2003 y Libia en 2011.
+¿Y Repsol? Su situación solo debería mejorar tanto en sus posibilidades de cobro de deudas milmillonarias como de explotación de gas y petróleo en Venezuela. Su CEO,Josu Jon Imaz,participó en la cumbre petrolera de la Casa Blanca con Trump del pasado viernesy ofrece triplicar su producción si el marco regulatorio y comercial cambia radicalmente en Venezuela, en línea con la posición mayoritaria de un sector que necesita certidumbre para el costoso relancamiento de la producción en Venezuela. Le favorece ser socio también allí deENI,el grupo italiano que controlaGiorgia Melonimucho más próxima a Trump quePedro Sánchez.Pero elAmerica Firstno es un eslógan, sino el manual del imprevisible y feroz político republicano, así que todo es incierto para Europa y sus empresas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C190" s="5" t="inlineStr">
+        <is>
+          <t>¿Protege Dinamarca Groenlandia con un trineo de perros?</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2026-01-11T02:02:20+01:00</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Los datos desmienten las acusaciones de la Administración Trump sobre la inversión danesa en su Defensa militar, la presencia de buques chinos y rusos en sus costas, las inversiones masivas chinas y el estatus jurídico de la isla Leer</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Entre las risas de sus acompañantes,Donald Trumpaseguró esta semana, a bordo del Air Force One, queDinamarcaha reforzado la protección deGroenlandiacon la adquisición de un trineo de perros. Una falsedad y, al mismo tiempo, una verdad a medias. Otro factor de confusión en lo que políticos y medios daneses consideran una campaña de desinformación orquestada por la Casa Blanca que también incluye menciones de buques chinos y rusos junto a las costas groenlandesas, masivas inversiones chinas en la isla y denuncias de colonialismo danés.
+No es la primera vez que Trump habla de trineos, pero lo cierto es que entre los 42.000 millones de coronas (5.620 millones de euros) que Dinamarca gastará para su rearme militar en el Ártico no hay ni una sola corona destinada a trineos de perros. Es decir, no ha comprado ninguno y los que ya tiene la denominada Patrulla Sirius se utilizan más bien para misiones de inspección y rescate, no como elemento de disuasión ante eventuales ejércitos enemigos.
+Las compras más importantes contempladas con los 42.000 millones incluyencinco buques de inspección árticade última generación para sustituir a los desgastados buques de la gama Thetis;cuatro drones de largo alcanceMQ-9B SeaGuardian;aviones de patrulla marítima del tipo Boeing P-8 Poseidon; sistemas de satélite; un radar de vigilancia aérea en las Islas Feroe para vigilar aviones y misiles en el Atlántico Norte; y un radar de vigilancia aérea para el este de Groenlandia.
+Sí es cierto, como insinúa el presidente estadounidense, que sobre el terreno todavía no ha ocurrido prácticamente nada. La entrega de la totalidad de las adquisiciones danesas no se completará hasta 2030 o 2031."Ahora mismo la situación no ha cambiado, ni en tierra ni en el mar", ha explicado Marc Jacobsen, especialista en política internacional en el Ártico de la Academia de Defensa, al diarioBerlingske. "Pero el suministro de este tipo de material lleva su tiempo, algo que Trump debería saber".
+En cualquier caso, el ministro de Asuntos Exteriores danés, el moderado Lars Løkke Rasmussen, ha manifestado que la seguridad de Groenlandia, clave para laOTANpor su situación geográfica en el globo terráqueo, con Norteamérica a un lado y Rusia y Europa al otro (el camino más corto para un misil ruso disparado contra territorio estadounidense pasaría por encima de la isla ártica), no debe ser entendida como una responsabilidad exclusiva de Dinamarca, sino como una tarea conjunta para todos los miembros de la Alianza Atlántica.
+Especialmente para Estados Unidos, que ya cuenta con la Base Espacial de Pituffik (con 150 soldados), y que en los años 50 del siglo pasado llegó a tener en la isla hasta cuatro bases más y una decena de instalaciones adicionales (con un total de 6.000 soldados), las cuales decidió ir cerrando por cuenta propia en décadas posteriores.
+Løkke ha negado también otra de las acusaciones de Trump, quien sostiene que en las costas de Groenlandia "hay buques rusos y chinos por todas partes que se pueden ven a simple vista sin necesidad de anteojos".No hay constancia, sin embargo, de presencia rusa o china ni en los datos de tráfico marítimo ni en las observaciones de los barcos de pesca locales.
+El Arctic Institute, un organismo con sede en Washington especializado en estudios de seguridad polares, apunta que los buques rusos navegan más bien por el mar de Barents y cerca de las costas noruegas, así como que la posible presencia de submarinos rusos por la zona de Groenlandia no es superior a la que pueda haber por ciertas islas canadienses o por Islandia. Los buques chinos se encuentran más cerca de Rusia o de Alaska.
+La Casa Blanca ha insistido también en su inquietud ante la fuerte actividad inversora china en Groenlandiaen sectores críticos como la minería, las comunicaciones y las infraestructuras. Según el Consejo de Seguridad Nacional de EEUU, el patrón que sigue Pekín para su expansión internacional es claro: comienza con intereses económicos, continúa con presiones políticas y, eventualmente, acaba aplicando también presiones militares.
+Aquí es donde las acusaciones de Washington se alejan más de la realidad.Las inversiones directas chinas en Groenlandia en 2026 son mínimas. La mayoría de sus proyectos han sido rechazados, paralizados o asumidos por empresas occidentales. Pese a sus grandes ambiciones iniciales, la realidad es que China ha quedado al margen del desarrollo económico groenlandés. Está presente como accionista minoritario en alguna empresa minera, pero no posee infraestructuras críticas ni explota minas activas ni gestiona telecomunicaciones.
+Irónicamente, sobre todo a tenor de las agresivas declaraciones de la Administración Trump sobre la necesidad de anexionarse Groenlandia, han sido sobre todo las presiones de los gobiernos danés y estadounidense, además de la aprobación de leyes medioambientales por parte del Parlamento local, las que han frustrado una penetración china a gran escala.
+El sector minero fue el ámbito donde Pekín mostró mayor interés, pero también donde encontró la resistencia más fuerte. El caso más emblemático es Kuannersuit, uno de los mayores yacimientos mundiales de tierras raras. El grupo chino Shenghe Resources pasó de ser el favorito para su explotación a verse reducido a socio minoritario (9%) de Energy Transition Minerals, la empresa australiana actualmente responsable del proyecto. Paralizado, no obstante, por las leyes groenlandesas que prohíben desde 2021 excavaciones donde haya presencia de uranio.
+Otro ejemplo es la mina de hierro de Isua, adquirida en 2015 por la empresa china General Nice Group. En 2021, el Gobierno autónomo retiró la licencia por falta de avances y por impagos. En Citronen Fjord, un yacimiento de zinc y plomo en el norte de Groenlandia, existió interés chino a través de NFC, pero el proyecto se financia hoy principalmente con capital de la empresa australiana Ironbark Zinc.
+La influencia china ha sido aún más limitada en sectores estratégicos como las infraestructuras y las telecomunicaciones, donde Dinamarca y Estados Unidos han intervenido directamente por motivos de seguridad. En 2018, la empresa china CCCC estuvo cerca de obtener el contrato para construir los nuevos aeropuertos internacionales de Nuuk e Ilulissat, lo cual provocó una crisis diplomática que terminó con la intervención financiera del Estado danés para asegurar que los proyectos permanecieran bajo control occidental.
+En telecomunicaciones, Groenlandia tomó una decisión similar en 2019, cuando la empresa estatal Tusass optó por la sueca Ericsson como proveedora de la red 5G, descartando por motivos de seguridad a su elección inicial, la china Huawei. En ambos casos, las presiones de Washington resultaron decisivas para la marcha atrás.
+Tras la exclusión de China, han sido principalmente países occidentales, encabezados porCanadá,Estados Unidos,Australiay laUnión Europea, quienes han ocupado ese espacio. Estados Unidos controla el denominado proyecto Tanbreez, otro de los mayores yacimientos de tierras raras del mundo, que pasó a manos de la empresa estadounidense Critical Metals Corp entre 2024 y 2025. El Gobierno estadounidense considera incluso una participación directa para asegurar el suministro a su industria de Defensa.
+La UE ha reconocido su fuerte dependencia de las materias primas chinas para la transición verde y ha convertido a Groenlandia en una prioridad estratégica. Por ello, se ha posicionado como un socio clave, combinando apoyo financiero e inversiones directas en minería de minerales críticos con acento en una industria sostenible.
+Canadá, por su parte, se ha consolidado comoel socio operativo más importante, gracias a su experiencia en minería ártica, su aceptación social entre la población y el desarrollo de nuevas rutas aéreas y logísticas entre Groenlandia y América del Norte. Las empresas mineras canadienses saben cómo gestionar la logística en condiciones extremas de frío y aislamiento, retos que China a menudo subestimó. Además, aplican modelos de buenas prácticas para integrar a la población inuit en sus proyectos, elemento muy valorado por los groenlandeses.
+Uno de los colaboradores de Trump más hostiles hacia Dinamarca ha sidoStephen Miller, su vicesecretario de Gabinete. Durante una reciente entrevista con la cadena CNN, en un encendido alegato a favor de la anexión, Miller dijo que Groenlandia es una colonia danesa de 30.000 habitantes y se preguntó indignado: "¿Con qué derecho se arroga Dinamarca su control?" En realidad, se trata de un territorio autónomo con 57.000 habitantes y capacidad legislativa para iniciar un proceso de independencia.
+La soberanía danesa está reconocida por la ONU desde 1953, cuando Groenlandia dejó de ser considerada una colonia, y por la ley de autonomía groenlandesa de 2009. Además, existe untratado entre Estados Unidos y Dinamarca, firmado en 1916 con ocasión de la compra estadounidense de las Islas Vírgenes, hasta entonces una posesión danesa, por el que Washington, aparte de pagar 25 millones de dólares, aceptó que los daneses controlasen toda Groenlandia.
+El aparente desconocimiento de Miller del fundamento jurídico sobre el que reposa la soberanía danesa le ha valido no sólo críticas en Dinamarca, sino también en Estados Unidos, incluso dentro de su propio partido. Thom Tillis, senador republicano por Carolina del Norte crítico con los planes anexionistas de Trump, se mostró muy contundente, también en la CNN:"Que Stephen Miller se limite a hablar sobre temas de los que sabe algo. Si no, que deje su puesto".</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C191" s="5" t="inlineStr">
+        <is>
+          <t>Venezuela frente a Taiwan: ¿la captura de Maduro podría ser un estímulo para la ambición militar de Xi Jinping?</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2026-01-11T00:05:32+01:00</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Tras la operación de Trump en Venezuela, ¿qué impide a China invadir la que considera su isla rebelde? Leer</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>El ataque nocturno ordenado porDonald Trumppara capturar aNicolás Maduroha reabierto un debate incómodo muy lejos de Caracas: si la primera potencia del mundo puededecapitarpor la fuerza a un régimen hostil en su vecindario inmediato,¿qué impide a China hacer lo propio con Taiwan?
+En Pekín, donde cada gesto de Washington se analiza en clave estratégica, ha habidouna fuerte reacción contra el ataque estadounidense a Venezuela. De puertas hacia fuera, a diferencia de la cautela y la división europea, los funcionarios chinos exigieron la liberación de Maduro y respaldaron la convocatoria de una reunión urgente del Consejo de Seguridad de la ONU.
+En el patio casero chino, editoriales de los medios controlados por el gobernante Partido Comunista (PCCh), así como académicos y comentaristas nacionalistas en redes sociales, comenzaron a deslizar algunos paralelismos entre Caracas y Taipei, alimentando una vía ansiada por muchos en el gigante asiático:el uso de la fuerza para lograr la "reunificación" de Taiwan, la isla autogobernada de 23 millones de habitantes que China reclama desde 1949 como parte "inalienable" de su territorio.
+La comparación entre el caso venezolano y el taiwanés llegaba poco después de uno de los mayoressimulacros de invasión de Taiwanpor parte del Ejército Popular de Liberación (EPL) de China. Desde 2022, después de la visita deNancy Pelosi-entonces presidenta de la Cámara de Representantes de EEUU- a Taipei, Pekín ha normalizado en el estrecho que les separa lasmaniobras militares que simulan bloqueos marítimos, ataques de precisión contra infraestructuras críticas y operaciones de desembarco anfibio.
+Algunos altos funcionarios taiwaneses, consultados por teléfono por este periódico, señalan que, aunque la tentadora comparación era de esperar (superpotencias militares frente a dos actores mucho más pequeño, dependiente de apoyos externos y con capacidades defensivas limitadas), también es muy engañosa.
+Mientras que Venezuela es un Estado internacionalmente reconocido, gobernado por un régimen autoritario aislado, con una economía colapsada y sin alianzas militares capaces de disuadir a Washington,Taiwan funciona como una democracia independientede facto, integrada en las cadenas de valor más sensibles del planeta y respaldada militarmente por EEUUy -probablemente- por otros actores regionales importantes, como Japón.
+Mientras que Venezuela es un exportador de materias primas cuya principal palanca -el petróleo- lleva años sancionada, Taiwan es el epicentro de la industria global de lossemiconductores más avanzados, indispensables para la industria tecnológica global. La isla es un nodo crítico para las cadenas de suministro internacionales. Produce más del 90% de los chips más avanzados. Un bloqueo o invasión del ejército provocaríaun inmediatoshocken el sector de la electrónica en todo el mundo.
+Mientras que Trump ha ordenado el ataque a Caracas y una efectiva operación quirúrgica para capturar a Maduro sin que, por ahora, haya enfrentado consecuencias por ello, el líder chinoXi Jinpingtendría que lidiar con amplias sanciones internacionales en caso de una ofensiva militar contra Taiwan, lo que sacudiría auna economía china debilitadaen los últimos años por el colapso inmobiliario y los largos cierres durante la pandemia.
+El pasado jueves, en una entrevista conThe New York Times, Trump aseguró que la situación en Taiwan no representa para China el mismo tipo de amenaza que suponía el régimen de Maduro para Estados Unidos. También subrayó que no cree que Xi haga "ningún movimiento contra Taiwan" durante su Presidencia, que termina en 2029.
+"Él [Xi] lo considera parte de China, y es cosa suya lo que hará", contestó el estadounidense respecto a las lecciones qué podría sacar su homólogo chino de la operación militar de Washington en Venezuela. Tras los comentarios de Trump, una portavoz del Ministerio de Exteriores chino dijo el viernes que"la cuestión de Taiwan es un asunto puramente interno de China"y que Pekín no "admite ninguna interferencia externa".
+Washington justificó la vulneración de la soberanía venezolana y la operación contra Maduro combinando acusaciones de narcotráfico, terrorismo y violaciones masivas de derechos humanos, apoyándose enjurisdicciones extraterritoriales de su sistema judicial. En el caso de Taiwan, las autoridades chinas sostienen que, de intervenir militarmente, se trataría de un asunto interno porque la isla es parte del territorio chino.
+Esa postura la reitera estos díasShen Dingli, uno de los analistas en relaciones internacionales más influyentes del país asiático: lo que sucede entre ambos lados del estrecho no es una cuestión internacional, por tanto, la actuación de Estados Unidos en Venezuela es irrelevante para el caso taiwanés. También lo explicaba bienRyan Hass, ex diplomático estadounidense e investigador delthink tankBrookings Institution: "China no se ha abstenido de usar la fuerza por respeto al derecho internacional, sino porque ha considerado más eficaz una estrategia prolongada de coerción sin guerra abierta".
+Diplomáticos y funcionarios chinos y taiwaneses consultados estos días coinciden en señalar que el paralelismo con Venezuela se queda aparcado en el terreno mediático y en redes sociales. En Pekín ahora están más centrados en presentar al presidenteXi Jinping como adalid del multilateralismo y la estabilidad global frente al caos que deja a su paso Donald Trump.
+"Cuando Rusia atacó Ucrania, los medios occidentales estuvieron meses publicando análisis erróneos sobre que China iba tomar nota de la reacción de Occidente y a aprovechar la distracción de esa guerra para atacar Taiwan. Pero es que ahora, en el caso de Venezuela, son dos contextos sociales, políticos e históricos completamente diferentes", asegura un funcionario del Ministerio de Exteriores chino.
+El Gobierno de Xi ha denunciado que la captura de Maduro ha puesto de relieve laerosión acelerada del orden internacional basado en reglasy critica la tibieza de muchos aliados occidentales de Estados Unidos, preocupados por no enfadar a Washington en plenas negociaciones comerciales. En Europa sí ha habido estos días algunas voces, como la deEmily Thornberry, presidenta del Comité de Asuntos Exteriores del Parlamento británico, que alertó de que la ausencia de una condena clara ala operación estadounidense en Venezuela podría envalentonar a potencias como China y Rusia. Tong Zhao, investigador del Carnegie Endowment, advertía enForeign Affairsde que esta indulgencia va a reducir aún más la "autoridad moral de Occidente para criticar la coerción china".</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C192" s="5" t="inlineStr">
+        <is>
+          <t>La amenaza china contra Taiwán tras Venezuela: entre la envidia y la paciencia</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2026-01-11T04:35:53+01:00</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Todo conflicto invita a pensar en el siguiente, aun más cuando este amenaza con ser el último: la futurible colisión entre las dos superpotencias, China y Estados Unidos, en aguas de Taiwán. Por eso, la incursión militar en Venezuela y la captura del dictador Nicolás Maduro tiene a medio mundo escrutando, sobre los escombros del chavismo, la otra costa del Pacífico. Al fin y al cabo, quizá no sean sino preparativos. ¿Legitima el ramalazo imperialista las ambiciones chinas? «Acciones controvertidas de EE.UU. como la operación en Venezuela y la aceptación tácita por parte de la comunidad internacional importan enormemente», responde Tong Zhao , investigador del Carnegie Endowment for International Peace y una de las mayores autoridades a nivel mundial en... Ver Más</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Jaime Santirso
+Corresponsal en Pekín
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+Todo conflicto invita a pensar en el siguiente, aun más cuando este amenaza con ser el último: la futurible colisión entre las dos superpotencias, China y Estados Unidos, en aguas de Taiwán. Por eso,la incursión militar en Venezuelay la captura del dictadorNicolás...Madurotiene a medio mundo escrutando, sobre los escombros del chavismo, la otra costa del Pacífico. Al fin y al cabo, quizá no sean sino preparativos.
+¿Legitima el ramalazo imperialista las ambiciones chinas? «Acciones controvertidas de EE.UU. como la operación en Venezuela y la aceptación tácita por parte de la comunidad internacional importan enormemente», respondeTong Zhao, investigador del Carnegie Endowment for International Peace y una de las mayores autoridades a nivel mundial en doctrina militar china.
+«Estas permiten a los líderes autoritarios rebajar sus umbrales percibidos de comportamiento aceptable», prosigue. «No es necesario que las normas desaparezcan por completo para que el estándar pase a ser comparativo en lugar de absoluto. Los Estados iliberalesno buscan una legitimidad moral universal, les basta con creer que no son peores que sus rivales occidentales o, en su propia visión, ligeramente mejores».
+La intervención, por tanto, debilita el ascendente global de EE.UU. y permite a China erigirse en garante del orden global basado en normas y multilateralismo, tal y como viene haciendo durante la presidencia deDonald Trump, pese a la flagrante incoherencia con sus políticas internas y externas. Un capital simbólico que acumula, a la espera de que llegue el momento oportuno de desembolsarlo.
+Pues legitimidad externa para invadir Taiwán, a su entender, no necesita. «Taiwán es parte inalienable de China. Cómo resolver la cuestión de Taiwán es un asunto que corresponde a los propios chinos y ninguna fuerza ajena está en posición de interferir», zanjaba el portavoz de ExterioresLin Jianeste lunes durante la primera rueda de prensa diaria del ministerio tras el arresto de Maduro, sin que los extraordinarios acontecimientos modificaran un ápice el discurso oficial.
+La disputa que suscita Taiwán representa la última batalla por librar de una guerra civil congelada en el tiempo desde hace casi ocho décadas. Los nacionalistas derrotados de Chiang Kai-shek buscaron refugio en la isla, llevándose consigo la República de China, mientras los victoriosos comunistas liderados porMao Zedongfundaban la República Popular de China en 1949. Desde entonces, el régimen considera al territorio, democracia independiente de facto, una región rebelde que nunca ha renunciado a someter por las armas.
+Un peligro perpetuo ante el que EE.UU. se aferra a su «ambigüedad estratégica»: ni promete ni descarta acudir en auxilio de Taiwán. En ese sentido, de entre los factores que condicionan el frágil porvenir del territorio, solo uno parece reivindicado por la coyuntura venezolana: la disposición estadounidense derecurrir a la fuerza en defensa de sus intereses, por más que las colosales diferencias entre ambos escenarios atenúen la advertencia.
+«Él [Xi] lo considera [a Taiwán] parte de China y depende de él lo que vaya a hacer [...]. Pero yo le he transmitido que estaría muy descontento si hiciera eso [una invasión], y no creo que lo haga, espero que no lo haga», apuntaba Trump este miércoles en una entrevista con el diario 'The New York Times', en la que reiteraba su confianza de que Xi no lanzará una ofensiva mientras él sea presidente.
+Así, todos los actores involucrados encuentran en el correctivo chavista lecturas positivas para sus consideraciones: EE.UU., sobre la lozanía de su fuerza; Taiwán, sobre su capacidad de emplearla; y China, sobre la viabilidad de semejantes operaciones.
+Ahora bien, replicar tamaño logro se antoja inalcanzable para un Ejército Popular de Liberación (EPL) lastrado por las purgas políticas y la falta de experiencia –China no libra una guerra convencional desde 1979–. «Los chinos reconocen que no cuentan con capacidades militares suficientes para tomar Taiwán», señalaBonnie Glaser, directora gerente del programa Indo-Pacífico del German Marshall Fund. «La creencia de que el nivel de preparación del EPL no es muy alto está ampliamente extendida».
+El juicio resulta actual, dadas las maniobras ejecutadas alrededor de la isla hace apenas una semana. De ahí que el despliegue de poderío estadounidense haya generado, a nivel popular, envidia. Ninguna tan evidente como la deLi Yi, un conocido asesor del Partido Comunista y analista, para quien la operación aplicaba a la perfección los principios de 'El arte de la guerra'.
+«Vencer al enemigo sin combatir es lo mejor. ¡Eso es lo que está haciendo Trump!», exclamaba en un vídeo viral. «'Tratados impuestos bajo las murallas de la ciudad', 'Dispara al caballo antes que al jinete', 'captura al rey antes que a los soldados', ¡eso es táctica pura!», gritaba Li, iracundo hasta el punto de abofetearse. «¡Tienes que aprender! ¡No puedes atrapar aLai Qing-te[presidente de Taiwán] y encima te burlas de Trump! ¡No tienes ninguna vergüenza! ¡Tantos años y Taiwán todavía no se ha unificado!». Informaciones difundidas en redes sociales cuya veracidad este diario no ha podido corroborar afirman que el comentarista habría sido detenido.
+China, pese a todo, aguarda. «Xi no tiene prisa por lograr la unificación mediante el uso de la fuerza [...]. Cada vez tienen más confianza en que la situación internacional evoluciona a su favor y que EE.UU. está en declive», concluye Glaser. Trump quizá ha acelerado el escenario de transición de poder pero, paradójicamente, esta noción disminuye la probabilidad a corto plazo de un enfrentamiento. Hasta entonces todo serán preparativos, o comienzos inadvertidos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C193" s="5" t="inlineStr">
+        <is>
+          <t>¿Tiene razón el poderoso?</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2026-01-10T15:29:47+01:00</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>La toma de Venezuela por Donald Trump o su intención de quedarse con Groenlandia , un territorio de un país miembro de la OTAN, no deberían llevar a pensar que hay una estrategia clara detrás. Tampoco que responden a una visión para crear orden en la nueva era geopolítica de rivalidades entre grandes potencias. La profusión de análisis poco meditados de la definitiva repartición del mundo en tres esferas de influencia -estadounidense, china y rusa- es solo una señal de que el ser humano busca certidumbre y racionalidad. No acepta fácilmente el horror del caos y la improvisación del poderoso. Trump, por supuesto, invoca los intereses de su país para explicarse, desde evitar la penetración de China y Rusia en... Ver Más</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>MONNET &amp; CO.
+José M. de Areilza
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+La toma de Venezuela por Donald Trumpo su intención dequedarse con Groenlandia, un territorio de un país miembro de la OTAN, no deberían llevar a pensar que hay una estrategia clara detrás. Tampoco que responden a una visión para crear orden...en la nueva era geopolítica de rivalidades entre grandes potencias.
+La profusión de análisis poco meditados de la definitiva repartición del mundo en tres esferas de influencia -estadounidense, china y rusa- es solo una señal de que el ser humano busca certidumbre y racionalidad. No acepta fácilmente el horror del caos y la improvisación del poderoso.
+Trump, por supuesto, invoca los intereses de su país para explicarse, desde evitar la penetración de China y Rusia en Latinoamérica aaprovechar oportunidades en el mar Árticorelacionadas con la navegación comercial y la explotación de minerales críticos, y energías fósiles. En su equipo además hay una competencia feroz entre aislacionistas y halcones republicanos, dispuestos a proyectar el poder global estadounidense, en primer lugar, frente a China.
+Pero la explicación del activismo internacional de Trump es más sencilla: busca triunfos fáciles en el exterior ante un panorama doméstico complicado. Basta con sumar sus bajos índices de popularidad, la fractura interna entre sus leales del movimiento MAGA por elcaso Epsteiny la probabilidad alta de que los demócratas recuperen el control de la Cámara Baja en noviembre.
+Los dosieres complejos de la guerra en Ucrania o del post-conflicto en Gaza ya no le llaman la atención y no le interesa la difícil gestión diplomática de estas crisis. Trump además antepone los intereses de sus familiares y amigos por hacer negocios a cualquier otra consideración estratégica, del imperio de la ley a su propio imperio empresarial. Nadie alrededor suyo se atreve a llevarle la contraria,como ocurrió en su primer mandato.
+Una de las leyes del poder es que el éxito del victorioso sirve de excusa de casi todo. El corolario es que además muchos se ocupan de racionalizar cualquier triunfo al margen de las normas y revestirlo con teorías que lo convierten en algo lógico y necesario.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C194" s="5" t="inlineStr">
+        <is>
+          <t>Probamos el Samsung TriFold: el primer móvil de la marca con tres pantallas</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Tecnología de consumo</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2026-01-09T10:42:22+01:00</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Siguiendo la estela de Huawei, Samsung acaba de presentar en el CES de Las Vegas su propuesta TriFold , un móvil con pantalla plegable tipo 'libro' con triple pantalla. 6,5 pulgadas cerrado, y 10 pulgadas abierto; por lo tanto, ahora sí que podemos hablar de un formato tableta, pero una ultrafina de 3,9 mm en el punto más delgado, más fino que el Galaxy Z Fold 7 . Abierta se siente como cualquier otra tableta de alta gama, fina y ligera. Es al plegar sus tres pantallas donde nos encontramos con un grosor de 12,9 milímetros, que lo sitúa entre el Galaxy Fold 6 y 5. Os contamos este primer contacto que hemos tenido con el que será el móvil más caro de 2026. Una de las claves cuando empiezas a revisar el TriFold está en las bisagras. Se nota que no son dos piezas idénticas, una es más compacta y la otra más amplia, para que el grosor no sea excesivo. Esa asimetría, que puede parecer rara al principio, termina desapareciendo dejando una sensación sólida al abrir y cerrar el teléfono. La propia de un producto bien acabado y resistente. Y aquí viene el primer 'shock': al empezar a abrir y cerrar el TriFold, este va del revés, es decir, al contrario que el Fold normal de doble pantalla. Lo bueno es que Samsung es consciente de ello, y ha puesto una alerta que te avisa en pantalla en cuanto lo intentas doblar mal. De hecho, si intentas plegarlo como no es, puedes empezar el movimiento, pero no termina de cerrar si vas mal encaminado, y puedes estar tranquilo, porque no se rompe. Sólo hay un modelo de TriFold, con un acabado de fibra de carbono, y un diseño con un punto 'racing' que no solemos ver en Samsung. Muy parecido a la funda oficial del Galaxy Fold 7. La pantalla interior es sencillamente espectacular: 120 Hz, AMOLED, brillo alto, buena respuesta, incluso algo mejor que en el Galaxy Fold 7. Pero lo interesante es cómo se puede convertir en una herramienta de productividad, ya que permite tener tres aplicaciones abiertas, una por pantalla, al mismo tiempo sin problema. Sobre todo se nota cuando queremos tener Gemini y usarlo junto con el resto de aplicaciones sin necesidad de que esté superpuesto, algo que en pantalla normal estropea la experiencia. Utilizar el terminal es muy parecido a como se haría con un monitor de un portátil pequeño. Y luego está el punto diferencial de este dispositivo, el modo DeX , o el modo escritorio. No DeX en una segunda pantalla, como tienen algunos móviles Galaxy, sino en la pantalla de 10 pulgadas directamente . Abres el escritorio, conectas teclado y ratón y te puedes crear un mini portátil. Puedes tener hasta cuatro escritorios para separar trabajo y ocio, lo que los convierte en el dispositivo perfecto para la movilidad. Estoy convencido, que aparecerán soportes y fundas con teclado dentro de nada, al igual que lo tienen casi todas las tabletas. Por dentro, el móvil monta el Snapdragon 8 Elite for Galaxy, el mejor procesador de Qualcomm con batería de 5.600 mAh, la más grande en un plegable de Samsung hasta la fecha, y carga de 45 W. En cámaras, la propuesta es la que esperas en una gama alta, triple módulo con principal de 200 MP, y dos frontales. Lo mismo que ya vimos en el Fold 7, pero con un mejor procesamiento. En mano, no se me ha hecho dramático, pero el peso de 309 gramos lo hace bastante pesado . Y hay otro matiz, no es solo el peso, es la palanca. Abierto es grande, y aunque puedas sujetarlo con una mano un rato, como ocurre con una tableta, es difícil que lo puedas usar durante un largo periodo de tiempo si no lo haces con las dos manos. Otra cosa que me llama la atención es que TriFold de Samsung sólo tiene dos posiciones: cerrado o totalmente abierto. No puedes abrir sólo dos paneles y usarlo, hay que hacerlo con los tres, restándole algo de versatilidad. Al igual que le pasó al Galaxy Fold 7, no hay S-Pen, en una pantalla doble, para los amantes de escribir con el bolígrafo, su ausencia era dolorosa. Aquí, en una pantalla de 10 pulgadas, lo es todavía más. Sobre la disponibilidad, el lanzamiento en Corea tiene prioridad, y las reservas en el país ya están agotadas. Probablemente pase lo mismo en Estados Unidos y China, que aparecen en las quinielas como próximos mercados a los que llegará. Sobre Europa, por ahora, no sabemos nada . El terminal es el culmen de siete generaciones de plegables de Samsung, un producto maduro, increíblemente ligero y portátil para estar hablando de una pantalla de 10 pulgadas, y que respira calidad por todos sus poros. Eso sí, no sabemos el precio con el que llegará a Europa, pero en Corea se vende por unos 2.100 euros, lo que lo convierte en un terminal de lujo. A nosotros nos ha encantado, a pesar del precio prohibitivo.</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Jon Oleaga
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+Siguiendo la estela de Huawei, Samsung acaba de presentar en el CES de Las Vegas su propuestaTriFold, un móvil con pantalla plegable tipo 'libro' con triple pantalla. 6,5 pulgadas cerrado, y 10 pulgadas abierto; por lo tanto, ahora sí que podemos hablar...de un formato tableta, pero una ultrafina de 3,9 mm en el punto más delgado, más fino que elGalaxy Z Fold 7. Abierta se siente como cualquier otra tableta de alta gama, fina y ligera.
+Es al plegar sus tres pantallas donde nos encontramos con un grosor de 12,9 milímetros, que lo sitúa entre el Galaxy Fold 6 y 5. Os contamos este primer contacto que hemos tenido con el que será el móvil más caro de 2026.
+Una de las claves cuando empiezas a revisar el TriFold está en las bisagras. Se nota que no son dos piezas idénticas, una es más compacta y la otra más amplia, para que el grosor no sea excesivo. Esa asimetría, que puede parecer rara al principio, termina desapareciendo dejando una sensación sólida al abrir y cerrar el teléfono. La propia de un producto bien acabado y resistente.
+Y aquí viene el primer 'shock': al empezar a abrir y cerrar el TriFold, este va del revés, es decir, al contrario que el Fold normal de doble pantalla. Lo bueno es que Samsung es consciente de ello, y ha puesto una alerta que te avisa en pantalla en cuanto lo intentas doblar mal. De hecho, si intentas plegarlo como no es, puedes empezar el movimiento, pero no termina de cerrar si vas mal encaminado, y puedes estar tranquilo, porque no se rompe.
+Sólo hay un modelo de TriFold, con un acabado de fibra de carbono, y un diseño con un punto 'racing' que no solemos ver en Samsung. Muy parecido a la funda oficial del Galaxy Fold 7. La pantalla interior es sencillamente espectacular: 120 Hz, AMOLED, brillo alto, buena respuesta, incluso algo mejor que en el Galaxy Fold 7. Pero lo interesante es cómo se puede convertir en una herramienta de productividad, ya que permite tener tres aplicaciones abiertas, una por pantalla, al mismo tiempo sin problema. Sobre todo se nota cuando queremos tener Gemini y usarlo junto con el resto de aplicaciones sin necesidad de que esté superpuesto, algo que en pantalla normal estropea la experiencia. Utilizar el terminal es muy parecido a como se haría con un monitor de un portátil pequeño.
+Y luego está el punto diferencial de este dispositivo, el modoDeX, o el modo escritorio. No DeX en una segunda pantalla, como tienen algunos móviles Galaxy, sino en lapantalla de 10 pulgadas directamente. Abres el  escritorio, conectas teclado y ratón y te puedes crear un mini portátil. Puedes tener hasta cuatro escritorios para separar trabajo y ocio, lo que los convierte en el dispositivo perfecto para la movilidad. Estoy convencido, que aparecerán soportes y fundas con teclado dentro de nada, al igual que lo tienen casi todas las tabletas.
+Por dentro, el móvil monta el Snapdragon 8 Elite for Galaxy, el mejor procesador de Qualcomm con batería de 5.600 mAh, la más grande en un plegable de Samsung hasta la fecha, y carga de 45 W. En cámaras, la propuesta es la que esperas en una gama alta, triple módulo con principal de 200 MP, y dos frontales. Lo mismo que ya vimos en el Fold 7, pero con un mejor procesamiento.
+En mano, no se me ha hecho dramático,pero el peso de 309 gramos lo hace bastante pesado. Y hay otro matiz, no es solo el peso, es la palanca. Abierto es grande, y aunque puedas sujetarlo con una mano un rato, como ocurre con una tableta, es difícil que lo puedas usar durante un largo periodo de tiempo si no lo haces con las dos manos.
+Otra cosa que me llama la atención es que TriFold de Samsung sólo tiene dos posiciones: cerrado o totalmente abierto. No puedes abrir sólo dos paneles y usarlo, hay que hacerlo con los tres, restándole algo de versatilidad. Al igual que le pasó al Galaxy Fold 7, no hay S-Pen, en una pantalla doble, para los amantes de escribir con el bolígrafo, su ausencia era dolorosa. Aquí, en una pantalla de 10 pulgadas, lo es todavía más.
+Sobre la disponibilidad, el lanzamiento en Corea tiene prioridad, y las reservas en el país ya están agotadas. Probablemente pase lo mismo en Estados Unidos y China, que aparecen en las quinielas como próximos mercados a los que llegará.Sobre Europa, por ahora, no sabemos nada.
+El terminal es el culmen de siete generaciones de plegables de Samsung, un producto maduro, increíblemente ligero y portátil para estar hablando de una pantalla de 10 pulgadas, y que respira calidad por todos sus poros. Eso sí, no sabemos el precio con el que llegará a Europa, pero en Corea se vende por unos 2.100 euros, lo que lo convierte en un terminal de lujo. A nosotros nos ha encantado, a pesar del precio prohibitivo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C195" s="5" t="inlineStr">
+        <is>
+          <t>Más que petróleo</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2026-01-10T16:03:13+01:00</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Aunque no pare de repetirse que la operación ejecutada por Estados Unidos viene provocada por el petróleo venezolano, no debemos quedarnos en la narrativa oficia. Venezuela alberga las mayores reservas de petróleo del mundo, aproximadamente el 20 por ciento, sin embargo solo produce el 0,8 por ciento de la producción mundial, menos de un tercio que antes de la llegada del régimen socialista. Estados Unidos era su principal comprador pero, tras las sanciones, China se convirtió en el comprador dominante, adquiriendo casi el 70 por ciento del crudo venezolano, gran parte del cual se transporta a través de petroleros de 'flota sombra', nada transparentes, para eludir las sanciones. Estas compras se realizan 'con descuento', pues China se convirtió en el mayor prestamista al Gobierno de Hugo Chaves, calculándose que Venezuela le debe unos 10.000 millones de dólares. Además del petróleo, China estaba tomando el control de minerales estratégicos para la fabricación de armas, en particular misiles. La presencia china es operativa, no solo comercial, y Estados Unidos trataría con su intervención de privar a Pekín del acceso a estos recursos en su lucha por el liderazgo mundial, a la vez que evitar que alguien pudiera fabricar misiles que podrían alcanzar los Estados Unidos con minerales extraídos de Venezuela. En cuanto a Rusia, tenemos que tener muy en cuenta la presencia de 'asesores' enviados para entrenamiento en inteligencia y en el uso de sistemas antiaéreos, radares, etcétera. En Venezuela se estaban juntando recursos estratégicos con unas infraestructuras militares en manos de potenciales adversarios, una conjunción de amenazas que se estaban transformando en riesgos para la seguridad de EE.UU. en un entorno global cada vez más cambiante. Félix Eugenio G. Cortijo . Badajoz</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>10 de enero
+Cartas al director
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+Si quieres enviarnos tu carta: escríbenos acartas@abc.esolectores@abc.es. Indica tu nombre y dónde vives. ABC se reserva el derecho de extractar o reducir los textos.
+Si quieres dirigirte a la Defensora del Lector de ABC, su mail esdefensoradellector@abc.esy su Whatsapp:639793483.
+Aunque no pare de repetirse que la operación ejecutada por Estados Unidos viene provocada por el petróleo venezolano, no debemos quedarnos en la narrativa oficia. Venezuela alberga las mayores reservas de petróleo del mundo, aproximadamente el 20 por ciento, sin embargo solo produce el 0,...8 por ciento de la producción mundial, menos de un tercio que antes de la llegada del régimen socialista. Estados Unidos era su principal comprador pero, tras las sanciones, China se convirtió en el comprador dominante, adquiriendo casi el 70 por ciento del crudo venezolano, gran parte del cual se transporta a través de petroleros de 'flota sombra', nada transparentes, para eludir las sanciones. Estas compras se realizan 'con descuento', pues China se convirtió en el mayor prestamista al Gobierno de Hugo Chaves, calculándose que Venezuela le debe unos 10.000 millones de dólares. Además del petróleo, China estaba tomando el control de minerales estratégicos para la fabricación de armas, en particular misiles.
+La presencia china es operativa, no solo comercial, y Estados Unidos trataría con su intervención de privar a Pekín del acceso a estos recursos en su lucha por el liderazgo mundial, a la vez que evitar que alguien pudiera fabricar misiles que podrían alcanzar los Estados Unidos con minerales extraídos de Venezuela. En cuanto a Rusia, tenemos que tener muy en cuenta la presencia de 'asesores' enviados para entrenamiento en inteligencia y en el uso de sistemas antiaéreos, radares, etcétera.
+En Venezuela se estaban juntando recursos estratégicos con unas infraestructuras militares en manos de potenciales adversarios, una conjunción de amenazas que se estaban transformando en riesgos para la seguridad de EE.UU. en un entorno global cada vez más cambiante.
+Félix Eugenio G. Cortijo. Badajoz</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C196" s="5" t="inlineStr">
+        <is>
+          <t>En compañía de Juliette Binoche. Evocación de la casa de Aleixandre</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2026-01-09T16:27:43+01:00</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>ABC Cultural abre sus páginas con una amplia y reveladora conversación con Juliette Binoche. La oscarizada actriz francesa, que acaba de protagonizar el XXII Festival de Cine Europeo de Sevilla y recibir en la ciudad hispalense el Giraldillo de Honor a toda su trayectoria, repasa su carrera y su experiencia con afamados directores: «Nunca me sentí intimidada por ningún director. Aprendí a concentrarme en el trabajo y no en quien tuviera delante», confiesa. Nos da las claves de su debut como cineasta con 'In-I in-Motion', documental que muestra el tormentoso proceso creativo que vivió junto al coreógrafo Akram Khan. Y anuncia que volverá a dirigir. Por otro lado, los críticos del suplemento analizan algunas de las más destacadas novedades editoriales. Entre otras, en Narrativa, 'Yo era un encanto' (Random House), de Eve Babitz, por primera vez en español las mejores crónicas de la desenfrenada escritora y artista visual de Los Ángeles que colaboró en revistas como 'Rolling Stone' y 'Esquire'. Coincide en librerías con 'Didion y Babitz' (Random House), donde Lili Anolik nos presenta una biografía que entrelaza los destinos, opuestos pero complementarios, de Joan Didion y Eve Babitz. Documento PDFDesktop: 840 Mobile: 450También 'Los nombres' (Salamandra). La británica Florence Knapp debuta en la novela lanzando una inquietante pregunta: ¿Qué peso puede tener un nombre en una vida?; 'La hermana del río' (La Tortuga Búlgara). Una pequeña joya de Laura Vinogradova, que aborda el trauma nunca superado por la pérdida de una hermana; 'Antes del volcán' (Impedimenta), una excelente colección de relatos de Jon Bilbao que explora la vida en pareja; y 'La ciudad escondida' (Seix Barral), última novela del popular autor chino Yu Hua, que tiene la desaparición como eje. En Ensayo , 'El viaje mental' (Galaxia Gutenberg), donde Juan Arnau, a través de autores, experiencias y sustancias, realiza un periplo intelectual; 'Agustina de Aragón' (Ático de los Libros). El historiador Rafael Zurita lleva a cabo una relectura, entre el mito y la persona, de la heroína de la Guerra de la Independencia; 'Una apacible turbulencia' (Libros del Asteroide), de Antonio Ayuso. Búsqueda de un terreno común entre ciencia y humanidades; 'Pan de ángeles' (Lumen). Patti Smith, madrina del 'punk', recorre su vida entre el dolor y la belleza. Asimismo ' El largo siglo de las utopías' (Tusquets). El periodista alemán Peter Neumann investiga el fracaso de la cultura europea desde finales del siglo XIX hasta el término de la II Guerra Mundial; ' Guía de lugares que ya no existen' (RBA). Espido Freire se adentra en cómo concibe y practica el espíritu viajero, que se aleja de la masificación turística y de la caza de fotos para colgar en las redes.El escritor y catedrático emérito de Literatura Jorge Urrutia evoca 'Velintonia: el refugio poético de Aleixandre', que visitó con frecuencia, y que fue punto de encuentro crucial durante la posguerra. En la casa del Premio Nobel se tejían complicidades, se discutían ideas y se forjaban alianzas.La sección de Arte arranca con una entrevista a la artista peruana afincada en España Andrea Canepa. De la creadora 'mestiza', que cruza culturas y nos invita a observar el mundo desde lo sensorial y prelingüístico, llegan dos exposiciones, una en el IVAM y otra en el Museo Reina Sofía. Entre otras reflexiones, Canepa afirma: «Sin duda alguna, el goce es político». Asimismo, entre otras muestras, visitamos, en el malagueño Centro Pompidou, la retrospectiva dedicada a Annete Messager y Christian Boltanski , que fueron pareja pero pocas veces colaboraron juntos. Esta propuesta les une; la extraordinaria antológica que organiza el Museo del Prado protagonizada por Antonio Raphael Mengs, pintor del siglo XVIII, figura clave, aunque poco (re) conocida, y 'El eterno presente', del joven Cachito Vallés, creador fundamental en el empleo escultórico de la luz. Doble cita en Sevilla, en el CAAC y en la galería Barrera.En Pantallas , 'Martin Scorsese, ni gángster ni santo ni mortal'. El gran cineasta, que ha sobrevivido a todo, incluso a sí mismo, se presta al homenaje de documentales, cameos y libros mientras se niega a dejar de rodar. Su lucha, a los 83 años, es con el tiempo.Las firmas de María José Solano ; Piedad Bonnett ; Jesús García Calero ; Pedro G. Cuartango; Edu Galán y Alfonso J. Ussía enriquecen una propuesta que no tiene desperdicio.</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>ABC CULTURAL
+Número 1694
+ABC Cultural
+Esta funcionalidad es sólo para registrados
+ABC Cultural abre sus páginas con unaamplia y reveladora conversación con Juliette Binoche.La oscarizada actriz francesa, que acaba de protagonizar el XXII Festival de Cine Europeo de Sevilla y recibir en la ciudad hispalense el Giraldillo de Honor a toda su trayectoria,...repasa su carrera y su experiencia con afamados directores: «Nunca me sentí intimidada por ningún director. Aprendí a concentrarme en el trabajo y no en quien tuviera delante», confiesa. Nos da las claves de su debut como cineasta con 'In-I in-Motion', documental que muestra el tormentoso proceso creativo que vivió junto al coreógrafo Akram Khan. Y anuncia que volverá a dirigir.
+Por otro lado, los críticos del suplemento analizan algunas de las más destacadas novedades editoriales. Entre otras, enNarrativa,'Yo era un encanto' (Random House), de Eve Babitz, por primera vez en español las mejores crónicas de la desenfrenada escritora y artista visual de Los Ángeles que colaboró en revistas como 'Rolling Stone' y 'Esquire'. Coincide en librerías con 'Didion y Babitz' (Random House), donde Lili Anolik nos presenta una biografía que entrelaza los destinos, opuestos pero complementarios, de Joan Didion y Eve Babitz.
+También 'Los nombres' (Salamandra).La británica Florence Knapp debuta en la novelalanzando una inquietante pregunta: ¿Qué peso puede tener un nombre en una vida?; 'La hermana del río' (La Tortuga Búlgara).Una pequeña joya de Laura Vinogradova,que aborda el trauma nunca superado por la pérdida de una hermana; 'Antes del volcán' (Impedimenta), unaexcelente colección de relatos de Jon Bilbaoque explora la vida en pareja; y 'La ciudad escondida' (Seix Barral),última novela del popular autor chino Yu Hua,que tiene la desaparición como eje.
+EnEnsayo, 'El viaje mental' (Galaxia Gutenberg), dondeJuan Arnau, a través de autores, experiencias y sustancias, realiza un periplo intelectual;'Agustina de Aragón'(Ático de los Libros). El historiador Rafael Zurita lleva a cabo una relectura, entre el mito y la persona, de la heroína de la Guerra de la Independencia; 'Una apacible turbulencia' (Libros del Asteroide), deAntonio Ayuso. Búsqueda de un terreno común entre ciencia y humanidades;'Pan de ángeles' (Lumen).Patti Smith, madrina del 'punk',recorre su vida entre el dolor y la belleza.
+Asimismo 'El largo siglo de las utopías'(Tusquets). El periodista alemán Peter Neumann investiga el fracaso de la cultura europea desde finales del siglo XIX hasta el término de la II Guerra Mundial; 'Guía de lugares que ya no existen' (RBA). Espido Freirese adentra en cómo concibe y practica el espíritu viajero, que se aleja de la masificación turística y de la caza de fotos para colgar en las redes.
+El escritor y catedrático emérito de Literatura Jorge Urrutia evoca'Velintonia: el refugio poético de Aleixandre',que visitó con frecuencia, y que fue punto de encuentro crucial durante la posguerra. En la casa del Premio Nobel se tejían complicidades, se discutían ideas y se forjaban alianzas.
+La sección deArtearranca con unaentrevista a la artista peruana afincada en España Andrea Canepa.De la creadora 'mestiza', que cruza culturas y nos invita a observar el mundo desde lo sensorial y prelingüístico, llegan dos exposiciones, una en el IVAM y otra en el Museo Reina Sofía. Entre otras reflexiones, Canepa afirma: «Sin duda alguna, el goce es político».
+Asimismo, entre otras muestras, visitamos, en el malagueño Centro Pompidou, la retrospectiva dedicada aAnnete Messager y Christian Boltanski, que fueron pareja pero pocas veces colaboraron juntos. Esta propuesta les une; la extraordinaria antológica que organiza el Museo del Prado protagonizada porAntonio Raphael Mengs, pintor del siglo XVIII, figura clave,aunque poco (re) conocida, y 'El eterno presente', del jovenCachito Vallés,creador fundamental en el empleo escultórico de la luz. Doble cita en Sevilla, en el CAAC y en la galería Barrera.
+EnPantallas,'Martin Scorsese, ni gángster ni santo ni mortal'.El gran cineasta, que ha sobrevivido a todo, incluso a sí mismo, se presta al homenaje de documentales, cameos y libros mientras se niega a dejar de rodar. Su lucha, a los 83 años, es con el tiempo.
+LasfirmasdeMaría José Solano;Piedad Bonnett;Jesús García Calero;Pedro G. Cuartango;Edu GalányAlfonso J. Ussíaenriquecen una propuesta que no tiene desperdicio.</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C197" s="5" t="inlineStr">
+        <is>
+          <t>¿Y ahora, Taiwán? No tan rápido...</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2026-01-11T06:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>A punto de terminar el año, China desplegó en torno a la isla de Taiwán, cuya soberanía reivindica, una importante fuerza aeronaval. Durante tres días, del 29 al 31 de diciembre, decenas de aviones de combate y buques de guerra llevaron a cabo unas maniobras cuyo objetivo era ensayar un bloqueo marítimo y aéreo de la isla rebelde para neutralizar una declaración unilateral de independencia o una intervención extranjera.
+Realizadas pocos días después de que el presidente de Estados Unidos, Donald Trump, aprobara la mayor venta de armas a Taiwán de las últimas dos décadas –por 11.100 millones de dólares (casi 9.500 millones de euros)–, su afán coercitivo era evidente. “La reunificación de nuestra patria es inevitable”, declaró el presidente chino, Xi Jinping, en su discurso de Año Nuevo en Pekín para remachar el mensaje.
+Taiwán es independiente de hecho pero no de derecho y muy pocos países en el mundo la reconocen hoy como un Estado. Refugio de los restos del ejército nacionalista de Chang Kai Chek tras la guerra civil de 1945-1949, que ganó el Partido Comunista Chino, la antigua isla de Formosa se ha mantenido desde entonces fuera del control de Pekín, en gran medida gracias al apoyo de EE.UU. Pero China nunca ha renunciado a su soberanía.
+El precario statu quo que se ha mantenido hasta ahora podría romperse en el momento en que Taipéi aprobara una declaración formal de independencia. O en el que Pekín, que hasta aquí ha optado por tratar de atraerse a la isla combinando la seducción con las amenazas, decidiera que ha llegado la hora de actuar.
+En su informe anual al Congreso, del 23 de diciembre, el Pentágono alertaba del notable aumento de las capacidades militares de China –así en medios convencionales como en su arsenal nuclear y en lo relativo a la inteligencia artificial (IA)– y vaticinaba que Pekín “espera poder librar y ganar una guerra contra Taiwán para finales de 2027”. “Para alcanzar estos objetivos –proseguía–, el Ejército Popular de Liberación (EPL) continúa perfeccionando múltiples opciones militares para forzar la unificación de Taiwán mediante la fuerza bruta. Estas opciones incluyen, entre las más peligrosas, una invasión anfibia, un ataque con gran potencia de fuego y, posiblemente, un bloqueo marítimo”. Tal posibilidad, advertía, podría “desafiar y perturbar seriamente la presencia estadounidense en o alrededor de un conflicto en la región Asia-Pacífico”.
+¿La nueva política exterior de Donald Trump, partidario de repartir el mundo en esferas de influencia, podría cambiar el actual estado de cosas? ¿La intervención militar estadounidense en Venezuela podría ser el desencadenante que diera alas al sector más duro del régimen chino partidario de recuperar la isla por la fuerza?
+Aviones de combate en la base militar de Chingchuankang, en Taichung (oeste de Taiwán)
+En su comparecencia ante los medios de comunicación para informar sobre la operación que concluyó con la captura del presidente venezolano, Nicolás Maduro, y su esposa –tras bombardear Caracas–, Trump insistió con brutal trasparencia en que el hemisferio occidental pertenece a EE.UU. en tanto que potencia dominante. Ninguna otra potencia exterior, siguiendo la célebre doctrina Monroe, debería estar en condiciones de imponerse en el continente americano, ya sea la vieja Europa –objeto de la preocupación del presidente James Monroe cuando la formuló en 1823 y acaso un futuro motivo de inquietud una vez se firme el tratado comercial UE-Mercosur–, ya sean Rusia o China. La acción en Venezuela es un toque de atención a estos dos últimos.
+La lógica de las esferas de influencia podría hacer creer a Moscú y a Pekín que, a partir de ahora, tienen las manos libres en sus respectivas áreas, así con Ucrania como con Taiwán. Y de algún modo así ha creído entenderlo el presidente ruso, Vladímir Putin, en sus entrevistas con su homólogo norteamericano, naturalmente inclinado a aceptar como buenas las tesis rusas sobre el antiguo espacio soviético. Pero Asia es otra cosa. Ya desde la época de Barack Obama, EE.UU. ha fijado como su principal preocupación la competencia con China por la hegemonía en la región Asia-Pacífico. Y en el mundo.
+La reformulada Estrategia de Seguridad Nacional de Trump sigue otorgando a esta zona su mayor atención. Washington quiere dominar sin contestación su propio hemisferio, pero también que nadie le dispute su condición de potencia hegemónica mundial. “EE.UU no puede permitir que ninguna nación se convierta en tan dominante que amenace nuestros intereses”, expone el documento.
+Y en el tablero mundial, Taiwán es una pieza de extremada importancia. Por un lado, porque concentra la mayor parte de la producción mundial de semiconductores –fabrica el 90% de los más avanzados–, esenciales para las nuevas tecnologías y la IA. Y, por otro, porque tiene una posición geoestratégica esencial en las rutas del transporte marítimo internacional.
+“Taiwán proporciona acceso directo a la Segunda Cadena de Islas y divide el noreste y el sureste asiático en dos frentes de operaciones distintos. Dado que un tercio del transporte marítimo mundial pasa anualmente por el Mar de China Meridional, esto tiene importantes implicaciones para la economía estadounidense”, constata el Departamento de Estado. De ahí que para EE.UU. resulte esencial mantener en el área una fuerza militar disuasoria. Y la nueva doctrinaDonroereafirma su rechazo a “cualquier cambio unilateral del statu quo en el estrecho de Taiwán”. Ya sea por parte de Taipéi o de Pekín.
+Pensar que la intervención norteamericana en Venezuela –o en Groenlandia–puede hacer que EE.UU. haga la vista gorda ante un eventual ataque de China a Taiwán sería un error. Aunque detrás de toda guerra hay siempre un error de cálculo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C198" s="5" t="inlineStr">
+        <is>
+          <t>Trump: “Vamos a hacer algo con Groenlandia, ya sea por las buenas o por las malas”</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2026-01-10T00:49:57+01:00</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>El mandatario estadounidense insiste que si no el territorio danés será conquistado por Rusia y China</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Agencias
+El presidente de EE.UU., Donald Trump, aseguró este viernes que no va a permitir “que Rusia o China ocupen Groenlandia” por lo que ha decidido “hacer algo” con esta isla del Ártico, “ya sea por las buenas o por las malas”.
+Trump insistió en varias ocasiones a los medios de comunicación en la Casa Blanca que Estados Unidos hará algo en Groenlandia, “les guste o no,” porque si no el territorio danés será conquistado por Rusia y China.
+El presidente estadounidense planteó que EE.UU. necesita controlar la isla por razones de seguridad porque “ahora mismo alrededor de Groenlandia hay destructores rusos, hay destructores chinos y, además, hay submarinos rusos por todas partes”.
+Además, cuestionó la soberanía de Dinamarca sobre el territorio al afirmar que, aunque admira al país nórdico, “el hecho de que desembarcaran allí con un barco hace 500 años no significa que sean dueños de esa tierra”.
+“Me gustaría llegar a un acuerdo, ya sabe, por las buenas; pero si no lo hacemos por las buenas, lo haremos por las malas”, repitió, rechazando la idea de que sea posible cualquier otro arreglo que no suponga el control de Groenlandia.
+“Porque cuando lo poseemos, lo defendemos. No se defienden los arrendamientos de la misma manera: hay que ser propietario”, dijo.
+“Los países tienen que tener propiedad; y se defiende la propiedad, no se defienden los arrendamientos; y tendremos que defender Groenlandia”, continuó.
+El líder estadounidense también intentó clarificar que las posibles acciones de EE.UU. en Groenlandia, que según la Casa Blanca pueden incluir el uso de las fuerzas armadas del país para hacerse con el territorio danés, no suponen que esté en contra de la OTAN.
+“La OTAN tiene que entender que yo estoy totalmente a favor de la OTAN. Yo salvé a la OTAN. Si no fuera por mí, ahora mismo no tendrían OTAN”, afirmó.
+Trump terminó señalando que mantiene buenas relaciones con los líderes de China, Xi Jinping, y de Rusia, Vladímir Putin, aunque con este último está “muy decepcionado”.</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C199" s="5" t="inlineStr">
+        <is>
+          <t>Trump presionó al Ejército para diseñar una invasión de Groenlandia antes de que Rusia o China “se adelantaran”</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2026-01-11T08:21:33+01:00</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Fuentes diplomáticas y militares alertan de que la presión del presidente estadounidense para elaborar un plan de invasión de Groenlandia ha generado tensiones internas en el Pentágono</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Fuentes diplomáticas y militares alertan de que la presión del presidente estadounidense para elaborar un plan de invasión de Groenlandia ha generado tensiones internas en el Pentágono</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C200" s="5" t="inlineStr">
+        <is>
+          <t>Venezuela, un botín mineral en la nueva guerra fría de suministros</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2026-01-11T03:00:22+01:00</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>El país se articula como pieza clave en la nueva estrategia energética y mineral de China y Estados Unidos</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>El país se articula como pieza clave en la nueva estrategia energética y mineral de China y Estados Unidos</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C201" s="5" t="inlineStr">
+        <is>
+          <t>美财长：最快将于下周进一步解除对委内瑞拉制裁</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2026-01-11T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>当地时间1月10日，美国财政部长贝森特表示，美方最快可能于下周进一步解除对委内瑞拉的制裁，以促进该国原油销售，并推动国际金融机构重新与委内瑞拉接触。 △美国财政部长贝森特（资料图） 贝森特透露，美国正在考虑动用委内瑞拉被冻结的国际货币基金组织特别提款权（SDR），用于委内瑞拉经济重建。 在谈及企业投资时，贝森特表示，中小型私营能源企业可能会率先重返委内瑞拉，行动速度将快于部分大型石油公司。他指出，雪佛龙长期在委内瑞拉运营，“其投资承诺预计将大幅增加”。他还称，美国进出口银行可在为委内瑞拉油气项目融资提供担保方面发挥作用。（总台记者 赵淼） 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>当地时间1月10日，美国财政部长贝森特表示，美方最快可能于下周进一步解除对委内瑞拉的制裁，以促进该国原油销售，并推动国际金融机构重新与委内瑞拉接触。 △美国财政部长贝森特（资料图） 贝森特透露，美国正在考虑动用委内瑞拉被冻结的国际货币基金组织特别提款权（SDR），用于委内瑞拉经济重建。 在谈及企业投资时，贝森特表示，中小型私营能源企业可能会率先重返委内瑞拉，行动速度将快于部分大型石油公司。他指出，雪佛龙长期在委内瑞拉运营，“其投资承诺预计将大幅增加”。他还称，美国进出口银行可在为委内瑞拉油气项目融资提供担保方面发挥作用。（总台记者 赵淼） 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C202" s="5" t="inlineStr">
+        <is>
+          <t>刑警缅北寻找命案铁证细节曝光</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2026-01-11T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>过去两年，全国近10万名刑警参与到打击跨国电诈的行动中。 2023年，缅北电诈园区“卧虎山庄”血夜枪响，有中国公民被枪杀埋尸。 老刑警纳新带队奔赴缅北，在废弃养殖场找到三具中国公民尸体。他们和缅方协调并迅速提取生物检材，同时兵分两路，一路护送证据回国，一路严防死守保证尸体不被损毁。 终于，证据被运回国内，中国警察也进入电诈园区核心现场勘察取证！如今，缅北“四大家族”犯罪集团全部覆灭。 致敬人民警察的守护！ 希望每次行动，都能平安归来！ 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>过去两年，全国近10万名刑警参与到打击跨国电诈的行动中。 2023年，缅北电诈园区“卧虎山庄”血夜枪响，有中国公民被枪杀埋尸。 老刑警纳新带队奔赴缅北，在废弃养殖场找到三具中国公民尸体。他们和缅方协调并迅速提取生物检材，同时兵分两路，一路护送证据回国，一路严防死守保证尸体不被损毁。 终于，证据被运回国内，中国警察也进入电诈园区核心现场勘察取证！如今，缅北“四大家族”犯罪集团全部覆灭。 致敬人民警察的守护！ 希望每次行动，都能平安归来！ 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C203" s="5" t="inlineStr">
+        <is>
+          <t>碧水映苍山，洱海走出人水和谐之路</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Territorio geografía y medio ambiente</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>碧波澄澈映天光，湖滨廊道草木繁，绿色产业蓬勃生长，生态农业、生态旅游等业态多点开花……近年来，云南洱海加强保护治理及流域转型发展，实现了从“一湖之治”向“流域之治”“生态之治”的转变。 【责任编辑：于涵】</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>碧波澄澈映天光，湖滨廊道草木繁，绿色产业蓬勃生长，生态农业、生态旅游等业态多点开花……近年来，云南洱海加强保护治理及流域转型发展，实现了从“一湖之治”向“流域之治”“生态之治”的转变。 【责任编辑：于涵】</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C204" s="5" t="inlineStr">
+        <is>
+          <t>【新思想引领新征程】科技创新活力涌动 新质生产力加速汇聚</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>央视网消息（新闻联播）：习近平总书记指出，科技创新和产业创新是发展新质生产力的基本路径。“十五五”开局之年，我国科技事业蓄势待发，科技创新活力涌动，新质生产力加速汇聚，为推动高质量发展注入强劲动能。 新的一年，中国科技创新的步伐稳健而强劲。 在北京怀柔科学城，高能同步辐射光源正在开展航空叶片内部微裂纹无损探测等产业创新实验；5个北京市重点实验室和2个公共技术服务平台也于近日启动运行，开展细胞治疗、原子制造等关键技术攻关。在粤港澳大湾区，强流重离子加速器装置正在进行束流调试，即将展开首批科学实验，为推动核科学前沿发展及核能开发应用提供重要研究平台。 科技是国家强盛之基，创新是民族进步之魂。 党的十八大以来，习近平总书记始终坚持把科技创新摆在国家发展全局的核心位置。他指出，要以科技创新推动产业创新，特别是以颠覆性技术和前沿技术催生新产业、新模式、新动能，发展新质生产力。 贯彻习近平总书记的重要指示精神，我国科技工作形成了全国“一盘棋”的基本格局，科技创新能力稳步提升，科技强国根基不断夯实。 不久前，国家创业投资引导基金启动，京津冀、长三角、粤港澳大湾区三只区域基金设计运行，不低于70%的资金将投早、投小、投硬科技，为加速科技成果向新质生产力转化注入源源动能。 新的一年，北京启动首批人工智能创新街区建设，从技术创新、应用示范等领域加大支持人工智能示范应用。计划未来两年，北京人工智能核心产业规模突破万亿元。 上海启动建设脑机接口、硅光等一批高能概念验证平台，布局十余家高质量孵化器，制定出台加快推动前沿技术创新与未来产业培育的若干举措，力争到2027年突破一批前沿颠覆性技术。 粤港澳大湾区应用场景创新中心（前海）围绕低空经济、城市治理等八大领域，推动新技术新产品应用落地，计划今年提供应用场景不少于100项。 新的一年，一批颠覆性技术和前沿技术正在加速推动新质生产力发展。 我国科学家实现世界首例二维金属制备，材料的厚度仅为头发丝直径的二十万分之一，有望催生新型低功耗晶体管和超灵敏探测器的研发；超大蛋白质序列数据集“启明星”成功构建，收录90多亿条蛋白质序列，可实现蛋白功能的定向设计与进化，将新材料研发效率提升近10倍；国际首台神经元规模超过20亿的类脑计算机问世，为新一代人工智能研究提供强大支持。 新的一年，未来产业正步入产业化关键阶段。 量子科技正在从实验室走向特定场景应用，在金融风控、药物研发、气象预报等特定场景展开试点示范；生物制造产业日趋成熟，在医药研发、农业育种领域不断拓展；可控核聚变进入工程可行性验证关键阶段，关键技术商业化落地加速。围绕未来产业，各地正着力构建“技术突破—场景验证—产品应用”的闭环。 站在“十五五”规划开局的历史新起点，我国科技创新正成为引领高质量发展的强劲动力。 【责任编辑：于涵】</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>央视网消息（新闻联播）：习近平总书记指出，科技创新和产业创新是发展新质生产力的基本路径。“十五五”开局之年，我国科技事业蓄势待发，科技创新活力涌动，新质生产力加速汇聚，为推动高质量发展注入强劲动能。 新的一年，中国科技创新的步伐稳健而强劲。 在北京怀柔科学城，高能同步辐射光源正在开展航空叶片内部微裂纹无损探测等产业创新实验；5个北京市重点实验室和2个公共技术服务平台也于近日启动运行，开展细胞治疗、原子制造等关键技术攻关。在粤港澳大湾区，强流重离子加速器装置正在进行束流调试，即将展开首批科学实验，为推动核科学前沿发展及核能开发应用提供重要研究平台。 科技是国家强盛之基，创新是民族进步之魂。 党的十八大以来，习近平总书记始终坚持把科技创新摆在国家发展全局的核心位置。他指出，要以科技创新推动产业创新，特别是以颠覆性技术和前沿技术催生新产业、新模式、新动能，发展新质生产力。 贯彻习近平总书记的重要指示精神，我国科技工作形成了全国“一盘棋”的基本格局，科技创新能力稳步提升，科技强国根基不断夯实。 不久前，国家创业投资引导基金启动，京津冀、长三角、粤港澳大湾区三只区域基金设计运行，不低于70%的资金将投早、投小、投硬科技，为加速科技成果向新质生产力转化注入源源动能。 新的一年，北京启动首批人工智能创新街区建设，从技术创新、应用示范等领域加大支持人工智能示范应用。计划未来两年，北京人工智能核心产业规模突破万亿元。 上海启动建设脑机接口、硅光等一批高能概念验证平台，布局十余家高质量孵化器，制定出台加快推动前沿技术创新与未来产业培育的若干举措，力争到2027年突破一批前沿颠覆性技术。 粤港澳大湾区应用场景创新中心（前海）围绕低空经济、城市治理等八大领域，推动新技术新产品应用落地，计划今年提供应用场景不少于100项。 新的一年，一批颠覆性技术和前沿技术正在加速推动新质生产力发展。 我国科学家实现世界首例二维金属制备，材料的厚度仅为头发丝直径的二十万分之一，有望催生新型低功耗晶体管和超灵敏探测器的研发；超大蛋白质序列数据集“启明星”成功构建，收录90多亿条蛋白质序列，可实现蛋白功能的定向设计与进化，将新材料研发效率提升近10倍；国际首台神经元规模超过20亿的类脑计算机问世，为新一代人工智能研究提供强大支持。 新的一年，未来产业正步入产业化关键阶段。 量子科技正在从实验室走向特定场景应用，在金融风控、药物研发、气象预报等特定场景展开试点示范；生物制造产业日趋成熟，在医药研发、农业育种领域不断拓展；可控核聚变进入工程可行性验证关键阶段，关键技术商业化落地加速。围绕未来产业，各地正着力构建“技术突破—场景验证—产品应用”的闭环。 站在“十五五”规划开局的历史新起点，我国科技创新正成为引领高质量发展的强劲动力。 【责任编辑：于涵】</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C205" s="5" t="inlineStr">
+        <is>
+          <t>壹视界·任平文章解读｜“为人民出政绩、以实干出政绩”</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>踏进新的一年、迈入“十五五”时期，面对深刻复杂变化的发展环境，我们要以什么样的奋斗，把今后5年我国发展的新蓝图变成宏阔壮美的新实景？ “脚要踩在大地上。我们干任何事情都有内在规律。”2025年11月，习近平总书记在听取海南自由贸易港建设工作汇报时强调。 “越是伟大的事业，越是充满挑战，越需要知重负重。全党同志都要保持‘越是艰险越向前’的英雄气概，保持‘敢教日月换新天’的昂扬斗志，埋头苦干、攻坚克难，努力创造无愧于党、无愧于人民、无愧于时代的业绩。” 2021年建党百年重大历史节点、“七一勋章”首次颁授仪式上，总书记这段号召全党同志不懈奋斗、永远奋斗的重要讲话，每每读来总是让人更加清醒、更加自信，充满豪情、充满干劲。 以百姓心为心，这是党的初心，也是党的恒心。政绩为人民而创，才能赢得人民衷心拥护。 岁末年初，总书记提出一系列明确要求，“坚持为人民出政绩、以实干出政绩”“主动担重、担难”“书写无愧于人民的时代答卷”，这是全党同志在新的一年再启新程的奋斗号令。 胸怀“国之大者”，“脚踩大地”，因地制宜做好工作，这是我们以科学方法把握规律、以务实作风推进落实，实现“十五五”良好开局的方法指引。 【责任编辑：于涵】</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>踏进新的一年、迈入“十五五”时期，面对深刻复杂变化的发展环境，我们要以什么样的奋斗，把今后5年我国发展的新蓝图变成宏阔壮美的新实景？ “脚要踩在大地上。我们干任何事情都有内在规律。”2025年11月，习近平总书记在听取海南自由贸易港建设工作汇报时强调。 “越是伟大的事业，越是充满挑战，越需要知重负重。全党同志都要保持‘越是艰险越向前’的英雄气概，保持‘敢教日月换新天’的昂扬斗志，埋头苦干、攻坚克难，努力创造无愧于党、无愧于人民、无愧于时代的业绩。” 2021年建党百年重大历史节点、“七一勋章”首次颁授仪式上，总书记这段号召全党同志不懈奋斗、永远奋斗的重要讲话，每每读来总是让人更加清醒、更加自信，充满豪情、充满干劲。 以百姓心为心，这是党的初心，也是党的恒心。政绩为人民而创，才能赢得人民衷心拥护。 岁末年初，总书记提出一系列明确要求，“坚持为人民出政绩、以实干出政绩”“主动担重、担难”“书写无愧于人民的时代答卷”，这是全党同志在新的一年再启新程的奋斗号令。 胸怀“国之大者”，“脚踩大地”，因地制宜做好工作，这是我们以科学方法把握规律、以务实作风推进落实，实现“十五五”良好开局的方法指引。 【责任编辑：于涵】</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C206" s="5" t="inlineStr">
+        <is>
+          <t>因地制宜发展农业新质生产力</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>作者：孔祥智（中国人民大学农业与农村发展学院教授），杨子姝（中国人民大学农业与农村发展学院博士研究生） 2025年中央农村工作会议再次强调；“加强农业关键核心技术攻关和科技成果高效转化应用，因地制宜发展农业新质生产力。”农业新质生产力是推动农业农村现代化再上新台阶的核心推动力，对基本实现农业农村现代化奠定坚实的基础具有重要意义。 习近平总书记指出，“新质生产力是创新起主导作用，摆脱传统经济增长方式、生产力发展路径，具有高科技、高效能、高质量特征，符合新发展理念的先进生产力质态。”它以全要素生产率大幅提升为核心标志，特点是创新，关键在质优，本质是先进生产力。习近平总书记在二十届中央政治局第十一次集体学习时强调，“各地要坚持从实际出发，先立后破、因地制宜、分类指导。”这就不难得出一个结论：新质生产力是以创新为突出特征的先进生产力，但我国地域辽阔，各地自然资源禀赋与经济发展水平差异显著，区域发展极不平衡，不能整齐划一、齐头并进，必须因地制宜、分类指导。 当前，我国农业发展正处在从传统要素驱动向创新驱动深刻转变的关键时期。然而，相较于工业和服务业，农业因其独特的自然再生产与经济再生产交织特征，在孕育和应用新质生产力方面面临更为复杂的挑战，也直接关系到国家粮食安全、乡村全面振兴和农业农村现代化的成色。“十五五”时期，要建立因地制宜、区域协调、精准施策的农业新质生产力推进体系，加快建设农业强国步伐。 强化人才支撑，构建与各地产业发展相适配的“新农人”培养体系。第一，实施区域“新农人”精准赋能计划。以粮食主产区、设施农业区、丘陵山区为重点，按主导产业分层分类设置培训模块，将智能农机操作、数据应用、绿色技术作为培训核心，全面提升农业劳动者素质。第二，强化乡村人才支撑机制。探索科研人员“揭榜挂帅”长期驻点机制，将服务农业新质生产力的实绩作为职称评审与考核的核心指标，对扎根县域的科技人员、高校毕业生，在住房、子女教育、医疗上提供政策支持。第三，分类培育“本地专家＋新农科人才”联合团队。支持产业基础好的地区由龙头企业牵头组建跨学科技术团队；在边远地区，发展“线上专家智库+线下本土专家”模式，通过远程诊断与定期巡回调教，提升本地农技人员的自主创新能力。 推动数智转型，实现农业劳动资料的现代化升级。第一，集中攻关农业关键核心技术。聚焦优质种源、农业生物育种、智能农机装备等“卡脖子”领域，建立产学研联合攻关机制，发挥企业在智能装备、数字应用等领域的创新生力军作用，提升核心装备国产化水平与自主可控能力。第二，加快补齐农业数字基础设施短板。坚持分区分类推进，发挥各地区比较优势，优先在产粮大县、优势特色产业带完善5G、物联网、遥感监测等基础设施，在丘陵山区、边远地区侧重卫星遥感与窄带物联网覆盖，推动感知设备、智能灌溉等融入高标准农田建设，提升数据采集与应用能力。第三，持续推进农机装备差异化创新与社会化服务体系建设。针对不同地形地貌与经营规模，设立分区域农机装备研发任务，形成适应多类型地形、不同作物模式的装备体系。完善农业社会化服务体系，服务模式，通过以租代购、集中作业服务等模式降低使用门槛，实现先进装备在多样化场景中的规模化应用。 提升资源效能，增强基于资源禀赋的劳动对象可持续适配能力。第一，推进耕地质量系统化治理。完善耕地保护与高标准农田建管用一体化机制，压实基层管护责任。推进碎片化耕地整治与宜机化改造，为规模化生产创造条件。第二，实施分区治理，推进耕地质量系统化提升。针对东北黑土区，要巩固水土流失治理成效，继续压减中度以上侵蚀面积；对南方与东北酸化区，应推广土壤调理剂、有机肥与秸秆还田等改良技术；在西部和东北盐碱区，要发展耐盐碱作物与生态改良模式，提高土地利用能力。同时，建立全国耕地质量监测网络，形成动态监测与精准改良的长效机制。第三，强化区域技术供给适配性。针对南北、东西差异和山地丘陵、盐碱地、干旱半干旱等类型区特征，组织研发良种良法良机良田配套技术，提升技术落地精准度。 创新制度体系，构建与新质生产力匹配的组织形态。第一，以服务规模化为主线，构建分工协作的现代农业经营体系。围绕种、管、收、储等关键环节，推广全程托管与环节服务，以服务规模化推动技术标准化、作业协同化，实现小农户与现代农业有效衔接。第二，增强农村集体经济组织的统筹能力。明确村集体在资源整合、设施管护、数据管理等方面的职责，支持其与企业、合作社联合运营，发挥要素整合与技术扩散中的枢纽作用。第三，深化农村要素市场化改革。完善土地经营权流转机制，稳妥推进农村集体经营性建设用地入市，探索宅基地使用权有偿退出、租赁、作价入股等多元化盘活路径，促进各类要素有序流动、高效配置。 【责任编辑：于涵】</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>作者：孔祥智（中国人民大学农业与农村发展学院教授），杨子姝（中国人民大学农业与农村发展学院博士研究生） 2025年中央农村工作会议再次强调；“加强农业关键核心技术攻关和科技成果高效转化应用，因地制宜发展农业新质生产力。”农业新质生产力是推动农业农村现代化再上新台阶的核心推动力，对基本实现农业农村现代化奠定坚实的基础具有重要意义。 习近平总书记指出，“新质生产力是创新起主导作用，摆脱传统经济增长方式、生产力发展路径，具有高科技、高效能、高质量特征，符合新发展理念的先进生产力质态。”它以全要素生产率大幅提升为核心标志，特点是创新，关键在质优，本质是先进生产力。习近平总书记在二十届中央政治局第十一次集体学习时强调，“各地要坚持从实际出发，先立后破、因地制宜、分类指导。”这就不难得出一个结论：新质生产力是以创新为突出特征的先进生产力，但我国地域辽阔，各地自然资源禀赋与经济发展水平差异显著，区域发展极不平衡，不能整齐划一、齐头并进，必须因地制宜、分类指导。 当前，我国农业发展正处在从传统要素驱动向创新驱动深刻转变的关键时期。然而，相较于工业和服务业，农业因其独特的自然再生产与经济再生产交织特征，在孕育和应用新质生产力方面面临更为复杂的挑战，也直接关系到国家粮食安全、乡村全面振兴和农业农村现代化的成色。“十五五”时期，要建立因地制宜、区域协调、精准施策的农业新质生产力推进体系，加快建设农业强国步伐。 强化人才支撑，构建与各地产业发展相适配的“新农人”培养体系。第一，实施区域“新农人”精准赋能计划。以粮食主产区、设施农业区、丘陵山区为重点，按主导产业分层分类设置培训模块，将智能农机操作、数据应用、绿色技术作为培训核心，全面提升农业劳动者素质。第二，强化乡村人才支撑机制。探索科研人员“揭榜挂帅”长期驻点机制，将服务农业新质生产力的实绩作为职称评审与考核的核心指标，对扎根县域的科技人员、高校毕业生，在住房、子女教育、医疗上提供政策支持。第三，分类培育“本地专家＋新农科人才”联合团队。支持产业基础好的地区由龙头企业牵头组建跨学科技术团队；在边远地区，发展“线上专家智库+线下本土专家”模式，通过远程诊断与定期巡回调教，提升本地农技人员的自主创新能力。 推动数智转型，实现农业劳动资料的现代化升级。第一，集中攻关农业关键核心技术。聚焦优质种源、农业生物育种、智能农机装备等“卡脖子”领域，建立产学研联合攻关机制，发挥企业在智能装备、数字应用等领域的创新生力军作用，提升核心装备国产化水平与自主可控能力。第二，加快补齐农业数字基础设施短板。坚持分区分类推进，发挥各地区比较优势，优先在产粮大县、优势特色产业带完善5G、物联网、遥感监测等基础设施，在丘陵山区、边远地区侧重卫星遥感与窄带物联网覆盖，推动感知设备、智能灌溉等融入高标准农田建设，提升数据采集与应用能力。第三，持续推进农机装备差异化创新与社会化服务体系建设。针对不同地形地貌与经营规模，设立分区域农机装备研发任务，形成适应多类型地形、不同作物模式的装备体系。完善农业社会化服务体系，服务模式，通过以租代购、集中作业服务等模式降低使用门槛，实现先进装备在多样化场景中的规模化应用。 提升资源效能，增强基于资源禀赋的劳动对象可持续适配能力。第一，推进耕地质量系统化治理。完善耕地保护与高标准农田建管用一体化机制，压实基层管护责任。推进碎片化耕地整治与宜机化改造，为规模化生产创造条件。第二，实施分区治理，推进耕地质量系统化提升。针对东北黑土区，要巩固水土流失治理成效，继续压减中度以上侵蚀面积；对南方与东北酸化区，应推广土壤调理剂、有机肥与秸秆还田等改良技术；在西部和东北盐碱区，要发展耐盐碱作物与生态改良模式，提高土地利用能力。同时，建立全国耕地质量监测网络，形成动态监测与精准改良的长效机制。第三，强化区域技术供给适配性。针对南北、东西差异和山地丘陵、盐碱地、干旱半干旱等类型区特征，组织研发良种良法良机良田配套技术，提升技术落地精准度。 创新制度体系，构建与新质生产力匹配的组织形态。第一，以服务规模化为主线，构建分工协作的现代农业经营体系。围绕种、管、收、储等关键环节，推广全程托管与环节服务，以服务规模化推动技术标准化、作业协同化，实现小农户与现代农业有效衔接。第二，增强农村集体经济组织的统筹能力。明确村集体在资源整合、设施管护、数据管理等方面的职责，支持其与企业、合作社联合运营，发挥要素整合与技术扩散中的枢纽作用。第三，深化农村要素市场化改革。完善土地经营权流转机制，稳妥推进农村集体经营性建设用地入市，探索宅基地使用权有偿退出、租赁、作价入股等多元化盘活路径，促进各类要素有序流动、高效配置。 【责任编辑：于涵】</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C207" s="5" t="inlineStr">
+        <is>
+          <t>加快构建新发展格局 牢牢把握发展主动权</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>大国经济的特征都是内需为主导、内部可循环。近年来，面对严峻复杂的国内外环境，我们加快构建新发展格局，国内大循环主体地位不断巩固，国内国际双循环质量稳步提升，我国发展根基更加坚实。但也要清醒看到，当前构建新发展格局还存在供强需弱矛盾突出、产业链供应链存在短板弱项等问题。在《求是》杂志新近刊发的习近平总书记重要文章《学习好贯彻好党的二十届四中全会精神》中，总书记强调，“做强国内大循环、畅通国内国际双循环，是我们把握发展主动权、塑造国际合作和竞争新优势的战略举措”。同时，对加快构建新发展格局作出多方面部署。当前和今后一个时期，我们要坚持做强国内大循环，加快形成强大国内经济循环体系，以国内循环的稳定性对冲国际循环的不确定性。 完整内需体系是畅通国民经济循环、增强国内大循环主体地位的重要基础。当前国内大循环还面临不少问题，比如消费内生动力不强，特别是服务消费占比偏低；投资效益有待进一步提高，民间投资活力有所减弱。解决这些问题，必须坚定实施扩大内需战略，坚持惠民生和促消费、投资于物和投资于人紧密结合，促进消费和投资、供给和需求良性互动，不断提升经济循环的质量和层次，增强国内大循环内生动力和可靠性。 构建全国统一大市场，是以习近平同志为核心的党中央从全局和战略高度作出的重大决策，是构建新发展格局的基础支撑和内在要求。当前全国统一大市场建设取得积极成效，统一大市场的规模效应和集聚效应不断彰显，但仍面临一些领域制度规则不完善等问题。要在加快构建全国统一大市场上持续发力，落实“五统一、一开放”基本要求，制定全国统一大市场建设条例，深入整治“内卷式”竞争，破除地方保护和市场分割，畅通资本、数据、技术等要素流动，促进资源要素高效配置。 开放，是中国式现代化的鲜明标识和必然要求。党的二十届四中全会提出“扩大高水平对外开放，开创合作共赢新局面”，进一步释放了我国坚持开放合作、互利共赢的强烈信号。“十四五”以来，我国实施更加积极主动的开放战略，高水平对外开放新格局加速形成。多项数据印证了开放实效：货物贸易总额连续多年稳居世界第一，服务贸易总额2024年首次突破1万亿美元，居全球第二；出口占世界比重稳定在14%以上，进口占世界比重从2012年的9.7%上升至2024年的10.5%。制度型开放不断取得新突破：双向投资质量稳步提升，外资准入负面清单持续缩减，制造业领域外资准入限制措施实现“清零”，首批自贸试验区试点对接措施全面落地。我国以开放姿态拥抱世界，不仅实现了自身经济实力的提升，更成为全球经济增长的稳定器。同时也要看到，扩大高水平对外开放，还面临着不少风险挑战。比如，逆全球化思潮愈演愈烈，世界经济增长的不稳定性不确定性增多，等等。越是如此，越要坚定不移扩大高水平开放，以开放促改革、促发展、促创新、促合作，为中国式现代化注入强劲动力。要维护多边贸易体制，巩固传统市场、开辟新兴市场，拓展国际循环，促进国内市场和国际市场高效联通。 【责任编辑：于涵】</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>大国经济的特征都是内需为主导、内部可循环。近年来，面对严峻复杂的国内外环境，我们加快构建新发展格局，国内大循环主体地位不断巩固，国内国际双循环质量稳步提升，我国发展根基更加坚实。但也要清醒看到，当前构建新发展格局还存在供强需弱矛盾突出、产业链供应链存在短板弱项等问题。在《求是》杂志新近刊发的习近平总书记重要文章《学习好贯彻好党的二十届四中全会精神》中，总书记强调，“做强国内大循环、畅通国内国际双循环，是我们把握发展主动权、塑造国际合作和竞争新优势的战略举措”。同时，对加快构建新发展格局作出多方面部署。当前和今后一个时期，我们要坚持做强国内大循环，加快形成强大国内经济循环体系，以国内循环的稳定性对冲国际循环的不确定性。 完整内需体系是畅通国民经济循环、增强国内大循环主体地位的重要基础。当前国内大循环还面临不少问题，比如消费内生动力不强，特别是服务消费占比偏低；投资效益有待进一步提高，民间投资活力有所减弱。解决这些问题，必须坚定实施扩大内需战略，坚持惠民生和促消费、投资于物和投资于人紧密结合，促进消费和投资、供给和需求良性互动，不断提升经济循环的质量和层次，增强国内大循环内生动力和可靠性。 构建全国统一大市场，是以习近平同志为核心的党中央从全局和战略高度作出的重大决策，是构建新发展格局的基础支撑和内在要求。当前全国统一大市场建设取得积极成效，统一大市场的规模效应和集聚效应不断彰显，但仍面临一些领域制度规则不完善等问题。要在加快构建全国统一大市场上持续发力，落实“五统一、一开放”基本要求，制定全国统一大市场建设条例，深入整治“内卷式”竞争，破除地方保护和市场分割，畅通资本、数据、技术等要素流动，促进资源要素高效配置。 开放，是中国式现代化的鲜明标识和必然要求。党的二十届四中全会提出“扩大高水平对外开放，开创合作共赢新局面”，进一步释放了我国坚持开放合作、互利共赢的强烈信号。“十四五”以来，我国实施更加积极主动的开放战略，高水平对外开放新格局加速形成。多项数据印证了开放实效：货物贸易总额连续多年稳居世界第一，服务贸易总额2024年首次突破1万亿美元，居全球第二；出口占世界比重稳定在14%以上，进口占世界比重从2012年的9.7%上升至2024年的10.5%。制度型开放不断取得新突破：双向投资质量稳步提升，外资准入负面清单持续缩减，制造业领域外资准入限制措施实现“清零”，首批自贸试验区试点对接措施全面落地。我国以开放姿态拥抱世界，不仅实现了自身经济实力的提升，更成为全球经济增长的稳定器。同时也要看到，扩大高水平对外开放，还面临着不少风险挑战。比如，逆全球化思潮愈演愈烈，世界经济增长的不稳定性不确定性增多，等等。越是如此，越要坚定不移扩大高水平开放，以开放促改革、促发展、促创新、促合作，为中国式现代化注入强劲动力。要维护多边贸易体制，巩固传统市场、开辟新兴市场，拓展国际循环，促进国内市场和国际市场高效联通。 【责任编辑：于涵】</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C208" s="5" t="inlineStr">
+        <is>
+          <t>首都航空北京大兴往返科伦坡国际航线将开航</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2026-01-09T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>国际在线消息（记者 石丽敏）：1月8日，北京大兴往返科伦坡国际航线开航新闻发布会在斯里兰卡驻华大使馆举行。发布会上，首都航空正式宣布，将于1月31日新开北京大兴往返科伦坡国际航线，每周二和周六执飞。 北京大兴往返科伦坡航线启动现场 摄影 石丽敏 发布会现场设置了模拟机场标识系统、游客登机场景以及融合了北京与科伦坡城市元素的主题背景墙等，让参会者仿佛在一步一景中完成从北京到科伦坡的跨时空转场。 会上，首都航空相关负责人对航线产品进行推介，详细介绍了航班时刻、服务特色及配套出行产品等。斯里兰卡旅游部门对当地旅游资源进行了推介，全方位展现斯里兰卡独特的历史人文与海岛风情。 斯里兰卡驻华大使马金达·贾升和致辞 摄影 白薇 斯里兰卡驻华大使马金达·贾升和在致辞中表示，斯里兰卡和中国是友好近邻，自1957年建交以来，两国始终守望相助、携手前行。斯里兰卡被称为“印度洋明珠”，多样的地形、丰富的生态系统和多元的文化，让斯里兰卡在全球众多旅游目的地中独树一帜。2025年，中国游客约占斯里兰卡国际游客总量的6%，在斯里兰卡十大客源市场中位列第五。目前，斯里兰卡对中国公民实施免签入境政策。“相信此次合作将为广大旅客带来更便捷的体验，也将为两国交流合作注入新动能。”马金达·贾升和说。 北京首都航空有限公司总裁刘军接受国际在线采访 摄影 靳浩哲 北京首都航空有限公司总裁刘军现场接受国际在线采访。他介绍，开通北京大兴往返科伦坡国际航线，是公司完善南亚航线布局、以航线网络织就“空中丝绸之路”纽带的重要举措。这是中国北方地区与斯里兰卡唯一直飞航线，更是首都航空“首都飞首都”的重要空中通道。未来，首都航空将积极参与北京大兴机场国家级航空枢纽建设，在定期运营大兴至马累、科伦坡等航线的基础上，进一步拓展欧洲、北美洲等洲际国际航线网络。此外，首都航空将同步优化青岛、三亚等区域枢纽城市的航线布局，构建高效的国际国内中转网络，为旅客出入境提供更多便利。 斯里兰卡驻华大使马金达·贾升和（右二）与北京首都航空有限公司总裁刘军（左二）互换礼物 摄影 靳浩哲 据悉，北京大兴往返科伦坡国际航线是首都航空第10条宽体机航线，采用空客A330宽体客机执飞，分别为JD487（北京大兴－科伦坡）和JD488（科伦坡－北京大兴）。 【责任编辑：潘一侨】</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>国际在线消息(记者 石丽敏):1月8日,北京大兴往返科伦坡国际航线开航新闻发布会在斯里兰卡驻华大使馆举行。发布会上,首都航空正式宣布,将于1月31日新开北京大兴往返科伦坡国际航线,每周二和周六执飞。
+北京大兴往返科伦坡航线启动现场 摄影 石丽敏
+发布会现场设置了模拟机场标识系统、游客登机场景以及融合了北京与科伦坡城市元素的主题背景墙等,让参会者仿佛在一步一景中完成从北京到科伦坡的跨时空转场。
+会上,首都航空相关负责人对航线产品进行推介,详细介绍了航班时刻、服务特色及配套出行产品等。斯里兰卡旅游部门对当地旅游资源进行了推介,全方位展现斯里兰卡独特的历史人文与海岛风情。
+斯里兰卡驻华大使马金达·贾升和致辞 摄影 白薇
+斯里兰卡驻华大使马金达·贾升和在致辞中表示,斯里兰卡和中国是友好近邻,自1957年建交以来,两国始终守望相助、携手前行。斯里兰卡被称为“印度洋明珠”,多样的地形、丰富的生态系统和多元的文化,让斯里兰卡在全球众多旅游目的地中独树一帜。2025年,中国游客约占斯里兰卡国际游客总量的6%,在斯里兰卡十大客源市场中位列第五。目前,斯里兰卡对中国公民实施免签入境政策。“相信此次合作将为广大旅客带来更便捷的体验,也将为两国交流合作注入新动能。”马金达·贾升和说。
+北京首都航空有限公司总裁刘军接受国际在线采访 摄影 靳浩哲
+北京首都航空有限公司总裁刘军现场接受国际在线采访。他介绍,开通北京大兴往返科伦坡国际航线,是公司完善南亚航线布局、以航线网络织就“空中丝绸之路”纽带的重要举措。这是中国北方地区与斯里兰卡唯一直飞航线,更是首都航空“首都飞首都”的重要空中通道。未来,首都航空将积极参与北京大兴机场国家级航空枢纽建设,在定期运营大兴至马累、科伦坡等航线的基础上,进一步拓展欧洲、北美洲等洲际国际航线网络。此外,首都航空将同步优化青岛、三亚等区域枢纽城市的航线布局,构建高效的国际国内中转网络,为旅客出入境提供更多便利。
+斯里兰卡驻华大使马金达·贾升和(右二)与北京首都航空有限公司总裁刘军(左二)互换礼物 摄影 靳浩哲
+据悉,北京大兴往返科伦坡国际航线是首都航空第10条宽体机航线,采用空客A330宽体客机执飞,分别为JD487(北京大兴-科伦坡)和JD488(科伦坡-北京大兴)。</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C209" s="5" t="inlineStr">
+        <is>
+          <t>China reivindica su derecho al Ártico: “Estados Unidos no debe utilizar a otros países como excusa”</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2026-01-12T12:30:06+01:00</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Pekín replica a Trump que sus actividades en la región “tienen como objetivo promover la paz”</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Pekín replica a Trump que sus actividades en la región “tienen como objetivo promover la paz”
+Ante lacreciente presión del presidente estadounidense, Donald Trump, sobre Groenlandia, China ha reivindicado este lunes el derecho de todos los Estados a emprender actividades en el Ártico de conformidad con la ley. “Estados Unidos no debe utilizar a otros países como excusa para perseguir sus propios intereses egoístas”, ha replicado la portavoz del Ministerio de Exteriores chino, Mao Ning, a las palabras de Trump, quien aseguró el domingo que es necesario tomar el control de Groenlandia para evitar que Rusia o China obtengan el control de ese territorio estratégico.
+“El Ártico afecta a los intereses generales de la comunidad internacional”, ha zanjado la citada portavoz durante una comparecencia rutinaria en Pekín. “Las actividades de China en el Ártico tienen como objetivo promover la paz, la estabilidad y el desarrollo sostenible de la región, y se ajustan al derecho internacional”.
+“Si no tomamos Groenlandia, Rusia o China lo harán, y no voy a permitir que eso suceda... De una forma u otra, vamos a quedarnos con Groenlandia”, había espetado el magnate republicano el domingo a bordo delAir Force One, el avión presidencial, en su enésima amenaza verbal sobre el territorio autónomo danés.
+Las intimidaciones y advertencias de Trump y su Administración han puesto en guardia a Copenhague y el resto de capitales europeas ante el principal aliado de la OTAN, sobre todo después delataque relámpago de Estados Unidos sobre Venezuela. La intervención en América Latina ha marcado la apertura del año geopolítico, y ha abierto un enorme agujero en el derecho internacional.
+En sus declaraciones sobre Groenlandia, Trump ha subrayado que no le interesa un acuerdo temporal, como el arrendamiento del territorio, sino una adquisición permanente. En otras intervenciones, ha asegurado que se hará con la vasta región, donde viven 56.000 personas, “por las buenas o por las malas”.
+A medida que el casquete polar se retira por el aumento de las temperaturas, el Ártico se está volviendo un creciente foco de interés para las superpotencias: alberga petróleo, gas, minerales, abundante pesca. Y promete un nuevo vínculo marítimo entre el Atlántico y el Pacífico, ofreciendo una alternativa a las rutas comerciales que pasan por el canal de Suez y el de Panamá.
+China es uno de los contendientes y está haciendo avances. En otoño, un buque portacontenedores de este paíszarpó desde el puerto de Ningbo, en la República Popular,hasta el de Felixstowe, en el Reino Unido, a través de esta ruta del norte, compleja y practicable de forma estacional.
+Tardó 20 días, lo que supone un ahorro de 20 jornadas respecto a las 40 que suele durar la travesía de un mercante por el canal de Suez. Si persiste elconflicto de Yemen, que supone un riesgo para atravesar el golfo de Adén, es probable que esta ruta se vuelva aún más interesante.
+El Gobierno chino insiste, como en otros terrenos, en que sus incursiones en la región son amistosas. “Más allá de su destreza técnica, el enfoque de China para desarrollar la ruta ártica da prioridad a la cooperación inclusiva sobre el control exclusivo”, expresaba en septiembre un editorial deGlobal Times,propiedad delDiario del Pueblo, órgano de propaganda del Partido Comunista chino.
+Mientras, Washington ve el avance de peones chinos (y también rusos) como una amenaza creciente para sus intereses, y considera al gigante asiático una nación que, si bien no pertenece al Ártico, sí muestra un interés cada vez mayor en este territorio. La Casa Blanca ve con especial preocupación la creciente cooperación entre Moscú y Pekín en esta zona.
+Tampoco es una inquietud nueva, ni ha nacido de la Administración Trump. En 2024, el Departamento de Defensa estadounidense publicóuna nueva Estrategia del Árticoen la que citaba, entre los elementos que motivaban su edición, “la creciente colaboración entre la República Popular China (RPC) y Rusia”. La región, “cada vez más accesible, se está convirtiendo en un escenario de competencia estratégica, y Estados Unidos debe estar preparado para afrontar el reto junto con sus aliados y socios”, señalaba el texto, elaborado al final del mandato de Joe Biden.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C210" s="5" t="inlineStr">
+        <is>
+          <t>China y la UE alivian la tensión en la disputa por el coche eléctrico</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2026-01-12T17:37:24+01:00</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>La Comisión publica una guía de “compromisos de precios” para que las compañías del gigante asiático puedan esquivar los aranceles</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>La Comisión publica una guía de “compromisos de precios” para que las compañías del gigante asiático puedan esquivar los aranceles
+La Unión Europea y China rebajan la tensión en su disputa comercial por la importación de coches eléctricos a Europa fabricados en el gigante asiático,gravados con aranceles adicionales desde 2024. La Comisión Europea ha publicado una guía orientativa para que los exportadores chinos formulen “propuestas de compromiso de precios” que, si Bruselas aprueba, pueden acabar eximiéndoles de estos. Esas propuestas contemplan, entre otros elementos, promesas sobre precios mínimos que compensen las ayudas públicas percibidas en China y les ayudan a ser más competitivos que sus competidores en el mercado único. La medida, el primer acuerdo comercial de calado suscrito entre Bruselas y Pekín, relaja parcialmente la tensión de las relaciones en los últimos años.
+“Se trata de una guía de directrices, nada más que eso”, ha aclarado el portavoz para asuntos comerciales de la Comisión Europea, Olof Gill. Esa guía es una especie de manual para que los exportadores elaboren sus propuestas de compromiso en la que también se incluyen promesas de precios en el mercado, de información sobre los canales de venta, de inversiones o de volúmenes totales de importación, entre otros elementos.
+Bruselas recibió a comienzos de diciembre una de estas ofertas, aunque todavía no estaba lista la guía conocida este lunes. La envió el grupo Volkswagen para los modelos de su marca Curra fabricados en China. Desde que se recibe la propuesta de compromiso hasta que se decide si se eliminan los aranceles adicionales puede pasar más de un año.
+La evolución le corresponde al Ejecutivo de la UE y lo hará “de manera objetiva y justa, siguiendo el principio de no discriminación y de conformidad con las normas de la Organización Mundial del Comercio”, asegura Bruselas en el comunicado que acompaña la edición del documento. La oferta, que las compañías chinas pueden remitir a la Comisión de manera individual o colectiva, “debe ser adecuada para eliminar los efectos perjudiciales de las subvenciones y proporcionar un efecto equivalente al de los aranceles; ser viable; mitigar el riesgo de compensación cruzada [mediante la venta de otros productos no sujetos a aranceles]; y ajustarse a consideraciones de política general”, señala la Comisión en la guía.
+La idea es que los compromisos adquiridos en términos de precios, volúmenes de venta e inversiones futuras por parte de los productores del gigante asiático sustituirán al arancel, al compensar el daño a la competencia causado por las subvenciones estatales concedidas por el Gobierno chino al sector, aclara una fuente europea radicada en Pekín. Aunque aún no está claro ni qué compañías decidirán acogerse a esta medida, ni si lo harán de forma individual o conjunta.
+Pekín, que montó en cólera cuando Bruselas aprobó los gravámenes al automóvil en 2024, ha saludado la propuesta. “Refleja plenamente el espíritu de diálogo y los resultados de las consultas entre China y la UE”, ha celebrado este lunes el Ministerio de Comercio en un comunicado. El tono contrasta con la airada protesta de las autoridades chinas desde que la presidenta de la Comisión Europea, Ursula von der Leyen,anunció en 2023 el inicio de una investigación contra los subsidios a los vehículos eléctricosimportados de China.
+Tras la imposición de los gravámenes europeos, China puso en marcha su maquinaria de contramedidas, aprobando aranceles a las importaciones de distintos sectores europeos,como el porcinoy el brandy.
+“Ambas partes tienen la capacidad y la voluntad de resolver adecuadamente sus diferencias mediante el diálogo”, añade el comunicado chino. Este país considera que el acuerdo alcanzado ”no solo favorece el desarrollo sano de las relaciones económicas y comerciales entre China y la UE, sino que también contribuye a preservar el orden del comercio internacional basado en normas", agrega.
+Para la valoración del precio mínimo, Bruselas tendrá en cuenta cuestiones como el llamado precio CIF (coste, seguro y flete, por sus siglas en inglés) del producto en cuestión durante el período de investigación del procedimiento que condujo a la imposición de las medidas, más el margen pertinente de los aranceles. O, alternativamente, el precio de venta en la UE de los vehículos eléctricos no subvencionados producidos en la UE del mismo tipo, “ajustado adecuadamente para tener en cuenta las diferencias”, señala el texto.
+La guía refleja la apertura de Bruselas a considerar como un punto positivo la inversión china en una industria en la queel gigante asiático va por delante del resto del mundo. “El compromiso de invertir en las industrias relacionadas con los vehículos eléctricos de batería dentro de la UE se considerará y evaluará como parte de la oferta”, señala. Reclama que estos estén definidos de forma clara y que sean verificables. Además, tomará en consideración otras circunstancias, como el período de tiempo por el que se lance la oferta o la complejidad del canal de distribución de la marca.
+“Guiadas por el respeto mutuo y el espíritu de diálogo, ambas partes, tras múltiples rondas de consultas, han logrado impulsar con éxito una solución gradual y controlada del caso”, ha celebrado también la Cámara de Comercio de China para la Importación y Exportación de Maquinaria y Productos Electrónicos.
+El pacto llega en un momento de delicados equilibrios entre Bruselas y Pekín, en el que la Comisión trata de que las relaciones con China no salten por los aires: busca al mismo tiempo ir reduciendo sus dependencias del gigante asiático, mientras trata de que no le inunden el mercado con productos, y lograr mejor acceso al mercado chino.
+La UE se enfrenta a un inmenso problema por su abultado déficit comercial con el gigante asiático, que superó los 300.000 millones de euros en 2024. Todo parece indicar que el desequilibrio será aún más abultado en 2025, entre otras cosas como efecto colateral de la disputa comercial entre China y Estados Unidos, a medida que la gran fábrica del mundo acelera su locomotora exportadora en busca de nuevos destinos para sus productos.
+El zarpazo al sector del coche eléctrico chino fue una de las medidas más contundentes contra lo que Bruselas considera una competencia injusta de China. El 29 de octubre de 2024, la Comisión concluyó la investigación antisubvenciones relativa a las importaciones de vehículos eléctricos chinos e impuso gravámenes definitivos de entre el 7,8% y el 35,3%. Desde entonces “con espíritu de diálogo, la Comisión y China han estado explorando soluciones alternativas compatibles con la OMC que sean eficaces para abordar los problemas detectados en la investigación”, destaca el Ejecutivo comunitario en el comunicado.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C211" s="5" t="inlineStr">
+        <is>
+          <t>Mujeres de Filipinas, Indonesia y Taiwán toman el mando en la lucha por la agroecología</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2026-01-10T05:30:01+01:00</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Líderes campesinas fomentan métodos de cultivo sostenibles mientras introducen en su discurso distintas nociones de feminismo</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Líderes campesinas fomentan métodos de cultivo sostenibles mientras introducen en su discurso distintas nociones de feminismo
+En un país tan patriarcal como Indonesia,Sayu Komangvende su cóctel defeminismo y agroecologíapuerta a puerta, adentrándose con sutileza en los hogares de las campesinas. “Si organizara talleres comunitarios, es probable que solo acudieran hombres”, sostiene esta líder rural que lleva 25 años convenciendo a las agricultoras deBalisobre la importancia de preservar sus semillas yformas de cultivo indígenas. “Me meto en sus casas, me enseñansu pequeña parcela de tierra, hablamos de recetas saludables, de remedios caseros, de ceremonias”. En la famosa isla, de mayoría hinduista, se utiliza lo que da el suelo para un sinfín de rituales politeístas: “Honramos a Brahma, a Shiva, a otros dioses conectados con el agua, las plantas, los animales… ¡No sabe usted la cantidad de ofrendas que hacemos!”, dice, riendo.
+La estrategia de Komang no enfrenta el machismo cara a cara. Más bien lo asume como algo, por ahora, inevitable. Pero surte efecto. Cuenta que los recelosos maridos bajan la guardia al comprobar que solo se trata de mujeres departiendo sobre fe, salud o alimentación. “Me resulta mucho más fácil acercarme a ellas a través de la idea de familia y de su capacidad de decisión en ese ámbito, que es casi total. Con ese gancho, los hombres se muestran mucho más dispuestos a dejar que su esposa adquiera nuevos conocimientos”, prosigue Komang.
+En charlas informales va calando un mensaje que aúna nutrición y cultura. Y que, confía, contribuye a ir resquebrajando barreras de género que, por el momento, ella prefiere limitarse a sortear. “Mediante la conversación sobre su realidad, sus pequeños o grandes problemas domésticos, surge el potencial para poner en valor ese legado que nos interesa conservar mientras empoderamos a las campesinas”, añade.
+Komang estuvo a finales de noviembre en la feria sobre sistemas de alimentación sostenible Terra Madre, organizada por la organizaciónSlow Fooden Bacolod, la capital de la isla de Negros (Filipinas). Uno de los focos del evento fue el liderazgo femenino en el fomento de la agroecología en la región Asia-Pacífico. Y, más concretamente, entre los pueblos de Austronesia, noción de raíz lingüística —agrupa a los hablantes de idiomas originados en Taiwán y esparcidos por tierra y mar hacia las actuales Filipinas, Indonesia o Malasia— que también atesora otras manifestaciones culturales conjuntas, como la predilección por los tatuajes, los palafitos (viviendas construidas sobre el agua) o la talla en jade.
+Si en Indonesia deben apañárselas para colar su relato en una atmósfera de machismo asfixiante, en Filipinas gozan de unos niveles de igualdad de género que son la envidia de toda Asia. Según un recienteinformedel Foro Económico Mundial, Filipinas es el país con menor brecha entre hombres y mujeres de todo el continente. Ocupa el puesto 20 a nivel global, mientras que Indonesia cae al 97.
+Desde las montañas que rodean a Pasil, un pequeño municipio en la isla de Luzón (Filipinas), Rowena Gonnay ha acudido a Terra Madre junto a otros miembros (casi todos mujeres) del pueblo indígena kalinga. Su activismo es similar al de Sayu Komang: luchar para que las semillas tradicionales no sucumban ante el empuje de lo transgénico y abogar por métodos orgánicos que frenen el deterioro medioambiental. Todo ello otorgando a las agricultoras un papel protagonista.  Gonnay y Komang comparten fines, pero su contexto de lucha es bien diferente.
+Gonnay explica que las principales autoridades agrícolas de su localidad, su provincia y su región son mujeres. En su comunidad, la fuerza física determina la labor a realizar: los hombres aran (con ayuda o no de bueyes) y las mujeres siembran. Todos participan en la cosecha y, explica Gonnay, prima un ambiente de respeto mutuo. Cuando enseña sobre abonos orgánicos o resiliencia climática, todos atienden sin miramientos. Pacita Juan, asesora de Slow Food para el sudeste asiático, coincide en que Filipinas “es un país poco machista en el que, en general, los hombres no piensan que el hecho de que las mujeres ocupen posiciones de liderazgo menoscaba su masculinidad”.
+La taiwanesa Xu Kung-lien también es parte de una delegación con preponderancia femenina y afirma sufrir discriminación cuando difunde las bases de la agroecología entre los arrozales de la región de Hualien, cuna de los amis, uno de los pueblos originarios de Taiwán. “Siento que los hombres me miran con desconfianza y no están muy dispuestos a escucharme. Su actitud es ‘qué va a venir a enseñarnos esta chica joven que no soportaría el trabajo duro que nosotros realizamos cada día”. Aunque Lien destaca que el ambiente en el campo taiwanés sigue siendo “muy tradicional”, ha observado que, en los círculos agroecológicos, suele haber un predominio de liderazgo femenino.
+¿Existe, como presuponen algunasautoras ecofeministas, un vínculo inherente entre sostenibilidad de los cultivos y feminidad? Gonnay piensa que sí: “Los procesos de la agricultura orgánica son más lentos, y nosotras somos más… ¿pacientes quizá?”, se pregunta entre risas. Lo que sí sabe seguro es que a sus formaciones siempre acude una mayoría de mujeres. “Somos más porque la agroecología requiere mucha atención a los detalles, y creo que esto es una característica más femenina”, opina, por su parte, Juan.
+Pasado, futuro y un presente variopinto se entremezclan en la lucha de estas líderes agrícolas. “En realidad, no hay que enseñar nada nuevo: nuestro sistema tradicional de alimentación es puramente agroecológico. Quizá las campesinas puedan aprender, por ejemplo, nuevas formas de preparar fertilizantes orgánicos que desconocían, pero la esencia ya está en nuestro acervo cultural”, subraya Gonnay.
+Sayu Komang abunda en esta idea de vuelta a costumbres más saludables para el planeta y los seres que lo habitan. “El conocimiento sobre agroecología está ahí, aunque ellas no lo llamen así. No hace falta que hablemos de permacultura o biodinámica; se trata más bien de encontrar las palabras en su propio idioma para, mediante la acción, integrar en su imaginario conceptos regenerativos: servirse de los recursos locales y de la enorme biodiversidad que tienen ante sí”.
+Si como feminista Komang ha de nadar a contracorriente, su fomento de la agroecología tampoco ocurre en un contexto ideal. Indonesia es uno de esos países que,como Argentina con la soja,se han volcado durante las últimas décadas en promover monocultivos especialmente nocivos. Hoy produce el 58% delaceite de palmaque se consume en el mundo. Pero Komang no se rinde. Se levanta cada mañana y acude puerta a puerta con su voz segura para transmitir un mensaje en el que caben la emancipación, los dioses hinduistas y las dietas sanas. Todo ello enmarcado en un principio bien simple: tratar con mimo a la madre tierra.
+Fe de errores:en una versión anterior se citaba a una mujer taiwanesa bajo el nombre de Li-Chin Kuo. Pero, su nombre es Xu Kung-Lien.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C212" s="5" t="inlineStr">
+        <is>
+          <t>El régimen comunista que (copiando el modelo chino) va camino de ser una potencia capitalista</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2026-01-12T00:06:35+01:00</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Vietnam lleva años calcando el modelo comunista chino con un régimen autoritario y un aperturismo económico hacia el mundo. Gigantes como Samsung, Intel o Foxconn fabrican aquí una parte significativa de sus componentes electrónicos. Leer</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>En el corazón de Hanoi, a primera hora de la mañana, cuando la luz se cuela entre los árboles del lago Hoan Kiem, las motos comienzan a zumbar como un enjambre caótico que dura todo el día. Estudiantes, vendedores ambulantes, oficinistas trajeados y abuelas en bicicleta cargadas de cestas se cruzan entre las calles coloniales a un ritmo trepidante que refleja el momento que vive el país: Vietnam se mueve. Y lo hace cada vez más rápido.
+Esta nación de casi cien millones de habitantes está escalando silenciosamente posiciones en la economía asiática. El país, que una vez fue de los más pobres del mundo por la guerra y el embargo estadounidense, ahora está al alza como polo emergente de manufactura, tecnología y atracción de inversiones y turistas. Hay incluso algunas voces que llevan tiempo avisando que Vietnam va camino de convertirse en una nueva China.Ambos actores comparten que son regímenes comunistas de partido único que pueden elaborar planes económicos a largo plazo.
+"Vietnam se perfila como el país con el mayor incremento de riqueza para la próxima década", señalaba un informe reciente de la firma de inversiones New World Wealth. "Este notable crecimiento se atribuye a la transformación de la nación en un centro manufacturero global. No sólo experimentará la expansión más significativa en términos de PIB per cápita y número de millonarios, sino que también consolidaría su posición como destino principal para la inversión internacional".
+Los victoriosos tanques norvietnamitas de las fuerzas revolucionarias, que habían librado una guerra de guerrillas durante tres décadas, primero contra los invasores franceses y luego contra EEUU, destrozaron hace 50 años las puertas del palacio presidencial de Saigón e izaron la bandera comunista. Saigón fue rebautizada como Ho Chi Minh, la actual capital financiera del país, una caótica ciudad llena de rascacielos y grandes multinacionales donde viven más de ocho millones de personas. El centro político está en Hanoi, residencia del secretario general del gobernante Partido Comunista, el líder supremo por encima del presidente de la nación o el primer ministro.
+Para entender el auge de Vietnam basta con mirar la evolución de Hanoi. Donde hace apenas diez años había casas bajas o talleres familiares, ahora se levantan torres de oficinas donde operan firmas tecnológicas globales.Vietnam lleva tiempo calcando una estrategia que le funcionó muy bien a China: un sistema político autoritario combinado con un modelo económico más aperturista, flexible, pragmático y orientado al mercado.También aspira a ser una pieza crucial en cadenas de suministro globales. Gigantes como Samsung, Intel o Foxconn fabrican aquí una parte significativa de sus componentes electrónicos.
+El pulso entre Washington y Pekín ha empujado hacia Vietnam a muchas empresas que antes estaban asentadas en el gigante asiático, donde la mano de obra ya no es tan barata como antes y las inspecciones laborales son mucho más rigurosas que en el país vecino en desarrollo. Apple, durante los largos confinamientos de China en la pandemia, desplazó parte de su producción de iPads y AirPods a Vietnam, lo mismo que Nike (cuenta actualmente con 130 fábricas proveedoras que producen calzado, ropa y equipamiento) oAdidas (fabrica en este país el 39% de su calzado).
+"En las últimas dos décadas, Vietnam se ha posicionado cómodamente en un nicho de las cadenas de suministro globales, importando una gran cantidad de bienes intermedios, principalmente de China, para su exportación final, sobre todo a Estados Unidos y la Unión Europea", explica a este periódico Alexander L.Vuving, analista delthink tankestadounidense Estudios de Seguridad Asia-Pacífico, quien lleva muchos años viviendo en el país del Sudeste Asiático.
+"Hay dos factores que han contribuido a la receta del éxito económico de Vietnam en las últimas dos décadas (desde su ingreso en la Organización Mundial del Comercio): la ubicación del país junto al cinturón industrial de China y la principal ruta marítima que conecta China y el noreste de Asia, y la política gubernamental de promover la inversión extranjera directa y los acuerdos de libre comercio.Su visión ha ido evolucionando hasta ser un puente entre múltiples mercados y un centro de alta tecnología en las cadenas de suministro globales", destaca Vuving.
+Vietnam se alza como la potencia manufacturera queenfadó el año pasado al presidente estadounidense Donald Trump por un un superávit comercial de 123.500 millones de dólares con EEUU, lo que desencadenó que el republicano impusiera un arancel del 46%. Tras las negociaciones, ambas partes acordaron una reducción del gravamen al 20%, a lo que se suma otro 20% para las mercancías chinas que han estado haciendo transbordo en los puertos vietnamitas para eludir las fuertes sacudidas a Pekín de la guerra comercial lanzada por Trump.
+La economía de Vietnam está creciendo en los últimos años en torno al 7%. Para 2030, en Hanoi se han propuesto un objetivo de un 10%, lo que para muchos colocaría a este país al nivel de los conocidos comotigres asiáticos, una referencia usada para describir el ascenso que hubo en Corea del Sur, Taiwan o Hong Kong. Los analistas señalan que Vietnam cuenta con la ventaja productiva de tener una población joven, donde un 27% tiene menos de 14 años y el 50% menos de 30.
+"Vietnam puede seguir la senda marcada por China y convertirse en algo más que un centro manufacturero de bajo valor añadido si existen fuertes incentivos, tanto a nivel nacional como internacional, para que el país se modernice tecnológicamente. El Partido Comunista aprobó recientemente un paquete de nuevas políticas destinadas a impulsar con firmeza la innovación tecnológica y la digitalización, así como las reformas institucionales y del sector privado. Queda por ver si estas políticas no se verán socavadas por la inclinación del régimen al control total y por la naturaleza rentista del Estado-partido", analiza Vuving.
+A pie de calle, muchos vecinos de la caótica Hanoi critican la cara menos amable del régimen: la endémica corrupción, persecución a la disidencia y la represión a la libertad de prensa. "Aunque la economía va a mejor y se están haciendo buenas políticas para combatir la pobreza, hay muchos funcionarios y gobernantes locales que continúan robando", dice Cho, un guía turístico. "La corrupción es el gran lastre que siempre ha frenado el desarrollo del país".</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C213" s="5" t="inlineStr">
+        <is>
+          <t>China y la UE avanzan en un acuerdo de precios para suavizar la disputa sobre los vehículos eléctricos chinos</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2026-01-12T14:45:23+01:00</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Europa se ampara en su condición de mercado clave para la industria asiática, ahora que EEUU ha cerrado sus puertas con aranceles del 100% a estos vehículos Leer</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Pekín y Bruselasdieron el lunes un paso cuidadosamente calibrado para rebajar una de las tensiones comerciales más delicadas de los últimos años entre China y la Unión Europea: la disputa por losvehículos eléctricos chinos, convertida desde hace un par de años en símbolo de la creciente fricción entre la ambición industrial europea y la potencia manufacturera asiática.
+La Comisión Europea publicó un documento de orientación dirigido a los exportadores chinos en el que abre formalmente la puerta a sustituir los aranceles compensatorios impuestos en 2024 -que tanto cabrearon a Pekín- por un sistema de compromisos de precios.
+El texto, adelantado porReuters, establece las condiciones bajo las cuales los fabricantes chinos pueden presentar ofertas de "compromiso de precios", es decir,aceptar precios mínimos de exportación a cambio de evitar los derechos antidumpingque actualmente oscilan entre el 7,8% y el 35,3% y que estaban previstos para un periodo de cinco años.
+Bruselas ahora subraya que estas propuestas podrán reforzarse "si incluyen compromisos adicionales", como límites a los volúmenes anuales de envío o planes de inversión industrial dentro de la UE, una exigencia que conecta directamente con la obsesión comunitaria porreindustrializar el continenteyreducir dependencias estratégicas. La Comisión insiste en que cada oferta será evaluada "de manera objetiva y justa", dentro del marco normativo de la Organización Mundial del Comercio (OMC).
+La investigación contra los vehículos eléctricos chinos, iniciada formalmente en octubre de 2023, concluyó un año después con la imposición de aranceles compensatorios que afectaron de forma desigual a los grandes fabricantes chinos. Para la Comisión, las subvenciones estatales distorsionaban el mercado europeo y amenazaban con asfixiar a la industria automovilística europea.
+Para Pekín, en cambio, el procedimiento fue desde el principio unamaniobra proteccionista encubierta,incompatible con el discurso europeo de libre comercio y transición verde. Tras aquella sacudida arancelaria de la UE, el gigante asiático respondió activando investigaciones sobre productos europeos como el coñac francés, los lácteos y la carne de cerdo.
+El anuncio del lunes pretende cerrar, o al menos congelar, aquel choque frontal. En una primera declaración oficial, el Ministerio de Comercio de China celebró el avance como una prueba de que "el diálogo y las consultas" siguen siendo posibles incluso en un contexto de rivalidad estratégica.
+Según el comunicado, el progreso "refleja plenamente el espíritu de diálogo" entre ambas partes y demuestra que China y la UE "tienen la capacidad y la voluntad de resolver adecuadamente las diferencias en el marco de las normas de la OMC", además de salvaguardar la estabilidad de las cadenas industriales y de suministro automotrices a escala global.
+Medios con buenas fuentes en Pekín como el hongkonésSouth China Morning Postcuentan que el Gobierno chino ha optado en este caso por rebajar el tono y evitar una confrontación abierta, consciente de que Europa sigue siendo un mercado clave para su industria de vehículos eléctricos justo cuando Estados Unidos ha cerrado prácticamente la puerta con aranceles del 100%. Para los fabricantes chinos, la UE no es solo un destino comercial, sino también unaplataforma tecnológica y regulatoriadesde la que consolidar su presencia global.
+En otro comunicado difundido por los medios chinos, laCámara de Comercio de China ante la Unión Europeacalificó el avance como un "aterrizaje suave" en la disputa y un paso constructivo hacia una cooperación más estable en comercio e inversión. Según el organismo, los consensos alcanzados "pueden reforzar la confianza empresarial y ofrecer un entorno más predecible para los fabricantes chinos y las empresas de la cadena de suministro que ya operan o planean invertir en Europa", desde plantas de ensamblaje hasta fábricas de baterías.
+Durante toda la disputa, los funcionarios chinos recordaban continuamente que la UE necesita los vehículos eléctricos chinos asequibles para cumplir sus objetivos climáticos yevitar que la transición verde se convierta en un lujoinaccesible para las clases medias, mientras que China también necesita tener todos los mercados posibles abiertos para sostener un sector que es ya una de las columnas vertebrales de su nuevo modelo de crecimiento.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C214" s="5" t="inlineStr">
+        <is>
+          <t>Trump reitera que Estados Unidos se apoderará de Groenlandia «de una forma u otra»</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2026-01-12T09:56:27+01:00</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>El presidente Donald Trump ha afirmado que Estados Unidos se quedará con Groelandia «de una forma u otra» porque sino Rusia y China «se apoderarían» de ella si Washington no actúa. Controlar la isla ártica, rica en minerales, es crucial para la seguridad nacional de Estados Unidos dada la creciente actividad militar de Moscú y Pekín. «Si no tomamos Groenlandia, lo harán Rusia o China, y no voy a permitir que eso suceda», declaró Trump a los periodistas a bordo del Air Force One, a pesar de que ninguno de los dos países reclama el territorio autónomo. Dinamarca y otros aliados europeos han expresado su sorpresa por las amenazas de Trump sobre la isla, que desempeña un papel estratégico entre América del Norte y el Ártico, y donde Estados Unidos tiene una base militar desde la Segunda Guerra Mundial. La gran mayoría de su población y de sus partidos políticos han dicho que no quieren estar bajo el control de Estados Unidos e insisten en que los groenlandeses deben decidir su propio futuro, un punto de vista continuamente cuestionado por Trump. «Ya saben cuál es su defensa: dos trineos tirados por perros», dijo Trump para defender la postura de Estados Unidos, mientras que Rusia y China tienen «destructores y submarinos por todas partes». El primer ministro de Dinamarca advirtió la semana pasada que cualquier movimiento de Estados Unidos para tomar Groenlandia por la fuerza destruiría 80 años de vínculos de seguridad transatlánticos. Trump restó importancia al comentario diciendo: «Si afecta a la OTAN, afecta a la OTAN. Pero ya sabes, (Groenlandia) nos necesita mucho más de lo que nosotros la necesitamos a ella».</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>AFP
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+El presidente Donald Trump ha afirmado queEstados Unidos se quedará con Groelandia «de una forma u otra»porque sino Rusia y China «se apoderarían» de ella si Washington no actúa.
+Controlar la isla ártica, rica en minerales, es crucial para la seguridad nacional...de Estados Unidos dada la creciente actividad militar de Moscú y Pekín.«Si no tomamos Groenlandia, lo harán Rusia o China, y no voy a permitir que eso suceda»,declaró Trump a los periodistas a bordo del Air Force One, a pesar de que ninguno de los dos países reclama el territorio autónomo.
+Dinamarca y otros aliados europeos han expresado su sorpresa por las amenazas de Trump sobre la isla, que desempeña unpapel estratégico entre América del Norte y el Ártico,y donde Estados Unidos tiene una base militar desde la Segunda Guerra Mundial.
+La gran mayoría de su población y de sus partidos políticos han dicho queno quieren estar bajo el control de Estados Unidose insisten en que los groenlandeses deben decidir su propio futuro, un punto de vista continuamente cuestionado por Trump.
+«Ya saben cuál es su defensa: dos trineos tirados por perros», dijo Trump para defender la postura de Estados Unidos, mientras que Rusia y China tienen «destructores y submarinos por todas partes».
+El primer ministro de Dinamarca advirtió la semana pasada que cualquier movimiento de Estados Unidos para tomar Groenlandia por la fuerzadestruiría 80 años de vínculos de seguridad transatlánticos.Trump restó importancia al comentario diciendo: «Si afecta a la OTAN, afecta a la OTAN. Pero ya sabes, (Groenlandia) nos necesita mucho más de lo que nosotros la necesitamos a ella».</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C215" s="5" t="inlineStr">
+        <is>
+          <t>El amo del pueblo</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2026-01-12T18:54:23+01:00</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>El PP, partido de la derecha liberalia, teme que «las próximas elecciones puedan ser manipuladas por hackers rusos y chinos». Lo de los rusos se entiende, porque, para la derecha liberalia, desde Serrano Suñer, «¡Rusia es culpable!». Pero ¿los chinos? El PP tiene suscrito con el Partido Comunista Chino (Cospedal en 2013 y Soraya en 2016) un acuerdo de cooperación en el plan 'España y la nueva ruta de la seda: cómo aprovechar el tren Madrid-Yiwu', a sabiendas de que el futuro del Occidente está en el Oriente, mal que le pese a Trump , que va por ahí repitiendo los disparates que le dicta Miller, un Rubiales de Santa Mónica que tiene una idea del poder como la del... Ver Más</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Visto y no visto
+Ignacio Ruiz-Quintano
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+El PP, partido de la derecha liberalia, teme que «las próximas elecciones puedan ser manipuladas por hackers rusos y chinos». Lo de los rusos se entiende, porque, para la derecha liberalia, desde Serrano Suñer, «¡Rusia es culpable!». Pero ¿los chinos? El PP tiene suscrito con...el Partido Comunista Chino (Cospedal en 2013 y Soraya en 2016) un acuerdo de cooperación en el plan 'España y la nueva ruta de la seda: cómo aprovechar el tren Madrid-Yiwu', a sabiendas de que el futuro del Occidente está en el Oriente,mal que le pese a Trump, que va por ahí repitiendo los disparates que le dicta Miller, un Rubiales de Santa Mónica que tiene una idea del poder como la del joven Henry Hill (Ray Liotta) en 'Uno de los nuestros'.
+—Soy el presidente de los Estados Unidos, revestido de gran poder –hubo de decir un día Lincoln a dos senadores recalcitrantes, y estas palabras impresionaban a Borges más que el hecho de que el presidente un día fuera esclavista y al otro no.
+Podemos figurarnos la cara de Borges, de haber oído la respuesta de Trump a un revistoso del 'New York Times' que le preguntó por los límites de su poder (la Constitución del 87 se la fuman ya hasta los revistosos del 'NYT'):
+—Sí, hay una sola cosa: mi propia moralidad, mi propia mente. Es lo único que puede detenerme. No necesito el Derecho.
+El Derecho como facultad de las cosas inútiles, que fue el gran descubrimiento de Stalin. «¿Tengo el derecho a hablar del poder?», pregunta Schmitt: «He vivido en carne propia todas las formas de poder. He estado en la barriga de la ballena. Lo he contemplado desde la cercanía y desde la lejanía. Siempre he buscado y encontrado buenos lugares de observación, en la oreja izquierda o en la oreja derecha del Leviatán, en sus fauces y en su cola. Yo podría decir, al estilo de Walt Whitman: quien dice derecho quiere engañar, quien dice poder quiere desenmascarar; el poderoso no habla del poder; no piensa en el poder».
+«A thrill a minute» (un estremecimiento por minuto), cuenta Camba que decían los anuncios de las películas de gangsters en Nueva York. Y eso está siendo la segunda presidencia de Trump, queahora apetece Groenlandia(¡acabemos con esa dictadura!) ante el dedito levantado de la UE, que ha rescatado de la filmoteca 'The Mouse that Roared' (1959) de Peter Sellers, apelando a lo que Russell llamaba «éticas de ratón y gato». Dice un niño a otro: «Juguemos al ratón y al gato. Yo soy el gato y tú el ratón». Y el otro: «No, no; tú serás el ratón y yo el gato». Si uno de ellos logra imponerse, impondrá también, dice Russell, «la ética del gato, o de la raza nórdica, o cualquier otra doctrina semejante de desigualdad, doctrinas que tienen únicamente los intereses del gato, no los del ratón, y éste tiene que aceptarlas en virtud del poder desnudo».
+—Aquí, don José, es el amo del pueblo –arranca 'El amo del pueblo o el origen de la soberanía', de Pemán, pero no sabemos quién es el don José americano.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C216" s="5" t="inlineStr">
+        <is>
+          <t>Cuba se queda sin el surtidor de Venezuela</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2026-01-11T21:47:37+01:00</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>A gran escala y en el escenario de la geopolítica son China y Rusia las grandes perjudicadas por la intervención de Estados Unidos en Venezuela, pero va a ser Cuba la primera víctima de una operación que con la excusa de la guerra declarada al narcotráfico deja al régimen castrista sin el suministro de un combustible esencial para sobrevivir entre apagones. «No habrá más petróleo ni dinero para Cuba. Cero. Les sugiero que lleguen a un acuerdo antes de que sea demasiado tarde», señaló ayer el presidente de Estados Unidos a través de la red social que utiliza para intimidar a sus rivales, dentro y fuera de su país. Sin los fondos económicos y el combustible con que Caracas mantenía al ralentí el motor de la dictadura de La Habana , Trump apunta a un colapso, inevitable en estas nuevas circunstancias, que derive en un estallido social. El control del petróleo de Venezuela no era un simple negocio doméstico en el mapa del mundo que con trazo grueso dibuja la Casa Blanca.</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>editorial
+Editorial
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+A gran escala y en el escenario de la geopolítica son China y Rusia las grandes perjudicadas por la intervención de Estados Unidos en Venezuela, pero va a ser Cuba la primera víctima de una operación que conla excusa de la guerra declarada al narcotráfico...deja al régimen castrista sin el suministro de un combustible esencial para sobrevivir entre apagones. «No habrá más petróleo ni dinero para Cuba. Cero. Les sugiero que lleguen a un acuerdo antes de que sea demasiado tarde», señaló ayer el presidente de Estados Unidos a través de la red social que utiliza para intimidar a sus rivales, dentro y fuera de su país. Sin los fondos económicos y el combustible con que Caracas mantenía al ralentí el motor dela dictadura de La Habana, Trump apunta a un colapso, inevitable en estas nuevas circunstancias, que derive en un estallido social. El control del petróleo de Venezuela no era un simple negocio doméstico en el mapa del mundo que con trazo grueso dibuja la Casa Blanca.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C217" s="5" t="inlineStr">
+        <is>
+          <t>¿Qué va a hacer Europa?</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2026-01-11T19:01:41+01:00</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>A estas alturas, nos sobra consenso en el análisis. Sí, el mundo vuelve a regirse por un reparto de zonas de influencia. Sí, volvemos a teorías decimonónicas, teorías poderosas y cerradas que determinaron los destinos de la humanidad. Está claro que esto va de tres –China, Rusia y Estados Unidos–, o a largo plazo incluso de dos más uno. Por eso nos convendría saber qué va a hacer Europa, qué va a ser de ella. Rusia hoy es una amenaza creciente, China representa el reverso de nuestro ecosistema y la Norteamérica de Trump es un antiguo aliado que ahora va a lo suyo y no duda en perjudicarnos. Bien, ¿qué vamos a hacer los europeos aparte de permanecer atónitos y... Ver Más</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>SALA DE MÁQUINAS
+Julián Quirós
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+A estas alturas, nos sobra consenso en el análisis. Sí, el mundo vuelve a regirse por un reparto de zonas de influencia. Sí, volvemos a teorías decimonónicas, teorías poderosas y cerradas que determinaron los destinos de la humanidad. Está claro que esto va de tres –...China, Rusia y Estados Unidos–, o a largo plazo incluso de dos más uno. Por eso nos convendría saber qué va a hacer Europa, qué va a ser de ella.Rusia hoy es una amenazacreciente, China representa el reverso de nuestro ecosistema y la Norteamérica de Trump es un antiguo aliado que ahora va a lo suyo y no duda en perjudicarnos. Bien, ¿qué vamos a hacer los europeos aparte de permanecer atónitos y paralizados? Apenas confiamos en configurarnos como una cuarta superpotencia; quizá podamos ejercer de satélite cambiante, pero casi resulta más probable una fatídica fragmentación interior. ¿Existen tres principios fuertes y compartidos dentrola UE como base de poder? Releer la hemeroteca de ABC del primer cuarto del siglo XX ayuda a comprender lo que nos viene por delante.</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C218" s="5" t="inlineStr">
+        <is>
+          <t>'El gordo' de la I+D, ni sale ni se le espera</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2026-01-11T18:56:29+01:00</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Hemos dejado atrás la tradicional semana del año en la que tantos españoles pasan por la ilusión de tocar ese 'premio gordo' que alivie sus penurias económicas y llegamos a los primeros días del año nuevo, propicios para hacer balance y nuevos propósitos. En este contexto, los científicos de este país consideramos imprescindible compartir unas breves reflexiones. La actividad investigadora, la aplicación de la ciencia a la generación de conocimiento y al desarrollo de nuevas tecnologías, así como su proyección a la búsqueda de soluciones a los problemas que tenemos que afrontar, es la 'lotería' más fructífera que puede esperar la sociedad. Los países más prósperos son los que más apuestan por la I+D. Además, la cuestión científica y tecnológica juega un papel fundamental en los desafíos sin precedentes ante los que se encuentra Europa por su dependencia de Estados Unidos o su competencia con China. Sin embargo, pasa el tiempo y en España seguimos anclados en la cola de la apuesta por la I+D. En los últimos años se ha recuperado algo de la inversión perdida en la crisis (tocamos fondo con solo 1,2 por ciento del PIB invertido en 2016). Nuestro Gobierno proclama una apuesta sin precedentes por la I+D, pero según el último informe Cotec de 2025, estamos en una dedicación de 1,5 por ciento del PIB , cuando en 2010 era del 1,4 por ciento y se suponía que íbamos a alcanzar más de un 2 por ciento en 2027. La Agencia Estatal de Investigación asegura que se dedica más presupuesto que nunca al Programa de Generación de Conocimiento, que alimenta la parte del león de los proyectos de investigación, pero el número de grupos que se queda sin poder investigar por falta de financiación se incrementa cada año, y la cuantía que se dedica a cada proyecto apenas permite alcanzar sus objetivos de forma razonable. La Universidad cada vez recibe menos apoyo, aunque la investigación es crucial para formar a los jóvenes que marcaran nuestro futuro. Mientras, tenemos una comunidad de jóvenes investigadores con más potencial que nunca, tras formarse en los mejores centros de investigación internacionales, pero no les permitimos contribuir al desarrollo de nuestra ciencia por falta de oportunidades y condiciones dignas. La situación es preocupante cuando se cierra el periodo de disfrute de los recursos europeos disponibles por los fondos de recuperación. Se ha hecho público que el Gobierno está renunciando a una parte significativa de fondos, mientras va a cerrar lo que parecían apuestas estratégicas por la investigación en programas de frontera, como los Perte del chip, agua, salud, o economía de la lengua. Si durante un periodo de economía favorable solo hemos conseguido incrementar nuestro PIB de I+D hasta el 1,5 por ciento, ¿qué pasará cuando ya no tengamos el colchón de fondos europeos? Ahora o nunca, es hora de que salga 'el gordo' de la I+D en España. Necesitamos una apuesta decidida por un crecimiento sustancial de nuestro sistema de ciencia, acorde a su verdadero potencial, que pase por un incremento notable del Programa de Proyectos de Generación de Conocimiento. ¿Por qué no doblar ese presupuesto? Es necesario para cubrir el coste de las propuestas investigadoras y para incrementar el número de grupos de investigación. Experiencias como las del País Vasco o Cataluña muestran cuánto esa apuesta puede acabar multiplicándose. Necesitamos además nuevos instrumentos que atraigan a la I+D también a las empresas, para acercarnos, y por qué no, sobrepasar, los números de nuestros socios en la UE. Afrontamos un periodo de gran incertidumbre política, nacional e internacional, en el que esta apuesta por la ciencia y la I+D se hace más necesaria que nunca. Mucho se ha hablado de la necesidad de un gran 'pacto por la ciencia' que sustancie lo que parecen compartir, al menos de palabra, todas nuestras formaciones políticas: hacer de la I+D un motor de nuestra economía, de nuestro progreso y de nuestro futuro. Ya es hora de convertir este deseo en realidad.</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>TRIBUNA ABIERTA
+Perla Wahnón
+Esta funcionalidad es sólo para registrados
+Hemos dejado atrás la tradicional semana del año en la que tantos españoles pasan por la ilusión de tocar ese 'premio gordo' que alivie sus penurias económicas y llegamos a los primeros días del año nuevo, propicios para hacer balance y nuevos propósitos. En este...contexto,los científicos de este paísconsideramos imprescindible compartir unas breves reflexiones.
+La actividad investigadora, la aplicación de la ciencia a la generación de conocimiento y al desarrollo de nuevas tecnologías, así como su proyección a la búsqueda de soluciones a los problemas que tenemos que afrontar, es la 'lotería' más fructífera que puede esperar la sociedad. Los países más prósperos son los que más apuestan por la I+D.
+Además, la cuestión científica y tecnológica juega un papel fundamental en los desafíos sin precedentes ante los que se encuentra Europa por su dependencia de Estados Unidos o su competencia con China. Sin embargo, pasa el tiempo y en España seguimos anclados en la cola de la apuesta por la I+D.
+En los últimos años se ha recuperado algo de la inversión perdida en la crisis (tocamos fondo con solo 1,2 por ciento del PIB invertido en 2016). Nuestro Gobierno proclama una apuesta sin precedentes por la I+D, pero según el último informe Cotec de 2025, estamos en una dedicación de1,5 por ciento del PIB, cuando en 2010 era del 1,4 por ciento y se suponía que íbamos a alcanzar más de un 2 por ciento en 2027.
+La Agencia Estatal de Investigación asegura que se dedica más presupuesto que nunca al Programa de Generación de Conocimiento, que alimenta la parte del león de los proyectos de investigación, pero el número de grupos que se queda sin poder investigar por falta de financiación se incrementa cada año, y la cuantía que se dedica a cada proyecto apenas permite alcanzar sus objetivos de forma razonable. La Universidad cada vez recibe menos apoyo, aunque la investigación es crucial para formar a los jóvenes que marcaran nuestro futuro. Mientras, tenemos una comunidad de jóvenes investigadores con más potencial que nunca, tras formarse en los mejores centros de investigación internacionales, pero no les permitimos contribuir al desarrollo de nuestra ciencia por falta de oportunidades y condiciones dignas.
+La situación es preocupante cuando se cierra el periodo de disfrute de los recursos europeos disponibles por los fondos de recuperación. Se ha hecho público que el Gobierno está renunciando a una parte significativa de fondos, mientras va a cerrar lo que parecían apuestas estratégicas por la investigación en programas de frontera, como los Perte del chip, agua, salud, o economía de la lengua.
+Si durante un periodo de economía favorable solo hemos conseguido incrementarnuestro PIB de I+Dhasta el 1,5 por ciento, ¿qué pasará cuando ya no tengamos el colchón de fondos europeos? Ahora o nunca, es hora de que salga 'el gordo' de la I+D en España. Necesitamos una apuesta decidida por un crecimiento sustancial de nuestro sistema de ciencia, acorde a su verdadero potencial, que pase por un incremento notable del Programa de Proyectos de Generación de Conocimiento.
+¿Por qué no doblar ese presupuesto? Es necesario para cubrir el coste de las propuestas investigadoras y para incrementar el número de grupos de investigación. Experiencias como las del País Vasco o Cataluña muestran cuánto esa apuesta puede acabar multiplicándose. Necesitamos además nuevos instrumentos que atraigan a la I+D también a las empresas, para acercarnos, y por qué no, sobrepasar, los números de nuestros socios en la UE.
+Afrontamos un periodo de gran incertidumbre política, nacional e internacional, en el que esta apuesta por la ciencia y la I+D se hace más necesaria que nunca. Mucho se ha hablado de la necesidad de un gran 'pacto por la ciencia' que sustancie lo que parecen compartir, al menos de palabra, todas nuestras formaciones políticas: hacer de la I+D un motor de nuestra economía, de nuestro progreso y de nuestro futuro. Ya es hora de convertir este deseo en realidad.
+Es presidenta de la Confederación de Sociedades Científicas de España</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C219" s="5" t="inlineStr">
+        <is>
+          <t>Bruselas propone una alternativa a los aranceles a los coches eléctricos chinos</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2026-01-12T14:01:31+01:00</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>La Comisión Europea publica unas directrices con un sistema de precios mínimos para los exportadores que quieran esquivar los gravámenes</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Anna Buj
+Bruselas. Corresponsal
+En un momento de inquietud mundial por las acciones de Donald Trump, la Comisión Europea ha dado este lunes un nuevo paso para resolver la disputa por los coches eléctricos baratos que China exporta a la UE. Lo que ha hecho Bruselas es proponer una alternativa a los fabricantes que quieran esquivar los aranceles que impuso el Ejecutivo comunitario a estos vehículos: una guía con una serie de directrices para aceptar las ofertas de precios mínimos ⁠de las compañías de ⁠vehículos eléctricos con sede en el gigante asiático, que, de comprometerse a este sistema, no tendrían que sufrir las elevadas tarifas de represalia de la UE que han provocado unas enormes tensiones comerciales entre ambas potencias.
+Después de una extensa investigación sobre los subsidios de Pekín a los vehículos eléctricos chinos, Bruselas aprobó en octubre del 2024 aumentar hasta un 45% los gravámenes como medida de protesta contra estas subvenciones, que Bruselas considera injustas. Penalizan, consideraba la UE,a la industria comunitaria, que se ve desprotegida ante la llegada de coches eléctricos de China, que suelen ser un 20% más baratos que los fabricados en Europa.
+Sin embargo, las negociaciones no se frenaron cuando entraron en vigor estos aranceles, sino que representantes de ambas potencias continuaron tratando en privado para lograr un sistema por el cual los fabricantes chinos acepten subir sus precios para asegurar que las empresas comunitarias estén en igualdad de condiciones.
+Lo publicado este lunes es “solamente una guía, no un acuerdo con China”, ha puntualizado el portavoz de Comercio, Olof Gill. El documento está destinado a los exportadores de vehículos eléctricos chinos que actualmente sufren estos aranceles, y les explica de forma clara cómo pueden estructurar sus precios como alternativa a los aranceles siempre y cuando vendan los coches a un nivel “apropiado” para corregir los efectos de los subsidios.
+“Cada oferta de compromiso de precios está sujeta a los mismos criterios jurídicos y la Comisión Europea llevará a cabo cada evaluación de manera objetiva y equitativa, siguiendo el principio de no discriminación y de conformidad con las normas de la OMC”, asegura el texto comunitario. El sistema consiste en levantar los aranceles siempre y cuando la Comisión apruebe un compromiso de precios para un fabricante. Sin embargo, para que lo apruebe, Bruselas exige que los planes compensen de forma creíble los efectos de las subvenciones en toda la industria.
+Pequín parece estar satisfecho con esta solución. El Ministerio de Comercio ha considerado que se trata de un “progreso” que refleja “el espíritu de diálogo y los resultados de las consultas entre China y la UE”. “Muestra que China y la UE tienen la habilidad y la voluntad de resolver las diferencias a través de la negociación”, indica el comunicado. También, en una clara alusión a los últimos movimientos geopolíticos de EE.UU., lo ve positivo no solo para las relaciones económicas entre China y la UE, sino para salvaguardar “el orden de comercio interancional basado en las reglas”.
+El paso de Bruselas llega después de que, en diciembre, se abriera a a estudiar los aranceles aplicados a las im­portaciones de los vehículos eléctricos fabricados en China del grupo Volkswagen. Lo que afecta –por el momento– al modelo Cupra Tavascan, producido en el gigante asiático por la española Seat. En su propuesta que motivó la revisión, la empresa conjunta china de Volks­wagen y Seat sugirieron que a cambio de los aranceles podían acordar una cuota de importación anual y un precio mínimo de importación para el modelo.
+Después de este movimiento en diciembre, según Gill, consideraron que era el momento adecuado para publicar estas directrices adicionales, “con el fin de que las futuras ofertas de adquisición, en caso de producirse, cuenten con un marco muy claro en el que deben desarrollarse”. “Desde el principio explicamos que estábamos dispuestos a estudair alternativas a los aranceles antisubsidio que pusimos en marcha”, ha apostillado el portavoz. “El mercado europeo está abierto a vehículos eléctricos de todo el mundo, siempre y que respeten la igualdad de condiciones”, ha insistido.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C220" s="5" t="inlineStr">
+        <is>
+          <t>Hola, siglo XXI</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2026-01-12T00:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>En este siglo XXI presenciaremos en directo como se reparten el mundo Trump, Putin, Xi Jinping, Netanyahu, Zelenski, Musk, Altman...</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Ha tardado un poco, pero el siglo XXI ya se ha destapado y nos está enseñando su verdadero aspecto. Un siglo agresivo, puede que incluso enfadado. Decidido a cambiar cosas, aunque tenga que ser por la fuerza. Si nos gusta, bien, y si no, también.
+El primer cuarto de siglo ha estado dominado por la naturaleza. El huracánKatrinaarrasó Nueva Orleans, un volcán se desató en la isla de La Palma, han llegado los incendios de sexta generación, las olas de calor han matado a más de 70.000 personas en Europa, hemos vivido episodios intensos de sequía en el Mediterráneo y hemos visto lluvias súbitas e intensas que han desbordado barrancos y han matado a nuestros vecinos. Y por si todo esto fuera poco, la covid nos dio un puñetazo en la cara recordándonos que somos vulnerables y que algunos estamos mal organizados.
+Este 2026 arranca el segundo cuarto de siglo, y todo parece indicar que los hombres quieren ser los protagonistas. Trump, Putin, Xi Jinping, Netanyahu, Zelenski, Musk, Altman..., personajes que acumulan tanta testosterona en la sangre que parece que por sus venas solo fluye ego y ambición. Un grupo violentamente decidido a diseñar un nuevo orden mundial basado en el acceso a los recursos naturales y a la tecnología. Europa no tiene ni una cosa ni otra, así que no les merecemos el más mínimo respeto. En este siglo XXI presenciaremos en directo como se reparten el mundo: organizarán territorios, asignarán recursos, definirán mercados y establecerán reglas de juego en sus zonas de influencia. Exactamente lo mismo que hizo Europa con la revolución industrial: una nueva tecnología pedía volver a organizar los recursos y el poder, un par de guerras mundiales para dejar claro quién manda y después unas reuniones para dibujar nuevas fronteras y ordenar mercados. En la revolución industrial nosotros éramos los empresarios; todo parece indicar que en la revolución digital solo seremos los clientes.
+Es cierto, el siglo XXI ha presentado sus cartas. Pero aún quedan por delante 75 años, y es demasiado pronto para claudicar o dar la partida por perdida. En algún momento nos tocará actuar a nosotros, a las personas, aunque sea en el tercer cuarto del siglo. Este siglo XXI será consecuencia directa de lo que haga el planeta, y también de lo que hagan los hombres adictos a la testosterona que ahora tienen el poder, pero también dependerá de lo que haga la gente. Formamos parte de la ecuación y aún no hemos actuado. La misma tecnología que nos espía y nos hace dudar de la realidad está a nuestra disposición para coordinarnos y acceder a todo tipo de información. Ahora que todo es digital, todo lo que hacemos deja rastro y se puede saber, pero pasa lo mismo con todo lo que hacen ellos: deja rastro y se puede saber. Si estamos convencidos de que con esta tecnología podemos mejorar el progreso científico, llevar la medicina a nuevos horizontes que salvarán millones de vidas, hacer más eficientes los procesos y las actividades o explorar el universo, tenemos todo el derecho a trabajar para que con esta tecnología también la política mejore. Recuerden que el siglo XXI parece decidido a cambiar cosas, aunque tenga que ser por la fuerza.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C221" s="5" t="inlineStr">
+        <is>
+          <t>Japón se lanza a la extracción submarina de tierras raras para aflojar el control de China</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2026-01-12T17:11:49+01:00</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Tokio también forma parte de la iniciativa Pax Silica, anunciada hace un mes por Washington y siete aliados</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Jordi Joan Baños
+Bangkok. Corresponsal
+Japón ha dado hoy un paso decisivo para empezar a extraer tierras raras del fondo del mar, pese a las incontables dificultades técnicas y los dilemas ambientales. Este lunes ha zarpado de Shimizu, no muy lejos de Tokio, el buque de perforación Chikyu con destino a la más remota de las islas japonesas, Minamitori, a casi 2.000 kilómetros en dirección sudeste. Su objetivo es extraer tierras raras pesadas del lecho marino, a seis kilómetros de profundidad.
+Un auténtico reto tecnológico -por la presión, entre otros factores- pero también logístico, en uno de los lugares más aislados del planeta. Aunque un puñado de países, entre los que también está China, han hecho sus propios ensayos e incluso adjudicado bloques de exploración, la minería submarina todavía no ha llegado a la fase extractiva y comercial en ninguna parte.
+Sus presumibles daños medioambientales, con emanaciones de metano de difícil control, hasta ahora han jugado en su contra. Organizaciones como Greenpeace han llegado a pedir una moratoria que evite la destrucción de ecosistemas frágiles y apenas conocidos. Sin embargo, para Japón, reducir su dependencia de China en tierras raras es un objetivo irrenunciable, por lo menos desde 2010. Fue entonces cuando Pekín cerró el grifo por primera vez, tras un encontronazo por la soberanía de las islas deshabitadas de Diaoyu, que Japón llama Senkaku. Algo que causó gran alarma en la industria nipona.
+Cabe decir que las multinacionales japonesas fabrican los imanes de tierras raras tecnológicamente más avanzados, pero dependen del suministro de materias primas procedentes de China. Ya sea porque se extraen allí (49%) o se procesan allí (90%). La dependencia es particularmente aguda en tierras raras pesadas, críticas para tecnologías como pantallas táctiles, radares, coches eléctricos, paneles solares o los aviones de guerra más sofisticados.
+Japón dice haber encontrado precisamente varias de estas tierras raras pesadas entre los sedimentos cercanos al atolón coralino de Minamitori, “pájaro del sur” en japonés. Necesidad obliga, desde 2018 la Agencia Japonesa para Ciencia y Tecnología Marítimo-Terrestres ha destinado unos 217 millones de euros a este programa. El atolón -donde se centrifugarían 350 toneladas diarias de arcillas- solo cuenta con un retén y la isla más cercana, Iwo Jima, a mil kilómetros, también es una base militar. Su traslado a las islas principales implica mil kilómetros más.
+El lantano, en la foto, es una de las tierras raras utilizadas en imanes, catalizadores y baterías
+“Será el primer intento de Japón de industrializar tierras raras de producción nacional. También será la primera prueba de este tipo en el mundo realizada en el lecho marino a tanta profundidad”, sostiene la agencia, que asegura que medirá también el impacto ambiental. “Nuestra misión principal es forjar una cadena estable de producción y suministro de tierras raras nacionales para nuestra industria”.
+Aunque su plena explotación todavía queda lejos, Japón asegura que el yacimiento de Minamitori está entre los mayores del mundo, con la diferencia de que la extracción submarina es infinitamente más compleja. Una incógnita de difícil certificación, que forma parte de la partida de póker con China.
+Aunque la misión ya estaba programada hace tiempo, parece más oportuna desde que, la semana pasada, Pekín anunció nuevas restricciones a la exportación a Japón de varias materias primas de doble uso civil y militar. Estas se suman a la obtención obligatorio de permisos para exportar a cualquier país un gran número de tierras raras y metales críticos.
+Todo ello en un contexto de enrarecimiento de las relaciones, que Pekín atribuye a la injerencia de la nueva primera ministra japonesa, Sanae Takaichi, en los asuntos chinos, después de que esta insinuara en sede parlamentaria que una agresión a Taiwán (colonia nipona durante medio siglo) podría merecer una respuesta militar de Japón.
+La misión japonesa -que se ha aplazado un día “por motivos meteorológicos”- coincide con la reunión de ministros del G-7 de esta semana en Washington, centrada en “el debate sobre cadenas de suministro de minerales críticos”. Ejerce de anfitrión el secretario del Tesoro de EE.UU., Scott Bessent. El mismo presidente Donald Trump dedicó gran parte de su gira asiática de otoño a firmar acuerdos relacionados con las tierras raras. Para entonces, era ya evidente que Xi Jinping le había aguantado el pulso arancelario gracias a esta baza.
+Simultáneamente, Australia acaba de anunciar que se propone almacenar minerales imprescindibles para la defensa y las tecnologías avanzadas, a partir de compañías mineras nacionales, para reforzar las cadenas globales de suministro. El antimonio y el galio son su primera apuesta, por un valor equivalente a 690 millones de euros.
+Este mismo lunes, el embajador in pectore de EE.UU. en India, Sergio Gor, próximo a Trump, ha invitado a la India a unirse al club de países de la denominada Pax Silica (que no Sinica). Aunque no sea el pacifismo el denominador común del grupo (formado por EE.UU., Israel, Reino Unido, Corea del Sur, Australia, Países Bajos y Japón) sino su voluntad de asegurarse un suministro fluido de semiconductores, tierras raras y minerales críticos para sus respectivas industrias tecnológicas punteras, civiles y militares.
+En su particular pulso asiático, chinos y japoneses remueven literalmente cielo y tierra. Si Japón escarba el fondo del océano, el programa lunar de China, hoy por delante, sueña con la extracción de minerales de nuestro satélite. Aquí abajo, mientras tanto, el gobierno chinoaumenta progresivamente su presencia científica en la Antártida, en previsión de que los precintos del continente helado decaigan algún día, empujados por el derribo de los del polo opuesto.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C222" s="5" t="inlineStr">
+        <is>
+          <t>La mayor firma china en robótica industrial escoge DFactory Barcelona para aterrizar en España</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2026-01-12T17:51:45+01:00</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>La llegada a la Zona Franca forma parte de su plan de expansión en Europa</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>La Vanguardia
+Barcelona
+Estun alcanzó el liderazgo de la robótica industrial en China el año pasado y desembarca en España como parte de su plan de expansión en Europa, donde tiene una fábrica con capacidad de crear 15.000 robots situada en Polonia.
+Para aterrizar en España ha escogido el edificio DFactory, ha informado el Consorci de la Zona Franca de Barcelona (CZFB), gestora del moderno espacio que ya cuenta con una cuarentena de empresas dedicadas a la industria 4.0.
+“Al integrarnos en estehubde innovación, fortalecemos la colaboración con las industrias locales y ofrecemos soluciones avanzadas de automatización adaptadas a las necesidades de España y Europa”, ha señalado el consejero delegado de Estun Iberia, Dmitry Kapishnikov. La firma asiática fue fundada en el año 1993 y cuenta con 5.000 empleados en todo el mundo. BYD y CATL son dos de sus principales clientes.
+“La incorporación de una compañía líder mundial en robótica industrial enriquece el ecosistema DFactory”, ha valorado el delegado del Estado en el CZFB, Pere Navarro. “Es una gran noticia que contribuirá a generar oportunidades de desarrollo tecnológico y a consolidar el posicionamiento de la región  metropolitana de Barcelona como polo internacional de referencia en soluciones industriales de última generación”, ha agregado Navarro.
+Para la directora general del CZFB, Blanca Sorigué, en el DFactory están “ampliando la diversidad tecnológica y consolidando nuestro papel como plataforma de referencia para el desarrollo de proyecto innovadores en Europa”.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C223" s="5" t="inlineStr">
+        <is>
+          <t>Dinamarca replica a Trump que no hay barcos rusos y chinos en aguas de Groenlandia</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2026-01-12T06:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Diplomáticos nórdicos señalan que la presencia se da en la zona rusa del Ártico</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>María-Paz López
+Copenhague. Enviada especial
+Una de las afirmaciones más utilizadas estos días por el presidente de Estados Unidos, Donald Trump, para justificar su deseo de apoderarse de Groenlandia es la supuesta presencia de barcos chinos y rusos en las aguas que rodean la isla ártica. “Es muy estratégica ahora mismo; Groenlandia está repleta de barcos rusos y chinos por todas partes”, aseguró Trump hace una semana, sin sustentar esta aseveración con pruebas.
+Dinamarca replicó por boca de su ministro de Exteriores, Lars Løkke Rasmussen, que no hay tal presencia naval, y también diplomáticos de otros países nórdicos con acceso a informes de inteligencia de la OTAN declararon ayer alFinancial Timesque no se han hallado indicios de barcos o submarinos rusos o chinos cerca de Groenlandia en los últimos años. Uno de los diplomáticos añadió que la actividad se da en la zona rusa del océano Ártico.
+Además, los datos de seguimiento de buques de la plataforma en línea MarineTraffic y los análisis de datos financieros de LSEG no muestran presencia de buques chinos ni rusos cerca de Groenlandia.La isla, territorio semiautónomo del reino de Dinamarca, es la mayor del mundo con una superficie de 2,16 millones de kilómetros cuadrados, poblada por apenas 57.000 habitantes.
+“La imagen que se está dando de de barcos rusos y chinos en el fiordo de Nuuk y de la realización de masivas inversiones chinas es errónea”, declaró hace unos días Rasmussen. El ministro se prepara para una compleja reunión sobre la obsesión de Trump por Groenlandia esta semana en Washington con su homólogo estadounidense, Marco Rubio, secretario de Estado, en la que también estará la ministra de Exteriores groenlandesa, Vivian Motzfeldt.
+En un acto político el domingo en Copenhague, la primera ministra danesa, Mette Frederiksen, aseguró que en esa reunión Dinamarca no hará concesiones en “valores fundamentales” sobre la isla. Frederiksen admitió que no habla con Trump sobre Groenlandia desde enero del año pasado, y dijo que cree que ahora tampoco es momento de hacerlo.
+Todo apunta a que Rasmussen y Motzfeldt utilizarán la reunión con Rubio para reiterar la apertura a colaborar más con Estados Unidos en seguridad y extracción de minerales, tal como permite el acuerdo bilateral de 1951, y para recordarles amablemente que el acuerdo –actualizado en el 2004 y de nuevo en el 2023– avala una mayor presencia militar estadounidense en la isla, y que es Washington quien lleva años reduciéndola. Si en el momento más álgido de la guerra fría, Estados Unidos llegó a tener más de 10.000 soldados en bases en Groenlandia, ahora son apenas dos centenares en su base espacial de Pituffik.
+En su estrategia para rebatir el acoso de Trump, que invoca también razones de seguridad, Dinamarca refuerza también su presencia militar en la isla, como reiteró el pasado martes el ministro de Defensa danés, Troels Lund Poulsen. “Vamos a reforzar nuestra presencia militar en Groenlandia, pero también va a haber mayor foco de la OTAN con más maniobras y una mayor presencia de la OTAN”, dijo Poulsen.
+En este contexto, un grupo de países europeos, encabezado por Alemania y el Reino Unido, está discutiendo planes para aumentar su presencia militar en Groenlandia y demostrar así a Trump que Europa se toma en serio la seguridad del Ártico. Alemania propondrá establecer una misión conjunta de la OTAN para proteger la región ártica, según informa Bloomberg. El primer ministro británico, Keir Starmer, ha instado por separado a sus aliados a reforzarpresencia en el Alto Norte.
+El ministro de Exteriores alemán, Johann Wadephul, se reunirá también esta semana con Marco Rubio, una cita prevista de antemano, pero en la que se abordará inevitablemente la cuestión de Groenlandia. “Dado que la seguridad en el Ártico cobra cada vez más importancia, también quiero debatir durante mi viaje cómo podemos asumir mejor esta responsabilidad en la OTAN, considerando las antiguas y nuevas rivalidades en la región entre Rusia y China –declaró el domingo Wadephul–. Queremos debatir esto juntos en la OTAN”.</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C224" s="5" t="inlineStr">
+        <is>
+          <t>Rutte esquiva el conflicto con Trump por Groenlandia y se centra en la amenaza de Moscú y Pekín</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2026-01-12T17:06:00+01:00</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>En respuesta a una pregunta de los periodistas sobre las amenazas de Trump de tomar por la fuerza Groenlandia si fuera necesario, dijo que su "única preocupación" eran los rusos y China</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>En respuesta a una pregunta de los periodistas sobre las amenazas de Trump de tomar por la fuerza Groenlandia si fuera necesario, dijo que su "única preocupación" eran los rusos y China</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C225" s="5" t="inlineStr">
+        <is>
+          <t>Así es como China va a mejorar el caza furtivo de quinta generación J-20, el ‘Poderoso Dragón’</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2026-01-12T14:40:17+01:00</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>La aeronave se actualizará en aviónica, armas, motores e integrará inteligencia artificial</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>La aeronave se actualizará en aviónica, armas, motores e integrará inteligencia artificial</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C226" s="5" t="inlineStr">
+        <is>
+          <t>电视专题片《一步不停歇 半步不退让》第二集今晚八点档央视综合频道播出</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2026-01-12T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>文字介绍： 反对腐败、建设廉洁政治，是我们党一贯坚持的鲜明政治立场，是党自我革命必须长期抓好的重大政治任务。要把严惩政商勾连腐败作为攻坚战重中之重，坚决打击以权力为依托的资本逐利行为，坚决防止各种利益集团、权势团体向政治领域渗透，不断净化政治生态，推动构建亲清统一的新型政商关系，促进经济社会高质量发展。电视专题片《一步不停歇半步不退让》第二集《严惩政商勾连腐败》，讲述纪检监察机关聚焦政治问题和经济问题交织的腐败案件，严惩以商养官、以官护商、官商一体等问题，坚决破除政商勾连“利益共同体”。总台央视综合频道1月12日晚8点档播出，央视新闻新媒体平台同步播发。 配发短片： 【解说词】良好的政治生态、健康的营商环境和自然生态一样需要精心呵护，一旦被污染，会对社会经济发展产生深层的负面影响。 罗保铭（十三届全国人大华侨委员会原副主任委员）：我的贪腐犯罪，给海南的营商环境是一个很大的损害，给海南的政治生态造成严重破坏。 康智慧（中央纪委国家监委机关工作人员）：罗保铭长期与商人老板深度勾结，甚至不惜牺牲社会经济发展长远利益。 【解说词】持续反腐败高压之下，政商勾连腐败花样翻新，有人刻意在时间空间上将收钱跟办事割裂开，退而不休隐蔽敛财，最终难逃纪法惩处。 徐宪平（国家发展和改革委员会原党组成员、副主任）：我说了一句话叫，世界真奇妙，退休才知道。完全是放任自己，思想上没有弦了。 朱震（中央纪委国家监委第二监督检查室二级巡视员）：退休不能褪色，不能降低自我的标准和要求。 【解说词】当官发财两条道，是不可触碰的铁律。有的人却心存侥幸，亦官亦商、官商一体，自以为手段高明，结果只是掩耳盗铃、欲盖弥彰。 陈洪生（黑龙江省黑河市政协原党组书记、主席）：官商一体是我犯罪走向深渊的第一步，也是最要命的一步，我最后悔的也是这件事。 吴向东（国家监察委员会第二届特约监察员）：严惩政商勾连腐败，最终受益的是整个社会和生活在其中的每一个人。 【解说词】《一步不停歇半步不退让》第二集《严惩政商勾连腐败》，敬请关注。 【责任编辑：程尔凡】</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>文字介绍： 反对腐败、建设廉洁政治，是我们党一贯坚持的鲜明政治立场，是党自我革命必须长期抓好的重大政治任务。要把严惩政商勾连腐败作为攻坚战重中之重，坚决打击以权力为依托的资本逐利行为，坚决防止各种利益集团、权势团体向政治领域渗透，不断净化政治生态，推动构建亲清统一的新型政商关系，促进经济社会高质量发展。电视专题片《一步不停歇半步不退让》第二集《严惩政商勾连腐败》，讲述纪检监察机关聚焦政治问题和经济问题交织的腐败案件，严惩以商养官、以官护商、官商一体等问题，坚决破除政商勾连“利益共同体”。总台央视综合频道1月12日晚8点档播出，央视新闻新媒体平台同步播发。 配发短片： 【解说词】良好的政治生态、健康的营商环境和自然生态一样需要精心呵护，一旦被污染，会对社会经济发展产生深层的负面影响。 罗保铭（十三届全国人大华侨委员会原副主任委员）：我的贪腐犯罪，给海南的营商环境是一个很大的损害，给海南的政治生态造成严重破坏。 康智慧（中央纪委国家监委机关工作人员）：罗保铭长期与商人老板深度勾结，甚至不惜牺牲社会经济发展长远利益。 【解说词】持续反腐败高压之下，政商勾连腐败花样翻新，有人刻意在时间空间上将收钱跟办事割裂开，退而不休隐蔽敛财，最终难逃纪法惩处。 徐宪平（国家发展和改革委员会原党组成员、副主任）：我说了一句话叫，世界真奇妙，退休才知道。完全是放任自己，思想上没有弦了。 朱震（中央纪委国家监委第二监督检查室二级巡视员）：退休不能褪色，不能降低自我的标准和要求。 【解说词】当官发财两条道，是不可触碰的铁律。有的人却心存侥幸，亦官亦商、官商一体，自以为手段高明，结果只是掩耳盗铃、欲盖弥彰。 陈洪生（黑龙江省黑河市政协原党组书记、主席）：官商一体是我犯罪走向深渊的第一步，也是最要命的一步，我最后悔的也是这件事。 吴向东（国家监察委员会第二届特约监察员）：严惩政商勾连腐败，最终受益的是整个社会和生活在其中的每一个人。 【解说词】《一步不停歇半步不退让》第二集《严惩政商勾连腐败》，敬请关注。 【责任编辑：程尔凡】</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C227" s="5" t="inlineStr">
+        <is>
+          <t>自我革命这根弦必须绷得更紧 ——写在二十届中央纪委五次全会召开之际</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2026-01-12T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>党兴方能国强。 2025年，面对错综复杂的国际形势和艰巨繁重的国内改革发展稳定任务，以习近平同志为核心的党中央徙木立信从严管党治党，去腐生肌推进自我革命，推动党风政风持续向好，有力保障了党和国家各项事业取得新进展新成效。 2026年是“十五五”开局之年。新年贺词中，习近平总书记着眼我们党肩负的历史使命和时代重任，向全党发出号召—— “要砥砺初心使命，持之以恒、久久为功，继续回答好延安‘窑洞之问’，书写无愧于人民的时代答卷。” 以永远在路上的坚韧执着纵深推进全面从严治党 2025年年底，中共中央政治局召开民主生活会，结合思想和工作实际进行自我检视、党性分析，开展批评和自我批评。 “要坚持把中央八项规定作为铁规矩、硬杠杠，毫不松懈整治‘四风’顽瘴痼疾，不断推进作风建设常态化长效化。”习近平总书记发表重要讲话，要求“中央政治局的同志要当好党性党风标杆，在笃信、务实、担当、自律上为全党带好头、作示范”。 从抓作风入手推进全面从严治党是新时代党的自我革命一条重要经验。2025年，深入贯彻中央八项规定精神学习教育在全党开展，这是习近平总书记亲自谋划的全年党建工作重点任务。 谈及党中央决定开展这次学习教育的深远考量，习近平总书记强调：“这些年，八项规定确实是推动了根本性的变化，风气为之一新，过去积重难返的现象大部分没有了。同时要看到，有一些地方发生了松动，有一些方面还存在盲区死角，一些不良风气出现了反弹回潮。钉钉子嘛，再钉几下，久久为功，化风为俗。” 开展深入贯彻中央八项规定精神学习教育，是对学习贯彻习近平新时代中国特色社会主义思想主题教育和党纪学习教育成果的巩固深化，也是纵深推进全面从严治党的重要举措。 习近平总书记高度重视这次学习教育，把关定向、全程指导、亲自推动，发表一系列重要讲话，多次作出重要指示批示，为全党开展好学习教育指明方向—— “切实把作风硬要求变成硬措施、让铁规矩长出铁牙齿，确保学有质量、查有力度、改有成效”； “必须以永远在路上的坚韧和执着推进全面从严治党”“要及时总结学习教育成效和经验，完善作风建设常态化长效化制度机制”； “要持续抓好中央八项规定精神贯彻落实，进一步下大气力把党建设好，打造一支党性纯洁的队伍、纪律严明的队伍，使我们党始终不负人民，团结带领人民顺利完成所肩负的历史使命”； ………… 聚焦主题，深化学习研讨；对照检视，深入查摆问题；动真碰硬，推进整改整治……经历了这场政治历练、思想淬炼、党性锻炼、作风锤炼，广大党员干部普遍对党的自我革命进行了再认识再深化再行动，党的作风实现了整体性提升。 全面从严治党，既要靠思想教育，也要靠制度约束。加强党内法规制度建设，是全面从严治党的长远之策、根本之策。 2025年4月，新修订的《农村基层干部廉洁履行职责规定》全文公布。规定提出一系列务实举措，助力广大农村基层干部在廉洁履职的同时放开手脚、轻装上阵； 2025年5月，中共中央、国务院印发修订后的《党政机关厉行节约反对浪费条例》，强化厉行勤俭节约、反对铺张浪费责任落实，进一步拧紧党政机关带头过紧日子的制度螺栓； 2025年9月，中共中央印发《中国共产党思想政治工作条例》。这是我们党历史上第一部关于思想政治工作的统领性、综合性基础主干法规，为做好新时代思想政治工作提供了基本遵循； ………… “全面从严治党政治性、原则性强，必须有一套科学完备的制度来规范。”一年来，制度的笼子越扎越紧，制度优势不断转化为管党治党效能。 成其身而天下成，治其身而天下治。中国共产党以中央八项规定破题、以自我革命立论的管党治党实践，丰富了人类政治文明图谱，也为世界政党治理提供了具有借鉴意义的参考样本。 在泰国泰中“一带一路”合作研究中心主任威伦·披差翁帕迪看来：“中国共产党秉持自我革命精神，生动展示了一个政党如何不断完善权力运行机制、维护人民利益和提升治理能力，这为世界各国应对日益复杂的未来挑战提供了宝贵的政治智慧。” 管党治党越有效，经济社会发展的保障就越有力 坚持和加强党的全面领导是推进中国式现代化的根本保证。 “管党治党越有效，经济社会发展的保障就越有力。”习近平总书记深刻指明其中辩证统一的关系，“党的自我革命和经济社会发展是紧密相联、相互促进、相得益彰的。通过党的自我革命，弘扬新风正气、纠治顽瘴痼疾，营造良好政治生态，激励干部担当作为，凝聚民心民力，就能为经济社会发展源源不断注入正能量。” 2025年，我国经济顶压前行、向新向优发展，改革开放迈出新步伐，民生保障更加有力，社会大局保持稳定。 回望“很不平凡的一年”，以习近平同志为核心的党中央坚持用改革精神和严的标准管党治党，以高质量党建引领和推动高质量发展，为经济社会发展注入了强大动力。 发挥政治引领和政治保障作用，推动党员干部树立和践行正确政绩观，确保党中央重大决策部署落实到位—— 政绩观正确与否，直接关系党和人民事业发展。中央经济工作会议提出，要树立和践行正确政绩观，坚持为人民出政绩、以实干出政绩。中央农村工作会议强调，树立和践行正确政绩观，自觉按规律办事，充分激发干事创业活力。 政治监督是督促全党坚持党中央集中统一领导的有力举措，也是推动党员干部树立和践行正确政绩观的有效方式。 一年来，中央纪委国家监委和各级纪检监察机关认真学习贯彻纪检监察机关开展政治监督工作办法，持续推进政治监督具体化精准化常态化，推动全党进一步增强坚定拥护“两个确立”、坚决做到“两个维护”的政治自觉、思想自觉、行动自觉，形成齐心协力落实党中央决策部署的良好局面。 把造福人民作为根本价值取向，使中国式现代化拥有最可靠、最深厚、最持久的力量源泉—— 中国式现代化，民生为大。整治群众身边不正之风和腐败问题，是老百姓期盼的实事，是关系党的执政根基的大事。 2025年，中央纪委国家监委和各级纪检监察机关持续抓好群众身边不正之风和腐败问题集中整治，有力惩治“蝇贪蚁腐”，深入破解顽瘴痼疾，切实维护群众利益。2025年1至11月，全国共查处群众身边不正之风和腐败问题84万件，直接或推动返还群众财物666.2亿元。 从坚决整治群众身边不正之风和腐败问题，到全国各市县对11.1万个村党组织开展巡察；再到推动完善基层监督体系，推进市、县级纪委副书记易地交流，完成县级纪委监委派驻机构集中办公……一年来，全面从严治党不断向基层延伸、向群众身边延伸，推动改革发展成果更好更公平惠及广大人民群众，凝聚起建设中国式现代化的磅礴力量。 坚持党性党风党纪一起抓、正风肃纪反腐相贯通，营造风清气正、干事创业的良好环境—— 经济社会发展如果哪个环节出现了问题，其背后往往潜藏着不正之风和腐败问题。这些问题损害党的形象、伤害党群干群关系，破坏公平正义、影响发展环境、积累风险隐患，是实现中国式现代化的“拦路虎”“绊脚石”。 仅以最新公布的2025年11月全国查处违反中央八项规定精神问题情况月报数据来看，在履职尽责、服务经济社会发展和生态环境保护方面不担当、不作为、乱作为、假作为，严重影响高质量发展方面查处的问题，占当月查处的形式主义、官僚主义问题总数的84.1%。 二十届中央纪委四次全会强调，“以‘同查’严惩风腐交织问题”“以‘同治’铲除风腐共性根源”“以‘查’、‘治’贯通阻断风腐演变”。一年来，中央纪委制定关于推进不正之风和腐败问题同查同治的意见，推动由风查腐、由腐纠风双向发力、同向治理。各级纪检监察机关在健全不正之风和腐败问题同查同治机制上下功夫、出实招。 实践表明，以作风建设保障改革攻坚，以严明纪律促进干部担当作为，以严惩腐败为经济发展清障护航，就能多措并举最大限度发挥综合效能，持续净化党内政治生态，营造公平竞争的市场环境，为高质量发展提供坚强保障。 一步不停歇、半步不退让 接受可能影响公正执行公务的宴请、旅游活动安排，违规出入私人会所，违规配备、使用公车，违规由下属单位或他人支付应由本人支付的费用…… 元旦前，中央纪委国家监委对7起违反中央八项规定精神典型问题进行公开通报。 节日风气是干部群众观察党风政风的风向标。紧盯元旦、春节、“五一”、中秋、国庆等重要节点，一个节点一个节点坚守，已成为锲而不舍抓作风建设的重要打法。 新时代以来，推进全面从严治党和反腐败斗争力度之大前所未有，成效有目共睹，但远未到大功告成的时候，当前反腐败斗争形势仍然严峻复杂，铲除腐败滋生土壤和条件任务仍然艰巨繁重。 在二十届中央纪委四次全会上，习近平总书记强调：“认识反腐败斗争，一定要有历史眼光、战略高度，着眼于实现党的使命任务”“反腐败斗争必须坚定不移，任何犹豫动摇、松懈手软或半途而废，都将犯颠覆性错误”。 在中共中央政治局第二十一次集体学习时，习近平总书记进一步提出明确要求：“我们把党的纪律规矩向全党广而告之，不搞不教而诛，但对违纪违法问题必须坚决处理，霹雳手段决不能少。” 清醒的战略判断，饱含“得罪千百人、不负十四亿”的历史担当，彰显“一步不停歇、半步不退让”的决心意志。 “一步不停歇、半步不退让”，要求强化系统思维，深化标本兼治，一体推进“三不腐”—— 从紧盯“关键少数”开展审查调查到聚焦“重点领域”，着重抓好金融、国有企业、能源、消防、烟草、医药、高校、体育、开发区、工程建设和招标投标等权力集中、资金密集、资源富集领域系统整治，持续深化政商“旋转门”“逃逸式辞职”治理；从坚持贪污贿赂、失职渎职一起查到坚持受贿行贿一起查……一年来，各级纪检监察机关一刻不停惩治腐败，始终利剑高悬，保持强大攻势。 廉洁文化建设是一体推进“三不腐”的基础性工程。二十届中央纪委四次全会提出，加大以文化人、以文育人力度，制定新时代廉洁文化建设三年行动计划（2025—2027年），推动廉洁文化走进各行各业、千家万户。各级纪检监察机关采取有力举措，深入推进新时代廉洁文化建设，推动廉洁理念深入人心，努力营造崇廉拒腐的良好风尚。 “一步不停歇、半步不退让”，还需不断改革创新，推动完善权力配置、运行的制约和监督机制—— 近年来，在反腐败斗争高压态势下，有的腐败分子为逃避纪法惩处，处心积虑变化腐败手段，权钱交易、利益输送的隐蔽性越来越强。 对此，中央纪委办公厅、国家监委办公厅印发《调查新型腐败和隐性腐败问题证据指引》，针对新型腐败和隐性腐败问题，立足法定证据标准，完善取证思路、明确取证重点，着力破解新型腐败和隐性腐败发现、取证、定性难题，让新型不“新”、隐性难“隐”。 有效的规范和监督，靠制度保障，也靠科技赋能。一年来，各级纪检监察机关以信息化全面赋能正风反腐提质增效，不断提升纪检监察工作新质生产力、新质战斗力。 一些地方纪委监委和派驻机构建设公权力信息化监督平台，加强对权力运行的制约和监督；基层小微权力“监督一点通”信息平台在各地广泛部署应用，已覆盖26个省（区、市）2321个县（市、区），2025年公开公示信息1700多万条，接收群众投诉23万件、办结21万件…… 腐败一日未根除，就要永远吹冲锋号，把严的基调、严的措施、严的氛围长期坚持下去—— 2025年全年，中央纪委国家监委网站发布65名中管干部接受审查调查消息； 2025年1至9月，全国纪检监察机关立案78.9万件，处分67.7万人，运用“四种形态”批评教育和处理137.6万人次； 2025年1至11月，“天网2025”行动共追回外逃人员782人，追回赃款236.57亿元； ………… 一组组数据，释放一严到底、寸步不让的强烈信号，体现治理腐败综合效能的持续增强。这背后，是我们党坚定打赢反腐败斗争攻坚战、持久战、总体战的必胜信心、如磐恒心和坚强决心。 *** *** “十五五”时期是基本实现社会主义现代化夯实基础、全面发力的关键时期，战略机遇和风险挑战并存、不确定难预料因素增多，对党的自我革命提出了新的更高要求。 “对党的自我革命认识要进一步到位”“党员干部增强党性要进一步到位”“权力规范运行要进一步到位”“从严监督执纪要进一步到位”“落实管党治党责任要进一步到位”……习近平总书记强调，自我革命这根弦必须绷得更紧。 天下之治，不进则退，非进不可。不松劲、不止步、再出发，全面从严治党永远在路上，党的自我革命永远在路上。 （本报记者赵成） 【责任编辑：程尔凡】</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>党兴方能国强。 2025年，面对错综复杂的国际形势和艰巨繁重的国内改革发展稳定任务，以习近平同志为核心的党中央徙木立信从严管党治党，去腐生肌推进自我革命，推动党风政风持续向好，有力保障了党和国家各项事业取得新进展新成效。 2026年是“十五五”开局之年。新年贺词中，习近平总书记着眼我们党肩负的历史使命和时代重任，向全党发出号召—— “要砥砺初心使命，持之以恒、久久为功，继续回答好延安‘窑洞之问’，书写无愧于人民的时代答卷。” 以永远在路上的坚韧执着纵深推进全面从严治党 2025年年底，中共中央政治局召开民主生活会，结合思想和工作实际进行自我检视、党性分析，开展批评和自我批评。 “要坚持把中央八项规定作为铁规矩、硬杠杠，毫不松懈整治‘四风’顽瘴痼疾，不断推进作风建设常态化长效化。”习近平总书记发表重要讲话，要求“中央政治局的同志要当好党性党风标杆，在笃信、务实、担当、自律上为全党带好头、作示范”。 从抓作风入手推进全面从严治党是新时代党的自我革命一条重要经验。2025年，深入贯彻中央八项规定精神学习教育在全党开展，这是习近平总书记亲自谋划的全年党建工作重点任务。 谈及党中央决定开展这次学习教育的深远考量，习近平总书记强调：“这些年，八项规定确实是推动了根本性的变化，风气为之一新，过去积重难返的现象大部分没有了。同时要看到，有一些地方发生了松动，有一些方面还存在盲区死角，一些不良风气出现了反弹回潮。钉钉子嘛，再钉几下，久久为功，化风为俗。” 开展深入贯彻中央八项规定精神学习教育，是对学习贯彻习近平新时代中国特色社会主义思想主题教育和党纪学习教育成果的巩固深化，也是纵深推进全面从严治党的重要举措。 习近平总书记高度重视这次学习教育，把关定向、全程指导、亲自推动，发表一系列重要讲话，多次作出重要指示批示，为全党开展好学习教育指明方向—— “切实把作风硬要求变成硬措施、让铁规矩长出铁牙齿，确保学有质量、查有力度、改有成效”； “必须以永远在路上的坚韧和执着推进全面从严治党”“要及时总结学习教育成效和经验，完善作风建设常态化长效化制度机制”； “要持续抓好中央八项规定精神贯彻落实，进一步下大气力把党建设好，打造一支党性纯洁的队伍、纪律严明的队伍，使我们党始终不负人民，团结带领人民顺利完成所肩负的历史使命”； ………… 聚焦主题，深化学习研讨；对照检视，深入查摆问题；动真碰硬，推进整改整治……经历了这场政治历练、思想淬炼、党性锻炼、作风锤炼，广大党员干部普遍对党的自我革命进行了再认识再深化再行动，党的作风实现了整体性提升。 全面从严治党，既要靠思想教育，也要靠制度约束。加强党内法规制度建设，是全面从严治党的长远之策、根本之策。 2025年4月，新修订的《农村基层干部廉洁履行职责规定》全文公布。规定提出一系列务实举措，助力广大农村基层干部在廉洁履职的同时放开手脚、轻装上阵； 2025年5月，中共中央、国务院印发修订后的《党政机关厉行节约反对浪费条例》，强化厉行勤俭节约、反对铺张浪费责任落实，进一步拧紧党政机关带头过紧日子的制度螺栓； 2025年9月，中共中央印发《中国共产党思想政治工作条例》。这是我们党历史上第一部关于思想政治工作的统领性、综合性基础主干法规，为做好新时代思想政治工作提供了基本遵循； ………… “全面从严治党政治性、原则性强，必须有一套科学完备的制度来规范。”一年来，制度的笼子越扎越紧，制度优势不断转化为管党治党效能。 成其身而天下成，治其身而天下治。中国共产党以中央八项规定破题、以自我革命立论的管党治党实践，丰富了人类政治文明图谱，也为世界政党治理提供了具有借鉴意义的参考样本。 在泰国泰中“一带一路”合作研究中心主任威伦·披差翁帕迪看来：“中国共产党秉持自我革命精神，生动展示了一个政党如何不断完善权力运行机制、维护人民利益和提升治理能力，这为世界各国应对日益复杂的未来挑战提供了宝贵的政治智慧。” 管党治党越有效，经济社会发展的保障就越有力 坚持和加强党的全面领导是推进中国式现代化的根本保证。 “管党治党越有效，经济社会发展的保障就越有力。”习近平总书记深刻指明其中辩证统一的关系，“党的自我革命和经济社会发展是紧密相联、相互促进、相得益彰的。通过党的自我革命，弘扬新风正气、纠治顽瘴痼疾，营造良好政治生态，激励干部担当作为，凝聚民心民力，就能为经济社会发展源源不断注入正能量。” 2025年，我国经济顶压前行、向新向优发展，改革开放迈出新步伐，民生保障更加有力，社会大局保持稳定。 回望“很不平凡的一年”，以习近平同志为核心的党中央坚持用改革精神和严的标准管党治党，以高质量党建引领和推动高质量发展，为经济社会发展注入了强大动力。 发挥政治引领和政治保障作用，推动党员干部树立和践行正确政绩观，确保党中央重大决策部署落实到位—— 政绩观正确与否，直接关系党和人民事业发展。中央经济工作会议提出，要树立和践行正确政绩观，坚持为人民出政绩、以实干出政绩。中央农村工作会议强调，树立和践行正确政绩观，自觉按规律办事，充分激发干事创业活力。 政治监督是督促全党坚持党中央集中统一领导的有力举措，也是推动党员干部树立和践行正确政绩观的有效方式。 一年来，中央纪委国家监委和各级纪检监察机关认真学习贯彻纪检监察机关开展政治监督工作办法，持续推进政治监督具体化精准化常态化，推动全党进一步增强坚定拥护“两个确立”、坚决做到“两个维护”的政治自觉、思想自觉、行动自觉，形成齐心协力落实党中央决策部署的良好局面。 把造福人民作为根本价值取向，使中国式现代化拥有最可靠、最深厚、最持久的力量源泉—— 中国式现代化，民生为大。整治群众身边不正之风和腐败问题，是老百姓期盼的实事，是关系党的执政根基的大事。 2025年，中央纪委国家监委和各级纪检监察机关持续抓好群众身边不正之风和腐败问题集中整治，有力惩治“蝇贪蚁腐”，深入破解顽瘴痼疾，切实维护群众利益。2025年1至11月，全国共查处群众身边不正之风和腐败问题84万件，直接或推动返还群众财物666.2亿元。 从坚决整治群众身边不正之风和腐败问题，到全国各市县对11.1万个村党组织开展巡察；再到推动完善基层监督体系，推进市、县级纪委副书记易地交流，完成县级纪委监委派驻机构集中办公……一年来，全面从严治党不断向基层延伸、向群众身边延伸，推动改革发展成果更好更公平惠及广大人民群众，凝聚起建设中国式现代化的磅礴力量。 坚持党性党风党纪一起抓、正风肃纪反腐相贯通，营造风清气正、干事创业的良好环境—— 经济社会发展如果哪个环节出现了问题，其背后往往潜藏着不正之风和腐败问题。这些问题损害党的形象、伤害党群干群关系，破坏公平正义、影响发展环境、积累风险隐患，是实现中国式现代化的“拦路虎”“绊脚石”。 仅以最新公布的2025年11月全国查处违反中央八项规定精神问题情况月报数据来看，在履职尽责、服务经济社会发展和生态环境保护方面不担当、不作为、乱作为、假作为，严重影响高质量发展方面查处的问题，占当月查处的形式主义、官僚主义问题总数的84.1%。 二十届中央纪委四次全会强调，“以‘同查’严惩风腐交织问题”“以‘同治’铲除风腐共性根源”“以‘查’、‘治’贯通阻断风腐演变”。一年来，中央纪委制定关于推进不正之风和腐败问题同查同治的意见，推动由风查腐、由腐纠风双向发力、同向治理。各级纪检监察机关在健全不正之风和腐败问题同查同治机制上下功夫、出实招。 实践表明，以作风建设保障改革攻坚，以严明纪律促进干部担当作为，以严惩腐败为经济发展清障护航，就能多措并举最大限度发挥综合效能，持续净化党内政治生态，营造公平竞争的市场环境，为高质量发展提供坚强保障。 一步不停歇、半步不退让 接受可能影响公正执行公务的宴请、旅游活动安排，违规出入私人会所，违规配备、使用公车，违规由下属单位或他人支付应由本人支付的费用…… 元旦前，中央纪委国家监委对7起违反中央八项规定精神典型问题进行公开通报。 节日风气是干部群众观察党风政风的风向标。紧盯元旦、春节、“五一”、中秋、国庆等重要节点，一个节点一个节点坚守，已成为锲而不舍抓作风建设的重要打法。 新时代以来，推进全面从严治党和反腐败斗争力度之大前所未有，成效有目共睹，但远未到大功告成的时候，当前反腐败斗争形势仍然严峻复杂，铲除腐败滋生土壤和条件任务仍然艰巨繁重。 在二十届中央纪委四次全会上，习近平总书记强调：“认识反腐败斗争，一定要有历史眼光、战略高度，着眼于实现党的使命任务”“反腐败斗争必须坚定不移，任何犹豫动摇、松懈手软或半途而废，都将犯颠覆性错误”。 在中共中央政治局第二十一次集体学习时，习近平总书记进一步提出明确要求：“我们把党的纪律规矩向全党广而告之，不搞不教而诛，但对违纪违法问题必须坚决处理，霹雳手段决不能少。” 清醒的战略判断，饱含“得罪千百人、不负十四亿”的历史担当，彰显“一步不停歇、半步不退让”的决心意志。 “一步不停歇、半步不退让”，要求强化系统思维，深化标本兼治，一体推进“三不腐”—— 从紧盯“关键少数”开展审查调查到聚焦“重点领域”，着重抓好金融、国有企业、能源、消防、烟草、医药、高校、体育、开发区、工程建设和招标投标等权力集中、资金密集、资源富集领域系统整治，持续深化政商“旋转门”“逃逸式辞职”治理；从坚持贪污贿赂、失职渎职一起查到坚持受贿行贿一起查……一年来，各级纪检监察机关一刻不停惩治腐败，始终利剑高悬，保持强大攻势。 廉洁文化建设是一体推进“三不腐”的基础性工程。二十届中央纪委四次全会提出，加大以文化人、以文育人力度，制定新时代廉洁文化建设三年行动计划（2025—2027年），推动廉洁文化走进各行各业、千家万户。各级纪检监察机关采取有力举措，深入推进新时代廉洁文化建设，推动廉洁理念深入人心，努力营造崇廉拒腐的良好风尚。 “一步不停歇、半步不退让”，还需不断改革创新，推动完善权力配置、运行的制约和监督机制—— 近年来，在反腐败斗争高压态势下，有的腐败分子为逃避纪法惩处，处心积虑变化腐败手段，权钱交易、利益输送的隐蔽性越来越强。 对此，中央纪委办公厅、国家监委办公厅印发《调查新型腐败和隐性腐败问题证据指引》，针对新型腐败和隐性腐败问题，立足法定证据标准，完善取证思路、明确取证重点，着力破解新型腐败和隐性腐败发现、取证、定性难题，让新型不“新”、隐性难“隐”。 有效的规范和监督，靠制度保障，也靠科技赋能。一年来，各级纪检监察机关以信息化全面赋能正风反腐提质增效，不断提升纪检监察工作新质生产力、新质战斗力。 一些地方纪委监委和派驻机构建设公权力信息化监督平台，加强对权力运行的制约和监督；基层小微权力“监督一点通”信息平台在各地广泛部署应用，已覆盖26个省（区、市）2321个县（市、区），2025年公开公示信息1700多万条，接收群众投诉23万件、办结21万件…… 腐败一日未根除，就要永远吹冲锋号，把严的基调、严的措施、严的氛围长期坚持下去—— 2025年全年，中央纪委国家监委网站发布65名中管干部接受审查调查消息； 2025年1至9月，全国纪检监察机关立案78.9万件，处分67.7万人，运用“四种形态”批评教育和处理137.6万人次； 2025年1至11月，“天网2025”行动共追回外逃人员782人，追回赃款236.57亿元； ………… 一组组数据，释放一严到底、寸步不让的强烈信号，体现治理腐败综合效能的持续增强。这背后，是我们党坚定打赢反腐败斗争攻坚战、持久战、总体战的必胜信心、如磐恒心和坚强决心。 *** *** “十五五”时期是基本实现社会主义现代化夯实基础、全面发力的关键时期，战略机遇和风险挑战并存、不确定难预料因素增多，对党的自我革命提出了新的更高要求。 “对党的自我革命认识要进一步到位”“党员干部增强党性要进一步到位”“权力规范运行要进一步到位”“从严监督执纪要进一步到位”“落实管党治党责任要进一步到位”……习近平总书记强调，自我革命这根弦必须绷得更紧。 天下之治，不进则退，非进不可。不松劲、不止步、再出发，全面从严治党永远在路上，党的自我革命永远在路上。 （本报记者赵成） 【责任编辑：程尔凡】</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C228" s="5" t="inlineStr">
+        <is>
+          <t>国学新韵：积力所举无不胜，众智所为无不成</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2026-01-12T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>报告人:孙忆 中共中央党校（国家行政学院）国际战略研究院副教授 导读: 中国共产党是中华优秀传统文化的忠实继承者和弘扬者，并通过“两个结合”不断赋予其新的时代内涵和鲜活当代价值。习近平主席多次在重要讲话和文章中引用古典名句，寓意深邃，生动传神，闪耀着中华优秀传统文化博大精深的智慧光芒，极具启迪意义。本期节目，中共中央党校（国家行政学院）国际战略研究院副教授孙忆以“积力之所举，无不胜也；而众智之所为，无不成也”作为切入点，深入阐释了上海合作组织的发展历程与当前国际形势下的中国主张。欢迎观看。 【责任编辑：程尔凡】</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>报告人:孙忆 中共中央党校（国家行政学院）国际战略研究院副教授 导读: 中国共产党是中华优秀传统文化的忠实继承者和弘扬者，并通过“两个结合”不断赋予其新的时代内涵和鲜活当代价值。习近平主席多次在重要讲话和文章中引用古典名句，寓意深邃，生动传神，闪耀着中华优秀传统文化博大精深的智慧光芒，极具启迪意义。本期节目，中共中央党校（国家行政学院）国际战略研究院副教授孙忆以“积力之所举，无不胜也；而众智之所为，无不成也”作为切入点，深入阐释了上海合作组织的发展历程与当前国际形势下的中国主张。欢迎观看。 【责任编辑：程尔凡】</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C229" s="5" t="inlineStr">
+        <is>
+          <t>赋能“年经济”，推动短期热闹为“旺在全年”</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2026-01-12T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>春节脚步渐近，神州大地年味渐浓，“年经济”正以蓬勃之势席卷城乡。从河北石家庄南佐大集1800多个摊位前摩肩接踵的人流，到湖南长沙红星全球农批中心日均1.2万吨的交易量、超1亿元的交易额；从福州果品市场逆势增长的交易曲线，到成都新春欢乐购的全域联动热潮，全国各地市场购销两旺、人气爆棚，“年经济”不仅升腾起浓浓烟火气，更释放出强大消费活力，为中国经济注入开年即冲刺的奋进力量。 年经济要“热得持久”，核心在于锚定“品质升级”精准发力。年货是春节仪式感的载体，更是消费升级的直观体现。如今消费者早已不满足于有年货，而是追求好年货，这份需求升级正是市场迭代的核心动力。农业农村部以“品特产、寻年味”为主题部署“两节”促消费工作，通过发布“土特产”品牌目录、组织年货大集、开展“年味”直播带货等举措，让绿色优质农产品顺畅走进千家万户、走向海外市场。正如兰州新区花卉基地依托海拔1900米的独特自然条件，培育出花瓣饱满、保鲜期长的高品质鲜切玫瑰，通过“线上+线下”模式畅销国内70多个城市及海外市场，用品质赢得市场青睐。各地当顺势而为，一方面推动本土农产品、手工艺品提质增效，挖掘地域特色资源；另一方面持续优化供应链体系，打通从田间地头、工厂车间到百姓餐桌的“最后一公里”，让优质供给精准对接品质需求，以消费升级撬动市场持续升温。 年经济要“暖到实处”，关键在于紧扣“场景创新”深挖潜力。消费活力的释放，从来离不开接地气、有新意的消费场景加持。宁夏金贵大集告别露天摊位，将商户搬进宽敞干净的大厅，扩建停车场、增设便民设施，让老乡赶集不用踩泥路、不用愁停车；浙江台州推出“美食+演艺”年夜饭新模式，边吃团圆饭边看古街表演，杭州、温州等地主题餐厅预订火爆，外地游客预订量增长40%；单县黄河大集更是将羊肉汤、吊炉烧饼等特色美食，与草编、剪纸等非遗技艺、锣鼓展演等民俗活动深度融合，让烟火气里裹着醇厚文化味。场景创新要持续推动“文商旅”深度融合，让小市集实现大升级，既改善硬件设施，更注重体验提升，把乡愁、年味、人情味装进现代化消费场景中，打造老百姓愿逛、爱逛、能逛得舒心的“新集市”，让传统年货采购变成“边走边看、边吃边玩”的沉浸式体验，让消费热情在烟火气中自然升腾。 年经济要“旺在全年”，根本在于立足“长效赋能”谋篇布局。“年经济”的强劲势头，意义远超节日本身，它生动诠释了消费作为经济增长主引擎的牵引之力，更为全年经济发展打下良好基础。浙江通过发放超千万元消费券、推出12条美食旅游线路和580项惠民举措，以真金白银的政策红利激活消费潜力；成都新春欢乐购持续两个月，联动17个特装快闪店，通过《新春逛吃地图》实现“全城乐购”，将节日消费延伸为长期热潮；新疆九鼎农产品批发中心借助线上直播联动线下，让干果、水果销售热度贯穿节前节后。要建立节日消费与日常消费的衔接机制，把年货节的促销模式、创新经验常态化，同时持续完善冷链仓储、物流配送等基础设施，优化城乡消费环境，让城乡消费通道始终畅通，让节日红利持续释放，推动短期热闹转化为长效活力。 年经济的火热，是中国超大规模市场优势的生动体现，更是消费对经济增长基础性作用的有力彰显。只要始终聚焦消费者核心需求，在品质升级上持续用力、在场景创新上不断突破、在长效赋能上久久为功，就能让“年经济”的热度持续蔓延，让消费暖流不断涌动，为中国经济高质量发展注入源源不断的新动能。 作者：唐代远 （编辑：田莉 责编：崔凤娇 校对：文骥 审核：周牧） （来源： 四川新闻网 ） 【责任编辑：程尔凡】</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>春节脚步渐近，神州大地年味渐浓，“年经济”正以蓬勃之势席卷城乡。从河北石家庄南佐大集1800多个摊位前摩肩接踵的人流，到湖南长沙红星全球农批中心日均1.2万吨的交易量、超1亿元的交易额；从福州果品市场逆势增长的交易曲线，到成都新春欢乐购的全域联动热潮，全国各地市场购销两旺、人气爆棚，“年经济”不仅升腾起浓浓烟火气，更释放出强大消费活力，为中国经济注入开年即冲刺的奋进力量。 年经济要“热得持久”，核心在于锚定“品质升级”精准发力。年货是春节仪式感的载体，更是消费升级的直观体现。如今消费者早已不满足于有年货，而是追求好年货，这份需求升级正是市场迭代的核心动力。农业农村部以“品特产、寻年味”为主题部署“两节”促消费工作，通过发布“土特产”品牌目录、组织年货大集、开展“年味”直播带货等举措，让绿色优质农产品顺畅走进千家万户、走向海外市场。正如兰州新区花卉基地依托海拔1900米的独特自然条件，培育出花瓣饱满、保鲜期长的高品质鲜切玫瑰，通过“线上+线下”模式畅销国内70多个城市及海外市场，用品质赢得市场青睐。各地当顺势而为，一方面推动本土农产品、手工艺品提质增效，挖掘地域特色资源；另一方面持续优化供应链体系，打通从田间地头、工厂车间到百姓餐桌的“最后一公里”，让优质供给精准对接品质需求，以消费升级撬动市场持续升温。 年经济要“暖到实处”，关键在于紧扣“场景创新”深挖潜力。消费活力的释放，从来离不开接地气、有新意的消费场景加持。宁夏金贵大集告别露天摊位，将商户搬进宽敞干净的大厅，扩建停车场、增设便民设施，让老乡赶集不用踩泥路、不用愁停车；浙江台州推出“美食+演艺”年夜饭新模式，边吃团圆饭边看古街表演，杭州、温州等地主题餐厅预订火爆，外地游客预订量增长40%；单县黄河大集更是将羊肉汤、吊炉烧饼等特色美食，与草编、剪纸等非遗技艺、锣鼓展演等民俗活动深度融合，让烟火气里裹着醇厚文化味。场景创新要持续推动“文商旅”深度融合，让小市集实现大升级，既改善硬件设施，更注重体验提升，把乡愁、年味、人情味装进现代化消费场景中，打造老百姓愿逛、爱逛、能逛得舒心的“新集市”，让传统年货采购变成“边走边看、边吃边玩”的沉浸式体验，让消费热情在烟火气中自然升腾。 年经济要“旺在全年”，根本在于立足“长效赋能”谋篇布局。“年经济”的强劲势头，意义远超节日本身，它生动诠释了消费作为经济增长主引擎的牵引之力，更为全年经济发展打下良好基础。浙江通过发放超千万元消费券、推出12条美食旅游线路和580项惠民举措，以真金白银的政策红利激活消费潜力；成都新春欢乐购持续两个月，联动17个特装快闪店，通过《新春逛吃地图》实现“全城乐购”，将节日消费延伸为长期热潮；新疆九鼎农产品批发中心借助线上直播联动线下，让干果、水果销售热度贯穿节前节后。要建立节日消费与日常消费的衔接机制，把年货节的促销模式、创新经验常态化，同时持续完善冷链仓储、物流配送等基础设施，优化城乡消费环境，让城乡消费通道始终畅通，让节日红利持续释放，推动短期热闹转化为长效活力。 年经济的火热，是中国超大规模市场优势的生动体现，更是消费对经济增长基础性作用的有力彰显。只要始终聚焦消费者核心需求，在品质升级上持续用力、在场景创新上不断突破、在长效赋能上久久为功，就能让“年经济”的热度持续蔓延，让消费暖流不断涌动，为中国经济高质量发展注入源源不断的新动能。 作者：唐代远 （编辑：田莉 责编：崔凤娇 校对：文骥 审核：周牧） （来源： 四川新闻网 ） 【责任编辑：程尔凡】</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C230" s="5" t="inlineStr">
+        <is>
+          <t>冰雪游热度攀升 热门目的地迎出行高峰</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2026-01-12T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>这个冬天，各地冰雪游持续升温，为冬日文旅市场增添强大活力。数据显示，随着全国冰雪旅游进入黄金期，新疆阿勒泰、河北崇礼、东北长白山等目的地迎来了出行高峰。今年1月前十天，国内前往新疆阿勒泰的机票预订量超3.5万张，同比增长约50%，冰雪旅游热持续攀升。 在黑龙江，“冰雪热”带动“入境游”迎来开门红。 越南籍旅客 明诗：这是我第一次来到哈尔滨，我很喜欢雪乡，想去看一看，这里很漂亮。 如今，滑雪场早已不再是北方的专利。在浙江宁波的宁海县，就有这样一处被群山和竹海包围的“云端”滑雪场，吸引着众多游客前来体验冰雪运动的乐趣。 总台记者 胡浩然：这个雪在早晨或者气温较低的时候是粉雪的状态，但随着气温逐渐升高 ，就会慢慢偏向冰状雪，晶莹剔透、颗粒饱满，这样的冰状雪滑起来速度更快，阻力更小，更适合初学者来这里进行滑雪体验。 除了滑雪，滑冰也是冬日里深受游客青睐的冰雪项目之一。在北京，什刹海等冰场这个周末正式营业，不少市民游客前来感受冬日冰趣。 除了滑冰，游客还可以逛一逛景区内的市集，品尝南北美食，挑选特色文创，解锁冬季文旅新体验。 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>这个冬天，各地冰雪游持续升温，为冬日文旅市场增添强大活力。数据显示，随着全国冰雪旅游进入黄金期，新疆阿勒泰、河北崇礼、东北长白山等目的地迎来了出行高峰。今年1月前十天，国内前往新疆阿勒泰的机票预订量超3.5万张，同比增长约50%，冰雪旅游热持续攀升。 在黑龙江，“冰雪热”带动“入境游”迎来开门红。 越南籍旅客 明诗：这是我第一次来到哈尔滨，我很喜欢雪乡，想去看一看，这里很漂亮。 如今，滑雪场早已不再是北方的专利。在浙江宁波的宁海县，就有这样一处被群山和竹海包围的“云端”滑雪场，吸引着众多游客前来体验冰雪运动的乐趣。 总台记者 胡浩然：这个雪在早晨或者气温较低的时候是粉雪的状态，但随着气温逐渐升高 ，就会慢慢偏向冰状雪，晶莹剔透、颗粒饱满，这样的冰状雪滑起来速度更快，阻力更小，更适合初学者来这里进行滑雪体验。 除了滑雪，滑冰也是冬日里深受游客青睐的冰雪项目之一。在北京，什刹海等冰场这个周末正式营业，不少市民游客前来感受冬日冰趣。 除了滑冰，游客还可以逛一逛景区内的市集，品尝南北美食，挑选特色文创，解锁冬季文旅新体验。 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C231" s="5" t="inlineStr">
+        <is>
+          <t>推进乡村全面振兴 今年我国将部署这些工作</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2026-01-12T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>记者从农业农村部了解到，今年我国将扎实推进乡村全面振兴。 今年，我国将着力提升农业综合生产能力和质量效益，更大力度推进粮油作物大面积单产提升，高质量推进高标准农田建设，加快提升农业防灾减灾救灾能力。深入实施国家大豆和油料产能提升工程，多油并举提高大豆油料产能和自给率。实施设施农业现代化提升行动，全方位拓展食物生产空间。 农业农村部发展规划司司长 陈邦勋：农业农村部将把抓好粮食生产放在工作的首位，全力以赴确保粮食和重要农产品稳产保供，加力实施新一轮千亿斤粮食产能提升行动，压紧压实粮食生产党政同责，稳定面积，优化结构，提升单产。 今年，巩固拓展脱贫攻坚成果将转入常态化精准帮扶阶段。我国将统筹建立常态化防止返贫致贫机制，保持过渡期后帮扶政策总体稳定，分类落实精准帮扶措施，推动帮扶产业提质增效，推进就业帮扶，确保不发生规模性返贫致贫。 与此同时，聚焦农村基本具备现代生活条件，扎实推进宜居宜业和美乡村建设。全面开展第二轮土地承包到期后再延长30年整省试点，进一步激发农业农村发展活力。 （总台央视记者 王凯博 陈博） 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>记者从农业农村部了解到，今年我国将扎实推进乡村全面振兴。 今年，我国将着力提升农业综合生产能力和质量效益，更大力度推进粮油作物大面积单产提升，高质量推进高标准农田建设，加快提升农业防灾减灾救灾能力。深入实施国家大豆和油料产能提升工程，多油并举提高大豆油料产能和自给率。实施设施农业现代化提升行动，全方位拓展食物生产空间。 农业农村部发展规划司司长 陈邦勋：农业农村部将把抓好粮食生产放在工作的首位，全力以赴确保粮食和重要农产品稳产保供，加力实施新一轮千亿斤粮食产能提升行动，压紧压实粮食生产党政同责，稳定面积，优化结构，提升单产。 今年，巩固拓展脱贫攻坚成果将转入常态化精准帮扶阶段。我国将统筹建立常态化防止返贫致贫机制，保持过渡期后帮扶政策总体稳定，分类落实精准帮扶措施，推动帮扶产业提质增效，推进就业帮扶，确保不发生规模性返贫致贫。 与此同时，聚焦农村基本具备现代生活条件，扎实推进宜居宜业和美乡村建设。全面开展第二轮土地承包到期后再延长30年整省试点，进一步激发农业农村发展活力。 （总台央视记者 王凯博 陈博） 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C232" s="5" t="inlineStr">
+        <is>
+          <t>Cómo responder al poder del matón</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2026-01-11T05:30:00+01:00</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Lo que busca el imperialismo de Donald Trump es que América quede libre de cualquier interferencia en sus planes, ya sea europea o, sobre todo, china</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Lo que busca el imperialismo de Donald Trump es que América quede libre de cualquier interferencia en sus planes, ya sea europea o, sobre todo, china
+Quién le iba a decir al viejo Lenin que iba a verresucitadas sus principales tesis sobre el imperialismo(El imperialismo, fase superior del capitalismo,año 1916), más de un siglo después, por la acción crudamente expansionista de Trump. Oa la intelectual judía americana Hannah Arendt,que una parte no principal de su obra magna (Los orígenes del totalitarismo), esencial para el desarrollo de las ciencias sociales a partir de la fecha de su publicación (año 1955), iba a ser revisitada a la luz de los últimos sucesos: que el imperialismo no solo es una política económica o territorial, sino un fenómeno político e ideológico que preparó el camino para el autoritarismo y las democracias iliberales del siglo XXI.
+Sería muy sugerente un debate entre ambos, dados los enfoques tan diferentes, aunque confluyentes en la época en que vivimos. Lenin, que no vivió la Segunda Guerra Mundial, interpretó la Primera como una conflagración imperialista, resultado de la hegemonía del capital financiero (seguramente hubiera pensado lo mismo de la Segunda). Arendt criticó la integración por las grandes potencias de nuevos territorios no para crear nuevos ciudadanos, sino para dominarlos.
+En una semana se reúne el Foro Económico Mundial en Davos, como todos los eneros. Por cierto, es la primera vez que no estará dirigido por Klaus Schwab, un exótico personaje que lo dejó después de que se le acusase de presuntas irregularidades económicas. Después de haber discutido exhaustivamente en años anteriores sobre la inteligencia artificial y sus efectos, se pensaba que en esta ocasión se iban a repetir esos debates dado el avance gigantesco de la IA y del capital tecnológico en el último ejercicio. Peroel tema estrella de este enero era la geopolítica, a través de un enunciado tan ligero como “espíritu de diálogo”, la cooperación en un mundo fragmentado, el descubrimiento de nuevas fuentes de crecimiento (innovación, tecnología, educación…), la inversión en personas, la transición verde, etcétera.
+Y dos huevos duros. Todas las piezas del ajedrez de Davos se han volcado sobre la mesa antelas últimas acciones de Trump, unas políticas mediante las cuales un Estado (la superpotencia hegemónica) extiende su poder sobre otros Estados o territorios, ya sea de forma política, económica, militar o cultural, para beneficiarse de sus recursos, mercados o de su posición estratégica. Ya no se trata de amagar —o de dar— con aranceles a todos sus competidores, sino de otro tipo de acciones que recuerdan el imperialismo americano más provocador de finales del siglo XIX, XX y lo que llevamos del XXI. A saber: el secuestro del sátrapa Nicolás Maduro en territorio venezolanomediante una acción militar,violentando todas las normas del Derecho internacional, y su entrega en territorio estadounidense (como, por ejemplo, en el pasado se hizo con el panameño general Noriega), y lasamenazas a otros países latinoamericanoscomo México, Colombia, Cuba, Nicaragua, Panamá… Se trata de que América quede libre de cualquier intervención europea y, sobre todo, china.
+Quizá con una visión un poco eurocéntrica se pueda afirmar que las continuas declaraciones del presidente estadounidense y sus principales colaboradores sobre laanexión de Groenlandia(o bien comprándola, o bien utilizando al ejército para quedársela) suponen un salto cualitativo en este tipo de imperialismo que se está armando a nuestro alrededor. Groenlandia, la isla más grande del mundo, situada entre el Ártico y el Atlántico Norte, es rica en minerales estratégicos, y el territorio, a su vez, es estratégico por su posición geográfica. Groenlandia es un territorio autónomo de Dinamarca, país de la Unión Europea y de la OTAN. Su adhesión forzada, por el procedimiento que sea, por parte de otro país de la OTAN (EE UU), quebraría la organización de defensa, tal vez para siempre, y conmocionaría a una Europa perpleja, ya por tantos motivos.
+El imperialismo es un componente del fascismo. Hitler y Mussolini eran unos megalómanos y se les acusó de locos. Trump no está loco, sino que pone las bases de unas nuevas reglas del juego en el mundo:el poder del matón.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C233" s="5" t="inlineStr">
+        <is>
+          <t>EE UU inicia la cuenta atrás para volver a la Luna entre dudas sobre el riesgo que corren sus astronautas</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2026-01-13T05:30:01+01:00</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>La NASA inicia el proceso para lanzar en febrero la primera misión tripulada al satélite en medio siglo en plena carrera espacial con China</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>La NASA inicia el proceso para lanzar en febrero la primera misión tripulada al satélite en medio siglo en plena carrera espacial con China
+La agencia espacial de Estados Unidos ha comenzado el proceso para lanzar la primera misión tripulada a la Luna en medio siglo. La decisión coincide con una crisis sin precedentes: un problema médico sin especificar va aobligar a evacuar a la tripulación de la Estación Espacial Internacional en los próximos días. Este cambio de planes coincide en fechas con los preparativos para enviar a la Luna a los cuatro tripulantes de la misión Artemis 2, mientras algunos astronautas alertan de supuestos fallos de seguridad en la cápsula espacial Orion, y agitan el fantasma de que se repitan los peores accidentes mortales de la historia reciente, como los delChallenger, elColumbiao elApolo 1.
+“Nos acercamos cada vez más a Artemis 2, con el traslado a la rampa de despegue prácticamente a la vuelta de la esquina”, ha dicho Lori Glaze, administradora asociada interina de la NASA. “Aún nos quedan pasos importantes en nuestro camino hacia el lanzamiento y la seguridad de la tripulación seguirá siendo nuestra máxima prioridad en todo momento”, ha añadido.
+La Artemis 2 es una misión de prueba que llevará a los cuatro elegidos —Reid Wiseman (comandante), Victor Glover (piloto), Christina Koch (especialista de misión) yJeremy Hansen, de la Agencia Espacial Canadiense, también especialista— a un viaje de ida y vuelta en el que orbitarán una vez la Luna para después regresar a la Tierra unos 10 días después. Será la primera misión tripulada que ponga a prueba el cohete SLS, el mayor construido por la NASA desde la época de las misiones Apolo hace medio siglo, y la cápsula espacialOrion.
+La NASA trabaja bajo enorme presión desde que el Gobierno de Donald Trump decidióadelantar el lanzamientode la misión al próximo 6 de febrero, varios meses antes de lo previsto. En parte, es un intento de desviar la atención del retraso de la Artemis 3 hasta por lo menos 2028, con el riesgo de que China pueda llevar astronautas al satéliteantes quela Américade Trump.
+En la Artemis 2, la principal causa de desvelos es el escudo térmico de la cápsula Orion, que protege la nave y a sus tripulantes durante la entrada en la atmósfera terrestre, cuando en el exterior se alcanzan temperaturas de más de 2.700 grados.
+La misión no tripuladaArtemis 1, lanzada en 2022, dejó en evidencia que el recubrimiento térmico de la nave se desgastó más de lo que habían predicho los modelos de simulación de la NASA. Dos años después, un análisis del inspector general de la agencia volvió a llamar la atención sobre este problema y su posible impacto en la seguridad de la tripulación.
+La agencia ha decidido seguir adelante después de una reunión que tuvo lugar la semana pasada entre el nuevo jefe de la NASA, Jared Isaacman, y especialistas de dentro y fuera de la organización. Uno de los más críticos presentes en esa reunión fue el astronautaCharles Camarda, que sigue pensando que la Artemis 2 no debería volar tal y como está actualmente diseñada.
+Camarda fue uno de los tripulantes delprimer vuelode un transbordador después del accidente delColumbia, que se desintegró durante su reentrada en la atmósfera en 2003 matando a sus siete tripulantes. El desastre se debió precisamente a fallos en el escudo térmico, un componente en el que Camarda está especializado. El astronauta ve en la NASA de hoy “los comportamientos exactos utilizados para construir la justificación del riesgo y del vuelo que provocaron los accidentes delChallenger[en 1986] y delColumbia[2003]”. Usan las herramientas de manera inapropiada y luego afirman que los resultados son “conservadores”, ha escrito en la red socialLinkedin.
+La NASA tenía la opción de sustituir el recubrimiento por el que volará en la misión Artemis 3, que llevará a cuatro astronautas a un aterrizaje en la Luna en 2028, y que es distinto del actual. Pero la configuración de la Artemis 2 y el calendario marcado han influido para que la decisión haya sido otra: cambiar el ángulo de entrada de la nave en la atmósfera para minimizar la posibilidad de que el escudo salte y ponga en peligro a la tripulación.
+Otra gran incógnita es el comportamiento del sistema ambiental de la cápsula Orion, que entre otras funciones provee de oxígeno a los tripulantes durante el viaje. Este sistema es parte delMódulo de Servicioque la Agencia Espacial Europea ha diseñado junto a empresas europeas para la cápsula Orion. Este sistema ambiental y de soporte vital (ECLSS, en las siglas inglesas) no se ha probado en vuelo de forma completa, sobre todo el sistema encargado de proporcionar aire respirable, lo que supone otra vuelta de tuerca a los potenciales riesgos de este viaje.
+El viernes, el administrador de la NASA, Jared Isaacman, recién confirmado en su cargo tras haber sido retirado por Trump por sus lazos con Elon Musk, anunció que la agencia va a retirar a la actual tripulación de la Estación Espacial Internacional (ISS) de forma prematura debido a que uno de los astronautas sufreun problemade salud.
+La agencia no ha desvelado de quién se trata ni de qué dolencia sufre, aunque ha asegurado de que el afectado se encuentra estable. Es la primera vez que se da esta situación, lo que aumenta la presión sobre la agencia para encajar el vuelo de evacuación y el de relevo para intentar que la plataforma espacial no quede deshabitada, lo que sentaría un mal precedente histórico desde que se inauguró hace un cuarto de siglo. Isaacman aseguró que esta situación no afecta al calendario actual de lanzamiento de la Artemis 2, que podría suceder en apenas tres semanas.
+Para llegar a tiempo a su primera fecha de lanzamiento, la NASA empezará este mismo sábado la colocación en la plataforma de despegue delcohete SLS, un descomunal artefacto de casi 100 metros de largo y más de 2.500 toneladas de peso. Aunque es ligeramente más pequeño que el mítico Saturn V que llevó astronautas por primera vez a la Luna hace medio siglo, su potencia es mayor. El trayecto de este coloso desde las naves de ensamblaje hasta la plataforma de despegue 39B, de unos cuatro kilómetros, llevará hasta 12 horas.
+La Artemis 2 presenta unos retos técnicos apabullantes. Solo la cápsula Orion tiene más de 300.000 componentes que deben estar en perfecto estado de revista. Este mismo fin de semana la NASA tuvo que revisar dos partes que no estaban en condiciones adecuadas. El más mínimo fallo puede parar la cuenta atrás y retrasar la misión. Si todos los sistemas están en condiciones, a finales de mes se hará la primera prueba del cohete con todo el combustible cargado. Habrá varias pruebas de cuenta atrás simuladas y, por último, el equipo de dirección de la misión se reunirá para determinar si todos los componentes están listos para el vuelo. La primera oportunidad de despegue está vertiginosamente cerca: el 6 de febrero, enmenos de un mes.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C234" s="5" t="inlineStr">
+        <is>
+          <t>Dinamarca califica de "franca y constructiva" su reunión con EEUU pero advierte: "Es evidente que el presidente Trump desea conquistar Groenlandia"</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2026-01-15T06:58:46+01:00</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>"Estados Unidos necesita Groenlandia para su seguridad nacional . Es vital y la OTAN debería liderar el camino para que la consigamos, si no, Rusia o China lo harán" amenaza de nuevo Trump Leer</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Poco más de una hora, sin cámaras, ni posados para saludos. La esperada reunión entre una delegación de alto nivel deDinamarcayGroenlandiacon sus contrapartes deEstados Unidos, nada menos que en la Casa Blanca y con la presencia del vicepresidente,J. D. Vance, ha concluido este miércoles sin grandes avances, pero aparentemente sin una crisis todavía mayor. "Ha sido una conversación franca pero constructiva", ha explicado el ministro de Exteriores danés,Lars Løkke Rasmussen, admitiendo queambas partes siguen discrepando sobre el futuro de Groenlandia, pero que han aceptado crear un "grupo de trabajo de alto nivel" que se reunirá "en las próximas semanas" para ver cómo se puede avanzar para abordar las preocupaciones de seguridad estadounidenses. "Queremos trabajar en estrecha colaboración, pero debe ser una cooperación respetuosa. No es fácil pensar en soluciones innovadoras cuando te despiertas cada mañana con diferentes amenazas (...) No logramos cambiar la postura estadounidense.Es evidente que el presidente desea conquistar Groenlandia", añadió Rasmussen.
+Semblantes serios de los europeos, cada vez más alarmados por las presiones y amenazas de sus socios de laOTAN, completamente decididos a quedarseun territorio estratégico para la seguridad del Ártico. El ministro ha recordado que"Estados Unidos ya cuenta con un amplio acceso militar a Groenlandiay en virtud del acuerdo de defensa de 1951, siempre puede solicitar un aumento de su presencia en Groenlandia. Si Estados Unidos tiene alguna otra solicitud que hacer al respecto, la examinaríamos de forma constructiva. Las conversaciones se centraron en cómo garantizar la seguridad a largo plazo en Groenlandia, y en este aspecto, nuestras perspectivas siguen discrepando. Debo decir que el presidente ha dejado clara su opinión y que nuestra postura es diferente", ha afirmado. "No queremos pertenecer a EEUU", ha dicho por su parte la ministra de Exteriores groenlandesa.
+Copenhague tenía como objetivo calmar la situación, frenar la escaladade las últimas horas y las crecientes amenazas deTrumpy cambiar los términos de una discusión que EEUU está construyendo en torno a lo que considera una amenaza existencial para el territorio... Pero por parte rusa o china. Y encontrar una forma de abordar las necesidades de todos. "Si eso es factible, no lo sé. Espero, y quisiera expresarlo así, que se pueda bajar la temperatura que hemos tenido durante los últimos 13 meses con estas discusiones en curso y las redes sociales. Esta es, de hecho, la primera vez que pudimos sentarnos al más alto nivel político para debatirlo. También fue una gran oportunidad para Vivian y para mí de desafiar la narrativa existente, porque no es una narrativa verdadera sobre buques de guerra chinos por todas partes. Según nuestra inteligencia, no hemos tenido un buque de guerra chino en Groenlandia durante aproximadamente una década. Así que, desde esa perspectiva, fue una reunión muy constructiva, como dije, una discusión franca entre socios iguales, y ahora al menos tenemos que intentarlo", ha añadido
+Nada era normal en este encuentro. No lo es que un país de laUE, el que más bajas sufrió en términos proporcionales ayudando a EEUU en la guerra de Irak, se vea contra las cuerdas de esta forma. No es habitual que el vicepresidente de la primera potencia del planeta se sume a una cita de ministros de Exteriores, pero poco sorprende después de su visita exprés hace unos meses a una base militar estadounidense en Groenlandia para dejar claro que van en serio. Ni tener que aclarar que su país no tiene "sólo trineos con perros" para su defensa ("El Reino de Dinamarca ya ha incrementado su propia contribución al destinar fondos adicionales para capacidades militares, no trineos para perros, sino barcos, drones, aviones de combate"). Y no es en absoluto lo normal, o al menos no lo era hasta hace muy poco, que el presidente de EEUU diga, poco antes de la llegada de sus invitados, que cualquier escenario que no implique la propiedad de su país de un territorio amigo es inasumible.
+"Estados Unidos necesita Groenlandia para su seguridad nacional.Es vital para la Cúpula Dorada que estamos construyendo. La OTAN debería liderar el camino para que la consigamos. Si no lo hacemos, Rusia o China lo harán, ¡y eso no va a suceder! Militarmente, sin el vasto poder de Estados Unidos, gran parte del cual construí durante mi primer mandato y que ahora estoy elevando a un nivel nuevo y aún más alto, la OTAN no sería una fuerza eficaz ni disuasoria, ¡ni de lejos! Ellos lo saben, y yo también. La OTAN se vuelve mucho más formidable y eficaz con Groenlandia en manos de Estados Unidos. Cualquier cosa menos que eso es inaceptable", escribió el presidente en su red social, marcando el tono antes de la reunión de hoy.
+"No voy a renunciar a ninguna opción.Groenlandia es muy importante para la seguridad nacional, incluida la de Dinamarca. Yel problema es que Dinamarca no puede hacer nada al respecto si Rusia o China quieren ocuparla, pero nosotros podemos hacer todo lo posible.Todos lo vieron la semana pasada con Venezuela. Podemos hacer todo lo posible para que ese tipo de cosas no sucedan. No podemos confiar en que Dinamarca pueda defenderse. Hablaban de poner un trineo tirado por perros, y lo decían en serio", insistió horas después, desde el Despacho Oval, pero antes de recibir un briefing sobre el contenido de las negociaciones.
+Muchos temían estos días una encerrona similar a la de Volodimir Zelenskiel año pasado en el Despacho Oval. Pero ni Trump estuvo presente ni hubo cobertura en directo. Por parte norteamericana estaban Vance, el secretario de Estado,Marco Rubio, sus asesores principales y el embajador en Copenhague, Ken Howery. Por parte danesa, el ministro de Exteriores, Lars Løkke Rasmussen, con sus principales ayudantes, especialmente Jeppe Tranholm-Mikkelsen, un veterano que fue durante años secretario general del Consejo en Bruselas, uno de los puestos clave de la UE, y que al concluir la reunión chocó su puño con su jefe, como muestra de alivio o de satisfacción por su desempeño. También estaban en la delegación Vivian Motzfeldt, la ministra de Exteriores de Groenlandia, con su equipo, incluyendo su representante especial para EEUU en Washington.
+La tensión era evidente e inevitable. El martes, al ser preguntado por las palabras del primer ministro de Groenlandia afirmando no querer ser parte de EEUU y preferir mantener su relación con Dinamarca, Trump se burló de él, como lo ha hecho una y otra vez sobre la capacidad del país europeo de defender el territorio, diciendo que la única forma que tienen es enviar más trineos de perros. "¿Quién ha dicho es? Bueno, ese es su problema. No estoy de acuerdo con él. No sé quién es, no sé nada de él. Pero eso va a ser un gran problema para él", zanjó con absoluto desprecio.
+En condiciones normales, una reunión de este tipo debería haber tenido como punto casi único abrir iniciar un diálogo sobre seguridad, cooperación y cómo EEUU puede aumentar su presencia en Groenlandia, quede facto control'con sus bases militares o estaciones de radares. Pero la presencia de Vance, el encargado oficioso de lograr la renuncia danesa al territorio, y la brevedad del encuentro dejan poco margen para el optimismo. Mientras los dos lados estaban hablando, la Casa Blanca publicó una viñeta con dos trineos tirados por perros y con banderas, en la que instaba a los habitantes de Groenlandia a escoger entre dos vías, sólo dos: el camino que lleva a Washington o el que lleva a Rusia y China.
+"Nosotros, el Reino de Dinamarca, seguimos creyendo que la seguridad a largo plazo de Groenlandia puede garantizarse dentro del marco actual, el Acuerdo de 1951 sobre la Defensa de Groenlandia y el Tratado de la OTAN. Para nosotros, las ideas que no respeten la integridad territorial del Reino de Dinamarca ni el derecho a la autodeterminación del pueblo groenlandés son, por supuesto, totalmente inaceptables. Por lo tanto, seguimos teniendo un desacuerdo fundamental, pero también estamos de acuerdo en discrepar,por lo que seguiremos dialogando. Hemos decidido formar un grupo de trabajo de alto nivel para explorar si podemos encontrar una solución común. En nuestra opinión, este grupo debería centrarse en cómo abordar las preocupaciones de seguridad estadounidenses, respetando al mismo tiempo las líneas rojas del Reino de Dinamarca. Esperamos que dicho grupo se reúna por primera vez en unas semanas", han dicho los ministros danés y groenlandesa a la puerta de la embajada europea en Washington.
+Trump ha puesto la cuestión de la propiedad desde el primer día de su vuelta al poder. Por las buenas, mediante una compra, o por las malas. Fuentes del entorno de Trump citadas por diversos medios dicen que quiere pasar a la historia por la mayor incorporación de territorio del último siglo, y que las atribuciones del Congreso sobre anexiones le dan igual. La cadena NBC, citando a "tres personas familiarizadas", ha publicado oportunamente este miércoles por la mañana queEstados Unidos podría tener que pagar hasta 700.000 millones de dólares en una adquisición. "La estimación fue elaborada por académicos y ex funcionarios estadounidenses como parte de la planificación en torno a la aspiración de Trump de adquirir la isla de 2.000.000 kilómetros cuadrados como protección estratégica en el Ártico contra los principales adversarios de Estados Unidos, según estas fuentes. Impone un costo de más de la mitad del presupuesto anual del Departamento de Defensa a la prioridad de seguridad nacional de Trump", dice el artículo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C235" s="5" t="inlineStr">
+        <is>
+          <t>El pelotazo del multimillonario mercado de mascotas en China (y el negocio en auge de la clonación de gatos)</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2026-01-15T06:43:20+01:00</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Pingyang, antigua capital del cuero, se reinventa como centro de un negocio multimillonario que combina fabricación, comercio electrónico y un ejército de streamers Leer</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Rodeados de trípodes, luces anulares, reflectores, biombos y muchos móviles, un grupo de jóvenesstreamersse colocan en pequeños habitáculos y, delante de las cámaras, comienzan a cantar y a bailar mientras promocionan comida para gatos. Luego, hacen lo mismo, pero presentando champús para perros. Estas retransmisiones en vivo para plataformas de comercio electrónico chinas se hacen desde la undécima planta de una torre de oficinas en el condado dePingyang, al este deChina, que es el actual epicentro del gigante asiático de venta de productos para mascotas.
+Pingyang, hace no mucho tiempo, fue bautizada como la capital del cuero enChina. Había más de 1.200 empresas de procesamiento de cuero que representaban una cuarta parte de la producción total del país. Pero esta industria se fue apagando por el enorme coste ambiental que causaba, sobre todo en el proceso de curtido del cuero, que contaminaba los ríos.
+Las autoridades fueron apretando con nuevas regulaciones y los empresarios del cuero comenzaron a ver una oportunidad en un mercado en auge, el de las mascotas. El año pasado, la población total de mascotas enChinaascendió a más de 124 millones (el número de gatos domésticos alcanzó más de 70 millones y el de perros más de 50 millones). En un informe publicado por las autoridades, se estima que este mercado superó los 300.000 millones de yuanes (alrededor de 36.000 millones de euros), un aumento del 7,5% interanual.
+EnPingyang, quienes antes se dedicaban a producir cuero, ahora fabrican correas para perros y juguetes para gatos. También diferentes tipos de pienso, galletas y hasta ropa para los animales. Además, para promocionar todos estos productos, los empresarios han contratado a un ejército destreamerse influencers que retransmiten desde el condado dirigiéndose a consumidores de todo el país.
+La industria de mascotas deChinaha crecido a una tasa anual superior al 13% durante la última década. En 2024, un informe deGoldman Sachsindicó que, por primera vez en el segundo país más poblado del mundo, el número de perros y gatos superó al de niños menores de cuatro años. Además, se proyecta que para 2030, el número de mascotas casi duplicará al de niños.
+Esta es una realidad visible en las grandes ciudades en medio de la gran crisis demográfica que atraviesa la superpotencia asiática: muchos jóvenes urbanitas cada vez retrasan más la decisión de ser padres. O directamente muchos reemplazan esa idea por la de tener gatos y perros. Según estudios oficiales, los chinos nacidos en la década de 1990 representan el 41,2% de los propietarios de mascotas. Pero los que nacieron después de los 2000, de los que se espera que ayuden a darle la vuelta a las desastrosas tasas de natalidad, son el grupo de propietarios de mascotas que más está creciendo.
+En el país asiático se registraron más de 500.000 empresas en 2024 relacionadas con mascotas. Un sector que está siendo una salida laboral para miles de chinos. Esto lo sabe bienFavor Pets, una compañía que se dedica a la capacitación de personal que quiere trabajar con mascotas. En los últimos años, la empresa dice que ha formado a más de 30.000 peluqueros, 4.000 entrenadores y 500 cuidadores.
+EnPekín, laUniversidad Agrícola de China, una de las principales instituciones académicas del país, lanzó hace unos meses la primera especialización de pregrado centrada en animales de compañía."El programa capacitará a los estudiantes para satisfacer la creciente demanda de talento en la industria de las mascotas", señalaba el centro en su folleto de admisión."A diferencia de las carreras tradicionales de zootecnia, que se centran en la ganadería y aplicaciones agrícolas más amplias, la especialización en animales de compañía se centra en mascotas como perros, gatos y caballos. Los cursos abarcarán el comportamiento canino y felino, la cultura ecuestre, la nutrición, la cría y el cuidado", continuaba.
+El boom de los animales de compañía enChinatambién ha impulsado el negocio de la clonación. En esto, la empresa pionera fueSinogene Biotechnology, que empezó en 2018 a hacer copias de perros y gatos domésticos que habían fallecido. El equipo deSinogeneya lleva más de 500 mascotas clonadas. El coste va entre los 20.000 a 60.000 euros.
+Para los perros, los clonadores mantienen una base de cría en las afueras dePekíncon unos 1.000 beagles, que es la raza de laboratorio elegida habitualmente a nivel global. De estos animales se recolectan óvulos inmaduros y luego se combinan con las células del perro progenitor para formar embriones, que son los que se implantan finalmente en la madre sustituta. Un cachorro clonado tarda de promedio medio año en nacer y, tras un periodo de observación de dos meses, es entregado a sus dueños.
+Otro modelo de negocio explotado en este caso por las tiendas para mascotas consiste en ofrecer un perro o un gato gratis, a cambio de que los clientes firmen un contrato por el que se comprometen a comprar todos los meses en ese establecimiento, durante al menos un año, alimentos y accesorios para sus nuevas mascotas. Este asunto fue recientemente viral en las redes sociales chinas por varios casos de demandas judiciales. Uno de los procesos involucraba a una clienta que había firmado uno de estos contratos a cambio de un adorable gato. El problema fue que el felino estaba enfermo y murió a las pocas semanas, pero la tienda obligaba a la mujer a continuar comprando productos que ya no iba a necesitar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C236" s="5" t="inlineStr">
+        <is>
+          <t>China rompe el techo del comercio mundial: su superávit comercial alcanza un récord de 1,2 billones de dólares en 2025</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:15:10+01:00</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Según datos publicados este miércoles, las exportaciones crecieron un 5,5% interanual en 2025 Leer</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>El superávit comercial anual dePekínalcanzó un récord de 1,19 billones de dólares en 2025, confirmando la extraordinaria capacidad del aparato industrial del gigante asiático para colocar sus bienes en los mercados internacionales a pesar de la guerra arancelaria desatada porDonald Trump.
+Lejos de frenar el empuje exportador chino, los elevados gravámenes impuestos porEstados Unidosparecen haber acelerado una reconfiguración en las fábricas chinas, que ahora inundan mucho más otros mercados con sus clásicos bienes de bajo valor añadido, pero también con muchos másautomóviles, productos electrónicos y maquinaria pesada.
+Según datos publicados este miércoles por las autoridades chinas,las exportaciones crecieron un 5,5% interanual en 2025. Sólo en diciembre, los envíos aumentaron un 6,6%, por encima del crecimiento del 5,9% registrado en noviembre, el primer mes que el superávit acumulado del gigante asiático superó por primera vez el billón de dólares.
+Los analistas coinciden señalando que los exportadores chinos han redireccionado con éxito las cadenas de suministro y diversificado los envíos hacia más regiones, especialmente a los mercados emergentes, compensando así el déficit de pedidos con destino a EEUU. Las exportaciones chinas a Washington cayeron un 20% en todo 2025, según mostraron datos aduaneros. Mientras tanto, los envíos de China a la región de la ASEAN (los países del Sudeste Asiático) aumentaron un 13,4% en 2025, a América Latina un 7,4% y a África un 25,8%. Por último, las exportaciones a la Unión Europea se expandieron un 8,4% durante todo el año.
+Los trenes chinos avanzan con cada vez mayor ímpetu hacia el corazón de Europa. Contenedores repletos de maquinaria, textiles, electrodomésticos, coches eléctricos, paneles solares y componentes industriales atraviesan Asia empujados por la determinación de Pekín de seguir estirando la dependencia hacia la gran fábrica global. Por mar, grandes cargueros procedentes de los puertos de Shanghai, Ningbo o Shenzhen descargan sin pausa, a un ritmo sin precedentes, en Róterdam, Hamburgo o Valencia.
+El músculo exportador chino no sólo volvió hace tiempo a niveles prepandemia, sino que los ha sobrepasado con holgura, tensionando la capacidad de respuesta de la industria europea y con los fabricantes locales protestando por una competencia casi insalvable ante un flujo que no deja de crecer. Mientras Pekín lanza sus exportaciones a cifras récord, Bruselas vigila con inquietud lo que considera una expansión agresiva en sectores estratégicos.
+"Algunos actores importantes de la Unión Europea, copiando la estrategia fallida de Estados Unidos, nos amenazan ahora con aranceles creyendo que así van a impulsar la producción de sus naciones. Pero esas medidas no van servir de nada porque cada vez fabricamos más en suelo europeo", dice un funcionario del Ministerio de Comercio chino. "Probablemente sólo estemos viendo la punta del iceberg cuando se trata de entender las dependencias. Ni siquiera estoy seguro de que Europa pudiera fabricar pasta de dientes sin China", manifestaba hace unos díasJens Eskelund, presidente de la Cámara de Comercio de la UE en el país asiático.
+Durante todo el año pasado, China mostró al mundo sus dos cartas ganadoras en la guerra comercial desatada por el presidente estadounidense Donald Trump. Por un lado, el control sobre prácticamente todo el procesamiento y suministro mundial de minerales críticos y las tan demandadas tierras raras, indispensables para la industria tecnológica. Por el otro, el músculo manufacturero y exportador, clave en mantener el crecimiento de la segunda economía mundial.
+Según datos oficiales publicados a finales de 2025, los trenes del corredor China-Europa (que conectan 232 ciudades de 26 países europeos) completaron un récord de 120.000 viajes, transportando mercancías valoradas en más de 420.000 millones de euros. El músculo exportador chino también avanzó por mar, y lo hizo más rápido que nunca. En octubre, un portacontenedores abrió un nuevo capítulo en el comercio mundial al estrenar la ruta conocida como Arctic Express, una travesía que acorta radicalmente las distancias navegando por el extremo norte. El buque Puente de Estambul completó su viaje entre los puertos chinos y destino final en Gdansk (Polonia) en 26 días, reduciendo a la mitad el tiempo de entrega habitual.
+Todo esto ha empujado al nuevo récord del superávit comercial de la superpotencia asiática. "Nuestros socios comerciales están cada vez más diversificados y nuestra resiliencia al riesgo se ha fortalecido significativamente", presumió el miércoles en una conferencia de prensaWang Jun, viceministro de la Administración General de Aduanas, quien atribuyó el "sólido desempeño exportador de China" a las políticas de apoyo y a la "profundidad industrial del país".
+Zichun Huang, economista de Capital Economics, apunta que este superávit seguirá aumentando porque la superpotencia asiática ha compensado la caída de las exportaciones a EEUU con un "mayor dinamismo" de los envíos a otros destinos, especialmente África, América Latina y Oriente Próximo.
+"La resiliencia exportadora china se explica por dos factores clave: la rápida reorientación geográfica del comercio y la creciente competitividad en precios de los productos chinos, favorecida por un entorno interno de deflación y por un tipo de cambio efectivo real más bajo", señala el experto.
+En medio de las tormentas internas -la crisis del mercado inmobiliario y el estancamiento del consumo-, el persistente empuje estatal a las exportaciones ha logrado que estén creciendo a un ritmo superior al del comercio mundial. Varias consultoras internacionales destacan que a través del control de los flujos de capital y de intervenciones directas e indirectas en los mercados de divisas, las autoridades chinas han evitado que el yuan -la moneda local- se aprecie como dictaría la lógica económica clásica ante un superávit tan abultado, preservando así la competitividad externa de sus exportadores.
+Las fricciones entre Pekín y Washington se han moderado estos últimos meses, conTrumpy el líder chino Xi Jinping estirando una tregua comercial que ha dado un respiro a los dos titanes del tablero geopolítico. Pero en otros patios importantes, como el europeo, hay cada vez más voces que cargan contra la avalancha de productos chinos.
+El presidenteEmmanuel Macron, tras su vista de Estado a Pekín a finales del año pasado, declaró que Europa no puede aceptar indefinidamente un comercio "asimétrico", una preocupación que cobraba fuerza a la vista del aumento de las exportaciones chinas.
+EnBruselasestán en alterna porque Pekín está acaparando cada vez más sectores estratégicos con sus vehículos eléctricos, baterías de litio, equipos de telecomunicaciones y maquinaria industrial avanzada. Macron advirtió que la UE podría seguir el camino de EEUU e imponer aranceles a Pekín si no se corrige el enorme desequilibrio.
+"La zona euro está particularmente expuesta a los efectos negativos del aumento de la oferta de bienes chinos, que amenaza con ampliar el déficit comercial bilateral", asegura un análisis deGiovanni Pierdomenico, economista de Goldman Sachs. "Esperamos que una mayor competencia exportadora china reduzca el PIB de la zona euro en alrededor de un 0,5% a finales de 2029", añade.
+Según las estimaciones del banco,Alemaniase enfrenta al mayor lastre, con una previsión de que el producto interior bruto real disminuya aproximadamente un 0,9 % durante los próximos cuatro años debido a esta presión. Se prevé que Italia sufrirá un impacto anual del 0,6 %, Francia y España, de alrededor del 0,4 %.
+La directora gerente del FMI,Kristalina Georgieva, instó a China a corregir sus desequilibrios económicos, afirmando que el país de 1.400 millones de habitantes es demasiado grande para depender de las exportaciones para su crecimiento. "La continua dependencia de China del crecimiento impulsado por las exportaciones podría agravar las tensiones comerciales globales", manifestó. La financieraMorgan Stanleypredice que para 2030, la participación de mercado de China en las exportaciones globales podría alcanzar el 16,5%, frente al 15% actual.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C237" s="5" t="inlineStr">
+        <is>
+          <t>Temor en Wall Street a la escasez de uranio: Trump, China y la fiebre nuclear ponen contra las cuerdas el mercado mundial</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2026-01-14T01:12:37+01:00</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>El renacer de la energía atómica amenaza con desbordar una minería anestesiada desde el desastre de Fukushima. Bank of America y Citi prevén desajustes ya en 2030 y precios al alza Leer</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>La nueva ola de la energía nuclear amenaza con ahogar el comercio mundial deuranio. Una treintena de países está construyendo nuevos reactores o se lo está pensando. Si en 2023 había 437 unidades operativas en todo el planeta, hoy existen proyectos (en marcha o anunciados) para superar las 900. Es decir, el parque atómico podría duplicarse en la próxima década. Este boom, liderado por Estados Unidos y China, está llevando al límite el mercado mundial de uranio. Grandes bancos de Wall Street ya pronostican undéficit estructuralde esta materia prima.
+Para Bank of America, el mundo ha «redescubierto» recientemente la energía nuclear. Esa combinación de consumo eléctrico creciente -propulsado por la economía de la inteligencia artificial- y falta de inversión en minería «crearáun desequilibrio en el mercado del uranio, ya que la demanda total seguirá creciendo, en medio de un aumento repentino de las necesidades mundiales de electricidad, mientras que la oferta disminuirá». Su previsión es clara: la brecha entre oferta y demanda de uranio, «el primer ladrillo de la energía nuclear», aflorará en 2030 y se agravará a medida que avance la década.
+La enorme concentración de reservas convierte al uranio en un recurso estratégico y muy vulnerable a los vaivenes de la geopolítica que, hoy, es una olla a presión.Kazajistán, Canadá y Australia acaparan dos tercios de la producción global, mientras que Rusia, pese a las sanciones y eldivorcio energético con Occidente, aglutina más del 40% de la capacidad mundial de enriquecimiento, un proceso necesario para fabricar combustible nuclear a partir de uranio.
+El desastre de Fukushima, en 2011, dejó anestesiada la industria del uranio. Su precio se desplomó (de unos 70 dólares por libra a menos de 20) y el número de minas quedó diezmado. La recuperación no comenzó hasta finales de 2021, y despegó con fuerza en 2024. El problema es que tanto reactivar minas cerradas como abrir nuevas exige inversiones masivas y entre 5 y 10 años de trabajos. Difícilmente, tras una década al ralentí, la oferta podrá recuperarse al ritmo que exige el inminente pico de demanda.
+Hoy, los futuros del uranio superan los 82 dólares.Arkady Gevorkyan, analista deCiti, defiende en conversación con EL MUNDO que el precio spot del uranio alcanzará los 100 dólares/libra a finales de 2026 y continuará al alza en 2027. Aunque el mercado de uranio ha sido tradicionalmente deficitario, pronto esa brecha tendrá consecuencias diferentes.
+Hasta ahora, la llamada oferta secundaria (reciclaje, reservas estratégicas...) ha equilibrado el mercado cuando la minería se ha quedado rezagada. Pero la fiebre nuclear está acabando aceleradamente con ese colchón. «Los suministros secundarios están llamados a disminuir a medida que se amplía la brecha oferta-demanda. Inventarios gubernamentales (principalmente en Rusia y EEUU) que han estado disponibles más de 20 años, han ido reduciéndose. De hecho, esperamos que las iniciativas en EEUU y otros países para reconstruir reservas estratégicas generen demanda adicional», explica Gevorkyan.
+La geopolítica aumenta la presión.Chinaha emergido como gran motor de la expansión nuclear, con 15 reactores en construcción y planes para duplicar su capacidad antes de 2035. Pekín está agudizando así la carrera mundial por cerrar nuevos contratos para asegurar el suministro. Tras una década en descenso, los inventarios móviles de EEUU y la UE evidencian que sus eléctricas han vuelto a acumular uranio mientras la oferta sigue disponible. Con suProhibiting Russian Uranium Imports Act,Donald Trumpha prohibido las compras de uranio ruso a partir de 2028, «lo que tensará aún más el mercado», remacha el analista de Citi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C238" s="5" t="inlineStr">
+        <is>
+          <t>La UE y China dan un paso que podría acabar con los aranceles a los coches eléctricos</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2026-01-13T01:08:09+01:00</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Llegan a un acuerdo para que los constructores fijen unos precios mínimos para sus automóviles. Las propuestas, una por cada modelo de automóvil, tendrán que ser aprobadas luego por Bruselas. Leer</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Pekín y Bruselas han dado un paso que podría ser decisivo paraacabar con los aranceles que la UE impuso en octubre de 2024 a los coches eléctricos fabricados en Chinay que iban a estar en vigor durante un periodo de cinco años.
+Ayer, la Comisión Europea publicó un documento con lasdirectrices que pueden seguir las marcas de aquel país para fijar un precio mínimo de venta de esos automóviles en el Viejo Continente.Cada una de esas propuestas será analizada luego por Bruselas y si el compromiso de precio compensa el efecto de los subsidios ilegales que dieron origen a los aranceles, éstos podrían ser eliminarlos.
+Además,esas propuestas podrán reforzarse «si incluyen compromisos adicionales», como límites a los volúmenes anuales de envío o planes de inversión industrial dentro de la UE,una exigencia que conecta con la obsesión comunitaria por reindustrializar el continente y reducir dependencias estratégicas. La Comisión insiste en que cada oferta será evaluada «de manera objetiva y justa», dentro del marco normativo de la Organización Mundial del Comercio (OMC).
+«Esto no sólo es beneficioso para asegurar el desarrollo saludable de las relaciones económicas y comerciales entre China y la UE, sino también parasalvaguardar el orden del comercio internacional basado en reglas»,afirmó un comunicado del Ministerio de Comercio del gigante asiático. Asimismo, la Cámara de Comercio ante la UE acogió con satisfacción la medida, pues ofrecerá un «aterrizaje suave» a la disputa en torno a los vehículos eléctricos.
+Actualmente,los aranceles a los automóviles eléctricos y eléctricos de autonomía extendida oscilan entre el 7,8% y el 35,3% segun la marca.Se añaden al 10% que ya pagaban con anterioridad y se impusieron después de que Bruselas asegurase haber descubierto distintos tipos de ayudas y subvenciones oficiales a los fabricantes chinos para que pudiesen vender esos automóviles en Europa a precios por debajo del mercado.
+Para Pekín, en cambio,el procedimiento fue desde el principio una maniobra proteccionista encubierta,incompatible con el discurso europeo de libre comercio y transición verde. Tras aquella sacudida arancelaria de la UE, el gigante asiático respondió activando investigaciones sobre productos europeos como el coñac francés, los lácteos y la carne de cerdo.
+Ahora, medios con buenas fuentes oficiales como el hongkonésSouth China Morning Postcuentan que el Gobierno chino ha optado por rebajar el tono y evitar una confrontación abierta,consciente de que Europa sigue siendo un mercado clave para su industria de vehículos eléctricosante las grandes tensiones de precios de su mercado interno y el exceso de capacidad productiva instalada; y una vez que EEUU se ha convertido en un coto vedado para los productos del primer fabricante de vehículos del mundo.
+«Es una guía de directrices, nada más», avisó ayer en una rueda de prensa el portavoz comunitario para Comercio, Olof Gill. Además, requerirá de bastante tiempo para implementarse ya que«dada la gran variedad de factores que influyen (modelos de coches, opciones de configuración)» habrá que plantear cientos de ofertas, una para cada coche distinto.Luego, esas propuestas tendrán que ser evaluadas por la UE.
+Al parecer, esta última ya contaba con alguna petición en este sentido desde dentro del Grupo Volkswagen-podría ser el caso del Cupra Tavascan-y a mediados de diciembre el ministerio de Comercio chino ya desveló que ambas partes habían retomado las conversaciones sobre este asunto.
+Actualmente, la presión que suponen los aranceles ha hecho quelos fabricantes chinos reorienten su oferta de coches hacia los automóviles híbridos enchufables,mientras siguen dando pasos paraconsolidar su huella industrial en el Viejo Continentelevantando fábricas para la producción de vehículos. Aunque este proceso está empezando a despertar dudas en Bruselas, que trabaja en una norma que fije un mínimo de componentes locales en esas producciones.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C239" s="5" t="inlineStr">
+        <is>
+          <t>Japón y Filipinas firman un acuerdo de cooperación militar para intercambiar provisiones</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2026-01-15T12:30:49+01:00</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Japón y Filipinas han firmado este jueves un acuerdo de cooperación militar para garantizar la provisión mutua de «suministros y servicios» , incluyendo munición, en un paso que llega en plena escalada de las tensiones con China . El acuerdo sellado en Manila entre los ministros de Exteriores de Japón, Toshimitsu Motegi, y Filipinas, Maria Theresa Lazaro, incluye procedimientos de liquidación para «la provisión recíproca de suministros y servicios entre las Fuerzas de Autodefensa del Japón y las Fuerzas Armadas de Filipinas», ha explicado el Ministerio de Exteriores japonés en un comunicado. De esta forma, el pacto entre Manila y Tokio «facilitará la provisión fluida y oportuna de suministros y servicios entre ambas fuerzas. Asimismo, promoverá una cooperación más estrecha entre ellas y les permitirá contribuir activamente a la paz y la seguridad de la comunidad internacional». De todos modos, el acuerdo no cubre la provisión de armamento , pero sí de munición, así como el intercambio de servicios de transporte, provisión de petróleo, alimentos y agua, así como servicios de comunicación, médicos y de almacenaje y reparación. También incluye «apoyo a las operaciones de bases, uso de instalaciones, servicios de capacitación, repuestos y componentes; servicios de reparación y mantenimiento, servicios aeroportuarios y portuarios, y munición», según el documento publicado por las autoridades niponas.</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Europa Press
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+JapónyFilipinashan firmado este jueves un acuerdo de cooperación militarpara garantizar la provisión mutua de «suministros y servicios», incluyendo munición, en un paso que llega en plena escalada de las tensiones conChina.
+El acuerdo sellado en Manila...entre los ministros de Exterioresde Japón, Toshimitsu Motegi, y Filipinas, Maria Theresa Lazaro, incluye procedimientos de liquidación para «la provisión recíproca de suministros y servicios entre las Fuerzas de Autodefensa del Japón y las Fuerzas Armadas de Filipinas», ha explicado el Ministerio de Exteriores japonés en un comunicado.
+De esta forma, el pacto entre Manila y Tokio «facilitará la provisión fluida y oportuna de suministros y servicios entre ambas fuerzas. Asimismo,promoverá una cooperación más estrechaentre ellas y les permitirá contribuir activamente a la paz y la seguridad de la comunidad internacional».
+De todos modos, el acuerdono cubre la provisión de armamento, pero sí de munición, así como el intercambio de servicios de transporte, provisión de petróleo, alimentos y agua, así como servicios de comunicación, médicos y de almacenaje y reparación.
+También incluye «apoyo a las operaciones de bases, uso de instalaciones, servicios de capacitación, repuestos y componentes; servicios de reparación y mantenimiento, servicios aeroportuarios y portuarios, y munición», según el documento publicado por las autoridades niponas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C240" s="5" t="inlineStr">
+        <is>
+          <t>La destrucción de Occidente</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2026-01-14T19:22:12+01:00</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Trump tiene razón en algunas cosas. Por ejemplo en la necesidad de aumentar el gasto defensivo en Europa. La Unión Europea triplica en población a Rusia. Su PIB es ocho veces mayor. Sin embargo no se siente capaz de defenderse sola frente a Putin. Algo no funciona. La UE tiene que espabilarse. Trump también ha logrado éxitos importantes , como poner fin a la matanza en Gaza. Es cierto que si Netanyahu pudo llevarla a cabo fue por el apoyo del propio Trump. Pero finalmente éste le dijo que había que parar. Ha sufrido asimismo derrotas claras. En su guerra comercial con China tuvo que capitular cuando Pekín restringió sus exportaciones de tierras raras, esenciales para sus industrias tecnológicas. Para que las levantara tuvo que suprimir restricciones a la venta de semiconductores a Pekín. También se ha mostrado impotente, como ante Putin en la guerra de Ucrania. Sus negociadores acuerdan con Kiev condiciones para acabar la guerra que Rusia ignora olímpicamente, ante la pasividad de Trump. La actual política exterior norteamericana no es muy atractiva: es complaciente con los fuertes, mientras que abusa de los débiles. Para Trump, China y Rusia son fuertes, pero no Dinamarca, Irán o Venezuela. De ahí sus amenazas sobre Groenlandia , los bombardeos sobre Irán y los ataques a Venezuela. Estos últimos violan abiertamente el Derecho Internacional y la Carta de las Naciones Unidas. Rusia y China los han criticado, pero no han ido demasiado lejos. Saben que en el fondo les benefician. Ayudan a Putin a justificar su invasión de Ucrania (y quien sabe si de Moldavia o los Estados bálticos en el futuro), y a Xi Jinping su política en Taiwán o en el mar del Sur de China. La posición de Trump sobre Groenlandia amenaza a la propia OTAN. Premio gordo para Moscú y Pekín. A Trump, Putin y Xi les importan poco el derecho internacional y la Carta de ONU, salvo cuando les benefician. Creen en cambio en el uso de la fuerza. Eso significa volver a la ley de la selva, en la que el grande se come al chico. A todo aquello contra lo que se creó la Carta y el orden internacional nacido en 1945. Ese orden ha sido calificado como un orden occidental. Estaba basado en tres principios que los países occidentales han defendido hasta ahora. Primacía del Consejo de Seguridad frente al uso de la fuerza. Derechos humanos para impedir a los poderosos abusar de su poder. Y cooperación al desarrollo para reducir las desigualdades. Esos son los tres pilares de las Naciones Unidas: seguridad, derechos humanos y desarrollo. Naturalmente que Occidente no siempre los ha cumplido, pero los ha tenido como su punto de referencia. La actual política norteamericana es radicalmente contraria a ellos. Usando la fuerza en Venezuela e Irán , y condonándola en Gaza. Ignorando las violaciones de los derechos humanos, no solo en otros países sino dentro de los propios EE.UU. en el caso de los inmigrantes. Desmantelando la Usaid y desentendiéndose de las necesidades de los países en desarrollo. Además de su posición sobre Groenlandia, que niega todo lo que representa la OTAN. Cabe preguntarse entonces si Washington sigue comportándose como un país occidental. Y, en un sentido más amplio, lo que significa hoy Occidente en el escenario internacional. ¿Sigue existiendo? ¿O su conducta supone que ya no representa nada? Esto nos lleva a hablar de Europa. Es importante hablar de lo que hace EE.UU. pero lo verdaderamente importante es hablar de lo que debemos hacer nosotros. La UE depende de EE.UU. para su seguridad. La dependencia militar genera dependencia política. Por eso Europa tuvo que aceptar las tarifas unilaterales de Trump. Por eso –excepto España– tampoco se atreve a decir a EE.UU. lo que realmente piensa sobre su ataque a Venezuela. La UE necesita terminar con esa dependencia militar, no con su alianza con Washington. Mientras no lo haga no tendrá más remedio que plegarse a sus deseos. Y eso es peligroso en un mundo en el que el tono lo marcan Trump, Putin y Xi Jinping. ¿Queremos de verdad depender de las decisiones que ellos tomen? Como suele decirse, el que no está en la mesa está en el menú. Acabar con la dependencia militar de Estados Unidos significa gastar más en defensa. También en España, que es uno de los grandes países europeos y no puede permanecer al margen de este proceso, aunque esté más alejado de Rusia que otros. Significa también gastar mejor, siguiendo una estrategia coordinada entre todos. Significa sobre todo poner esas nuevas capacidades defensivas al servicio de una política exterior y de defensa común. De nada sirve tener más aviones o más misiles si no los ponemos al servicio de unos objetivos compartidos. Eso supone dar un salto cualitativo en la integración política europea. Algo muy difícil, porque la Unión Europea no nació como un proyecto para construir un Estado, sino como una fórmula para acabar con las guerras entre Francia y Alemania. El éxito de esa fórmula condujo a un proceso de integración al que le falta la integración política. Muy difícil, pero imprescindible. Algún paso se ha dado con las medidas de apoyo a Ucrania. Es también significativo que el acercamiento del Reino Unido a la UE haya empezado en el terreno más complicado, la defensa. La UE tradicionalmente ha logrado sus principales avances en momentos de crisis. Si esto no es una crisis, que venga Dios y lo vea. Hay otras cosas que la UE tiene que hacer. Aplicar las recomendaciones de los informes de Letta y Draghi, en gran parte sin cumplir. Es necesario eliminar barreras a la libre competencia y movilizar todo el potencial del mercado único. Solo así podrán desarrollarse empresas de una dimensión comparable a las norteamericanas y las chinas, capaces de competir con ellas. Europa lo hizo con Airbus y puede volverlo a hacer. Es necesario también concluir la unión bancaria, pendiente desde la crisis de 2010. Sin un mercado financiero de escala europea no será posible financiar a esas empresas, ni tampoco potenciar el papel del euro como moneda global. No se entiende que el mercado de capital riesgo en Europa sea más limitado no ya que los de EE.UU. y China, sino que los de Israel o Corea del Sur. ¿Por qué tenemos que hacer estas cosas? Porque otros no pueden hacer nada contra lo que representan Trump, Putin y Xi Jinping, pero Europa si puede, si se une. Sobre todo, para defender lo que somos. Los principios en los que creemos: el diálogo como forma de solucionar los conflictos, la democracia, los derechos humanos, el Estado de derecho y el de bienestar. En suma, para defender a Occidente. Si otros están dispuestos a destruirlo, nosotros debemos defenderlo.</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>LA TERCERA
+Rafael Dezcallar
+Esta funcionalidad es sólo para registrados
+Trump tiene razón en algunas cosas. Por ejemplo en la necesidad de aumentar el gasto defensivo en Europa. La Unión Europea triplica en población a Rusia. Su PIB es ocho veces mayor. Sin embargo no se siente capaz de defenderse sola frente a Putin. Algo...no funciona. La UE tiene que espabilarse.Trump también ha logrado éxitos importantes, como poner fin a la matanza en Gaza. Es cierto que si Netanyahu pudo llevarla a cabo fue por el apoyo del propio Trump. Pero finalmente éste le dijo que había que parar. Ha sufrido asimismo derrotas claras. En su guerra comercial con China tuvo que capitular cuando Pekín restringió sus exportaciones de tierras raras, esenciales para sus industrias tecnológicas. Para que las levantara tuvo que suprimir restricciones a la venta de semiconductores a Pekín. También se ha mostrado impotente, como ante Putin en la guerra de Ucrania. Sus negociadores acuerdan con Kiev condiciones para acabar la guerra que Rusia ignora olímpicamente, ante la pasividad de Trump.
+La actual política exterior norteamericana no es muy atractiva: es complaciente con los fuertes, mientras que abusa de los débiles. Para Trump, China y Rusia son fuertes, pero no Dinamarca, Irán o Venezuela. De ahí susamenazas sobre Groenlandia, los bombardeos sobre Irán y los ataques a Venezuela. Estos últimos violan abiertamente el Derecho Internacional y la Carta de las Naciones Unidas. Rusia y China los han criticado, pero no han ido demasiado lejos. Saben que en el fondo les benefician. Ayudan a Putin a justificar su invasión de Ucrania (y quien sabe si de Moldavia o los Estados bálticos en el futuro), y a Xi Jinping su política en Taiwán o en el mar del Sur de China. La posición de Trump sobre Groenlandia amenaza a la propia OTAN. Premio gordo para Moscú y Pekín.
+A Trump, Putin y Xi les importan poco el derecho internacional y la Carta de ONU, salvo cuando les benefician. Creen en cambio en el uso de la fuerza. Eso significa volver a la ley de la selva, en la que el grande se come al chico. A todo aquello contra lo que se creó la Carta y el orden internacional nacido en 1945.
+Ese orden ha sido calificado como un orden occidental. Estaba basado en tres principios que los países occidentales han defendido hasta ahora. Primacía del Consejo de Seguridad frente al uso de la fuerza. Derechos humanos para impedir a los poderosos abusar de su poder. Y cooperación al desarrollo para reducir las desigualdades. Esos son los tres pilares de las Naciones Unidas: seguridad, derechos humanos y desarrollo.
+Naturalmente que Occidente no siempre los ha cumplido, pero los ha tenido como su punto de referencia. La actual política norteamericana es radicalmente contraria a ellos. Usando lafuerza en Venezuela e Irán, y condonándola en Gaza. Ignorando las violaciones de los derechos humanos, no solo en otros países sino dentro de los propios EE.UU. en el caso de los inmigrantes. Desmantelando la Usaid y desentendiéndose de las necesidades de los países en desarrollo. Además de su posición sobre Groenlandia, que niega todo lo que representa la OTAN. Cabe preguntarse entonces si Washington sigue comportándose como un país occidental. Y, en un sentido más amplio, lo que significa hoy Occidente en el escenario internacional. ¿Sigue existiendo? ¿O su conducta supone que ya no representa nada?
+Esto nos lleva a hablar de Europa. Es importante hablar de lo que hace EE.UU. pero lo verdaderamente importante es hablar de lo que debemos hacer nosotros. La UE depende de EE.UU. para su seguridad. La dependencia militar genera dependencia política. Por eso Europa tuvo que aceptar las tarifas unilaterales de Trump. Por eso –excepto España– tampoco se atreve a decir a EE.UU. lo que realmente piensa sobre su ataque a Venezuela. La UE necesita terminar con esa dependencia militar, no con su alianza con Washington. Mientras no lo haga no tendrá más remedio que plegarse a sus deseos. Y eso es peligroso en un mundo en el que el tono lo marcan Trump, Putin y Xi Jinping. ¿Queremos de verdad depender de las decisiones que ellos tomen? Como suele decirse, el que no está en la mesa está en el menú. Acabar con la dependencia militar de Estados Unidos significa gastar más en defensa. También en España, que es uno de los grandes países europeos y no puede permanecer al margen de este proceso, aunque esté más alejado de Rusia que otros. Significa también gastar mejor, siguiendo una estrategia coordinada entre todos. Significa sobre todo poner esas nuevas capacidades defensivas al servicio de una política exterior y de defensa común. De nada sirve tener más aviones o más misiles si no los ponemos al servicio de unos objetivos compartidos.
+Eso supone dar un salto cualitativo en la integración política europea. Algo muy difícil, porque laUnión Europeano nació como un proyecto para construir un Estado, sino como una fórmula para acabar con las guerras entre Francia y Alemania. El éxito de esa fórmula condujo a un proceso de integración al que le falta la integración política. Muy difícil, pero imprescindible. Algún paso se ha dado con las medidas de apoyo a Ucrania. Es también significativo que el acercamiento del Reino Unido a la UE haya empezado en el terreno más complicado, la defensa. La UE tradicionalmente ha logrado sus principales avances en momentos de crisis. Si esto no es una crisis, que venga Dios y lo vea.
+Hay otras cosas que la UE tiene que hacer. Aplicar las recomendaciones de los informes de Letta y Draghi, en gran parte sin cumplir. Es necesario eliminar barreras a la libre competencia y movilizar todo el potencial del mercado único. Solo así podrán desarrollarse empresas de una dimensión comparable a las norteamericanas y las chinas, capaces de competir con ellas. Europa lo hizo con Airbus y puede volverlo a hacer. Es necesario también concluir la unión bancaria, pendiente desde la crisis de 2010. Sin un mercado financiero de escala europea no será posible financiar a esas empresas, ni tampoco potenciar el papel del euro como moneda global. No se entiende que el mercado de capital riesgo en Europa sea más limitado no ya que los de EE.UU. y China, sino que los de Israel o Corea del Sur. ¿Por qué tenemos que hacer estas cosas? Porque otros no pueden hacer nada contra lo que representan Trump, Putin y Xi Jinping, pero Europa si puede, si se une. Sobre todo, para defender lo que somos. Los principios en los que creemos: el diálogo como forma de solucionar los conflictos, la democracia, los derechos humanos, el Estado de derecho y el de bienestar. En suma, para defender a Occidente. Si otros están dispuestos a destruirlo, nosotros debemos defenderlo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C241" s="5" t="inlineStr">
+        <is>
+          <t>A vueltas con Mercosur</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2026-01-14T12:23:38+01:00</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Yo creo que Mercosur es una ventana de oportunidad que no podemos despreciar, en la incertidumbre en la que estamos por los aranceles y amenazas fiscales de EE. UU. y China. Es el cuarto mercado más grande del mundo en términos de población. Supone ampliar lo que ya disponemos. Reducir la dependencia respecto de otros. Va más allá de los productos agrícolas en los que nuestros agricultores ponen el acento. Generará inversión europea en la región, con lo que ello supone de generación de empleo y de crecimiento económico. Comprendo que los agricultores defiendan su parcela, pero no logro alcanzar por qué otras, como la automoción, el sector tecnológico y el de servicios, por poner el caso, no se echan del mismo modo a la calle para defender sus perspectivas. La competencia agrícola será feroz, no cabe duda, pero es la competencia el más importante catalizador del desarrollo y del crecimiento. Anclarse en el proteccionismo no arregla nada. Hay espacio para todos. Lo que ya no hay en la aldea global son exclusivas mercantiles. Nuestros agricultores nos venderán calidad, cercanía y confianza. La gran masa ciudadana se beneficiará, por su parte, de productos accesibles por su menor precio. Mercosur brinda juego para todos. Enrique López de Turíso. Vitoria (Álava) La destitución de Xabi Alonso no ha sorprendido a nadie, aunque no por ello deja de resultar sonrojante. El vestuario madridista ha logrado su objetivo: señalar al míster y apartarlo del banquillo, pese a que sus números no describen precisamente un fracaso. En sus primeros 34 partidos al frente del Real Madrid ha sumado 24 victorias, cuatro empates y solo seis derrotas, exactamente el mismo balance que Hansi Flick en sus 34 primeros encuentros como técnico blaugrana. Con idéntico registro de resultados, el Barcelona ha mantenido la confianza en Flick, mientras que a Xabi Alonso se le ha apartado. Un equipo lo forman todos sus integrantes, desde el entrenador hasta el último utillero, pero en este caso la responsabilidad se ha concentrado, una vez más, en la figura del técnico. Los egos desmesurados de algunos integrantes del club han terminado por llevárselo por delante, pese a que ya había demostrado su valía triunfando en la siempre complicada liga germana. La supuesta elegancia del club blanco ha brillado por su ausencia en esta gestión. Aunque el equipo blanco cuenta con grandes estrellas, en muchos partidos el equipo parece jugar sin un plan claro, como si algunos futbolistas impusieran sus decisiones por encima del conjunto. Esta situación recuerda a lo que ocurre en la política nacional, donde una minoría termina dirigiendo el rumbo del país según sus propios intereses. ¿Logrará este club levantar algún título esta temporada? ¿A quién culpará entonces Florentino Pérez? Pedro Marín Usón. Zaragoza</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>14 de enero
+Cartas al director
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+Si quieres enviarnos tu carta: escríbenos acartas@abc.esolectores@abc.es. Indica tu nombre y dónde vives. ABC se reserva el derecho de extractar o reducir los textos.
+Si quieres dirigirte a la Defensora del Lector de ABC, su mail esdefensoradellector@abc.esy su Whatsapp:639793483.
+Yo creo que Mercosur es una ventana de oportunidad que no podemos despreciar, en la incertidumbre en la que estamos por los aranceles y amenazas fiscales de EE. UU. y China. Es el cuarto mercado más grande del mundo en términos de población. Supone ampliar...lo que ya disponemos. Reducir la dependencia respecto de otros. Va más allá de los productos agrícolas en los que nuestros agricultores ponen el acento. Generará inversión europea en la región, con lo que ello supone de generación de empleo y de crecimiento económico.
+Comprendo que los agricultores defiendan su parcela, pero no logro alcanzar por qué otras, como la automoción, el sector tecnológico y el de servicios, por poner el caso, no se echan del mismo modo a la calle para defender sus perspectivas. La competencia agrícola será feroz, no cabe duda, pero es la competencia el más importante catalizador del desarrollo y del crecimiento. Anclarse en el proteccionismo no arregla nada. Hay espacio para todos.
+Lo que ya no hay en la aldea global son exclusivas mercantiles. Nuestros agricultores nos venderán calidad, cercanía y confianza. La gran masa ciudadana se beneficiará, por su parte, de productos accesibles por su menor precio. Mercosur brinda juego para todos.
+Enrique López de Turíso.Vitoria (Álava)
+La destitución de Xabi Alonso no ha sorprendido a nadie, aunque no por ello deja de resultar sonrojante. El vestuario madridista ha logrado su objetivo: señalar al míster y apartarlo del banquillo, pese a que sus números no describen precisamente un fracaso. En sus primeros 34 partidos al frente del Real Madrid ha sumado 24 victorias, cuatro empates y solo seis derrotas, exactamente el mismo balance que Hansi Flick en sus 34 primeros encuentros como técnico blaugrana. Con idéntico registro de resultados, el Barcelona ha mantenido la confianza en Flick, mientras que a Xabi Alonso se le ha apartado. Un equipo lo forman todos sus integrantes, desde el entrenador hasta el último utillero, pero en este caso la responsabilidad se ha concentrado, una vez más, en la figura del técnico.
+Los egos desmesurados de algunos integrantes del club han terminado por llevárselo por delante, pese a que ya había demostrado su valía triunfando en la siempre complicada liga germana. La supuesta elegancia del club blanco ha brillado por su ausencia en esta gestión.
+Aunque el equipo blanco cuenta con grandes estrellas, en muchos partidos el equipo parece jugar sin un plan claro, como si algunos futbolistas impusieran sus decisiones por encima del conjunto. Esta situación recuerda a lo que ocurre en la política nacional, donde una minoría termina dirigiendo el rumbo del país según sus propios intereses. ¿Logrará este club levantar algún título esta temporada? ¿A quién culpará entonces Florentino Pérez?
+Pedro Marín Usón.Zaragoza</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C242" s="5" t="inlineStr">
+        <is>
+          <t>Lo dórico</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2026-01-15T12:12:32+01:00</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>El primero de los órdenes arquitectónicos de la Grecia Clásica se reconoce por la sencillez del capitel que remata sus columnas, aunque se caracteriza por las proporciones de las mismas. ¿Seguiría siendo dórico un templo con capiteles más historiados? Yo digo que sí, y sin embargo el ojo se fija en el capitel y apenas tiene que mirar nada más. Así pasa en muchos otros ámbitos: que tendemos a distinguir lo individual por su elemento más cosmético . Sobre las proporciones de las columnas, me vienen ahora a la mente las que protegen las entradas del Palacio de Festivales de Santander, precisamente porque, como están hundidas en el suelo casi desde la altura de los capiteles, no podemos conocer su altura a simple vista, y para hacernos una idea debemos recurrir a cálculos geométricos y a tablas cumplimentadas por generaciones y que conocemos de memoria. Noticia Relacionada estandar Si Del Partenón a las aceras de Londres: la segunda vida de las canteras del Pentélico Marta CañetePor supuesto, lo que aplicó allí Sáenz de Oiza es un truco postmoderno que nos da la sensación de estar ante un monumento de otro tiempo, parcialmente sepultado bajo las arenas, igual que pasa en 'Ozymandias', el poema de Shelley . He ahí una manera de añadir la dimensión temporal al volumen. A propósito de esas columnas, cuento con que el proyecto arquitectónico imaginaba que existían enteras dentro del suelo, y me pregunto si es posible confirmar la correcta proporción del total invisible a partir de la parte visible. Teniendo en cuenta la diferencia entre las cotas del edificio, que en su entrada principal está al nivel del mar y en la trasera varios pisos más alta, ¿se proyectaron tan armónicas las columnas como para que su fuste imaginario llegase hasta la altura del lecho marino real, donde podrían rodearlas los lenguados de la bahía, agitando la arena del fondo al pasar?Si fuera griega, antes que los mármoles, preferiría que nos devolvieran las casas y las islas enterasUna técnica similar es la que usó Eratóstenes para medir el diámetro de la Tierra. 'Grosso modo', se coge a un hombre una mañana soleada y se le pide que no se mueva en todo el día, a lo largo del cual se va midiendo la sombra que arroja. La relación entre la longitud y la temperatura crecientes permite dar con el resultado que buscamos. Es lo que, siglos más tarde, Le Corbusier llamaría 'modulor'. Shelley y Lord ElginEl año en que Shelley escribió 'Ozymandias' es el mismo en que los frisos del Partenón robados por Lord Elgin empezaron a ser exhibidos en el Museo Británico: 1817. Yo creo que la Inglaterra previctoriana y el siglo de Pericles son fases de una misma civilización, y que si fuera griega, preferiría que antes nos devolvieran las casas de la costa y del interior y de las islas y las islas enteras. Traduzco aquí sin versificar 'Un obrero de los dioses' , poema de Edwin Markham que acabo de conocer hoy: «Un día, Fidias , cincel en mano, estaba esculpiendo a Minerva en piedra, y amorosamente trazaba la línea de un cabello, un cabello determinado en la cabeza de ella, cuando un joven de Atenas le gritó: '¡Oye, Fidias! ¿Por qué te afanas en un único pelo? ¡Cuando la levanten hasta el frontal del Partenón, no habrá ojo humano capaz de verla!' 'Calla, esclavo. Los hombres no lo verán, pero los inmortales sí »».Al otro lado del océano, en Nashville , ciudad famosa por la música country, hay una réplica del Partenón , que se levantó para una exposición internacional a finales del siglo XIX. No he estado nunca, pero imagino Nashville como una ciudad también polvorienta. Será seguramente la presencia del edificio, la vibración generada por sus proporciones, la que ha favorecido el establecimiento en la ciudad de una compañía de danza llamada Duncan Dance South en honor a Isadora Duncan, cuyos postulados artísticos sigue. Isadora Duncan se inspiró en la Grecia antigua y en las telas de piedra de Fidias para sus bailesIsadora Duncan , que había nacido en San Francisco, se inspiró en la Grecia antigua y en las telas de piedra de Fidias para sus bailes y para su forma de vivir. En 1921 bailó y se hizo fotografiar por Edward Steichen, experto en retratar artistas, en la Acrópolis. Elgin robó los mármoles y se los llevó a Londres, adonde llegó Isadora Duncan desde San Francisco para verlos y donde los admiró y donde le inspiraron el deseo de viajar a Atenas, cuyo más famoso monumento acabó replicándose en Nashville e inspirando a nuevas bailarinas en su búsqueda artística.Limpieza de líneasLos dorios fueron el pueblo más burro de los que llegaron a la Hélade en el siglo XI a. C. Lo cuenta Jean H. Croon en su 'Enciclopedia de la Antigüedad Clásica' . Acabaron con los micénicos y ocuparon Creta y Rodas, su arquitectura era sobria y alcanzaron «un alto grado de desarrollo en la lírica coral». De quien me cuesta encontrar información es justo de Jean H. Croon: páginas y páginas de referencia de su enciclopedia, sin que se nos diga si se formó en la Sorbona o en Oxford o si fue helenista por afición, hasta el punto de que empiezo a sospechar que no existió y que es el pseudónimo para el grupo provisional de escritores que se encargó de la enciclopedia. Finalmente, creo que existió, pero la opacidad localizada de internet y el esfuerzo me hacen pensar en el pasado sepultado, aunque no profundizo mucho más allá.El cielo está azul por primera vez en muchos días. Al asomarme a la ventana, veo que lo cruza un avión en trayecto ascendente. Deja una estela blanca, que por cierto forma una estría como las del fuste de las columnas. Esa limpieza de líneas me recuerda a la infancia, cuando percibíamos el mundo con esa misma rotundidad, y me acuerdo de que Grecia es la infancia de nuestra cultura , y las imágenes emocionales de las dos infancias se funden. Por supuesto, el avión sigue su camino.</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Con candelabri in testa
+Bárbara Mingo
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+El primero de los órdenes arquitectónicos de la Grecia Clásica se reconoce por lasencillez del capitelque remata sus columnas, aunque se caracteriza por las proporciones de las mismas. ¿Seguiría siendodórico un templocon capiteles más historiados? Yo digo que sí,...y sin embargo el ojo se fija en el capitel y apenas tiene que mirar nada más. Así pasa en muchos otros ámbitos: que tendemos a distinguir loindividual por su elemento más cosmético.
+Sobre lasproporcionesde las columnas, me vienen ahora a la mente las que protegen las entradas del Palacio de Festivales de Santander, precisamente porque, como están hundidas en el suelo casi desde la altura de los capiteles, no podemos conocer su altura a simple vista, y para hacernos una idea debemos recurrir acálculos geométricosy a tablas cumplimentadas por generaciones y que conocemos de memoria.
+Por supuesto, lo que aplicó allíSáenz de Oizaes un truco postmoderno que nos da la sensación de estar ante un monumento de otro tiempo, parcialmente sepultado bajo las arenas, igual que pasa en'Ozymandias', el poema de Shelley. He ahí una manera de añadir la dimensión temporal al volumen. A propósito de esas columnas, cuento con que el proyecto arquitectónico imaginaba que existían enteras dentro del suelo, y me pregunto si es posible confirmar la correcta proporción del total invisible a partir de la parte visible.
+Teniendo en cuenta la diferencia entre las cotas del edificio, que en su entrada principal está al nivel del mar y en la trasera varios pisos más alta, ¿se proyectaron tan armónicas las columnas como para que su fuste imaginario llegase hasta la altura del lecho marino real, donde podrían rodearlas los lenguados de la bahía, agitando la arena del fondo al pasar?
+Si fuera griega, antes que los mármoles, preferiría que nos devolvieran las casas y las islas enteras
+Una técnica similar es la que usóEratóstenespara medir el diámetro de la Tierra. 'Grosso modo', se coge a un hombre una mañana soleada y se le pide que no se mueva en todo el día, a lo largo del cual se va midiendo la sombra que arroja. La relación entre la longitud y la temperatura crecientes permite dar con el resultado que buscamos. Es lo que, siglos más tarde,Le Corbusier llamaría 'modulor'.
+El año en que Shelley escribió 'Ozymandias' es el mismo en que los frisos del Partenón robados porLord Elginempezaron a ser exhibidos en el Museo Británico: 1817. Yo creo que la Inglaterra previctoriana y el siglo de Pericles son fases de una misma civilización, y que si fuera griega, preferiría que antes nos devolvieran las casas de la costa y del interior y de las islas y las islas enteras.
+Traduzco aquí sin versificar'Un obrero de los dioses', poema de Edwin Markham que acabo de conocer hoy: «Un día,Fidias, cincel en mano, estaba esculpiendo a Minerva en piedra, y amorosamente trazaba la línea de un cabello, un cabello determinado en la cabeza de ella, cuando un joven de Atenas le gritó: '¡Oye, Fidias! ¿Por qué te afanas en un único pelo? ¡Cuando la levanten hasta el frontal del Partenón, no habrá ojo humano capaz de verla!' 'Calla, esclavo. Los hombres no lo verán, perolos inmortales sí»».
+Al otro lado del océano, enNashville, ciudad famosa por la música country, hay unaréplica del Partenón, que se levantó para una exposición internacional a finales del siglo XIX. No he estado nunca, pero imagino Nashville como una ciudad también polvorienta. Será seguramente la presencia del edificio, la vibración generada por sus proporciones, la que ha favorecido el establecimiento en la ciudad de una compañía de danza llamada Duncan Dance South en honor a Isadora Duncan, cuyos postulados artísticos sigue.
+Isadora Duncan se inspiró en la Grecia antigua y en las telas de piedra de Fidias para sus bailes
+Isadora Duncan, que había nacido en San Francisco, se inspiró en la Grecia antigua y en las telas de piedra de Fidias para sus bailes y para su forma de vivir. En 1921 bailó y se hizo fotografiar por Edward Steichen, experto en retratar artistas, en la Acrópolis.Elgin robó los mármolesy se los llevó a Londres, adonde llegó Isadora Duncan desde San Francisco para verlos y donde los admiró y donde le inspiraron el deseo de viajar a Atenas, cuyo más famoso monumento acabó replicándose en Nashville e inspirando a nuevas bailarinas en su búsqueda artística.
+Los dorios fueron el pueblo más burro de los que llegaron a la Hélade en el siglo XI a. C. Lo cuenta Jean H. Croon en su'Enciclopedia de la Antigüedad Clásica'. Acabaron con los micénicos y ocuparonCretay Rodas, su arquitectura era sobria y alcanzaron «un alto grado de desarrollo en la lírica coral». De quien me cuesta encontrar información es justo de Jean H. Croon: páginas y páginas de referencia de su enciclopedia, sin que se nos diga si se formó en la Sorbona o en Oxford o si fue helenista por afición, hasta el punto de que empiezo a sospechar que no existió y que es el pseudónimo para el grupo provisional de escritores que se encargó de la enciclopedia. Finalmente, creo que existió, pero la opacidad localizada de internet y el esfuerzo me hacen pensar en el pasado sepultado, aunque no profundizo mucho más allá.
+El cielo está azul por primera vez en muchos días. Al asomarme a la ventana, veo que lo cruza un avión en trayecto ascendente. Deja una estela blanca, que por cierto forma una estría como las del fuste de las columnas. Esa limpieza de líneas me recuerda a la infancia, cuando percibíamos el mundo con esa misma rotundidad, y me acuerdo de queGrecia es la infancia de nuestra cultura, y las imágenes emocionales de las dos infancias se funden. Por supuesto, el avión sigue su camino.</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C243" s="5" t="inlineStr">
+        <is>
+          <t>Trump hace grande a China con su agresiva política exterior</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2026-01-15T06:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Un estudio del Centro Europeo de Relaciones Exteriores certifica que la agresiva política exterior de la Casa Blanca aumenta la influencia de Pekín como un socio más fiable</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Xavier Mas de Xaxàs
+Barcelona
+America First, el plan del presidente Donald Trump para que Estados Unidos aumente su influencia en el mundo, está teniendo el efecto contrario. Es China quien más se beneficia de la agresiva política exterior de la Casa Blanca, mientras que sus aliados tradicionales, sobre todo los europeos, toman distancias porque ya no creen que sea un aliado fiel.
+Esta es la principal conclusión dela última gran encuesta global del Centro Europeo de Relaciones Exteriores, queLa Vanguardiapublica en exclusiva en español.
+“Este estudio –afirma Mark Leonard, uno de sus autores– demuestra que el mundo considera que Occidente ha muerto. La campaña de Trump para hacer América grande de nuevo le ha restado popularidad entre sus aliados y contribuido a que China ocupe hoy lapole position”, es decir, el liderazgo entre las naciones más influyentes.
+La guerra en Ucrania explica muy bien este cambio de era. Los ucranianos buscan en Bruselas y no en Washington la ayuda necesaria para resistir frente a Rusia. El 39% creen que la UE es un buen aliado, pero solo un 18% opinan lo mismo de Estados Unidos.
+En paralelo, los rusos tienen hoy una opinión mucho más favorable de los estadounidenses que de los europeos. Para la mayoría de rusos, Europa es un peligro superior al de EE.UU. Si hace un año, el 42% creía que Europa occidental era la principal amenaza, hoy es el 51%.
+Pekín apoya al Kremlin en su afán por subyugar a Ucrania y, por tanto, los ucranianos tienen una muy mala opinión de China. Sin embargo, las potencias intermedias valoran más y más la actitud de China. En países como Sudáfrica, Brasil y Turquía hay amplias mayorías, superiores al 70%, convencidas de que durante la próxima década China ganará todavía más influencia, mientras que Estados Unidos la perderá.
+En esto están de acuerdo, incluso, la mayoría de norteamericanos, hoy mucho más opuestos a la gestión de Donald Trump que hace un año. El 52% no aprueba su gestión y el 56% considera que Estados Unidos no va en la buena dirección, según la última ponderación de Real Clear Politics.
+Hoy hay muchos más ciudadanos en Europa, Asia, América y África que opinan que Trump no es una buena influencia. Incluso en India, que hace un año abrazó a Trump con un 84% de popularidad, hoy ha aflojado bastante. Sólo el 53% de los indios sigue opinando que es un buen presidente para sostener el progreso de la India y del mundo.
+La percepción de China, por el contrario, es cada vez mejor.
+Junto a Ucrania solo Corea del Sur –debido al respaldo de Pekín a la dictadura norcoreana– ven a China como un enemigo. El resto del mundo considera que China es hoy un socio más o tan fiable como EE.UU.
+La opinión de los europeos, en este sentido, es muy significativa. Coinciden con el resto de encuestados en que China liderará áreas claves para el desarrollo, como los coches eléctricos y las energías renovables. La mitad de los europeos, además, consideran que es un aliado o un buen socio.
+La mitad de los europeos también opinan lo mismo de Estados Unidos, pero en este caso, lo más relevante es la letra pequeña de la encuesta. Porque si bien el 16% de los europeos tiene la opinión más favorable posible de EE.UU., el 20% creen que es un rival o un adversario.
+La retórica antieuropea de la administración Trump y la insistencia en ocupar Groenlandia incluso por la fuerza han roto la confianza en el eje transatlántico y, de ahí, que en el sur global se de por hecha la defunción de Occidente tal y como lo hemos conocido hasta ahora.
+Nos adentramos en un mundo post occidental en el que China tiene más influencia, sin que Trump, ocupado en todo tipo de conflictos lejos del Pacífico, sea capaz de sostener la hegemonía estadounidense.
+Mientras Trump bombardea Nigeria, Siria e Irán, mientras secuestra al presidente de Venezuela en Caracas y ayuda a Israel a arrasar Gaza, China se concentra en impulsar su industria más puntera y se prepara para incorporar a Taiwán.
+Al mismo tiempo, Pekín ha sido capaz de sortear las barreras arancelarias que ha levantado Trump. Ha encontrado nuevos mercados que le han permitido alcanzar un superávit comercial récord de 1,2 billones de dólares.
+Si los europeos ven a China con buenos ojos, los chinos les devuelven la confianza. Casi la mitad consideran a la UE como un socio y el 59% la ven como una gran potencia. Si el 61% tiene una opinión muy mala de EE.UU. –lo ven como una amenaza– solo un 19% piensa lo mismo de la UE.
+A los europeos, sin embargo, aún les cuesta confiar en sus propias fuerzas. Los ataques de Trump a los cimientos de la cultura europea, insultos que los partidos populistas amplifican para ahondar en el descontento social, propagan el pesimismo.
+Falta de autoconfianza, a Europa le cuesta encontrar su rumbo en este orden multipolar y postoccidental. El miedo a que la guerra en Ucrania se extienda a todo el continente dispara el apoyo al rearme. Al carecer de la adecuada disuasión nuclear, el reto de Rusia parece insuperable.
+“Los europeos, finalmente, despiertan a la dura realidad del mundo postoccidental –afirma Timothy Garton Ash, uno de los autores del estudio–. Al reconocer que su seguridad ya no depende de EE.UU. ni su prosperidad de China, ni su energía de Rusia, se preguntan –y dudan– si pueden confiar en sí mismos”.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C244" s="5" t="inlineStr">
+        <is>
+          <t>Y China va como un tiro</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2026-01-15T00:05:00+01:00</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>La imagen de Estados Unidos se está desplomando en el mundo mientras crece de forma inversamente proporcional la del gigante asiático</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Falta tiempo para saber las consecuencias que tendrá para el mundo la irrupción del terremoto Trump. Si hemos de hacer caso a la última encuesta global del Centro Europeo de Relaciones Exteriores, que divulgamos hoy en exclusiva en lengua española, la imagen y la influencia de Estados Unidos se está desplomando en el mundo, al tiempo que crece de forma inversamente proporcional la de China. La diplomacia suave de Pekín se impone en todos los continentes frente ala agresividad de Washington.Esta tendencia ya era algo habitual en el llamado Sur Global y en el estudio de este año se comprueba que también se produce en Europa. Los ciudadanos europeos, despreciados por el discurso deDonald Trump, miran cada vez con mejores ojos a China y la mitad de ellos considera ya a este país como un aliado o un buen socio.
+El presidente chino,  Xi Jinping, con el presidente del Consejo Europeo, Antonio Costa, y la presidenta de la Comisión Europea, Ursula von der Leyen
+Ustedes me podrán discutir que por muy fiable que sea el autor de esta encuesta, los sondeos no dejan de ser una aproximación a la realidad. Sin embargo, si vamos a buscar la realidad de las cifras macroeconómicas, las conclusiones son las mismas. En la sección de Economía publicamos hoy que China cerró el ejercicio del pasado añocon un superávit comercialde 8,51 millones de yuanes (1,05 billones de euros), que es el mayor registrado hasta la fecha y un 20% superior al del ejercicio anterior. China compensó la caída del negocio con Estados Unidos, debido a su política arancelaria, con mayores ventas al Sudeste Asiático (+13%), África (+26%), Latinoamérica (+7%) y la UE (+8,4%). Elsoft powerchino se impone sin los alardes ni las estridencias de Trump y va ganando el mercado año tras año. China ha dado un salto espectacular en sectores como la automoción, los bienes de equipo o la tecnología, y cada vez hay más dependencia de sus productos.
+La encuesta a la que nos referíamos anteriormente no detecta una inquietud de los europeos ante estos peligros para sus industrias nacionales y sí, en cambio, percibe el malestar por las actitudes de Trump. Este actúa con rudeza y hace mucho ruido y el gigante asiático se mueve con una sonrisa y en silencio. De momento, China se está saliendo con la suya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C245" s="5" t="inlineStr">
+        <is>
+          <t>China marca un superávit comercial récord y expande sus ventas en Europa</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2026-01-14T10:07:00+01:00</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Los aranceles de EE.UU. obligan a Pekín a reconfigurar sus exportaciones</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Piergiorgio M. Sandri,Iñaki de las Heras
+Barcelona, Madrid
+Cuando se cierra un canal, el flujo del agua busca otras salidas.  Podría ser un proverbio chino. O una variante del célebreBe water, my friendde Bruce Lee. En realidad es el retrato de la nueva política comercial de China. El gigante asiático cerró 2025 con un superávit comercial de 8,51 billones de yuanes (1,05 billones de euros), el mayor registrado hasta la fecha y un 20% superior al del ejercicio anterior, pese al impacto de los aranceles estadounidenses y a un entorno internacional marcado por crecientes tensiones geopolíticas, según datos oficiales publicados este miércoles por la Administración General de Aduanas.
+El auge proteccionista no ha impedido a Pekín vender sus bienes al exterior: incluso su volumen aumentó. La explicación se puede resumir en una palabra: reconfiguración. Con la vista en nuevos mercados y buscando alternativas a EE.UU. por todo el mundo, el gigante asiático elevó las ventas al exterior un 3,2%, hasta 3,23 billones de euros, mientras que las importaciones quedaron estables en 2,21 billones.
+El comercio con EE.UU. se resintió con fuerza con la guerra arancelaria de Donald Trump. Las exportaciones al país se hundieron un 20% interanual, con unas ventas de unos 360.000 millones de euros.
+Beneficiada en parte por un yuan débil, China compensó la caída del negocio con EE.UU. con más  ventas a otros países y regiones, con la vista en el sudeste asiático (+13%), África (+26%) o Latinoamérica (+7%). También hacia la Unión Europea, a la que vende un 8,4% más, con 480.300 millones de euros. En el lado contrario, importó menos del Viejo Continente, un 0,4% por debajo del año anterior. “Con socios comerciales más diversificados y una mayor resiliencia, las bases del comercio chino se mantienen sólidas”, declaró Wang Jun, subdirector de la autoridad aduanera. Además, se gana calidad. Las ventas de productos de menor coste como juguetes, zapatos o ropa se contraen, mientras crecen más del 20% los envíos de semiconductores, coches o embarcaciones.
+Frente a una cierta atonía de la demanda interna, el renovado flujo de bienes chinos hacia Europa también supone un reto. Porque, siguiendo la metáfora agraria, campos que antes no estaban tan  irrigados ahora pueden inundarse. “El verdadero peligro para la industria europea se encuentra en  el ‘segundo shock chino’, caracterizado por un dumping masivo de la sobreproducción china”, tal y como indica  la reaseguradora Coface, en su Informe de Perspectivas difundido este miércoles. “Esta ofensiva comercial china ejerce una fuerte presión deflacionaria: la brecha de precios entre productos chinos y europeos se ha ampliado 30 puntos desde la reapertura post-covid, llegando a más de 40 puntos si se consideran las fluctuaciones cambiarias. Esta sobrecapacidad china deprime los precios de producción, estrangulando la facturación y, en consecuencia, los márgenes de los fabricantes europeos. No es un fenómeno temporal, sino una tendencia significativa y probablemente duradera”, declara Jean-Christophe Caffet, economista jefe del grupo Coface.
+Algunos sectores están especialmente afectados, como el de vehículos eléctricos, donde China ha dado un salto espectacular hacia la gama alta; el de bienes de equipo, como los relacionados con la producción de energía libre de carbono; o el de metales, cuyos dos principales mercados —construcción y automoción— están en desaceleración.
+Como cada año, ayer se dio a conocer el Global Risk Report, el informe elaborado por el Foro Económico de Davos, que llega a su edición número 21 y que recaba las opiniones de más de 1.300 líderes y expertos mundiales del mundo académico y empresarial, de los gobiernos, de las organizaciones internacionales y de la sociedad civil. En el apartado que se refiere a España, los resultados fueron los siguientes. El primer riesgo es la polarización de la sociedad; el segundo, la falta de mano de obra y de talento; el tercero es la insuficiencia de los servicios de protección social, como educación, infraestructuras y pensiones; el cuarto es la deuda (pública, empresarial y de los hogares) y el cuarto es la falta de oportunidades laborales y el desempleo. Las deficiencias de la protección social aparecen por primera vez entre los cinco principales riesgos para España. Es importante subrayar que hablamos de percepciones de una encuesta y no de datos estadísticos y además las respuestas proceden de personas influyentes que pertenecen a una élite y no de la población en general. Esto explicaría, por ejemplo, porqué no aparecen la vivienda o la desigualdad, que sí suelen indicarse en sondeos a escala nacional. A escala global, el informe destaca la aparición de la confrontación geoeconómica y  los conflictos armados entre estados.
+En lo que se refiere  a las relaciones bilaterales entre China y España, las importaciones españolas de productos chinos están aumentando más rápido que en la media de la UE, a tasas de casi el 13%, según los últimos datos de la Secretaría de Estado de Comercio, correspondientes a octubre. La nueva ofensiva comercial china ya es apreciable, hasta el punto de que sus productos han alcanzado un peso del 11,3% sobre el conjunto de las importaciones españolas, el porcentaje más alto al menos en diez años.
+“China está intentando redirigir su sobrecapacidad al resto del mundo”, indicaba este miércoeles la economista jefe de Singular Bank, Alicia Coronil, en un encuentro con la prensa. Tras el cierre del mercado estadounidense, Pekín “está usando herramientas fuera de las normas del comercio mundial”.
+Los movimientos de China, a diferencia de los de Estados Unidos, son silenciosos, pero muestran que el país no se queda atrás en la nueva “desconfiguración del orden mundial”, dice Coronil. Ha amenazado con suspender exportaciones de tierras raras, ha impuesto también sus propios aranceles y extiende su influencia por todo el mundo. “Estados Unidos tiene su doctrina Monroe y China tiene la doctrina de todo bajo el paraguas”, añade.
+Desde Singular Bank citan otros elementos para entender la nueva estrategia comercial china. El país se ralentiza, con una previsión de crecimiento del 4,8%, y muestra debilidad en la demanda interna tras varios años sin resolver su crisis inmobiliaria, lo que le obliga a comportarse con más agresividad en las exportaciones. Ya lo dijo Bruce Lee...</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C246" s="5" t="inlineStr">
+        <is>
+          <t>China pone en marcha policías de tráfico robóticos en sus calles</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2026-01-14T06:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Equipados con inteligencia artificial, cámaras y radares láser, los nuevos agentes ya regulan la circulación</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Nico Escorcia
+EnMatrix, bastaba con conectar a alguien al sistema para que alguien le volcara en el cerebro kung-fu, filosofía oriental y las claves ocultas del universo. La gran fantasía de finales del siglo XX no era solo vencer a las máquinas, sino absorber el conocimiento como quien descarga un archivo. Sin embargo, la profecía erró el destinatario. La información no la están almacenando nuestros cerebros si no las máquinas.
+En Hangzhou, al sureste de China, cuatro policías de tráfico robóticos ya patrullan las calles. No duermen, no se cansan y no muestran de momento error alguno. Equipados conchips de inteligencia artificialde última generación, cámaras múltiples y radares láser, operan las 24 horas recopilando datos, analizando flujos de vehículos y dirigiendo el tráfico según lo que dictan los algoritmos.
+Escena de la película 'Matrix' en la que Neo aprende kung-fu
+Antes de salir a la calle, no pasaron por la academia ni sintieron el estrés de un examen que definiera sus vidas. Simplemente se les cargó una “amplia capacitación” en normas de tráfico, casuística y procedimientos. Conocimiento vertido, no aprendido. Exactamente como en la película, pero con un giro incómodo: el elegido no es humano.
+El experimento no es aislado. En Wuhu, en la provincia oriental de Anhui, otro agente robótico ya se ha incorporado al control de tráfico de primera línea. Anclado a una pequeña plataforma móvil, se desplaza hasta el cruce asignado y, desde allí, gira sobre sí mismo para vigilar todas las direcciones. Conectado a semáforos y sistemas de gestión del tráfico, asiste —o reemplaza— a los agentes humanos en las tareas más repetitivas de las horas más transitadas.
+Matrix nos enseñó a temer un mundo dominado por máquinas conscientes. No imaginó uno más sencillo y quizá más inquietante: un mundo donde el conocimiento se acumula en robots mientras los humanos seguimos atrapados en atascos, esperando la luz verde. Neo aprendía kung-fu en segundos. Hoy, los que aprenden son ellos. Y nosotros seguimos cruzando la calle mirando al semáforo, no al futuro.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C247" s="5" t="inlineStr">
+        <is>
+          <t>China describe la visita del primer ministro canadiense, Mark Carney, como un "punto de inflexión" en las relaciones diplomáticas</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2026-01-15T13:36:39+01:00</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Las relaciones entre ambos países se deterioraron drásticamente en 2018 con la detención por parte de las autoridades canadienses de un funcionario del gigante chino Huawei a petición de Estados Unidos</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Las relaciones entre ambos países se deterioraron drásticamente en 2018 con la detención por parte de las autoridades canadienses de un funcionario del gigante chino Huawei a petición de Estados Unidos</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C248" s="5" t="inlineStr">
+        <is>
+          <t>Taiwán espera sellar un acuerdo comercial con EE UU</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2026-01-15T11:13:02+01:00</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Una misión de funcionarios de Taipéi viaja a Washington para promover inversiones en las empresas de la isla</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Una misión de funcionarios de Taipéi viaja a Washington para promover inversiones en las empresas de la isla</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C249" s="5" t="inlineStr">
+        <is>
+          <t>'¿Estás muerto?', la app china para saber si sigues vivo que está arrasando en la App Store</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Tecnología de consumo</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2026-01-13T19:50:13+01:00</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>La aplicación, disponible solo en iOS, se ha situado como la cuarta de pago más descargada en España</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>La aplicación, disponible solo en iOS, se ha situado como la cuarta de pago más descargada en España</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
@@ -4676,10 +14133,191 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C66" r:id="rId65"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C67" r:id="rId66"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C68" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C69" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C70" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C71" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C72" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C73" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C74" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C75" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C76" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C77" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C78" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C79" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C80" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C81" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C82" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C83" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C84" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C85" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C86" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C87" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C88" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C89" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C90" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C91" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C92" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C93" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C94" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C95" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C96" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C97" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C98" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C99" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C100" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C101" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C102" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C103" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C104" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C105" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C106" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C107" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C108" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C109" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C110" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C111" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C112" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C113" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C114" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C115" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C116" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C117" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C118" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C119" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C120" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C121" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C122" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C123" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C124" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C125" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C126" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C127" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C128" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C129" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C130" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C131" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C132" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C133" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C134" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C135" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C136" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C137" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C138" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C139" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C140" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C141" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C142" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C143" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C144" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C145" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C146" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C147" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C148" r:id="rId147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C149" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C150" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C151" r:id="rId150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C152" r:id="rId151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C153" r:id="rId152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C154" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C155" r:id="rId154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C156" r:id="rId155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C157" r:id="rId156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C158" r:id="rId157"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C159" r:id="rId158"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C160" r:id="rId159"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C161" r:id="rId160"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C162" r:id="rId161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C163" r:id="rId162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C164" r:id="rId163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C165" r:id="rId164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C166" r:id="rId165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C167" r:id="rId166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C168" r:id="rId167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C169" r:id="rId168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C170" r:id="rId169"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C171" r:id="rId170"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C172" r:id="rId171"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C173" r:id="rId172"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C174" r:id="rId173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C175" r:id="rId174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C176" r:id="rId175"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C177" r:id="rId176"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C178" r:id="rId177"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C179" r:id="rId178"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C180" r:id="rId179"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C181" r:id="rId180"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C182" r:id="rId181"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C183" r:id="rId182"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C184" r:id="rId183"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C185" r:id="rId184"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C186" r:id="rId185"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C187" r:id="rId186"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C188" r:id="rId187"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C189" r:id="rId188"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C190" r:id="rId189"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C191" r:id="rId190"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C192" r:id="rId191"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C193" r:id="rId192"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C194" r:id="rId193"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C195" r:id="rId194"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C196" r:id="rId195"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C197" r:id="rId196"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C198" r:id="rId197"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C199" r:id="rId198"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C200" r:id="rId199"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C201" r:id="rId200"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C202" r:id="rId201"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C203" r:id="rId202"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C204" r:id="rId203"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C205" r:id="rId204"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C206" r:id="rId205"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C207" r:id="rId206"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C208" r:id="rId207"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C209" r:id="rId208"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C210" r:id="rId209"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C211" r:id="rId210"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C212" r:id="rId211"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C213" r:id="rId212"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C214" r:id="rId213"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C215" r:id="rId214"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C216" r:id="rId215"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C217" r:id="rId216"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C218" r:id="rId217"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C219" r:id="rId218"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C220" r:id="rId219"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C221" r:id="rId220"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C222" r:id="rId221"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C223" r:id="rId222"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C224" r:id="rId223"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C225" r:id="rId224"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C226" r:id="rId225"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C227" r:id="rId226"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C228" r:id="rId227"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C229" r:id="rId228"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C230" r:id="rId229"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C231" r:id="rId230"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C232" r:id="rId231"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C233" r:id="rId232"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C234" r:id="rId233"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C235" r:id="rId234"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C236" r:id="rId235"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C237" r:id="rId236"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C238" r:id="rId237"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C239" r:id="rId238"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C240" r:id="rId239"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C241" r:id="rId240"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C242" r:id="rId241"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C243" r:id="rId242"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C244" r:id="rId243"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C245" r:id="rId244"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C246" r:id="rId245"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C247" r:id="rId246"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C248" r:id="rId247"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C249" r:id="rId248"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId68"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId249"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4717,7 +14355,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>26-12-2025 11:43:58</t>
+          <t>15-01-2026 16:27:13</t>
         </is>
       </c>
     </row>

--- a/data/noticias_historico.xlsx
+++ b/data/noticias_historico.xlsx
@@ -365,12 +365,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Resumen'!$B$39:$B$44</f>
+              <f>'Resumen'!$B$39:$B$45</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Resumen'!$C$39:$C$44</f>
+              <f>'Resumen'!$C$39:$C$45</f>
             </numRef>
           </val>
         </ser>
@@ -458,8 +458,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaNoticias" displayName="TablaNoticias" ref="A1:H249" headerRowCount="1">
-  <autoFilter ref="A1:H249"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaNoticias" displayName="TablaNoticias" ref="A1:H381" headerRowCount="1">
+  <autoFilter ref="A1:H381"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Nombre del periódico"/>
     <tableColumn id="2" name="Procedencia"/>
@@ -763,7 +763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:C44"/>
+  <dimension ref="B2:C45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="C6" s="4" t="n">
-        <v>52</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
@@ -840,27 +840,27 @@
         </is>
       </c>
       <c r="C23" s="4" t="n">
-        <v>122</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Economia</t>
+          <t>Cultura y ciencia</t>
         </is>
       </c>
       <c r="C24" s="4" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Cultura y ciencia</t>
+          <t>Economia</t>
         </is>
       </c>
       <c r="C25" s="4" t="n">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="C26" s="4" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="C28" s="4" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C30" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -939,7 +939,7 @@
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>69</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41">
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42">
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
@@ -989,7 +989,17 @@
         </is>
       </c>
       <c r="C44" s="4" t="n">
-        <v>8</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>Muy negativa</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1004,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H249"/>
+  <dimension ref="A1:H381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14061,6 +14071,7122 @@
       <c r="H249" t="inlineStr">
         <is>
           <t>La aplicación, disponible solo en iOS, se ha situado como la cuarta de pago más descargada en España</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C250" s="5" t="inlineStr">
+        <is>
+          <t>习近平总书记重要讲话为推进全面从严治党指引方向</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>2026-01-15T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>新华社北京1月14日电 题：以永远在路上的坚韧和执着把党的自我革命进行到底——习近平总书记在二十届中央纪委五次全会上的重要讲话为推进全面从严治党指引方向 新华社记者 习近平总书记12日在二十届中央纪委五次全会上发表重要讲话，为深入推进全面从严治党和反腐败斗争提供了根本遵循。广大党员干部表示，要深入学习贯彻习近平总书记重要讲话精神，砥砺初心使命，保障党中央重大决策部署落到实处，把权力关进制度笼子，增强制度执行力，坚定不移把全面从严治党向纵深推进，为实现“十五五”时期目标任务提供坚强保障。 坚决维护党中央权威和集中统一领导 习近平总书记的重要讲话，充分肯定过去一年全面从严治党取得的显著成效。中国人民大学纪检监察学院教授邓矜婷倍感振奋：“新时代以来，在党中央集中统一领导下，我们党成功走出一条标本兼治、一体推进不敢腐不能腐不想腐的中国特色反腐败之路。实践证明，党中央集中统一领导，是新时代反腐败斗争取得历史性成就的根本保证。” “面对仍然严峻复杂的反腐败斗争形势，必须强化政治监督，深化政治巡视，切实把党中央重大决策部署贯彻落实好，推动党和人民事业不断发展进步。”邓矜婷说。 “十五五”时期，如何结合浙江实际更好发挥全面从严治党政治引领和政治保障作用，维护党中央权威和集中统一领导，是浙江省纪委监委驻省发改委纪检监察组副组长韩勇正在思考的问题。 “我们要按照习近平总书记要求，增强政治责任感、历史使命感，坚定不移强化政治监督，推动省发改委切实履行好经济发展改革牵头落实、谋划推进职责，为党中央重大决策部署在之江大地更加坚决有力地贯彻落实保驾护航。”韩勇说。 学习了习近平总书记重要讲话，内蒙古鄂尔多斯市伊金霍洛旗纪委书记、旗监委主任张军表示：“我们要聚焦乡村振兴、生态环保、民生保障等重点领域和重点任务，加强具体化、精准化、常态化的监督检查，通过监督责任的层层传导和执纪问责的利剑高悬，确保党中央各项决策部署在基层一贯到底、落地生根。” “各地区各部门要结合实际，认真探索贯彻落实党中央重大决策部署的有效方法和途径。”习近平总书记重要讲话体现了实事求是、因地制宜的内在要求，广西柳州市三江侗族自治县县长陈震深受启发。 “我们探索建立分管县领导带头抓巡察整改机制，聚焦群众反映强烈的环境整治等问题，推动整改工作由被动应付转向主动攻坚。”陈震说，为确保整改实效，县里建立了跟踪督办机制，推动巡察反馈问题整改到位，让最终效果符合党中央决策意图、政策初衷。 确保制度规定真正成为带电的高压线 习近平总书记指出，党的自我革命重在治权，把权力关进制度笼子是新时代全面从严治党的一项重要任务。 “习近平总书记的重要论断既是回应人民群众的普遍期盼，也是推进国家治理体系和治理能力现代化的一项重要内容，凸显出加强制度建设在规范权力运行、有效防治腐败中的重要作用，对党员干部公正用权、依法用权、为民用权、廉洁用权提出更高要求。”吉林省委党校社会学教研部主任、教授都业明表示。 习近平总书记的重要讲话让江苏盐城市建湖县纪委书记、县监委主任王弋对不断完善制度规定有了新的思考：“我们要根据管党治党实际需要加强制度供给，把笼子织密织牢，让制度规定更具针对性和操作性。建湖县将进一步细化政商交往规范、完善作风典型问题与后续处置双通报机制等，以精细化制度供给优化治理效能，使制度密而不繁、有效管用，将习近平总书记要求落到实处。” 制度的生命力在于执行，制度的权威在于公正执行。 针对在查办案件中发现有的单位“一把手”在制度执行上存在走偏走样等问题，重庆市云阳县纪委监委去年牵头组织专项调研，开展制度执行情况自查自纠，把制度优势转化为治理效能。 云阳县纪委书记、县监委主任王磊表示，要按照习近平总书记要求，当好制度的“捍卫者”，坚持法规制度面前人人平等、遵守法规制度没有特权、执行法规制度没有例外，以常态化监督和精准化问责，坚决纠正打折扣、搞变通、绕道走的行为，确保各项制度落地有声、令行禁止，以刚性的制度执行捍卫公平正义、净化政治生态。 “希望我们的党员干部常思贪欲之害、常敲警醒之钟……”在宁夏银川监狱警示教育基地，银川监狱党委委员、纪委书记赵家明正在对前来接受警示教育的党员干部职工开展党风廉政教育宣讲。 “习近平总书记对‘要加强法规制度宣传教育’提出明确要求，更加明晰了我们的工作重点。”赵家明说，下一步将通过以案说法、现场问答、讲好廉政文化故事等方式，为领导干部、年轻干部等不同群体量身打造教育内容，引导党员干部把“懂法纪、明规矩、知敬畏”融入日常、抓在经常。 “习近平总书记强调‘深化整治群众身边不正之风和腐败问题’，这是乡亲们期盼的实事。”云南昭通市盐津县豆沙镇万古村党总支书记代秋季说，这些年我们党持之以恒纠“四风”、树新风，严肃惩治“蝇贪蚁腐”，用心用情解决人民群众急难愁盼问题，如今党风政风社风为之一新，乡亲们的获得感幸福感安全感不断增强。 以更高标准更实举措推进全面从严治党 不久前，上海浦东新区纪委常委、区监委委员牛中州带领纪检监察办案骨干，与金融监管部门围绕规范金融资产信息查控机制等内容开展会商，旨在及时发现、准确识别、有效治理金融领域腐败问题。 “习近平总书记强调不断提高反腐败穿透力，为我们指明了工作路径。”牛中州说，要创新技术方法，精准破解隐性腐败“障眼法”，同时注重类案梳理与类比分析，围绕案件性质、法律适用等形成办案指引，总结经验规律，有效提升应对新问题新动向的能力。 腐败是党和国家事业发展进程中的拦路虎、绊脚石，反腐败是一场输不起也决不能输的重大斗争。 “强化系统观念”“加强联动配合”……习近平总书记明确要求“以全链条协作促进一体化治理”。山东泰安市纪委书记、市监委代理主任李伟波深感责任重大：“我们联合审计、财会等部门开展‘小切口’监督，全面构建‘1+9+N’贯通监督体系，下一步将与各类监督主体进一步完善信息共享、线索移送等协作机制，坚持正风肃纪反腐相贯通，以永远在路上的坚韧和执着，推进全面从严治党，把严的基调、严的措施、严的氛围长期坚持下去。” “坚定不移把党的自我革命向纵深推进，要把真正忠诚可靠、表里如一、担当尽责的好干部用起来。”广东云浮市新兴县委书记陈哲江表示，要按照习近平总书记指引的方向，巩固拓展深入贯彻中央八项规定精神学习教育成果，推进作风建设常态化长效化，优化干部选育管用机制，引导党员干部树立和践行正确政绩观，围绕实现“十五五”时期目标任务，真抓实干，创造新的业绩。 纪检监察机关在推进党的自我革命、全面从严治党中责任重大、使命光荣。 习近平总书记重要讲话对纪检监察机关和干部队伍建设寄予厚望，更加坚定了湖南省科技厅机关党委（机关纪委）常务副书记李红胜的工作信心：“我们要持续加强纪检监察工作规范化法治化正规化建设，推动执纪监督嵌入关键流程，聚焦科研项目立项评审等重点领域和环节的廉洁风险靶向发力，做到一步不停歇、半步不退让，以更加坚定意志把党的自我革命进行到底，无愧于纪检监察铁军的使命担当。” 【责任编辑：曹静】</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>新华社北京1月14日电 题：以永远在路上的坚韧和执着把党的自我革命进行到底——习近平总书记在二十届中央纪委五次全会上的重要讲话为推进全面从严治党指引方向 新华社记者 习近平总书记12日在二十届中央纪委五次全会上发表重要讲话，为深入推进全面从严治党和反腐败斗争提供了根本遵循。广大党员干部表示，要深入学习贯彻习近平总书记重要讲话精神，砥砺初心使命，保障党中央重大决策部署落到实处，把权力关进制度笼子，增强制度执行力，坚定不移把全面从严治党向纵深推进，为实现“十五五”时期目标任务提供坚强保障。 坚决维护党中央权威和集中统一领导 习近平总书记的重要讲话，充分肯定过去一年全面从严治党取得的显著成效。中国人民大学纪检监察学院教授邓矜婷倍感振奋：“新时代以来，在党中央集中统一领导下，我们党成功走出一条标本兼治、一体推进不敢腐不能腐不想腐的中国特色反腐败之路。实践证明，党中央集中统一领导，是新时代反腐败斗争取得历史性成就的根本保证。” “面对仍然严峻复杂的反腐败斗争形势，必须强化政治监督，深化政治巡视，切实把党中央重大决策部署贯彻落实好，推动党和人民事业不断发展进步。”邓矜婷说。 “十五五”时期，如何结合浙江实际更好发挥全面从严治党政治引领和政治保障作用，维护党中央权威和集中统一领导，是浙江省纪委监委驻省发改委纪检监察组副组长韩勇正在思考的问题。 “我们要按照习近平总书记要求，增强政治责任感、历史使命感，坚定不移强化政治监督，推动省发改委切实履行好经济发展改革牵头落实、谋划推进职责，为党中央重大决策部署在之江大地更加坚决有力地贯彻落实保驾护航。”韩勇说。 学习了习近平总书记重要讲话，内蒙古鄂尔多斯市伊金霍洛旗纪委书记、旗监委主任张军表示：“我们要聚焦乡村振兴、生态环保、民生保障等重点领域和重点任务，加强具体化、精准化、常态化的监督检查，通过监督责任的层层传导和执纪问责的利剑高悬，确保党中央各项决策部署在基层一贯到底、落地生根。” “各地区各部门要结合实际，认真探索贯彻落实党中央重大决策部署的有效方法和途径。”习近平总书记重要讲话体现了实事求是、因地制宜的内在要求，广西柳州市三江侗族自治县县长陈震深受启发。 “我们探索建立分管县领导带头抓巡察整改机制，聚焦群众反映强烈的环境整治等问题，推动整改工作由被动应付转向主动攻坚。”陈震说，为确保整改实效，县里建立了跟踪督办机制，推动巡察反馈问题整改到位，让最终效果符合党中央决策意图、政策初衷。 确保制度规定真正成为带电的高压线 习近平总书记指出，党的自我革命重在治权，把权力关进制度笼子是新时代全面从严治党的一项重要任务。 “习近平总书记的重要论断既是回应人民群众的普遍期盼，也是推进国家治理体系和治理能力现代化的一项重要内容，凸显出加强制度建设在规范权力运行、有效防治腐败中的重要作用，对党员干部公正用权、依法用权、为民用权、廉洁用权提出更高要求。”吉林省委党校社会学教研部主任、教授都业明表示。 习近平总书记的重要讲话让江苏盐城市建湖县纪委书记、县监委主任王弋对不断完善制度规定有了新的思考：“我们要根据管党治党实际需要加强制度供给，把笼子织密织牢，让制度规定更具针对性和操作性。建湖县将进一步细化政商交往规范、完善作风典型问题与后续处置双通报机制等，以精细化制度供给优化治理效能，使制度密而不繁、有效管用，将习近平总书记要求落到实处。” 制度的生命力在于执行，制度的权威在于公正执行。 针对在查办案件中发现有的单位“一把手”在制度执行上存在走偏走样等问题，重庆市云阳县纪委监委去年牵头组织专项调研，开展制度执行情况自查自纠，把制度优势转化为治理效能。 云阳县纪委书记、县监委主任王磊表示，要按照习近平总书记要求，当好制度的“捍卫者”，坚持法规制度面前人人平等、遵守法规制度没有特权、执行法规制度没有例外，以常态化监督和精准化问责，坚决纠正打折扣、搞变通、绕道走的行为，确保各项制度落地有声、令行禁止，以刚性的制度执行捍卫公平正义、净化政治生态。 “希望我们的党员干部常思贪欲之害、常敲警醒之钟……”在宁夏银川监狱警示教育基地，银川监狱党委委员、纪委书记赵家明正在对前来接受警示教育的党员干部职工开展党风廉政教育宣讲。 “习近平总书记对‘要加强法规制度宣传教育’提出明确要求，更加明晰了我们的工作重点。”赵家明说，下一步将通过以案说法、现场问答、讲好廉政文化故事等方式，为领导干部、年轻干部等不同群体量身打造教育内容，引导党员干部把“懂法纪、明规矩、知敬畏”融入日常、抓在经常。 “习近平总书记强调‘深化整治群众身边不正之风和腐败问题’，这是乡亲们期盼的实事。”云南昭通市盐津县豆沙镇万古村党总支书记代秋季说，这些年我们党持之以恒纠“四风”、树新风，严肃惩治“蝇贪蚁腐”，用心用情解决人民群众急难愁盼问题，如今党风政风社风为之一新，乡亲们的获得感幸福感安全感不断增强。 以更高标准更实举措推进全面从严治党 不久前，上海浦东新区纪委常委、区监委委员牛中州带领纪检监察办案骨干，与金融监管部门围绕规范金融资产信息查控机制等内容开展会商，旨在及时发现、准确识别、有效治理金融领域腐败问题。 “习近平总书记强调不断提高反腐败穿透力，为我们指明了工作路径。”牛中州说，要创新技术方法，精准破解隐性腐败“障眼法”，同时注重类案梳理与类比分析，围绕案件性质、法律适用等形成办案指引，总结经验规律，有效提升应对新问题新动向的能力。 腐败是党和国家事业发展进程中的拦路虎、绊脚石，反腐败是一场输不起也决不能输的重大斗争。 “强化系统观念”“加强联动配合”……习近平总书记明确要求“以全链条协作促进一体化治理”。山东泰安市纪委书记、市监委代理主任李伟波深感责任重大：“我们联合审计、财会等部门开展‘小切口’监督，全面构建‘1+9+N’贯通监督体系，下一步将与各类监督主体进一步完善信息共享、线索移送等协作机制，坚持正风肃纪反腐相贯通，以永远在路上的坚韧和执着，推进全面从严治党，把严的基调、严的措施、严的氛围长期坚持下去。” “坚定不移把党的自我革命向纵深推进，要把真正忠诚可靠、表里如一、担当尽责的好干部用起来。”广东云浮市新兴县委书记陈哲江表示，要按照习近平总书记指引的方向，巩固拓展深入贯彻中央八项规定精神学习教育成果，推进作风建设常态化长效化，优化干部选育管用机制，引导党员干部树立和践行正确政绩观，围绕实现“十五五”时期目标任务，真抓实干，创造新的业绩。 纪检监察机关在推进党的自我革命、全面从严治党中责任重大、使命光荣。 习近平总书记重要讲话对纪检监察机关和干部队伍建设寄予厚望，更加坚定了湖南省科技厅机关党委（机关纪委）常务副书记李红胜的工作信心：“我们要持续加强纪检监察工作规范化法治化正规化建设，推动执纪监督嵌入关键流程，聚焦科研项目立项评审等重点领域和环节的廉洁风险靶向发力，做到一步不停歇、半步不退让，以更加坚定意志把党的自我革命进行到底，无愧于纪检监察铁军的使命担当。” 【责任编辑：曹静】</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C251" s="5" t="inlineStr">
+        <is>
+          <t>学习新语｜把权力关进制度的笼子</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>2026-01-15T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>统筹/执行：王浩程 郭洁宇 胡碧霞 设计：马发展 （新华全媒） 【责任编辑：曹静】</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>统筹/执行：王浩程 郭洁宇 胡碧霞 设计：马发展 （新华全媒） 【责任编辑：曹静】</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C252" s="5" t="inlineStr">
+        <is>
+          <t>习近平的“治权”之喻，发人深省</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2026-01-15T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>习近平总书记在二十届中央纪委五次全会上指出，党的自我革命重在治权，把权力关进制度笼子是新时代全面从严治党的一项重要任务。关于“治权”，习近平总书记有过很多形象的比喻。跟随一段视频，学习领悟其中深意。 【责任编辑：曹静】</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>习近平总书记在二十届中央纪委五次全会上指出，党的自我革命重在治权，把权力关进制度笼子是新时代全面从严治党的一项重要任务。关于“治权”，习近平总书记有过很多形象的比喻。跟随一段视频，学习领悟其中深意。 【责任编辑：曹静】</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C253" s="5" t="inlineStr">
+        <is>
+          <t>中欧妥善解决电动汽车案具有重要积极意义</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>2026-01-15T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>新华社北京1月15日电（记者谢希瑶、戴锦镕）商务部新闻发言人何咏前15日在回答关于中国与欧盟电动汽车案的有关提问时表示，当前国际局势下，中欧本着相互尊重态度，在世贸组织规则框架下妥善解决电动汽车案，具有重要积极意义。 在商务部当天举行的例行新闻发布会上，何咏前介绍，2026年1月12日，中欧同步宣布电动汽车案经多轮磋商达成积极成果，受到国内外各界高度关注。中欧业界对此“高度欢迎并完全赞同”，认为电动汽车案“软着陆”将显著提振市场信心，为中欧汽车贸易投资合作注入新的动力。有欧盟政治家评价，这是朝着建立可持续中欧贸易关系迈出的积极一步，表明通过伙伴关系解决贸易分歧仍具可行性。 “当前国际局势下，中欧本着相互尊重态度，在世贸组织规则框架下妥善解决电动汽车案，具有重要积极意义。”何咏前说，这不仅有利于中欧经贸关系健康发展，有利于维护全球汽车产业链供应链稳定，更向世界释放清晰而有力的信号，中欧愿共同维护以规则为基础的国际贸易秩序，为各国通过对话协商妥善解决分歧树立良好范例，也为推动世界经济发展注入更多确定性和正能量。 何咏前表示，中方赞赏欧方展现的对话精神，愿与欧方一道，在当前积极成果基础上，进一步落实好中欧领导人会晤共识，保持对话沟通，支持双方产供链基于市场原则继续深化合作，为全球绿色转型作出积极贡献。 【责任编辑：曹静】</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>新华社北京1月15日电（记者谢希瑶、戴锦镕）商务部新闻发言人何咏前15日在回答关于中国与欧盟电动汽车案的有关提问时表示，当前国际局势下，中欧本着相互尊重态度，在世贸组织规则框架下妥善解决电动汽车案，具有重要积极意义。 在商务部当天举行的例行新闻发布会上，何咏前介绍，2026年1月12日，中欧同步宣布电动汽车案经多轮磋商达成积极成果，受到国内外各界高度关注。中欧业界对此“高度欢迎并完全赞同”，认为电动汽车案“软着陆”将显著提振市场信心，为中欧汽车贸易投资合作注入新的动力。有欧盟政治家评价，这是朝着建立可持续中欧贸易关系迈出的积极一步，表明通过伙伴关系解决贸易分歧仍具可行性。 “当前国际局势下，中欧本着相互尊重态度，在世贸组织规则框架下妥善解决电动汽车案，具有重要积极意义。”何咏前说，这不仅有利于中欧经贸关系健康发展，有利于维护全球汽车产业链供应链稳定，更向世界释放清晰而有力的信号，中欧愿共同维护以规则为基础的国际贸易秩序，为各国通过对话协商妥善解决分歧树立良好范例，也为推动世界经济发展注入更多确定性和正能量。 何咏前表示，中方赞赏欧方展现的对话精神，愿与欧方一道，在当前积极成果基础上，进一步落实好中欧领导人会晤共识，保持对话沟通，支持双方产供链基于市场原则继续深化合作，为全球绿色转型作出积极贡献。 【责任编辑：曹静】</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C254" s="5" t="inlineStr">
+        <is>
+          <t>助力经济结构转型优化 央行出台8项政策举措</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>2026-01-15T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>国务院新闻办公室今天下午举行新闻发布会，中国人民银行有关负责人介绍，根据当前经济金融形势需要，人民银行将推出8项政策措施，进一步助力经济结构转型优化。 一是下调各类结构性货币政策工具利率0.25个百分点。各类再贷款一年期利率从目前的1.5%下调到1.25%，其他期限档次利率同步调整。 二是合并使用支农支小再贷款与再贴现额度，增加支农支小再贷款额度5000亿元，总额度中单设一项民营企业再贷款，额度1万亿元，重点支持中小民营企业。 三是将科技创新和技术改造再贷款额度从8000亿元，增加4000亿元至1.2万亿元，并将研发投入水平较高的民营中小企业等纳入支持领域。 四是将此前已经设立的民营企业债券融资支持工具、科技创新债券风险分担工具合并管理，合计提供再贷款额度2000亿元。 五是拓展碳减排支持工具的支持领域。纳入节能改造、绿色升级、能源绿色低碳转型等更多具有碳减排效应的项目，引导银行支持全面绿色转型。 六是拓展服务消费与养老再贷款的支持领域。结合健康产业认定标准，适时在服务消费与养老再贷款的支持领域中纳入健康产业。 七是会同金融监管总局将商业用房购房贷款最低首付比例下调至30%，支持推动商办房地产市场去库存。 八是鼓励金融机构提升汇率避险服务水平。丰富汇率避险产品，为企业提供成本合理、灵活有效的汇率风险管理工具。 【责任编辑：曹静】</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>国务院新闻办公室今天下午举行新闻发布会，中国人民银行有关负责人介绍，根据当前经济金融形势需要，人民银行将推出8项政策措施，进一步助力经济结构转型优化。 一是下调各类结构性货币政策工具利率0.25个百分点。各类再贷款一年期利率从目前的1.5%下调到1.25%，其他期限档次利率同步调整。 二是合并使用支农支小再贷款与再贴现额度，增加支农支小再贷款额度5000亿元，总额度中单设一项民营企业再贷款，额度1万亿元，重点支持中小民营企业。 三是将科技创新和技术改造再贷款额度从8000亿元，增加4000亿元至1.2万亿元，并将研发投入水平较高的民营中小企业等纳入支持领域。 四是将此前已经设立的民营企业债券融资支持工具、科技创新债券风险分担工具合并管理，合计提供再贷款额度2000亿元。 五是拓展碳减排支持工具的支持领域。纳入节能改造、绿色升级、能源绿色低碳转型等更多具有碳减排效应的项目，引导银行支持全面绿色转型。 六是拓展服务消费与养老再贷款的支持领域。结合健康产业认定标准，适时在服务消费与养老再贷款的支持领域中纳入健康产业。 七是会同金融监管总局将商业用房购房贷款最低首付比例下调至30%，支持推动商办房地产市场去库存。 八是鼓励金融机构提升汇率避险服务水平。丰富汇率避险产品，为企业提供成本合理、灵活有效的汇率风险管理工具。 【责任编辑：曹静】</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C255" s="5" t="inlineStr">
+        <is>
+          <t>重要突破！我国首台海底地层空间钻探与监测机器人研发成功</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>2026-01-14T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>你见过可以在海底地层空间钻探和监测的机器人吗？记者今天（14日）从自然资源部中国地质调查局获悉，由广州海洋地质调查局自主研发的我国首台能在海底地层空间进行立体钻探和监测的机器人，在南海顺利完成了试验作业，这也标志着我国深海勘探与地层原位监测技术取得重要突破。 眼前这个大家伙就是可在海底地层空间钻探和监测的机器人，它身高2.5米，体重110公斤，携带的钻头可以在海底进行钻探，身上的多种传感器能够开展大范围、长周期、多参数的原位实时监测。就在不久前，它刚刚在南海挑战了1264米水深海域的试验作业，各项性能全面达标。 自然资源部中国地质调查局广州海洋局工程师 朱扬涛：在刚结束的航次中，我们利用这台机器人在南海完成了目标地层的原位实时监测，获得了2000多组甲烷浓度、溶解氧和地层结构等数据，可以帮助我们更好地了解试采区的地质背景。 那这台机器人有什么用呢？专家告诉记者，深海地层内蕴藏着天然气水合物、深海稀土、多金属结核等关键资源，但深海环境复杂恶劣，具有低温、高盐度和地质条件不稳定等特点，勘探开发面临巨大挑战。为了解决这些问题，科研人员为机器人配备了惯性导航、磁信标辅助定位与人工智能算法，让它能够自主避开岩石等障碍物，动态规划最优路径，在深海地层内部实现自由钻进与精准定位。 自然资源部中国地质调查局广州海洋局工程师 朱扬涛：我们最终选择模仿蚯蚓在土壤中的运动模式，设计成仿生多体节的结构，它可以在地层中进行360度全方位的转向，在200米范围内的三维定位误差是小于0.3米的，避障成功率是达到了99.5%。 后续，科研团队将进一步提升机器人的综合性能，运用到天然气水合物、深海稀土等资源的勘探开发工作中，服务于国家深海科学钻探工程。 （总台央视记者 崔霞 吴天白） 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>你见过可以在海底地层空间钻探和监测的机器人吗？记者今天（14日）从自然资源部中国地质调查局获悉，由广州海洋地质调查局自主研发的我国首台能在海底地层空间进行立体钻探和监测的机器人，在南海顺利完成了试验作业，这也标志着我国深海勘探与地层原位监测技术取得重要突破。 眼前这个大家伙就是可在海底地层空间钻探和监测的机器人，它身高2.5米，体重110公斤，携带的钻头可以在海底进行钻探，身上的多种传感器能够开展大范围、长周期、多参数的原位实时监测。就在不久前，它刚刚在南海挑战了1264米水深海域的试验作业，各项性能全面达标。 自然资源部中国地质调查局广州海洋局工程师 朱扬涛：在刚结束的航次中，我们利用这台机器人在南海完成了目标地层的原位实时监测，获得了2000多组甲烷浓度、溶解氧和地层结构等数据，可以帮助我们更好地了解试采区的地质背景。 那这台机器人有什么用呢？专家告诉记者，深海地层内蕴藏着天然气水合物、深海稀土、多金属结核等关键资源，但深海环境复杂恶劣，具有低温、高盐度和地质条件不稳定等特点，勘探开发面临巨大挑战。为了解决这些问题，科研人员为机器人配备了惯性导航、磁信标辅助定位与人工智能算法，让它能够自主避开岩石等障碍物，动态规划最优路径，在深海地层内部实现自由钻进与精准定位。 自然资源部中国地质调查局广州海洋局工程师 朱扬涛：我们最终选择模仿蚯蚓在土壤中的运动模式，设计成仿生多体节的结构，它可以在地层中进行360度全方位的转向，在200米范围内的三维定位误差是小于0.3米的，避障成功率是达到了99.5%。 后续，科研团队将进一步提升机器人的综合性能，运用到天然气水合物、深海稀土等资源的勘探开发工作中，服务于国家深海科学钻探工程。 （总台央视记者 崔霞 吴天白） 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C256" s="5" t="inlineStr">
+        <is>
+          <t>事关2025年进出口情况 国新办今日上午将举行发布会</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>2026-01-14T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>国务院新闻办公室将于2026年1月14日（星期三）上午10时举行新闻发布会，海关总署副署长王军将介绍2025年全年进出口情况，并答记者问。 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>国务院新闻办公室将于2026年1月14日（星期三）上午10时举行新闻发布会，海关总署副署长王军将介绍2025年全年进出口情况，并答记者问。 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C257" s="5" t="inlineStr">
+        <is>
+          <t>我驻柬使馆：不得轻信他人 抵制“高薪”诱惑 切勿偷渡入柬</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>2026-01-13T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>1月12日，中国驻柬埔寨大使馆发布领事提醒。全文如下： 中国驻柬埔寨使馆高度重视保护在柬中国公民安全及合法权益，持续推动柬方严厉打击针对中国公民的各类犯罪活动。近日，柬警方分别在金边市和特本克蒙省侦破两起绑架、非法拘禁中国公民案件，成功解救10名受害中国公民，抓获8名中国籍犯罪嫌疑人。 中国驻柬使馆再次郑重提醒： 一、在柬发生的涉中国公民人身安全案件，犯罪嫌疑人多为中国籍人员。请广大中国公民切实增强安全防范意识，谨慎交友，不轻信他人，不随意泄露个人信息。 二、有关案件多与电信网络诈骗等违法犯罪活动密切相关。请大家切勿贪图“高薪”误入歧途，陷入非法拘禁、暴力虐待等安全风险之中，甚至危及生命。 三、大量受害人员系通过偷越国境等非法方式入柬。偷越国境属违法行为，当事人一方面需承担法律责任，另一方面由于柬方不掌握偷渡者身份、位置等信息，往往无法及时营救，使有关人员面临极高风险。请广大中国公民切勿心存侥幸、以身试险。 如有中国公民对来柬务工存有疑问，欢迎致电中国驻柬使馆咨询。如发现本人或身边人员受到电诈、非法拘禁等威胁，请尽快向中柬两国警方报警，并联系中国驻柬使馆寻求协助。 柬埔寨报警求助方式： 匪警：117 医疗急救：119 火警：666 卫生部：115 国家警察总署外国人求助热线：031-2012345/031-6012345 柬副首相兼内政大臣团队中国公民专用求助微信号：+855092686969 国家警察总署官方脸书：General Commissariat of National Police, 网址：https://www.facebook.com/cambodiapolice 国家警察总署电诈报警平台网址：http://hotline.police.gov.kh 移民总局外国人服务热线：068-386699、078-386699、087-386699 暹粒外国人报警热线：031-3749851 暹粒旅游警察热线：012-40242465 西港警察局中文求助热线：011-506677,011-516677 驻柬使馆24小时领事保护与协助电话：023-210206，中国公民领事保护、侨务工作咨询邮箱：phnom-penh_lb@csm.mfa.gov.cn 驻柬使馆驻暹粒领事办公室24小时领事保护与协助电话：078-946178，邮箱：consulate_sr@mfa.gov.cn（暹粒领办领区范围：暹粒省、磅通省、柏威夏省、奥多棉吉省、班迭棉吉省、马德望省） 驻柬使馆驻西哈努克领事办公室24小时领事保护与协助电话：061-983749，邮箱：consulate_shv@mfa.gov.cn（西哈努克领办领区范围：西哈努克省、国公省、贡布省、白马省） 外交部全球领事保护与服务应急呼叫中心电话：+86-10-12308或+86-10-65612308 （总台记者 姚瑞昕） 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>1月12日，中国驻柬埔寨大使馆发布领事提醒。全文如下： 中国驻柬埔寨使馆高度重视保护在柬中国公民安全及合法权益，持续推动柬方严厉打击针对中国公民的各类犯罪活动。近日，柬警方分别在金边市和特本克蒙省侦破两起绑架、非法拘禁中国公民案件，成功解救10名受害中国公民，抓获8名中国籍犯罪嫌疑人。 中国驻柬使馆再次郑重提醒： 一、在柬发生的涉中国公民人身安全案件，犯罪嫌疑人多为中国籍人员。请广大中国公民切实增强安全防范意识，谨慎交友，不轻信他人，不随意泄露个人信息。 二、有关案件多与电信网络诈骗等违法犯罪活动密切相关。请大家切勿贪图“高薪”误入歧途，陷入非法拘禁、暴力虐待等安全风险之中，甚至危及生命。 三、大量受害人员系通过偷越国境等非法方式入柬。偷越国境属违法行为，当事人一方面需承担法律责任，另一方面由于柬方不掌握偷渡者身份、位置等信息，往往无法及时营救，使有关人员面临极高风险。请广大中国公民切勿心存侥幸、以身试险。 如有中国公民对来柬务工存有疑问，欢迎致电中国驻柬使馆咨询。如发现本人或身边人员受到电诈、非法拘禁等威胁，请尽快向中柬两国警方报警，并联系中国驻柬使馆寻求协助。 柬埔寨报警求助方式： 匪警：117 医疗急救：119 火警：666 卫生部：115 国家警察总署外国人求助热线：031-2012345/031-6012345 柬副首相兼内政大臣团队中国公民专用求助微信号：+855092686969 国家警察总署官方脸书：General Commissariat of National Police, 网址：https://www.facebook.com/cambodiapolice 国家警察总署电诈报警平台网址：http://hotline.police.gov.kh 移民总局外国人服务热线：068-386699、078-386699、087-386699 暹粒外国人报警热线：031-3749851 暹粒旅游警察热线：012-40242465 西港警察局中文求助热线：011-506677,011-516677 驻柬使馆24小时领事保护与协助电话：023-210206，中国公民领事保护、侨务工作咨询邮箱：phnom-penh_lb@csm.mfa.gov.cn 驻柬使馆驻暹粒领事办公室24小时领事保护与协助电话：078-946178，邮箱：consulate_sr@mfa.gov.cn（暹粒领办领区范围：暹粒省、磅通省、柏威夏省、奥多棉吉省、班迭棉吉省、马德望省） 驻柬使馆驻西哈努克领事办公室24小时领事保护与协助电话：061-983749，邮箱：consulate_shv@mfa.gov.cn（西哈努克领办领区范围：西哈努克省、国公省、贡布省、白马省） 外交部全球领事保护与服务应急呼叫中心电话：+86-10-12308或+86-10-65612308 （总台记者 姚瑞昕） 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C258" s="5" t="inlineStr">
+        <is>
+          <t>特朗普:对伊朗所有的贸易伙伴征收25%关税</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>2026-01-13T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>△美国总统特朗普（资料图） 当地时间1月12日，美国总统唐纳德·特朗普在其社交媒体“真实社交”发文称，即日起，任何与伊朗伊斯兰共和国开展商业往来的国家，在与美国进行的任何商业活动中都将被征收25%的关税。 特朗普强调，该决定“最终且不可更改”。（央视记者 许骁） 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>△美国总统特朗普（资料图） 当地时间1月12日，美国总统唐纳德·特朗普在其社交媒体“真实社交”发文称，即日起，任何与伊朗伊斯兰共和国开展商业往来的国家，在与美国进行的任何商业活动中都将被征收25%的关税。 特朗普强调，该决定“最终且不可更改”。（央视记者 许骁） 【责任编辑：张天磊】</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C259" s="5" t="inlineStr">
+        <is>
+          <t>新华网财经观察丨微短剧里的就业新空间</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:22+01:00</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>新华网财经观察丨微短剧里的就业新空间</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>新华网北京1月14日电题:微短剧里的就业新空间
+新华网记者杨光
+近日,北京大学国家发展研究院发布的《2025年中国微短剧产业发展格局与就业拉动效应测算报告》显示,微短剧行业已成为推动就业增长的重要力量。此前,中国网络视听协会发布的《2025微短剧行业生态洞察报告》也从行业生态角度,印证了微短剧在促进社会就业方面的作用。这些研究报告共同表明,微短剧产业正持续为我国文化产业就业注入新动力。
+拉动效应显著
+微短剧产业的就业拉动首先体现在其宏观规模上。《2025年中国微短剧产业发展格局与就业拉动效应测算报告》测算显示,2025年,仅在制作、演员及群演环节,全国短剧行业就产生了数千万个工日的劳动投入,直接吸纳约69万人就业。报告课题组负责人、北京大学国家发展研究院副院长张丹丹教授指出:“微短剧的产生与发展,源于智能手机时代碎片化时间结构与大众情绪需求的集中释放。”她表示,这种形态匹配了大众碎片化的时间结构,提供了便捷的娱乐方式,从而催生了相应的市场与产业规模。
+微短剧持续为文化产业就业注入新动力
+更为关键的是产业链的带动效应。研究报告显示,每1个直接短剧就业岗位,能带动供应链及消费端产生约1.95个间接就业机会。
+记者调研发现,一部微短剧从立项到上线,不仅需要编剧、演员、导演、摄像等核心人员,还需要美术、服装、化妆、道具、后期特效等支持人员,同时拉动了拍摄地的餐饮、住宿、交通等消费服务业。
+来自河南郑州的宙途文化公司负责人向记者透露,仅2025年10月,团队同时进行短剧拍摄的剧组就有十多个,月度用工人次约2000人,覆盖了导演、摄影、后期、演员等多岗位。其中,核心创作岗位由公司自主把控,灯光、道具、化妆、司机等非核心岗位则采用外聘模式,提升了用工灵活性。而一个剧组的入驻,常常还能带动区域经济。浏阳的烟花、泗洪的蟹塘、衢州的山茶油,皆因短剧带动关注,当地文旅资源也因此被盘活。
+产业格局初成
+数据显示,全国短剧月度产量已稳定在约3000部,并在区域分工趋势下,带动就业从一线城市向中西部扩散。郑州、西安、横店等地,正成为这一产业地理格局的重要支点。
+《2025年中国微短剧产业发展格局与就业拉动效应测算报告》显示,微短剧已形成产业集聚效应
+郑州作为全国短剧核心生产地,常规月度产量约500部。郑州大学政治与公共管理学院副院长陈宁分析:“郑州微短剧产业的发展是政策引导加成本驱动模式的代表,本地有闲置厂房可利用。”他透露,郑州微短剧产业带动了数万直接从业人员,其中以年轻人和大专及以上学历者为主。西安作为另一创作重镇,产量略高于郑州。横店则凭借完善的古装场景资源,成为全国近九成古装短剧的拍摄基地。
+张丹丹教授说:“微短剧已形成差异化的区域分工格局:横店主打古装题材,郑州专注现代题材规模化制作,西安则形成并行制作的内容供给中心。”这样的互补格局提升了产业整体效率。北京大学中国语言文学系教授张颐武指出:“微短剧产业不仅消化了大量存量就业需求,还通过改建拍摄基地,盘活闲置项目,带动周边就业。”
+位于郑州的大志影视基地,前身是一个闲置多年的非遗小镇烂尾项目。该基地负责人说,仅在2025年5月开始的试营业期间,就已吸引全国多地短剧团队前来拍摄,累计接待300多个剧组,单日最高容纳12个剧组同时拍摄。记者注意到,在多个拥有闲置影棚、厂房的二三线城市,微短剧已成为激活地方资源、创造灵活就业的新抓手。
+拓展文娱产业就业入口
+微短剧“短平快”的生产机制是创造就业的重要特点。剧组规模通常在数十人,虽小于传统影视剧,但职能齐全且周转高效:一部剧拍摄仅需数天,后期团队月均可完成多部作品。这种高频模式显著提升了用工效率。以横店为例,月均开机短剧可达数百部,依靠庞大的项目数量,行业整体就业吸纳能力得到有效增强。
+对于从业者而言,这意味着更多的工作机会和更快的经验积累。红果短剧精品短剧负责人魏钦涛从平台角度印证了这一趋势:“早期可能十来个人就能做一部剧,现在中等规模的短剧需要数十人甚至近百人。”随着行业竞争加剧,微短剧制作向专业化迈进,这不仅拉动了就业增长,也对从业者素质提出了更高要求。
+这样的变化重组了非头部人才的就业生态。在横店,系统化的演员服务体系支撑着大量注册演员,其中活跃参与微短剧拍摄的约数千人。该体系为大量表演爱好者、艺术类毕业生及寻求转型的普通人,提供了可持续就业的机会。微短剧在推动专业化的同时,也正在拓宽文娱产业的就业入口,构建起一个兼具流动性与成长性的新型人才池。
+风险挑战不可忽视
+在肯定微短剧为年轻人提供就业机会和实现影视梦想平台的同时,也有专家提醒,从业人员的能力提升与行业长远健康发展息息相关。中国电影评论学会会长饶曙光指出:“微短剧产业发展迅猛,为众多年轻从业者提供了就业机会。但行业仍存在发展不平衡、不充分的问题。”他建议,从业者既要抓住当前机遇实现就业,也应树立更长远的发展目标,通过不断苦练内功,提升自身的创造力和专业能力。
+与此同时,行业繁荣背后也潜藏着不容忽视的挑战。中国广电联合会短视频短片专委会秘书长张腾之指出,当前行业在内容生产和从业者权益保障方面存在突出问题。“产能过载高频作业之下,编剧等创意岗位面临透支风险,直接影响从业者的职业可持续性。”他同时提醒,部分临时剧组存在用工保障不足、薪资纠纷等风险,年轻从业者需强化法律意识,着眼长远职业发展。
+展望未来,微短剧产业的就业带动效应将在政策支持和市场驱动的双重作用下持续深化,呈现更加多元化、专业化的发展趋势。随着行业走向成熟,微短剧正在从“流量驱动”向“品质驱动”转变。魏钦涛透露,平台将进一步加大投资力度,提升内容制作水准。这种升级不仅会巩固现有岗位,还将催生IP运营、版权开发、国际传播等新型就业机会。
+此外,微短剧内容生态的丰富与技术创新共同拓展了就业边界。目前约半数微短剧内容改编自网络文学,为网文创作者提供了作品转化与收入的新渠道。一位年轻编剧表示,其首部短剧作品已被工作室购买,新作如获平台认可还将获得保底与分成收益。同时,人工智能等技术的应用在提升制作效率的同时,也催生了AI内容优化师、数字资产管理师等新兴岗位,为技术人才进入文创领域开辟了新路径。
+微短剧产业的就业图景正从“数量增长”向“质量提升”转变,在政策扶持和市场创新的双轮驱动下,这一新兴产业有望成为数字经济时代稳就业、促创新的重要力量。</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C260" s="5" t="inlineStr">
+        <is>
+          <t>去年全国演出票房收入616.55亿元 大型演出直接带动其他消费超2200亿元</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:22+01:00</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>去年全国演出票房收入616.55亿元 大型演出直接带动其他消费超2200亿元</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>2025年10月7日晚,游客在河北省唐山市丰南区河头老街景区观看演出。 新华社发
+近日,中国演出行业协会发布2025年全国演出市场简报。据中国演出行业协会票务信息采集平台监测和调研测算,2025年全国营业性演出(不含娱乐场所演出)场次64.04万场,按可比口径比2024年增长6.58%;票房收入616.55亿元,同比增长6.39%;观众人数1.94亿人次,同比增长4.22%。
+文旅消费凸显乘数效应
+2025年全国5000人以上大型营业性演出0.3万场,与2024年相比增长12.70%;票房收入324.48亿元,同比增长9.49%,观众人数4338.58万人次,同比增长18.81%。
+大型演出持续火热一方面得益于各地政策的大力推动,市场活力充分释放;另一方面在于文旅深度融合,演出项目与地区旅游相结合,“票根经济”提升了消费意愿和观演热情。
+2025年演唱会、音乐节等大型演出已成为地方文旅消费的强力引擎,不断释放消费乘数效应。乘数效应的发挥很大程度上依赖高效的区域协调联动机制,深度盘活资源。据协会数据采集与调研测算,大型演出对其他消费的平均带动系数为1∶6.85,2025年全国5000人以上大型营业性演出直接带动票房收入之外的交通、住宿、餐饮、旅游、购物消费超过2200亿元。
+大小剧场渐成城市文旅地标
+舞台艺术方面,2025年全国原创舞台剧目呈现蓬勃发展态势,创作、制作能力显著提升,舞台艺术原创领域市场反响亮眼。2025年全国专业剧场、小剧场新空间等剧场类演出43.87万场,按可比口径与2024年相比增长7.30%。
+纵观全国舞台艺术演出市场,市场化程度较高的艺术门类演出保持上升态势。古韵国风成为演出市场的“顶流审美”,包括《锦衣卫之刀与花》《大状王》《宝玉》等在内的爆款国风音乐剧植根传统文化沃土,不断掀起观演热潮。主旋律题材担负起新时代文化使命,创作更加踊跃,《寻找李二狗》《夜幕下的哈尔滨》《风声》《此生必驾》等用细腻的表演、精美的制作、高质量的舞台呈现让家国情怀凝聚力量,不断滋养精神家园。
+话剧市场呈现经典改编与原创现实题材双轨并行的格局,经典IP强势回归,大小剧场多元绽放,如《林则徐》《大宅门》《鳄鱼》《北上》《西游》等,喜剧类话剧尤其保持高热度,如《出马》《戏台》《太白金星有点烦》等,精品化路径更加清晰。舞剧原创热度持续上升,作为地方文化载体,舞剧优势更为鲜明。
+与此同时,随着文旅深度融合,专业剧场转型倾向于文旅型剧院方向拓展,小剧场新空间发挥文旅融合功能凸显,演艺新业态发力效果显著。2025年越来越多的专业剧场通过创新模式拓展其社会功能,成为提升城市文化品质和促进旅游发展的重要引擎。
+旅游演艺不断优化升级
+旅游演艺领域,2025年全国大中型旅游演艺项目演出19.87万场,同比增长4.95%;票房收入174.42亿元,同比增长6.43%,观众人数8798.97万人次,同比增长3.01%。
+在出游消费的带动下,旅游演艺项目不断优化升级,艺术审美提升,沉浸体验感进一步强化,创造更丰富的沉浸体验场景、互动参与环节,让游客、观众实现从“看演出”到“成为故事主角”的转变。在旅游演艺项目中,国潮IP与文旅的深度融合,让更多传统艺术焕发新生,进而吸引年轻消费者。
+中演协表示,2025年的全国演出市场以精品内容为核心锚点,在优秀原创剧目引领下迸发持续艺术活力;以文旅融合为拓展路径,剧场空间深度嵌入城市文旅生态,“为一场演出奔赴一座城”成为消费新常态;以体验消费为增长引擎,撬动交通、住宿等关联消费,乘数效应全面释放;以数字营销为传播纽带,口碑裂变与线上拓展形成双向赋能,拓宽舞台艺术触达边界;以沉浸创新为突破方向,通过技术赋能与互动升级实现旅游演艺迭代提质。演出市场实现从内容供给到场景体验、从单一票房到生态经济的全方位进阶,构建起“内容为王、文旅共生、体验至上、数字赋能”的发展新格局。(北京日报记者 韩轩)</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C261" s="5" t="inlineStr">
+        <is>
+          <t>2025年中国动画电影市场：“一超多强”的爆发与启示</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:22+01:00</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>2025年中国动画电影市场：“一超多强”的爆发与启示</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>2025年中国内地电影市场总票房达518.32亿元,同比增长21.95%;观影人次12.38亿,同比增长22.57%。动画电影表现强劲,堪称这两个“增长”的最大拉动引擎——全年动画电影总票房达254.9亿元,占比49.2%,较2024年动画电影的市场占比提升了32.8%。如何看待2025年动画电影市场大爆发,它给未来中国动画电影的发展能带来哪些启示?
+打破多项纪录,呈现“一超多强”格局
+如果说动画电影的市场表现可分为大年小年,是有节奏心跳律动的话,那么,2025年奏响的无疑是“史上最强音”。
+这首先得益于《哪吒之魔童闹海》的惊人表现。该片国内票房最终定格在154.46亿元,全球票房高达22.4亿美元,不仅打破了中国电影114项纪录,登上中国影史电影票房榜第一位,更超越了《头脑特工队2》成为全球动画电影票房冠军,跻身全球影史排行榜第五。
+一枝独秀不是春,百花齐放春满园。在《哪吒之魔童闹海》之后,全年动画电影市场力作不断、高潮迭起。先是暑期档《浪浪山小妖怪》强势打榜,以17.19亿元的票房先后超越了《大鱼海棠》和《铃芽之旅》,成为中国内地市场二维动画的票房冠军。年底贺岁档,迪士尼动画电影《疯狂动物城2》获得近43亿元票房,超过该片北美票房近一倍,打破了海外动画电影在中国的票房纪录,本片也凭借其在中国市场的表现成为2025年好莱坞动画电影票房冠军。
+《熊出没·重启未来》《鬼灭之刃:无限城篇 第一章 猗窝座再袭》《罗小黑战记2》等作品也都获得了超过5亿元的票房佳绩。整个2025年有6部动画电影票房超5亿元,是迄今为止最多的一年,并呈现出“一超多强”的格局。由于国产动画、引进动画电影均有亮眼的市场表现,不少海外媒体兴奋地表示,中国这个全球最大的电影市场已经做好了迎接更多动画电影的准备。
+透视市场格局,辩证看待票房数据
+2025年,国产动画电影(含合拍片)总票房达192.8亿元,在全部动画电影票房中占比75.7%,是2011年以来最高的一年。过去5年(2021—2025)里,该占比平均值为62.1%,其中最高的一年是2021年的69%;如果再往前看,2016至2020年、2011至2015年国产动画电影票房该占比平均值分别为41.5%、35.7%。可以看出,国产动画电影票房逐渐占据全部动画电影票房主导地位的趋势十分明显。
+当然也要看到,《哪吒之魔童闹海》一部作品就占了国产动画电影票房的80.1%和全部动画电影票房的60.6%。显然,这种单一巨擘型作品对票房的拉动效应是偶然的,也是难以复制和持续的。所以,如果2026年中国动画电影票房有所回归,回到2023年和2024年的70亿元上下,那并不应被解读为“动画电影市场缩水了”。
+事实上,每年动画电影票房占全部电影票房10%至15%的格局,不会因为2025年的特殊情况而有所改变。相比北美电影市场每年动画电影票房占比20%左右的份额,中国动画电影市场仍有提升空间。换句话说,如果中国电影市场年票房按500亿元计算,动画电影票房每年达到100亿元,是比较符合国际市场规律的。而从2023年和2024年的情况看,与这个数字还有二三十亿元的差距。
+2025年海外动画电影在中国内地市场的票房达62亿元,虽然在中国动画电影票房的占比下降至24.3%,但这一数值仍然是史上最高。这个成绩也获得了多方肯定,认为凸显了中国市场对好莱坞动画产业持续的重要意义。在引进动画电影中,日本动画18部,数量最多,票房为16亿元,同比下降28.8%;美国动画8部,数量与往年基本持平,票房为46亿元,同比增长1.74倍;其他各国动画电影总票房为7889万元,在海外动画电影票房中占比1.3%。整体继续呈现出美日动画电影为主的格局。
+IP价值彰显,但IP运营并不简单
+在总结2025年动画电影成功的原因时,IP价值彰显一马当先。《哪吒之魔童闹海》《疯狂动物城2》《罗小黑战记2》都是成功影片的续作;《浪浪山小妖怪》改编自网络动画《中国奇谭》最火爆的一部短片《小妖怪的夏天》;连续10年出现在春节档的“熊出没”系列电影,就更不用说了。
+但也要看到,还有很多具有IP基础的影片票房并不理想。比如中美合拍的《猫和老鼠:星盘奇缘》仅收获2633万元票房;之前出过多部系列作品的“开心超人”新作、“潜艇总动员”新作,在“五一档”“六一档”上映,仅获得1287万元和1054万元票房;粉丝黏性很强的网络动画《非人哉》的首部动画电影,票房不到1500万元,远低于预期;由童话IP改编的《皮皮鲁和鲁西西之309暗室》,票房接近500万元。这些票房成绩未必是IP价值不足所致,更主要的原因恐怕在于IP运营相对薄弱。
+IP续作电影既要保留老粉丝关注的情怀性内容,又要增加能吸引新粉丝注意的时代感内容。情怀性内容包括经典的人物关系、剧情设置甚至角色招牌动作等,而时代感内容则包括潮流梗、游戏式节奏、时尚设计、明星配音等。凡是票房较好的IP续作电影,往往能把上述内容创作做得比较充分,投入专业运营团队进行宣发;而票房不太好的IP续作电影,要么是内容出现了问题,与粉丝期待差距较大,要么是运营力度和方式不到位,宣发投入不够,结果自然不理想。好的IP续作电影会不断形成IP价值的正反馈,而运营不太好的则会适得其反,影响IP的品牌价值。
+需要注意的是,没有IP基础的作品也未必不成功,如《时间之子》,依靠过硬的剧情引领口碑,收获近2亿元票房。这提示我们,动画电影不仅是让IP变现的“延展式”,它更可以成为打造IP的“起手式”。
+如果把没有IP基础的动画电影新品获得5000万元以上票房算作“基本成功”,那么2025年这样的新品只有《聊斋:兰若寺》《时间之子》《三国的星空第一部》,占全部新品的21%。中国动画电影新品成功率之所以还比较低,原因在于公司品牌、导演品牌相对较少,无法像海外市场那样让动画新品站在公司和导演的品牌基础上蓄力发力。因此,品牌化依然是未来中国动画电影高质量发展的重要方向。
+深挖情绪价值,共情成为观影主要需求
+如今观众对影片的要求越来越高,他们想看的不仅是奇幻大场面,更希望得到一种情感共鸣,用当下流行说法来说就是能提供情绪价值。美国2025年的一个调查显示,美国观众最希望在影片中看到“像自己一样生活的人”。无独有偶,中国的一项调查也显示,观众对动画电影情感元素期待中排名第一位的是“现实生活共鸣”。综观2025年成功的动画电影,大部分都做到了这点。
+《哪吒之魔童闹海》具有极致性格冲突、社会角色冲突的戏剧效果,一方面引起“我命由我不由天”的价值观认同,另一方面也引发对哪吒、敖丙等角色亲情、友情的情感认同。《浪浪山小妖怪》的冲突感不那么强烈,其吸引力主要来自带有治愈感的人物设定、接地气的对平凡打工人的情感隐喻。而在《疯狂动物城2》中,充满彰显人类情感、像人类一样生活的各种动物,很容易引发共情。
+相比不可复制的票房数字,这种可复制和可延伸的情感共鸣其实更需要被业界关注。从创作角度看,“两入两出”的创作理念正在助力动画电影从注意力产品转变为情感力产品。一是儿童的入口、成人的出口,如《浪浪山小妖怪》《疯狂动物城2》乃至《罗小黑战记2》,可爱的动物角色都是儿童性的,但是情感、社会、人际交往又是成人向的,这使作品兼具不同年龄层观众的吸引点,更易拓展受众群体。二是奇幻的入口、现实的出口,不少影片都塑造了很有吸引力的奇幻世界观,但实际上每个角色都仿佛是我们身边的人,让我们能感到真实生活的方方面面。
+衍生产品火爆,“动画电影+”空间巨大
+《哪吒之魔童闹海》与末那工作室合作的官方手办目标众筹金额10万元,最终众筹总额突破3000万元;影片上映首月,相关衍生品销售额突破10亿元。这是动画电影与衍生产品协同共振、创造巨大价值的一个缩影。
+从以前的动画电影要挨家挨户找厂商,到现在的厂商接踵而至自行上门;从以前电影上映后才开始做授权,到如今在制作阶段就已提前植入周边;从以前电影上映期间热卖,到如今影片下映后还可持续销售数月;从以前只做毛绒玩具、冰箱贴、挂件等少数品类的简单产品,到今天可以结合苏绣等非遗打造文化质感更强的产品......国产动画电影已经形成了更加成熟的内容与产品联动的模式。
+“动画电影+”让电影运营广度得到了前所未有的拓展。《浪浪山小妖怪》上映同期推出了XR(扩展现实)作品“浪浪山小妖怪:妖你同行”,用游戏方式延展影片内容,打造了“动画电影+虚拟现实电影”“传统影院消费+商业新场景消费”相结合的新模式;该片还在浙江省博物馆之江馆等地推出主题展,将电影角色、场景和剧情展现在观众面前,创造出沉浸感十足的“浪浪山奇幻世界”。这种“动画电影+展览”的创新营销,一方面能让观众感受作品的文化底蕴和国风基因,另一方面也能拉动文旅新消费。
+随着“跟着电影去旅游”活动的深入开展,跟随动画电影去打卡各种标志性场景也逐渐成为年轻人的消费热门。国产动画电影已经注重从创作伊始便植入大量可与文旅消费对接的内容,《罗小黑战记2》开篇充满东方韵味的“流石会馆”,灵感源自天津独乐寺;《聊斋:兰若寺》中“崂山道士篇”将青岛崂山太清宫的穿墙影壁进行了还原;《三国的星空第一部》在汉魏洛阳故城遗址采风,片中刻画了多件真实出土文物;《哪吒之魔童闹海》中取自桂林龙脊梯田的层叠错落梯田场景,灵感来自四川广汉三星堆博物馆中戴金面罩青铜人头像的结界兽;《浪浪山小妖怪》中采风自山西省五台县佛光寺的小雷音寺......由此可以看出,“动画电影+旅游”发展空间十分巨大。(宋磊)</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C262" s="5" t="inlineStr">
+        <is>
+          <t>歌剧《图兰朵》续写中意文化交流故事</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:22+01:00</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>歌剧《图兰朵》续写中意文化交流故事</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>新华社重庆1月12日电(记者杨仕彦)周末夜晚,重庆大剧院大剧场座无虚席。男高音以浑厚明亮的声线唱起咏叹调《今夜无人入睡》,熟悉旋律引发现场共鸣。演唱结束,掌声响彻全场——这是意大利歌剧《图兰朵》重庆站演出现场。
+1月10日至11日,歌剧《图兰朵》在重庆大剧院连演两场。近日,这部作品相继在厦门、武汉、重庆上演,与中国观众再次相遇,续写中意文化交流故事。
+《图兰朵》是意大利著名作曲家普契尼创作的一部以中国为故事背景的歌剧。故事以元代北京为虚实交织的舞台,讲述中国公主图兰朵与鞑靼王子卡拉夫的爱情故事。
+除了《今夜无人入睡》,中国民歌《茉莉花》在剧中多次出现,是贯穿全剧的重要旋律之一。当旋律响起,不少观众轻声跟唱。在本次中国巡演中,《茉莉花》的演绎方式也增添了新的文化意义,即由当地儿童与意大利剧团演员共同演唱。其中,在重庆,41位重庆大剧院童声合唱团的小朋友参与演出,与剧团共同呈现这首曲子。
+这种跨国舞台合作是此次巡演的一大亮点。首席指挥斯蒂法诺·维尼亚蒂说:“这次制作中最美好的事情,是能够直接与当地艺术家合作——包括舞者、群众演员以及各个工种的中国团队成员,一起完成这部作品。”
+重庆也给意大利剧团成员留下了深刻印象。饰演庞的安德烈亚·坦齐洛说:“重庆在传统与现代的融合上令我着迷。”
+演出现场,不少观众表示,意大利原版《图兰朵》既保留了传统歌剧的艺术高度,又通过融入中国元素拉近了与观众的距离。观众夏金龙说:“虽然歌剧以意大利语演出,但丰富的中国元素和熟悉的旋律,让人能够沉浸地融入剧情,感受到不同文明之间的交流与共鸣。”
+剧目结束后,散场的观众又被剧场外的一场小型展览吸引。23幅风格各异的作品在展览中亮相,描绘了重庆中学生心目中的图兰朵。来自重庆市北新巴蜀中学的郑雅匀将京剧服饰元素融入图兰朵公主的戏服设计,她说:“图兰朵公主坚毅,能在爱与信任中实现自我转化和成长,这是我欣赏的品质。”
+近年来,中意两国文化交流不断深入。维尼亚蒂说:“这是我第五次来到中国,希望未来还能再来。作为意大利艺术工作者,我会尽力把歌剧这一文化传统带给中国的年轻艺术家。我相信,这次合作在未来会不断发展,取得更多成果。”</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C263" s="5" t="inlineStr">
+        <is>
+          <t>变革成为国产剧关键词</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:22+01:00</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>变革成为国产剧关键词</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>回望2025年的国产剧集创作,如果用一个关键词概括,那就是“变革”。在新的媒体格局和观众审美迭代的冲击下,整个行业识变求变,进一步适应剧集创作生产的客观规律,既有从具体形态到叙事、美学上的突破,也有监管政策的主动变革。剧集创作生态更为丰富,呈现出万千气象、峰峦叠起的新局面。
+《长安的荔枝》
+《反人类暴行》
+创作格局多元共融
+现实题材走向深化
+2025年国产剧的创作,以现实题材为绝对主流,呈现出从单一讴歌向多元、立体、深度描摹转变的特征。创作视野不再局限于宏观叙事,而是深入社会肌理与个体心灵,在历史与当下的交织中,构建起一幅兼具广度、深度与温度的时代画卷。
+主旋律叙事突出展现人性化视角与当代化表达。2025年是中国人民抗日战争胜利暨世界反法西斯战争胜利80周年,革命历史题材剧突破了传统框架,将历史英雄还原为有血有肉的个体,将革命精神融合于当代语境,将观众情感凝练为文化共鸣。
+在2025年末上映的《反人类暴行》揭露了日军731部队的残酷行径,以独特题材填补了同类创作的空白。它通过多维视角,串联起细菌实验、村民感染瘟疫等核心情节,将抽象的暴行控诉具象化为普通百姓的真实苦难,深刻揭露日本军国主义体制性、系统性的反人类本质。可贵的是,作品摒弃了直白血腥的暴力美学,大量采用冷色调与低饱和度画面,以极为克制的镜头展现731部队的残忍暴虐,增强了纪实感与沉浸感。每集结尾加入伯力审判的真实录音,更是以无可辩驳的声音铁证强化剧情的真实感。《阵地》聚焦抗战期间桂林城的历史,全景式展现文化工作者以笔为枪、以舞台为战场的壮阔历程,填补了荧屏对文化抗战系统性描摹的空白。《浴血荣光》首度聚焦于党的建军思想,赋予历史新的生命力。《风与潮》则独辟蹊径地将视角从枪林弹雨的战场转向金融贸易领域,讲述了澳门爱国人士在香港沦陷后,与日伪势力展开暗战的故事。
+此外,《归队》展现了东北抗联普通战士的个体命运,“散-聚”结构打破了传统抗战剧宏大战争场面的单一模式,更注重个人在历史洪流中的挣扎与坚守。《我们的河山》在宏大战争场面之外,着力刻画“兵民一体”的深厚情谊,通过普通士兵与百姓的视角诠释“人民战争”的内涵。
+现实题材创作呈现出“史诗书写”与“微观洞察”并重、“历史纵深”与“当代横切面”双向拓展的趋势。根据国家广播电视总局数据,国产电视剧在2025年1月至9月共发行72部2261集,其中现实题材占比超过66%。这些剧集的突出特点是向文学经典借力,完成了从“故事讲述”到“文学影视化”的跃升。
+改编自伊北同名小说的《六姊妹》,以安徽淮南普通工人家庭六姐妹长达半个世纪的命运沉浮为主线,将一个家庭的伦理故事升华为一部中国社会变迁的平民史诗。改编自赵德发同名小说的作品《生万物》以鲁南天牛庙村宁、封、费三家族命运为主线,用丰富的视听语言、鲜活的群像塑造与扎根乡土的民俗细节,将农耕文明的精神内核与现代表达相融合,兼具地域质感与人文温度。
+都市剧创作转向对当代青年生存状态与精神世界的精细刻画,凭借对社会议题的深入探讨呈现出强烈的“当下感”。《重启180天》以“母亲重返青春”的奇幻设定为外壳,通过身份互换带来的视角转换,让母女双方真正理解彼此的困境,为家庭伦理剧提供了全新的叙事范式。《蛮好的人生》打破都市剧精英“大女主”的套路,塑造了胡曼黎这样一位中专学历、在保险行业打拼的“俗女”角色,让普通人的光彩被看到。此外,《四喜》《他为什么单身》等剧,则以轻喜剧风格,将镜头对准都市单身青年和新型家庭关系,实现了与大众情感的同频共振。
+律政题材剧在2025年展现出强烈的社会参与意识,以高度专业的叙事承载着普遍适用的价值关怀。《以法之名》的创新之处在于,它将叙事重点从打击外部黑恶势力转向对司法系统内部的“刮骨疗毒”,以锋利锐度呈现“刀刃向内”的检察侦查工作。《无尽的尽头》则采用“主线+单元案”的结构,将未成年人保护领域的诸多社会痛点,如校园霸凌、家庭监护缺失、网络侵害等进行了戏剧化呈现,深入探讨了国家监护、司法干预的边界,和法理、情理之间存在的现实难题。2025年的律政剧之所以能够“叫好又叫座”,是因为选择了老百姓最关心的法律问题,令观众产生了“如果是我该怎么办”的代入感,从而让这类剧集超出简单娱乐的范畴,成为公众理解复杂社会议题的抓手与合理抒发情绪的出口。
+不满足于套路复制
+反向推动类型升级
+2025年,在稳定的市场类型赛道上,剧集创作普遍不满足于套路复制,而是在叙事技巧、文化内涵和价值表达上寻求突破,反向推动类型范式本身的“进化”。
+《沉默的荣耀》以台湾隐蔽战线斗争为背景,首次全景式展现吴石、朱枫等四位烈士的真实潜伏事迹,以歌颂英雄为主基调,情感悲怆动人,堪称近年来国产谍战剧创作的魁首。该剧以历史主动精神,通过人物命运折射出两岸血脉相连的民族情感,剧集的价值升至民族精神命运与国家意识形态的高度,激起了广泛的社会讨论与爱国情怀,在广大观众特别是年轻观众中引发共鸣,提升了谍战剧的思想内涵与人文格局。《绝密较量》则以“科技暗战”的新形态聚焦当代网络安全、商业谍战等非传统的国家安全领域,兼具时代价值与教育意义。
+悬疑涉案剧实现从“解谜叙事”向“人文驱动”的跨越,将案件作为剖析社会症结与人性复杂的切口,追求智力游戏之上的社会关怀与哲学思考。《沙尘暴》将一桩陈年旧案置于一个资源枯竭、经济衰败、人口流失的西北小镇背景下,苍凉粗粝的影像风格本身就成为悬疑叙事的一部分,悬案揭秘与社会批判水乳交融。《棋士》的创新在于将围棋的博弈哲学与刑侦逻辑相结合,主角的思维方式直接成为破案关键,为职业剧提供了智性审美的范例。《余生有涯》以极致的现实主义笔触,直面职场性侵、家庭暴力等沉重议题,打破了对受害者“完美无瑕”的要求,细致描摹了主人公从创伤、逃避到艰难取证、勇敢抗争的漫长心路。
+2025年,古装剧集整体朝着回归历史质感、深化文化内涵和增强叙事互动性三大方向演进。《唐朝诡事录之长安》从唐代志怪笔记《酉阳杂俎》中汲取灵感,在奇案侦破中融入唐宴礼仪、马球运动、海外贸易等历史文化细节,描画鲜活的大唐社会生活图景。《长安的荔枝》以唐代基层官员运送荔枝的艰难历程为切入点,生动展现彼时官僚体系的运作细节与社会百态,通过小人物的命运折射大时代的特征。《国色芳华》则巧妙地将唐代花鸟使、牡丹培育、品香制香等与女性创业故事相结合,其精致的美术制作为观众上了一堂生动的盛唐美学课。
+而另一部分作品则在叙事模式上大胆创新。《藏海传》既有悬疑、传奇、情感、复仇等“爽文”惯用元素,又加入了成长和蜕变的大主题。同时,将堪舆风水、营造法式等传统文化元素自然融入叙事,既增强戏剧张力,又助力文化传承。《凡人修仙传》则颠覆了仙侠剧的“天才”叙事架构,打造了一个严格遵循丛林法则、强调生存智慧的“凡人流”世界,主角的每一步成长都充满挑战与风险,这种设定意外地契合了当代青年在社会竞争中产生的精神需求。
+爱情偶像剧则从“浪漫造梦”走向“映照现实”,最突出的变化是用更真实的人物设定和更贴合当下的议题表达,取代过往悬浮的浪漫幻想。《许我耀眼》虽然包含“契约婚姻”等经典桥段,但其内核是关于两个带着创伤、戴起面具的成年人,如何在博弈与试探中学习信任与爱,人物动机更为复杂合理。《难哄》毫不避讳地呈现了女主角在经济上的窘迫、在成长中遭遇的性骚扰,打破了偶像剧主角必是“完美精致穷人”的虚假设定。《白色橄榄树》则将爱情故事置于海外援建、国家形象传播的宏大背景之下,男女主角是拥有专业技能的翻译官与工程师,他们的爱情与个人事业追求、文化认同紧密交织,提升了偶像剧的精神格局。
+与此同时,国产科幻、奇幻题材剧在叙事上也大胆创新,甚至不乏带有实验性质的探索,尝试以高概念设定为探讨现实伦理与人性幽微提供更广阔的空间。《滤镜》通过“换脸变身”的奇幻设定,让女主角能够以不同的身份解决现实生活中遇到的问题,既讽刺了“颜值至上”的观念,又暗藏对追寻真实自我的肯定,成为中青年观众的“解压爽剧”。《不眠日》设定了“单日五次循环”的极限机制,每次循环都是对主角道德抉择与策略智慧的考验,案件涉及AI诈骗、基因编辑等前沿科技伦理,剧集不乏思辨色彩。《在人间》则以近乎作者电影的意识流手法,探索多重人格的内心世界,其叙事上的冒险精神,值得肯定。
+技术全面赋能创作
+政策释放行业生产力
+2025年也是技术全面赋能剧集创作,并开始重塑美学标准的一年。技术创新方面,国家广电总局将2025年定为“超高清发展年”,这直接引领了一场自上而下的视觉革命。同时,以人工智能为代表的新技术已从后期制作环节,前置并渗透到创作的全流程,深度融入剧集生产的全链条,成为决定作品质感与叙事效率的关键要素。
+《反人类暴行》《北上》《树影迷宫》等剧集采用4K超高清拍摄,追求“沉浸式的真实”。《大生意人》为展现清末商帮跨地域经商,辗转大半个中国进行实景拍摄,高清镜头精准捕捉了东北林海雪原、江南水墨园林、西北大漠戈壁等截然不同的色彩与质感,使环境本身成为叙事和抒情的重要“角色”。医疗剧《以美之名》更是将超高清的“显微”特性运用到极致,手术过程的精准呈现不仅增强了剧集的专业可信度,其直观的视觉冲击力也成为探讨容貌焦虑、批判医美乱象的有力手段。
+此外,虚拟制作与AI技术还重塑了创作流程与场景边界。《折腰》为追求极致的光影氛围,在摄影棚内通过LED巨幕实时渲染动态背景,确保了视觉风格的统一与高效。《不眠日》利用虚拟制片打造“时间循环”的异质空间感,将实景搭建与虚拟扩展无缝结合,使得超现实设定获得了扎实的视觉依托。尽管AIGC(人工智能生成内容)生成完整剧本尚不成熟,但其在提升工业化生产标准化、降低重复劳动成本方面的作用已毋庸置疑。
+与此同时,顶层设计持续发力,2025年8月,广电总局出台的“广电21条”(《进一步丰富电视大屏内容 促进广电视听内容供给的若干举措》)催生了“中剧集”与短剧集、网络故事片等新赛道,解放了行业生产力。这主要体现在:一是创作松绑,取消电视剧40集的上限、古装剧无时长比例限制、季播剧取消一年排播间隔,彻底打破了“为凑集数硬拉长”“系列剧断档”等创作桎梏;二是审批提速,推行总局与省局重点剧目同步审查,周期从半年压缩至1-3个月,系列剧、单元剧试点则“边审边播”,大幅降低项目资金周转风险;三是赛道扩容,明确支持微短剧上星、鼓励中剧集与网络故事片发展,从而形成了“长中短微”多元供给体系;四是生态优化,放开引进剧配额制、允许卫视试点中插广告,为行业拓宽了营收渠道。这些举措从创作、审批、市场三端发力,极大地解放了行业生产力。政策落地后,从2025年9月至11月的国产剧备案、发行数据呈现显著结构性特征——中剧集、短剧集、季播剧持续增长,与长剧集回归形成了双向增长态势。
+总的来看,2025年国产剧在创作与市场方面完成了多重突围,但值得注意的是,国产剧集仍存在着不少问题。比如,部分都市题材剧陷入了同质化的庸常套路,在面对短剧竞争时依然没有调整叙事语态,节奏拖沓、缺乏戏剧性,导致口碑、热度欠佳;部分剧集创作对“电影感”的过度追求导致叙事节奏放缓、信息密度降低,“唯技术论”在一定程度上侵蚀了剧集本身的故事魅力;由于悬疑赛道的竞争日趋白热化,部分悬疑剧集在设定上走向猎奇,在反转上陷入堆砌,却忽略了人物塑造和情感逻辑;部分古装剧陷入古装剧外壳与现代价值观内核不兼容的困局,等等。
+展望未来,国产剧只有更加主动地适应媒介形态与格局的变化,在创作上具有精品意识,贴近时代,贴近人民生活与情感,才能从追求一时的“爆款”走向让“经典”持续性地涌现,真正实现剧集创作的高质量发展。(胡祥)</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C264" s="5" t="inlineStr">
+        <is>
+          <t>微短剧从“爽感狂飙”到迈向精品化</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:22+01:00</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>微短剧从“爽感狂飙”到迈向精品化</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>《一品布衣》《家里家外》《盛夏芬德拉》《当爱抵达时》海报
+网络微短剧在经历几年狂飙突进式的发展之后,如同任何一种网络视听形态一样,势必也将沿袭从萌芽、爆发到理性平稳发展的脉络
+传统影院电影被称为“黑箱”电影,而在诸如美术馆等开放型公共空间的影像叫“白立方”影像,多屏融合下,大量影像叙事出现在“黑箱”与“白立方”之外的“灰色地带”。其中,微短剧可以说是网络电影、网剧、短视频之后最具代表性的形式。
+在发展初期,网络微短剧被称为“电子榨菜”“数字咸菜”和“工业糖精”,以提供猎奇、爽感为拓展手段,快速吸引观众注意力并维持观看兴趣。作品往往在剧情设计上充满高密度反转和悬念,并且通过强调道德审判、强化矛盾冲突、追求“现时报”等,激发观众的情感反馈,再叠加甜宠、逆袭、重生等爆点元素,强注“爽、土、甜”拉满的“科技与狠活”,让观众即时体验进而迷恋上这种“爽感狂飙”的观影感受,并产生观看依赖。
+一方面,部分微短剧为了吸引眼球、博取流量,一味追求短期流量而忽视内容品质,在强压产出时效和追逐热点的过程中,声画不同步、镜头设计粗糙、场景营造简陋、演员表演痕迹明显等问题时常出现。另一方面,随着大量资本和各方团队的涌入,网络微短剧供给数量持续暴涨,为追求产出、放大收益而陷入低质化、同质化的境地。在原创动力不足或内容生产能力不足的情形下,对成熟模板和成功样板的复盘和复制,成为追求产出效益和保障产出效果的便捷路径。由此造成的是,出现一个爆款作品或市场风向转向某类题材时,大量模仿甚至抄袭的作品便蜂拥而至。而且微短剧题材又相对集中,古装宫斗、穿越复仇、赘婿逆袭、豪门恩怨、甜宠虐恋等都是屡试不爽的题材。以知名短视频平台上线微短剧所起的标题为例,“总裁”“穿越”“归来”“青春”“爱情”等都属高频词。当满屏相似题材和剧名的微短剧出现时,很容易引发观众的“密集恐惧症”和“选择困难症”,久而久之,会产生逆反心理和脱敏效应。
+近年来,中国电影市场出现了诸如“类型化”“重工业化”“温暖现实主义”“国风”“新主流”等趋势的同时,也面临很大的下行压力。其中一个很重要的原因是,“灰色地带”影像特别是短视频微短剧对“黑箱”电影在视听语法、影像审美乃至观众的消费习惯上的冲击。其实,不论电影、电视剧,还是互联网媒介上的影像,在其发生、发展和快速上升的过程中,都有一个简单、短小、粗糙甚至奇观化、消费性的阶段,需要一个不断积淀和范式跃进的过程。微短剧与电影是否一定存在一个争夺观众的逻辑,还是能始终处在所谓“井水不犯河水”的状态,存在着很大的不确定性。比如,已有电影IP转化成新的微短剧项目成为一个新的创作途径。再比如,2025年春节档《哪吒2》的票房成绩中,就有自媒体短视频在氛围营造和宣发传播上的贡献。
+更值得关注的是,这一两年来微短剧行业的发展出现了一些非常明显的新趋势。
+首先,是规模发展更迅速,影响受众更广。中国网络视听协会发布的《中国微短剧行业发展白皮书(2025)》数据显示:国内现存微短剧相关企业达10.02万家,2025年全年竖屏剧预计上线4万部,用户规模达6.96亿人。在这样的规模下,从某种意义上来说,微短剧不仅仅是“内容产业”,更是“流量生意”。内容本身是吸引流量的“钩子”和完成转化的“催化剂”,其最终目的是在流量漏斗中实现高效的商业变现。一部剧的成功,投流策略的重要性甚至超过了内容质量本身。
+其次,是制播节奏更快,平台更具主导性,行业监管力度加大。微短剧深度挖掘并满足了人们对“即时满足”“逆袭幻想”“情绪宣泄”的需求。从创作到分发,整个流程都追求“快”:快速生产、快速测试、快速放大、快速变现。这与传统影视剧“慢工出细活”的逻辑截然不同。其中内容低俗、价值观扭曲、收费不规范等问题已引起监管部门的注意。大量跟风作品导致用户审美疲劳,获取流量的成本越来越高,在保持快节奏的同时,提升制作水平和故事创意,才能留住用户,实现长期发展。平台规则的变化,也将深刻影响行业的走向。
+网络微短剧在经历几年狂飙突进式的发展之后,如同任何一种网络视听形态一样,势必也将沿袭从萌芽、爆发到理性平稳发展的脉络。其中,除了需要全行业参与者的协同努力,也需要相关部门的监管和规范。对此,国家广播电视总局多次开展网络微短剧行业专项整治工作,针对内容进行审核、监管,施行备案制度及分类分层审核制度等。同时,各地政府和相关机构也推出了一系列扶持措施和奖励计划,规范网络微短剧行业的发展秩序、提高内容质量,统筹规范管理和繁荣发展。
+再次,网络微短剧在快餐式消费性的基础上,主流化、精品化趋势明显。近年来,国家广电总局持续推进专项治理与常态化监管,推进《微短剧管理办法》制定,实施“微短剧+”行动计划。微短剧与文旅、非遗、法治、科普等领域的结合,拓宽了微短剧的题材范围与内容边界,也让创作主体的构成更加丰富。如2024年,国家广电总局启动“跟着微短剧去旅行”创作计划,创作播出“跟着微短剧去旅行”主题优秀微短剧,推动一批实体取景地随着微短剧的热播而“出圈”,形成一批可复制、可推广的“微短剧+文旅”融合促进消费的新模式,营造跟着微短剧去全国各地“打卡”的新风尚。国家广电总局网络视听司召开档期精品微短剧推介会,重点推介部分微短剧,树立标杆效应。这种从制度层面、内容层面对网络微短剧的规范和统筹,对网络微短剧的发展起到了重要的推动作用,也为微短剧的未来发展指明了更为清晰的进路。网络微短剧叙事策略也从迎合观众、提供速食性的“快餐”,转而开始肩负“主流价值”“精品产出”“多元发展”等文化使命和传播价值。
+与此同时,多元主体陆续下场,共同助推网络微短剧精品化发展。一方面,新华社、央视网、北京广电、浙江广电、江苏广电、东方卫视等超20家媒体机构与视频平台达成微短剧合作意向,微短剧也逐渐打通网络与电视传媒通道,在更为主流和重要的星级卫视接连播出。另一方面,随着专业机构、团队、人员的入局,作为用户基数庞大的长、短视频平台,也在不断加码微短剧领域,并将微短剧视为其丰富内容、提升质量的重要路径。如腾讯视频以“烟火气、少年气、新鲜气”为方向,以年轻化方式大力布局“温暖现实主义”短剧。抖音作为微短剧制播平台和宣发平台,正不断加码“精品化”路线,力图改变过去网文风、低端感的印象,尤其聚焦表现现实生活及弘扬传统文化的微短剧。
+当然,我们也应注意到主流化不是“宣传口号化”,精品化也不代表就是“横屏化”,影像的叙事质量和可读性还是非常重要的考量。例如,微短剧《逃出大英博物馆》实现了口碑和观看量的双丰收,甚至还在海外同步出圈,成为微短剧“出海”的重要成功样本。该剧以共情手法,成为承载家国情怀和传播中华传统文化的范例,以短剧之“微”,肩负起了格局之“大”,也证明了网络微短剧进行主流叙事的巨大潜力。
+2025年的微短剧,从年初的《老千》《家里家外》,到暑期档的《一品布衣》《当爱抵达时》《念念有词》,再到下半年的《盛夏芬德拉》《家里家外2》,播放量超10亿次甚至30亿次的作品形成接档之势。其中《家里家外》制作历时约3个月,《家里家外2》制作历时超6个月,仅剧本就由5名编剧花费3个月时间打磨而成。两季《家里家外》均取得了“上线3天破10亿次观看”的成绩。《盛夏芬德拉》导演穆裕认为:“优质内容离不开制作上的用心,竖屏微短剧同样需要讲究影像美学,从前期的剧本编创、台词设计,到拍摄阶段的场景布置、人物调度,再到后期的剪辑逻辑、音乐使用,每个环节都需要精心打磨。”该剧于2025年9月上线后,持续占据各大微短剧热度榜前列,全网播放量突破40亿次,被观众评为“营造出极致气氛美学”的微短剧。
+与此同时,微短剧成为影视视听新技术的新应用场景和文化出海的新载体。
+2025年微短剧行业最大的发展亮点,在于AI技术突破所带来的新契机。AI技术的普及运用,一定程度上降低了影视产业的入门门槛,进一步降本增效,微短剧行业的产能进一步扩大。2025年1至8月,AI漫剧上线数量持续走高,各平台累计上线2902部。
+海外微短剧市场持续扩张,2025年1月至8月,海外微短剧市场总收入达15.25亿美元(约108.38亿元人民币),同比增长194.9%;海外微短剧应用总下载量约7.3亿次,同比增长370.4%。微短剧依托深厚的网文IP资源库和成熟的工业化生产体系,承载着中国文化、中国价值的“新中式叙事”开始在海外“圈粉”。而随着海外市场竞争的升级,“抱团出海”已成中国微短剧走出去的必然选择。
+在注意力经济社会背景下,微短剧承继了传统影视视听的诸多叙事方式,又在此基础上进行了迭代和创新,曾经被认为是先锋实验甚至是反常规的叙事手段,如今随着技术迭代和社会大众心理变化逐渐成为合理的叙事逻辑。随着更多视听新技术的应用,以及以“微短剧+”“AI+”为代表的跨界融合,行业未来应该具有多向度的发展前景。(程波 作者系上海大学上海电影学院副院长、上海温哥华电影学院执行院长)</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C265" s="5" t="inlineStr">
+        <is>
+          <t>“神马”全城撒欢，掀文旅商热潮</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:22+01:00</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>“神马”全城撒欢，掀文旅商热潮</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>蓝骑士艺术空间“天马”马年特展作品。(主办方供图)
+中信泰富广场马年主题装置展作品。文汇报记者 袁婧摄
+蓝骑士艺术空间“天马”马年特展作品。(主办方供图)
+“这是请了哪家Tony?可以推给我吗?”近日,几只画风有些魔幻的“烫头马”凑在豫园天裕楼前,炸毛的发丝自带不羁的弧度,引得网友在社交媒体上打趣发问。这是2026豫园灯会新鲜搭建完成的主打彩灯装置,一面让人“笑不活”,一面拉满期待。
+尽管距丙午马年还有个把月,“神马”们已按捺不住,全城撒欢,纷纷化身令人眼前一亮的视觉艺术,从艺术空间到商场街区,尽显文旅商融合。
+“在中国,马作为祥瑞的文化符号,可追溯至古老的图腾崇拜、神话传说。”上海工艺美术职业学院非遗理论与应用创新基地负责人、华东师范大学非遗传承与应用中心特聘研究员方云告诉记者,从青铜时代的车马威仪、群雄征战的马跃山河,到伯乐相材的英才汇聚、雄图大展,再到百姓世俗愿景的马上封侯、马上有钱,马的形象已经升华为承载民间万千愿望的文化符号,“它奔跑的方向,就是百姓心中对更美好生活的期盼”。
+天马行空的艺术想象
+在艺术家的创意中,传统的马元素正天马行空地释放着种种可能。近期就有不少展览汇聚着关于马的艺术想象。
+镜面不锈钢打造的机械骏马缓缓转动关节,3000余个精密零件在榫卯结构的牵引下默契联动。“没想到不锈钢加榫卯能做出这么帅的机械马!”有观众感叹。这是嘉禾艺术中心正在举办的“赛博骐骥”2026夏航马年首展,以赛博风格的潮酷受到不少年轻人青睐。当代雕塑艺术家夏航将耗时两年打造的12组机械马作品带到展览,将古典造物观与未来想象熔于一炉。他坦言:“马不仅是生肖符号,更是文明续航力的诗意尺度。”
+融合传统与当代、实体与数字、名家与新秀,王小慧艺术馆将于1月20日启幕“神马·东西”2026跨年大展。艺术家王小慧最新创作的大型装置《鸿运神马》将被陈设于该馆入口处。这匹“神马”有着醒目的红鬃毛红尾巴,昂首长啸,马蹄扬起的高度恰好与视线平齐——伸手触摸,指尖便能触到“出发”的温度。扫描马身的二维码,还能生成专属“福签”,邀请观众为马年祈福。展览广发“英雄帖”征集围绕马的艺术创作,其中就包括几千幅AI艺术作品。是马非马,为其重要的评选标准。馆方透露,作品必须使用当代艺术观念与手法,以AI的想象力,创作区别于传统的真实的马形象,赋予其更多意义,予人更多联想与启迪。
+东西方文化虽殊途,却在马的意象上达成了一致的仰望。蓝骑士艺术空间上新的“天马”马年特展,汇聚东西方32位国际艺术家以马为创作主题的73件限量版艺术作品,涵盖绘画、装置、雕塑,开启一场关于速度、灵性与自由的马年叙事。德国艺术家鲁普雷希特·冯·考夫曼以其冷暖色狂乱笔触创作《拳击手》,呈现马的视觉冲击力量。法国艺术家弗朗索瓦·邦内尔的《野马》透过几何高彩色块,抽象性地展现马的童趣,热情唤醒内在情感的愉悦。中国艺术家李梁晨则在作品《时空山谷》中,以青绿山水设色表现白马立于宛若仙境的神秘意境,与自然合而为一。
+万马奔腾的消费新可能
+更多的“神马”奔腾出街,跃向广阔的生活场景,等待与百姓大众偶遇,送去马上启程的好运,也带动起消费新可能。
+创意马年艺术装置正在各大商业综合体“卷”起来。传世《八骏图》变身巨型皮影装置,近日亮相商业综合体龙华会户外,吸引不少市民游客驻足观赏。这是混合媒体艺术家葛晓晨为马年新春量身打造《骏程新启》上海首展。八匹骏马像从画中跃出,既有蓬勃飞扬之姿,也有流光掠影之美。找准机位,能将骏马和龙华古塔收入镜头,实现奇妙的古今同框。徐悲鸿笔下的骏马,则在中信泰富广场遇见当代设计语言的重新解构。这是“此马非凡马”马年主题装置展览。只见画中骏马的疾行、停驻、回望等灵动姿态,通过层叠、几何与对称的现代设计语言,在镜面空间中立体构建出马的动势韵律。以六边形迷宫构建的展陈,邀请观众穿行其间,以身体轨迹呼应马的动势,最终抵达“此马非凡马”的当代诠释。
+逛上生新所的茑屋书店,人们能邂逅“立马大富贵”丙午马年朵云轩木版水印展。展览主题可谓艺术与年俗的巧妙融合,“立马”来自徐悲鸿笔下的神骏。徐悲鸿的马融汇西画写实与传统写意,骨力劲健、气韵生动。相当数量朵云轩以木版水印技艺复刻的徐悲鸿名作就出现在展览中,通过勾、刻、印三道纯手工工序以及十几道复杂工艺,将悲鸿画马的笔墨气韵精准复现。在这里,这些展品甚至是可以被观众买回家的。
+以马作为线索,品牌商也在积极创造消费新场景。惊现西岸梦中心户外的一座形如红色旋转木马的红房子,其实是某本土香氛品牌的马年限定空间。天花板装饰着剪纸风的马元素,屋顶上的金马会旋转,步入店内,莫名有种奔赴欢聚的氛围,被网友称为“有新意也有诚意”。(文汇报记者 范昕)</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C266" s="5" t="inlineStr">
+        <is>
+          <t>新华读报｜文旅共生数字赋能催热演出市场</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:22+01:00</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>新华读报｜文旅共生数字赋能催热演出市场</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>《经济参考报》1月14日刊发文章《2025年票房收入同比增长6.39%,文旅共生数字赋能催热演出市场》。
+1月13日,记者从中国演出行业协会(以下简称“中演协”)获悉,2025年全国演出市场呈现蓬勃向上的发展态势。据中国演出行业协会票务信息采集平台监测和调研测算,2025年全国营业性演出(不含娱乐场所演出)场次64.04万场,按可比口径比2024年增长6.58%;票房收入616.55亿元,与2024年同比增长6.39%;观众人数1.94亿人次,同比增长4.22%。
+大型演出带动消费凸显乘数效应。数据显示,2025年全国5000人以上大型营业性演出0.30万场,与2024年同比增长12.70%;票房收入324.48亿元,同比增长9.49%,观众人数4338.58万人次,同比增长18.81%。
+不仅大型演出火热,2025年各类演出新业态同样蓬勃发展。2025年全国专业剧场、小剧场新空间等剧场类演出43.87万场,按可比口径与2024年相比增长7.30%。其中,市场化程度较高的艺术门类演出保持上升态势。
+同时,旅游演艺项目也在不断优化升级,2025年全国大中型旅游演艺项目演出19.87万场,同比增长4.95%;票房收入174.42亿元,同比增长6.43%,观众人数8798.97万人次,同比增长3.01%。
+中演协相关负责人表示“演出市场实现了从内容供给到场景体验、从单一票房到生态经济的全方位进阶,构建起‘内容为王、文旅共生、体验至上、数字赋能’的发展新格局。”
+记者:袁小康
+编导:郭琳
+新华社音视频部制作</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C267" s="5" t="inlineStr">
+        <is>
+          <t>权威数读｜64万场+616亿元！全国演出市场跑出两个“加速度”</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:22+01:00</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>权威数读｜64万场+616亿元！全国演出市场跑出两个“加速度”</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>权威数读｜64万场+616亿元！全国演出市场跑出两个“加速度”</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C268" s="5" t="inlineStr">
+        <is>
+          <t>616.55亿元 去年全国演出票房交出亮眼成绩单</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:22+01:00</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>616.55亿元 去年全国演出票房交出亮眼成绩单</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>日前,中国演出行业协会发布2025年全国演出市场简报。据中国演出行业协会票务信息采集平台监测和调研测算,2025年全国营业性演出(不含娱乐场所演出)场次64.04万场,按可比口径比2024年增长6.58%;票房收入616.55亿元,同比增长6.39%;观众人数1.94亿人次,同比增长4.22%。
+大型演出带动消费
+2025年全国5000人以上大型营业性演出0.3万场,与2024年同比增长12.70% ;票房收入324.48亿元,同比增长9.49%,观众人数4338.58万人次,同比增长18.81%。
+大型演出持续火热一方面得益于各地政策的大力推动,市场活力充分释放,另一方面在于文旅深度融合,“票根经济”提升了消费意愿和观演热情。2025年,演唱会、音乐节等大型演出已成为地方文旅消费的强力引擎。据协会数据采集与调研测算,大型演出对其他消费的平均带动系数为1:6.85,2025年全国5000人以上大型营业性演出直接带动票房收入之外的交通、住宿、餐饮、旅游、购物消费超过2200亿元。
+大小剧场渐成文旅地标
+2025年全国原创舞台剧目呈现蓬勃发展态势,创作、制作能力显著提升,舞台艺术原创领域市场反响亮眼。2025年全国专业剧场、小剧场新空间等剧场类演出43.87万场,按可比口径与2024年相比增长7.30%。
+纵观全国舞台艺术演出市场,市场化程度较高的艺术门类演出保持上升态势。以音乐剧为例,2025年全国音乐剧演出场次1.97万场,同比增长15.04%;票房收入18.07亿元,同比增长7.55%;观众人数818.59万人次,同比增长10.41%。
+古韵国风成为演出市场的“顶流审美”,包括《锦衣卫之刀与花》《大状王》《宝玉》等在内的爆款国风音乐剧植根传统文化沃土,不断掀起观演热潮。主旋律题材担负起新时代文化使命,《寻找李二狗》《夜幕下的哈尔滨》《风声》《此生必驾》等让家国情怀凝聚力量,不断滋养精神家园。
+话剧市场呈现经典改编与原创现实题材双轨并行的格局,经典IP强势回归,如《林则徐》《大宅门》《鳄鱼》《北上》《西游》等,喜剧类话剧尤其保持高热度,如《出马》《戏台》《太白金星有点烦》等。舞剧原创热度持续上升,作为地方文化载体,舞剧优势更为鲜明。
+与此同时,随着文旅深度融合,专业剧场转型倾向于文旅型剧院方向拓展,小剧场新空间发挥文旅融合功能凸显,演艺新业态发力效果显著。
+旅游演艺不断优化升级
+旅游演艺领域,2025年全国大中型旅游演艺项目演出19.87万场,同比增长4.95%;票房收入174.42亿元,同比增长6.43%,观众人数8798.97万人次,同比增长3.01%。
+在出游消费的带动下,旅游演艺项目不断优化升级,艺术审美提升,沉浸体验感进一步强化,创造更丰富的沉浸体验场景、互动参与环节,让游客、观众实现从“看演出”到“成为故事主角”的转变。 记者 韩轩</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C269" s="5" t="inlineStr">
+        <is>
+          <t>广电总局将组织实施“长征：我们的故事”主题微短剧创作展播活动</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:22+01:00</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>广电总局将组织实施“长征：我们的故事”主题微短剧创作展播活动</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>新华社北京1月13日电(记者白瀛)国家广播电视总局办公厅13日印发通知,决定在全国范围内组织实施“长征:我们的故事”主题微短剧创作展播活动。
+通知说,活动包括“我们的长征路”微短剧创作采风、“长征:我们的故事”主题微短剧创作,以及优秀微短剧展播。
+通知说,相关创作要注重挖掘长征精神内涵,注重时代表达,注重历史真实与艺术真实相结合,注重发挥微短剧创作特点和优势。
+广电总局相关负责人表示,本次活动力求在红军长征胜利90周年之际,创作播出一批主题鲜明、内容生动、风格多样、表达新颖、传播广泛的主题优秀微短剧,让伟大长征精神可感可知、入脑入心,引导广大观众特别是青年一代,在情感共鸣中铭记红色历史、汲取奋进力量,走好新时代长征路。</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C270" s="5" t="inlineStr">
+        <is>
+          <t>《奇迹》：深圳奋斗篇章里的人间烟火</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:22+01:00</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>《奇迹》：深圳奋斗篇章里的人间烟火</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>短剧集《奇迹》以深圳为典型样本和叙事载体,创新采用单元剧形式,通过普通人的奋斗故事,从多个切面生动展现中国式现代化的万千气象。它不仅是对时代发展的鲜活记录,也是向世界讲述当代中国故事的一扇重要窗口。
+《奇迹》在艺术架构上的突破,在于摒弃传统的单一线性叙事,转而选择更轻盈、更富当代性的单元剧集形式。全剧15个故事独立成篇又相互关联,分别从经济、社会、文化、生态、民生等不同维度,折射出“奇迹”得以在深圳生成的多重路径和内在逻辑。从《开市》中再现深圳证券交易所初创时期的惊心动魄,到《城的琴》里细腻勾勒“深圳速度”背后建设者的情感温度,《奇迹》整体上采用“散点透视”的叙述策略,构建出一个层次丰富、细节饱满、可感可触的时代现场。这种结构本身,即构成一种深刻的美学隐喻,生动呈现了中国式现代化进程中多领域、多层次、多方面协同并进、交织互动的实践图景。
+剧集始终将艺术的焦距对准历史浪潮中的平凡个体,实现了“小切口”与“大情怀”的有机统一。《闯南关》中,退休后的范姐穿梭于华强北密集的高楼之间,承接外卖骑手无法完成的“最后一百米”配送,成为一名“跑楼阿姨”。她的奋斗故事,是市场化进程中普通人自发求变、展现生命韧性的绝佳注脚。《垂直人生》跨越十余年时光,细腻勾勒出写字楼里保洁阿姨与创业青年之间超越身份、温暖彼此的情谊,这恰恰是深圳这座移民城市中,基于奋斗与尊严构建的新型人际关系的缩影。这些故事中的主人公,无一不被赋予超凡光环,他们的日常困惑、关键抉择、默默坚守与生命微光,共同使“奇迹”这一宏大抽象的概念,拥有了具体的生命重量与真切可感的温度。
+在主题思想立意上,《奇迹》并未止步于对物质成就的礼赞,而是深入探寻支撑奇迹持续生长的精神根基与价值演进。《牛牛》单元通过一位深圳保险精英在雪域高原推广牦牛保险的经历,让“深圳速度”代表的市场精神与高原牧区恪守的生命伦理相碰撞,最终在“生命共同体”的认知上达成升华。这个故事超越了单纯的经济援助叙事,深刻诠释了区域协调发展、民族团结与共同富裕的时代命题。《头等大事》则以一尊以深圳市民为原型的雕塑头部失而复得为引,讲述了一个充满哲学意味的都市寓言,幽默而犀利地叩问了个体如何确认自身价值、城市如何守护集体记忆的精神课题。这两个单元,一个向外拓展,一个向内深挖,共同展现了中国式现代化的精神意蕴。
+与此同时,《奇迹》以开放且充满探索精神的目光积极拥抱未来。《咏春》将传统武术与现代舞剧相融合,探索中华优秀传统文化创造性转化、创新性发展的实现路径;《微光》聚焦青年科技创业者的梦想与坚持,描绘了创新驱动发展的生动图景。这些单元共同表明,时代精神内核是动态发展的,它包含了从速度到质量、从学习到引领、从发展到共享的不断升华。
+《奇迹》作为短剧集,同样可以建构结构严谨的叙事、塑造性格丰满的人物、营造意境深远的场景。每个单元短小精悍,叙事缜密,情感饱满,制作精良,达到了“短而精、微而著”的美学高度。这种探索不仅拓展了短剧的艺术表现空间,也为如何以更契合当代传播生态的形式讲述严肃主题,提供了极具价值的创作范本。(作者:韩阳,系中国新闻出版广电报主任记者)</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C271" s="5" t="inlineStr">
+        <is>
+          <t>U23国足历史首次晋级亚洲杯淘汰赛</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:20+01:00</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>U23国足历史首次晋级亚洲杯淘汰赛</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>1月14日,中国队成员在比赛后合影。新华社记者 王海洲 摄
+新华社利雅得1月14日电(记者罗晨 王海洲)14日在沙特阿拉伯首都利雅得进行的U23男足亚洲杯D组最后一轮比赛中,中国队以0:0战平泰国队,并以小组赛3战1胜2平积5分的不败战绩位列小组第二,历史首次跻身该赛事淘汰赛阶段。
+在当天同时进行的另一场D组比赛中,澳大利亚队奇迹般地在全场补时阶段连进两球,以2:1逆转战胜伊拉克队,澳大利亚队以3战2胜1负积6分的成绩最终名列D组第一,和中国队携手晋级。上一轮中国队以1:0小胜澳大利亚队。
+1月14日,中国队球员王钰栋(右二)在比赛中。新华社记者 王海洲 摄
+此前两轮小组赛,中国队2战1胜1平积4分,对阵泰国队只需打平即可出线,而对手唯有全力争胜才有出线可能。
+上半场比赛双方对抗激烈,中国队保持稳固防守,泰国队则积极冲击中国队禁区。中国队门将李昊延续前两场的神勇表现,多次做出关键扑救,化解泰国队的进攻威胁。由于激烈的身体对抗,中国队上半场有三名球员吃到黄牌。最终,双方上半场互交白卷。
+1月14日,中国队球员胡荷韬(右)在比赛中拼抢。新华社记者 王海洲 摄
+易边再战,泰国队继续向中国队防线发起强力冲击。第57分钟,泰国队送出直塞,其球员伊克拉斯单刀小角度射门,李昊挡出皮球,再次化解危机。下半场两队均未能把握住各自创造的进攻机会,最终以0:0结束比赛。
+中国队主教练安东尼奥在赛后新闻发布会上表示,首次晋级淘汰赛对中国队来说“是具有历史意义的时刻”。
+1月14日,中国队球员胡荷韬(右)在比赛中拼抢。新华社记者 王海洲 摄
+“我非常高兴,为我的球员们感到骄傲。他们表现得非常出色。他们始终保持信念,这对一支球队来说非常重要。”他说。
+17日,中国队将在沙特西部城市吉达迎战八强赛对手乌兹别克斯坦队。
+1月14日,中国队球员徐彬(右)在比赛中拦截泰国队球员伊克叻(中)。新华社记者 王海洲 摄
+1月14日,中国队球员贺一然(右)在比赛中拼抢。新华社记者 王海洲 摄
+1月14日,中国队首发球员在比赛前合影。新华社发(谭蔡民摄)</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C272" s="5" t="inlineStr">
+        <is>
+          <t>“棋圣”远行，精神永驻：三个瞬间读懂聂卫平的一生坚守2026-01-15 19:47:21</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:20+01:00</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>“棋圣”远行，精神永驻：三个瞬间读懂聂卫平的一生坚守2026-01-15 19:47:21</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>棋盘之上,他落子定输赢,以一身定力开启围棋荣光;
+时代之中,他获封“棋圣”,用一生技法点燃亿万心火;
+岁月之后,他俯身化桥梁,将一腔热忱付与后来之人。
+中国围棋协会名誉主席、“棋圣”聂卫平14日晚病逝,享年74岁。一代宗师突然离去,留给棋坛无尽追思。
+聂卫平的人生“棋局”,在黑白对弈间尽显顽强斗志和爱国情怀,激励着一代代棋手为国争光。他的热爱与坚守,早已融入纵横十九道的经纬里,化为不朽的“棋魂”。
+让我们透过三帧经典瞬间,重读那份从未远去的坚守、信念与深情。
+自1973年入选中国围棋集训队起,聂卫平便开启了一段深刻影响中国围棋发展的传奇生涯。1976年,24岁的他首访日本,7战6胜、击败4名九段高手。1985年,在首届中日围棋擂台赛中,日本棋手小林光一九段一路连胜六场,使中国队仅剩聂卫平孤身守擂。在外界普遍不看好的情况下,聂卫平肩负主将重任,全力备战,身着一件印有“中国”字样的运动服赴日对局并击败了小林光一。此后聂卫平连胜另外两名日本超一流棋手加藤正夫、藤泽秀行,为中国队取得了第一届中日围棋擂台赛的胜利。
+这场胜利打破了日本围棋“不可战胜”的神话,极大振奋了中国围棋界的信心。擂台赛中国队三连冠与聂卫平的九连胜,让围棋这项源自中华的古老技艺,重新焕发生机活力,成为振奋民族精神、凝聚人心的时代符号。
+改革开放初期,中国围棋所取得的成绩和影响力已然超越了体育范畴,“聂卫平”这个名字也成为全民偶像和时代英雄,影响力不亚于当年5连冠的中国女排。他以一子一局书写时代荣光,以胜负之间点燃亿万国人的热忱,“聂旋风”由此席卷棋坛、落子人心,成为一个时代不可磨灭的精神符号。
+1988年,聂卫平被中国围棋协会授予“棋圣”称号,1990年当选“中国十大杰出青年”,1999年获评“新中国棋坛十大杰出人物”。这是迄今为止,新中国历史上的第一位也是唯一一位“棋圣”。
+20世纪九十年代以后,聂卫平曾出任围棋国家队总教练,带教出常昊等世界冠军,并积极参与围棋活动,对中国围棋的普及、发展、走向世界作出了不可磨灭的奠基性贡献。
+2013年,聂卫平被查出罹患癌症。治疗期间,聂卫平以乐观的态度和顽强奋斗的精神与病魔作斗争,并痊愈。在公开场合复出露面以来,聂卫平更加注重发挥自己的榜样力量,不遗余力地推广、普及围棋。
+聂卫平不辞辛劳地在各个围棋活动中担任嘉宾,每到一地都会在电视台或者现场进行讲解,参与指导对局,服务广大围棋爱好者,为围棋的影响力进一步扩大而奔波、操劳。
+策划:李旭
+文案:刁文静
+校对:贾紫来
+制图:徐梦帆</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C273" s="5" t="inlineStr">
+        <is>
+          <t>追光丨认识一下！你的赛博“网球搭子”和AI“运动私教”2026-01-15 17:05:40</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Tecnología de consumo</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:20+01:00</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>追光丨认识一下！你的赛博“网球搭子”和AI“运动私教”2026-01-15 17:05:40</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>练习网球一年的广西南宁市小学生颜沐然
+最近结识了一位特别的“新搭子”
+在教练韦荣灿的指导下
+颜沐然和他的“新搭子”进行了一场友谊赛
+这位特殊的“网球搭子”
+是一台“网球机器人”
+“它虽然长得像发球机
+但技能比发球机更全面”
+韦荣灿说
+传统的发球机可以连续发球
+用于辅助训练
+但是不会移动的
+现在这款网球机器人不仅能移动
+还能通过AI技术实现多点移动
+“我们可以设置不同的点位
+不同的速度、力量
+适应不同的训练需求”
+韦荣灿展示了网球机器人的“遥控器”
+对他而言
+这台网球机器人也是一位好“助教”
+这位赛博“网球搭子”
+在南宁的一家俱乐部投入试用后
+许多球友慕名前来体验
+他们纷纷对这位“新搭子”给出点评:
+“比想象中难,稳定性差点都接不住球!”
+“没有真人陪练的时候,比打墙有意思多了!”
+“不够激烈,希望可以升级到可以真正对打”
+......
+“AI+网球可不仅仅是噱头
+像这样可以实现移动+发球的机器人
+针对不同阶段的训练者
+可以发挥不同的作用”
+俱乐部管理者申凯说
+尤其是对于网球这样教练资源相对紧缺的项目
+非常需要用AI替代或辅助一些教学内容
+以降低参与门槛
+面向更多受众
+AI设备不单单是练球的好帮手
+就连家门口的健身路径AI都可以赋能
+公园里、广场上健身区域的
+智能互动大屏、AI运动采集柱等设施
+如今在城乡都已不是新鲜事物
+↑陕西省岚皋县滨河健身路径里的智能健身互动项目
+健身者可以自主“扫脸”登录系统
+捕捉心率、呼吸等体能数据
+在互动大屏上显示当前运动状况
+还能据此开出“健康处方”
+实现科学健身
+与此配套的
+无线充电智能座椅
+以及可以体感互动小游戏等等
+把小小的健身路径
+变为老少皆宜的运动场
+让日常健身也可以十分有趣
+智力运动中AI赋能的案例更是比比皆是
+魔方这个考验逻辑思维和手眼协调的“掌上玩具”
+在AI技术的赋能下更加寓教于乐
+和传统魔方相比
+搭载了陀螺仪、传感器和微处理器的AI智能魔方
+可以连接手机实现每一步扭动魔方动作的还原
+从而对解开魔方的全环节进行复盘
+在日常培训中可对
+玩家的特定步骤做针对性训练和提升
+在竞技比赛中保证了赛事的公平
+↑一名魔方玩家在魔方俱乐部里演示智能魔方
+国产AI智能魔方诞生至今已有七八年
+通过不断迭代优化
+产品无论在使用手感上还是响应速度上
+都处在国际前列
+如今已经形成和传统魔方平行的赛事体系
+更推广到国内不少培训机构和中小学校
+成为孩子们开发智力和提高动手能力的智力运动
+这股“AI+大众体育”的浪潮
+正在积极迎合全民健身的深层需求
+既破解专业运动资源不均的痛点
+也让智能健身融入日常
+相信在不久之后
+不管是健身“小白”还是运动达人
+都可以在这波AI浪潮里
+找到属于自己的运动节奏
+记者:黄凯莹、郑昕</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C274" s="5" t="inlineStr">
+        <is>
+          <t>吴易昺、白卓璇、袁悦闯入澳网正赛2026-01-15 17:05:22</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:20+01:00</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>吴易昺、白卓璇、袁悦闯入澳网正赛2026-01-15 17:05:22</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>新华社墨尔本1月15日电(记者徐海静、熊文苑)2026年澳大利亚网球公开赛资格赛15日进入最后一轮,中国选手吴易昺、白卓璇、袁悦战胜对手,拿到澳网正赛入场券。朱琳则遗憾告负,止步正赛门外。
+受当地忽冷忽热的天气影响,吴易昺来到墨尔本后患上感冒,不过在15日的赛场上,他却没有让对手找到漏洞。“我其实在拿毛巾擦鼻涕,希望他(对手)没有看出来。”
+1月15日,吴易昺在比赛中回球。新华社发(王申摄)
+吴易昺对自身技术显示出强大信心,始终占据场上主动,最终以6:3、6:2赢得比赛。此次澳网三场资格赛,吴易昺均以大分2:0获胜,以未失一盘的战绩进入正赛。
+受伤病困扰,白卓璇缺席了2025年大部分比赛,期间还接受了手术治疗,世界排名跌至697位。但此次澳网,她说自己带着自信而来。资格赛三场比赛,白卓璇表现可圈可点。15日的比赛中,她在开局不利、4:6先失一盘的情况下上演逆转好戏,以6:4、6:1赢下后两盘。
+资格赛25号种子袁悦头两天的比赛都进行得相对艰难,均打满三盘,特别是14日对阵阿根廷选手卡莱的比赛进行了三个多小时,赛中她一度“大脑空白”,应对失据。15日面对记者,袁悦回忆起那个时刻,她告诉自己不能急躁,要稳住心态。
+1月15日,袁悦在比赛中庆祝得分。新华社发(王申摄)
+咬牙赢下这场比赛,让她对对手的打法有了更充分的适应。15日面对打法类似的斯洛文尼亚选手齐丹塞克时,袁悦变得更有把握,最终以6:3、6:1赢得比赛。
+袁悦认为,今年来到澳网,自己的心理更加成熟。“不能由着自己‘作’,在场上没人惯着你。”
+至此,袁悦、白卓璇、张帅、王欣瑜、吴易昺、张之臻、商竣程和布云朝克特8位中国网协选手将齐聚18日开始的澳网正赛。</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C275" s="5" t="inlineStr">
+        <is>
+          <t>记者手记：这次终于兑现了，中国U23男足进步在哪？2026-01-15 16:43:48</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:20+01:00</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>记者手记：这次终于兑现了，中国U23男足进步在哪？2026-01-15 16:43:48</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>新华社北京1月15日电记者手记:这次终于兑现了,中国U23男足进步在哪?
+新华社记者岳东兴、公兵
+中国球迷熟悉的“打平就出线”,这一次终于实现了。
+14日在U23男足亚洲杯D组最后一轮,中国队0:0战平泰国队,从而以一胜两平位列小组第二,队史首次晋级这项赛事的淘汰赛,并明显提升了过往的惨淡成绩——此前五次参赛,一共就赢两场,从未小组出线。
+1月14日,中国队成员在比赛后合影。新华社记者 王海洲 摄
+U23是最接近成年国家队的U系列队伍。虽然本次赛事与下一届奥运会参赛资格无关,但对未来国家队建设,依然具有实战价值。
+因此,在该项赛事上取得突破后,中国队的小伙子们也为低谷中的中国足球、整个行业的从业者、屏幕前的青少年球员和球迷们,提振了士气,鼓舞了信心。
+那么,多次面临“打平就出线”却“很少能兑现”的中国男足,在新一届U23国家队里,出现了哪些进步?
+1月14日,中国队球员徐彬(右)在比赛中拦截泰国队球员伊克叻(中)。新华社记者 王海洲 摄
+回顾小组赛阶段,中国队的进步主要体现在两点。
+首先是非常硬气的防守,弥补了整体上的差距。三场比赛,中国队都以弱队自居,立足防守,先确保“不丢球就能不输球”。主教练安东尼奥采用“三中卫+两翼卫”的五后卫阵型,更多时间让出球权,主打由守转攻的转换效率,试图利用长传后的二点球争夺、断球后的反击、前场边线球及任意球等机会,发动简练攻势,以图给对手致命一击。这种扬长避短的战术,虽然务实,但比赛过程也反映了中国队与这三个对手在传接球配合、比赛节奏把控、组织进攻层面存在的客观差距。正如业内人士所说,“赢球,不是一切;但赢球,总归是好的”。
+1月8日,中国队球员王钰栋(右)在比赛中拼抢。当日,在沙特阿拉伯利雅得举行的2026年亚足联U23男足亚洲杯D组小组赛中,中国队对阵伊拉克队。新华社记者 王海洲 摄
+在平伊拉克、胜澳大利亚、再平泰国的比赛中,中国队的控球率都很低,意味着更多时间处于防守状态,全队的防守体系承压很大。但是,非常拼的小伙子们,用紧凑的阵型、彼此的协防、坚定的执行力,实现了“零失球”。还记得第二场比赛中,当落后的澳大利亚队踢出一个个传中球,砸向中国队禁区时,彭啸、贺一然、吾米提江·玉苏普等防守球员,用干脆强硬的头球解围,一次次化解对手攻势。他们身后的门将李昊,则以高接低挡和飞身扑救,守住了众志成城的防线。
+1月14日,中国队球员贺一然(右)在比赛中拼抢。新华社记者 王海洲 摄
+另一个进步体现在青训效果和人员储备。2003年出生的拜合拉木·阿卜杜外力,是本届赛事的适龄球员。而他的队友中,多名球员是比他小的“05后”,包括突破能力突出的右后卫杨希、中后卫彭啸等球员,以及更小的、2006年出生的左路“尖刀”王钰栋等球员。这意味着多年来青少年精英球员匮乏的中国队,出现了走出人才低谷的迹象,得以在此次赛事中有了局部位置上“以小打大”的历练,能够为下一届关系到洛杉矶奥运会资格的2028年U23亚洲杯,提前布局。
+值得一提的是,2003、2005年龄段的两届U20男足,此前已连续打进了两届亚洲杯的八强,以他们为班底组建的这支U23男足,再次打进亚洲赛事八强,体现出一种延续性的进步,也在一定程度上反映了中国足球青训的阶段性成果。相信这也会激励中国足球的管理者们继续保持抓青训、打基础的定力。
+1月14日,中国队球员拜合拉木·阿卜杜外力(中)在比赛中。新华社记者 王海洲 摄
+接下来,晋级淘汰赛的中国队,将在八强战对阵乌兹别克斯坦队。在为中国足球的2026年开了一个好头后,这支年轻的球队,受到越来越多球迷的关注,也祝愿他们能够发挥出全部实力,放下包袱,多打一场是一场,向着职业生涯的目标,继续迈进。加油,中国队!</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C276" s="5" t="inlineStr">
+        <is>
+          <t>“棋圣”离去 传奇永存2026-01-15 16:20:05</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:20+01:00</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>“棋圣”离去 传奇永存2026-01-15 16:20:05</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>新华社北京1月15日电题:“棋圣”离去 传奇永存
+新华社记者王浩宇、王镜宇、郑直
+中国围棋协会名誉主席、“棋圣”聂卫平14日晚病逝,享年74岁。一代宗师突然离去,留给棋坛无尽追思。
+这是2017年11月4日,聂卫平在2017“象屿杯”海峡两岸围棋与人工智能邀请赛人机配对赛中思考。新华社记者 魏培全 摄
+聂卫平出生于1952年,年幼时从父学棋,展现出不俗的天赋,后师从雷溥华和过惕生两位顶尖高手,棋艺大进。1973年,聂卫平入选国家围棋集训队,之后在国内大赛中崭露头角,斩获全国锦标赛、“新体育杯”赛、国手赛等重要赛事冠军,成为中国围棋的领军人物之一。
+围棋起源于中国,是中华优秀传统文化瑰宝。然而,20世纪七八十年代,中国围棋界长期被日本棋手压制,面对日本的顶尖高手,中国棋手鲜有胜绩。漫长蛰伏中,聂卫平犹如一道“光”。1976年,24岁的他首访日本,7战6胜、击败4名九段高手,“聂旋风”之名震动日本棋坛和舆论界。
+这股“旋风”,在1985年结束的首届中日围棋擂台赛上,助中国围棋扬帆起航,驶向崛起之路。
+这届赛事中,中国棋手江铸久七段连胜5场,为中国队取得5:1的领先。但日本超一流高手小林光一九段此后连胜6场,日本队只需再胜一场,即可夺得擂台赛冠军。当时中国队只剩主将聂卫平一人,而对方还有小林光一、加藤正夫、藤泽秀行三位顶尖高手,形势极度不利。穿着一件从中国乒乓球队借来的、胸口写着“中国”的运动服,聂卫平一番激战后最终以二目半的优势击败小林光一。
+1985年11月21日晚,中日围棋擂台赛发奖仪式在北京人民大会堂举行。中国棋手聂卫平、江铸久和日本棋手藤泽秀行、小林光一获得特别奖。图为聂卫平(左)和江铸久在领奖。 新华社记者 程至善 摄
+2015年,中日围棋擂台赛30周年的活动现场,聂卫平回忆起这场“巅峰之战”时说:“我为什么穿运动服,因为之前小林光一到中国比赛的时候说,‘我是代表日本来比赛的,所以我不能输,所以我一定要战斗到最后’。那我去日本跟小林光一对战,我穿这件衣服就是想告诉他,我也是代表中国来比赛的,我也不能输。”
+力克小林光一后,聂卫平又击败加藤正夫,将比分扳为7:7,最终他在北京击败曾六次夺得日本“棋圣”战冠军、拥有“终身棋圣”称号的藤泽秀行,中国队就此夺冠,举国欢腾,掀起了全国的围棋热潮。
+聂卫平“挽狂澜于既倒”的传奇故事还有续集。第二届中日围棋擂台赛上,他遭遇了比第一届更严峻的局面——中国队在只剩主将的情况下,以4:8落后。绝境之下,聂卫平一夫当关,连胜日方四人扳平大比分。最后一盘决战,他经过7个半小时的苦战,以二目半胜日方主将大竹英雄,助中国队卫冕。第三届中日围棋擂台赛的最后决战,仍是聂卫平坐镇中军,最终战胜日方主将加藤正夫。
+1988年3月14日,在日本东京举行的第三届中日围棋擂台赛最后一场比赛中,中方主将聂卫平(右)中盘胜日方主将加藤正夫。新华社记者 兰红光 摄(传真照片)
+擂台赛中国队三连冠与聂卫平的九连胜,让围棋这项源自中华的古老技艺,重新焕发生机活力,成为振奋民族精神、凝聚人心的时代符号。1988年,聂卫平被中国围棋协会授予“棋圣”称号,1990年当选“中国十大杰出青年”,1999年获评“新中国棋坛十大杰出人物”。
+当棋力随着年龄的增长而渐弱,聂卫平更多地承担起传道授业的责任,培养出常昊、周鹤洋、刘菁、王磊、古力等一众新生代顶尖棋手。1999年成立的聂卫平围棋道场,成为更多围棋少年的成才摇篮,柯洁、辜梓豪、周睿羊等多位世界冠军和全国冠军皆从这里走出。
+2020年9月28日,“棋圣”聂卫平走进福建省长乐师范学校附属小学滨海校区,与小棋手们互动。新华社记者 林善传 摄
+生前接受采访时,聂卫平多次提到贵州的黄果树瀑布,他觉得自己的人生就和黄果树瀑布一样,中日擂台赛时的辉煌,就像“飞流直下三千尺”,奔腾而下,不可阻挡;而辉煌过后,就是潺潺流水,归于平稳。
+聂卫平的人生“棋局”,在黑白对弈间尽显顽强斗志和爱国情怀,激励着一代代棋手为国争光。他的热爱与坚守,早已融入纵横十九道的经纬里,化为不朽的“棋魂”。</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C277" s="5" t="inlineStr">
+        <is>
+          <t>洛杉矶奥运会门票抽签注册通道开启2026-01-15 10:17:13</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:20+01:00</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>洛杉矶奥运会门票抽签注册通道开启2026-01-15 10:17:13</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>新华社日内瓦1月14日电(记者单磊)国际奥委会14日发布通知,2028年洛杉矶奥运会门票抽签开启网上注册通道,观众需先注册方可参与后续购票安排。
+观众可在LA28官网注册并创建个人档案,登记后将进入抽签程序,以获得一个随机分配的购票时间段。据介绍,注册期为2026年1月14日至3月18日。成功注册的观众将进入门票抽签环节,系统会为已注册用户随机分配一个购票时间段,用户只有在自己的时间段内才能进入购票。通知强调,注册不涉及付款,也不构成必须购票的义务。注册只是第一步,用来争取获得一个可购票的时间段。
+面向公众的这些购票时间段将于2026年4月开放。在首个售票窗口期,将提供超过300万张门票。此外,洛杉矶及相关赛区所在地的符合条件居民可登记参与本地优先预售。抽签成功获得购票时段的观众,将于其购票时段开始前最多48小时收到通知。
+票价方面,门票起价为28美元(约合195.14元人民币),各分项及各场次均将开放销售。每个账号最多可购买12张奥运会门票。</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C278" s="5" t="inlineStr">
+        <is>
+          <t>非洲杯：摩洛哥、塞内加尔晋级决赛2026-01-15 09:57:21</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:20+01:00</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>非洲杯：摩洛哥、塞内加尔晋级决赛2026-01-15 09:57:21</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>新华社拉巴特1月14日电(记者赵一宁)非洲国家杯足球赛14日迎来两场半决赛的争夺,东道主摩洛哥队通过点球大战4:2淘汰尼日利亚队,塞内加尔队则以1:0力克七届赛会冠军埃及队。
+摩洛哥队与尼日利亚队当日展开鏖战,双方在常规时间及加时赛中互有攻守,但均未能攻破对方球门。比赛最终进入点球决胜。摩洛哥队门将布努发挥神勇,两次扑出对手点球,帮助球队以4:2获胜,晋级决赛。
+另一场半决赛中,塞内加尔队面对强敌埃及队,上半场在场面上占据优势,却未能转化为进球。僵局在第78分钟被打破,马内在禁区弧顶处完成一记“贴地斩”,攻入全场唯一进球。这是塞内加尔队近四届非洲杯第三次闯入决赛。
+非洲杯决赛将于当地时间18日在拉巴特穆莱·阿卜杜拉王子体育场举行。</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C279" s="5" t="inlineStr">
+        <is>
+          <t>意甲综合：国米小胜莱切 那不勒斯闷平帕尔马2026-01-15 09:31:43</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:20+01:00</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>意甲综合：国米小胜莱切 那不勒斯闷平帕尔马2026-01-15 09:31:43</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>新华社罗马1月14日电(黎梦青)意大利足球甲级联赛14日进行了第16轮的两场比赛,国际米兰主场1:0小胜莱切,那不勒斯主场0:0战平帕尔马。
+1月14日,国际米兰队球员埃斯波西托庆祝进球。新华社发(阿尔贝托·林格利亚摄)
+因与意大利超级杯赛程冲突,这两场原定在12月举行的比赛改期至当日进行。坐镇主场的国际米兰持续施压,但多次射门均未能转化为进球。第27分钟,国米前锋博尼禁区内倒地,但裁判在观看VAR(视频助理裁判)后认定防守队员触球在先,取消点球判罚。
+易边再战,国米在第57分钟连换三人,试图改变场上僵局。第78分钟,“蓝黑军团”终于取得突破,劳塔罗在禁区内的射门被对方门将扑出,皮奥·埃斯波西托补射破门,帮助国米取得领先。国米最终以1:0小胜。
+那不勒斯本轮迎战帕尔马,主队占据优势但迟迟无法打破僵局。第11分钟,麦克托米纳一度破门,但因队友越位在先,进球被判无效。此后双方均未能改写比分,最终0:0握手言和。</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C280" s="5" t="inlineStr">
+        <is>
+          <t>斯诺克大师赛：丁俊晖首轮不敌特鲁姆普2026-01-15 09:31:42</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:20+01:00</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>斯诺克大师赛：丁俊晖首轮不敌特鲁姆普2026-01-15 09:31:42</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>新华社伦敦1月14日电(记者马邦杰)中国选手丁俊晖14日以2:6不敌英格兰名将特鲁姆普,无缘斯诺克大师赛八强。
+世界排名第一的特鲁姆普状态出色,开局连赢三局。丁俊晖随后扳回两局,将比分追至2:3。在关键的第六局,特鲁姆普击球时母球落袋,但丁俊晖未能把握住机会,防守出现失误,被现场评论员称为“最差安全球”,将主动权再次交还给对手。刚刚坐定的特鲁姆普随即起身回到台前,一杆制胜,拿下该局。随后,他乘势再赢两局,锁定胜利。
+丁俊晖赛后表示,自己发挥欠佳:“我没有打出应有的水准,防守也做得不好。他整场比赛都发挥得非常出色,和他交手,一两杆失误就足以致命。”
+值得一提的是,本届大师赛首轮8场比赛的比分均为6:2。特鲁姆普赛后表示:“这真的不可思议。所有球员的水平都非常接近,但每一场比赛都打成这样,实在令人惊讶。”
+本届大师赛共有5名中国选手参赛,其中吴宜泽、肖国栋和赵心童先后赢下首轮比赛,晋级八强。
+15日和16日将进行四分之一决赛,对阵形势分别为:赵心童对阵希金斯、特鲁姆普对阵艾伦、吴宜泽对阵肖国栋、罗伯逊对阵凯伦·威尔逊。</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C281" s="5" t="inlineStr">
+        <is>
+          <t>朱琳、白卓璇、袁悦、吴易昺挺进澳网资格赛决胜轮2026-01-15 09:29:02</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:20+01:00</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>朱琳、白卓璇、袁悦、吴易昺挺进澳网资格赛决胜轮2026-01-15 09:29:02</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>新华社墨尔本1月14日电(记者徐海静 熊文苑)2026年澳大利亚网球公开赛资格赛14日进入第二轮,中国选手朱琳、白卓璇、袁悦和吴易昺晋级资格赛决胜轮。马烨欣告负出局。
+1月14日,朱琳在比赛中回球。当日,在澳大利亚墨尔本进行的2026年澳大利亚网球公开赛女子单打资格赛第二轮比赛中,中国选手朱琳2:0战胜安道尔选手卡辛采娃,晋级决胜轮。新华社发(王申摄)
+朱琳14日对阵安道尔选手卡辛采娃,在1小时13分钟的比赛中,朱琳在大部分时间占据上风,并以6:1、6:2获胜。
+白卓璇对阵法国选手帕凯的比赛也进行得较为顺利,她同样以6:1、6:2战胜对手。
+资格赛25号种子袁悦13日在首轮比赛中就打满三盘,14日对阵阿根廷选手卡莱的比赛又是一场苦战。袁悦首盘就进入抢七,以7:6(5)艰苦拿下,但她很快以3:6输掉第二盘,最终在第三盘顶住压力,在最后阶段连赢4局,以6:4获胜。这场比赛足足打了3小时2分钟。
+1月14日,袁悦在与阿根廷选手卡莱的比赛中回球。新华社发(王申摄)
+男单选手吴易昺14日对阵哥伦比亚选手梅希亚,两人在一发得分方面平分秋色,但吴易昺的二发得分率明显高于对手,最终以6:4、6:4赢得胜利。
+15日,澳网资格赛将进入决胜轮,获胜的16名选手即可获得澳网正赛入场券。澳网正赛将于18日开赛。</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C282" s="5" t="inlineStr">
+        <is>
+          <t>我在现场·我的2025丨14年，只为这一刻2026-01-15 09:15:27</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:20+01:00</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>我在现场·我的2025丨14年，只为这一刻2026-01-15 09:15:27</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>2025年是我新闻职业生涯的第14年,四十岁悄然走过。回想自己的2025年,一次重大体育赛事的采访,让我记忆犹新。
+2025年2月7日至14日,第九届亚洲冬季运动会在黑龙江省哈尔滨市举行。我在这次报道中的首要任务是拍摄主火炬塔"雪韵丁香"被点燃。作为一名新闻报道的14年“老兵”,这是我第一次参加亚冬会报道,我珍惜得来不易的机会。
+2025年2月7日,主火炬在开幕式上被点燃。当日,第九届亚洲冬季运动会开幕式在哈尔滨举行。
+作为“东道主”分社的摄影记者,从哈尔滨获得第九届亚洲冬季运动会的申办权,到倒计时300天、200天、100天,再到火炬传递,我都全程参与记录。
+这是2024年4月13日在哈尔滨拍摄的2025年第九届亚洲冬季运动会倒计时300天主题活动现场。
+2024年7月22日,演员在2025年第九届亚洲冬季运动会倒计时200天主题活动现场表演。
+在哈尔滨市中央大街上,人们与亚冬会吉祥物雕塑合影(2025年10月29日摄)。10月30日是2025年第九届亚洲冬季运动会倒计时100天。
+这是2025年2月3日拍摄的第九届亚冬会火炬传递收火仪式现场。当日,第九届亚冬会火炬传递活动在哈尔滨举行。
+第九届亚洲冬季运动会开幕前,我收到开幕式的报道任务:拍摄最后一棒火炬手张虹点燃主火炬塔"雪韵丁香"。
+2025年2月7日,第四棒火炬手张虹准备点燃主火炬。当日,第九届亚洲冬季运动会开幕式在哈尔滨举行。
+此前,我从未参加过任何大型赛事的开幕式报道。最初接到任务时,有一点不敢相信,更有一点害怕......
+同事鼓励我说,“在你的主场,你应该秀起来,别有压力,相信自己!”为了更好地获得拍摄效果,我先后三次进入冰雪大世界拍摄彩排,我几乎记住了每一个细节,只为开幕时火炬点燃的瞬间。
+然而现场低照度的环境、点火瞬间火焰的高亮度、如何完成最后一棒张虹手持火炬的画面、点燃火炬时张虹的脸部细节、点燃之后烟火与火炬的呈现......这些都是拍摄的难点。每次拍摄完彩排之后回到家,我都拿着照片研究参数,反复试验,设想了多个参数组合和拍摄角度,只为成功记录下点火时的那一刻。
+2025年2月7日,第四棒火炬手张虹点燃主火炬。当日,第九届亚洲冬季运动会开幕式在哈尔滨举行。
+2月7日,第九届亚洲冬季运动会正式开幕,最后一棒火炬手张虹手持火炬,缓缓滑行而来。点火之前,我按照事先准备好的参数再一次微调了相机,主火炬点燃的瞬间张虹保持住了微笑,我顺利拍摄到她点燃火炬以及主火炬塔、摩天轮和烟花一同展示的画面。凝固这个瞬间后,我感到一切的努力都是值得的,这次的拍摄采访经历,使我收获颇丰。
+记者:张涛
+编辑:任超</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C283" s="5" t="inlineStr">
+        <is>
+          <t>聂卫平在北京逝世2026-01-15 08:28:07</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:20+01:00</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>聂卫平在北京逝世2026-01-15 08:28:07</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>这是2019年10月23日,中国棋手聂卫平在2019年中韩围棋国手友谊赛中思考。新华社记者 郭绪雷 摄
+新华社北京1月15日电 记者15日从中国围棋协会获悉,中国围棋协会名誉主席、“棋圣”聂卫平九段,因病医治无效,于14日22时55分在北京逝世,享年74岁。聂卫平是上世纪中国围棋振兴的关键人物,在八十年代的中日围棋擂台赛中,他作为主将力挽狂澜,连胜多位日本超一流棋手,创造了“擂台神话”,被当时的国家体委授予“棋圣”称号。
+这是2017年11月4日,聂卫平在2017“象屿杯”海峡两岸围棋与人工智能邀请赛人机配对赛中思考。新华社记者 郭绪雷 摄</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C284" s="5" t="inlineStr">
+        <is>
+          <t>U23国足历史首次晋级亚洲杯淘汰赛2026-01-14 23:31:04</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:20+01:00</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>U23国足历史首次晋级亚洲杯淘汰赛2026-01-14 23:31:04</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>1月14日,中国队成员在比赛后合影。新华社记者 王海洲 摄
+新华社利雅得1月14日电(记者罗晨 王海洲)14日在沙特阿拉伯首都利雅得进行的U23男足亚洲杯D组最后一轮比赛中,中国队以0:0战平泰国队,并以小组赛3战1胜2平积5分的不败战绩位列小组第二,历史首次跻身该赛事淘汰赛阶段。
+在当天同时进行的另一场D组比赛中,澳大利亚队奇迹般地在全场补时阶段连进两球,以2:1逆转战胜伊拉克队,澳大利亚队以3战2胜1负积6分的成绩最终名列D组第一,和中国队携手晋级。上一轮中国队以1:0小胜澳大利亚队。
+1月14日,中国队球员王钰栋(右二)在比赛中。新华社记者 王海洲 摄
+此前两轮小组赛,中国队2战1胜1平积4分,对阵泰国队只需打平即可出线,而对手唯有全力争胜才有出线可能。
+上半场比赛双方对抗激烈,中国队保持稳固防守,泰国队则积极冲击中国队禁区。中国队门将李昊延续前两场的神勇表现,多次做出关键扑救,化解泰国队的进攻威胁。由于激烈的身体对抗,中国队上半场有三名球员吃到黄牌。最终,双方上半场互交白卷。
+1月14日,中国队球员胡荷韬(右)在比赛中拼抢。新华社记者 王海洲 摄
+易边再战,泰国队继续向中国队防线发起强力冲击。第57分钟,泰国队送出直塞,其球员伊克拉斯单刀小角度射门,李昊挡出皮球,再次化解危机。下半场两队均未能把握住各自创造的进攻机会,最终以0:0结束比赛。
+中国队主教练安东尼奥在赛后新闻发布会上表示,首次晋级淘汰赛对中国队来说“是具有历史意义的时刻”。
+1月14日,中国队球员胡荷韬(右)在比赛中拼抢。新华社记者 王海洲 摄
+“我非常高兴,为我的球员们感到骄傲。他们表现得非常出色。他们始终保持信念,这对一支球队来说非常重要。”他说。
+17日,中国队将在沙特西部城市吉达迎战八强赛对手乌兹别克斯坦队。
+1月14日,中国队球员徐彬(右)在比赛中拦截泰国队球员伊克叻(中)。新华社记者 王海洲 摄
+1月14日,中国队球员贺一然(右)在比赛中拼抢。新华社记者 王海洲 摄
+1月14日,中国队首发球员在比赛前合影。新华社发(谭蔡民摄)</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C285" s="5" t="inlineStr">
+        <is>
+          <t>5金6银5铜  中国场地自行车队马来西亚赛场获佳绩2026-01-14 16:43:44</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:20+01:00</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>5金6银5铜 中国场地自行车队马来西亚赛场获佳绩2026-01-14 16:43:44</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>新华社北京1月14日电 中国自行车运动协会消息,1月4日至12日,中国场地自行车队中长组赴马来西亚参加东南亚场地自行车系列赛,获得5金6银5铜。
+本次赛事是中国场地自行车队中长组在洛杉矶奥运周期组队后首次亮相国际赛场,由新西兰籍主教练博瑞斯·克拉克带队,派出吴俊杰、孙海蛟、杨阳、周梦寒、陈凝、巩现冰3男3女共6名运动员参赛。
+在1月7日至8日进行的一级赛(C1级别)中,中国队取得“开门红”。女子组比赛中,巩现冰夺得捕捉赛冠军;陈凝凭借全能赛各小项的稳定发挥,获得第一名;周梦寒在捕捉赛和淘汰赛中分获第三、第二名,全能赛排名第二。男子组比赛中,吴俊杰在捕捉赛和淘汰赛中分获第三、第二名,全能赛排名第二;孙海蛟在捕捉赛中获得第二名。
+在1月10日至11日进行的二级赛(C2级别)中,中国队再创佳绩。女子组比赛中,陈凝摘得全能赛冠军,并获得淘汰赛第三名;周梦寒在捕捉赛中夺魁,巩现冰获得全能赛第二名。男子组比赛中,孙海蛟在淘汰赛中勇夺第一名,并获得全能赛第三名;杨阳获得淘汰赛第三名。
+据介绍,中国场地自行车队中长组与短组于2025年12月7日正式组队并在海南开启洛杉矶奥运周期首个冬训。队伍目前已回国继续进行冬训,全力备战2026年场地自行车亚锦赛、世界杯系列赛、名古屋亚运会、2026年国际自盟上海场地自行车世锦赛等国际比赛。</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C286" s="5" t="inlineStr">
+        <is>
+          <t>放下手机，一起运动——山东滨州探索“家庭体育”新路径2026-01-14 15:44:56</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Política social</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:20+01:00</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>放下手机，一起运动——山东滨州探索“家庭体育”新路径2026-01-14 15:44:56</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>新华社济南1月14日电(记者李傲秋)冬日下午,和煦的阳光洒在山东滨州的滨城区第二实验小学操场上,又到了每周一次的家庭体育活动时间。在专业教练的指导下,家长和孩子混合组队,你来我往,踢得热火朝天——一场亲子足球赛正在进行,场边不时传来老师和同学们的加油声、呐喊声。
+“我从小就爱踢足球。自从学校鼓励父母与孩子一同运动后,我爸爸就会抽出更多时间,陪我一起练足球。”五年级学生李赫煊说。
+滨城区第二实验小学里的一场家庭足球赛。新华社记者 李傲秋 摄
+“在推广全民健身的过程中,往往缺乏合适的抓手。”滨州市体育局群体科科长刘春华说。为此,滨州开展“小奥筑家”家庭体育项目,以“小”带“大”,引导家长和孩子共同放下手机,走出家门,参与体育活动。
+现在,许多学校在工作日下午和周末定期开展家庭体育活动。“家长参与热情很高,愿意与孩子一起运动。每到周末来学校参加活动的家长特别多,其中不乏学生的爷爷奶奶。”滨城区第二实验小学校长付瑞丑介绍。
+“家庭体育运动不是随便玩。”教练黄汝新说,“不同于其他偏休闲的群体活动,我们开展的家庭体育运动更像正式比赛,有规则、有对抗、有输赢。”
+黄汝新介绍,以家庭足球赛为例,比赛采用“小场地、少人数”形式,限制成人身体对抗强度与射门范围,明确犯规标准,“既保证孩子是主角,也让家长真正参与其中”。在篮球、跳绳、冰壶等其他项目中,同样可以看到兼顾“公平”与“竞技”的设计:每个项目都设有明确规则,比赛期间会统一器材、分组对抗、计分排名。
+“孩子会为一次犯规道歉,也会因一次胜利向对手致意,在输赢中不断成长,这就是体育最真实的教育。”滨州实验学校(南校区)体育教师牛磊说。
+滨州市开展的趣味家庭运动。(受访单位供图)
+当地开展家庭体育项目,既为健身,也为增进亲子互动、促进学生身心发展。不少家长坦言,正是在比赛中重新认识了亲子相处方式。“在球场上,我和孩子能够平等相待、默契配合,沟通起来格外顺畅。”家长刘猛说,“这种和孩子一起并肩解决问题、为同一个目标配合的时刻,平时忙起来很难专门创造。”
+教师们观察到,长期参与体育活动的学生,在班级中更具规则意识和团队精神。“这类学生更懂配合、更有集体荣誉感,在课堂和集体活动中往往能脱颖而出。”滨州实验学校(南校区)时任校长赵学军说。
+据介绍,“小奥筑家”项目已经在滨州市各区县吸引了近10万个家庭参与。“现在我们还纳入了中国象棋等智力运动项目,期待未来引入更多社会体育力量,让家庭体育项目在社区里更好发展。”滨州市体育局四级调研员董凤家说。</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C287" s="5" t="inlineStr">
+        <is>
+          <t>错误理解资格规则 日本队无缘米兰冬奥会雪车男子双人项目2026-01-14 15:44:54</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:20+01:00</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>错误理解资格规则 日本队无缘米兰冬奥会雪车男子双人项目2026-01-14 15:44:54</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>新华社东京1月14日电(记者岳晨星)日本雪车、无舵雪橇与钢架雪车联合会(以下简称“日本雪车联合会”)13日宣布,由于对雪车项目的冬奥会参赛资格获取条件理解有误,日本队已无缘参加2026年米兰-科尔蒂纳冬奥会雪车男子双人项目。
+资料图:2021年10月26日,日本选手在男子四人雪车比赛中。当日,为期两天的“相约北京”2021/2022雪车和钢架雪车计时赛在国家雪车雪橇中心结束。新华社记者 彭子洋 摄
+日本雪车联合会表示,国际雪车和钢架雪车联合会(IBSF)于2024年调整了奥运席位分配规则:即便只以双人项目为目标,相关队伍也需参加四人项目的规定国际赛事并获取积分,最终以双人、四人项目积分合并后的排名分配冬奥席位。
+由于未能及时掌握上述规则变化,日本队本赛季仅派队员参加双人项目国际赛事,未安排四人项目参赛,导致积分条件无法满足,冬奥参赛资格随之落空。
+据日本时事社报道,日本雪车联合会未派代表出席国际雪车和钢架雪车联合会于2024年决定更改规则的会议,并且“漏看了”有关规则调整的通知邮件。
+日本雪车联合会当天在东京举行记者会向运动员致歉,并表示考虑采取邀请专家参与等措施,以防止类似事件再次发生。
+日本雪车队原本力争自索契冬奥会以来重返冬奥赛场,一名曾参加国际赛事的选手在接受日本共同社采访时表示:“感觉一路以来的努力都变得毫无意义。”</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C288" s="5" t="inlineStr">
+        <is>
+          <t>新华视点｜科技赋能 创新引领——产业升级一线观察</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:18+01:00</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>新华视点｜科技赋能 创新引领——产业升级一线观察</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>■洛轴集团:科技赋能高端轴承产业发展
+在洛轴集团风电轴承生产车间,一排排机床正井然有序地加工着一批风电偏航轴承。
+从首台16兆瓦风电主轴承下线,到配套全球批量装机的18兆瓦风电机组,洛轴的风电主轴承国内市场占有率超40%。
+近年来,洛轴集团依托轴承行业唯一的航空精密轴承国家重点实验室,建成了国内领先的航空航天、风力发电、高速铁路、新能源汽车等领域轴承试验平台,为高端轴承研制筑牢基础。
+如今,洛轴集团高端轴承产值占比已达企业总产值的70%。“十四五”期间,企业已有13项科技成果达到国际先进水平。
+■创新赋能硬核制造 中油宝世顺2026年开局订货量达30万吨
+在中油宝世顺(秦皇岛)钢管有限公司新能源管材厂的生产车间内,工人们正全力以赴保障长春至石家庄天然气管道工程所需钢管供应。通过技改创新,企业在一套生产线上实现了两种生产工艺的快速转换,有效提高了生产效率和产能。
+2025年10月,企业自主研发的输送管产品智能检测系统投入使用,让管材焊缝的检测变得更加高效和智能。
+不论是新能源管材厂的技改创新,还是人工智能技术在质检领域的应用,都为推动企业高质量发展提供了坚实保障。2025年,在国际钢管市场竞争激烈的情况下,企业屡屡拿下海外订单。
+■湖南:科技赋能智慧生产 自研零件驱动全球品牌
+新年伊始,湖南桃江高新区益驰电机有限公司的生产车间内,工人们正在抓紧组装、测试一批即将发往东莞的高速直流无刷电机。这款由企业自主研发的核心产品,是吹风机、电动牙刷等产品的关键零部件。
+在园区内的湖南壹鑫科技有限公司无尘生产车间,光学薄膜自动化生产线正满负荷运转。
+作为一家专注于新材料生产制造的高新技术企业,其年研发营收比达到10%,已累计获得11项国家发明专利,并实现了核心原料与涂层配方技术的自主可控。
+■中原农谷:农业增产背后的科技密码
+在河南省新乡县七里营镇,马文昌几年前返乡跟随父亲种地,依托中国农科院新乡基地的种业和科技优势,农场的规模迅速扩大到8000多亩。2025年马文昌种了5000多亩的“普冰03”,每亩地比其他品种平均增产50—100斤。
+同属中原农谷“一核三区”的河南省获嘉县,依托机械制造的传统优势培育出配套的农机产业,全县目前聚集了41家农机相关企业,7家规模以上企业,2025年产业产值突破3.5亿元。
+统筹:李杰、王健、李佳琳
+编导:王梁
+包装:夏勇
+综合新华社记者报道
+新华社音视频部制作</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C289" s="5" t="inlineStr">
+        <is>
+          <t>各方亮剑出击电商“恶意倒卖”，捍卫消费者权益</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:18+01:00</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>各方亮剑出击电商“恶意倒卖”，捍卫消费者权益</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>近年来,随着市场竞争日趋激烈,电商领域黑灰产作案日益频繁,其手段更是日趋隐蔽化、智能化。其中,“恶意倒卖” 通过虚假注册、批量操控账号等方式注册店群,大规模搬运合规商家商品重复上架,不仅以高价倒卖损害消费者利益,更抢占合法经营主体流量资源,部分还存在非法获取泄露消费者信息、虚假宣传 “内部运营秘籍” 等违规行为,严重扰乱市场秩序,触碰法律法规底线。
+想象一下这样的场景:你在一个信赖的电商平台精心挑选了一件商品下单,满心期待希望早日收货。但发现商家迟迟不发货。几天后再追踪物流时,可能发现被莫名其妙取消。更离谱的是,收到商品后,或是在平台上发现了更便宜的供给,或是联系售后时被各方踢皮球导致找不到人。这一过程中,你是否会感到困惑甚至不安?这背后,正是“恶意倒卖”这一电商顽疾在侵蚀你的消费权益。
+国家政策已亮剑
+面对此类乱象,国家监管体系正在持续完善。2024年9月正式实施的《网络反不正当竞争暂行规定》明确要求平台加强对虚假交易、误导性宣传等行为的治理。市场监管总局在“十四五”期间开展的网络专项行动中,已督促平台删除违法商品信息454万条,查处涉网案件10.5万件。保护消费者权益不再是可选项,而是必答题。2025年4月北京互联网法院公布的有关典型案例中,也明确支持网络平台对 “恶意倒卖” 商家的处置行为。
+平台正在筑起防线
+主流电商平台纷纷通过规则与技术双管齐下,惩治“恶意倒卖”等电商领域突出问题。
+日前,京东启动“关于不当经营行为的专项治理”,重点针对 “恶意倒卖” 展开专项打击,深入推进平台生态治理体系优化升级。依托强大的供应链、AI与数字技术等,京东持续完善平台治理规则,协同多方涤荡有关行业乱象,为消费者营造透明放心的购物环境,为合规商家构建公平高效的经营生态,以平台责任担当助力电商行业高质量发展。
+作为以合规为立身之本的电商平台,京东始终坚持维护公平、公正、健康、有序的平台环境,保障消费者与商家伙伴的合法权益,对于相关违规行为秉持“零容忍”原则,通过构建“法律联动+规则约束+技术防控”的全链路治理体系,对违规行为予以坚决严肃处理。
+在规则层面,京东早在2024年8月发布的《京东开放平台恶意倒卖细则》中,明确将 “未获客户授权跨平台代拍发货” 等行为界定为违规。在技术层面,京东部署先进风控系统与智能防控模型,实时分析交易行为,精准识别同一主体批量注册、跨平台代拍等典型特征,实现风险主动预警与订单实时拦截,对确认违规的店铺采取商品下架、账号冻结、永久清退等处置措施,并联动管控关联店铺,遏制违规蔓延。
+此次专项治理直击 “劣币驱逐良币” 的行业痼疾,推动电商竞争从无序 “铺货量” 争夺回归到品质、服务与效率的核心赛道。京东通过清理生态乱象为实体企业腾出发展空间,彰显了大型平台在高质量发展阶段的主体责任,是平台经济与实体经济深度融合的生动实践。随着治理持续深化,流量分配更公平、创新保护更完善、消费选择更透明的电商环境将加速形成,既让消费者敢消费、愿消费,也让商家专注提升产品与服务,为扩大内需、增强经济活力注入持久动力。
+京东全面助力合规商家成长
+京东在持续治理“恶意倒卖”等违规行为、净化平台生态的同时,正以前所未有的力度扶持合规商家伙伴,推出一系列覆盖多品类的激励政策,全力帮助诚信经营的商家降低运营成本、实现可持续成长,共同营造健康、公平的平台生态。
+京东针对各个品类赛道都推出了精准的专属扶持方案,时尚品类新商家可享“0扣点、返佣至高100%”及“新商接力返佣”专项扶持,激励周期长达12个月,返佣金额最高可达120万元;3C数码品类新商家可享“0元入驻”,限期享受扣点和广告金阶梯返还,可获运营扶持加码、专属流量及全周期成长培训;汽车品类新商家可“0元试运营”,享受低至1%的扣点,以及产业带TOP商家的定向招募与资源倾斜;健康品类推出“0成本启动计划”,新店免平台使用费,保证金低至500元起;日百商超品类通过“0元开店、0元试运营”、采销直播带货、全额返佣扣点,为商家提供从冷启动到爆款打造的全链路支持;家电家居品类提供“0元试运营”、专属流量阵地、1对1帮扶、部分类目达额免佣;京喜为不同需求和定位的商家提供了不同的合作模式,如可选0推广费0抽佣0扣点,全托管和包京东物流的模式,也可选自运营的更高利润的c店模式。</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C290" s="5" t="inlineStr">
+        <is>
+          <t>从CES展到奥运舞台 TCL加速构建全球化3.0体系</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:18+01:00</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>从CES展到奥运舞台 TCL加速构建全球化3.0体系</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>拉斯维加斯消费电子展(CES 2026)的核心展区,2453平方米的超大展位上,“屏宇宙” 与“AI生活”两大主题交相辉映,印刷OLED车载屏亮相,雷鸟AR眼镜、AI空调等产品构建起全场景智能生态。这是TCL第33次参展CES,连续多年成为参展规模最大的中国品牌之一。
+四十五年积淀,科技创新驱动产业升级
+TCL 45年的发展轨迹,正是中国制造业从追赶到领跑、从规模扩张到质效提升的生动缩影。从早期专注家电制造,到如今通过TCL实业与TCL科技两个产业集团,形成智能终端、半导体显示、新能源光伏三大核心核心布局,TCL在创始人、董事长李东生的带领下,向产业链上游持续深耕,构建起涵盖面板、终端产品的全产业链优势,成为“坚持智能化、绿色化、融合化方向”的标杆企业。
+在CES 2026的舞台上,TCL的技术创新成果契合“十五五”培育壮大新兴产业和未来产业的要求。TCL华星全球首款印刷OLED车载屏的亮相备受关注,打破了传统显示技术的场景局限,将柔性显示与智能座舱深度融合,为车载电子产业开辟新赛道;北美首展的TCL X11L SQD-Mini LED电视,凭借超高清显示、智能交互等核心优势,展现了中国企业在高端终端领域的技术突破;TCL雷鸟AR/AI眼镜、TCL小蓝翼新风AI空调等产品,则通过“显示+ AI”的深度融合,让智能化从单一设备延伸至全屋、全场景,践行了“全面实施‘人工智能+’行动”的规划要求。正如李东生所言:“加强科技创新突破,通过AI提升先进制造能力,实现产品技术与质量的领先。”TCL正以实际行动践行这一理念。
+而这些创新并非偶然,背后是TCL持续加码研发、聚焦 “技术深水区” 的坚定投入,正如“十五五”规划所建议强调的,要“突破基础理论和核心技术,强化算力、算法、数据等高效供给”。
+全球化3.0体系,提升品牌价值
+TCL的出海战略与国内高质量发展需求紧密相连。国内市场,TCL顺应“十五五”规划建议需求,加快建设制造强国,推动人工智能等数智技术创新,促进实体经济和数字经济深度融合。国际市场,TCL通过全球化布局和技术创新,提升了中国制造业在全球价值链中的地位。
+45年积淀,TCL的全球化布局与“十五五”时期“深化贸易、投资、产业、人文务实合作”的方向契合。面对全球经济变局,李东生表示,未来TCL将聚焦AI落地应用与下一代显示技术,积极探索更基础、更前沿的“技术深水区”。同时,完善全球化3.0体系,提升品牌价值,推动企业实现高质量发展。
+当前,TCL已在全球建立起完善的研发、生产、销售体系,提出“在海外再造五个TCL”的战略目标,正是对“构建新发展格局”的生动实践。此次CES上,核心展位的更迭不仅是市场地位的彰显,更是中国制造业全球话语权提升的缩影。从东南亚的生产基地到欧美市场的高端布局,TCL通过技术输出、产能共建、本地化运营,让“中国智造”深度融入全球产业链价值链,既分享发展机遇,也为全球产业升级贡献中国方案,这与“十五五”规划中“拓展人工智能、数字经济等领域合作新空间”的要求同频共振。
+在北美市场,TCL已在美国硅谷设立研发中心,布局墨西哥制造基地,有力支撑了北美业务的发展。凭借本土研发、本土生产、本土营销的一体化经营模式,TCL电视在北美市场出货量排名第二,成为奥林匹克全球合作伙伴,进一步提升了其国际品牌影响力。
+新型显示产业作为“十五五”期间战略性新兴产业的重要组成部分,正迎来从“链式生态”到“AI +显示”的新趋势。中国电子信息产业发展研究院数据显示,2024年中国新型显示产业全球市场占有率超过49%,而TCL作为行业领军企业之一,在Mini LED、印刷OLED等前沿技术领域的持续突破,正推动我国新型显示产业向全球价值链中高端迈进。“十五五” 期间,TCL有着清晰的布局:聚焦下一代显示技术,深耕产业链上游核心环节,完善从材料、装备到终端产品的全生态布局,以技术创新驱动产业升级,助力我国在全球显示产业竞争中巩固地位。
+站在45周年的历史节点,TCL的发展路径深刻诠释了“发展新质生产力、构建现代化产业体系”的核心要义。实体经济是根基,技术创新是引擎,全球化布局是路径。TCL始终坚守制造业主业,通过数智化转型推动传统产业升级,通过前瞻布局未来产业培育新增长点,通过深化国际合作拓展发展空间。
+从CES核心展位的高光时刻,到45年积淀的深厚底蕴,TCL正以科技创新为笔、以全球布局为纸,书写中国制造业高质量发展的新篇章。未来,随着“在海外再造五个TCL”目标的推进,随着印刷 OLED、AI融合应用等技术的持续突破,TCL 将在建设制造强国、数字中国的征程中贡献更大力量。(记者 郑伟)</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C291" s="5" t="inlineStr">
+        <is>
+          <t>欧睿国际：海尔连续17年居全球大型家用电器品牌零售量第一</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:18+01:00</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>欧睿国际：海尔连续17年居全球大型家用电器品牌零售量第一</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>1月8日,世界权威调研机构欧睿国际(Euromonitor)最新数据显示:2025年海尔再获全球大型家用电器品牌零售量第一,连续17年全球第一。同时,海尔冰箱、洗衣机、酒柜、冷柜也均蝉联全球第一。
+这次海尔整体品牌销量第一的背后,有两个不一样。
+一个是业绩实现了稳健增长。自2009年首次登顶以来,海尔全球市场份额持续引领,从6.3%提升至12.1%,近乎翻倍;过去五年更是实现份额“五连涨”,展现出强劲的发展韧性和稳健性。
+另一个是智慧家庭战略下的高质量增长。海尔智家目前正在聚焦智慧住居赛道,转型平台服务型生态企业。转型后的海尔智家不再是单纯地销售家电产品,而是通过软件定义场景的加持,实现了智慧家电的增长。
+2025AWE上的海尔智家的展馆
+这些成绩是海尔智家践行以用户为中心的“126”战略的结果。“1”是指创新了“一”个通道,即海尔智慧家庭——用户通过它不仅能管理全屋智能家电,更能享受覆盖衣、食、住、娱的一站式生态服务。“2”是指搭建了两大平台:一个是面向用户的客户平台,让客户生意更好做;一个是全生命周期的用户平台,让用户体验更完美。“6”则是打造了六大能力,即全球化、高端化、数字化、智能化、生态化、绿色化。
+那么基于六大能力,海尔智家的成果如何?
+第一个全球化。海尔智家的全球化,不是简单把产品卖到全球,而是能力的全球化。如今海尔智家正在把“销售、营销、服务、物流、采购、研发、制造”等10大能力带到全球。以研发平台为例:曾经与用户共创的“懒人三筒洗衣机”在国内成为爆款后,迅速又在东南亚和欧洲上市成为了全球爆款。在推向全球时,还可以针对当地用户的需求进行迭代升级:聚焦越南气候特点特意配备了精华洗、留香洗等功能;考虑到欧洲节能需求,配备更高效节能程序等,这背后都离不开全球研发能力的提升。
+海尔智家泰国广告牌
+第二个高端化。海尔智家高端化的核心是“引领”,通过科技创新打造爆款,实现了不同品牌在不同区域的引领。如海尔“与用户共创”的麦浪冰箱上市三个季度后销量突破100万台、Leader的懒人洗衣机上市以来销量突破30万台。截至目前,在国内卡萨帝已连续9年高端第一;在美国GE Appliances从美国第一大家电公司向美国第一“家生态”公司迈进;欧洲海尔白电整体份额位居中企第一;澳洲海尔与斐雪派克双品牌大白电TOP1。
+第三个数字化。海尔智家以“极致效率”为目标,为用户打造全流程的最佳体验。通过研发、制造、营销、服务等全流程数字化变革,海尔智家全面提升了企业运营效率。目前,海尔智家在全国区县专卖店中,已有80%的商品能够直接送达用户,实现“送装同步”,且整个流程在平台上一目了然。这不仅极大缩短了交付时间,也进一步提升了用户的满意度和体验感。
+第四个智能化。海尔智家的AI不止于点的应用,而是“全面落地”,不仅是工具还是能力。AI时代,海尔智家要从“产品智能化”升级到“场景智能化”:在产品方面,有风避人吹的空调、帮人看锅的烟灶等,从“替人家务”迈向“无人家务”;在场景方面,以智慧阳台为例,AI之眼洗衣机不光能主动提醒是否有串色风险、是否有衣服卡住、是否有遗漏等,还能联动干衣机、晾衣架等实现洗烘联动、洗晾联动等。
+海尔智家坚持智慧家庭战略
+第五个生态化。海尔智家让产品更具价值、场景更有体验。智慧家庭的独特优势在于“开放性”,它接入6600万+生态资源方,能为用户提供覆盖衣、食、住、娱全场景服务。目前,海尔智家开辟了“人车家”生态,将智慧生活进一步从家庭延展至出行。
+第六个绿色化。海尔智家将ESG贯彻到公司治理全流程,不断为全球用户提供绿色产品和绿色解决方案。绿色产品方面,国内懒人三筒洗衣机省时超50%、欧洲X11洗衣机比新欧洲标准A级还节能70%;绿色方案方面,海尔智家实现了从智慧家庭场景到商用办公场景,再到工业场景的绿色全覆盖。2025年底,海尔智家还率先承诺“不晚于2050年实现全球运营碳中和”。
+17年的领跑,见证的不仅是一家企业的成绩,更是一个时代的变迁,这背后其实是企业战略转型的持续深化。如今的海尔智家为用户提供的也不再只是好产品、好服务,而是从智能家电到智慧家庭、再到智慧生活的全场景服务方案。</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C292" s="5" t="inlineStr">
+        <is>
+          <t>2026年美国消费电子展开幕（组图）</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Tecnología de consumo</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:18+01:00</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>2026年美国消费电子展开幕（组图）</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>1月6日,人们前往参观2026年美国拉斯维加斯消费电子展。
+2026年美国拉斯维加斯消费电子展6日开幕,人工智能新应用及机器人技术成为今年展会最大热点。
+新华社发(曾慧摄)
+pagebreak
+1月6日,人们在2026年美国拉斯维加斯消费电子展上参观。
+2026年美国拉斯维加斯消费电子展6日开幕,人工智能新应用及机器人技术成为今年展会最大热点。
+新华社发(曾慧摄)
+pagebreak
+1月6日,在2026年美国拉斯维加斯消费电子展上,人们参观海信展区。
+2026年美国拉斯维加斯消费电子展6日开幕,人工智能新应用及机器人技术成为今年展会最大热点。
+新华社发(曾慧摄)
+pagebreak
+1月6日,在2026年美国拉斯维加斯消费电子展上,人们参观TCL展区。
+2026年美国拉斯维加斯消费电子展6日开幕,人工智能新应用及机器人技术成为今年展会最大热点。
+新华社发(曾慧摄)
+pagebreak
+1月6日,在2026年美国拉斯维加斯消费电子展上,人们参观赛格威展区的展品。
+2026年美国拉斯维加斯消费电子展6日开幕,人工智能新应用及机器人技术成为今年展会最大热点。
+新华社发(曾慧摄)
+pagebreak
+1月6日,在2026年美国拉斯维加斯消费电子展上,人们参观TCL展区。
+2026年美国拉斯维加斯消费电子展6日开幕,人工智能新应用及机器人技术成为今年展会最大热点。
+新华社发(曾慧摄)
+pagebreak
+1月6日,在2026年美国拉斯维加斯消费电子展上,一名男子在海信展区停留。
+2026年美国拉斯维加斯消费电子展6日开幕,人工智能新应用及机器人技术成为今年展会最大热点。
+新华社发(曾慧摄)
+pagebreak
+1月6日,人们参观2026年美国拉斯维加斯消费电子展。
+2026年美国拉斯维加斯消费电子展6日开幕,人工智能新应用及机器人技术成为今年展会最大热点。
+新华社发(曾慧摄)</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C293" s="5" t="inlineStr">
+        <is>
+          <t>田间成果竞芬芳 青春聚力兴三农，“拼多多杯”第三届科技小院大赛总决赛落幕</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:18+01:00</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>田间成果竞芬芳 青春聚力兴三农，“拼多多杯”第三届科技小院大赛总决赛落幕</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>“鞋上沾泥,手上有活,眼里有光,心中装着农民。”在海南三亚崖州湾科技城创新研学谷大礼堂内,中国工程院院士张福锁在“拼多多杯”第三届科技小院大赛闭幕式上的深情寄语,精准勾勒出这场农业科技盛宴的核心底色。当6支顶尖团队从全国247支参赛队伍中脱颖而出,呈现在众人眼前的,不仅是一场巅峰对决的赛事,更是科技小院16年来“科学为民,立地顶天”的生动实践,是青年一代在服务乡村振兴中“解民生、治学问”的责任担当。
+在最终的总决赛中,河南新乡玉米科技小院凭借服务粮食作物绿色吨半粮的创新模式、洱海水稻科技小院依托洱海流域水稻生产的理论创新与落地实践、四川峨边笋用竹科技小院以小小竹笋托起民族地区乡村振兴的务实举措,分获冠亚季军。
+12月27日至28日,“拼多多杯”第三届科技小院大赛总决赛拉开帷幕。晋级队伍向评审嘉宾进行项目展示
+全链路闭环考核:从赛道细分到田间淬炼的层层进阶
+中国农业大学党委副书记王勇在开幕式致辞中表示,科技小院大赛是“中国研究生乡村振兴科技强农+创新大赛”的重要主题赛事,回望三届历程,参赛规模从首届89支队伍到本届247支队伍实现跨越式增长,赛事组织实现了五大赛道分类竞技、政产学研用深度协同、实地考察与路演评比相结合的多重创新突破。大赛已从一次展示交流,成长为研究生实践育人的重要平台,成为推动“教育—科技—人才”一体贯通的生动样本。
+在赛道设置上,前两届赛事以驻扎地划分赛区,导致不同领域的团队同台竞技,评价标准难以精准对标。本届大赛首创“科技兴农、青春助农、数字惠农、创业富民、多维融合”五大赛道,按项目类型分类竞技,让专注技术攻关的团队、擅长实践服务的团队、深耕数字赋能的团队等都能找到精准定位。科技兴农赛道聚焦农业生产技术创新;青春助农赛道侧重基层服务实践;数字惠农赛道主打前沿技术应用;创业富民赛道关注产业价值转化;多维融合赛道则鼓励跨界创新。五大方向覆盖农业全链条,催生了更多针对性强、可落地的乡村振兴解决方案。
+在赛制流程上,本届大赛构建的“初赛、组别赛、全国赛、总决赛”四级进阶体系,让选拔过程更具层次性与专业性。初赛阶段从247支参赛队伍中筛选150支进入组别赛,通过网评聚焦项目的创新性与可行性;组别赛按赛道分区域开展线下比拼,既保证了赛事的竞争性,也扩大了赛事的覆盖面与影响力;全国赛通过“实地考察+路演评比”双重考核;总决赛则聚焦综合实力考评,将技术创新性、产业应用前景、团队协作能力、路演表现与线下展示等多维度纳入评分体系,晋级的6支一等奖队伍依次登台,最终评选出冠亚季军。这种层层递进的赛制设计,既确保了选拔的公正性与严谨性,也让团队在多轮比拼中不断打磨项目、提升能力。
+院士“飞行”考评:让评审标准扎根田间实效
+“这片玉米叶尖发黄,你认为是缺肥还是病虫害导致?请现场给出解决方案。”“科技小院的学生们在促进粮食增产的过程中都做了什么?是否真正帮助到你们?” 2025年11月,在重庆梁平粮油科技小院,中国工程院院士张福锁带领“飞行”评审团向团队成员和当地农户抛出了犀利问题。这是本届大赛创新引入的“院士飞行团”考察环节。由院士、行业专家组成的评审团,分赴29个晋级全国赛的科技小院,用“田间问诊”的方式替代传统文本评审。
+张福锁坦言:“在重庆和海南两个小院的考察中,‘院士飞行团+专家现场考核’的形式成效显著。我们会询问‘你们如何用当地语言与农户打成一片’,也会向当地干部和农户了解小院的实际工作,是单纯走访调研,还是真正与农户并肩作战、贡献力量,其实一目了然。现场问题越尖锐,越能检验出小院的真实成效。”
+本届大赛在赛制上有较大创新,首创“院士飞行团”环节。海南东方有机循环利用科技小院学生正在向张福锁院士(左)及评审专家介绍其主导研发的有机肥
+去年11月,海南省东方市有机循环利用科技小院也迎来了由张福锁、沈其荣两位中国工程院院士领衔的飞行团实地考察。“你们最大的科技创新点体现在哪里?”面对评审提问,科技小院研究生韩澍回应,团队研发出一套高温好氧分子气流膜发酵系统。与传统堆肥、反应器堆肥方式相比,该技术不仅将堆肥周期从数月缩短至数周,还能有效控制臭气和渗滤液污染,成功生产出高品质有机肥。
+这项技术的经济效益优势,在当地百香果种植户田云龙身上得到了充分印证。田云龙在自家果园中采用4种有机肥进行对比试验,其中一种来自该科技小院。结果显示,科技小院所研发的有机肥成本最低,效果却与最昂贵的有机肥几乎持平。
+这种场景化效能评估,彻底打破了传统赛事重理论轻实践的局限。正如张福锁院士在采访中强调的:“我们考察的不仅是技术本身,还包括团队的协作能力、项目的可持续性以及农户的真实反馈。科技小院的核心价值,在于把论文写在大地上,‘院士飞行团’就是要让这种价值得到真正认可。”显而易见,“院士飞行团”的考评绝非“走过场”,而是带着问题而来、带着解决方案而归。这种“接地气”的评审方式,让赛事标准从“纸面达标”真正转向“实效为王”。
+拼多多全链赋能:从赛事支持到产业落地的深度衔接
+“如果没有拼多多的直播支持,我们的冷吃笋可能还藏在深山里。”在总决赛线下展示区,四川峨边笋用竹科技小院团队成员指着货架上的产品感慨。2024 年丰收节期间,该团队通过拼多多与央视联合打造的直播,让冷吃笋在两小时内获得2000万网友的围观和拼购,当天准备的货品很快售罄。而这一案例,正是拼多多深度参与赛事、打通“研产销”链路的缩影。
+四川峨边笋用竹科技小院学生在山上驻扎。受访者供图
+作为连续三届大赛的支持方,拼多多不仅提供资金与平台资源,更将赛事成果与市场需求精准对接。去年4月,拼多多在大理古生村建设首个“数商兴农科技小院”,孵化出养分智慧管控平台等可复制的数字农业模式。此外,平台还通过“多多课堂”为科技小院学生提供电商培训。拼多多副总裁侯凯笛表示:“未来将持续深化与科技小院的合作,推动更多赛事成果落地转化。”
+张福锁院士在赛后采访中也提到,“拼多多连续三年资助赛事,不仅打响了名声,更通过直播带货帮助小院学会如何打通产业链、如何做好销售,实实在在改变了科技小院的面貌。”
+而对于学生而言,科技小院更是成长的沃土。“学生可以获得更快的成长,他们能真正感受到农业的不易,农民的不易。”张福锁院士说,“小院是立德树人的平台,我们能看到学生们在农村的进步,看到他们体会到三农工作的不易后,会变得更有同情心,更发自内心地想要帮助农民解决问题。16年来,小院学生取得了实实在在的进步,很多学生毕业多年后还在回馈乡村,真正践行了‘解民生 治学问’的本心。”
+在三亚的落日余晖中,参与比赛的团队成员们互相交换联系方式,约定后续开展技术合作。这些年轻的面庞上,既有赛场比拼后的疲惫,更有扎根乡村的坚定,正如总决赛现场播放的宣传片中所说:“这里没有华丽的论文答辩,只有沾满泥土的双手;没有抽象的理论模型,只有让农民增收的实效。”而这场从田间到赛场的较量,正以创新为笔,书写着科技兴农、青春助农的时代答卷。(记者 周靖杰)</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C294" s="5" t="inlineStr">
+        <is>
+          <t>2025智能生活有多酷</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:18+01:00</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>2025智能生活有多酷</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>2025年,具身智能以一场跨越舞台与生活边界的“年度大戏”,刷新了我们对科技的想象,带着温度与力量,闯入每一个真实场景。
+春晚聚光灯下,一袭花袄扭起秧歌,关节轻旋描摹民间舞步,掌声雷动间,科技与国潮 “破次元”相拥;
+北京半马赛道上,人形机器人“咬牙”冲线,创下纪录,“汗衫儿”下是算法对人类体能极限的致敬;
+手术室里,它是更令人心安的“隐形守护者”——国产医疗机器人跨越700公里山海,以远程操控完成一台高难度外科手术,让偏远地区患者也能触达顶级医疗资源;
+泰山陡峭台阶上,AI外骨骼裹住游客的双腿,将“举步维艰”变成“稳步登顶”,让白发老人都能笑着拍下“会当凌绝顶”的全景照...
+春晚舞台的科技民俗碰撞、马拉松赛道的极限纪录突破、手术台的远程生命守护、泰山之巅的便民文旅赋能,具身智能的“跨界”从未停歇。
+褪去表演的华服,换上实用的“工装”,一头扎进医疗、文旅、办公等民生“职场”,具身智能正式迈入规模化、商业化服务民生的新阶段。
+2025的具身智能“能共情、会干活”。它的每一次“跨界”,都在把“未来已来”的惊叹,变成“现在真好”的日常。
+这一年的智能惊喜,也渗透在我们身边。在2025企业家博鳌论坛的会场里,擎朗机器人的正式亮相,我们也有了“新同事”,共赴烟火智途,奔赴下一场春暖花开。</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C295" s="5" t="inlineStr">
+        <is>
+          <t>海尔智家向平台服务型生态企业转型</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:18+01:00</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>海尔智家向平台服务型生态企业转型</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>回望过去的2025年,全球家电行业在挑战与变革中交织前行。从全球市场看,经济低速增长常态化、贸易壁垒增强等带来重重考验;从国内市场看,存量博弈加剧了企业间的竞争。与此同时,AI浪潮的奔涌而来,为企业变革打开了新的想象空间。
+新时代环境下,家电行业已经从过去的“产品为王”“渠道为王”时代,迈向“用户为王”的新阶段。未来真正能拉开企业间差距的,不再是谁占据更多渠道、更多资源,而是谁更懂用户、谁能更高效地触达并持续经营用户。
+海尔智家在做的,正是一场以用户为中心的大变革。12月底,在海尔专卖店29周年庆典上,海尔智家董事长兼总裁李华刚表示:“AI时代,海尔智家要向平台服务型生态企业转型。”而这一转型的关键,就是企业全面TC。目前,海尔智家正通过聚焦统仓TC、用户平台、数字门店、智慧家庭四大变革,从“卖产品”转型“经营用户”,为用户提供更好地服务和体验。
+首先是通过统仓TC重塑客户模式。 海尔智家通过统仓TC,推动库存统一管理与配送优化,在改变过去客户备货周转时间长、资金占用大等问题的同时,还提升了用户送装、服务体验。2025年海尔智家统仓TC也取得了显著成果:海尔专卖店80%以上的区县商品直达用户,订单响应周期提升10%。
+其次是通过用户平台重塑用户模式。 海尔智家通过用户全生命周期管理的平台,可以把用户沉淀到平台上,实现对用户全生命周期的关爱。目前,该平台已接入4.1亿用户,通过AI主动关怀的用户达1450万+。
+再者是通过数字门店重塑交易模式。海尔智家正建设基于数字AI能力的智能零售门店,通过AI能力实现门店智能化、平台化运营,将选品、设计、成交、配送、结算全流程在线打通,极大提升门店运营效率。
+最后是通过智慧家庭重塑生活模式。海尔智家通过全面网器化,实现从“软件定义产品”到“软件定义场景”的跨越。同时,海尔智家聚焦智能家居、智能汽车、智慧出行等全场景生态,将智家APP作为第一入口,打造领先的智慧家庭生活平台,提供覆盖“家生活、人车家、智慧社区”的全场景服务。
+在AI时代浪潮中,海尔智家不再只是一家制造企业,更是一个以用户为中心、以数据为驱动、以生态为支撑的开放服务平台。未来,海尔智家将持续携手合作伙伴,融入新模式、建设新触点、创造新体验,为用户提供美好智慧生活。</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C296" s="5" t="inlineStr">
+        <is>
+          <t>广东：AI玩具促进产业“智造”升级（组图）</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:18+01:00</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>广东：AI玩具促进产业“智造”升级（组图）</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>12月21日,在位于深圳的全球创新旗舰店inno100,一名儿童与AI玩具Ropet互动。
+中国作为全球最大的玩具生产和出口国,在AI浪潮中展现出强大的产业整合力与创新活力。以广东等地为代表的产业集群,正利用产业优势加速从“制造”向“智造”升级。
+2025年以来,融合智能元素的玩具接连推出,销售火爆。玩具厂商拥抱AI、技术厂商加速支持的“双向奔赴”趋势明显。
+与传统玩具相比,AI玩具搭载大模型,可以通过人脸识别、表情分析、手势识别、触觉感知与反馈、情感分析等技术,实现玩具和人的自然、多样交互和反馈,提供个性化的学习和娱乐体验。相较于其他AI终端,AI玩具具备人机可互动性强、玩具产品形态丰富、应用场景多样化、目标群体广泛等优势,成为“陪伴经济”发展下的“新宠”。
+新华社记者 毛思倩 摄
+pagebreak
+12月21日,在位于深圳的全球创新旗舰店inno100,一名儿童与AI玩具Ropet互动。
+中国作为全球最大的玩具生产和出口国,在AI浪潮中展现出强大的产业整合力与创新活力。以广东等地为代表的产业集群,正利用产业优势加速从“制造”向“智造”升级。
+2025年以来,融合智能元素的玩具接连推出,销售火爆。玩具厂商拥抱AI、技术厂商加速支持的“双向奔赴”趋势明显。
+与传统玩具相比,AI玩具搭载大模型,可以通过人脸识别、表情分析、手势识别、触觉感知与反馈、情感分析等技术,实现玩具和人的自然、多样交互和反馈,提供个性化的学习和娱乐体验。相较于其他AI终端,AI玩具具备人机可互动性强、玩具产品形态丰富、应用场景多样化、目标群体广泛等优势,成为“陪伴经济”发展下的“新宠”。
+新华社记者 毛思倩 摄
+pagebreak
+12月21日,在位于深圳的全球创新旗舰店inno100,一名儿童与AI玩具芙崽Fuzozo互动。
+中国作为全球最大的玩具生产和出口国,在AI浪潮中展现出强大的产业整合力与创新活力。以广东等地为代表的产业集群,正利用产业优势加速从“制造”向“智造”升级。
+2025年以来,融合智能元素的玩具接连推出,销售火爆。玩具厂商拥抱AI、技术厂商加速支持的“双向奔赴”趋势明显。
+与传统玩具相比,AI玩具搭载大模型,可以通过人脸识别、表情分析、手势识别、触觉感知与反馈、情感分析等技术,实现玩具和人的自然、多样交互和反馈,提供个性化的学习和娱乐体验。相较于其他AI终端,AI玩具具备人机可互动性强、玩具产品形态丰富、应用场景多样化、目标群体广泛等优势,成为“陪伴经济”发展下的“新宠”。
+新华社记者 毛思倩 摄
+pagebreak
+10月31日,在位于深圳的跃然创新科技有限公司Haivivi总部,一名儿童与该企业研发的AI玩具BubblePal互动。
+中国作为全球最大的玩具生产和出口国,在AI浪潮中展现出强大的产业整合力与创新活力。以广东等地为代表的产业集群,正利用产业优势加速从“制造”向“智造”升级。
+2025年以来,融合智能元素的玩具接连推出,销售火爆。玩具厂商拥抱AI、技术厂商加速支持的“双向奔赴”趋势明显。
+与传统玩具相比,AI玩具搭载大模型,可以通过人脸识别、表情分析、手势识别、触觉感知与反馈、情感分析等技术,实现玩具和人的自然、多样交互和反馈,提供个性化的学习和娱乐体验。相较于其他AI终端,AI玩具具备人机可互动性强、玩具产品形态丰富、应用场景多样化、目标群体广泛等优势,成为“陪伴经济”发展下的“新宠”。
+新华社记者 毛思倩 摄
+pagebreak
+10月31日,在位于深圳的跃然创新科技有限公司Haivivi总部,一名儿童与该企业研发的AI玩具BubblePal互动。
+中国作为全球最大的玩具生产和出口国,在AI浪潮中展现出强大的产业整合力与创新活力。以广东等地为代表的产业集群,正利用产业优势加速从“制造”向“智造”升级。
+2025年以来,融合智能元素的玩具接连推出,销售火爆。玩具厂商拥抱AI、技术厂商加速支持的“双向奔赴”趋势明显。
+与传统玩具相比,AI玩具搭载大模型,可以通过人脸识别、表情分析、手势识别、触觉感知与反馈、情感分析等技术,实现玩具和人的自然、多样交互和反馈,提供个性化的学习和娱乐体验。相较于其他AI终端,AI玩具具备人机可互动性强、玩具产品形态丰富、应用场景多样化、目标群体广泛等优势,成为“陪伴经济”发展下的“新宠”。
+新华社记者 毛思倩 摄
+pagebreak
+10月31日,在位于深圳的跃然创新科技有限公司Haivivi总部,研发人员对AI玩具BubblePal进行调试。
+中国作为全球最大的玩具生产和出口国,在AI浪潮中展现出强大的产业整合力与创新活力。以广东等地为代表的产业集群,正利用产业优势加速从“制造”向“智造”升级。
+2025年以来,融合智能元素的玩具接连推出,销售火爆。玩具厂商拥抱AI、技术厂商加速支持的“双向奔赴”趋势明显。
+与传统玩具相比,AI玩具搭载大模型,可以通过人脸识别、表情分析、手势识别、触觉感知与反馈、情感分析等技术,实现玩具和人的自然、多样交互和反馈,提供个性化的学习和娱乐体验。相较于其他AI终端,AI玩具具备人机可互动性强、玩具产品形态丰富、应用场景多样化、目标群体广泛等优势,成为“陪伴经济”发展下的“新宠”。
+新华社记者 毛思倩 摄
+pagebreak
+11月3日,在位于深圳的跃然创新科技有限公司Haivivi总部,创始人李勇测试AI玩具CocoMate。
+中国作为全球最大的玩具生产和出口国,在AI浪潮中展现出强大的产业整合力与创新活力。以广东等地为代表的产业集群,正利用产业优势加速从“制造”向“智造”升级。
+2025年以来,融合智能元素的玩具接连推出,销售火爆。玩具厂商拥抱AI、技术厂商加速支持的“双向奔赴”趋势明显。
+与传统玩具相比,AI玩具搭载大模型,可以通过人脸识别、表情分析、手势识别、触觉感知与反馈、情感分析等技术,实现玩具和人的自然、多样交互和反馈,提供个性化的学习和娱乐体验。相较于其他AI终端,AI玩具具备人机可互动性强、玩具产品形态丰富、应用场景多样化、目标群体广泛等优势,成为“陪伴经济”发展下的“新宠”。
+新华社记者 毛思倩 摄
+pagebreak
+10月31日,在位于深圳的跃然创新科技有限公司Haivivi总部,主播直播销售BubblePal等系列AI玩具产品。
+中国作为全球最大的玩具生产和出口国,在AI浪潮中展现出强大的产业整合力与创新活力。以广东等地为代表的产业集群,正利用产业优势加速从“制造”向“智造”升级。
+2025年以来,融合智能元素的玩具接连推出,销售火爆。玩具厂商拥抱AI、技术厂商加速支持的“双向奔赴”趋势明显。
+与传统玩具相比,AI玩具搭载大模型,可以通过人脸识别、表情分析、手势识别、触觉感知与反馈、情感分析等技术,实现玩具和人的自然、多样交互和反馈,提供个性化的学习和娱乐体验。相较于其他AI终端,AI玩具具备人机可互动性强、玩具产品形态丰富、应用场景多样化、目标群体广泛等优势,成为“陪伴经济”发展下的“新宠”。
+新华社记者 霍思颖 摄
+pagebreak
+10月31日,在位于深圳的跃然创新科技有限公司Haivivi总部,主播直播销售BubblePal等系列AI玩具产品。
+中国作为全球最大的玩具生产和出口国,在AI浪潮中展现出强大的产业整合力与创新活力。以广东等地为代表的产业集群,正利用产业优势加速从“制造”向“智造”升级。
+2025年以来,融合智能元素的玩具接连推出,销售火爆。玩具厂商拥抱AI、技术厂商加速支持的“双向奔赴”趋势明显。
+与传统玩具相比,AI玩具搭载大模型,可以通过人脸识别、表情分析、手势识别、触觉感知与反馈、情感分析等技术,实现玩具和人的自然、多样交互和反馈,提供个性化的学习和娱乐体验。相较于其他AI终端,AI玩具具备人机可互动性强、玩具产品形态丰富、应用场景多样化、目标群体广泛等优势,成为“陪伴经济”发展下的“新宠”。
+新华社记者 霍思颖 摄
+pagebreak
+10月31日在位于深圳的跃然创新科技有限公司Haivivi总部拍摄的AI玩具BubblePal、CocoMate等。
+中国作为全球最大的玩具生产和出口国,在AI浪潮中展现出强大的产业整合力与创新活力。以广东等地为代表的产业集群,正利用产业优势加速从“制造”向“智造”升级。
+2025年以来,融合智能元素的玩具接连推出,销售火爆。玩具厂商拥抱AI、技术厂商加速支持的“双向奔赴”趋势明显。
+与传统玩具相比,AI玩具搭载大模型,可以通过人脸识别、表情分析、手势识别、触觉感知与反馈、情感分析等技术,实现玩具和人的自然、多样交互和反馈,提供个性化的学习和娱乐体验。相较于其他AI终端,AI玩具具备人机可互动性强、玩具产品形态丰富、应用场景多样化、目标群体广泛等优势,成为“陪伴经济”发展下的“新宠”。
+新华社记者 霍思颖 摄
+pagebreak
+10月23日,在广东汕头举行的第24届汕头·澄海国际玩具礼品博览会上,观众在AI展区观看机器狗玩具表演。
+中国作为全球最大的玩具生产和出口国,在AI浪潮中展现出强大的产业整合力与创新活力。以广东等地为代表的产业集群,正利用产业优势加速从“制造”向“智造”升级。
+2025年以来,融合智能元素的玩具接连推出,销售火爆。玩具厂商拥抱AI、技术厂商加速支持的“双向奔赴”趋势明显。
+与传统玩具相比,AI玩具搭载大模型,可以通过人脸识别、表情分析、手势识别、触觉感知与反馈、情感分析等技术,实现玩具和人的自然、多样交互和反馈,提供个性化的学习和娱乐体验。相较于其他AI终端,AI玩具具备人机可互动性强、玩具产品形态丰富、应用场景多样化、目标群体广泛等优势,成为“陪伴经济”发展下的“新宠”。
+新华社记者 肖恩楠 摄
+pagebreak
+这是10月23日在广东汕头举行的第24届汕头·澄海国际玩具礼品博览会上拍摄的AI玩具狗。
+中国作为全球最大的玩具生产和出口国,在AI浪潮中展现出强大的产业整合力与创新活力。以广东等地为代表的产业集群,正利用产业优势加速从“制造”向“智造”升级。
+2025年以来,融合智能元素的玩具接连推出,销售火爆。玩具厂商拥抱AI、技术厂商加速支持的“双向奔赴”趋势明显。
+与传统玩具相比,AI玩具搭载大模型,可以通过人脸识别、表情分析、手势识别、触觉感知与反馈、情感分析等技术,实现玩具和人的自然、多样交互和反馈,提供个性化的学习和娱乐体验。相较于其他AI终端,AI玩具具备人机可互动性强、玩具产品形态丰富、应用场景多样化、目标群体广泛等优势,成为“陪伴经济”发展下的“新宠”。
+新华社记者 肖恩楠 摄
+pagebreak
+这是10月23日在广东汕头举行的第24届汕头·澄海国际玩具礼品博览会上拍摄的AI毛绒玩具。
+中国作为全球最大的玩具生产和出口国,在AI浪潮中展现出强大的产业整合力与创新活力。以广东等地为代表的产业集群,正利用产业优势加速从“制造”向“智造”升级。
+2025年以来,融合智能元素的玩具接连推出,销售火爆。玩具厂商拥抱AI、技术厂商加速支持的“双向奔赴”趋势明显。
+与传统玩具相比,AI玩具搭载大模型,可以通过人脸识别、表情分析、手势识别、触觉感知与反馈、情感分析等技术,实现玩具和人的自然、多样交互和反馈,提供个性化的学习和娱乐体验。相较于其他AI终端,AI玩具具备人机可互动性强、玩具产品形态丰富、应用场景多样化、目标群体广泛等优势,成为“陪伴经济”发展下的“新宠”。
+新华社记者 肖恩楠 摄</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C297" s="5" t="inlineStr">
+        <is>
+          <t>电动自行车安全指南，守护每次安心出行</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Tecnología de consumo</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:18+01:00</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>电动自行车安全指南，守护每次安心出行</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>电动自行车安全指南，守护每次安心出行</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C298" s="5" t="inlineStr">
+        <is>
+          <t>从技术验证迈向量产交付 硬科技龙头企业开启“规模化元年”</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:18+01:00</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>从技术验证迈向量产交付 硬科技龙头企业开启“规模化元年”</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>新华社北京1月14日电 《中国证券报》14日刊发文章《从技术验证迈向量产交付 硬科技龙头企业开启“规模化元年”》。文章称,2026年开年,多家具身智能、低空经济等新兴产业企业公布了生产目标。例如,优必选提出年内工业人形机器人产能将达到万台;小鹏汇天量产工厂的首台“陆地航母”飞行汽车飞行体部分已顺利下线,预计2026年量产交付。
+“2026年低空经济行业会保持高速增长态势,是从规模化应用早期向深度渗透的关键过渡阶段,对行业而言这将是竞争加剧的一年。企业应该通过强化自身的技术创新能力、场景拓展能力、生态构建能力、安全保障能力、政策合规能力保持自身竞争优势,才能在科技浪潮中站稳脚跟。”联合飞机集团副总裁孙立业向中国证券报记者表示。这不仅是单一企业或行业的判断,多个前沿赛道从业人士均认为,在政策引导、技术突破与市场需求的多重驱动下,2026年中国多个新兴产业正集体从技术验证与试点示范阶段,迈向量产交付与生态构建的“规模化元年”。
+企业扩产进行时
+经历前期的技术积累与场景验证,多个新兴产业在2026年迎来需求端的明确信号,直接驱动供给端的扩产浪潮。
+在人形机器人领域,优必选宣布其第1000台“Walker S2”工业人形机器人已于2025年年末下线,当年全年交付量超500台,而2026年的产能目标直指万台规模;智元机器人披露2025年出货量突破5100台,预期2026年出货量有望增至数万台;银河通用与百达精工达成战略合作,计划在百达精工及其生态体系内部署超1000台具身智能机器人......
+浙江人形机器人创新中心首席科学家熊蓉预计,2026年我国人形机器人产量规模将在10万至20万台级。
+低空经济的产品研发和产能扩张同样稳健。联合飞机集团表示,当前工业级无人机在核心场景的市场渗透率大幅提升,随着公司6吨级倾转旋翼飞行器“镧影R6000”货运版适航取证取得关键进展,2026年公司营收规模有望伴随场景落地实现翻倍增长。
+小鹏汇天表示,公司分体式飞行汽车“陆地航母”已进入量产冲刺阶段,计划于2026年正式交付。公司飞行汽车量产工厂在满产状态下,将能实现每30分钟下线一台飞行器。
+云圣智能联合创始人朱胜利向中国证券报记者表示:“2026年将是低空经济的腾飞之年。在城市治理领域,云圣智能产品方案在2025年实现了全国数十座城市的覆盖,预计在2026年会增长一倍以上。”
+在商业航天领域,一场以可复用中大型火箭为“门票”的IPO热潮正在展开。
+近期,上海证券交易所发布的指引明确,发行人的主要业务或产品应当处于持续研发或科技成果转化阶段,在申报时至少实现采用可重复使用技术的中大型运载火箭发射载荷首次成功入轨的阶段性成果,且后续在技术方面不存在影响承担发射任务的重大不利事项。这一要求直接激励着头部企业加速工程化进程。蓝箭航天、星际荣耀、天兵科技、星河动力等企业积极冲刺IPO,以期在资本市场获得更好的资金支持。
+从实验室演示到真实场景落地
+产能扩张的背后,是新兴产业技术的快速迭代与商业化路径的日益清晰。
+多位行业人士认为,机器人应用的路径,是从危险、枯燥的岗位出发逐步走向泛工业与商业服务,最终走入家庭。
+场景快速扩展的背后,是机器人学习所需的数据数量和模型能力提升。
+1月12日,穹彻智能发布的“口袋机采”,旨在通过智能手机让普通人参与数据采集,将数据源从专业采集场景扩展至真实生活场景。
+埃夫特董事长游玮表示,基于高质量数据储备、视觉语言动作模型或视觉语言模型结合原子级技能库的技术路径,人形机器人的技能操作水平在2026年将实现阶段性突破。
+在扩展应用场景的同时,中国企业也在利用智能化与AI技术加速出海进程。在刚落幕的2026年美国CES消费电子展上,聚焦“创新个人交通”和“服务机器人”两大业务,九号公司携旗下E-bike、电动越野摩托车、电动滑板车以及割草机器人等多个品类的产品亮相。九号公司相关负责人表示,自公司2014年首次参加CES展会以来,十余年间,CES也见证了九号公司和更多中国企业在技术创新道路上的持续深耕,以及从行业参与者成长为引领者的发展历程。
+市场竞争料加剧
+“规模化元年”的到来,也意味着市场竞争的加剧。当前,新兴产业仍面临基础设施不完善、商业闭环难度高等挑战,考验可能瞬息而至。
+朱胜利表示:“2026年市场竞争将进一步加剧,想要保持领先地位,最重要的是以客户为中心,只有解决客户刚需问题的企业和方案才能在激烈竞争中脱颖而出。同时,要保持创新状态,不断研发先进技术实现产品的迭代升级。”
+在商业航天领域,“成本”与“应用”是企业关注的两大焦点。中科星图副总裁郝雪涛表示,商业航天的短期竞争焦点在于“降本”,核心是可重复使用火箭技术的成熟。长期决胜的关键在于“应用”,即培育出万亿级消费与商业市场。
+作为降本的关键,当前主要头部商业火箭企业都在可回收技术领域开展攻坚。例如,星际荣耀瞄准首飞即实现入轨与海上回收的一体化目标。
+对低空经济和商业航天两大涉及空天地协同的行业而言,完善的新型基础设施和统一的管理系统已成为行业的共同期待。孙立业说:“当前,在低空经济领域,低空起降点、管控系统、指挥‘大脑’等基建布局不足,尚未形成网络化覆盖。”
+业内人士认为,硬科技企业发展中面临的许多问题仍需政策给予大力支持,进一步加强跨部门协同。总体而言,更有利于硬科技企业发展的生态环境正在形成,新兴产业在政策引导、技术突破与市场需求的多重驱动下正驶入发展的快车道。2026年,这场由硬科技引领的产业革新,将在扩产、交付、竞争与突破的交替中,持续向前推进。</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C299" s="5" t="inlineStr">
+        <is>
+          <t>加快构建新一代创新基础设施 抢占人工智能时代产业定义权</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:18+01:00</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>加快构建新一代创新基础设施 抢占人工智能时代产业定义权</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>当前,全球科技革命加速演进,我国正处于由制造大国向制造强国迈进的关键时期。人工智能与制造业的深度融合引发了关于物理世界“定义权”的激烈争夺。面对发达国家争夺高端制造主导权的挑战,如何利用好我国超大规模市场优势和数量庞大的“工程师红利”,构建适应数字时代的新型生产关系,是“十五五”时期必须回答的重大课题。
+调研发现,以珠三角为代表的先行地区,涌现出一批将非标创新转化为标准服务的创新主体,探索出“新一代创新基础设施”新模式。该模式通过软件定义制造和产业链要素重构,实现了创新成本的指数级降低和转化效率的指数级提升,为抢占未来产业定义权提供了重要启示。依托我国完备工业体系,加快构建集“国产软件铸魂、柔性智造塑形、创新生态赋能”于一体的新一代创新基础设施,是实现从“世界工厂”向全球创新策源地跃升的关键路径。
+深刻把握
+全球产业竞争逻辑的根本性转变
+当前,数据、算力、算法等新型生产要素的注入,正推动全球产业竞争逻辑发生根本性转变。
+竞争形态从“微笑曲线”向“哑铃模型”转变。工业时代的“微笑曲线”理论认为,制造环节附加值最低。但在人工智能时代,产业价值链呈现“哑铃”状:一端是云端算力与大模型,另一端是物理世界的感知与执行。随着人工智能向边缘端渗透,谁能以最低门槛帮助全球开发者制造出智能硬件,谁就掌握了数据源头和应用场景的定义权。国际众筹平台上超过半数的科技类项目背靠中国供应链的现象表明,我国已具备从“中国制造”跃升为“中国定义”的能力。
+要素驱动从“人口红利”向“工程师红利”转变。改革开放以来,我国积累了完备的供应链体系,更积淀了规模庞大的理工科人才队伍。数据显示,我国每年培养理工科毕业生超过500万人。然而,在传统制造模式下,大量人才被束缚在低端环节。嘉立创打造的硬件创新服务平台注册用户超800万、活跃付费用户超100万的数据证明,一旦有了低门槛的创新工具,这支庞大的“工程师大军”将迸发出惊人的活力。
+组织模式从“线性链条”向“网状生态”转变。传统的“研发—制造—销售”线性模式已难以适应数字经济“小单快反”的需求。珠三角地区通过“新工科教育+供应链整合”的模式,成功孵化了一批智能硬件领域的独角兽企业。这表明,构建开放、共享、协同的“热带雨林式”创新生态,已成为争夺高端制造业话语权的核心手段。
+新一代创新基础设施
+的理论内涵与实践路径
+所谓新一代创新基础设施,是指利用新一代信息技术,对研发设计、中试验证、小批量制造等创新全生命周期能力进行数字化改造和平台化封装,使其成为“触手可及、按需使用、自主可控”的公共服务。其理论内涵与实践成效体现在三个维度。
+以“软件定义”重构技术底座的主导权。基础设施的灵魂在于标准,没有自主软件的平台只是“空壳”。从理论逻辑看,通过推广国产工业软件和底层技术标准,将工艺规则“代码化”,是解决“缺芯少魂”问题的关键。从实践路径看,自主研发电子设计自动化软件并免费开放,可让数百万工程师在设计端就遵循国产工艺标准。同时,开源操作系统与开放指令集架构正在成为万物互联的技术底座。这种“国产软件+平台服务”的模式,在海量应用中倒逼国产技术栈迭代成熟,实现了技术底座的自立自强。
+以“柔性智造”实现规模经济与范围经济的辩证统一。解决个性化定制与规模化生产的矛盾,是制造业转型的世界级难题。从理论逻辑看,利用大数据和人工智能算法,将海量碎片化的个性化需求集约成规模化的大生产,可实现成本与效率的最优解。从实践路径看,通过智能拼单技术,将成千上万个电路板打样订单拼在一起生产,试错成本降低90%,交付周期缩短至12小时;通过给织机装上物联网设备,实现了跨工厂的产能云调度;利用数字化工具协同数千家工厂,实现了“小单快反”的极致效率。这些实践证明,数字化重构可让传统产能焕发新机。
+以“产教融合”推动人才链与产业链的深度耦合。人才是创新的第一资源,基础设施不仅要好用,更要有人用。从理论逻辑看,通过“方法论输出+基础设施支撑”,降低硬科技创业门槛,培育创新主体。从实践路径看,“新工科”教育不仅传授知识,更依托大湾区供应链让学生真刀真枪做产品。这种“创新方法论+创新基础设施”的双轮驱动模式,有效连接了高校科研与产业转化,解决了“实验室成果多、产业化产品少”的痼疾。
+构建新型工业化数字底座的政策建议
+建设新一代创新基础设施,不仅是技术问题,更是生产关系的深刻变革。必须坚持系统观念,统筹“硬基建”与“软环境”,走出一条中国特色的新型工业化道路。
+强化顶层设计,推动中试平台基础设施化。建议将具备“软件自研、开放共享、行业赋能”特征的平台纳入国家新型基础设施建设范畴。改变过去单纯支持生产线技改的政策导向,重点支持建设面向全社会开放的数字化中试验证平台。在电子信息领域,推广机电一体化中试平台,整合精密注塑与数控加工产能,为具身智能创业者提供“积木式”打样服务。在传统产业领域,引导特色产业集群建立共享智造赋能中心,利用人工智能视觉检测统一标准,利用共享设备降低成本,破解同质化竞争困境。
+坚持自主可控,实施“国产技术应用牵引”工程。场景是新技术成熟的加速器。应充分发挥超大规模市场优势,设立专项引导资金,推广“硬件创新券”制度。在机制创新方面,鼓励高校、科研机构及中小企业在创新过程中,优先使用国产电子设计自动化软件、国产操作系统模组、国产芯片。对于使用国产技术栈进行打样验证的费用,给予相应补贴。通过“政府采购服务”的方式,为国产软硬件生态培育第一批“种子用户”,在实战中打磨“大国重器”。
+深化产教融合,厚植“工程师红利”沃土。推广“新工科”教育改革经验,支持高校与产业互联网平台共建未来技术学院。将国产工业软件应用、供应链管理纳入工程教育体系,举办高水平的全球硬科技开发者大会,让学生在校期间就习惯使用中国的基础设施进行创新,培养一大批既懂算法又懂制造的复合型人才。
+优化评价体系,确立高质量发展的“风向标”。探索建立制造业创新服务能力评价指数,定期发布重点区域和行业的“中试响应速度”“创新成本下降率”“国产技术渗透率”及“成果转化效率”指数。破除“唯GDP”论,引导各地从单纯的“拼招商、拼土地”转向“拼生态、拼服务”,营造有利于创新要素竞相涌现的良好环境。
+如果说高铁、桥梁是物理世界的基建,那么融合了国产软件、柔性制造与开源生态的新一代创新基础设施,则是数字经济时代的新基建。构建这一基础设施,是适应新质生产力发展要求、重塑产业竞争优势的战略选择。要以时不我待的紧迫感,利用好完备的工业体系和宝贵的人才资源,把发展的主动权牢牢掌握在自己手中,为实现中国式现代化提供坚实的物质技术支撑。
+(作者系产业互联网联盟秘书长 修斌)</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C300" s="5" t="inlineStr">
+        <is>
+          <t>以服务型制造推动制造业转型升级</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:18+01:00</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>以服务型制造推动制造业转型升级</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>图为湖北人形机器人创新中心的数据采集员操作人形机器人进行数据采集。新华社记者 肖艺九 摄
+“十五五”规划建议将“建设现代化产业体系,巩固壮大实体经济根基”摆在战略任务的首位,并提出“坚持智能化、绿色化、融合化方向”。工业和信息化部、人力资源社会保障部、商务部等七部门印发的《深入推动服务型制造创新发展实施方案(2025—2028年)》,把服务型制造作为制造业转型升级的重要方向、构建现代化产业体系的关键抓手,为“十五五”时期乃至更长时期加快制造强国建设、提高我国在世界经济体系中的综合竞争力指明了方向,擘画了蓝图。
+服务型制造
+是新型制造模式和产业形态
+服务型制造是制造与服务融合发展的新型制造模式和产业形态,发展服务型制造是先进制造业和现代服务业深度融合的主要方向,也是建设现代化产业体系、实现经济高质量发展的重要途径。
+服务型制造通过增加企业生产经营中服务要素的比重,促使企业的经营模式从主要生产、销售产品转向提供“产品+服务”,价值创造从生产向产前、产中、产后全链条延伸,具有全周期、定制化、知识技术密集等特点,是制造与服务深度融合的新型产业形态,包括定制化服务、总集成总承包服务、供应链管理、全生命周期管理、信息增值服务等。
+服务型制造并非简单的“制造+服务”,其核心在于把服务深度融入制造业产品全生命周期和各环节,以服务为制造创造新价值增长点。在此逻辑下,制造业企业是推动企业与产业链上下游及用户之间形成紧密关系的生态组织,实现由“以企业为中心”转变为“以用户体验为中心”,商业模式从“制造价值链”转型为“制造+服务融合价值链”,品牌经营从“单一产品、服务”到“服务平台生态”,进化路径则从“降本增效”转变为“价值增值”。
+服务型制造分为基础、中级、高级服务三个层次,基础服务聚焦“提供产品”,如产品供应、备用零件支持及质保服务等;中级服务侧重“维持产品状态”,确保产品持续运行;高级服务注重最大化“提供价值”,将生产能力转化为管理产品性能的能力。从服务演变中,企业由“生产型”跃升为“服务型”制造。同时,服务型制造以客户需求为导向,从需求端反向驱动设计、生产与服务协同。如,前期挖掘潜在需求,根据用户喜好设计产品;中期围绕用户痛点调整服务;后期基于用户反馈优化服务,把一次性买卖变成长期服务。
+发展服务型制造
+有利于促进产业基础高级化
+服务型制造具有引领性和广适用性的特点,发展服务型制造有利于全面提升产业基础高级化和产业链现代化水平,有利于扩大内需、促进消费、构建新发展格局,有利于营造创新生态、推动绿色发展。
+服务型制造是促进产业基础高级化和提升产业链现代化水平的有效途径。一方面,加大制造过程的研发、数据、金融等生产性服务投入,促进高端要素进入生产制造,有利于提高制造业科技水平和创新能力,促进产业基础高级化。另一方面,从单纯制造环节拓展到全生命周期,尤其向价值链高端环节延伸,有利于提高产业链现代化水平,如供应链管理、全生命周期管理、定制化服务等。此外,服务型制造通过工业互联网平台,打通采购、生产、物流等环节,贯通跨产业、产品、场景的供给侧,相关方由交易关系转变为利益共同体,产业组织关系也由静态链状模式转向动态灵活的拓扑结构,有利于提升产业链供应链韧性。
+推动服务型制造发展,对于稳增长、扩内需、促消费具有重要作用。一是服务型制造引领消费从功能满足转向体验优先,形成需求牵引供给、供给创造需求的更高水平动态平衡。如,工业设计促进新技术、新工艺、新材料应用,推动消费升级;定制化服务满足消费者个性化需求,提振消费。二是服务型制造的发展,可拓展应用场景,发挥对5G、大数据中心、AI等新型基础设施扩投资的牵引作用。三是服务型制造促进生产性服务业提速发展。伴随要素市场化配置体制机制逐步完善,研发设计、系统集成、检测认证等服务业态迎来新发展契机,专业、综合服务平台和共性技术平台加速培育,联动职业教育、服务规范等迅速发展。
+推进服务型制造创新发展,有利于营造创新生态、促进绿色发展。一方面,服务型制造业务边界的扩展,需整合硬件、软件、服务等技术,促进企业与高校院所合作,形成协同创新生态。通过融通制造和服务一揽子需求,企业与供应链伙伴、客户间资源、平台、信息共享,创新成本大幅降低。此外,企业及时获得产业链环节及市场反馈,精准推动产品迭代、服务更新。另一方面,在“双碳”背景下,发展服务型制造有助于实现绿色发展。知识技术、管理等服务要素进入制造业环节,定制化、智能化生产服务同等能耗下可创造更大价值,减少资源损耗。
+服务型制造
+成制造业迈向价值链高端的关键抓手
+当前,制造业面临产业边界日益模糊、产品与服务深度融合、消费需求加快升级的发展新趋势,服务型制造新模式新业态不断创新发展,成为迈向制造业价值链高端的关键抓手。
+服务型制造是引领全球先进制造业发展的重要方向。目前,美日等发达国家的服务型制造已进入成熟发展阶段,渗透到航空航天、信息技术、机械装备等领域,成为占据全球产业链价值链中高端的关键所在。2024年,苹果公司服务业务营收为926亿美元,毛利润率为74%;IBM软件和咨询服务收入占总收入比重达80%。我国制造业由于缺少“服务”高附加值环节,长期处于价值链低端。
+近年来,我国服务型制造发展势头迅猛,对新质生产力发展赋能作用逐渐显现。《中国服务型制造区域发展指数(2024)》显示,2018年至2023年,我国服务型制造发展水平呈持续上升态势,浙江、江苏、山东、广东等15个地区服务型制造发展领先。工信部先后遴选五批共372个示范企业、157个示范项目、225个示范平台、29个示范城市,示范企业中服务收入占总营业收入的比重为35%以上,服务业务对营业收入增长的贡献率达60%。
+同时,也要看到,我国服务型制造起步较晚,部分企业转型意识与动力不足,还存在认识不到位、关键技术供给薄弱、标准体系尚不健全、典型模式应用不平衡、统计监测难度较大等问题。
+多措并举推动服务型制造发展
+“十五五”时期,要将发展服务型制造作为推动我国制造业转型升级的重要引擎,完善制造与服务全方位、宽领域、深层次融合发展格局,塑造制造业发展新动能新优势,引领我国制造业跃上新高度、实现新跨越。
+一是注重系统布局,围绕特色制造产业重点突破。制定服务型制造中长期规划,鼓励各地聚焦优势产业,在政策协同、创新应用、主体培育、数智攻关等方面先行先试,打造服务型制造创新发展高地。不同区域可差异化发展服务型制造。围绕重点产业链和先进制造业集群,加快建设一批“产业大脑”、工业互联网平台,推进产业链数智化改造,构建以服务型制造企业为节点的区域产业集群网络。
+二是强化引导扶持,培优塑强服务型制造企业。引导龙头企业加强产业链上下游合作,构建“硬件+软件+服务”发展模式。引导骨干企业发展专业服务,提供系统解决方案;支持中小企业发展服务型制造,推动数字化转型;鼓励大型企业开放平台深化与中小企业合作,培育一批专精特新“小巨人”、单项冠军和高新技术企业。抓好《服务型制造标准体系建设指南》实施,开展工业设计和定制化服务、共享制造等标准研制。加强标准宣贯和培训,通过政策解读、新闻宣传、典型示范等方式,在全社会营造重视服务型制造的浓厚氛围。
+三是聚集共性需求,强化全方位技术供给支撑。发布服务型制造关键共性技术清单,加强融合需求感知、集成研发设计、协同交付部署等技术攻关。面向重点场景、模式,推动成果应用。加快共享制造、个性化定制、全生命周期管理、总集成总承包等模式升级,探索模型驱动研发等新模式。培育服务型制造转型方案提供商,建设公共服务平台,为企业提供一揽子服务。强化区域协同,加快新型信息基础设施建设,深化“5G+工业互联网”融合创新和规模化应用。推动AI技术与服务型制造融合创新,引导通用、行业大模型和智能体在重点场景应用,夯实服务型制造的发展底座。
+四是加强政策支持,构建协同共促的发展环境。通过财政补贴、税收优惠、专项资金等政策,支持企业向服务型制造转型。将关键共性技术攻关成果应用等纳入技改支持范围,推动制造企业的服务业务按规定享受相关要素价格等政策。加强产融精准对接,引导商业银行、政府投资基金等强化金融服务。推动服务型制造进链群、进园区。依托卓越工程师实践基地、创新中心、科研院所等,加大人才培养力度。积极拓展与共建“一带一路”国家的合作,推动产业合作向研发、设计、服务等环节延伸,带动中国标准、技术和服务走出去。
+(作者系山东省宏观经济研究院社会所所长、研究员 孙明霞)</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C301" s="5" t="inlineStr">
+        <is>
+          <t>全球连线｜河北武馆迎来俄罗斯“功夫迷” 9岁女孩跨越万里追梦</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:13+01:00</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>全球连线｜河北武馆迎来俄罗斯“功夫迷” 9岁女孩跨越万里追梦</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>近日,一批俄罗斯武术爱好者跨越万里,来到河北省沧州志海武术馆,开启为期5天的学艺之旅。这其中,年仅9岁的基拉·罗戈切娃格外引人注目。
+基拉·罗戈切娃的父母对中国武术一直充满兴趣。一年前,她在莫斯科武术俱乐部游玩,第一次见到教练展示中国武术,瞬间就点燃了这个小女孩的好奇心。从那天起,她便与中国武术结下了不解之缘,缠着父母报名参加训练班。
+和基拉·罗戈切娃一样,同行的俄罗斯学员都是中国武术的“铁杆粉丝”。他们年龄从9岁到50多岁不等,每个人都认真记录教练讲解的动作要领,一招一式反复揣摩,不放过任何细节。
+沧州武术历史悠久,门派众多,是中华武术文化的重要发祥地之一,吸引来自俄罗斯、美国、荷兰等多个国家和地区的爱好者前来访学交流,成为越来越多海内外武术爱好者的“追梦之地”。
+作者:张硕、吴思妤、孙雪铭
+新华社音视频部制作
+新华社国际传播融合平台出品</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C302" s="5" t="inlineStr">
+        <is>
+          <t>全球连线｜中韩企业家期待互学互鉴  挖掘更多合作潜力</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:13+01:00</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>全球连线｜中韩企业家期待互学互鉴 挖掘更多合作潜力</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>全球连线｜中韩企业家期待互学互鉴 挖掘更多合作潜力</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C303" s="5" t="inlineStr">
+        <is>
+          <t>全球连线丨乱与治之间——中东2025大事记</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:13+01:00</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>全球连线丨乱与治之间——中东2025大事记</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>全球连线丨乱与治之间——中东2025大事记</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C304" s="5" t="inlineStr">
+        <is>
+          <t>国际观察｜日韩高层互动难掩两国固有矛盾</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:13+01:00</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>国际观察｜日韩高层互动难掩两国固有矛盾</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>新华社东京/首尔1月14日电题:日韩高层互动难掩两国固有矛盾
+新华社记者李子越 黄莹莹 张粲
+韩国总统李在明13日至14日访问日本,并与日本首相高市早苗在日本奈良县举行双边会谈。
+尽管日方高调宣传会谈成果,但从两国领导人表态看,双方在地区安全等议题上存在“温差”,在领土、历史等问题上的矛盾仍然突出。日韩关系短期内将更多呈现“工具性而非战略性”特征。
+图为2025年12月3日韩国总统李在明在首尔青瓦台迎宾馆举行外媒记者会的资料照片。新华社记者姚琪琳摄
+日韩表态有“温差”
+据韩国媒体报道,李在明13日抵日当天,高市迎接并俯身行鞠躬礼。双方会谈持续约一个半小时,涉及经贸合作、地区安全、人工智能、历史问题等。
+韩联社特别提到,会谈未涉及强征“慰安妇”、强征劳工、独岛(日本称“竹岛”)等敏感问题。
+日方高调宣传此次会谈成果,但从两国领导人表态看,双方在不少问题上的立场有“温差”。例如,在会谈后举行的联合记者会上,高市称在地区安全问题上应加强日韩美三方合作,李在明则强调要重视东北亚地区国家的合作。
+韩国国立外交院教授闵正勋解读,李在明与高市在会谈开场时的表述也存在差异,体现各自不同立场。高市称日韩关系对于地区稳定有“战略重要性”;李在明无意接续此话题,仅强调韩日在当前国际秩序下有必要展开合作。
+有日本舆论认为,高市试图借此次日韩首脑会谈淡化其在外交上的被动局面,掩饰其政府在地区内陷入孤立的窘境。
+此外,高市也有其自身政治考量。高市正准备本月解散众议院,提前举行大选。这对高市而言是一场执政“大考”。高市试图放大日韩首脑会谈的效果,对外展示其外交能力,谋求在“大考”前“加分”。
+图为高市早苗资料图片。新华社发(Pool图片,弗兰克·罗比雄摄)
+领土争议仍尖锐
+分析人士认为,日韩关系的结构性矛盾始终存在,特别是围绕独岛(日本称“竹岛”)的领土争端。
+去年12月,高市在国会宣称“竹岛从历史事实和国际法两方面来看,都是日本的固有领土”。
+这番表态在韩国国内引发强烈反弹,韩总统府当即表示,独岛“在历史、地理、国际法上都明确是韩国的固有领土”。《中央日报》等多家韩媒一致将高市发言定性为“妄言”,狠批高市言论刺激韩日关系。
+日本政府官员每年2月22日都会出席所谓“竹岛日”活动,韩方对此强烈反对。高市就任首相后,在被问及是否将出席活动的官员级别提升至阁僚时,高市并未明确否认,这一模糊表态被视为随时可能点燃日韩关系恶化的导火索。
+日本《产经新闻》的报道分析,对于李在明政府而言,在涉及领土争议的问题上几乎不存在对日妥协空间。日方官员曾私下向媒体坦言,由于领土争端,日方并未期待这次首脑会谈能取得什么“华丽成果”。
+这是2013年10月28日拍摄的独岛(日本称“竹岛”)东西两岛的资料照片。新华社记者彭茜摄
+历史问题难回避
+日韩领导人13日在联合记者会上说,双方就合作推进长生煤矿矿难遇难者遗骸发掘与身份鉴定等问题达成一致。1942年,位于日本山口县的海底煤矿长生煤矿发生坍塌,造成包括朝鲜半岛劳工在内的183人遇难。
+韩国庆南大学远东问题研究所学者赵真九认为,从这一问题上看,当前韩日两国能够坐下来讨论解决的历史问题也仅限于长生矿难这一件事,这还是因为受害者中有日本人,日本国内也长期存在相关诉求。而“慰安妇”、强征劳工赔偿等问题因双方分歧明显,难以被纳入双边外交议程。
+就在此次日韩首脑会谈前夕,韩国民间团体在首尔青瓦台前举行抗议活动,要求日方正视“慰安妇”“独岛”等问题,并作出公正回应。访日前一天,李在明在接受日本广播协会采访时说,由于日本的侵略历史,韩国国内就韩日能否建立深层次信任仍存在忧虑。
+日韩舆论认为,对于李在明此次访日,双方暂时搁置了部分争议。两国在历史、领土等问题上的根本性立场差异,决定了“日韩关系的上限”。鉴于日本现政府在历史问题上的态度、在地区安全问题上的对抗性思维,日韩关系短期内将“更多体现为工具性而非战略性”。</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C305" s="5" t="inlineStr">
+        <is>
+          <t>国际观察｜美国会对伊朗动武吗？</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:13+01:00</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>国际观察｜美国会对伊朗动武吗？</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>新华社北京1月13日电题:美国会对伊朗动武吗?
+新华社记者蔺妍 胡冠 阚静文
+美国政府近期多次针对伊朗局势释放“动武”威胁,总统特朗普当地时间13日与政府高级官员讨论美国应对伊朗局势的下一步措施。
+美国对伊朗可能动用哪些干涉手段?美国会对伊朗开展军事行动吗?有哪些军事选项?动武将会引发哪些严重后果?
+专家认为,美国干涉伊朗政局的霸道行径,将严重威胁和破坏地区及世界稳定,如果动用军事手段,或将引发中东地区深层连锁效应。
+美方表态“混乱”
+伊朗抗议活动已持续十多天,其间发生骚乱并造成人员伤亡。伊朗外长阿拉格齐12日表示,伊朗安全部队已控制全国局势,美国和以色列应对伊朗发生的事件承担“直接责任”。
+1月12日,伊朗外长阿拉格齐(后排右)在首都德黑兰出席外国使节会议。新华社发(扎瓦德摄)
+美国政府近期围绕伊朗局势密集发声。特朗普此前表示伊朗方面已与美国政府官员接触并提议谈判,但又称美国“可能需要在会议召开之前采取行动”,考虑军事行动等“非常强硬选项”。然而,特朗普13日又在社交媒体发文说,已取消所有美方与伊朗官员的会谈。
+美媒称,特朗普政府的表态“混乱且含糊”,“摆在桌面上的所有选项”均未有明确指向。美国智库“保卫民主基金会”高级主管贝赫纳姆·塔莱卜卢认为,特朗普政府沿袭了一贯风格,试图“用不可预测性来寻求政策灵活性”。
+面对美国威胁和干涉性言论,伊朗方面表态强硬,但也传递出谈判意愿。阿拉格齐12日表示,伊朗准备在“相互尊重”的基础上同美国谈判,但也已做好战争准备;伊朗外交部发言人巴加埃同日强调,伊朗愿意对话,但不接受说教。
+三种干涉手段
+美国媒体普遍预计,特朗普不会在13日会议上就美国针对伊朗的下一步行动作出最终决定。分析人士认为,美国可能通过认知攻势、经济制裁、军事打击三种方式干涉伊朗政局。
+认知层面,美国或继续通过舆论塑造、信息渗透和心理动员等手段,挑唆伊朗国内矛盾,开展“隐性干涉”。不少美媒近来持续渲染伊朗崩溃,特朗普也在社交媒体上多次“声援”抗议活动。这些都被认为是美“认知攻势”的一部分,意在煽动伊朗反政府情绪。伊朗官员说伊朗正在“应对敌方在网络空间的认知战”。中国社会科学院美国研究所副研究员张一飞指出,美国对伊朗的认知战集心理战、舆论战、信息战、网络战于一体,试图从内部分裂、瓦解伊朗社会。
+1月12日,在伊朗首都德黑兰,人们参加集会。新华社记者沙达提摄
+经济层面,特朗普12日宣称,任何与伊朗进行商业往来的国家,其与美国的所有商业往来都将面临25%的关税。自2018年美国单方面退出伊朗核协议以来,美西方对伊朗施加多轮制裁。专家指出,美国可能继续采取“极限施压”,以制裁为手段破坏伊朗经济发展,进一步激化伊朗社会矛盾、削弱其国家实力。
+军事层面,特朗普近一段时间一直把“军事打击”选项放在嘴边。美国一些军事分析师认为,特朗普政府可能通过至少三种形式对伊发动军事袭击:一是对伊朗核设施、导弹基地等军事设施发动空袭;二是利用无人机、特种部队等对伊高层人物实施“定点清除”;三是为一些地区国家提供海空力量与情报支持,助其发动有针对性的军事打击。
+三重现实掣肘
+多国专家认为,美方可能的对伊军事打击面临多重现实掣肘,特朗普政府需要细加考量。
+首先是军事打击成本较高。阿联酋《海湾新闻报》文章指出,相比于委内瑞拉,伊朗离美国更远、面积更大、地形结构更为复杂,且伊朗拥有较强的军事实力,美国打击伊朗所需军事资源将远大于对委内瑞拉行动。
+其次是军事行动需考虑伊朗反击力度。伊朗官员近日表示,一旦伊朗“国家利益”遭到袭击,伊朗将袭击敌方在任何地方的设施。美媒报道,伊朗具备较强的短程导弹能力,打击范围覆盖美国在中东多个军事基地,军事冲突可能引发伊朗对美国在地区战略资产的报复性行动。对此特朗普政府需事先做好防备措施。北京大学中东研究中心主任吴冰冰指出,美国打击伊朗必将导致风险外溢至中东地区,甚至威胁全球能源“咽喉”霍尔木兹海峡的航运安全。
+1月12日,在伊朗首都德黑兰,人们参加集会。新华社记者沙达提摄
+三是国内外的反对。美国多名议员已表态反对对伊朗发动军事袭击,认为这并非美国的“最佳策略”。美国《时代》周刊文章还指出,特朗普在竞选期间曾承诺让美国“远离海外战争”,而现在却屡屡动用武力,引发国内不满。另有分析指出,大多数美国盟友也不愿看到美国对伊朗动武,担忧此举将进一步破坏地区安全稳定,引发难以预料的后果。
+复旦大学中东研究中心主任孙德刚认为,军事打击可能激发伊朗国内民族情绪,促使伊朗上下一致对外,行动效果未必能“如美国所愿”。
+干涉不得人心
+分析人士指出,伊朗政局牵扯整个中东地区局势,美式霸权行径严重威胁和破坏地区及世界和平稳定,对伊动武或将引发地区国家强烈反弹,引发地区连锁效应。
+阿曼《观点报》的文章道出了中东地区国家的忧虑:美国的干涉行动建立在霸权与殖民依附逻辑之上,其真实目标是通过制造混乱重塑有利于自身的地缘政治格局,地区的长远发展并不是它关心的事。
+美国《新闻周刊》网站刊文指出,特朗普政府第二任期开始以推行炮舰外交、扩大势力范围和对他国资源进行殖民掠夺为鲜明特征。
+美国欧亚集团总裁伊恩·布雷默评论说,特朗普政府奉行的是“丛林法则”,美国成为当前全球最大乱源。如果一国有美国想要的资源又无法有效反击,就可能成为美方目标。对大多数国家来说,应对一个不可预测、不可靠且危险的美国已成为必须面对的问题。</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C306" s="5" t="inlineStr">
+        <is>
+          <t>新闻分析丨美联储主席遭刑事调查 货币政策不确定性增加</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:13+01:00</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>新闻分析丨美联储主席遭刑事调查 货币政策不确定性增加</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>新华社纽约1月12日电新闻分析|美联储主席遭刑事调查 货币政策不确定性增加
+新华社记者刘亚南
+美国联邦储备委员会主席鲍威尔11日晚表示,美国联邦检察官已于9日向美联储送达传票,威胁就他2025年6月在参议院银行委员会作证一事提起刑事诉讼,当时的证词涉及美联储办公楼翻新项目。
+分析人士指出,在白宫与美联储围绕货币政策龃龉不断的背景下,这一调查恐进一步侵蚀美联储的独立性,增加其货币政策走向的不确定性。
+鲍威尔11日在视频声明中表示,检方对他进行刑事调查是破坏美联储在设定利率方面“独立性”的“借口”。“这关系到美联储是否还能依据证据和经济状况来制定利率——或者说,货币政策是否会受政治压力或胁迫所左右。”
+他认为,美国政府对他提出刑事指控威胁,是因为美联储依据对公众利益的最佳评估来设定利率,而不是遵从总统的意愿。
+美国司法部长帕姆·邦迪的发言人回应称,司法部已指示检方优先调查任何滥用纳税人资金的情况。
+有媒体认为,鲍威尔遭刑事调查显示出白宫权力与美联储独立性的交锋已非一朝一夕,总统特朗普与鲍威尔及美联储之间一系列冲突正在延续和升级。
+鲍威尔将于2026年5月结束美联储主席任期,但他的美联储理事任期要到2028年才结束。目前,特朗普对美联储新主席人选的考察已接近尾声,预计将很快公布提名。不过,尽管美国总统有权提名美联储主席和理事,但根据相关法律规定,总统提名美联储主席和理事人选后,还需获参议院批准。
+有观点分析指出,如果联邦检察官通过诉讼裁定鲍威尔有罪,特朗普将可依法解除其职务。虽然此类诉讼通常难以迅速得出最终结果,但若检方正式起诉,势必会给鲍威尔的履职带来不确定性。一旦出现美联储主席空缺,即便鲍威尔继续担任美联储理事,美联储决策也可能出现混乱和真空。
+自第二次出任美国总统以来,特朗普一直敦促美联储降息,希望借此提振经济,降低政府借贷成本。因不满美联储未能积极降息,特朗普此前多次要求鲍威尔辞职。针对美国联邦检察官正在展开的刑事调查,鲍威尔明确表示,不接受政治压力或恐吓,并将继续履职。
+从货币政策看,美联储在2025年9月至12月连续三次降息25个基点后,鲍威尔暗示美联储将在2026年初保持观望,以更好评估货币政策效果和最新宏观数据,市场对此预期也较为强烈。
+美联储于2025年12月10日结束为期两天的货币政策会议,宣布将联邦基金利率目标区间降至3.5%至3.75%,符合市场预期。然而,此次议息决议中,公开市场委员会12名成员中9人支持降息25个基点的决定,3名成员反对。其中两名成员认为应保持基准利率不变,一名成员认为降息幅度应扩大至50个基点。这是2019年9月议息会议以来首次出现如此多的反对票,凸显美联储内部分歧。
+美国《华尔街日报》网站报道指出,许多经济学家认为,目前美国就业市场看起来仍然脆弱,招聘乏力。然而,挥之不去的通胀,以及已经实行的降息,可能会迫使美联储在决定2026年继续放宽政策时动作更加谨慎。
+鲍威尔在美联储官网发布声明,确认调查并作出正式回应后,美国股指期货显著走低,美元快速走弱,市场正给出偏负面反应。</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C307" s="5" t="inlineStr">
+        <is>
+          <t>美媒：美国21日起暂停75国移民签证办理</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:13+01:00</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>美媒：美国21日起暂停75国移民签证办理</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>新华社华盛顿1月14日电(记者杨伶)据美国媒体14日报道,美国国务院将于21日起暂停办理75个国家的移民签证申请审批。
+据福克斯新闻网站报道,美国国务院发言人皮戈特在一份声明中说,在国务院重新评估移民处理程序期间,来自75个国家的移民签证申请将被暂停。白宫发言人莱维特在社交媒体上转发了相关报道。
+据报道,相关暂停措施于21日开始实施,将持续至重新评估完成。
+美联社报道称,美国务院声明未提及75个国家的具体名单。福克斯新闻网站报道披露,受影响国家包括索马里、俄罗斯、阿富汗、巴西、伊朗、伊拉克、埃及、尼日利亚、泰国、也门等。
+此前有美国媒体报道称,美国将暂停办理75个国家的所有签证。截至记者发稿,美国国务院或白宫尚未正式公布相关文件。</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C308" s="5" t="inlineStr">
+        <is>
+          <t>美媒：海湾国家游说美国别对伊朗动武</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:13+01:00</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>美媒：海湾国家游说美国别对伊朗动武</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>新华社华盛顿1月13日电 美国《华尔街日报》13日报道,沙特阿拉伯、阿曼、卡塔尔等海湾阿拉伯国家近期一直在幕后游说特朗普政府不要对伊朗发动军事打击。
+《华尔街日报》以一些海湾阿拉伯国家官员为消息源报道,美国先前向沙特等国发出警告,要求他们就美国可能对伊朗发动打击做好准备,这些国家随后展开游说,告诉白宫方面,假如美国试图推翻伊朗政权,石油市场将被扰乱,这将最终损害美国经济。海湾国家最担心的是,其国内稳定会受影响。
+报道还说,据沙特官员透露,沙特已向伊朗方面保证不会卷入潜在的冲突,也不会允许美国使用其领空进行打击,以努力与美国保持距离并阻止美国采取军事行动。
+近期,伊朗多地发生抗议活动,其间出现骚乱,造成人员伤亡。连日来,特朗普多次威胁军事干涉伊朗局势。特朗普13日上午在社交媒体上发文称,他已经取消所有与伊朗官员的会谈。美国哥伦比亚广播公司12日报道,特朗普已听取关于应对伊朗局势的军事和隐蔽作战选项的简报,这些选项“种类广泛”且“远超传统空袭”。
+伊朗外交部长阿拉格齐12日说,伊朗准备在“相互尊重”的基础上同美国进行谈判,但同时已做好战争准备。伊朗国防部长纳西尔扎德13日说,若敌方侵犯伊朗领土,伊朗将以更强力度作出回应。</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C309" s="5" t="inlineStr">
+        <is>
+          <t>“我们有哨，他们有枪”——美国暴力移民执法激起民众反抗</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:13+01:00</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>“我们有哨，他们有枪”——美国暴力移民执法激起民众反抗</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>新华社北京1月12日电 “我们有哨,他们有枪。”上周美国移民与海关执法局(ICE)人员在明尼苏达州射杀一名美国籍女子后,死者伴侣如此描述其投身的反移民执法运动。按美国《华尔街日报》说法,美国联邦政府2025年以来在民主党主政城市进行的移民执法行动已激发当地民众加入反移民执法运动。参加者带着哨子,一旦发现联邦执法人员,会吹两声短哨;看到有人被捕则吹一声长哨;同时通过聊天群向人们警示下一个可能的执法地点。
+移民与海关执法局人员7日在明尼苏达州最大城市明尼阿波利斯开展移民执法行动时,开枪打死37岁美国公民蕾恩·妮科尔·古德。古德的伴侣丽贝卡9日表示,两人7日刚送完儿子上学,古德停车是想帮邻居忙。明尼苏达州官员表示,古德之所以7日出现在执法现场,是因为她“富有同情心”,想为移民邻居提供旁证。
+1月10日,在美国加利福尼亚州旧金山,一名女子手持标语牌参加抗议活动。新华社发(朱子于摄)
+《华尔街日报》称,暂不清楚古德与丽贝卡属于哪个正式组织,但明尼阿波利斯已形成由社区巡逻、本地快速反应志愿者和居民通信网络构成的反移民执法运动。特别是2020年黑人男子乔治·弗洛伊德在该市遭“跪颈”执法身亡后,不少居民自发充任证人,记录执法行动。
+据报道,约数千人加入了明尼阿波利斯及周边地区的反移民执法运动。其中一个通信软件聊天群有近1000名成员,他们会拍摄疑似移民与海关执法局的车辆,将其分享到聊天群里。
+另一权益组织动员了约1000名志愿者。他们大多是家长,重点关注当地35所公立学校。志愿者有时会组成人墙,护送学生和工作人员进出学校。一旦发现联邦执法人员,他们会吹两声短哨;看到有人被捕则吹一声长哨。
+1月10日,在美国加利福尼亚州洛杉矶县帕萨迪纳市,一名抗议者手持标语牌参加抗议活动。新华社发
+74岁的退休记者史蒂夫·布兰特夫妇近期自发加入一个通信网络,以接收社区内移民执法行动警告。布兰特说,有时一天能收到100多条警告。他加入该网络只想知道,去社区教堂排队领取食物的人是否会遭到威胁。
+明尼阿波利斯市议会主席埃利奥特·佩恩9日经由社交媒体呼吁居民加入志愿巡逻。
+虽然已出现民众抵制,但特朗普政府仍持续推进大规模移民执法。据报道,当前在明尼苏达州的移民执法人员超过2000人。2025年12月初以来,移民与海关执法局已在当地逮捕超过1500人。美国土安全部长诺姆11日表示,联邦增援人员将在当日和次日抵达明尼阿波利斯及周边地区。
+按美国《华盛顿邮报》11日说法,就古德的死因,诺姆等多名联邦政府官员坚称其咎由自取,移民与海关执法局人员乔纳森·罗斯开枪旨在自卫。民主党方面则称联邦政府言之过早,因为全面调查尚未完成,且相关调查并未让明尼苏达州当地官员参与。(海洋)</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C310" s="5" t="inlineStr">
+        <is>
+          <t>王毅：开启中非关系和全球南方更加美好的明天</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:13+01:00</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>王毅：开启中非关系和全球南方更加美好的明天</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>新华社亚的斯亚贝巴1月8日电(记者刘方强)当地时间2026年1月8日,中共中央政治局委员、外交部长王毅出席2026年“中非人文交流年”开幕式。王毅在主旨发言中就促进中非合作提出中方四点倡议:
+一是坚持发展优先,做推进现代化的同路人。要以携手推进现代化六大主张为指引,积极落实中非合作论坛北京峰会成果,推动人文交流和务实合作相互融合促进。中方将持续扩大对非单边开放,相信对非洲100%税目产品零关税举措全面实施后,会有力带动非洲的对华出口和产业、技术的发展,让中国大市场成为非洲的大机遇。
+二是坚持人民至上,做为人民服务的实干家。要以中非人民对美好生活的向往为目标,着力培育一批长效人文交流机制,打造更多人民喜闻乐见的品牌,落实好人文交流伙伴行动各项举措,开展更加丰富多彩的人文交流,进一步充实中非民众交往的内涵,不断拉紧28亿中非人民的情感纽带。
+三是坚持互学互鉴,做治国理政交流的行动派。要用好中非治国理政经验交流平台、中非发展知识网络等机制,不断深化治党治国和现代化发展经验交流。中方愿同非洲各国政党和政治组织深化交往,以建立新型政党关系助力构建新型国际关系,为中非合作行稳致远注入更鲜活精神力量。
+四是坚持开放包容,做命运与共的好伙伴。要以构建人类命运共同体为引领,以落实四大全球倡议为主线,携手应对全球挑战,为人类文明进步做出中非贡献。要加强在国际和地区事务中的协调配合,维护发展中国家的共同利益。中方坚定支持非洲在国际舞台上发挥更大作用,纠正非洲遭受的历史不公,提升非洲在多边治理体系中的代表性和话语权。
+王毅强调,当前中国和非洲都处在各自发展振兴的关键阶段,让我们以开启“中非人文交流年”为契机,秉持友好初心,筑牢合作基石,加快建设新时代全天候中非命运共同体。</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C311" s="5" t="inlineStr">
+        <is>
+          <t>2026年“中非人文交流年”开幕式在非盟总部举行</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:13+01:00</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>2026年“中非人文交流年”开幕式在非盟总部举行</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>新华社亚的斯亚贝巴1月8日电(记者刘方强)当地时间2026年1月8日,2026年“中非人文交流年”开幕式在亚的斯亚贝巴非盟总部举行。中共中央政治局委员、外交部长王毅出席,宣读习近平主席贺信并作主旨发言,中非合作论坛非方共同主席国刚果(布)外长加科索、非盟委员会主席优素福、埃塞俄比亚总统塔耶先后致辞。非盟委员会及非盟机构高层官员、非洲各国驻非盟使节、联合国机构高级别代表、埃塞政府及各界代表200余人出席。
+王毅表示,举办2026年“中非人文交流年”是习近平主席同非方领导人商定的重要举措。习近平主席在贺信中深刻阐释文明互鉴对推进中非现代化事业的重要意义,鲜明指出中非人文交流合作的方向和原则,充分展现对人类历史和文明的深邃思考,为推动构建新时代全天候中非命运共同体提供了重要指引。
+王毅说,中非关系源远流长,传统友谊历久弥坚。古代丝绸之路、郑和远洋航海的壮举让我们相识相知,近代以来追求民族解放和国家独立的共同斗争让我们亲如兄弟,当前谋求发展振兴的积极探索更让我们命运与共。近年来,在双方领导人共同引领下,中非人文交往异彩纷呈、硕果累累,展现出勃勃生机。我们高兴地看到,中非人民越走越亲,中非合作越做越广,中非友谊越来越深。事实证明,人民交往是中非友谊大厦最牢固的根基所在,文明互鉴是中非合作之船最强劲的动力源泉。
+王毅表示,当今世界正在经历百年未有之大变局,国际格局发生着重大历史性变化。以中国和非洲为代表的全球南方不可阻挡地发展崛起。同时,世界还很不太平。丛林法则违反国际法和国际关系基本准则,强权霸凌侵害发展中国家正当权益。面对变乱交织的世界,中非双方比以往任何时候都更需要坚守公道正义,加强团结互助,增进交流合作。双方要坚持发展优先,做推进现代化的同路人,让中国大市场成为非洲的大机遇;要坚持人民至上,做为人民服务的实干家,不断拉紧28亿中非人民的情感纽带;要坚持互学互鉴,做治国理政交流的行动派,为中非合作行稳致远注入更鲜活精神力量;要坚持开放包容,做命运与共的好伙伴,为人类文明进步做出中非贡献。
+王毅说,当前中非都处在各自发展振兴的关键阶段,合作空间无比广阔、前景更加光明。让我们以开启“中非人文交流年”为契机,秉持友好初心,筑牢合作基石,不断提升新时代全天候中非命运共同体成色,共同迎接中非关系和全球南方更加美好的明天!
+非方领导人表示,举办“中非人文交流年”是双方落实习近平主席重大理念倡议的重要举措,习近平主席贺信让非方十分振奋,看到了希望和未来。相信交流年活动将书写非中关系新篇章,深化双方文明对话,增进理念交流,拉紧人民纽带。非方愿同中方以此为契机,进一步加强文化、教育、旅游、艺术、青年等各领域交流合作,推动非中关系不断向前发展。
+非方领导人说,非中人民亲如兄弟,非中合作互利互惠。非方高度赞赏中国外长每年首访非洲的传统,由衷钦佩中国巨大发展成就,感激中国对非支持帮助。中非合作论坛成立以来,双方在经贸、互联互通、农业、教育、通信等领域辛勤耕耘、收获丰硕,助力非盟发展议程。非方愿同中方在中非合作论坛、共建“一带一路”框架内深化合作,实现共同发展。当前国际局势乱象频出,国际秩序受到严重冲击。非方支持习近平主席提出的全球治理倡议,双方要团结一致,反对霸权主义,共同维护国际秩序,捍卫世界和平。非中友谊万岁!
+王毅还同非方领导人共同为“中非人文交流年”徽标揭幕。
+开幕式前,王毅同塔耶、加科索进行了友好交流。</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C312" s="5" t="inlineStr">
+        <is>
+          <t>通讯丨中国专家助力塞拉利昂农业发展焕新</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:13+01:00</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>通讯丨中国专家助力塞拉利昂农业发展焕新</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>新华社弗里敦1月8日电通讯|他们播撒的不仅是种子,更是希望——中国专家助力塞拉利昂农业发展焕新
+新华社记者高剑飞
+在位于塞拉利昂南方省首府博城近郊的冈冈红村恩加拉农场,一片片水稻田如同玉石镶嵌在山坡上。在收获的季节,这里的水稻穗大、粒多、杆壮,稻谷颗颗饱满。
+这片稻田是中国援塞拉利昂第14期农业技术合作项目专家组最新开辟的水稻高产栽培示范田。组长李友良介绍,专家组2023年10月着手开垦工作,一年多时间里在冈冈红村荒地上开垦出5公顷土地,并在2024年和2025年种植了两季水稻。
+在塞拉利昂这样的多山国家开垦荒地并非易事。据了解,这片荒地坡度落差达3米,平整工作量大。为了抢抓进度,专家组精心规划设计,因地就势将大田块分割为16个小田块,播种时在田间每隔6米开挖一条排水沟。
+2025年9月,塞拉利昂农业与粮食安全部长亨利·穆萨·帕卡到专家组水稻基地参观调研,看到中国水稻田间生长情况时,他连连称赞:“这真的很了不起!感谢中国水稻专家为塞拉利昂农业发展作出的巨大贡献。”
+“我们的水稻品种抗病抗虫性更高。相较当地品种,产量从每公顷1至3吨上升至每公顷9吨。”李友良说,中国水稻收割前,周边农民都自发到基地来参观,希望专家组为他们提供中国的水稻品种。
+除培育良种水稻外,专家组还为当地农民讲解联合收割机使用方法并培训操作手,迈克·卡马拉便是其中之一。在中国农机专家指导下,他不仅能熟练驾驶拖拉机、联合收割机,还能进行基础的故障维修。“中国的机械好操作、效率高,希望今后自己也能拥有。”卡马拉说。
+农业是中塞两国重要合作领域之一。援塞的中国农业专家组在奥古农场、恩加拉农场等6处建立农业示范基地,让当地农民有机会直观看到成效,带动技术推广应用。
+此外,为帮助塞拉利昂应对粮食安全威胁,第14期中国专家组将“授人以渔”作为工作重点。针对当地400多名农民、农业技术员和农学专业学生,专家组陆续展开相关培训,内容涉及水稻高产栽培技术、玉米高产栽培技术、水稻杂交育种技术和农机使用技术等。
+2025年1月,来自奥古农场的当地农民法特玛塔·巴赫参加了专家组举办的玉米高产栽培技术培训班。“我按照中国专家的方法,把中国杂交玉米品种和本地品种在一起种植,并进行比较。我发现中国玉米品种优点显而易见:根部红色粗壮、叶片上竖、果穗部位低、角度小、穗大粒多而且饱满。”他说。
+回顾在塞拉利昂近三年的时光,李友良对援外工作的艰辛深有感触。他告诉记者,专家组所有人都得过疟疾,但为了圆满完成项目,大家克服困难、任劳任怨。“三年的援外生活,让我们同塞拉利昂人民结下了真挚的友谊。”</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C313" s="5" t="inlineStr">
+        <is>
+          <t>AI漫画丨格陵兰：我不是待售的羔羊！</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:13+01:00</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>AI漫画丨格陵兰：我不是待售的羔羊！</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>为了得到格陵兰岛,美国政府正讨论一系列可能的选项,包括“购买”和“动用美国军队”。对此,丹麦政府和民众发出强烈抗议,称格陵兰岛是“非卖品”,绝不出售!格陵兰岛自治政府强调,格陵兰岛“不愿成为美国的一部分”。
+格陵兰岛是丹麦自治领地,有高度自治权。觊觎这片土地的美国,无论是“巧取”还是“豪夺”都将违背国际法,侵犯他国主权。
+自美国新政府上台以来,入侵委内瑞拉、觊觎格陵兰岛,甚至扬言吞并加拿大,扩张野心昭然若揭,暴露了其赤裸裸的霸权思维和“掠夺性外交”本质。正如舆论分析,美国新政府正在复刻“19世纪式的帝国主义”。
+策划:刘加文
+执行策划:袁韵 徐倩
+统筹:李雪梅 王春燕
+文案:粟棱
+AI漫画设计:白明辉
+新华网海外传播中心制作
+中国互联网发展基金会
+中国正能量网络传播专项基金资助支持项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C314" s="5" t="inlineStr">
+        <is>
+          <t>新华网国际看点丨美新一届政府执政近一年，给世界带来了什么？</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:13+01:00</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>新华网国际看点丨美新一届政府执政近一年，给世界带来了什么？</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>美国新一届政府上台近一年间,美国政治极化持续加剧,治理失序;对外四面出击,将“美国优先”凌驾于国际规则之上。从经济到社会,从内政到外交,无处不充斥着混乱与撕裂。《新华网国际看点》栏目邀请外交学院前院长、中华美国学会副会长王帆和复旦大学教授沈逸,盘点美国新政府执政近一年来的表现,深度分析其给美国和国际社会带来的影响,展望其2026年的政策走向。
+新华网:美国新一届政府已执政近一年。美国媒体用“狂野的一年”“疯狂”等词汇来描述美国的2025年。从外交、经济、军事等方面,您怎么看?
+外交学院前院长、中华美国学会副会长王帆:2025年,美国政府引发全球动荡,美国成为引发全球不确定性的重要因素。
+从外交领域看,它搞极端的单边主义、联盟重构。美国政府在2025年延续并极端化退群毁约,要退出巴黎协定、世卫组织、联合国人权理事会,导致全球治理体系碎片化。同时在同盟体系内搞同盟交易化,导致美欧战略互信跌至冷战后新低。
+从区域干预看,美国推行“门罗主义2.0”,即所谓的“唐罗主义”,以军事干预威胁拉美国家;对俄罗斯展现和解姿态,实际上意图拆解中俄协作;暂停援乌并强推和谈,但效果仍有待观察;在涉台问题上,通过相关法案并推进巨额对台军售,严重干涉中国内政。
+从经济领域看,美国继续搞霸权干预、推行对等关税,引发供应链震荡。它强行推动“去全球化”与“友岸外包”,导致全球供应链局部瘫痪,物流与生产成本上升。反噬效应下,关税成本几乎全部由美消费者承担,推高了美国内物价。
+宏观政策上,美国政府签署“大而美”法案,实施万亿级减税并扩大油气生产,削弱清洁能源补贴,预计未来十年将新增3.3万亿美元赤字。同时,美国政府频繁干预美联储独立性,动摇了美元霸权的信用。
+从军事领域来讲,是战略收缩与局部强化。美国军事战略呈现收缩态势,将资源从中东、欧洲撤回,聚焦在所谓与国家安全利益相关的区域,比如西半球和“印太”,导致局部局势进一步恶化。
+复旦大学教授沈逸:从外交层面来看,2025年美国政府的特点是向交易性和退群化方向发展。
+第一,出现系统性退群和抽身。以行政命令方式退出或停止支持大量国际组织与合作机制,被外界普遍解读为对多边主义的进一步弱化,不愿意提供全球治理和全球发展所需的公共物品。
+第二,对盟友更强调所谓的对等。在新版国家安全战略中明确强调负担分担和负担转移,要求盟友承担更多防务责任,并以经贸和安全捆绑方式推动盟友向美国对齐。这个取向被舆论称之为同盟关系的工具化。
+在经济层面,关税和所谓的对等贸易需求带来高度不确定性,在2025年出现明显的关税冲击,先冲击、再降温、再延长。急转弯式的关税实践对全球供应链的预期、企业投资与市场波动造成非常明确的负面扰动。
+在军事与地缘政治方面,把西半球优先推到前台,以西半球主导权为名推行强势行动。美国在2025年国家安全战略中明确提升西半球的优先级,提出要重申并执行“门罗主义”,以恢复在西半球的优势地位。国会研究机构也指出,美新版国家安全战略把西半球与中国作为突出重点,可能带来美军力量和部署重心的重新调整。
+随着突袭委内瑞拉、强行控制马杜罗,“唐罗主义”的叙事开始配套现实动作。美方把“门罗主义”再包装成“唐罗主义”,然后在实践行动中尝试在委内瑞拉实现某种远距离黑帮教父式的遥控。试图传递的信息非常清晰,即美国在西半球的主导地位再不受质疑。
+新华网:您认为,总体而言,世界舆论对美国新一届政府的满意程度能打多少分?扣分项在哪儿?
+沈逸:肯定是不及格。至于多低,各位可以自己去看。
+整体上,有四个方向的扣分项:第一,可预期性非常差。由于关税和行政令密集,政策摆动极快,全球市场和盟友都难形成稳定预期。
+第二,多边合作后退。大规模退群和撤资,削弱了全球治理协作,国际社会对于美国急速退化的公共物品供给意愿,评价显然是负面的。
+第三,同盟交易化导致价值分裂。盟友对美国新一届政府的外交政策评价也不高,严重威胁或者损害了跨大西洋伙伴关系。
+第四,西半球强硬化路线引发反弹。由于简单将移民、毒品、犯罪和地缘捆绑在一起,采用军事化方式去解决这类问题,用“门罗主义”和现实行动叙事去推进,导致拉美国家触发对殖民的集体记忆和对于帝国主义行为的总体性反弹。
+2026年1月3日,在委内瑞拉首都加拉加斯,民众在米拉弗洛雷斯宫附近集会。 新华社发(马科斯·萨尔加多摄)
+新华网:2025年,美国新一届政府哪些内政举措深刻影响了美国社会?
+王帆:首先从行政改革与治理危机说起。美国设立由企业家马斯克牵头的政府效率部,裁撤约30万联邦雇员,大幅削减教育部、环保署等机构预算。此外,由于预算谈判破裂,美国政府经历长达43天的历史最长停摆,公信力跌至低点。
+第二,在移民政策上采取极端化政策,启动了急速回归行动,实施史上最大规模的非法移民驱逐,并授权在边界使用致命武力。此举虽满足了部分选民,但导致农业、建筑业劳动力短缺,预计未来可能缩减美国GDP约1-4.9%。
+第三,社会与教育撕裂。美国政府削减了联邦教育部的职能,推动普遍私校选择权,并废除涉及性别平等的保护条款。这些政策加剧了“红州”与“蓝州”的对立,导致社会价值观爆发大的分歧和冲突。
+沈逸:第一是移民和边境管理,直接成为社会冲突的放大器。以边境紧急状态军事化增援和更强执法作为抓手,去推进它的国内政策,不仅提升了国内的抗议,而且在州和联邦的关系、社会撕裂方面也产生进一步的负面效果。尤其是随着2026年初明尼苏达街头美国移民与海关执法局枪击事件,预期美国国内围绕联邦执法权限和身份、文化冲突方面矛盾会加深,移民议题暴力化可能是未来发展的一个主要趋势。
+第二是国家治理结构变更,主要特点是行政权扩张和机构再造,通过一揽子行政令方式重塑政府行为方式。虽然一开始大家注意力聚焦到政府效率部,但很快发现其实美国这一届政府最大的特点是搞急速推进的行政集权,将所有实质性决策权力极大化地向总统方向集中。在这个过程中,引起关于总统权力边界、数据隐私、行政、国家稳定性的持续争论。
+第三是文化和身份议题,由于推进反DEI(“多元化、平等、包容”),军队去DEI性别议题作出相应调整,同时强势介入对高校和文化机构当中相关要素的清理,可以视为对于民主党相关政策的强势“拨乱反正”。这使得社会文化冲突更容易被政治动员,形成政策、舆论、街头联动的持续态势。这种张力的持续增加可能会对美国国内的撕裂,尤其是基于身份和文化的撕裂带来进一步助推,而不是弥合。
+从内政角度上来说,舆论可能会给它打分比外交上高一点。至少对一部分支持者,或者看好它的媒体来说,它呈现出了执行力强、议程推进快的特点。但缺陷也非常明显,政策的对抗性和撕裂性太高,治理结构的争议在扩大而不是在缩小,公共信任与社会和解的能力在下降。
+2025年6月8日,在美国加利福尼亚州洛杉矶市中心的联邦执法机构门前,一名抗议者被警察控制。 新华社发(邱晨摄)
+新华网:美国新一届政府2025年执政总体呈现怎样的特点?其执政思路基于怎样的战略考量?
+王帆:美国政府2025年的执政被描述为“推土机式治理”,具有极端单边主义、强行政主导、经济霸凌、战略收缩、民粹化治理五个特征。
+从战略逻辑来讲,首先它承认了多极化的现实。美国政府高层,比如副总统万斯、国务卿鲁比奥都承认美国单极霸权时代已经终结,它的战略转向新孤立现实主义。
+从收缩型霸权来讲,从扩张型霸权转向防护型霸权。聚焦西半球与“印太”,要求盟友分担成本及维护美国的核心主导权。对华仍然是继续保持遏制态势,将中国视为首要对手,也将中国视为近乎势均力敌的经济竞争者,试图通过技术封锁和供应链脱钩,维护美国自身战略优势。
+世界舆论对美国政府的评价非常低,因为美国政府破坏国际规则的信用,输出通胀,制造地缘政治真空,以及加剧军备竞赛。
+新华网:美国政府2025年12月发布的新版国家安全战略报告,全面阐述了新一届政府“美国优先”的外交政策。您认为美国政府2026年施政的优先级会是什么?与2025年相比,可能出现哪些新变化?
+沈逸:2026年的施政优先级,就是把国家安全内政化,把内政议程安全化,一种互动的安全化建构。同时聚焦于三条主线:
+第一条主线是“西半球优先”进一步落地,包括更强的所谓“移民外包”,让周边国家拦截移民,更强的禁毒与执法外溢。在美国国内能禁多少毒品不好说,但以禁毒为名在西半球做些事,做一些想做而之前不方便做的事,这点是大概率可以判断的。更强势地去排挤它所认定的在西半球存在的域外力量,但它会受到客观经济规律生态和能力的约束。
+第二条主线是经贸工具的安全化。继续用关税、对等贸易、供应链重构作为谈判杠杆,并绑定商业条件和安全条款。当然这会遭到越来越强的反噬,并且持续处于“不断撞南墙、不断回头、再不断撞南墙”的过程。
+第三条主线是盟友体系再定价。推动盟友在军费、产业链和出口管制上与美国对齐。
+新华网:美国政府大肆鼓吹“唐罗主义”,称“美国在西半球的主导地位再也不会受到质疑”。美国政府接下来可能采取哪些行动?所谓“唐罗主义”能得逞吗?
+沈逸:首先,对资源和通道进行控制。围绕油气、关键矿产、港口航运、金融结算,把关键资源链条留在美国可控范围内。委内瑞拉提供了一个样板,也提供了一个边界,能做到什么,不能做到什么,效果多少,行业是否买账,都已经得到了比较清晰的验证。
+其次,政治安全捆绑施压。以移民、禁毒、治安合作为条件,对周边国家提出更高的对齐要求,不排除强化制裁、援助条件化,以及更强的执法、军事威慑。
+再次,排挤外部力量明确化。把它认定的外部力量作为应该被挤出西半球的竞争者,通过经济和政治手段削弱其立足点。最终效果存在不确定性,但过程一定会带来更多负面影响。
+在短期内,因为它客观上具备行政当局可以直接调用的金融、军事实力以及其它多重杠杆,同时在美国国内的政治动员中,安全、移民、毒品的叙事可以获得有效支持。当然有个前提,它不能遭遇明显的失败。如果有一次军事投机行动遭遇明显挫败,那情况可能会完全不同。
+长期看,存在有效的硬约束:第一,市场经济不买账。就像埃克森美孚明确讲委内瑞拉不具备投资价值,除非建立一个所谓的“合法政府”。这届美国政府的想象、对客观世界的认识在很多时候不准确、不稳定,是有问题的。基于这种错误认知所采取的行动、制定的政策和战略,是不可能取得成功的,但是短期内会产生冲击,长期它会被证明是错误的。
+第二,地区国家的主权反弹和历史记忆也是一种客观的存在,会提高有形和无形的合作成本,会使它试图从这种战略中获取经济利益的核心构想趋于破灭。
+第三,资源消耗将会是一个客观的存在。它事实上需要做的是收缩,但实际上它的范围如果是聚焦于西半球,然后做一轮强化,在资源上可能会带来更大的消耗,导致它走向预期的反面。
+新华网:从中长期视角看,冷战结束后至今,美国在世界舞台上的角色发生了怎样的变化?
+王帆:从美国的世界角色所经历的变化角度来看,它维持美国霸权的本质没有变,所变的是调整实施霸权的手段。
+第一个阶段是从1991年到2001年,是单极霸权扩张时期。美国作为单极秩序的强制塑造者,推行新干涉主义和北约东扩。
+第二个阶段是2001年到2008年,是霸权困境的凸显期。美国通过反恐战争过度延伸它的力量,陷入了阿富汗、伊拉克战争,国力开始透支。
+第三个阶段是2008年到2020年,是霸权调整与竞争期。美国从守成国家转向大国竞争,推出亚太再平衡,贸易政策转向经济民族主义。
+第四个阶段就是2020年到2025年,整体上来讲呈现出收缩型霸权期,践行本土优先,实施选择性介入和战略收缩,加剧全球治理失序。
+美国当前这种违背多边主义和时代潮流的霸权逻辑,必然导致国际社会对其抵制日益增强,未来多极化趋势已不可逆转。
+策划:车玉明 刘加文
+统筹:袁韵 徐倩
+执行:刘小军
+编导:何媛 谢艳 余申芳
+视频剪辑:邓琦 张旭烨
+视觉设计:杨霁昕
+新华网海外传播中心制作
+中国互联网发展基金会
+中国正能量网络传播专项基金资助支持项目</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C315" s="5" t="inlineStr">
+        <is>
+          <t>法国政府挺过议会不信任投票</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:13+01:00</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>法国政府挺过议会不信任投票</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>1月14日,在法国首都巴黎,法国总理勒科尔尼出席国民议会会议。
+法国国民议会14日就在野党对政府提出的两项不信任动议举行投票表决,两项动议均未获通过,总理勒科尔尼领导的政府继续正常履职。
+新华社发(亨利·施瓦茨摄)pagebreak
+1月14日,在法国首都巴黎,法国总理勒科尔尼出席国民议会会议。
+法国国民议会14日就在野党对政府提出的两项不信任动议举行投票表决,两项动议均未获通过,总理勒科尔尼领导的政府继续正常履职。
+新华社发(亨利·施瓦茨摄)pagebreak
+1月14日,在法国首都巴黎,法国总理勒科尔尼出席国民议会会议。
+法国国民议会14日就在野党对政府提出的两项不信任动议举行投票表决,两项动议均未获通过,总理勒科尔尼领导的政府继续正常履职。
+新华社发(亨利·施瓦茨摄)pagebreak
+这是1月14日在法国首都巴黎拍摄的国民议会会议现场。
+法国国民议会14日就在野党对政府提出的两项不信任动议举行投票表决,两项动议均未获通过,总理勒科尔尼领导的政府继续正常履职。
+新华社发(亨利·施瓦茨摄)</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C316" s="5" t="inlineStr">
+        <is>
+          <t>第42次南极考察丨“雪龙”号在新西兰举行公众参观活动</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:13+01:00</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>第42次南极考察丨“雪龙”号在新西兰举行公众参观活动</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>1月14日,“雪龙”号停靠在新西兰克赖斯特彻奇市利特尔顿港。
+1月14日,“雪龙”号极地科考破冰船公众参观活动在新西兰克赖斯特彻奇市利特尔顿港举行。当地民众在中国驻克赖斯特彻奇总领馆组织下登船参观了正在执行中国第42次南极考察任务的“雪龙”号,并听取中国南极考察科普讲座。
+新华社记者 顾天成 摄pagebreak
+1月14日,观众在“雪龙”号上参观。
+1月14日,“雪龙”号极地科考破冰船公众参观活动在新西兰克赖斯特彻奇市利特尔顿港举行。当地民众在中国驻克赖斯特彻奇总领馆组织下登船参观了正在执行中国第42次南极考察任务的“雪龙”号,并听取中国南极考察科普讲座。
+新华社记者 顾天成 摄pagebreak
+1月14日,观众在“雪龙”号上听中国南极考察科普讲座。
+1月14日,“雪龙”号极地科考破冰船公众参观活动在新西兰克赖斯特彻奇市利特尔顿港举行。当地民众在中国驻克赖斯特彻奇总领馆组织下登船参观了正在执行中国第42次南极考察任务的“雪龙”号,并听取中国南极考察科普讲座。
+新华社记者 顾天成 摄</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C317" s="5" t="inlineStr">
+        <is>
+          <t>航班减、消费降……游客减少笼罩日本旅游业</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:13+01:00</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>航班减、消费降……游客减少笼罩日本旅游业</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>“日本关东地区镰仓市接待的外国游客中,来自中国的游客占比超过一半,其数量减少已使当地土特产商店的经营面临严峻局面。”近日,日本无限合同会社首席经济学家田代秀敏接受记者采访时表示,中国游客减少,将使日本经济承受更多下行压力。
+2025年11月,日本首相高市早苗在国会答辩中就日本安保法中的“存亡危机事态”悍然发表涉台挑衅言论,中方提出严正交涉和强烈抗议。中日关系迅速遇冷。
+2025年11月17日,游客在日本东京的一家餐厅用餐。新华社记者 贾浩成 摄
+以旅游业为支柱产业的日本关西地区,高度依赖中国游客市场。大阪观光局发布的调查数据显示,截至2025年12月底,其旗下20家会员酒店中,50%至70%的中国游客订单已取消。另据关西机场株式会社预测,今年1月至3月,关西国际机场往返中日之间的航班将平均减少28%。
+东日本国际旅行社社长谢善鹏接受采访时表示,去年12月起,该旅行社所有来自中国大陆的修学旅行团、企业和政府交流团等团体订单已全部取消。“即便客户已支付定金,他们宁愿承担违约金,也取消了行程。”他说,不仅如此,散客也纷纷取消行程,今年1月几乎“零问询”。
+“部分专门接待中国游客的巴士公司甚至重现‘无薪休假’。”谢善鹏说,中国游客减少对日本旅游产业链的影响正在逐步显现。
+2025年11月17日,一名男子在日本东京的一家咖啡店外休憩。新华社记者 贾浩成 摄
+中国游客减少的影响也传导至日本零售业。数据显示,日本大型百货公司去年12月1日至14日免税销售额同比普遍下滑,其中大丸松坂屋百货减少9.4%,高岛屋下降9.8%,三越伊势丹则大幅下滑20%。
+田代秀敏分析认为,日本部分人口稀少地区正是依靠外国游客带动当地发展并支撑就业,如果此前主要接待中国游客的酒店被迫停业,将直接影响当地经济。(记者:彭纯、胡晓格)</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C318" s="5" t="inlineStr">
+        <is>
+          <t>王毅会见加拿大外长阿南德</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:13+01:00</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>王毅会见加拿大外长阿南德</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>新华社北京1月15日电 中共中央政治局委员、外交部长王毅15日在北京会见加拿大外长阿南德。
+王毅表示,卡尼总理开启了访华行程,这是加拿大总理时隔8年访华,对两国关系具有转折性、标志性意义。两国领导人将举行会见会谈,相信将为双边关系开辟新前景。中方愿同加方加强沟通,增进信任,排除干扰,深化合作,推动双边关系在新形势下走稳、走实、走好。
+阿南德表示,加新政府高度重视对华关系。期待通过此访重启各领域对话,推进达成更多互利成果,加强多边事务协调合作。</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C319" s="5" t="inlineStr">
+        <is>
+          <t>今日主角 | “敬二舅”刷屏：平凡之光，大有力量</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:10+01:00</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>今日主角 | “敬二舅”刷屏：平凡之光，大有力量</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>每个人都是生活的主角,每个人都是时代的主角。今天我们关注的主角是他们——排除万难勇向前的人。
+1
+满屏“敬二舅”
+“二舅”究竟有怎样的力量?
+这两天,一则名为《回村三天,二舅治好了我的精神内耗》的短视频火爆网络,与“二舅”有关的话题霸占各大热搜榜。
+视频的故事与表达感动了无数网友——
+有人说,这是视频版《活着》;有人说,仿佛看完了一篇短篇小说,“二舅”像是从故事里走出来的主人公,重叠了无数平凡人的身影;有人说,“二舅”让他们想起了家乡的人、身边的亲戚......
+我们先来简单地说下“二舅”这个人。
+视频中的“二舅”是一个穿灰色衣衫的干瘦老人。
+少时的“二舅”本可以凭着自己全校第一的学习成绩和一看就会的动手能力去开启自己开挂的人生,但不料却被生活开了一个大玩笑,在年少时因为发烧打针成为了一个行动不便的残疾人。
+心灰意冷了一年后,“二舅”终于从床上爬起,从一套木工工具开始,成为乡间的一位巧匠奇人。
+“二舅”自学木工,但不仅仅是一名木匠,他给村里人修农具、家具、电器、车辆......用双手撑起了自己的生活,还领养了一个女儿,并抚养她长大。
+故事没有到此结束。
+孝顺的“二舅”还要一边出门干活,一边照顾自己的老母亲。
+试想,如果“二舅”没有残疾,而是顺利参加高考,想必现在已过上了领着退休金颐养天年的生活,作者问他是否会觉得遗憾,他说“从来没有”。
+简短的故事展现出“二舅”身上不少可贵的品质,在他看似普通的生活中,却有着一股治愈人心的力量。
+如果要给这股力量起个名字,那我想是“顽强”。
+这个平凡的故事其实折射出了我们每一个人,满屏的“敬二舅”或许敬的就是他直面苦难、从不退缩的人生态度和坚韧品质。
+2
+“扭扭车男孩”“无腿勇士”......
+感动我们的是什么?
+“扭扭车”男孩张亮的故事,很多人都熟悉。
+这位自小患有成骨不全症(又称“脆骨病”)的男孩,三年级开始坐“扭扭车”代步求学。
+双腿不能正常行走,但从未放弃追求梦想的脚步。
+最近,张亮收到了心仪已久的大学录取通知书。
+他离梦想又近了一步。而很多人也从他的故事中,获得了追求梦想的力量。
+“无腿勇士”夏伯渝,想必大家也不陌生。我们“今日主角”栏目曾专门写过他攀登珠峰的故事。(详见《今日主角丨登上世界之巅“总共分几步”》)
+26岁,他第一次攀登珠峰时,把睡袋让给队友,导致双小腿因冻伤而截肢。69岁,终于成功登顶珠峰。
+40多年,他一次次出发,一次次失败,却始终坚定不“渝”。
+山高人为峰。不断攀登人生的阶梯,活出自己的高度。
+这样的故事,怎会不动人?
+3
+一篇论文致谢
+为何能引发共鸣以至于全网刷屏?
+近几年,每到毕业季,都有一些论文致谢引发关注。
+去年,中科院毕业生黄国平的博士论文致谢,在社交平台上走红。
+至今依然记得其中一些话,“我走了很远的路,吃了很多的苦,才将这份博士学位论文送到你的面前”“理想不伟大,只愿年过半百,归来仍是少年”......
+还记得一条点赞很高的留言,“穷且志坚,不坠青云之志。”
+今年,一位来自大凉山小伙苏正民的6000字毕业论文致谢,看哭了很多人。
+大凉山,我们都知道,这里曾经代表着“穷困”。走出大凉山的难度“难于上青天”。
+苏正民的求学路自然是“坎坷崎岖”,这在他致谢里有过描述:“山里的道路,看着很近,常常却要绕很远的路,走两三个小时的山路能到达学校是家常便饭......”
+但他却未曾放弃希望。
+汉语水平差,就放学后找个角落诵读课文;成绩提高慢,就省吃俭用买学习资料......2017年,苏正民考入中南财经政法大学,成为当时村里第一个“211”大学的学生。
+他也不曾忘记理想。
+在致谢结尾,他写道:“阿苏唯有继续努力学习、带着知识回到大山,帮助更多孩子走出大山......”
+看到这样的故事,你是否也会情不自禁想起自己的奋斗往事?
+4
+“二舅”就在你我身边
+平凡英雄不平凡
+考学失败、工作不顺、求爱遭拒......我们似乎一直都在不停地与困难作斗争。
+“今日主角”栏目关注过很多平凡英雄,这些英雄无不是在与生活磨难的抗争中闪闪发光。
+他们的故事让我们坚信,排除万难勇向前,人生路最后通向的一定是胜利。
+监 制:朱永磊 邱小敏
+策 划:李洁琼
+文 案、视频制作:冯文雅
+审 校:陈竞超
+点击进入专题</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C320" s="5" t="inlineStr">
+        <is>
+          <t>如何理解文化自信的这一根本性意义？</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:10+01:00</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>如何理解文化自信的这一根本性意义？</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>《理学院》之【100秒漫谈斯理】系列之104:
+《中共中央关于党的百年奋斗重大成就和历史经验的决议》指出,“文化自信是更基础、更广泛、更深厚的自信,是一个国家、一个民族发展中最基本、最深沉、最持久的力量”。这深刻揭示了文化自信对一个国家、一个民族发展所具有的根本性意义。
+第一,文化自信是最基本的力量。虽然文化如水,润物无声,却有极强的渗透力。它既塑造着生活于其中的每个人,影响着人们的思维方式、行为方式、生活方式,更关系着国家和民族发展的方方面面,影响着国家的发展方向、道路选择、制度设计,滋养着民族生命力、激发着民族创造力、熔铸着民族凝聚力。我们今天所走的中国特色社会主义道路,是在对中华民族5000多年悠久文明的传承中走出来的;我国今天的国家治理体系,是在我国历史传承、文化传统、经济社会发展的基础上长期发展、渐进改进、内生性演化的结果。
+第二,文化自信是最深沉的力量。一个民族文化的形成,总是植根于民族生息繁衍和不断发展的历史之中,需要经过时间的淘洗、实践的锤炼、长期的孕育,是一个不断积累沉淀、世代传承发展的过程。正因为如此,文化成为一个民族的基因,塑造着这个民族的精神气质,涵育着人们的精神世界,它的影响既潜移默化又深沉厚重。中华优秀传统文化的风骨神韵、革命文化的刚健激越、社会主义先进文化的繁荣兴盛,共同铸就了新时代我们坚定文化自信的强大底气。
+第三,文化自信是最持久的力量。文化无形,却有强大的韧性和顽强的生命力。文化自信一旦树立起来,就融入社会成员的血液和灵魂,渗透在国家政治生活、经济生活、社会生活之中,生生不息、代代传承。在几千年的历史流变中,中华民族从来不是一帆风顺的,遇到了无数艰难困苦,但我们都挺过来了、走过来了,其中一个重要的原因就是世世代代的中华儿女培育和发展了独具特色、博大精深的中华文化,使中华民族饱经磨难而不衰、千锤百炼更坚强。
+出品人:刘 健
+策 划:钱 彤
+监 制:周红军
+执行策划:朱永磊 汤阳
+编 辑:马若虎
+制 作:李东标 夏园园
+配 音:汪丽珍
+点击图片观看更多精彩内容</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C321" s="5" t="inlineStr">
+        <is>
+          <t>新时代中国发展进步的成功之道</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:10+01:00</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>新时代中国发展进步的成功之道</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>《理学院》之【100秒漫谈斯理】系列之103:
+党的十八大以来,以习近平同志为核心的党中央科学判断经济形势,提出以“创新、协调、绿色、开放、共享”为主要内容的新发展理念。今年全国两会期间,习近平总书记强调“贯彻新发展理念是新时代我国发展壮大的必由之路”,深刻揭示了新时代中国发展进步的成功之道。
+贯彻新发展理念,要始终坚持以人民为中心,坚持发展为了人民、发展依靠人民、发展成果由人民共享。要顺应人民对美好生活的向往,按照经济社会发展规律循序渐进,坚持在发展中保障和改善民生,促进社会公平正义,让发展成果更多更公平惠及全体人民,不断增强人民群众的获得感、幸福感、安全感。
+贯彻新发展理念,要始终坚持问题导向,着力补齐发展短板,切实解决好发展不平衡不充分的问题。无论是持续缩小城乡区域发展差距,还是破解“卡脖子”问题、加快实现科技自立自强;无论是推动生产和生活体系向绿色低碳转型,还是处理好自立自强和开放合作的关系,都要求我们不断深化对新发展理念的理解,采取更加精准务实的举措,在攻坚克难、化危为机中不断提升发展质量、开创发展新局面。
+贯彻新发展理念,重在真抓实干,将其落实到经济社会发展全过程和各领域。要把科技自立自强作为国家发展的战略支撑,持续激发创新这个第一动力;要全面推进乡村振兴,推进城乡区域协调发展和新型城镇化,突出协调这个内生特点;要加快推动绿色发展、持续改善生态环境,积极稳妥推进碳达峰碳中和工作,让绿色成为发展的普遍形态;要扩大高水平开放、高质量共建“一带一路”,让开放这条必由之路越走越宽;要不断促进人的全面发展和社会全面进步,扎实推动共同富裕,不断彰显共享这一发展的根本目的。
+出品人:刘 健
+策 划:钱 彤
+监 制:周红军
+执行策划:朱永磊 刘云伶
+统 筹:李洁琼
+编 辑:徐 可
+制 作:亢静璇
+配 音:崔月淼
+点击图片观看更多精彩内容</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C322" s="5" t="inlineStr">
+        <is>
+          <t>聚焦2025年中央一号文件</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:10+01:00</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>聚焦2025年中央一号文件</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>2025年中央一号文件,是党的二十届三中全会以后第一个中央一号文件。中国改革始于农村,改革深刻改变了中国农村,极大解放和发展了农村生产力,改变了亿万农民的命运。习近平总书记强调,解决农业农村发展面临的各种矛盾和问题,根本要靠深化改革。
+《中共中央 国务院关于进一步深化农村改革 扎实推进乡村全面振兴的意见》提出,以改革开放和科技创新为动力,巩固和完善农村基本经营制度,深入学习运用“千万工程”经验,确保国家粮食安全,确保不发生规模性返贫致贫,提升乡村产业发展水平、乡村建设水平、乡村治理水平,千方百计推动农业增效益、农村增活力、农民增收入,为推进中国式现代化提供基础支撑。
+务农重本,国之大纲。实现中国式现代化,必须加快推进乡村全面振兴。日前,党的十八大以来第13个指导“三农”工作的中央一号文件——《中共中央 国务院关于进一步深化农村改革 扎实推进乡村全面振兴的意见》发布,充分体现了以习近平同志为核心的党中央对“三农”工作一以贯之的高度重视、对推进乡村全面振兴的科学部署,向全党全社会再次发出了重农强农的强烈信号。各地区各部门要认真落实党中央决策部署,不断夯实“三农”工作基础,锚定推进乡村全面振兴、建设农业强国目标不懈奋斗。
+2025年中央一号文件23日发布,锚定推进乡村全面振兴、建设农业强国目标,对当前和今后一个时期“三农”工作作出系统部署,向全党全社会释放重农强农的强烈信号。围绕粮食安全、农民增收等热点话题,中央农村工作领导小组办公室有关负责人在国新办24日召开的新闻发布会上进行全面解读。
+2025年中央一号文件23日发布,全文六个部分,包括了粮食生产、巩固脱贫攻坚成果、县域经济、乡村建设等重要内容。今年中央一号文件,既着眼当前,部署2025年“三农”工作中必须抓紧抓好的一些要事实事;也放眼长远,着力健全推进乡村全面振兴长效机制。记者专访了农业领域专家,就文件要点进行解读。
+随着乡村全面振兴步伐扎实推进,如何管好用好农村资源资产成为社会关注的热点。近日发布的2025年中央一号文件强调,不允许城镇居民到农村购买农房、宅基地,不允许退休干部到农村占地建房。
+快递进村,是打通工业品下行“最后一公里”和农产品出村“最初一公里”的重要一环,关系着亿万农民的获得感、幸福感。近日发布的2025年中央一号文件强调“深化快递进村,加强村级寄递物流综合服务站建设”。
+“一动不动,万紫千红”“谈钱伤感情,不谈钱没感情”......一些大家耳熟能详的顺口溜,道出了我国部分农村地区高额彩礼现象背后的尴尬处境。23日发布的2025年中央一号文件,针对这个问题进一步提出破题之道,重点强调“综合治理”。
+中央财办分管日常工作的副主任、中央农办主任韩文秀24日说,抓粮食生产,必须立足于抗灾夺丰收,把困难想在前面,把安全系数打得更高一些。“要清醒地看到,一方面,粮食生产在一定程度上还是靠天吃饭,既要‘人努力’,还要‘天帮忙’。近年来极端天气等自然灾害多发重发,不确定因素很多。”韩文秀在当天召开的国新办新闻发布会上表示。
+今年是巩固拓展脱贫攻坚成果同乡村振兴有效衔接5年过渡期的最后一年。中央财办分管日常工作的副主任、中央农办主任韩文秀24日表示,过渡期结束后帮扶政策不会“急刹车”,而是要分类完善,建立健全常态化帮扶的制度机制。
+记者从国新办24日召开的新闻发布会上获悉,近年来,越来越多的青年大学生、城市白领等返乡入乡创业。根据有关部门统计,目前全国各类返乡入乡创业人员超过1200万人。“过去我们做‘三农’工作,更多考虑人往哪里去,而现在还要考虑人从哪里来。”中央财办分管日常工作的副主任、中央农办主任韩文秀在新闻发布会上说,乡村振兴,关键在人。在现代化进程中,人口大规模向城市转移,一些农村出现“空心化”“老龄化”,这是世界各国普遍遇到的难题。今后谁来种地、谁来兴村,是中国式现代化进程中需要解决的一个重大问题。
+2月24日,国务院新闻办公室举行新闻发布会,介绍进一步深化农村改革,扎实推进乡村全面振兴有关情况。中央财经委员会办公室副主任、中央农村工作领导小组办公室副主任祝卫东再次强调2025年中央一号文件内容,“不允许城镇居民到农村购买农房、宅基地,不允许退休干部到农村占地建房。”
+中央财经委员会办公室分管日常工作的副主任、中央农村工作领导小组办公室主任韩文秀介绍要保护进城落户农民的合法权益,要让进城落户农民在城乡之间可进可退、进退有据。
+2月24日,国务院新闻办公室举行新闻发布会,介绍进一步深化农村改革,扎实推进乡村全面振兴有关情况。中央财经委员会办公室分管日常工作的副主任、中央农村工作领导小组办公室主任韩文秀介绍,管住耕地的用途,将重点解决好耕地非农化、非粮化问题。
+中央财经委员会办公室副主任、中央农村工作领导小组办公室副主任祝卫东介绍,中央一号文件从生产、消费、贸易等方面,打出一套政策“组合拳”。
+中央财经委员会办公室副主任、中央农村工作领导小组办公室副主任祝卫东说要保障和改善农村民生,针对农民群众上学看病、养老抚幼等方面的突出问题,积极回应民生关切。
+今年是“十四五”规划收官之年,也是巩固拓展脱贫攻坚成果同乡村振兴有效衔接5年过渡期的最后一年。推进乡村全面振兴将从何处发力?记者采访了多位专家学者。
+悠悠万事,吃饭为大。23日发布的2025年中央一号文件围绕“米袋子”“菜篮子”“油瓶子”等作出一系列重要部署。这再次表明,必须确保国家粮食安全,始终把饭碗牢牢端在自己手上。
+悠悠万事,吃饭为大。23日发布的2025年中央一号文件围绕“米袋子”“菜篮子”“油瓶子”等作出一系列重要部署。这再次表明,必须确保国家粮食安全,始终把饭碗牢牢端在自己手上。
+文件在着力健全要素保障和优化配置体制机制这一章节里,对稳定和完善农村土地承包关系、管好用好农村资源资产、健全农业转移人口市民化机制等进行了部署。</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C323" s="5" t="inlineStr">
+        <is>
+          <t>中央和国家机关建设让党中央放心、让人民群众满意的模范机关</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:10+01:00</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>中央和国家机关建设让党中央放心、让人民群众满意的模范机关</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>中央和国家机关建设让党中央放心、让人民群众满意的模范机关</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C324" s="5" t="inlineStr">
+        <is>
+          <t>南宋木乃伊何以800余年芳香不腐？科技考古掀开神秘面纱</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:10+01:00</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>南宋木乃伊何以800余年芳香不腐？科技考古掀开神秘面纱</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>木乃伊并非埃及独有,古代中国人也擅长利用水银、朱砂和来自海上丝绸之路的香料让尸体芳香不腐。
+记者获悉,中国科技考古工作者近日在以古DNA技术研究长江下游一具南宋古尸的祖先背景和疾病易感性的同时,意外解密制作“东方木乃伊”的防腐香方。相关综合研究成果1月13日发表于《遗传学和基因组学杂志》。
+时间回溯到2018年,常州市考古研究所在常州市周塘桥发掘时出土一具南宋时期的古尸,距今800余年。墓志记载显示,这是一位52岁的男性,名叫“季立之”,解剖证实其有动脉粥样硬化等病症。
+图为常州南宋古墓里的墓志铭。(受访者供图)
+该研究获得了长江下游地区高覆盖古代全基因组数据:对于古代基因组研究而言,长江下游土壤潮湿是天然不利因素,古代人类遗骸经历数百年大多腐烂殆尽,DNA高度降解。但令考古工作者惊奇的是,该古尸不仅外观保存完好,其大脑和内脏也完整保存,而且自出土后就一直散发着极其浓郁的香味。
+从常州南宋古墓中出土的衣饰。(受访者供图)
+南宋古尸为何800余年不腐且香气袭人?为解开这个谜团,复旦大学研究团队对其展开了多学科综合研究,包括全身CT扫描、系统性解剖、古DNA研究、稳定同位素研究以及防腐材料检测等。
+“我们发现水银和朱砂通过灌肠的方式被直接注入常州古尸肠腔内。”复旦大学人类表型组研究院博士后王邦彦介绍,南宋古尸之所以保存完好,得益于东亚地区独特的防腐技术。
+学界指出,在中国,人工制作木乃伊主要集中于两个时期:战国至西汉以及宋明阶段。与古埃及、欧洲等地已得到系统深入研究的木乃伊相比,东亚地区木乃伊的防腐技术与保存机制尚缺乏全面细致的科学考察。
+水银和朱砂在东西方都曾被用作遗体防腐剂或固定剂,但实践的具体方法各不相同。中世纪欧洲的部分精英阶层木乃伊通常被摘除内脏,然后在其空的体腔注入水银,而常州古尸的水银则被直接灌入肠腔内。其朱砂的使用方式也与埃及或欧洲木乃伊大不相同——朱砂被灌入肠道末端,而不是被涂抹在皮肤表面。
+复旦大学团队与华东理工大学化工学院胡静教授团队合作,将古尸器官复水,获得了液体样本和大气样本。复水后提取到的液体样本是无色透明的,同样散发浓郁香气。检测结果显示:常州古尸体中主要含有龙涎香、龙脑香、没药等香料成分,以及少量乳香、沉香等。
+复旦大学科技考古研究院副教授文少卿认为,尽管这一防腐香方的香料配比还难以精确测定,但已掀开中国木乃伊制作技术的神秘面纱。
+此外,生活于南宋时期常州的富裕乡绅,已可以享受死后香料防腐的奢侈待遇,也折射出南宋时期海上丝绸之路香料贸易之繁华,丰富了人们对宋代社会生活的认知。(记者孙丽萍)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C325" s="5" t="inlineStr">
+        <is>
+          <t>六个关键词看未来六年固废治理“行动计划”</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Territorio geografía y medio ambiente</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:10+01:00</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>六个关键词看未来六年固废治理“行动计划”</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>六个关键词看未来六年固废治理“行动计划”</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C326" s="5" t="inlineStr">
+        <is>
+          <t>嫦娥六号玄武岩为揭示月球地质演化历史提供关键线索</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:10+01:00</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>嫦娥六号玄武岩为揭示月球地质演化历史提供关键线索</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>记者从中国科学院地质与地球物理研究所获悉,该研究所科研团队通过对嫦娥六号采集的月球背面样品的高精度钾同位素分析,首次揭示了南极-艾特肯盆地撞击事件导致月幔中等挥发性元素丢失,为理解大型撞击对月球演化的影响,以及揭示月球二分性的成因提供了重要依据。相关研究成果北京时间1月13日在国际学术期刊《美国国家科学院院刊》在线发表。
+自月球形成以来,小行星撞击是其最主要的外动力地质过程,塑造了遍布月表的撞击坑与盆地,并显著改变了月表的形貌与化学组成。然而,月球早期的大型撞击事件是否及如何影响月球深部,仍然不清楚。嫦娥六号任务采集了月球最大的撞击盆地——南极-艾特肯盆地的样品,为研究南极-艾特肯大型撞击事件及其效应提供了关键样品。高精度同位素分析能够通过测量同位素比值的微小变化,精准捕捉撞击事件留下的信息。其中,中等挥发性元素(如钾、锌、镓等)的同位素体系具有特殊的研究价值——这些元素在撞击产生的高温条件下易发生挥发与分馏,其同位素组成能够灵敏记录撞击过程中的温度、能量及物质来源信息,是揭示撞击规模、热历史及其对月壳和月幔物质改造的关键“同位素指纹”。
+研究团队对毫克级嫦娥六号玄武岩单颗粒进行了高精度钾同位素分析。结果显示,与来自月球正面的阿波罗样品相比,嫦娥六号玄武岩具有更高的钾-41、钾-39比值。为追溯这一异常信号的根源,研究团队逐一检查了宇宙射线照射、岩浆过程等多种可能因素,证实撞击事件改变了月幔的钾同位素组成,造成钾的亏损与同位素升高。在撞击产生的瞬时高温高压过程中,较轻的同位素(如钾-39)往往优先逃逸,导致残余物质中同位素比值升高,挥发分的丢失很可能抑制了月球背面后期的火山活动,从而为理解月球正背面不对称的地质演化历史提供了关键线索。(记者 帅俊全 褚尔嘉)</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C327" s="5" t="inlineStr">
+        <is>
+          <t>“天马-1000”无人运输机成功首飞</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:10+01:00</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>“天马-1000”无人运输机成功首飞</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>1月11日,“天马-1000”无人运输机顺利完成首次飞行试验(视频截图)。
+1月11日,由中国兵器工业集团西安爱生技术集团有限公司自主研发的“天马-1000”无人运输机顺利完成首次飞行试验,各项飞行数据表现良好,首飞取得圆满成功。
+“天马-1000”集物流运输、应急救援、物资投送等多功能于一体,好比空中“货拉拉”,是国内首款实现“高原复杂地形适配、超短距起降、货运/空投双模快速切换”的中空低成本运输平台。其升限达8000米,滑跑起降距离小于200米,最大航程1800公里,最大载重1吨。这一机型还可通过模块化货舱快速切换,灵活转换为物资投送平台,适应多样化任务需求。
+新华社发pagebreak
+1月11日,“天马-1000”无人运输机在进行首次飞行试验(视频截图)。
+1月11日,由中国兵器工业集团西安爱生技术集团有限公司自主研发的“天马-1000”无人运输机顺利完成首次飞行试验,各项飞行数据表现良好,首飞取得圆满成功。
+“天马-1000”集物流运输、应急救援、物资投送等多功能于一体,好比空中“货拉拉”,是国内首款实现“高原复杂地形适配、超短距起降、货运/空投双模快速切换”的中空低成本运输平台。其升限达8000米,滑跑起降距离小于200米,最大航程1800公里,最大载重1吨。这一机型还可通过模块化货舱快速切换,灵活转换为物资投送平台,适应多样化任务需求。
+新华社记者 付瑞霞 摄pagebreak
+“天马-1000”无人运输机(资料照片)。
+1月11日,由中国兵器工业集团西安爱生技术集团有限公司自主研发的“天马-1000”无人运输机顺利完成首次飞行试验,各项飞行数据表现良好,首飞取得圆满成功。
+“天马-1000”集物流运输、应急救援、物资投送等多功能于一体,好比空中“货拉拉”,是国内首款实现“高原复杂地形适配、超短距起降、货运/空投双模快速切换”的中空低成本运输平台。其升限达8000米,滑跑起降距离小于200米,最大航程1800公里,最大载重1吨。这一机型还可通过模块化货舱快速切换,灵活转换为物资投送平台,适应多样化任务需求。
+新华社发</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C328" s="5" t="inlineStr">
+        <is>
+          <t>国家卫健委发布突发事件创伤、烧伤医疗救治规范</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Política social</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:10+01:00</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>国家卫健委发布突发事件创伤、烧伤医疗救治规范</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>新华社北京1月14日电(记者李恒)国家卫生健康委14日公布《突发事件创伤伤员医疗救治规范(2025年版)》和《突发事件烧伤伤员医疗救治规范(2025年版)》。规范主要内容包括创伤、烧伤的严重程度评估、急救与转运、医疗救治、并发症防治等。
+突发事件创伤,多因自然灾害(如地震、洪水)、事故灾难(如交通事故、矿难、建筑坍塌)、社会安全事件(如暴力冲突、恐怖袭击)等所致。
+创伤伤情的严重程度对制定治疗方案和判断预后十分重要,在救治伤员时,应认真开展创伤严重程度评估。院前阶段、医疗机构内救治阶段,创伤严重程度评估方法有所不同。
+突发事件烧伤,多因天灾或人为因素所致,在场者很难自救与互救,不容易脱离危险。伤员烧伤面积、烧伤深度的评估,直接影响伤员的分流及治疗决策。
+现场救治后应对每名伤员建立简单的医疗文书,包括姓名、性别、年龄、单位、受伤时间、初估烧伤面积和深度、做过何种处理,家属联系人电话等,供送达的医疗机构救治参考。对于严重烧伤伤员或成批烧伤伤员,应及时向上级卫生健康行政部门通报,并申请专科技术力量支援。</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C329" s="5" t="inlineStr">
+        <is>
+          <t>文化新观察丨这些重大成果，彰显文明探源背后的科技力量</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:10+01:00</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>文化新观察丨这些重大成果，彰显文明探源背后的科技力量</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>有人说,科技是考古学的望远镜,令我们看得更远;也是考古学的显微镜,使我们看得更细。
+从现场精细发掘到文物科学保护,从深度价值阐释到沉浸式展示传播,科技深度融入我国考古工作之中,帮助考古学家更好洞察看不见的历史,解读未言明的文明。
+1月14日,中国社会科学院科技考古与文化遗产保护重点实验室2026年度首场重大成果发布会在中国历史研究院举行,集中发布了6项重大成果。透过这些重大成果,科技在文明探源中的重要作用愈发彰显。
+【中国动物资源标本库建设取得实质性进展】
+中国社会科学院科技考古与文化遗产保护重点实验室于2025年启动了科技考古资源标准库建设。其中,中国动物资源标本库率先推进,目前已获得实质性进展。
+中国动物资源标本库——古代动物标本库。(中国社科院供图)
+该标本库包括“中国古代动物标本库”与“中国现生动物标本库”。收藏着从全国26个省份121处遗址出土的古代动物骨骼标本,以及来自全国各地具有重要科研与收藏价值的现生动物标本,共计10万余件。
+这些标本凝结着深厚的历史记忆:距今一万年、中国最早的家犬骨骼,碳氮同位素分析揭示,先民慷慨地将食物分给最早驯化的动物伙伴;距今4500年、中原地区最早的家养黄牛骨骼,成为先民开拓创新先进生产力要素的重要物证;距今8000年、现已灭绝的圣水牛骨骼,促使我们深刻思考生物多样性变迁与生态文明建设......
+浙江跨湖桥遗址出土的圣水牛遗存。(中国社科院供图)
+“这些动物标本,可以为科技考古工作者构建起‘动物演化—经济模式—社会文化’的立体研究网络。”科技考古与文化遗产保护重点实验室副主任吕鹏表示,标本库整合了海量实物与数字化资源,为考古研究提供关键实证同时,兼具文明传播与公众科普功能,将成为连接考古研究、文明阐释与社会认知的重要桥梁。
+【成功复原唐代髹漆马铠甲等多套珍贵文物】
+青海都兰热水墓群2018血渭一号墓,是距今1300年的吐谷浑王室墓葬,因曾遭盗掘与自然侵蚀,墓中文物散乱破损、脆弱不堪。
+铜甲原始状态。(中国社科院供图)
+其中,墓中混杂堆积的铜甲片与髹漆甲片出土时毫无组合关系可循,稍一触碰便可能碎裂。考古团队运用三维扫描记录甲片的原始空间信息,并结合扫描电镜、超景深显微检测等手段,分析甲片加工工艺与材料成分,最终成功模拟复原出国内出土相对完整的唐代髹漆马铠甲,以及国内唯一的唐代金甲实物——鎏金铜甲。
+鎏金铜甲复原照。(中国社科院供图)
+一件碎裂成近千片、铜基体酥粉且变形严重的铜釜,也经细致修复重获新生。考古人员自发掘阶段便对其进行整体提取,转入实验室后,如同拼合立体图形般将残片逐一比对、拼合,终使这件器形宏大、富有浓郁民族风格的大型铜釜再现原貌。
+濒临解体的木胎髹漆盘,经分析研究确认为金银平脱工艺,彰显了古代匠人的精湛技艺和极高审美。盘内残留的葡萄籽,更成为丝绸之路青海道跨区域贸易繁荣的直接佐证。
+“我们创新构建了‘精细化发掘+应急保护+复原研究’的一体化工作新范式,打破了田野考古与文物保护分步开展的壁垒,将文物保护理念贯穿考古全流程。”成果发布人、文物保护修复师郭正臣说。
+【刷新学界对扎经染色技术的时空认知】
+一方残帛,半缕丝线,皆是古人留给我们的“无字书”。读懂这些“无字书”,正是纺织考古的魅力所在。
+在对青海都兰热水墓群2018血渭一号墓出土的扎经染色织物残片研究中,研究人员通过碳十四测年与树轮校正双重验证,确认该织物织造年代不晚于公元750年。这是迄今国际范围内经科学检测认定的、年代最早的扎经染色织物实物,将我国扎经染色工艺的确切历史实证提前至盛唐时期。
+2018血渭一号墓出土的扎经染色织物实物图。(中国社科院供图)
+该织物从何而来?专家借助显微结构分析、染料成分检测等科技手段,识别该织物中含有川黄檗等具有四川地域标识的染料成分。结合对唐宋时期历史文献的深入梳理,专家判断该织物即史籍所载的“斑布”。
+依据唐代《元和郡县图志》等史料记载,“斑布”作为土贡由四川等地运往都城长安,研究者确定了该织物残片所处的时空坐标,实证扎经染色织物的原生配方源于我国四川盆地及周边区域。
+“本研究纠正了‘扎经染色织物印度源头论’的学界认知。”科技考古与文化遗产保护重点实验室纺织考古实验室负责人刘大玮表示,研究成果同时揭示了唐代土贡制度影响下,丝绸之路贸易网络的运行轨迹,对深化丝路文明研究具有重要价值。
+【明确北方旱作农业起源与早期发展的关键时间节点】
+为明确北方旱作农业起源与早期发展的关键时间节点,考古学界开展了多学科合作研究,取得重要进展。
+冀北山地四台遗址新石器时代早中期房屋测年结果显示,距今一万年前后,该地区已出现定居或半定居聚落,这与本地区东胡林遗址粟、黍的利用时间高度吻合,不仅证明定居生活与早期农业的共生关系,还为“北纬40°附近的冀北山地可能作为旱作农业起源中心”的假说提供了数据支撑。
+兴隆沟遗址第一地点出土的炭化粟。(中国社科院供图)
+对内蒙古兴隆洼、兴隆沟遗址人骨的碳十四、同位素测定及定量分析证明,遗址出土的人骨年代集中于距今7800年—7500年,此时黍、粟两种谷物在先民食物结构中占比已达70%左右,这为北方旱作农业社会的建立提供了实证。
+辽宁马鞍桥山、河北郑家沟等遗址的同位素数据进一步揭示,距今6200年—5000年,红山文化核心遗址先民食物中,粟、黍占比提升至80%左右,反映了旱作农业经济不断发展的历史趋势。
+【发现我国最早的杨梅古树】
+施岙遗址位于浙江余姚,考古队员在这里发现了两段并排分布的树木枝干。经测定,出土古树约为公元前2520年,属于良渚文化时期。
+左图左下红色区域为出土位置,右图为古树枝干实物。(中国社科院供图)
+出土古树是何种属?专家对古树遗存进行了木材解剖学观察,并与遗址周边现生杨梅木材解剖结构进行对比,鉴定为杨梅属。进一步通过科技手段检测发现,古树样品检测出13种主要化合物、现生杨梅木材样品检测出12种与之相同的化合物,二者的化合物组成几乎完全相同,指向同一树种。
+“这是国内已知最早、最为明确的杨梅树种,也是科技考古的新突破。这充分说明,早在良渚文化时期,杨梅就已纳入先民的食物构成,余姚‘杨梅之乡’的渊源由来已久。”中国社科院考古研究所研究员王树芝说。
+【把我国大型水利工程建设史前推近3000年】
+“我国史前治水文明研究”集成卫星遥感、无人机航拍、遗址三维重建等前沿技术,从防洪、灌溉等角度提出良渚古城外围、江汉平原等史前聚落治水模式,揭示先民掌握气候、水文特征,合理整治管理水资源以应对气候变化。
+良渚古城与东苕溪水系模拟图。(中国社科院供图)
+“研究成果把中国大型水利工程建设的历史向前推进了近3000年。”中国社科院考古研究所研究员刘建国介绍,以往中外学者多从约2000年前的都江堰开始探讨中国早期水利工程,而本研究表明,早在5000年前,我国先民便已逐步联合起来,因地制宜修建规模复杂的水利工程,应对复杂的气候变化。
+科技与考古深度融合,历史与未来交相辉映。这些研究成果,犹如一把把钥匙,悄然打开通往古老文明深处的一扇扇大门,让尘封的历史绽放出崭新的光彩。
+策划:张晓松
+主编:林晖、孙闻
+记者:王子铭</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C330" s="5" t="inlineStr">
+        <is>
+          <t>105个医保目录新药落地全国1万多家定点医药机构</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Política social</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:10+01:00</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>105个医保目录新药落地全国1万多家定点医药机构</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>据国家医保局1月14日消息,截至2026年1月11日,2025年新增进入医保目录的105个谈判药品在全国11129家定点医药机构配备,包括6537家定点医疗机构和4592家定点零售药店;19个商保创新药品在全国965家定点医药机构配备,包括449家定点医疗机构和516家定点零售药店。
+为推动谈判药品落地,国家医保局组织相关企业报送了2025年版医保目录中新增谈判药品和商保创新药品配备机构名单。
+据介绍,105个新增谈判药品中,88个药品有配备机构信息。19个商保创新药品中,16个药品有配备机构信息。相关数据在国家医保局官网和国家医保服务平台App上同步发布,供参保人查询。
+国家医保局表示,将重点关注暂未配备进入定点医药机构的品种,加强监测并督导企业配备,切实保障参保人用药权益。(记者彭韵佳)</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C331" s="5" t="inlineStr">
+        <is>
+          <t>权威访谈·开局“十五五”丨坚持创新驱动 引领发展新质生产力——访科技部党组书记、部长阴和俊</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:10+01:00</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>权威访谈·开局“十五五”丨坚持创新驱动 引领发展新质生产力——访科技部党组书记、部长阴和俊</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>新华社北京1月14日电题:坚持创新驱动 引领发展新质生产力——访科技部党组书记、部长阴和俊
+新华社记者温竞华
+中国式现代化要靠科技现代化作支撑。“十五五”规划建议提出,加快高水平科技自立自强,引领发展新质生产力。近期召开的中央经济工作会议将“坚持创新驱动,加紧培育壮大新动能”列为2026年经济工作八项重点任务之一。
+“十五五”新开局,我国科技工作的发力点在哪里?高水平建设国际科技创新中心如何推进?怎样形成科技创新和产业创新互融共促新格局?新华社记者采访了科技部党组书记、部长阴和俊。
+统筹布局推动“十五五”科技工作
+问:2026年是“十五五”开局之年,科技部将从哪些方面推动科技创新引领高质量发展?
+答:2025年,我国科技强国建设迈出坚实步伐,为培育新质生产力、推动高质量发展提供有力支撑。
+2026年是深入推进科技强国建设的关键之年。科技部将坚持创新驱动,加强战略规划、政策措施、重大任务、科研力量、资源平台、区域创新等方面统筹,发挥新型举国体制优势,提升国家创新体系整体效能,加大高质量科技供给,培育壮大新动能,引领发展新质生产力。
+我们将加快编制出台“十五五”国家科技创新规划,全链条部署、全领域推进实施“十五五”时期重点任务和重大举措,强化未来五年科技工作的整体性布局、系统性推进。
+我们将聚焦经济社会发展紧迫需求,部署实施国家重大科技项目,加强原始创新和关键核心技术攻关,推动科技创新和产业创新深度融合,支撑构建现代化产业体系。
+我们将推动三大国际科技创新中心建设,进一步强化原始创新策源、高端产业引领、顶尖人才集聚等功能。同时,完善区域创新体系,鼓励地方打造各具特色的创新高地。
+我们将强化科技创新对教育和人才的牵引作用,促进科技自主创新和人才自主培养良性互动,创新人才培养使用模式,依托重大科技任务,培养造就一流领军人才和创新团队。
+一体推进教育科技人才发展
+问:党的二十届四中全会和中央经济工作会议都对一体推进教育科技人才发展作出部署,如何抓好贯彻落实?
+答:教育、科技、人才是中国式现代化的基础性、战略性支撑。一体推进教育科技人才发展,要强化教育对科技人才的基础支撑作用,强化人才对科技创新的根本保障作用,以高质量教育和高素质人才,为高水平科技自立自强提供有力支撑。
+一是强化统筹协调。建立健全一体推进协调机制,加强规划衔接、政策协同、资源统筹、评价联动,统筹部署重大任务和改革举措,支持地方先行先试。
+二是强化科技创新牵引。依托国家重大科技任务、科技创新平台基地,加快集聚造就一流科技领军人才,实现科技自主创新和人才自主培养良性互动。
+三是完善人才培养模式。围绕科技创新、产业发展和国家战略需求,超常布局急需学科专业,深化科教融汇、产教融合,注重发现培养青年科技人才,在实践中培养、在培养中实践,提升人才创新精神和创新能力。
+四是协同推进教育科技人才改革。深化项目评审、机构评估、人才评价、收入分配改革,畅通高校、科研院所、企业人才交流通道,充分激发广大科技人员创新创造活力。
+高水平建设国际科技创新中心
+问:中央经济工作会议提出,建设北京(京津冀)、上海(长三角)、粤港澳大湾区国际科技创新中心。如何理解这项重大部署?
+答:建设国际科技创新中心,是习近平总书记亲自谋划、亲自部署、亲自推动的重大战略决策。将北京国际科技创新中心拓展至京津冀、将上海国际科技创新中心拓展至长三角,标志着国际科技创新中心建设从单城突破迈向区域协同一体化发展的新阶段。
+这一部署的目的是,在充分发挥北京、上海龙头引领作用的基础上,通过空间拓展、资源统筹、政策叠加、力量协同,推动京津冀、沪苏浙皖优势互补、协同联动、凝聚合力,进一步提升原始创新策源功能、高端产业引领功能、顶尖人才集聚功能,确保2035年建成具有全球影响力的科技创新中心。
+下一步,我们将认真落实北京(京津冀)、上海(长三角)、粤港澳大湾区国际科技创新中心建设方案,会同有关方面扎实推进三大国际科技创新中心建设。
+一是打造科技强国重要战略支点。准确把握国际科创中心功能定位,进一步强化科技创新策源、高端产业引领、顶尖人才集聚功能,深度参与全球科技与产业的竞争合作,树立以科技创新支撑引领中国式现代化的标杆。
+二是强化高地引领、协同联动。发挥北京、上海龙头引领作用,带动京津冀、长三角协同联动、优势互补,强化资源共享、人才共育、平台共建、项目共研、产业共链、政策互认。同时,推动粤港澳三地规则衔接、机制对接,深化大湾区科技创新合作,打造全球科技创新高地。
+三是因地制宜、各扬所长。支持京津冀、长三角、粤港澳各地立足资源禀赋和产业基础,在创新链产业链方面协同布局,着力锻造科技长板和优势产业。
+四是央地协同、凝聚合力。围绕战略科技力量布局、重大科技任务部署、产业集群培育、开放创新环境建设等方面,出台政策举措,推动国际科技创新中心加快提升全球影响力,打造世界级创新策源地。
+推动科技创新和产业创新互融共促
+问:在强化企业创新主体地位方面,如何提供持续有力的政策保障?
+答:强化企业科技创新主体地位,是推动科技创新和产业创新深度融合的关键所在。科技部将会同相关部门,从制度上落实企业科技创新主体地位,培育壮大科技领军企业,充分发挥企业“出题人”“答题人”“阅卷人”作用,打通从科技强到企业强、产业强、经济强的通道。
+——强化企业技术创新决策的主体地位。支持国有企业和民营企业深度参与国家科技创新决策,在重大战略、重大规划、重大政策制定中,更多听取企业意见。
+——强化企业研发投入的主体地位。构建同科技创新相适应的科技金融体制,加强对科技型中小企业的金融支持。持续完善科技创新税收优惠政策落实机制,提高企业研发费用加计扣除比例,引导企业加大研发投入力度。
+——强化企业科研组织的主体地位。支持企业更多承担或参与国家重大科研任务,建立企业项目上升为国家项目的机制,支持科技领军企业牵头联合高校、科研院所和中小企业等创新主体组建创新联合体,建设科技创新平台基地,促进产业链上下游融通创新。
+——强化企业成果转化的主体地位。提升企业科技成果吸纳和转化能力,加快重大科技成果高效转化应用,推进科技型中小企业的孵化和培育。
+问:做好科技金融大文章,是加快发展新质生产力的题中之义。科技部对此有何考虑?
+答:2025年5月,科技部等七部门联合印发《加快构建科技金融体制 有力支撑高水平科技自立自强的若干政策举措》,形成科技金融高质量发展的政策“组合拳”。国家创业投资引导基金启动实施,科技创新和技术改造再贷款规模增加至8000亿元,债券市场“科技板”正式推出......一系列举措有效引导金融资本投早、投小、投长期、投硬科技。
+2026年,我们将与金融管理部门和金融机构紧密合作,持续加强对国家重大科技任务和科技型中小企业的金融服务。
+在强化科金协同方面,发挥好科技金融统筹推进机制作用,强化政策落实、制定增量政策、开展总结评估。建立健全重点科技领域融资对接机制。
+在完善科技金融政策举措方面,推动银行、保险公司和创投机构创新金融产品及服务模式,加强对国家重大科技任务和重点科技领域的金融支持。制定推动科技保险发展的政策,推广实施“创新积分制2.0”,持续提高科技型中小企业融资获得感。
+在深化科技金融创新实践方面,央地协同,加强三大国际科技创新中心等重点地区综合金融服务,鼓励各地开展科技金融政策先行先试,共同做好科技金融大文章。</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C332" s="5" t="inlineStr">
+        <is>
+          <t>受权发布丨中国共产党第二十届中央纪律检查委员会第五次全体会议公报</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:10+01:00</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>受权发布丨中国共产党第二十届中央纪律检查委员会第五次全体会议公报</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>新华社北京1月14日电
+中国共产党第二十届中央纪律检查委员会第五次全体会议公报
+(2026年1月14日中国共产党第二十届中央纪律检查委员会第五次全体会议通过)
+中国共产党第二十届中央纪律检查委员会第五次全体会议,于2026年1月12日至14日在北京举行。出席这次全会的有中央纪委委员120人,列席265人。
+中共中央总书记、国家主席、中央军委主席习近平出席全会并发表重要讲话。李强、赵乐际、王沪宁、蔡奇、丁薛祥、李希等党和国家领导人出席会议。
+全会由中央纪律检查委员会常务委员会主持。全会深入学习贯彻习近平新时代中国特色社会主义思想,全面贯彻落实党的二十大和二十届历次全会精神,认真落实四中全会部署,总结2025年纪检监察工作,部署2026年任务,审议通过了李希同志代表中央纪委常委会所作的《以更高标准、更实举措推进全面从严治党,为实现“十五五”时期目标任务提供坚强保障》工作报告。
+全会认真学习、深刻领会习近平总书记重要讲话。一致认为,讲话充分肯定过去一年全面从严治党取得的显著成效,着眼基本实现社会主义现代化关键时期,对以更高标准、更实举措推进全面从严治党,为实现“十五五”时期目标任务提供坚强保障作出战略部署,对纪检监察干部队伍寄予殷切期望。讲话高屋建瓴、视野宏阔、思想深邃、内涵丰富,具有很强的政治性、思想性、指导性,为深入推进全面从严治党和反腐败斗争指明前进方向、提供根本遵循。一致表示,将以习近平总书记重要讲话精神为指引,强化使命意识和奋斗意志,忠诚履职、担当尽责,紧紧围绕实现党的使命任务,持之以恒强化政治监督,坚定不移正风肃纪反腐,始终做到忠诚干净担当、敢于善于斗争,为如期基本实现社会主义现代化贡献力量。
+全会指出,2025年,以习近平同志为核心的党中央坚持不懈推进党的自我革命,团结带领全党全国各族人民攻坚克难、砥砺奋斗,圆满完成“十四五”目标任务,中国式现代化迈出新的坚实步伐。中央纪委国家监委和各级纪检监察机关坚持以习近平新时代中国特色社会主义思想为指导,牢记嘱托、感恩奋进,更加坚定拥护“两个确立”、坚决做到“两个维护”,更加坚定为维护党的团结统一而战、为捍卫党的先进性纯洁性而战,以党风廉政建设和反腐败斗争新成效为党和国家事业发展提供有力保障。中央纪委常委会深入学习贯彻《习近平谈治国理政》第五卷,加强对习近平总书记关于党的自我革命的重要思想的宣传阐释,带动全系统学思想、悟真理、抓落实,确保纪检监察工作始终沿着正确方向前进。紧紧围绕“两个维护”重大政治责任,强化政治监督,深化政治巡视,高质量实现对省区市巡视全覆盖,有力保障党中央大政方针贯彻落实。扎实开展深入贯彻中央八项规定精神学习教育,重拳纠治“四风”顽疾,严肃查处、公开通报违规吃喝等典型案例,推动全党进一步改作风树新风。坚定不移推进反腐败斗争,深化整治金融、国企、能源、消防、烟草、医药、高校、体育、开发区、公益慈善、安全生产、工程建设和招标投标等重点领域腐败,出台调查新型腐败和隐性腐败问题证据指引,深化风腐同查同治,制定实施新时代廉洁文化建设三年行动计划,着力铲除腐败滋生的土壤和条件。深化整治群众身边不正之风和腐败问题,强力惩治“蝇贪蚁腐”,推动解决群众急难愁盼问题,让群众有更多获得感。深入推进纪检监察体制改革,完成向中管企业全面派驻纪检监察组,促进完善全面从严治党法规制度和监察法配套制度,更好推动制度优势转化为治理效能。扎实开展“纪检监察工作规范化法治化正规化建设年”行动,打出自身建设“组合拳”,纪检监察铁军建设再上新台阶。在肯定成绩的同时,实事求是分析了纪检监察工作和干部队伍建设存在的问题,要求高度重视、切实加以解决。
+全会强调,“十五五”时期是基本实现社会主义现代化夯实基础、全面发力的关键时期,全面从严治党面临新的形势任务。纪检监察机关要切实把思想和行动统一到以习近平同志为核心的党中央对形势的准确判断、对任务的科学部署上来,深刻把握实现“十五五”时期目标任务对维护党的团结统一提出的更高要求,坚定不移推动全党拥护“两个确立”、做到“两个维护”;深刻把握实现“十五五”时期目标任务对把权力关进制度笼子提出的更高要求,坚定不移强化制度治权、依规用权;深刻把握实现“十五五”时期目标任务对保持党的先进性纯洁性提出的更高要求,坚定不移走好中国特色反腐败之路;深刻把握实现“十五五”时期目标任务对激励担当作为提出的更高要求,坚定不移促进党员干部在遵规守纪中干事创业。
+全会提出,2026年是“十五五”开局之年,也是我们党成立105周年。做好今年工作,要坚持以习近平新时代中国特色社会主义思想为指导,全面贯彻落实党的二十大和二十届历次全会精神,认真落实四中全会部署,深入学习贯彻习近平总书记关于党的建设的重要思想、关于党的自我革命的重要思想,坚定拥护“两个确立”、坚决做到“两个维护”,持之以恒推进全面从严治党,持续深化正风肃纪反腐,加大一体推进不敢腐、不能腐、不想腐力度,更加有力有效铲除腐败滋生的土壤和条件,持续开展“纪检监察工作规范化法治化正规化建设年”行动,推进新时代新征程纪检监察工作高质量发展,为实现“十五五”时期目标任务提供坚强保障。
+第一,强化政治监督,推动全党凝心聚力实现“十五五”时期目标任务。推动加强党的创新理论武装,引导党员干部增强使命意识,做到笃信、务实、担当、自律。推动广大党员干部树立和践行正确政绩观,自觉按规律办事,做到为人民出政绩、以实干出政绩。严明政治纪律、换届纪律,坚决清除心怀二志、言行不一的“两面人”,着力解决“七个有之”问题,严肃纠治思想上的自由主义、政治上的投机主义、组织上的宗派主义、工作上的本位主义、履责上的好人主义,切实维护以习近平同志为核心的党中央权威和集中统一领导。紧紧围绕贯彻新发展理念、推动高质量发展、加快构建新发展格局等战略部署,聚焦建设现代化产业体系、因地制宜发展新质生产力、建设全国统一大市场、扩大高水平对外开放、扎实推进全体人民共同富裕、常态化防止返贫致贫、化解地方政府隐性债务、加强生态环境保护、统筹发展和安全等任务要求,及时跟进监督,保障“十五五”顺利开局起步。
+第二,强化正风肃纪,巩固拓展深入贯彻中央八项规定精神学习教育成果。持续狠刹享乐主义、奢靡之风,对违规吃喝、违规收送礼品礼金等易发多发问题深化整治;对以调研考察、开展党建活动、培训的名义搞公款旅游,变相公款出国(境)旅游等问题严肃查处;对借民生项目违规建设楼堂馆所等新动向密切关注并纠治。持续整治形式主义、官僚主义,坚决纠治临近换届等待观望不作为,换届后急功近利“翻烧饼”、搞“政绩工程”等突出问题,推动为基层减负。深入贯彻关于锲而不舍落实中央八项规定精神推进作风建设常态化长效化的意见,以经常性学习教育为基础,以压实责任为关键,以风腐同查同治为抓手,完善作风建设长效机制。
+第三,强化标本兼治,用好一体推进不敢腐、不能腐、不想腐战略抓手。以保持高压震慑强化不敢腐,坚持猛药去疴、重典治乱,继续起底清理,深化整治金融、国企、能源、教育、学会协会、开发区和招标投标等重点领域腐败,严肃查处政商勾连、权力为资本提供保护、资本向政治领域渗透等问题,深挖细查预期收益、约定代持、政商“旋转门”等新型腐败和隐性腐败,着重查处“关键少数”、年轻干部腐败,深化受贿行贿一起查,加大跨境腐败案件查办力度,配合全国人大常委会制定反跨境腐败法。不断提高反腐败穿透力,及时发现、准确识别、有效治理各类腐败问题。以加强监督制约强化不能腐,健全授权用权制权相统一、清晰透明可追溯的制度机制,协助党中央修订《中国共产党党内监督条例》,深入落实关于加强对“一把手”和领导班子监督的意见,推动科学授权、正确用权、有效制权。以深化廉洁教育强化不想腐,深入落实新时代廉洁文化建设三年行动计划,提升廉洁宣传教育的针对性有效性,不断塑造清正廉洁的思想品格、廉洁奉公的政德修养、廉洁自律的道德操守、崇廉拒腐的社会风尚。以完善体制机制促进一体推进,健全党委统一领导下的反腐败工作机制,完善反腐败责任落实机制,深化以案促改促治,注重科技赋能,加快推进数字纪检监察体系建设,严格依规依纪依法使用。
+第四,强化执纪执法为民,持续深化群众身边不正之风和腐败问题集中整治。深化农村集体“三资”管理、医保基金管理、养老服务等全国性整治项目,部署开展高标准农田建设问题整治,指导各地因地制宜抓好整治重点项目和民生实事,深入整治违规异地执法、趋利性执法。研究制定常态化开展整治工作意见,形成长效机制。推动县级主战场持续深化整治工作,发挥群众监督作用,提升基层监督能力。
+第五,强化政治巡视,增强巡视监督震慑力、穿透力、推动力。全面贯彻巡视工作方针,组织开展二十届中央第七轮、第八轮巡视。深化巡视巡察上下联动,加强对省区市巡视、中央单位内部巡视、对村巡察工作指导督导。统筹督促被巡视党组织抓好中央巡视整改工作,完善整改评估和问责机制,推动有效解决问题。
+第六,强化铁军意识,不断提高纪检监察工作规范化法治化正规化水平。巩固拓展“纪检监察工作规范化法治化正规化建设年”行动成果,再集中抓两年,努力取得更大成效。铸牢绝对忠诚,突出政治教育、党性教育,做到政治过硬。深化纪检监察机构改革,分级分类开展全员培训,强化实战练兵、以干带训,做到能力过硬。发扬斗争精神,加强监督执纪执法标准化建设,协助党中央修订《中国共产党纪律检查机关监督执纪工作规则》,强化法治意识、程序意识、证据意识,做到作风过硬。永葆敬畏之心,完善内部权力制约机制和管理监督体系,国家监委向全国人大常委会报告专项工作,主动接受监督,坚决防治“灯下黑”,做到廉洁过硬。
+全会号召,要更加紧密地团结在以习近平同志为核心的党中央周围,顽强拼搏、锐意进取,持续推进新时代新征程纪检监察工作高质量发展,为以中国式现代化全面推进强国建设、民族复兴伟业作出更大贡献。</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C333" s="5" t="inlineStr">
+        <is>
+          <t>新华社消息｜中国社会科学院发布6项考古领域重大成果</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:10+01:00</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>新华社消息｜中国社会科学院发布6项考古领域重大成果</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>新华社消息｜中国社会科学院发布6项考古领域重大成果</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C334" s="5" t="inlineStr">
+        <is>
+          <t>新华社消息丨成功采购！第六批国家组织高值医用耗材集采开标</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Política social</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:10+01:00</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>新华社消息丨成功采购！第六批国家组织高值医用耗材集采开标</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>新华社消息丨成功采购！第六批国家组织高值医用耗材集采开标</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C335" s="5" t="inlineStr">
+        <is>
+          <t>以更高标准、更实举措推进全面从严治党之一 更加坚决有力地贯彻落实党中央重大决策部署</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:10+01:00</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>以更高标准、更实举措推进全面从严治党之一 更加坚决有力地贯彻落实党中央重大决策部署</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>1月12日,习近平总书记在二十届中央纪委五次全会上发表重要讲话强调,要坚持和加强党的全面领导,以更高标准、更实举措推进全面从严治党,更加坚决有力地贯彻落实党中央重大决策部署,更加科学有效地把权力关进制度笼子,更加清醒坚定地推进反腐败斗争,为实现“十五五”时期目标任务提供坚强保障。
+去年10月召开的党的二十届四中全会擘画了“十五五”时期我国经济社会发展的宏伟蓝图,把蓝图变为现实,离不开全党全国各族人民心往一处想、劲往一处使。要着眼实现新时代新征程党的使命任务,着眼基本实现社会主义现代化关键时期,深刻领会“更加坚决有力地贯彻落实党中央重大决策部署”的战略意图、重要要求,切实把思想和行动统一到以习近平同志为核心的党中央决策部署上来,凝心聚力为实现“十五五”时期目标任务而团结奋斗。
+“贯彻落实党中央重大决策部署,是维护党中央权威和集中统一领导的根本要求,也是党和人民事业不断发展进步的重要历史经验”
+我们党带领人民治国理政、推动发展,主要是通过制定正确的路线方针政策、作出科学决策部署来组织和实现的。党中央重大决策部署,是全党全军全国各族人民统一思想、统一意志、统一行动的依据,也是党和国家工作的“纲”,各地区各部门工作在根本上都是党中央重大决策部署的展开和实践。
+有效贯彻落实党中央重大决策部署,事关党和国家事业发展大局。围绕贯彻落实党中央重大决策部署,习近平总书记发表一系列重要论述,明确指出“维护党中央权威和集中统一领导,既包括维护党中央的领导制度及程序和规矩,也包括维护党中央的决策部署和工作安排”,鲜明强调“如果党中央的决策部署得不到有效贯彻,党的集中统一领导从何谈起?”反复要求“讲政治必须提高政治执行力”,等等,深刻阐述了贯彻落实党中央重大决策部署的重大意义、实践要求,为全党不折不扣抓落实指明了方向,提供了遵循。
+中国特色社会主义进入新时代,以习近平同志为核心的党中央着眼“两个大局”,围绕以中国式现代化全面推进强国建设、民族复兴伟业,制定出台一系列事关长远、事关全局、事关根本的重大方针政策、重大战略、重大规划、重大举措,有力牵引党和国家事业发展取得历史性成就、发生历史性变革。
+奋进新征程,必须深刻领悟“两个确立”的决定性意义,增强“四个意识”、坚定“四个自信”、做到“两个维护”,时时处处事事自觉同党中央精神对标对表,在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致,做到党中央提倡的坚决响应,党中央决定的坚决照办,党中央禁止的坚决不做。
+因理想而生,为使命而战。从兴业路到复兴路,从小小红船到巍巍巨轮,一百多年来,我们党始终把人民写在自己的旗帜上,革命是为了人民翻身得解放,建设是为了改变贫穷落后面貌、让人民过上幸福美好生活,改革是为了大踏步赶上时代、不断把最广大人民期望的事业推向新的发展阶段。进入新时代,以习近平同志为核心的党中央鲜明提出“江山就是人民、人民就是江山,打江山、守江山,守的是人民的心”,明确“人民群众对美好生活的向往就是我们的奋斗目标”,带领人民团结一心、接续奋斗,推动中华民族伟大复兴进入不可逆转的历史进程。
+历史启迪未来。新征程上,要坚持好、运用好贯彻落实党中央重大决策部署的重要历史经验,深刻体悟其中蕴含的人民立场、为民情怀、价值旨归,切实从实现党的使命任务、人民幸福安康的高度,强化贯彻落实的政治自觉和政治担当,把党中央重大决策部署落实到位。
+“‘十五五’时期是基本实现社会主义现代化夯实基础、全面发力的关键时期,各级党组织和广大党员、干部要增强政治责任感、历史使命感,以实际行动贯彻落实好党的二十届四中全会各项决策部署”
+今年是“十五五”开局之年,也是中国共产党成立105周年,我国进入基本实现社会主义现代化夯实基础、全面发力的关键时期。
+党的二十大确定了新时代新征程党的中心任务,作出了全面建成社会主义现代化强国“两步走”战略安排。党的二十届四中全会把握“十五五”时期基本定位和阶段性要求,对未来5年经济社会发展作出系统谋划和战略部署,明确了指导方针、主要目标、战略任务和重大举措。
+抓好“十五五”时期经济社会发展,对于实现党的二十大描绘的宏伟蓝图、分阶段有步骤推进中国式现代化,有效应对复杂严峻的外部环境新变化、在激烈国际竞争中赢得战略主动,适应我国发展阶段性要求、深入推动高质量发展,为基本实现社会主义现代化奠定更加坚实的基础,具有重大而深远的意义。
+形势决定任务。“十五五”时期,我国发展环境面临深刻复杂变化,工作任务艰巨繁重。今后五年,大国关系牵动国际形势,国际形势演变深刻影响国内发展,我国发展处于战略机遇和风险挑战并存、不确定难预料因素增多的时期,必须准备面对风高浪急甚至惊涛骇浪的重大考验。
+越是形势复杂多变、任务艰巨繁重,越要坚持和加强党中央权威和集中统一领导。从党的二十届四中全会的战略擘画,到开好局、起好步的明确要求,党中央作出的重大战略部署,明确的工作思路、任务、政策,都是经过充分论证、反复研究提出的。定了就要落实,坚持全党一条心、全国一盘棋,切实把党中央重大决策部署落到实处,不断凝聚事业发展的强大推动力。
+“增强政治责任感、历史使命感”,习近平总书记提出明确要求。踏上基本实现社会主义现代化的关键一程,各级党组织和广大党员、干部要增强胸怀“国之大者”、时时放心不下的责任感,在其位、谋其政、尽其责,增强接过历史接力棒、走好新的赶考之路的使命感,始终以党的初心为本心、以党的使命为生命,心中有理想、胸中有家国、肩上有使命,把全部智慧和力量凝聚到实现党的中心任务上来,心无旁骛推进中国式现代化、交出经得起历史和人民检验的合格答卷。
+围绕实现“十五五”时期目标任务做深做实政治监督,推动党员干部树立和践行正确政绩观,不折不扣把党中央重大决策部署落到实处
+一分部署,九分落实。
+政治监督是实现党的政治路线的重要保障。作为党内监督和国家监察专责机关,纪检监察机关必须履行好政治监督首要职责、根本职责,紧紧围绕实现“十五五”时期目标任务做深做实政治监督,推动全党进一步夯实坚持党中央集中统一领导的思想基础,进一步增强拥护“两个确立”、做到“两个维护”的政治自觉、思想自觉、行动自觉,齐心协力把党中央重大决策部署落到实处。
+持续推进政治监督具体化、精准化、常态化。习近平总书记重要指示批示是指引推动贯彻落实党中央重大决策部署的重要遵循,贯彻落实好习近平总书记重要指示批示是贯彻落实党中央重大决策部署的题中应有之义。要完善习近平总书记重要指示批示落实机制,强化持续跟踪问效和全周期全链条管理,确保执行到位、务求实效。要紧紧围绕习近平总书记反复强调的贯彻新发展理念、推动高质量发展、加快构建新发展格局,聚焦建设现代化产业体系、因地制宜发展新质生产力等任务要求,加强监督检查,以具体求深入、以精准求实效、以常态求长效,做到党中央重大决策部署到哪里,政治监督就跟进到哪里。要深化政治巡视,用好巡视成果、强化整改监督,以有力有效政治监督保障党中央重大决策部署落到实处。
+推动党员干部树立和践行正确政绩观。政绩观正确与否,直接关系党和人民事业发展。要用好政治监督这一推动党员干部树立和践行正确政绩观的有效方式,督促广大党员干部为人民出政绩、以实干出政绩,自觉按规律办事,坚决防止和纠正拍脑袋决策、拍胸脯表态、拍屁股走人的“三拍”现象;督促各地区各部门在党中央集中统一领导下,把贯彻落实党中央精神与结合实际创造性开展工作统一起来,勇于担当、真抓实干,以钉钉子精神坚决抓好党中央重大决策部署的贯彻落实。
+严明政治纪律和政治规矩。贯彻落实好党中央重大决策部署,关键在人。习近平总书记指出,“今年地方将开始换届,要把真正忠诚可靠、表里如一、担当尽责的好干部用起来。”要严明组织纪律、换届纪律,及时甄别、坚决清除对党不忠诚不老实的两面派、两面人,坚决查处“七个有之”问题,严惩结交政治骗子行为。要做深做实党风廉政意见回复工作,严把政治关、廉洁关,确保换届风清气正。
+蓝图已绘就,号角正催征。让我们更加紧密地团结在以习近平同志为核心的党中央周围,更加坚决有力地贯彻落实党中央重大决策部署,顽强拼搏、锐意进取,奋力谱写以中国式现代化全面推进强国建设、民族复兴伟业新篇章。(李玉长)</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C336" s="5" t="inlineStr">
+        <is>
+          <t>政府投资基金“投向哪”“怎么投”有了规范</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:51:10+01:00</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>政府投资基金“投向哪”“怎么投”有了规范</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>政府投资基金“投向哪”“怎么投”有了明确指引。
+1月12日,国家发展改革委、财政部、科技部、工业和信息化部联合发布了《关于加强政府投资基金布局规划和投向指导的工作办法(试行)》(以下简称《工作办法》),这是我国首次在国家层面对政府投资基金的布局和投向作出系统规范。与此同时,国家发展改革委制定的《政府投资基金投向评价管理办法(试行)》(以下简称《管理办法》)也于当天对外发布。
+“《工作办法》和《管理办法》有机衔接,对于提升财政资金使用效益、引导社会资本、服务国家战略具有深远意义。”在国家发展改革委宏观经济研究院经济研究所研究员刘国艳看来,两份文件的制定出台,能推动政府投资基金从追求规模扩张转向注重质量提升和精准发力,确保其真正服务于国家重大战略和产业政策。
+为基金绘制精准投向“路线图”
+所谓政府投资基金,就是指各级政府通过预算安排,单独出资或与社会资本共同出资设立,采用股权投资等市场化方式,引导各类社会资本支持相关产业和领域发展及创新创业的投资基金。数据显示,截至2024年年底,我国累计设立政府引导基金数量2178只,总规模突破12万亿元,其中产业类和创投类引导基金数量为2023只,总规模突破10万亿元。
+但随着基金数量和规模的快速增长,一些深层次问题也逐渐显现。比如,部分基金定位模糊,偏离了服务国家战略的政策性初衷;一些地方基金投资领域交叉重叠,导致同质化竞争和资源内耗;还有少数基金运作不规范,异化为违规招商引资的工具,甚至变相增加地方政府隐性债务。“这些问题不仅影响了政府投资基金的社会效益和经济效益,还可能对社会资本产生‘挤出效应’,扭曲市场资源配置。”海南君顾数科研究院院长单福说。
+2025年1月,国务院办公厅发布《关于促进政府投资基金高质量发展的指导意见》,提出政府投资基金管理要突出政府引导和政策性定位,按照市场化、法治化、专业化原则规范运作;并明确要“完善分级分类管理机制,合理统筹基金布局,防止同质化竞争和对社会资本产生挤出效应”。对此,《工作办法》提出了14项政策举措,重点聚焦对政府投资基金“投向哪、怎么投、谁来管”进行规范。
+在优化基金布局方面,《工作办法》要求基金支持重大战略、重点领域和市场难以有效配置资源的薄弱环节,推动科技创新和产业创新深度融合,着力培育新兴支柱产业,坚持投早、投小、投长期、投硬科技。“这从根本上厘清了政府投资基金与纯市场化基金的本质区别。政府投资基金不是追求短期财务回报的逐利工具,而应立足于服务国家长远发展战略,盈利不是第一目的,产业发展与投资引导更为重要。”单福说。
+围绕加强投向指导,《工作办法》要求基金投向须符合国家重大规划和国家级产业目录中的鼓励类产业,不得投向限制类、淘汰类以及政策明令禁止的产业领域。同时,《工作办法》还以负面清单的形式,明确了政府投资基金的禁止类投资行为,包括不得通过名股实债等方式变相增加地方政府隐性债务、不得直接或间接从事期货等衍生品类交易、不得为企业或项目提供担保等。单福表示,这些条款为政府投资基金运作划定了清晰、不可逾越的“红线”,是防范金融风险和地方债务风险的关键防火墙,能确保政府投资基金运作的规范与安全。
+为更好发挥政府投资基金的引导作用,《工作办法》对国家级基金与地方基金的功能定位和重点投资方向也进行了梳理,提出国家级基金要“立足全局”,聚焦跨区域、关键领域的示范引领;地方基金则需“找准定位”,因地制宜选择投资领域。在刘国艳看来,这体现了因地制宜发展新质生产力的要求,对防止各地盲目跟风和低水平重复建设有积极作用。
+正面引导与负面约束相结合
+如果说《工作办法》是对政府投资基金投资行为的“事前谋划”和“事中指导”,那《管理办法》就是对基金投向的“事后监管”。
+总体来看,《管理办法》遵循着“正面引导与负面约束相结合”的核心思路,建立了一套突出基金投向政策取向评价、覆盖基金运营管理全流程、定量和定性相结合的评价体系。其中,投向评价指标最受社会关注,这也是业界最常用,需要逐项执行、反复查阅的内容。
+具体来说,《管理办法》确定的投向评价指标体系共设置了3个一级指标、13个二级指标,为使指标体系指导性、实用性更强,还在7个重要的二级指标下设20个三级指标。3个一级指标分别为政策符合性指标、优化生产力布局指标、政策执行能力指标。在分值标准上,政策符合性一级指标分值为60分,优化生产力布局一级指标分值为30分,二者合计分值达到90分,突出了政府投资基金的政策导向和全面贯彻新发展理念的战略定位。
+值得注意的是,《管理办法》在构建多维度的评价框架的同时,还特别强调“评价结果与应用刚性挂钩”,将评价结果作为未来预算安排、基金存续调整、管理团队激励与问责的重要依据。比如,对政策效益显著、运营良好的基金,可予以持续支持;对长期绩效不彰、偏离目标的基金,将采取约谈、整改等措施。“这将从根本上建立起激励约束机制,倒逼基金管理机构牢记政策使命。”刘国艳说。
+“《工作办法》和《管理办法》,一‘规’一‘评’,形成了系统完整的管理闭环。”刘国艳表示,布局规划和投向指导所明确的重点方向与目标,是后续评价的核心依据与基准;而评价的结果与经验,又能为未来基金布局和投向的优化调整提供实证参考和决策支持,实现“以评价反馈规划”。她表示,这两项文件的出台,标志着我国政府投资基金进入了以“规范发展、提质增效”为特征的新阶段。(记者 贾骥业)</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C337" s="5" t="inlineStr">
+        <is>
+          <t>La marca china Geely llega a España con dos modelos electrificados y 50 concesionarios en 2026</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>2026-01-16T13:31:39+01:00</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>La compañía comenzará a vender sus dos primeros modelos a partir de primavera</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>La compañía comenzará a vender sus dos primeros modelos a partir de primavera
+La marca chinaGeely Auto,perteneciente al mismo grupo, ha anunciado su llegada a España, aunque no comenzará a vender sus modelos hasta principios del segundo trimestre de este año. Paralelamente, prevé tener hasta 50 concesionarios operativos en el país a finales de 2026.
+Así, Geely Auto se convierte en la primera de lasmarcas chinasque tiene previsto desembarcar en 2026 en el mercado automovilístico español junto con Denza, Lepas, Changan y Exlantix.
+No obstante, la compañía ya tiene presencia en algunos mercados europeos como Reino Unido o Grecia y está detrás de otras firmas de origen europeo como Volvo, dentro de un grupo que está conformado por hasta seis marcas más como Lynk &amp; Co, Polestar, Proton Cars, Lotus y Farizon.
+Además, el grupo automotriz es el mayor accionista individual de Daimler AG, la empresa matriz de Mercedes-Benz, y copropietario de Horse Powertrains, la empresa creada conjuntamente con Renault Group en 2024 para el desarrollo y fabricación de motores de combustión e híbridos.
+La firma china juega con un carácter diferencial respecto a otras marcas procedentes del gigante asiático que se quieren posicionar en el mercado europeo ya que, a través de su asociación con Volvo, podría comenzar más pronto que tarde a producir sus vehículos en suelo europeo.
+“¡Hola, España! Geely Auto ya está aquí. Un paso clave en nuestro viaje en Europa. Llegamos al mercado con una movilidad avanzada, segura y sostenible, y con vehículos de alta calidad diseñados pensando en los usuarios españoles. Nuestro compromiso se basa en la accesibilidad, la innovación y una experiencia de cliente excelente”, ha expresado la compañía a través de su red social LinkedIn.
+Previsiblemente, entre finales del primer trimestre y comienzos del segundo de este año se podría comenzar a ver el Geely E5 en las carreteras españolas. Este SUV eléctrico tiene una autonomía de hasta 530 kilómetros, impulsado por un motor eléctrico de 160 kW. Su gran tamaño, a caballo entre los segmentos C y D, no será incompatible con un precio asequible para el bolsillo del consumidor español, pudiendo situarse en el entorno de los 35.000 euros.
+Asimismo, su segunda apuesta en España será el modelo híbrido Starray EM-i Super Hybrid (híbrido enchufable), que tendrá una autonomía combinada de unos 940 kilómetros en ciclo combinado WLTP.
+La nueva marca de coches china configurará su propia red de distribución y postventa en España (prevé tener hasta 50 concesionarios operativos a finales de 2026) y comercializará modelos con motores convencionales de gasolina, híbridos, híbridos enchufables y eléctricos.
+El año pasado Geely Auto sobrepasó los 3 millones de ventas comercializados en todo el mundo, con un incremento de sus cifras sobre 2024 del 39%. Igualmente, el 56% de sus entregas fueron modelos electrificados. Junto al resto de marcas del grupo, el Geely Holding superó por primera vez en su historia los 4,1 millones de unidades a nivel global.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C338" s="5" t="inlineStr">
+        <is>
+          <t>Delcy Rodríguez: “Venezuela tiene derecho a tener relaciones con Rusia, China, Irán y Cuba”</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>2026-01-16T00:29:24+01:00</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>La presidenta encargada afirmó ante el Parlamento que la agresión estadounidense “es una mancha en la relación entre ambos países”</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>La presidenta encargada afirmó ante el Parlamento que la agresión estadounidense “es una mancha en la relación entre ambos países”
+Delcy Rodríguez,presidenta encargada de Venezuela, afirmó este jueves que “la agresión invasora” llevada a cabo por Estados Unidos contra el país el pasado 3 de enero constituye “una mancha en la relación entre ambas naciones”, y agregó que, en el contexto político actual, su gobierno “ha decidido escoger la vía diplomática” para dirimir el conflicto. “Tenemos derecho a tenerrelaciones diplomáticas con China, con Rusia, con Irán, con Cuba, con todos los pueblos del mundo. También con los Estados Unidos. Somos una nación soberana”, añadió.
+Rodríguez hizo estas afirmaciones durante la presentación anual de la gestión del Ejecutivo ante el Parlamento, un ritual constitucional que se celebra a comienzos de cada año en el Palacio Federal Legislativo. A la sesión han acudido varios embajadores extranjeros, gobernadores y autoridades del chavismo.
+La presidenta encargada, que en sus últimas declaraciones ha señalado queel país se abre a un “nuevo momento político”,dedicó buena parte de su intervención a honrar a Nicolás Maduro y Cilia Flores, capturados durante la operación estadounidense del 3 de enero, y a elevar la moral de la militancia revolucionaria tras el ataque. Rodríguez se comprometió nuevamente con la lealtad a los principios fundamentales del chavismo. “Este trabajo es del presidente Maduro, afirmó al presentar el documento.
+Rodríguez prometió trabajar por la liberación de Maduro y Flores y pidió “un minuto de aplausos” para los soldadosvenezolanos y cubanos que murieron en los enfrentamientoscon tropas estadounidenses. “No le tengamos miedo a la contradicción planteada. Vamos a enfrentarla”, dijo en referencia a los acuerdos petroleros con Estados Unidos anunciados por el propio Donald Trump tras la detención de la pareja presidencial.
+Tanto Delcy Rodríguez como su hermano Jorge Rodríguez, presidente del Parlamento, emplearon un tono conciliador hacia la oposición. Ambos invocaron laimportancia de fomentar la convivencia políticay asumieron, al menos de forma parcial, la responsabilidad de trabajar para consolidar un mejor clima en el país.
+Rodríguez advirtió a la oposición: “No confundan las medidas sustitutivas tomadas con algunas personas judicializadas y nuestro interés en bajarle la presión al clima político con debilidad. No se equivoquen con esto. Es hora de desterrar el extremismo fascista. Vamos a rectificar todos”. Rodríguez agregó además: “No es que la presidenta encargada tenga miedo porque esté amenazada. No. Venezuela entera está amenazada y, con la soberanía por delante, daremos la batalla diplomática”.
+La presidenta encargada criticó los fundamentos históricos de la diplomacia estadounidense y comentó que, históricamente, la nación norteamericana ha maniobrado e intrigado abiertamente para ampliar su radio de influencia en América Latina, socavar su independencia y traficar con sus recursos naturales. “La doctrina Monroey el bolivarianismo que nosotros postulamos y defendemos son proyectos completamente opuestos, son antítesis”, afirmó.
+En una alusión directa a las recientes conversaciones entre Donald Trump y la líder de la oposición venezolana, María Corina Machado, Rodríguez comentó: “Si algún día me tocara ir como presidenta encargada a Washington, lo haré con dignidad, de pie, caminando con la frente en alto y con la bandera tricolor. Será de pie, nunca será arrastrándome”.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C339" s="5" t="inlineStr">
+        <is>
+          <t>En un mundo trastocado por Trump, la ofensiva diplomática de China atrae a Canadá hacia una reconciliación que se adapte a la "nueva realidad global"</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>2026-01-16T09:18:46+01:00</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>El primer ministro canadiense, Mark Carney, visita China tras varios años de relaciones prácticamente congeladas entre ambos países Leer</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>MientrasChinaintensifica sus esfuerzos para cortejar a los tradicionales aliados de Estados Unidos, el presidenteXi Jinpingha recibido enPekínla visita del primer ministro canadiense,Mark Carney, quien hizo unas declaraciones que desnudan hasta qué punto el peso del gigante asiático se ha vuelto ineludible en un tablero geopolítico cada vez más desordenado, sacudido por los bandazos y las pulsiones imprevisibles del estadounidenseDonald Trump.
+"Juntos podemos crear una nueva relación que se adapte a la nueva realidad global", fueron las primeras palabras de Carney durante su reunión este viernes con Xi. El canadiense habló de una "nueva asociación estratégica".
+Era la primera visita de un líder canadiense a China en casi una década y ha llegadotras varios años de relaciones prácticamente congeladasentre ambos países. En el trasfondo, la diversificación de la estructura comercial de Canadá para reducir su dependencia de Washington, sobre todo después de la guerra arancelaria desatada el año pasado por Trump.
+"Una nueva relación entre China y Canadá podría traer seguridad y prosperidad para ambas naciones", defendió Carney ante Xi. "Estamos dispuestos a continuar nuestros esfuerzos para mejorar aún más las relaciones y llevarlas por el camino del desarrollo sano, estable y sostenible", respondió el presidente chino.
+Ha sido lasegunda vez que Xi y Carney se han reunido en los últimos tres meses. A finales del año pasado mantuvieron conversaciones en una cumbre regional en Corea del Sur, donde Xi expresó su deseo de "recuperar el tiempo perdido". Aquel encuentro abrió una puerta que ahora el Gobierno canadiense ha decidido cruzar.
+Lejos parece que queda la tensa escena que todo el mundo vio en los márgenes del G-20 de Bali, en noviembre de 2022. Las cámaras captaron a Xi reprochando al entonces primer ministro canadiense, Justin Trudeau, que detalles de una conversación privada que habían mantenido hubieran llegado a la prensa. El mensaje fue claro: la confianza -dijo- se construye con discreción y respeto mutuo, no con filtraciones. Trudeau, visiblemente sorprendido, intentó responder apelando a la necesidad de un diálogo "abierto y honesto". Pero Xi remató con una frase que sonó a cierre de expediente: "Si no hay sinceridad, es difícil hablar".
+Los medios canadienses han analizado estos días cómo el viaje de Carney representa algo más que un gesto diplomático: es un intento de reconstruir puentes con Pekín en un momento de tensión global, con el vecino Donald Trump cada día más imprevisible. Este contexto es clave para entender el acercamiento de Ottawa a su segundo socio comercial después años arrastrando crisis diplomáticas.
+Un día antes de reunirse con el presidente chino,Carney fue recibido por el primer ministro Li Qiang. Ambos firmaron memorandos de entendimiento sobre diversos temas, entre ellos energía, construcción y seguridad alimentaria. El canadiense escribió en redes sociales que más de 400.000 carreras en Canadá estaban respaldadas por la relación comercial bilateral con China.
+"Aquí en Pekín, me estoy reuniendo con líderes gubernamentales y empresariales porque queremos aprovechar esa situación: abrir nuevos mercados y crear nuevas oportunidades para los trabajadores y las empresas canadienses", escribió.
+Las relaciones bilaterales entre China y Canadá se rompieron en 2018, cuando las autoridades canadienses detuvieron en Vancouver, a petición de EEUU, a Meng Wenzhou, directora financiera de Huawei e hija del fundador del gigante chino de las telecomunicaciones. La respuesta de Pekín fue inmediata: la detención de los diplomáticos y empresarios canadienses Michael Spavor y Michael Kovrig, que pasaron más de 1.000 días encarcelados en China bajo cargos de espionaje.
+Ahora, el Gobierno de Carney intenta pasar página y el Ejecutivo de Xi sigue expandiendo su ofensiva diplomática aprovechando la beligerancia y mercantilismo de la política exterior de Trump.En las últimas dos semanas, Xi ha recibido en Pekín a los líderes de Irlanda, Corea del Sur y Canadá.
+Frente al huracán Trump (la captura de Maduro, las amenazas a Groenlandia y a una intervención militar en Irán), la narrativa del régimen chino apuesta por vender a Pekín como el gran bastión de la estabilidad: sin operaciones militares unilaterales en terceros países y con discursos que apelan al derecho internacional.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>El Mundo</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C340" s="5" t="inlineStr">
+        <is>
+          <t>El ChatGPT de Alibaba se convierte en un completo asistente personal: pide comida, reserva viajes y paga todo desde la misma app</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Tecnología de consumo</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>2026-01-16T10:07:13+01:00</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Muchos titanes tecnológicos chinos están reforzando su ecosistema digital frente a gigantes extranjeros como ChatGPT Leer</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Al abrirQwen, la IA generativa desarrollada por elgigante chino Alibaba,además de charlar con el chatbot, ahora también se puede pedir una pizza para cenar y reservar los billetes de avión o de tren para las vacaciones del Año Nuevo Chino, que caen a mediados de febrero.
+La interfaz de chat se convierte así en un asistente personal que no solo responde a preguntas, sino que actúa en nombre del usuario, coordinando en tiempo real aplicaciones de comida, transporte y el sistema de pagos de Alipay, que está vinculado a una cuenta bancaria.
+Alibaba dio un paso significativo ayer en suestrategia de inteligencia artificial orientada al consumidorcon esta nueva actualización de Qwen, otro movimiento que refleja lacreciente competencia internaen el mercado chino de IA y la ambición de los titanes tecnológicos del país asiático de consolidar su ecosistema digital frente a gigantes globales como ChatGPT.
+Qwen ahora puede ejecutar las tareas complejas de pedir comida a domicilio o gestionar reservas de viaje, eliminando la necesidad de alternar entre múltiples plataformas.Wu Jia,vicepresidente de Alibaba Group, describió el lanzamiento como "uncambio de modelosque están profundamente conectados con los servicios del mundo real".
+En la práctica, esto significa que Qwen no solo responde a preguntas o genera texto: puedeactuar directamente en plataformasdentro del ecosistema de Alibaba, integrando servicios de comercio electrónico comoTaobao, sistemas de mensajería instantánea, la plataforma de pagosAlipay, el servicio de viajesFliggyy la app de mapasAmap. Todo en una interfaz unificada. Esta convergencia permite, por ejemplo, autorizar y completar pagos intercambiando únicamente notas de voz con el chatbot.
+Alibaba presentó también recientemente un "asistente de tareas" que puede realizar llamadas telefónicas reales a restaurantes, procesar hasta un centenar de documentos simultáneamente y planificar itinerarios de viaje complejos con múltiples paradas.
+Desde su lanzamiento público el pasado 17 de noviembre, Qwen superó los100 millones de usuarios activos mensuales en apenas dos meses,un dato que subraya el gran interés por la IA de consumo en China. La última actualización ilustra ladirección estratégicaen inteligencia artificial que siguen muchas compañías chinas: no se trata solo de crear modelos de lenguaje avanzados, sino de traducirlos enaplicaciones tangiblesque tengan impacto y faciliten la vida diaria de millones de usuarios. Desde los cada vez más desarrollados motores de búsqueda que está diseñandoDeepSeek, hasta las aplicaciones de traducción simultánea de la tecnológicaiFlytek.
+El impulso estatal es clave en este contexto.Pekín identificó el año pasado por primera vez la IA como un área estratégica de desarrollo en sus siempre ambiciosos planes quinquenales, promoviendopolíticas de financiamiento y regulaciónque favorecen la investigación y la comercialización de IA local frente a competidores extranjeros</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C341" s="5" t="inlineStr">
+        <is>
+          <t>EE.UU. y Japón reafirman su «inquebrantable» alianza y apuestan por aumentar sus «capacidades de disuasión»</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>2026-01-16T12:13:47+01:00</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Las autoridades de Estados Unidos y Japón han reafirmado este viernes su «inquebrantable» alianza bilateral y han apostado por aumentar sus «capacidades de disuasión» a medida que aumenta la tensión con China. Tras reunirse con el secretario de Defensa estadounidense, Pete Hegseth, en la sede del Pentágono, el ministro de Defensa japonés, Shinjiro Koizumi, ha reafirmado que la Administración del presidente de Estados Unidos, Donald Trump, sigue «comprometida con la paz y la estabilidad en la región del Indo-Pacífico». «Confirmamos que la alianza entre las partes sigue siendo completamente inquebrantable y que los dos países continúan cooperando», ha afirmado Koizumi en declaraciones recogidas por la agencia de noticias Kiodo. El ministro se ha mostrado así despreocupado sobre una posible disminución de los apoyos estadounidenses. Las partes han aprovechado la ocasión para acordar el aumento de su presencia militar en las islas Nansei , entre las que se encuentra Okinawa, para realizar más maniobras militares en la zona y mejorar la cooperación en materia industrial militar. Además, el ministro nipón ha sugerido mejorar los contactos al respecto, mientras Hegseth ha apostado por «reforzar» la posición estadounidense en la zona «en la medida de lo posible». Para ello, ha defendido la realización de maniobras «realistas» con la ayuda de Japón. «Hablamos de que América va primero, sí, pero esto no significa que estemos solos. Significa que nuestros amigos están con nosotros. Y así es como vamos a llevar la paz a todo el mundo, aquí en nuestro hemisferio y en los demás», ha apuntado.</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>EP
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+Las autoridades deEstados UnidosyJapónhan reafirmado este viernessu «inquebrantable» alianza bilateraly han apostado por aumentar sus «capacidades de disuasión» a medida que aumenta la tensión con China.
+Tras reunirse con el secretario de Defensa estadounidense, Pete Hegseth,...en la sede del Pentágono, el ministro de Defensa japonés, Shinjiro Koizumi, ha reafirmado que la Administración del presidente de Estados Unidos, Donald Trump,sigue «comprometidacon la paz y la estabilidad en la región del Indo-Pacífico».
+«Confirmamos que la alianza entre las partes sigue siendo completamente inquebrantable y que los dos países continúan cooperando», ha afirmado Koizumi en declaraciones recogidas por la agencia de noticias Kiodo. El ministrose ha mostrado así despreocupadosobre una posible disminución de los apoyos estadounidenses.
+Las partes han aprovechado la ocasiónpara acordar el aumento de su presencia militar en las islas Nansei, entre las que se encuentra Okinawa, para realizar más maniobras militares en la zona y mejorar la cooperación en materia industrial militar.
+Además, el ministro nipón ha sugerido mejorar los contactos al respecto, mientrasHegseth ha apostado por «reforzar» la posición estadounidenseen la zona «en la medida de lo posible». Para ello, ha defendido la realización de maniobras «realistas» con la ayuda de Japón.
+«Hablamos de que América va primero, sí, pero esto no significa que estemos solos. Significa que nuestros amigos están con nosotros. Y así es como vamos a llevar la paz a todo el mundo, aquí en nuestro hemisferio y en los demás», ha apuntado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C342" s="5" t="inlineStr">
+        <is>
+          <t>Canadá coquetea con China ante la amenaza de Trump: las relaciones son «más predecibles»</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>2026-01-16T10:42:05+01:00</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Pocas alertas tan rotundas como la confraternización de un íntimo amigo con el rival común. El seppuku geopolítico de Donald Trump , que amaga con renunciar al orden mundial que Estados Unidos creó y durante décadas lideró para pasar del multilateralismo a la ley de la selva, ha empujado este viernes a su país vecino y uno de sus más próximos aliados, Canadá, a soslayar sus muy tirantes discrepancias con China . Así lo ha escenificado este viernes la reunión del primer ministro canadiense, Mark Carney , con el líder chino Xi Jinping , colofón a sus cuatro días de visita de Estado al gigante asiático. «Nos alienta el liderazgo del presidente Xi Jinping y la rapidez con la que... Ver Más</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Jaime Santirso
+Corresponsal en Pekín
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+Pocas alertas tan rotundas como la confraternización de un íntimo amigo con el rival común. El seppuku geopolítico deDonald Trump, que amaga con renunciar al orden mundial que Estados Unidos creó y durante décadas lideró para pasar del multilateralismo a la ley de...la selva, ha empujado este viernes a su país vecino y uno de sus más próximos aliados, Canadá, a soslayar sus muy tirantes discrepancias conChina.
+Así lo ha escenificado este viernes la reunión del primer ministro canadiense,Mark Carney, con el líder chinoXi Jinping, colofón a sus cuatro días de visita de Estado al gigante asiático. «Nos alienta el liderazgo del presidenteXi Jinpingy la rapidez con la que ha avanzado nuestra relación», ha alabado Carney durante sus conversaciones con la cúpula del régimen en el Gran Palacio del Pueblo.
+«Esto sienta las bases para importantes conversaciones sobre una amplia gama de cuestiones en las que podemos ser socios estratégicos, desde la energía hasta la agricultura, pasando por los intercambios entre pueblos, el multilateralismo y los asuntos de seguridad», ha añadido, palabras hasta hace bien poco impensables en boca de un jefe de Gobierno canadiense, no solo porquehacía más de ocho años que uno no pasaba por Pekín.
+Se trata del segundo encuentro entre ambos, tras la toma de contacto que mantuvieron a finales del pasado mes de octubre durante el foro APEC, celebrado en la ciudad surcoreana de Gyeongju. En su intervención inicial, Xi se ha referido a ese primer saludo como «un punto de inflexiónen las relaciones entre Canadá y China, que las situó en una trayectoria ascendente».
+«En los últimos meses, los organismos de ambos países han entablado profundas conversaciones sobre la reanudación de la cooperación en todos los ámbitos y han obtenido resultados positivos», ha proseguido, antes de recurrir a la misma forma verbal que su huésped: «Me siento alentado por los avances».
+Estos han llegado de inmediato, en forma de la retirada mutua de aranceles. Canadá retirará los sobrecostes del 100% a la importación de vehículos eléctricos chinos, impuestos en 2024 en la estela de Estados Unidos, en favor de una fórmula menos restrictiva. A cambio, China hará lo propio con el aceite de canola canadiense, implementados en respuesta, que serán reducidos del 100% actual al 15%.
+«Para que Canadá pueda construir su propio sector competitivo de vehículos eléctricos, necesitamos aprender de socios innovadores, acceder a sus cadenas de suministro yaumentar la demanda local», ha apuntado Carney en una rueda de prensa posterior. «Se espera que, en un plazo de tres años, este acuerdo impulse una inversión china considerable en el sector automotriz de Canadá, creando buenos empleos en el país y acelerando nuestro avance hacia un futuro de cero emisiones netas».
+Ahora bien: nada plasma la buena sintonía como el comunicado conjunto difundido tras la reunión. Tras el encabezamiento, este arranca aseverando que «los líderes reafirmaron los principios y las políticas que han guiadolas relaciones entre Chinay Canadá»; e inmediatamente: «Canadá reafirmó su compromiso de larga data con su política de 'Una China'». El texto reafirma la voluntad de «reforzar los intercambios en todos los niveles e impulsar avances» en varias áreas, entre las que destaca la energía,cuestión crítica para Chinadados los recientes sobresaltos en Venezuela e Irán.
+«Ambas partes reafirmaron su compromiso con el multilateralismo, respaldando el papel central de las Naciones Unidas en los asuntos internacionales, salvaguardando y mejorando el sistema multilateral de comercio basado en normas sustentado por la Organización Mundial del Comercio, y manteniendo estables y fluidas las cadenas industriales y de suministro globales», sentencia el comunicado.
+Un mensaje afilado contra Trump, cuyas arremetidas no distinguen entre amigos y enemigos. El presidente estadounidense ha cargado de aranceles algunas de las principales exportaciones canadienses, como el acero y la madera, y ha expresado en reiteradas ocasiones su deseo de anexionarse el país como un nuevo estado de EE.UU.
+Encuentro entre Xi y Carney
+Un punto de inflexión
+en las relaciones entre Canadá y China, que las situó en una trayectoria ascendente»
+Xi Jinping
+Presidente de China
+Semejante maltrato ha llevado a Canadá a apaciguar la tensión con China, llevada al límite en 2018, cuando la hija del fundador de Huawei y directora financiera,Meng Wanzhou, fue detenida en Vancouver de acuerdo a una orden de extradición impuesta por EE.UU. por una supuesta vulneración de las sanciones a Irán cometida por la tecnológica china.
+El régimen respondió con la detención de dos ciudadanos canadienses residentes en el país,Michael KovrigyMichael Spavor, acusados de filtrar secretos de Estado. Ambos pasaron más de mil días retenidos en paradero desconocido y sin contacto con sus abogados o familiares, hasta que un acuerdo entre los paísespropició su puesta en libertaden septiembre de 2021. Meng, en libertad con cargos en sus múltiples mansiones de Vancouver, también regresó a China. Un cambio radical explicado por las palabras de Carney este viernes: «El mundo ha cambiado dramáticamente».</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C343" s="5" t="inlineStr">
+        <is>
+          <t>España tiene en marcha su 'ejército de drones' para las guerras del futuro</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2026-01-15T16:22:35+01:00</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>España no se puede quedar atrás. La guerra con drones es ya un componente esencial en el arte de la doctrina militar. En Ucrania, Rusia, la OTAN y China, los sistemas no tripulados están configurando el futuro de los conflictos y la inversión en Defensa se ha convertido en un objetivo incuestionable a nivel mundial. Sin embargo, el factor decisivo no será solo quién posea estos dispositivos en modo 'bélico', sino quién pueda escalarlos, adaptarse con mayor rapidez y construir defensas resistentes a amenazas aéreas autónomas y de bajo coste. Y en esas estamos en Europa, y en España, también, con Indra -con Ángel Escribano al frente desde hace apenas un año-, como la compañía tractora para lograr ser un... Ver Más</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>María Jesús Pérez
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+España no se puede quedar atrás.La guerra con droneses ya un componente esencial en el arte de la doctrina militar. En Ucrania, Rusia, la OTAN y China, los sistemas no tripulados están configurando el futuro de los conflictos y la inversión en...Defensa se ha convertido en un objetivo incuestionable a nivel mundial. Sin embargo, el factor decisivo no será solo quién posea estos dispositivos en modo 'bélico', sino quién pueda escalarlos, adaptarse con mayor rapidez y construir defensas resistentes a amenazas aéreas autónomas y de bajo coste.
+Y en esas estamos en Europa, y en España, también, con Indra -con Ángel Escribano al frente desde hace apenas un año-, como la compañía tractora para lograr ser unpaís soberano en la fabricación de sus drones. «Estamos en el firme camino de tener nuestro propio ejército de drones», afirma una fuente del entorno del presidente de la compañía de Defensa y Tecnología.
+Según ha podido saber ABC,Escribano se comprometió con el Gobiernoy con las Fuerzas Armadas a trabajar duro desde su desembarco en la presidencia de Indra -de la que el Estado, a través de la SEPI, ostenta un 28% del capital- para posicionarse como «la multinacional española de referencia y una de las principales compañías de Europa de defensa y tecnologías avanzadas».
+Desde Indra aseguran que tienen ya unaposición de liderazgoen los negocios de defensa, espacio, gestión del tráfico aéreo, movilidad y Tecnologías de la Información, a través de Minsait, y tras integrar en IndraMind sus capacidades de IA soberana, ciberseguridad y ciberdefensa.
+El último paso dado lo explicóel propio Escribano estos días en León, donde Indra Group va a construir la principal y más avanzada fábrica devehículos aéreos no tripulados(UAVs, drones) multipropósito y munición merodeadora, como parte de su estrategia de crecimiento industrial e incremento de su huella en el territorio nacional para dar respuesta a los Programas Especiales de Modernización.
+Y es quedesde la invasión rusa de Ucrania en 2022, han surgido aproximadamente 30 empresas en el país liderado por Volodímir Zelenskipara producir en masa drones para el esfuerzo bélico. Como apoyo a esta necesidad tecnológica, el propio dirigente ucraniano se reunió en noviembre pasado con la cúpula directiva de Indra y con la ministra de Defensa, Margarita Robles, en la sede de la compañía, para ampliar la colaboración en este sector, especialmente en los ámbitos de radares avanzados, defensa aérea y sistemas antidrón.
+«Las soluciones punteras de Indra para sistemas aeroespaciales y de defensa terrestre pueden contribuir a fortalecer la industria de defensa ucraniana y avanzar en su independencia tecnológica. Queremos formar parte de los esfuerzos de reconstrucción tan pronto como las condiciones lo permitan», destacó entoncesJosé Vicente de los Mozos, CEO de Indra Group.
+Además de la nueva fábrica de drones, que tras una inversión de unos 12 millones de euros tiene previsto levantarse en el Polígono de Villadangos del Páramo (León) y crear 200 nuevos empleos, Indra prevé incrementar las capacidades de ingeniería en la región con la contratación de otros 150 nuevos ingenieros.
+El grupo español concentrará en las nuevas instalaciones suscapacidades de producción de vehículos aéreos no tripulados, tanto del sistema táctico TARSIS y su sistema de armas basado en un vehículo aéreo multipropósito VALERO, como de la munición merodeadora de la nueva empresa creada con la multinacional EDGE Group -un conglomerado de Emiratos Árabes dedicado al desarrollo de tecnología avanzada y defensa- para la fabricación de sistemas de defensa.
+La fábrica contará conlíneas específicas de montaje por tipología de drony con el objetivo de comenzar la producción e integración de UAS Clase 1 de menos de 150 Kg, tanto destinados a defensa como a aplicaciones civiles, así como la producción seriada de drones con munición a partir de 2027.
+Indra colaborará con elaeropuerto de Leóny con el Grupo de Obtención por Sistemas Aéreos (GROSA) del Ejército de Tierra para contar con un centro de ensayo y validación de los nuevos sistemas, tanto drones como antidrones.
+Fuentes de Indra explican a este periódico que la nueva compañía que impulsarán junto a EDGE contará con una cartera estimada de pedidos plurianuales dealrededor de 2.000 millones de euros, orientada a cubrir las necesidades operativas de las Fuerzas Armadas españolas y de otros países europeos, dentro del firme compromiso entre la compañía liderada por Escribano y el Gobierno.
+Además de la implantación en León, Indra impulsará de forma paralelauna planta puntera en la ciudad de Valladoliddestinada a la fabricación de micro-motores para vehículos aéreos no tripulados (UAV). En este caso no se especifica de momento ni ubicación concreta ni tampoco presupuesto de inversión.
+La alianza entre Indra y EDGE se enmarca en una cooperación iniciada en 2024 y reforzada en 2025, que sitúa a España como un actor relevante en el desarrollo de soluciones avanzadas en ámbitos como los sistemas no tripulados, las armas inteligentes y otras capacidades emergentes de defensa. Con este acuerdo, según fuentes del Ministerio de Defensa, España refuerza su compromiso con elfortalecimiento de la base industrialy tecnológica de su defensa, alineada con los objetivos de soberanía estratégica europea.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C344" s="5" t="inlineStr">
+        <is>
+          <t>Ginnan, el restaurante “ni chino-ni catalán” que necesitaba Barcelona</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>2026-01-16T06:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>La propuesta del chef Chunlin Yu se basa en la memoria, en el desarraigo y en el aprendizaje lejos de casa</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Yaiza Saiz
+Barcelona
+Hay restaurantes que se entienden rápido por su concepto y otros -los menos- que solo pueden explicarse desde la vida de quien cocina. Ginnan pertenece a esta segunda categoría. No es un restaurante de fusión, aunque cruce China y Catalunya con una naturalidad poco habitual -lo confirman tanto la carta como el tipo de público que se sienta a la mesa-. Para entender la propuesta de su chef, Chunlin Yu, conviene pensar menos en etiquetas y más en identidad: en memoria, en desarraigo y en aprendizaje lejos de casa.
+Yu llegó a Catalunya con 14 años. Antes había pasado parte de su infancia en China, viviendo con su abuelo, mientras sus padres emigraban a Mataró para buscarse la vida. Esa distancia -emocional y geográfica- no se verbaliza en sus platos, pero se intuye. Nunca pensó en una carrera universitaria: “lo mío eran las manos”, dice. Se formó en Hofmann y pronto entendió qué tipo de cocina no quería hacer.
+EnLluernadescubrió el valor del producto, de los fondos bien hechos y de las cocciones largas. Allí entendió que la alta cocina también podía tener cuerpo. Más tarde, en Madrid, pasando por el restaurante dePaco Roncero, vivió el otro extremo: técnica, precisión, laboratorio. Fue útil, sobre todo para confirmarse en que no era eso lo que quería.Grescafue la última casa antes de abrir la suya y la que terminó de ordenar el discurso: una cocina directa, sin solemnidad, donde el sabor pesa más que la idea.
+Abrir su propio restaurante no fue un impulso, sino una presión casi cultural. Sus padres insistían. Él dudaba. Hasta que aceptó el consejo de su padre: aprender haciendo algo propio, equivocándose solo. Ginkgo -así se llamó al principio- abrió en septiembre de 2024. Un conflicto de nombres obligó a cambiarlo un año después. El nuevo nombre, Ginnan (que llegó en 2025), no fue un parche. Es el fruto del árbol de ginkgo y conecta con un recuerdo muy concreto: las hojas doradas en otoño, las calles de su infancia, su abuelo recogiéndole del colegio en bici.
+El local es coherente con todo eso. Sencillo, casi austero, con madera oscura y sin diseño espectacular. No por pose, sino por decisión económica: el dinero está en la cocina. Y también el crecimiento del restaurante responde a esa lógica. Al éxito no les está impulsando una agencia de comunicación, sino el boca a boca.
+La carta -cambiante, pensada para compartir y con precios razonables-  funciona como una traducción bastante literal de su historia. El meloso de tendones de ternera con cococha de bacalao es el mejor ejemplo: colágeno, textura y profundidad. Un plato que se pega a los labios y pide pan. “En China los tendones se comen mucho más que en España. Con el bacalao pasa lo contrario. ¿Por qué no juntarlos?”, resume Yu.
+El flan salado de temporada, servido caliente -en mi visita, de guisantes- conecta con una tradición cotidiana china poco vista aquí: el huevo como base salada, acompañado por verduras, nunca protagonista único. En la carta también destaca el waytun de cordero (cap i pota), hoy uno de los platos más pedidos. No como concesión, sino como plato-puente con el que convencer tanto a asiáticos como a barceloneses.
+De la sala se ocupa Guillem Campmany, con madre gallega y padre catalán, atento y preciso. En cocina, junto a Chunlin Yu, trabaja un cocinero de origen holandés y colombiano llamado Jesse Van Buuren. Un equipo pequeño, mestizo y sin alardes, coherente con una casa donde nada parece responder a una estrategia, sino a una forma de estar.
+Tipo de comida
+Dirección
+Ginnan no pretende gustar a todo el mundo. No simplifica ni traduce constantemente lo que hace. Confía en que el comensal llegue hasta donde pueda y quiera. Quizá por eso funciona: porque en una ciudad cada vez más llena de conceptos bien afinados y cocinas intercambiables, en este restaurante hay historia real, cocinada con criterio y paciencia.
+Yaiza Saiz
+Periodista del Canal Comer desde su creación en 2016. En La Vanguardia escribo desde 2011. Me apasiona visitar restaurantes y contarte lo que pienso. También acercarte la cocina de una forma diferente, tecleando o en Tiktok.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>La Vanguardia</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C345" s="5" t="inlineStr">
+        <is>
+          <t>El cambio climático contribuyó hace 1.200 años a la desaparición de la esplendorosa dinastía Tang, la 'Edad de Oro' de la civilización china</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>2026-01-16T13:48:53+01:00</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>El aumento de sequías e inundaciones afectó su frontera norte, que quedó expuesta al ataque de tropas invasoras</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>David Ruiz Marull
+Barcelona
+Los fenómenos meteorológicos derivados del cambio climático fuerza la migración y la movilidad. En 2022, las inundaciones en Pakistán provocaron millones de desplazamientos forzados. Lo mismo pasa constantemente en Centroamérica por culpa de los huracanes o en el Sahel por la pérdida de cosechas y agua, pero no es algo nuevo.
+Hace unos 1.200 años, en China, la dinastía Tang lideró una auténtica Edad de Oro. Su sociedad cosmopolita tenía la ciudad de Chang’an (actual Xi’an) como centro neurálgico. Su cultura era floreciente, contaba con prósperas actividades comerciales, un sofisticado sistema administrativo y logró expandir su territorio. Esa época (618-907 d.C.) a menudo es considerada un punto culminante de la civilización china. Y, aún así, todo se desmoronó.
+Durante mucho tiempo, el declive de los Tang se vinculó a la rebelión de An Lushan, liderada por este general que se autoproclamó emperador, y el auge de algunos gobernadores militares regionales. Un estudio de la Universidad de Basilea señala, sin embargo, que hubo otros motivos que habían pasado desapercibidos y que contribuyeron a la desaparición de esta dinastía.
+Según explican los investigadoresen un artículo publicado en la revistaNature Communications Earth and Environment, analizaron extremos hidrológicos como las sequías y las inundaciones ocurridos entre los años 800 y 907 d.C. y descubrieron que estos fenómenos afectaron la sociedad y la política chinas.
+Los expertos se centraron en la región que rodea el río Huanghe (río Amarillo), en el norte de China, para determinar la evolución del clima local en el siglo IX después de Cristo. Revisaron, por ejemplo, los anillos de los árboles para ver si un año fue seco o lluvioso.
+En épocas con altas precipitaciones, los árboles crecen más rápido y sus anillos están más separados que en años secos. “La escorrentía eventualmente llega río abajo e influye en la cantidad de agua disponible, por ejemplo, para el riego de los campos”, afirma Michael Kempf, primer autor del estudio.
+Basándose en sus datos, los especialistas concluyen que los cambios climáticos y el aumento de los fenómenos meteorológicos extremos fueron factores clave en el colapso de la dinastía Tang en el año 907. El aumento de sequías e inundaciones afectó gravemente tanto a los soldados que protegían las fronteras exteriores del imperio como a sus familias, que quedaron expuestos al ataque de las tropas invasoras.
+“Los extremos hidroclimáticos tienen una influencia muy directa en las malas cosechas y las condiciones de almacenamiento del grano”, asegura Kempf. La escasez de semillas y el aumento de la demanda de alimentos llevaron rápidamente a los sistemas de suministro al límite. Y un mal año también tuvo consecuencias para el futuro.
+La situación se agravó aún más, señalan los expertos, por la elección de los cereales cultivados, ya que la gente prefería cada vez más el trigo y el arroz antes que el mijo. “Quizás el mijo se consideraba un alimento menos prestigioso que el trigo y el arroz”, especula Michael Kempf.
+El problema es que el trigo y el arroz requieren más agua y son menos resistentes al clima que el mijo, capaz de aguantar las sequías. “Mientras haya suficiente agua, esto no es un problema, pero durante los períodos secos prolongados, se produce escasez”, añade.
+El cultivo de mijo quizás podría haber amortiguado los efectos negativos del cambio climático. Pero con la aparición de fenómenos meteorológicos extremos, el riesgo de malas cosechas y hambrunas aumentó. La desnutrición de la población pudo haber provocado el colapso de las defensas fronterizas en el norte del imperio.
+“La gente estaba debilitada y, por lo tanto, era más vulnerable. Debido a la presión militar sobre las regiones fronterizas exteriores, optaron por emigrar al sur, donde creían encontrar mejores condiciones”, dice Kempf. “Esto provocó desestabilización política y es probable que contribuyera a la desaparición de la dinastía Tang”, indica.
+Todas estas pérdidas no pudieron compensarse fácilmente con la importación de cereales procedentes de otras partes del país. Este hecho, consideran los expertos de la Universidad de Basilea, también se debió a que las sequías e inundaciones afectaron y colapsaron las rutas de suministro.
+“Nuestros resultados son aproximaciones. Las condiciones reales en ese momento no pueden reconstruirse al cien por cien. Se trata de una compleja interacción de muchos factores”, enfatiza Kempf, quien concluye que los cambios socioculturales y climáticos pueden provocar puntos de inflexión al romperse el equilibrio.
+David Ruiz Marull
+Periodista</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C346" s="5" t="inlineStr">
+        <is>
+          <t>Canadá revitaliza sus relaciones con China para escapar de la dependencia de Estados Unidos</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>2026-01-16T11:38:40+01:00</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>Xi Jinping y Mark Carney ponen fin al distanciamiento de los dos países en una cumbre en Pekín</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Xi Jinping y Mark Carney ponen fin al distanciamiento de los dos países en una cumbre en Pekín</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C347" s="5" t="inlineStr">
+        <is>
+          <t>Descubren por qué las rocas de la cara oculta de la Luna que trajo China son diferentes</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>2026-01-15T20:55:03+01:00</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>Su composición, sus propiedades físicas y químicas y su origen son algunas de las diferencias.</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Su composición, sus propiedades físicas y químicas y su origen son algunas de las diferencias.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C348" s="5" t="inlineStr">
+        <is>
+          <t>Europa quiere frenar y a la vez complacer a Trump en Groenlandia</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>2026-01-17T05:30:01+01:00</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>La misión militar en la isla trata de enviar una señal de solidaridad con Dinamarca, mientras indica que los aliados comparten la inquietud por la presencia rusa y china en el Ártico</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>La misión militar en la isla trata de enviar una señal de solidaridad con Dinamarca, mientras indica que los aliados comparten la inquietud por la presencia rusa y china en el Ártico
+Con los ejercicios militares en Groenlandia que han comenzado esta semana, Europa envía dos mensajes Donald Trump. Uno es desafiante y el otro, conciliador.
+La presencia de unas decenas de soldados europeosseñala al presidente de Estados Unidos que la anexión de la isla ártica, integrada en el Reino de Dinamarca desde hace más de dos siglos, topará con obstáculos, aunque sean simbólicos. Al mismo tiempo, la llegada de fuerzas alemanas, francesas, británicas y de países nórdicos, a petición de sus aliados daneses, pretende dar respuesta a la preocupación de Washington por la seguridad del Ártico ante la pujanza de Rusia y China.
+“No es una acción militar contra Estados Unidos, sino un símbolo político de solidaridad con Dinamarca”, dice en Berlín el diputado alemán Norbert Röttgen, vicepresidente del grupo parlamentario democristiano en el Bundestag. “La retórica de Trump y otros es agresiva, y nuestro vecino y miembro de la Unión Europea y la OTAN merece un símbolo de solidaridad, puramente política”.
+Trump, que hace un año planteó la compra de Groenlandia por EE UU por “motivos de seguridad”,ha escalado la retórica tras el éxito de la operación militar el Venezuela del 3 de enero.Ahora promete hacerse con la isla “por las buenas o por las malas”.
+Los primeros soldados aliados aterrizaron el jueves en Groenlandia y el viernes ya estaban en marcha las maniobras,según un comunicado del Ministerio danés de Defensa.El número de participantes no es conocido, pero es una presencia mínima por ahora, una manera de mostrar que Dinamarca y sus socios de la OTAN están ahí y que Groenlandia no es un territorio desprotegido. No lo está ante la amenaza rusa y china que Trump agita para justificar la anexión. Ni tampoco ante el propio Trump,que cada día reitera su voluntad de hacerse con la isla y atacar así a un aliado y liquidar de hecho la Alianza Atlántica.
+El plan danés y europeo para evitarlo combina la firmeza con la persuasión. La firmeza empieza por exhibir una presencia militar en este territorio 50 veces más extenso que Dinamarca, un desierto helado con menos de 60.000 habitantes. Hasta ahora esta presencia era mínima, por parte de Dinamarca, y menor en todo caso que la de EE UU, que posee la base aeroespecial de Pittufik, en el noroeste de la isla.
+De acuerdo con las leyes del Reino de Dinamarca, ante una invasión extranjera, sus soldados estarían obligados a defender el territorio. Así lo confirmó la semana pasada, en una conversación con EL PAÍS en la isla danesa de Bornholm, el general Peter Boysen, jefe del Ejército danés.
+“Si te ataca una potencia extranjera, tienes la obligación de empezar a luchar”, dijo Boysen, quien rehusó hablar específicamente de la amenaza estadounidense en Groenlandia. Cuando se le preguntó si, en tanto que militar, estaba preocupado, respondió: “Mi mayor preocupación, ahora, es que tenemos que construir rápidamente nuestro ejército al nivel necesario. Debo asegurarme de que las unidades a las que se me ha encargado construir estén formadas a tiempo para responder a cualquier amenaza”.
+Nadie contempla, sin embargo, el escenario del choque militar, y menos entre aliados. “Nadie va a luchar contra Estados Unidos por el futuro de Groenlandia”, alardeó Stephen Miller, asesor de Trump, tras la incursión estadounidense en Venezuela y la captura del presidente, Nicolás Maduro. Ahora la Casa Blanca minimiza la misión europea en Groenlandia, y su portavoz, Karoline Leavitt, ha afirmado que no tendrá ningún impacto en los planes para la anexión.
+Dinamarca y sus aliados han dejado claro que no están ahí para proteger a isla ante una invasión. Ni por supuesto mencionan específicamente a EE UU como amenaza en sus comunicados. Miden el lenguaje y dejan que los gestos hablen por sí solos.
+Boris Pistorius, ministro alemán de Defensa, precisó,al anunciar el envío de 13 miembros de la Bundeswehr, las Fuerzas Armadas federales, que el objetivo es contrarrestar a Rusia y China en la zona, un argumento que debería gustar en la Casa Blanca. Estos países “utilizan cada vez más el Ártico con fines militares, lo que pone en peligro la libertad de las vías de transporte, comunicación y comercio”, señala Pistorius. “La OTAN no lo permitirá, y seguirá defendiendo el orden internacional basado en normas”, añadió el ministro alemán. “Para mí es fundamental que coordinemos muy bien la exploración conjunta en Groenlandia bajo el liderazgo danés dentro de la OTAN, especialmente con nuestros socios estadounidenses”.
+La mención de Pistorius a EE UU es significativa: los europeos, con la presencia militar en Groenlandia, le indican a Trump que comparten su diagnóstico sobre las amenazas rusa y china sobre Groenlandia, pero creen que es la OTAN, bajo liderazgo estadounidense, la que debe responder. Es el mismo mensaje de Dinamarca a la Administración Trump: EE UU no necesita la anexión para garantizar su seguridad, porque el actual acuerdo militar entre ambos países, de 1952, ya permite a los estadounidenses aumentar el número de bases (hoy solo una, cuando en la Guerra Fría llegaron a ser 17) y la presencia militar. También las inversiones en minerales, si lo desean.
+Aunque no sea cierto, como dice Trump, que Groenlandia esté “llena” de barcos rusos y chinos, las autoridades danesas sí creen que la ambiciones de estos países existen, y van a más.El último informe de la inteligencia de defensa danesa lo afirma con claridad:“Pese a la distancia geográfica considerable, periódicamente Rusia despliega submarinos, buques de superficie y aeronaves tanto cerca de Groenlandia y las Islas Feroe [otro territorio del Reino de Dinamarca], así como en las aguas entre ambas. Además, Rusia emplea buques civiles que operan en la zona para realizar tareas de vigilancia en nombre del Estado Ruso”.
+El informe cita “las ambiciones militares de China en el Ártico, estrechamente ligadas a la rivalidad estratégica con Estados Unidos”. “El objetivo a largo plazo de China es desplegar misiles submarinos bajo el hielo y alcanzar así la misma capacidad para una réplica nuclear que Rusia y Estados Unidos”, continúa. Aunque el interés de los inversores chinos “por ahora no ha dado resultado”, la inteligencia militar danesa cree que Pekín “seguirá intentando la cooperación con Groenlandia, particularmente en la investigación, pero también en los proyectos comerciales”.
+“Estamos de acuerdo: el Ártico es una zona muy importante y debería ser la mayor prioridad de la OTAN”, confirmaba hace unos días en Copenhague la diputada socialdemócrata danesa Ida Auken. Y esta es la estrategia de Dinamarca y sus sociospara desactivar las ambiciones de Trump.Se trata, dijo, de “mostrar a los estadounidenses que tenemos un objetivo y una responsabilidad común”. La misión europea es una advertencia a EE UU: los aliados están con Dinamarca. Pero es una advertencia envuelta en una oferta: la OTAN está dispuesta a hacer más.
+Que la estrategia de persuasión funcione es otra cuestión. Trump esgrime la seguridad, para anexionarse Groenlandia, pero también otro argumento de peso: su propio ego. “La propiedad es importante”,declaró aThe New York Times.“Porque es lo que creo que psicológicamente es necesario para el éxito”. Y ante este factor ―la psicología del presidente de Estados Unido― es mucho más complicado, para los europeos, encontrar una respuesta racional.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>El País</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C349" s="5" t="inlineStr">
+        <is>
+          <t>Una buena noticia frente al tsunami de Trump: el tratado para proteger las aguas internacionales entra en vigor</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>2026-01-17T05:30:01+01:00</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>China se ofrece para albergar el secretariado de este nuevo acuerdo que han ratificado ya 82 países y que permite crear reservas marinas</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>China se ofrece para albergar el secretariado de este nuevo acuerdo que han ratificado ya 82 países y que permite crear reservas marinas
+Se han necesitado dos décadas de difíciles negociaciones para activar el acuerdo internacional que ofrece una protección legal para nada menos que la mitad del planeta. Pero por fin este sábado 17 de enero de 2026 ha entrado en vigorel conocido como Tratado de Alta Mar, que entre otras cosas permitirá la creación de reservas marinas en las aguas internacionales. Se trata de una descomunal área que hasta ahora ha sido “zona de todos y responsabilidad de nadie”, como lo define la abogada costarricense Gladys Martínez de Lemos, directora de la Asociación Interamericana para la Defensa del Ambiente (AIDA).
+Esta entrada en vigor se produce gracias a que 82 países han ratificado el texto legal. Era necesario que al menos 60 dieran ese paso,algo que ocurrió en septiembre, para que el tratado estuviera operativo 120 días después de que se alcanzara esa cifra, un plazo que se cumple este sábado. En el plano práctico se abre a partir de ahora el proceso para la creación de las reservas marinas para conservar las áreas de más valor. El gran objetivo del pacto es que al menos el 30% de las aguas internacionales tengan alguna protección en 2030. En el plano político su entrada en vigor en el contexto internacional actual es interpretada por muchos como una defensa del multilateralismo frente a los que,como Donald Trump, atacan la ONU y los acuerdos medioambientales.
+Mientras EE UU revierte sus políticas climáticas y ambientales, China parece querer dar un paso al frente y este viernes envió un escrito a Naciones Unidas en el que ofrece la ciudad portuaria de Xiamen como sede del secretariado de este nuevo tratado. Elescritode ofrecimiento está encabezado por Wang Yi, ministro de Asuntos Exteriores de China, que defiende la entrada en vigor del acuerdo como un “triunfo del multilateralismo”. Además, aboga por un “orden internacional basado en las leyes” y cierra filas con la ONU. Chile y Bélgica también se han postulado para acoger ese secretariado.
+“Es más necesario que nunca trabajar unidos y defender el multilateralismo”, valora por su parte la vicepresidenta tercera y ministra para la Transición Ecológica,Sara Aagesen, al referirse al acuerdo y su puesta en marcha. España fueel primer Estado de la UEen presentar el instrumento de ratificación ante la ONU. Entre los 82 países que ya han hecho lo mismo están importantes economías, como el conjunto de la UE, Brasil y, sobre todo, China, que intenta ahora mostrar liderazgo en este asunto. 65 países más lo han firmado, aunque no ratificado aún.
+El Gobierno de EE UU lo firmó en 2023 y participó activamente en su redacción durante el mandato del demócrata Biden. Ahora, al igual que Rusia, no lo ha ratificado y tampoco se espera que lo haga porque, justamente, está remando en la dirección contraria:saliéndose de organismos internacionales vinculados a la ONUy abandonando algunos acuerdos ambientales. De hecho, la entrada en vigor de este tratado se produce diez días antes de que se consume la espantada climática más sonada de Trump: la oficialización dela salida del Acuerdo de París a partir del 27 de enero.
+Pero lejos de fijarse en aquellos que no están, Rebecca Hubbard, directora de laAlianza por la Alta Mar, una organización que reúne a ONG y asociaciones y que lidera desde hace más de una década las presiones para la elaboración de este acuerdo, prefiere fijarse en los que sí están a bordo. “El apoyo de tantos países de todas las regiones del mundo y tamaños”, añade Hubbard, “es un rayo de esperanza para el multilateralismo en estos tiempos tan desafiantes en la política global”.
+Los países miembros del tratado deberán presentar a partir de ahora las zonas candidatas a ser declaradas reservas para su protección. Pero la Alianza por la Alta Mar ya tiene sobre la mesa ocho propuestas de áreas con un extraordinario valor medioambiental. Tres están en el Atlántico: Ciudad Perdida, Mar de los Sargazos y Dorsal de Walvis. Cuatro, en el Pacífico: Domo Térmico, Dorsal de Salas y Gómez, Montes Submarinos Emperador y Mar de Tasmania. Y una más, en el Índico: Saya de Malha.
+“Las propuestas deben salir de los Estados parte, y son ellos mismos los que decidirán sobre la designación”, detalla Martínez de Lemos. Pero en varios casos tanto la Alianza por la Alta Mar como AIDA están trabajando ya en colaboración con los Gobiernos para armar las propuestas de áreas protegidas. Así está ocurriendo con los Gobiernos de Costa Rica y Chile, en el caso del Domo Térmico y de Salas y Gómez, respectivamente.
+En el plazo máximo de un año se debe celebrar la primera conferencia de las partes de este tratado, conocida por las siglas COP. Ya se están llevando a cabo reuniones previas entre los países que forman parte de la ONU con vistas a esa primera COP y al diseño de la arquitectura de funcionamiento de este acuerdo. Pero, como recuerda Martínez de Lemos, cuando llegue la hora de la verdad, la de decidir qué áreas se protegen y todas las reglas del tratado, en la primera conferencia “solo votarán los Estados que lo han ratificado”. “Los que no, pueden participar, pero como observadores”, añade. Llegados a ese punto, “no tener a países que están teniendo una política muy agresiva y revisionista contra la Agenda 2030 y los Objetivos sobre Desarrollo Sostenible, es una bendición para el tratado”, opina Alejandro Lago, experto en negociaciones ambientales y profesor de Derecho Internacional.
+En las últimas reuniones de la ONU de los diferentes pactos y convenios medioambientales celebradas desde la vuelta de Trump a la Casa Blanca hace un año, EE UU se ha mostradomuy beligerante contra aquellosque, por ejemplo, han intentado poner en el centro de los debates sobre el cambio climático los combustibles fósiles. Y en varios casos ha ayudado a bloquear las conversaciones. Por eso, algunos expertos interpretan que la ausencia de las negociaciones sobre el Tratado de Alta Mar en la fase decisiva que se abre ahora puede tener efectos positivos.
+Este acuerdo no solo incluye la creación de áreas protegidas en estas aguas, también prevé el establecimiento de nuevas normas para poder elaborar evaluaciones de impacto ambiental de las actividades económicas que se puedan desarrollar en estas zonas. Y establece mecanismos para asegurar una distribución equitativa de los beneficios genéticos que puedan obtenerse de descubrimientos futuros.
+“Al convertirse en una norma de obligado cumplimiento, el tratado inaugura una nueva era de gobernanza y cooperación oceánicas con un inmenso potencial para lograr unos océanos y una economía más saludables y resilientes”, valora por su parte Kirsten Schuijt, directora general de WWF International. “Es un momento histórico para los océanos”, añade Rizza Sacra-Dejucos, coordinadora de la región asiática de la Alianza por la Alta Mar: “Por primera vez tenemos un instrumento legal para proteger la mitad de nuestro planeta”.
+¿Quieres añadir otro usuario a tu suscripción?
+Si continúas leyendo en este dispositivo, no se podrá leer en el otro.
+¿Por qué estás viendo esto?
+Si quieres compartir tu cuenta, cambia tu suscripción a la modalidad Premium, así podrás añadir otro usuario. Cada uno accederá con su propia cuenta de email, lo que os permitirá personalizar vuestra experiencia en EL PAÍS.
+¿Tienes una suscripción de empresa? Accedeaquípara contratar más cuentas.
+En el caso de no saber quién está usando tu cuenta, te recomendamos cambiar tu contraseñaaquí.
+Si decides continuar compartiendo tu cuenta, este mensaje se mostrará en tu dispositivo y en el de la otra persona que está usando tu cuenta de forma indefinida, afectando a tu experiencia de lectura. Puedesconsultar aquí los términos y condiciones de la suscripción digital.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C350" s="5" t="inlineStr">
+        <is>
+          <t>El Ejército alemán envía una patrulla de reconocimiento a Groenlandia</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>2026-01-16T19:16:28+01:00</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>Como muestra de apoyo a Dinamarca, en medio de la disputa por Groenlandia con Estados Unidos, la Bundeswehr está sobre el terreno. El Ejército alemán ha enviado 13 soldados y el cazasubmarinos de última generación P-8A-Poseidón. El ministro de Defensa , Boris Pistorius, ha descrito la misión de investigación como una señal de que los miembros europeos de la OTAN cumplen con sus obligaciones, algo que «no se hizo lo suficientemente explícitamente hasta hace unos años», lamentaba este viernes en declaraciones a la cadena pública de televisión alemana ZDF. Oficialmente, el Pistorius solo cita la amenaza de China y Rusia como motivo del despliegue, sin mencionar las reiteradas amenazas de Donald Trump de hacerse con la isla ártica. Y en... Ver Más</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Rosalía Sánchez
+Corresponsal en Berlín
+Esta funcionalidad es sólo para registrados
+Esta funcionalidad es sólo para registrados
+Como muestra de apoyo a Dinamarca, en medio de la disputa por Groenlandia con Estados Unidos, la Bundeswehr está sobre el terreno. El Ejército alemán ha enviado 13 soldados y el cazasubmarinos de última generación P-8A-Poseidón. El ministro de Defensa, Boris Pistorius,...ha descrito la misión de investigación como una señal de que los miembros europeos de la OTAN cumplen con sus obligaciones, algo que «no se hizo lo suficientemente explícitamente hasta hace unos años», lamentaba este viernes en declaraciones a la cadena pública de televisión alemana ZDF.
+Oficialmente, el Pistorius solo cita la amenaza de China y Rusia como motivo del despliegue, sin mencionar las reiteradas amenazas de Donald Trump de hacerse con la isla ártica. Y en todos los comunicados, civiles y militares, se subraya como objetivo la exploración de Groenlandia. El contingente alemán despegó el jueves con un avión de transporte A400M desde la base aérea de Wunstorf, en Baja Sajonia, y regresarán este sábado tras haber llevado a cabo una «exploración en el marco de posibles contribuciones militares que apoyen a Dinamarca en la garantía de la seguridad en la región, como capacidades de vigilancia marítima«. Difícilmente puede redactarse un comunicado más escurridizo sobre las supuestas intenciones de defensa militar de la isla.
+El Poseidón, que puede operar a una altitud de 150 a 12.000 metros, es conocido como el 'guardián volador' de la Marina alemana. El primero de estos aviones de última generación fue entregado a la Bundeswehr  el pasado mes de octubre y, gracias a él, la caza fiable de submarinos desde el aire vuelve a ser posible. El Poseidón puede volar más de 2.000 kilómetros y permanecer en la zona de operaciones durante varias horas.
+Con tecnología de sensores digitales, reabastecimiento aéreo y un sistema de autoprotección contra misiles, constituye una potente arma de vigilancia marítima, caza y reconocimiento de submarinos, no solo en el mar del Norte y el mar Báltico, sino también en el Atlántico Norte. También es adecuado para misiones de búsqueda y rescate. Así, Alemania se une a la creciente flota Poseidón de la OTAN: Estados Unidos, Gran Bretaña y Noruega ya están usando este tipo, mientras que Canadá lo ha encargado y está a la espera de recibirlo.
+Pistorius repite en sus declaraciones que la misión no tiene nada que ver con las ideas de Trump sobre Groenlandia ni con el proceso de diálogo abierto entre Washington y Copenhague. Insiste en que ha sido una «coincidencia de tiempo» que el anuncio del traslado a Groenlandia de los soldados alemanes tuviese lugar poco después de las conversaciones. Otra cosa es que Alemania se esté planteando participar en la misión de la OTAN denominada Arctic Sentry, que ya cuenta con el apoyo de Francia y Gran Bretaña para garantizar una mayor vigilancia de la zona.
+«Sería absurdo leerlo en ese sentido, está claro que una presencia de este tipo no serviría para disuadir a Estados Unidos», ha añadidoThomas Erndl, diputado alemán y portavoz de los socialcristianos (CSU) en materia de Defensa. A última hora de este viernes, fuentes del Gobierno alemán confirmaban que se está examinando la posibilidad de enviar fragatas e incluso Eurofighters.
+En cuanto a los soldados extranjeros desplegados actualmente en Groenlandia, según fuentes del Gobierno danés, se trata de dos personas enviadas por Noruega, «algunos oficiales» enviados por Suecia, dos personas de Finlandia, uno de Reino Unido, uno de Países Bajos y «varios soldados» de Francia que llegaron a la isla en un avión Hércules y fueron trasladadosen dos autobuses al cuartel general del Mando Ártico. Polonia ha declinado la invitación alegando que «no puede haber OTAN sin Estados Unidos».
+Mientras tanto, una delegación bipartidista de parlamentarios estadounidenses aseguró este viernes a Dinamarca y Groenlandia el apoyo del Congreso contra las intenciones de Trump. La delegación de once miembros, encabezada por el senador demócrata Chris Coons, llegó a Copenhague para reunirse en Christianborg con la primera ministra danesa Mette Frederiksen y su homólogo groenlandésJens-Frederik Nielsen, en Copenhague. A la cena asistió también el ministro de Defensa danés Troels Lund Poulsen .
+«Nos han mostrado con emoción lo terrible que les parece que esté sucediendo todo esto», dijo después en rueda de prensa el portavoz de Exteriores, Karsten Honge. «Estamos viviendo unas jornadas de infarto, somos conscientes de que estamos estos días cumpliendo la tarea más difícil de nuestra vida y seguramente también la más importante«, comentaba a BC el diputadoRasmus Jarlov, consciente de que «se está haciendo historia» y lejos todavía de cantar victoria. «No estoy seguro de que el Congreso de Estados Unidos pueda torcer los planes de Donald Trump, pero tenemos que intentarlo.
+A la misma hora que tenían lugar estas reuniones entre parlamentarios daneses y estadounidenses, el enviado especial de Trump para Groenlandia, Jeff Landry, por su parte, renovaba las reclamaciones estadounidenses sobre la isla y calculaba en voz alta que en el mes de marzo espera llegar a un acuerdo. «El presidente habla en serio. Creo que él marcó el rumbo. Ha dicho a Dinamarca lo que espera», añadía Landry. Peter Bay Kirkegaard, de la Confederación de la Industria Danesa, advertía que sospechan que Trump planea imponer nuevos aranceles a los países que no apoyen sus planes para Groenlandia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C351" s="5" t="inlineStr">
+        <is>
+          <t>La sombra de Trump se alarga sobre Groenlandia</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>2026-01-17T10:00:21+01:00</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Para disuadir las ansias imperialistas del magnate, Copenhague puede permitir una mayor presencia militar de EE UU, ceder los recursos naturales y vetar las inversiones de China y Rusia en la isla</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Para disuadir las ansias imperialistas del magnate, Copenhague puede permitir una mayor presencia militar de EE UU, ceder los recursos naturales y vetar las inversiones de China y Rusia en la isla</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C352" s="5" t="inlineStr">
+        <is>
+          <t>Campos de concentración para musulmanes: las polémicas prácticas que lleva a cabo China como represión contra las minorías</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Política social</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>Muy negativa</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>2026-01-17T09:55:13+01:00</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Similar a la Alemania nazi, estos centros de detención están creados para someter a trabajos forzados y recluir en celdas a los fieles del islam, entre otras pequeñas fracciones étnicas y religiosas sometidas en el régimen del gigante asiático</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Similar a la Alemania nazi, estos centros de detención están creados para someter a trabajos forzados y recluir en celdas a los fieles del islam, entre otras pequeñas fracciones étnicas y religiosas sometidas en el régimen del gigante asiático</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>La Razón</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>España</t>
+        </is>
+      </c>
+      <c r="C353" s="5" t="inlineStr">
+        <is>
+          <t>China desarrolla 10 ciberarmas basadas en tecnología cuántica para uso militar</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>Amenaza</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>2026-01-16T19:20:14+01:00</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Algunas de ellas ya están siendo utilizadas en misiones reales, según el diario estatal chino Science and Technology Daily</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Algunas de ellas ya están siendo utilizadas en misiones reales, según el diario estatal chino Science and Technology Daily</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C354" s="5" t="inlineStr">
+        <is>
+          <t>英媒：“美国优先”背后是“新帝国主义”野心</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>2026-01-17T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>路透社（Reuters）网站近日发表署名文章，批评美国政府外交政策带有的鲜明的帝国主义色彩。 路透社（Reuters）网站文章截图 文章援引多名专家的观点指出，美国政府的外交政策以“美国优先”、维护国家安全和经济利益为名，行单边主义和资源控制之实。其在加沙地带、委内瑞拉和格陵兰岛等地的行动被广泛批评为“新帝国主义”，挑战了现行国际秩序。 制定加沙战后治理方案：“伪装成和平进程的帝国主义” 文章说，在有关加沙治理这一议题上，特朗普政府2025年2月宣称“美国将直接接管加沙”的说法被联合国谴责为“种族清洗”，后改为由总统亲任主席的“和平委员会”监督加沙战后过渡治理。 路透社（Reuters）网站文章截图 文章强调，多位联合国专家认为该方案“令人遗憾地让人想起殖民主义做法”。联合国秘书长原特别顾问杰弗里·萨克斯（Jeffrey Sachs）等多位学者直指其为“伪装成和平进程的帝国主义”。 袭击委内瑞拉：“新帝国主义”的典型特征 今年1月，美国突袭委内瑞拉，强行控制委总统马杜罗夫妇并将他们带到美国，同时宣布美国大型石油企业将进入委内瑞拉投资。 文章援引批评人士的话表示，这种专注于委内瑞拉石油资源开发的做法，使得美国政府将军事袭击委内瑞拉描绘成“打击毒品走私的执法行动”的真实性备受质疑。 路透社（Reuters）网站文章截图 联合国人权事务高级专员办事处则表示，美国在委内瑞拉的行动违反了国际法，使世界变得更加不安全。美国对外关系委员会高级研究员、乔治城大学教授查尔斯·库普坎（Charles Kupchan）指出，美国政府的这一做法正是“新帝国主义”的典型特征，并非“新孤立主义”。 觊觎格陵兰岛：将使美国沦为“流氓国家” 在格陵兰岛问题上，特朗普政府无视丹麦和格陵兰岛自治政府的反对，多次扬言要得到格陵兰岛，并声称不排除动用武力的可能性。 路透社（Reuters）网站文章截图 路透社的文章指出，美国目前在格陵兰岛设有一处军事基地，但仍觊觎同为北约盟友丹麦的这一领土。英国皇家国际事务研究所的国际法专家马克·韦勒（Marc Weller）警告称，此举可能使美国沦为“流氓国家”。文章进一步指出，需要注意的是，特朗普政府此前还多次提及“让加拿大成为美国第51个州”。 【责任编辑：王晗】</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>路透社（Reuters）网站近日发表署名文章，批评美国政府外交政策带有的鲜明的帝国主义色彩。 路透社（Reuters）网站文章截图 文章援引多名专家的观点指出，美国政府的外交政策以“美国优先”、维护国家安全和经济利益为名，行单边主义和资源控制之实。其在加沙地带、委内瑞拉和格陵兰岛等地的行动被广泛批评为“新帝国主义”，挑战了现行国际秩序。 制定加沙战后治理方案：“伪装成和平进程的帝国主义” 文章说，在有关加沙治理这一议题上，特朗普政府2025年2月宣称“美国将直接接管加沙”的说法被联合国谴责为“种族清洗”，后改为由总统亲任主席的“和平委员会”监督加沙战后过渡治理。 路透社（Reuters）网站文章截图 文章强调，多位联合国专家认为该方案“令人遗憾地让人想起殖民主义做法”。联合国秘书长原特别顾问杰弗里·萨克斯（Jeffrey Sachs）等多位学者直指其为“伪装成和平进程的帝国主义”。 袭击委内瑞拉：“新帝国主义”的典型特征 今年1月，美国突袭委内瑞拉，强行控制委总统马杜罗夫妇并将他们带到美国，同时宣布美国大型石油企业将进入委内瑞拉投资。 文章援引批评人士的话表示，这种专注于委内瑞拉石油资源开发的做法，使得美国政府将军事袭击委内瑞拉描绘成“打击毒品走私的执法行动”的真实性备受质疑。 路透社（Reuters）网站文章截图 联合国人权事务高级专员办事处则表示，美国在委内瑞拉的行动违反了国际法，使世界变得更加不安全。美国对外关系委员会高级研究员、乔治城大学教授查尔斯·库普坎（Charles Kupchan）指出，美国政府的这一做法正是“新帝国主义”的典型特征，并非“新孤立主义”。 觊觎格陵兰岛：将使美国沦为“流氓国家” 在格陵兰岛问题上，特朗普政府无视丹麦和格陵兰岛自治政府的反对，多次扬言要得到格陵兰岛，并声称不排除动用武力的可能性。 路透社（Reuters）网站文章截图 路透社的文章指出，美国目前在格陵兰岛设有一处军事基地，但仍觊觎同为北约盟友丹麦的这一领土。英国皇家国际事务研究所的国际法专家马克·韦勒（Marc Weller）警告称，此举可能使美国沦为“流氓国家”。文章进一步指出，需要注意的是，特朗普政府此前还多次提及“让加拿大成为美国第51个州”。 【责任编辑：王晗】</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C355" s="5" t="inlineStr">
+        <is>
+          <t>专访｜“高市错误言论是在喊大家一起闯红灯”</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>2026-01-17T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>新华社东京1月17日电 题：专访｜“高市错误言论是在喊大家一起闯红灯”——访日本庆应义塾大学特聘副教授有野洋辅 新华社记者陈泽安 杨智翔 郭丹 “高市早苗正在做的事，就像对大家喊‘虽然是红灯，只要大家一起闯就不可怕；台湾问题这条红线，只要大家一起踩就不可怕’。”日本庆应义塾大学特聘副教授有野洋辅近日发表街头演讲，批驳日本首相高市早苗的涉台错误言论，相关视频在社交平台广泛传播。 有野洋辅在接受新华社记者专访时表示，当前日本社会中有不少人对日中关系的历史脉络以及高市涉台错误言论的影响认识并不充分，有必要让更多人看清高市涉台言论的问题所在。 “高市在国会的发言，暗示‘台湾有事’时日本将以武力方式介入。在日本，这被包装成所谓‘行使集体自卫权’，但在国际上，不能获得认可。”有野向记者展示了他的演讲视频。演讲中他介绍了日中达成的四个政治文件的内容，指出日方在这些文件中曾明确作出坚持一个中国的政治承诺。 “关于日中之间的四份政治文件的内容，许多日本民众其实对此并不了解，尤其是1972年的《日中联合声明》和1978年的《日中和平友好条约》原文，以及由此形成的历史脉络。”有野说。 有野认为，无论从法理角度还是历史角度，高市的涉台言论都存在问题。他指出，日本宪法第九条明确规定，日本永久放弃以国家权力发动战争、通过武力威胁或使用武力来解决国际纷争的手段。所谓集体自卫权与宪法本身就相互矛盾。“日本如果打着‘行使集体自卫权’的名义军事介入台湾问题的话，日本宪法是不允许的。”有野对记者说。 “对历史视而不见的人，也会对未来视而不见。”有野说，日本曾对包括中国在内的亚洲多个国家和地区发动侵略战争，对台湾地区实施了长达50年的殖民统治，这是不容置疑的事实，日本必须正视这段历史。高市的涉台错误言论深深伤害了中国人民的感情。 “日本绝对不能以所谓‘台湾有事’为由介入台湾问题。对中国来说，台湾问题是红线。而高市正在做的事情，就是在喊大家一起闯红灯。面对这样危险的首相，我们不能附和！”有野说。 【责任编辑：王晗】</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>新华社东京1月17日电 题：专访｜“高市错误言论是在喊大家一起闯红灯”——访日本庆应义塾大学特聘副教授有野洋辅 新华社记者陈泽安 杨智翔 郭丹 “高市早苗正在做的事，就像对大家喊‘虽然是红灯，只要大家一起闯就不可怕；台湾问题这条红线，只要大家一起踩就不可怕’。”日本庆应义塾大学特聘副教授有野洋辅近日发表街头演讲，批驳日本首相高市早苗的涉台错误言论，相关视频在社交平台广泛传播。 有野洋辅在接受新华社记者专访时表示，当前日本社会中有不少人对日中关系的历史脉络以及高市涉台错误言论的影响认识并不充分，有必要让更多人看清高市涉台言论的问题所在。 “高市在国会的发言，暗示‘台湾有事’时日本将以武力方式介入。在日本，这被包装成所谓‘行使集体自卫权’，但在国际上，不能获得认可。”有野向记者展示了他的演讲视频。演讲中他介绍了日中达成的四个政治文件的内容，指出日方在这些文件中曾明确作出坚持一个中国的政治承诺。 “关于日中之间的四份政治文件的内容，许多日本民众其实对此并不了解，尤其是1972年的《日中联合声明》和1978年的《日中和平友好条约》原文，以及由此形成的历史脉络。”有野说。 有野认为，无论从法理角度还是历史角度，高市的涉台言论都存在问题。他指出，日本宪法第九条明确规定，日本永久放弃以国家权力发动战争、通过武力威胁或使用武力来解决国际纷争的手段。所谓集体自卫权与宪法本身就相互矛盾。“日本如果打着‘行使集体自卫权’的名义军事介入台湾问题的话，日本宪法是不允许的。”有野对记者说。 “对历史视而不见的人，也会对未来视而不见。”有野说，日本曾对包括中国在内的亚洲多个国家和地区发动侵略战争，对台湾地区实施了长达50年的殖民统治，这是不容置疑的事实，日本必须正视这段历史。高市的涉台错误言论深深伤害了中国人民的感情。 “日本绝对不能以所谓‘台湾有事’为由介入台湾问题。对中国来说，台湾问题是红线。而高市正在做的事情，就是在喊大家一起闯红灯。面对这样危险的首相，我们不能附和！”有野说。 【责任编辑：王晗】</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C356" s="5" t="inlineStr">
+        <is>
+          <t>这组数据太提气！多个新高见证中国经济硬实力</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>Muy positiva</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>2026-01-17T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>本周，我国多领域2025“成绩单”出炉，外贸、汽车、外汇等多项数据创历史新高。一组海报，见证中国经济的澎湃活力。 活力奔涌 气势如虹 这份硬核数据 是中国经济巨轮行稳致远的底气 监制丨郑弘 制片人丨文雅 王烁 主编丨关美璐 编辑丨丰树琪 视觉丨喻偌洢 审校丨左中明 【责任编辑：王晗】</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>本周，我国多领域2025“成绩单”出炉，外贸、汽车、外汇等多项数据创历史新高。一组海报，见证中国经济的澎湃活力。 活力奔涌 气势如虹 这份硬核数据 是中国经济巨轮行稳致远的底气 监制丨郑弘 制片人丨文雅 王烁 主编丨关美璐 编辑丨丰树琪 视觉丨喻偌洢 审校丨左中明 【责任编辑：王晗】</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C357" s="5" t="inlineStr">
+        <is>
+          <t>“国风+”燃动节前文旅市场 古韵国潮成顶流审美</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Cultura y ciencia</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>2026-01-17T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>央视网消息：还有一个月就是马年春节了，“过大年”系列的旅游产品热度也在持续攀升，将文化体验深度融入行程备受青睐。如今，游客们已不再满足于简单的观光打卡，而是倾向于选择能够提供独特记忆、沉浸式体验的场景，同时底蕴深厚的中华美学也正日渐走进年轻人的生活。作为中华美学的代表之一，汉服的持续火热不仅成为连接传统和现代的纽带，也为传统文化产业注入活力与新生。 春节临近，山东曹县的拜年汉服持续火爆，姚驰行和她的团队开始进入最繁忙的时刻，设计的汉服订单已排到了四月份。 曹县汉服爱好者 周铭：一些细节上的处理，就比如说裙摆的边缘，系带的一个编织手法，刺绣上面的一个梅兰竹菊，体现一种“含蓄内敛”的儒雅气质，这些是我们对传统文化一个有温度的传承。 在款式上，既遵循历史形制，又巧妙融入现代设计元素；在工艺上，传承传统刺绣技法，创新数字化生产流程；在文化表达上，通过服饰传递了“含蓄内敛”“礼乐交融”的东方美学理念。 据统计，2025年曹县汉服销售额突破130亿元，形成了完整产业链。不仅如此，东方风雅也扬帆出海，曹县汉服远销欧美、东南亚等数十个国家和地区，在国际舞台上展示着东方美学的独特魅力。 而在河南，漫步古都洛阳，“着汉服游古城”已成为融入日常的文旅新风尚。在这场以汉服为载体，融合威亚技术与光影艺术的国风表演中，各地游客纷纷与现场演员进行互动，尽显中华美学独特韵味。 从单个景点的“出圈”到全域文旅的“升温”，洛阳的古韵国风热潮背后不仅是千年文脉的厚积薄发，更是城市对文化传承的清醒认知与创新实践。 洛阳市太学与汉服协会党支部书记 安锋：让汉服与历史场景、民俗活动、科技体验深度融合，让年轻人在沉浸式体验中读懂汉服承载的礼仪文化与审美意蕴，才是最持久的。 科技赋能传统文化表达 打造沉浸文旅体验 传统服饰展示着千年风雅，“国风+科技”的融合也让视觉呈现迈入了新阶段。在科技的加持下，古韵国风正以更鲜活的姿态登场，让年轻人在轻松氛围中走近传统文化。 江水为幕、激光为笔，不久前，“新韵重庆”无人机灯光秀的上演给观众带来持续焕新的沉浸式观演体验，极具国潮韵味的“花开富贵”成为了当晚的一大亮点。一朵极富东方美学的花朵在夜色中缓缓舒展身姿，一只流光溢彩的蝴蝶翻然飞来，与花朵交相辉映。 “水陆空三维立体联动”形式拓展了表演层次与叙事空间，别具特色的国风系列也吸引了很多年轻人的目光。 色彩运用同样暗藏巧思，更明快的色彩体系更受年轻人青睐。在这里，技术不仅复现传统纹样，更通过数据化采集、动态化编程与实时交互，使“蝶恋花”“宝葫芦”等传统意象转化为可参与、可传播的情感载体。 从“纪念品”到“情感载体” 文创“破圈”远航 小小的文创，方寸之间藏着中华美学的博大精深。随着文旅的深度融合，从“纪念品”到“情感载体”，文创也成为了创新引擎。 走进北京的这家文创产业园，琳琅满目的文创产品摆放整齐有序，鲜艳的色彩、萌宠的造型，处处传达着一种生机和活力。马上有财系列以马年生肖为载体加上财神招财寓意，精准对应“马上有财”的新年吉语，契合春节祈福的情感需求。 文创设计师黎贯宇来自山西，从小就对美术感兴趣，写过剧本、做过动漫、出过书，深耕文创领域近二十年，专注于人工智能与传统文化的创新结合，探索出了一套传统工艺和现代艺术结合的实践方法。 如今，这些创作精美的文创在国家图书馆、国家海洋馆以及全国各地的景区都吸引了众多游客。 传统纹样“活”起来 裁缝铺里涌动“新国潮” 在苏州，设计师从传统丝绸纹样中汲取灵感，将千年宋锦工艺与当代设计相融合，打造出一系列兼具文化底蕴与实用价值的文创产品，让古风国韵走进年轻人的日常。 苏州的文创商店，很多产品都离不开丝绸的元素。在这里，丝绸纹样经过重新设计，以全新的载体形态与游客见面。特别是马年将至，这些承载着美好寓意的配饰、挂件成为最近一段时间店里最热销的品类。 这枚闪耀着金属光泽的胸针，造型策马扬鞭，极具动感，而在马的身体部分选用的则是传统宋锦面料，每只纹样都不尽相同，都是来自对传统纹样的数字化提取和再设计。 施意是土生土长的苏州“90后”，大学毕业后，从长辈手里接下了这家苏式精工裁缝铺，不甘于守着过去被动式的定制加工模式，施意带着自己对于传统面料与生活方式的理解，开始了小店的焕新之路。 从造型精巧的小摆件到日常实用的文具，都藏着传统与现代融合碰撞的火花。施意通过提取纹样元素，再结合当代审美与生活需求赋予全新的设计，让沉睡千年的丝绸纹样在一针一线间焕发新生。 【责任编辑：王晗】</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>央视网消息：还有一个月就是马年春节了，“过大年”系列的旅游产品热度也在持续攀升，将文化体验深度融入行程备受青睐。如今，游客们已不再满足于简单的观光打卡，而是倾向于选择能够提供独特记忆、沉浸式体验的场景，同时底蕴深厚的中华美学也正日渐走进年轻人的生活。作为中华美学的代表之一，汉服的持续火热不仅成为连接传统和现代的纽带，也为传统文化产业注入活力与新生。 春节临近，山东曹县的拜年汉服持续火爆，姚驰行和她的团队开始进入最繁忙的时刻，设计的汉服订单已排到了四月份。 曹县汉服爱好者 周铭：一些细节上的处理，就比如说裙摆的边缘，系带的一个编织手法，刺绣上面的一个梅兰竹菊，体现一种“含蓄内敛”的儒雅气质，这些是我们对传统文化一个有温度的传承。 在款式上，既遵循历史形制，又巧妙融入现代设计元素；在工艺上，传承传统刺绣技法，创新数字化生产流程；在文化表达上，通过服饰传递了“含蓄内敛”“礼乐交融”的东方美学理念。 据统计，2025年曹县汉服销售额突破130亿元，形成了完整产业链。不仅如此，东方风雅也扬帆出海，曹县汉服远销欧美、东南亚等数十个国家和地区，在国际舞台上展示着东方美学的独特魅力。 而在河南，漫步古都洛阳，“着汉服游古城”已成为融入日常的文旅新风尚。在这场以汉服为载体，融合威亚技术与光影艺术的国风表演中，各地游客纷纷与现场演员进行互动，尽显中华美学独特韵味。 从单个景点的“出圈”到全域文旅的“升温”，洛阳的古韵国风热潮背后不仅是千年文脉的厚积薄发，更是城市对文化传承的清醒认知与创新实践。 洛阳市太学与汉服协会党支部书记 安锋：让汉服与历史场景、民俗活动、科技体验深度融合，让年轻人在沉浸式体验中读懂汉服承载的礼仪文化与审美意蕴，才是最持久的。 科技赋能传统文化表达 打造沉浸文旅体验 传统服饰展示着千年风雅，“国风+科技”的融合也让视觉呈现迈入了新阶段。在科技的加持下，古韵国风正以更鲜活的姿态登场，让年轻人在轻松氛围中走近传统文化。 江水为幕、激光为笔，不久前，“新韵重庆”无人机灯光秀的上演给观众带来持续焕新的沉浸式观演体验，极具国潮韵味的“花开富贵”成为了当晚的一大亮点。一朵极富东方美学的花朵在夜色中缓缓舒展身姿，一只流光溢彩的蝴蝶翻然飞来，与花朵交相辉映。 “水陆空三维立体联动”形式拓展了表演层次与叙事空间，别具特色的国风系列也吸引了很多年轻人的目光。 色彩运用同样暗藏巧思，更明快的色彩体系更受年轻人青睐。在这里，技术不仅复现传统纹样，更通过数据化采集、动态化编程与实时交互，使“蝶恋花”“宝葫芦”等传统意象转化为可参与、可传播的情感载体。 从“纪念品”到“情感载体” 文创“破圈”远航 小小的文创，方寸之间藏着中华美学的博大精深。随着文旅的深度融合，从“纪念品”到“情感载体”，文创也成为了创新引擎。 走进北京的这家文创产业园，琳琅满目的文创产品摆放整齐有序，鲜艳的色彩、萌宠的造型，处处传达着一种生机和活力。马上有财系列以马年生肖为载体加上财神招财寓意，精准对应“马上有财”的新年吉语，契合春节祈福的情感需求。 文创设计师黎贯宇来自山西，从小就对美术感兴趣，写过剧本、做过动漫、出过书，深耕文创领域近二十年，专注于人工智能与传统文化的创新结合，探索出了一套传统工艺和现代艺术结合的实践方法。 如今，这些创作精美的文创在国家图书馆、国家海洋馆以及全国各地的景区都吸引了众多游客。 传统纹样“活”起来 裁缝铺里涌动“新国潮” 在苏州，设计师从传统丝绸纹样中汲取灵感，将千年宋锦工艺与当代设计相融合，打造出一系列兼具文化底蕴与实用价值的文创产品，让古风国韵走进年轻人的日常。 苏州的文创商店，很多产品都离不开丝绸的元素。在这里，丝绸纹样经过重新设计，以全新的载体形态与游客见面。特别是马年将至，这些承载着美好寓意的配饰、挂件成为最近一段时间店里最热销的品类。 这枚闪耀着金属光泽的胸针，造型策马扬鞭，极具动感，而在马的身体部分选用的则是传统宋锦面料，每只纹样都不尽相同，都是来自对传统纹样的数字化提取和再设计。 施意是土生土长的苏州“90后”，大学毕业后，从长辈手里接下了这家苏式精工裁缝铺，不甘于守着过去被动式的定制加工模式，施意带着自己对于传统面料与生活方式的理解，开始了小店的焕新之路。 从造型精巧的小摆件到日常实用的文具，都藏着传统与现代融合碰撞的火花。施意通过提取纹样元素，再结合当代审美与生活需求赋予全新的设计，让沉睡千年的丝绸纹样在一针一线间焕发新生。 【责任编辑：王晗】</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>China Daily (Chinese)</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C358" s="5" t="inlineStr">
+        <is>
+          <t>一间实验室，何以攀登“脑机接口”高峰？</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Tecnología industrial</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>2026-01-17T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>新华社天津1月16日电题：一间实验室，何以攀登“脑机接口”高峰？ 新华社记者郭方达、梁姊、杨文 “现在想象，右手腕长出了一根‘第六指’，用它去抓握眼前的小球。”在天津大学脑机交互与人机共融海河实验室（以下称脑机海河实验室）里，科研人员王壮使用“读心术”，操作机械指稳稳抓住桌子上的小球。 这款由脑机海河实验室团队研发的手指穿戴设备，被称为“神工—灵犀指”。据介绍，用意念控制该设备，可以配合人手完成辅助抓握，唤醒患者的功能障碍中枢与外周神经系统，助力手部运动功能康复。脑机接口通过采集脑部神经信号，转换成特定指令。该技术能够在大脑与外部设备之间创建连接，实现“脑”与“机”之间的信息交换。 天津大学脑机海河实验室团队研发的无创脑机接口康复系统“神工—灵犀指”。（受访者供图） 天津大学副校长、脑机海河实验室主任明东说，实验室团队聚焦无创脑机接口领域，持续推动科技创新与产业化落地，在航空航天领域，设计开发五代空间站在轨脑机交互系统，完成“太空脑机接口实验”。 作为天津市7家聚焦前沿科技领域的海河实验室之一，由天津大学牵头建设的脑机海河实验室2023年3月27日正式揭牌。“实验室聚焦脑机交互与人机共融领域，目前领域内专利保有量居世界前列。”天津大学教授、脑机海河实验室常务副主任倪广健介绍。 为推动技术创新成果落地转化，脑机海河实验室在建立初期就组建了覆盖脑机接口、人机交互基础理论、器件系统、转化应用等的研发队伍。“应用技术的研究不能闭门造车，要与市场需求和前沿动向紧密结合。”倪广健说。 党的二十届四中全会提出，加快高水平科技自立自强，引领发展新质生产力。在脑机海河实验室，这一部署正转化为具体实践。倪广健说：“我们不断探索脑机接口领域的可能性，推动前沿科技成果落地转化，在科研岗位上落实四中全会精神。” 据了解，脑机海河实验室将聚焦基础元件、航空航天、康复医疗等多个领域继续深挖技术潜力，推动相关技术尽快落地应用。 在培养室中，小小的一片人工培育“大脑”不断接收并反馈信号，“指挥”着机械小车在沙盘上躲避障碍物。 有别于过去使用生物脑作为研究对象，这项名为片上脑机接口的技术，作为脑机接口领域的又一新兴技术分支，在脑机海河实验室走出了关键一步。 作为片上脑机接口技术团队负责人，天津大学教授李晓红说，多领域的跨界交叉正不断催生片上脑机接口技术等前沿成果。如今，李晓红团队正将精力转向技术优化和落地应用。她表示，未来片上脑机接口技术有望推动混合智能、类脑计算等前沿科技领域的发展。 片上脑相关技术重点领域。（受访者供图） 始于创新，不止于创新，更多产业化领域的实践正在稳步推进。脑机海河实验室推动成立目标规模百亿元的脑机接口产业发展专项基金，实验室孵化的天开燧世（天津）智能科技有限公司目前已通过国家高新技术企业认定，并获国家科技型中小企业称号。 “‘十五五’规划建议中明确提出‘推动科技创新和产业创新深度融合’，我们也将科技成果转化落地作为实验室工作的重要一环。”倪广健认为，未来实验室将继续发挥新型研发机构的黏合剂作用，以创新策源带动产业“蝶变”。 【责任编辑：王晗】</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>新华社天津1月16日电题：一间实验室，何以攀登“脑机接口”高峰？ 新华社记者郭方达、梁姊、杨文 “现在想象，右手腕长出了一根‘第六指’，用它去抓握眼前的小球。”在天津大学脑机交互与人机共融海河实验室（以下称脑机海河实验室）里，科研人员王壮使用“读心术”，操作机械指稳稳抓住桌子上的小球。 这款由脑机海河实验室团队研发的手指穿戴设备，被称为“神工—灵犀指”。据介绍，用意念控制该设备，可以配合人手完成辅助抓握，唤醒患者的功能障碍中枢与外周神经系统，助力手部运动功能康复。脑机接口通过采集脑部神经信号，转换成特定指令。该技术能够在大脑与外部设备之间创建连接，实现“脑”与“机”之间的信息交换。 天津大学脑机海河实验室团队研发的无创脑机接口康复系统“神工—灵犀指”。（受访者供图） 天津大学副校长、脑机海河实验室主任明东说，实验室团队聚焦无创脑机接口领域，持续推动科技创新与产业化落地，在航空航天领域，设计开发五代空间站在轨脑机交互系统，完成“太空脑机接口实验”。 作为天津市7家聚焦前沿科技领域的海河实验室之一，由天津大学牵头建设的脑机海河实验室2023年3月27日正式揭牌。“实验室聚焦脑机交互与人机共融领域，目前领域内专利保有量居世界前列。”天津大学教授、脑机海河实验室常务副主任倪广健介绍。 为推动技术创新成果落地转化，脑机海河实验室在建立初期就组建了覆盖脑机接口、人机交互基础理论、器件系统、转化应用等的研发队伍。“应用技术的研究不能闭门造车，要与市场需求和前沿动向紧密结合。”倪广健说。 党的二十届四中全会提出，加快高水平科技自立自强，引领发展新质生产力。在脑机海河实验室，这一部署正转化为具体实践。倪广健说：“我们不断探索脑机接口领域的可能性，推动前沿科技成果落地转化，在科研岗位上落实四中全会精神。” 据了解，脑机海河实验室将聚焦基础元件、航空航天、康复医疗等多个领域继续深挖技术潜力，推动相关技术尽快落地应用。 在培养室中，小小的一片人工培育“大脑”不断接收并反馈信号，“指挥”着机械小车在沙盘上躲避障碍物。 有别于过去使用生物脑作为研究对象，这项名为片上脑机接口的技术，作为脑机接口领域的又一新兴技术分支，在脑机海河实验室走出了关键一步。 作为片上脑机接口技术团队负责人，天津大学教授李晓红说，多领域的跨界交叉正不断催生片上脑机接口技术等前沿成果。如今，李晓红团队正将精力转向技术优化和落地应用。她表示，未来片上脑机接口技术有望推动混合智能、类脑计算等前沿科技领域的发展。 片上脑相关技术重点领域。（受访者供图） 始于创新，不止于创新，更多产业化领域的实践正在稳步推进。脑机海河实验室推动成立目标规模百亿元的脑机接口产业发展专项基金，实验室孵化的天开燧世（天津）智能科技有限公司目前已通过国家高新技术企业认定，并获国家科技型中小企业称号。 “‘十五五’规划建议中明确提出‘推动科技创新和产业创新深度融合’，我们也将科技成果转化落地作为实验室工作的重要一环。”倪广健认为，未来实验室将继续发挥新型研发机构的黏合剂作用，以创新策源带动产业“蝶变”。 【责任编辑：王晗】</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (RSSHub Local)</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C359" s="5" t="inlineStr">
+        <is>
+          <t>2025，美新一届政府“狂野的一年”</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>2026-01-16T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>2025，美新一届政府“狂野的一年”</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>不得不说,如今的美国,让世界瞠目结舌。美国新一届政府上台一年来,横冲直撞,强硬驱逐非法移民,挑起全球贸易战,炸伊朗、打委内瑞拉,乃至毫不掩饰地声称“我不需要国际法”。
+按照美国人自己的说法,美国的2025年是“疯狂”“狂野的一年”。外交学院前院长、中华美国学会副会长王帆认为,美国新政府这一年来的执政被描述为“推土机式治理”。
+2025年4月19日,人们在美国首都华盛顿白宫门前参加抗议活动。新华社发(亚伦摄)
+撕裂和冲突加剧,政府公信力跌至低点
+2025年,美国新政府推行了涉及行政、移民、文化教育等一系列内政举措,导致美国社会进一步的撕裂和对抗。
+在国家治理改革上,行政权扩张和机构再造同步进行,引发争议不断。复旦大学教授沈逸认为,美国新政府通过一揽子行政令重塑政府行为方式,将决策权向总统集中,引发了美国国内关于总统权力边界、数据隐私、行政、国家稳定性的持续争论。
+王帆说,美国新政府由马斯克牵头政府效率部,裁撤了约30万联邦雇员,大幅削减教育部、环保署等机构的预算。然而,由于预算谈判破裂,美国政府这一年经历了长达43天的历史最长停摆,公信力跌至低点。
+在移民和边境管理上,极端化的政策成为社会冲突放大器。沈逸认为,美国新政府以边境紧急状态军事化增援和更强执法作为抓手推进国内政策,不仅导致更多抗议,也在州与联邦的关系、社会撕裂方面造成更多负面效果,围绕联邦执法权限和身份、文化冲突方面的矛盾将进一步加深。
+在社会与教育政策上,价值观撕裂进一步加深。王帆指出,美国新政府削减了联邦教育部的职能,推动普遍私校选择权,并废除涉及性别平等的保护条款。这些政策加剧了“红州”与“蓝州”的对立,导致社会价值观爆发大的分歧和冲突。
+大搞极端单边主义,引发全球动荡不安
+这一年来,美国新政府四面出击,将世界搅得不得安宁,成为破坏国际秩序、制造全球动荡的头号乱源。
+2025年11月4日,民众手持反美标语在伊朗首都德黑兰参加反美反以集会。新华社发
+在外交层面,大搞极端单边主义、退群毁约。美国新政府上台后,推动系统性退群和抽身。1月7日,美国更是一口气宣布退出66个国际组织,其中近半数隶属于联合国体系。沈逸认为,退出或停止支持大量国际组织与合作机制,表明美国不愿意提供全球治理和全球发展所需的公共物品,削弱了全球治理协作。
+从与盟友的关系看,美国更加强调对等,要求盟友承担更多防务责任,并以经贸和安全捆绑方式推动盟友向美国对齐。王帆说,美国在同盟体系内部搞同盟交易化,导致美欧战略互信跌至冷战后新低。
+在经济层面,大搞贸易霸凌,推行所谓对等关税,引发供应链震荡。王帆指出,美国强行推动“去全球化”与“友岸外包”,导致全球供应链局部瘫痪,物流与生产成本上升。在反噬效应下,关税成本几乎全部由美消费者承担,推高了美国国内物价。
+在军事和地缘政治层面,呈现整体战略收缩与局部强化态势。王帆认为,美国军事战略呈收缩态势,将资源从中东、欧洲撤回,聚焦在所谓与国家安全利益相关区域,比如西半球和“印太”。对华仍是保持遏制态势,将中国视为首要对手,也将中国视为近乎势均力敌的经济竞争者,试图通过技术封锁和供应链脱钩,维护美国自身战略优势。
+美国国会研究机构也指出,美国2025年国家安全战略把西半球与中国作为突出重点,可能带来美军力量和部署重心的重新调整。
+鼓吹“唐罗主义”,妄图以霸权逻辑主导西半球
+“经多年忽视,美国将重申并推行‘门罗主义’,重塑西半球主导地位”,美国2025年国家安全战略报告写道。
+1823年,时任美国总统詹姆斯·门罗抛出所谓“美洲是美洲人的美洲”论调,“门罗主义”由此成为美国对外战略的基石之一。200余年来,美国抱持“门罗主义”,视拉美为“后院”,给当地人民带来严重伤害。
+美国新政府上台后,大肆鼓吹“唐罗主义”,即“唐纳德·特朗普版门罗主义”,暴露出以霸权逻辑主导西半球秩序的战略意图。
+2026年1月13日,人们在委内瑞拉加拉加斯参加示威活动,抗议美国对委内瑞拉发动军事打击。新华社发(卢西奥·塔沃拉摄)
+沈逸指出,在操作层面,“唐罗主义”主要表现在三个方面:首先,对资源和通道进行控制,围绕油气、关键矿产、港口航运、金融结算,把关键资源链条留在美国可控范围内;其次,政治安全捆绑施压,以移民、禁毒、治安合作为条件,对周边国家提出更高的要求,不排除强化制裁、援助条件化,以及更强的执法和军事威慑;再次,明确排挤外部力量,通过经济和政治手段,削弱其立足点。
+然而,从长期来看,“唐罗主义”存在有效的硬约束。一是市场经济未必买账。比如在美国军事打击委内瑞拉并提出所谓“管理”计划,埃克森美孚公司明确讲,委内瑞拉不具备投资价值,除非建立一个“合法政府”。
+二是会触发拉美国家对殖民主义的集体记忆和对帝国主义行为的反弹。“唐罗主义”的推行,致使许多拉美国家深感唇亡齿寒,进一步感受到团结自强、保卫主权、抵御霸权的重要意义。
+三是资源消耗将会是一个客观存在。美国事实上需要做的是收缩,但它在西半球强推“唐罗主义”,在资源上可能会带来更大的消耗,导致走向预期的反面。
+强推“美国优先”,2026年施政将聚焦三条主线
+在新版国家安全战略报告中,美国新政府全面阐述了“美国优先”的外交政策。沈逸认为,美国新政府2026年的施政优先级,就是把国家安全内政化,把内政议程安全化,同时聚焦于三条主线:
+第一条主线是“西半球优先”进一步落地,包括更强的所谓“移民外包”,让周边国家拦截移民;更强的禁毒与执法外溢,以禁毒为名在西半球做一些想做而之前不方便做的事,更加强势地去排挤它所认定的域外力量。
+第二条主线是经贸工具安全化。美国继续用关税、对等贸易、供应链重构作为谈判杠杆,并绑定商业条件和安全条款。然而,这些霸凌行径会遭到越来越强的反噬,并且持续处于“不断撞南墙、不断回头、再不断撞南墙”的过程。
+第三条主线是盟友体系再定价。推动盟友在军费、产业链和出口管制上与美国对齐。
+纵观全年,在“推土机式治理”下,美国新政府随意行事、不计后果的举动,使得美国从经济到社会,从内政到外交,无处不充斥着混乱与撕裂,其霸权行径也与各国求和平、谋发展的共同愿望完全背道而驰。王帆指出,美国当前这种违背时代潮流的霸权逻辑和做派,必然导致国际社会对其抵制日益增强。
+来源:新华网
+主笔:刘小军 余申芳
+参与报道:何媛 谢艳</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (RSSHub Local)</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C360" s="5" t="inlineStr">
+        <is>
+          <t>热点问答｜技术官僚委员会能否治理加沙？</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>热点问答｜技术官僚委员会能否治理加沙？</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>新华社拉姆安拉1月15日电热点问答|技术官僚委员会能否治理加沙?
+新华社记者黄泽民
+加沙地带停火斡旋方14日宣布巴勒斯坦技术官僚委员会组建完成,将负责管理加沙地带。巴勒斯坦伊斯兰抵抗运动(哈马斯)15日发表声明说,准备将加沙地带行政权移交给技术官僚委员会。哈马斯缘何“交权”?技术官僚委员会能干好吗?能带来和平吗?
+哈马斯缘何“交权”
+哈马斯高级官员巴西姆·纳伊姆15日在声明中说,对组建治理加沙地带的技术官僚委员会表示欢迎,准备将加沙地带行政权移交该委员会并协助其履职。声明说,组建治理加沙地带的技术官僚委员会是落实加沙停火协议的重要一步,应成为巴勒斯坦政治进程新起点,实现巴勒斯坦团结,结束分裂状态。
+巴勒斯坦总统府14日发表声明说,必须将巴勒斯坦民族权力机构在约旦河西岸和加沙地带的各机构联结起来,避免形成加剧重复、分裂、隔离或碎片化的行政、法律或安全安排。
+巴勒斯坦政治分析人士纳扎勒·纳扎勒说,经过长达两年的冲突,哈马斯已无力治理加沙地带,这一职责超出了哈马斯及其地区盟友的能力范围。
+巴勒斯坦国立纳贾赫大学学者拉伊德·德比说,哈马斯放弃行政权是美国强加的停火协议的明确组成部分。在加沙地带人道主义危机严峻、基本公共服务匮乏的情况下,哈马斯必须同意放弃行政权。
+巴勒斯坦政治分析人士穆斯塔法·易卜拉欣表示,巴以冲突期间加沙地带与其说存在一个政府,不如说更像是一个负责处理公民日常事务的委员会。
+技术官僚委员会能干好吗
+技术官僚委员会将由原巴勒斯坦高级官员阿里·阿卜杜勒哈米德·沙阿斯领导,由15名成员组成,将负责卫生、教育、地方政府、司法和公共服务等。
+巴勒斯坦政治分析人士阿克拉姆·阿塔拉认为,委员会将面临巨大挑战,最主要的是以色列对加沙地带的持续控制。哈马斯的地位及其可能保留的任何权力或武器,都可能阻碍委员会的工作。
+德比认为,该委员会不具备政治权威,无权就结束以色列占领或实现自决发表意见。它只负责管理加沙地带日常事务,这固然重要,但人们担心该委员会可能成为常设机构,从而导致巴勒斯坦人民的自决权被边缘化,并回避核心问题,即结束以色列占领、撤出以色列军队、解除对加沙地带的封锁,以及巴勒斯坦建国。
+易卜拉欣表示,该委员会是过渡阶段产物,其任务以公共服务为导向。目前尚不清楚该委员会在缺乏财政预算和安保力量的情况下,能否有效履行所有职责。该委员会肩负重任,但职责范围仍不明确,包括加沙地带南部拉法口岸的重建和管理等许多事务,都存在诸多不确定性。
+能带来和平吗
+哈马斯能否解除武装、以军会否撤离加沙地带,是加沙和平进程面临的两大问题,目前都无显著进展。哈马斯发言人哈齐姆·卡西姆14日发表声明说,哈马斯已准备就“用于抵抗的武器”相关议题参与巴勒斯坦内部讨论,但当务之急是启动真正的人道救援行动,以拯救加沙地带各城市。
+德比表示,迄今哈马斯仍在解除武装问题上采取观望态度。即便其政治领导层决定交出武器,能否真正落实到各个成员值得怀疑。以色列可能会以此为借口阻挠加沙地带重建。在现任以色列政府的领导下,预计以色列军队不会从加沙地带撤军。
+纳扎勒表示,哈马斯希望实现全面停火和以色列撤军。这两个问题本质上是政治性的,以色列总理内塔尼亚胡不会就此进行谈判,因为这样做会让他失去以色列右翼在即将到来的选举中的支持。</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (RSSHub Local)</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C361" s="5" t="inlineStr">
+        <is>
+          <t>美媒：美正向中东增派包括航母在内的兵力</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>美媒：美正向中东增派包括航母在内的兵力</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>新华社华盛顿1月15日电(记者黄强 徐剑梅)美国福克斯新闻网15日报道说,随着与伊朗紧张关系升级,美国正在向中东地区增派兵力,其中包括至少一艘航空母舰,同时将在该地区部署更多的导弹防御系统。
+报道援引美军方消息人士的话说,预计未来几天和数周内,美国将向中东地区增加陆海空军事力量,为美国总统特朗普“在决定对伊朗发动打击时提供军事选择”。
+报道说,尚不清楚增派的航母是目前在亚洲的“亚伯拉罕·林肯”号,还是本周早些时候驶离美国弗吉尼亚州诺福克和加利福尼亚州圣迭戈的两艘航母之一。预计航母部署到位至少需要一周时间。
+报道还说,预计更多导弹防御系统也将被部署到中东地区,以加强美国军事基地和以色列的防御能力。
+白宫新闻秘书莱维特15日在新闻发布会上表示,特朗普及其团队正在密切关注伊朗局势,“所有选项都摆在总统面前”。
+美国全国广播公司新闻台网站14日援引消息人士的话报道,特朗普向其国家安全团队表示,他希望任何对伊朗的军事行动均为“快速、决定性打击”,而不是拖延数周或数月的战争。</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (RSSHub Local)</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C362" s="5" t="inlineStr">
+        <is>
+          <t>商务部：中欧妥善解决电动汽车案具有重要积极意义</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>商务部：中欧妥善解决电动汽车案具有重要积极意义</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>新华社北京1月15日电(记者谢希瑶、戴锦镕)商务部新闻发言人何咏前15日在回答关于中国与欧盟电动汽车案的有关提问时表示,当前国际局势下,中欧本着相互尊重态度,在世贸组织规则框架下妥善解决电动汽车案,具有重要积极意义。
+在商务部当天举行的例行新闻发布会上,何咏前介绍,2026年1月12日,中欧同步宣布电动汽车案经多轮磋商达成积极成果,受到国内外各界高度关注。中欧业界对此“高度欢迎并完全赞同”,认为电动汽车案“软着陆”将显著提振市场信心,为中欧汽车贸易投资合作注入新的动力。有欧盟政治家评价,这是朝着建立可持续中欧贸易关系迈出的积极一步,表明通过伙伴关系解决贸易分歧仍具可行性。
+“当前国际局势下,中欧本着相互尊重态度,在世贸组织规则框架下妥善解决电动汽车案,具有重要积极意义。”何咏前说,这不仅有利于中欧经贸关系健康发展,有利于维护全球汽车产业链供应链稳定,更向世界释放清晰而有力的信号,中欧愿共同维护以规则为基础的国际贸易秩序,为各国通过对话协商妥善解决分歧树立良好范例,也为推动世界经济发展注入更多确定性和正能量。
+何咏前表示,中方赞赏欧方展现的对话精神,愿与欧方一道,在当前积极成果基础上,进一步落实好中欧领导人会晤共识,保持对话沟通,支持双方产供链基于市场原则继续深化合作,为全球绿色转型作出积极贡献。</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (RSSHub Local)</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C363" s="5" t="inlineStr">
+        <is>
+          <t>斯洛文尼亚总统：中国是值得信赖的合作伙伴</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>斯洛文尼亚总统：中国是值得信赖的合作伙伴</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>新华社罗马1月14日电(记者任耀庭)卢布尔雅那消息:斯洛文尼亚总统穆萨尔14日在首都卢布尔雅那表示,中国是值得信赖的合作伙伴,期待同中方加强高层往来,进一步深化务实合作,推动两国关系迈上新台阶,共同维护联合国权威,捍卫国际法,促进国际公平正义。
+穆萨尔当天接受中国新任驻斯洛文尼亚大使康艳递交国书时作出上述表示。穆萨尔欢迎康艳履新,重申斯方坚持一个中国政策。
+康艳表示,近年来,在两国元首战略引领下,双方政治互信不断增强,务实合作成果丰硕。今年是“十五五”规划开局之年,中国高质量发展和高水平对外开放将为中斯合作共赢创造更多机遇。中方愿同斯方一道努力,积极推进落实双方领导人重要共识,不断深化双多边各领域合作。
+康艳于2025年12月30日抵斯履新。</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (RSSHub Local)</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C364" s="5" t="inlineStr">
+        <is>
+          <t>新华网国际看点｜2026年的中东：冲突仍是主线 局势不容乐观</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>新华网国际看点｜2026年的中东：冲突仍是主线 局势不容乐观</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>2025年,中东地区多类冲突持续交织,安全局势动荡难以止息。巴以双方达成脆弱停火,和谈进程推进艰难;伊朗全境爆发大规模民众抗议,美以多次释放动武威胁;以色列在中东多线出击,国际形象暴跌;美国在中东一边“灭火”,一边“纵火”,政治投机意味凸显......
+《新华网国际看点》栏目邀请宁夏大学中国阿拉伯国家研究院院长牛新春和中国现代国际关系研究院中东研究所副所长秦天,盘点2025年中东地区力量格局调整,研判2026年局势走向。
+新华网:2025年中东力量格局有哪些新调整?地区安全局势有何新特点?
+宁夏大学中国阿拉伯国家研究院院长牛新春:过去一年,以色列的军事扩张主义在增强,军事影响也在扩大。伊朗和伊朗支持之下的“抵抗之弧”实力受到很大削弱。同时,沙特等海湾国家经济形势也不错。沙特跟美国、中国关系都不错,沙特的经济和外交影响力在上升。
+中东地区安全局势是喜忧参半。喜的是到去年年底,加沙的冲突、叙利亚的冲突、黎巴嫩的冲突、伊朗和以色列的冲突都暂时平静下来了。忧的是这些冲突没得到实质性解决,都是暂时停火或临时停火。
+中国现代国际关系研究院中东研究所副所长秦天:2025年,中东的安全格局或地缘格局,可以用三个“势”来概括。
+第一是美国、以色列的强势。以2025年6月“12日战争”为经典案例,美以进行了密切的战略和军事协同,对伊朗实施了为期12天的空袭和轰炸,摧毁了伊朗大量的军事能力,包括核工厂。这显示了美以目前在中东的主导地位。美以在这个问题上有密切的合作,往往是以色列冲锋在前,而美国进行善后的处理。
+这张2025年6月13日由以色列国防军发布的照片显示,以军总参谋长扎米尔(中)在以色列空军战情室监看以军对伊朗的打击。新华社发(以色列国防军供图)
+第二是伊朗的弱势,在2025年也显示得非常清晰。除了“12日战争”中吃亏以外,伊朗的地区影响力仍处于下滑的轨道。亲伊朗的比如说黎巴嫩真主党、伊拉克什叶派民兵,在它们各自国内都承受着新的压力,使得伊朗阵营整体的地区地位不断下滑。
+第三是其他的地区大国,如沙特、土耳其处于得势的过程之中。在伊朗退却的这些地方实际上美国和以色列来不及填补空白,往往是沙特、土耳其成为渔利的一方。2025年,沙特的影响力增大,土耳其在伊拉克的影响力增大,这都是非常明显的趋势。
+新华网:2025年新一轮巴以冲突在“战”与“谈”的拉锯中走过两周年节点,双方达成脆弱停火,但进一步和谈推进艰难。2026年巴以冲突将如何演变?
+牛新春:加沙未来可能会出现三种情况。
+第一种情况,以色列要求哈马斯解除武装,哈马斯要求以色列撤出加沙。如果未来在这件事情上达不成妥协,以色列有可能对加沙再一次发动大规模战争。
+第二种可能性是战争没有再爆发,协议也没有达成,这种状况就长期持续下去。以色列控制加沙53%的领土,哈马斯控制加沙47%的领土。以色列不间断地对加沙进行空中打击来削弱哈马斯的实力。
+2025年1月29日,在加沙地带杰巴利耶难民营,一名巴勒斯坦少年望向废墟。新华社发(阿卜杜勒拉赫曼·萨拉马摄)
+第三种情况,根据现在美国的要求,以色列跟哈马斯可能就哈马斯解除武装达成一定的协议。现在海湾国家的提议是哈马斯先放弃重型武器,然后再逐渐地上缴轻型武器,有可能达成一定的协议。
+三种可能性现在都存在。
+新华网:2025年以色列在中东多线出击,军事打击力度之大前所未有,国际形象跌至建国以来最低点。中东国家对以色列的看法是怎么样的?
+秦天:2025年,以色列继续以一种耀武扬威的形象展现在中东地区国家面前,自然也引起了地区国家很多担忧和警惕。
+比如说伊朗。它是以色列军事优先政策的直接受害者。伊朗现在全国上下都把以色列作为它国家安全的头号威胁。再比如土耳其。土耳其也是地区的大国,在加沙问题上,土耳其多次和以色列博弈,包括严厉批评以色列。
+土耳其在叙利亚问题上也和以色列存在激烈的地区影响力争夺。有一种说法认为,土耳其和以色列之间的争斗会成为未来中东地缘斗争的一条重要线索。
+像沙特这些主流阿拉伯国家,其实对以色列也有更大担忧。沙特对加入以色列与阿拉伯国家建交的“亚伯拉罕协议”非常犹豫。同时沙特还和巴基斯坦在2025年签署了共同防务的协定,我相信这也是针对以色列的威胁。所以未来我觉得像土耳其、伊朗、沙特这些中东地区主要大国,会在客观上形成一定的合作,共同地抑制以色列独大的趋势。
+新华网:岁末年初,伊朗全境爆发大规模民众抗议,以色列再次发出军事打击威胁,美国政府也围绕伊朗局势密集发声,多次释放“动武”威胁。美以会对伊朗动武吗?以色列和美国分别有怎样的战略意图?能否得逞?
+牛新春:美国和以色列最终目的是希望对伊朗实施政权更迭。如果有机会实施政权更迭,美国和以色列就有可能对伊朗实施军事打击。如果政权更迭的目标实现不了,美以军事打击的动力就没那么强。
+目前的情况是美国现在处于进退两难的地步,因为最近几天,伊朗国内示威游行的规模已没有那么大了,局势暂时平静下来了,但是特朗普过去10多天一直威胁要对伊朗实施军事打击。在这种情况下,如果实施军事打击,又不能实现政权更迭的目标,特朗普就站在了失败者的一边,这是特朗普绝对不愿意看到的。但是如果不实施军事打击,特朗普和美国的信誉就没有了,因为特朗普一直威胁说他一定要采取很严重的干预行为。
+所以未来一段时期,如果伊朗国内的局势进一步恶化,美以实施大规模军事打击的可能性就大。如果伊朗的国内局势逐渐平静下来了,美国实施象征性军事打击的可能性就比较大。
+当地时间2026年1月12日下午2时,伊朗首都德黑兰及多个城市举行反对骚乱的集会。新华社记者 沙达提 摄
+秦天:近期,美国、以色列对伊朗进行军事干预,或者说动武的可能性,我认为是真实存在的。首先我们要注意到,最近伊朗国内发生的抗议,实际上是给美以军事干预提供了一个强烈动力。美以看到这次抗议的规模比较大,对伊朗的政权构成了一定的挑战,它认为这是一个难得的机遇,应该借这次的抗议浪潮对伊朗政权进一步打压,来鼓舞抗议者的士气,将抗议推向升级,推向政权更迭的方向,这有利于美以打压甚至颠覆伊朗政权的核心目标。
+抛开抗议不谈,我觉得美以本来就有对伊朗动武的这种设计和打算。2025年底,内塔尼亚胡访问美国,美以双方实际上在打击伊朗的导弹能力方面达成了一定共识。可以说,美以完全有可能借这次抗议的机会,对伊朗的军事设施、导弹能力进行系统性打击。
+总体来看,我觉得在伊朗问题上,再次生战、生乱的风险是真实存在的,这将把伊朗的局势推向一个更加不确定、高度危险的未来。
+新华网:2025年以色列突袭伊朗时,美国下场悍然轰炸伊朗核设施。一边在巴以冲突中劝和促谈,一边威胁打击伊朗,如何评价美国在中东扮演的角色,其未来的中东战略是什么?
+秦天:这种看似既“灭火”又“纵火”的矛盾做法,我觉得可以概括成美国政府现在在中东推行的叫投机性干预政策。
+一方面,美国对事关中东根本、长远的一些问题,其实并没有真正全情的投入。比如说在加沙的战后长远治理问题上、在“两国方案”的问题上、在伊朗问题的妥善解决上,其实它并没有体系性的方案。但是对于一些见效快的点位,它会果断地投入,比如说在轰炸伊朗核设施问题上、在加沙停火的第一阶段问题上,美国会迅速行动,争取最大政绩。
+另一方面,这种投机性干预,我觉得美国也是见机行事的,很多时候是建立在它的盟友,尤其是以色列前期行动的基础上。就像2025年6月的“12日战争”,美国对伊朗核设施轰炸是建立在以色列已经摧毁了伊朗大部分防空能力的基础上。
+2026年,美国面临中期选举,我相信美国政府会根据中期选举的选情变化、选战的需要,来决定它干预中东的力度、时机和方式。
+新华网:2026年整个中东局势会有哪些主要矛盾,会朝什么方向演变?
+牛新春:第一个矛盾就是美国的机会主义、军事干预主义和中东地区的和平稳定之间的矛盾。在过去一年里,美国在中东地区直接打击过也门胡塞武装,打击过伊朗的核设施,对叙利亚境内的ISIS(极端组织“伊斯兰国”)进行过打击,对索马里进行过打击。短短一年之内,美国实施过多次直接的军事干预。现在美国的政策就是,只要美国不大规模卷入,能够通过短期的军事干预获取利益,美国就愿意这样做,这对地区和平稳定是一个威胁。
+第二个矛盾是以色列的军事冒险主义对地区稳定的威胁。以色列现在占领了更多加沙领土,占领了更多的约旦河的领土。以色列占领着叙利亚的领土,占领着黎巴嫩的领土,并且有可能进一步占领更多的领土,或者进一步挑起更多的战争。以色列最近一直说要对加沙再次实施打击,要对黎巴嫩真主党实施打击,要对伊朗实施打击。
+这可能是中东地区两对最主要的矛盾,也是对地区和平稳定威胁最大的事情。
+秦天:展望2026年,我觉得中东的局势仍不容乐观,恐怕动荡与冲突还是主线。在加沙方向、在伊朗方向,都有可能随时重启战火。像黎巴嫩2026年面临新的选举,伊拉克现在组阁的进程还没有结束。两个国家的选情,包括选后的组阁进程能不能顺利,还是一个比较大的问号。
+第二个我觉得,在中东的地区和国别的层面都出现了一种碎片化的危险趋势。伊朗阵营随着它整体的实力削弱,内部凝聚力和聚合力出现了松散化的趋势。阿拉伯世界的一些矛盾也在凸显,阿联酋和沙特这两个主要的阿拉伯国家之间的矛盾可以说公开化了。在具体的国别层面,比如说在叙利亚,仍然有现在的中央政府与少数族群的矛盾;在也门,整体上呈现一个更加松散碎片化的局面;在伊朗,抗议者与当局之间的裂痕也在不断扩大。
+策划:车玉明 刘加文
+统筹:袁韵 徐倩
+执行:李雪梅 刘小军
+编导:吴轶楠 杨洋 刘钟灵
+视频剪辑:张旭烨 张若晨
+视觉设计:杨霁昕
+新华网海外传播中心制作</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (RSSHub Local)</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C365" s="5" t="inlineStr">
+        <is>
+          <t>日媒称日本立宪民主党与公明党就联合组建新党达成一致</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>日媒称日本立宪民主党与公明党就联合组建新党达成一致</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>日媒称日本立宪民主党与公明党就联合组建新党达成一致</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (RSSHub Local)</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C366" s="5" t="inlineStr">
+        <is>
+          <t>联大将于4月举行秘书长候选人互动对话</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>联大将于4月举行秘书长候选人互动对话</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>1月14日,在位于纽约的联合国总部,第80届联合国大会主席贝尔伯克在记者会上回答提问。
+第80届联合国大会主席贝尔伯克1月14日致函各会员国,宣布定于4月20日那一周举行会员国与下一任联合国秘书长候选人的网络互动对话。
+去年11月,联合国启动下一任联合国秘书长遴选和任命程序。同月,阿根廷正式提名国际原子能机构总干事格罗西参选。目前,格罗西是参选联合国秘书长的唯一候选人。
+新华社发(联合国供图/埃万·施奈德摄)</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (RSSHub Local)</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C367" s="5" t="inlineStr">
+        <is>
+          <t>乌干达举行总统和议会选举投票</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>乌干达举行总统和议会选举投票</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>1月15日,在乌干达首都坎帕拉一处投票站,竞选人代表监督票箱启封。
+乌干达15日举行总统和议会选举投票。本次总统选举有包括现任总统约韦里·穆塞韦尼、反对党民族团结纲领党总统候选人罗伯特·基亚古拉尼·森塔穆等在内的八名候选人参选。
+新华社发(阿佳拉·纳瓦达摄)
+pagebreak
+1月15日,在乌干达首都坎帕拉一处投票站,工作人员查看票箱密封条。
+乌干达15日举行总统和议会选举投票。本次总统选举有包括现任总统约韦里·穆塞韦尼、反对党民族团结纲领党总统候选人罗伯特·基亚古拉尼·森塔穆等在内的八名候选人参选。
+新华社发(阿佳拉·纳瓦达摄)
+pagebreak
+1月15日,在乌干达首都坎帕拉一处投票站,人们排队等待投票。
+乌干达15日举行总统和议会选举投票。本次总统选举有包括现任总统约韦里·穆塞韦尼、反对党民族团结纲领党总统候选人罗伯特·基亚古拉尼·森塔穆等在内的八名候选人参选。
+新华社发(阿佳拉·纳瓦达摄)
+pagebreak
+1月15日,在乌干达首都坎帕拉一处投票站,人们排队等待投票。
+乌干达15日举行总统和议会选举投票。本次总统选举有包括现任总统约韦里·穆塞韦尼、反对党民族团结纲领党总统候选人罗伯特·基亚古拉尼·森塔穆等在内的八名候选人参选。
+新华社发(阿佳拉·纳瓦达摄)
+pagebreak
+1月15日,乌干达总统候选人、现任总统穆塞韦尼在乌干达基卢胡拉一处投票站参加投票。
+乌干达15日举行总统和议会选举投票。本次总统选举有包括现任总统约韦里·穆塞韦尼、反对党民族团结纲领党总统候选人罗伯特·基亚古拉尼·森塔穆等在内的八名候选人参选。
+新华社发(乌干达总统新闻办公室供图)
+pagebreak
+1月15日,乌干达总统候选人、反对党民族团结纲领党总统候选人罗伯特·基亚古拉尼·森塔穆在乌干达瓦基索区一处投票站参加投票。
+乌干达15日举行总统和议会选举投票。本次总统选举有包括现任总统约韦里·穆塞韦尼、反对党民族团结纲领党总统候选人罗伯特·基亚古拉尼·森塔穆等在内的八名候选人参选。
+新华社发(玛丽·康西梅摄)
+pagebreak
+1月15日,在乌干达瓦基索区,当地民众排队领取选票。
+乌干达15日举行总统和议会选举投票。本次总统选举有包括现任总统约韦里·穆塞韦尼、反对党民族团结纲领党总统候选人罗伯特·基亚古拉尼·森塔穆等在内的八名候选人参选。
+新华社发(玛丽·康西梅摄)
+pagebreak
+1月15日,一名女子在乌干达坎帕拉一处投票站参加投票。
+乌干达15日举行总统和议会选举投票。本次总统选举有包括现任总统约韦里·穆塞韦尼、反对党民族团结纲领党总统候选人罗伯特·基亚古拉尼·森塔穆等在内的八名候选人参选。
+新华社发(玛丽·康西梅摄)</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (RSSHub Local)</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C368" s="5" t="inlineStr">
+        <is>
+          <t>习近平会见加拿大总理卡尼</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>习近平会见加拿大总理卡尼</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>1月16日上午,国家主席习近平在北京人民大会堂会见来华进行正式访问的加拿大总理卡尼。新华社记者 谢环驰 摄
+新华社北京1月16日电(记者董雪)1月16日上午,国家主席习近平在北京人民大会堂会见来华进行正式访问的加拿大总理卡尼。
+习近平指出,去年10月,我们在韩国庆州会见,开启了中加关系转圜向好的新局面。双方就恢复和重启各领域合作深入探讨,取得积极成果。中加关系健康稳定发展符合两国共同利益,也有利于世界和平稳定和发展繁荣。双方要本着对历史、对人民、对世界负责任的态度,推进构建中加新型战略伙伴关系,推动中加关系迈入健康、稳定、可持续的发展轨道,更好造福两国人民。
+习近平就中加关系提出4点意见。一要做相互尊重的伙伴。中加建交55年来,两国关系历经风雨、跌宕起伏,留下宝贵历史经验和现实启示。中加两国虽然国情不同,但都应该尊重彼此主权和领土完整,尊重各自选择的政治制度和发展道路,坚持国与国正确相处之道。二要做共同发展的伙伴。中加经贸关系的本质是互利共赢,双方都从合作中受益。中国高质量发展、高水平开放将持续为中加合作提供新机遇、拓展新空间。双方要在促进合作上多做加法,在负面清单上多做减法,以更深入、更广泛的合作不断拉紧共同利益纽带。三要做彼此信任的伙伴。民心相通是最基础、最坚实、最持久的互联互通,双方要鼓励两国教育、文化、旅游、体育、地方等各界加强交流合作,便利人员往来,厚植民意基础。四要做相互协作的伙伴。一个分裂的世界无法应对人类面临的共同挑战,出路在于维护和践行真正的多边主义,推动构建人类命运共同体。中方愿同加方加强在联合国、二十国集团、亚太经合组织等框架内的沟通和协调,共同应对全球性挑战。
+1月16日上午,国家主席习近平在北京人民大会堂会见来华进行正式访问的加拿大总理卡尼。新华社记者 申宏 摄
+卡尼表示,加拿大同中国友好交往历史悠久,两国经济高度互补,拥有广泛共同利益,充满机遇。加方愿同中方构建强劲可持续的新型战略伙伴关系,为双方人民带来更多福祉。在习近平主席领导下,中国经济迅速发展,科技创新成就显著,为世界经济增长提供动力。加方重申奉行一个中国政策,致力于同中方相向而行,相互尊重、携手努力,在经贸、能源、农业、金融、教育、气候变化等领域拓展和加强合作。多边主义是世界安全稳定的基石,习近平主席提出全球治理倡议具有重要意义。面对变乱交织的国际形势,加方愿同中方密切多边协调,维护多边主义和联合国权威,共同维护世界和平稳定。
+会见后,双方发表《中国和加拿大领导人会晤联合声明》。
+王毅参加会见。</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (RSSHub Local)</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C369" s="5" t="inlineStr">
+        <is>
+          <t>习近平接受外国新任驻华大使递交国书</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>习近平接受外国新任驻华大使递交国书</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>1月16日上午,国家主席习近平在北京人民大会堂接受18位驻华大使递交国书。这是仪式结束后,习近平在北京厅对使节们发表讲话。新华社记者 黄敬文 摄
+新华社北京1月16日电(记者曹嘉玥)1月16日上午,国家主席习近平在北京人民大会堂接受18位驻华大使递交国书。
+人民大会堂北门外,礼兵庄严列队,迎宾号角吹响。使节们相继抵达,穿过旗阵,沿汉白玉台阶拾级而上。
+在巨幅壁画《江山如此多娇》前,习近平分别接受使节们递交国书,并同他们一一合影。
+他们是:土耳其驻华大使于纳尔、奥地利驻华大使海沃福、英国驻华大使魏磊、伊拉克驻华大使贝尔瓦利、塞浦路斯驻华大使索菲亚努、毛里求斯驻华大使萧晓山、斯洛伐克驻华大使莱齐亚克、加纳驻华大使邦苏、纳米比亚驻华大使埃姆武拉、韩国驻华大使卢载宪、乌拉圭驻华大使卡夫拉尔、瑞士驻华大使马婷、巴勒斯坦驻华大使贾瓦德、秘鲁驻华大使巴斯克斯、黎巴嫩驻华大使拉德、刚果(布)驻华大使马米纳、莱索托驻华大使林梅、缅甸驻华大使佐温敏。
+1月16日上午,国家主席习近平在北京人民大会堂接受18位驻华大使递交国书。这是仪式结束后,习近平在北京厅对使节们发表讲话。新华社记者 李响 摄
+仪式结束后,习近平在北京厅对使节们发表讲话。
+习近平欢迎使节们来华履职,请他们转达对各自国家领导人和人民的良好祝愿,希望使节们多到各地走走看看,全面深入了解真实立体的中国,为深化中国同各国友谊和合作积极贡献力量。
+习近平强调,今天的中国,正在中国式现代化新征程上勇毅前行。“十四五”规划圆满收官,经济总量连续跨越,科技创新成果丰硕,绿水青山成为亮丽底色,民生答卷温暖人心。“十五五”规划建议为未来5年中国经济社会发展擘画蓝图,也为世界提供了一份“机遇清单”。中国开放的大门将越开越大,将通过高质量发展为世界注入更多确定性和新动能,实现共同发展、美美与共。
+习近平指出,今天的世界,百年变局加速演进,国际形势变乱交织,全球性挑战更加突出。分裂对抗、零和博弈注定没有出路,让世界重回丛林法则不得人心,同球共济、团结合作才是唯一正确选择。我提出全球治理倡议,旨在推动构建更加公正合理的全球治理体系。中国将始终站在历史正确一边,以人民之心为心、以天下之利为利,同各国一道推动构建人类命运共同体。
+王毅参加上述活动。</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (RSSHub Local)</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C370" s="5" t="inlineStr">
+        <is>
+          <t>尹锡悦涉内乱首案一审被判5年</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>尹锡悦涉内乱首案一审被判5年</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>尹锡悦涉内乱首案一审被判5年</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (RSSHub Local)</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C371" s="5" t="inlineStr">
+        <is>
+          <t>美国加码对伊朗制裁与军事部署 多方就局势表态</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>美国加码对伊朗制裁与军事部署 多方就局势表态</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>2025年11月4日,在伊朗首都德黑兰举行的集会上,安全人员站在反美宣传画前。当天,伊朗多地民众举行集会,谴责美国霸权和以色列的侵略行为。新华社发
+新华社北京1月16日电 美国财政部15日宣布对伊朗实施新制裁。美媒报道称,美国正向中东地区增派航母等,引发地区局势持续紧张,伊朗、俄罗斯等就此作出回应。
+制裁加码与军事部署
+美国财政部15日更新对伊朗制裁人员和实体的名单,新增11名个人和13个实体,其中包括伊朗最高国家安全委员会秘书阿里·拉里贾尼,以及伊朗伊斯兰革命卫队在洛雷斯坦省和法尔斯省的指挥官。此次制裁背景为近期伊朗多地因物价上涨和货币贬值爆发示威活动,其间发生骚乱并造成人员伤亡,美国总统特朗普连日来多次威胁军事干涉伊朗局势。
+美国海军“林肯”号航母的资料照片。新华社/法新
+同一天,美国福克斯新闻网援引美军方消息人士报道,随着与伊朗紧张关系升级,美国正向中东地区增派兵力,包括至少一艘航空母舰,同时将在该地区部署更多导弹防御系统。新增的导弹防御系统将用于提升美国军事基地和以色列的防御能力。
+白宫新闻秘书莱维特当天在新闻发布会上表示,特朗普及其团队正密切关注伊朗局势,“所有选项都摆在总统面前”。此外,美国全国广播公司新闻台网站14日援引消息人士的话报道称,特朗普已向国家安全团队表示,希望对伊朗的军事行动是“快速且决定性的”打击,而非拖延数周或数月的战争。
+多方就伊朗局势表态发声
+针对美方行动与言论,伊朗方面作出强烈回应。伊朗外长阿拉格齐15日就伊朗骚乱致信联合国秘书长古特雷斯,谴责美国官员的煽动和威胁性言论。根据伊朗外交部声明,阿拉格齐在信中指出,近期伊朗多地骚乱是“恐怖分子”借机将民众因经济问题举行的和平抗议演变为武装骚乱,而美国前任及现任官员不负责任的挑衅言论直接煽动了境内暴力与恐怖主义活动,美方威胁使用武力的做法严重违反《联合国宪章》及国际法原则。
+阿拉格齐敦促联合国谴责骚乱期间的一切恐怖主义行为,以及任何对伊朗主权、领土完整和国家利益的外来干预,并强调正是美国对伊朗实施的制裁导致了当前局势,美方正危及伊朗民众生命安全,且“滥用”和平抗议达到政治目的。
+2026年1月12日,伊朗外长阿拉格齐(右)在首都德黑兰出席外国使节会议。新华社发(扎瓦德摄)
+国际社会方面,俄罗斯常驻联合国代表涅边贾15日在安理会伊朗局势紧急公开会上表示,俄罗斯谴责针对伊朗的一切形式的外部干涉、煽动暴力和武力威胁。
+同一天,伊朗外长阿拉格齐还与上合组织秘书长叶尔梅克巴耶夫通电话,就地区局势和国际形势交换意见。根据伊朗外交部声明,叶尔梅克巴耶夫强烈谴责近日在德黑兰及伊朗其他城市发生的“恐怖主义和破坏活动”,向伊朗政府、人民及骚乱遇难者家属表示慰问。
+叶尔梅克巴耶夫重申了上合组织成员国的共同立场,即相互尊重主权、独立、领土完整,平等互利,不干涉内政,不使用或威胁使用武力原则是国际关系稳定发展的基础。(记者:黄强、徐剑梅、尚绪谦、李军、陈霄、沙达提、付一鸣)</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (RSSHub Local)</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C372" s="5" t="inlineStr">
+        <is>
+          <t>美对伊朗动武存顾虑：难以“一击制胜”</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>美对伊朗动武存顾虑：难以“一击制胜”</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>新华社华盛顿1月15日电 据美国媒体15日披露,特朗普政府内部对军事干预伊朗存在顾虑,主要担忧动武不仅难以达到政权更迭目的,而且会招致伊朗报复。
+美国《华尔街日报》援引多名美国官员的消息报道,美国总统特朗普的顾问们告诉他,大规模军事打击不大可能在伊朗实现政权更迭,反而可能引发更大规模冲突,应观察伊朗国内局势再做决定。
+报道说,沙特阿拉伯、卡塔尔等美国的地区盟友近日游说美方不要对伊朗发动军事打击,以色列方面也向美方表达类似顾虑。
+据美国阿克西奥斯新闻网站报道,美国和以色列消息人士称,以总理内塔尼亚胡14日同特朗普通电话,请求他推迟决定对伊朗采取行动,从而给以方更多时间准备应对伊朗可能的报复。此外,以方认为,美国计划打击伊朗安全部队等目标不足以对伊朗造成实质性破坏。
+白宫发言人莱维特15日证实特朗普与内塔尼亚胡日前通电话,但没有披露通话内容和具体时间。
+美国全国广播公司14日援引消息人士的话报道,特朗普向其国家安全团队表示,他希望任何对伊朗的军事行动将是“快速、决定性打击”,而不是拖延数周或数月的战争。
+据美国福克斯新闻网15日报道,美国正在向中东地区增派兵力,其中包括至少一艘航空母舰,预计其到位至少需要一周时间,同时将在该地区部署更多导弹防御系统,从而为特朗普“在决定对伊朗发动打击时提供军事选择”。</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (RSSHub Local)</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C373" s="5" t="inlineStr">
+        <is>
+          <t>视频显示欧洲军人登上格陵兰岛 白宫回应：对美“夺岛”目标无影响</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>视频显示欧洲军人登上格陵兰岛 白宫回应：对美“夺岛”目标无影响</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>格陵兰岛周边地缘政治局势近日持续升温。最新视频画面显示,法国、挪威军人15日已登上格陵兰岛。美国白宫新闻秘书莱维特当日表示,欧洲派兵不会影响美国总统特朗普得到格陵兰岛的目标。
+法国总统马克龙15日表示,法国决定参与由丹麦在格陵兰岛发起的“北极耐力”军事演习,首批法国士兵已抵达格陵兰岛,未来几天还会有更多法国士兵前往。14日,围绕格陵兰岛,美国与丹麦举行高层会晤却未能弥合核心分歧。与此同时,丹麦宣布加强在格陵兰岛的军事存在,瑞典、德国、法国等多国也向格陵兰岛派遣军事力量或参与联合军事行动。(记者:朱昊晨、张玉亮;报道员:孔斯豪格;视频:张淼)</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (RSSHub Local)</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C374" s="5" t="inlineStr">
+        <is>
+          <t>一线观察：欧洲多国派兵格陵兰岛 难掩欧洲战略自主困境</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>一线观察：欧洲多国派兵格陵兰岛 难掩欧洲战略自主困境</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>美国总统特朗普近来多次扬言要得到格陵兰岛,并声称不排除“武力夺岛”的可能性。14日,美国与丹麦围绕格陵兰岛举行高层会晤,却未能弥合核心分歧,也未能打消美国控制格陵兰岛的野心。
+丹麦外交大臣拉斯穆森和格陵兰岛自治政府外交部长莫茨费尔特14日到访美国,并与美国副总统万斯、国务卿鲁比奥会晤。拉斯穆森在会晤后强调,丹麦和美国之间就格陵兰岛问题存在“根本性分歧”。丹麦首相弗雷泽里克森15日表示,丹麦与美国官员的会谈“并不轻松”。尽管丹麦方面已明确拒绝,但美方“接管格陵兰岛”的意图仍未改变。
+格陵兰岛位于北美洲东北方,是世界第一大岛,也是丹麦自治领地,有高度自治权,国防和外交事务由丹麦政府掌管。
+面对美国的施压,丹麦国防部14日说,鉴于地缘政治紧张局势已蔓延至北极地区,丹麦国防部和格陵兰岛自治政府决定加强丹麦武装部队在格陵兰岛的演训活动,即日起在格陵兰岛及其周边地区扩大军事存在,其中包括来自北约盟友的部队。
+多个欧洲国家已确认,受丹麦邀请将参加在格陵兰岛举行的一次“联合军事考察行动”。法国、瑞典、德国、挪威等都表示将向格陵兰岛“派兵”。不过,所派的兵力都不多,比如德国宣布派出的是一个13人侦察小组。欧洲舆论认为,“派兵增援”的实际意义有限,更多是显示对丹麦的支持以及对北极地区安全的重视。
+格陵兰岛争端指向一个欧洲无法回避的尴尬问题:欧洲是否具备保障自身安全的能力?欧洲“战略自主”的雄心与现实之间又究竟有多少落差?一些欧洲媒体表示,受困于多重因素,2026年欧洲或将继续面临“既不信任又离不开美国”的尴尬局面。(记者:张玉亮;视频:周啸天)</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (RSSHub Local)</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C375" s="5" t="inlineStr">
+        <is>
+          <t>中国海军“丝路方舟”号医院船结束访问离开巴西</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>中国海军“丝路方舟”号医院船结束访问离开巴西</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>1月15日,在巴西里约热内卢附近海域,执行“和谐使命-2025”任务的“丝路方舟”号医院船与巴西海军舰艇开展海上联合演练。新华社发(王俊川摄)
+新华社里约热内卢1月16日电(崔晓洋 唐磊)中国海军“丝路方舟”号医院船结束对巴西里约热内卢的友好访问与医学交流,于当地时间1月15日驶离。
+访问期间,执行“和谐使命-2025”任务的“丝路方舟”号医院船面向当地民众和华侨华人开放,巴西海军卫生部门代表登船参观交流。医院船派出医疗专家分队先后赴马尔西奥利·迪亚斯巴海军医院、巴西海军作战医学中心开展专业研讨,分享临床诊疗、应急救援的先进经验,还为巴西海军官兵开展战伤救援实操演示。
+1月15日,在巴西里约热内卢,执行“和谐使命-2025”任务的“丝路方舟”号医院船准备驶离巴西。这是医院船官兵分区列队。新华社发(崔晓洋摄)
+离港后,医院船与巴西海军舰艇在邻近海域开展海上联合演练,双方舰艇密切协同,组织联合搜救、编队运动、编队分航等预定课目演练。
+这是中国海军医院船首次访问巴西。</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (RSSHub Local)</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C376" s="5" t="inlineStr">
+        <is>
+          <t>泰国看守总理：感谢中方人道主义援助</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>泰国看守总理：感谢中方人道主义援助</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>新华社曼谷1月16日电(记者赵彩琳 常天童)泰国看守政府总理阿努廷15日感谢中国提供人道主义援助,表示此举彰显了中泰两国守望相助的良好传统和“中泰一家亲”的深厚情谊。
+中国驻泰国大使张建卫当天在泰国总理府向阿努廷转交中国政府人道主义援助。
+张建卫表示,中方希望能帮助泰国民众早日渡过难关,重建美好家园。中方对当前泰柬停火形势感到欣慰,期待泰柬持续落实好中柬泰三方抚仙会晤成果,加强接触,积累互信,尽早实现关系转圜。中方愿继续以亚洲方式发挥建设性作用。
+阿努廷还表示,泰方重视地区和平,愿同柬方共同维护边境局势稳定。</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (RSSHub Local)</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C377" s="5" t="inlineStr">
+        <is>
+          <t>特朗普称已组建所谓“和平委员会”监管加沙</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Geopolítica</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>No se habla de China</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>特朗普称已组建所谓“和平委员会”监管加沙</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>新华社华盛顿1月15日电 美国总统特朗普15日在社交媒体上发文说,已组建所谓“和平委员会”监管加沙,委员会成员名单将于近期公布。
+中东人士认为,该委员会由美方主导,是美国控制加沙地带的工具。
+根据美国白宫去年9月发布的关于加沙停火与战后安排的“20点计划”,“和平委员会”将监督加沙地带战后过渡治理,特朗普将担任“和平委员会”主席。去年10月在埃及举行的加沙“和平”峰会上,特朗普称一些与会领导人有意加入“和平委员会”。</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C378" s="5" t="inlineStr">
+        <is>
+          <t>沪宁合高铁201.5米转体梁成功转体跨越京沪高铁</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Territorio geografía y medio ambiente</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>沪宁合高铁201.5米转体梁成功转体跨越京沪高铁</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>1月16日,行驶在京沪高铁线上的列车穿过沪宁合高铁跨京沪高铁立交特大桥201.5米预应力混凝土T构转体梁(无人机照片)。
+1月16日凌晨,沪宁合高铁跨京沪高铁立交特大桥201.5米预应力混凝土T构转体梁成功完成26.3度“空中转体”,跨越京沪高铁。该梁总重17000吨,此次成功转体标志着全线控制性节点取得重大进展,为后续全线桥梁贯通和铺轨奠定了坚实基础。
+新建上海至南京至合肥高速铁路是国家中长期铁路网规划“八纵八横”中沿江通道的重要组成部分,是江北沿江城市与南京都市圈、上海都市圈快速直达的便捷通道。
+新华社记者 杜宇 摄pagebreak
+1月16日凌晨,沪宁合高铁跨京沪高铁立交特大桥201.5米预应力混凝土T构转体梁在转体施工中(无人机照片)。
+1月16日凌晨,沪宁合高铁跨京沪高铁立交特大桥201.5米预应力混凝土T构转体梁成功完成26.3度“空中转体”,跨越京沪高铁。该梁总重17000吨,此次成功转体标志着全线控制性节点取得重大进展,为后续全线桥梁贯通和铺轨奠定了坚实基础。
+新建上海至南京至合肥高速铁路是国家中长期铁路网规划“八纵八横”中沿江通道的重要组成部分,是江北沿江城市与南京都市圈、上海都市圈快速直达的便捷通道。
+新华社记者 杜宇 摄pagebreak
+1月16日,行驶在京沪高铁线上的列车穿过沪宁合高铁跨京沪高铁立交特大桥201.5米预应力混凝土T构转体梁(无人机照片)。
+1月16日凌晨,沪宁合高铁跨京沪高铁立交特大桥201.5米预应力混凝土T构转体梁成功完成26.3度“空中转体”,跨越京沪高铁。该梁总重17000吨,此次成功转体标志着全线控制性节点取得重大进展,为后续全线桥梁贯通和铺轨奠定了坚实基础。
+新建上海至南京至合肥高速铁路是国家中长期铁路网规划“八纵八横”中沿江通道的重要组成部分,是江北沿江城市与南京都市圈、上海都市圈快速直达的便捷通道。
+新华社记者 杜宇 摄pagebreak
+1月16日凌晨,沪宁合高铁跨京沪高铁立交特大桥201.5米预应力混凝土T构转体梁在转体施工中(无人机照片)。
+1月16日凌晨,沪宁合高铁跨京沪高铁立交特大桥201.5米预应力混凝土T构转体梁成功完成26.3度“空中转体”,跨越京沪高铁。该梁总重17000吨,此次成功转体标志着全线控制性节点取得重大进展,为后续全线桥梁贯通和铺轨奠定了坚实基础。
+新建上海至南京至合肥高速铁路是国家中长期铁路网规划“八纵八横”中沿江通道的重要组成部分,是江北沿江城市与南京都市圈、上海都市圈快速直达的便捷通道。
+新华社记者 杜宇 摄pagebreak
+1月16日凌晨,沪宁合高铁跨京沪高铁立交特大桥201.5米预应力混凝土T构转体梁转体完成(无人机照片)。
+1月16日凌晨,沪宁合高铁跨京沪高铁立交特大桥201.5米预应力混凝土T构转体梁成功完成26.3度“空中转体”,跨越京沪高铁。该梁总重17000吨,此次成功转体标志着全线控制性节点取得重大进展,为后续全线桥梁贯通和铺轨奠定了坚实基础。
+新建上海至南京至合肥高速铁路是国家中长期铁路网规划“八纵八横”中沿江通道的重要组成部分,是江北沿江城市与南京都市圈、上海都市圈快速直达的便捷通道。
+新华社记者 杜宇 摄pagebreak
+1月16日,行驶在京沪高铁线上的列车穿过沪宁合高铁跨京沪高铁立交特大桥201.5米预应力混凝土T构转体梁(无人机照片)。
+1月16日凌晨,沪宁合高铁跨京沪高铁立交特大桥201.5米预应力混凝土T构转体梁成功完成26.3度“空中转体”,跨越京沪高铁。该梁总重17000吨,此次成功转体标志着全线控制性节点取得重大进展,为后续全线桥梁贯通和铺轨奠定了坚实基础。
+新建上海至南京至合肥高速铁路是国家中长期铁路网规划“八纵八横”中沿江通道的重要组成部分,是江北沿江城市与南京都市圈、上海都市圈快速直达的便捷通道。
+新华社记者 杜宇 摄</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C379" s="5" t="inlineStr">
+        <is>
+          <t>内蒙古根河：壮美的“中国冷极”</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Territorio geografía y medio ambiente</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>内蒙古根河：壮美的“中国冷极”</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>这是1月15日在根河市拍摄的根河源国家湿地公园景色(无人机照片)。
+根河市位于内蒙古自治区东北部、大兴安岭西麓,有“中国冷极”之称,其冬季漫长而严寒,极端气温可达零下50摄氏度以下。当地拥有大兴安岭原始森林和鄂温克族敖鲁古雅使鹿部落等独特的自然与人文资源。冬日里,城市、森林、河流银装素裹,一派壮丽的北国风光。
+新华社记者 马金瑞 摄pagebreak
+1月15日,游客在根河市敖鲁古雅鄂温克民族乡喂驯鹿。
+根河市位于内蒙古自治区东北部、大兴安岭西麓,有“中国冷极”之称,其冬季漫长而严寒,极端气温可达零下50摄氏度以下。当地拥有大兴安岭原始森林和鄂温克族敖鲁古雅使鹿部落等独特的自然与人文资源。冬日里,城市、森林、河流银装素裹,一派壮丽的北国风光。
+新华社记者 连振 摄pagebreak
+1月15日,一名小游客在根河市敖鲁古雅鄂温克民族乡游玩。
+根河市位于内蒙古自治区东北部、大兴安岭西麓,有“中国冷极”之称,其冬季漫长而严寒,极端气温可达零下50摄氏度以下。当地拥有大兴安岭原始森林和鄂温克族敖鲁古雅使鹿部落等独特的自然与人文资源。冬日里,城市、森林、河流银装素裹,一派壮丽的北国风光。
+新华社记者 连振 摄pagebreak
+1月15日,游客在根河市敖鲁古雅鄂温克民族乡敖鲁古雅使鹿部落景区与驯鹿互动。
+根河市位于内蒙古自治区东北部、大兴安岭西麓,有“中国冷极”之称,其冬季漫长而严寒,极端气温可达零下50摄氏度以下。当地拥有大兴安岭原始森林和鄂温克族敖鲁古雅使鹿部落等独特的自然与人文资源。冬日里,城市、森林、河流银装素裹,一派壮丽的北国风光。
+新华社记者 徐嘉懿 摄pagebreak
+这是1月15日在根河市敖鲁古雅鄂温克民族乡敖鲁古雅使鹿部落景区拍摄的驯鹿。
+根河市位于内蒙古自治区东北部、大兴安岭西麓,有“中国冷极”之称,其冬季漫长而严寒,极端气温可达零下50摄氏度以下。当地拥有大兴安岭原始森林和鄂温克族敖鲁古雅使鹿部落等独特的自然与人文资源。冬日里,城市、森林、河流银装素裹,一派壮丽的北国风光。
+新华社记者 徐嘉懿 摄pagebreak
+这是1月15日在根河市敖鲁古雅鄂温克民族乡拍摄的鄂温克族传统民居撮罗子(无人机照片)。
+根河市位于内蒙古自治区东北部、大兴安岭西麓,有“中国冷极”之称,其冬季漫长而严寒,极端气温可达零下50摄氏度以下。当地拥有大兴安岭原始森林和鄂温克族敖鲁古雅使鹿部落等独特的自然与人文资源。冬日里,城市、森林、河流银装素裹,一派壮丽的北国风光。
+新华社记者 马金瑞 摄pagebreak
+这是1月15日在根河市敖鲁古雅鄂温克民族乡拍摄的鄂温克族传统民居撮罗子(无人机照片)。
+根河市位于内蒙古自治区东北部、大兴安岭西麓,有“中国冷极”之称,其冬季漫长而严寒,极端气温可达零下50摄氏度以下。当地拥有大兴安岭原始森林和鄂温克族敖鲁古雅使鹿部落等独特的自然与人文资源。冬日里,城市、森林、河流银装素裹,一派壮丽的北国风光。
+新华社记者 马金瑞 摄pagebreak
+这是1月14日拍摄的根河市城区景色(无人机照片)。
+根河市位于内蒙古自治区东北部、大兴安岭西麓,有“中国冷极”之称,其冬季漫长而严寒,极端气温可达零下50摄氏度以下。当地拥有大兴安岭原始森林和鄂温克族敖鲁古雅使鹿部落等独特的自然与人文资源。冬日里,城市、森林、河流银装素裹,一派壮丽的北国风光。
+新华社记者 连振 摄pagebreak
+这是1月14日拍摄的根河市城区景色(无人机照片)。
+根河市位于内蒙古自治区东北部、大兴安岭西麓,有“中国冷极”之称,其冬季漫长而严寒,极端气温可达零下50摄氏度以下。当地拥有大兴安岭原始森林和鄂温克族敖鲁古雅使鹿部落等独特的自然与人文资源。冬日里,城市、森林、河流银装素裹,一派壮丽的北国风光。
+新华社记者 马金瑞 摄pagebreak
+这是1月14日拍摄的根河市城郊的森林(无人机照片)。
+根河市位于内蒙古自治区东北部、大兴安岭西麓,有“中国冷极”之称,其冬季漫长而严寒,极端气温可达零下50摄氏度以下。当地拥有大兴安岭原始森林和鄂温克族敖鲁古雅使鹿部落等独特的自然与人文资源。冬日里,城市、森林、河流银装素裹,一派壮丽的北国风光。
+新华社记者 连振 摄pagebreak
+这是1月15日在根河市拍摄的根河源国家湿地公园景色(无人机照片)。
+根河市位于内蒙古自治区东北部、大兴安岭西麓,有“中国冷极”之称,其冬季漫长而严寒,极端气温可达零下50摄氏度以下。当地拥有大兴安岭原始森林和鄂温克族敖鲁古雅使鹿部落等独特的自然与人文资源。冬日里,城市、森林、河流银装素裹,一派壮丽的北国风光。
+新华社记者 连振 摄pagebreak
+这是1月15日在根河市拍摄的根河源国家湿地公园景色(无人机照片)。
+根河市位于内蒙古自治区东北部、大兴安岭西麓,有“中国冷极”之称,其冬季漫长而严寒,极端气温可达零下50摄氏度以下。当地拥有大兴安岭原始森林和鄂温克族敖鲁古雅使鹿部落等独特的自然与人文资源。冬日里,城市、森林、河流银装素裹,一派壮丽的北国风光。
+新华社记者 连振 摄pagebreak
+这是1月15日在根河市拍摄的冰封的根河(无人机照片)。
+根河市位于内蒙古自治区东北部、大兴安岭西麓,有“中国冷极”之称,其冬季漫长而严寒,极端气温可达零下50摄氏度以下。当地拥有大兴安岭原始森林和鄂温克族敖鲁古雅使鹿部落等独特的自然与人文资源。冬日里,城市、森林、河流银装素裹,一派壮丽的北国风光。
+新华社记者 马金瑞 摄</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C380" s="5" t="inlineStr">
+        <is>
+          <t>新华社消息丨新能源汽车废旧动力电池回收利用将开启全生命周期监管</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Economia</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>新华社消息丨新能源汽车废旧动力电池回收利用将开启全生命周期监管</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>新华社消息丨新能源汽车废旧动力电池回收利用将开启全生命周期监管</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Xinhua 新华网 (Static Feeds)</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C381" s="5" t="inlineStr">
+        <is>
+          <t>市场监管领域违法所得认定新规出台</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Política interior China</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>2026-01-15T17:00:00+01:00</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>市场监管领域违法所得认定新规出台</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>新华社北京1月16日电(记者赵文君)记者16日从市场监管总局获悉,《市场监督管理行政处罚案件违法所得认定办法》近日出台,自2026年3月20日起施行。办法对市场监管领域行政处罚案件违法所得的认定作出统一规定,有利于精准落实过罚相当原则,营造法治化营商环境。
+据介绍,办法确立了认定违法所得时扣除合法必要支出及直接相关税款的原则,既体现了“禁止不法获益”的原则,即“任何人不得从其不法行为中获得利益”,使当事人恢复至违法前的利益状态;又符合过罚相当原则,避免对主观过错较轻、社会危害程度较小的当事人没收全部相关款项。对于食品药品等相关领域严重危害人民群众身体健康和生命安全的违法行为的惩戒,可通过法律法规规定的高额罚款、吊销许可证件、从业禁止等处罚种类来实现。</t>
         </is>
       </c>
     </row>
@@ -14314,10 +21440,142 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C247" r:id="rId246"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C248" r:id="rId247"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C249" r:id="rId248"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C250" r:id="rId249"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C251" r:id="rId250"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C252" r:id="rId251"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C253" r:id="rId252"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C254" r:id="rId253"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C255" r:id="rId254"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C256" r:id="rId255"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C257" r:id="rId256"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C258" r:id="rId257"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C259" r:id="rId258"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C260" r:id="rId259"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C261" r:id="rId260"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C262" r:id="rId261"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C263" r:id="rId262"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C264" r:id="rId263"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C265" r:id="rId264"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C266" r:id="rId265"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C267" r:id="rId266"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C268" r:id="rId267"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C269" r:id="rId268"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C270" r:id="rId269"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C271" r:id="rId270"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C272" r:id="rId271"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C273" r:id="rId272"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C274" r:id="rId273"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C275" r:id="rId274"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C276" r:id="rId275"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C277" r:id="rId276"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C278" r:id="rId277"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C279" r:id="rId278"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C280" r:id="rId279"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C281" r:id="rId280"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C282" r:id="rId281"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C283" r:id="rId282"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C284" r:id="rId283"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C285" r:id="rId284"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C286" r:id="rId285"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C287" r:id="rId286"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C288" r:id="rId287"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C289" r:id="rId288"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C290" r:id="rId289"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C291" r:id="rId290"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C292" r:id="rId291"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C293" r:id="rId292"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C294" r:id="rId293"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C295" r:id="rId294"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C296" r:id="rId295"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C297" r:id="rId296"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C298" r:id="rId297"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C299" r:id="rId298"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C300" r:id="rId299"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C301" r:id="rId300"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C302" r:id="rId301"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C303" r:id="rId302"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C304" r:id="rId303"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C305" r:id="rId304"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C306" r:id="rId305"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C307" r:id="rId306"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C308" r:id="rId307"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C309" r:id="rId308"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C310" r:id="rId309"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C311" r:id="rId310"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C312" r:id="rId311"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C313" r:id="rId312"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C314" r:id="rId313"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C315" r:id="rId314"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C316" r:id="rId315"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C317" r:id="rId316"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C318" r:id="rId317"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C319" r:id="rId318"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C320" r:id="rId319"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C321" r:id="rId320"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C322" r:id="rId321"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C323" r:id="rId322"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C324" r:id="rId323"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C325" r:id="rId324"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C326" r:id="rId325"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C327" r:id="rId326"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C328" r:id="rId327"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C329" r:id="rId328"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C330" r:id="rId329"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C331" r:id="rId330"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C332" r:id="rId331"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C333" r:id="rId332"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C334" r:id="rId333"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C335" r:id="rId334"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C336" r:id="rId335"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C337" r:id="rId336"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C338" r:id="rId337"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C339" r:id="rId338"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C340" r:id="rId339"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C341" r:id="rId340"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C342" r:id="rId341"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C343" r:id="rId342"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C344" r:id="rId343"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C345" r:id="rId344"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C346" r:id="rId345"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C347" r:id="rId346"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C348" r:id="rId347"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C349" r:id="rId348"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C350" r:id="rId349"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C351" r:id="rId350"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C352" r:id="rId351"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C353" r:id="rId352"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C354" r:id="rId353"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C355" r:id="rId354"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C356" r:id="rId355"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C357" r:id="rId356"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C358" r:id="rId357"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C359" r:id="rId358"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C360" r:id="rId359"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C361" r:id="rId360"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C362" r:id="rId361"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C363" r:id="rId362"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C364" r:id="rId363"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C365" r:id="rId364"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C366" r:id="rId365"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C367" r:id="rId366"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C368" r:id="rId367"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C369" r:id="rId368"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C370" r:id="rId369"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C371" r:id="rId370"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C372" r:id="rId371"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C373" r:id="rId372"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C374" r:id="rId373"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C375" r:id="rId374"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C376" r:id="rId375"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C377" r:id="rId376"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C378" r:id="rId377"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C379" r:id="rId378"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C380" r:id="rId379"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C381" r:id="rId380"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId249"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId381"/>
   </tableParts>
 </worksheet>
 </file>
@@ -14355,7 +21613,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15-01-2026 16:27:13</t>
+          <t>17-01-2026 14:22:17</t>
         </is>
       </c>
     </row>
